--- a/Corpus/MLR_Corpus.xlsx
+++ b/Corpus/MLR_Corpus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workouts\Projects\Acadia\Masori-Chatbot-Dev-main\Masori-Chatbot-Dev-main\Corpus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5607354-82ED-4450-8A52-32C07E32FB3E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C1BB7DE5-0AE7-4C00-8E6C-A339F2022A82}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,9 @@
     <author>tc={2B46EE82-DD41-45F9-B431-51F301EDCADE}</author>
     <author>tc={190DBEEA-93D9-4BFD-AD5C-1FA3C401F8CC}</author>
     <author>tc={6174D911-122C-4454-8324-AF7C643C4042}</author>
+    <author>tc={C6BC059E-DDFE-4472-8AF3-B08E62FA3401}</author>
     <author>tc={C6BC059E-DDFE-4471-8AF3-B08E62FA3401}</author>
+    <author>tc={C6BC059E-DDFE-4473-8AF3-B08E62FA3401}</author>
   </authors>
   <commentList>
     <comment ref="A2" authorId="0" shapeId="0" xr:uid="{B4468C53-9464-4F63-81D1-C992873261B1}">
@@ -63,7 +65,7 @@
     I know more info is in the response and further down in the H&amp;D section but I think before people ask the second question, they may want to know what hallucinations and delusions are first as most people cannot define them</t>
       </text>
     </comment>
-    <comment ref="E2" authorId="2" shapeId="0" xr:uid="{BB84B340-AF06-4E0C-AE4F-B69F85FAF690}">
+    <comment ref="F2" authorId="2" shapeId="0" xr:uid="{BB84B340-AF06-4E0C-AE4F-B69F85FAF690}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -71,7 +73,7 @@
     Provide link to information on site in response</t>
       </text>
     </comment>
-    <comment ref="E3" authorId="3" shapeId="0" xr:uid="{C3DFF50C-EF22-47C6-868C-F20870D79A79}">
+    <comment ref="F3" authorId="3" shapeId="0" xr:uid="{C3DFF50C-EF22-47C6-868C-F20870D79A79}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -79,7 +81,7 @@
     Provide link to information on site in response</t>
       </text>
     </comment>
-    <comment ref="E4" authorId="4" shapeId="0" xr:uid="{2B46EE82-DD41-45F9-B431-51F301EDCADE}">
+    <comment ref="F4" authorId="4" shapeId="0" xr:uid="{2B46EE82-DD41-45F9-B431-51F301EDCADE}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -103,7 +105,23 @@
     Where can I learn more? Something like that. We need to have something tied to email registrations.</t>
       </text>
     </comment>
-    <comment ref="D25" authorId="7" shapeId="0" xr:uid="{C6BC059E-DDFE-4471-8AF3-B08E62FA3401}">
+    <comment ref="E24" authorId="7" shapeId="0" xr:uid="{8DCCC86B-108E-479F-89D2-C0B155530DB5}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    I recommend to have "Acadia Connect and delete any mention of Nuplazid Connect.</t>
+      </text>
+    </comment>
+    <comment ref="D25" authorId="8" shapeId="0" xr:uid="{C6BC059E-DDFE-4471-8AF3-B08E62FA3401}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    I recommend to have "Acadia Connect and delete any mention of Nuplazid Connect.</t>
+      </text>
+    </comment>
+    <comment ref="E27" authorId="9" shapeId="0" xr:uid="{F1CC71EF-D4D1-4682-A55F-07A27659090D}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -149,7 +167,7 @@
     I would delete that KOL question as we don't have any information on the site</t>
       </text>
     </comment>
-    <comment ref="E9" authorId="2" shapeId="0" xr:uid="{E98F849F-AA15-47D7-8E3E-AF2E28183101}">
+    <comment ref="F9" authorId="2" shapeId="0" xr:uid="{E98F849F-AA15-47D7-8E3E-AF2E28183101}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -223,7 +241,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="342">
   <si>
     <t>Keywords</t>
   </si>
@@ -965,6 +983,9 @@
   </si>
   <si>
     <t>About MOA</t>
+  </si>
+  <si>
+    <t>The mechanism of action (MOA) in the treatment of hallucinations and delusions associated with Parkinson's disease psychosis is unclear. Please watch this video to know more about proposed MOA of Nuplazid. https://player.vimeo.com/video/350995106</t>
   </si>
   <si>
     <t>How it differ</t>
@@ -1452,65 +1473,7 @@
     <t>Any videos will explain about symptoms,  Any personal stories</t>
   </si>
   <si>
-    <t>Bullets</t>
-  </si>
-  <si>
-    <t>Video URL</t>
-  </si>
-  <si>
-    <t>Hyperlink Text</t>
-  </si>
-  <si>
-    <t>Hyperlink URL</t>
-  </si>
-  <si>
-    <t>Image URL</t>
-  </si>
-  <si>
-    <t>More</t>
-  </si>
-  <si>
-    <t>Distribution Fact Sheet and Disease Education Fact Sheet</t>
-  </si>
-  <si>
-    <t>https://www.nuplazidhcp.com/pdf/nuplazid-distribution-fact-sheet.pdf
-https://www.nuplazidhcp.com/pdf/pd-related-hallucinations-delusions-fact-sheet.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The mechanism of action (MOA) in the treatment of hallucinations and delusions associated with Parkinson's disease psychosis is unclear. Please watch this video to know more about proposed MOA of Nuplazid. </t>
-  </si>
-  <si>
-    <t>Download Factsheets</t>
-  </si>
-  <si>
-    <t>https://www.nuplazidhcp.com/acadia-connect</t>
-  </si>
-  <si>
-    <t>NUPLAZID is contraindicated in patients with a history of a hypersensitivity reaction to pimavanser0in or any of its components. Rash, urticaria, and reactions consistent with angioedema (e.g., tongue swelling, circumoral edema, throat tightness, and dyspnea) have been reported.</t>
-  </si>
-  <si>
-    <t>100% of Medicare Part D plans cover NUPLAZID
-80% of patients pay less than $10 for their NUPLAZID prescription
-$0 co-pay for qualifying commercially covered patients</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Order Samples </t>
-  </si>
-  <si>
-    <t>Click here to order samples</t>
-  </si>
-  <si>
-    <t>https://acadia.hcpordering.com/</t>
-  </si>
-  <si>
-    <t>https://www.acadiaconnect.com/healthcare-providers/cost</t>
-  </si>
-  <si>
-    <t>Download PDFs</t>
-  </si>
-  <si>
-    <t>https://www.nuplazidhcp.com/pdf/letter-of-appeal.pdf
-https://www.nuplazidhcp.com/pdf/letter-of-medical-necessity.pdf</t>
+    <t>Recommend Intent</t>
   </si>
 </sst>
 </file>
@@ -1549,7 +1512,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1559,12 +1522,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF0070C0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1600,7 +1557,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1748,14 +1705,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
@@ -1770,6 +1720,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1779,19 +1739,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2095,13 +2048,13 @@
   <threadedComment ref="C2" dT="2021-02-02T18:20:38.75" personId="{1295C466-BD7C-441E-8FE1-FBB710452072}" id="{44931C6B-2351-47CE-AEF8-ED6B0BCA2ACB}" parentId="{DD2E8F32-48A3-491E-956A-AC81F7E38ADB}">
     <text>I know more info is in the response and further down in the H&amp;D section but I think before people ask the second question, they may want to know what hallucinations and delusions are first as most people cannot define them</text>
   </threadedComment>
-  <threadedComment ref="E2" dT="2021-02-03T17:17:22.96" personId="{6851B53B-E571-4C8C-A62D-03D0D1B89898}" id="{BB84B340-AF06-4E0C-AE4F-B69F85FAF690}">
+  <threadedComment ref="F2" dT="2021-02-03T17:17:22.96" personId="{6851B53B-E571-4C8C-A62D-03D0D1B89898}" id="{BB84B340-AF06-4E0C-AE4F-B69F85FAF690}">
     <text>Provide link to information on site in response</text>
   </threadedComment>
-  <threadedComment ref="E3" dT="2021-02-03T17:17:47.18" personId="{6851B53B-E571-4C8C-A62D-03D0D1B89898}" id="{C3DFF50C-EF22-47C6-868C-F20870D79A79}">
+  <threadedComment ref="F3" dT="2021-02-03T17:17:47.18" personId="{6851B53B-E571-4C8C-A62D-03D0D1B89898}" id="{C3DFF50C-EF22-47C6-868C-F20870D79A79}">
     <text>Provide link to information on site in response</text>
   </threadedComment>
-  <threadedComment ref="E4" dT="2021-02-03T17:17:55.69" personId="{6851B53B-E571-4C8C-A62D-03D0D1B89898}" id="{2B46EE82-DD41-45F9-B431-51F301EDCADE}">
+  <threadedComment ref="F4" dT="2021-02-03T17:17:55.69" personId="{6851B53B-E571-4C8C-A62D-03D0D1B89898}" id="{2B46EE82-DD41-45F9-B431-51F301EDCADE}">
     <text>Provide link to information on site in response</text>
   </threadedComment>
   <threadedComment ref="B5" dT="2021-02-02T17:57:21.62" personId="{1295C466-BD7C-441E-8FE1-FBB710452072}" id="{190DBEEA-93D9-4BFD-AD5C-1FA3C401F8CC}">
@@ -2110,7 +2063,13 @@
   <threadedComment ref="C15" dT="2021-02-02T19:13:01.58" personId="{1295C466-BD7C-441E-8FE1-FBB710452072}" id="{6174D911-122C-4454-8324-AF7C643C4042}">
     <text>Where can I learn more? Something like that. We need to have something tied to email registrations.</text>
   </threadedComment>
+  <threadedComment ref="E24" dT="2021-02-03T17:15:04.39" personId="{6851B53B-E571-4C8C-A62D-03D0D1B89898}" id="{C6BC059E-DDFE-4472-8AF3-B08E62FA3401}">
+    <text>I recommend to have "Acadia Connect and delete any mention of Nuplazid Connect.</text>
+  </threadedComment>
   <threadedComment ref="D25" dT="2021-02-03T17:15:04.39" personId="{6851B53B-E571-4C8C-A62D-03D0D1B89898}" id="{C6BC059E-DDFE-4471-8AF3-B08E62FA3401}">
+    <text>I recommend to have "Acadia Connect and delete any mention of Nuplazid Connect.</text>
+  </threadedComment>
+  <threadedComment ref="E27" dT="2021-02-03T17:15:04.39" personId="{6851B53B-E571-4C8C-A62D-03D0D1B89898}" id="{C6BC059E-DDFE-4473-8AF3-B08E62FA3401}">
     <text>I recommend to have "Acadia Connect and delete any mention of Nuplazid Connect.</text>
   </threadedComment>
 </ThreadedComments>
@@ -2128,7 +2087,7 @@
   <threadedComment ref="C9" dT="2021-02-03T17:19:29.63" personId="{6851B53B-E571-4C8C-A62D-03D0D1B89898}" id="{989E42BC-C941-4FE8-B6E1-2512DC4F9ACF}" parentId="{99EA3807-EB10-4FD7-896A-99B320C5B2E2}">
     <text>I would delete that KOL question as we don't have any information on the site</text>
   </threadedComment>
-  <threadedComment ref="E9" dT="2021-02-02T19:19:52.98" personId="{1295C466-BD7C-441E-8FE1-FBB710452072}" id="{E98F849F-AA15-47D7-8E3E-AF2E28183101}">
+  <threadedComment ref="F9" dT="2021-02-02T19:19:52.98" personId="{1295C466-BD7C-441E-8FE1-FBB710452072}" id="{E98F849F-AA15-47D7-8E3E-AF2E28183101}">
     <text>Instead of just "only" please revise to "first and only" we say this on the HCP side of things but not on the consumer side.</text>
   </threadedComment>
   <threadedComment ref="B16" dT="2021-02-02T19:26:21.52" personId="{1295C466-BD7C-441E-8FE1-FBB710452072}" id="{B3A64F05-BDA5-47FC-9B9A-CF3ECAC976B8}">
@@ -2162,11 +2121,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K47"/>
+  <dimension ref="A1:G47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A30" sqref="A30:A36"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2175,857 +2134,718 @@
     <col min="2" max="2" width="27.140625" style="44" customWidth="1"/>
     <col min="3" max="3" width="47.140625" style="44" customWidth="1"/>
     <col min="4" max="4" width="41.85546875" style="58" customWidth="1"/>
-    <col min="5" max="5" width="83.7109375" customWidth="1"/>
-    <col min="6" max="10" width="37.28515625" style="44" customWidth="1"/>
-    <col min="11" max="11" width="74" customWidth="1"/>
+    <col min="5" max="5" width="41.85546875" style="66" customWidth="1"/>
+    <col min="6" max="6" width="83.7109375" customWidth="1"/>
+    <col min="7" max="7" width="74" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="51" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="45" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C1" s="45" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D1" s="51" t="s">
         <v>204</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="51" t="s">
+        <v>341</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="45" t="s">
-        <v>340</v>
-      </c>
-      <c r="G1" s="45" t="s">
-        <v>341</v>
-      </c>
-      <c r="H1" s="45" t="s">
-        <v>342</v>
-      </c>
-      <c r="I1" s="45" t="s">
-        <v>343</v>
-      </c>
-      <c r="J1" s="45" t="s">
-        <v>344</v>
-      </c>
-      <c r="K1" s="2" t="s">
+      <c r="G1" s="2" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="31" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A2" s="73" t="s">
+        <v>254</v>
+      </c>
+      <c r="B2" s="73" t="s">
+        <v>261</v>
+      </c>
+      <c r="C2" s="73" t="s">
         <v>313</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" s="31" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A2" s="69" t="s">
-        <v>253</v>
-      </c>
-      <c r="B2" s="69" t="s">
-        <v>260</v>
-      </c>
-      <c r="C2" s="69" t="s">
-        <v>312</v>
       </c>
       <c r="D2" s="58" t="s">
         <v>174</v>
       </c>
-      <c r="E2" s="30" t="s">
+      <c r="E2" s="66" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="30" t="s">
         <v>205</v>
       </c>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="66"/>
-      <c r="K2" s="74" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" s="31" customFormat="1" ht="120" x14ac:dyDescent="0.25">
-      <c r="A3" s="70"/>
-      <c r="B3" s="67"/>
-      <c r="C3" s="70"/>
+      <c r="G2" s="71" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="31" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+      <c r="A3" s="74"/>
+      <c r="B3" s="72"/>
+      <c r="C3" s="74"/>
       <c r="D3" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="32" t="s">
-        <v>248</v>
-      </c>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="66"/>
-      <c r="K3" s="72"/>
-    </row>
-    <row r="4" spans="1:11" s="31" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" s="70"/>
-      <c r="B4" s="67"/>
-      <c r="C4" s="70"/>
+      <c r="E3" s="66" t="s">
+        <v>329</v>
+      </c>
+      <c r="F3" s="32" t="s">
+        <v>249</v>
+      </c>
+      <c r="G3" s="69"/>
+    </row>
+    <row r="4" spans="1:7" s="31" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="74"/>
+      <c r="B4" s="72"/>
+      <c r="C4" s="74"/>
       <c r="D4" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="32" t="s">
+      <c r="E4" s="66" t="s">
+        <v>174</v>
+      </c>
+      <c r="F4" s="32" t="s">
         <v>206</v>
       </c>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66"/>
-      <c r="K4" s="72"/>
-    </row>
-    <row r="5" spans="1:11" ht="105" x14ac:dyDescent="0.25">
-      <c r="A5" s="68" t="s">
+      <c r="G4" s="69"/>
+    </row>
+    <row r="5" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="A5" s="75" t="s">
         <v>172</v>
       </c>
-      <c r="B5" s="67" t="s">
-        <v>322</v>
-      </c>
-      <c r="C5" s="67" t="s">
-        <v>261</v>
+      <c r="B5" s="72" t="s">
+        <v>323</v>
+      </c>
+      <c r="C5" s="72" t="s">
+        <v>262</v>
       </c>
       <c r="D5" s="58" t="s">
         <v>173</v>
       </c>
-      <c r="E5" s="32" t="s">
+      <c r="E5" s="66" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="32" t="s">
         <v>207</v>
       </c>
-      <c r="F5" s="66"/>
-      <c r="G5" s="66"/>
-      <c r="H5" s="66"/>
-      <c r="I5" s="66"/>
-      <c r="J5" s="66"/>
-      <c r="K5" s="71" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="120" x14ac:dyDescent="0.25">
-      <c r="A6" s="68"/>
-      <c r="B6" s="68"/>
-      <c r="C6" s="68"/>
+      <c r="G5" s="68" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="A6" s="75"/>
+      <c r="B6" s="75"/>
+      <c r="C6" s="75"/>
       <c r="D6" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="33" t="s">
+      <c r="E6" s="43" t="s">
+        <v>259</v>
+      </c>
+      <c r="F6" s="33" t="s">
         <v>208</v>
       </c>
-      <c r="F6" s="66"/>
-      <c r="G6" s="66"/>
-      <c r="H6" s="66"/>
-      <c r="I6" s="66"/>
-      <c r="J6" s="66"/>
-      <c r="K6" s="72"/>
-    </row>
-    <row r="7" spans="1:11" s="44" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A7" s="67" t="s">
-        <v>326</v>
-      </c>
-      <c r="B7" s="67" t="s">
+      <c r="G6" s="69"/>
+    </row>
+    <row r="7" spans="1:7" s="44" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A7" s="72" t="s">
         <v>327</v>
       </c>
-      <c r="C7" s="67" t="s">
+      <c r="B7" s="72" t="s">
+        <v>328</v>
+      </c>
+      <c r="C7" s="72" t="s">
+        <v>333</v>
+      </c>
+      <c r="D7" s="62" t="s">
+        <v>329</v>
+      </c>
+      <c r="E7" s="66" t="s">
+        <v>331</v>
+      </c>
+      <c r="F7" s="62" t="s">
+        <v>330</v>
+      </c>
+      <c r="G7" s="68" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="44" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+      <c r="A8" s="72"/>
+      <c r="B8" s="72"/>
+      <c r="C8" s="72"/>
+      <c r="D8" s="62" t="s">
+        <v>331</v>
+      </c>
+      <c r="E8" s="66" t="s">
+        <v>198</v>
+      </c>
+      <c r="F8" s="62" t="s">
         <v>332</v>
       </c>
-      <c r="D7" s="62" t="s">
+      <c r="G8" s="69"/>
+    </row>
+    <row r="9" spans="1:7" s="44" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9" s="72"/>
+      <c r="B9" s="72"/>
+      <c r="C9" s="72"/>
+      <c r="D9" s="62" t="s">
+        <v>334</v>
+      </c>
+      <c r="E9" s="66"/>
+      <c r="F9" s="62" t="s">
+        <v>335</v>
+      </c>
+      <c r="G9" s="69"/>
+    </row>
+    <row r="10" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="72"/>
+      <c r="B10" s="72"/>
+      <c r="C10" s="72"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="66"/>
+      <c r="F10" s="62"/>
+      <c r="G10" s="65"/>
+    </row>
+    <row r="11" spans="1:7" s="44" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A11" s="62" t="s">
+        <v>336</v>
+      </c>
+      <c r="B11" s="62" t="s">
         <v>328</v>
       </c>
-      <c r="E7" s="62" t="s">
-        <v>329</v>
-      </c>
-      <c r="F7" s="66"/>
-      <c r="G7" s="66"/>
-      <c r="H7" s="66"/>
-      <c r="I7" s="66"/>
-      <c r="J7" s="66"/>
-      <c r="K7" s="71" t="s">
+      <c r="C11" s="62" t="s">
+        <v>340</v>
+      </c>
+      <c r="D11" s="62"/>
+      <c r="E11" s="66"/>
+      <c r="F11" s="62" t="s">
+        <v>337</v>
+      </c>
+      <c r="G11" s="64" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="44" customFormat="1" ht="150" x14ac:dyDescent="0.25">
-      <c r="A8" s="67"/>
-      <c r="B8" s="67"/>
-      <c r="C8" s="67"/>
-      <c r="D8" s="62" t="s">
-        <v>330</v>
-      </c>
-      <c r="E8" s="62" t="s">
-        <v>331</v>
-      </c>
-      <c r="F8" s="66"/>
-      <c r="G8" s="66"/>
-      <c r="H8" s="66"/>
-      <c r="I8" s="66"/>
-      <c r="J8" s="66"/>
-      <c r="K8" s="72"/>
-    </row>
-    <row r="9" spans="1:11" s="44" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A9" s="67"/>
-      <c r="B9" s="67"/>
-      <c r="C9" s="67"/>
-      <c r="D9" s="62" t="s">
-        <v>333</v>
-      </c>
-      <c r="E9" s="62" t="s">
-        <v>334</v>
-      </c>
-      <c r="F9" s="66"/>
-      <c r="G9" s="66"/>
-      <c r="H9" s="66"/>
-      <c r="I9" s="66"/>
-      <c r="J9" s="66"/>
-      <c r="K9" s="72"/>
-    </row>
-    <row r="10" spans="1:11" s="44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="67"/>
-      <c r="B10" s="67"/>
-      <c r="C10" s="67"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="62"/>
-      <c r="F10" s="66"/>
-      <c r="G10" s="66"/>
-      <c r="H10" s="66"/>
-      <c r="I10" s="66"/>
-      <c r="J10" s="66"/>
-      <c r="K10" s="65"/>
-    </row>
-    <row r="11" spans="1:11" s="44" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A11" s="62" t="s">
-        <v>335</v>
-      </c>
-      <c r="B11" s="62" t="s">
-        <v>327</v>
-      </c>
-      <c r="C11" s="62" t="s">
-        <v>339</v>
-      </c>
-      <c r="D11" s="62"/>
-      <c r="E11" s="62" t="s">
-        <v>336</v>
-      </c>
-      <c r="F11" s="66"/>
-      <c r="G11" s="66"/>
-      <c r="H11" s="66"/>
-      <c r="I11" s="66"/>
-      <c r="J11" s="66"/>
-      <c r="K11" s="64" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" s="44" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="62"/>
       <c r="B12" s="62"/>
       <c r="C12" s="62"/>
       <c r="D12" s="62"/>
-      <c r="E12" s="62"/>
-      <c r="F12" s="66"/>
-      <c r="G12" s="66"/>
-      <c r="H12" s="66"/>
-      <c r="I12" s="66"/>
-      <c r="J12" s="66"/>
-      <c r="K12" s="65"/>
-    </row>
-    <row r="13" spans="1:11" s="44" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E12" s="66"/>
+      <c r="F12" s="62"/>
+      <c r="G12" s="65"/>
+    </row>
+    <row r="13" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="62"/>
       <c r="B13" s="62"/>
       <c r="C13" s="62"/>
       <c r="D13" s="62"/>
-      <c r="E13" s="62"/>
-      <c r="F13" s="66"/>
-      <c r="G13" s="66"/>
-      <c r="H13" s="66"/>
-      <c r="I13" s="66"/>
-      <c r="J13" s="66"/>
-      <c r="K13" s="65"/>
-    </row>
-    <row r="14" spans="1:11" s="44" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E13" s="66"/>
+      <c r="F13" s="62"/>
+      <c r="G13" s="65"/>
+    </row>
+    <row r="14" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="62"/>
       <c r="B14" s="62"/>
       <c r="C14" s="62"/>
       <c r="D14" s="62"/>
-      <c r="E14" s="62"/>
-      <c r="F14" s="66"/>
-      <c r="G14" s="66"/>
-      <c r="H14" s="66"/>
-      <c r="I14" s="66"/>
-      <c r="J14" s="66"/>
-      <c r="K14" s="65"/>
-    </row>
-    <row r="15" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="68" t="s">
+      <c r="E14" s="66"/>
+      <c r="F14" s="62"/>
+      <c r="G14" s="65"/>
+    </row>
+    <row r="15" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="75" t="s">
         <v>175</v>
       </c>
-      <c r="B15" s="67" t="s">
-        <v>262</v>
-      </c>
-      <c r="C15" s="67" t="s">
-        <v>323</v>
+      <c r="B15" s="72" t="s">
+        <v>263</v>
+      </c>
+      <c r="C15" s="72" t="s">
+        <v>324</v>
       </c>
       <c r="D15" s="58" t="s">
         <v>176</v>
       </c>
-      <c r="E15" s="32" t="s">
+      <c r="E15" s="66" t="s">
+        <v>177</v>
+      </c>
+      <c r="F15" s="32" t="s">
         <v>209</v>
       </c>
-      <c r="F15" s="66"/>
-      <c r="G15" s="66"/>
-      <c r="H15" s="66"/>
-      <c r="I15" s="66"/>
-      <c r="J15" s="66"/>
-      <c r="K15" s="71" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="68"/>
-      <c r="B16" s="68"/>
-      <c r="C16" s="68"/>
+      <c r="G15" s="68" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="75"/>
+      <c r="B16" s="75"/>
+      <c r="C16" s="75"/>
       <c r="D16" s="58" t="s">
         <v>177</v>
       </c>
-      <c r="E16" s="34" t="s">
+      <c r="E16" s="66" t="s">
+        <v>178</v>
+      </c>
+      <c r="F16" s="34" t="s">
         <v>179</v>
       </c>
-      <c r="F16" s="66"/>
-      <c r="G16" s="66"/>
-      <c r="H16" s="66"/>
-      <c r="I16" s="66"/>
-      <c r="J16" s="66"/>
-      <c r="K16" s="72"/>
-    </row>
-    <row r="17" spans="1:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="A17" s="68"/>
-      <c r="B17" s="68"/>
-      <c r="C17" s="68"/>
+      <c r="G16" s="69"/>
+    </row>
+    <row r="17" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A17" s="75"/>
+      <c r="B17" s="75"/>
+      <c r="C17" s="75"/>
       <c r="D17" s="58" t="s">
         <v>178</v>
       </c>
-      <c r="E17" s="32" t="s">
+      <c r="E17" s="66" t="s">
+        <v>255</v>
+      </c>
+      <c r="F17" s="32" t="s">
         <v>210</v>
       </c>
-      <c r="F17" s="66"/>
-      <c r="G17" s="66"/>
-      <c r="H17" s="66"/>
-      <c r="I17" s="66"/>
-      <c r="J17" s="66"/>
-      <c r="K17" s="72"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="68"/>
-      <c r="B18" s="68"/>
-      <c r="C18" s="68"/>
+      <c r="G17" s="69"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="75"/>
+      <c r="B18" s="75"/>
+      <c r="C18" s="75"/>
       <c r="D18" s="43"/>
-      <c r="E18" s="42"/>
+      <c r="E18" s="43"/>
       <c r="F18" s="42"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="42"/>
-      <c r="I18" s="42"/>
-      <c r="J18" s="42"/>
-      <c r="K18" s="72"/>
-    </row>
-    <row r="19" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="68" t="s">
+      <c r="G18" s="69"/>
+    </row>
+    <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="75" t="s">
         <v>180</v>
       </c>
-      <c r="B19" s="67" t="s">
-        <v>263</v>
-      </c>
-      <c r="C19" s="67" t="s">
+      <c r="B19" s="72" t="s">
         <v>264</v>
+      </c>
+      <c r="C19" s="72" t="s">
+        <v>265</v>
       </c>
       <c r="D19" s="58" t="s">
         <v>181</v>
       </c>
-      <c r="E19" s="35" t="s">
+      <c r="E19" s="66" t="s">
+        <v>184</v>
+      </c>
+      <c r="F19" s="35" t="s">
         <v>211</v>
       </c>
-      <c r="F19" s="66"/>
-      <c r="G19" s="66"/>
-      <c r="H19" s="66"/>
-      <c r="I19" s="66"/>
-      <c r="J19" s="66"/>
-      <c r="K19" s="71" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="68"/>
-      <c r="B20" s="67"/>
-      <c r="C20" s="68"/>
+      <c r="G19" s="68" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="75"/>
+      <c r="B20" s="72"/>
+      <c r="C20" s="75"/>
       <c r="D20" s="58" t="s">
         <v>182</v>
       </c>
-      <c r="E20" s="41" t="s">
+      <c r="E20" s="66" t="s">
+        <v>184</v>
+      </c>
+      <c r="F20" s="41" t="s">
         <v>212</v>
       </c>
-      <c r="F20" s="66"/>
-      <c r="G20" s="66"/>
-      <c r="H20" s="66"/>
-      <c r="I20" s="66"/>
-      <c r="J20" s="66"/>
-      <c r="K20" s="72"/>
-    </row>
-    <row r="21" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A21" s="68"/>
-      <c r="B21" s="67"/>
-      <c r="C21" s="68"/>
+      <c r="G20" s="69"/>
+    </row>
+    <row r="21" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A21" s="75"/>
+      <c r="B21" s="72"/>
+      <c r="C21" s="75"/>
       <c r="D21" s="58" t="s">
         <v>183</v>
       </c>
-      <c r="E21" s="41" t="s">
+      <c r="F21" s="41" t="s">
         <v>213</v>
       </c>
-      <c r="F21" s="66"/>
-      <c r="G21" s="66"/>
-      <c r="H21" s="66"/>
-      <c r="I21" s="66"/>
-      <c r="J21" s="66"/>
-      <c r="K21" s="72"/>
-    </row>
-    <row r="22" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A22" s="68"/>
-      <c r="B22" s="67"/>
-      <c r="C22" s="68"/>
+      <c r="G21" s="69"/>
+    </row>
+    <row r="22" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A22" s="75"/>
+      <c r="B22" s="72"/>
+      <c r="C22" s="75"/>
       <c r="D22" s="58" t="s">
         <v>184</v>
       </c>
-      <c r="E22" s="32" t="s">
+      <c r="E22" s="43" t="s">
+        <v>172</v>
+      </c>
+      <c r="F22" s="32" t="s">
         <v>214</v>
       </c>
-      <c r="F22" s="66"/>
-      <c r="G22" s="66"/>
-      <c r="H22" s="66"/>
-      <c r="I22" s="66"/>
-      <c r="J22" s="66"/>
-      <c r="K22" s="72"/>
-    </row>
-    <row r="23" spans="1:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="A23" s="68" t="s">
+      <c r="G22" s="69"/>
+    </row>
+    <row r="23" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A23" s="75" t="s">
         <v>185</v>
       </c>
-      <c r="B23" s="67" t="s">
-        <v>324</v>
-      </c>
-      <c r="C23" s="67" t="s">
-        <v>265</v>
+      <c r="B23" s="72" t="s">
+        <v>325</v>
+      </c>
+      <c r="C23" s="72" t="s">
+        <v>266</v>
       </c>
       <c r="D23" s="58" t="s">
-        <v>254</v>
-      </c>
-      <c r="E23" s="36" t="s">
+        <v>255</v>
+      </c>
+      <c r="F23" s="36" t="s">
         <v>186</v>
       </c>
-      <c r="F23" s="66"/>
-      <c r="G23" s="66"/>
-      <c r="H23" s="66"/>
-      <c r="I23" s="66"/>
-      <c r="J23" s="66"/>
-      <c r="K23" s="71" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="135" x14ac:dyDescent="0.25">
-      <c r="A24" s="68"/>
-      <c r="B24" s="67"/>
-      <c r="C24" s="68"/>
+      <c r="G23" s="68" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+      <c r="A24" s="75"/>
+      <c r="B24" s="72"/>
+      <c r="C24" s="75"/>
       <c r="D24" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="E24" s="41" t="s">
+      <c r="E24" s="66" t="s">
+        <v>326</v>
+      </c>
+      <c r="F24" s="41" t="s">
         <v>215</v>
       </c>
-      <c r="F24" s="66"/>
-      <c r="G24" s="66"/>
-      <c r="H24" s="66"/>
-      <c r="I24" s="66"/>
-      <c r="J24" s="66"/>
-      <c r="K24" s="72"/>
-    </row>
-    <row r="25" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A25" s="68"/>
-      <c r="B25" s="67"/>
-      <c r="C25" s="68"/>
+      <c r="G24" s="69"/>
+    </row>
+    <row r="25" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A25" s="75"/>
+      <c r="B25" s="72"/>
+      <c r="C25" s="75"/>
       <c r="D25" s="58" t="s">
-        <v>325</v>
-      </c>
-      <c r="E25" s="32" t="s">
+        <v>326</v>
+      </c>
+      <c r="E25" s="66" t="s">
+        <v>255</v>
+      </c>
+      <c r="F25" s="32" t="s">
         <v>216</v>
       </c>
-      <c r="F25" s="66"/>
-      <c r="G25" s="66"/>
-      <c r="H25" s="66"/>
-      <c r="I25" s="66"/>
-      <c r="J25" s="66"/>
-      <c r="K25" s="72"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="68"/>
-      <c r="B26" s="67"/>
-      <c r="C26" s="68"/>
+      <c r="G25" s="69"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="75"/>
+      <c r="B26" s="72"/>
+      <c r="C26" s="75"/>
       <c r="D26" s="43"/>
       <c r="E26" s="43"/>
       <c r="F26" s="43"/>
-      <c r="G26" s="43"/>
-      <c r="H26" s="43"/>
-      <c r="I26" s="43"/>
-      <c r="J26" s="43"/>
-      <c r="K26" s="72"/>
-    </row>
-    <row r="27" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="68" t="s">
+      <c r="G26" s="69"/>
+    </row>
+    <row r="27" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="75" t="s">
         <v>187</v>
       </c>
-      <c r="B27" s="67" t="s">
-        <v>266</v>
-      </c>
-      <c r="C27" s="73" t="s">
+      <c r="B27" s="72" t="s">
         <v>267</v>
+      </c>
+      <c r="C27" s="70" t="s">
+        <v>268</v>
       </c>
       <c r="D27" s="58" t="s">
         <v>188</v>
       </c>
-      <c r="E27" s="32" t="s">
+      <c r="E27" s="66" t="s">
+        <v>326</v>
+      </c>
+      <c r="F27" s="32" t="s">
         <v>217</v>
       </c>
-      <c r="F27" s="66"/>
-      <c r="G27" s="66"/>
-      <c r="H27" s="66"/>
-      <c r="I27" s="66"/>
-      <c r="J27" s="66"/>
-      <c r="K27" s="71" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="68"/>
-      <c r="B28" s="67"/>
-      <c r="C28" s="73"/>
+      <c r="G27" s="68" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="75"/>
+      <c r="B28" s="72"/>
+      <c r="C28" s="70"/>
       <c r="D28" s="58" t="s">
         <v>189</v>
       </c>
-      <c r="E28" s="32" t="s">
+      <c r="E28" s="66" t="s">
+        <v>132</v>
+      </c>
+      <c r="F28" s="32" t="s">
         <v>190</v>
       </c>
-      <c r="F28" s="66"/>
-      <c r="G28" s="66"/>
-      <c r="H28" s="66"/>
-      <c r="I28" s="66"/>
-      <c r="J28" s="66"/>
-      <c r="K28" s="72"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="68"/>
-      <c r="B29" s="67"/>
-      <c r="C29" s="73"/>
+      <c r="G28" s="69"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="75"/>
+      <c r="B29" s="72"/>
+      <c r="C29" s="70"/>
       <c r="D29" s="43"/>
-      <c r="E29" s="42"/>
+      <c r="E29" s="43"/>
       <c r="F29" s="42"/>
-      <c r="G29" s="42"/>
-      <c r="H29" s="42"/>
-      <c r="I29" s="42"/>
-      <c r="J29" s="42"/>
-      <c r="K29" s="72"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="68" t="s">
+      <c r="G29" s="69"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="75" t="s">
         <v>191</v>
       </c>
       <c r="C30" s="60"/>
-      <c r="E30" s="37"/>
-      <c r="F30" s="66"/>
-      <c r="G30" s="66"/>
-      <c r="H30" s="66"/>
-      <c r="I30" s="66"/>
-      <c r="J30" s="66"/>
-      <c r="K30" s="71" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" ht="165" x14ac:dyDescent="0.25">
-      <c r="A31" s="68"/>
-      <c r="B31" s="67" t="s">
-        <v>268</v>
-      </c>
-      <c r="C31" s="67" t="s">
+      <c r="F30" s="37"/>
+      <c r="G30" s="68" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="165" x14ac:dyDescent="0.25">
+      <c r="A31" s="75"/>
+      <c r="B31" s="72" t="s">
         <v>269</v>
       </c>
-      <c r="E31" s="32" t="s">
+      <c r="C31" s="72" t="s">
+        <v>270</v>
+      </c>
+      <c r="E31" s="66" t="s">
+        <v>198</v>
+      </c>
+      <c r="F31" s="32" t="s">
         <v>192</v>
       </c>
-      <c r="F31" s="66"/>
-      <c r="G31" s="66"/>
-      <c r="H31" s="66"/>
-      <c r="I31" s="66"/>
-      <c r="J31" s="66"/>
-      <c r="K31" s="72"/>
-    </row>
-    <row r="32" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A32" s="68"/>
-      <c r="B32" s="68"/>
-      <c r="C32" s="67"/>
+      <c r="G31" s="69"/>
+    </row>
+    <row r="32" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A32" s="75"/>
+      <c r="B32" s="75"/>
+      <c r="C32" s="72"/>
       <c r="D32" s="58" t="s">
-        <v>256</v>
-      </c>
-      <c r="E32" s="41" t="s">
+        <v>257</v>
+      </c>
+      <c r="F32" s="41" t="s">
         <v>220</v>
       </c>
-      <c r="F32" s="66"/>
-      <c r="G32" s="66"/>
-      <c r="H32" s="66"/>
-      <c r="I32" s="66"/>
-      <c r="J32" s="66"/>
-      <c r="K32" s="72"/>
-    </row>
-    <row r="33" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="68"/>
-      <c r="B33" s="68"/>
-      <c r="C33" s="67"/>
+      <c r="G32" s="69"/>
+    </row>
+    <row r="33" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="75"/>
+      <c r="B33" s="75"/>
+      <c r="C33" s="72"/>
       <c r="D33" s="43" t="s">
-        <v>257</v>
-      </c>
-      <c r="E33" s="43" t="s">
-        <v>249</v>
-      </c>
-      <c r="F33" s="43"/>
-      <c r="G33" s="43"/>
-      <c r="H33" s="43"/>
-      <c r="I33" s="43"/>
-      <c r="J33" s="43"/>
-      <c r="K33" s="72"/>
-    </row>
-    <row r="34" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="68"/>
-      <c r="B34" s="68"/>
-      <c r="C34" s="67"/>
+        <v>258</v>
+      </c>
+      <c r="E33" s="43"/>
+      <c r="F33" s="43" t="s">
+        <v>250</v>
+      </c>
+      <c r="G33" s="69"/>
+    </row>
+    <row r="34" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="75"/>
+      <c r="B34" s="75"/>
+      <c r="C34" s="72"/>
       <c r="D34" s="43" t="s">
         <v>172</v>
       </c>
       <c r="E34" s="43" t="s">
-        <v>250</v>
-      </c>
-      <c r="F34" s="43"/>
-      <c r="G34" s="43"/>
-      <c r="H34" s="43"/>
-      <c r="I34" s="43"/>
-      <c r="J34" s="43"/>
-      <c r="K34" s="72"/>
-    </row>
-    <row r="35" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A35" s="68"/>
-      <c r="B35" s="68"/>
-      <c r="C35" s="67"/>
+        <v>259</v>
+      </c>
+      <c r="F34" s="43" t="s">
+        <v>251</v>
+      </c>
+      <c r="G34" s="69"/>
+    </row>
+    <row r="35" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A35" s="75"/>
+      <c r="B35" s="75"/>
+      <c r="C35" s="72"/>
       <c r="D35" s="43" t="s">
-        <v>258</v>
-      </c>
-      <c r="E35" s="43" t="s">
-        <v>251</v>
-      </c>
-      <c r="F35" s="43"/>
-      <c r="G35" s="43"/>
-      <c r="H35" s="43"/>
-      <c r="I35" s="43"/>
-      <c r="J35" s="43"/>
-      <c r="K35" s="72"/>
-    </row>
-    <row r="36" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A36" s="68"/>
-      <c r="B36" s="68"/>
-      <c r="C36" s="67"/>
+        <v>259</v>
+      </c>
+      <c r="E35" s="66" t="s">
+        <v>132</v>
+      </c>
+      <c r="F35" s="43" t="s">
+        <v>252</v>
+      </c>
+      <c r="G35" s="69"/>
+    </row>
+    <row r="36" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A36" s="75"/>
+      <c r="B36" s="75"/>
+      <c r="C36" s="72"/>
       <c r="D36" s="58" t="s">
         <v>132</v>
       </c>
-      <c r="E36" s="43" t="s">
-        <v>252</v>
-      </c>
-      <c r="F36" s="43"/>
-      <c r="G36" s="43"/>
-      <c r="H36" s="43"/>
-      <c r="I36" s="43"/>
-      <c r="J36" s="43"/>
-      <c r="K36" s="72"/>
-    </row>
-    <row r="37" spans="1:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="A37" s="67" t="s">
-        <v>270</v>
-      </c>
-      <c r="B37" s="67" t="s">
+      <c r="E36" s="66" t="s">
+        <v>195</v>
+      </c>
+      <c r="F36" s="43" t="s">
+        <v>253</v>
+      </c>
+      <c r="G36" s="69"/>
+    </row>
+    <row r="37" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A37" s="72" t="s">
         <v>271</v>
       </c>
-      <c r="C37" s="67" t="s">
+      <c r="B37" s="72" t="s">
         <v>272</v>
+      </c>
+      <c r="C37" s="72" t="s">
+        <v>273</v>
       </c>
       <c r="D37" s="58" t="s">
         <v>193</v>
       </c>
-      <c r="E37" s="32" t="s">
+      <c r="E37" s="66" t="s">
+        <v>197</v>
+      </c>
+      <c r="F37" s="32" t="s">
         <v>221</v>
       </c>
-      <c r="F37" s="66"/>
-      <c r="G37" s="66"/>
-      <c r="H37" s="66"/>
-      <c r="I37" s="66"/>
-      <c r="J37" s="66"/>
-      <c r="K37" s="71" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" ht="105" x14ac:dyDescent="0.25">
-      <c r="A38" s="67"/>
-      <c r="B38" s="67"/>
-      <c r="C38" s="68"/>
+      <c r="G37" s="68" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="A38" s="72"/>
+      <c r="B38" s="72"/>
+      <c r="C38" s="75"/>
       <c r="D38" s="58" t="s">
         <v>194</v>
       </c>
-      <c r="E38" s="32" t="s">
-        <v>255</v>
-      </c>
-      <c r="F38" s="66"/>
-      <c r="G38" s="66"/>
-      <c r="H38" s="66"/>
-      <c r="I38" s="66"/>
-      <c r="J38" s="66"/>
-      <c r="K38" s="72"/>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" s="67"/>
-      <c r="B39" s="67"/>
-      <c r="C39" s="68"/>
+      <c r="E38" s="66" t="s">
+        <v>197</v>
+      </c>
+      <c r="F38" s="32" t="s">
+        <v>256</v>
+      </c>
+      <c r="G38" s="69"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="72"/>
+      <c r="B39" s="72"/>
+      <c r="C39" s="75"/>
       <c r="D39" s="58" t="s">
         <v>195</v>
       </c>
-      <c r="E39" s="38" t="s">
+      <c r="F39" s="38" t="s">
         <v>200</v>
       </c>
-      <c r="K39" s="72"/>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="67"/>
-      <c r="B40" s="67"/>
-      <c r="C40" s="68"/>
+      <c r="G39" s="69"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="72"/>
+      <c r="B40" s="72"/>
+      <c r="C40" s="75"/>
       <c r="D40" s="58" t="s">
         <v>196</v>
       </c>
-      <c r="E40" s="38" t="s">
+      <c r="F40" s="38" t="s">
         <v>201</v>
       </c>
-      <c r="K40" s="72"/>
-    </row>
-    <row r="41" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A41" s="67"/>
-      <c r="B41" s="67"/>
-      <c r="C41" s="68"/>
+      <c r="G40" s="69"/>
+    </row>
+    <row r="41" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A41" s="72"/>
+      <c r="B41" s="72"/>
+      <c r="C41" s="75"/>
       <c r="D41" s="58" t="s">
         <v>197</v>
       </c>
-      <c r="E41" s="39" t="s">
+      <c r="E41" s="66" t="s">
+        <v>195</v>
+      </c>
+      <c r="F41" s="39" t="s">
         <v>202</v>
       </c>
-      <c r="F41" s="66"/>
-      <c r="G41" s="66"/>
-      <c r="H41" s="66"/>
-      <c r="I41" s="66"/>
-      <c r="J41" s="66"/>
-      <c r="K41" s="72"/>
-    </row>
-    <row r="42" spans="1:11" ht="150" x14ac:dyDescent="0.25">
-      <c r="A42" s="67"/>
-      <c r="B42" s="67"/>
-      <c r="C42" s="68"/>
+      <c r="G41" s="69"/>
+    </row>
+    <row r="42" spans="1:7" ht="150" x14ac:dyDescent="0.25">
+      <c r="A42" s="72"/>
+      <c r="B42" s="72"/>
+      <c r="C42" s="75"/>
       <c r="D42" s="58" t="s">
         <v>198</v>
       </c>
-      <c r="E42" s="32" t="s">
+      <c r="E42" s="66" t="s">
+        <v>195</v>
+      </c>
+      <c r="F42" s="32" t="s">
         <v>222</v>
       </c>
-      <c r="F42" s="66"/>
-      <c r="G42" s="66"/>
-      <c r="H42" s="66"/>
-      <c r="I42" s="66"/>
-      <c r="J42" s="66"/>
-      <c r="K42" s="72"/>
-    </row>
-    <row r="43" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A43" s="67"/>
-      <c r="B43" s="67"/>
-      <c r="C43" s="68"/>
+      <c r="G42" s="69"/>
+    </row>
+    <row r="43" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A43" s="72"/>
+      <c r="B43" s="72"/>
+      <c r="C43" s="75"/>
       <c r="D43" s="58" t="s">
         <v>199</v>
       </c>
-      <c r="E43" s="41" t="s">
+      <c r="E43" s="66" t="s">
+        <v>195</v>
+      </c>
+      <c r="F43" s="41" t="s">
         <v>203</v>
       </c>
-      <c r="F43" s="66"/>
-      <c r="G43" s="66"/>
-      <c r="H43" s="66"/>
-      <c r="I43" s="66"/>
-      <c r="J43" s="66"/>
-      <c r="K43" s="72"/>
-    </row>
-    <row r="44" spans="1:11" s="44" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G43" s="69"/>
+    </row>
+    <row r="44" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="62"/>
       <c r="B44" s="62"/>
       <c r="C44" s="63"/>
       <c r="D44" s="62"/>
-      <c r="E44" s="62"/>
-      <c r="F44" s="66"/>
-      <c r="G44" s="66"/>
-      <c r="H44" s="66"/>
-      <c r="I44" s="66"/>
-      <c r="J44" s="66"/>
-      <c r="K44" s="65"/>
-    </row>
-    <row r="45" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="E44" s="66"/>
+      <c r="F44" s="62"/>
+      <c r="G44" s="65"/>
+    </row>
+    <row r="45" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A45" s="59" t="s">
         <v>218</v>
       </c>
       <c r="B45" s="57" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C45" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D45" s="58" t="s">
         <v>219</v>
       </c>
-      <c r="E45" s="40" t="s">
+      <c r="F45" s="40" t="s">
         <v>223</v>
       </c>
-      <c r="K45" s="47" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G45" s="47" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B46" s="42"/>
       <c r="C46" s="42"/>
       <c r="D46" s="43"/>
-      <c r="E46" s="40"/>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E46" s="43"/>
+      <c r="F46" s="40"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B47" s="42"/>
       <c r="C47" s="42"/>
       <c r="D47" s="43"/>
-      <c r="E47" s="40"/>
+      <c r="E47" s="43"/>
+      <c r="F47" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="K27:K29"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="K30:K36"/>
-    <mergeCell ref="K37:K43"/>
-    <mergeCell ref="K2:K4"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="K15:K18"/>
-    <mergeCell ref="K19:K22"/>
-    <mergeCell ref="K23:K26"/>
-    <mergeCell ref="K7:K9"/>
-    <mergeCell ref="A37:A43"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A30:A36"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="A23:A26"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="B31:B36"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="C23:C26"/>
+    <mergeCell ref="C31:C36"/>
+    <mergeCell ref="B37:B43"/>
+    <mergeCell ref="C37:C43"/>
     <mergeCell ref="B19:B22"/>
     <mergeCell ref="C19:C22"/>
     <mergeCell ref="B27:B29"/>
@@ -3037,25 +2857,38 @@
     <mergeCell ref="C15:C18"/>
     <mergeCell ref="B7:B10"/>
     <mergeCell ref="C7:C10"/>
-    <mergeCell ref="B31:B36"/>
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="C23:C26"/>
-    <mergeCell ref="C31:C36"/>
-    <mergeCell ref="B37:B43"/>
-    <mergeCell ref="C37:C43"/>
+    <mergeCell ref="A37:A43"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A30:A36"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="G27:G29"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="G30:G36"/>
+    <mergeCell ref="G37:G43"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="G15:G18"/>
+    <mergeCell ref="G19:G22"/>
+    <mergeCell ref="G23:G26"/>
+    <mergeCell ref="G7:G9"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="K2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="K5" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="K15" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="K19" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="K23" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="K27" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="K30" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="K37" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="K45" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="K7" r:id="rId10" xr:uid="{4E0AA375-15F4-4928-90C2-BD2E1EC884AB}"/>
-    <hyperlink ref="K11" r:id="rId11" xr:uid="{E29A4A0F-3BAA-48B7-B469-0201A35D0289}"/>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="G5" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="G15" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="G19" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="G23" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="G27" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="G30" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="G37" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="G45" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="G7" r:id="rId10" xr:uid="{4E0AA375-15F4-4928-90C2-BD2E1EC884AB}"/>
+    <hyperlink ref="G11" r:id="rId11" xr:uid="{E29A4A0F-3BAA-48B7-B469-0201A35D0289}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId12"/>
@@ -3099,7 +2932,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="76" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="29"/>
@@ -3114,7 +2947,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="76"/>
+      <c r="A3" s="77"/>
       <c r="B3" s="28"/>
       <c r="C3" t="s">
         <v>4</v>
@@ -3123,7 +2956,7 @@
       <c r="E3" s="6"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="76"/>
+      <c r="A4" s="77"/>
       <c r="B4" s="28"/>
       <c r="C4" t="s">
         <v>5</v>
@@ -3132,7 +2965,7 @@
       <c r="E4" s="6"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="76"/>
+      <c r="A5" s="77"/>
       <c r="B5" s="28"/>
       <c r="C5" t="s">
         <v>6</v>
@@ -3141,7 +2974,7 @@
       <c r="E5" s="6"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="76"/>
+      <c r="A6" s="77"/>
       <c r="B6" s="28"/>
       <c r="C6" t="s">
         <v>7</v>
@@ -3150,7 +2983,7 @@
       <c r="E6" s="6"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="76"/>
+      <c r="A7" s="77"/>
       <c r="B7" s="28"/>
       <c r="C7" t="s">
         <v>8</v>
@@ -3159,7 +2992,7 @@
       <c r="E7" s="6"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="76"/>
+      <c r="A8" s="77"/>
       <c r="B8" s="28"/>
       <c r="C8" t="s">
         <v>9</v>
@@ -3168,7 +3001,7 @@
       <c r="E8" s="6"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="76"/>
+      <c r="A9" s="77"/>
       <c r="B9" s="28"/>
       <c r="C9" t="s">
         <v>10</v>
@@ -3177,7 +3010,7 @@
       <c r="E9" s="6"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="76"/>
+      <c r="A10" s="77"/>
       <c r="B10" s="28"/>
       <c r="C10" t="s">
         <v>11</v>
@@ -3186,7 +3019,7 @@
       <c r="E10" s="6"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="76" t="s">
+      <c r="A11" s="77" t="s">
         <v>16</v>
       </c>
       <c r="B11" s="28"/>
@@ -3195,28 +3028,28 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="76"/>
+      <c r="A12" s="77"/>
       <c r="B12" s="28"/>
       <c r="C12" s="7" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="76"/>
+      <c r="A13" s="77"/>
       <c r="B13" s="28"/>
       <c r="C13" s="7" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="76"/>
+      <c r="A14" s="77"/>
       <c r="B14" s="28"/>
       <c r="C14" s="7" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="76"/>
+      <c r="A15" s="77"/>
       <c r="B15" s="28"/>
       <c r="C15" s="7" t="s">
         <v>21</v>
@@ -3226,7 +3059,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="76"/>
+      <c r="A16" s="77"/>
       <c r="B16" s="28"/>
       <c r="C16" s="7" t="s">
         <v>22</v>
@@ -3236,7 +3069,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="76" t="s">
+      <c r="A17" s="77" t="s">
         <v>23</v>
       </c>
       <c r="B17" s="28"/>
@@ -3251,7 +3084,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="76"/>
+      <c r="A18" s="77"/>
       <c r="B18" s="28"/>
       <c r="C18" s="8" t="s">
         <v>25</v>
@@ -3261,21 +3094,21 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="76"/>
+      <c r="A19" s="77"/>
       <c r="B19" s="28"/>
       <c r="C19" s="8" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="76"/>
+      <c r="A20" s="77"/>
       <c r="B20" s="28"/>
       <c r="C20" s="8" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A21" s="76"/>
+      <c r="A21" s="77"/>
       <c r="B21" s="28"/>
       <c r="C21" s="8" t="s">
         <v>28</v>
@@ -3285,7 +3118,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="76"/>
+      <c r="A22" s="77"/>
       <c r="B22" s="28"/>
       <c r="C22" s="8" t="s">
         <v>29</v>
@@ -3295,7 +3128,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="76"/>
+      <c r="A23" s="77"/>
       <c r="B23" s="28"/>
       <c r="C23" s="8" t="s">
         <v>30</v>
@@ -3305,14 +3138,14 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="76"/>
+      <c r="A24" s="77"/>
       <c r="B24" s="28"/>
       <c r="C24" s="8" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="76" t="s">
+      <c r="A25" s="77" t="s">
         <v>41</v>
       </c>
       <c r="B25" s="28"/>
@@ -3327,7 +3160,7 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="76"/>
+      <c r="A26" s="77"/>
       <c r="B26" s="28"/>
       <c r="C26" s="9" t="s">
         <v>43</v>
@@ -3337,7 +3170,7 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="76"/>
+      <c r="A27" s="77"/>
       <c r="B27" s="28"/>
       <c r="C27" s="9" t="s">
         <v>44</v>
@@ -3347,7 +3180,7 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="76"/>
+      <c r="A28" s="77"/>
       <c r="B28" s="28"/>
       <c r="C28" s="9" t="s">
         <v>41</v>
@@ -3357,7 +3190,7 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="76"/>
+      <c r="A29" s="77"/>
       <c r="B29" s="28"/>
       <c r="C29" s="9" t="s">
         <v>45</v>
@@ -3367,7 +3200,7 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="76"/>
+      <c r="A30" s="77"/>
       <c r="B30" s="28"/>
       <c r="C30" s="9" t="s">
         <v>46</v>
@@ -3377,49 +3210,49 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="76"/>
+      <c r="A31" s="77"/>
       <c r="B31" s="28"/>
       <c r="D31" s="9" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="76"/>
+      <c r="A32" s="77"/>
       <c r="B32" s="28"/>
       <c r="D32" s="9" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="76"/>
+      <c r="A33" s="77"/>
       <c r="B33" s="28"/>
       <c r="D33" s="9" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="76"/>
+      <c r="A34" s="77"/>
       <c r="B34" s="28"/>
       <c r="D34" s="9" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="76"/>
+      <c r="A35" s="77"/>
       <c r="B35" s="28"/>
       <c r="D35" s="9" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="76"/>
+      <c r="A36" s="77"/>
       <c r="B36" s="28"/>
       <c r="D36" s="9" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="77" t="s">
+      <c r="A37" s="78" t="s">
         <v>58</v>
       </c>
       <c r="D37" s="11" t="s">
@@ -3427,43 +3260,43 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="77"/>
+      <c r="A38" s="78"/>
       <c r="D38" s="11" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="77"/>
+      <c r="A39" s="78"/>
       <c r="D39" s="11" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="77"/>
+      <c r="A40" s="78"/>
       <c r="D40" s="11" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="77"/>
+      <c r="A41" s="78"/>
       <c r="D41" s="11" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="77"/>
+      <c r="A42" s="78"/>
       <c r="D42" s="11" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="77"/>
+      <c r="A43" s="78"/>
       <c r="D43" s="11" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="77" t="s">
+      <c r="A44" s="78" t="s">
         <v>66</v>
       </c>
       <c r="C44" s="12" t="s">
@@ -3474,7 +3307,7 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="77"/>
+      <c r="A45" s="78"/>
       <c r="C45" s="12" t="s">
         <v>67</v>
       </c>
@@ -3483,7 +3316,7 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="77"/>
+      <c r="A46" s="78"/>
       <c r="C46" s="12" t="s">
         <v>44</v>
       </c>
@@ -3492,43 +3325,43 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="77"/>
+      <c r="A47" s="78"/>
       <c r="D47" s="12" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="77"/>
+      <c r="A48" s="78"/>
       <c r="D48" s="12" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="77"/>
+      <c r="A49" s="78"/>
       <c r="D49" s="12" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="77"/>
+      <c r="A50" s="78"/>
       <c r="D50" s="12" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="77"/>
+      <c r="A51" s="78"/>
       <c r="D51" s="12" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="77"/>
+      <c r="A52" s="78"/>
       <c r="D52" s="12" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="158.44999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="77" t="s">
+      <c r="A53" s="78" t="s">
         <v>77</v>
       </c>
       <c r="C53" s="14" t="s">
@@ -3540,7 +3373,7 @@
       <c r="E53" s="13"/>
     </row>
     <row r="54" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A54" s="77"/>
+      <c r="A54" s="78"/>
       <c r="C54" s="14" t="s">
         <v>87</v>
       </c>
@@ -3550,7 +3383,7 @@
       <c r="E54" s="13"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="77" t="s">
+      <c r="A55" s="78" t="s">
         <v>80</v>
       </c>
       <c r="C55" s="14" t="s">
@@ -3561,7 +3394,7 @@
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="77"/>
+      <c r="A56" s="78"/>
       <c r="C56" s="14" t="s">
         <v>82</v>
       </c>
@@ -3570,7 +3403,7 @@
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="77"/>
+      <c r="A57" s="78"/>
       <c r="C57" s="14" t="s">
         <v>83</v>
       </c>
@@ -3579,7 +3412,7 @@
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="77"/>
+      <c r="A58" s="78"/>
       <c r="C58" s="14" t="s">
         <v>84</v>
       </c>
@@ -3588,7 +3421,7 @@
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="77"/>
+      <c r="A59" s="78"/>
       <c r="C59" s="14" t="s">
         <v>85</v>
       </c>
@@ -3597,73 +3430,73 @@
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="77"/>
+      <c r="A60" s="78"/>
       <c r="D60" s="14" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="77"/>
+      <c r="A61" s="78"/>
       <c r="D61" s="14" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="77"/>
+      <c r="A62" s="78"/>
       <c r="D62" s="14" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="77"/>
+      <c r="A63" s="78"/>
       <c r="D63" s="14" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="77"/>
+      <c r="A64" s="78"/>
       <c r="D64" s="14" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="77"/>
+      <c r="A65" s="78"/>
       <c r="D65" s="14" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="77"/>
+      <c r="A66" s="78"/>
       <c r="D66" s="14" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="77"/>
+      <c r="A67" s="78"/>
       <c r="D67" s="14" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="77"/>
+      <c r="A68" s="78"/>
       <c r="D68" s="14" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="77"/>
+      <c r="A69" s="78"/>
       <c r="D69" s="14" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="77"/>
+      <c r="A70" s="78"/>
       <c r="D70" s="14" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="77" t="s">
+      <c r="A71" s="78" t="s">
         <v>104</v>
       </c>
       <c r="C71" s="15" t="s">
@@ -3674,7 +3507,7 @@
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="77"/>
+      <c r="A72" s="78"/>
       <c r="C72" s="15" t="s">
         <v>106</v>
       </c>
@@ -3683,7 +3516,7 @@
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="77"/>
+      <c r="A73" s="78"/>
       <c r="C73" s="15" t="s">
         <v>107</v>
       </c>
@@ -3692,7 +3525,7 @@
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="77"/>
+      <c r="A74" s="78"/>
       <c r="C74" s="15" t="s">
         <v>108</v>
       </c>
@@ -3701,43 +3534,43 @@
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="77"/>
+      <c r="A75" s="78"/>
       <c r="D75" s="15" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="77"/>
+      <c r="A76" s="78"/>
       <c r="D76" s="15" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="77"/>
+      <c r="A77" s="78"/>
       <c r="D77" s="15" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="77"/>
+      <c r="A78" s="78"/>
       <c r="D78" s="15" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="77"/>
+      <c r="A79" s="78"/>
       <c r="D79" s="15" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="77"/>
+      <c r="A80" s="78"/>
       <c r="D80" s="15" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="77" t="s">
+      <c r="A81" s="78" t="s">
         <v>117</v>
       </c>
       <c r="C81" s="16" t="s">
@@ -3748,7 +3581,7 @@
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="77"/>
+      <c r="A82" s="78"/>
       <c r="C82" s="16" t="s">
         <v>119</v>
       </c>
@@ -3757,7 +3590,7 @@
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="77"/>
+      <c r="A83" s="78"/>
       <c r="C83" s="16" t="s">
         <v>120</v>
       </c>
@@ -3766,25 +3599,25 @@
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="77"/>
+      <c r="A84" s="78"/>
       <c r="D84" s="16" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" s="77"/>
+      <c r="A85" s="78"/>
       <c r="D85" s="16" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" s="77"/>
+      <c r="A86" s="78"/>
       <c r="D86" s="16" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A87" s="77" t="s">
+      <c r="A87" s="78" t="s">
         <v>125</v>
       </c>
       <c r="C87" s="17" t="s">
@@ -3795,7 +3628,7 @@
       </c>
     </row>
     <row r="88" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A88" s="77"/>
+      <c r="A88" s="78"/>
       <c r="C88" s="17" t="s">
         <v>127</v>
       </c>
@@ -3804,7 +3637,7 @@
       </c>
     </row>
     <row r="89" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A89" s="77"/>
+      <c r="A89" s="78"/>
       <c r="C89" s="17" t="s">
         <v>128</v>
       </c>
@@ -3813,13 +3646,13 @@
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" s="77"/>
+      <c r="A90" s="78"/>
       <c r="C90" s="17" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A91" s="77" t="s">
+      <c r="A91" s="78" t="s">
         <v>132</v>
       </c>
       <c r="C91" s="19" t="s">
@@ -3830,7 +3663,7 @@
       </c>
     </row>
     <row r="92" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A92" s="77"/>
+      <c r="A92" s="78"/>
       <c r="C92" s="19" t="s">
         <v>134</v>
       </c>
@@ -3839,40 +3672,40 @@
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" s="77"/>
+      <c r="A93" s="78"/>
       <c r="C93" s="19" t="s">
         <v>135</v>
       </c>
       <c r="D93" s="19"/>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" s="77"/>
+      <c r="A94" s="78"/>
       <c r="C94" s="19" t="s">
         <v>136</v>
       </c>
       <c r="D94" s="19"/>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" s="77"/>
+      <c r="A95" s="78"/>
       <c r="C95" s="19" t="s">
         <v>137</v>
       </c>
       <c r="D95" s="19"/>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96" s="77"/>
+      <c r="A96" s="78"/>
       <c r="C96" s="19" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" s="77"/>
+      <c r="A97" s="78"/>
       <c r="C97" s="19" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" s="77" t="s">
+      <c r="A98" s="78" t="s">
         <v>141</v>
       </c>
       <c r="D98" s="20" t="s">
@@ -3880,25 +3713,25 @@
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" s="77"/>
+      <c r="A99" s="78"/>
       <c r="D99" s="20" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" s="77"/>
+      <c r="A100" s="78"/>
       <c r="D100" s="20" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101" s="77"/>
+      <c r="A101" s="78"/>
       <c r="D101" s="20" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A102" s="77" t="s">
+      <c r="A102" s="78" t="s">
         <v>146</v>
       </c>
       <c r="C102" s="23" t="s">
@@ -3909,7 +3742,7 @@
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A103" s="77"/>
+      <c r="A103" s="78"/>
       <c r="C103" s="23" t="s">
         <v>138</v>
       </c>
@@ -3918,7 +3751,7 @@
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A104" s="77"/>
+      <c r="A104" s="78"/>
       <c r="C104" s="23" t="s">
         <v>135</v>
       </c>
@@ -3927,7 +3760,7 @@
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A105" s="77"/>
+      <c r="A105" s="78"/>
       <c r="C105" s="23" t="s">
         <v>147</v>
       </c>
@@ -3936,7 +3769,7 @@
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A106" s="77"/>
+      <c r="A106" s="78"/>
       <c r="C106" s="23" t="s">
         <v>148</v>
       </c>
@@ -3945,13 +3778,13 @@
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A107" s="77"/>
+      <c r="A107" s="78"/>
       <c r="C107" s="23" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A108" s="77" t="s">
+      <c r="A108" s="78" t="s">
         <v>151</v>
       </c>
       <c r="C108" s="24" t="s">
@@ -3962,7 +3795,7 @@
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A109" s="77"/>
+      <c r="A109" s="78"/>
       <c r="C109" s="24" t="s">
         <v>153</v>
       </c>
@@ -3971,31 +3804,31 @@
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A110" s="77"/>
+      <c r="A110" s="78"/>
       <c r="D110" s="24" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A111" s="77"/>
+      <c r="A111" s="78"/>
       <c r="D111" s="24" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A112" s="77"/>
+      <c r="A112" s="78"/>
       <c r="D112" s="24" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A113" s="77"/>
+      <c r="A113" s="78"/>
       <c r="D113" s="24" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A114" s="77" t="s">
+      <c r="A114" s="78" t="s">
         <v>163</v>
       </c>
       <c r="C114" s="25" t="s">
@@ -4006,7 +3839,7 @@
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A115" s="77"/>
+      <c r="A115" s="78"/>
       <c r="C115" s="25" t="s">
         <v>119</v>
       </c>
@@ -4015,7 +3848,7 @@
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A116" s="77"/>
+      <c r="A116" s="78"/>
       <c r="C116" s="25" t="s">
         <v>120</v>
       </c>
@@ -4024,57 +3857,57 @@
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A117" s="77"/>
+      <c r="A117" s="78"/>
       <c r="D117" s="25" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A118" s="77"/>
+      <c r="A118" s="78"/>
       <c r="D118" s="25"/>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A119" s="77"/>
+      <c r="A119" s="78"/>
       <c r="D119" s="25" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A120" s="77"/>
+      <c r="A120" s="78"/>
       <c r="D120" s="25" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A121" s="77"/>
+      <c r="A121" s="78"/>
       <c r="D121" s="25" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A122" s="77"/>
+      <c r="A122" s="78"/>
       <c r="D122" s="25" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A123" s="77"/>
+      <c r="A123" s="78"/>
       <c r="D123" s="25"/>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A124" s="77"/>
+      <c r="A124" s="78"/>
       <c r="D124" s="25" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="125" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A125" s="77"/>
+      <c r="A125" s="78"/>
       <c r="D125" s="26" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A126" s="77"/>
+      <c r="A126" s="78"/>
       <c r="D126" s="25" t="s">
         <v>170</v>
       </c>
@@ -4110,1822 +3943,1298 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:K97"/>
+  <dimension ref="A1:G97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A83" sqref="A83:A88"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.42578125" customWidth="1"/>
-    <col min="2" max="2" width="72.85546875" style="55" customWidth="1"/>
+    <col min="2" max="2" width="23.7109375" style="55" customWidth="1"/>
     <col min="3" max="3" width="44" style="55" customWidth="1"/>
-    <col min="4" max="4" width="38.28515625" customWidth="1"/>
-    <col min="5" max="5" width="103.42578125" customWidth="1"/>
-    <col min="6" max="10" width="37.28515625" style="44" customWidth="1"/>
-    <col min="11" max="11" width="52.42578125" customWidth="1"/>
+    <col min="4" max="4" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.7109375" style="44" customWidth="1"/>
+    <col min="6" max="6" width="122.42578125" customWidth="1"/>
+    <col min="7" max="7" width="52.42578125" customWidth="1"/>
+    <col min="8" max="8" width="25.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="48" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="48" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C1" s="48" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D1" s="51" t="s">
         <v>204</v>
       </c>
       <c r="E1" s="51" t="s">
+        <v>341</v>
+      </c>
+      <c r="F1" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="45" t="s">
-        <v>340</v>
-      </c>
       <c r="G1" s="45" t="s">
-        <v>341</v>
-      </c>
-      <c r="H1" s="45" t="s">
-        <v>342</v>
-      </c>
-      <c r="I1" s="45" t="s">
-        <v>343</v>
-      </c>
-      <c r="J1" s="45" t="s">
-        <v>344</v>
-      </c>
-      <c r="K1" s="45" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="53" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="52" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C2" s="52" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D2" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="53" t="s">
+      <c r="E2" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66" t="s">
-        <v>345</v>
-      </c>
-      <c r="I2" s="46" t="s">
+      <c r="G2" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="66"/>
-      <c r="K2" s="46" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="76" t="s">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="77" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="77" t="s">
-        <v>314</v>
-      </c>
-      <c r="C3" s="77" t="s">
-        <v>311</v>
-      </c>
-      <c r="D3" s="67" t="s">
+      <c r="B3" s="78" t="s">
+        <v>315</v>
+      </c>
+      <c r="C3" s="78" t="s">
+        <v>312</v>
+      </c>
+      <c r="D3" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="67" t="s">
+      <c r="E3" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="72" t="s">
+        <v>302</v>
+      </c>
+      <c r="G3" s="68" t="s">
         <v>301</v>
       </c>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66" t="s">
-        <v>345</v>
-      </c>
-      <c r="I3" s="80" t="s">
-        <v>300</v>
-      </c>
-      <c r="J3" s="66"/>
-      <c r="K3" s="71" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="76"/>
-      <c r="B4" s="77"/>
-      <c r="C4" s="77"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66" t="s">
-        <v>345</v>
-      </c>
-      <c r="I4" s="80" t="s">
-        <v>300</v>
-      </c>
-      <c r="J4" s="66"/>
-      <c r="K4" s="72"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="76"/>
-      <c r="B5" s="77"/>
-      <c r="C5" s="77"/>
-      <c r="D5" s="67"/>
-      <c r="E5" s="67"/>
-      <c r="F5" s="66"/>
-      <c r="G5" s="66"/>
-      <c r="H5" s="66" t="s">
-        <v>345</v>
-      </c>
-      <c r="I5" s="80" t="s">
-        <v>300</v>
-      </c>
-      <c r="J5" s="66"/>
-      <c r="K5" s="72"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="76"/>
-      <c r="B6" s="77"/>
-      <c r="C6" s="77"/>
-      <c r="D6" s="67"/>
-      <c r="E6" s="67"/>
-      <c r="F6" s="66"/>
-      <c r="G6" s="66"/>
-      <c r="H6" s="66" t="s">
-        <v>345</v>
-      </c>
-      <c r="I6" s="80" t="s">
-        <v>300</v>
-      </c>
-      <c r="J6" s="66"/>
-      <c r="K6" s="72"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="76"/>
-      <c r="B7" s="77"/>
-      <c r="C7" s="77"/>
-      <c r="D7" s="67"/>
-      <c r="E7" s="67"/>
-      <c r="F7" s="66"/>
-      <c r="G7" s="66"/>
-      <c r="H7" s="66" t="s">
-        <v>345</v>
-      </c>
-      <c r="I7" s="80" t="s">
-        <v>300</v>
-      </c>
-      <c r="J7" s="66"/>
-      <c r="K7" s="72"/>
-    </row>
-    <row r="8" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A8" s="76"/>
-      <c r="B8" s="77"/>
-      <c r="C8" s="77"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="77"/>
+      <c r="B4" s="78"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="69"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="77"/>
+      <c r="B5" s="78"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="69"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="77"/>
+      <c r="B6" s="78"/>
+      <c r="C6" s="78"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="72"/>
+      <c r="G6" s="69"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="77"/>
+      <c r="B7" s="78"/>
+      <c r="C7" s="78"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="72"/>
+      <c r="G7" s="69"/>
+    </row>
+    <row r="8" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="77"/>
+      <c r="B8" s="78"/>
+      <c r="C8" s="78"/>
       <c r="D8" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="50" t="s">
-        <v>346</v>
-      </c>
-      <c r="F8" s="66"/>
-      <c r="G8" s="66"/>
-      <c r="H8" s="66" t="s">
-        <v>349</v>
-      </c>
-      <c r="I8" s="66" t="s">
-        <v>347</v>
-      </c>
-      <c r="J8" s="66"/>
-      <c r="K8" s="44"/>
-    </row>
-    <row r="9" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="76" t="s">
+      <c r="E8" s="66"/>
+      <c r="F8" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" s="44"/>
+    </row>
+    <row r="9" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="77" t="s">
         <v>224</v>
       </c>
-      <c r="B9" s="78" t="s">
+      <c r="B9" s="80" t="s">
+        <v>317</v>
+      </c>
+      <c r="C9" s="78" t="s">
         <v>316</v>
       </c>
-      <c r="C9" s="77" t="s">
-        <v>315</v>
-      </c>
-      <c r="D9" s="67" t="s">
+      <c r="D9" s="72" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="67" t="s">
+      <c r="E9" s="72" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="72" t="s">
         <v>32</v>
       </c>
-      <c r="F9" s="66"/>
-      <c r="G9" s="66"/>
-      <c r="H9" s="66" t="s">
-        <v>345</v>
-      </c>
-      <c r="I9" s="80" t="s">
+      <c r="G9" s="68" t="s">
         <v>33</v>
       </c>
-      <c r="J9" s="66"/>
-      <c r="K9" s="71" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="76"/>
-      <c r="B10" s="67"/>
-      <c r="C10" s="77"/>
-      <c r="D10" s="67"/>
-      <c r="E10" s="67"/>
-      <c r="F10" s="66"/>
-      <c r="G10" s="66"/>
-      <c r="H10" s="66" t="s">
-        <v>345</v>
-      </c>
-      <c r="I10" s="80" t="s">
-        <v>33</v>
-      </c>
-      <c r="J10" s="66"/>
-      <c r="K10" s="72"/>
-    </row>
-    <row r="11" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="76"/>
-      <c r="B11" s="67"/>
-      <c r="C11" s="77"/>
-      <c r="D11" s="67"/>
-      <c r="E11" s="67"/>
-      <c r="F11" s="66"/>
-      <c r="G11" s="66"/>
-      <c r="H11" s="66" t="s">
-        <v>345</v>
-      </c>
-      <c r="I11" s="80" t="s">
-        <v>33</v>
-      </c>
-      <c r="J11" s="66"/>
-      <c r="K11" s="72"/>
-    </row>
-    <row r="12" spans="1:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="A12" s="76"/>
-      <c r="B12" s="67"/>
-      <c r="C12" s="77"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="77"/>
+      <c r="B10" s="72"/>
+      <c r="C10" s="78"/>
+      <c r="D10" s="72"/>
+      <c r="E10" s="72"/>
+      <c r="F10" s="72"/>
+      <c r="G10" s="69"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="77"/>
+      <c r="B11" s="72"/>
+      <c r="C11" s="78"/>
+      <c r="D11" s="72"/>
+      <c r="E11" s="72"/>
+      <c r="F11" s="72"/>
+      <c r="G11" s="69"/>
+    </row>
+    <row r="12" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A12" s="77"/>
+      <c r="B12" s="72"/>
+      <c r="C12" s="78"/>
       <c r="D12" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="50" t="s">
+      <c r="E12" s="66" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="F12" s="66"/>
-      <c r="G12" s="66"/>
-      <c r="H12" s="66" t="s">
-        <v>345</v>
-      </c>
-      <c r="I12" s="80" t="s">
-        <v>33</v>
-      </c>
-      <c r="J12" s="66"/>
-      <c r="K12" s="72"/>
-    </row>
-    <row r="13" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="76"/>
-      <c r="B13" s="67"/>
-      <c r="C13" s="77"/>
+      <c r="G12" s="69"/>
+    </row>
+    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="77"/>
+      <c r="B13" s="72"/>
+      <c r="C13" s="78"/>
       <c r="D13" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="E13" s="50" t="s">
+      <c r="E13" s="66" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="F13" s="66"/>
-      <c r="G13" s="66"/>
-      <c r="H13" s="66" t="s">
-        <v>345</v>
-      </c>
-      <c r="I13" s="80" t="s">
-        <v>33</v>
-      </c>
-      <c r="J13" s="66"/>
-      <c r="K13" s="72"/>
-    </row>
-    <row r="14" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="76"/>
-      <c r="B14" s="67"/>
-      <c r="C14" s="77"/>
+      <c r="G13" s="69"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="77"/>
+      <c r="B14" s="72"/>
+      <c r="C14" s="78"/>
       <c r="D14" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="E14" s="67" t="s">
+      <c r="E14" s="66"/>
+      <c r="F14" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="F14" s="66"/>
-      <c r="G14" s="66"/>
-      <c r="H14" s="66" t="s">
-        <v>345</v>
-      </c>
-      <c r="I14" s="80" t="s">
-        <v>33</v>
-      </c>
-      <c r="J14" s="66"/>
-      <c r="K14" s="72"/>
-    </row>
-    <row r="15" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="76"/>
-      <c r="B15" s="67"/>
-      <c r="C15" s="77"/>
+      <c r="G14" s="69"/>
+    </row>
+    <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="77"/>
+      <c r="B15" s="72"/>
+      <c r="C15" s="78"/>
       <c r="D15" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="E15" s="67"/>
-      <c r="F15" s="66"/>
-      <c r="G15" s="66"/>
-      <c r="H15" s="66" t="s">
-        <v>345</v>
-      </c>
-      <c r="I15" s="80" t="s">
-        <v>33</v>
-      </c>
-      <c r="J15" s="66"/>
-      <c r="K15" s="72"/>
-    </row>
-    <row r="16" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="76" t="s">
+      <c r="E15" s="66"/>
+      <c r="F15" s="72"/>
+      <c r="G15" s="69"/>
+    </row>
+    <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="77" t="s">
         <v>41</v>
       </c>
-      <c r="B16" s="77" t="s">
-        <v>275</v>
-      </c>
-      <c r="C16" s="77" t="s">
+      <c r="B16" s="78" t="s">
         <v>276</v>
+      </c>
+      <c r="C16" s="78" t="s">
+        <v>277</v>
       </c>
       <c r="D16" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="E16" s="50" t="s">
+      <c r="E16" s="66"/>
+      <c r="F16" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="F16" s="66"/>
-      <c r="G16" s="66"/>
-      <c r="H16" s="66" t="s">
-        <v>345</v>
-      </c>
-      <c r="I16" s="80" t="s">
+      <c r="G16" s="68" t="s">
         <v>33</v>
       </c>
-      <c r="J16" s="66"/>
-      <c r="K16" s="71" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="76"/>
-      <c r="B17" s="77"/>
-      <c r="C17" s="77"/>
+    </row>
+    <row r="17" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="77"/>
+      <c r="B17" s="78"/>
+      <c r="C17" s="78"/>
       <c r="D17" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="E17" s="50" t="s">
+      <c r="E17" s="66"/>
+      <c r="F17" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="F17" s="66"/>
-      <c r="G17" s="66"/>
-      <c r="H17" s="66" t="s">
-        <v>345</v>
-      </c>
-      <c r="I17" s="80" t="s">
-        <v>33</v>
-      </c>
-      <c r="J17" s="66"/>
-      <c r="K17" s="71"/>
-    </row>
-    <row r="18" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="76"/>
-      <c r="B18" s="77"/>
-      <c r="C18" s="77"/>
+      <c r="G17" s="68"/>
+    </row>
+    <row r="18" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="77"/>
+      <c r="B18" s="78"/>
+      <c r="C18" s="78"/>
       <c r="D18" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="E18" s="50" t="s">
+      <c r="E18" s="66"/>
+      <c r="F18" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="F18" s="42"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="66" t="s">
-        <v>345</v>
-      </c>
-      <c r="I18" s="80" t="s">
-        <v>33</v>
-      </c>
-      <c r="J18" s="42"/>
-      <c r="K18" s="71"/>
-    </row>
-    <row r="19" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="76"/>
-      <c r="B19" s="77"/>
-      <c r="C19" s="77"/>
+      <c r="G18" s="68"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="77"/>
+      <c r="B19" s="78"/>
+      <c r="C19" s="78"/>
       <c r="D19" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="E19" s="50" t="s">
+      <c r="E19" s="66"/>
+      <c r="F19" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="F19" s="66"/>
-      <c r="G19" s="66"/>
-      <c r="H19" s="66" t="s">
-        <v>345</v>
-      </c>
-      <c r="I19" s="80" t="s">
-        <v>33</v>
-      </c>
-      <c r="J19" s="66"/>
-      <c r="K19" s="71"/>
-    </row>
-    <row r="20" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="76"/>
-      <c r="B20" s="77"/>
-      <c r="C20" s="77"/>
+      <c r="G19" s="68"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="77"/>
+      <c r="B20" s="78"/>
+      <c r="C20" s="78"/>
       <c r="D20" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="E20" s="50" t="s">
+      <c r="E20" s="66"/>
+      <c r="F20" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="F20" s="66"/>
-      <c r="G20" s="66"/>
-      <c r="H20" s="66" t="s">
-        <v>345</v>
-      </c>
-      <c r="I20" s="80" t="s">
-        <v>33</v>
-      </c>
-      <c r="J20" s="66"/>
-      <c r="K20" s="71"/>
-    </row>
-    <row r="21" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="76"/>
-      <c r="B21" s="77"/>
-      <c r="C21" s="77"/>
+      <c r="G20" s="68"/>
+    </row>
+    <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="77"/>
+      <c r="B21" s="78"/>
+      <c r="C21" s="78"/>
       <c r="D21" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="E21" s="50" t="s">
+      <c r="E21" s="72" t="s">
+        <v>225</v>
+      </c>
+      <c r="F21" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="F21" s="66"/>
-      <c r="G21" s="66"/>
-      <c r="H21" s="66" t="s">
-        <v>345</v>
-      </c>
-      <c r="I21" s="80" t="s">
-        <v>33</v>
-      </c>
-      <c r="J21" s="66"/>
-      <c r="K21" s="71"/>
-    </row>
-    <row r="22" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A22" s="76"/>
-      <c r="B22" s="77"/>
-      <c r="C22" s="77"/>
-      <c r="D22" s="67" t="s">
+      <c r="G21" s="68"/>
+    </row>
+    <row r="22" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A22" s="77"/>
+      <c r="B22" s="78"/>
+      <c r="C22" s="78"/>
+      <c r="D22" s="72" t="s">
         <v>225</v>
       </c>
-      <c r="E22" s="50" t="s">
+      <c r="E22" s="72"/>
+      <c r="F22" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="F22" s="66"/>
-      <c r="G22" s="66"/>
-      <c r="H22" s="66" t="s">
-        <v>345</v>
-      </c>
-      <c r="I22" s="80" t="s">
-        <v>33</v>
-      </c>
-      <c r="J22" s="66"/>
-      <c r="K22" s="71"/>
-    </row>
-    <row r="23" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A23" s="76"/>
-      <c r="B23" s="77"/>
-      <c r="C23" s="77"/>
-      <c r="D23" s="67"/>
-      <c r="E23" s="50" t="s">
+      <c r="G22" s="68"/>
+    </row>
+    <row r="23" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A23" s="77"/>
+      <c r="B23" s="78"/>
+      <c r="C23" s="78"/>
+      <c r="D23" s="72"/>
+      <c r="E23" s="66" t="s">
+        <v>226</v>
+      </c>
+      <c r="F23" s="50" t="s">
         <v>55</v>
       </c>
-      <c r="F23" s="66"/>
-      <c r="G23" s="66"/>
-      <c r="H23" s="66" t="s">
-        <v>345</v>
-      </c>
-      <c r="I23" s="80" t="s">
-        <v>33</v>
-      </c>
-      <c r="J23" s="66"/>
-      <c r="K23" s="71"/>
-    </row>
-    <row r="24" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="76"/>
-      <c r="B24" s="77"/>
-      <c r="C24" s="77"/>
+      <c r="G23" s="68"/>
+    </row>
+    <row r="24" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="77"/>
+      <c r="B24" s="78"/>
+      <c r="C24" s="78"/>
       <c r="D24" s="50" t="s">
         <v>226</v>
       </c>
-      <c r="E24" s="50" t="s">
+      <c r="E24" s="66" t="s">
+        <v>107</v>
+      </c>
+      <c r="F24" s="50" t="s">
         <v>56</v>
       </c>
-      <c r="F24" s="66"/>
-      <c r="G24" s="66"/>
-      <c r="H24" s="66" t="s">
-        <v>345</v>
-      </c>
-      <c r="I24" s="80" t="s">
+      <c r="G24" s="68"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="78" t="s">
+        <v>58</v>
+      </c>
+      <c r="B25" s="78" t="s">
+        <v>260</v>
+      </c>
+      <c r="C25" s="78" t="s">
+        <v>318</v>
+      </c>
+      <c r="D25" s="44"/>
+      <c r="F25" s="50"/>
+      <c r="G25" s="68" t="s">
         <v>33</v>
       </c>
-      <c r="J24" s="66"/>
-      <c r="K24" s="71"/>
-    </row>
-    <row r="25" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="77" t="s">
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="78"/>
+      <c r="B26" s="78"/>
+      <c r="C26" s="78"/>
+      <c r="D26" s="72" t="s">
         <v>58</v>
       </c>
-      <c r="B25" s="77" t="s">
-        <v>259</v>
-      </c>
-      <c r="C25" s="77" t="s">
-        <v>317</v>
-      </c>
-      <c r="D25" s="44"/>
-      <c r="E25" s="50"/>
-      <c r="F25" s="66"/>
-      <c r="G25" s="66"/>
-      <c r="H25" s="66" t="s">
-        <v>345</v>
-      </c>
-      <c r="I25" s="80" t="s">
-        <v>33</v>
-      </c>
-      <c r="J25" s="66"/>
-      <c r="K25" s="71" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="77"/>
-      <c r="B26" s="77"/>
-      <c r="C26" s="77"/>
-      <c r="D26" s="67" t="s">
-        <v>58</v>
-      </c>
-      <c r="E26" s="50" t="s">
+      <c r="E26" s="66"/>
+      <c r="F26" s="50" t="s">
         <v>60</v>
       </c>
-      <c r="F26" s="43"/>
-      <c r="G26" s="43"/>
-      <c r="H26" s="66" t="s">
-        <v>345</v>
-      </c>
-      <c r="I26" s="80" t="s">
-        <v>33</v>
-      </c>
-      <c r="J26" s="43"/>
-      <c r="K26" s="72"/>
-    </row>
-    <row r="27" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="77"/>
-      <c r="B27" s="77"/>
-      <c r="C27" s="77"/>
-      <c r="D27" s="67"/>
-      <c r="E27" s="50" t="s">
+      <c r="G26" s="69"/>
+    </row>
+    <row r="27" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="78"/>
+      <c r="B27" s="78"/>
+      <c r="C27" s="78"/>
+      <c r="D27" s="72"/>
+      <c r="E27" s="66" t="s">
+        <v>230</v>
+      </c>
+      <c r="F27" s="50" t="s">
         <v>61</v>
       </c>
-      <c r="F27" s="66"/>
-      <c r="G27" s="66"/>
-      <c r="H27" s="66" t="s">
-        <v>345</v>
-      </c>
-      <c r="I27" s="80" t="s">
-        <v>33</v>
-      </c>
-      <c r="J27" s="66"/>
-      <c r="K27" s="72"/>
-    </row>
-    <row r="28" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="77"/>
-      <c r="B28" s="77"/>
-      <c r="C28" s="77"/>
+      <c r="G27" s="69"/>
+    </row>
+    <row r="28" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="78"/>
+      <c r="B28" s="78"/>
+      <c r="C28" s="78"/>
       <c r="D28" s="50" t="s">
         <v>227</v>
       </c>
-      <c r="E28" s="50" t="s">
+      <c r="E28" s="66"/>
+      <c r="F28" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="F28" s="66"/>
-      <c r="G28" s="66"/>
-      <c r="H28" s="66" t="s">
-        <v>345</v>
-      </c>
-      <c r="I28" s="80" t="s">
-        <v>33</v>
-      </c>
-      <c r="J28" s="66"/>
-      <c r="K28" s="72"/>
-    </row>
-    <row r="29" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="77" t="s">
+      <c r="G28" s="69"/>
+    </row>
+    <row r="29" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="78" t="s">
         <v>66</v>
       </c>
-      <c r="B29" s="77" t="s">
-        <v>277</v>
-      </c>
-      <c r="C29" s="77" t="s">
+      <c r="B29" s="78" t="s">
         <v>278</v>
+      </c>
+      <c r="C29" s="78" t="s">
+        <v>279</v>
       </c>
       <c r="D29" s="50" t="s">
         <v>228</v>
       </c>
-      <c r="E29" s="50" t="s">
+      <c r="E29" s="66"/>
+      <c r="F29" s="50" t="s">
         <v>68</v>
       </c>
-      <c r="F29" s="42"/>
-      <c r="G29" s="42"/>
-      <c r="H29" s="66" t="s">
-        <v>345</v>
-      </c>
-      <c r="I29" s="80" t="s">
-        <v>302</v>
-      </c>
-      <c r="J29" s="42"/>
-      <c r="K29" s="71" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="77"/>
-      <c r="B30" s="77"/>
-      <c r="C30" s="77"/>
+      <c r="G29" s="68" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="78"/>
+      <c r="B30" s="78"/>
+      <c r="C30" s="78"/>
       <c r="D30" s="50" t="s">
         <v>67</v>
       </c>
-      <c r="E30" s="50" t="s">
+      <c r="E30" s="66" t="s">
+        <v>107</v>
+      </c>
+      <c r="F30" s="50" t="s">
         <v>69</v>
       </c>
-      <c r="F30" s="66"/>
-      <c r="G30" s="66"/>
-      <c r="H30" s="66" t="s">
-        <v>345</v>
-      </c>
-      <c r="I30" s="80" t="s">
-        <v>302</v>
-      </c>
-      <c r="J30" s="66"/>
-      <c r="K30" s="72"/>
-    </row>
-    <row r="31" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="77"/>
-      <c r="B31" s="77"/>
-      <c r="C31" s="77"/>
-      <c r="D31" s="67" t="s">
+      <c r="G30" s="69"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="78"/>
+      <c r="B31" s="78"/>
+      <c r="C31" s="78"/>
+      <c r="D31" s="72" t="s">
         <v>44</v>
       </c>
-      <c r="E31" s="50" t="s">
+      <c r="E31" s="66"/>
+      <c r="F31" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="F31" s="66"/>
-      <c r="G31" s="66"/>
-      <c r="H31" s="66" t="s">
-        <v>345</v>
-      </c>
-      <c r="I31" s="80" t="s">
-        <v>302</v>
-      </c>
-      <c r="J31" s="66"/>
-      <c r="K31" s="72"/>
-    </row>
-    <row r="32" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="77"/>
-      <c r="B32" s="77"/>
-      <c r="C32" s="77"/>
-      <c r="D32" s="67"/>
-      <c r="E32" s="50" t="s">
+      <c r="G31" s="69"/>
+    </row>
+    <row r="32" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="78"/>
+      <c r="B32" s="78"/>
+      <c r="C32" s="78"/>
+      <c r="D32" s="72"/>
+      <c r="E32" s="66"/>
+      <c r="F32" s="50" t="s">
         <v>71</v>
       </c>
-      <c r="F32" s="66"/>
-      <c r="G32" s="66"/>
-      <c r="H32" s="66" t="s">
-        <v>345</v>
-      </c>
-      <c r="I32" s="80" t="s">
-        <v>302</v>
-      </c>
-      <c r="J32" s="66"/>
-      <c r="K32" s="72"/>
-    </row>
-    <row r="33" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A33" s="77"/>
-      <c r="B33" s="77"/>
-      <c r="C33" s="77"/>
-      <c r="D33" s="67"/>
-      <c r="E33" s="50" t="s">
+      <c r="G32" s="69"/>
+    </row>
+    <row r="33" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A33" s="78"/>
+      <c r="B33" s="78"/>
+      <c r="C33" s="78"/>
+      <c r="D33" s="72"/>
+      <c r="E33" s="66"/>
+      <c r="F33" s="50" t="s">
         <v>72</v>
       </c>
-      <c r="F33" s="43"/>
-      <c r="G33" s="43"/>
-      <c r="H33" s="66" t="s">
-        <v>345</v>
-      </c>
-      <c r="I33" s="80" t="s">
-        <v>302</v>
-      </c>
-      <c r="J33" s="43"/>
-      <c r="K33" s="72"/>
-    </row>
-    <row r="34" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A34" s="77"/>
-      <c r="B34" s="77"/>
-      <c r="C34" s="77"/>
-      <c r="D34" s="67"/>
-      <c r="E34" s="50" t="s">
+      <c r="G33" s="69"/>
+    </row>
+    <row r="34" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A34" s="78"/>
+      <c r="B34" s="78"/>
+      <c r="C34" s="78"/>
+      <c r="D34" s="72"/>
+      <c r="E34" s="66"/>
+      <c r="F34" s="50" t="s">
         <v>73</v>
       </c>
-      <c r="F34" s="43"/>
-      <c r="G34" s="43"/>
-      <c r="H34" s="66" t="s">
-        <v>345</v>
-      </c>
-      <c r="I34" s="80" t="s">
-        <v>302</v>
-      </c>
-      <c r="J34" s="43"/>
-      <c r="K34" s="72"/>
-    </row>
-    <row r="35" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="77"/>
-      <c r="B35" s="77"/>
-      <c r="C35" s="77"/>
-      <c r="D35" s="67"/>
-      <c r="E35" s="50" t="s">
+      <c r="G34" s="69"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="78"/>
+      <c r="B35" s="78"/>
+      <c r="C35" s="78"/>
+      <c r="D35" s="72"/>
+      <c r="E35" s="66"/>
+      <c r="F35" s="50" t="s">
         <v>74</v>
       </c>
-      <c r="F35" s="43"/>
-      <c r="G35" s="43"/>
-      <c r="H35" s="66" t="s">
-        <v>345</v>
-      </c>
-      <c r="I35" s="80" t="s">
-        <v>302</v>
-      </c>
-      <c r="J35" s="43"/>
-      <c r="K35" s="72"/>
-    </row>
-    <row r="36" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="77"/>
-      <c r="B36" s="77"/>
-      <c r="C36" s="77"/>
-      <c r="D36" s="67"/>
-      <c r="E36" s="50" t="s">
+      <c r="G35" s="69"/>
+    </row>
+    <row r="36" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="78"/>
+      <c r="B36" s="78"/>
+      <c r="C36" s="78"/>
+      <c r="D36" s="72"/>
+      <c r="E36" s="66" t="s">
+        <v>107</v>
+      </c>
+      <c r="F36" s="50" t="s">
         <v>229</v>
       </c>
-      <c r="F36" s="43"/>
-      <c r="G36" s="43"/>
-      <c r="H36" s="66" t="s">
-        <v>345</v>
-      </c>
-      <c r="I36" s="80" t="s">
-        <v>302</v>
-      </c>
-      <c r="J36" s="43"/>
-      <c r="K36" s="72"/>
-    </row>
-    <row r="37" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="77" t="s">
+      <c r="G36" s="69"/>
+    </row>
+    <row r="37" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" s="78" t="s">
         <v>77</v>
       </c>
-      <c r="B37" s="77" t="s">
-        <v>318</v>
-      </c>
-      <c r="C37" s="77" t="s">
-        <v>279</v>
+      <c r="B37" s="78" t="s">
+        <v>319</v>
+      </c>
+      <c r="C37" s="78" t="s">
+        <v>280</v>
       </c>
       <c r="D37" s="50" t="s">
         <v>230</v>
       </c>
-      <c r="E37" s="50" t="s">
-        <v>348</v>
-      </c>
-      <c r="F37" s="66"/>
-      <c r="G37" s="80" t="s">
-        <v>78</v>
-      </c>
-      <c r="H37" s="66"/>
-      <c r="I37" s="66"/>
-      <c r="J37" s="66"/>
-      <c r="K37" s="71" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A38" s="77"/>
-      <c r="B38" s="77"/>
-      <c r="C38" s="77"/>
+      <c r="E37" s="66" t="s">
+        <v>107</v>
+      </c>
+      <c r="F37" s="50" t="s">
+        <v>231</v>
+      </c>
+      <c r="G37" s="68" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38" s="78"/>
+      <c r="B38" s="78"/>
+      <c r="C38" s="78"/>
       <c r="D38" s="50" t="s">
-        <v>231</v>
-      </c>
-      <c r="E38" s="50" t="s">
         <v>232</v>
       </c>
-      <c r="F38" s="66"/>
-      <c r="G38" s="66"/>
-      <c r="H38" s="66" t="s">
-        <v>345</v>
-      </c>
-      <c r="I38" s="80" t="s">
-        <v>303</v>
-      </c>
-      <c r="J38" s="66"/>
-      <c r="K38" s="72"/>
-    </row>
-    <row r="39" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39" s="77" t="s">
+      <c r="E38" s="66"/>
+      <c r="F38" s="50" t="s">
+        <v>233</v>
+      </c>
+      <c r="G38" s="69"/>
+    </row>
+    <row r="39" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A39" s="78" t="s">
         <v>80</v>
       </c>
-      <c r="B39" s="77" t="s">
-        <v>280</v>
-      </c>
-      <c r="C39" s="77" t="s">
+      <c r="B39" s="78" t="s">
         <v>281</v>
+      </c>
+      <c r="C39" s="78" t="s">
+        <v>282</v>
       </c>
       <c r="D39" s="50" t="s">
         <v>81</v>
       </c>
-      <c r="E39" s="50" t="s">
-        <v>233</v>
-      </c>
-      <c r="H39" s="66" t="s">
-        <v>345</v>
-      </c>
-      <c r="I39" s="47" t="s">
-        <v>304</v>
-      </c>
-      <c r="K39" s="71" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="77"/>
-      <c r="B40" s="77"/>
-      <c r="C40" s="77"/>
+      <c r="E39" s="66" t="s">
+        <v>107</v>
+      </c>
+      <c r="F39" s="50" t="s">
+        <v>234</v>
+      </c>
+      <c r="G39" s="68" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="78"/>
+      <c r="B40" s="78"/>
+      <c r="C40" s="78"/>
       <c r="D40" s="50" t="s">
         <v>82</v>
       </c>
-      <c r="E40" s="50" t="s">
+      <c r="E40" s="66"/>
+      <c r="F40" s="50" t="s">
         <v>89</v>
       </c>
-      <c r="H40" s="66" t="s">
-        <v>345</v>
-      </c>
-      <c r="I40" s="47" t="s">
-        <v>304</v>
-      </c>
-      <c r="K40" s="72"/>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" s="77"/>
-      <c r="B41" s="77"/>
-      <c r="C41" s="77"/>
+      <c r="G40" s="69"/>
+    </row>
+    <row r="41" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="78"/>
+      <c r="B41" s="78"/>
+      <c r="C41" s="78"/>
       <c r="D41" s="50" t="s">
         <v>83</v>
       </c>
-      <c r="E41" s="50" t="s">
+      <c r="E41" s="66" t="s">
+        <v>107</v>
+      </c>
+      <c r="F41" s="50" t="s">
         <v>90</v>
       </c>
-      <c r="F41" s="66"/>
-      <c r="G41" s="66"/>
-      <c r="H41" s="66" t="s">
-        <v>345</v>
-      </c>
-      <c r="I41" s="47" t="s">
-        <v>304</v>
-      </c>
-      <c r="J41" s="66"/>
-      <c r="K41" s="72"/>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" s="77"/>
-      <c r="B42" s="77"/>
-      <c r="C42" s="77"/>
-      <c r="D42" s="67" t="s">
+      <c r="G41" s="69"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="78"/>
+      <c r="B42" s="78"/>
+      <c r="C42" s="78"/>
+      <c r="D42" s="72" t="s">
         <v>85</v>
       </c>
-      <c r="E42" s="50" t="s">
-        <v>233</v>
-      </c>
-      <c r="F42" s="66"/>
-      <c r="G42" s="66"/>
-      <c r="H42" s="66" t="s">
-        <v>345</v>
-      </c>
-      <c r="I42" s="47" t="s">
-        <v>304</v>
-      </c>
-      <c r="J42" s="66"/>
-      <c r="K42" s="72"/>
-    </row>
-    <row r="43" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A43" s="77"/>
-      <c r="B43" s="77"/>
-      <c r="C43" s="77"/>
-      <c r="D43" s="67"/>
-      <c r="E43" s="50" t="s">
+      <c r="E42" s="66"/>
+      <c r="F42" s="50" t="s">
+        <v>234</v>
+      </c>
+      <c r="G42" s="69"/>
+    </row>
+    <row r="43" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A43" s="78"/>
+      <c r="B43" s="78"/>
+      <c r="C43" s="78"/>
+      <c r="D43" s="72"/>
+      <c r="E43" s="66"/>
+      <c r="F43" s="50" t="s">
         <v>93</v>
       </c>
-      <c r="F43" s="66"/>
-      <c r="G43" s="66"/>
-      <c r="H43" s="66" t="s">
-        <v>345</v>
-      </c>
-      <c r="I43" s="47" t="s">
-        <v>304</v>
-      </c>
-      <c r="J43" s="66"/>
-      <c r="K43" s="72"/>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" s="77"/>
-      <c r="B44" s="77"/>
-      <c r="C44" s="77"/>
-      <c r="D44" s="67"/>
-      <c r="E44" s="50" t="s">
+      <c r="G43" s="69"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="78"/>
+      <c r="B44" s="78"/>
+      <c r="C44" s="78"/>
+      <c r="D44" s="72"/>
+      <c r="E44" s="66"/>
+      <c r="F44" s="50" t="s">
         <v>94</v>
       </c>
-      <c r="F44" s="66"/>
-      <c r="G44" s="66"/>
-      <c r="H44" s="66" t="s">
-        <v>345</v>
-      </c>
-      <c r="I44" s="47" t="s">
-        <v>304</v>
-      </c>
-      <c r="J44" s="66"/>
-      <c r="K44" s="72"/>
-    </row>
-    <row r="45" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A45" s="77"/>
-      <c r="B45" s="77"/>
-      <c r="C45" s="77"/>
-      <c r="D45" s="67"/>
-      <c r="E45" s="50" t="s">
+      <c r="G44" s="69"/>
+    </row>
+    <row r="45" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A45" s="78"/>
+      <c r="B45" s="78"/>
+      <c r="C45" s="78"/>
+      <c r="D45" s="72"/>
+      <c r="E45" s="66"/>
+      <c r="F45" s="50" t="s">
         <v>95</v>
       </c>
-      <c r="H45" s="66" t="s">
-        <v>345</v>
-      </c>
-      <c r="I45" s="47" t="s">
-        <v>304</v>
-      </c>
-      <c r="K45" s="72"/>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" s="77"/>
-      <c r="B46" s="77"/>
-      <c r="C46" s="77"/>
-      <c r="D46" s="67"/>
-      <c r="E46" s="50" t="s">
+      <c r="G45" s="69"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="78"/>
+      <c r="B46" s="78"/>
+      <c r="C46" s="78"/>
+      <c r="D46" s="72"/>
+      <c r="E46" s="66"/>
+      <c r="F46" s="50" t="s">
         <v>96</v>
       </c>
-      <c r="H46" s="66" t="s">
-        <v>345</v>
-      </c>
-      <c r="I46" s="47" t="s">
-        <v>304</v>
-      </c>
-      <c r="K46" s="72"/>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" s="77"/>
-      <c r="B47" s="77"/>
-      <c r="C47" s="77"/>
-      <c r="D47" s="67"/>
-      <c r="E47" s="50" t="s">
+      <c r="G46" s="69"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="78"/>
+      <c r="B47" s="78"/>
+      <c r="C47" s="78"/>
+      <c r="D47" s="72"/>
+      <c r="E47" s="66"/>
+      <c r="F47" s="50" t="s">
         <v>97</v>
       </c>
-      <c r="H47" s="66" t="s">
-        <v>345</v>
-      </c>
-      <c r="I47" s="47" t="s">
-        <v>304</v>
-      </c>
-      <c r="K47" s="72"/>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" s="77"/>
-      <c r="B48" s="77"/>
-      <c r="C48" s="77"/>
-      <c r="D48" s="67"/>
-      <c r="E48" s="50" t="s">
+      <c r="G47" s="69"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="78"/>
+      <c r="B48" s="78"/>
+      <c r="C48" s="78"/>
+      <c r="D48" s="72"/>
+      <c r="E48" s="66"/>
+      <c r="F48" s="50" t="s">
         <v>98</v>
       </c>
-      <c r="H48" s="66" t="s">
-        <v>345</v>
-      </c>
-      <c r="I48" s="47" t="s">
-        <v>304</v>
-      </c>
-      <c r="K48" s="72"/>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A49" s="77"/>
-      <c r="B49" s="77"/>
-      <c r="C49" s="77"/>
-      <c r="D49" s="67"/>
-      <c r="E49" s="50" t="s">
+      <c r="G48" s="69"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="78"/>
+      <c r="B49" s="78"/>
+      <c r="C49" s="78"/>
+      <c r="D49" s="72"/>
+      <c r="E49" s="66"/>
+      <c r="F49" s="50" t="s">
         <v>99</v>
       </c>
-      <c r="H49" s="66" t="s">
-        <v>345</v>
-      </c>
-      <c r="I49" s="47" t="s">
-        <v>304</v>
-      </c>
-      <c r="K49" s="72"/>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A50" s="77"/>
-      <c r="B50" s="77"/>
-      <c r="C50" s="77"/>
-      <c r="D50" s="67"/>
-      <c r="E50" s="50" t="s">
+      <c r="G49" s="69"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="78"/>
+      <c r="B50" s="78"/>
+      <c r="C50" s="78"/>
+      <c r="D50" s="72"/>
+      <c r="E50" s="66"/>
+      <c r="F50" s="50" t="s">
         <v>100</v>
       </c>
-      <c r="H50" s="66" t="s">
-        <v>345</v>
-      </c>
-      <c r="I50" s="47" t="s">
-        <v>304</v>
-      </c>
-      <c r="K50" s="72"/>
-    </row>
-    <row r="51" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A51" s="77"/>
-      <c r="B51" s="77"/>
-      <c r="C51" s="77"/>
-      <c r="D51" s="67"/>
-      <c r="E51" s="50" t="s">
+      <c r="G50" s="69"/>
+    </row>
+    <row r="51" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A51" s="78"/>
+      <c r="B51" s="78"/>
+      <c r="C51" s="78"/>
+      <c r="D51" s="72"/>
+      <c r="E51" s="66"/>
+      <c r="F51" s="50" t="s">
         <v>101</v>
       </c>
-      <c r="H51" s="66" t="s">
-        <v>345</v>
-      </c>
-      <c r="I51" s="47" t="s">
-        <v>304</v>
-      </c>
-      <c r="K51" s="72"/>
-    </row>
-    <row r="52" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A52" s="77"/>
-      <c r="B52" s="77"/>
-      <c r="C52" s="77"/>
-      <c r="D52" s="67"/>
-      <c r="E52" s="50" t="s">
+      <c r="G51" s="69"/>
+    </row>
+    <row r="52" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A52" s="78"/>
+      <c r="B52" s="78"/>
+      <c r="C52" s="78"/>
+      <c r="D52" s="72"/>
+      <c r="E52" s="66"/>
+      <c r="F52" s="50" t="s">
         <v>102</v>
       </c>
-      <c r="H52" s="66" t="s">
-        <v>345</v>
-      </c>
-      <c r="I52" s="47" t="s">
-        <v>304</v>
-      </c>
-      <c r="K52" s="72"/>
-    </row>
-    <row r="53" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A53" s="77"/>
-      <c r="B53" s="77"/>
-      <c r="C53" s="77"/>
-      <c r="D53" s="67"/>
-      <c r="E53" s="50" t="s">
+      <c r="G52" s="69"/>
+    </row>
+    <row r="53" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A53" s="78"/>
+      <c r="B53" s="78"/>
+      <c r="C53" s="78"/>
+      <c r="D53" s="72"/>
+      <c r="E53" s="66"/>
+      <c r="F53" s="50" t="s">
         <v>103</v>
       </c>
-      <c r="H53" s="66" t="s">
-        <v>345</v>
-      </c>
-      <c r="I53" s="47" t="s">
-        <v>304</v>
-      </c>
-      <c r="K53" s="72"/>
-    </row>
-    <row r="54" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A54" s="77" t="s">
+      <c r="G53" s="69"/>
+    </row>
+    <row r="54" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A54" s="78" t="s">
         <v>195</v>
       </c>
-      <c r="B54" s="77" t="s">
-        <v>282</v>
-      </c>
-      <c r="C54" s="77" t="s">
+      <c r="B54" s="78" t="s">
         <v>283</v>
+      </c>
+      <c r="C54" s="78" t="s">
+        <v>284</v>
       </c>
       <c r="D54" s="50" t="s">
         <v>105</v>
       </c>
-      <c r="E54" s="50" t="s">
+      <c r="E54" s="66"/>
+      <c r="F54" s="50" t="s">
         <v>109</v>
       </c>
-      <c r="H54" s="66" t="s">
-        <v>345</v>
-      </c>
-      <c r="I54" s="80" t="s">
-        <v>350</v>
-      </c>
-      <c r="K54" s="79" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A55" s="77"/>
-      <c r="B55" s="77"/>
-      <c r="C55" s="77"/>
+      <c r="G54" s="79" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A55" s="78"/>
+      <c r="B55" s="78"/>
+      <c r="C55" s="78"/>
       <c r="D55" s="50" t="s">
         <v>106</v>
       </c>
-      <c r="E55" s="50" t="s">
-        <v>234</v>
-      </c>
-      <c r="H55" s="66" t="s">
-        <v>345</v>
-      </c>
-      <c r="I55" s="47" t="s">
-        <v>350</v>
-      </c>
-      <c r="K55" s="72"/>
-    </row>
-    <row r="56" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A56" s="77"/>
-      <c r="B56" s="77"/>
-      <c r="C56" s="77"/>
+      <c r="E55" s="66"/>
+      <c r="F55" s="50" t="s">
+        <v>235</v>
+      </c>
+      <c r="G55" s="69"/>
+    </row>
+    <row r="56" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A56" s="78"/>
+      <c r="B56" s="78"/>
+      <c r="C56" s="78"/>
       <c r="D56" s="50" t="s">
         <v>107</v>
       </c>
-      <c r="E56" s="50" t="s">
+      <c r="E56" s="72" t="s">
+        <v>153</v>
+      </c>
+      <c r="F56" s="50" t="s">
         <v>111</v>
       </c>
-      <c r="H56" s="66" t="s">
-        <v>345</v>
-      </c>
-      <c r="I56" s="80" t="s">
-        <v>350</v>
-      </c>
-      <c r="K56" s="72"/>
-    </row>
-    <row r="57" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A57" s="77"/>
-      <c r="B57" s="77"/>
-      <c r="C57" s="77"/>
-      <c r="D57" s="67" t="s">
+      <c r="G56" s="69"/>
+    </row>
+    <row r="57" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A57" s="78"/>
+      <c r="B57" s="78"/>
+      <c r="C57" s="78"/>
+      <c r="D57" s="72" t="s">
         <v>108</v>
       </c>
-      <c r="E57" s="50" t="s">
-        <v>351</v>
-      </c>
-      <c r="H57" s="66" t="s">
-        <v>345</v>
-      </c>
-      <c r="I57" s="47" t="s">
-        <v>350</v>
-      </c>
-      <c r="K57" s="72"/>
-    </row>
-    <row r="58" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A58" s="77"/>
-      <c r="B58" s="77"/>
-      <c r="C58" s="77"/>
-      <c r="D58" s="67"/>
-      <c r="E58" s="50" t="s">
+      <c r="E57" s="72"/>
+      <c r="F57" s="50" t="s">
+        <v>37</v>
+      </c>
+      <c r="G57" s="69"/>
+    </row>
+    <row r="58" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A58" s="78"/>
+      <c r="B58" s="78"/>
+      <c r="C58" s="78"/>
+      <c r="D58" s="72"/>
+      <c r="E58" s="72"/>
+      <c r="F58" s="50" t="s">
         <v>71</v>
       </c>
-      <c r="H58" s="66" t="s">
-        <v>345</v>
-      </c>
-      <c r="I58" s="47" t="s">
-        <v>350</v>
-      </c>
-      <c r="K58" s="72"/>
-    </row>
-    <row r="59" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A59" s="77"/>
-      <c r="B59" s="77"/>
-      <c r="C59" s="77"/>
-      <c r="D59" s="67"/>
-      <c r="E59" s="50" t="s">
+      <c r="G58" s="69"/>
+    </row>
+    <row r="59" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A59" s="78"/>
+      <c r="B59" s="78"/>
+      <c r="C59" s="78"/>
+      <c r="D59" s="72"/>
+      <c r="E59" s="72"/>
+      <c r="F59" s="50" t="s">
         <v>112</v>
       </c>
-      <c r="H59" s="66" t="s">
-        <v>345</v>
-      </c>
-      <c r="I59" s="47" t="s">
-        <v>350</v>
-      </c>
-      <c r="K59" s="72"/>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A60" s="77"/>
-      <c r="B60" s="77"/>
-      <c r="C60" s="77"/>
-      <c r="D60" s="67"/>
-      <c r="E60" s="50" t="s">
+      <c r="G59" s="69"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="78"/>
+      <c r="B60" s="78"/>
+      <c r="C60" s="78"/>
+      <c r="D60" s="72"/>
+      <c r="E60" s="72"/>
+      <c r="F60" s="50" t="s">
         <v>113</v>
       </c>
-      <c r="H60" s="66" t="s">
-        <v>345</v>
-      </c>
-      <c r="I60" s="47" t="s">
-        <v>350</v>
-      </c>
-      <c r="K60" s="72"/>
-    </row>
-    <row r="61" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A61" s="77"/>
-      <c r="B61" s="77"/>
-      <c r="C61" s="77"/>
-      <c r="D61" s="67"/>
-      <c r="E61" s="50" t="s">
+      <c r="G60" s="69"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="78"/>
+      <c r="B61" s="78"/>
+      <c r="C61" s="78"/>
+      <c r="D61" s="72"/>
+      <c r="E61" s="66"/>
+      <c r="F61" s="50" t="s">
         <v>114</v>
       </c>
-      <c r="H61" s="66" t="s">
-        <v>345</v>
-      </c>
-      <c r="I61" s="47" t="s">
-        <v>350</v>
-      </c>
-      <c r="K61" s="72"/>
-    </row>
-    <row r="62" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A62" s="77"/>
-      <c r="B62" s="77"/>
-      <c r="C62" s="77"/>
-      <c r="D62" s="67"/>
-      <c r="E62" s="50" t="s">
+      <c r="G61" s="69"/>
+    </row>
+    <row r="62" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A62" s="78"/>
+      <c r="B62" s="78"/>
+      <c r="C62" s="78"/>
+      <c r="D62" s="72"/>
+      <c r="E62" s="66"/>
+      <c r="F62" s="50" t="s">
         <v>115</v>
       </c>
-      <c r="H62" s="66" t="s">
-        <v>345</v>
-      </c>
-      <c r="I62" s="47" t="s">
-        <v>350</v>
-      </c>
-      <c r="K62" s="72"/>
-    </row>
-    <row r="63" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A63" s="77"/>
-      <c r="B63" s="77"/>
-      <c r="C63" s="77"/>
-      <c r="D63" s="67"/>
-      <c r="E63" s="50" t="s">
+      <c r="G62" s="69"/>
+    </row>
+    <row r="63" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A63" s="78"/>
+      <c r="B63" s="78"/>
+      <c r="C63" s="78"/>
+      <c r="D63" s="72"/>
+      <c r="E63" s="72" t="s">
+        <v>153</v>
+      </c>
+      <c r="F63" s="50" t="s">
         <v>116</v>
       </c>
-      <c r="H63" s="44" t="s">
-        <v>345</v>
-      </c>
-      <c r="I63" s="47" t="s">
-        <v>350</v>
-      </c>
-      <c r="K63" s="72"/>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A64" s="77" t="s">
+      <c r="G63" s="69"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="78" t="s">
         <v>117</v>
       </c>
-      <c r="B64" s="77" t="s">
-        <v>319</v>
-      </c>
-      <c r="C64" s="77" t="s">
+      <c r="B64" s="78" t="s">
+        <v>320</v>
+      </c>
+      <c r="C64" s="78" t="s">
+        <v>322</v>
+      </c>
+      <c r="D64" s="72" t="s">
+        <v>120</v>
+      </c>
+      <c r="E64" s="72"/>
+      <c r="F64" s="72" t="s">
+        <v>236</v>
+      </c>
+      <c r="G64" s="79" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="78"/>
+      <c r="B65" s="78"/>
+      <c r="C65" s="78"/>
+      <c r="D65" s="72"/>
+      <c r="E65" s="72"/>
+      <c r="F65" s="72"/>
+      <c r="G65" s="69"/>
+    </row>
+    <row r="66" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A66" s="78"/>
+      <c r="B66" s="78"/>
+      <c r="C66" s="78"/>
+      <c r="D66" s="72"/>
+      <c r="E66" s="72"/>
+      <c r="F66" s="50" t="s">
+        <v>112</v>
+      </c>
+      <c r="G66" s="69"/>
+    </row>
+    <row r="67" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A67" s="78"/>
+      <c r="B67" s="78"/>
+      <c r="C67" s="78"/>
+      <c r="D67" s="72"/>
+      <c r="E67" s="72"/>
+      <c r="F67" s="50" t="s">
+        <v>124</v>
+      </c>
+      <c r="G67" s="69"/>
+    </row>
+    <row r="68" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A68" s="78" t="s">
+        <v>125</v>
+      </c>
+      <c r="B68" s="78" t="s">
         <v>321</v>
       </c>
-      <c r="D64" s="67" t="s">
-        <v>120</v>
-      </c>
-      <c r="E64" s="67" t="s">
-        <v>235</v>
-      </c>
-      <c r="H64" s="66" t="s">
-        <v>345</v>
-      </c>
-      <c r="I64" s="47" t="s">
-        <v>350</v>
-      </c>
-      <c r="K64" s="79" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A65" s="77"/>
-      <c r="B65" s="77"/>
-      <c r="C65" s="77"/>
-      <c r="D65" s="67"/>
-      <c r="E65" s="67"/>
-      <c r="H65" s="66" t="s">
-        <v>345</v>
-      </c>
-      <c r="I65" s="47" t="s">
-        <v>350</v>
-      </c>
-      <c r="K65" s="72"/>
-    </row>
-    <row r="66" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A66" s="77"/>
-      <c r="B66" s="77"/>
-      <c r="C66" s="77"/>
-      <c r="D66" s="67"/>
-      <c r="E66" s="50" t="s">
-        <v>112</v>
-      </c>
-      <c r="H66" s="66" t="s">
-        <v>345</v>
-      </c>
-      <c r="I66" s="47" t="s">
-        <v>350</v>
-      </c>
-      <c r="K66" s="72"/>
-    </row>
-    <row r="67" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A67" s="77"/>
-      <c r="B67" s="77"/>
-      <c r="C67" s="77"/>
-      <c r="D67" s="67"/>
-      <c r="E67" s="50" t="s">
-        <v>124</v>
-      </c>
-      <c r="H67" s="66" t="s">
-        <v>345</v>
-      </c>
-      <c r="I67" s="47" t="s">
-        <v>350</v>
-      </c>
-      <c r="K67" s="72"/>
-    </row>
-    <row r="68" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A68" s="77" t="s">
-        <v>125</v>
-      </c>
-      <c r="B68" s="77" t="s">
-        <v>320</v>
-      </c>
-      <c r="C68" s="77" t="s">
-        <v>284</v>
+      <c r="C68" s="78" t="s">
+        <v>285</v>
       </c>
       <c r="D68" s="50" t="s">
         <v>126</v>
       </c>
-      <c r="E68" s="50" t="s">
+      <c r="E68" s="66"/>
+      <c r="F68" s="50" t="s">
         <v>115</v>
       </c>
-      <c r="H68" s="66" t="s">
-        <v>345</v>
-      </c>
-      <c r="I68" s="47" t="s">
-        <v>350</v>
-      </c>
-      <c r="K68" s="71" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="A69" s="77"/>
-      <c r="B69" s="72"/>
-      <c r="C69" s="72"/>
+      <c r="G68" s="68" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A69" s="78"/>
+      <c r="B69" s="69"/>
+      <c r="C69" s="69"/>
       <c r="D69" s="50" t="s">
         <v>127</v>
       </c>
-      <c r="E69" s="50" t="s">
-        <v>111</v>
-      </c>
-      <c r="F69" s="66" t="s">
-        <v>352</v>
-      </c>
-      <c r="H69" s="66" t="s">
-        <v>345</v>
-      </c>
-      <c r="I69" s="47" t="s">
-        <v>350</v>
-      </c>
-      <c r="K69" s="72"/>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A70" s="77"/>
-      <c r="B70" s="72"/>
-      <c r="C70" s="72"/>
+      <c r="E69" s="72" t="s">
+        <v>153</v>
+      </c>
+      <c r="F69" s="50" t="s">
+        <v>130</v>
+      </c>
+      <c r="G69" s="69"/>
+    </row>
+    <row r="70" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A70" s="78"/>
+      <c r="B70" s="69"/>
+      <c r="C70" s="69"/>
       <c r="D70" s="50" t="s">
         <v>128</v>
       </c>
-      <c r="E70" s="50" t="s">
-        <v>353</v>
-      </c>
-      <c r="H70" s="66" t="s">
-        <v>354</v>
-      </c>
-      <c r="I70" s="47" t="s">
-        <v>355</v>
-      </c>
-      <c r="K70" s="72"/>
-    </row>
-    <row r="71" spans="1:11" s="44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="77"/>
-      <c r="B71" s="72"/>
-      <c r="C71" s="72"/>
-      <c r="D71" s="81"/>
-      <c r="E71" s="57" t="s">
-        <v>242</v>
-      </c>
-      <c r="H71" s="66" t="s">
-        <v>345</v>
-      </c>
-      <c r="I71" s="47" t="s">
-        <v>350</v>
-      </c>
-      <c r="K71" s="72"/>
-    </row>
-    <row r="72" spans="1:11" s="44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="77"/>
-      <c r="B72" s="72"/>
-      <c r="C72" s="72"/>
-      <c r="D72" s="81"/>
-      <c r="E72" s="57" t="s">
+      <c r="E70" s="72"/>
+      <c r="F70" s="50" t="s">
+        <v>131</v>
+      </c>
+      <c r="G70" s="69"/>
+    </row>
+    <row r="71" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="78"/>
+      <c r="B71" s="69"/>
+      <c r="C71" s="69"/>
+      <c r="D71" s="57"/>
+      <c r="E71" s="72"/>
+      <c r="F71" s="57" t="s">
         <v>243</v>
       </c>
-      <c r="H72" s="66" t="s">
-        <v>345</v>
-      </c>
-      <c r="I72" s="47" t="s">
-        <v>356</v>
-      </c>
-      <c r="K72" s="72"/>
-    </row>
-    <row r="73" spans="1:11" s="44" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A73" s="77"/>
-      <c r="B73" s="72"/>
-      <c r="C73" s="72"/>
-      <c r="D73" s="81"/>
-      <c r="E73" s="57" t="s">
+      <c r="G71" s="69"/>
+    </row>
+    <row r="72" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="78"/>
+      <c r="B72" s="69"/>
+      <c r="C72" s="69"/>
+      <c r="D72" s="57"/>
+      <c r="E72" s="72"/>
+      <c r="F72" s="57" t="s">
+        <v>244</v>
+      </c>
+      <c r="G72" s="69"/>
+    </row>
+    <row r="73" spans="1:7" s="44" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A73" s="78"/>
+      <c r="B73" s="69"/>
+      <c r="C73" s="69"/>
+      <c r="D73" s="57"/>
+      <c r="E73" s="72"/>
+      <c r="F73" s="57" t="s">
         <v>168</v>
       </c>
-      <c r="H73" s="66" t="s">
-        <v>345</v>
-      </c>
-      <c r="I73" s="47" t="s">
-        <v>200</v>
-      </c>
-      <c r="K73" s="72"/>
-    </row>
-    <row r="74" spans="1:11" s="44" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A74" s="77"/>
-      <c r="B74" s="72"/>
-      <c r="C74" s="72"/>
-      <c r="D74" s="81"/>
-      <c r="E74" s="57" t="s">
+      <c r="G73" s="69"/>
+    </row>
+    <row r="74" spans="1:7" s="44" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A74" s="78"/>
+      <c r="B74" s="69"/>
+      <c r="C74" s="69"/>
+      <c r="D74" s="57"/>
+      <c r="E74" s="66"/>
+      <c r="F74" s="57" t="s">
         <v>169</v>
       </c>
-      <c r="H74" s="66" t="s">
-        <v>345</v>
-      </c>
-      <c r="I74" s="47" t="s">
-        <v>200</v>
-      </c>
-      <c r="K74" s="72"/>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A75" s="77"/>
-      <c r="B75" s="72"/>
-      <c r="C75" s="72"/>
-      <c r="D75" s="82"/>
-      <c r="E75" s="57"/>
-      <c r="K75" s="72"/>
-    </row>
-    <row r="76" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A76" s="77" t="s">
+      <c r="G74" s="69"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" s="78"/>
+      <c r="B75" s="69"/>
+      <c r="C75" s="69"/>
+      <c r="D75" s="44"/>
+      <c r="F75" s="57"/>
+      <c r="G75" s="69"/>
+    </row>
+    <row r="76" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A76" s="78" t="s">
         <v>132</v>
       </c>
-      <c r="B76" s="77" t="s">
-        <v>285</v>
-      </c>
-      <c r="C76" s="77" t="s">
+      <c r="B76" s="78" t="s">
         <v>286</v>
+      </c>
+      <c r="C76" s="78" t="s">
+        <v>287</v>
       </c>
       <c r="D76" s="50" t="s">
         <v>133</v>
       </c>
-      <c r="E76" s="57" t="s">
+      <c r="E76" s="66" t="s">
+        <v>153</v>
+      </c>
+      <c r="F76" s="57" t="s">
         <v>115</v>
       </c>
-      <c r="H76" s="66" t="s">
-        <v>345</v>
-      </c>
-      <c r="I76" s="47" t="s">
-        <v>350</v>
-      </c>
-      <c r="K76" s="79" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A77" s="77"/>
-      <c r="B77" s="77"/>
-      <c r="C77" s="77"/>
+      <c r="G76" s="79" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A77" s="78"/>
+      <c r="B77" s="78"/>
+      <c r="C77" s="78"/>
       <c r="D77" s="50" t="s">
-        <v>236</v>
-      </c>
-      <c r="E77" s="57" t="s">
+        <v>237</v>
+      </c>
+      <c r="E77" s="66" t="s">
+        <v>153</v>
+      </c>
+      <c r="F77" s="57" t="s">
         <v>140</v>
       </c>
-      <c r="H77" s="66" t="s">
-        <v>345</v>
-      </c>
-      <c r="I77" s="80" t="s">
-        <v>350</v>
-      </c>
-      <c r="K77" s="72"/>
-    </row>
-    <row r="78" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="77" t="s">
+      <c r="G77" s="69"/>
+    </row>
+    <row r="78" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="78" t="s">
         <v>141</v>
       </c>
-      <c r="B78" s="77" t="s">
-        <v>287</v>
-      </c>
-      <c r="C78" s="77" t="s">
+      <c r="B78" s="78" t="s">
         <v>288</v>
       </c>
-      <c r="D78" s="67" t="s">
-        <v>237</v>
-      </c>
-      <c r="E78" s="67" t="s">
+      <c r="C78" s="78" t="s">
+        <v>289</v>
+      </c>
+      <c r="D78" s="72" t="s">
         <v>238</v>
       </c>
-      <c r="H78" s="66" t="s">
-        <v>345</v>
-      </c>
-      <c r="I78" s="80" t="s">
-        <v>350</v>
-      </c>
-      <c r="K78" s="79" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A79" s="77"/>
-      <c r="B79" s="77"/>
-      <c r="C79" s="77"/>
-      <c r="D79" s="67"/>
-      <c r="E79" s="67"/>
-      <c r="H79" s="66" t="s">
-        <v>345</v>
-      </c>
-      <c r="I79" s="80" t="s">
-        <v>350</v>
-      </c>
-      <c r="K79" s="72"/>
-    </row>
-    <row r="80" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A80" s="77"/>
-      <c r="B80" s="77"/>
-      <c r="C80" s="77"/>
-      <c r="D80" s="67"/>
-      <c r="E80" s="67"/>
-      <c r="H80" s="66" t="s">
-        <v>345</v>
-      </c>
-      <c r="I80" s="80" t="s">
-        <v>350</v>
-      </c>
-      <c r="K80" s="72"/>
-    </row>
-    <row r="81" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A81" s="77"/>
-      <c r="B81" s="77"/>
-      <c r="C81" s="77"/>
-      <c r="D81" s="67"/>
-      <c r="E81" s="67"/>
-      <c r="H81" s="66" t="s">
-        <v>345</v>
-      </c>
-      <c r="I81" s="80" t="s">
-        <v>350</v>
-      </c>
-      <c r="K81" s="72"/>
-    </row>
-    <row r="82" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="E78" s="66"/>
+      <c r="F78" s="72" t="s">
+        <v>239</v>
+      </c>
+      <c r="G78" s="79" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" s="78"/>
+      <c r="B79" s="78"/>
+      <c r="C79" s="78"/>
+      <c r="D79" s="72"/>
+      <c r="E79" s="66"/>
+      <c r="F79" s="72"/>
+      <c r="G79" s="69"/>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" s="78"/>
+      <c r="B80" s="78"/>
+      <c r="C80" s="78"/>
+      <c r="D80" s="72"/>
+      <c r="E80" s="66"/>
+      <c r="F80" s="72"/>
+      <c r="G80" s="69"/>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" s="78"/>
+      <c r="B81" s="78"/>
+      <c r="C81" s="78"/>
+      <c r="D81" s="72"/>
+      <c r="E81" s="66"/>
+      <c r="F81" s="72"/>
+      <c r="G81" s="69"/>
+    </row>
+    <row r="82" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A82" s="49" t="s">
         <v>146</v>
       </c>
       <c r="B82" s="56" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C82" s="49"/>
       <c r="D82" s="50" t="s">
-        <v>239</v>
-      </c>
-      <c r="E82" s="57" t="s">
+        <v>240</v>
+      </c>
+      <c r="E82" s="66"/>
+      <c r="F82" s="57" t="s">
         <v>123</v>
       </c>
-      <c r="H82" s="66" t="s">
-        <v>357</v>
-      </c>
-      <c r="I82" s="80" t="s">
-        <v>358</v>
-      </c>
-      <c r="K82" s="61" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A83" s="77" t="s">
-        <v>289</v>
-      </c>
-      <c r="B83" s="77" t="s">
+      <c r="G82" s="61" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" s="78" t="s">
         <v>290</v>
       </c>
-      <c r="C83" s="77" t="s">
+      <c r="B83" s="78" t="s">
         <v>291</v>
+      </c>
+      <c r="C83" s="78" t="s">
+        <v>292</v>
       </c>
       <c r="D83" s="50" t="s">
         <v>152</v>
       </c>
-      <c r="E83" s="57" t="s">
+      <c r="E83" s="66"/>
+      <c r="F83" s="57" t="s">
         <v>154</v>
       </c>
-      <c r="H83" s="66" t="s">
-        <v>345</v>
-      </c>
-      <c r="I83" s="80" t="s">
-        <v>307</v>
-      </c>
-      <c r="K83" s="71" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A84" s="77"/>
-      <c r="B84" s="67"/>
-      <c r="C84" s="67"/>
-      <c r="D84" s="67" t="s">
+      <c r="G83" s="68" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A84" s="78"/>
+      <c r="B84" s="72"/>
+      <c r="C84" s="72"/>
+      <c r="D84" s="72" t="s">
         <v>153</v>
       </c>
-      <c r="E84" s="50" t="s">
-        <v>240</v>
-      </c>
-      <c r="H84" s="66" t="s">
-        <v>345</v>
-      </c>
-      <c r="I84" s="80" t="s">
-        <v>307</v>
-      </c>
-      <c r="K84" s="72"/>
-    </row>
-    <row r="85" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A85" s="77"/>
-      <c r="B85" s="67"/>
-      <c r="C85" s="67"/>
-      <c r="D85" s="67"/>
-      <c r="E85" s="67" t="s">
+      <c r="E84" s="66"/>
+      <c r="F84" s="50" t="s">
         <v>241</v>
       </c>
-      <c r="H85" s="66" t="s">
-        <v>345</v>
-      </c>
-      <c r="I85" s="80" t="s">
-        <v>307</v>
-      </c>
-      <c r="K85" s="72"/>
-    </row>
-    <row r="86" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A86" s="77"/>
-      <c r="B86" s="67"/>
-      <c r="C86" s="67"/>
-      <c r="D86" s="67"/>
-      <c r="E86" s="67"/>
-      <c r="H86" s="66" t="s">
-        <v>345</v>
-      </c>
-      <c r="I86" s="80" t="s">
-        <v>307</v>
-      </c>
-      <c r="K86" s="72"/>
-    </row>
-    <row r="87" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A87" s="77"/>
-      <c r="B87" s="67"/>
-      <c r="C87" s="67"/>
-      <c r="D87" s="67"/>
-      <c r="E87" s="67"/>
-      <c r="H87" s="66" t="s">
-        <v>345</v>
-      </c>
-      <c r="I87" s="80" t="s">
-        <v>307</v>
-      </c>
-      <c r="K87" s="72"/>
-    </row>
-    <row r="88" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A88" s="77"/>
-      <c r="B88" s="67"/>
-      <c r="C88" s="67"/>
-      <c r="D88" s="67"/>
-      <c r="E88" s="67"/>
-      <c r="H88" s="66" t="s">
-        <v>345</v>
-      </c>
-      <c r="I88" s="80" t="s">
-        <v>307</v>
-      </c>
-      <c r="K88" s="72"/>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G84" s="69"/>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" s="78"/>
+      <c r="B85" s="72"/>
+      <c r="C85" s="72"/>
+      <c r="D85" s="72"/>
+      <c r="E85" s="66"/>
+      <c r="F85" s="72" t="s">
+        <v>242</v>
+      </c>
+      <c r="G85" s="69"/>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" s="78"/>
+      <c r="B86" s="72"/>
+      <c r="C86" s="72"/>
+      <c r="D86" s="72"/>
+      <c r="E86" s="66"/>
+      <c r="F86" s="72"/>
+      <c r="G86" s="69"/>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" s="78"/>
+      <c r="B87" s="72"/>
+      <c r="C87" s="72"/>
+      <c r="D87" s="72"/>
+      <c r="E87" s="66"/>
+      <c r="F87" s="72"/>
+      <c r="G87" s="69"/>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" s="78"/>
+      <c r="B88" s="72"/>
+      <c r="C88" s="72"/>
+      <c r="D88" s="72"/>
+      <c r="E88" s="66"/>
+      <c r="F88" s="72"/>
+      <c r="G88" s="69"/>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="58"/>
       <c r="B89" s="58"/>
       <c r="C89" s="58"/>
       <c r="D89" s="58"/>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E89" s="66"/>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="58"/>
       <c r="B90" s="58"/>
       <c r="C90" s="58"/>
       <c r="D90" s="58"/>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E90" s="66"/>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="58"/>
       <c r="B91" s="58"/>
       <c r="C91" s="58"/>
       <c r="D91" s="58"/>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E91" s="66"/>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="58"/>
       <c r="B92" s="58"/>
       <c r="C92" s="58"/>
       <c r="D92" s="58"/>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E92" s="66"/>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="58"/>
       <c r="B93" s="58"/>
       <c r="C93" s="58"/>
       <c r="D93" s="58"/>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E93" s="66"/>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="58"/>
       <c r="B94" s="58"/>
       <c r="C94" s="58"/>
       <c r="D94" s="58"/>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E94" s="66"/>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="58"/>
       <c r="B95" s="58"/>
       <c r="C95" s="58"/>
       <c r="D95" s="58"/>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E95" s="66"/>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="58"/>
       <c r="B96" s="58"/>
       <c r="C96" s="58"/>
       <c r="D96" s="58"/>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E96" s="66"/>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="58"/>
       <c r="B97" s="58"/>
       <c r="C97" s="58"/>
       <c r="D97" s="58"/>
+      <c r="E97" s="66"/>
     </row>
   </sheetData>
-  <mergeCells count="68">
-    <mergeCell ref="K76:K77"/>
-    <mergeCell ref="K78:K81"/>
-    <mergeCell ref="K83:K88"/>
-    <mergeCell ref="K37:K38"/>
-    <mergeCell ref="K39:K53"/>
-    <mergeCell ref="K54:K63"/>
-    <mergeCell ref="K64:K67"/>
-    <mergeCell ref="K68:K75"/>
-    <mergeCell ref="K3:K7"/>
-    <mergeCell ref="K9:K15"/>
-    <mergeCell ref="K16:K24"/>
-    <mergeCell ref="K25:K28"/>
-    <mergeCell ref="K29:K36"/>
-    <mergeCell ref="A3:A8"/>
-    <mergeCell ref="A16:A24"/>
-    <mergeCell ref="A9:A15"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="B3:B8"/>
-    <mergeCell ref="C3:C8"/>
-    <mergeCell ref="B9:B15"/>
-    <mergeCell ref="C9:C15"/>
-    <mergeCell ref="B16:B24"/>
-    <mergeCell ref="C16:C24"/>
-    <mergeCell ref="E3:E7"/>
-    <mergeCell ref="E9:E11"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="D3:D7"/>
-    <mergeCell ref="D9:D11"/>
-    <mergeCell ref="E64:E65"/>
+  <mergeCells count="74">
+    <mergeCell ref="F78:F81"/>
+    <mergeCell ref="D78:D81"/>
+    <mergeCell ref="F85:F88"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="B39:B53"/>
+    <mergeCell ref="C39:C53"/>
+    <mergeCell ref="B54:B63"/>
+    <mergeCell ref="C54:C63"/>
+    <mergeCell ref="B78:B81"/>
+    <mergeCell ref="C78:C81"/>
+    <mergeCell ref="B64:B67"/>
+    <mergeCell ref="C64:C67"/>
+    <mergeCell ref="B68:B75"/>
+    <mergeCell ref="C68:C75"/>
+    <mergeCell ref="B76:B77"/>
+    <mergeCell ref="A68:A75"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="A78:A81"/>
+    <mergeCell ref="A83:A88"/>
+    <mergeCell ref="D84:D88"/>
+    <mergeCell ref="B83:B88"/>
+    <mergeCell ref="C83:C88"/>
+    <mergeCell ref="C76:C77"/>
     <mergeCell ref="D64:D67"/>
     <mergeCell ref="A25:A28"/>
     <mergeCell ref="A29:A36"/>
@@ -5941,88 +5250,61 @@
     <mergeCell ref="C25:C28"/>
     <mergeCell ref="B29:B36"/>
     <mergeCell ref="C29:C36"/>
-    <mergeCell ref="A68:A75"/>
-    <mergeCell ref="A76:A77"/>
-    <mergeCell ref="A78:A81"/>
-    <mergeCell ref="A83:A88"/>
-    <mergeCell ref="D84:D88"/>
-    <mergeCell ref="B83:B88"/>
-    <mergeCell ref="C83:C88"/>
-    <mergeCell ref="C76:C77"/>
-    <mergeCell ref="E78:E81"/>
-    <mergeCell ref="D78:D81"/>
-    <mergeCell ref="E85:E88"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="B39:B53"/>
-    <mergeCell ref="C39:C53"/>
-    <mergeCell ref="B54:B63"/>
-    <mergeCell ref="C54:C63"/>
-    <mergeCell ref="B78:B81"/>
-    <mergeCell ref="C78:C81"/>
-    <mergeCell ref="B64:B67"/>
-    <mergeCell ref="C64:C67"/>
-    <mergeCell ref="B68:B75"/>
-    <mergeCell ref="C68:C75"/>
-    <mergeCell ref="B76:B77"/>
+    <mergeCell ref="F3:F7"/>
+    <mergeCell ref="F9:F11"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="D3:D7"/>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="E3:E7"/>
+    <mergeCell ref="E9:E11"/>
+    <mergeCell ref="A3:A8"/>
+    <mergeCell ref="A16:A24"/>
+    <mergeCell ref="A9:A15"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="B3:B8"/>
+    <mergeCell ref="C3:C8"/>
+    <mergeCell ref="B9:B15"/>
+    <mergeCell ref="C9:C15"/>
+    <mergeCell ref="B16:B24"/>
+    <mergeCell ref="C16:C24"/>
+    <mergeCell ref="G3:G7"/>
+    <mergeCell ref="G9:G15"/>
+    <mergeCell ref="G16:G24"/>
+    <mergeCell ref="G25:G28"/>
+    <mergeCell ref="G29:G36"/>
+    <mergeCell ref="G78:G81"/>
+    <mergeCell ref="G83:G88"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="G39:G53"/>
+    <mergeCell ref="G54:G63"/>
+    <mergeCell ref="G64:G67"/>
+    <mergeCell ref="G68:G75"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="E56:E60"/>
+    <mergeCell ref="E63:E67"/>
+    <mergeCell ref="E69:E73"/>
+    <mergeCell ref="G76:G77"/>
+    <mergeCell ref="F64:F65"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="K2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="K16" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
-    <hyperlink ref="K3" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
-    <hyperlink ref="K9" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
-    <hyperlink ref="K25" r:id="rId5" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
-    <hyperlink ref="K29" r:id="rId6" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
-    <hyperlink ref="K37" r:id="rId7" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
-    <hyperlink ref="K39" r:id="rId8" xr:uid="{00000000-0004-0000-0200-000007000000}"/>
-    <hyperlink ref="K54" r:id="rId9" display="https://www.nuplazidhcp.com/acadia-connect" xr:uid="{00000000-0004-0000-0200-000008000000}"/>
-    <hyperlink ref="K64" r:id="rId10" display="https://www.acadiaconnect.com/healthcare-providers/cost" xr:uid="{00000000-0004-0000-0200-000009000000}"/>
-    <hyperlink ref="K68" r:id="rId11" xr:uid="{00000000-0004-0000-0200-00000A000000}"/>
-    <hyperlink ref="K76" r:id="rId12" display="https://www.acadiaconnect.com/healthcare-providers" xr:uid="{00000000-0004-0000-0200-00000B000000}"/>
-    <hyperlink ref="K78" r:id="rId13" display="https://www.acadiaconnect.com/healthcare-providers/coverage-tools" xr:uid="{00000000-0004-0000-0200-00000C000000}"/>
-    <hyperlink ref="K82" r:id="rId14" display="https://www.acadiaconnect.com/healthcare-providers/enrollment" xr:uid="{00000000-0004-0000-0200-00000D000000}"/>
-    <hyperlink ref="K83" r:id="rId15" xr:uid="{00000000-0004-0000-0200-00000E000000}"/>
-    <hyperlink ref="I2" r:id="rId16" xr:uid="{CFA97370-8F93-4E4D-9087-46409A907CA7}"/>
-    <hyperlink ref="I3" r:id="rId17" xr:uid="{587F9E49-83DC-4A36-8AFB-2C5C7AF438C4}"/>
-    <hyperlink ref="I4:I7" r:id="rId18" display="https://www.nuplazidhcp.com/" xr:uid="{132C564F-10BE-448F-93E9-D29D8E8C88D8}"/>
-    <hyperlink ref="I9" r:id="rId19" xr:uid="{0897BE61-87A8-4307-AFF6-9097F07BC622}"/>
-    <hyperlink ref="I10:I13" r:id="rId20" display="https://www.nuplazidhcp.com/efficacy-data" xr:uid="{ACBD2BEA-3931-40F0-ABA6-13273089AD5D}"/>
-    <hyperlink ref="I14:I15" r:id="rId21" display="https://www.nuplazidhcp.com/efficacy-data" xr:uid="{F01D8358-2F47-4A0B-917C-0414ADD4134E}"/>
-    <hyperlink ref="I16" r:id="rId22" xr:uid="{3FEC824D-73C9-4D16-A5EB-6AD1F8D3DEC6}"/>
-    <hyperlink ref="I17:I24" r:id="rId23" display="https://www.nuplazidhcp.com/efficacy-data" xr:uid="{37297355-C926-4F46-9BC5-B96733EE285A}"/>
-    <hyperlink ref="I29" r:id="rId24" xr:uid="{2055579D-492F-4071-AD9A-4FC87F3C2DE0}"/>
-    <hyperlink ref="I30:I36" r:id="rId25" display="https://www.nuplazidhcp.com/safety-tolerability-data" xr:uid="{5C32B6EA-B4D4-45D0-AEEF-79B584E64516}"/>
-    <hyperlink ref="G37" r:id="rId26" xr:uid="{620A52A3-8244-45FA-89BD-01FAA5923E57}"/>
-    <hyperlink ref="I38" r:id="rId27" xr:uid="{DAE6C61F-1D9F-427F-B8D9-16CA77E1B873}"/>
-    <hyperlink ref="I39" r:id="rId28" xr:uid="{E9F24B9D-B547-434C-9755-C954AB451C8C}"/>
-    <hyperlink ref="I40:I53" r:id="rId29" display="https://www.nuplazidhcp.com/dosing" xr:uid="{594BDAAF-485C-47CA-BDF7-AE3860D6A31A}"/>
-    <hyperlink ref="I54" r:id="rId30" xr:uid="{36768FC3-5363-4232-9EF9-3CCCCC2E4DCC}"/>
-    <hyperlink ref="I55" r:id="rId31" xr:uid="{40AA2C79-2BC4-42D2-AFC8-07687415F37C}"/>
-    <hyperlink ref="I56" r:id="rId32" xr:uid="{24879E1B-244C-4479-8C48-055A73D45D66}"/>
-    <hyperlink ref="I57" r:id="rId33" xr:uid="{238DBF5D-43A5-400E-AA7F-6F0811575284}"/>
-    <hyperlink ref="I58" r:id="rId34" xr:uid="{2199D31D-6F1F-4F04-971D-597B44219018}"/>
-    <hyperlink ref="I59" r:id="rId35" xr:uid="{4F5316E3-3729-48C9-8E85-F72B4FD1211D}"/>
-    <hyperlink ref="I60:I63" r:id="rId36" display="https://www.nuplazidhcp.com/acadia-connect" xr:uid="{A1587B6D-ECEE-4E57-90D0-A43D3FBF95E4}"/>
-    <hyperlink ref="I64" r:id="rId37" xr:uid="{B47908FA-82EA-4DA9-9BBE-07A818778B04}"/>
-    <hyperlink ref="I65" r:id="rId38" xr:uid="{7AB131CC-0F15-4C10-AD04-F91FC4992DE8}"/>
-    <hyperlink ref="I66" r:id="rId39" xr:uid="{B0D1E760-F302-4119-BC47-B97718BD978A}"/>
-    <hyperlink ref="I67" r:id="rId40" xr:uid="{10620F4D-EC9C-4AD5-8F6B-8ABA696CFAD0}"/>
-    <hyperlink ref="I68" r:id="rId41" xr:uid="{4E1A74CF-275A-46C3-A67F-25057AB42D55}"/>
-    <hyperlink ref="I69" r:id="rId42" xr:uid="{0AC9034D-AF7E-455E-875C-63E481232DE4}"/>
-    <hyperlink ref="I70" r:id="rId43" xr:uid="{D2D2BF11-7231-4843-A1DD-7998B07BE096}"/>
-    <hyperlink ref="I71" r:id="rId44" xr:uid="{64E0E961-AD5F-43F3-A8CA-F5A89667275B}"/>
-    <hyperlink ref="I72" r:id="rId45" xr:uid="{9769C485-DADA-4222-AA83-25711CD0D304}"/>
-    <hyperlink ref="I73" r:id="rId46" xr:uid="{5E9495B8-0990-45CB-8505-95C0E057C756}"/>
-    <hyperlink ref="I74" r:id="rId47" xr:uid="{DAA4C77C-F1DD-454B-A83C-982FB3D4C5E1}"/>
-    <hyperlink ref="I76" r:id="rId48" xr:uid="{2888BBD0-A1BF-4897-8BD8-AFFACB65DC70}"/>
-    <hyperlink ref="I77" r:id="rId49" xr:uid="{B61B3385-B043-4EBA-A5CC-F3CABA842FA0}"/>
-    <hyperlink ref="I78:I81" r:id="rId50" display="https://www.nuplazidhcp.com/acadia-connect" xr:uid="{2FD96951-D35C-4C7F-9C00-338B4C354B02}"/>
-    <hyperlink ref="I82" r:id="rId51" display="https://www.nuplazidhcp.com/pdf/letter-of-appeal.pdf" xr:uid="{6A0E9ADB-1E28-40A0-A937-911A852DD595}"/>
-    <hyperlink ref="I83" r:id="rId52" xr:uid="{9B0A2652-0CEC-4F63-9879-E3F9E1698A55}"/>
-    <hyperlink ref="I84" r:id="rId53" xr:uid="{AB7898AD-36AF-4E23-9845-D7C66E833291}"/>
-    <hyperlink ref="I85:I88" r:id="rId54" display="https://www.acadiaconnect.com/healthcare-providers" xr:uid="{33D06EE6-07C3-46CB-8F19-E0C9148EF81C}"/>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="G16" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="G3" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink ref="G9" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
+    <hyperlink ref="G25" r:id="rId5" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
+    <hyperlink ref="G29" r:id="rId6" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
+    <hyperlink ref="G37" r:id="rId7" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
+    <hyperlink ref="G39" r:id="rId8" xr:uid="{00000000-0004-0000-0200-000007000000}"/>
+    <hyperlink ref="G54" r:id="rId9" display="https://www.nuplazidhcp.com/acadia-connect" xr:uid="{00000000-0004-0000-0200-000008000000}"/>
+    <hyperlink ref="G64" r:id="rId10" display="https://www.acadiaconnect.com/healthcare-providers/cost" xr:uid="{00000000-0004-0000-0200-000009000000}"/>
+    <hyperlink ref="G68" r:id="rId11" xr:uid="{00000000-0004-0000-0200-00000A000000}"/>
+    <hyperlink ref="G76" r:id="rId12" display="https://www.acadiaconnect.com/healthcare-providers" xr:uid="{00000000-0004-0000-0200-00000B000000}"/>
+    <hyperlink ref="G78" r:id="rId13" display="https://www.acadiaconnect.com/healthcare-providers/coverage-tools" xr:uid="{00000000-0004-0000-0200-00000C000000}"/>
+    <hyperlink ref="G82" r:id="rId14" display="https://www.acadiaconnect.com/healthcare-providers/enrollment" xr:uid="{00000000-0004-0000-0200-00000D000000}"/>
+    <hyperlink ref="G83" r:id="rId15" xr:uid="{00000000-0004-0000-0200-00000E000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId55"/>
+  <pageSetup orientation="portrait" r:id="rId16"/>
+  <legacyDrawing r:id="rId17"/>
 </worksheet>
 </file>
--- a/Corpus/MLR_Corpus.xlsx
+++ b/Corpus/MLR_Corpus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workouts\Projects\Acadia\Masori-Chatbot-Dev-main\Masori-Chatbot-Dev-main\Corpus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C1BB7DE5-0AE7-4C00-8E6C-A339F2022A82}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53E2B806-6414-4634-A756-5BAE1FC2B335}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,9 +36,7 @@
     <author>tc={2B46EE82-DD41-45F9-B431-51F301EDCADE}</author>
     <author>tc={190DBEEA-93D9-4BFD-AD5C-1FA3C401F8CC}</author>
     <author>tc={6174D911-122C-4454-8324-AF7C643C4042}</author>
-    <author>tc={C6BC059E-DDFE-4472-8AF3-B08E62FA3401}</author>
     <author>tc={C6BC059E-DDFE-4471-8AF3-B08E62FA3401}</author>
-    <author>tc={C6BC059E-DDFE-4473-8AF3-B08E62FA3401}</author>
   </authors>
   <commentList>
     <comment ref="A2" authorId="0" shapeId="0" xr:uid="{B4468C53-9464-4F63-81D1-C992873261B1}">
@@ -65,7 +63,7 @@
     I know more info is in the response and further down in the H&amp;D section but I think before people ask the second question, they may want to know what hallucinations and delusions are first as most people cannot define them</t>
       </text>
     </comment>
-    <comment ref="F2" authorId="2" shapeId="0" xr:uid="{BB84B340-AF06-4E0C-AE4F-B69F85FAF690}">
+    <comment ref="E2" authorId="2" shapeId="0" xr:uid="{BB84B340-AF06-4E0C-AE4F-B69F85FAF690}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -73,7 +71,7 @@
     Provide link to information on site in response</t>
       </text>
     </comment>
-    <comment ref="F3" authorId="3" shapeId="0" xr:uid="{C3DFF50C-EF22-47C6-868C-F20870D79A79}">
+    <comment ref="E3" authorId="3" shapeId="0" xr:uid="{C3DFF50C-EF22-47C6-868C-F20870D79A79}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -81,7 +79,7 @@
     Provide link to information on site in response</t>
       </text>
     </comment>
-    <comment ref="F4" authorId="4" shapeId="0" xr:uid="{2B46EE82-DD41-45F9-B431-51F301EDCADE}">
+    <comment ref="E4" authorId="4" shapeId="0" xr:uid="{2B46EE82-DD41-45F9-B431-51F301EDCADE}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -105,23 +103,7 @@
     Where can I learn more? Something like that. We need to have something tied to email registrations.</t>
       </text>
     </comment>
-    <comment ref="E24" authorId="7" shapeId="0" xr:uid="{8DCCC86B-108E-479F-89D2-C0B155530DB5}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    I recommend to have "Acadia Connect and delete any mention of Nuplazid Connect.</t>
-      </text>
-    </comment>
-    <comment ref="D25" authorId="8" shapeId="0" xr:uid="{C6BC059E-DDFE-4471-8AF3-B08E62FA3401}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    I recommend to have "Acadia Connect and delete any mention of Nuplazid Connect.</t>
-      </text>
-    </comment>
-    <comment ref="E27" authorId="9" shapeId="0" xr:uid="{F1CC71EF-D4D1-4682-A55F-07A27659090D}">
+    <comment ref="D25" authorId="7" shapeId="0" xr:uid="{C6BC059E-DDFE-4471-8AF3-B08E62FA3401}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -241,7 +223,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="360">
   <si>
     <t>Keywords</t>
   </si>
@@ -983,9 +965,6 @@
   </si>
   <si>
     <t>About MOA</t>
-  </si>
-  <si>
-    <t>The mechanism of action (MOA) in the treatment of hallucinations and delusions associated with Parkinson's disease psychosis is unclear. Please watch this video to know more about proposed MOA of Nuplazid. https://player.vimeo.com/video/350995106</t>
   </si>
   <si>
     <t>How it differ</t>
@@ -1471,6 +1450,67 @@
   </si>
   <si>
     <t>Any videos will explain about symptoms,  Any personal stories</t>
+  </si>
+  <si>
+    <t>Bullets</t>
+  </si>
+  <si>
+    <t>Video URL</t>
+  </si>
+  <si>
+    <t>Hyperlink Text</t>
+  </si>
+  <si>
+    <t>Hyperlink URL</t>
+  </si>
+  <si>
+    <t>Image URL</t>
+  </si>
+  <si>
+    <t>More</t>
+  </si>
+  <si>
+    <t>Distribution Fact Sheet and Disease Education Fact Sheet</t>
+  </si>
+  <si>
+    <t>https://www.nuplazidhcp.com/pdf/nuplazid-distribution-fact-sheet.pdf
+https://www.nuplazidhcp.com/pdf/pd-related-hallucinations-delusions-fact-sheet.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The mechanism of action (MOA) in the treatment of hallucinations and delusions associated with Parkinson's disease psychosis is unclear. Please watch this video to know more about proposed MOA of Nuplazid. </t>
+  </si>
+  <si>
+    <t>Download Factsheets</t>
+  </si>
+  <si>
+    <t>https://www.nuplazidhcp.com/acadia-connect</t>
+  </si>
+  <si>
+    <t>NUPLAZID is contraindicated in patients with a history of a hypersensitivity reaction to pimavanser0in or any of its components. Rash, urticaria, and reactions consistent with angioedema (e.g., tongue swelling, circumoral edema, throat tightness, and dyspnea) have been reported.</t>
+  </si>
+  <si>
+    <t>100% of Medicare Part D plans cover NUPLAZID
+80% of patients pay less than $10 for their NUPLAZID prescription
+$0 co-pay for qualifying commercially covered patients</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Order Samples </t>
+  </si>
+  <si>
+    <t>Click here to order samples</t>
+  </si>
+  <si>
+    <t>https://acadia.hcpordering.com/</t>
+  </si>
+  <si>
+    <t>https://www.acadiaconnect.com/healthcare-providers/cost</t>
+  </si>
+  <si>
+    <t>Download PDFs</t>
+  </si>
+  <si>
+    <t>https://www.nuplazidhcp.com/pdf/letter-of-appeal.pdf
+https://www.nuplazidhcp.com/pdf/letter-of-medical-necessity.pdf</t>
   </si>
   <si>
     <t>Recommend Intent</t>
@@ -1512,7 +1552,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1522,6 +1562,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1557,7 +1603,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1705,7 +1751,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
@@ -1720,16 +1786,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1739,11 +1795,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2048,13 +2104,13 @@
   <threadedComment ref="C2" dT="2021-02-02T18:20:38.75" personId="{1295C466-BD7C-441E-8FE1-FBB710452072}" id="{44931C6B-2351-47CE-AEF8-ED6B0BCA2ACB}" parentId="{DD2E8F32-48A3-491E-956A-AC81F7E38ADB}">
     <text>I know more info is in the response and further down in the H&amp;D section but I think before people ask the second question, they may want to know what hallucinations and delusions are first as most people cannot define them</text>
   </threadedComment>
-  <threadedComment ref="F2" dT="2021-02-03T17:17:22.96" personId="{6851B53B-E571-4C8C-A62D-03D0D1B89898}" id="{BB84B340-AF06-4E0C-AE4F-B69F85FAF690}">
+  <threadedComment ref="E2" dT="2021-02-03T17:17:22.96" personId="{6851B53B-E571-4C8C-A62D-03D0D1B89898}" id="{BB84B340-AF06-4E0C-AE4F-B69F85FAF690}">
     <text>Provide link to information on site in response</text>
   </threadedComment>
-  <threadedComment ref="F3" dT="2021-02-03T17:17:47.18" personId="{6851B53B-E571-4C8C-A62D-03D0D1B89898}" id="{C3DFF50C-EF22-47C6-868C-F20870D79A79}">
+  <threadedComment ref="E3" dT="2021-02-03T17:17:47.18" personId="{6851B53B-E571-4C8C-A62D-03D0D1B89898}" id="{C3DFF50C-EF22-47C6-868C-F20870D79A79}">
     <text>Provide link to information on site in response</text>
   </threadedComment>
-  <threadedComment ref="F4" dT="2021-02-03T17:17:55.69" personId="{6851B53B-E571-4C8C-A62D-03D0D1B89898}" id="{2B46EE82-DD41-45F9-B431-51F301EDCADE}">
+  <threadedComment ref="E4" dT="2021-02-03T17:17:55.69" personId="{6851B53B-E571-4C8C-A62D-03D0D1B89898}" id="{2B46EE82-DD41-45F9-B431-51F301EDCADE}">
     <text>Provide link to information on site in response</text>
   </threadedComment>
   <threadedComment ref="B5" dT="2021-02-02T17:57:21.62" personId="{1295C466-BD7C-441E-8FE1-FBB710452072}" id="{190DBEEA-93D9-4BFD-AD5C-1FA3C401F8CC}">
@@ -2063,13 +2119,7 @@
   <threadedComment ref="C15" dT="2021-02-02T19:13:01.58" personId="{1295C466-BD7C-441E-8FE1-FBB710452072}" id="{6174D911-122C-4454-8324-AF7C643C4042}">
     <text>Where can I learn more? Something like that. We need to have something tied to email registrations.</text>
   </threadedComment>
-  <threadedComment ref="E24" dT="2021-02-03T17:15:04.39" personId="{6851B53B-E571-4C8C-A62D-03D0D1B89898}" id="{C6BC059E-DDFE-4472-8AF3-B08E62FA3401}">
-    <text>I recommend to have "Acadia Connect and delete any mention of Nuplazid Connect.</text>
-  </threadedComment>
   <threadedComment ref="D25" dT="2021-02-03T17:15:04.39" personId="{6851B53B-E571-4C8C-A62D-03D0D1B89898}" id="{C6BC059E-DDFE-4471-8AF3-B08E62FA3401}">
-    <text>I recommend to have "Acadia Connect and delete any mention of Nuplazid Connect.</text>
-  </threadedComment>
-  <threadedComment ref="E27" dT="2021-02-03T17:15:04.39" personId="{6851B53B-E571-4C8C-A62D-03D0D1B89898}" id="{C6BC059E-DDFE-4473-8AF3-B08E62FA3401}">
     <text>I recommend to have "Acadia Connect and delete any mention of Nuplazid Connect.</text>
   </threadedComment>
 </ThreadedComments>
@@ -2121,11 +2171,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G47"/>
+  <dimension ref="A1:K47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
+      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A30" sqref="A30:A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2134,718 +2184,857 @@
     <col min="2" max="2" width="27.140625" style="44" customWidth="1"/>
     <col min="3" max="3" width="47.140625" style="44" customWidth="1"/>
     <col min="4" max="4" width="41.85546875" style="58" customWidth="1"/>
-    <col min="5" max="5" width="41.85546875" style="66" customWidth="1"/>
-    <col min="6" max="6" width="83.7109375" customWidth="1"/>
-    <col min="7" max="7" width="74" customWidth="1"/>
+    <col min="5" max="5" width="83.7109375" customWidth="1"/>
+    <col min="6" max="10" width="37.28515625" style="44" customWidth="1"/>
+    <col min="11" max="11" width="74" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="51" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="45" t="s">
+        <v>244</v>
+      </c>
+      <c r="C1" s="45" t="s">
         <v>245</v>
-      </c>
-      <c r="C1" s="45" t="s">
-        <v>246</v>
       </c>
       <c r="D1" s="51" t="s">
         <v>204</v>
       </c>
-      <c r="E1" s="51" t="s">
+      <c r="E1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="45" t="s">
+        <v>340</v>
+      </c>
+      <c r="G1" s="45" t="s">
         <v>341</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" s="31" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A2" s="73" t="s">
-        <v>254</v>
-      </c>
-      <c r="B2" s="73" t="s">
-        <v>261</v>
-      </c>
-      <c r="C2" s="73" t="s">
+      <c r="H1" s="45" t="s">
+        <v>342</v>
+      </c>
+      <c r="I1" s="45" t="s">
+        <v>343</v>
+      </c>
+      <c r="J1" s="45" t="s">
+        <v>344</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>313</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="31" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A2" s="74" t="s">
+        <v>253</v>
+      </c>
+      <c r="B2" s="74" t="s">
+        <v>260</v>
+      </c>
+      <c r="C2" s="74" t="s">
+        <v>312</v>
       </c>
       <c r="D2" s="58" t="s">
         <v>174</v>
       </c>
-      <c r="E2" s="66" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="30" t="s">
+      <c r="E2" s="30" t="s">
         <v>205</v>
       </c>
-      <c r="G2" s="71" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" s="31" customFormat="1" ht="120" x14ac:dyDescent="0.25">
-      <c r="A3" s="74"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="66"/>
+      <c r="J2" s="66"/>
+      <c r="K2" s="79" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" s="31" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+      <c r="A3" s="75"/>
       <c r="B3" s="72"/>
-      <c r="C3" s="74"/>
+      <c r="C3" s="75"/>
       <c r="D3" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="66" t="s">
-        <v>329</v>
-      </c>
-      <c r="F3" s="32" t="s">
-        <v>249</v>
-      </c>
-      <c r="G3" s="69"/>
-    </row>
-    <row r="4" spans="1:7" s="31" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" s="74"/>
+      <c r="E3" s="32" t="s">
+        <v>248</v>
+      </c>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="66"/>
+      <c r="J3" s="66"/>
+      <c r="K3" s="77"/>
+    </row>
+    <row r="4" spans="1:11" s="31" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="75"/>
       <c r="B4" s="72"/>
-      <c r="C4" s="74"/>
+      <c r="C4" s="75"/>
       <c r="D4" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="66" t="s">
-        <v>174</v>
-      </c>
-      <c r="F4" s="32" t="s">
+      <c r="E4" s="32" t="s">
         <v>206</v>
       </c>
-      <c r="G4" s="69"/>
-    </row>
-    <row r="5" spans="1:7" ht="105" x14ac:dyDescent="0.25">
-      <c r="A5" s="75" t="s">
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="66"/>
+      <c r="K4" s="77"/>
+    </row>
+    <row r="5" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+      <c r="A5" s="73" t="s">
         <v>172</v>
       </c>
       <c r="B5" s="72" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C5" s="72" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D5" s="58" t="s">
         <v>173</v>
       </c>
-      <c r="E5" s="66" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="32" t="s">
+      <c r="E5" s="32" t="s">
         <v>207</v>
       </c>
-      <c r="G5" s="68" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="120" x14ac:dyDescent="0.25">
-      <c r="A6" s="75"/>
-      <c r="B6" s="75"/>
-      <c r="C6" s="75"/>
+      <c r="F5" s="66"/>
+      <c r="G5" s="66"/>
+      <c r="H5" s="66"/>
+      <c r="I5" s="66"/>
+      <c r="J5" s="66"/>
+      <c r="K5" s="76" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+      <c r="A6" s="73"/>
+      <c r="B6" s="73"/>
+      <c r="C6" s="73"/>
       <c r="D6" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="43" t="s">
-        <v>259</v>
-      </c>
-      <c r="F6" s="33" t="s">
+      <c r="E6" s="33" t="s">
         <v>208</v>
       </c>
-      <c r="G6" s="69"/>
-    </row>
-    <row r="7" spans="1:7" s="44" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="F6" s="66"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="66"/>
+      <c r="I6" s="66"/>
+      <c r="J6" s="66"/>
+      <c r="K6" s="77"/>
+    </row>
+    <row r="7" spans="1:11" s="44" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A7" s="72" t="s">
+        <v>326</v>
+      </c>
+      <c r="B7" s="72" t="s">
         <v>327</v>
       </c>
-      <c r="B7" s="72" t="s">
+      <c r="C7" s="72" t="s">
+        <v>332</v>
+      </c>
+      <c r="D7" s="62" t="s">
         <v>328</v>
       </c>
-      <c r="C7" s="72" t="s">
-        <v>333</v>
-      </c>
-      <c r="D7" s="62" t="s">
+      <c r="E7" s="62" t="s">
         <v>329</v>
       </c>
-      <c r="E7" s="66" t="s">
-        <v>331</v>
-      </c>
-      <c r="F7" s="62" t="s">
-        <v>330</v>
-      </c>
-      <c r="G7" s="68" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" s="44" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+      <c r="F7" s="66"/>
+      <c r="G7" s="66"/>
+      <c r="H7" s="66"/>
+      <c r="I7" s="66"/>
+      <c r="J7" s="66"/>
+      <c r="K7" s="76" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" s="44" customFormat="1" ht="150" x14ac:dyDescent="0.25">
       <c r="A8" s="72"/>
       <c r="B8" s="72"/>
       <c r="C8" s="72"/>
       <c r="D8" s="62" t="s">
+        <v>330</v>
+      </c>
+      <c r="E8" s="62" t="s">
         <v>331</v>
       </c>
-      <c r="E8" s="66" t="s">
-        <v>198</v>
-      </c>
-      <c r="F8" s="62" t="s">
-        <v>332</v>
-      </c>
-      <c r="G8" s="69"/>
-    </row>
-    <row r="9" spans="1:7" s="44" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="F8" s="66"/>
+      <c r="G8" s="66"/>
+      <c r="H8" s="66"/>
+      <c r="I8" s="66"/>
+      <c r="J8" s="66"/>
+      <c r="K8" s="77"/>
+    </row>
+    <row r="9" spans="1:11" s="44" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="72"/>
       <c r="B9" s="72"/>
       <c r="C9" s="72"/>
       <c r="D9" s="62" t="s">
+        <v>333</v>
+      </c>
+      <c r="E9" s="62" t="s">
         <v>334</v>
       </c>
-      <c r="E9" s="66"/>
-      <c r="F9" s="62" t="s">
-        <v>335</v>
-      </c>
-      <c r="G9" s="69"/>
-    </row>
-    <row r="10" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F9" s="66"/>
+      <c r="G9" s="66"/>
+      <c r="H9" s="66"/>
+      <c r="I9" s="66"/>
+      <c r="J9" s="66"/>
+      <c r="K9" s="77"/>
+    </row>
+    <row r="10" spans="1:11" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="72"/>
       <c r="B10" s="72"/>
       <c r="C10" s="72"/>
       <c r="D10" s="62"/>
-      <c r="E10" s="66"/>
-      <c r="F10" s="62"/>
-      <c r="G10" s="65"/>
-    </row>
-    <row r="11" spans="1:7" s="44" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="E10" s="62"/>
+      <c r="F10" s="66"/>
+      <c r="G10" s="66"/>
+      <c r="H10" s="66"/>
+      <c r="I10" s="66"/>
+      <c r="J10" s="66"/>
+      <c r="K10" s="65"/>
+    </row>
+    <row r="11" spans="1:11" s="44" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="62" t="s">
+        <v>335</v>
+      </c>
+      <c r="B11" s="62" t="s">
+        <v>327</v>
+      </c>
+      <c r="C11" s="62" t="s">
+        <v>339</v>
+      </c>
+      <c r="D11" s="62"/>
+      <c r="E11" s="62" t="s">
         <v>336</v>
       </c>
-      <c r="B11" s="62" t="s">
-        <v>328</v>
-      </c>
-      <c r="C11" s="62" t="s">
-        <v>340</v>
-      </c>
-      <c r="D11" s="62"/>
-      <c r="E11" s="66"/>
-      <c r="F11" s="62" t="s">
+      <c r="F11" s="66"/>
+      <c r="G11" s="66"/>
+      <c r="H11" s="66"/>
+      <c r="I11" s="66"/>
+      <c r="J11" s="66"/>
+      <c r="K11" s="64" t="s">
         <v>337</v>
       </c>
-      <c r="G11" s="64" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:11" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="62"/>
       <c r="B12" s="62"/>
       <c r="C12" s="62"/>
       <c r="D12" s="62"/>
-      <c r="E12" s="66"/>
-      <c r="F12" s="62"/>
-      <c r="G12" s="65"/>
-    </row>
-    <row r="13" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E12" s="62"/>
+      <c r="F12" s="66"/>
+      <c r="G12" s="66"/>
+      <c r="H12" s="66"/>
+      <c r="I12" s="66"/>
+      <c r="J12" s="66"/>
+      <c r="K12" s="65"/>
+    </row>
+    <row r="13" spans="1:11" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="62"/>
       <c r="B13" s="62"/>
       <c r="C13" s="62"/>
       <c r="D13" s="62"/>
-      <c r="E13" s="66"/>
-      <c r="F13" s="62"/>
-      <c r="G13" s="65"/>
-    </row>
-    <row r="14" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E13" s="62"/>
+      <c r="F13" s="66"/>
+      <c r="G13" s="66"/>
+      <c r="H13" s="66"/>
+      <c r="I13" s="66"/>
+      <c r="J13" s="66"/>
+      <c r="K13" s="65"/>
+    </row>
+    <row r="14" spans="1:11" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="62"/>
       <c r="B14" s="62"/>
       <c r="C14" s="62"/>
       <c r="D14" s="62"/>
-      <c r="E14" s="66"/>
-      <c r="F14" s="62"/>
-      <c r="G14" s="65"/>
-    </row>
-    <row r="15" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="75" t="s">
+      <c r="E14" s="62"/>
+      <c r="F14" s="66"/>
+      <c r="G14" s="66"/>
+      <c r="H14" s="66"/>
+      <c r="I14" s="66"/>
+      <c r="J14" s="66"/>
+      <c r="K14" s="65"/>
+    </row>
+    <row r="15" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="73" t="s">
         <v>175</v>
       </c>
       <c r="B15" s="72" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C15" s="72" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D15" s="58" t="s">
         <v>176</v>
       </c>
-      <c r="E15" s="66" t="s">
-        <v>177</v>
-      </c>
-      <c r="F15" s="32" t="s">
+      <c r="E15" s="32" t="s">
         <v>209</v>
       </c>
-      <c r="G15" s="68" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="75"/>
-      <c r="B16" s="75"/>
-      <c r="C16" s="75"/>
+      <c r="F15" s="66"/>
+      <c r="G15" s="66"/>
+      <c r="H15" s="66"/>
+      <c r="I15" s="66"/>
+      <c r="J15" s="66"/>
+      <c r="K15" s="76" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="73"/>
+      <c r="B16" s="73"/>
+      <c r="C16" s="73"/>
       <c r="D16" s="58" t="s">
         <v>177</v>
       </c>
-      <c r="E16" s="66" t="s">
-        <v>178</v>
-      </c>
-      <c r="F16" s="34" t="s">
+      <c r="E16" s="34" t="s">
         <v>179</v>
       </c>
-      <c r="G16" s="69"/>
-    </row>
-    <row r="17" spans="1:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="A17" s="75"/>
-      <c r="B17" s="75"/>
-      <c r="C17" s="75"/>
+      <c r="F16" s="66"/>
+      <c r="G16" s="66"/>
+      <c r="H16" s="66"/>
+      <c r="I16" s="66"/>
+      <c r="J16" s="66"/>
+      <c r="K16" s="77"/>
+    </row>
+    <row r="17" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="A17" s="73"/>
+      <c r="B17" s="73"/>
+      <c r="C17" s="73"/>
       <c r="D17" s="58" t="s">
         <v>178</v>
       </c>
-      <c r="E17" s="66" t="s">
-        <v>255</v>
-      </c>
-      <c r="F17" s="32" t="s">
+      <c r="E17" s="32" t="s">
         <v>210</v>
       </c>
-      <c r="G17" s="69"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="75"/>
-      <c r="B18" s="75"/>
-      <c r="C18" s="75"/>
+      <c r="F17" s="66"/>
+      <c r="G17" s="66"/>
+      <c r="H17" s="66"/>
+      <c r="I17" s="66"/>
+      <c r="J17" s="66"/>
+      <c r="K17" s="77"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="73"/>
+      <c r="B18" s="73"/>
+      <c r="C18" s="73"/>
       <c r="D18" s="43"/>
-      <c r="E18" s="43"/>
+      <c r="E18" s="42"/>
       <c r="F18" s="42"/>
-      <c r="G18" s="69"/>
-    </row>
-    <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="75" t="s">
+      <c r="G18" s="42"/>
+      <c r="H18" s="42"/>
+      <c r="I18" s="42"/>
+      <c r="J18" s="42"/>
+      <c r="K18" s="77"/>
+    </row>
+    <row r="19" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="73" t="s">
         <v>180</v>
       </c>
       <c r="B19" s="72" t="s">
+        <v>263</v>
+      </c>
+      <c r="C19" s="72" t="s">
         <v>264</v>
-      </c>
-      <c r="C19" s="72" t="s">
-        <v>265</v>
       </c>
       <c r="D19" s="58" t="s">
         <v>181</v>
       </c>
-      <c r="E19" s="66" t="s">
-        <v>184</v>
-      </c>
-      <c r="F19" s="35" t="s">
+      <c r="E19" s="35" t="s">
         <v>211</v>
       </c>
-      <c r="G19" s="68" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="75"/>
+      <c r="F19" s="66"/>
+      <c r="G19" s="66"/>
+      <c r="H19" s="66"/>
+      <c r="I19" s="66"/>
+      <c r="J19" s="66"/>
+      <c r="K19" s="76" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="73"/>
       <c r="B20" s="72"/>
-      <c r="C20" s="75"/>
+      <c r="C20" s="73"/>
       <c r="D20" s="58" t="s">
         <v>182</v>
       </c>
-      <c r="E20" s="66" t="s">
-        <v>184</v>
-      </c>
-      <c r="F20" s="41" t="s">
+      <c r="E20" s="41" t="s">
         <v>212</v>
       </c>
-      <c r="G20" s="69"/>
-    </row>
-    <row r="21" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A21" s="75"/>
+      <c r="F20" s="66"/>
+      <c r="G20" s="66"/>
+      <c r="H20" s="66"/>
+      <c r="I20" s="66"/>
+      <c r="J20" s="66"/>
+      <c r="K20" s="77"/>
+    </row>
+    <row r="21" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A21" s="73"/>
       <c r="B21" s="72"/>
-      <c r="C21" s="75"/>
+      <c r="C21" s="73"/>
       <c r="D21" s="58" t="s">
         <v>183</v>
       </c>
-      <c r="F21" s="41" t="s">
+      <c r="E21" s="41" t="s">
         <v>213</v>
       </c>
-      <c r="G21" s="69"/>
-    </row>
-    <row r="22" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A22" s="75"/>
+      <c r="F21" s="66"/>
+      <c r="G21" s="66"/>
+      <c r="H21" s="66"/>
+      <c r="I21" s="66"/>
+      <c r="J21" s="66"/>
+      <c r="K21" s="77"/>
+    </row>
+    <row r="22" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A22" s="73"/>
       <c r="B22" s="72"/>
-      <c r="C22" s="75"/>
+      <c r="C22" s="73"/>
       <c r="D22" s="58" t="s">
         <v>184</v>
       </c>
-      <c r="E22" s="43" t="s">
-        <v>172</v>
-      </c>
-      <c r="F22" s="32" t="s">
+      <c r="E22" s="32" t="s">
         <v>214</v>
       </c>
-      <c r="G22" s="69"/>
-    </row>
-    <row r="23" spans="1:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="A23" s="75" t="s">
+      <c r="F22" s="66"/>
+      <c r="G22" s="66"/>
+      <c r="H22" s="66"/>
+      <c r="I22" s="66"/>
+      <c r="J22" s="66"/>
+      <c r="K22" s="77"/>
+    </row>
+    <row r="23" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="A23" s="73" t="s">
         <v>185</v>
       </c>
       <c r="B23" s="72" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C23" s="72" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D23" s="58" t="s">
-        <v>255</v>
-      </c>
-      <c r="F23" s="36" t="s">
+        <v>254</v>
+      </c>
+      <c r="E23" s="36" t="s">
         <v>186</v>
       </c>
-      <c r="G23" s="68" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="135" x14ac:dyDescent="0.25">
-      <c r="A24" s="75"/>
+      <c r="F23" s="66"/>
+      <c r="G23" s="66"/>
+      <c r="H23" s="66"/>
+      <c r="I23" s="66"/>
+      <c r="J23" s="66"/>
+      <c r="K23" s="76" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="135" x14ac:dyDescent="0.25">
+      <c r="A24" s="73"/>
       <c r="B24" s="72"/>
-      <c r="C24" s="75"/>
+      <c r="C24" s="73"/>
       <c r="D24" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="E24" s="66" t="s">
-        <v>326</v>
-      </c>
-      <c r="F24" s="41" t="s">
+      <c r="E24" s="41" t="s">
         <v>215</v>
       </c>
-      <c r="G24" s="69"/>
-    </row>
-    <row r="25" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A25" s="75"/>
+      <c r="F24" s="66"/>
+      <c r="G24" s="66"/>
+      <c r="H24" s="66"/>
+      <c r="I24" s="66"/>
+      <c r="J24" s="66"/>
+      <c r="K24" s="77"/>
+    </row>
+    <row r="25" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A25" s="73"/>
       <c r="B25" s="72"/>
-      <c r="C25" s="75"/>
+      <c r="C25" s="73"/>
       <c r="D25" s="58" t="s">
-        <v>326</v>
-      </c>
-      <c r="E25" s="66" t="s">
-        <v>255</v>
-      </c>
-      <c r="F25" s="32" t="s">
+        <v>325</v>
+      </c>
+      <c r="E25" s="32" t="s">
         <v>216</v>
       </c>
-      <c r="G25" s="69"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="75"/>
+      <c r="F25" s="66"/>
+      <c r="G25" s="66"/>
+      <c r="H25" s="66"/>
+      <c r="I25" s="66"/>
+      <c r="J25" s="66"/>
+      <c r="K25" s="77"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="73"/>
       <c r="B26" s="72"/>
-      <c r="C26" s="75"/>
+      <c r="C26" s="73"/>
       <c r="D26" s="43"/>
       <c r="E26" s="43"/>
       <c r="F26" s="43"/>
-      <c r="G26" s="69"/>
-    </row>
-    <row r="27" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="75" t="s">
+      <c r="G26" s="43"/>
+      <c r="H26" s="43"/>
+      <c r="I26" s="43"/>
+      <c r="J26" s="43"/>
+      <c r="K26" s="77"/>
+    </row>
+    <row r="27" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="73" t="s">
         <v>187</v>
       </c>
       <c r="B27" s="72" t="s">
+        <v>266</v>
+      </c>
+      <c r="C27" s="78" t="s">
         <v>267</v>
-      </c>
-      <c r="C27" s="70" t="s">
-        <v>268</v>
       </c>
       <c r="D27" s="58" t="s">
         <v>188</v>
       </c>
-      <c r="E27" s="66" t="s">
-        <v>326</v>
-      </c>
-      <c r="F27" s="32" t="s">
+      <c r="E27" s="32" t="s">
         <v>217</v>
       </c>
-      <c r="G27" s="68" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="75"/>
+      <c r="F27" s="66"/>
+      <c r="G27" s="66"/>
+      <c r="H27" s="66"/>
+      <c r="I27" s="66"/>
+      <c r="J27" s="66"/>
+      <c r="K27" s="76" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="73"/>
       <c r="B28" s="72"/>
-      <c r="C28" s="70"/>
+      <c r="C28" s="78"/>
       <c r="D28" s="58" t="s">
         <v>189</v>
       </c>
-      <c r="E28" s="66" t="s">
-        <v>132</v>
-      </c>
-      <c r="F28" s="32" t="s">
+      <c r="E28" s="32" t="s">
         <v>190</v>
       </c>
-      <c r="G28" s="69"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="75"/>
+      <c r="F28" s="66"/>
+      <c r="G28" s="66"/>
+      <c r="H28" s="66"/>
+      <c r="I28" s="66"/>
+      <c r="J28" s="66"/>
+      <c r="K28" s="77"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="73"/>
       <c r="B29" s="72"/>
-      <c r="C29" s="70"/>
+      <c r="C29" s="78"/>
       <c r="D29" s="43"/>
-      <c r="E29" s="43"/>
+      <c r="E29" s="42"/>
       <c r="F29" s="42"/>
-      <c r="G29" s="69"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="75" t="s">
+      <c r="G29" s="42"/>
+      <c r="H29" s="42"/>
+      <c r="I29" s="42"/>
+      <c r="J29" s="42"/>
+      <c r="K29" s="77"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="73" t="s">
         <v>191</v>
       </c>
       <c r="C30" s="60"/>
-      <c r="F30" s="37"/>
-      <c r="G30" s="68" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="165" x14ac:dyDescent="0.25">
-      <c r="A31" s="75"/>
+      <c r="E30" s="37"/>
+      <c r="F30" s="66"/>
+      <c r="G30" s="66"/>
+      <c r="H30" s="66"/>
+      <c r="I30" s="66"/>
+      <c r="J30" s="66"/>
+      <c r="K30" s="76" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="165" x14ac:dyDescent="0.25">
+      <c r="A31" s="73"/>
       <c r="B31" s="72" t="s">
+        <v>268</v>
+      </c>
+      <c r="C31" s="72" t="s">
         <v>269</v>
       </c>
-      <c r="C31" s="72" t="s">
-        <v>270</v>
-      </c>
-      <c r="E31" s="66" t="s">
-        <v>198</v>
-      </c>
-      <c r="F31" s="32" t="s">
+      <c r="E31" s="32" t="s">
         <v>192</v>
       </c>
-      <c r="G31" s="69"/>
-    </row>
-    <row r="32" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A32" s="75"/>
-      <c r="B32" s="75"/>
+      <c r="F31" s="66"/>
+      <c r="G31" s="66"/>
+      <c r="H31" s="66"/>
+      <c r="I31" s="66"/>
+      <c r="J31" s="66"/>
+      <c r="K31" s="77"/>
+    </row>
+    <row r="32" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A32" s="73"/>
+      <c r="B32" s="73"/>
       <c r="C32" s="72"/>
       <c r="D32" s="58" t="s">
-        <v>257</v>
-      </c>
-      <c r="F32" s="41" t="s">
+        <v>256</v>
+      </c>
+      <c r="E32" s="41" t="s">
         <v>220</v>
       </c>
-      <c r="G32" s="69"/>
-    </row>
-    <row r="33" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="75"/>
-      <c r="B33" s="75"/>
+      <c r="F32" s="66"/>
+      <c r="G32" s="66"/>
+      <c r="H32" s="66"/>
+      <c r="I32" s="66"/>
+      <c r="J32" s="66"/>
+      <c r="K32" s="77"/>
+    </row>
+    <row r="33" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="73"/>
+      <c r="B33" s="73"/>
       <c r="C33" s="72"/>
       <c r="D33" s="43" t="s">
-        <v>258</v>
-      </c>
-      <c r="E33" s="43"/>
-      <c r="F33" s="43" t="s">
-        <v>250</v>
-      </c>
-      <c r="G33" s="69"/>
-    </row>
-    <row r="34" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="75"/>
-      <c r="B34" s="75"/>
+        <v>257</v>
+      </c>
+      <c r="E33" s="43" t="s">
+        <v>249</v>
+      </c>
+      <c r="F33" s="43"/>
+      <c r="G33" s="43"/>
+      <c r="H33" s="43"/>
+      <c r="I33" s="43"/>
+      <c r="J33" s="43"/>
+      <c r="K33" s="77"/>
+    </row>
+    <row r="34" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="73"/>
+      <c r="B34" s="73"/>
       <c r="C34" s="72"/>
       <c r="D34" s="43" t="s">
         <v>172</v>
       </c>
       <c r="E34" s="43" t="s">
-        <v>259</v>
-      </c>
-      <c r="F34" s="43" t="s">
-        <v>251</v>
-      </c>
-      <c r="G34" s="69"/>
-    </row>
-    <row r="35" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A35" s="75"/>
-      <c r="B35" s="75"/>
+        <v>250</v>
+      </c>
+      <c r="F34" s="43"/>
+      <c r="G34" s="43"/>
+      <c r="H34" s="43"/>
+      <c r="I34" s="43"/>
+      <c r="J34" s="43"/>
+      <c r="K34" s="77"/>
+    </row>
+    <row r="35" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A35" s="73"/>
+      <c r="B35" s="73"/>
       <c r="C35" s="72"/>
       <c r="D35" s="43" t="s">
-        <v>259</v>
-      </c>
-      <c r="E35" s="66" t="s">
-        <v>132</v>
-      </c>
-      <c r="F35" s="43" t="s">
-        <v>252</v>
-      </c>
-      <c r="G35" s="69"/>
-    </row>
-    <row r="36" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A36" s="75"/>
-      <c r="B36" s="75"/>
+        <v>258</v>
+      </c>
+      <c r="E35" s="43" t="s">
+        <v>251</v>
+      </c>
+      <c r="F35" s="43"/>
+      <c r="G35" s="43"/>
+      <c r="H35" s="43"/>
+      <c r="I35" s="43"/>
+      <c r="J35" s="43"/>
+      <c r="K35" s="77"/>
+    </row>
+    <row r="36" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A36" s="73"/>
+      <c r="B36" s="73"/>
       <c r="C36" s="72"/>
       <c r="D36" s="58" t="s">
         <v>132</v>
       </c>
-      <c r="E36" s="66" t="s">
-        <v>195</v>
-      </c>
-      <c r="F36" s="43" t="s">
-        <v>253</v>
-      </c>
-      <c r="G36" s="69"/>
-    </row>
-    <row r="37" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="E36" s="43" t="s">
+        <v>252</v>
+      </c>
+      <c r="F36" s="43"/>
+      <c r="G36" s="43"/>
+      <c r="H36" s="43"/>
+      <c r="I36" s="43"/>
+      <c r="J36" s="43"/>
+      <c r="K36" s="77"/>
+    </row>
+    <row r="37" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A37" s="72" t="s">
+        <v>270</v>
+      </c>
+      <c r="B37" s="72" t="s">
         <v>271</v>
       </c>
-      <c r="B37" s="72" t="s">
+      <c r="C37" s="72" t="s">
         <v>272</v>
-      </c>
-      <c r="C37" s="72" t="s">
-        <v>273</v>
       </c>
       <c r="D37" s="58" t="s">
         <v>193</v>
       </c>
-      <c r="E37" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="F37" s="32" t="s">
+      <c r="E37" s="32" t="s">
         <v>221</v>
       </c>
-      <c r="G37" s="68" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="F37" s="66"/>
+      <c r="G37" s="66"/>
+      <c r="H37" s="66"/>
+      <c r="I37" s="66"/>
+      <c r="J37" s="66"/>
+      <c r="K37" s="76" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A38" s="72"/>
       <c r="B38" s="72"/>
-      <c r="C38" s="75"/>
+      <c r="C38" s="73"/>
       <c r="D38" s="58" t="s">
         <v>194</v>
       </c>
-      <c r="E38" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="F38" s="32" t="s">
-        <v>256</v>
-      </c>
-      <c r="G38" s="69"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E38" s="32" t="s">
+        <v>255</v>
+      </c>
+      <c r="F38" s="66"/>
+      <c r="G38" s="66"/>
+      <c r="H38" s="66"/>
+      <c r="I38" s="66"/>
+      <c r="J38" s="66"/>
+      <c r="K38" s="77"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="72"/>
       <c r="B39" s="72"/>
-      <c r="C39" s="75"/>
+      <c r="C39" s="73"/>
       <c r="D39" s="58" t="s">
         <v>195</v>
       </c>
-      <c r="F39" s="38" t="s">
+      <c r="E39" s="38" t="s">
         <v>200</v>
       </c>
-      <c r="G39" s="69"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K39" s="77"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="72"/>
       <c r="B40" s="72"/>
-      <c r="C40" s="75"/>
+      <c r="C40" s="73"/>
       <c r="D40" s="58" t="s">
         <v>196</v>
       </c>
-      <c r="F40" s="38" t="s">
+      <c r="E40" s="38" t="s">
         <v>201</v>
       </c>
-      <c r="G40" s="69"/>
-    </row>
-    <row r="41" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="K40" s="77"/>
+    </row>
+    <row r="41" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A41" s="72"/>
       <c r="B41" s="72"/>
-      <c r="C41" s="75"/>
+      <c r="C41" s="73"/>
       <c r="D41" s="58" t="s">
         <v>197</v>
       </c>
-      <c r="E41" s="66" t="s">
-        <v>195</v>
-      </c>
-      <c r="F41" s="39" t="s">
+      <c r="E41" s="39" t="s">
         <v>202</v>
       </c>
-      <c r="G41" s="69"/>
-    </row>
-    <row r="42" spans="1:7" ht="150" x14ac:dyDescent="0.25">
+      <c r="F41" s="66"/>
+      <c r="G41" s="66"/>
+      <c r="H41" s="66"/>
+      <c r="I41" s="66"/>
+      <c r="J41" s="66"/>
+      <c r="K41" s="77"/>
+    </row>
+    <row r="42" spans="1:11" ht="150" x14ac:dyDescent="0.25">
       <c r="A42" s="72"/>
       <c r="B42" s="72"/>
-      <c r="C42" s="75"/>
+      <c r="C42" s="73"/>
       <c r="D42" s="58" t="s">
         <v>198</v>
       </c>
-      <c r="E42" s="66" t="s">
-        <v>195</v>
-      </c>
-      <c r="F42" s="32" t="s">
+      <c r="E42" s="32" t="s">
         <v>222</v>
       </c>
-      <c r="G42" s="69"/>
-    </row>
-    <row r="43" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="F42" s="66"/>
+      <c r="G42" s="66"/>
+      <c r="H42" s="66"/>
+      <c r="I42" s="66"/>
+      <c r="J42" s="66"/>
+      <c r="K42" s="77"/>
+    </row>
+    <row r="43" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A43" s="72"/>
       <c r="B43" s="72"/>
-      <c r="C43" s="75"/>
+      <c r="C43" s="73"/>
       <c r="D43" s="58" t="s">
         <v>199</v>
       </c>
-      <c r="E43" s="66" t="s">
-        <v>195</v>
-      </c>
-      <c r="F43" s="41" t="s">
+      <c r="E43" s="41" t="s">
         <v>203</v>
       </c>
-      <c r="G43" s="69"/>
-    </row>
-    <row r="44" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F43" s="66"/>
+      <c r="G43" s="66"/>
+      <c r="H43" s="66"/>
+      <c r="I43" s="66"/>
+      <c r="J43" s="66"/>
+      <c r="K43" s="77"/>
+    </row>
+    <row r="44" spans="1:11" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="62"/>
       <c r="B44" s="62"/>
       <c r="C44" s="63"/>
       <c r="D44" s="62"/>
-      <c r="E44" s="66"/>
-      <c r="F44" s="62"/>
-      <c r="G44" s="65"/>
-    </row>
-    <row r="45" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="E44" s="62"/>
+      <c r="F44" s="66"/>
+      <c r="G44" s="66"/>
+      <c r="H44" s="66"/>
+      <c r="I44" s="66"/>
+      <c r="J44" s="66"/>
+      <c r="K44" s="65"/>
+    </row>
+    <row r="45" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A45" s="59" t="s">
         <v>218</v>
       </c>
       <c r="B45" s="57" t="s">
+        <v>273</v>
+      </c>
+      <c r="C45" t="s">
         <v>274</v>
-      </c>
-      <c r="C45" t="s">
-        <v>275</v>
       </c>
       <c r="D45" s="58" t="s">
         <v>219</v>
       </c>
-      <c r="F45" s="40" t="s">
+      <c r="E45" s="40" t="s">
         <v>223</v>
       </c>
-      <c r="G45" s="47" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K45" s="47" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B46" s="42"/>
       <c r="C46" s="42"/>
       <c r="D46" s="43"/>
-      <c r="E46" s="43"/>
-      <c r="F46" s="40"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E46" s="40"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B47" s="42"/>
       <c r="C47" s="42"/>
       <c r="D47" s="43"/>
-      <c r="E47" s="43"/>
-      <c r="F47" s="40"/>
+      <c r="E47" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="B31:B36"/>
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="C23:C26"/>
-    <mergeCell ref="C31:C36"/>
-    <mergeCell ref="B37:B43"/>
-    <mergeCell ref="C37:C43"/>
+    <mergeCell ref="K27:K29"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="K30:K36"/>
+    <mergeCell ref="K37:K43"/>
+    <mergeCell ref="K2:K4"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="K15:K18"/>
+    <mergeCell ref="K19:K22"/>
+    <mergeCell ref="K23:K26"/>
+    <mergeCell ref="K7:K9"/>
+    <mergeCell ref="A37:A43"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A30:A36"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="A7:A10"/>
     <mergeCell ref="B19:B22"/>
     <mergeCell ref="C19:C22"/>
     <mergeCell ref="B27:B29"/>
@@ -2857,38 +3046,25 @@
     <mergeCell ref="C15:C18"/>
     <mergeCell ref="B7:B10"/>
     <mergeCell ref="C7:C10"/>
-    <mergeCell ref="A37:A43"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A30:A36"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="A23:A26"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="G27:G29"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="G30:G36"/>
-    <mergeCell ref="G37:G43"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="G15:G18"/>
-    <mergeCell ref="G19:G22"/>
-    <mergeCell ref="G23:G26"/>
-    <mergeCell ref="G7:G9"/>
+    <mergeCell ref="B31:B36"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="C23:C26"/>
+    <mergeCell ref="C31:C36"/>
+    <mergeCell ref="B37:B43"/>
+    <mergeCell ref="C37:C43"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="G5" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="G15" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="G19" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="G23" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="G27" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="G30" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="G37" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="G45" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="G7" r:id="rId10" xr:uid="{4E0AA375-15F4-4928-90C2-BD2E1EC884AB}"/>
-    <hyperlink ref="G11" r:id="rId11" xr:uid="{E29A4A0F-3BAA-48B7-B469-0201A35D0289}"/>
+    <hyperlink ref="K2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="K5" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="K15" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="K19" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="K23" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="K27" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="K30" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="K37" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="K45" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="K7" r:id="rId10" xr:uid="{4E0AA375-15F4-4928-90C2-BD2E1EC884AB}"/>
+    <hyperlink ref="K11" r:id="rId11" xr:uid="{E29A4A0F-3BAA-48B7-B469-0201A35D0289}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId12"/>
@@ -2932,7 +3108,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="80" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="29"/>
@@ -2947,7 +3123,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="77"/>
+      <c r="A3" s="81"/>
       <c r="B3" s="28"/>
       <c r="C3" t="s">
         <v>4</v>
@@ -2956,7 +3132,7 @@
       <c r="E3" s="6"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="77"/>
+      <c r="A4" s="81"/>
       <c r="B4" s="28"/>
       <c r="C4" t="s">
         <v>5</v>
@@ -2965,7 +3141,7 @@
       <c r="E4" s="6"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="77"/>
+      <c r="A5" s="81"/>
       <c r="B5" s="28"/>
       <c r="C5" t="s">
         <v>6</v>
@@ -2974,7 +3150,7 @@
       <c r="E5" s="6"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="77"/>
+      <c r="A6" s="81"/>
       <c r="B6" s="28"/>
       <c r="C6" t="s">
         <v>7</v>
@@ -2983,7 +3159,7 @@
       <c r="E6" s="6"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="77"/>
+      <c r="A7" s="81"/>
       <c r="B7" s="28"/>
       <c r="C7" t="s">
         <v>8</v>
@@ -2992,7 +3168,7 @@
       <c r="E7" s="6"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="77"/>
+      <c r="A8" s="81"/>
       <c r="B8" s="28"/>
       <c r="C8" t="s">
         <v>9</v>
@@ -3001,7 +3177,7 @@
       <c r="E8" s="6"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="77"/>
+      <c r="A9" s="81"/>
       <c r="B9" s="28"/>
       <c r="C9" t="s">
         <v>10</v>
@@ -3010,7 +3186,7 @@
       <c r="E9" s="6"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="77"/>
+      <c r="A10" s="81"/>
       <c r="B10" s="28"/>
       <c r="C10" t="s">
         <v>11</v>
@@ -3019,7 +3195,7 @@
       <c r="E10" s="6"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="77" t="s">
+      <c r="A11" s="81" t="s">
         <v>16</v>
       </c>
       <c r="B11" s="28"/>
@@ -3028,28 +3204,28 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="77"/>
+      <c r="A12" s="81"/>
       <c r="B12" s="28"/>
       <c r="C12" s="7" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="77"/>
+      <c r="A13" s="81"/>
       <c r="B13" s="28"/>
       <c r="C13" s="7" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="77"/>
+      <c r="A14" s="81"/>
       <c r="B14" s="28"/>
       <c r="C14" s="7" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="77"/>
+      <c r="A15" s="81"/>
       <c r="B15" s="28"/>
       <c r="C15" s="7" t="s">
         <v>21</v>
@@ -3059,7 +3235,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="77"/>
+      <c r="A16" s="81"/>
       <c r="B16" s="28"/>
       <c r="C16" s="7" t="s">
         <v>22</v>
@@ -3069,7 +3245,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="77" t="s">
+      <c r="A17" s="81" t="s">
         <v>23</v>
       </c>
       <c r="B17" s="28"/>
@@ -3084,7 +3260,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="77"/>
+      <c r="A18" s="81"/>
       <c r="B18" s="28"/>
       <c r="C18" s="8" t="s">
         <v>25</v>
@@ -3094,21 +3270,21 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="77"/>
+      <c r="A19" s="81"/>
       <c r="B19" s="28"/>
       <c r="C19" s="8" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="77"/>
+      <c r="A20" s="81"/>
       <c r="B20" s="28"/>
       <c r="C20" s="8" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A21" s="77"/>
+      <c r="A21" s="81"/>
       <c r="B21" s="28"/>
       <c r="C21" s="8" t="s">
         <v>28</v>
@@ -3118,7 +3294,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="77"/>
+      <c r="A22" s="81"/>
       <c r="B22" s="28"/>
       <c r="C22" s="8" t="s">
         <v>29</v>
@@ -3128,7 +3304,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="77"/>
+      <c r="A23" s="81"/>
       <c r="B23" s="28"/>
       <c r="C23" s="8" t="s">
         <v>30</v>
@@ -3138,14 +3314,14 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="77"/>
+      <c r="A24" s="81"/>
       <c r="B24" s="28"/>
       <c r="C24" s="8" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="77" t="s">
+      <c r="A25" s="81" t="s">
         <v>41</v>
       </c>
       <c r="B25" s="28"/>
@@ -3160,7 +3336,7 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="77"/>
+      <c r="A26" s="81"/>
       <c r="B26" s="28"/>
       <c r="C26" s="9" t="s">
         <v>43</v>
@@ -3170,7 +3346,7 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="77"/>
+      <c r="A27" s="81"/>
       <c r="B27" s="28"/>
       <c r="C27" s="9" t="s">
         <v>44</v>
@@ -3180,7 +3356,7 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="77"/>
+      <c r="A28" s="81"/>
       <c r="B28" s="28"/>
       <c r="C28" s="9" t="s">
         <v>41</v>
@@ -3190,7 +3366,7 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="77"/>
+      <c r="A29" s="81"/>
       <c r="B29" s="28"/>
       <c r="C29" s="9" t="s">
         <v>45</v>
@@ -3200,7 +3376,7 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="77"/>
+      <c r="A30" s="81"/>
       <c r="B30" s="28"/>
       <c r="C30" s="9" t="s">
         <v>46</v>
@@ -3210,49 +3386,49 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="77"/>
+      <c r="A31" s="81"/>
       <c r="B31" s="28"/>
       <c r="D31" s="9" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="77"/>
+      <c r="A32" s="81"/>
       <c r="B32" s="28"/>
       <c r="D32" s="9" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="77"/>
+      <c r="A33" s="81"/>
       <c r="B33" s="28"/>
       <c r="D33" s="9" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="77"/>
+      <c r="A34" s="81"/>
       <c r="B34" s="28"/>
       <c r="D34" s="9" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="77"/>
+      <c r="A35" s="81"/>
       <c r="B35" s="28"/>
       <c r="D35" s="9" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="77"/>
+      <c r="A36" s="81"/>
       <c r="B36" s="28"/>
       <c r="D36" s="9" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="78" t="s">
+      <c r="A37" s="82" t="s">
         <v>58</v>
       </c>
       <c r="D37" s="11" t="s">
@@ -3260,43 +3436,43 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="78"/>
+      <c r="A38" s="82"/>
       <c r="D38" s="11" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="78"/>
+      <c r="A39" s="82"/>
       <c r="D39" s="11" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="78"/>
+      <c r="A40" s="82"/>
       <c r="D40" s="11" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="78"/>
+      <c r="A41" s="82"/>
       <c r="D41" s="11" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="78"/>
+      <c r="A42" s="82"/>
       <c r="D42" s="11" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="78"/>
+      <c r="A43" s="82"/>
       <c r="D43" s="11" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="78" t="s">
+      <c r="A44" s="82" t="s">
         <v>66</v>
       </c>
       <c r="C44" s="12" t="s">
@@ -3307,7 +3483,7 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="78"/>
+      <c r="A45" s="82"/>
       <c r="C45" s="12" t="s">
         <v>67</v>
       </c>
@@ -3316,7 +3492,7 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="78"/>
+      <c r="A46" s="82"/>
       <c r="C46" s="12" t="s">
         <v>44</v>
       </c>
@@ -3325,43 +3501,43 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="78"/>
+      <c r="A47" s="82"/>
       <c r="D47" s="12" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="78"/>
+      <c r="A48" s="82"/>
       <c r="D48" s="12" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="78"/>
+      <c r="A49" s="82"/>
       <c r="D49" s="12" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="78"/>
+      <c r="A50" s="82"/>
       <c r="D50" s="12" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="78"/>
+      <c r="A51" s="82"/>
       <c r="D51" s="12" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="78"/>
+      <c r="A52" s="82"/>
       <c r="D52" s="12" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="158.44999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="78" t="s">
+      <c r="A53" s="82" t="s">
         <v>77</v>
       </c>
       <c r="C53" s="14" t="s">
@@ -3373,7 +3549,7 @@
       <c r="E53" s="13"/>
     </row>
     <row r="54" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A54" s="78"/>
+      <c r="A54" s="82"/>
       <c r="C54" s="14" t="s">
         <v>87</v>
       </c>
@@ -3383,7 +3559,7 @@
       <c r="E54" s="13"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="78" t="s">
+      <c r="A55" s="82" t="s">
         <v>80</v>
       </c>
       <c r="C55" s="14" t="s">
@@ -3394,7 +3570,7 @@
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="78"/>
+      <c r="A56" s="82"/>
       <c r="C56" s="14" t="s">
         <v>82</v>
       </c>
@@ -3403,7 +3579,7 @@
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="78"/>
+      <c r="A57" s="82"/>
       <c r="C57" s="14" t="s">
         <v>83</v>
       </c>
@@ -3412,7 +3588,7 @@
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="78"/>
+      <c r="A58" s="82"/>
       <c r="C58" s="14" t="s">
         <v>84</v>
       </c>
@@ -3421,7 +3597,7 @@
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="78"/>
+      <c r="A59" s="82"/>
       <c r="C59" s="14" t="s">
         <v>85</v>
       </c>
@@ -3430,73 +3606,73 @@
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="78"/>
+      <c r="A60" s="82"/>
       <c r="D60" s="14" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="78"/>
+      <c r="A61" s="82"/>
       <c r="D61" s="14" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="78"/>
+      <c r="A62" s="82"/>
       <c r="D62" s="14" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="78"/>
+      <c r="A63" s="82"/>
       <c r="D63" s="14" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="78"/>
+      <c r="A64" s="82"/>
       <c r="D64" s="14" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="78"/>
+      <c r="A65" s="82"/>
       <c r="D65" s="14" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="78"/>
+      <c r="A66" s="82"/>
       <c r="D66" s="14" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="78"/>
+      <c r="A67" s="82"/>
       <c r="D67" s="14" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="78"/>
+      <c r="A68" s="82"/>
       <c r="D68" s="14" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="78"/>
+      <c r="A69" s="82"/>
       <c r="D69" s="14" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="78"/>
+      <c r="A70" s="82"/>
       <c r="D70" s="14" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="78" t="s">
+      <c r="A71" s="82" t="s">
         <v>104</v>
       </c>
       <c r="C71" s="15" t="s">
@@ -3507,7 +3683,7 @@
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="78"/>
+      <c r="A72" s="82"/>
       <c r="C72" s="15" t="s">
         <v>106</v>
       </c>
@@ -3516,7 +3692,7 @@
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="78"/>
+      <c r="A73" s="82"/>
       <c r="C73" s="15" t="s">
         <v>107</v>
       </c>
@@ -3525,7 +3701,7 @@
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="78"/>
+      <c r="A74" s="82"/>
       <c r="C74" s="15" t="s">
         <v>108</v>
       </c>
@@ -3534,43 +3710,43 @@
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="78"/>
+      <c r="A75" s="82"/>
       <c r="D75" s="15" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="78"/>
+      <c r="A76" s="82"/>
       <c r="D76" s="15" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="78"/>
+      <c r="A77" s="82"/>
       <c r="D77" s="15" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="78"/>
+      <c r="A78" s="82"/>
       <c r="D78" s="15" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="78"/>
+      <c r="A79" s="82"/>
       <c r="D79" s="15" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="78"/>
+      <c r="A80" s="82"/>
       <c r="D80" s="15" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="78" t="s">
+      <c r="A81" s="82" t="s">
         <v>117</v>
       </c>
       <c r="C81" s="16" t="s">
@@ -3581,7 +3757,7 @@
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="78"/>
+      <c r="A82" s="82"/>
       <c r="C82" s="16" t="s">
         <v>119</v>
       </c>
@@ -3590,7 +3766,7 @@
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="78"/>
+      <c r="A83" s="82"/>
       <c r="C83" s="16" t="s">
         <v>120</v>
       </c>
@@ -3599,25 +3775,25 @@
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="78"/>
+      <c r="A84" s="82"/>
       <c r="D84" s="16" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" s="78"/>
+      <c r="A85" s="82"/>
       <c r="D85" s="16" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" s="78"/>
+      <c r="A86" s="82"/>
       <c r="D86" s="16" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A87" s="78" t="s">
+      <c r="A87" s="82" t="s">
         <v>125</v>
       </c>
       <c r="C87" s="17" t="s">
@@ -3628,7 +3804,7 @@
       </c>
     </row>
     <row r="88" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A88" s="78"/>
+      <c r="A88" s="82"/>
       <c r="C88" s="17" t="s">
         <v>127</v>
       </c>
@@ -3637,7 +3813,7 @@
       </c>
     </row>
     <row r="89" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A89" s="78"/>
+      <c r="A89" s="82"/>
       <c r="C89" s="17" t="s">
         <v>128</v>
       </c>
@@ -3646,13 +3822,13 @@
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" s="78"/>
+      <c r="A90" s="82"/>
       <c r="C90" s="17" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A91" s="78" t="s">
+      <c r="A91" s="82" t="s">
         <v>132</v>
       </c>
       <c r="C91" s="19" t="s">
@@ -3663,7 +3839,7 @@
       </c>
     </row>
     <row r="92" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A92" s="78"/>
+      <c r="A92" s="82"/>
       <c r="C92" s="19" t="s">
         <v>134</v>
       </c>
@@ -3672,40 +3848,40 @@
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" s="78"/>
+      <c r="A93" s="82"/>
       <c r="C93" s="19" t="s">
         <v>135</v>
       </c>
       <c r="D93" s="19"/>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" s="78"/>
+      <c r="A94" s="82"/>
       <c r="C94" s="19" t="s">
         <v>136</v>
       </c>
       <c r="D94" s="19"/>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" s="78"/>
+      <c r="A95" s="82"/>
       <c r="C95" s="19" t="s">
         <v>137</v>
       </c>
       <c r="D95" s="19"/>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96" s="78"/>
+      <c r="A96" s="82"/>
       <c r="C96" s="19" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" s="78"/>
+      <c r="A97" s="82"/>
       <c r="C97" s="19" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" s="78" t="s">
+      <c r="A98" s="82" t="s">
         <v>141</v>
       </c>
       <c r="D98" s="20" t="s">
@@ -3713,25 +3889,25 @@
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" s="78"/>
+      <c r="A99" s="82"/>
       <c r="D99" s="20" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" s="78"/>
+      <c r="A100" s="82"/>
       <c r="D100" s="20" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101" s="78"/>
+      <c r="A101" s="82"/>
       <c r="D101" s="20" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A102" s="78" t="s">
+      <c r="A102" s="82" t="s">
         <v>146</v>
       </c>
       <c r="C102" s="23" t="s">
@@ -3742,7 +3918,7 @@
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A103" s="78"/>
+      <c r="A103" s="82"/>
       <c r="C103" s="23" t="s">
         <v>138</v>
       </c>
@@ -3751,7 +3927,7 @@
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A104" s="78"/>
+      <c r="A104" s="82"/>
       <c r="C104" s="23" t="s">
         <v>135</v>
       </c>
@@ -3760,7 +3936,7 @@
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A105" s="78"/>
+      <c r="A105" s="82"/>
       <c r="C105" s="23" t="s">
         <v>147</v>
       </c>
@@ -3769,7 +3945,7 @@
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A106" s="78"/>
+      <c r="A106" s="82"/>
       <c r="C106" s="23" t="s">
         <v>148</v>
       </c>
@@ -3778,13 +3954,13 @@
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A107" s="78"/>
+      <c r="A107" s="82"/>
       <c r="C107" s="23" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A108" s="78" t="s">
+      <c r="A108" s="82" t="s">
         <v>151</v>
       </c>
       <c r="C108" s="24" t="s">
@@ -3795,7 +3971,7 @@
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A109" s="78"/>
+      <c r="A109" s="82"/>
       <c r="C109" s="24" t="s">
         <v>153</v>
       </c>
@@ -3804,31 +3980,31 @@
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A110" s="78"/>
+      <c r="A110" s="82"/>
       <c r="D110" s="24" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A111" s="78"/>
+      <c r="A111" s="82"/>
       <c r="D111" s="24" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A112" s="78"/>
+      <c r="A112" s="82"/>
       <c r="D112" s="24" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A113" s="78"/>
+      <c r="A113" s="82"/>
       <c r="D113" s="24" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A114" s="78" t="s">
+      <c r="A114" s="82" t="s">
         <v>163</v>
       </c>
       <c r="C114" s="25" t="s">
@@ -3839,7 +4015,7 @@
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A115" s="78"/>
+      <c r="A115" s="82"/>
       <c r="C115" s="25" t="s">
         <v>119</v>
       </c>
@@ -3848,7 +4024,7 @@
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A116" s="78"/>
+      <c r="A116" s="82"/>
       <c r="C116" s="25" t="s">
         <v>120</v>
       </c>
@@ -3857,57 +4033,57 @@
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A117" s="78"/>
+      <c r="A117" s="82"/>
       <c r="D117" s="25" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A118" s="78"/>
+      <c r="A118" s="82"/>
       <c r="D118" s="25"/>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A119" s="78"/>
+      <c r="A119" s="82"/>
       <c r="D119" s="25" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A120" s="78"/>
+      <c r="A120" s="82"/>
       <c r="D120" s="25" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A121" s="78"/>
+      <c r="A121" s="82"/>
       <c r="D121" s="25" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A122" s="78"/>
+      <c r="A122" s="82"/>
       <c r="D122" s="25" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A123" s="78"/>
+      <c r="A123" s="82"/>
       <c r="D123" s="25"/>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A124" s="78"/>
+      <c r="A124" s="82"/>
       <c r="D124" s="25" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="125" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A125" s="78"/>
+      <c r="A125" s="82"/>
       <c r="D125" s="26" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A126" s="78"/>
+      <c r="A126" s="82"/>
       <c r="D126" s="25" t="s">
         <v>170</v>
       </c>
@@ -3943,80 +4119,104 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:G97"/>
+  <dimension ref="A1:L97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.42578125" customWidth="1"/>
-    <col min="2" max="2" width="23.7109375" style="55" customWidth="1"/>
+    <col min="2" max="2" width="72.85546875" style="55" customWidth="1"/>
     <col min="3" max="3" width="44" style="55" customWidth="1"/>
-    <col min="4" max="4" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.28515625" customWidth="1"/>
     <col min="5" max="5" width="21.7109375" style="44" customWidth="1"/>
-    <col min="6" max="6" width="122.42578125" customWidth="1"/>
-    <col min="7" max="7" width="52.42578125" customWidth="1"/>
-    <col min="8" max="8" width="25.28515625" customWidth="1"/>
+    <col min="6" max="6" width="103.42578125" customWidth="1"/>
+    <col min="7" max="11" width="37.28515625" style="44" customWidth="1"/>
+    <col min="12" max="12" width="52.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="48" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="48" t="s">
+        <v>244</v>
+      </c>
+      <c r="C1" s="48" t="s">
         <v>245</v>
-      </c>
-      <c r="C1" s="48" t="s">
-        <v>246</v>
       </c>
       <c r="D1" s="51" t="s">
         <v>204</v>
       </c>
       <c r="E1" s="51" t="s">
-        <v>341</v>
+        <v>359</v>
       </c>
       <c r="F1" s="51" t="s">
         <v>12</v>
       </c>
       <c r="G1" s="45" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>340</v>
+      </c>
+      <c r="H1" s="45" t="s">
+        <v>341</v>
+      </c>
+      <c r="I1" s="45" t="s">
+        <v>342</v>
+      </c>
+      <c r="J1" s="45" t="s">
+        <v>343</v>
+      </c>
+      <c r="K1" s="45" t="s">
+        <v>344</v>
+      </c>
+      <c r="L1" s="45" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="53" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="52" t="s">
+        <v>246</v>
+      </c>
+      <c r="C2" s="52" t="s">
         <v>247</v>
-      </c>
-      <c r="C2" s="52" t="s">
-        <v>248</v>
       </c>
       <c r="D2" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="67" t="s">
+      <c r="E2" s="71" t="s">
         <v>21</v>
       </c>
       <c r="F2" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="46" t="s">
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="66" t="s">
+        <v>345</v>
+      </c>
+      <c r="J2" s="46" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="77" t="s">
+      <c r="K2" s="66"/>
+      <c r="L2" s="46" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="81" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="78" t="s">
-        <v>315</v>
-      </c>
-      <c r="C3" s="78" t="s">
-        <v>312</v>
+      <c r="B3" s="82" t="s">
+        <v>314</v>
+      </c>
+      <c r="C3" s="82" t="s">
+        <v>311</v>
       </c>
       <c r="D3" s="72" t="s">
         <v>21</v>
@@ -4025,70 +4225,124 @@
         <v>22</v>
       </c>
       <c r="F3" s="72" t="s">
-        <v>302</v>
-      </c>
-      <c r="G3" s="68" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="77"/>
-      <c r="B4" s="78"/>
-      <c r="C4" s="78"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="66" t="s">
+        <v>345</v>
+      </c>
+      <c r="J3" s="67" t="s">
+        <v>300</v>
+      </c>
+      <c r="K3" s="66"/>
+      <c r="L3" s="76" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="81"/>
+      <c r="B4" s="82"/>
+      <c r="C4" s="82"/>
       <c r="D4" s="72"/>
       <c r="E4" s="72"/>
       <c r="F4" s="72"/>
-      <c r="G4" s="69"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="77"/>
-      <c r="B5" s="78"/>
-      <c r="C5" s="78"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66" t="s">
+        <v>345</v>
+      </c>
+      <c r="J4" s="67" t="s">
+        <v>300</v>
+      </c>
+      <c r="K4" s="66"/>
+      <c r="L4" s="77"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="81"/>
+      <c r="B5" s="82"/>
+      <c r="C5" s="82"/>
       <c r="D5" s="72"/>
       <c r="E5" s="72"/>
       <c r="F5" s="72"/>
-      <c r="G5" s="69"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="77"/>
-      <c r="B6" s="78"/>
-      <c r="C6" s="78"/>
+      <c r="G5" s="66"/>
+      <c r="H5" s="66"/>
+      <c r="I5" s="66" t="s">
+        <v>345</v>
+      </c>
+      <c r="J5" s="67" t="s">
+        <v>300</v>
+      </c>
+      <c r="K5" s="66"/>
+      <c r="L5" s="77"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="81"/>
+      <c r="B6" s="82"/>
+      <c r="C6" s="82"/>
       <c r="D6" s="72"/>
       <c r="E6" s="72"/>
       <c r="F6" s="72"/>
-      <c r="G6" s="69"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="77"/>
-      <c r="B7" s="78"/>
-      <c r="C7" s="78"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="66"/>
+      <c r="I6" s="66" t="s">
+        <v>345</v>
+      </c>
+      <c r="J6" s="67" t="s">
+        <v>300</v>
+      </c>
+      <c r="K6" s="66"/>
+      <c r="L6" s="77"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="81"/>
+      <c r="B7" s="82"/>
+      <c r="C7" s="82"/>
       <c r="D7" s="72"/>
       <c r="E7" s="72"/>
       <c r="F7" s="72"/>
-      <c r="G7" s="69"/>
-    </row>
-    <row r="8" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="77"/>
-      <c r="B8" s="78"/>
-      <c r="C8" s="78"/>
+      <c r="G7" s="66"/>
+      <c r="H7" s="66"/>
+      <c r="I7" s="66" t="s">
+        <v>345</v>
+      </c>
+      <c r="J7" s="67" t="s">
+        <v>300</v>
+      </c>
+      <c r="K7" s="66"/>
+      <c r="L7" s="77"/>
+    </row>
+    <row r="8" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="A8" s="81"/>
+      <c r="B8" s="82"/>
+      <c r="C8" s="82"/>
       <c r="D8" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="66"/>
+      <c r="E8" s="70"/>
       <c r="F8" s="50" t="s">
-        <v>34</v>
-      </c>
-      <c r="G8" s="44"/>
-    </row>
-    <row r="9" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="77" t="s">
+        <v>346</v>
+      </c>
+      <c r="G8" s="66"/>
+      <c r="H8" s="66"/>
+      <c r="I8" s="66" t="s">
+        <v>349</v>
+      </c>
+      <c r="J8" s="66" t="s">
+        <v>347</v>
+      </c>
+      <c r="K8" s="66"/>
+      <c r="L8" s="44"/>
+    </row>
+    <row r="9" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="81" t="s">
         <v>224</v>
       </c>
-      <c r="B9" s="80" t="s">
-        <v>317</v>
-      </c>
-      <c r="C9" s="78" t="s">
+      <c r="B9" s="83" t="s">
         <v>316</v>
+      </c>
+      <c r="C9" s="82" t="s">
+        <v>315</v>
       </c>
       <c r="D9" s="72" t="s">
         <v>27</v>
@@ -4099,159 +4353,267 @@
       <c r="F9" s="72" t="s">
         <v>32</v>
       </c>
-      <c r="G9" s="68" t="s">
+      <c r="G9" s="66"/>
+      <c r="H9" s="66"/>
+      <c r="I9" s="66" t="s">
+        <v>345</v>
+      </c>
+      <c r="J9" s="67" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="77"/>
+      <c r="K9" s="66"/>
+      <c r="L9" s="76" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="81"/>
       <c r="B10" s="72"/>
-      <c r="C10" s="78"/>
+      <c r="C10" s="82"/>
       <c r="D10" s="72"/>
       <c r="E10" s="72"/>
       <c r="F10" s="72"/>
-      <c r="G10" s="69"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="77"/>
+      <c r="G10" s="66"/>
+      <c r="H10" s="66"/>
+      <c r="I10" s="66" t="s">
+        <v>345</v>
+      </c>
+      <c r="J10" s="67" t="s">
+        <v>33</v>
+      </c>
+      <c r="K10" s="66"/>
+      <c r="L10" s="77"/>
+    </row>
+    <row r="11" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="81"/>
       <c r="B11" s="72"/>
-      <c r="C11" s="78"/>
+      <c r="C11" s="82"/>
       <c r="D11" s="72"/>
       <c r="E11" s="72"/>
       <c r="F11" s="72"/>
-      <c r="G11" s="69"/>
-    </row>
-    <row r="12" spans="1:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="A12" s="77"/>
+      <c r="G11" s="66"/>
+      <c r="H11" s="66"/>
+      <c r="I11" s="66" t="s">
+        <v>345</v>
+      </c>
+      <c r="J11" s="67" t="s">
+        <v>33</v>
+      </c>
+      <c r="K11" s="66"/>
+      <c r="L11" s="77"/>
+    </row>
+    <row r="12" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="A12" s="81"/>
       <c r="B12" s="72"/>
-      <c r="C12" s="78"/>
+      <c r="C12" s="82"/>
       <c r="D12" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="66" t="s">
+      <c r="E12" s="70" t="s">
         <v>29</v>
       </c>
       <c r="F12" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="G12" s="69"/>
-    </row>
-    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="77"/>
+      <c r="G12" s="66"/>
+      <c r="H12" s="66"/>
+      <c r="I12" s="66" t="s">
+        <v>345</v>
+      </c>
+      <c r="J12" s="67" t="s">
+        <v>33</v>
+      </c>
+      <c r="K12" s="66"/>
+      <c r="L12" s="77"/>
+    </row>
+    <row r="13" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="81"/>
       <c r="B13" s="72"/>
-      <c r="C13" s="78"/>
+      <c r="C13" s="82"/>
       <c r="D13" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="E13" s="66" t="s">
+      <c r="E13" s="70" t="s">
         <v>43</v>
       </c>
       <c r="F13" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="G13" s="69"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="77"/>
+      <c r="G13" s="66"/>
+      <c r="H13" s="66"/>
+      <c r="I13" s="66" t="s">
+        <v>345</v>
+      </c>
+      <c r="J13" s="67" t="s">
+        <v>33</v>
+      </c>
+      <c r="K13" s="66"/>
+      <c r="L13" s="77"/>
+    </row>
+    <row r="14" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="81"/>
       <c r="B14" s="72"/>
-      <c r="C14" s="78"/>
+      <c r="C14" s="82"/>
       <c r="D14" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="E14" s="66"/>
+      <c r="E14" s="70"/>
       <c r="F14" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="G14" s="69"/>
-    </row>
-    <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="77"/>
+      <c r="G14" s="66"/>
+      <c r="H14" s="66"/>
+      <c r="I14" s="66" t="s">
+        <v>345</v>
+      </c>
+      <c r="J14" s="67" t="s">
+        <v>33</v>
+      </c>
+      <c r="K14" s="66"/>
+      <c r="L14" s="77"/>
+    </row>
+    <row r="15" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="81"/>
       <c r="B15" s="72"/>
-      <c r="C15" s="78"/>
+      <c r="C15" s="82"/>
       <c r="D15" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="E15" s="66"/>
+      <c r="E15" s="70"/>
       <c r="F15" s="72"/>
-      <c r="G15" s="69"/>
-    </row>
-    <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="77" t="s">
+      <c r="G15" s="66"/>
+      <c r="H15" s="66"/>
+      <c r="I15" s="66" t="s">
+        <v>345</v>
+      </c>
+      <c r="J15" s="67" t="s">
+        <v>33</v>
+      </c>
+      <c r="K15" s="66"/>
+      <c r="L15" s="77"/>
+    </row>
+    <row r="16" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="81" t="s">
         <v>41</v>
       </c>
-      <c r="B16" s="78" t="s">
+      <c r="B16" s="82" t="s">
+        <v>275</v>
+      </c>
+      <c r="C16" s="82" t="s">
         <v>276</v>
-      </c>
-      <c r="C16" s="78" t="s">
-        <v>277</v>
       </c>
       <c r="D16" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="E16" s="66"/>
+      <c r="E16" s="70"/>
       <c r="F16" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="G16" s="68" t="s">
+      <c r="G16" s="66"/>
+      <c r="H16" s="66"/>
+      <c r="I16" s="66" t="s">
+        <v>345</v>
+      </c>
+      <c r="J16" s="67" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="77"/>
-      <c r="B17" s="78"/>
-      <c r="C17" s="78"/>
+      <c r="K16" s="66"/>
+      <c r="L16" s="76" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="81"/>
+      <c r="B17" s="82"/>
+      <c r="C17" s="82"/>
       <c r="D17" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="E17" s="66"/>
+      <c r="E17" s="70"/>
       <c r="F17" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="G17" s="68"/>
-    </row>
-    <row r="18" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="77"/>
-      <c r="B18" s="78"/>
-      <c r="C18" s="78"/>
+      <c r="G17" s="66"/>
+      <c r="H17" s="66"/>
+      <c r="I17" s="66" t="s">
+        <v>345</v>
+      </c>
+      <c r="J17" s="67" t="s">
+        <v>33</v>
+      </c>
+      <c r="K17" s="66"/>
+      <c r="L17" s="76"/>
+    </row>
+    <row r="18" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="81"/>
+      <c r="B18" s="82"/>
+      <c r="C18" s="82"/>
       <c r="D18" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="E18" s="66"/>
+      <c r="E18" s="70"/>
       <c r="F18" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="G18" s="68"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="77"/>
-      <c r="B19" s="78"/>
-      <c r="C19" s="78"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="42"/>
+      <c r="I18" s="66" t="s">
+        <v>345</v>
+      </c>
+      <c r="J18" s="67" t="s">
+        <v>33</v>
+      </c>
+      <c r="K18" s="42"/>
+      <c r="L18" s="76"/>
+    </row>
+    <row r="19" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="81"/>
+      <c r="B19" s="82"/>
+      <c r="C19" s="82"/>
       <c r="D19" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="E19" s="66"/>
+      <c r="E19" s="70"/>
       <c r="F19" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="G19" s="68"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="77"/>
-      <c r="B20" s="78"/>
-      <c r="C20" s="78"/>
+      <c r="G19" s="66"/>
+      <c r="H19" s="66"/>
+      <c r="I19" s="66" t="s">
+        <v>345</v>
+      </c>
+      <c r="J19" s="67" t="s">
+        <v>33</v>
+      </c>
+      <c r="K19" s="66"/>
+      <c r="L19" s="76"/>
+    </row>
+    <row r="20" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="81"/>
+      <c r="B20" s="82"/>
+      <c r="C20" s="82"/>
       <c r="D20" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="E20" s="66"/>
+      <c r="E20" s="70"/>
       <c r="F20" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="G20" s="68"/>
-    </row>
-    <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="77"/>
-      <c r="B21" s="78"/>
-      <c r="C21" s="78"/>
+      <c r="G20" s="66"/>
+      <c r="H20" s="66"/>
+      <c r="I20" s="66" t="s">
+        <v>345</v>
+      </c>
+      <c r="J20" s="67" t="s">
+        <v>33</v>
+      </c>
+      <c r="K20" s="66"/>
+      <c r="L20" s="76"/>
+    </row>
+    <row r="21" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A21" s="81"/>
+      <c r="B21" s="82"/>
+      <c r="C21" s="82"/>
       <c r="D21" s="50" t="s">
         <v>46</v>
       </c>
@@ -4261,12 +4623,21 @@
       <c r="F21" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="G21" s="68"/>
-    </row>
-    <row r="22" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A22" s="77"/>
-      <c r="B22" s="78"/>
-      <c r="C22" s="78"/>
+      <c r="G21" s="66"/>
+      <c r="H21" s="66"/>
+      <c r="I21" s="66" t="s">
+        <v>345</v>
+      </c>
+      <c r="J21" s="67" t="s">
+        <v>33</v>
+      </c>
+      <c r="K21" s="66"/>
+      <c r="L21" s="76"/>
+    </row>
+    <row r="22" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A22" s="81"/>
+      <c r="B22" s="82"/>
+      <c r="C22" s="82"/>
       <c r="D22" s="72" t="s">
         <v>225</v>
       </c>
@@ -4274,456 +4645,721 @@
       <c r="F22" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="G22" s="68"/>
-    </row>
-    <row r="23" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A23" s="77"/>
-      <c r="B23" s="78"/>
-      <c r="C23" s="78"/>
+      <c r="G22" s="66"/>
+      <c r="H22" s="66"/>
+      <c r="I22" s="66" t="s">
+        <v>345</v>
+      </c>
+      <c r="J22" s="67" t="s">
+        <v>33</v>
+      </c>
+      <c r="K22" s="66"/>
+      <c r="L22" s="76"/>
+    </row>
+    <row r="23" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A23" s="81"/>
+      <c r="B23" s="82"/>
+      <c r="C23" s="82"/>
       <c r="D23" s="72"/>
-      <c r="E23" s="66" t="s">
+      <c r="E23" s="70" t="s">
         <v>226</v>
       </c>
       <c r="F23" s="50" t="s">
         <v>55</v>
       </c>
-      <c r="G23" s="68"/>
-    </row>
-    <row r="24" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="77"/>
-      <c r="B24" s="78"/>
-      <c r="C24" s="78"/>
+      <c r="G23" s="66"/>
+      <c r="H23" s="66"/>
+      <c r="I23" s="66" t="s">
+        <v>345</v>
+      </c>
+      <c r="J23" s="67" t="s">
+        <v>33</v>
+      </c>
+      <c r="K23" s="66"/>
+      <c r="L23" s="76"/>
+    </row>
+    <row r="24" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A24" s="81"/>
+      <c r="B24" s="82"/>
+      <c r="C24" s="82"/>
       <c r="D24" s="50" t="s">
         <v>226</v>
       </c>
-      <c r="E24" s="66" t="s">
+      <c r="E24" s="70" t="s">
         <v>107</v>
       </c>
       <c r="F24" s="50" t="s">
         <v>56</v>
       </c>
-      <c r="G24" s="68"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="78" t="s">
+      <c r="G24" s="66"/>
+      <c r="H24" s="66"/>
+      <c r="I24" s="66" t="s">
+        <v>345</v>
+      </c>
+      <c r="J24" s="67" t="s">
+        <v>33</v>
+      </c>
+      <c r="K24" s="66"/>
+      <c r="L24" s="76"/>
+    </row>
+    <row r="25" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="82" t="s">
         <v>58</v>
       </c>
-      <c r="B25" s="78" t="s">
-        <v>260</v>
-      </c>
-      <c r="C25" s="78" t="s">
-        <v>318</v>
+      <c r="B25" s="82" t="s">
+        <v>259</v>
+      </c>
+      <c r="C25" s="82" t="s">
+        <v>317</v>
       </c>
       <c r="D25" s="44"/>
       <c r="F25" s="50"/>
-      <c r="G25" s="68" t="s">
+      <c r="G25" s="66"/>
+      <c r="H25" s="66"/>
+      <c r="I25" s="66" t="s">
+        <v>345</v>
+      </c>
+      <c r="J25" s="67" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="78"/>
-      <c r="B26" s="78"/>
-      <c r="C26" s="78"/>
+      <c r="K25" s="66"/>
+      <c r="L25" s="76" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="82"/>
+      <c r="B26" s="82"/>
+      <c r="C26" s="82"/>
       <c r="D26" s="72" t="s">
         <v>58</v>
       </c>
-      <c r="E26" s="66"/>
+      <c r="E26" s="70"/>
       <c r="F26" s="50" t="s">
         <v>60</v>
       </c>
-      <c r="G26" s="69"/>
-    </row>
-    <row r="27" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="78"/>
-      <c r="B27" s="78"/>
-      <c r="C27" s="78"/>
+      <c r="G26" s="43"/>
+      <c r="H26" s="43"/>
+      <c r="I26" s="66" t="s">
+        <v>345</v>
+      </c>
+      <c r="J26" s="67" t="s">
+        <v>33</v>
+      </c>
+      <c r="K26" s="43"/>
+      <c r="L26" s="77"/>
+    </row>
+    <row r="27" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="82"/>
+      <c r="B27" s="82"/>
+      <c r="C27" s="82"/>
       <c r="D27" s="72"/>
-      <c r="E27" s="66" t="s">
+      <c r="E27" s="70" t="s">
         <v>230</v>
       </c>
       <c r="F27" s="50" t="s">
         <v>61</v>
       </c>
-      <c r="G27" s="69"/>
-    </row>
-    <row r="28" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="78"/>
-      <c r="B28" s="78"/>
-      <c r="C28" s="78"/>
+      <c r="G27" s="66"/>
+      <c r="H27" s="66"/>
+      <c r="I27" s="66" t="s">
+        <v>345</v>
+      </c>
+      <c r="J27" s="67" t="s">
+        <v>33</v>
+      </c>
+      <c r="K27" s="66"/>
+      <c r="L27" s="77"/>
+    </row>
+    <row r="28" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A28" s="82"/>
+      <c r="B28" s="82"/>
+      <c r="C28" s="82"/>
       <c r="D28" s="50" t="s">
         <v>227</v>
       </c>
-      <c r="E28" s="66"/>
+      <c r="E28" s="70"/>
       <c r="F28" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="G28" s="69"/>
-    </row>
-    <row r="29" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="78" t="s">
+      <c r="G28" s="66"/>
+      <c r="H28" s="66"/>
+      <c r="I28" s="66" t="s">
+        <v>345</v>
+      </c>
+      <c r="J28" s="67" t="s">
+        <v>33</v>
+      </c>
+      <c r="K28" s="66"/>
+      <c r="L28" s="77"/>
+    </row>
+    <row r="29" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="82" t="s">
         <v>66</v>
       </c>
-      <c r="B29" s="78" t="s">
+      <c r="B29" s="82" t="s">
+        <v>277</v>
+      </c>
+      <c r="C29" s="82" t="s">
         <v>278</v>
-      </c>
-      <c r="C29" s="78" t="s">
-        <v>279</v>
       </c>
       <c r="D29" s="50" t="s">
         <v>228</v>
       </c>
-      <c r="E29" s="66"/>
+      <c r="E29" s="70"/>
       <c r="F29" s="50" t="s">
         <v>68</v>
       </c>
-      <c r="G29" s="68" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="78"/>
-      <c r="B30" s="78"/>
-      <c r="C30" s="78"/>
+      <c r="G29" s="42"/>
+      <c r="H29" s="42"/>
+      <c r="I29" s="66" t="s">
+        <v>345</v>
+      </c>
+      <c r="J29" s="67" t="s">
+        <v>302</v>
+      </c>
+      <c r="K29" s="42"/>
+      <c r="L29" s="76" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="82"/>
+      <c r="B30" s="82"/>
+      <c r="C30" s="82"/>
       <c r="D30" s="50" t="s">
         <v>67</v>
       </c>
-      <c r="E30" s="66" t="s">
+      <c r="E30" s="70" t="s">
         <v>107</v>
       </c>
       <c r="F30" s="50" t="s">
         <v>69</v>
       </c>
-      <c r="G30" s="69"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="78"/>
-      <c r="B31" s="78"/>
-      <c r="C31" s="78"/>
+      <c r="G30" s="66"/>
+      <c r="H30" s="66"/>
+      <c r="I30" s="66" t="s">
+        <v>345</v>
+      </c>
+      <c r="J30" s="67" t="s">
+        <v>302</v>
+      </c>
+      <c r="K30" s="66"/>
+      <c r="L30" s="77"/>
+    </row>
+    <row r="31" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="82"/>
+      <c r="B31" s="82"/>
+      <c r="C31" s="82"/>
       <c r="D31" s="72" t="s">
         <v>44</v>
       </c>
-      <c r="E31" s="66"/>
+      <c r="E31" s="70"/>
       <c r="F31" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="G31" s="69"/>
-    </row>
-    <row r="32" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="78"/>
-      <c r="B32" s="78"/>
-      <c r="C32" s="78"/>
+      <c r="G31" s="66"/>
+      <c r="H31" s="66"/>
+      <c r="I31" s="66" t="s">
+        <v>345</v>
+      </c>
+      <c r="J31" s="67" t="s">
+        <v>302</v>
+      </c>
+      <c r="K31" s="66"/>
+      <c r="L31" s="77"/>
+    </row>
+    <row r="32" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="82"/>
+      <c r="B32" s="82"/>
+      <c r="C32" s="82"/>
       <c r="D32" s="72"/>
-      <c r="E32" s="66"/>
+      <c r="E32" s="70"/>
       <c r="F32" s="50" t="s">
         <v>71</v>
       </c>
-      <c r="G32" s="69"/>
-    </row>
-    <row r="33" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A33" s="78"/>
-      <c r="B33" s="78"/>
-      <c r="C33" s="78"/>
+      <c r="G32" s="66"/>
+      <c r="H32" s="66"/>
+      <c r="I32" s="66" t="s">
+        <v>345</v>
+      </c>
+      <c r="J32" s="67" t="s">
+        <v>302</v>
+      </c>
+      <c r="K32" s="66"/>
+      <c r="L32" s="77"/>
+    </row>
+    <row r="33" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A33" s="82"/>
+      <c r="B33" s="82"/>
+      <c r="C33" s="82"/>
       <c r="D33" s="72"/>
-      <c r="E33" s="66"/>
+      <c r="E33" s="70"/>
       <c r="F33" s="50" t="s">
         <v>72</v>
       </c>
-      <c r="G33" s="69"/>
-    </row>
-    <row r="34" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A34" s="78"/>
-      <c r="B34" s="78"/>
-      <c r="C34" s="78"/>
+      <c r="G33" s="43"/>
+      <c r="H33" s="43"/>
+      <c r="I33" s="66" t="s">
+        <v>345</v>
+      </c>
+      <c r="J33" s="67" t="s">
+        <v>302</v>
+      </c>
+      <c r="K33" s="43"/>
+      <c r="L33" s="77"/>
+    </row>
+    <row r="34" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A34" s="82"/>
+      <c r="B34" s="82"/>
+      <c r="C34" s="82"/>
       <c r="D34" s="72"/>
-      <c r="E34" s="66"/>
+      <c r="E34" s="70"/>
       <c r="F34" s="50" t="s">
         <v>73</v>
       </c>
-      <c r="G34" s="69"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="78"/>
-      <c r="B35" s="78"/>
-      <c r="C35" s="78"/>
+      <c r="G34" s="43"/>
+      <c r="H34" s="43"/>
+      <c r="I34" s="66" t="s">
+        <v>345</v>
+      </c>
+      <c r="J34" s="67" t="s">
+        <v>302</v>
+      </c>
+      <c r="K34" s="43"/>
+      <c r="L34" s="77"/>
+    </row>
+    <row r="35" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="82"/>
+      <c r="B35" s="82"/>
+      <c r="C35" s="82"/>
       <c r="D35" s="72"/>
-      <c r="E35" s="66"/>
+      <c r="E35" s="70"/>
       <c r="F35" s="50" t="s">
         <v>74</v>
       </c>
-      <c r="G35" s="69"/>
-    </row>
-    <row r="36" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="78"/>
-      <c r="B36" s="78"/>
-      <c r="C36" s="78"/>
+      <c r="G35" s="43"/>
+      <c r="H35" s="43"/>
+      <c r="I35" s="66" t="s">
+        <v>345</v>
+      </c>
+      <c r="J35" s="67" t="s">
+        <v>302</v>
+      </c>
+      <c r="K35" s="43"/>
+      <c r="L35" s="77"/>
+    </row>
+    <row r="36" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A36" s="82"/>
+      <c r="B36" s="82"/>
+      <c r="C36" s="82"/>
       <c r="D36" s="72"/>
-      <c r="E36" s="66" t="s">
+      <c r="E36" s="70" t="s">
         <v>107</v>
       </c>
       <c r="F36" s="50" t="s">
         <v>229</v>
       </c>
-      <c r="G36" s="69"/>
-    </row>
-    <row r="37" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="78" t="s">
+      <c r="G36" s="43"/>
+      <c r="H36" s="43"/>
+      <c r="I36" s="66" t="s">
+        <v>345</v>
+      </c>
+      <c r="J36" s="67" t="s">
+        <v>302</v>
+      </c>
+      <c r="K36" s="43"/>
+      <c r="L36" s="77"/>
+    </row>
+    <row r="37" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" s="82" t="s">
         <v>77</v>
       </c>
-      <c r="B37" s="78" t="s">
-        <v>319</v>
-      </c>
-      <c r="C37" s="78" t="s">
-        <v>280</v>
+      <c r="B37" s="82" t="s">
+        <v>318</v>
+      </c>
+      <c r="C37" s="82" t="s">
+        <v>279</v>
       </c>
       <c r="D37" s="50" t="s">
         <v>230</v>
       </c>
-      <c r="E37" s="66" t="s">
+      <c r="E37" s="70" t="s">
         <v>107</v>
       </c>
       <c r="F37" s="50" t="s">
+        <v>348</v>
+      </c>
+      <c r="G37" s="66"/>
+      <c r="H37" s="67" t="s">
+        <v>78</v>
+      </c>
+      <c r="I37" s="66"/>
+      <c r="J37" s="66"/>
+      <c r="K37" s="66"/>
+      <c r="L37" s="76" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A38" s="82"/>
+      <c r="B38" s="82"/>
+      <c r="C38" s="82"/>
+      <c r="D38" s="50" t="s">
         <v>231</v>
       </c>
-      <c r="G37" s="68" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A38" s="78"/>
-      <c r="B38" s="78"/>
-      <c r="C38" s="78"/>
-      <c r="D38" s="50" t="s">
+      <c r="E38" s="70"/>
+      <c r="F38" s="50" t="s">
         <v>232</v>
       </c>
-      <c r="E38" s="66"/>
-      <c r="F38" s="50" t="s">
-        <v>233</v>
-      </c>
-      <c r="G38" s="69"/>
-    </row>
-    <row r="39" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A39" s="78" t="s">
+      <c r="G38" s="66"/>
+      <c r="H38" s="66"/>
+      <c r="I38" s="66" t="s">
+        <v>345</v>
+      </c>
+      <c r="J38" s="67" t="s">
+        <v>303</v>
+      </c>
+      <c r="K38" s="66"/>
+      <c r="L38" s="77"/>
+    </row>
+    <row r="39" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A39" s="82" t="s">
         <v>80</v>
       </c>
-      <c r="B39" s="78" t="s">
+      <c r="B39" s="82" t="s">
+        <v>280</v>
+      </c>
+      <c r="C39" s="82" t="s">
         <v>281</v>
-      </c>
-      <c r="C39" s="78" t="s">
-        <v>282</v>
       </c>
       <c r="D39" s="50" t="s">
         <v>81</v>
       </c>
-      <c r="E39" s="66" t="s">
+      <c r="E39" s="70" t="s">
         <v>107</v>
       </c>
       <c r="F39" s="50" t="s">
-        <v>234</v>
-      </c>
-      <c r="G39" s="68" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="78"/>
-      <c r="B40" s="78"/>
-      <c r="C40" s="78"/>
+        <v>233</v>
+      </c>
+      <c r="I39" s="66" t="s">
+        <v>345</v>
+      </c>
+      <c r="J39" s="47" t="s">
+        <v>304</v>
+      </c>
+      <c r="L39" s="76" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" s="82"/>
+      <c r="B40" s="82"/>
+      <c r="C40" s="82"/>
       <c r="D40" s="50" t="s">
         <v>82</v>
       </c>
-      <c r="E40" s="66"/>
+      <c r="E40" s="70"/>
       <c r="F40" s="50" t="s">
         <v>89</v>
       </c>
-      <c r="G40" s="69"/>
-    </row>
-    <row r="41" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="78"/>
-      <c r="B41" s="78"/>
-      <c r="C41" s="78"/>
+      <c r="I40" s="66" t="s">
+        <v>345</v>
+      </c>
+      <c r="J40" s="47" t="s">
+        <v>304</v>
+      </c>
+      <c r="L40" s="77"/>
+    </row>
+    <row r="41" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="82"/>
+      <c r="B41" s="82"/>
+      <c r="C41" s="82"/>
       <c r="D41" s="50" t="s">
         <v>83</v>
       </c>
-      <c r="E41" s="66" t="s">
+      <c r="E41" s="70" t="s">
         <v>107</v>
       </c>
       <c r="F41" s="50" t="s">
         <v>90</v>
       </c>
-      <c r="G41" s="69"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="78"/>
-      <c r="B42" s="78"/>
-      <c r="C42" s="78"/>
+      <c r="G41" s="66"/>
+      <c r="H41" s="66"/>
+      <c r="I41" s="66" t="s">
+        <v>345</v>
+      </c>
+      <c r="J41" s="47" t="s">
+        <v>304</v>
+      </c>
+      <c r="K41" s="66"/>
+      <c r="L41" s="77"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" s="82"/>
+      <c r="B42" s="82"/>
+      <c r="C42" s="82"/>
       <c r="D42" s="72" t="s">
         <v>85</v>
       </c>
-      <c r="E42" s="66"/>
+      <c r="E42" s="70"/>
       <c r="F42" s="50" t="s">
-        <v>234</v>
-      </c>
-      <c r="G42" s="69"/>
-    </row>
-    <row r="43" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A43" s="78"/>
-      <c r="B43" s="78"/>
-      <c r="C43" s="78"/>
+        <v>233</v>
+      </c>
+      <c r="G42" s="66"/>
+      <c r="H42" s="66"/>
+      <c r="I42" s="66" t="s">
+        <v>345</v>
+      </c>
+      <c r="J42" s="47" t="s">
+        <v>304</v>
+      </c>
+      <c r="K42" s="66"/>
+      <c r="L42" s="77"/>
+    </row>
+    <row r="43" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A43" s="82"/>
+      <c r="B43" s="82"/>
+      <c r="C43" s="82"/>
       <c r="D43" s="72"/>
-      <c r="E43" s="66"/>
+      <c r="E43" s="70"/>
       <c r="F43" s="50" t="s">
         <v>93</v>
       </c>
-      <c r="G43" s="69"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="78"/>
-      <c r="B44" s="78"/>
-      <c r="C44" s="78"/>
+      <c r="G43" s="66"/>
+      <c r="H43" s="66"/>
+      <c r="I43" s="66" t="s">
+        <v>345</v>
+      </c>
+      <c r="J43" s="47" t="s">
+        <v>304</v>
+      </c>
+      <c r="K43" s="66"/>
+      <c r="L43" s="77"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" s="82"/>
+      <c r="B44" s="82"/>
+      <c r="C44" s="82"/>
       <c r="D44" s="72"/>
-      <c r="E44" s="66"/>
+      <c r="E44" s="70"/>
       <c r="F44" s="50" t="s">
         <v>94</v>
       </c>
-      <c r="G44" s="69"/>
-    </row>
-    <row r="45" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A45" s="78"/>
-      <c r="B45" s="78"/>
-      <c r="C45" s="78"/>
+      <c r="G44" s="66"/>
+      <c r="H44" s="66"/>
+      <c r="I44" s="66" t="s">
+        <v>345</v>
+      </c>
+      <c r="J44" s="47" t="s">
+        <v>304</v>
+      </c>
+      <c r="K44" s="66"/>
+      <c r="L44" s="77"/>
+    </row>
+    <row r="45" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A45" s="82"/>
+      <c r="B45" s="82"/>
+      <c r="C45" s="82"/>
       <c r="D45" s="72"/>
-      <c r="E45" s="66"/>
+      <c r="E45" s="70"/>
       <c r="F45" s="50" t="s">
         <v>95</v>
       </c>
-      <c r="G45" s="69"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="78"/>
-      <c r="B46" s="78"/>
-      <c r="C46" s="78"/>
+      <c r="I45" s="66" t="s">
+        <v>345</v>
+      </c>
+      <c r="J45" s="47" t="s">
+        <v>304</v>
+      </c>
+      <c r="L45" s="77"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" s="82"/>
+      <c r="B46" s="82"/>
+      <c r="C46" s="82"/>
       <c r="D46" s="72"/>
-      <c r="E46" s="66"/>
+      <c r="E46" s="70"/>
       <c r="F46" s="50" t="s">
         <v>96</v>
       </c>
-      <c r="G46" s="69"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="78"/>
-      <c r="B47" s="78"/>
-      <c r="C47" s="78"/>
+      <c r="I46" s="66" t="s">
+        <v>345</v>
+      </c>
+      <c r="J46" s="47" t="s">
+        <v>304</v>
+      </c>
+      <c r="L46" s="77"/>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" s="82"/>
+      <c r="B47" s="82"/>
+      <c r="C47" s="82"/>
       <c r="D47" s="72"/>
-      <c r="E47" s="66"/>
+      <c r="E47" s="70"/>
       <c r="F47" s="50" t="s">
         <v>97</v>
       </c>
-      <c r="G47" s="69"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="78"/>
-      <c r="B48" s="78"/>
-      <c r="C48" s="78"/>
+      <c r="I47" s="66" t="s">
+        <v>345</v>
+      </c>
+      <c r="J47" s="47" t="s">
+        <v>304</v>
+      </c>
+      <c r="L47" s="77"/>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48" s="82"/>
+      <c r="B48" s="82"/>
+      <c r="C48" s="82"/>
       <c r="D48" s="72"/>
-      <c r="E48" s="66"/>
+      <c r="E48" s="70"/>
       <c r="F48" s="50" t="s">
         <v>98</v>
       </c>
-      <c r="G48" s="69"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="78"/>
-      <c r="B49" s="78"/>
-      <c r="C49" s="78"/>
+      <c r="I48" s="66" t="s">
+        <v>345</v>
+      </c>
+      <c r="J48" s="47" t="s">
+        <v>304</v>
+      </c>
+      <c r="L48" s="77"/>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49" s="82"/>
+      <c r="B49" s="82"/>
+      <c r="C49" s="82"/>
       <c r="D49" s="72"/>
-      <c r="E49" s="66"/>
+      <c r="E49" s="70"/>
       <c r="F49" s="50" t="s">
         <v>99</v>
       </c>
-      <c r="G49" s="69"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="78"/>
-      <c r="B50" s="78"/>
-      <c r="C50" s="78"/>
+      <c r="I49" s="66" t="s">
+        <v>345</v>
+      </c>
+      <c r="J49" s="47" t="s">
+        <v>304</v>
+      </c>
+      <c r="L49" s="77"/>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50" s="82"/>
+      <c r="B50" s="82"/>
+      <c r="C50" s="82"/>
       <c r="D50" s="72"/>
-      <c r="E50" s="66"/>
+      <c r="E50" s="70"/>
       <c r="F50" s="50" t="s">
         <v>100</v>
       </c>
-      <c r="G50" s="69"/>
-    </row>
-    <row r="51" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A51" s="78"/>
-      <c r="B51" s="78"/>
-      <c r="C51" s="78"/>
+      <c r="I50" s="66" t="s">
+        <v>345</v>
+      </c>
+      <c r="J50" s="47" t="s">
+        <v>304</v>
+      </c>
+      <c r="L50" s="77"/>
+    </row>
+    <row r="51" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A51" s="82"/>
+      <c r="B51" s="82"/>
+      <c r="C51" s="82"/>
       <c r="D51" s="72"/>
-      <c r="E51" s="66"/>
+      <c r="E51" s="70"/>
       <c r="F51" s="50" t="s">
         <v>101</v>
       </c>
-      <c r="G51" s="69"/>
-    </row>
-    <row r="52" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A52" s="78"/>
-      <c r="B52" s="78"/>
-      <c r="C52" s="78"/>
+      <c r="I51" s="66" t="s">
+        <v>345</v>
+      </c>
+      <c r="J51" s="47" t="s">
+        <v>304</v>
+      </c>
+      <c r="L51" s="77"/>
+    </row>
+    <row r="52" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A52" s="82"/>
+      <c r="B52" s="82"/>
+      <c r="C52" s="82"/>
       <c r="D52" s="72"/>
-      <c r="E52" s="66"/>
+      <c r="E52" s="70"/>
       <c r="F52" s="50" t="s">
         <v>102</v>
       </c>
-      <c r="G52" s="69"/>
-    </row>
-    <row r="53" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A53" s="78"/>
-      <c r="B53" s="78"/>
-      <c r="C53" s="78"/>
+      <c r="I52" s="66" t="s">
+        <v>345</v>
+      </c>
+      <c r="J52" s="47" t="s">
+        <v>304</v>
+      </c>
+      <c r="L52" s="77"/>
+    </row>
+    <row r="53" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A53" s="82"/>
+      <c r="B53" s="82"/>
+      <c r="C53" s="82"/>
       <c r="D53" s="72"/>
-      <c r="E53" s="66"/>
+      <c r="E53" s="70"/>
       <c r="F53" s="50" t="s">
         <v>103</v>
       </c>
-      <c r="G53" s="69"/>
-    </row>
-    <row r="54" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A54" s="78" t="s">
+      <c r="I53" s="66" t="s">
+        <v>345</v>
+      </c>
+      <c r="J53" s="47" t="s">
+        <v>304</v>
+      </c>
+      <c r="L53" s="77"/>
+    </row>
+    <row r="54" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A54" s="82" t="s">
         <v>195</v>
       </c>
-      <c r="B54" s="78" t="s">
+      <c r="B54" s="82" t="s">
+        <v>282</v>
+      </c>
+      <c r="C54" s="82" t="s">
         <v>283</v>
-      </c>
-      <c r="C54" s="78" t="s">
-        <v>284</v>
       </c>
       <c r="D54" s="50" t="s">
         <v>105</v>
       </c>
-      <c r="E54" s="66"/>
+      <c r="E54" s="70"/>
       <c r="F54" s="50" t="s">
         <v>109</v>
       </c>
-      <c r="G54" s="79" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A55" s="78"/>
-      <c r="B55" s="78"/>
-      <c r="C55" s="78"/>
+      <c r="I54" s="66" t="s">
+        <v>345</v>
+      </c>
+      <c r="J54" s="67" t="s">
+        <v>350</v>
+      </c>
+      <c r="L54" s="84" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A55" s="82"/>
+      <c r="B55" s="82"/>
+      <c r="C55" s="82"/>
       <c r="D55" s="50" t="s">
         <v>106</v>
       </c>
-      <c r="E55" s="66"/>
+      <c r="E55" s="70"/>
       <c r="F55" s="50" t="s">
-        <v>235</v>
-      </c>
-      <c r="G55" s="69"/>
-    </row>
-    <row r="56" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A56" s="78"/>
-      <c r="B56" s="78"/>
-      <c r="C56" s="78"/>
+        <v>234</v>
+      </c>
+      <c r="I55" s="66" t="s">
+        <v>345</v>
+      </c>
+      <c r="J55" s="47" t="s">
+        <v>350</v>
+      </c>
+      <c r="L55" s="77"/>
+    </row>
+    <row r="56" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A56" s="82"/>
+      <c r="B56" s="82"/>
+      <c r="C56" s="82"/>
       <c r="D56" s="50" t="s">
         <v>107</v>
       </c>
@@ -4733,80 +5369,122 @@
       <c r="F56" s="50" t="s">
         <v>111</v>
       </c>
-      <c r="G56" s="69"/>
-    </row>
-    <row r="57" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A57" s="78"/>
-      <c r="B57" s="78"/>
-      <c r="C57" s="78"/>
+      <c r="I56" s="66" t="s">
+        <v>345</v>
+      </c>
+      <c r="J56" s="67" t="s">
+        <v>350</v>
+      </c>
+      <c r="L56" s="77"/>
+    </row>
+    <row r="57" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A57" s="82"/>
+      <c r="B57" s="82"/>
+      <c r="C57" s="82"/>
       <c r="D57" s="72" t="s">
         <v>108</v>
       </c>
       <c r="E57" s="72"/>
       <c r="F57" s="50" t="s">
-        <v>37</v>
-      </c>
-      <c r="G57" s="69"/>
-    </row>
-    <row r="58" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A58" s="78"/>
-      <c r="B58" s="78"/>
-      <c r="C58" s="78"/>
+        <v>351</v>
+      </c>
+      <c r="I57" s="66" t="s">
+        <v>345</v>
+      </c>
+      <c r="J57" s="47" t="s">
+        <v>350</v>
+      </c>
+      <c r="L57" s="77"/>
+    </row>
+    <row r="58" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A58" s="82"/>
+      <c r="B58" s="82"/>
+      <c r="C58" s="82"/>
       <c r="D58" s="72"/>
       <c r="E58" s="72"/>
       <c r="F58" s="50" t="s">
         <v>71</v>
       </c>
-      <c r="G58" s="69"/>
-    </row>
-    <row r="59" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A59" s="78"/>
-      <c r="B59" s="78"/>
-      <c r="C59" s="78"/>
+      <c r="I58" s="66" t="s">
+        <v>345</v>
+      </c>
+      <c r="J58" s="47" t="s">
+        <v>350</v>
+      </c>
+      <c r="L58" s="77"/>
+    </row>
+    <row r="59" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A59" s="82"/>
+      <c r="B59" s="82"/>
+      <c r="C59" s="82"/>
       <c r="D59" s="72"/>
       <c r="E59" s="72"/>
       <c r="F59" s="50" t="s">
         <v>112</v>
       </c>
-      <c r="G59" s="69"/>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="78"/>
-      <c r="B60" s="78"/>
-      <c r="C60" s="78"/>
+      <c r="I59" s="66" t="s">
+        <v>345</v>
+      </c>
+      <c r="J59" s="47" t="s">
+        <v>350</v>
+      </c>
+      <c r="L59" s="77"/>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A60" s="82"/>
+      <c r="B60" s="82"/>
+      <c r="C60" s="82"/>
       <c r="D60" s="72"/>
       <c r="E60" s="72"/>
       <c r="F60" s="50" t="s">
         <v>113</v>
       </c>
-      <c r="G60" s="69"/>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="78"/>
-      <c r="B61" s="78"/>
-      <c r="C61" s="78"/>
+      <c r="I60" s="66" t="s">
+        <v>345</v>
+      </c>
+      <c r="J60" s="47" t="s">
+        <v>350</v>
+      </c>
+      <c r="L60" s="77"/>
+    </row>
+    <row r="61" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A61" s="82"/>
+      <c r="B61" s="82"/>
+      <c r="C61" s="82"/>
       <c r="D61" s="72"/>
-      <c r="E61" s="66"/>
+      <c r="E61" s="70"/>
       <c r="F61" s="50" t="s">
         <v>114</v>
       </c>
-      <c r="G61" s="69"/>
-    </row>
-    <row r="62" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A62" s="78"/>
-      <c r="B62" s="78"/>
-      <c r="C62" s="78"/>
+      <c r="I61" s="66" t="s">
+        <v>345</v>
+      </c>
+      <c r="J61" s="47" t="s">
+        <v>350</v>
+      </c>
+      <c r="L61" s="77"/>
+    </row>
+    <row r="62" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A62" s="82"/>
+      <c r="B62" s="82"/>
+      <c r="C62" s="82"/>
       <c r="D62" s="72"/>
-      <c r="E62" s="66"/>
+      <c r="E62" s="70"/>
       <c r="F62" s="50" t="s">
         <v>115</v>
       </c>
-      <c r="G62" s="69"/>
-    </row>
-    <row r="63" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A63" s="78"/>
-      <c r="B63" s="78"/>
-      <c r="C63" s="78"/>
+      <c r="I62" s="66" t="s">
+        <v>345</v>
+      </c>
+      <c r="J62" s="47" t="s">
+        <v>350</v>
+      </c>
+      <c r="L62" s="77"/>
+    </row>
+    <row r="63" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A63" s="82"/>
+      <c r="B63" s="82"/>
+      <c r="C63" s="82"/>
       <c r="D63" s="72"/>
       <c r="E63" s="72" t="s">
         <v>153</v>
@@ -4814,85 +5492,121 @@
       <c r="F63" s="50" t="s">
         <v>116</v>
       </c>
-      <c r="G63" s="69"/>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="78" t="s">
+      <c r="I63" s="44" t="s">
+        <v>345</v>
+      </c>
+      <c r="J63" s="47" t="s">
+        <v>350</v>
+      </c>
+      <c r="L63" s="77"/>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A64" s="82" t="s">
         <v>117</v>
       </c>
-      <c r="B64" s="78" t="s">
-        <v>320</v>
-      </c>
-      <c r="C64" s="78" t="s">
-        <v>322</v>
+      <c r="B64" s="82" t="s">
+        <v>319</v>
+      </c>
+      <c r="C64" s="82" t="s">
+        <v>321</v>
       </c>
       <c r="D64" s="72" t="s">
         <v>120</v>
       </c>
       <c r="E64" s="72"/>
       <c r="F64" s="72" t="s">
-        <v>236</v>
-      </c>
-      <c r="G64" s="79" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="78"/>
-      <c r="B65" s="78"/>
-      <c r="C65" s="78"/>
+        <v>235</v>
+      </c>
+      <c r="I64" s="66" t="s">
+        <v>345</v>
+      </c>
+      <c r="J64" s="47" t="s">
+        <v>350</v>
+      </c>
+      <c r="L64" s="84" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A65" s="82"/>
+      <c r="B65" s="82"/>
+      <c r="C65" s="82"/>
       <c r="D65" s="72"/>
       <c r="E65" s="72"/>
       <c r="F65" s="72"/>
-      <c r="G65" s="69"/>
-    </row>
-    <row r="66" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A66" s="78"/>
-      <c r="B66" s="78"/>
-      <c r="C66" s="78"/>
+      <c r="I65" s="66" t="s">
+        <v>345</v>
+      </c>
+      <c r="J65" s="47" t="s">
+        <v>350</v>
+      </c>
+      <c r="L65" s="77"/>
+    </row>
+    <row r="66" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A66" s="82"/>
+      <c r="B66" s="82"/>
+      <c r="C66" s="82"/>
       <c r="D66" s="72"/>
       <c r="E66" s="72"/>
       <c r="F66" s="50" t="s">
         <v>112</v>
       </c>
-      <c r="G66" s="69"/>
-    </row>
-    <row r="67" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A67" s="78"/>
-      <c r="B67" s="78"/>
-      <c r="C67" s="78"/>
+      <c r="I66" s="66" t="s">
+        <v>345</v>
+      </c>
+      <c r="J66" s="47" t="s">
+        <v>350</v>
+      </c>
+      <c r="L66" s="77"/>
+    </row>
+    <row r="67" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A67" s="82"/>
+      <c r="B67" s="82"/>
+      <c r="C67" s="82"/>
       <c r="D67" s="72"/>
       <c r="E67" s="72"/>
       <c r="F67" s="50" t="s">
         <v>124</v>
       </c>
-      <c r="G67" s="69"/>
-    </row>
-    <row r="68" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A68" s="78" t="s">
+      <c r="I67" s="66" t="s">
+        <v>345</v>
+      </c>
+      <c r="J67" s="47" t="s">
+        <v>350</v>
+      </c>
+      <c r="L67" s="77"/>
+    </row>
+    <row r="68" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A68" s="82" t="s">
         <v>125</v>
       </c>
-      <c r="B68" s="78" t="s">
-        <v>321</v>
-      </c>
-      <c r="C68" s="78" t="s">
-        <v>285</v>
+      <c r="B68" s="82" t="s">
+        <v>320</v>
+      </c>
+      <c r="C68" s="82" t="s">
+        <v>284</v>
       </c>
       <c r="D68" s="50" t="s">
         <v>126</v>
       </c>
-      <c r="E68" s="66"/>
+      <c r="E68" s="70"/>
       <c r="F68" s="50" t="s">
         <v>115</v>
       </c>
-      <c r="G68" s="68" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A69" s="78"/>
-      <c r="B69" s="69"/>
-      <c r="C69" s="69"/>
+      <c r="I68" s="66" t="s">
+        <v>345</v>
+      </c>
+      <c r="J68" s="47" t="s">
+        <v>350</v>
+      </c>
+      <c r="L68" s="76" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="A69" s="82"/>
+      <c r="B69" s="77"/>
+      <c r="C69" s="77"/>
       <c r="D69" s="50" t="s">
         <v>127</v>
       </c>
@@ -4900,317 +5614,492 @@
         <v>153</v>
       </c>
       <c r="F69" s="50" t="s">
-        <v>130</v>
-      </c>
-      <c r="G69" s="69"/>
-    </row>
-    <row r="70" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A70" s="78"/>
-      <c r="B70" s="69"/>
-      <c r="C70" s="69"/>
+        <v>111</v>
+      </c>
+      <c r="G69" s="66" t="s">
+        <v>352</v>
+      </c>
+      <c r="I69" s="66" t="s">
+        <v>345</v>
+      </c>
+      <c r="J69" s="47" t="s">
+        <v>350</v>
+      </c>
+      <c r="L69" s="77"/>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A70" s="82"/>
+      <c r="B70" s="77"/>
+      <c r="C70" s="77"/>
       <c r="D70" s="50" t="s">
         <v>128</v>
       </c>
       <c r="E70" s="72"/>
       <c r="F70" s="50" t="s">
-        <v>131</v>
-      </c>
-      <c r="G70" s="69"/>
-    </row>
-    <row r="71" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="78"/>
-      <c r="B71" s="69"/>
-      <c r="C71" s="69"/>
-      <c r="D71" s="57"/>
+        <v>353</v>
+      </c>
+      <c r="I70" s="66" t="s">
+        <v>354</v>
+      </c>
+      <c r="J70" s="47" t="s">
+        <v>355</v>
+      </c>
+      <c r="L70" s="77"/>
+    </row>
+    <row r="71" spans="1:12" s="44" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="82"/>
+      <c r="B71" s="77"/>
+      <c r="C71" s="77"/>
+      <c r="D71" s="68"/>
       <c r="E71" s="72"/>
       <c r="F71" s="57" t="s">
-        <v>243</v>
-      </c>
-      <c r="G71" s="69"/>
-    </row>
-    <row r="72" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="78"/>
-      <c r="B72" s="69"/>
-      <c r="C72" s="69"/>
-      <c r="D72" s="57"/>
+        <v>242</v>
+      </c>
+      <c r="I71" s="66" t="s">
+        <v>345</v>
+      </c>
+      <c r="J71" s="47" t="s">
+        <v>350</v>
+      </c>
+      <c r="L71" s="77"/>
+    </row>
+    <row r="72" spans="1:12" s="44" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="82"/>
+      <c r="B72" s="77"/>
+      <c r="C72" s="77"/>
+      <c r="D72" s="68"/>
       <c r="E72" s="72"/>
       <c r="F72" s="57" t="s">
-        <v>244</v>
-      </c>
-      <c r="G72" s="69"/>
-    </row>
-    <row r="73" spans="1:7" s="44" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A73" s="78"/>
-      <c r="B73" s="69"/>
-      <c r="C73" s="69"/>
-      <c r="D73" s="57"/>
+        <v>243</v>
+      </c>
+      <c r="I72" s="66" t="s">
+        <v>345</v>
+      </c>
+      <c r="J72" s="47" t="s">
+        <v>356</v>
+      </c>
+      <c r="L72" s="77"/>
+    </row>
+    <row r="73" spans="1:12" s="44" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A73" s="82"/>
+      <c r="B73" s="77"/>
+      <c r="C73" s="77"/>
+      <c r="D73" s="68"/>
       <c r="E73" s="72"/>
       <c r="F73" s="57" t="s">
         <v>168</v>
       </c>
-      <c r="G73" s="69"/>
-    </row>
-    <row r="74" spans="1:7" s="44" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A74" s="78"/>
-      <c r="B74" s="69"/>
-      <c r="C74" s="69"/>
-      <c r="D74" s="57"/>
-      <c r="E74" s="66"/>
+      <c r="I73" s="66" t="s">
+        <v>345</v>
+      </c>
+      <c r="J73" s="47" t="s">
+        <v>200</v>
+      </c>
+      <c r="L73" s="77"/>
+    </row>
+    <row r="74" spans="1:12" s="44" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A74" s="82"/>
+      <c r="B74" s="77"/>
+      <c r="C74" s="77"/>
+      <c r="D74" s="68"/>
+      <c r="E74" s="70"/>
       <c r="F74" s="57" t="s">
         <v>169</v>
       </c>
-      <c r="G74" s="69"/>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" s="78"/>
-      <c r="B75" s="69"/>
-      <c r="C75" s="69"/>
-      <c r="D75" s="44"/>
+      <c r="I74" s="66" t="s">
+        <v>345</v>
+      </c>
+      <c r="J74" s="47" t="s">
+        <v>200</v>
+      </c>
+      <c r="L74" s="77"/>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A75" s="82"/>
+      <c r="B75" s="77"/>
+      <c r="C75" s="77"/>
+      <c r="D75" s="69"/>
       <c r="F75" s="57"/>
-      <c r="G75" s="69"/>
-    </row>
-    <row r="76" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A76" s="78" t="s">
+      <c r="L75" s="77"/>
+    </row>
+    <row r="76" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A76" s="82" t="s">
         <v>132</v>
       </c>
-      <c r="B76" s="78" t="s">
+      <c r="B76" s="82" t="s">
+        <v>285</v>
+      </c>
+      <c r="C76" s="82" t="s">
         <v>286</v>
-      </c>
-      <c r="C76" s="78" t="s">
-        <v>287</v>
       </c>
       <c r="D76" s="50" t="s">
         <v>133</v>
       </c>
-      <c r="E76" s="66" t="s">
+      <c r="E76" s="70" t="s">
         <v>153</v>
       </c>
       <c r="F76" s="57" t="s">
         <v>115</v>
       </c>
-      <c r="G76" s="79" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A77" s="78"/>
-      <c r="B77" s="78"/>
-      <c r="C77" s="78"/>
+      <c r="I76" s="66" t="s">
+        <v>345</v>
+      </c>
+      <c r="J76" s="47" t="s">
+        <v>350</v>
+      </c>
+      <c r="L76" s="84" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A77" s="82"/>
+      <c r="B77" s="82"/>
+      <c r="C77" s="82"/>
       <c r="D77" s="50" t="s">
-        <v>237</v>
-      </c>
-      <c r="E77" s="66" t="s">
+        <v>236</v>
+      </c>
+      <c r="E77" s="70" t="s">
         <v>153</v>
       </c>
       <c r="F77" s="57" t="s">
         <v>140</v>
       </c>
-      <c r="G77" s="69"/>
-    </row>
-    <row r="78" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="78" t="s">
+      <c r="I77" s="66" t="s">
+        <v>345</v>
+      </c>
+      <c r="J77" s="67" t="s">
+        <v>350</v>
+      </c>
+      <c r="L77" s="77"/>
+    </row>
+    <row r="78" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="82" t="s">
         <v>141</v>
       </c>
-      <c r="B78" s="78" t="s">
+      <c r="B78" s="82" t="s">
+        <v>287</v>
+      </c>
+      <c r="C78" s="82" t="s">
         <v>288</v>
       </c>
-      <c r="C78" s="78" t="s">
-        <v>289</v>
-      </c>
       <c r="D78" s="72" t="s">
+        <v>237</v>
+      </c>
+      <c r="E78" s="70"/>
+      <c r="F78" s="72" t="s">
         <v>238</v>
       </c>
-      <c r="E78" s="66"/>
-      <c r="F78" s="72" t="s">
-        <v>239</v>
-      </c>
-      <c r="G78" s="79" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" s="78"/>
-      <c r="B79" s="78"/>
-      <c r="C79" s="78"/>
+      <c r="I78" s="66" t="s">
+        <v>345</v>
+      </c>
+      <c r="J78" s="67" t="s">
+        <v>350</v>
+      </c>
+      <c r="L78" s="84" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A79" s="82"/>
+      <c r="B79" s="82"/>
+      <c r="C79" s="82"/>
       <c r="D79" s="72"/>
-      <c r="E79" s="66"/>
+      <c r="E79" s="70"/>
       <c r="F79" s="72"/>
-      <c r="G79" s="69"/>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" s="78"/>
-      <c r="B80" s="78"/>
-      <c r="C80" s="78"/>
+      <c r="I79" s="66" t="s">
+        <v>345</v>
+      </c>
+      <c r="J79" s="67" t="s">
+        <v>350</v>
+      </c>
+      <c r="L79" s="77"/>
+    </row>
+    <row r="80" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A80" s="82"/>
+      <c r="B80" s="82"/>
+      <c r="C80" s="82"/>
       <c r="D80" s="72"/>
-      <c r="E80" s="66"/>
+      <c r="E80" s="70"/>
       <c r="F80" s="72"/>
-      <c r="G80" s="69"/>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" s="78"/>
-      <c r="B81" s="78"/>
-      <c r="C81" s="78"/>
+      <c r="I80" s="66" t="s">
+        <v>345</v>
+      </c>
+      <c r="J80" s="67" t="s">
+        <v>350</v>
+      </c>
+      <c r="L80" s="77"/>
+    </row>
+    <row r="81" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A81" s="82"/>
+      <c r="B81" s="82"/>
+      <c r="C81" s="82"/>
       <c r="D81" s="72"/>
-      <c r="E81" s="66"/>
+      <c r="E81" s="70"/>
       <c r="F81" s="72"/>
-      <c r="G81" s="69"/>
-    </row>
-    <row r="82" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="I81" s="66" t="s">
+        <v>345</v>
+      </c>
+      <c r="J81" s="67" t="s">
+        <v>350</v>
+      </c>
+      <c r="L81" s="77"/>
+    </row>
+    <row r="82" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A82" s="49" t="s">
         <v>146</v>
       </c>
       <c r="B82" s="56" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C82" s="49"/>
       <c r="D82" s="50" t="s">
-        <v>240</v>
-      </c>
-      <c r="E82" s="66"/>
+        <v>239</v>
+      </c>
+      <c r="E82" s="70"/>
       <c r="F82" s="57" t="s">
         <v>123</v>
       </c>
-      <c r="G82" s="61" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" s="78" t="s">
+      <c r="I82" s="66" t="s">
+        <v>357</v>
+      </c>
+      <c r="J82" s="67" t="s">
+        <v>358</v>
+      </c>
+      <c r="L82" s="61" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A83" s="82" t="s">
+        <v>289</v>
+      </c>
+      <c r="B83" s="82" t="s">
         <v>290</v>
       </c>
-      <c r="B83" s="78" t="s">
+      <c r="C83" s="82" t="s">
         <v>291</v>
-      </c>
-      <c r="C83" s="78" t="s">
-        <v>292</v>
       </c>
       <c r="D83" s="50" t="s">
         <v>152</v>
       </c>
-      <c r="E83" s="66"/>
+      <c r="E83" s="70"/>
       <c r="F83" s="57" t="s">
         <v>154</v>
       </c>
-      <c r="G83" s="68" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A84" s="78"/>
+      <c r="I83" s="66" t="s">
+        <v>345</v>
+      </c>
+      <c r="J83" s="67" t="s">
+        <v>307</v>
+      </c>
+      <c r="L83" s="76" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A84" s="82"/>
       <c r="B84" s="72"/>
       <c r="C84" s="72"/>
       <c r="D84" s="72" t="s">
         <v>153</v>
       </c>
-      <c r="E84" s="66"/>
+      <c r="E84" s="70"/>
       <c r="F84" s="50" t="s">
-        <v>241</v>
-      </c>
-      <c r="G84" s="69"/>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" s="78"/>
+        <v>240</v>
+      </c>
+      <c r="I84" s="66" t="s">
+        <v>345</v>
+      </c>
+      <c r="J84" s="67" t="s">
+        <v>307</v>
+      </c>
+      <c r="L84" s="77"/>
+    </row>
+    <row r="85" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A85" s="82"/>
       <c r="B85" s="72"/>
       <c r="C85" s="72"/>
       <c r="D85" s="72"/>
-      <c r="E85" s="66"/>
+      <c r="E85" s="70"/>
       <c r="F85" s="72" t="s">
-        <v>242</v>
-      </c>
-      <c r="G85" s="69"/>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" s="78"/>
+        <v>241</v>
+      </c>
+      <c r="I85" s="66" t="s">
+        <v>345</v>
+      </c>
+      <c r="J85" s="67" t="s">
+        <v>307</v>
+      </c>
+      <c r="L85" s="77"/>
+    </row>
+    <row r="86" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A86" s="82"/>
       <c r="B86" s="72"/>
       <c r="C86" s="72"/>
       <c r="D86" s="72"/>
-      <c r="E86" s="66"/>
+      <c r="E86" s="70"/>
       <c r="F86" s="72"/>
-      <c r="G86" s="69"/>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" s="78"/>
+      <c r="I86" s="66" t="s">
+        <v>345</v>
+      </c>
+      <c r="J86" s="67" t="s">
+        <v>307</v>
+      </c>
+      <c r="L86" s="77"/>
+    </row>
+    <row r="87" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A87" s="82"/>
       <c r="B87" s="72"/>
       <c r="C87" s="72"/>
       <c r="D87" s="72"/>
-      <c r="E87" s="66"/>
+      <c r="E87" s="70"/>
       <c r="F87" s="72"/>
-      <c r="G87" s="69"/>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88" s="78"/>
+      <c r="I87" s="66" t="s">
+        <v>345</v>
+      </c>
+      <c r="J87" s="67" t="s">
+        <v>307</v>
+      </c>
+      <c r="L87" s="77"/>
+    </row>
+    <row r="88" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A88" s="82"/>
       <c r="B88" s="72"/>
       <c r="C88" s="72"/>
       <c r="D88" s="72"/>
-      <c r="E88" s="66"/>
+      <c r="E88" s="70"/>
       <c r="F88" s="72"/>
-      <c r="G88" s="69"/>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I88" s="66" t="s">
+        <v>345</v>
+      </c>
+      <c r="J88" s="67" t="s">
+        <v>307</v>
+      </c>
+      <c r="L88" s="77"/>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" s="58"/>
       <c r="B89" s="58"/>
       <c r="C89" s="58"/>
       <c r="D89" s="58"/>
-      <c r="E89" s="66"/>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E89" s="70"/>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" s="58"/>
       <c r="B90" s="58"/>
       <c r="C90" s="58"/>
       <c r="D90" s="58"/>
-      <c r="E90" s="66"/>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E90" s="70"/>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" s="58"/>
       <c r="B91" s="58"/>
       <c r="C91" s="58"/>
       <c r="D91" s="58"/>
-      <c r="E91" s="66"/>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E91" s="70"/>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" s="58"/>
       <c r="B92" s="58"/>
       <c r="C92" s="58"/>
       <c r="D92" s="58"/>
-      <c r="E92" s="66"/>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E92" s="70"/>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" s="58"/>
       <c r="B93" s="58"/>
       <c r="C93" s="58"/>
       <c r="D93" s="58"/>
-      <c r="E93" s="66"/>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E93" s="70"/>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" s="58"/>
       <c r="B94" s="58"/>
       <c r="C94" s="58"/>
       <c r="D94" s="58"/>
-      <c r="E94" s="66"/>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E94" s="70"/>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" s="58"/>
       <c r="B95" s="58"/>
       <c r="C95" s="58"/>
       <c r="D95" s="58"/>
-      <c r="E95" s="66"/>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E95" s="70"/>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" s="58"/>
       <c r="B96" s="58"/>
       <c r="C96" s="58"/>
       <c r="D96" s="58"/>
-      <c r="E96" s="66"/>
+      <c r="E96" s="70"/>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="58"/>
       <c r="B97" s="58"/>
       <c r="C97" s="58"/>
       <c r="D97" s="58"/>
-      <c r="E97" s="66"/>
+      <c r="E97" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="74">
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="E56:E60"/>
+    <mergeCell ref="E63:E67"/>
+    <mergeCell ref="E69:E73"/>
+    <mergeCell ref="L76:L77"/>
+    <mergeCell ref="L78:L81"/>
+    <mergeCell ref="L83:L88"/>
+    <mergeCell ref="L37:L38"/>
+    <mergeCell ref="L39:L53"/>
+    <mergeCell ref="L54:L63"/>
+    <mergeCell ref="L64:L67"/>
+    <mergeCell ref="L68:L75"/>
+    <mergeCell ref="L3:L7"/>
+    <mergeCell ref="L9:L15"/>
+    <mergeCell ref="L16:L24"/>
+    <mergeCell ref="L25:L28"/>
+    <mergeCell ref="L29:L36"/>
+    <mergeCell ref="A3:A8"/>
+    <mergeCell ref="A16:A24"/>
+    <mergeCell ref="A9:A15"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="B3:B8"/>
+    <mergeCell ref="C3:C8"/>
+    <mergeCell ref="B9:B15"/>
+    <mergeCell ref="C9:C15"/>
+    <mergeCell ref="B16:B24"/>
+    <mergeCell ref="C16:C24"/>
+    <mergeCell ref="F3:F7"/>
+    <mergeCell ref="F9:F11"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="D3:D7"/>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="E3:E7"/>
+    <mergeCell ref="E9:E11"/>
+    <mergeCell ref="F64:F65"/>
+    <mergeCell ref="D64:D67"/>
+    <mergeCell ref="A25:A28"/>
+    <mergeCell ref="A29:A36"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="A39:A53"/>
+    <mergeCell ref="A54:A63"/>
+    <mergeCell ref="A64:A67"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="D31:D36"/>
+    <mergeCell ref="D42:D53"/>
+    <mergeCell ref="D57:D63"/>
+    <mergeCell ref="B25:B28"/>
+    <mergeCell ref="C25:C28"/>
+    <mergeCell ref="B29:B36"/>
+    <mergeCell ref="C29:C36"/>
+    <mergeCell ref="A68:A75"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="A78:A81"/>
+    <mergeCell ref="A83:A88"/>
+    <mergeCell ref="D84:D88"/>
+    <mergeCell ref="B83:B88"/>
+    <mergeCell ref="C83:C88"/>
+    <mergeCell ref="C76:C77"/>
     <mergeCell ref="F78:F81"/>
     <mergeCell ref="D78:D81"/>
     <mergeCell ref="F85:F88"/>
@@ -5227,84 +6116,64 @@
     <mergeCell ref="B68:B75"/>
     <mergeCell ref="C68:C75"/>
     <mergeCell ref="B76:B77"/>
-    <mergeCell ref="A68:A75"/>
-    <mergeCell ref="A76:A77"/>
-    <mergeCell ref="A78:A81"/>
-    <mergeCell ref="A83:A88"/>
-    <mergeCell ref="D84:D88"/>
-    <mergeCell ref="B83:B88"/>
-    <mergeCell ref="C83:C88"/>
-    <mergeCell ref="C76:C77"/>
-    <mergeCell ref="D64:D67"/>
-    <mergeCell ref="A25:A28"/>
-    <mergeCell ref="A29:A36"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="A39:A53"/>
-    <mergeCell ref="A54:A63"/>
-    <mergeCell ref="A64:A67"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="D31:D36"/>
-    <mergeCell ref="D42:D53"/>
-    <mergeCell ref="D57:D63"/>
-    <mergeCell ref="B25:B28"/>
-    <mergeCell ref="C25:C28"/>
-    <mergeCell ref="B29:B36"/>
-    <mergeCell ref="C29:C36"/>
-    <mergeCell ref="F3:F7"/>
-    <mergeCell ref="F9:F11"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="D3:D7"/>
-    <mergeCell ref="D9:D11"/>
-    <mergeCell ref="E3:E7"/>
-    <mergeCell ref="E9:E11"/>
-    <mergeCell ref="A3:A8"/>
-    <mergeCell ref="A16:A24"/>
-    <mergeCell ref="A9:A15"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="B3:B8"/>
-    <mergeCell ref="C3:C8"/>
-    <mergeCell ref="B9:B15"/>
-    <mergeCell ref="C9:C15"/>
-    <mergeCell ref="B16:B24"/>
-    <mergeCell ref="C16:C24"/>
-    <mergeCell ref="G3:G7"/>
-    <mergeCell ref="G9:G15"/>
-    <mergeCell ref="G16:G24"/>
-    <mergeCell ref="G25:G28"/>
-    <mergeCell ref="G29:G36"/>
-    <mergeCell ref="G78:G81"/>
-    <mergeCell ref="G83:G88"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="G39:G53"/>
-    <mergeCell ref="G54:G63"/>
-    <mergeCell ref="G64:G67"/>
-    <mergeCell ref="G68:G75"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="E56:E60"/>
-    <mergeCell ref="E63:E67"/>
-    <mergeCell ref="E69:E73"/>
-    <mergeCell ref="G76:G77"/>
-    <mergeCell ref="F64:F65"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="G16" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
-    <hyperlink ref="G3" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
-    <hyperlink ref="G9" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
-    <hyperlink ref="G25" r:id="rId5" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
-    <hyperlink ref="G29" r:id="rId6" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
-    <hyperlink ref="G37" r:id="rId7" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
-    <hyperlink ref="G39" r:id="rId8" xr:uid="{00000000-0004-0000-0200-000007000000}"/>
-    <hyperlink ref="G54" r:id="rId9" display="https://www.nuplazidhcp.com/acadia-connect" xr:uid="{00000000-0004-0000-0200-000008000000}"/>
-    <hyperlink ref="G64" r:id="rId10" display="https://www.acadiaconnect.com/healthcare-providers/cost" xr:uid="{00000000-0004-0000-0200-000009000000}"/>
-    <hyperlink ref="G68" r:id="rId11" xr:uid="{00000000-0004-0000-0200-00000A000000}"/>
-    <hyperlink ref="G76" r:id="rId12" display="https://www.acadiaconnect.com/healthcare-providers" xr:uid="{00000000-0004-0000-0200-00000B000000}"/>
-    <hyperlink ref="G78" r:id="rId13" display="https://www.acadiaconnect.com/healthcare-providers/coverage-tools" xr:uid="{00000000-0004-0000-0200-00000C000000}"/>
-    <hyperlink ref="G82" r:id="rId14" display="https://www.acadiaconnect.com/healthcare-providers/enrollment" xr:uid="{00000000-0004-0000-0200-00000D000000}"/>
-    <hyperlink ref="G83" r:id="rId15" xr:uid="{00000000-0004-0000-0200-00000E000000}"/>
+    <hyperlink ref="L2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="L16" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="L3" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink ref="L9" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
+    <hyperlink ref="L25" r:id="rId5" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
+    <hyperlink ref="L29" r:id="rId6" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
+    <hyperlink ref="L37" r:id="rId7" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
+    <hyperlink ref="L39" r:id="rId8" xr:uid="{00000000-0004-0000-0200-000007000000}"/>
+    <hyperlink ref="L54" r:id="rId9" display="https://www.nuplazidhcp.com/acadia-connect" xr:uid="{00000000-0004-0000-0200-000008000000}"/>
+    <hyperlink ref="L64" r:id="rId10" display="https://www.acadiaconnect.com/healthcare-providers/cost" xr:uid="{00000000-0004-0000-0200-000009000000}"/>
+    <hyperlink ref="L68" r:id="rId11" xr:uid="{00000000-0004-0000-0200-00000A000000}"/>
+    <hyperlink ref="L76" r:id="rId12" display="https://www.acadiaconnect.com/healthcare-providers" xr:uid="{00000000-0004-0000-0200-00000B000000}"/>
+    <hyperlink ref="L78" r:id="rId13" display="https://www.acadiaconnect.com/healthcare-providers/coverage-tools" xr:uid="{00000000-0004-0000-0200-00000C000000}"/>
+    <hyperlink ref="L82" r:id="rId14" display="https://www.acadiaconnect.com/healthcare-providers/enrollment" xr:uid="{00000000-0004-0000-0200-00000D000000}"/>
+    <hyperlink ref="L83" r:id="rId15" xr:uid="{00000000-0004-0000-0200-00000E000000}"/>
+    <hyperlink ref="J2" r:id="rId16" xr:uid="{CFA97370-8F93-4E4D-9087-46409A907CA7}"/>
+    <hyperlink ref="J3" r:id="rId17" xr:uid="{587F9E49-83DC-4A36-8AFB-2C5C7AF438C4}"/>
+    <hyperlink ref="J4:J7" r:id="rId18" display="https://www.nuplazidhcp.com/" xr:uid="{132C564F-10BE-448F-93E9-D29D8E8C88D8}"/>
+    <hyperlink ref="J9" r:id="rId19" xr:uid="{0897BE61-87A8-4307-AFF6-9097F07BC622}"/>
+    <hyperlink ref="J10:J13" r:id="rId20" display="https://www.nuplazidhcp.com/efficacy-data" xr:uid="{ACBD2BEA-3931-40F0-ABA6-13273089AD5D}"/>
+    <hyperlink ref="J14:J15" r:id="rId21" display="https://www.nuplazidhcp.com/efficacy-data" xr:uid="{F01D8358-2F47-4A0B-917C-0414ADD4134E}"/>
+    <hyperlink ref="J16" r:id="rId22" xr:uid="{3FEC824D-73C9-4D16-A5EB-6AD1F8D3DEC6}"/>
+    <hyperlink ref="J17:J24" r:id="rId23" display="https://www.nuplazidhcp.com/efficacy-data" xr:uid="{37297355-C926-4F46-9BC5-B96733EE285A}"/>
+    <hyperlink ref="J29" r:id="rId24" xr:uid="{2055579D-492F-4071-AD9A-4FC87F3C2DE0}"/>
+    <hyperlink ref="J30:J36" r:id="rId25" display="https://www.nuplazidhcp.com/safety-tolerability-data" xr:uid="{5C32B6EA-B4D4-45D0-AEEF-79B584E64516}"/>
+    <hyperlink ref="H37" r:id="rId26" xr:uid="{620A52A3-8244-45FA-89BD-01FAA5923E57}"/>
+    <hyperlink ref="J38" r:id="rId27" xr:uid="{DAE6C61F-1D9F-427F-B8D9-16CA77E1B873}"/>
+    <hyperlink ref="J39" r:id="rId28" xr:uid="{E9F24B9D-B547-434C-9755-C954AB451C8C}"/>
+    <hyperlink ref="J40:J53" r:id="rId29" display="https://www.nuplazidhcp.com/dosing" xr:uid="{594BDAAF-485C-47CA-BDF7-AE3860D6A31A}"/>
+    <hyperlink ref="J54" r:id="rId30" xr:uid="{36768FC3-5363-4232-9EF9-3CCCCC2E4DCC}"/>
+    <hyperlink ref="J55" r:id="rId31" xr:uid="{40AA2C79-2BC4-42D2-AFC8-07687415F37C}"/>
+    <hyperlink ref="J56" r:id="rId32" xr:uid="{24879E1B-244C-4479-8C48-055A73D45D66}"/>
+    <hyperlink ref="J57" r:id="rId33" xr:uid="{238DBF5D-43A5-400E-AA7F-6F0811575284}"/>
+    <hyperlink ref="J58" r:id="rId34" xr:uid="{2199D31D-6F1F-4F04-971D-597B44219018}"/>
+    <hyperlink ref="J59" r:id="rId35" xr:uid="{4F5316E3-3729-48C9-8E85-F72B4FD1211D}"/>
+    <hyperlink ref="J60:J63" r:id="rId36" display="https://www.nuplazidhcp.com/acadia-connect" xr:uid="{A1587B6D-ECEE-4E57-90D0-A43D3FBF95E4}"/>
+    <hyperlink ref="J64" r:id="rId37" xr:uid="{B47908FA-82EA-4DA9-9BBE-07A818778B04}"/>
+    <hyperlink ref="J65" r:id="rId38" xr:uid="{7AB131CC-0F15-4C10-AD04-F91FC4992DE8}"/>
+    <hyperlink ref="J66" r:id="rId39" xr:uid="{B0D1E760-F302-4119-BC47-B97718BD978A}"/>
+    <hyperlink ref="J67" r:id="rId40" xr:uid="{10620F4D-EC9C-4AD5-8F6B-8ABA696CFAD0}"/>
+    <hyperlink ref="J68" r:id="rId41" xr:uid="{4E1A74CF-275A-46C3-A67F-25057AB42D55}"/>
+    <hyperlink ref="J69" r:id="rId42" xr:uid="{0AC9034D-AF7E-455E-875C-63E481232DE4}"/>
+    <hyperlink ref="J70" r:id="rId43" xr:uid="{D2D2BF11-7231-4843-A1DD-7998B07BE096}"/>
+    <hyperlink ref="J71" r:id="rId44" xr:uid="{64E0E961-AD5F-43F3-A8CA-F5A89667275B}"/>
+    <hyperlink ref="J72" r:id="rId45" xr:uid="{9769C485-DADA-4222-AA83-25711CD0D304}"/>
+    <hyperlink ref="J73" r:id="rId46" xr:uid="{5E9495B8-0990-45CB-8505-95C0E057C756}"/>
+    <hyperlink ref="J74" r:id="rId47" xr:uid="{DAA4C77C-F1DD-454B-A83C-982FB3D4C5E1}"/>
+    <hyperlink ref="J76" r:id="rId48" xr:uid="{2888BBD0-A1BF-4897-8BD8-AFFACB65DC70}"/>
+    <hyperlink ref="J77" r:id="rId49" xr:uid="{B61B3385-B043-4EBA-A5CC-F3CABA842FA0}"/>
+    <hyperlink ref="J78:J81" r:id="rId50" display="https://www.nuplazidhcp.com/acadia-connect" xr:uid="{2FD96951-D35C-4C7F-9C00-338B4C354B02}"/>
+    <hyperlink ref="J82" r:id="rId51" display="https://www.nuplazidhcp.com/pdf/letter-of-appeal.pdf" xr:uid="{6A0E9ADB-1E28-40A0-A937-911A852DD595}"/>
+    <hyperlink ref="J83" r:id="rId52" xr:uid="{9B0A2652-0CEC-4F63-9879-E3F9E1698A55}"/>
+    <hyperlink ref="J84" r:id="rId53" xr:uid="{AB7898AD-36AF-4E23-9845-D7C66E833291}"/>
+    <hyperlink ref="J85:J88" r:id="rId54" display="https://www.acadiaconnect.com/healthcare-providers" xr:uid="{33D06EE6-07C3-46CB-8F19-E0C9148EF81C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId16"/>
-  <legacyDrawing r:id="rId17"/>
+  <legacyDrawing r:id="rId55"/>
 </worksheet>
 </file>
--- a/Corpus/MLR_Corpus.xlsx
+++ b/Corpus/MLR_Corpus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workouts\Projects\Acadia\Masori-Chatbot-Dev-main\Masori-Chatbot-Dev-main\Corpus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53E2B806-6414-4634-A756-5BAE1FC2B335}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85797871-B4C7-40A5-84F8-4BC6113DB5B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -223,7 +223,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="360">
   <si>
     <t>Keywords</t>
   </si>
@@ -1467,9 +1467,6 @@
     <t>Image URL</t>
   </si>
   <si>
-    <t>More</t>
-  </si>
-  <si>
     <t>Distribution Fact Sheet and Disease Education Fact Sheet</t>
   </si>
   <si>
@@ -1514,6 +1511,9 @@
   </si>
   <si>
     <t>Recommend Intent</t>
+  </si>
+  <si>
+    <t>Visit Page</t>
   </si>
 </sst>
 </file>
@@ -1603,7 +1603,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1767,13 +1767,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1786,6 +1779,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1795,11 +1798,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2225,13 +2228,13 @@
       </c>
     </row>
     <row r="2" spans="1:11" s="31" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="78" t="s">
         <v>253</v>
       </c>
-      <c r="B2" s="74" t="s">
+      <c r="B2" s="78" t="s">
         <v>260</v>
       </c>
-      <c r="C2" s="74" t="s">
+      <c r="C2" s="78" t="s">
         <v>312</v>
       </c>
       <c r="D2" s="58" t="s">
@@ -2245,14 +2248,14 @@
       <c r="H2" s="66"/>
       <c r="I2" s="66"/>
       <c r="J2" s="66"/>
-      <c r="K2" s="79" t="s">
+      <c r="K2" s="76" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="3" spans="1:11" s="31" customFormat="1" ht="120" x14ac:dyDescent="0.25">
-      <c r="A3" s="75"/>
-      <c r="B3" s="72"/>
-      <c r="C3" s="75"/>
+      <c r="A3" s="79"/>
+      <c r="B3" s="77"/>
+      <c r="C3" s="79"/>
       <c r="D3" s="58" t="s">
         <v>10</v>
       </c>
@@ -2264,12 +2267,12 @@
       <c r="H3" s="66"/>
       <c r="I3" s="66"/>
       <c r="J3" s="66"/>
-      <c r="K3" s="77"/>
+      <c r="K3" s="74"/>
     </row>
     <row r="4" spans="1:11" s="31" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" s="75"/>
-      <c r="B4" s="72"/>
-      <c r="C4" s="75"/>
+      <c r="A4" s="79"/>
+      <c r="B4" s="77"/>
+      <c r="C4" s="79"/>
       <c r="D4" s="58" t="s">
         <v>11</v>
       </c>
@@ -2281,16 +2284,16 @@
       <c r="H4" s="66"/>
       <c r="I4" s="66"/>
       <c r="J4" s="66"/>
-      <c r="K4" s="77"/>
+      <c r="K4" s="74"/>
     </row>
     <row r="5" spans="1:11" ht="105" x14ac:dyDescent="0.25">
-      <c r="A5" s="73" t="s">
+      <c r="A5" s="80" t="s">
         <v>172</v>
       </c>
-      <c r="B5" s="72" t="s">
+      <c r="B5" s="77" t="s">
         <v>322</v>
       </c>
-      <c r="C5" s="72" t="s">
+      <c r="C5" s="77" t="s">
         <v>261</v>
       </c>
       <c r="D5" s="58" t="s">
@@ -2304,14 +2307,14 @@
       <c r="H5" s="66"/>
       <c r="I5" s="66"/>
       <c r="J5" s="66"/>
-      <c r="K5" s="76" t="s">
+      <c r="K5" s="73" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="120" x14ac:dyDescent="0.25">
-      <c r="A6" s="73"/>
-      <c r="B6" s="73"/>
-      <c r="C6" s="73"/>
+      <c r="A6" s="80"/>
+      <c r="B6" s="80"/>
+      <c r="C6" s="80"/>
       <c r="D6" s="58" t="s">
         <v>20</v>
       </c>
@@ -2323,16 +2326,16 @@
       <c r="H6" s="66"/>
       <c r="I6" s="66"/>
       <c r="J6" s="66"/>
-      <c r="K6" s="77"/>
+      <c r="K6" s="74"/>
     </row>
     <row r="7" spans="1:11" s="44" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A7" s="72" t="s">
+      <c r="A7" s="77" t="s">
         <v>326</v>
       </c>
-      <c r="B7" s="72" t="s">
+      <c r="B7" s="77" t="s">
         <v>327</v>
       </c>
-      <c r="C7" s="72" t="s">
+      <c r="C7" s="77" t="s">
         <v>332</v>
       </c>
       <c r="D7" s="62" t="s">
@@ -2346,14 +2349,14 @@
       <c r="H7" s="66"/>
       <c r="I7" s="66"/>
       <c r="J7" s="66"/>
-      <c r="K7" s="76" t="s">
+      <c r="K7" s="73" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="8" spans="1:11" s="44" customFormat="1" ht="150" x14ac:dyDescent="0.25">
-      <c r="A8" s="72"/>
-      <c r="B8" s="72"/>
-      <c r="C8" s="72"/>
+      <c r="A8" s="77"/>
+      <c r="B8" s="77"/>
+      <c r="C8" s="77"/>
       <c r="D8" s="62" t="s">
         <v>330</v>
       </c>
@@ -2365,12 +2368,12 @@
       <c r="H8" s="66"/>
       <c r="I8" s="66"/>
       <c r="J8" s="66"/>
-      <c r="K8" s="77"/>
+      <c r="K8" s="74"/>
     </row>
     <row r="9" spans="1:11" s="44" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A9" s="72"/>
-      <c r="B9" s="72"/>
-      <c r="C9" s="72"/>
+      <c r="A9" s="77"/>
+      <c r="B9" s="77"/>
+      <c r="C9" s="77"/>
       <c r="D9" s="62" t="s">
         <v>333</v>
       </c>
@@ -2382,12 +2385,12 @@
       <c r="H9" s="66"/>
       <c r="I9" s="66"/>
       <c r="J9" s="66"/>
-      <c r="K9" s="77"/>
+      <c r="K9" s="74"/>
     </row>
     <row r="10" spans="1:11" s="44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="72"/>
-      <c r="B10" s="72"/>
-      <c r="C10" s="72"/>
+      <c r="A10" s="77"/>
+      <c r="B10" s="77"/>
+      <c r="C10" s="77"/>
       <c r="D10" s="62"/>
       <c r="E10" s="62"/>
       <c r="F10" s="66"/>
@@ -2460,13 +2463,13 @@
       <c r="K14" s="65"/>
     </row>
     <row r="15" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="73" t="s">
+      <c r="A15" s="80" t="s">
         <v>175</v>
       </c>
-      <c r="B15" s="72" t="s">
+      <c r="B15" s="77" t="s">
         <v>262</v>
       </c>
-      <c r="C15" s="72" t="s">
+      <c r="C15" s="77" t="s">
         <v>323</v>
       </c>
       <c r="D15" s="58" t="s">
@@ -2480,14 +2483,14 @@
       <c r="H15" s="66"/>
       <c r="I15" s="66"/>
       <c r="J15" s="66"/>
-      <c r="K15" s="76" t="s">
+      <c r="K15" s="73" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="73"/>
-      <c r="B16" s="73"/>
-      <c r="C16" s="73"/>
+      <c r="A16" s="80"/>
+      <c r="B16" s="80"/>
+      <c r="C16" s="80"/>
       <c r="D16" s="58" t="s">
         <v>177</v>
       </c>
@@ -2499,12 +2502,12 @@
       <c r="H16" s="66"/>
       <c r="I16" s="66"/>
       <c r="J16" s="66"/>
-      <c r="K16" s="77"/>
+      <c r="K16" s="74"/>
     </row>
     <row r="17" spans="1:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="A17" s="73"/>
-      <c r="B17" s="73"/>
-      <c r="C17" s="73"/>
+      <c r="A17" s="80"/>
+      <c r="B17" s="80"/>
+      <c r="C17" s="80"/>
       <c r="D17" s="58" t="s">
         <v>178</v>
       </c>
@@ -2516,12 +2519,12 @@
       <c r="H17" s="66"/>
       <c r="I17" s="66"/>
       <c r="J17" s="66"/>
-      <c r="K17" s="77"/>
+      <c r="K17" s="74"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="73"/>
-      <c r="B18" s="73"/>
-      <c r="C18" s="73"/>
+      <c r="A18" s="80"/>
+      <c r="B18" s="80"/>
+      <c r="C18" s="80"/>
       <c r="D18" s="43"/>
       <c r="E18" s="42"/>
       <c r="F18" s="42"/>
@@ -2529,16 +2532,16 @@
       <c r="H18" s="42"/>
       <c r="I18" s="42"/>
       <c r="J18" s="42"/>
-      <c r="K18" s="77"/>
+      <c r="K18" s="74"/>
     </row>
     <row r="19" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="73" t="s">
+      <c r="A19" s="80" t="s">
         <v>180</v>
       </c>
-      <c r="B19" s="72" t="s">
+      <c r="B19" s="77" t="s">
         <v>263</v>
       </c>
-      <c r="C19" s="72" t="s">
+      <c r="C19" s="77" t="s">
         <v>264</v>
       </c>
       <c r="D19" s="58" t="s">
@@ -2552,14 +2555,14 @@
       <c r="H19" s="66"/>
       <c r="I19" s="66"/>
       <c r="J19" s="66"/>
-      <c r="K19" s="76" t="s">
+      <c r="K19" s="73" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="73"/>
-      <c r="B20" s="72"/>
-      <c r="C20" s="73"/>
+      <c r="A20" s="80"/>
+      <c r="B20" s="77"/>
+      <c r="C20" s="80"/>
       <c r="D20" s="58" t="s">
         <v>182</v>
       </c>
@@ -2571,12 +2574,12 @@
       <c r="H20" s="66"/>
       <c r="I20" s="66"/>
       <c r="J20" s="66"/>
-      <c r="K20" s="77"/>
+      <c r="K20" s="74"/>
     </row>
     <row r="21" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A21" s="73"/>
-      <c r="B21" s="72"/>
-      <c r="C21" s="73"/>
+      <c r="A21" s="80"/>
+      <c r="B21" s="77"/>
+      <c r="C21" s="80"/>
       <c r="D21" s="58" t="s">
         <v>183</v>
       </c>
@@ -2588,12 +2591,12 @@
       <c r="H21" s="66"/>
       <c r="I21" s="66"/>
       <c r="J21" s="66"/>
-      <c r="K21" s="77"/>
+      <c r="K21" s="74"/>
     </row>
     <row r="22" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A22" s="73"/>
-      <c r="B22" s="72"/>
-      <c r="C22" s="73"/>
+      <c r="A22" s="80"/>
+      <c r="B22" s="77"/>
+      <c r="C22" s="80"/>
       <c r="D22" s="58" t="s">
         <v>184</v>
       </c>
@@ -2605,16 +2608,16 @@
       <c r="H22" s="66"/>
       <c r="I22" s="66"/>
       <c r="J22" s="66"/>
-      <c r="K22" s="77"/>
+      <c r="K22" s="74"/>
     </row>
     <row r="23" spans="1:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="A23" s="73" t="s">
+      <c r="A23" s="80" t="s">
         <v>185</v>
       </c>
-      <c r="B23" s="72" t="s">
+      <c r="B23" s="77" t="s">
         <v>324</v>
       </c>
-      <c r="C23" s="72" t="s">
+      <c r="C23" s="77" t="s">
         <v>265</v>
       </c>
       <c r="D23" s="58" t="s">
@@ -2628,14 +2631,14 @@
       <c r="H23" s="66"/>
       <c r="I23" s="66"/>
       <c r="J23" s="66"/>
-      <c r="K23" s="76" t="s">
+      <c r="K23" s="73" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="135" x14ac:dyDescent="0.25">
-      <c r="A24" s="73"/>
-      <c r="B24" s="72"/>
-      <c r="C24" s="73"/>
+      <c r="A24" s="80"/>
+      <c r="B24" s="77"/>
+      <c r="C24" s="80"/>
       <c r="D24" s="58" t="s">
         <v>18</v>
       </c>
@@ -2647,12 +2650,12 @@
       <c r="H24" s="66"/>
       <c r="I24" s="66"/>
       <c r="J24" s="66"/>
-      <c r="K24" s="77"/>
+      <c r="K24" s="74"/>
     </row>
     <row r="25" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A25" s="73"/>
-      <c r="B25" s="72"/>
-      <c r="C25" s="73"/>
+      <c r="A25" s="80"/>
+      <c r="B25" s="77"/>
+      <c r="C25" s="80"/>
       <c r="D25" s="58" t="s">
         <v>325</v>
       </c>
@@ -2664,12 +2667,12 @@
       <c r="H25" s="66"/>
       <c r="I25" s="66"/>
       <c r="J25" s="66"/>
-      <c r="K25" s="77"/>
+      <c r="K25" s="74"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="73"/>
-      <c r="B26" s="72"/>
-      <c r="C26" s="73"/>
+      <c r="A26" s="80"/>
+      <c r="B26" s="77"/>
+      <c r="C26" s="80"/>
       <c r="D26" s="43"/>
       <c r="E26" s="43"/>
       <c r="F26" s="43"/>
@@ -2677,16 +2680,16 @@
       <c r="H26" s="43"/>
       <c r="I26" s="43"/>
       <c r="J26" s="43"/>
-      <c r="K26" s="77"/>
+      <c r="K26" s="74"/>
     </row>
     <row r="27" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="73" t="s">
+      <c r="A27" s="80" t="s">
         <v>187</v>
       </c>
-      <c r="B27" s="72" t="s">
+      <c r="B27" s="77" t="s">
         <v>266</v>
       </c>
-      <c r="C27" s="78" t="s">
+      <c r="C27" s="75" t="s">
         <v>267</v>
       </c>
       <c r="D27" s="58" t="s">
@@ -2700,14 +2703,14 @@
       <c r="H27" s="66"/>
       <c r="I27" s="66"/>
       <c r="J27" s="66"/>
-      <c r="K27" s="76" t="s">
+      <c r="K27" s="73" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="73"/>
-      <c r="B28" s="72"/>
-      <c r="C28" s="78"/>
+      <c r="A28" s="80"/>
+      <c r="B28" s="77"/>
+      <c r="C28" s="75"/>
       <c r="D28" s="58" t="s">
         <v>189</v>
       </c>
@@ -2719,12 +2722,12 @@
       <c r="H28" s="66"/>
       <c r="I28" s="66"/>
       <c r="J28" s="66"/>
-      <c r="K28" s="77"/>
+      <c r="K28" s="74"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="73"/>
-      <c r="B29" s="72"/>
-      <c r="C29" s="78"/>
+      <c r="A29" s="80"/>
+      <c r="B29" s="77"/>
+      <c r="C29" s="75"/>
       <c r="D29" s="43"/>
       <c r="E29" s="42"/>
       <c r="F29" s="42"/>
@@ -2732,10 +2735,10 @@
       <c r="H29" s="42"/>
       <c r="I29" s="42"/>
       <c r="J29" s="42"/>
-      <c r="K29" s="77"/>
+      <c r="K29" s="74"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="73" t="s">
+      <c r="A30" s="80" t="s">
         <v>191</v>
       </c>
       <c r="C30" s="60"/>
@@ -2745,16 +2748,16 @@
       <c r="H30" s="66"/>
       <c r="I30" s="66"/>
       <c r="J30" s="66"/>
-      <c r="K30" s="76" t="s">
+      <c r="K30" s="73" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="165" x14ac:dyDescent="0.25">
-      <c r="A31" s="73"/>
-      <c r="B31" s="72" t="s">
+      <c r="A31" s="80"/>
+      <c r="B31" s="77" t="s">
         <v>268</v>
       </c>
-      <c r="C31" s="72" t="s">
+      <c r="C31" s="77" t="s">
         <v>269</v>
       </c>
       <c r="E31" s="32" t="s">
@@ -2765,12 +2768,12 @@
       <c r="H31" s="66"/>
       <c r="I31" s="66"/>
       <c r="J31" s="66"/>
-      <c r="K31" s="77"/>
+      <c r="K31" s="74"/>
     </row>
     <row r="32" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A32" s="73"/>
-      <c r="B32" s="73"/>
-      <c r="C32" s="72"/>
+      <c r="A32" s="80"/>
+      <c r="B32" s="80"/>
+      <c r="C32" s="77"/>
       <c r="D32" s="58" t="s">
         <v>256</v>
       </c>
@@ -2782,12 +2785,12 @@
       <c r="H32" s="66"/>
       <c r="I32" s="66"/>
       <c r="J32" s="66"/>
-      <c r="K32" s="77"/>
+      <c r="K32" s="74"/>
     </row>
     <row r="33" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="73"/>
-      <c r="B33" s="73"/>
-      <c r="C33" s="72"/>
+      <c r="A33" s="80"/>
+      <c r="B33" s="80"/>
+      <c r="C33" s="77"/>
       <c r="D33" s="43" t="s">
         <v>257</v>
       </c>
@@ -2799,12 +2802,12 @@
       <c r="H33" s="43"/>
       <c r="I33" s="43"/>
       <c r="J33" s="43"/>
-      <c r="K33" s="77"/>
+      <c r="K33" s="74"/>
     </row>
     <row r="34" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="73"/>
-      <c r="B34" s="73"/>
-      <c r="C34" s="72"/>
+      <c r="A34" s="80"/>
+      <c r="B34" s="80"/>
+      <c r="C34" s="77"/>
       <c r="D34" s="43" t="s">
         <v>172</v>
       </c>
@@ -2816,12 +2819,12 @@
       <c r="H34" s="43"/>
       <c r="I34" s="43"/>
       <c r="J34" s="43"/>
-      <c r="K34" s="77"/>
+      <c r="K34" s="74"/>
     </row>
     <row r="35" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A35" s="73"/>
-      <c r="B35" s="73"/>
-      <c r="C35" s="72"/>
+      <c r="A35" s="80"/>
+      <c r="B35" s="80"/>
+      <c r="C35" s="77"/>
       <c r="D35" s="43" t="s">
         <v>258</v>
       </c>
@@ -2833,12 +2836,12 @@
       <c r="H35" s="43"/>
       <c r="I35" s="43"/>
       <c r="J35" s="43"/>
-      <c r="K35" s="77"/>
+      <c r="K35" s="74"/>
     </row>
     <row r="36" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A36" s="73"/>
-      <c r="B36" s="73"/>
-      <c r="C36" s="72"/>
+      <c r="A36" s="80"/>
+      <c r="B36" s="80"/>
+      <c r="C36" s="77"/>
       <c r="D36" s="58" t="s">
         <v>132</v>
       </c>
@@ -2850,16 +2853,16 @@
       <c r="H36" s="43"/>
       <c r="I36" s="43"/>
       <c r="J36" s="43"/>
-      <c r="K36" s="77"/>
+      <c r="K36" s="74"/>
     </row>
     <row r="37" spans="1:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="A37" s="72" t="s">
+      <c r="A37" s="77" t="s">
         <v>270</v>
       </c>
-      <c r="B37" s="72" t="s">
+      <c r="B37" s="77" t="s">
         <v>271</v>
       </c>
-      <c r="C37" s="72" t="s">
+      <c r="C37" s="77" t="s">
         <v>272</v>
       </c>
       <c r="D37" s="58" t="s">
@@ -2873,14 +2876,14 @@
       <c r="H37" s="66"/>
       <c r="I37" s="66"/>
       <c r="J37" s="66"/>
-      <c r="K37" s="76" t="s">
+      <c r="K37" s="73" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="105" x14ac:dyDescent="0.25">
-      <c r="A38" s="72"/>
-      <c r="B38" s="72"/>
-      <c r="C38" s="73"/>
+      <c r="A38" s="77"/>
+      <c r="B38" s="77"/>
+      <c r="C38" s="80"/>
       <c r="D38" s="58" t="s">
         <v>194</v>
       </c>
@@ -2892,36 +2895,36 @@
       <c r="H38" s="66"/>
       <c r="I38" s="66"/>
       <c r="J38" s="66"/>
-      <c r="K38" s="77"/>
+      <c r="K38" s="74"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" s="72"/>
-      <c r="B39" s="72"/>
-      <c r="C39" s="73"/>
+      <c r="A39" s="77"/>
+      <c r="B39" s="77"/>
+      <c r="C39" s="80"/>
       <c r="D39" s="58" t="s">
         <v>195</v>
       </c>
       <c r="E39" s="38" t="s">
         <v>200</v>
       </c>
-      <c r="K39" s="77"/>
+      <c r="K39" s="74"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="72"/>
-      <c r="B40" s="72"/>
-      <c r="C40" s="73"/>
+      <c r="A40" s="77"/>
+      <c r="B40" s="77"/>
+      <c r="C40" s="80"/>
       <c r="D40" s="58" t="s">
         <v>196</v>
       </c>
       <c r="E40" s="38" t="s">
         <v>201</v>
       </c>
-      <c r="K40" s="77"/>
+      <c r="K40" s="74"/>
     </row>
     <row r="41" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A41" s="72"/>
-      <c r="B41" s="72"/>
-      <c r="C41" s="73"/>
+      <c r="A41" s="77"/>
+      <c r="B41" s="77"/>
+      <c r="C41" s="80"/>
       <c r="D41" s="58" t="s">
         <v>197</v>
       </c>
@@ -2933,12 +2936,12 @@
       <c r="H41" s="66"/>
       <c r="I41" s="66"/>
       <c r="J41" s="66"/>
-      <c r="K41" s="77"/>
+      <c r="K41" s="74"/>
     </row>
     <row r="42" spans="1:11" ht="150" x14ac:dyDescent="0.25">
-      <c r="A42" s="72"/>
-      <c r="B42" s="72"/>
-      <c r="C42" s="73"/>
+      <c r="A42" s="77"/>
+      <c r="B42" s="77"/>
+      <c r="C42" s="80"/>
       <c r="D42" s="58" t="s">
         <v>198</v>
       </c>
@@ -2950,12 +2953,12 @@
       <c r="H42" s="66"/>
       <c r="I42" s="66"/>
       <c r="J42" s="66"/>
-      <c r="K42" s="77"/>
+      <c r="K42" s="74"/>
     </row>
     <row r="43" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A43" s="72"/>
-      <c r="B43" s="72"/>
-      <c r="C43" s="73"/>
+      <c r="A43" s="77"/>
+      <c r="B43" s="77"/>
+      <c r="C43" s="80"/>
       <c r="D43" s="58" t="s">
         <v>199</v>
       </c>
@@ -2967,7 +2970,7 @@
       <c r="H43" s="66"/>
       <c r="I43" s="66"/>
       <c r="J43" s="66"/>
-      <c r="K43" s="77"/>
+      <c r="K43" s="74"/>
     </row>
     <row r="44" spans="1:11" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="62"/>
@@ -3016,25 +3019,12 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="K27:K29"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="K30:K36"/>
-    <mergeCell ref="K37:K43"/>
-    <mergeCell ref="K2:K4"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="K15:K18"/>
-    <mergeCell ref="K19:K22"/>
-    <mergeCell ref="K23:K26"/>
-    <mergeCell ref="K7:K9"/>
-    <mergeCell ref="A37:A43"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A30:A36"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="A23:A26"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="B31:B36"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="C23:C26"/>
+    <mergeCell ref="C31:C36"/>
+    <mergeCell ref="B37:B43"/>
+    <mergeCell ref="C37:C43"/>
     <mergeCell ref="B19:B22"/>
     <mergeCell ref="C19:C22"/>
     <mergeCell ref="B27:B29"/>
@@ -3046,12 +3036,25 @@
     <mergeCell ref="C15:C18"/>
     <mergeCell ref="B7:B10"/>
     <mergeCell ref="C7:C10"/>
-    <mergeCell ref="B31:B36"/>
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="C23:C26"/>
-    <mergeCell ref="C31:C36"/>
-    <mergeCell ref="B37:B43"/>
-    <mergeCell ref="C37:C43"/>
+    <mergeCell ref="A37:A43"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A30:A36"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="K27:K29"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="K30:K36"/>
+    <mergeCell ref="K37:K43"/>
+    <mergeCell ref="K2:K4"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="K15:K18"/>
+    <mergeCell ref="K19:K22"/>
+    <mergeCell ref="K23:K26"/>
+    <mergeCell ref="K7:K9"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="K2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -3108,7 +3111,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="81" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="29"/>
@@ -3123,7 +3126,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="81"/>
+      <c r="A3" s="82"/>
       <c r="B3" s="28"/>
       <c r="C3" t="s">
         <v>4</v>
@@ -3132,7 +3135,7 @@
       <c r="E3" s="6"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="81"/>
+      <c r="A4" s="82"/>
       <c r="B4" s="28"/>
       <c r="C4" t="s">
         <v>5</v>
@@ -3141,7 +3144,7 @@
       <c r="E4" s="6"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="81"/>
+      <c r="A5" s="82"/>
       <c r="B5" s="28"/>
       <c r="C5" t="s">
         <v>6</v>
@@ -3150,7 +3153,7 @@
       <c r="E5" s="6"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="81"/>
+      <c r="A6" s="82"/>
       <c r="B6" s="28"/>
       <c r="C6" t="s">
         <v>7</v>
@@ -3159,7 +3162,7 @@
       <c r="E6" s="6"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="81"/>
+      <c r="A7" s="82"/>
       <c r="B7" s="28"/>
       <c r="C7" t="s">
         <v>8</v>
@@ -3168,7 +3171,7 @@
       <c r="E7" s="6"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="81"/>
+      <c r="A8" s="82"/>
       <c r="B8" s="28"/>
       <c r="C8" t="s">
         <v>9</v>
@@ -3177,7 +3180,7 @@
       <c r="E8" s="6"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="81"/>
+      <c r="A9" s="82"/>
       <c r="B9" s="28"/>
       <c r="C9" t="s">
         <v>10</v>
@@ -3186,7 +3189,7 @@
       <c r="E9" s="6"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="81"/>
+      <c r="A10" s="82"/>
       <c r="B10" s="28"/>
       <c r="C10" t="s">
         <v>11</v>
@@ -3195,7 +3198,7 @@
       <c r="E10" s="6"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="81" t="s">
+      <c r="A11" s="82" t="s">
         <v>16</v>
       </c>
       <c r="B11" s="28"/>
@@ -3204,28 +3207,28 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="81"/>
+      <c r="A12" s="82"/>
       <c r="B12" s="28"/>
       <c r="C12" s="7" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="81"/>
+      <c r="A13" s="82"/>
       <c r="B13" s="28"/>
       <c r="C13" s="7" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="81"/>
+      <c r="A14" s="82"/>
       <c r="B14" s="28"/>
       <c r="C14" s="7" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="81"/>
+      <c r="A15" s="82"/>
       <c r="B15" s="28"/>
       <c r="C15" s="7" t="s">
         <v>21</v>
@@ -3235,7 +3238,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="81"/>
+      <c r="A16" s="82"/>
       <c r="B16" s="28"/>
       <c r="C16" s="7" t="s">
         <v>22</v>
@@ -3245,7 +3248,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="81" t="s">
+      <c r="A17" s="82" t="s">
         <v>23</v>
       </c>
       <c r="B17" s="28"/>
@@ -3260,7 +3263,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="81"/>
+      <c r="A18" s="82"/>
       <c r="B18" s="28"/>
       <c r="C18" s="8" t="s">
         <v>25</v>
@@ -3270,21 +3273,21 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="81"/>
+      <c r="A19" s="82"/>
       <c r="B19" s="28"/>
       <c r="C19" s="8" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="81"/>
+      <c r="A20" s="82"/>
       <c r="B20" s="28"/>
       <c r="C20" s="8" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A21" s="81"/>
+      <c r="A21" s="82"/>
       <c r="B21" s="28"/>
       <c r="C21" s="8" t="s">
         <v>28</v>
@@ -3294,7 +3297,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="81"/>
+      <c r="A22" s="82"/>
       <c r="B22" s="28"/>
       <c r="C22" s="8" t="s">
         <v>29</v>
@@ -3304,7 +3307,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="81"/>
+      <c r="A23" s="82"/>
       <c r="B23" s="28"/>
       <c r="C23" s="8" t="s">
         <v>30</v>
@@ -3314,14 +3317,14 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="81"/>
+      <c r="A24" s="82"/>
       <c r="B24" s="28"/>
       <c r="C24" s="8" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="81" t="s">
+      <c r="A25" s="82" t="s">
         <v>41</v>
       </c>
       <c r="B25" s="28"/>
@@ -3336,7 +3339,7 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="81"/>
+      <c r="A26" s="82"/>
       <c r="B26" s="28"/>
       <c r="C26" s="9" t="s">
         <v>43</v>
@@ -3346,7 +3349,7 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="81"/>
+      <c r="A27" s="82"/>
       <c r="B27" s="28"/>
       <c r="C27" s="9" t="s">
         <v>44</v>
@@ -3356,7 +3359,7 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="81"/>
+      <c r="A28" s="82"/>
       <c r="B28" s="28"/>
       <c r="C28" s="9" t="s">
         <v>41</v>
@@ -3366,7 +3369,7 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="81"/>
+      <c r="A29" s="82"/>
       <c r="B29" s="28"/>
       <c r="C29" s="9" t="s">
         <v>45</v>
@@ -3376,7 +3379,7 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="81"/>
+      <c r="A30" s="82"/>
       <c r="B30" s="28"/>
       <c r="C30" s="9" t="s">
         <v>46</v>
@@ -3386,49 +3389,49 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="81"/>
+      <c r="A31" s="82"/>
       <c r="B31" s="28"/>
       <c r="D31" s="9" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="81"/>
+      <c r="A32" s="82"/>
       <c r="B32" s="28"/>
       <c r="D32" s="9" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="81"/>
+      <c r="A33" s="82"/>
       <c r="B33" s="28"/>
       <c r="D33" s="9" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="81"/>
+      <c r="A34" s="82"/>
       <c r="B34" s="28"/>
       <c r="D34" s="9" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="81"/>
+      <c r="A35" s="82"/>
       <c r="B35" s="28"/>
       <c r="D35" s="9" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="81"/>
+      <c r="A36" s="82"/>
       <c r="B36" s="28"/>
       <c r="D36" s="9" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="82" t="s">
+      <c r="A37" s="83" t="s">
         <v>58</v>
       </c>
       <c r="D37" s="11" t="s">
@@ -3436,43 +3439,43 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="82"/>
+      <c r="A38" s="83"/>
       <c r="D38" s="11" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="82"/>
+      <c r="A39" s="83"/>
       <c r="D39" s="11" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="82"/>
+      <c r="A40" s="83"/>
       <c r="D40" s="11" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="82"/>
+      <c r="A41" s="83"/>
       <c r="D41" s="11" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="82"/>
+      <c r="A42" s="83"/>
       <c r="D42" s="11" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="82"/>
+      <c r="A43" s="83"/>
       <c r="D43" s="11" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="82" t="s">
+      <c r="A44" s="83" t="s">
         <v>66</v>
       </c>
       <c r="C44" s="12" t="s">
@@ -3483,7 +3486,7 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="82"/>
+      <c r="A45" s="83"/>
       <c r="C45" s="12" t="s">
         <v>67</v>
       </c>
@@ -3492,7 +3495,7 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="82"/>
+      <c r="A46" s="83"/>
       <c r="C46" s="12" t="s">
         <v>44</v>
       </c>
@@ -3501,43 +3504,43 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="82"/>
+      <c r="A47" s="83"/>
       <c r="D47" s="12" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="82"/>
+      <c r="A48" s="83"/>
       <c r="D48" s="12" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="82"/>
+      <c r="A49" s="83"/>
       <c r="D49" s="12" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="82"/>
+      <c r="A50" s="83"/>
       <c r="D50" s="12" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="82"/>
+      <c r="A51" s="83"/>
       <c r="D51" s="12" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="82"/>
+      <c r="A52" s="83"/>
       <c r="D52" s="12" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="158.44999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="82" t="s">
+      <c r="A53" s="83" t="s">
         <v>77</v>
       </c>
       <c r="C53" s="14" t="s">
@@ -3549,7 +3552,7 @@
       <c r="E53" s="13"/>
     </row>
     <row r="54" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A54" s="82"/>
+      <c r="A54" s="83"/>
       <c r="C54" s="14" t="s">
         <v>87</v>
       </c>
@@ -3559,7 +3562,7 @@
       <c r="E54" s="13"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="82" t="s">
+      <c r="A55" s="83" t="s">
         <v>80</v>
       </c>
       <c r="C55" s="14" t="s">
@@ -3570,7 +3573,7 @@
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="82"/>
+      <c r="A56" s="83"/>
       <c r="C56" s="14" t="s">
         <v>82</v>
       </c>
@@ -3579,7 +3582,7 @@
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="82"/>
+      <c r="A57" s="83"/>
       <c r="C57" s="14" t="s">
         <v>83</v>
       </c>
@@ -3588,7 +3591,7 @@
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="82"/>
+      <c r="A58" s="83"/>
       <c r="C58" s="14" t="s">
         <v>84</v>
       </c>
@@ -3597,7 +3600,7 @@
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="82"/>
+      <c r="A59" s="83"/>
       <c r="C59" s="14" t="s">
         <v>85</v>
       </c>
@@ -3606,73 +3609,73 @@
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="82"/>
+      <c r="A60" s="83"/>
       <c r="D60" s="14" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="82"/>
+      <c r="A61" s="83"/>
       <c r="D61" s="14" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="82"/>
+      <c r="A62" s="83"/>
       <c r="D62" s="14" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="82"/>
+      <c r="A63" s="83"/>
       <c r="D63" s="14" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="82"/>
+      <c r="A64" s="83"/>
       <c r="D64" s="14" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="82"/>
+      <c r="A65" s="83"/>
       <c r="D65" s="14" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="82"/>
+      <c r="A66" s="83"/>
       <c r="D66" s="14" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="82"/>
+      <c r="A67" s="83"/>
       <c r="D67" s="14" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="82"/>
+      <c r="A68" s="83"/>
       <c r="D68" s="14" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="82"/>
+      <c r="A69" s="83"/>
       <c r="D69" s="14" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="82"/>
+      <c r="A70" s="83"/>
       <c r="D70" s="14" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="82" t="s">
+      <c r="A71" s="83" t="s">
         <v>104</v>
       </c>
       <c r="C71" s="15" t="s">
@@ -3683,7 +3686,7 @@
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="82"/>
+      <c r="A72" s="83"/>
       <c r="C72" s="15" t="s">
         <v>106</v>
       </c>
@@ -3692,7 +3695,7 @@
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="82"/>
+      <c r="A73" s="83"/>
       <c r="C73" s="15" t="s">
         <v>107</v>
       </c>
@@ -3701,7 +3704,7 @@
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="82"/>
+      <c r="A74" s="83"/>
       <c r="C74" s="15" t="s">
         <v>108</v>
       </c>
@@ -3710,43 +3713,43 @@
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="82"/>
+      <c r="A75" s="83"/>
       <c r="D75" s="15" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="82"/>
+      <c r="A76" s="83"/>
       <c r="D76" s="15" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="82"/>
+      <c r="A77" s="83"/>
       <c r="D77" s="15" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="82"/>
+      <c r="A78" s="83"/>
       <c r="D78" s="15" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="82"/>
+      <c r="A79" s="83"/>
       <c r="D79" s="15" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="82"/>
+      <c r="A80" s="83"/>
       <c r="D80" s="15" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="82" t="s">
+      <c r="A81" s="83" t="s">
         <v>117</v>
       </c>
       <c r="C81" s="16" t="s">
@@ -3757,7 +3760,7 @@
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="82"/>
+      <c r="A82" s="83"/>
       <c r="C82" s="16" t="s">
         <v>119</v>
       </c>
@@ -3766,7 +3769,7 @@
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="82"/>
+      <c r="A83" s="83"/>
       <c r="C83" s="16" t="s">
         <v>120</v>
       </c>
@@ -3775,25 +3778,25 @@
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="82"/>
+      <c r="A84" s="83"/>
       <c r="D84" s="16" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" s="82"/>
+      <c r="A85" s="83"/>
       <c r="D85" s="16" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" s="82"/>
+      <c r="A86" s="83"/>
       <c r="D86" s="16" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A87" s="82" t="s">
+      <c r="A87" s="83" t="s">
         <v>125</v>
       </c>
       <c r="C87" s="17" t="s">
@@ -3804,7 +3807,7 @@
       </c>
     </row>
     <row r="88" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A88" s="82"/>
+      <c r="A88" s="83"/>
       <c r="C88" s="17" t="s">
         <v>127</v>
       </c>
@@ -3813,7 +3816,7 @@
       </c>
     </row>
     <row r="89" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A89" s="82"/>
+      <c r="A89" s="83"/>
       <c r="C89" s="17" t="s">
         <v>128</v>
       </c>
@@ -3822,13 +3825,13 @@
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" s="82"/>
+      <c r="A90" s="83"/>
       <c r="C90" s="17" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A91" s="82" t="s">
+      <c r="A91" s="83" t="s">
         <v>132</v>
       </c>
       <c r="C91" s="19" t="s">
@@ -3839,7 +3842,7 @@
       </c>
     </row>
     <row r="92" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A92" s="82"/>
+      <c r="A92" s="83"/>
       <c r="C92" s="19" t="s">
         <v>134</v>
       </c>
@@ -3848,40 +3851,40 @@
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" s="82"/>
+      <c r="A93" s="83"/>
       <c r="C93" s="19" t="s">
         <v>135</v>
       </c>
       <c r="D93" s="19"/>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" s="82"/>
+      <c r="A94" s="83"/>
       <c r="C94" s="19" t="s">
         <v>136</v>
       </c>
       <c r="D94" s="19"/>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" s="82"/>
+      <c r="A95" s="83"/>
       <c r="C95" s="19" t="s">
         <v>137</v>
       </c>
       <c r="D95" s="19"/>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96" s="82"/>
+      <c r="A96" s="83"/>
       <c r="C96" s="19" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" s="82"/>
+      <c r="A97" s="83"/>
       <c r="C97" s="19" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" s="82" t="s">
+      <c r="A98" s="83" t="s">
         <v>141</v>
       </c>
       <c r="D98" s="20" t="s">
@@ -3889,25 +3892,25 @@
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" s="82"/>
+      <c r="A99" s="83"/>
       <c r="D99" s="20" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" s="82"/>
+      <c r="A100" s="83"/>
       <c r="D100" s="20" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101" s="82"/>
+      <c r="A101" s="83"/>
       <c r="D101" s="20" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A102" s="82" t="s">
+      <c r="A102" s="83" t="s">
         <v>146</v>
       </c>
       <c r="C102" s="23" t="s">
@@ -3918,7 +3921,7 @@
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A103" s="82"/>
+      <c r="A103" s="83"/>
       <c r="C103" s="23" t="s">
         <v>138</v>
       </c>
@@ -3927,7 +3930,7 @@
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A104" s="82"/>
+      <c r="A104" s="83"/>
       <c r="C104" s="23" t="s">
         <v>135</v>
       </c>
@@ -3936,7 +3939,7 @@
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A105" s="82"/>
+      <c r="A105" s="83"/>
       <c r="C105" s="23" t="s">
         <v>147</v>
       </c>
@@ -3945,7 +3948,7 @@
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A106" s="82"/>
+      <c r="A106" s="83"/>
       <c r="C106" s="23" t="s">
         <v>148</v>
       </c>
@@ -3954,13 +3957,13 @@
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A107" s="82"/>
+      <c r="A107" s="83"/>
       <c r="C107" s="23" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A108" s="82" t="s">
+      <c r="A108" s="83" t="s">
         <v>151</v>
       </c>
       <c r="C108" s="24" t="s">
@@ -3971,7 +3974,7 @@
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A109" s="82"/>
+      <c r="A109" s="83"/>
       <c r="C109" s="24" t="s">
         <v>153</v>
       </c>
@@ -3980,31 +3983,31 @@
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A110" s="82"/>
+      <c r="A110" s="83"/>
       <c r="D110" s="24" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A111" s="82"/>
+      <c r="A111" s="83"/>
       <c r="D111" s="24" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A112" s="82"/>
+      <c r="A112" s="83"/>
       <c r="D112" s="24" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A113" s="82"/>
+      <c r="A113" s="83"/>
       <c r="D113" s="24" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A114" s="82" t="s">
+      <c r="A114" s="83" t="s">
         <v>163</v>
       </c>
       <c r="C114" s="25" t="s">
@@ -4015,7 +4018,7 @@
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A115" s="82"/>
+      <c r="A115" s="83"/>
       <c r="C115" s="25" t="s">
         <v>119</v>
       </c>
@@ -4024,7 +4027,7 @@
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A116" s="82"/>
+      <c r="A116" s="83"/>
       <c r="C116" s="25" t="s">
         <v>120</v>
       </c>
@@ -4033,57 +4036,57 @@
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A117" s="82"/>
+      <c r="A117" s="83"/>
       <c r="D117" s="25" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A118" s="82"/>
+      <c r="A118" s="83"/>
       <c r="D118" s="25"/>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A119" s="82"/>
+      <c r="A119" s="83"/>
       <c r="D119" s="25" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A120" s="82"/>
+      <c r="A120" s="83"/>
       <c r="D120" s="25" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A121" s="82"/>
+      <c r="A121" s="83"/>
       <c r="D121" s="25" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A122" s="82"/>
+      <c r="A122" s="83"/>
       <c r="D122" s="25" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A123" s="82"/>
+      <c r="A123" s="83"/>
       <c r="D123" s="25"/>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A124" s="82"/>
+      <c r="A124" s="83"/>
       <c r="D124" s="25" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="125" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A125" s="82"/>
+      <c r="A125" s="83"/>
       <c r="D125" s="26" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A126" s="82"/>
+      <c r="A126" s="83"/>
       <c r="D126" s="25" t="s">
         <v>170</v>
       </c>
@@ -4119,11 +4122,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:L97"/>
+  <dimension ref="A1:M97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B2" sqref="B2"/>
+      <pane xSplit="1" topLeftCell="G1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4134,11 +4137,11 @@
     <col min="4" max="4" width="38.28515625" customWidth="1"/>
     <col min="5" max="5" width="21.7109375" style="44" customWidth="1"/>
     <col min="6" max="6" width="103.42578125" customWidth="1"/>
-    <col min="7" max="11" width="37.28515625" style="44" customWidth="1"/>
-    <col min="12" max="12" width="52.42578125" customWidth="1"/>
+    <col min="7" max="12" width="37.28515625" style="44" customWidth="1"/>
+    <col min="13" max="13" width="52.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="48" t="s">
         <v>1</v>
       </c>
@@ -4152,7 +4155,7 @@
         <v>204</v>
       </c>
       <c r="E1" s="51" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F1" s="51" t="s">
         <v>12</v>
@@ -4173,10 +4176,13 @@
         <v>344</v>
       </c>
       <c r="L1" s="45" t="s">
+        <v>359</v>
+      </c>
+      <c r="M1" s="45" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="53" t="s">
         <v>2</v>
       </c>
@@ -4197,215 +4203,207 @@
       </c>
       <c r="G2" s="66"/>
       <c r="H2" s="66"/>
-      <c r="I2" s="66" t="s">
-        <v>345</v>
-      </c>
-      <c r="J2" s="46" t="s">
-        <v>15</v>
-      </c>
+      <c r="I2" s="66"/>
+      <c r="J2" s="46"/>
       <c r="K2" s="66"/>
       <c r="L2" s="46" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="81" t="s">
+      <c r="M2" s="46" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="82" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="82" t="s">
+      <c r="B3" s="83" t="s">
         <v>314</v>
       </c>
-      <c r="C3" s="82" t="s">
+      <c r="C3" s="83" t="s">
         <v>311</v>
       </c>
-      <c r="D3" s="72" t="s">
+      <c r="D3" s="77" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="72" t="s">
+      <c r="E3" s="77" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="72" t="s">
+      <c r="F3" s="77" t="s">
         <v>301</v>
       </c>
       <c r="G3" s="66"/>
       <c r="H3" s="66"/>
-      <c r="I3" s="66" t="s">
-        <v>345</v>
-      </c>
-      <c r="J3" s="67" t="s">
+      <c r="I3" s="66"/>
+      <c r="J3" s="67"/>
+      <c r="K3" s="66"/>
+      <c r="L3" s="67" t="s">
         <v>300</v>
       </c>
-      <c r="K3" s="66"/>
-      <c r="L3" s="76" t="s">
+      <c r="M3" s="73" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="81"/>
-      <c r="B4" s="82"/>
-      <c r="C4" s="82"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="82"/>
+      <c r="B4" s="83"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
       <c r="G4" s="66"/>
       <c r="H4" s="66"/>
-      <c r="I4" s="66" t="s">
-        <v>345</v>
-      </c>
-      <c r="J4" s="67" t="s">
+      <c r="I4" s="66"/>
+      <c r="J4" s="67"/>
+      <c r="K4" s="66"/>
+      <c r="L4" s="67" t="s">
         <v>300</v>
       </c>
-      <c r="K4" s="66"/>
-      <c r="L4" s="77"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="81"/>
-      <c r="B5" s="82"/>
-      <c r="C5" s="82"/>
-      <c r="D5" s="72"/>
-      <c r="E5" s="72"/>
-      <c r="F5" s="72"/>
+      <c r="M4" s="74"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="82"/>
+      <c r="B5" s="83"/>
+      <c r="C5" s="83"/>
+      <c r="D5" s="77"/>
+      <c r="E5" s="77"/>
+      <c r="F5" s="77"/>
       <c r="G5" s="66"/>
       <c r="H5" s="66"/>
-      <c r="I5" s="66" t="s">
-        <v>345</v>
-      </c>
-      <c r="J5" s="67" t="s">
+      <c r="I5" s="66"/>
+      <c r="J5" s="67"/>
+      <c r="K5" s="66"/>
+      <c r="L5" s="67" t="s">
         <v>300</v>
       </c>
-      <c r="K5" s="66"/>
-      <c r="L5" s="77"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="81"/>
-      <c r="B6" s="82"/>
-      <c r="C6" s="82"/>
-      <c r="D6" s="72"/>
-      <c r="E6" s="72"/>
-      <c r="F6" s="72"/>
+      <c r="M5" s="74"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="82"/>
+      <c r="B6" s="83"/>
+      <c r="C6" s="83"/>
+      <c r="D6" s="77"/>
+      <c r="E6" s="77"/>
+      <c r="F6" s="77"/>
       <c r="G6" s="66"/>
       <c r="H6" s="66"/>
-      <c r="I6" s="66" t="s">
-        <v>345</v>
-      </c>
-      <c r="J6" s="67" t="s">
+      <c r="I6" s="66"/>
+      <c r="J6" s="67"/>
+      <c r="K6" s="66"/>
+      <c r="L6" s="67" t="s">
         <v>300</v>
       </c>
-      <c r="K6" s="66"/>
-      <c r="L6" s="77"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="81"/>
-      <c r="B7" s="82"/>
-      <c r="C7" s="82"/>
-      <c r="D7" s="72"/>
-      <c r="E7" s="72"/>
-      <c r="F7" s="72"/>
+      <c r="M6" s="74"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="82"/>
+      <c r="B7" s="83"/>
+      <c r="C7" s="83"/>
+      <c r="D7" s="77"/>
+      <c r="E7" s="77"/>
+      <c r="F7" s="77"/>
       <c r="G7" s="66"/>
       <c r="H7" s="66"/>
-      <c r="I7" s="66" t="s">
-        <v>345</v>
-      </c>
-      <c r="J7" s="67" t="s">
+      <c r="I7" s="66"/>
+      <c r="J7" s="67"/>
+      <c r="K7" s="66"/>
+      <c r="L7" s="67" t="s">
         <v>300</v>
       </c>
-      <c r="K7" s="66"/>
-      <c r="L7" s="77"/>
-    </row>
-    <row r="8" spans="1:12" ht="75" x14ac:dyDescent="0.25">
-      <c r="A8" s="81"/>
-      <c r="B8" s="82"/>
-      <c r="C8" s="82"/>
+      <c r="M7" s="74"/>
+    </row>
+    <row r="8" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="A8" s="82"/>
+      <c r="B8" s="83"/>
+      <c r="C8" s="83"/>
       <c r="D8" s="50" t="s">
         <v>22</v>
       </c>
       <c r="E8" s="70"/>
       <c r="F8" s="50" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G8" s="66"/>
       <c r="H8" s="66"/>
       <c r="I8" s="66" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="J8" s="66" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="K8" s="66"/>
-      <c r="L8" s="44"/>
-    </row>
-    <row r="9" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="81" t="s">
+      <c r="L8" s="72"/>
+      <c r="M8" s="44"/>
+    </row>
+    <row r="9" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="82" t="s">
         <v>224</v>
       </c>
-      <c r="B9" s="83" t="s">
+      <c r="B9" s="85" t="s">
         <v>316</v>
       </c>
-      <c r="C9" s="82" t="s">
+      <c r="C9" s="83" t="s">
         <v>315</v>
       </c>
-      <c r="D9" s="72" t="s">
+      <c r="D9" s="77" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="72" t="s">
+      <c r="E9" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="F9" s="72" t="s">
+      <c r="F9" s="77" t="s">
         <v>32</v>
       </c>
       <c r="G9" s="66"/>
       <c r="H9" s="66"/>
-      <c r="I9" s="66" t="s">
-        <v>345</v>
-      </c>
-      <c r="J9" s="67" t="s">
+      <c r="I9" s="66"/>
+      <c r="J9" s="67"/>
+      <c r="K9" s="66"/>
+      <c r="L9" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="K9" s="66"/>
-      <c r="L9" s="76" t="s">
+      <c r="M9" s="73" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="81"/>
-      <c r="B10" s="72"/>
-      <c r="C10" s="82"/>
-      <c r="D10" s="72"/>
-      <c r="E10" s="72"/>
-      <c r="F10" s="72"/>
+    <row r="10" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="82"/>
+      <c r="B10" s="77"/>
+      <c r="C10" s="83"/>
+      <c r="D10" s="77"/>
+      <c r="E10" s="77"/>
+      <c r="F10" s="77"/>
       <c r="G10" s="66"/>
       <c r="H10" s="66"/>
-      <c r="I10" s="66" t="s">
-        <v>345</v>
-      </c>
-      <c r="J10" s="67" t="s">
+      <c r="I10" s="66"/>
+      <c r="J10" s="67"/>
+      <c r="K10" s="66"/>
+      <c r="L10" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="K10" s="66"/>
-      <c r="L10" s="77"/>
-    </row>
-    <row r="11" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="81"/>
-      <c r="B11" s="72"/>
-      <c r="C11" s="82"/>
-      <c r="D11" s="72"/>
-      <c r="E11" s="72"/>
-      <c r="F11" s="72"/>
+      <c r="M10" s="74"/>
+    </row>
+    <row r="11" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="82"/>
+      <c r="B11" s="77"/>
+      <c r="C11" s="83"/>
+      <c r="D11" s="77"/>
+      <c r="E11" s="77"/>
+      <c r="F11" s="77"/>
       <c r="G11" s="66"/>
       <c r="H11" s="66"/>
-      <c r="I11" s="66" t="s">
-        <v>345</v>
-      </c>
-      <c r="J11" s="67" t="s">
+      <c r="I11" s="66"/>
+      <c r="J11" s="67"/>
+      <c r="K11" s="66"/>
+      <c r="L11" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="K11" s="66"/>
-      <c r="L11" s="77"/>
-    </row>
-    <row r="12" spans="1:12" ht="90" x14ac:dyDescent="0.25">
-      <c r="A12" s="81"/>
-      <c r="B12" s="72"/>
-      <c r="C12" s="82"/>
+      <c r="M11" s="74"/>
+    </row>
+    <row r="12" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+      <c r="A12" s="82"/>
+      <c r="B12" s="77"/>
+      <c r="C12" s="83"/>
       <c r="D12" s="50" t="s">
         <v>28</v>
       </c>
@@ -4417,19 +4415,18 @@
       </c>
       <c r="G12" s="66"/>
       <c r="H12" s="66"/>
-      <c r="I12" s="66" t="s">
-        <v>345</v>
-      </c>
-      <c r="J12" s="67" t="s">
+      <c r="I12" s="66"/>
+      <c r="J12" s="67"/>
+      <c r="K12" s="66"/>
+      <c r="L12" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="K12" s="66"/>
-      <c r="L12" s="77"/>
-    </row>
-    <row r="13" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="81"/>
-      <c r="B13" s="72"/>
-      <c r="C13" s="82"/>
+      <c r="M12" s="74"/>
+    </row>
+    <row r="13" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="82"/>
+      <c r="B13" s="77"/>
+      <c r="C13" s="83"/>
       <c r="D13" s="50" t="s">
         <v>29</v>
       </c>
@@ -4441,65 +4438,62 @@
       </c>
       <c r="G13" s="66"/>
       <c r="H13" s="66"/>
-      <c r="I13" s="66" t="s">
-        <v>345</v>
-      </c>
-      <c r="J13" s="67" t="s">
+      <c r="I13" s="66"/>
+      <c r="J13" s="67"/>
+      <c r="K13" s="66"/>
+      <c r="L13" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="K13" s="66"/>
-      <c r="L13" s="77"/>
-    </row>
-    <row r="14" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="81"/>
-      <c r="B14" s="72"/>
-      <c r="C14" s="82"/>
+      <c r="M13" s="74"/>
+    </row>
+    <row r="14" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="82"/>
+      <c r="B14" s="77"/>
+      <c r="C14" s="83"/>
       <c r="D14" s="50" t="s">
         <v>30</v>
       </c>
       <c r="E14" s="70"/>
-      <c r="F14" s="72" t="s">
+      <c r="F14" s="77" t="s">
         <v>39</v>
       </c>
       <c r="G14" s="66"/>
       <c r="H14" s="66"/>
-      <c r="I14" s="66" t="s">
-        <v>345</v>
-      </c>
-      <c r="J14" s="67" t="s">
+      <c r="I14" s="66"/>
+      <c r="J14" s="67"/>
+      <c r="K14" s="66"/>
+      <c r="L14" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="K14" s="66"/>
-      <c r="L14" s="77"/>
-    </row>
-    <row r="15" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="81"/>
-      <c r="B15" s="72"/>
-      <c r="C15" s="82"/>
+      <c r="M14" s="74"/>
+    </row>
+    <row r="15" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="82"/>
+      <c r="B15" s="77"/>
+      <c r="C15" s="83"/>
       <c r="D15" s="50" t="s">
         <v>31</v>
       </c>
       <c r="E15" s="70"/>
-      <c r="F15" s="72"/>
+      <c r="F15" s="77"/>
       <c r="G15" s="66"/>
       <c r="H15" s="66"/>
-      <c r="I15" s="66" t="s">
-        <v>345</v>
-      </c>
-      <c r="J15" s="67" t="s">
+      <c r="I15" s="66"/>
+      <c r="J15" s="67"/>
+      <c r="K15" s="66"/>
+      <c r="L15" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="K15" s="66"/>
-      <c r="L15" s="77"/>
-    </row>
-    <row r="16" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="81" t="s">
+      <c r="M15" s="74"/>
+    </row>
+    <row r="16" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="82" t="s">
         <v>41</v>
       </c>
-      <c r="B16" s="82" t="s">
+      <c r="B16" s="83" t="s">
         <v>275</v>
       </c>
-      <c r="C16" s="82" t="s">
+      <c r="C16" s="83" t="s">
         <v>276</v>
       </c>
       <c r="D16" s="50" t="s">
@@ -4511,21 +4505,20 @@
       </c>
       <c r="G16" s="66"/>
       <c r="H16" s="66"/>
-      <c r="I16" s="66" t="s">
-        <v>345</v>
-      </c>
-      <c r="J16" s="67" t="s">
+      <c r="I16" s="66"/>
+      <c r="J16" s="67"/>
+      <c r="K16" s="66"/>
+      <c r="L16" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="K16" s="66"/>
-      <c r="L16" s="76" t="s">
+      <c r="M16" s="73" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="81"/>
-      <c r="B17" s="82"/>
-      <c r="C17" s="82"/>
+    <row r="17" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="82"/>
+      <c r="B17" s="83"/>
+      <c r="C17" s="83"/>
       <c r="D17" s="50" t="s">
         <v>43</v>
       </c>
@@ -4535,19 +4528,18 @@
       </c>
       <c r="G17" s="66"/>
       <c r="H17" s="66"/>
-      <c r="I17" s="66" t="s">
-        <v>345</v>
-      </c>
-      <c r="J17" s="67" t="s">
+      <c r="I17" s="66"/>
+      <c r="J17" s="67"/>
+      <c r="K17" s="66"/>
+      <c r="L17" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="K17" s="66"/>
-      <c r="L17" s="76"/>
-    </row>
-    <row r="18" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="81"/>
-      <c r="B18" s="82"/>
-      <c r="C18" s="82"/>
+      <c r="M17" s="73"/>
+    </row>
+    <row r="18" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="82"/>
+      <c r="B18" s="83"/>
+      <c r="C18" s="83"/>
       <c r="D18" s="50" t="s">
         <v>44</v>
       </c>
@@ -4557,19 +4549,18 @@
       </c>
       <c r="G18" s="42"/>
       <c r="H18" s="42"/>
-      <c r="I18" s="66" t="s">
-        <v>345</v>
-      </c>
-      <c r="J18" s="67" t="s">
+      <c r="I18" s="66"/>
+      <c r="J18" s="67"/>
+      <c r="K18" s="42"/>
+      <c r="L18" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="K18" s="42"/>
-      <c r="L18" s="76"/>
-    </row>
-    <row r="19" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="81"/>
-      <c r="B19" s="82"/>
-      <c r="C19" s="82"/>
+      <c r="M18" s="73"/>
+    </row>
+    <row r="19" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="82"/>
+      <c r="B19" s="83"/>
+      <c r="C19" s="83"/>
       <c r="D19" s="50" t="s">
         <v>41</v>
       </c>
@@ -4579,19 +4570,18 @@
       </c>
       <c r="G19" s="66"/>
       <c r="H19" s="66"/>
-      <c r="I19" s="66" t="s">
-        <v>345</v>
-      </c>
-      <c r="J19" s="67" t="s">
+      <c r="I19" s="66"/>
+      <c r="J19" s="67"/>
+      <c r="K19" s="66"/>
+      <c r="L19" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="K19" s="66"/>
-      <c r="L19" s="76"/>
-    </row>
-    <row r="20" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="81"/>
-      <c r="B20" s="82"/>
-      <c r="C20" s="82"/>
+      <c r="M19" s="73"/>
+    </row>
+    <row r="20" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="82"/>
+      <c r="B20" s="83"/>
+      <c r="C20" s="83"/>
       <c r="D20" s="50" t="s">
         <v>45</v>
       </c>
@@ -4601,23 +4591,22 @@
       </c>
       <c r="G20" s="66"/>
       <c r="H20" s="66"/>
-      <c r="I20" s="66" t="s">
-        <v>345</v>
-      </c>
-      <c r="J20" s="67" t="s">
+      <c r="I20" s="66"/>
+      <c r="J20" s="67"/>
+      <c r="K20" s="66"/>
+      <c r="L20" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="K20" s="66"/>
-      <c r="L20" s="76"/>
-    </row>
-    <row r="21" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A21" s="81"/>
-      <c r="B21" s="82"/>
-      <c r="C21" s="82"/>
+      <c r="M20" s="73"/>
+    </row>
+    <row r="21" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A21" s="82"/>
+      <c r="B21" s="83"/>
+      <c r="C21" s="83"/>
       <c r="D21" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="E21" s="72" t="s">
+      <c r="E21" s="77" t="s">
         <v>225</v>
       </c>
       <c r="F21" s="50" t="s">
@@ -4625,42 +4614,40 @@
       </c>
       <c r="G21" s="66"/>
       <c r="H21" s="66"/>
-      <c r="I21" s="66" t="s">
-        <v>345</v>
-      </c>
-      <c r="J21" s="67" t="s">
+      <c r="I21" s="66"/>
+      <c r="J21" s="67"/>
+      <c r="K21" s="66"/>
+      <c r="L21" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="K21" s="66"/>
-      <c r="L21" s="76"/>
-    </row>
-    <row r="22" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A22" s="81"/>
-      <c r="B22" s="82"/>
-      <c r="C22" s="82"/>
-      <c r="D22" s="72" t="s">
+      <c r="M21" s="73"/>
+    </row>
+    <row r="22" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A22" s="82"/>
+      <c r="B22" s="83"/>
+      <c r="C22" s="83"/>
+      <c r="D22" s="77" t="s">
         <v>225</v>
       </c>
-      <c r="E22" s="72"/>
+      <c r="E22" s="77"/>
       <c r="F22" s="50" t="s">
         <v>53</v>
       </c>
       <c r="G22" s="66"/>
       <c r="H22" s="66"/>
-      <c r="I22" s="66" t="s">
-        <v>345</v>
-      </c>
-      <c r="J22" s="67" t="s">
+      <c r="I22" s="66"/>
+      <c r="J22" s="67"/>
+      <c r="K22" s="66"/>
+      <c r="L22" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="K22" s="66"/>
-      <c r="L22" s="76"/>
-    </row>
-    <row r="23" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A23" s="81"/>
-      <c r="B23" s="82"/>
-      <c r="C23" s="82"/>
-      <c r="D23" s="72"/>
+      <c r="M22" s="73"/>
+    </row>
+    <row r="23" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A23" s="82"/>
+      <c r="B23" s="83"/>
+      <c r="C23" s="83"/>
+      <c r="D23" s="77"/>
       <c r="E23" s="70" t="s">
         <v>226</v>
       </c>
@@ -4669,19 +4656,18 @@
       </c>
       <c r="G23" s="66"/>
       <c r="H23" s="66"/>
-      <c r="I23" s="66" t="s">
-        <v>345</v>
-      </c>
-      <c r="J23" s="67" t="s">
+      <c r="I23" s="66"/>
+      <c r="J23" s="67"/>
+      <c r="K23" s="66"/>
+      <c r="L23" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="K23" s="66"/>
-      <c r="L23" s="76"/>
-    </row>
-    <row r="24" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A24" s="81"/>
-      <c r="B24" s="82"/>
-      <c r="C24" s="82"/>
+      <c r="M23" s="73"/>
+    </row>
+    <row r="24" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A24" s="82"/>
+      <c r="B24" s="83"/>
+      <c r="C24" s="83"/>
       <c r="D24" s="50" t="s">
         <v>226</v>
       </c>
@@ -4693,45 +4679,43 @@
       </c>
       <c r="G24" s="66"/>
       <c r="H24" s="66"/>
-      <c r="I24" s="66" t="s">
-        <v>345</v>
-      </c>
-      <c r="J24" s="67" t="s">
+      <c r="I24" s="66"/>
+      <c r="J24" s="67"/>
+      <c r="K24" s="66"/>
+      <c r="L24" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="K24" s="66"/>
-      <c r="L24" s="76"/>
-    </row>
-    <row r="25" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="82" t="s">
+      <c r="M24" s="73"/>
+    </row>
+    <row r="25" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="83" t="s">
         <v>58</v>
       </c>
-      <c r="B25" s="82" t="s">
+      <c r="B25" s="83" t="s">
         <v>259</v>
       </c>
-      <c r="C25" s="82" t="s">
+      <c r="C25" s="83" t="s">
         <v>317</v>
       </c>
       <c r="D25" s="44"/>
       <c r="F25" s="50"/>
       <c r="G25" s="66"/>
       <c r="H25" s="66"/>
-      <c r="I25" s="66" t="s">
-        <v>345</v>
-      </c>
-      <c r="J25" s="67" t="s">
+      <c r="I25" s="66"/>
+      <c r="J25" s="67"/>
+      <c r="K25" s="66"/>
+      <c r="L25" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="K25" s="66"/>
-      <c r="L25" s="76" t="s">
+      <c r="M25" s="73" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="82"/>
-      <c r="B26" s="82"/>
-      <c r="C26" s="82"/>
-      <c r="D26" s="72" t="s">
+    <row r="26" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="83"/>
+      <c r="B26" s="83"/>
+      <c r="C26" s="83"/>
+      <c r="D26" s="77" t="s">
         <v>58</v>
       </c>
       <c r="E26" s="70"/>
@@ -4740,20 +4724,19 @@
       </c>
       <c r="G26" s="43"/>
       <c r="H26" s="43"/>
-      <c r="I26" s="66" t="s">
-        <v>345</v>
-      </c>
-      <c r="J26" s="67" t="s">
+      <c r="I26" s="66"/>
+      <c r="J26" s="67"/>
+      <c r="K26" s="43"/>
+      <c r="L26" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="K26" s="43"/>
-      <c r="L26" s="77"/>
-    </row>
-    <row r="27" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="82"/>
-      <c r="B27" s="82"/>
-      <c r="C27" s="82"/>
-      <c r="D27" s="72"/>
+      <c r="M26" s="74"/>
+    </row>
+    <row r="27" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="83"/>
+      <c r="B27" s="83"/>
+      <c r="C27" s="83"/>
+      <c r="D27" s="77"/>
       <c r="E27" s="70" t="s">
         <v>230</v>
       </c>
@@ -4762,19 +4745,18 @@
       </c>
       <c r="G27" s="66"/>
       <c r="H27" s="66"/>
-      <c r="I27" s="66" t="s">
-        <v>345</v>
-      </c>
-      <c r="J27" s="67" t="s">
+      <c r="I27" s="66"/>
+      <c r="J27" s="67"/>
+      <c r="K27" s="66"/>
+      <c r="L27" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="K27" s="66"/>
-      <c r="L27" s="77"/>
-    </row>
-    <row r="28" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A28" s="82"/>
-      <c r="B28" s="82"/>
-      <c r="C28" s="82"/>
+      <c r="M27" s="74"/>
+    </row>
+    <row r="28" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A28" s="83"/>
+      <c r="B28" s="83"/>
+      <c r="C28" s="83"/>
       <c r="D28" s="50" t="s">
         <v>227</v>
       </c>
@@ -4784,23 +4766,22 @@
       </c>
       <c r="G28" s="66"/>
       <c r="H28" s="66"/>
-      <c r="I28" s="66" t="s">
-        <v>345</v>
-      </c>
-      <c r="J28" s="67" t="s">
+      <c r="I28" s="66"/>
+      <c r="J28" s="67"/>
+      <c r="K28" s="66"/>
+      <c r="L28" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="K28" s="66"/>
-      <c r="L28" s="77"/>
-    </row>
-    <row r="29" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="82" t="s">
+      <c r="M28" s="74"/>
+    </row>
+    <row r="29" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="83" t="s">
         <v>66</v>
       </c>
-      <c r="B29" s="82" t="s">
+      <c r="B29" s="83" t="s">
         <v>277</v>
       </c>
-      <c r="C29" s="82" t="s">
+      <c r="C29" s="83" t="s">
         <v>278</v>
       </c>
       <c r="D29" s="50" t="s">
@@ -4812,21 +4793,20 @@
       </c>
       <c r="G29" s="42"/>
       <c r="H29" s="42"/>
-      <c r="I29" s="66" t="s">
-        <v>345</v>
-      </c>
-      <c r="J29" s="67" t="s">
+      <c r="I29" s="66"/>
+      <c r="J29" s="67"/>
+      <c r="K29" s="42"/>
+      <c r="L29" s="67" t="s">
         <v>302</v>
       </c>
-      <c r="K29" s="42"/>
-      <c r="L29" s="76" t="s">
+      <c r="M29" s="73" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="82"/>
-      <c r="B30" s="82"/>
-      <c r="C30" s="82"/>
+    <row r="30" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="83"/>
+      <c r="B30" s="83"/>
+      <c r="C30" s="83"/>
       <c r="D30" s="50" t="s">
         <v>67</v>
       </c>
@@ -4838,20 +4818,19 @@
       </c>
       <c r="G30" s="66"/>
       <c r="H30" s="66"/>
-      <c r="I30" s="66" t="s">
-        <v>345</v>
-      </c>
-      <c r="J30" s="67" t="s">
+      <c r="I30" s="66"/>
+      <c r="J30" s="67"/>
+      <c r="K30" s="66"/>
+      <c r="L30" s="67" t="s">
         <v>302</v>
       </c>
-      <c r="K30" s="66"/>
-      <c r="L30" s="77"/>
-    </row>
-    <row r="31" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="82"/>
-      <c r="B31" s="82"/>
-      <c r="C31" s="82"/>
-      <c r="D31" s="72" t="s">
+      <c r="M30" s="74"/>
+    </row>
+    <row r="31" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="83"/>
+      <c r="B31" s="83"/>
+      <c r="C31" s="83"/>
+      <c r="D31" s="77" t="s">
         <v>44</v>
       </c>
       <c r="E31" s="70"/>
@@ -4860,100 +4839,95 @@
       </c>
       <c r="G31" s="66"/>
       <c r="H31" s="66"/>
-      <c r="I31" s="66" t="s">
-        <v>345</v>
-      </c>
-      <c r="J31" s="67" t="s">
+      <c r="I31" s="66"/>
+      <c r="J31" s="67"/>
+      <c r="K31" s="66"/>
+      <c r="L31" s="67" t="s">
         <v>302</v>
       </c>
-      <c r="K31" s="66"/>
-      <c r="L31" s="77"/>
-    </row>
-    <row r="32" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="82"/>
-      <c r="B32" s="82"/>
-      <c r="C32" s="82"/>
-      <c r="D32" s="72"/>
+      <c r="M31" s="74"/>
+    </row>
+    <row r="32" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="83"/>
+      <c r="B32" s="83"/>
+      <c r="C32" s="83"/>
+      <c r="D32" s="77"/>
       <c r="E32" s="70"/>
       <c r="F32" s="50" t="s">
         <v>71</v>
       </c>
       <c r="G32" s="66"/>
       <c r="H32" s="66"/>
-      <c r="I32" s="66" t="s">
-        <v>345</v>
-      </c>
-      <c r="J32" s="67" t="s">
+      <c r="I32" s="66"/>
+      <c r="J32" s="67"/>
+      <c r="K32" s="66"/>
+      <c r="L32" s="67" t="s">
         <v>302</v>
       </c>
-      <c r="K32" s="66"/>
-      <c r="L32" s="77"/>
-    </row>
-    <row r="33" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A33" s="82"/>
-      <c r="B33" s="82"/>
-      <c r="C33" s="82"/>
-      <c r="D33" s="72"/>
+      <c r="M32" s="74"/>
+    </row>
+    <row r="33" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A33" s="83"/>
+      <c r="B33" s="83"/>
+      <c r="C33" s="83"/>
+      <c r="D33" s="77"/>
       <c r="E33" s="70"/>
       <c r="F33" s="50" t="s">
         <v>72</v>
       </c>
       <c r="G33" s="43"/>
       <c r="H33" s="43"/>
-      <c r="I33" s="66" t="s">
-        <v>345</v>
-      </c>
-      <c r="J33" s="67" t="s">
+      <c r="I33" s="66"/>
+      <c r="J33" s="67"/>
+      <c r="K33" s="43"/>
+      <c r="L33" s="67" t="s">
         <v>302</v>
       </c>
-      <c r="K33" s="43"/>
-      <c r="L33" s="77"/>
-    </row>
-    <row r="34" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A34" s="82"/>
-      <c r="B34" s="82"/>
-      <c r="C34" s="82"/>
-      <c r="D34" s="72"/>
+      <c r="M33" s="74"/>
+    </row>
+    <row r="34" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A34" s="83"/>
+      <c r="B34" s="83"/>
+      <c r="C34" s="83"/>
+      <c r="D34" s="77"/>
       <c r="E34" s="70"/>
       <c r="F34" s="50" t="s">
         <v>73</v>
       </c>
       <c r="G34" s="43"/>
       <c r="H34" s="43"/>
-      <c r="I34" s="66" t="s">
-        <v>345</v>
-      </c>
-      <c r="J34" s="67" t="s">
+      <c r="I34" s="66"/>
+      <c r="J34" s="67"/>
+      <c r="K34" s="43"/>
+      <c r="L34" s="67" t="s">
         <v>302</v>
       </c>
-      <c r="K34" s="43"/>
-      <c r="L34" s="77"/>
-    </row>
-    <row r="35" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="82"/>
-      <c r="B35" s="82"/>
-      <c r="C35" s="82"/>
-      <c r="D35" s="72"/>
+      <c r="M34" s="74"/>
+    </row>
+    <row r="35" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="83"/>
+      <c r="B35" s="83"/>
+      <c r="C35" s="83"/>
+      <c r="D35" s="77"/>
       <c r="E35" s="70"/>
       <c r="F35" s="50" t="s">
         <v>74</v>
       </c>
       <c r="G35" s="43"/>
       <c r="H35" s="43"/>
-      <c r="I35" s="66" t="s">
-        <v>345</v>
-      </c>
-      <c r="J35" s="67" t="s">
+      <c r="I35" s="66"/>
+      <c r="J35" s="67"/>
+      <c r="K35" s="43"/>
+      <c r="L35" s="67" t="s">
         <v>302</v>
       </c>
-      <c r="K35" s="43"/>
-      <c r="L35" s="77"/>
-    </row>
-    <row r="36" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A36" s="82"/>
-      <c r="B36" s="82"/>
-      <c r="C36" s="82"/>
-      <c r="D36" s="72"/>
+      <c r="M35" s="74"/>
+    </row>
+    <row r="36" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A36" s="83"/>
+      <c r="B36" s="83"/>
+      <c r="C36" s="83"/>
+      <c r="D36" s="77"/>
       <c r="E36" s="70" t="s">
         <v>107</v>
       </c>
@@ -4962,23 +4936,22 @@
       </c>
       <c r="G36" s="43"/>
       <c r="H36" s="43"/>
-      <c r="I36" s="66" t="s">
-        <v>345</v>
-      </c>
-      <c r="J36" s="67" t="s">
+      <c r="I36" s="66"/>
+      <c r="J36" s="67"/>
+      <c r="K36" s="43"/>
+      <c r="L36" s="67" t="s">
         <v>302</v>
       </c>
-      <c r="K36" s="43"/>
-      <c r="L36" s="77"/>
-    </row>
-    <row r="37" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="82" t="s">
+      <c r="M36" s="74"/>
+    </row>
+    <row r="37" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" s="83" t="s">
         <v>77</v>
       </c>
-      <c r="B37" s="82" t="s">
+      <c r="B37" s="83" t="s">
         <v>318</v>
       </c>
-      <c r="C37" s="82" t="s">
+      <c r="C37" s="83" t="s">
         <v>279</v>
       </c>
       <c r="D37" s="50" t="s">
@@ -4988,7 +4961,7 @@
         <v>107</v>
       </c>
       <c r="F37" s="50" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="G37" s="66"/>
       <c r="H37" s="67" t="s">
@@ -4997,14 +4970,15 @@
       <c r="I37" s="66"/>
       <c r="J37" s="66"/>
       <c r="K37" s="66"/>
-      <c r="L37" s="76" t="s">
+      <c r="L37" s="72"/>
+      <c r="M37" s="73" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A38" s="82"/>
-      <c r="B38" s="82"/>
-      <c r="C38" s="82"/>
+    <row r="38" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A38" s="83"/>
+      <c r="B38" s="83"/>
+      <c r="C38" s="83"/>
       <c r="D38" s="50" t="s">
         <v>231</v>
       </c>
@@ -5014,23 +4988,22 @@
       </c>
       <c r="G38" s="66"/>
       <c r="H38" s="66"/>
-      <c r="I38" s="66" t="s">
-        <v>345</v>
-      </c>
-      <c r="J38" s="67" t="s">
+      <c r="I38" s="66"/>
+      <c r="J38" s="67"/>
+      <c r="K38" s="66"/>
+      <c r="L38" s="67" t="s">
         <v>303</v>
       </c>
-      <c r="K38" s="66"/>
-      <c r="L38" s="77"/>
-    </row>
-    <row r="39" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39" s="82" t="s">
+      <c r="M38" s="74"/>
+    </row>
+    <row r="39" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A39" s="83" t="s">
         <v>80</v>
       </c>
-      <c r="B39" s="82" t="s">
+      <c r="B39" s="83" t="s">
         <v>280</v>
       </c>
-      <c r="C39" s="82" t="s">
+      <c r="C39" s="83" t="s">
         <v>281</v>
       </c>
       <c r="D39" s="50" t="s">
@@ -5042,20 +5015,19 @@
       <c r="F39" s="50" t="s">
         <v>233</v>
       </c>
-      <c r="I39" s="66" t="s">
-        <v>345</v>
-      </c>
-      <c r="J39" s="47" t="s">
+      <c r="I39" s="66"/>
+      <c r="J39" s="47"/>
+      <c r="L39" s="47" t="s">
         <v>304</v>
       </c>
-      <c r="L39" s="76" t="s">
+      <c r="M39" s="73" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="82"/>
-      <c r="B40" s="82"/>
-      <c r="C40" s="82"/>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40" s="83"/>
+      <c r="B40" s="83"/>
+      <c r="C40" s="83"/>
       <c r="D40" s="50" t="s">
         <v>82</v>
       </c>
@@ -5063,18 +5035,17 @@
       <c r="F40" s="50" t="s">
         <v>89</v>
       </c>
-      <c r="I40" s="66" t="s">
-        <v>345</v>
-      </c>
-      <c r="J40" s="47" t="s">
+      <c r="I40" s="66"/>
+      <c r="J40" s="47"/>
+      <c r="L40" s="47" t="s">
         <v>304</v>
       </c>
-      <c r="L40" s="77"/>
-    </row>
-    <row r="41" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="82"/>
-      <c r="B41" s="82"/>
-      <c r="C41" s="82"/>
+      <c r="M40" s="74"/>
+    </row>
+    <row r="41" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="83"/>
+      <c r="B41" s="83"/>
+      <c r="C41" s="83"/>
       <c r="D41" s="50" t="s">
         <v>83</v>
       </c>
@@ -5086,20 +5057,19 @@
       </c>
       <c r="G41" s="66"/>
       <c r="H41" s="66"/>
-      <c r="I41" s="66" t="s">
-        <v>345</v>
-      </c>
-      <c r="J41" s="47" t="s">
+      <c r="I41" s="66"/>
+      <c r="J41" s="47"/>
+      <c r="K41" s="66"/>
+      <c r="L41" s="47" t="s">
         <v>304</v>
       </c>
-      <c r="K41" s="66"/>
-      <c r="L41" s="77"/>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" s="82"/>
-      <c r="B42" s="82"/>
-      <c r="C42" s="82"/>
-      <c r="D42" s="72" t="s">
+      <c r="M41" s="74"/>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A42" s="83"/>
+      <c r="B42" s="83"/>
+      <c r="C42" s="83"/>
+      <c r="D42" s="77" t="s">
         <v>85</v>
       </c>
       <c r="E42" s="70"/>
@@ -5108,216 +5078,204 @@
       </c>
       <c r="G42" s="66"/>
       <c r="H42" s="66"/>
-      <c r="I42" s="66" t="s">
-        <v>345</v>
-      </c>
-      <c r="J42" s="47" t="s">
+      <c r="I42" s="66"/>
+      <c r="J42" s="47"/>
+      <c r="K42" s="66"/>
+      <c r="L42" s="47" t="s">
         <v>304</v>
       </c>
-      <c r="K42" s="66"/>
-      <c r="L42" s="77"/>
-    </row>
-    <row r="43" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A43" s="82"/>
-      <c r="B43" s="82"/>
-      <c r="C43" s="82"/>
-      <c r="D43" s="72"/>
+      <c r="M42" s="74"/>
+    </row>
+    <row r="43" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A43" s="83"/>
+      <c r="B43" s="83"/>
+      <c r="C43" s="83"/>
+      <c r="D43" s="77"/>
       <c r="E43" s="70"/>
       <c r="F43" s="50" t="s">
         <v>93</v>
       </c>
       <c r="G43" s="66"/>
       <c r="H43" s="66"/>
-      <c r="I43" s="66" t="s">
-        <v>345</v>
-      </c>
-      <c r="J43" s="47" t="s">
+      <c r="I43" s="66"/>
+      <c r="J43" s="47"/>
+      <c r="K43" s="66"/>
+      <c r="L43" s="47" t="s">
         <v>304</v>
       </c>
-      <c r="K43" s="66"/>
-      <c r="L43" s="77"/>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="82"/>
-      <c r="B44" s="82"/>
-      <c r="C44" s="82"/>
-      <c r="D44" s="72"/>
+      <c r="M43" s="74"/>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A44" s="83"/>
+      <c r="B44" s="83"/>
+      <c r="C44" s="83"/>
+      <c r="D44" s="77"/>
       <c r="E44" s="70"/>
       <c r="F44" s="50" t="s">
         <v>94</v>
       </c>
       <c r="G44" s="66"/>
       <c r="H44" s="66"/>
-      <c r="I44" s="66" t="s">
-        <v>345</v>
-      </c>
-      <c r="J44" s="47" t="s">
+      <c r="I44" s="66"/>
+      <c r="J44" s="47"/>
+      <c r="K44" s="66"/>
+      <c r="L44" s="47" t="s">
         <v>304</v>
       </c>
-      <c r="K44" s="66"/>
-      <c r="L44" s="77"/>
-    </row>
-    <row r="45" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A45" s="82"/>
-      <c r="B45" s="82"/>
-      <c r="C45" s="82"/>
-      <c r="D45" s="72"/>
+      <c r="M44" s="74"/>
+    </row>
+    <row r="45" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A45" s="83"/>
+      <c r="B45" s="83"/>
+      <c r="C45" s="83"/>
+      <c r="D45" s="77"/>
       <c r="E45" s="70"/>
       <c r="F45" s="50" t="s">
         <v>95</v>
       </c>
-      <c r="I45" s="66" t="s">
-        <v>345</v>
-      </c>
-      <c r="J45" s="47" t="s">
+      <c r="I45" s="66"/>
+      <c r="J45" s="47"/>
+      <c r="L45" s="47" t="s">
         <v>304</v>
       </c>
-      <c r="L45" s="77"/>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A46" s="82"/>
-      <c r="B46" s="82"/>
-      <c r="C46" s="82"/>
-      <c r="D46" s="72"/>
+      <c r="M45" s="74"/>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A46" s="83"/>
+      <c r="B46" s="83"/>
+      <c r="C46" s="83"/>
+      <c r="D46" s="77"/>
       <c r="E46" s="70"/>
       <c r="F46" s="50" t="s">
         <v>96</v>
       </c>
-      <c r="I46" s="66" t="s">
-        <v>345</v>
-      </c>
-      <c r="J46" s="47" t="s">
+      <c r="I46" s="66"/>
+      <c r="J46" s="47"/>
+      <c r="L46" s="47" t="s">
         <v>304</v>
       </c>
-      <c r="L46" s="77"/>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" s="82"/>
-      <c r="B47" s="82"/>
-      <c r="C47" s="82"/>
-      <c r="D47" s="72"/>
+      <c r="M46" s="74"/>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A47" s="83"/>
+      <c r="B47" s="83"/>
+      <c r="C47" s="83"/>
+      <c r="D47" s="77"/>
       <c r="E47" s="70"/>
       <c r="F47" s="50" t="s">
         <v>97</v>
       </c>
-      <c r="I47" s="66" t="s">
-        <v>345</v>
-      </c>
-      <c r="J47" s="47" t="s">
+      <c r="I47" s="66"/>
+      <c r="J47" s="47"/>
+      <c r="L47" s="47" t="s">
         <v>304</v>
       </c>
-      <c r="L47" s="77"/>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A48" s="82"/>
-      <c r="B48" s="82"/>
-      <c r="C48" s="82"/>
-      <c r="D48" s="72"/>
+      <c r="M47" s="74"/>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A48" s="83"/>
+      <c r="B48" s="83"/>
+      <c r="C48" s="83"/>
+      <c r="D48" s="77"/>
       <c r="E48" s="70"/>
       <c r="F48" s="50" t="s">
         <v>98</v>
       </c>
-      <c r="I48" s="66" t="s">
-        <v>345</v>
-      </c>
-      <c r="J48" s="47" t="s">
+      <c r="I48" s="66"/>
+      <c r="J48" s="47"/>
+      <c r="L48" s="47" t="s">
         <v>304</v>
       </c>
-      <c r="L48" s="77"/>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A49" s="82"/>
-      <c r="B49" s="82"/>
-      <c r="C49" s="82"/>
-      <c r="D49" s="72"/>
+      <c r="M48" s="74"/>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A49" s="83"/>
+      <c r="B49" s="83"/>
+      <c r="C49" s="83"/>
+      <c r="D49" s="77"/>
       <c r="E49" s="70"/>
       <c r="F49" s="50" t="s">
         <v>99</v>
       </c>
-      <c r="I49" s="66" t="s">
-        <v>345</v>
-      </c>
-      <c r="J49" s="47" t="s">
+      <c r="I49" s="66"/>
+      <c r="J49" s="47"/>
+      <c r="L49" s="47" t="s">
         <v>304</v>
       </c>
-      <c r="L49" s="77"/>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A50" s="82"/>
-      <c r="B50" s="82"/>
-      <c r="C50" s="82"/>
-      <c r="D50" s="72"/>
+      <c r="M49" s="74"/>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A50" s="83"/>
+      <c r="B50" s="83"/>
+      <c r="C50" s="83"/>
+      <c r="D50" s="77"/>
       <c r="E50" s="70"/>
       <c r="F50" s="50" t="s">
         <v>100</v>
       </c>
-      <c r="I50" s="66" t="s">
-        <v>345</v>
-      </c>
-      <c r="J50" s="47" t="s">
+      <c r="I50" s="66"/>
+      <c r="J50" s="47"/>
+      <c r="L50" s="47" t="s">
         <v>304</v>
       </c>
-      <c r="L50" s="77"/>
-    </row>
-    <row r="51" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A51" s="82"/>
-      <c r="B51" s="82"/>
-      <c r="C51" s="82"/>
-      <c r="D51" s="72"/>
+      <c r="M50" s="74"/>
+    </row>
+    <row r="51" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A51" s="83"/>
+      <c r="B51" s="83"/>
+      <c r="C51" s="83"/>
+      <c r="D51" s="77"/>
       <c r="E51" s="70"/>
       <c r="F51" s="50" t="s">
         <v>101</v>
       </c>
-      <c r="I51" s="66" t="s">
-        <v>345</v>
-      </c>
-      <c r="J51" s="47" t="s">
+      <c r="I51" s="66"/>
+      <c r="J51" s="47"/>
+      <c r="L51" s="47" t="s">
         <v>304</v>
       </c>
-      <c r="L51" s="77"/>
-    </row>
-    <row r="52" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A52" s="82"/>
-      <c r="B52" s="82"/>
-      <c r="C52" s="82"/>
-      <c r="D52" s="72"/>
+      <c r="M51" s="74"/>
+    </row>
+    <row r="52" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A52" s="83"/>
+      <c r="B52" s="83"/>
+      <c r="C52" s="83"/>
+      <c r="D52" s="77"/>
       <c r="E52" s="70"/>
       <c r="F52" s="50" t="s">
         <v>102</v>
       </c>
-      <c r="I52" s="66" t="s">
-        <v>345</v>
-      </c>
-      <c r="J52" s="47" t="s">
+      <c r="I52" s="66"/>
+      <c r="J52" s="47"/>
+      <c r="L52" s="47" t="s">
         <v>304</v>
       </c>
-      <c r="L52" s="77"/>
-    </row>
-    <row r="53" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A53" s="82"/>
-      <c r="B53" s="82"/>
-      <c r="C53" s="82"/>
-      <c r="D53" s="72"/>
+      <c r="M52" s="74"/>
+    </row>
+    <row r="53" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A53" s="83"/>
+      <c r="B53" s="83"/>
+      <c r="C53" s="83"/>
+      <c r="D53" s="77"/>
       <c r="E53" s="70"/>
       <c r="F53" s="50" t="s">
         <v>103</v>
       </c>
-      <c r="I53" s="66" t="s">
-        <v>345</v>
-      </c>
-      <c r="J53" s="47" t="s">
+      <c r="I53" s="66"/>
+      <c r="J53" s="47"/>
+      <c r="L53" s="47" t="s">
         <v>304</v>
       </c>
-      <c r="L53" s="77"/>
-    </row>
-    <row r="54" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A54" s="82" t="s">
+      <c r="M53" s="74"/>
+    </row>
+    <row r="54" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A54" s="83" t="s">
         <v>195</v>
       </c>
-      <c r="B54" s="82" t="s">
+      <c r="B54" s="83" t="s">
         <v>282</v>
       </c>
-      <c r="C54" s="82" t="s">
+      <c r="C54" s="83" t="s">
         <v>283</v>
       </c>
       <c r="D54" s="50" t="s">
@@ -5327,20 +5285,19 @@
       <c r="F54" s="50" t="s">
         <v>109</v>
       </c>
-      <c r="I54" s="66" t="s">
-        <v>345</v>
-      </c>
-      <c r="J54" s="67" t="s">
-        <v>350</v>
-      </c>
-      <c r="L54" s="84" t="s">
+      <c r="I54" s="66"/>
+      <c r="J54" s="67"/>
+      <c r="L54" s="67" t="s">
+        <v>349</v>
+      </c>
+      <c r="M54" s="84" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A55" s="82"/>
-      <c r="B55" s="82"/>
-      <c r="C55" s="82"/>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A55" s="83"/>
+      <c r="B55" s="83"/>
+      <c r="C55" s="83"/>
       <c r="D55" s="50" t="s">
         <v>106</v>
       </c>
@@ -5348,242 +5305,228 @@
       <c r="F55" s="50" t="s">
         <v>234</v>
       </c>
-      <c r="I55" s="66" t="s">
-        <v>345</v>
-      </c>
-      <c r="J55" s="47" t="s">
-        <v>350</v>
-      </c>
-      <c r="L55" s="77"/>
-    </row>
-    <row r="56" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A56" s="82"/>
-      <c r="B56" s="82"/>
-      <c r="C56" s="82"/>
+      <c r="I55" s="66"/>
+      <c r="J55" s="47"/>
+      <c r="L55" s="47" t="s">
+        <v>349</v>
+      </c>
+      <c r="M55" s="74"/>
+    </row>
+    <row r="56" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A56" s="83"/>
+      <c r="B56" s="83"/>
+      <c r="C56" s="83"/>
       <c r="D56" s="50" t="s">
         <v>107</v>
       </c>
-      <c r="E56" s="72" t="s">
+      <c r="E56" s="77" t="s">
         <v>153</v>
       </c>
       <c r="F56" s="50" t="s">
         <v>111</v>
       </c>
-      <c r="I56" s="66" t="s">
-        <v>345</v>
-      </c>
-      <c r="J56" s="67" t="s">
+      <c r="I56" s="66"/>
+      <c r="J56" s="67"/>
+      <c r="L56" s="67" t="s">
+        <v>349</v>
+      </c>
+      <c r="M56" s="74"/>
+    </row>
+    <row r="57" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A57" s="83"/>
+      <c r="B57" s="83"/>
+      <c r="C57" s="83"/>
+      <c r="D57" s="77" t="s">
+        <v>108</v>
+      </c>
+      <c r="E57" s="77"/>
+      <c r="F57" s="50" t="s">
         <v>350</v>
       </c>
-      <c r="L56" s="77"/>
-    </row>
-    <row r="57" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A57" s="82"/>
-      <c r="B57" s="82"/>
-      <c r="C57" s="82"/>
-      <c r="D57" s="72" t="s">
-        <v>108</v>
-      </c>
-      <c r="E57" s="72"/>
-      <c r="F57" s="50" t="s">
-        <v>351</v>
-      </c>
-      <c r="I57" s="66" t="s">
-        <v>345</v>
-      </c>
-      <c r="J57" s="47" t="s">
-        <v>350</v>
-      </c>
-      <c r="L57" s="77"/>
-    </row>
-    <row r="58" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A58" s="82"/>
-      <c r="B58" s="82"/>
-      <c r="C58" s="82"/>
-      <c r="D58" s="72"/>
-      <c r="E58" s="72"/>
+      <c r="I57" s="66"/>
+      <c r="J57" s="47"/>
+      <c r="L57" s="47" t="s">
+        <v>349</v>
+      </c>
+      <c r="M57" s="74"/>
+    </row>
+    <row r="58" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A58" s="83"/>
+      <c r="B58" s="83"/>
+      <c r="C58" s="83"/>
+      <c r="D58" s="77"/>
+      <c r="E58" s="77"/>
       <c r="F58" s="50" t="s">
         <v>71</v>
       </c>
-      <c r="I58" s="66" t="s">
-        <v>345</v>
-      </c>
-      <c r="J58" s="47" t="s">
-        <v>350</v>
-      </c>
-      <c r="L58" s="77"/>
-    </row>
-    <row r="59" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A59" s="82"/>
-      <c r="B59" s="82"/>
-      <c r="C59" s="82"/>
-      <c r="D59" s="72"/>
-      <c r="E59" s="72"/>
+      <c r="I58" s="66"/>
+      <c r="J58" s="47"/>
+      <c r="L58" s="47" t="s">
+        <v>349</v>
+      </c>
+      <c r="M58" s="74"/>
+    </row>
+    <row r="59" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A59" s="83"/>
+      <c r="B59" s="83"/>
+      <c r="C59" s="83"/>
+      <c r="D59" s="77"/>
+      <c r="E59" s="77"/>
       <c r="F59" s="50" t="s">
         <v>112</v>
       </c>
-      <c r="I59" s="66" t="s">
-        <v>345</v>
-      </c>
-      <c r="J59" s="47" t="s">
-        <v>350</v>
-      </c>
-      <c r="L59" s="77"/>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A60" s="82"/>
-      <c r="B60" s="82"/>
-      <c r="C60" s="82"/>
-      <c r="D60" s="72"/>
-      <c r="E60" s="72"/>
+      <c r="I59" s="66"/>
+      <c r="J59" s="47"/>
+      <c r="L59" s="47" t="s">
+        <v>349</v>
+      </c>
+      <c r="M59" s="74"/>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A60" s="83"/>
+      <c r="B60" s="83"/>
+      <c r="C60" s="83"/>
+      <c r="D60" s="77"/>
+      <c r="E60" s="77"/>
       <c r="F60" s="50" t="s">
         <v>113</v>
       </c>
-      <c r="I60" s="66" t="s">
-        <v>345</v>
-      </c>
-      <c r="J60" s="47" t="s">
-        <v>350</v>
-      </c>
-      <c r="L60" s="77"/>
-    </row>
-    <row r="61" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A61" s="82"/>
-      <c r="B61" s="82"/>
-      <c r="C61" s="82"/>
-      <c r="D61" s="72"/>
+      <c r="I60" s="66"/>
+      <c r="J60" s="47"/>
+      <c r="L60" s="47" t="s">
+        <v>349</v>
+      </c>
+      <c r="M60" s="74"/>
+    </row>
+    <row r="61" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A61" s="83"/>
+      <c r="B61" s="83"/>
+      <c r="C61" s="83"/>
+      <c r="D61" s="77"/>
       <c r="E61" s="70"/>
       <c r="F61" s="50" t="s">
         <v>114</v>
       </c>
-      <c r="I61" s="66" t="s">
-        <v>345</v>
-      </c>
-      <c r="J61" s="47" t="s">
-        <v>350</v>
-      </c>
-      <c r="L61" s="77"/>
-    </row>
-    <row r="62" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A62" s="82"/>
-      <c r="B62" s="82"/>
-      <c r="C62" s="82"/>
-      <c r="D62" s="72"/>
+      <c r="I61" s="66"/>
+      <c r="J61" s="47"/>
+      <c r="L61" s="47" t="s">
+        <v>349</v>
+      </c>
+      <c r="M61" s="74"/>
+    </row>
+    <row r="62" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A62" s="83"/>
+      <c r="B62" s="83"/>
+      <c r="C62" s="83"/>
+      <c r="D62" s="77"/>
       <c r="E62" s="70"/>
       <c r="F62" s="50" t="s">
         <v>115</v>
       </c>
-      <c r="I62" s="66" t="s">
-        <v>345</v>
-      </c>
-      <c r="J62" s="47" t="s">
-        <v>350</v>
-      </c>
-      <c r="L62" s="77"/>
-    </row>
-    <row r="63" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A63" s="82"/>
-      <c r="B63" s="82"/>
-      <c r="C63" s="82"/>
-      <c r="D63" s="72"/>
-      <c r="E63" s="72" t="s">
+      <c r="I62" s="66"/>
+      <c r="J62" s="47"/>
+      <c r="L62" s="47" t="s">
+        <v>349</v>
+      </c>
+      <c r="M62" s="74"/>
+    </row>
+    <row r="63" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A63" s="83"/>
+      <c r="B63" s="83"/>
+      <c r="C63" s="83"/>
+      <c r="D63" s="77"/>
+      <c r="E63" s="77" t="s">
         <v>153</v>
       </c>
       <c r="F63" s="50" t="s">
         <v>116</v>
       </c>
-      <c r="I63" s="44" t="s">
-        <v>345</v>
-      </c>
-      <c r="J63" s="47" t="s">
-        <v>350</v>
-      </c>
-      <c r="L63" s="77"/>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A64" s="82" t="s">
+      <c r="J63" s="47"/>
+      <c r="L63" s="47" t="s">
+        <v>349</v>
+      </c>
+      <c r="M63" s="74"/>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A64" s="83" t="s">
         <v>117</v>
       </c>
-      <c r="B64" s="82" t="s">
+      <c r="B64" s="83" t="s">
         <v>319</v>
       </c>
-      <c r="C64" s="82" t="s">
+      <c r="C64" s="83" t="s">
         <v>321</v>
       </c>
-      <c r="D64" s="72" t="s">
+      <c r="D64" s="77" t="s">
         <v>120</v>
       </c>
-      <c r="E64" s="72"/>
-      <c r="F64" s="72" t="s">
+      <c r="E64" s="77"/>
+      <c r="F64" s="77" t="s">
         <v>235</v>
       </c>
-      <c r="I64" s="66" t="s">
-        <v>345</v>
-      </c>
-      <c r="J64" s="47" t="s">
-        <v>350</v>
-      </c>
-      <c r="L64" s="84" t="s">
+      <c r="I64" s="66"/>
+      <c r="J64" s="47"/>
+      <c r="L64" s="47" t="s">
+        <v>349</v>
+      </c>
+      <c r="M64" s="84" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A65" s="82"/>
-      <c r="B65" s="82"/>
-      <c r="C65" s="82"/>
-      <c r="D65" s="72"/>
-      <c r="E65" s="72"/>
-      <c r="F65" s="72"/>
-      <c r="I65" s="66" t="s">
-        <v>345</v>
-      </c>
-      <c r="J65" s="47" t="s">
-        <v>350</v>
-      </c>
-      <c r="L65" s="77"/>
-    </row>
-    <row r="66" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A66" s="82"/>
-      <c r="B66" s="82"/>
-      <c r="C66" s="82"/>
-      <c r="D66" s="72"/>
-      <c r="E66" s="72"/>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A65" s="83"/>
+      <c r="B65" s="83"/>
+      <c r="C65" s="83"/>
+      <c r="D65" s="77"/>
+      <c r="E65" s="77"/>
+      <c r="F65" s="77"/>
+      <c r="I65" s="66"/>
+      <c r="J65" s="47"/>
+      <c r="L65" s="47" t="s">
+        <v>349</v>
+      </c>
+      <c r="M65" s="74"/>
+    </row>
+    <row r="66" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A66" s="83"/>
+      <c r="B66" s="83"/>
+      <c r="C66" s="83"/>
+      <c r="D66" s="77"/>
+      <c r="E66" s="77"/>
       <c r="F66" s="50" t="s">
         <v>112</v>
       </c>
-      <c r="I66" s="66" t="s">
-        <v>345</v>
-      </c>
-      <c r="J66" s="47" t="s">
-        <v>350</v>
-      </c>
-      <c r="L66" s="77"/>
-    </row>
-    <row r="67" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A67" s="82"/>
-      <c r="B67" s="82"/>
-      <c r="C67" s="82"/>
-      <c r="D67" s="72"/>
-      <c r="E67" s="72"/>
+      <c r="I66" s="66"/>
+      <c r="J66" s="47"/>
+      <c r="L66" s="47" t="s">
+        <v>349</v>
+      </c>
+      <c r="M66" s="74"/>
+    </row>
+    <row r="67" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A67" s="83"/>
+      <c r="B67" s="83"/>
+      <c r="C67" s="83"/>
+      <c r="D67" s="77"/>
+      <c r="E67" s="77"/>
       <c r="F67" s="50" t="s">
         <v>124</v>
       </c>
-      <c r="I67" s="66" t="s">
-        <v>345</v>
-      </c>
-      <c r="J67" s="47" t="s">
-        <v>350</v>
-      </c>
-      <c r="L67" s="77"/>
-    </row>
-    <row r="68" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A68" s="82" t="s">
+      <c r="I67" s="66"/>
+      <c r="J67" s="47"/>
+      <c r="L67" s="47" t="s">
+        <v>349</v>
+      </c>
+      <c r="M67" s="74"/>
+    </row>
+    <row r="68" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A68" s="83" t="s">
         <v>125</v>
       </c>
-      <c r="B68" s="82" t="s">
+      <c r="B68" s="83" t="s">
         <v>320</v>
       </c>
-      <c r="C68" s="82" t="s">
+      <c r="C68" s="83" t="s">
         <v>284</v>
       </c>
       <c r="D68" s="50" t="s">
@@ -5593,143 +5536,138 @@
       <c r="F68" s="50" t="s">
         <v>115</v>
       </c>
-      <c r="I68" s="66" t="s">
-        <v>345</v>
-      </c>
-      <c r="J68" s="47" t="s">
-        <v>350</v>
-      </c>
-      <c r="L68" s="76" t="s">
+      <c r="I68" s="66"/>
+      <c r="J68" s="47"/>
+      <c r="L68" s="47" t="s">
+        <v>349</v>
+      </c>
+      <c r="M68" s="73" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="69" spans="1:12" ht="90" x14ac:dyDescent="0.25">
-      <c r="A69" s="82"/>
-      <c r="B69" s="77"/>
-      <c r="C69" s="77"/>
+    <row r="69" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+      <c r="A69" s="83"/>
+      <c r="B69" s="74"/>
+      <c r="C69" s="74"/>
       <c r="D69" s="50" t="s">
         <v>127</v>
       </c>
-      <c r="E69" s="72" t="s">
+      <c r="E69" s="77" t="s">
         <v>153</v>
       </c>
       <c r="F69" s="50" t="s">
         <v>111</v>
       </c>
       <c r="G69" s="66" t="s">
-        <v>352</v>
-      </c>
-      <c r="I69" s="66" t="s">
-        <v>345</v>
-      </c>
-      <c r="J69" s="47" t="s">
-        <v>350</v>
-      </c>
-      <c r="L69" s="77"/>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A70" s="82"/>
-      <c r="B70" s="77"/>
-      <c r="C70" s="77"/>
+        <v>351</v>
+      </c>
+      <c r="I69" s="66"/>
+      <c r="J69" s="47"/>
+      <c r="L69" s="47" t="s">
+        <v>349</v>
+      </c>
+      <c r="M69" s="74"/>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A70" s="83"/>
+      <c r="B70" s="74"/>
+      <c r="C70" s="74"/>
       <c r="D70" s="50" t="s">
         <v>128</v>
       </c>
-      <c r="E70" s="72"/>
+      <c r="E70" s="77"/>
       <c r="F70" s="50" t="s">
+        <v>352</v>
+      </c>
+      <c r="I70" s="66" t="s">
         <v>353</v>
       </c>
-      <c r="I70" s="66" t="s">
+      <c r="J70" s="47" t="s">
         <v>354</v>
       </c>
-      <c r="J70" s="47" t="s">
-        <v>355</v>
-      </c>
-      <c r="L70" s="77"/>
-    </row>
-    <row r="71" spans="1:12" s="44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="82"/>
-      <c r="B71" s="77"/>
-      <c r="C71" s="77"/>
+      <c r="L70" s="47"/>
+      <c r="M70" s="74"/>
+    </row>
+    <row r="71" spans="1:13" s="44" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="83"/>
+      <c r="B71" s="74"/>
+      <c r="C71" s="74"/>
       <c r="D71" s="68"/>
-      <c r="E71" s="72"/>
+      <c r="E71" s="77"/>
       <c r="F71" s="57" t="s">
         <v>242</v>
       </c>
-      <c r="I71" s="66" t="s">
-        <v>345</v>
-      </c>
-      <c r="J71" s="47" t="s">
-        <v>350</v>
-      </c>
-      <c r="L71" s="77"/>
-    </row>
-    <row r="72" spans="1:12" s="44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="82"/>
-      <c r="B72" s="77"/>
-      <c r="C72" s="77"/>
+      <c r="I71" s="66"/>
+      <c r="J71" s="47"/>
+      <c r="L71" s="47" t="s">
+        <v>349</v>
+      </c>
+      <c r="M71" s="74"/>
+    </row>
+    <row r="72" spans="1:13" s="44" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="83"/>
+      <c r="B72" s="74"/>
+      <c r="C72" s="74"/>
       <c r="D72" s="68"/>
-      <c r="E72" s="72"/>
+      <c r="E72" s="77"/>
       <c r="F72" s="57" t="s">
         <v>243</v>
       </c>
-      <c r="I72" s="66" t="s">
-        <v>345</v>
-      </c>
-      <c r="J72" s="47" t="s">
-        <v>356</v>
-      </c>
-      <c r="L72" s="77"/>
-    </row>
-    <row r="73" spans="1:12" s="44" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A73" s="82"/>
-      <c r="B73" s="77"/>
-      <c r="C73" s="77"/>
+      <c r="I72" s="66"/>
+      <c r="J72" s="47"/>
+      <c r="L72" s="47" t="s">
+        <v>355</v>
+      </c>
+      <c r="M72" s="74"/>
+    </row>
+    <row r="73" spans="1:13" s="44" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A73" s="83"/>
+      <c r="B73" s="74"/>
+      <c r="C73" s="74"/>
       <c r="D73" s="68"/>
-      <c r="E73" s="72"/>
+      <c r="E73" s="77"/>
       <c r="F73" s="57" t="s">
         <v>168</v>
       </c>
-      <c r="I73" s="66" t="s">
-        <v>345</v>
-      </c>
-      <c r="J73" s="47" t="s">
+      <c r="I73" s="66"/>
+      <c r="J73" s="47"/>
+      <c r="L73" s="47" t="s">
         <v>200</v>
       </c>
-      <c r="L73" s="77"/>
-    </row>
-    <row r="74" spans="1:12" s="44" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A74" s="82"/>
-      <c r="B74" s="77"/>
-      <c r="C74" s="77"/>
+      <c r="M73" s="74"/>
+    </row>
+    <row r="74" spans="1:13" s="44" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A74" s="83"/>
+      <c r="B74" s="74"/>
+      <c r="C74" s="74"/>
       <c r="D74" s="68"/>
       <c r="E74" s="70"/>
       <c r="F74" s="57" t="s">
         <v>169</v>
       </c>
-      <c r="I74" s="66" t="s">
-        <v>345</v>
-      </c>
-      <c r="J74" s="47" t="s">
+      <c r="I74" s="66"/>
+      <c r="J74" s="47"/>
+      <c r="L74" s="47" t="s">
         <v>200</v>
       </c>
-      <c r="L74" s="77"/>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A75" s="82"/>
-      <c r="B75" s="77"/>
-      <c r="C75" s="77"/>
+      <c r="M74" s="74"/>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A75" s="83"/>
+      <c r="B75" s="74"/>
+      <c r="C75" s="74"/>
       <c r="D75" s="69"/>
       <c r="F75" s="57"/>
-      <c r="L75" s="77"/>
-    </row>
-    <row r="76" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A76" s="82" t="s">
+      <c r="M75" s="74"/>
+    </row>
+    <row r="76" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A76" s="83" t="s">
         <v>132</v>
       </c>
-      <c r="B76" s="82" t="s">
+      <c r="B76" s="83" t="s">
         <v>285</v>
       </c>
-      <c r="C76" s="82" t="s">
+      <c r="C76" s="83" t="s">
         <v>286</v>
       </c>
       <c r="D76" s="50" t="s">
@@ -5741,20 +5679,19 @@
       <c r="F76" s="57" t="s">
         <v>115</v>
       </c>
-      <c r="I76" s="66" t="s">
-        <v>345</v>
-      </c>
-      <c r="J76" s="47" t="s">
-        <v>350</v>
-      </c>
-      <c r="L76" s="84" t="s">
+      <c r="I76" s="66"/>
+      <c r="J76" s="47"/>
+      <c r="L76" s="47" t="s">
+        <v>349</v>
+      </c>
+      <c r="M76" s="84" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="77" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="A77" s="82"/>
-      <c r="B77" s="82"/>
-      <c r="C77" s="82"/>
+    <row r="77" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A77" s="83"/>
+      <c r="B77" s="83"/>
+      <c r="C77" s="83"/>
       <c r="D77" s="50" t="s">
         <v>236</v>
       </c>
@@ -5764,87 +5701,82 @@
       <c r="F77" s="57" t="s">
         <v>140</v>
       </c>
-      <c r="I77" s="66" t="s">
-        <v>345</v>
-      </c>
-      <c r="J77" s="67" t="s">
-        <v>350</v>
-      </c>
-      <c r="L77" s="77"/>
-    </row>
-    <row r="78" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="82" t="s">
+      <c r="I77" s="66"/>
+      <c r="J77" s="67"/>
+      <c r="L77" s="67" t="s">
+        <v>349</v>
+      </c>
+      <c r="M77" s="74"/>
+    </row>
+    <row r="78" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="83" t="s">
         <v>141</v>
       </c>
-      <c r="B78" s="82" t="s">
+      <c r="B78" s="83" t="s">
         <v>287</v>
       </c>
-      <c r="C78" s="82" t="s">
+      <c r="C78" s="83" t="s">
         <v>288</v>
       </c>
-      <c r="D78" s="72" t="s">
+      <c r="D78" s="77" t="s">
         <v>237</v>
       </c>
       <c r="E78" s="70"/>
-      <c r="F78" s="72" t="s">
+      <c r="F78" s="77" t="s">
         <v>238</v>
       </c>
-      <c r="I78" s="66" t="s">
-        <v>345</v>
-      </c>
-      <c r="J78" s="67" t="s">
-        <v>350</v>
-      </c>
-      <c r="L78" s="84" t="s">
+      <c r="I78" s="66"/>
+      <c r="J78" s="67"/>
+      <c r="L78" s="67" t="s">
+        <v>349</v>
+      </c>
+      <c r="M78" s="84" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="79" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A79" s="82"/>
-      <c r="B79" s="82"/>
-      <c r="C79" s="82"/>
-      <c r="D79" s="72"/>
+    <row r="79" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A79" s="83"/>
+      <c r="B79" s="83"/>
+      <c r="C79" s="83"/>
+      <c r="D79" s="77"/>
       <c r="E79" s="70"/>
-      <c r="F79" s="72"/>
-      <c r="I79" s="66" t="s">
-        <v>345</v>
-      </c>
-      <c r="J79" s="67" t="s">
-        <v>350</v>
-      </c>
-      <c r="L79" s="77"/>
-    </row>
-    <row r="80" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A80" s="82"/>
-      <c r="B80" s="82"/>
-      <c r="C80" s="82"/>
-      <c r="D80" s="72"/>
+      <c r="F79" s="77"/>
+      <c r="I79" s="66"/>
+      <c r="J79" s="67"/>
+      <c r="L79" s="67" t="s">
+        <v>349</v>
+      </c>
+      <c r="M79" s="74"/>
+    </row>
+    <row r="80" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A80" s="83"/>
+      <c r="B80" s="83"/>
+      <c r="C80" s="83"/>
+      <c r="D80" s="77"/>
       <c r="E80" s="70"/>
-      <c r="F80" s="72"/>
-      <c r="I80" s="66" t="s">
-        <v>345</v>
-      </c>
-      <c r="J80" s="67" t="s">
-        <v>350</v>
-      </c>
-      <c r="L80" s="77"/>
-    </row>
-    <row r="81" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A81" s="82"/>
-      <c r="B81" s="82"/>
-      <c r="C81" s="82"/>
-      <c r="D81" s="72"/>
+      <c r="F80" s="77"/>
+      <c r="I80" s="66"/>
+      <c r="J80" s="67"/>
+      <c r="L80" s="67" t="s">
+        <v>349</v>
+      </c>
+      <c r="M80" s="74"/>
+    </row>
+    <row r="81" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A81" s="83"/>
+      <c r="B81" s="83"/>
+      <c r="C81" s="83"/>
+      <c r="D81" s="77"/>
       <c r="E81" s="70"/>
-      <c r="F81" s="72"/>
-      <c r="I81" s="66" t="s">
-        <v>345</v>
-      </c>
-      <c r="J81" s="67" t="s">
-        <v>350</v>
-      </c>
-      <c r="L81" s="77"/>
-    </row>
-    <row r="82" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="F81" s="77"/>
+      <c r="I81" s="66"/>
+      <c r="J81" s="67"/>
+      <c r="L81" s="67" t="s">
+        <v>349</v>
+      </c>
+      <c r="M81" s="74"/>
+    </row>
+    <row r="82" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A82" s="49" t="s">
         <v>146</v>
       </c>
@@ -5860,23 +5792,24 @@
         <v>123</v>
       </c>
       <c r="I82" s="66" t="s">
+        <v>356</v>
+      </c>
+      <c r="J82" s="67" t="s">
         <v>357</v>
       </c>
-      <c r="J82" s="67" t="s">
-        <v>358</v>
-      </c>
-      <c r="L82" s="61" t="s">
+      <c r="L82" s="67"/>
+      <c r="M82" s="61" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="83" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A83" s="82" t="s">
+    <row r="83" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A83" s="83" t="s">
         <v>289</v>
       </c>
-      <c r="B83" s="82" t="s">
+      <c r="B83" s="83" t="s">
         <v>290</v>
       </c>
-      <c r="C83" s="82" t="s">
+      <c r="C83" s="83" t="s">
         <v>291</v>
       </c>
       <c r="D83" s="50" t="s">
@@ -5886,147 +5819,141 @@
       <c r="F83" s="57" t="s">
         <v>154</v>
       </c>
-      <c r="I83" s="66" t="s">
-        <v>345</v>
-      </c>
-      <c r="J83" s="67" t="s">
+      <c r="I83" s="66"/>
+      <c r="J83" s="67"/>
+      <c r="L83" s="67" t="s">
         <v>307</v>
       </c>
-      <c r="L83" s="76" t="s">
+      <c r="M83" s="73" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="84" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A84" s="82"/>
-      <c r="B84" s="72"/>
-      <c r="C84" s="72"/>
-      <c r="D84" s="72" t="s">
+    <row r="84" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A84" s="83"/>
+      <c r="B84" s="77"/>
+      <c r="C84" s="77"/>
+      <c r="D84" s="77" t="s">
         <v>153</v>
       </c>
       <c r="E84" s="70"/>
       <c r="F84" s="50" t="s">
         <v>240</v>
       </c>
-      <c r="I84" s="66" t="s">
-        <v>345</v>
-      </c>
-      <c r="J84" s="67" t="s">
+      <c r="I84" s="66"/>
+      <c r="J84" s="67"/>
+      <c r="L84" s="67" t="s">
         <v>307</v>
       </c>
-      <c r="L84" s="77"/>
-    </row>
-    <row r="85" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A85" s="82"/>
-      <c r="B85" s="72"/>
-      <c r="C85" s="72"/>
-      <c r="D85" s="72"/>
+      <c r="M84" s="74"/>
+    </row>
+    <row r="85" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A85" s="83"/>
+      <c r="B85" s="77"/>
+      <c r="C85" s="77"/>
+      <c r="D85" s="77"/>
       <c r="E85" s="70"/>
-      <c r="F85" s="72" t="s">
+      <c r="F85" s="77" t="s">
         <v>241</v>
       </c>
-      <c r="I85" s="66" t="s">
-        <v>345</v>
-      </c>
-      <c r="J85" s="67" t="s">
+      <c r="I85" s="66"/>
+      <c r="J85" s="67"/>
+      <c r="L85" s="67" t="s">
         <v>307</v>
       </c>
-      <c r="L85" s="77"/>
-    </row>
-    <row r="86" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A86" s="82"/>
-      <c r="B86" s="72"/>
-      <c r="C86" s="72"/>
-      <c r="D86" s="72"/>
+      <c r="M85" s="74"/>
+    </row>
+    <row r="86" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A86" s="83"/>
+      <c r="B86" s="77"/>
+      <c r="C86" s="77"/>
+      <c r="D86" s="77"/>
       <c r="E86" s="70"/>
-      <c r="F86" s="72"/>
-      <c r="I86" s="66" t="s">
-        <v>345</v>
-      </c>
-      <c r="J86" s="67" t="s">
+      <c r="F86" s="77"/>
+      <c r="I86" s="66"/>
+      <c r="J86" s="67"/>
+      <c r="L86" s="67" t="s">
         <v>307</v>
       </c>
-      <c r="L86" s="77"/>
-    </row>
-    <row r="87" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A87" s="82"/>
-      <c r="B87" s="72"/>
-      <c r="C87" s="72"/>
-      <c r="D87" s="72"/>
+      <c r="M86" s="74"/>
+    </row>
+    <row r="87" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A87" s="83"/>
+      <c r="B87" s="77"/>
+      <c r="C87" s="77"/>
+      <c r="D87" s="77"/>
       <c r="E87" s="70"/>
-      <c r="F87" s="72"/>
-      <c r="I87" s="66" t="s">
-        <v>345</v>
-      </c>
-      <c r="J87" s="67" t="s">
+      <c r="F87" s="77"/>
+      <c r="I87" s="66"/>
+      <c r="J87" s="67"/>
+      <c r="L87" s="67" t="s">
         <v>307</v>
       </c>
-      <c r="L87" s="77"/>
-    </row>
-    <row r="88" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A88" s="82"/>
-      <c r="B88" s="72"/>
-      <c r="C88" s="72"/>
-      <c r="D88" s="72"/>
+      <c r="M87" s="74"/>
+    </row>
+    <row r="88" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A88" s="83"/>
+      <c r="B88" s="77"/>
+      <c r="C88" s="77"/>
+      <c r="D88" s="77"/>
       <c r="E88" s="70"/>
-      <c r="F88" s="72"/>
-      <c r="I88" s="66" t="s">
-        <v>345</v>
-      </c>
-      <c r="J88" s="67" t="s">
+      <c r="F88" s="77"/>
+      <c r="I88" s="66"/>
+      <c r="J88" s="67"/>
+      <c r="L88" s="67" t="s">
         <v>307</v>
       </c>
-      <c r="L88" s="77"/>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M88" s="74"/>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" s="58"/>
       <c r="B89" s="58"/>
       <c r="C89" s="58"/>
       <c r="D89" s="58"/>
       <c r="E89" s="70"/>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" s="58"/>
       <c r="B90" s="58"/>
       <c r="C90" s="58"/>
       <c r="D90" s="58"/>
       <c r="E90" s="70"/>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" s="58"/>
       <c r="B91" s="58"/>
       <c r="C91" s="58"/>
       <c r="D91" s="58"/>
       <c r="E91" s="70"/>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" s="58"/>
       <c r="B92" s="58"/>
       <c r="C92" s="58"/>
       <c r="D92" s="58"/>
       <c r="E92" s="70"/>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" s="58"/>
       <c r="B93" s="58"/>
       <c r="C93" s="58"/>
       <c r="D93" s="58"/>
       <c r="E93" s="70"/>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" s="58"/>
       <c r="B94" s="58"/>
       <c r="C94" s="58"/>
       <c r="D94" s="58"/>
       <c r="E94" s="70"/>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" s="58"/>
       <c r="B95" s="58"/>
       <c r="C95" s="58"/>
       <c r="D95" s="58"/>
       <c r="E95" s="70"/>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" s="58"/>
       <c r="B96" s="58"/>
       <c r="C96" s="58"/>
@@ -6042,64 +5969,6 @@
     </row>
   </sheetData>
   <mergeCells count="74">
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="E56:E60"/>
-    <mergeCell ref="E63:E67"/>
-    <mergeCell ref="E69:E73"/>
-    <mergeCell ref="L76:L77"/>
-    <mergeCell ref="L78:L81"/>
-    <mergeCell ref="L83:L88"/>
-    <mergeCell ref="L37:L38"/>
-    <mergeCell ref="L39:L53"/>
-    <mergeCell ref="L54:L63"/>
-    <mergeCell ref="L64:L67"/>
-    <mergeCell ref="L68:L75"/>
-    <mergeCell ref="L3:L7"/>
-    <mergeCell ref="L9:L15"/>
-    <mergeCell ref="L16:L24"/>
-    <mergeCell ref="L25:L28"/>
-    <mergeCell ref="L29:L36"/>
-    <mergeCell ref="A3:A8"/>
-    <mergeCell ref="A16:A24"/>
-    <mergeCell ref="A9:A15"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="B3:B8"/>
-    <mergeCell ref="C3:C8"/>
-    <mergeCell ref="B9:B15"/>
-    <mergeCell ref="C9:C15"/>
-    <mergeCell ref="B16:B24"/>
-    <mergeCell ref="C16:C24"/>
-    <mergeCell ref="F3:F7"/>
-    <mergeCell ref="F9:F11"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="D3:D7"/>
-    <mergeCell ref="D9:D11"/>
-    <mergeCell ref="E3:E7"/>
-    <mergeCell ref="E9:E11"/>
-    <mergeCell ref="F64:F65"/>
-    <mergeCell ref="D64:D67"/>
-    <mergeCell ref="A25:A28"/>
-    <mergeCell ref="A29:A36"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="A39:A53"/>
-    <mergeCell ref="A54:A63"/>
-    <mergeCell ref="A64:A67"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="D31:D36"/>
-    <mergeCell ref="D42:D53"/>
-    <mergeCell ref="D57:D63"/>
-    <mergeCell ref="B25:B28"/>
-    <mergeCell ref="C25:C28"/>
-    <mergeCell ref="B29:B36"/>
-    <mergeCell ref="C29:C36"/>
-    <mergeCell ref="A68:A75"/>
-    <mergeCell ref="A76:A77"/>
-    <mergeCell ref="A78:A81"/>
-    <mergeCell ref="A83:A88"/>
-    <mergeCell ref="D84:D88"/>
-    <mergeCell ref="B83:B88"/>
-    <mergeCell ref="C83:C88"/>
-    <mergeCell ref="C76:C77"/>
     <mergeCell ref="F78:F81"/>
     <mergeCell ref="D78:D81"/>
     <mergeCell ref="F85:F88"/>
@@ -6116,62 +5985,120 @@
     <mergeCell ref="B68:B75"/>
     <mergeCell ref="C68:C75"/>
     <mergeCell ref="B76:B77"/>
+    <mergeCell ref="A68:A75"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="A78:A81"/>
+    <mergeCell ref="A83:A88"/>
+    <mergeCell ref="D84:D88"/>
+    <mergeCell ref="B83:B88"/>
+    <mergeCell ref="C83:C88"/>
+    <mergeCell ref="C76:C77"/>
+    <mergeCell ref="D64:D67"/>
+    <mergeCell ref="A25:A28"/>
+    <mergeCell ref="A29:A36"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="A39:A53"/>
+    <mergeCell ref="A54:A63"/>
+    <mergeCell ref="A64:A67"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="D31:D36"/>
+    <mergeCell ref="D42:D53"/>
+    <mergeCell ref="D57:D63"/>
+    <mergeCell ref="B25:B28"/>
+    <mergeCell ref="C25:C28"/>
+    <mergeCell ref="B29:B36"/>
+    <mergeCell ref="C29:C36"/>
+    <mergeCell ref="F3:F7"/>
+    <mergeCell ref="F9:F11"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="D3:D7"/>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="E3:E7"/>
+    <mergeCell ref="E9:E11"/>
+    <mergeCell ref="A3:A8"/>
+    <mergeCell ref="A16:A24"/>
+    <mergeCell ref="A9:A15"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="B3:B8"/>
+    <mergeCell ref="C3:C8"/>
+    <mergeCell ref="B9:B15"/>
+    <mergeCell ref="C9:C15"/>
+    <mergeCell ref="B16:B24"/>
+    <mergeCell ref="C16:C24"/>
+    <mergeCell ref="M3:M7"/>
+    <mergeCell ref="M9:M15"/>
+    <mergeCell ref="M16:M24"/>
+    <mergeCell ref="M25:M28"/>
+    <mergeCell ref="M29:M36"/>
+    <mergeCell ref="M78:M81"/>
+    <mergeCell ref="M83:M88"/>
+    <mergeCell ref="M37:M38"/>
+    <mergeCell ref="M39:M53"/>
+    <mergeCell ref="M54:M63"/>
+    <mergeCell ref="M64:M67"/>
+    <mergeCell ref="M68:M75"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="E56:E60"/>
+    <mergeCell ref="E63:E67"/>
+    <mergeCell ref="E69:E73"/>
+    <mergeCell ref="M76:M77"/>
+    <mergeCell ref="F64:F65"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="L2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="L16" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
-    <hyperlink ref="L3" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
-    <hyperlink ref="L9" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
-    <hyperlink ref="L25" r:id="rId5" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
-    <hyperlink ref="L29" r:id="rId6" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
-    <hyperlink ref="L37" r:id="rId7" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
-    <hyperlink ref="L39" r:id="rId8" xr:uid="{00000000-0004-0000-0200-000007000000}"/>
-    <hyperlink ref="L54" r:id="rId9" display="https://www.nuplazidhcp.com/acadia-connect" xr:uid="{00000000-0004-0000-0200-000008000000}"/>
-    <hyperlink ref="L64" r:id="rId10" display="https://www.acadiaconnect.com/healthcare-providers/cost" xr:uid="{00000000-0004-0000-0200-000009000000}"/>
-    <hyperlink ref="L68" r:id="rId11" xr:uid="{00000000-0004-0000-0200-00000A000000}"/>
-    <hyperlink ref="L76" r:id="rId12" display="https://www.acadiaconnect.com/healthcare-providers" xr:uid="{00000000-0004-0000-0200-00000B000000}"/>
-    <hyperlink ref="L78" r:id="rId13" display="https://www.acadiaconnect.com/healthcare-providers/coverage-tools" xr:uid="{00000000-0004-0000-0200-00000C000000}"/>
-    <hyperlink ref="L82" r:id="rId14" display="https://www.acadiaconnect.com/healthcare-providers/enrollment" xr:uid="{00000000-0004-0000-0200-00000D000000}"/>
-    <hyperlink ref="L83" r:id="rId15" xr:uid="{00000000-0004-0000-0200-00000E000000}"/>
-    <hyperlink ref="J2" r:id="rId16" xr:uid="{CFA97370-8F93-4E4D-9087-46409A907CA7}"/>
-    <hyperlink ref="J3" r:id="rId17" xr:uid="{587F9E49-83DC-4A36-8AFB-2C5C7AF438C4}"/>
-    <hyperlink ref="J4:J7" r:id="rId18" display="https://www.nuplazidhcp.com/" xr:uid="{132C564F-10BE-448F-93E9-D29D8E8C88D8}"/>
-    <hyperlink ref="J9" r:id="rId19" xr:uid="{0897BE61-87A8-4307-AFF6-9097F07BC622}"/>
-    <hyperlink ref="J10:J13" r:id="rId20" display="https://www.nuplazidhcp.com/efficacy-data" xr:uid="{ACBD2BEA-3931-40F0-ABA6-13273089AD5D}"/>
-    <hyperlink ref="J14:J15" r:id="rId21" display="https://www.nuplazidhcp.com/efficacy-data" xr:uid="{F01D8358-2F47-4A0B-917C-0414ADD4134E}"/>
-    <hyperlink ref="J16" r:id="rId22" xr:uid="{3FEC824D-73C9-4D16-A5EB-6AD1F8D3DEC6}"/>
-    <hyperlink ref="J17:J24" r:id="rId23" display="https://www.nuplazidhcp.com/efficacy-data" xr:uid="{37297355-C926-4F46-9BC5-B96733EE285A}"/>
-    <hyperlink ref="J29" r:id="rId24" xr:uid="{2055579D-492F-4071-AD9A-4FC87F3C2DE0}"/>
-    <hyperlink ref="J30:J36" r:id="rId25" display="https://www.nuplazidhcp.com/safety-tolerability-data" xr:uid="{5C32B6EA-B4D4-45D0-AEEF-79B584E64516}"/>
-    <hyperlink ref="H37" r:id="rId26" xr:uid="{620A52A3-8244-45FA-89BD-01FAA5923E57}"/>
-    <hyperlink ref="J38" r:id="rId27" xr:uid="{DAE6C61F-1D9F-427F-B8D9-16CA77E1B873}"/>
-    <hyperlink ref="J39" r:id="rId28" xr:uid="{E9F24B9D-B547-434C-9755-C954AB451C8C}"/>
-    <hyperlink ref="J40:J53" r:id="rId29" display="https://www.nuplazidhcp.com/dosing" xr:uid="{594BDAAF-485C-47CA-BDF7-AE3860D6A31A}"/>
-    <hyperlink ref="J54" r:id="rId30" xr:uid="{36768FC3-5363-4232-9EF9-3CCCCC2E4DCC}"/>
-    <hyperlink ref="J55" r:id="rId31" xr:uid="{40AA2C79-2BC4-42D2-AFC8-07687415F37C}"/>
-    <hyperlink ref="J56" r:id="rId32" xr:uid="{24879E1B-244C-4479-8C48-055A73D45D66}"/>
-    <hyperlink ref="J57" r:id="rId33" xr:uid="{238DBF5D-43A5-400E-AA7F-6F0811575284}"/>
-    <hyperlink ref="J58" r:id="rId34" xr:uid="{2199D31D-6F1F-4F04-971D-597B44219018}"/>
-    <hyperlink ref="J59" r:id="rId35" xr:uid="{4F5316E3-3729-48C9-8E85-F72B4FD1211D}"/>
-    <hyperlink ref="J60:J63" r:id="rId36" display="https://www.nuplazidhcp.com/acadia-connect" xr:uid="{A1587B6D-ECEE-4E57-90D0-A43D3FBF95E4}"/>
-    <hyperlink ref="J64" r:id="rId37" xr:uid="{B47908FA-82EA-4DA9-9BBE-07A818778B04}"/>
-    <hyperlink ref="J65" r:id="rId38" xr:uid="{7AB131CC-0F15-4C10-AD04-F91FC4992DE8}"/>
-    <hyperlink ref="J66" r:id="rId39" xr:uid="{B0D1E760-F302-4119-BC47-B97718BD978A}"/>
-    <hyperlink ref="J67" r:id="rId40" xr:uid="{10620F4D-EC9C-4AD5-8F6B-8ABA696CFAD0}"/>
-    <hyperlink ref="J68" r:id="rId41" xr:uid="{4E1A74CF-275A-46C3-A67F-25057AB42D55}"/>
-    <hyperlink ref="J69" r:id="rId42" xr:uid="{0AC9034D-AF7E-455E-875C-63E481232DE4}"/>
-    <hyperlink ref="J70" r:id="rId43" xr:uid="{D2D2BF11-7231-4843-A1DD-7998B07BE096}"/>
-    <hyperlink ref="J71" r:id="rId44" xr:uid="{64E0E961-AD5F-43F3-A8CA-F5A89667275B}"/>
-    <hyperlink ref="J72" r:id="rId45" xr:uid="{9769C485-DADA-4222-AA83-25711CD0D304}"/>
-    <hyperlink ref="J73" r:id="rId46" xr:uid="{5E9495B8-0990-45CB-8505-95C0E057C756}"/>
-    <hyperlink ref="J74" r:id="rId47" xr:uid="{DAA4C77C-F1DD-454B-A83C-982FB3D4C5E1}"/>
-    <hyperlink ref="J76" r:id="rId48" xr:uid="{2888BBD0-A1BF-4897-8BD8-AFFACB65DC70}"/>
-    <hyperlink ref="J77" r:id="rId49" xr:uid="{B61B3385-B043-4EBA-A5CC-F3CABA842FA0}"/>
-    <hyperlink ref="J78:J81" r:id="rId50" display="https://www.nuplazidhcp.com/acadia-connect" xr:uid="{2FD96951-D35C-4C7F-9C00-338B4C354B02}"/>
-    <hyperlink ref="J82" r:id="rId51" display="https://www.nuplazidhcp.com/pdf/letter-of-appeal.pdf" xr:uid="{6A0E9ADB-1E28-40A0-A937-911A852DD595}"/>
-    <hyperlink ref="J83" r:id="rId52" xr:uid="{9B0A2652-0CEC-4F63-9879-E3F9E1698A55}"/>
-    <hyperlink ref="J84" r:id="rId53" xr:uid="{AB7898AD-36AF-4E23-9845-D7C66E833291}"/>
-    <hyperlink ref="J85:J88" r:id="rId54" display="https://www.acadiaconnect.com/healthcare-providers" xr:uid="{33D06EE6-07C3-46CB-8F19-E0C9148EF81C}"/>
+    <hyperlink ref="M2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="M16" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="M3" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink ref="M9" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
+    <hyperlink ref="M25" r:id="rId5" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
+    <hyperlink ref="M29" r:id="rId6" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
+    <hyperlink ref="M37" r:id="rId7" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
+    <hyperlink ref="M39" r:id="rId8" xr:uid="{00000000-0004-0000-0200-000007000000}"/>
+    <hyperlink ref="M54" r:id="rId9" display="https://www.nuplazidhcp.com/acadia-connect" xr:uid="{00000000-0004-0000-0200-000008000000}"/>
+    <hyperlink ref="M64" r:id="rId10" display="https://www.acadiaconnect.com/healthcare-providers/cost" xr:uid="{00000000-0004-0000-0200-000009000000}"/>
+    <hyperlink ref="M68" r:id="rId11" xr:uid="{00000000-0004-0000-0200-00000A000000}"/>
+    <hyperlink ref="M76" r:id="rId12" display="https://www.acadiaconnect.com/healthcare-providers" xr:uid="{00000000-0004-0000-0200-00000B000000}"/>
+    <hyperlink ref="M78" r:id="rId13" display="https://www.acadiaconnect.com/healthcare-providers/coverage-tools" xr:uid="{00000000-0004-0000-0200-00000C000000}"/>
+    <hyperlink ref="M82" r:id="rId14" display="https://www.acadiaconnect.com/healthcare-providers/enrollment" xr:uid="{00000000-0004-0000-0200-00000D000000}"/>
+    <hyperlink ref="M83" r:id="rId15" xr:uid="{00000000-0004-0000-0200-00000E000000}"/>
+    <hyperlink ref="H37" r:id="rId16" xr:uid="{620A52A3-8244-45FA-89BD-01FAA5923E57}"/>
+    <hyperlink ref="J70" r:id="rId17" xr:uid="{D2D2BF11-7231-4843-A1DD-7998B07BE096}"/>
+    <hyperlink ref="J82" r:id="rId18" display="https://www.nuplazidhcp.com/pdf/letter-of-appeal.pdf" xr:uid="{6A0E9ADB-1E28-40A0-A937-911A852DD595}"/>
+    <hyperlink ref="L2" r:id="rId19" xr:uid="{7512338C-98F7-45BB-8832-70049CDB1959}"/>
+    <hyperlink ref="L3" r:id="rId20" xr:uid="{54680947-6D07-49EE-907C-7608033AF346}"/>
+    <hyperlink ref="L4:L7" r:id="rId21" display="https://www.nuplazidhcp.com/" xr:uid="{4B8352A1-9F66-4F57-96BF-0B9DE1C7CC0B}"/>
+    <hyperlink ref="L9" r:id="rId22" xr:uid="{DCE3F599-4A4B-4AA3-97E5-7463A2CC8B1A}"/>
+    <hyperlink ref="L10:L13" r:id="rId23" display="https://www.nuplazidhcp.com/efficacy-data" xr:uid="{699125D1-E058-4F61-8A8A-B53B3170E7E0}"/>
+    <hyperlink ref="L14:L15" r:id="rId24" display="https://www.nuplazidhcp.com/efficacy-data" xr:uid="{BECCFFFD-E956-48D1-B1FE-2696E6E13A3A}"/>
+    <hyperlink ref="L16" r:id="rId25" xr:uid="{F571F1FF-8B86-4A35-B6AC-458344C4F6CD}"/>
+    <hyperlink ref="L17:L24" r:id="rId26" display="https://www.nuplazidhcp.com/efficacy-data" xr:uid="{078A11EA-7431-4CB5-8ADE-E352F6011A4C}"/>
+    <hyperlink ref="L29" r:id="rId27" xr:uid="{AB34189E-88C0-4E0A-B5EE-DABBB10692CD}"/>
+    <hyperlink ref="L30:L36" r:id="rId28" display="https://www.nuplazidhcp.com/safety-tolerability-data" xr:uid="{FD12167A-B095-42D9-BA68-C86C27A27A62}"/>
+    <hyperlink ref="L38" r:id="rId29" xr:uid="{F73BF06C-6242-4D55-BEA6-D19C8AC354BD}"/>
+    <hyperlink ref="L39" r:id="rId30" xr:uid="{784562BD-368D-4765-AD44-F135C5EBA2F8}"/>
+    <hyperlink ref="L40:L53" r:id="rId31" display="https://www.nuplazidhcp.com/dosing" xr:uid="{A3D97E9E-D7EA-4409-A6A0-208CBE9949EE}"/>
+    <hyperlink ref="L54" r:id="rId32" xr:uid="{B5CEE080-912D-4421-9D68-637FC05CB79C}"/>
+    <hyperlink ref="L55" r:id="rId33" xr:uid="{1254F235-DAC2-40D4-8F5B-37A76E2FB96C}"/>
+    <hyperlink ref="L56" r:id="rId34" xr:uid="{8AB97281-61CB-42CE-B01B-1B7612EB7201}"/>
+    <hyperlink ref="L57" r:id="rId35" xr:uid="{E57D3C9F-85A0-4370-8D72-BB240A64460D}"/>
+    <hyperlink ref="L58" r:id="rId36" xr:uid="{62D3228E-0BF5-497D-AC98-7445F94BFDB4}"/>
+    <hyperlink ref="L59" r:id="rId37" xr:uid="{DC44F380-85F6-4824-BA92-1B36521DD88E}"/>
+    <hyperlink ref="L60:L63" r:id="rId38" display="https://www.nuplazidhcp.com/acadia-connect" xr:uid="{A7E794B2-A024-4FAD-80CE-EFB3BAFEA5BF}"/>
+    <hyperlink ref="L64" r:id="rId39" xr:uid="{729FB565-1D32-46F4-998D-416674379F80}"/>
+    <hyperlink ref="L65" r:id="rId40" xr:uid="{20E7609D-7582-4243-B0AE-3ADD9661D757}"/>
+    <hyperlink ref="L66" r:id="rId41" xr:uid="{6571AF72-1C75-4B05-BDC8-25A07AE8BB64}"/>
+    <hyperlink ref="L67" r:id="rId42" xr:uid="{030FECFE-A468-43A2-88A2-64961C354BD7}"/>
+    <hyperlink ref="L68" r:id="rId43" xr:uid="{DBC3BE2B-3A61-45AF-A75E-21BA98ABA7B9}"/>
+    <hyperlink ref="L69" r:id="rId44" xr:uid="{402F8AF4-756B-4FB1-B16F-7381D1BE6D6D}"/>
+    <hyperlink ref="L71" r:id="rId45" xr:uid="{243F43FA-3828-4D94-90A5-C5FA0A0A174D}"/>
+    <hyperlink ref="L72" r:id="rId46" xr:uid="{D4987F58-B2B5-4A6D-B190-F30D3CFB7B38}"/>
+    <hyperlink ref="L73" r:id="rId47" xr:uid="{11BE5001-2396-49EB-BFF4-09482EF993B5}"/>
+    <hyperlink ref="L74" r:id="rId48" xr:uid="{7DAF30A5-8805-4AFC-9DB3-CD90DA566FF4}"/>
+    <hyperlink ref="L76" r:id="rId49" xr:uid="{E7F817F0-D7BE-49AF-AC72-A50C39380354}"/>
+    <hyperlink ref="L77" r:id="rId50" xr:uid="{D76AA7D0-38FF-42DF-89E7-2FDB8A8258F6}"/>
+    <hyperlink ref="L78:L81" r:id="rId51" display="https://www.nuplazidhcp.com/acadia-connect" xr:uid="{0847A0B7-D8EF-4252-9A04-B25DD575C939}"/>
+    <hyperlink ref="L83" r:id="rId52" xr:uid="{AE628026-B0A3-4526-A641-3C3D8B380D81}"/>
+    <hyperlink ref="L84" r:id="rId53" xr:uid="{35D4A6C8-86AB-43EC-A1CE-4328DEBD4548}"/>
+    <hyperlink ref="L85:L88" r:id="rId54" display="https://www.acadiaconnect.com/healthcare-providers" xr:uid="{D5C86836-0DDC-4BDA-912F-C5D29BEE0331}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId55"/>

--- a/Corpus/MLR_Corpus.xlsx
+++ b/Corpus/MLR_Corpus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workouts\Projects\Acadia\Masori-Chatbot-Dev-main\Masori-Chatbot-Dev-main\Corpus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85797871-B4C7-40A5-84F8-4BC6113DB5B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40995FD1-68B4-47FD-9C70-CDC7E8A07C00}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1477,9 +1477,6 @@
     <t xml:space="preserve">The mechanism of action (MOA) in the treatment of hallucinations and delusions associated with Parkinson's disease psychosis is unclear. Please watch this video to know more about proposed MOA of Nuplazid. </t>
   </si>
   <si>
-    <t>Download Factsheets</t>
-  </si>
-  <si>
     <t>https://www.nuplazidhcp.com/acadia-connect</t>
   </si>
   <si>
@@ -1514,6 +1511,10 @@
   </si>
   <si>
     <t>Visit Page</t>
+  </si>
+  <si>
+    <t>Download Distribution Factsheet
+Download Disease Edication Factsheet</t>
   </si>
 </sst>
 </file>
@@ -1767,6 +1768,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1779,16 +1790,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1798,11 +1799,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2228,13 +2229,13 @@
       </c>
     </row>
     <row r="2" spans="1:11" s="31" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="75" t="s">
         <v>253</v>
       </c>
-      <c r="B2" s="78" t="s">
+      <c r="B2" s="75" t="s">
         <v>260</v>
       </c>
-      <c r="C2" s="78" t="s">
+      <c r="C2" s="75" t="s">
         <v>312</v>
       </c>
       <c r="D2" s="58" t="s">
@@ -2248,14 +2249,14 @@
       <c r="H2" s="66"/>
       <c r="I2" s="66"/>
       <c r="J2" s="66"/>
-      <c r="K2" s="76" t="s">
+      <c r="K2" s="80" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="3" spans="1:11" s="31" customFormat="1" ht="120" x14ac:dyDescent="0.25">
-      <c r="A3" s="79"/>
-      <c r="B3" s="77"/>
-      <c r="C3" s="79"/>
+      <c r="A3" s="76"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="76"/>
       <c r="D3" s="58" t="s">
         <v>10</v>
       </c>
@@ -2267,12 +2268,12 @@
       <c r="H3" s="66"/>
       <c r="I3" s="66"/>
       <c r="J3" s="66"/>
-      <c r="K3" s="74"/>
+      <c r="K3" s="78"/>
     </row>
     <row r="4" spans="1:11" s="31" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" s="79"/>
-      <c r="B4" s="77"/>
-      <c r="C4" s="79"/>
+      <c r="A4" s="76"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="76"/>
       <c r="D4" s="58" t="s">
         <v>11</v>
       </c>
@@ -2284,16 +2285,16 @@
       <c r="H4" s="66"/>
       <c r="I4" s="66"/>
       <c r="J4" s="66"/>
-      <c r="K4" s="74"/>
+      <c r="K4" s="78"/>
     </row>
     <row r="5" spans="1:11" ht="105" x14ac:dyDescent="0.25">
-      <c r="A5" s="80" t="s">
+      <c r="A5" s="74" t="s">
         <v>172</v>
       </c>
-      <c r="B5" s="77" t="s">
+      <c r="B5" s="73" t="s">
         <v>322</v>
       </c>
-      <c r="C5" s="77" t="s">
+      <c r="C5" s="73" t="s">
         <v>261</v>
       </c>
       <c r="D5" s="58" t="s">
@@ -2307,14 +2308,14 @@
       <c r="H5" s="66"/>
       <c r="I5" s="66"/>
       <c r="J5" s="66"/>
-      <c r="K5" s="73" t="s">
+      <c r="K5" s="77" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="120" x14ac:dyDescent="0.25">
-      <c r="A6" s="80"/>
-      <c r="B6" s="80"/>
-      <c r="C6" s="80"/>
+      <c r="A6" s="74"/>
+      <c r="B6" s="74"/>
+      <c r="C6" s="74"/>
       <c r="D6" s="58" t="s">
         <v>20</v>
       </c>
@@ -2326,16 +2327,16 @@
       <c r="H6" s="66"/>
       <c r="I6" s="66"/>
       <c r="J6" s="66"/>
-      <c r="K6" s="74"/>
+      <c r="K6" s="78"/>
     </row>
     <row r="7" spans="1:11" s="44" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A7" s="77" t="s">
+      <c r="A7" s="73" t="s">
         <v>326</v>
       </c>
-      <c r="B7" s="77" t="s">
+      <c r="B7" s="73" t="s">
         <v>327</v>
       </c>
-      <c r="C7" s="77" t="s">
+      <c r="C7" s="73" t="s">
         <v>332</v>
       </c>
       <c r="D7" s="62" t="s">
@@ -2349,14 +2350,14 @@
       <c r="H7" s="66"/>
       <c r="I7" s="66"/>
       <c r="J7" s="66"/>
-      <c r="K7" s="73" t="s">
+      <c r="K7" s="77" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="8" spans="1:11" s="44" customFormat="1" ht="150" x14ac:dyDescent="0.25">
-      <c r="A8" s="77"/>
-      <c r="B8" s="77"/>
-      <c r="C8" s="77"/>
+      <c r="A8" s="73"/>
+      <c r="B8" s="73"/>
+      <c r="C8" s="73"/>
       <c r="D8" s="62" t="s">
         <v>330</v>
       </c>
@@ -2368,12 +2369,12 @@
       <c r="H8" s="66"/>
       <c r="I8" s="66"/>
       <c r="J8" s="66"/>
-      <c r="K8" s="74"/>
+      <c r="K8" s="78"/>
     </row>
     <row r="9" spans="1:11" s="44" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A9" s="77"/>
-      <c r="B9" s="77"/>
-      <c r="C9" s="77"/>
+      <c r="A9" s="73"/>
+      <c r="B9" s="73"/>
+      <c r="C9" s="73"/>
       <c r="D9" s="62" t="s">
         <v>333</v>
       </c>
@@ -2385,12 +2386,12 @@
       <c r="H9" s="66"/>
       <c r="I9" s="66"/>
       <c r="J9" s="66"/>
-      <c r="K9" s="74"/>
+      <c r="K9" s="78"/>
     </row>
     <row r="10" spans="1:11" s="44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="77"/>
-      <c r="B10" s="77"/>
-      <c r="C10" s="77"/>
+      <c r="A10" s="73"/>
+      <c r="B10" s="73"/>
+      <c r="C10" s="73"/>
       <c r="D10" s="62"/>
       <c r="E10" s="62"/>
       <c r="F10" s="66"/>
@@ -2463,13 +2464,13 @@
       <c r="K14" s="65"/>
     </row>
     <row r="15" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="80" t="s">
+      <c r="A15" s="74" t="s">
         <v>175</v>
       </c>
-      <c r="B15" s="77" t="s">
+      <c r="B15" s="73" t="s">
         <v>262</v>
       </c>
-      <c r="C15" s="77" t="s">
+      <c r="C15" s="73" t="s">
         <v>323</v>
       </c>
       <c r="D15" s="58" t="s">
@@ -2483,14 +2484,14 @@
       <c r="H15" s="66"/>
       <c r="I15" s="66"/>
       <c r="J15" s="66"/>
-      <c r="K15" s="73" t="s">
+      <c r="K15" s="77" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="80"/>
-      <c r="B16" s="80"/>
-      <c r="C16" s="80"/>
+      <c r="A16" s="74"/>
+      <c r="B16" s="74"/>
+      <c r="C16" s="74"/>
       <c r="D16" s="58" t="s">
         <v>177</v>
       </c>
@@ -2502,12 +2503,12 @@
       <c r="H16" s="66"/>
       <c r="I16" s="66"/>
       <c r="J16" s="66"/>
-      <c r="K16" s="74"/>
+      <c r="K16" s="78"/>
     </row>
     <row r="17" spans="1:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="A17" s="80"/>
-      <c r="B17" s="80"/>
-      <c r="C17" s="80"/>
+      <c r="A17" s="74"/>
+      <c r="B17" s="74"/>
+      <c r="C17" s="74"/>
       <c r="D17" s="58" t="s">
         <v>178</v>
       </c>
@@ -2519,12 +2520,12 @@
       <c r="H17" s="66"/>
       <c r="I17" s="66"/>
       <c r="J17" s="66"/>
-      <c r="K17" s="74"/>
+      <c r="K17" s="78"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="80"/>
-      <c r="B18" s="80"/>
-      <c r="C18" s="80"/>
+      <c r="A18" s="74"/>
+      <c r="B18" s="74"/>
+      <c r="C18" s="74"/>
       <c r="D18" s="43"/>
       <c r="E18" s="42"/>
       <c r="F18" s="42"/>
@@ -2532,16 +2533,16 @@
       <c r="H18" s="42"/>
       <c r="I18" s="42"/>
       <c r="J18" s="42"/>
-      <c r="K18" s="74"/>
+      <c r="K18" s="78"/>
     </row>
     <row r="19" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="80" t="s">
+      <c r="A19" s="74" t="s">
         <v>180</v>
       </c>
-      <c r="B19" s="77" t="s">
+      <c r="B19" s="73" t="s">
         <v>263</v>
       </c>
-      <c r="C19" s="77" t="s">
+      <c r="C19" s="73" t="s">
         <v>264</v>
       </c>
       <c r="D19" s="58" t="s">
@@ -2555,14 +2556,14 @@
       <c r="H19" s="66"/>
       <c r="I19" s="66"/>
       <c r="J19" s="66"/>
-      <c r="K19" s="73" t="s">
+      <c r="K19" s="77" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="80"/>
-      <c r="B20" s="77"/>
-      <c r="C20" s="80"/>
+      <c r="A20" s="74"/>
+      <c r="B20" s="73"/>
+      <c r="C20" s="74"/>
       <c r="D20" s="58" t="s">
         <v>182</v>
       </c>
@@ -2574,12 +2575,12 @@
       <c r="H20" s="66"/>
       <c r="I20" s="66"/>
       <c r="J20" s="66"/>
-      <c r="K20" s="74"/>
+      <c r="K20" s="78"/>
     </row>
     <row r="21" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A21" s="80"/>
-      <c r="B21" s="77"/>
-      <c r="C21" s="80"/>
+      <c r="A21" s="74"/>
+      <c r="B21" s="73"/>
+      <c r="C21" s="74"/>
       <c r="D21" s="58" t="s">
         <v>183</v>
       </c>
@@ -2591,12 +2592,12 @@
       <c r="H21" s="66"/>
       <c r="I21" s="66"/>
       <c r="J21" s="66"/>
-      <c r="K21" s="74"/>
+      <c r="K21" s="78"/>
     </row>
     <row r="22" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A22" s="80"/>
-      <c r="B22" s="77"/>
-      <c r="C22" s="80"/>
+      <c r="A22" s="74"/>
+      <c r="B22" s="73"/>
+      <c r="C22" s="74"/>
       <c r="D22" s="58" t="s">
         <v>184</v>
       </c>
@@ -2608,16 +2609,16 @@
       <c r="H22" s="66"/>
       <c r="I22" s="66"/>
       <c r="J22" s="66"/>
-      <c r="K22" s="74"/>
+      <c r="K22" s="78"/>
     </row>
     <row r="23" spans="1:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="A23" s="80" t="s">
+      <c r="A23" s="74" t="s">
         <v>185</v>
       </c>
-      <c r="B23" s="77" t="s">
+      <c r="B23" s="73" t="s">
         <v>324</v>
       </c>
-      <c r="C23" s="77" t="s">
+      <c r="C23" s="73" t="s">
         <v>265</v>
       </c>
       <c r="D23" s="58" t="s">
@@ -2631,14 +2632,14 @@
       <c r="H23" s="66"/>
       <c r="I23" s="66"/>
       <c r="J23" s="66"/>
-      <c r="K23" s="73" t="s">
+      <c r="K23" s="77" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="135" x14ac:dyDescent="0.25">
-      <c r="A24" s="80"/>
-      <c r="B24" s="77"/>
-      <c r="C24" s="80"/>
+      <c r="A24" s="74"/>
+      <c r="B24" s="73"/>
+      <c r="C24" s="74"/>
       <c r="D24" s="58" t="s">
         <v>18</v>
       </c>
@@ -2650,12 +2651,12 @@
       <c r="H24" s="66"/>
       <c r="I24" s="66"/>
       <c r="J24" s="66"/>
-      <c r="K24" s="74"/>
+      <c r="K24" s="78"/>
     </row>
     <row r="25" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A25" s="80"/>
-      <c r="B25" s="77"/>
-      <c r="C25" s="80"/>
+      <c r="A25" s="74"/>
+      <c r="B25" s="73"/>
+      <c r="C25" s="74"/>
       <c r="D25" s="58" t="s">
         <v>325</v>
       </c>
@@ -2667,12 +2668,12 @@
       <c r="H25" s="66"/>
       <c r="I25" s="66"/>
       <c r="J25" s="66"/>
-      <c r="K25" s="74"/>
+      <c r="K25" s="78"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="80"/>
-      <c r="B26" s="77"/>
-      <c r="C26" s="80"/>
+      <c r="A26" s="74"/>
+      <c r="B26" s="73"/>
+      <c r="C26" s="74"/>
       <c r="D26" s="43"/>
       <c r="E26" s="43"/>
       <c r="F26" s="43"/>
@@ -2680,16 +2681,16 @@
       <c r="H26" s="43"/>
       <c r="I26" s="43"/>
       <c r="J26" s="43"/>
-      <c r="K26" s="74"/>
+      <c r="K26" s="78"/>
     </row>
     <row r="27" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="80" t="s">
+      <c r="A27" s="74" t="s">
         <v>187</v>
       </c>
-      <c r="B27" s="77" t="s">
+      <c r="B27" s="73" t="s">
         <v>266</v>
       </c>
-      <c r="C27" s="75" t="s">
+      <c r="C27" s="79" t="s">
         <v>267</v>
       </c>
       <c r="D27" s="58" t="s">
@@ -2703,14 +2704,14 @@
       <c r="H27" s="66"/>
       <c r="I27" s="66"/>
       <c r="J27" s="66"/>
-      <c r="K27" s="73" t="s">
+      <c r="K27" s="77" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="80"/>
-      <c r="B28" s="77"/>
-      <c r="C28" s="75"/>
+      <c r="A28" s="74"/>
+      <c r="B28" s="73"/>
+      <c r="C28" s="79"/>
       <c r="D28" s="58" t="s">
         <v>189</v>
       </c>
@@ -2722,12 +2723,12 @@
       <c r="H28" s="66"/>
       <c r="I28" s="66"/>
       <c r="J28" s="66"/>
-      <c r="K28" s="74"/>
+      <c r="K28" s="78"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="80"/>
-      <c r="B29" s="77"/>
-      <c r="C29" s="75"/>
+      <c r="A29" s="74"/>
+      <c r="B29" s="73"/>
+      <c r="C29" s="79"/>
       <c r="D29" s="43"/>
       <c r="E29" s="42"/>
       <c r="F29" s="42"/>
@@ -2735,10 +2736,10 @@
       <c r="H29" s="42"/>
       <c r="I29" s="42"/>
       <c r="J29" s="42"/>
-      <c r="K29" s="74"/>
+      <c r="K29" s="78"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="80" t="s">
+      <c r="A30" s="74" t="s">
         <v>191</v>
       </c>
       <c r="C30" s="60"/>
@@ -2748,16 +2749,16 @@
       <c r="H30" s="66"/>
       <c r="I30" s="66"/>
       <c r="J30" s="66"/>
-      <c r="K30" s="73" t="s">
+      <c r="K30" s="77" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="165" x14ac:dyDescent="0.25">
-      <c r="A31" s="80"/>
-      <c r="B31" s="77" t="s">
+      <c r="A31" s="74"/>
+      <c r="B31" s="73" t="s">
         <v>268</v>
       </c>
-      <c r="C31" s="77" t="s">
+      <c r="C31" s="73" t="s">
         <v>269</v>
       </c>
       <c r="E31" s="32" t="s">
@@ -2768,12 +2769,12 @@
       <c r="H31" s="66"/>
       <c r="I31" s="66"/>
       <c r="J31" s="66"/>
-      <c r="K31" s="74"/>
+      <c r="K31" s="78"/>
     </row>
     <row r="32" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A32" s="80"/>
-      <c r="B32" s="80"/>
-      <c r="C32" s="77"/>
+      <c r="A32" s="74"/>
+      <c r="B32" s="74"/>
+      <c r="C32" s="73"/>
       <c r="D32" s="58" t="s">
         <v>256</v>
       </c>
@@ -2785,12 +2786,12 @@
       <c r="H32" s="66"/>
       <c r="I32" s="66"/>
       <c r="J32" s="66"/>
-      <c r="K32" s="74"/>
+      <c r="K32" s="78"/>
     </row>
     <row r="33" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="80"/>
-      <c r="B33" s="80"/>
-      <c r="C33" s="77"/>
+      <c r="A33" s="74"/>
+      <c r="B33" s="74"/>
+      <c r="C33" s="73"/>
       <c r="D33" s="43" t="s">
         <v>257</v>
       </c>
@@ -2802,12 +2803,12 @@
       <c r="H33" s="43"/>
       <c r="I33" s="43"/>
       <c r="J33" s="43"/>
-      <c r="K33" s="74"/>
+      <c r="K33" s="78"/>
     </row>
     <row r="34" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="80"/>
-      <c r="B34" s="80"/>
-      <c r="C34" s="77"/>
+      <c r="A34" s="74"/>
+      <c r="B34" s="74"/>
+      <c r="C34" s="73"/>
       <c r="D34" s="43" t="s">
         <v>172</v>
       </c>
@@ -2819,12 +2820,12 @@
       <c r="H34" s="43"/>
       <c r="I34" s="43"/>
       <c r="J34" s="43"/>
-      <c r="K34" s="74"/>
+      <c r="K34" s="78"/>
     </row>
     <row r="35" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A35" s="80"/>
-      <c r="B35" s="80"/>
-      <c r="C35" s="77"/>
+      <c r="A35" s="74"/>
+      <c r="B35" s="74"/>
+      <c r="C35" s="73"/>
       <c r="D35" s="43" t="s">
         <v>258</v>
       </c>
@@ -2836,12 +2837,12 @@
       <c r="H35" s="43"/>
       <c r="I35" s="43"/>
       <c r="J35" s="43"/>
-      <c r="K35" s="74"/>
+      <c r="K35" s="78"/>
     </row>
     <row r="36" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A36" s="80"/>
-      <c r="B36" s="80"/>
-      <c r="C36" s="77"/>
+      <c r="A36" s="74"/>
+      <c r="B36" s="74"/>
+      <c r="C36" s="73"/>
       <c r="D36" s="58" t="s">
         <v>132</v>
       </c>
@@ -2853,16 +2854,16 @@
       <c r="H36" s="43"/>
       <c r="I36" s="43"/>
       <c r="J36" s="43"/>
-      <c r="K36" s="74"/>
+      <c r="K36" s="78"/>
     </row>
     <row r="37" spans="1:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="A37" s="77" t="s">
+      <c r="A37" s="73" t="s">
         <v>270</v>
       </c>
-      <c r="B37" s="77" t="s">
+      <c r="B37" s="73" t="s">
         <v>271</v>
       </c>
-      <c r="C37" s="77" t="s">
+      <c r="C37" s="73" t="s">
         <v>272</v>
       </c>
       <c r="D37" s="58" t="s">
@@ -2876,14 +2877,14 @@
       <c r="H37" s="66"/>
       <c r="I37" s="66"/>
       <c r="J37" s="66"/>
-      <c r="K37" s="73" t="s">
+      <c r="K37" s="77" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="105" x14ac:dyDescent="0.25">
-      <c r="A38" s="77"/>
-      <c r="B38" s="77"/>
-      <c r="C38" s="80"/>
+      <c r="A38" s="73"/>
+      <c r="B38" s="73"/>
+      <c r="C38" s="74"/>
       <c r="D38" s="58" t="s">
         <v>194</v>
       </c>
@@ -2895,36 +2896,36 @@
       <c r="H38" s="66"/>
       <c r="I38" s="66"/>
       <c r="J38" s="66"/>
-      <c r="K38" s="74"/>
+      <c r="K38" s="78"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" s="77"/>
-      <c r="B39" s="77"/>
-      <c r="C39" s="80"/>
+      <c r="A39" s="73"/>
+      <c r="B39" s="73"/>
+      <c r="C39" s="74"/>
       <c r="D39" s="58" t="s">
         <v>195</v>
       </c>
       <c r="E39" s="38" t="s">
         <v>200</v>
       </c>
-      <c r="K39" s="74"/>
+      <c r="K39" s="78"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="77"/>
-      <c r="B40" s="77"/>
-      <c r="C40" s="80"/>
+      <c r="A40" s="73"/>
+      <c r="B40" s="73"/>
+      <c r="C40" s="74"/>
       <c r="D40" s="58" t="s">
         <v>196</v>
       </c>
       <c r="E40" s="38" t="s">
         <v>201</v>
       </c>
-      <c r="K40" s="74"/>
+      <c r="K40" s="78"/>
     </row>
     <row r="41" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A41" s="77"/>
-      <c r="B41" s="77"/>
-      <c r="C41" s="80"/>
+      <c r="A41" s="73"/>
+      <c r="B41" s="73"/>
+      <c r="C41" s="74"/>
       <c r="D41" s="58" t="s">
         <v>197</v>
       </c>
@@ -2936,12 +2937,12 @@
       <c r="H41" s="66"/>
       <c r="I41" s="66"/>
       <c r="J41" s="66"/>
-      <c r="K41" s="74"/>
+      <c r="K41" s="78"/>
     </row>
     <row r="42" spans="1:11" ht="150" x14ac:dyDescent="0.25">
-      <c r="A42" s="77"/>
-      <c r="B42" s="77"/>
-      <c r="C42" s="80"/>
+      <c r="A42" s="73"/>
+      <c r="B42" s="73"/>
+      <c r="C42" s="74"/>
       <c r="D42" s="58" t="s">
         <v>198</v>
       </c>
@@ -2953,12 +2954,12 @@
       <c r="H42" s="66"/>
       <c r="I42" s="66"/>
       <c r="J42" s="66"/>
-      <c r="K42" s="74"/>
+      <c r="K42" s="78"/>
     </row>
     <row r="43" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A43" s="77"/>
-      <c r="B43" s="77"/>
-      <c r="C43" s="80"/>
+      <c r="A43" s="73"/>
+      <c r="B43" s="73"/>
+      <c r="C43" s="74"/>
       <c r="D43" s="58" t="s">
         <v>199</v>
       </c>
@@ -2970,7 +2971,7 @@
       <c r="H43" s="66"/>
       <c r="I43" s="66"/>
       <c r="J43" s="66"/>
-      <c r="K43" s="74"/>
+      <c r="K43" s="78"/>
     </row>
     <row r="44" spans="1:11" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="62"/>
@@ -3019,12 +3020,25 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="B31:B36"/>
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="C23:C26"/>
-    <mergeCell ref="C31:C36"/>
-    <mergeCell ref="B37:B43"/>
-    <mergeCell ref="C37:C43"/>
+    <mergeCell ref="K27:K29"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="K30:K36"/>
+    <mergeCell ref="K37:K43"/>
+    <mergeCell ref="K2:K4"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="K15:K18"/>
+    <mergeCell ref="K19:K22"/>
+    <mergeCell ref="K23:K26"/>
+    <mergeCell ref="K7:K9"/>
+    <mergeCell ref="A37:A43"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A30:A36"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="A7:A10"/>
     <mergeCell ref="B19:B22"/>
     <mergeCell ref="C19:C22"/>
     <mergeCell ref="B27:B29"/>
@@ -3036,25 +3050,12 @@
     <mergeCell ref="C15:C18"/>
     <mergeCell ref="B7:B10"/>
     <mergeCell ref="C7:C10"/>
-    <mergeCell ref="A37:A43"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A30:A36"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="A23:A26"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="K27:K29"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="K30:K36"/>
-    <mergeCell ref="K37:K43"/>
-    <mergeCell ref="K2:K4"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="K15:K18"/>
-    <mergeCell ref="K19:K22"/>
-    <mergeCell ref="K23:K26"/>
-    <mergeCell ref="K7:K9"/>
+    <mergeCell ref="B31:B36"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="C23:C26"/>
+    <mergeCell ref="C31:C36"/>
+    <mergeCell ref="B37:B43"/>
+    <mergeCell ref="C37:C43"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="K2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -4126,7 +4127,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="G1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I2" sqref="I2"/>
+      <selection pane="topRight" activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4155,7 +4156,7 @@
         <v>204</v>
       </c>
       <c r="E1" s="51" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F1" s="51" t="s">
         <v>12</v>
@@ -4176,7 +4177,7 @@
         <v>344</v>
       </c>
       <c r="L1" s="45" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="M1" s="45" t="s">
         <v>313</v>
@@ -4223,13 +4224,13 @@
       <c r="C3" s="83" t="s">
         <v>311</v>
       </c>
-      <c r="D3" s="77" t="s">
+      <c r="D3" s="73" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="77" t="s">
+      <c r="E3" s="73" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="77" t="s">
+      <c r="F3" s="73" t="s">
         <v>301</v>
       </c>
       <c r="G3" s="66"/>
@@ -4240,7 +4241,7 @@
       <c r="L3" s="67" t="s">
         <v>300</v>
       </c>
-      <c r="M3" s="73" t="s">
+      <c r="M3" s="77" t="s">
         <v>300</v>
       </c>
     </row>
@@ -4248,9 +4249,9 @@
       <c r="A4" s="82"/>
       <c r="B4" s="83"/>
       <c r="C4" s="83"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="77"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
       <c r="G4" s="66"/>
       <c r="H4" s="66"/>
       <c r="I4" s="66"/>
@@ -4259,15 +4260,15 @@
       <c r="L4" s="67" t="s">
         <v>300</v>
       </c>
-      <c r="M4" s="74"/>
+      <c r="M4" s="78"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="82"/>
       <c r="B5" s="83"/>
       <c r="C5" s="83"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="77"/>
-      <c r="F5" s="77"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="73"/>
       <c r="G5" s="66"/>
       <c r="H5" s="66"/>
       <c r="I5" s="66"/>
@@ -4276,15 +4277,15 @@
       <c r="L5" s="67" t="s">
         <v>300</v>
       </c>
-      <c r="M5" s="74"/>
+      <c r="M5" s="78"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="82"/>
       <c r="B6" s="83"/>
       <c r="C6" s="83"/>
-      <c r="D6" s="77"/>
-      <c r="E6" s="77"/>
-      <c r="F6" s="77"/>
+      <c r="D6" s="73"/>
+      <c r="E6" s="73"/>
+      <c r="F6" s="73"/>
       <c r="G6" s="66"/>
       <c r="H6" s="66"/>
       <c r="I6" s="66"/>
@@ -4293,15 +4294,15 @@
       <c r="L6" s="67" t="s">
         <v>300</v>
       </c>
-      <c r="M6" s="74"/>
+      <c r="M6" s="78"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="82"/>
       <c r="B7" s="83"/>
       <c r="C7" s="83"/>
-      <c r="D7" s="77"/>
-      <c r="E7" s="77"/>
-      <c r="F7" s="77"/>
+      <c r="D7" s="73"/>
+      <c r="E7" s="73"/>
+      <c r="F7" s="73"/>
       <c r="G7" s="66"/>
       <c r="H7" s="66"/>
       <c r="I7" s="66"/>
@@ -4310,7 +4311,7 @@
       <c r="L7" s="67" t="s">
         <v>300</v>
       </c>
-      <c r="M7" s="74"/>
+      <c r="M7" s="78"/>
     </row>
     <row r="8" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A8" s="82"/>
@@ -4326,7 +4327,7 @@
       <c r="G8" s="66"/>
       <c r="H8" s="66"/>
       <c r="I8" s="66" t="s">
-        <v>348</v>
+        <v>359</v>
       </c>
       <c r="J8" s="66" t="s">
         <v>346</v>
@@ -4339,19 +4340,19 @@
       <c r="A9" s="82" t="s">
         <v>224</v>
       </c>
-      <c r="B9" s="85" t="s">
+      <c r="B9" s="84" t="s">
         <v>316</v>
       </c>
       <c r="C9" s="83" t="s">
         <v>315</v>
       </c>
-      <c r="D9" s="77" t="s">
+      <c r="D9" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="77" t="s">
+      <c r="E9" s="73" t="s">
         <v>29</v>
       </c>
-      <c r="F9" s="77" t="s">
+      <c r="F9" s="73" t="s">
         <v>32</v>
       </c>
       <c r="G9" s="66"/>
@@ -4362,17 +4363,17 @@
       <c r="L9" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="M9" s="73" t="s">
+      <c r="M9" s="77" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="82"/>
-      <c r="B10" s="77"/>
+      <c r="B10" s="73"/>
       <c r="C10" s="83"/>
-      <c r="D10" s="77"/>
-      <c r="E10" s="77"/>
-      <c r="F10" s="77"/>
+      <c r="D10" s="73"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="73"/>
       <c r="G10" s="66"/>
       <c r="H10" s="66"/>
       <c r="I10" s="66"/>
@@ -4381,15 +4382,15 @@
       <c r="L10" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="M10" s="74"/>
+      <c r="M10" s="78"/>
     </row>
     <row r="11" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="82"/>
-      <c r="B11" s="77"/>
+      <c r="B11" s="73"/>
       <c r="C11" s="83"/>
-      <c r="D11" s="77"/>
-      <c r="E11" s="77"/>
-      <c r="F11" s="77"/>
+      <c r="D11" s="73"/>
+      <c r="E11" s="73"/>
+      <c r="F11" s="73"/>
       <c r="G11" s="66"/>
       <c r="H11" s="66"/>
       <c r="I11" s="66"/>
@@ -4398,11 +4399,11 @@
       <c r="L11" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="M11" s="74"/>
+      <c r="M11" s="78"/>
     </row>
     <row r="12" spans="1:13" ht="90" x14ac:dyDescent="0.25">
       <c r="A12" s="82"/>
-      <c r="B12" s="77"/>
+      <c r="B12" s="73"/>
       <c r="C12" s="83"/>
       <c r="D12" s="50" t="s">
         <v>28</v>
@@ -4421,11 +4422,11 @@
       <c r="L12" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="M12" s="74"/>
+      <c r="M12" s="78"/>
     </row>
     <row r="13" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="82"/>
-      <c r="B13" s="77"/>
+      <c r="B13" s="73"/>
       <c r="C13" s="83"/>
       <c r="D13" s="50" t="s">
         <v>29</v>
@@ -4444,17 +4445,17 @@
       <c r="L13" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="M13" s="74"/>
+      <c r="M13" s="78"/>
     </row>
     <row r="14" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="82"/>
-      <c r="B14" s="77"/>
+      <c r="B14" s="73"/>
       <c r="C14" s="83"/>
       <c r="D14" s="50" t="s">
         <v>30</v>
       </c>
       <c r="E14" s="70"/>
-      <c r="F14" s="77" t="s">
+      <c r="F14" s="73" t="s">
         <v>39</v>
       </c>
       <c r="G14" s="66"/>
@@ -4465,17 +4466,17 @@
       <c r="L14" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="M14" s="74"/>
+      <c r="M14" s="78"/>
     </row>
     <row r="15" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="82"/>
-      <c r="B15" s="77"/>
+      <c r="B15" s="73"/>
       <c r="C15" s="83"/>
       <c r="D15" s="50" t="s">
         <v>31</v>
       </c>
       <c r="E15" s="70"/>
-      <c r="F15" s="77"/>
+      <c r="F15" s="73"/>
       <c r="G15" s="66"/>
       <c r="H15" s="66"/>
       <c r="I15" s="66"/>
@@ -4484,7 +4485,7 @@
       <c r="L15" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="M15" s="74"/>
+      <c r="M15" s="78"/>
     </row>
     <row r="16" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="82" t="s">
@@ -4511,7 +4512,7 @@
       <c r="L16" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="M16" s="73" t="s">
+      <c r="M16" s="77" t="s">
         <v>33</v>
       </c>
     </row>
@@ -4534,7 +4535,7 @@
       <c r="L17" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="M17" s="73"/>
+      <c r="M17" s="77"/>
     </row>
     <row r="18" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="82"/>
@@ -4555,7 +4556,7 @@
       <c r="L18" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="M18" s="73"/>
+      <c r="M18" s="77"/>
     </row>
     <row r="19" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="82"/>
@@ -4576,7 +4577,7 @@
       <c r="L19" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="M19" s="73"/>
+      <c r="M19" s="77"/>
     </row>
     <row r="20" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="82"/>
@@ -4597,7 +4598,7 @@
       <c r="L20" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="M20" s="73"/>
+      <c r="M20" s="77"/>
     </row>
     <row r="21" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="82"/>
@@ -4606,7 +4607,7 @@
       <c r="D21" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="E21" s="77" t="s">
+      <c r="E21" s="73" t="s">
         <v>225</v>
       </c>
       <c r="F21" s="50" t="s">
@@ -4620,16 +4621,16 @@
       <c r="L21" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="M21" s="73"/>
+      <c r="M21" s="77"/>
     </row>
     <row r="22" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="82"/>
       <c r="B22" s="83"/>
       <c r="C22" s="83"/>
-      <c r="D22" s="77" t="s">
+      <c r="D22" s="73" t="s">
         <v>225</v>
       </c>
-      <c r="E22" s="77"/>
+      <c r="E22" s="73"/>
       <c r="F22" s="50" t="s">
         <v>53</v>
       </c>
@@ -4641,13 +4642,13 @@
       <c r="L22" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="M22" s="73"/>
+      <c r="M22" s="77"/>
     </row>
     <row r="23" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="82"/>
       <c r="B23" s="83"/>
       <c r="C23" s="83"/>
-      <c r="D23" s="77"/>
+      <c r="D23" s="73"/>
       <c r="E23" s="70" t="s">
         <v>226</v>
       </c>
@@ -4662,7 +4663,7 @@
       <c r="L23" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="M23" s="73"/>
+      <c r="M23" s="77"/>
     </row>
     <row r="24" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="82"/>
@@ -4685,7 +4686,7 @@
       <c r="L24" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="M24" s="73"/>
+      <c r="M24" s="77"/>
     </row>
     <row r="25" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="83" t="s">
@@ -4707,7 +4708,7 @@
       <c r="L25" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="M25" s="73" t="s">
+      <c r="M25" s="77" t="s">
         <v>33</v>
       </c>
     </row>
@@ -4715,7 +4716,7 @@
       <c r="A26" s="83"/>
       <c r="B26" s="83"/>
       <c r="C26" s="83"/>
-      <c r="D26" s="77" t="s">
+      <c r="D26" s="73" t="s">
         <v>58</v>
       </c>
       <c r="E26" s="70"/>
@@ -4730,13 +4731,13 @@
       <c r="L26" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="M26" s="74"/>
+      <c r="M26" s="78"/>
     </row>
     <row r="27" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="83"/>
       <c r="B27" s="83"/>
       <c r="C27" s="83"/>
-      <c r="D27" s="77"/>
+      <c r="D27" s="73"/>
       <c r="E27" s="70" t="s">
         <v>230</v>
       </c>
@@ -4751,7 +4752,7 @@
       <c r="L27" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="M27" s="74"/>
+      <c r="M27" s="78"/>
     </row>
     <row r="28" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" s="83"/>
@@ -4772,7 +4773,7 @@
       <c r="L28" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="M28" s="74"/>
+      <c r="M28" s="78"/>
     </row>
     <row r="29" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="83" t="s">
@@ -4799,7 +4800,7 @@
       <c r="L29" s="67" t="s">
         <v>302</v>
       </c>
-      <c r="M29" s="73" t="s">
+      <c r="M29" s="77" t="s">
         <v>302</v>
       </c>
     </row>
@@ -4824,13 +4825,13 @@
       <c r="L30" s="67" t="s">
         <v>302</v>
       </c>
-      <c r="M30" s="74"/>
+      <c r="M30" s="78"/>
     </row>
     <row r="31" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="83"/>
       <c r="B31" s="83"/>
       <c r="C31" s="83"/>
-      <c r="D31" s="77" t="s">
+      <c r="D31" s="73" t="s">
         <v>44</v>
       </c>
       <c r="E31" s="70"/>
@@ -4845,13 +4846,13 @@
       <c r="L31" s="67" t="s">
         <v>302</v>
       </c>
-      <c r="M31" s="74"/>
+      <c r="M31" s="78"/>
     </row>
     <row r="32" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="83"/>
       <c r="B32" s="83"/>
       <c r="C32" s="83"/>
-      <c r="D32" s="77"/>
+      <c r="D32" s="73"/>
       <c r="E32" s="70"/>
       <c r="F32" s="50" t="s">
         <v>71</v>
@@ -4864,13 +4865,13 @@
       <c r="L32" s="67" t="s">
         <v>302</v>
       </c>
-      <c r="M32" s="74"/>
+      <c r="M32" s="78"/>
     </row>
     <row r="33" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" s="83"/>
       <c r="B33" s="83"/>
       <c r="C33" s="83"/>
-      <c r="D33" s="77"/>
+      <c r="D33" s="73"/>
       <c r="E33" s="70"/>
       <c r="F33" s="50" t="s">
         <v>72</v>
@@ -4883,13 +4884,13 @@
       <c r="L33" s="67" t="s">
         <v>302</v>
       </c>
-      <c r="M33" s="74"/>
+      <c r="M33" s="78"/>
     </row>
     <row r="34" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" s="83"/>
       <c r="B34" s="83"/>
       <c r="C34" s="83"/>
-      <c r="D34" s="77"/>
+      <c r="D34" s="73"/>
       <c r="E34" s="70"/>
       <c r="F34" s="50" t="s">
         <v>73</v>
@@ -4902,13 +4903,13 @@
       <c r="L34" s="67" t="s">
         <v>302</v>
       </c>
-      <c r="M34" s="74"/>
+      <c r="M34" s="78"/>
     </row>
     <row r="35" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="83"/>
       <c r="B35" s="83"/>
       <c r="C35" s="83"/>
-      <c r="D35" s="77"/>
+      <c r="D35" s="73"/>
       <c r="E35" s="70"/>
       <c r="F35" s="50" t="s">
         <v>74</v>
@@ -4921,13 +4922,13 @@
       <c r="L35" s="67" t="s">
         <v>302</v>
       </c>
-      <c r="M35" s="74"/>
+      <c r="M35" s="78"/>
     </row>
     <row r="36" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A36" s="83"/>
       <c r="B36" s="83"/>
       <c r="C36" s="83"/>
-      <c r="D36" s="77"/>
+      <c r="D36" s="73"/>
       <c r="E36" s="70" t="s">
         <v>107</v>
       </c>
@@ -4942,7 +4943,7 @@
       <c r="L36" s="67" t="s">
         <v>302</v>
       </c>
-      <c r="M36" s="74"/>
+      <c r="M36" s="78"/>
     </row>
     <row r="37" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="83" t="s">
@@ -4971,7 +4972,7 @@
       <c r="J37" s="66"/>
       <c r="K37" s="66"/>
       <c r="L37" s="72"/>
-      <c r="M37" s="73" t="s">
+      <c r="M37" s="77" t="s">
         <v>303</v>
       </c>
     </row>
@@ -4994,7 +4995,7 @@
       <c r="L38" s="67" t="s">
         <v>303</v>
       </c>
-      <c r="M38" s="74"/>
+      <c r="M38" s="78"/>
     </row>
     <row r="39" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="83" t="s">
@@ -5020,7 +5021,7 @@
       <c r="L39" s="47" t="s">
         <v>304</v>
       </c>
-      <c r="M39" s="73" t="s">
+      <c r="M39" s="77" t="s">
         <v>304</v>
       </c>
     </row>
@@ -5040,7 +5041,7 @@
       <c r="L40" s="47" t="s">
         <v>304</v>
       </c>
-      <c r="M40" s="74"/>
+      <c r="M40" s="78"/>
     </row>
     <row r="41" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="83"/>
@@ -5063,13 +5064,13 @@
       <c r="L41" s="47" t="s">
         <v>304</v>
       </c>
-      <c r="M41" s="74"/>
+      <c r="M41" s="78"/>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="83"/>
       <c r="B42" s="83"/>
       <c r="C42" s="83"/>
-      <c r="D42" s="77" t="s">
+      <c r="D42" s="73" t="s">
         <v>85</v>
       </c>
       <c r="E42" s="70"/>
@@ -5084,13 +5085,13 @@
       <c r="L42" s="47" t="s">
         <v>304</v>
       </c>
-      <c r="M42" s="74"/>
+      <c r="M42" s="78"/>
     </row>
     <row r="43" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A43" s="83"/>
       <c r="B43" s="83"/>
       <c r="C43" s="83"/>
-      <c r="D43" s="77"/>
+      <c r="D43" s="73"/>
       <c r="E43" s="70"/>
       <c r="F43" s="50" t="s">
         <v>93</v>
@@ -5103,13 +5104,13 @@
       <c r="L43" s="47" t="s">
         <v>304</v>
       </c>
-      <c r="M43" s="74"/>
+      <c r="M43" s="78"/>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="83"/>
       <c r="B44" s="83"/>
       <c r="C44" s="83"/>
-      <c r="D44" s="77"/>
+      <c r="D44" s="73"/>
       <c r="E44" s="70"/>
       <c r="F44" s="50" t="s">
         <v>94</v>
@@ -5122,13 +5123,13 @@
       <c r="L44" s="47" t="s">
         <v>304</v>
       </c>
-      <c r="M44" s="74"/>
+      <c r="M44" s="78"/>
     </row>
     <row r="45" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="83"/>
       <c r="B45" s="83"/>
       <c r="C45" s="83"/>
-      <c r="D45" s="77"/>
+      <c r="D45" s="73"/>
       <c r="E45" s="70"/>
       <c r="F45" s="50" t="s">
         <v>95</v>
@@ -5138,13 +5139,13 @@
       <c r="L45" s="47" t="s">
         <v>304</v>
       </c>
-      <c r="M45" s="74"/>
+      <c r="M45" s="78"/>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="83"/>
       <c r="B46" s="83"/>
       <c r="C46" s="83"/>
-      <c r="D46" s="77"/>
+      <c r="D46" s="73"/>
       <c r="E46" s="70"/>
       <c r="F46" s="50" t="s">
         <v>96</v>
@@ -5154,13 +5155,13 @@
       <c r="L46" s="47" t="s">
         <v>304</v>
       </c>
-      <c r="M46" s="74"/>
+      <c r="M46" s="78"/>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="83"/>
       <c r="B47" s="83"/>
       <c r="C47" s="83"/>
-      <c r="D47" s="77"/>
+      <c r="D47" s="73"/>
       <c r="E47" s="70"/>
       <c r="F47" s="50" t="s">
         <v>97</v>
@@ -5170,13 +5171,13 @@
       <c r="L47" s="47" t="s">
         <v>304</v>
       </c>
-      <c r="M47" s="74"/>
+      <c r="M47" s="78"/>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="83"/>
       <c r="B48" s="83"/>
       <c r="C48" s="83"/>
-      <c r="D48" s="77"/>
+      <c r="D48" s="73"/>
       <c r="E48" s="70"/>
       <c r="F48" s="50" t="s">
         <v>98</v>
@@ -5186,13 +5187,13 @@
       <c r="L48" s="47" t="s">
         <v>304</v>
       </c>
-      <c r="M48" s="74"/>
+      <c r="M48" s="78"/>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="83"/>
       <c r="B49" s="83"/>
       <c r="C49" s="83"/>
-      <c r="D49" s="77"/>
+      <c r="D49" s="73"/>
       <c r="E49" s="70"/>
       <c r="F49" s="50" t="s">
         <v>99</v>
@@ -5202,13 +5203,13 @@
       <c r="L49" s="47" t="s">
         <v>304</v>
       </c>
-      <c r="M49" s="74"/>
+      <c r="M49" s="78"/>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="83"/>
       <c r="B50" s="83"/>
       <c r="C50" s="83"/>
-      <c r="D50" s="77"/>
+      <c r="D50" s="73"/>
       <c r="E50" s="70"/>
       <c r="F50" s="50" t="s">
         <v>100</v>
@@ -5218,13 +5219,13 @@
       <c r="L50" s="47" t="s">
         <v>304</v>
       </c>
-      <c r="M50" s="74"/>
+      <c r="M50" s="78"/>
     </row>
     <row r="51" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="83"/>
       <c r="B51" s="83"/>
       <c r="C51" s="83"/>
-      <c r="D51" s="77"/>
+      <c r="D51" s="73"/>
       <c r="E51" s="70"/>
       <c r="F51" s="50" t="s">
         <v>101</v>
@@ -5234,13 +5235,13 @@
       <c r="L51" s="47" t="s">
         <v>304</v>
       </c>
-      <c r="M51" s="74"/>
+      <c r="M51" s="78"/>
     </row>
     <row r="52" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="83"/>
       <c r="B52" s="83"/>
       <c r="C52" s="83"/>
-      <c r="D52" s="77"/>
+      <c r="D52" s="73"/>
       <c r="E52" s="70"/>
       <c r="F52" s="50" t="s">
         <v>102</v>
@@ -5250,13 +5251,13 @@
       <c r="L52" s="47" t="s">
         <v>304</v>
       </c>
-      <c r="M52" s="74"/>
+      <c r="M52" s="78"/>
     </row>
     <row r="53" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A53" s="83"/>
       <c r="B53" s="83"/>
       <c r="C53" s="83"/>
-      <c r="D53" s="77"/>
+      <c r="D53" s="73"/>
       <c r="E53" s="70"/>
       <c r="F53" s="50" t="s">
         <v>103</v>
@@ -5266,7 +5267,7 @@
       <c r="L53" s="47" t="s">
         <v>304</v>
       </c>
-      <c r="M53" s="74"/>
+      <c r="M53" s="78"/>
     </row>
     <row r="54" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="83" t="s">
@@ -5288,9 +5289,9 @@
       <c r="I54" s="66"/>
       <c r="J54" s="67"/>
       <c r="L54" s="67" t="s">
-        <v>349</v>
-      </c>
-      <c r="M54" s="84" t="s">
+        <v>348</v>
+      </c>
+      <c r="M54" s="85" t="s">
         <v>305</v>
       </c>
     </row>
@@ -5308,9 +5309,9 @@
       <c r="I55" s="66"/>
       <c r="J55" s="47"/>
       <c r="L55" s="47" t="s">
-        <v>349</v>
-      </c>
-      <c r="M55" s="74"/>
+        <v>348</v>
+      </c>
+      <c r="M55" s="78"/>
     </row>
     <row r="56" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="83"/>
@@ -5319,7 +5320,7 @@
       <c r="D56" s="50" t="s">
         <v>107</v>
       </c>
-      <c r="E56" s="77" t="s">
+      <c r="E56" s="73" t="s">
         <v>153</v>
       </c>
       <c r="F56" s="50" t="s">
@@ -5328,81 +5329,81 @@
       <c r="I56" s="66"/>
       <c r="J56" s="67"/>
       <c r="L56" s="67" t="s">
-        <v>349</v>
-      </c>
-      <c r="M56" s="74"/>
+        <v>348</v>
+      </c>
+      <c r="M56" s="78"/>
     </row>
     <row r="57" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A57" s="83"/>
       <c r="B57" s="83"/>
       <c r="C57" s="83"/>
-      <c r="D57" s="77" t="s">
+      <c r="D57" s="73" t="s">
         <v>108</v>
       </c>
-      <c r="E57" s="77"/>
+      <c r="E57" s="73"/>
       <c r="F57" s="50" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="I57" s="66"/>
       <c r="J57" s="47"/>
       <c r="L57" s="47" t="s">
-        <v>349</v>
-      </c>
-      <c r="M57" s="74"/>
+        <v>348</v>
+      </c>
+      <c r="M57" s="78"/>
     </row>
     <row r="58" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="83"/>
       <c r="B58" s="83"/>
       <c r="C58" s="83"/>
-      <c r="D58" s="77"/>
-      <c r="E58" s="77"/>
+      <c r="D58" s="73"/>
+      <c r="E58" s="73"/>
       <c r="F58" s="50" t="s">
         <v>71</v>
       </c>
       <c r="I58" s="66"/>
       <c r="J58" s="47"/>
       <c r="L58" s="47" t="s">
-        <v>349</v>
-      </c>
-      <c r="M58" s="74"/>
+        <v>348</v>
+      </c>
+      <c r="M58" s="78"/>
     </row>
     <row r="59" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A59" s="83"/>
       <c r="B59" s="83"/>
       <c r="C59" s="83"/>
-      <c r="D59" s="77"/>
-      <c r="E59" s="77"/>
+      <c r="D59" s="73"/>
+      <c r="E59" s="73"/>
       <c r="F59" s="50" t="s">
         <v>112</v>
       </c>
       <c r="I59" s="66"/>
       <c r="J59" s="47"/>
       <c r="L59" s="47" t="s">
-        <v>349</v>
-      </c>
-      <c r="M59" s="74"/>
+        <v>348</v>
+      </c>
+      <c r="M59" s="78"/>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="83"/>
       <c r="B60" s="83"/>
       <c r="C60" s="83"/>
-      <c r="D60" s="77"/>
-      <c r="E60" s="77"/>
+      <c r="D60" s="73"/>
+      <c r="E60" s="73"/>
       <c r="F60" s="50" t="s">
         <v>113</v>
       </c>
       <c r="I60" s="66"/>
       <c r="J60" s="47"/>
       <c r="L60" s="47" t="s">
-        <v>349</v>
-      </c>
-      <c r="M60" s="74"/>
+        <v>348</v>
+      </c>
+      <c r="M60" s="78"/>
     </row>
     <row r="61" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" s="83"/>
       <c r="B61" s="83"/>
       <c r="C61" s="83"/>
-      <c r="D61" s="77"/>
+      <c r="D61" s="73"/>
       <c r="E61" s="70"/>
       <c r="F61" s="50" t="s">
         <v>114</v>
@@ -5410,15 +5411,15 @@
       <c r="I61" s="66"/>
       <c r="J61" s="47"/>
       <c r="L61" s="47" t="s">
-        <v>349</v>
-      </c>
-      <c r="M61" s="74"/>
+        <v>348</v>
+      </c>
+      <c r="M61" s="78"/>
     </row>
     <row r="62" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="83"/>
       <c r="B62" s="83"/>
       <c r="C62" s="83"/>
-      <c r="D62" s="77"/>
+      <c r="D62" s="73"/>
       <c r="E62" s="70"/>
       <c r="F62" s="50" t="s">
         <v>115</v>
@@ -5426,16 +5427,16 @@
       <c r="I62" s="66"/>
       <c r="J62" s="47"/>
       <c r="L62" s="47" t="s">
-        <v>349</v>
-      </c>
-      <c r="M62" s="74"/>
+        <v>348</v>
+      </c>
+      <c r="M62" s="78"/>
     </row>
     <row r="63" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" s="83"/>
       <c r="B63" s="83"/>
       <c r="C63" s="83"/>
-      <c r="D63" s="77"/>
-      <c r="E63" s="77" t="s">
+      <c r="D63" s="73"/>
+      <c r="E63" s="73" t="s">
         <v>153</v>
       </c>
       <c r="F63" s="50" t="s">
@@ -5443,9 +5444,9 @@
       </c>
       <c r="J63" s="47"/>
       <c r="L63" s="47" t="s">
-        <v>349</v>
-      </c>
-      <c r="M63" s="74"/>
+        <v>348</v>
+      </c>
+      <c r="M63" s="78"/>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="83" t="s">
@@ -5457,19 +5458,19 @@
       <c r="C64" s="83" t="s">
         <v>321</v>
       </c>
-      <c r="D64" s="77" t="s">
+      <c r="D64" s="73" t="s">
         <v>120</v>
       </c>
-      <c r="E64" s="77"/>
-      <c r="F64" s="77" t="s">
+      <c r="E64" s="73"/>
+      <c r="F64" s="73" t="s">
         <v>235</v>
       </c>
       <c r="I64" s="66"/>
       <c r="J64" s="47"/>
       <c r="L64" s="47" t="s">
-        <v>349</v>
-      </c>
-      <c r="M64" s="84" t="s">
+        <v>348</v>
+      </c>
+      <c r="M64" s="85" t="s">
         <v>310</v>
       </c>
     </row>
@@ -5477,47 +5478,47 @@
       <c r="A65" s="83"/>
       <c r="B65" s="83"/>
       <c r="C65" s="83"/>
-      <c r="D65" s="77"/>
-      <c r="E65" s="77"/>
-      <c r="F65" s="77"/>
+      <c r="D65" s="73"/>
+      <c r="E65" s="73"/>
+      <c r="F65" s="73"/>
       <c r="I65" s="66"/>
       <c r="J65" s="47"/>
       <c r="L65" s="47" t="s">
-        <v>349</v>
-      </c>
-      <c r="M65" s="74"/>
+        <v>348</v>
+      </c>
+      <c r="M65" s="78"/>
     </row>
     <row r="66" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A66" s="83"/>
       <c r="B66" s="83"/>
       <c r="C66" s="83"/>
-      <c r="D66" s="77"/>
-      <c r="E66" s="77"/>
+      <c r="D66" s="73"/>
+      <c r="E66" s="73"/>
       <c r="F66" s="50" t="s">
         <v>112</v>
       </c>
       <c r="I66" s="66"/>
       <c r="J66" s="47"/>
       <c r="L66" s="47" t="s">
-        <v>349</v>
-      </c>
-      <c r="M66" s="74"/>
+        <v>348</v>
+      </c>
+      <c r="M66" s="78"/>
     </row>
     <row r="67" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" s="83"/>
       <c r="B67" s="83"/>
       <c r="C67" s="83"/>
-      <c r="D67" s="77"/>
-      <c r="E67" s="77"/>
+      <c r="D67" s="73"/>
+      <c r="E67" s="73"/>
       <c r="F67" s="50" t="s">
         <v>124</v>
       </c>
       <c r="I67" s="66"/>
       <c r="J67" s="47"/>
       <c r="L67" s="47" t="s">
-        <v>349</v>
-      </c>
-      <c r="M67" s="74"/>
+        <v>348</v>
+      </c>
+      <c r="M67" s="78"/>
     </row>
     <row r="68" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A68" s="83" t="s">
@@ -5539,93 +5540,93 @@
       <c r="I68" s="66"/>
       <c r="J68" s="47"/>
       <c r="L68" s="47" t="s">
-        <v>349</v>
-      </c>
-      <c r="M68" s="73" t="s">
+        <v>348</v>
+      </c>
+      <c r="M68" s="77" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="69" spans="1:13" ht="90" x14ac:dyDescent="0.25">
       <c r="A69" s="83"/>
-      <c r="B69" s="74"/>
-      <c r="C69" s="74"/>
+      <c r="B69" s="78"/>
+      <c r="C69" s="78"/>
       <c r="D69" s="50" t="s">
         <v>127</v>
       </c>
-      <c r="E69" s="77" t="s">
+      <c r="E69" s="73" t="s">
         <v>153</v>
       </c>
       <c r="F69" s="50" t="s">
         <v>111</v>
       </c>
       <c r="G69" s="66" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="I69" s="66"/>
       <c r="J69" s="47"/>
       <c r="L69" s="47" t="s">
-        <v>349</v>
-      </c>
-      <c r="M69" s="74"/>
+        <v>348</v>
+      </c>
+      <c r="M69" s="78"/>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" s="83"/>
-      <c r="B70" s="74"/>
-      <c r="C70" s="74"/>
+      <c r="B70" s="78"/>
+      <c r="C70" s="78"/>
       <c r="D70" s="50" t="s">
         <v>128</v>
       </c>
-      <c r="E70" s="77"/>
+      <c r="E70" s="73"/>
       <c r="F70" s="50" t="s">
+        <v>351</v>
+      </c>
+      <c r="I70" s="66" t="s">
         <v>352</v>
       </c>
-      <c r="I70" s="66" t="s">
+      <c r="J70" s="47" t="s">
         <v>353</v>
       </c>
-      <c r="J70" s="47" t="s">
-        <v>354</v>
-      </c>
       <c r="L70" s="47"/>
-      <c r="M70" s="74"/>
+      <c r="M70" s="78"/>
     </row>
     <row r="71" spans="1:13" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="83"/>
-      <c r="B71" s="74"/>
-      <c r="C71" s="74"/>
+      <c r="B71" s="78"/>
+      <c r="C71" s="78"/>
       <c r="D71" s="68"/>
-      <c r="E71" s="77"/>
+      <c r="E71" s="73"/>
       <c r="F71" s="57" t="s">
         <v>242</v>
       </c>
       <c r="I71" s="66"/>
       <c r="J71" s="47"/>
       <c r="L71" s="47" t="s">
-        <v>349</v>
-      </c>
-      <c r="M71" s="74"/>
+        <v>348</v>
+      </c>
+      <c r="M71" s="78"/>
     </row>
     <row r="72" spans="1:13" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="83"/>
-      <c r="B72" s="74"/>
-      <c r="C72" s="74"/>
+      <c r="B72" s="78"/>
+      <c r="C72" s="78"/>
       <c r="D72" s="68"/>
-      <c r="E72" s="77"/>
+      <c r="E72" s="73"/>
       <c r="F72" s="57" t="s">
         <v>243</v>
       </c>
       <c r="I72" s="66"/>
       <c r="J72" s="47"/>
       <c r="L72" s="47" t="s">
-        <v>355</v>
-      </c>
-      <c r="M72" s="74"/>
+        <v>354</v>
+      </c>
+      <c r="M72" s="78"/>
     </row>
     <row r="73" spans="1:13" s="44" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A73" s="83"/>
-      <c r="B73" s="74"/>
-      <c r="C73" s="74"/>
+      <c r="B73" s="78"/>
+      <c r="C73" s="78"/>
       <c r="D73" s="68"/>
-      <c r="E73" s="77"/>
+      <c r="E73" s="73"/>
       <c r="F73" s="57" t="s">
         <v>168</v>
       </c>
@@ -5634,12 +5635,12 @@
       <c r="L73" s="47" t="s">
         <v>200</v>
       </c>
-      <c r="M73" s="74"/>
+      <c r="M73" s="78"/>
     </row>
     <row r="74" spans="1:13" s="44" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A74" s="83"/>
-      <c r="B74" s="74"/>
-      <c r="C74" s="74"/>
+      <c r="B74" s="78"/>
+      <c r="C74" s="78"/>
       <c r="D74" s="68"/>
       <c r="E74" s="70"/>
       <c r="F74" s="57" t="s">
@@ -5650,15 +5651,15 @@
       <c r="L74" s="47" t="s">
         <v>200</v>
       </c>
-      <c r="M74" s="74"/>
+      <c r="M74" s="78"/>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" s="83"/>
-      <c r="B75" s="74"/>
-      <c r="C75" s="74"/>
+      <c r="B75" s="78"/>
+      <c r="C75" s="78"/>
       <c r="D75" s="69"/>
       <c r="F75" s="57"/>
-      <c r="M75" s="74"/>
+      <c r="M75" s="78"/>
     </row>
     <row r="76" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A76" s="83" t="s">
@@ -5682,9 +5683,9 @@
       <c r="I76" s="66"/>
       <c r="J76" s="47"/>
       <c r="L76" s="47" t="s">
-        <v>349</v>
-      </c>
-      <c r="M76" s="84" t="s">
+        <v>348</v>
+      </c>
+      <c r="M76" s="85" t="s">
         <v>305</v>
       </c>
     </row>
@@ -5704,9 +5705,9 @@
       <c r="I77" s="66"/>
       <c r="J77" s="67"/>
       <c r="L77" s="67" t="s">
-        <v>349</v>
-      </c>
-      <c r="M77" s="74"/>
+        <v>348</v>
+      </c>
+      <c r="M77" s="78"/>
     </row>
     <row r="78" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="83" t="s">
@@ -5718,19 +5719,19 @@
       <c r="C78" s="83" t="s">
         <v>288</v>
       </c>
-      <c r="D78" s="77" t="s">
+      <c r="D78" s="73" t="s">
         <v>237</v>
       </c>
       <c r="E78" s="70"/>
-      <c r="F78" s="77" t="s">
+      <c r="F78" s="73" t="s">
         <v>238</v>
       </c>
       <c r="I78" s="66"/>
       <c r="J78" s="67"/>
       <c r="L78" s="67" t="s">
-        <v>349</v>
-      </c>
-      <c r="M78" s="84" t="s">
+        <v>348</v>
+      </c>
+      <c r="M78" s="85" t="s">
         <v>309</v>
       </c>
     </row>
@@ -5738,43 +5739,43 @@
       <c r="A79" s="83"/>
       <c r="B79" s="83"/>
       <c r="C79" s="83"/>
-      <c r="D79" s="77"/>
+      <c r="D79" s="73"/>
       <c r="E79" s="70"/>
-      <c r="F79" s="77"/>
+      <c r="F79" s="73"/>
       <c r="I79" s="66"/>
       <c r="J79" s="67"/>
       <c r="L79" s="67" t="s">
-        <v>349</v>
-      </c>
-      <c r="M79" s="74"/>
+        <v>348</v>
+      </c>
+      <c r="M79" s="78"/>
     </row>
     <row r="80" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A80" s="83"/>
       <c r="B80" s="83"/>
       <c r="C80" s="83"/>
-      <c r="D80" s="77"/>
+      <c r="D80" s="73"/>
       <c r="E80" s="70"/>
-      <c r="F80" s="77"/>
+      <c r="F80" s="73"/>
       <c r="I80" s="66"/>
       <c r="J80" s="67"/>
       <c r="L80" s="67" t="s">
-        <v>349</v>
-      </c>
-      <c r="M80" s="74"/>
+        <v>348</v>
+      </c>
+      <c r="M80" s="78"/>
     </row>
     <row r="81" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A81" s="83"/>
       <c r="B81" s="83"/>
       <c r="C81" s="83"/>
-      <c r="D81" s="77"/>
+      <c r="D81" s="73"/>
       <c r="E81" s="70"/>
-      <c r="F81" s="77"/>
+      <c r="F81" s="73"/>
       <c r="I81" s="66"/>
       <c r="J81" s="67"/>
       <c r="L81" s="67" t="s">
-        <v>349</v>
-      </c>
-      <c r="M81" s="74"/>
+        <v>348</v>
+      </c>
+      <c r="M81" s="78"/>
     </row>
     <row r="82" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A82" s="49" t="s">
@@ -5792,10 +5793,10 @@
         <v>123</v>
       </c>
       <c r="I82" s="66" t="s">
+        <v>355</v>
+      </c>
+      <c r="J82" s="67" t="s">
         <v>356</v>
-      </c>
-      <c r="J82" s="67" t="s">
-        <v>357</v>
       </c>
       <c r="L82" s="67"/>
       <c r="M82" s="61" t="s">
@@ -5824,15 +5825,15 @@
       <c r="L83" s="67" t="s">
         <v>307</v>
       </c>
-      <c r="M83" s="73" t="s">
+      <c r="M83" s="77" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="84" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A84" s="83"/>
-      <c r="B84" s="77"/>
-      <c r="C84" s="77"/>
-      <c r="D84" s="77" t="s">
+      <c r="B84" s="73"/>
+      <c r="C84" s="73"/>
+      <c r="D84" s="73" t="s">
         <v>153</v>
       </c>
       <c r="E84" s="70"/>
@@ -5844,15 +5845,15 @@
       <c r="L84" s="67" t="s">
         <v>307</v>
       </c>
-      <c r="M84" s="74"/>
+      <c r="M84" s="78"/>
     </row>
     <row r="85" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A85" s="83"/>
-      <c r="B85" s="77"/>
-      <c r="C85" s="77"/>
-      <c r="D85" s="77"/>
+      <c r="B85" s="73"/>
+      <c r="C85" s="73"/>
+      <c r="D85" s="73"/>
       <c r="E85" s="70"/>
-      <c r="F85" s="77" t="s">
+      <c r="F85" s="73" t="s">
         <v>241</v>
       </c>
       <c r="I85" s="66"/>
@@ -5860,49 +5861,49 @@
       <c r="L85" s="67" t="s">
         <v>307</v>
       </c>
-      <c r="M85" s="74"/>
+      <c r="M85" s="78"/>
     </row>
     <row r="86" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A86" s="83"/>
-      <c r="B86" s="77"/>
-      <c r="C86" s="77"/>
-      <c r="D86" s="77"/>
+      <c r="B86" s="73"/>
+      <c r="C86" s="73"/>
+      <c r="D86" s="73"/>
       <c r="E86" s="70"/>
-      <c r="F86" s="77"/>
+      <c r="F86" s="73"/>
       <c r="I86" s="66"/>
       <c r="J86" s="67"/>
       <c r="L86" s="67" t="s">
         <v>307</v>
       </c>
-      <c r="M86" s="74"/>
+      <c r="M86" s="78"/>
     </row>
     <row r="87" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A87" s="83"/>
-      <c r="B87" s="77"/>
-      <c r="C87" s="77"/>
-      <c r="D87" s="77"/>
+      <c r="B87" s="73"/>
+      <c r="C87" s="73"/>
+      <c r="D87" s="73"/>
       <c r="E87" s="70"/>
-      <c r="F87" s="77"/>
+      <c r="F87" s="73"/>
       <c r="I87" s="66"/>
       <c r="J87" s="67"/>
       <c r="L87" s="67" t="s">
         <v>307</v>
       </c>
-      <c r="M87" s="74"/>
+      <c r="M87" s="78"/>
     </row>
     <row r="88" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A88" s="83"/>
-      <c r="B88" s="77"/>
-      <c r="C88" s="77"/>
-      <c r="D88" s="77"/>
+      <c r="B88" s="73"/>
+      <c r="C88" s="73"/>
+      <c r="D88" s="73"/>
       <c r="E88" s="70"/>
-      <c r="F88" s="77"/>
+      <c r="F88" s="73"/>
       <c r="I88" s="66"/>
       <c r="J88" s="67"/>
       <c r="L88" s="67" t="s">
         <v>307</v>
       </c>
-      <c r="M88" s="74"/>
+      <c r="M88" s="78"/>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" s="58"/>
@@ -5969,6 +5970,64 @@
     </row>
   </sheetData>
   <mergeCells count="74">
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="E56:E60"/>
+    <mergeCell ref="E63:E67"/>
+    <mergeCell ref="E69:E73"/>
+    <mergeCell ref="M76:M77"/>
+    <mergeCell ref="F64:F65"/>
+    <mergeCell ref="M78:M81"/>
+    <mergeCell ref="M83:M88"/>
+    <mergeCell ref="M37:M38"/>
+    <mergeCell ref="M39:M53"/>
+    <mergeCell ref="M54:M63"/>
+    <mergeCell ref="M64:M67"/>
+    <mergeCell ref="M68:M75"/>
+    <mergeCell ref="M3:M7"/>
+    <mergeCell ref="M9:M15"/>
+    <mergeCell ref="M16:M24"/>
+    <mergeCell ref="M25:M28"/>
+    <mergeCell ref="M29:M36"/>
+    <mergeCell ref="A3:A8"/>
+    <mergeCell ref="A16:A24"/>
+    <mergeCell ref="A9:A15"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="B3:B8"/>
+    <mergeCell ref="C3:C8"/>
+    <mergeCell ref="B9:B15"/>
+    <mergeCell ref="C9:C15"/>
+    <mergeCell ref="B16:B24"/>
+    <mergeCell ref="C16:C24"/>
+    <mergeCell ref="F3:F7"/>
+    <mergeCell ref="F9:F11"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="D3:D7"/>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="E3:E7"/>
+    <mergeCell ref="E9:E11"/>
+    <mergeCell ref="D64:D67"/>
+    <mergeCell ref="A25:A28"/>
+    <mergeCell ref="A29:A36"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="A39:A53"/>
+    <mergeCell ref="A54:A63"/>
+    <mergeCell ref="A64:A67"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="D31:D36"/>
+    <mergeCell ref="D42:D53"/>
+    <mergeCell ref="D57:D63"/>
+    <mergeCell ref="B25:B28"/>
+    <mergeCell ref="C25:C28"/>
+    <mergeCell ref="B29:B36"/>
+    <mergeCell ref="C29:C36"/>
+    <mergeCell ref="A68:A75"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="A78:A81"/>
+    <mergeCell ref="A83:A88"/>
+    <mergeCell ref="D84:D88"/>
+    <mergeCell ref="B83:B88"/>
+    <mergeCell ref="C83:C88"/>
+    <mergeCell ref="C76:C77"/>
     <mergeCell ref="F78:F81"/>
     <mergeCell ref="D78:D81"/>
     <mergeCell ref="F85:F88"/>
@@ -5985,64 +6044,6 @@
     <mergeCell ref="B68:B75"/>
     <mergeCell ref="C68:C75"/>
     <mergeCell ref="B76:B77"/>
-    <mergeCell ref="A68:A75"/>
-    <mergeCell ref="A76:A77"/>
-    <mergeCell ref="A78:A81"/>
-    <mergeCell ref="A83:A88"/>
-    <mergeCell ref="D84:D88"/>
-    <mergeCell ref="B83:B88"/>
-    <mergeCell ref="C83:C88"/>
-    <mergeCell ref="C76:C77"/>
-    <mergeCell ref="D64:D67"/>
-    <mergeCell ref="A25:A28"/>
-    <mergeCell ref="A29:A36"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="A39:A53"/>
-    <mergeCell ref="A54:A63"/>
-    <mergeCell ref="A64:A67"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="D31:D36"/>
-    <mergeCell ref="D42:D53"/>
-    <mergeCell ref="D57:D63"/>
-    <mergeCell ref="B25:B28"/>
-    <mergeCell ref="C25:C28"/>
-    <mergeCell ref="B29:B36"/>
-    <mergeCell ref="C29:C36"/>
-    <mergeCell ref="F3:F7"/>
-    <mergeCell ref="F9:F11"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="D3:D7"/>
-    <mergeCell ref="D9:D11"/>
-    <mergeCell ref="E3:E7"/>
-    <mergeCell ref="E9:E11"/>
-    <mergeCell ref="A3:A8"/>
-    <mergeCell ref="A16:A24"/>
-    <mergeCell ref="A9:A15"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="B3:B8"/>
-    <mergeCell ref="C3:C8"/>
-    <mergeCell ref="B9:B15"/>
-    <mergeCell ref="C9:C15"/>
-    <mergeCell ref="B16:B24"/>
-    <mergeCell ref="C16:C24"/>
-    <mergeCell ref="M3:M7"/>
-    <mergeCell ref="M9:M15"/>
-    <mergeCell ref="M16:M24"/>
-    <mergeCell ref="M25:M28"/>
-    <mergeCell ref="M29:M36"/>
-    <mergeCell ref="M78:M81"/>
-    <mergeCell ref="M83:M88"/>
-    <mergeCell ref="M37:M38"/>
-    <mergeCell ref="M39:M53"/>
-    <mergeCell ref="M54:M63"/>
-    <mergeCell ref="M64:M67"/>
-    <mergeCell ref="M68:M75"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="E56:E60"/>
-    <mergeCell ref="E63:E67"/>
-    <mergeCell ref="E69:E73"/>
-    <mergeCell ref="M76:M77"/>
-    <mergeCell ref="F64:F65"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="M2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>

--- a/Corpus/MLR_Corpus.xlsx
+++ b/Corpus/MLR_Corpus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workouts\Projects\Acadia\Masori-Chatbot-Dev-main\Masori-Chatbot-Dev-main\Corpus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40995FD1-68B4-47FD-9C70-CDC7E8A07C00}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6A7D64D-78AA-40EB-AA02-954D260601AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -63,7 +63,7 @@
     I know more info is in the response and further down in the H&amp;D section but I think before people ask the second question, they may want to know what hallucinations and delusions are first as most people cannot define them</t>
       </text>
     </comment>
-    <comment ref="E2" authorId="2" shapeId="0" xr:uid="{BB84B340-AF06-4E0C-AE4F-B69F85FAF690}">
+    <comment ref="F2" authorId="2" shapeId="0" xr:uid="{BB84B340-AF06-4E0C-AE4F-B69F85FAF690}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -71,7 +71,7 @@
     Provide link to information on site in response</t>
       </text>
     </comment>
-    <comment ref="E3" authorId="3" shapeId="0" xr:uid="{C3DFF50C-EF22-47C6-868C-F20870D79A79}">
+    <comment ref="F3" authorId="3" shapeId="0" xr:uid="{C3DFF50C-EF22-47C6-868C-F20870D79A79}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -79,7 +79,7 @@
     Provide link to information on site in response</t>
       </text>
     </comment>
-    <comment ref="E4" authorId="4" shapeId="0" xr:uid="{2B46EE82-DD41-45F9-B431-51F301EDCADE}">
+    <comment ref="F4" authorId="4" shapeId="0" xr:uid="{2B46EE82-DD41-45F9-B431-51F301EDCADE}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -223,7 +223,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="360">
   <si>
     <t>Keywords</t>
   </si>
@@ -1604,7 +1604,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1768,6 +1768,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1805,6 +1811,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2108,13 +2115,13 @@
   <threadedComment ref="C2" dT="2021-02-02T18:20:38.75" personId="{1295C466-BD7C-441E-8FE1-FBB710452072}" id="{44931C6B-2351-47CE-AEF8-ED6B0BCA2ACB}" parentId="{DD2E8F32-48A3-491E-956A-AC81F7E38ADB}">
     <text>I know more info is in the response and further down in the H&amp;D section but I think before people ask the second question, they may want to know what hallucinations and delusions are first as most people cannot define them</text>
   </threadedComment>
-  <threadedComment ref="E2" dT="2021-02-03T17:17:22.96" personId="{6851B53B-E571-4C8C-A62D-03D0D1B89898}" id="{BB84B340-AF06-4E0C-AE4F-B69F85FAF690}">
+  <threadedComment ref="F2" dT="2021-02-03T17:17:22.96" personId="{6851B53B-E571-4C8C-A62D-03D0D1B89898}" id="{BB84B340-AF06-4E0C-AE4F-B69F85FAF690}">
     <text>Provide link to information on site in response</text>
   </threadedComment>
-  <threadedComment ref="E3" dT="2021-02-03T17:17:47.18" personId="{6851B53B-E571-4C8C-A62D-03D0D1B89898}" id="{C3DFF50C-EF22-47C6-868C-F20870D79A79}">
+  <threadedComment ref="F3" dT="2021-02-03T17:17:47.18" personId="{6851B53B-E571-4C8C-A62D-03D0D1B89898}" id="{C3DFF50C-EF22-47C6-868C-F20870D79A79}">
     <text>Provide link to information on site in response</text>
   </threadedComment>
-  <threadedComment ref="E4" dT="2021-02-03T17:17:55.69" personId="{6851B53B-E571-4C8C-A62D-03D0D1B89898}" id="{2B46EE82-DD41-45F9-B431-51F301EDCADE}">
+  <threadedComment ref="F4" dT="2021-02-03T17:17:55.69" personId="{6851B53B-E571-4C8C-A62D-03D0D1B89898}" id="{2B46EE82-DD41-45F9-B431-51F301EDCADE}">
     <text>Provide link to information on site in response</text>
   </threadedComment>
   <threadedComment ref="B5" dT="2021-02-02T17:57:21.62" personId="{1295C466-BD7C-441E-8FE1-FBB710452072}" id="{190DBEEA-93D9-4BFD-AD5C-1FA3C401F8CC}">
@@ -2175,11 +2182,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K47"/>
+  <dimension ref="A1:M47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A30" sqref="A30:A36"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2188,12 +2195,13 @@
     <col min="2" max="2" width="27.140625" style="44" customWidth="1"/>
     <col min="3" max="3" width="47.140625" style="44" customWidth="1"/>
     <col min="4" max="4" width="41.85546875" style="58" customWidth="1"/>
-    <col min="5" max="5" width="83.7109375" customWidth="1"/>
-    <col min="6" max="10" width="37.28515625" style="44" customWidth="1"/>
-    <col min="11" max="11" width="74" customWidth="1"/>
+    <col min="5" max="5" width="41.85546875" style="74" customWidth="1"/>
+    <col min="6" max="6" width="83.7109375" customWidth="1"/>
+    <col min="7" max="12" width="37.28515625" style="44" customWidth="1"/>
+    <col min="13" max="13" width="74" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="51" t="s">
         <v>1</v>
       </c>
@@ -2206,202 +2214,240 @@
       <c r="D1" s="51" t="s">
         <v>204</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="51" t="s">
+        <v>357</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="45" t="s">
+      <c r="G1" s="45" t="s">
         <v>340</v>
       </c>
-      <c r="G1" s="45" t="s">
+      <c r="H1" s="45" t="s">
         <v>341</v>
       </c>
-      <c r="H1" s="45" t="s">
+      <c r="I1" s="45" t="s">
         <v>342</v>
       </c>
-      <c r="I1" s="45" t="s">
+      <c r="J1" s="45" t="s">
         <v>343</v>
       </c>
-      <c r="J1" s="45" t="s">
+      <c r="K1" s="45" t="s">
         <v>344</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="45" t="s">
+        <v>358</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="31" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A2" s="75" t="s">
+    <row r="2" spans="1:13" s="31" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A2" s="77" t="s">
         <v>253</v>
       </c>
-      <c r="B2" s="75" t="s">
+      <c r="B2" s="77" t="s">
         <v>260</v>
       </c>
-      <c r="C2" s="75" t="s">
+      <c r="C2" s="77" t="s">
         <v>312</v>
       </c>
       <c r="D2" s="58" t="s">
         <v>174</v>
       </c>
-      <c r="E2" s="30" t="s">
+      <c r="E2" s="74"/>
+      <c r="F2" s="30" t="s">
         <v>205</v>
       </c>
-      <c r="F2" s="66"/>
       <c r="G2" s="66"/>
       <c r="H2" s="66"/>
       <c r="I2" s="66"/>
       <c r="J2" s="66"/>
-      <c r="K2" s="80" t="s">
+      <c r="K2" s="66"/>
+      <c r="L2" s="67" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" s="31" customFormat="1" ht="120" x14ac:dyDescent="0.25">
-      <c r="A3" s="76"/>
-      <c r="B3" s="73"/>
-      <c r="C3" s="76"/>
+      <c r="M2" s="82" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" s="31" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+      <c r="A3" s="78"/>
+      <c r="B3" s="75"/>
+      <c r="C3" s="78"/>
       <c r="D3" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="32" t="s">
+      <c r="E3" s="74"/>
+      <c r="F3" s="32" t="s">
         <v>248</v>
       </c>
-      <c r="F3" s="66"/>
       <c r="G3" s="66"/>
       <c r="H3" s="66"/>
       <c r="I3" s="66"/>
       <c r="J3" s="66"/>
-      <c r="K3" s="78"/>
-    </row>
-    <row r="4" spans="1:11" s="31" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" s="76"/>
-      <c r="B4" s="73"/>
-      <c r="C4" s="76"/>
+      <c r="K3" s="66"/>
+      <c r="L3" s="67" t="s">
+        <v>294</v>
+      </c>
+      <c r="M3" s="80"/>
+    </row>
+    <row r="4" spans="1:13" s="31" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="78"/>
+      <c r="B4" s="75"/>
+      <c r="C4" s="78"/>
       <c r="D4" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="32" t="s">
+      <c r="E4" s="74"/>
+      <c r="F4" s="32" t="s">
         <v>206</v>
       </c>
-      <c r="F4" s="66"/>
       <c r="G4" s="66"/>
       <c r="H4" s="66"/>
       <c r="I4" s="66"/>
       <c r="J4" s="66"/>
-      <c r="K4" s="78"/>
-    </row>
-    <row r="5" spans="1:11" ht="105" x14ac:dyDescent="0.25">
-      <c r="A5" s="74" t="s">
+      <c r="K4" s="66"/>
+      <c r="L4" s="67" t="s">
+        <v>294</v>
+      </c>
+      <c r="M4" s="80"/>
+    </row>
+    <row r="5" spans="1:13" ht="105" x14ac:dyDescent="0.25">
+      <c r="A5" s="76" t="s">
         <v>172</v>
       </c>
-      <c r="B5" s="73" t="s">
+      <c r="B5" s="75" t="s">
         <v>322</v>
       </c>
-      <c r="C5" s="73" t="s">
+      <c r="C5" s="75" t="s">
         <v>261</v>
       </c>
       <c r="D5" s="58" t="s">
         <v>173</v>
       </c>
-      <c r="E5" s="32" t="s">
+      <c r="F5" s="32" t="s">
         <v>207</v>
       </c>
-      <c r="F5" s="66"/>
       <c r="G5" s="66"/>
       <c r="H5" s="66"/>
       <c r="I5" s="66"/>
       <c r="J5" s="66"/>
-      <c r="K5" s="77" t="s">
+      <c r="K5" s="66"/>
+      <c r="L5" s="67" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" ht="120" x14ac:dyDescent="0.25">
-      <c r="A6" s="74"/>
-      <c r="B6" s="74"/>
-      <c r="C6" s="74"/>
+      <c r="M5" s="79" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="120" x14ac:dyDescent="0.25">
+      <c r="A6" s="76"/>
+      <c r="B6" s="76"/>
+      <c r="C6" s="76"/>
       <c r="D6" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="33" t="s">
+      <c r="F6" s="33" t="s">
         <v>208</v>
       </c>
-      <c r="F6" s="66"/>
       <c r="G6" s="66"/>
       <c r="H6" s="66"/>
       <c r="I6" s="66"/>
       <c r="J6" s="66"/>
-      <c r="K6" s="78"/>
-    </row>
-    <row r="7" spans="1:11" s="44" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A7" s="73" t="s">
+      <c r="K6" s="66"/>
+      <c r="L6" s="67" t="s">
+        <v>293</v>
+      </c>
+      <c r="M6" s="80"/>
+    </row>
+    <row r="7" spans="1:13" s="44" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A7" s="75" t="s">
         <v>326</v>
       </c>
-      <c r="B7" s="73" t="s">
+      <c r="B7" s="75" t="s">
         <v>327</v>
       </c>
-      <c r="C7" s="73" t="s">
+      <c r="C7" s="75" t="s">
         <v>332</v>
       </c>
       <c r="D7" s="62" t="s">
         <v>328</v>
       </c>
-      <c r="E7" s="62" t="s">
+      <c r="E7" s="74"/>
+      <c r="F7" s="62" t="s">
         <v>329</v>
       </c>
-      <c r="F7" s="66"/>
       <c r="G7" s="66"/>
       <c r="H7" s="66"/>
       <c r="I7" s="66"/>
       <c r="J7" s="66"/>
-      <c r="K7" s="77" t="s">
+      <c r="K7" s="66"/>
+      <c r="L7" s="67" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" s="44" customFormat="1" ht="150" x14ac:dyDescent="0.25">
-      <c r="A8" s="73"/>
-      <c r="B8" s="73"/>
-      <c r="C8" s="73"/>
+      <c r="M7" s="79" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" s="44" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+      <c r="A8" s="75"/>
+      <c r="B8" s="75"/>
+      <c r="C8" s="75"/>
       <c r="D8" s="62" t="s">
         <v>330</v>
       </c>
-      <c r="E8" s="62" t="s">
+      <c r="E8" s="74"/>
+      <c r="F8" s="62" t="s">
         <v>331</v>
       </c>
-      <c r="F8" s="66"/>
       <c r="G8" s="66"/>
       <c r="H8" s="66"/>
       <c r="I8" s="66"/>
       <c r="J8" s="66"/>
-      <c r="K8" s="78"/>
-    </row>
-    <row r="9" spans="1:11" s="44" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A9" s="73"/>
-      <c r="B9" s="73"/>
-      <c r="C9" s="73"/>
+      <c r="K8" s="66"/>
+      <c r="L8" s="67" t="s">
+        <v>338</v>
+      </c>
+      <c r="M8" s="80"/>
+    </row>
+    <row r="9" spans="1:13" s="44" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9" s="75"/>
+      <c r="B9" s="75"/>
+      <c r="C9" s="75"/>
       <c r="D9" s="62" t="s">
         <v>333</v>
       </c>
-      <c r="E9" s="62" t="s">
+      <c r="E9" s="74"/>
+      <c r="F9" s="62" t="s">
         <v>334</v>
       </c>
-      <c r="F9" s="66"/>
       <c r="G9" s="66"/>
       <c r="H9" s="66"/>
       <c r="I9" s="66"/>
       <c r="J9" s="66"/>
-      <c r="K9" s="78"/>
-    </row>
-    <row r="10" spans="1:11" s="44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="73"/>
-      <c r="B10" s="73"/>
-      <c r="C10" s="73"/>
+      <c r="K9" s="66"/>
+      <c r="L9" s="67" t="s">
+        <v>338</v>
+      </c>
+      <c r="M9" s="80"/>
+    </row>
+    <row r="10" spans="1:13" s="44" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="75"/>
+      <c r="B10" s="75"/>
+      <c r="C10" s="75"/>
       <c r="D10" s="62"/>
-      <c r="E10" s="62"/>
-      <c r="F10" s="66"/>
+      <c r="E10" s="74"/>
+      <c r="F10" s="62"/>
       <c r="G10" s="66"/>
       <c r="H10" s="66"/>
       <c r="I10" s="66"/>
       <c r="J10" s="66"/>
-      <c r="K10" s="65"/>
-    </row>
-    <row r="11" spans="1:11" s="44" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="K10" s="66"/>
+      <c r="L10" s="74"/>
+      <c r="M10" s="65"/>
+    </row>
+    <row r="11" spans="1:13" s="44" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="62" t="s">
         <v>335</v>
       </c>
@@ -2412,268 +2458,312 @@
         <v>339</v>
       </c>
       <c r="D11" s="62"/>
-      <c r="E11" s="62" t="s">
+      <c r="E11" s="74"/>
+      <c r="F11" s="62" t="s">
         <v>336</v>
       </c>
-      <c r="F11" s="66"/>
       <c r="G11" s="66"/>
       <c r="H11" s="66"/>
       <c r="I11" s="66"/>
       <c r="J11" s="66"/>
-      <c r="K11" s="64" t="s">
+      <c r="K11" s="66"/>
+      <c r="L11" s="73" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" s="44" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M11" s="64" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="62"/>
       <c r="B12" s="62"/>
       <c r="C12" s="62"/>
       <c r="D12" s="62"/>
-      <c r="E12" s="62"/>
-      <c r="F12" s="66"/>
+      <c r="E12" s="74"/>
+      <c r="F12" s="62"/>
       <c r="G12" s="66"/>
       <c r="H12" s="66"/>
       <c r="I12" s="66"/>
       <c r="J12" s="66"/>
-      <c r="K12" s="65"/>
-    </row>
-    <row r="13" spans="1:11" s="44" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K12" s="66"/>
+      <c r="L12" s="74"/>
+      <c r="M12" s="65"/>
+    </row>
+    <row r="13" spans="1:13" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="62"/>
       <c r="B13" s="62"/>
       <c r="C13" s="62"/>
       <c r="D13" s="62"/>
-      <c r="E13" s="62"/>
-      <c r="F13" s="66"/>
+      <c r="E13" s="74"/>
+      <c r="F13" s="62"/>
       <c r="G13" s="66"/>
       <c r="H13" s="66"/>
       <c r="I13" s="66"/>
       <c r="J13" s="66"/>
-      <c r="K13" s="65"/>
-    </row>
-    <row r="14" spans="1:11" s="44" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K13" s="66"/>
+      <c r="L13" s="74"/>
+      <c r="M13" s="65"/>
+    </row>
+    <row r="14" spans="1:13" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="62"/>
       <c r="B14" s="62"/>
       <c r="C14" s="62"/>
       <c r="D14" s="62"/>
-      <c r="E14" s="62"/>
-      <c r="F14" s="66"/>
+      <c r="E14" s="74"/>
+      <c r="F14" s="62"/>
       <c r="G14" s="66"/>
       <c r="H14" s="66"/>
       <c r="I14" s="66"/>
       <c r="J14" s="66"/>
-      <c r="K14" s="65"/>
-    </row>
-    <row r="15" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="74" t="s">
+      <c r="K14" s="66"/>
+      <c r="L14" s="74"/>
+      <c r="M14" s="65"/>
+    </row>
+    <row r="15" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="76" t="s">
         <v>175</v>
       </c>
-      <c r="B15" s="73" t="s">
+      <c r="B15" s="75" t="s">
         <v>262</v>
       </c>
-      <c r="C15" s="73" t="s">
+      <c r="C15" s="75" t="s">
         <v>323</v>
       </c>
       <c r="D15" s="58" t="s">
         <v>176</v>
       </c>
-      <c r="E15" s="32" t="s">
+      <c r="F15" s="32" t="s">
         <v>209</v>
       </c>
-      <c r="F15" s="66"/>
       <c r="G15" s="66"/>
       <c r="H15" s="66"/>
       <c r="I15" s="66"/>
       <c r="J15" s="66"/>
-      <c r="K15" s="77" t="s">
+      <c r="K15" s="66"/>
+      <c r="L15" s="67" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="74"/>
-      <c r="B16" s="74"/>
-      <c r="C16" s="74"/>
+      <c r="M15" s="79" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="76"/>
+      <c r="B16" s="76"/>
+      <c r="C16" s="76"/>
       <c r="D16" s="58" t="s">
         <v>177</v>
       </c>
-      <c r="E16" s="34" t="s">
+      <c r="F16" s="34" t="s">
         <v>179</v>
       </c>
-      <c r="F16" s="66"/>
       <c r="G16" s="66"/>
       <c r="H16" s="66"/>
       <c r="I16" s="66"/>
       <c r="J16" s="66"/>
-      <c r="K16" s="78"/>
-    </row>
-    <row r="17" spans="1:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="A17" s="74"/>
-      <c r="B17" s="74"/>
-      <c r="C17" s="74"/>
+      <c r="K16" s="66"/>
+      <c r="L16" s="67" t="s">
+        <v>294</v>
+      </c>
+      <c r="M16" s="80"/>
+    </row>
+    <row r="17" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+      <c r="A17" s="76"/>
+      <c r="B17" s="76"/>
+      <c r="C17" s="76"/>
       <c r="D17" s="58" t="s">
         <v>178</v>
       </c>
-      <c r="E17" s="32" t="s">
+      <c r="F17" s="32" t="s">
         <v>210</v>
       </c>
-      <c r="F17" s="66"/>
       <c r="G17" s="66"/>
       <c r="H17" s="66"/>
       <c r="I17" s="66"/>
       <c r="J17" s="66"/>
-      <c r="K17" s="78"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="74"/>
-      <c r="B18" s="74"/>
-      <c r="C18" s="74"/>
+      <c r="K17" s="66"/>
+      <c r="L17" s="67" t="s">
+        <v>294</v>
+      </c>
+      <c r="M17" s="80"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="76"/>
+      <c r="B18" s="76"/>
+      <c r="C18" s="76"/>
       <c r="D18" s="43"/>
-      <c r="E18" s="42"/>
+      <c r="E18" s="43"/>
       <c r="F18" s="42"/>
       <c r="G18" s="42"/>
       <c r="H18" s="42"/>
       <c r="I18" s="42"/>
       <c r="J18" s="42"/>
-      <c r="K18" s="78"/>
-    </row>
-    <row r="19" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="74" t="s">
+      <c r="K18" s="42"/>
+      <c r="L18" s="88" t="s">
+        <v>294</v>
+      </c>
+      <c r="M18" s="80"/>
+    </row>
+    <row r="19" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="76" t="s">
         <v>180</v>
       </c>
-      <c r="B19" s="73" t="s">
+      <c r="B19" s="75" t="s">
         <v>263</v>
       </c>
-      <c r="C19" s="73" t="s">
+      <c r="C19" s="75" t="s">
         <v>264</v>
       </c>
       <c r="D19" s="58" t="s">
         <v>181</v>
       </c>
-      <c r="E19" s="35" t="s">
+      <c r="F19" s="35" t="s">
         <v>211</v>
       </c>
-      <c r="F19" s="66"/>
       <c r="G19" s="66"/>
       <c r="H19" s="66"/>
       <c r="I19" s="66"/>
       <c r="J19" s="66"/>
-      <c r="K19" s="77" t="s">
+      <c r="K19" s="66"/>
+      <c r="L19" s="67" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="74"/>
-      <c r="B20" s="73"/>
-      <c r="C20" s="74"/>
+      <c r="M19" s="79" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="76"/>
+      <c r="B20" s="75"/>
+      <c r="C20" s="76"/>
       <c r="D20" s="58" t="s">
         <v>182</v>
       </c>
-      <c r="E20" s="41" t="s">
+      <c r="F20" s="41" t="s">
         <v>212</v>
       </c>
-      <c r="F20" s="66"/>
       <c r="G20" s="66"/>
       <c r="H20" s="66"/>
       <c r="I20" s="66"/>
       <c r="J20" s="66"/>
-      <c r="K20" s="78"/>
-    </row>
-    <row r="21" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A21" s="74"/>
-      <c r="B21" s="73"/>
-      <c r="C21" s="74"/>
+      <c r="K20" s="66"/>
+      <c r="L20" s="67" t="s">
+        <v>294</v>
+      </c>
+      <c r="M20" s="80"/>
+    </row>
+    <row r="21" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A21" s="76"/>
+      <c r="B21" s="75"/>
+      <c r="C21" s="76"/>
       <c r="D21" s="58" t="s">
         <v>183</v>
       </c>
-      <c r="E21" s="41" t="s">
+      <c r="F21" s="41" t="s">
         <v>213</v>
       </c>
-      <c r="F21" s="66"/>
       <c r="G21" s="66"/>
       <c r="H21" s="66"/>
       <c r="I21" s="66"/>
       <c r="J21" s="66"/>
-      <c r="K21" s="78"/>
-    </row>
-    <row r="22" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A22" s="74"/>
-      <c r="B22" s="73"/>
-      <c r="C22" s="74"/>
+      <c r="K21" s="66"/>
+      <c r="L21" s="67" t="s">
+        <v>294</v>
+      </c>
+      <c r="M21" s="80"/>
+    </row>
+    <row r="22" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A22" s="76"/>
+      <c r="B22" s="75"/>
+      <c r="C22" s="76"/>
       <c r="D22" s="58" t="s">
         <v>184</v>
       </c>
-      <c r="E22" s="32" t="s">
+      <c r="F22" s="32" t="s">
         <v>214</v>
       </c>
-      <c r="F22" s="66"/>
       <c r="G22" s="66"/>
       <c r="H22" s="66"/>
       <c r="I22" s="66"/>
       <c r="J22" s="66"/>
-      <c r="K22" s="78"/>
-    </row>
-    <row r="23" spans="1:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="A23" s="74" t="s">
+      <c r="K22" s="66"/>
+      <c r="L22" s="67" t="s">
+        <v>294</v>
+      </c>
+      <c r="M22" s="80"/>
+    </row>
+    <row r="23" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+      <c r="A23" s="76" t="s">
         <v>185</v>
       </c>
-      <c r="B23" s="73" t="s">
+      <c r="B23" s="75" t="s">
         <v>324</v>
       </c>
-      <c r="C23" s="73" t="s">
+      <c r="C23" s="75" t="s">
         <v>265</v>
       </c>
       <c r="D23" s="58" t="s">
         <v>254</v>
       </c>
-      <c r="E23" s="36" t="s">
+      <c r="F23" s="36" t="s">
         <v>186</v>
       </c>
-      <c r="F23" s="66"/>
       <c r="G23" s="66"/>
       <c r="H23" s="66"/>
       <c r="I23" s="66"/>
       <c r="J23" s="66"/>
-      <c r="K23" s="77" t="s">
+      <c r="K23" s="66"/>
+      <c r="L23" s="67" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" ht="135" x14ac:dyDescent="0.25">
-      <c r="A24" s="74"/>
-      <c r="B24" s="73"/>
-      <c r="C24" s="74"/>
+      <c r="M23" s="79" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="135" x14ac:dyDescent="0.25">
+      <c r="A24" s="76"/>
+      <c r="B24" s="75"/>
+      <c r="C24" s="76"/>
       <c r="D24" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="E24" s="41" t="s">
+      <c r="F24" s="41" t="s">
         <v>215</v>
       </c>
-      <c r="F24" s="66"/>
       <c r="G24" s="66"/>
       <c r="H24" s="66"/>
       <c r="I24" s="66"/>
       <c r="J24" s="66"/>
-      <c r="K24" s="78"/>
-    </row>
-    <row r="25" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A25" s="74"/>
-      <c r="B25" s="73"/>
-      <c r="C25" s="74"/>
+      <c r="K24" s="66"/>
+      <c r="L24" s="67" t="s">
+        <v>295</v>
+      </c>
+      <c r="M24" s="80"/>
+    </row>
+    <row r="25" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A25" s="76"/>
+      <c r="B25" s="75"/>
+      <c r="C25" s="76"/>
       <c r="D25" s="58" t="s">
         <v>325</v>
       </c>
-      <c r="E25" s="32" t="s">
+      <c r="F25" s="32" t="s">
         <v>216</v>
       </c>
-      <c r="F25" s="66"/>
       <c r="G25" s="66"/>
       <c r="H25" s="66"/>
       <c r="I25" s="66"/>
       <c r="J25" s="66"/>
-      <c r="K25" s="78"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="74"/>
-      <c r="B26" s="73"/>
-      <c r="C26" s="74"/>
+      <c r="K25" s="66"/>
+      <c r="L25" s="67" t="s">
+        <v>295</v>
+      </c>
+      <c r="M25" s="80"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="76"/>
+      <c r="B26" s="75"/>
+      <c r="C26" s="76"/>
       <c r="D26" s="43"/>
       <c r="E26" s="43"/>
       <c r="F26" s="43"/>
@@ -2681,312 +2771,373 @@
       <c r="H26" s="43"/>
       <c r="I26" s="43"/>
       <c r="J26" s="43"/>
-      <c r="K26" s="78"/>
-    </row>
-    <row r="27" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="74" t="s">
+      <c r="K26" s="43"/>
+      <c r="L26" s="67" t="s">
+        <v>295</v>
+      </c>
+      <c r="M26" s="80"/>
+    </row>
+    <row r="27" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="76" t="s">
         <v>187</v>
       </c>
-      <c r="B27" s="73" t="s">
+      <c r="B27" s="75" t="s">
         <v>266</v>
       </c>
-      <c r="C27" s="79" t="s">
+      <c r="C27" s="81" t="s">
         <v>267</v>
       </c>
       <c r="D27" s="58" t="s">
         <v>188</v>
       </c>
-      <c r="E27" s="32" t="s">
+      <c r="F27" s="32" t="s">
         <v>217</v>
       </c>
-      <c r="F27" s="66"/>
       <c r="G27" s="66"/>
       <c r="H27" s="66"/>
       <c r="I27" s="66"/>
       <c r="J27" s="66"/>
-      <c r="K27" s="77" t="s">
+      <c r="K27" s="66"/>
+      <c r="L27" s="67" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="74"/>
-      <c r="B28" s="73"/>
-      <c r="C28" s="79"/>
+      <c r="M27" s="79" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="76"/>
+      <c r="B28" s="75"/>
+      <c r="C28" s="81"/>
       <c r="D28" s="58" t="s">
         <v>189</v>
       </c>
-      <c r="E28" s="32" t="s">
+      <c r="F28" s="32" t="s">
         <v>190</v>
       </c>
-      <c r="F28" s="66"/>
       <c r="G28" s="66"/>
       <c r="H28" s="66"/>
       <c r="I28" s="66"/>
       <c r="J28" s="66"/>
-      <c r="K28" s="78"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="74"/>
-      <c r="B29" s="73"/>
-      <c r="C29" s="79"/>
+      <c r="K28" s="66"/>
+      <c r="L28" s="67" t="s">
+        <v>299</v>
+      </c>
+      <c r="M28" s="80"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="76"/>
+      <c r="B29" s="75"/>
+      <c r="C29" s="81"/>
       <c r="D29" s="43"/>
-      <c r="E29" s="42"/>
+      <c r="E29" s="43"/>
       <c r="F29" s="42"/>
       <c r="G29" s="42"/>
       <c r="H29" s="42"/>
       <c r="I29" s="42"/>
       <c r="J29" s="42"/>
-      <c r="K29" s="78"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="74" t="s">
+      <c r="K29" s="42"/>
+      <c r="L29" s="88" t="s">
+        <v>299</v>
+      </c>
+      <c r="M29" s="80"/>
+    </row>
+    <row r="30" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="76" t="s">
         <v>191</v>
       </c>
       <c r="C30" s="60"/>
-      <c r="E30" s="37"/>
-      <c r="F30" s="66"/>
+      <c r="F30" s="37"/>
       <c r="G30" s="66"/>
       <c r="H30" s="66"/>
       <c r="I30" s="66"/>
       <c r="J30" s="66"/>
-      <c r="K30" s="77" t="s">
+      <c r="K30" s="66"/>
+      <c r="L30" s="67" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" ht="165" x14ac:dyDescent="0.25">
-      <c r="A31" s="74"/>
-      <c r="B31" s="73" t="s">
+      <c r="M30" s="79" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="165" x14ac:dyDescent="0.25">
+      <c r="A31" s="76"/>
+      <c r="B31" s="75" t="s">
         <v>268</v>
       </c>
-      <c r="C31" s="73" t="s">
+      <c r="C31" s="75" t="s">
         <v>269</v>
       </c>
-      <c r="E31" s="32" t="s">
+      <c r="F31" s="32" t="s">
         <v>192</v>
       </c>
-      <c r="F31" s="66"/>
       <c r="G31" s="66"/>
       <c r="H31" s="66"/>
       <c r="I31" s="66"/>
       <c r="J31" s="66"/>
-      <c r="K31" s="78"/>
-    </row>
-    <row r="32" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A32" s="74"/>
-      <c r="B32" s="74"/>
-      <c r="C32" s="73"/>
+      <c r="K31" s="66"/>
+      <c r="L31" s="67" t="s">
+        <v>296</v>
+      </c>
+      <c r="M31" s="80"/>
+    </row>
+    <row r="32" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A32" s="76"/>
+      <c r="B32" s="76"/>
+      <c r="C32" s="75"/>
       <c r="D32" s="58" t="s">
         <v>256</v>
       </c>
-      <c r="E32" s="41" t="s">
+      <c r="F32" s="41" t="s">
         <v>220</v>
       </c>
-      <c r="F32" s="66"/>
       <c r="G32" s="66"/>
       <c r="H32" s="66"/>
       <c r="I32" s="66"/>
       <c r="J32" s="66"/>
-      <c r="K32" s="78"/>
-    </row>
-    <row r="33" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="74"/>
-      <c r="B33" s="74"/>
-      <c r="C33" s="73"/>
+      <c r="K32" s="66"/>
+      <c r="L32" s="67" t="s">
+        <v>296</v>
+      </c>
+      <c r="M32" s="80"/>
+    </row>
+    <row r="33" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="76"/>
+      <c r="B33" s="76"/>
+      <c r="C33" s="75"/>
       <c r="D33" s="43" t="s">
         <v>257</v>
       </c>
-      <c r="E33" s="43" t="s">
+      <c r="E33" s="43"/>
+      <c r="F33" s="43" t="s">
         <v>249</v>
       </c>
-      <c r="F33" s="43"/>
       <c r="G33" s="43"/>
       <c r="H33" s="43"/>
       <c r="I33" s="43"/>
       <c r="J33" s="43"/>
-      <c r="K33" s="78"/>
-    </row>
-    <row r="34" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="74"/>
-      <c r="B34" s="74"/>
-      <c r="C34" s="73"/>
+      <c r="K33" s="43"/>
+      <c r="L33" s="67" t="s">
+        <v>296</v>
+      </c>
+      <c r="M33" s="80"/>
+    </row>
+    <row r="34" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="76"/>
+      <c r="B34" s="76"/>
+      <c r="C34" s="75"/>
       <c r="D34" s="43" t="s">
         <v>172</v>
       </c>
-      <c r="E34" s="43" t="s">
+      <c r="E34" s="43"/>
+      <c r="F34" s="43" t="s">
         <v>250</v>
       </c>
-      <c r="F34" s="43"/>
       <c r="G34" s="43"/>
       <c r="H34" s="43"/>
       <c r="I34" s="43"/>
       <c r="J34" s="43"/>
-      <c r="K34" s="78"/>
-    </row>
-    <row r="35" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A35" s="74"/>
-      <c r="B35" s="74"/>
-      <c r="C35" s="73"/>
+      <c r="K34" s="43"/>
+      <c r="L34" s="67" t="s">
+        <v>296</v>
+      </c>
+      <c r="M34" s="80"/>
+    </row>
+    <row r="35" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A35" s="76"/>
+      <c r="B35" s="76"/>
+      <c r="C35" s="75"/>
       <c r="D35" s="43" t="s">
         <v>258</v>
       </c>
-      <c r="E35" s="43" t="s">
+      <c r="E35" s="43"/>
+      <c r="F35" s="43" t="s">
         <v>251</v>
       </c>
-      <c r="F35" s="43"/>
       <c r="G35" s="43"/>
       <c r="H35" s="43"/>
       <c r="I35" s="43"/>
       <c r="J35" s="43"/>
-      <c r="K35" s="78"/>
-    </row>
-    <row r="36" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A36" s="74"/>
-      <c r="B36" s="74"/>
-      <c r="C36" s="73"/>
+      <c r="K35" s="43"/>
+      <c r="L35" s="67" t="s">
+        <v>296</v>
+      </c>
+      <c r="M35" s="80"/>
+    </row>
+    <row r="36" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A36" s="76"/>
+      <c r="B36" s="76"/>
+      <c r="C36" s="75"/>
       <c r="D36" s="58" t="s">
         <v>132</v>
       </c>
-      <c r="E36" s="43" t="s">
+      <c r="F36" s="43" t="s">
         <v>252</v>
       </c>
-      <c r="F36" s="43"/>
       <c r="G36" s="43"/>
       <c r="H36" s="43"/>
       <c r="I36" s="43"/>
       <c r="J36" s="43"/>
-      <c r="K36" s="78"/>
-    </row>
-    <row r="37" spans="1:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="A37" s="73" t="s">
+      <c r="K36" s="43"/>
+      <c r="L36" s="67" t="s">
+        <v>296</v>
+      </c>
+      <c r="M36" s="80"/>
+    </row>
+    <row r="37" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+      <c r="A37" s="75" t="s">
         <v>270</v>
       </c>
-      <c r="B37" s="73" t="s">
+      <c r="B37" s="75" t="s">
         <v>271</v>
       </c>
-      <c r="C37" s="73" t="s">
+      <c r="C37" s="75" t="s">
         <v>272</v>
       </c>
       <c r="D37" s="58" t="s">
         <v>193</v>
       </c>
-      <c r="E37" s="32" t="s">
+      <c r="F37" s="32" t="s">
         <v>221</v>
       </c>
-      <c r="F37" s="66"/>
       <c r="G37" s="66"/>
       <c r="H37" s="66"/>
       <c r="I37" s="66"/>
       <c r="J37" s="66"/>
-      <c r="K37" s="77" t="s">
+      <c r="K37" s="66"/>
+      <c r="L37" s="67" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="38" spans="1:11" ht="105" x14ac:dyDescent="0.25">
-      <c r="A38" s="73"/>
-      <c r="B38" s="73"/>
-      <c r="C38" s="74"/>
+      <c r="M37" s="79" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" ht="105" x14ac:dyDescent="0.25">
+      <c r="A38" s="75"/>
+      <c r="B38" s="75"/>
+      <c r="C38" s="76"/>
       <c r="D38" s="58" t="s">
         <v>194</v>
       </c>
-      <c r="E38" s="32" t="s">
+      <c r="F38" s="32" t="s">
         <v>255</v>
       </c>
-      <c r="F38" s="66"/>
       <c r="G38" s="66"/>
       <c r="H38" s="66"/>
       <c r="I38" s="66"/>
       <c r="J38" s="66"/>
-      <c r="K38" s="78"/>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" s="73"/>
-      <c r="B39" s="73"/>
-      <c r="C39" s="74"/>
+      <c r="K38" s="66"/>
+      <c r="L38" s="67" t="s">
+        <v>297</v>
+      </c>
+      <c r="M38" s="80"/>
+    </row>
+    <row r="39" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A39" s="75"/>
+      <c r="B39" s="75"/>
+      <c r="C39" s="76"/>
       <c r="D39" s="58" t="s">
         <v>195</v>
       </c>
-      <c r="E39" s="38" t="s">
+      <c r="F39" s="38" t="s">
         <v>200</v>
       </c>
-      <c r="K39" s="78"/>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="73"/>
-      <c r="B40" s="73"/>
-      <c r="C40" s="74"/>
+      <c r="L39" s="67" t="s">
+        <v>297</v>
+      </c>
+      <c r="M39" s="80"/>
+    </row>
+    <row r="40" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A40" s="75"/>
+      <c r="B40" s="75"/>
+      <c r="C40" s="76"/>
       <c r="D40" s="58" t="s">
         <v>196</v>
       </c>
-      <c r="E40" s="38" t="s">
+      <c r="F40" s="38" t="s">
         <v>201</v>
       </c>
-      <c r="K40" s="78"/>
-    </row>
-    <row r="41" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A41" s="73"/>
-      <c r="B41" s="73"/>
-      <c r="C41" s="74"/>
+      <c r="L40" s="67" t="s">
+        <v>297</v>
+      </c>
+      <c r="M40" s="80"/>
+    </row>
+    <row r="41" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A41" s="75"/>
+      <c r="B41" s="75"/>
+      <c r="C41" s="76"/>
       <c r="D41" s="58" t="s">
         <v>197</v>
       </c>
-      <c r="E41" s="39" t="s">
+      <c r="F41" s="39" t="s">
         <v>202</v>
       </c>
-      <c r="F41" s="66"/>
       <c r="G41" s="66"/>
       <c r="H41" s="66"/>
       <c r="I41" s="66"/>
       <c r="J41" s="66"/>
-      <c r="K41" s="78"/>
-    </row>
-    <row r="42" spans="1:11" ht="150" x14ac:dyDescent="0.25">
-      <c r="A42" s="73"/>
-      <c r="B42" s="73"/>
-      <c r="C42" s="74"/>
+      <c r="K41" s="66"/>
+      <c r="L41" s="67" t="s">
+        <v>297</v>
+      </c>
+      <c r="M41" s="80"/>
+    </row>
+    <row r="42" spans="1:13" ht="150" x14ac:dyDescent="0.25">
+      <c r="A42" s="75"/>
+      <c r="B42" s="75"/>
+      <c r="C42" s="76"/>
       <c r="D42" s="58" t="s">
         <v>198</v>
       </c>
-      <c r="E42" s="32" t="s">
+      <c r="F42" s="32" t="s">
         <v>222</v>
       </c>
-      <c r="F42" s="66"/>
       <c r="G42" s="66"/>
       <c r="H42" s="66"/>
       <c r="I42" s="66"/>
       <c r="J42" s="66"/>
-      <c r="K42" s="78"/>
-    </row>
-    <row r="43" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A43" s="73"/>
-      <c r="B43" s="73"/>
-      <c r="C43" s="74"/>
+      <c r="K42" s="66"/>
+      <c r="L42" s="67" t="s">
+        <v>297</v>
+      </c>
+      <c r="M42" s="80"/>
+    </row>
+    <row r="43" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A43" s="75"/>
+      <c r="B43" s="75"/>
+      <c r="C43" s="76"/>
       <c r="D43" s="58" t="s">
         <v>199</v>
       </c>
-      <c r="E43" s="41" t="s">
+      <c r="F43" s="41" t="s">
         <v>203</v>
       </c>
-      <c r="F43" s="66"/>
       <c r="G43" s="66"/>
       <c r="H43" s="66"/>
       <c r="I43" s="66"/>
       <c r="J43" s="66"/>
-      <c r="K43" s="78"/>
-    </row>
-    <row r="44" spans="1:11" s="44" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K43" s="66"/>
+      <c r="L43" s="67" t="s">
+        <v>297</v>
+      </c>
+      <c r="M43" s="80"/>
+    </row>
+    <row r="44" spans="1:13" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="62"/>
       <c r="B44" s="62"/>
       <c r="C44" s="63"/>
       <c r="D44" s="62"/>
-      <c r="E44" s="62"/>
-      <c r="F44" s="66"/>
+      <c r="E44" s="74"/>
+      <c r="F44" s="62"/>
       <c r="G44" s="66"/>
       <c r="H44" s="66"/>
       <c r="I44" s="66"/>
       <c r="J44" s="66"/>
-      <c r="K44" s="65"/>
-    </row>
-    <row r="45" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="K44" s="66"/>
+      <c r="L44" s="74"/>
+      <c r="M44" s="65"/>
+    </row>
+    <row r="45" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A45" s="59" t="s">
         <v>218</v>
       </c>
@@ -2999,37 +3150,42 @@
       <c r="D45" s="58" t="s">
         <v>219</v>
       </c>
-      <c r="E45" s="40" t="s">
+      <c r="F45" s="40" t="s">
         <v>223</v>
       </c>
-      <c r="K45" s="47" t="s">
+      <c r="L45" s="47" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M45" s="47" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B46" s="42"/>
       <c r="C46" s="42"/>
       <c r="D46" s="43"/>
-      <c r="E46" s="40"/>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E46" s="43"/>
+      <c r="F46" s="40"/>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B47" s="42"/>
       <c r="C47" s="42"/>
       <c r="D47" s="43"/>
-      <c r="E47" s="40"/>
+      <c r="E47" s="43"/>
+      <c r="F47" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="K27:K29"/>
+    <mergeCell ref="M27:M29"/>
     <mergeCell ref="C27:C29"/>
-    <mergeCell ref="K30:K36"/>
-    <mergeCell ref="K37:K43"/>
-    <mergeCell ref="K2:K4"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="K15:K18"/>
-    <mergeCell ref="K19:K22"/>
-    <mergeCell ref="K23:K26"/>
-    <mergeCell ref="K7:K9"/>
+    <mergeCell ref="M30:M36"/>
+    <mergeCell ref="M37:M43"/>
+    <mergeCell ref="M2:M4"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="M15:M18"/>
+    <mergeCell ref="M19:M22"/>
+    <mergeCell ref="M23:M26"/>
+    <mergeCell ref="M7:M9"/>
     <mergeCell ref="A37:A43"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="A30:A36"/>
@@ -3058,21 +3214,56 @@
     <mergeCell ref="C37:C43"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="K2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="K5" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="K15" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="K19" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="K23" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="K27" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="K30" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="K37" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="K45" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="K7" r:id="rId10" xr:uid="{4E0AA375-15F4-4928-90C2-BD2E1EC884AB}"/>
-    <hyperlink ref="K11" r:id="rId11" xr:uid="{E29A4A0F-3BAA-48B7-B469-0201A35D0289}"/>
+    <hyperlink ref="M2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="M5" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="M15" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="M19" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="M23" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="M27" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="M30" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="M37" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="M45" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="M7" r:id="rId10" xr:uid="{4E0AA375-15F4-4928-90C2-BD2E1EC884AB}"/>
+    <hyperlink ref="M11" r:id="rId11" xr:uid="{E29A4A0F-3BAA-48B7-B469-0201A35D0289}"/>
+    <hyperlink ref="L2" r:id="rId12" xr:uid="{4495FBCE-2467-41F6-83E7-F374F4E5ACAB}"/>
+    <hyperlink ref="L3" r:id="rId13" xr:uid="{75D08F74-8D31-42CD-9DEA-EB3C155B058E}"/>
+    <hyperlink ref="L4" r:id="rId14" xr:uid="{24EA9806-C569-4951-9504-2FBC155A4446}"/>
+    <hyperlink ref="L5" r:id="rId15" xr:uid="{B2640193-23B3-4108-9FF7-9A01FDC2AAC4}"/>
+    <hyperlink ref="L6" r:id="rId16" xr:uid="{4F3333E6-215D-49C2-B203-B676F10F4601}"/>
+    <hyperlink ref="L7" r:id="rId17" xr:uid="{6990F5E4-6310-4A17-B71D-FAB7F93D11D5}"/>
+    <hyperlink ref="L8" r:id="rId18" xr:uid="{04233E34-718D-4FD2-B60C-142BE08A93EF}"/>
+    <hyperlink ref="L9" r:id="rId19" xr:uid="{F743F447-69D3-44E6-A171-3A5CDB40140F}"/>
+    <hyperlink ref="L11" r:id="rId20" xr:uid="{C74AC20C-A05F-45CF-9703-88D2A8AD3FA3}"/>
+    <hyperlink ref="L15" r:id="rId21" xr:uid="{703ADCC4-AC29-4435-B772-0DCE375018AF}"/>
+    <hyperlink ref="L16" r:id="rId22" xr:uid="{56E5B06F-C1CB-4447-8CED-900F308AED36}"/>
+    <hyperlink ref="L17" r:id="rId23" xr:uid="{166ECE66-73AB-4DBD-9A5D-F709522CA032}"/>
+    <hyperlink ref="L18" r:id="rId24" xr:uid="{A14AEF75-D71E-40B3-AB31-69EA08BA9BBE}"/>
+    <hyperlink ref="L19" r:id="rId25" xr:uid="{78C775ED-2F8D-4D3F-9F9B-5A6828934667}"/>
+    <hyperlink ref="L20" r:id="rId26" xr:uid="{CD1EEE7E-824A-4F08-B602-3ED6D1A8389D}"/>
+    <hyperlink ref="L21" r:id="rId27" xr:uid="{8640B23A-0564-4B4D-B884-8335E9443CE5}"/>
+    <hyperlink ref="L22" r:id="rId28" xr:uid="{D87217C7-4000-4C28-BE83-BC0F9F5A6DAB}"/>
+    <hyperlink ref="L23" r:id="rId29" xr:uid="{F2924CF2-7E96-423B-AB36-C38EAA415835}"/>
+    <hyperlink ref="L24" r:id="rId30" xr:uid="{84E37BCE-66E8-43B6-BA52-14CEF07AAF3A}"/>
+    <hyperlink ref="L25" r:id="rId31" xr:uid="{944BB771-896B-4B5A-AAA4-5ACF531C32F2}"/>
+    <hyperlink ref="L26" r:id="rId32" xr:uid="{66B589F6-CBA2-4884-914B-A319C462A82F}"/>
+    <hyperlink ref="L27" r:id="rId33" xr:uid="{0D5116ED-D17A-493B-92F8-FC87B606E03E}"/>
+    <hyperlink ref="L28" r:id="rId34" xr:uid="{20DF50FF-9FE4-4468-9A0E-F46415473F00}"/>
+    <hyperlink ref="L29" r:id="rId35" xr:uid="{59F18694-A2C4-4EAC-B6DE-07FB3F72DBE8}"/>
+    <hyperlink ref="L30" r:id="rId36" xr:uid="{33CB72D2-6EF9-4BA7-AE07-0128731B388B}"/>
+    <hyperlink ref="L31" r:id="rId37" xr:uid="{A9665C27-9EE8-463C-9900-5BA01BC458F1}"/>
+    <hyperlink ref="L32" r:id="rId38" xr:uid="{D2A3C4A8-DC41-4197-A08E-0B333704F640}"/>
+    <hyperlink ref="L33" r:id="rId39" xr:uid="{6B467D41-7205-4A17-BD9B-3069472F3D20}"/>
+    <hyperlink ref="L34" r:id="rId40" xr:uid="{2DAD216E-8CE3-4828-AE30-B57254452928}"/>
+    <hyperlink ref="L35" r:id="rId41" xr:uid="{7ADE210C-D0C7-47F2-958D-6D2416CE6200}"/>
+    <hyperlink ref="L36" r:id="rId42" xr:uid="{B3CCBC56-1DC9-4339-86D0-D43726FFFF53}"/>
+    <hyperlink ref="L37" r:id="rId43" xr:uid="{F999A535-E24F-47BE-B8D6-0DD3FA62F0E6}"/>
+    <hyperlink ref="L38" r:id="rId44" xr:uid="{5C6EA840-F6F3-47B4-BF56-FECCA091D866}"/>
+    <hyperlink ref="L39:L43" r:id="rId45" display="https://www.acadiaconnect.com/patient-caregivers/insurance-coverage-lookup" xr:uid="{6A2C5DF3-B491-4DBD-A8C6-597470EBE2D7}"/>
+    <hyperlink ref="L45" r:id="rId46" xr:uid="{73DAF1B1-3B43-4FD4-9161-2EE6FA67CE88}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId12"/>
-  <legacyDrawing r:id="rId13"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId47"/>
+  <legacyDrawing r:id="rId48"/>
 </worksheet>
 </file>
 
@@ -3112,7 +3303,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="83" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="29"/>
@@ -3127,7 +3318,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="82"/>
+      <c r="A3" s="84"/>
       <c r="B3" s="28"/>
       <c r="C3" t="s">
         <v>4</v>
@@ -3136,7 +3327,7 @@
       <c r="E3" s="6"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="82"/>
+      <c r="A4" s="84"/>
       <c r="B4" s="28"/>
       <c r="C4" t="s">
         <v>5</v>
@@ -3145,7 +3336,7 @@
       <c r="E4" s="6"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="82"/>
+      <c r="A5" s="84"/>
       <c r="B5" s="28"/>
       <c r="C5" t="s">
         <v>6</v>
@@ -3154,7 +3345,7 @@
       <c r="E5" s="6"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="82"/>
+      <c r="A6" s="84"/>
       <c r="B6" s="28"/>
       <c r="C6" t="s">
         <v>7</v>
@@ -3163,7 +3354,7 @@
       <c r="E6" s="6"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="82"/>
+      <c r="A7" s="84"/>
       <c r="B7" s="28"/>
       <c r="C7" t="s">
         <v>8</v>
@@ -3172,7 +3363,7 @@
       <c r="E7" s="6"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="82"/>
+      <c r="A8" s="84"/>
       <c r="B8" s="28"/>
       <c r="C8" t="s">
         <v>9</v>
@@ -3181,7 +3372,7 @@
       <c r="E8" s="6"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="82"/>
+      <c r="A9" s="84"/>
       <c r="B9" s="28"/>
       <c r="C9" t="s">
         <v>10</v>
@@ -3190,7 +3381,7 @@
       <c r="E9" s="6"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="82"/>
+      <c r="A10" s="84"/>
       <c r="B10" s="28"/>
       <c r="C10" t="s">
         <v>11</v>
@@ -3199,7 +3390,7 @@
       <c r="E10" s="6"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="82" t="s">
+      <c r="A11" s="84" t="s">
         <v>16</v>
       </c>
       <c r="B11" s="28"/>
@@ -3208,28 +3399,28 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="82"/>
+      <c r="A12" s="84"/>
       <c r="B12" s="28"/>
       <c r="C12" s="7" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="82"/>
+      <c r="A13" s="84"/>
       <c r="B13" s="28"/>
       <c r="C13" s="7" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="82"/>
+      <c r="A14" s="84"/>
       <c r="B14" s="28"/>
       <c r="C14" s="7" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="82"/>
+      <c r="A15" s="84"/>
       <c r="B15" s="28"/>
       <c r="C15" s="7" t="s">
         <v>21</v>
@@ -3239,7 +3430,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="82"/>
+      <c r="A16" s="84"/>
       <c r="B16" s="28"/>
       <c r="C16" s="7" t="s">
         <v>22</v>
@@ -3249,7 +3440,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="82" t="s">
+      <c r="A17" s="84" t="s">
         <v>23</v>
       </c>
       <c r="B17" s="28"/>
@@ -3264,7 +3455,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="82"/>
+      <c r="A18" s="84"/>
       <c r="B18" s="28"/>
       <c r="C18" s="8" t="s">
         <v>25</v>
@@ -3274,21 +3465,21 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="82"/>
+      <c r="A19" s="84"/>
       <c r="B19" s="28"/>
       <c r="C19" s="8" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="82"/>
+      <c r="A20" s="84"/>
       <c r="B20" s="28"/>
       <c r="C20" s="8" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A21" s="82"/>
+      <c r="A21" s="84"/>
       <c r="B21" s="28"/>
       <c r="C21" s="8" t="s">
         <v>28</v>
@@ -3298,7 +3489,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="82"/>
+      <c r="A22" s="84"/>
       <c r="B22" s="28"/>
       <c r="C22" s="8" t="s">
         <v>29</v>
@@ -3308,7 +3499,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="82"/>
+      <c r="A23" s="84"/>
       <c r="B23" s="28"/>
       <c r="C23" s="8" t="s">
         <v>30</v>
@@ -3318,14 +3509,14 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="82"/>
+      <c r="A24" s="84"/>
       <c r="B24" s="28"/>
       <c r="C24" s="8" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="82" t="s">
+      <c r="A25" s="84" t="s">
         <v>41</v>
       </c>
       <c r="B25" s="28"/>
@@ -3340,7 +3531,7 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="82"/>
+      <c r="A26" s="84"/>
       <c r="B26" s="28"/>
       <c r="C26" s="9" t="s">
         <v>43</v>
@@ -3350,7 +3541,7 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="82"/>
+      <c r="A27" s="84"/>
       <c r="B27" s="28"/>
       <c r="C27" s="9" t="s">
         <v>44</v>
@@ -3360,7 +3551,7 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="82"/>
+      <c r="A28" s="84"/>
       <c r="B28" s="28"/>
       <c r="C28" s="9" t="s">
         <v>41</v>
@@ -3370,7 +3561,7 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="82"/>
+      <c r="A29" s="84"/>
       <c r="B29" s="28"/>
       <c r="C29" s="9" t="s">
         <v>45</v>
@@ -3380,7 +3571,7 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="82"/>
+      <c r="A30" s="84"/>
       <c r="B30" s="28"/>
       <c r="C30" s="9" t="s">
         <v>46</v>
@@ -3390,49 +3581,49 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="82"/>
+      <c r="A31" s="84"/>
       <c r="B31" s="28"/>
       <c r="D31" s="9" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="82"/>
+      <c r="A32" s="84"/>
       <c r="B32" s="28"/>
       <c r="D32" s="9" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="82"/>
+      <c r="A33" s="84"/>
       <c r="B33" s="28"/>
       <c r="D33" s="9" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="82"/>
+      <c r="A34" s="84"/>
       <c r="B34" s="28"/>
       <c r="D34" s="9" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="82"/>
+      <c r="A35" s="84"/>
       <c r="B35" s="28"/>
       <c r="D35" s="9" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="82"/>
+      <c r="A36" s="84"/>
       <c r="B36" s="28"/>
       <c r="D36" s="9" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="83" t="s">
+      <c r="A37" s="85" t="s">
         <v>58</v>
       </c>
       <c r="D37" s="11" t="s">
@@ -3440,43 +3631,43 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="83"/>
+      <c r="A38" s="85"/>
       <c r="D38" s="11" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="83"/>
+      <c r="A39" s="85"/>
       <c r="D39" s="11" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="83"/>
+      <c r="A40" s="85"/>
       <c r="D40" s="11" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="83"/>
+      <c r="A41" s="85"/>
       <c r="D41" s="11" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="83"/>
+      <c r="A42" s="85"/>
       <c r="D42" s="11" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="83"/>
+      <c r="A43" s="85"/>
       <c r="D43" s="11" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="83" t="s">
+      <c r="A44" s="85" t="s">
         <v>66</v>
       </c>
       <c r="C44" s="12" t="s">
@@ -3487,7 +3678,7 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="83"/>
+      <c r="A45" s="85"/>
       <c r="C45" s="12" t="s">
         <v>67</v>
       </c>
@@ -3496,7 +3687,7 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="83"/>
+      <c r="A46" s="85"/>
       <c r="C46" s="12" t="s">
         <v>44</v>
       </c>
@@ -3505,43 +3696,43 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="83"/>
+      <c r="A47" s="85"/>
       <c r="D47" s="12" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="83"/>
+      <c r="A48" s="85"/>
       <c r="D48" s="12" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="83"/>
+      <c r="A49" s="85"/>
       <c r="D49" s="12" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="83"/>
+      <c r="A50" s="85"/>
       <c r="D50" s="12" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="83"/>
+      <c r="A51" s="85"/>
       <c r="D51" s="12" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="83"/>
+      <c r="A52" s="85"/>
       <c r="D52" s="12" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="158.44999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="83" t="s">
+      <c r="A53" s="85" t="s">
         <v>77</v>
       </c>
       <c r="C53" s="14" t="s">
@@ -3553,7 +3744,7 @@
       <c r="E53" s="13"/>
     </row>
     <row r="54" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A54" s="83"/>
+      <c r="A54" s="85"/>
       <c r="C54" s="14" t="s">
         <v>87</v>
       </c>
@@ -3563,7 +3754,7 @@
       <c r="E54" s="13"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="83" t="s">
+      <c r="A55" s="85" t="s">
         <v>80</v>
       </c>
       <c r="C55" s="14" t="s">
@@ -3574,7 +3765,7 @@
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="83"/>
+      <c r="A56" s="85"/>
       <c r="C56" s="14" t="s">
         <v>82</v>
       </c>
@@ -3583,7 +3774,7 @@
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="83"/>
+      <c r="A57" s="85"/>
       <c r="C57" s="14" t="s">
         <v>83</v>
       </c>
@@ -3592,7 +3783,7 @@
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="83"/>
+      <c r="A58" s="85"/>
       <c r="C58" s="14" t="s">
         <v>84</v>
       </c>
@@ -3601,7 +3792,7 @@
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="83"/>
+      <c r="A59" s="85"/>
       <c r="C59" s="14" t="s">
         <v>85</v>
       </c>
@@ -3610,73 +3801,73 @@
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="83"/>
+      <c r="A60" s="85"/>
       <c r="D60" s="14" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="83"/>
+      <c r="A61" s="85"/>
       <c r="D61" s="14" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="83"/>
+      <c r="A62" s="85"/>
       <c r="D62" s="14" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="83"/>
+      <c r="A63" s="85"/>
       <c r="D63" s="14" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="83"/>
+      <c r="A64" s="85"/>
       <c r="D64" s="14" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="83"/>
+      <c r="A65" s="85"/>
       <c r="D65" s="14" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="83"/>
+      <c r="A66" s="85"/>
       <c r="D66" s="14" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="83"/>
+      <c r="A67" s="85"/>
       <c r="D67" s="14" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="83"/>
+      <c r="A68" s="85"/>
       <c r="D68" s="14" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="83"/>
+      <c r="A69" s="85"/>
       <c r="D69" s="14" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="83"/>
+      <c r="A70" s="85"/>
       <c r="D70" s="14" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="83" t="s">
+      <c r="A71" s="85" t="s">
         <v>104</v>
       </c>
       <c r="C71" s="15" t="s">
@@ -3687,7 +3878,7 @@
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="83"/>
+      <c r="A72" s="85"/>
       <c r="C72" s="15" t="s">
         <v>106</v>
       </c>
@@ -3696,7 +3887,7 @@
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="83"/>
+      <c r="A73" s="85"/>
       <c r="C73" s="15" t="s">
         <v>107</v>
       </c>
@@ -3705,7 +3896,7 @@
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="83"/>
+      <c r="A74" s="85"/>
       <c r="C74" s="15" t="s">
         <v>108</v>
       </c>
@@ -3714,43 +3905,43 @@
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="83"/>
+      <c r="A75" s="85"/>
       <c r="D75" s="15" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="83"/>
+      <c r="A76" s="85"/>
       <c r="D76" s="15" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="83"/>
+      <c r="A77" s="85"/>
       <c r="D77" s="15" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="83"/>
+      <c r="A78" s="85"/>
       <c r="D78" s="15" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="83"/>
+      <c r="A79" s="85"/>
       <c r="D79" s="15" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="83"/>
+      <c r="A80" s="85"/>
       <c r="D80" s="15" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="83" t="s">
+      <c r="A81" s="85" t="s">
         <v>117</v>
       </c>
       <c r="C81" s="16" t="s">
@@ -3761,7 +3952,7 @@
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="83"/>
+      <c r="A82" s="85"/>
       <c r="C82" s="16" t="s">
         <v>119</v>
       </c>
@@ -3770,7 +3961,7 @@
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="83"/>
+      <c r="A83" s="85"/>
       <c r="C83" s="16" t="s">
         <v>120</v>
       </c>
@@ -3779,25 +3970,25 @@
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="83"/>
+      <c r="A84" s="85"/>
       <c r="D84" s="16" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" s="83"/>
+      <c r="A85" s="85"/>
       <c r="D85" s="16" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" s="83"/>
+      <c r="A86" s="85"/>
       <c r="D86" s="16" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A87" s="83" t="s">
+      <c r="A87" s="85" t="s">
         <v>125</v>
       </c>
       <c r="C87" s="17" t="s">
@@ -3808,7 +3999,7 @@
       </c>
     </row>
     <row r="88" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A88" s="83"/>
+      <c r="A88" s="85"/>
       <c r="C88" s="17" t="s">
         <v>127</v>
       </c>
@@ -3817,7 +4008,7 @@
       </c>
     </row>
     <row r="89" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A89" s="83"/>
+      <c r="A89" s="85"/>
       <c r="C89" s="17" t="s">
         <v>128</v>
       </c>
@@ -3826,13 +4017,13 @@
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" s="83"/>
+      <c r="A90" s="85"/>
       <c r="C90" s="17" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A91" s="83" t="s">
+      <c r="A91" s="85" t="s">
         <v>132</v>
       </c>
       <c r="C91" s="19" t="s">
@@ -3843,7 +4034,7 @@
       </c>
     </row>
     <row r="92" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A92" s="83"/>
+      <c r="A92" s="85"/>
       <c r="C92" s="19" t="s">
         <v>134</v>
       </c>
@@ -3852,40 +4043,40 @@
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" s="83"/>
+      <c r="A93" s="85"/>
       <c r="C93" s="19" t="s">
         <v>135</v>
       </c>
       <c r="D93" s="19"/>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" s="83"/>
+      <c r="A94" s="85"/>
       <c r="C94" s="19" t="s">
         <v>136</v>
       </c>
       <c r="D94" s="19"/>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" s="83"/>
+      <c r="A95" s="85"/>
       <c r="C95" s="19" t="s">
         <v>137</v>
       </c>
       <c r="D95" s="19"/>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96" s="83"/>
+      <c r="A96" s="85"/>
       <c r="C96" s="19" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" s="83"/>
+      <c r="A97" s="85"/>
       <c r="C97" s="19" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" s="83" t="s">
+      <c r="A98" s="85" t="s">
         <v>141</v>
       </c>
       <c r="D98" s="20" t="s">
@@ -3893,25 +4084,25 @@
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" s="83"/>
+      <c r="A99" s="85"/>
       <c r="D99" s="20" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" s="83"/>
+      <c r="A100" s="85"/>
       <c r="D100" s="20" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101" s="83"/>
+      <c r="A101" s="85"/>
       <c r="D101" s="20" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A102" s="83" t="s">
+      <c r="A102" s="85" t="s">
         <v>146</v>
       </c>
       <c r="C102" s="23" t="s">
@@ -3922,7 +4113,7 @@
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A103" s="83"/>
+      <c r="A103" s="85"/>
       <c r="C103" s="23" t="s">
         <v>138</v>
       </c>
@@ -3931,7 +4122,7 @@
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A104" s="83"/>
+      <c r="A104" s="85"/>
       <c r="C104" s="23" t="s">
         <v>135</v>
       </c>
@@ -3940,7 +4131,7 @@
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A105" s="83"/>
+      <c r="A105" s="85"/>
       <c r="C105" s="23" t="s">
         <v>147</v>
       </c>
@@ -3949,7 +4140,7 @@
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A106" s="83"/>
+      <c r="A106" s="85"/>
       <c r="C106" s="23" t="s">
         <v>148</v>
       </c>
@@ -3958,13 +4149,13 @@
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A107" s="83"/>
+      <c r="A107" s="85"/>
       <c r="C107" s="23" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A108" s="83" t="s">
+      <c r="A108" s="85" t="s">
         <v>151</v>
       </c>
       <c r="C108" s="24" t="s">
@@ -3975,7 +4166,7 @@
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A109" s="83"/>
+      <c r="A109" s="85"/>
       <c r="C109" s="24" t="s">
         <v>153</v>
       </c>
@@ -3984,31 +4175,31 @@
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A110" s="83"/>
+      <c r="A110" s="85"/>
       <c r="D110" s="24" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A111" s="83"/>
+      <c r="A111" s="85"/>
       <c r="D111" s="24" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A112" s="83"/>
+      <c r="A112" s="85"/>
       <c r="D112" s="24" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A113" s="83"/>
+      <c r="A113" s="85"/>
       <c r="D113" s="24" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A114" s="83" t="s">
+      <c r="A114" s="85" t="s">
         <v>163</v>
       </c>
       <c r="C114" s="25" t="s">
@@ -4019,7 +4210,7 @@
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A115" s="83"/>
+      <c r="A115" s="85"/>
       <c r="C115" s="25" t="s">
         <v>119</v>
       </c>
@@ -4028,7 +4219,7 @@
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A116" s="83"/>
+      <c r="A116" s="85"/>
       <c r="C116" s="25" t="s">
         <v>120</v>
       </c>
@@ -4037,57 +4228,57 @@
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A117" s="83"/>
+      <c r="A117" s="85"/>
       <c r="D117" s="25" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A118" s="83"/>
+      <c r="A118" s="85"/>
       <c r="D118" s="25"/>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A119" s="83"/>
+      <c r="A119" s="85"/>
       <c r="D119" s="25" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A120" s="83"/>
+      <c r="A120" s="85"/>
       <c r="D120" s="25" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A121" s="83"/>
+      <c r="A121" s="85"/>
       <c r="D121" s="25" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A122" s="83"/>
+      <c r="A122" s="85"/>
       <c r="D122" s="25" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A123" s="83"/>
+      <c r="A123" s="85"/>
       <c r="D123" s="25"/>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A124" s="83"/>
+      <c r="A124" s="85"/>
       <c r="D124" s="25" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="125" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A125" s="83"/>
+      <c r="A125" s="85"/>
       <c r="D125" s="26" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A126" s="83"/>
+      <c r="A126" s="85"/>
       <c r="D126" s="25" t="s">
         <v>170</v>
       </c>
@@ -4126,8 +4317,8 @@
   <dimension ref="A1:M97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="G1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I8" sqref="I8"/>
+      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4215,22 +4406,22 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="82" t="s">
+      <c r="A3" s="84" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="83" t="s">
+      <c r="B3" s="85" t="s">
         <v>314</v>
       </c>
-      <c r="C3" s="83" t="s">
+      <c r="C3" s="85" t="s">
         <v>311</v>
       </c>
-      <c r="D3" s="73" t="s">
+      <c r="D3" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="73" t="s">
+      <c r="E3" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="73" t="s">
+      <c r="F3" s="75" t="s">
         <v>301</v>
       </c>
       <c r="G3" s="66"/>
@@ -4241,17 +4432,17 @@
       <c r="L3" s="67" t="s">
         <v>300</v>
       </c>
-      <c r="M3" s="77" t="s">
+      <c r="M3" s="79" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="82"/>
-      <c r="B4" s="83"/>
-      <c r="C4" s="83"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
+      <c r="A4" s="84"/>
+      <c r="B4" s="85"/>
+      <c r="C4" s="85"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
       <c r="G4" s="66"/>
       <c r="H4" s="66"/>
       <c r="I4" s="66"/>
@@ -4260,15 +4451,15 @@
       <c r="L4" s="67" t="s">
         <v>300</v>
       </c>
-      <c r="M4" s="78"/>
+      <c r="M4" s="80"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="82"/>
-      <c r="B5" s="83"/>
-      <c r="C5" s="83"/>
-      <c r="D5" s="73"/>
-      <c r="E5" s="73"/>
-      <c r="F5" s="73"/>
+      <c r="A5" s="84"/>
+      <c r="B5" s="85"/>
+      <c r="C5" s="85"/>
+      <c r="D5" s="75"/>
+      <c r="E5" s="75"/>
+      <c r="F5" s="75"/>
       <c r="G5" s="66"/>
       <c r="H5" s="66"/>
       <c r="I5" s="66"/>
@@ -4277,15 +4468,15 @@
       <c r="L5" s="67" t="s">
         <v>300</v>
       </c>
-      <c r="M5" s="78"/>
+      <c r="M5" s="80"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="82"/>
-      <c r="B6" s="83"/>
-      <c r="C6" s="83"/>
-      <c r="D6" s="73"/>
-      <c r="E6" s="73"/>
-      <c r="F6" s="73"/>
+      <c r="A6" s="84"/>
+      <c r="B6" s="85"/>
+      <c r="C6" s="85"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="75"/>
+      <c r="F6" s="75"/>
       <c r="G6" s="66"/>
       <c r="H6" s="66"/>
       <c r="I6" s="66"/>
@@ -4294,15 +4485,15 @@
       <c r="L6" s="67" t="s">
         <v>300</v>
       </c>
-      <c r="M6" s="78"/>
+      <c r="M6" s="80"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="82"/>
-      <c r="B7" s="83"/>
-      <c r="C7" s="83"/>
-      <c r="D7" s="73"/>
-      <c r="E7" s="73"/>
-      <c r="F7" s="73"/>
+      <c r="A7" s="84"/>
+      <c r="B7" s="85"/>
+      <c r="C7" s="85"/>
+      <c r="D7" s="75"/>
+      <c r="E7" s="75"/>
+      <c r="F7" s="75"/>
       <c r="G7" s="66"/>
       <c r="H7" s="66"/>
       <c r="I7" s="66"/>
@@ -4311,12 +4502,12 @@
       <c r="L7" s="67" t="s">
         <v>300</v>
       </c>
-      <c r="M7" s="78"/>
+      <c r="M7" s="80"/>
     </row>
     <row r="8" spans="1:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="A8" s="82"/>
-      <c r="B8" s="83"/>
-      <c r="C8" s="83"/>
+      <c r="A8" s="84"/>
+      <c r="B8" s="85"/>
+      <c r="C8" s="85"/>
       <c r="D8" s="50" t="s">
         <v>22</v>
       </c>
@@ -4337,22 +4528,22 @@
       <c r="M8" s="44"/>
     </row>
     <row r="9" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="82" t="s">
+      <c r="A9" s="84" t="s">
         <v>224</v>
       </c>
-      <c r="B9" s="84" t="s">
+      <c r="B9" s="86" t="s">
         <v>316</v>
       </c>
-      <c r="C9" s="83" t="s">
+      <c r="C9" s="85" t="s">
         <v>315</v>
       </c>
-      <c r="D9" s="73" t="s">
+      <c r="D9" s="75" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="73" t="s">
+      <c r="E9" s="75" t="s">
         <v>29</v>
       </c>
-      <c r="F9" s="73" t="s">
+      <c r="F9" s="75" t="s">
         <v>32</v>
       </c>
       <c r="G9" s="66"/>
@@ -4363,17 +4554,17 @@
       <c r="L9" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="M9" s="77" t="s">
+      <c r="M9" s="79" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="82"/>
-      <c r="B10" s="73"/>
-      <c r="C10" s="83"/>
-      <c r="D10" s="73"/>
-      <c r="E10" s="73"/>
-      <c r="F10" s="73"/>
+      <c r="A10" s="84"/>
+      <c r="B10" s="75"/>
+      <c r="C10" s="85"/>
+      <c r="D10" s="75"/>
+      <c r="E10" s="75"/>
+      <c r="F10" s="75"/>
       <c r="G10" s="66"/>
       <c r="H10" s="66"/>
       <c r="I10" s="66"/>
@@ -4382,15 +4573,15 @@
       <c r="L10" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="M10" s="78"/>
+      <c r="M10" s="80"/>
     </row>
     <row r="11" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="82"/>
-      <c r="B11" s="73"/>
-      <c r="C11" s="83"/>
-      <c r="D11" s="73"/>
-      <c r="E11" s="73"/>
-      <c r="F11" s="73"/>
+      <c r="A11" s="84"/>
+      <c r="B11" s="75"/>
+      <c r="C11" s="85"/>
+      <c r="D11" s="75"/>
+      <c r="E11" s="75"/>
+      <c r="F11" s="75"/>
       <c r="G11" s="66"/>
       <c r="H11" s="66"/>
       <c r="I11" s="66"/>
@@ -4399,12 +4590,12 @@
       <c r="L11" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="M11" s="78"/>
+      <c r="M11" s="80"/>
     </row>
     <row r="12" spans="1:13" ht="90" x14ac:dyDescent="0.25">
-      <c r="A12" s="82"/>
-      <c r="B12" s="73"/>
-      <c r="C12" s="83"/>
+      <c r="A12" s="84"/>
+      <c r="B12" s="75"/>
+      <c r="C12" s="85"/>
       <c r="D12" s="50" t="s">
         <v>28</v>
       </c>
@@ -4422,12 +4613,12 @@
       <c r="L12" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="M12" s="78"/>
+      <c r="M12" s="80"/>
     </row>
     <row r="13" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="82"/>
-      <c r="B13" s="73"/>
-      <c r="C13" s="83"/>
+      <c r="A13" s="84"/>
+      <c r="B13" s="75"/>
+      <c r="C13" s="85"/>
       <c r="D13" s="50" t="s">
         <v>29</v>
       </c>
@@ -4445,17 +4636,17 @@
       <c r="L13" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="M13" s="78"/>
+      <c r="M13" s="80"/>
     </row>
     <row r="14" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="82"/>
-      <c r="B14" s="73"/>
-      <c r="C14" s="83"/>
+      <c r="A14" s="84"/>
+      <c r="B14" s="75"/>
+      <c r="C14" s="85"/>
       <c r="D14" s="50" t="s">
         <v>30</v>
       </c>
       <c r="E14" s="70"/>
-      <c r="F14" s="73" t="s">
+      <c r="F14" s="75" t="s">
         <v>39</v>
       </c>
       <c r="G14" s="66"/>
@@ -4466,17 +4657,17 @@
       <c r="L14" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="M14" s="78"/>
+      <c r="M14" s="80"/>
     </row>
     <row r="15" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="82"/>
-      <c r="B15" s="73"/>
-      <c r="C15" s="83"/>
+      <c r="A15" s="84"/>
+      <c r="B15" s="75"/>
+      <c r="C15" s="85"/>
       <c r="D15" s="50" t="s">
         <v>31</v>
       </c>
       <c r="E15" s="70"/>
-      <c r="F15" s="73"/>
+      <c r="F15" s="75"/>
       <c r="G15" s="66"/>
       <c r="H15" s="66"/>
       <c r="I15" s="66"/>
@@ -4485,16 +4676,16 @@
       <c r="L15" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="M15" s="78"/>
+      <c r="M15" s="80"/>
     </row>
     <row r="16" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="82" t="s">
+      <c r="A16" s="84" t="s">
         <v>41</v>
       </c>
-      <c r="B16" s="83" t="s">
+      <c r="B16" s="85" t="s">
         <v>275</v>
       </c>
-      <c r="C16" s="83" t="s">
+      <c r="C16" s="85" t="s">
         <v>276</v>
       </c>
       <c r="D16" s="50" t="s">
@@ -4512,14 +4703,14 @@
       <c r="L16" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="M16" s="77" t="s">
+      <c r="M16" s="79" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="82"/>
-      <c r="B17" s="83"/>
-      <c r="C17" s="83"/>
+      <c r="A17" s="84"/>
+      <c r="B17" s="85"/>
+      <c r="C17" s="85"/>
       <c r="D17" s="50" t="s">
         <v>43</v>
       </c>
@@ -4535,12 +4726,12 @@
       <c r="L17" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="M17" s="77"/>
+      <c r="M17" s="79"/>
     </row>
     <row r="18" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="82"/>
-      <c r="B18" s="83"/>
-      <c r="C18" s="83"/>
+      <c r="A18" s="84"/>
+      <c r="B18" s="85"/>
+      <c r="C18" s="85"/>
       <c r="D18" s="50" t="s">
         <v>44</v>
       </c>
@@ -4556,12 +4747,12 @@
       <c r="L18" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="M18" s="77"/>
+      <c r="M18" s="79"/>
     </row>
     <row r="19" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="82"/>
-      <c r="B19" s="83"/>
-      <c r="C19" s="83"/>
+      <c r="A19" s="84"/>
+      <c r="B19" s="85"/>
+      <c r="C19" s="85"/>
       <c r="D19" s="50" t="s">
         <v>41</v>
       </c>
@@ -4577,12 +4768,12 @@
       <c r="L19" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="M19" s="77"/>
+      <c r="M19" s="79"/>
     </row>
     <row r="20" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="82"/>
-      <c r="B20" s="83"/>
-      <c r="C20" s="83"/>
+      <c r="A20" s="84"/>
+      <c r="B20" s="85"/>
+      <c r="C20" s="85"/>
       <c r="D20" s="50" t="s">
         <v>45</v>
       </c>
@@ -4598,16 +4789,16 @@
       <c r="L20" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="M20" s="77"/>
+      <c r="M20" s="79"/>
     </row>
     <row r="21" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A21" s="82"/>
-      <c r="B21" s="83"/>
-      <c r="C21" s="83"/>
+      <c r="A21" s="84"/>
+      <c r="B21" s="85"/>
+      <c r="C21" s="85"/>
       <c r="D21" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="E21" s="73" t="s">
+      <c r="E21" s="75" t="s">
         <v>225</v>
       </c>
       <c r="F21" s="50" t="s">
@@ -4621,16 +4812,16 @@
       <c r="L21" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="M21" s="77"/>
+      <c r="M21" s="79"/>
     </row>
     <row r="22" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A22" s="82"/>
-      <c r="B22" s="83"/>
-      <c r="C22" s="83"/>
-      <c r="D22" s="73" t="s">
+      <c r="A22" s="84"/>
+      <c r="B22" s="85"/>
+      <c r="C22" s="85"/>
+      <c r="D22" s="75" t="s">
         <v>225</v>
       </c>
-      <c r="E22" s="73"/>
+      <c r="E22" s="75"/>
       <c r="F22" s="50" t="s">
         <v>53</v>
       </c>
@@ -4642,13 +4833,13 @@
       <c r="L22" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="M22" s="77"/>
+      <c r="M22" s="79"/>
     </row>
     <row r="23" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A23" s="82"/>
-      <c r="B23" s="83"/>
-      <c r="C23" s="83"/>
-      <c r="D23" s="73"/>
+      <c r="A23" s="84"/>
+      <c r="B23" s="85"/>
+      <c r="C23" s="85"/>
+      <c r="D23" s="75"/>
       <c r="E23" s="70" t="s">
         <v>226</v>
       </c>
@@ -4663,12 +4854,12 @@
       <c r="L23" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="M23" s="77"/>
+      <c r="M23" s="79"/>
     </row>
     <row r="24" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A24" s="82"/>
-      <c r="B24" s="83"/>
-      <c r="C24" s="83"/>
+      <c r="A24" s="84"/>
+      <c r="B24" s="85"/>
+      <c r="C24" s="85"/>
       <c r="D24" s="50" t="s">
         <v>226</v>
       </c>
@@ -4686,16 +4877,16 @@
       <c r="L24" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="M24" s="77"/>
+      <c r="M24" s="79"/>
     </row>
     <row r="25" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="83" t="s">
+      <c r="A25" s="85" t="s">
         <v>58</v>
       </c>
-      <c r="B25" s="83" t="s">
+      <c r="B25" s="85" t="s">
         <v>259</v>
       </c>
-      <c r="C25" s="83" t="s">
+      <c r="C25" s="85" t="s">
         <v>317</v>
       </c>
       <c r="D25" s="44"/>
@@ -4708,15 +4899,15 @@
       <c r="L25" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="M25" s="77" t="s">
+      <c r="M25" s="79" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="83"/>
-      <c r="B26" s="83"/>
-      <c r="C26" s="83"/>
-      <c r="D26" s="73" t="s">
+      <c r="A26" s="85"/>
+      <c r="B26" s="85"/>
+      <c r="C26" s="85"/>
+      <c r="D26" s="75" t="s">
         <v>58</v>
       </c>
       <c r="E26" s="70"/>
@@ -4731,13 +4922,13 @@
       <c r="L26" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="M26" s="78"/>
+      <c r="M26" s="80"/>
     </row>
     <row r="27" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="83"/>
-      <c r="B27" s="83"/>
-      <c r="C27" s="83"/>
-      <c r="D27" s="73"/>
+      <c r="A27" s="85"/>
+      <c r="B27" s="85"/>
+      <c r="C27" s="85"/>
+      <c r="D27" s="75"/>
       <c r="E27" s="70" t="s">
         <v>230</v>
       </c>
@@ -4752,12 +4943,12 @@
       <c r="L27" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="M27" s="78"/>
+      <c r="M27" s="80"/>
     </row>
     <row r="28" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A28" s="83"/>
-      <c r="B28" s="83"/>
-      <c r="C28" s="83"/>
+      <c r="A28" s="85"/>
+      <c r="B28" s="85"/>
+      <c r="C28" s="85"/>
       <c r="D28" s="50" t="s">
         <v>227</v>
       </c>
@@ -4773,16 +4964,16 @@
       <c r="L28" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="M28" s="78"/>
+      <c r="M28" s="80"/>
     </row>
     <row r="29" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="83" t="s">
+      <c r="A29" s="85" t="s">
         <v>66</v>
       </c>
-      <c r="B29" s="83" t="s">
+      <c r="B29" s="85" t="s">
         <v>277</v>
       </c>
-      <c r="C29" s="83" t="s">
+      <c r="C29" s="85" t="s">
         <v>278</v>
       </c>
       <c r="D29" s="50" t="s">
@@ -4800,14 +4991,14 @@
       <c r="L29" s="67" t="s">
         <v>302</v>
       </c>
-      <c r="M29" s="77" t="s">
+      <c r="M29" s="79" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="83"/>
-      <c r="B30" s="83"/>
-      <c r="C30" s="83"/>
+      <c r="A30" s="85"/>
+      <c r="B30" s="85"/>
+      <c r="C30" s="85"/>
       <c r="D30" s="50" t="s">
         <v>67</v>
       </c>
@@ -4825,13 +5016,13 @@
       <c r="L30" s="67" t="s">
         <v>302</v>
       </c>
-      <c r="M30" s="78"/>
+      <c r="M30" s="80"/>
     </row>
     <row r="31" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="83"/>
-      <c r="B31" s="83"/>
-      <c r="C31" s="83"/>
-      <c r="D31" s="73" t="s">
+      <c r="A31" s="85"/>
+      <c r="B31" s="85"/>
+      <c r="C31" s="85"/>
+      <c r="D31" s="75" t="s">
         <v>44</v>
       </c>
       <c r="E31" s="70"/>
@@ -4846,13 +5037,13 @@
       <c r="L31" s="67" t="s">
         <v>302</v>
       </c>
-      <c r="M31" s="78"/>
+      <c r="M31" s="80"/>
     </row>
     <row r="32" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="83"/>
-      <c r="B32" s="83"/>
-      <c r="C32" s="83"/>
-      <c r="D32" s="73"/>
+      <c r="A32" s="85"/>
+      <c r="B32" s="85"/>
+      <c r="C32" s="85"/>
+      <c r="D32" s="75"/>
       <c r="E32" s="70"/>
       <c r="F32" s="50" t="s">
         <v>71</v>
@@ -4865,13 +5056,13 @@
       <c r="L32" s="67" t="s">
         <v>302</v>
       </c>
-      <c r="M32" s="78"/>
+      <c r="M32" s="80"/>
     </row>
     <row r="33" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A33" s="83"/>
-      <c r="B33" s="83"/>
-      <c r="C33" s="83"/>
-      <c r="D33" s="73"/>
+      <c r="A33" s="85"/>
+      <c r="B33" s="85"/>
+      <c r="C33" s="85"/>
+      <c r="D33" s="75"/>
       <c r="E33" s="70"/>
       <c r="F33" s="50" t="s">
         <v>72</v>
@@ -4884,13 +5075,13 @@
       <c r="L33" s="67" t="s">
         <v>302</v>
       </c>
-      <c r="M33" s="78"/>
+      <c r="M33" s="80"/>
     </row>
     <row r="34" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A34" s="83"/>
-      <c r="B34" s="83"/>
-      <c r="C34" s="83"/>
-      <c r="D34" s="73"/>
+      <c r="A34" s="85"/>
+      <c r="B34" s="85"/>
+      <c r="C34" s="85"/>
+      <c r="D34" s="75"/>
       <c r="E34" s="70"/>
       <c r="F34" s="50" t="s">
         <v>73</v>
@@ -4903,13 +5094,13 @@
       <c r="L34" s="67" t="s">
         <v>302</v>
       </c>
-      <c r="M34" s="78"/>
+      <c r="M34" s="80"/>
     </row>
     <row r="35" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="83"/>
-      <c r="B35" s="83"/>
-      <c r="C35" s="83"/>
-      <c r="D35" s="73"/>
+      <c r="A35" s="85"/>
+      <c r="B35" s="85"/>
+      <c r="C35" s="85"/>
+      <c r="D35" s="75"/>
       <c r="E35" s="70"/>
       <c r="F35" s="50" t="s">
         <v>74</v>
@@ -4922,13 +5113,13 @@
       <c r="L35" s="67" t="s">
         <v>302</v>
       </c>
-      <c r="M35" s="78"/>
+      <c r="M35" s="80"/>
     </row>
     <row r="36" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A36" s="83"/>
-      <c r="B36" s="83"/>
-      <c r="C36" s="83"/>
-      <c r="D36" s="73"/>
+      <c r="A36" s="85"/>
+      <c r="B36" s="85"/>
+      <c r="C36" s="85"/>
+      <c r="D36" s="75"/>
       <c r="E36" s="70" t="s">
         <v>107</v>
       </c>
@@ -4943,16 +5134,16 @@
       <c r="L36" s="67" t="s">
         <v>302</v>
       </c>
-      <c r="M36" s="78"/>
+      <c r="M36" s="80"/>
     </row>
     <row r="37" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="83" t="s">
+      <c r="A37" s="85" t="s">
         <v>77</v>
       </c>
-      <c r="B37" s="83" t="s">
+      <c r="B37" s="85" t="s">
         <v>318</v>
       </c>
-      <c r="C37" s="83" t="s">
+      <c r="C37" s="85" t="s">
         <v>279</v>
       </c>
       <c r="D37" s="50" t="s">
@@ -4972,14 +5163,14 @@
       <c r="J37" s="66"/>
       <c r="K37" s="66"/>
       <c r="L37" s="72"/>
-      <c r="M37" s="77" t="s">
+      <c r="M37" s="79" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="38" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A38" s="83"/>
-      <c r="B38" s="83"/>
-      <c r="C38" s="83"/>
+      <c r="A38" s="85"/>
+      <c r="B38" s="85"/>
+      <c r="C38" s="85"/>
       <c r="D38" s="50" t="s">
         <v>231</v>
       </c>
@@ -4995,16 +5186,16 @@
       <c r="L38" s="67" t="s">
         <v>303</v>
       </c>
-      <c r="M38" s="78"/>
+      <c r="M38" s="80"/>
     </row>
     <row r="39" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39" s="83" t="s">
+      <c r="A39" s="85" t="s">
         <v>80</v>
       </c>
-      <c r="B39" s="83" t="s">
+      <c r="B39" s="85" t="s">
         <v>280</v>
       </c>
-      <c r="C39" s="83" t="s">
+      <c r="C39" s="85" t="s">
         <v>281</v>
       </c>
       <c r="D39" s="50" t="s">
@@ -5021,14 +5212,14 @@
       <c r="L39" s="47" t="s">
         <v>304</v>
       </c>
-      <c r="M39" s="77" t="s">
+      <c r="M39" s="79" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A40" s="83"/>
-      <c r="B40" s="83"/>
-      <c r="C40" s="83"/>
+      <c r="A40" s="85"/>
+      <c r="B40" s="85"/>
+      <c r="C40" s="85"/>
       <c r="D40" s="50" t="s">
         <v>82</v>
       </c>
@@ -5041,12 +5232,12 @@
       <c r="L40" s="47" t="s">
         <v>304</v>
       </c>
-      <c r="M40" s="78"/>
+      <c r="M40" s="80"/>
     </row>
     <row r="41" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="83"/>
-      <c r="B41" s="83"/>
-      <c r="C41" s="83"/>
+      <c r="A41" s="85"/>
+      <c r="B41" s="85"/>
+      <c r="C41" s="85"/>
       <c r="D41" s="50" t="s">
         <v>83</v>
       </c>
@@ -5064,13 +5255,13 @@
       <c r="L41" s="47" t="s">
         <v>304</v>
       </c>
-      <c r="M41" s="78"/>
+      <c r="M41" s="80"/>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A42" s="83"/>
-      <c r="B42" s="83"/>
-      <c r="C42" s="83"/>
-      <c r="D42" s="73" t="s">
+      <c r="A42" s="85"/>
+      <c r="B42" s="85"/>
+      <c r="C42" s="85"/>
+      <c r="D42" s="75" t="s">
         <v>85</v>
       </c>
       <c r="E42" s="70"/>
@@ -5085,13 +5276,13 @@
       <c r="L42" s="47" t="s">
         <v>304</v>
       </c>
-      <c r="M42" s="78"/>
+      <c r="M42" s="80"/>
     </row>
     <row r="43" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A43" s="83"/>
-      <c r="B43" s="83"/>
-      <c r="C43" s="83"/>
-      <c r="D43" s="73"/>
+      <c r="A43" s="85"/>
+      <c r="B43" s="85"/>
+      <c r="C43" s="85"/>
+      <c r="D43" s="75"/>
       <c r="E43" s="70"/>
       <c r="F43" s="50" t="s">
         <v>93</v>
@@ -5104,13 +5295,13 @@
       <c r="L43" s="47" t="s">
         <v>304</v>
       </c>
-      <c r="M43" s="78"/>
+      <c r="M43" s="80"/>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A44" s="83"/>
-      <c r="B44" s="83"/>
-      <c r="C44" s="83"/>
-      <c r="D44" s="73"/>
+      <c r="A44" s="85"/>
+      <c r="B44" s="85"/>
+      <c r="C44" s="85"/>
+      <c r="D44" s="75"/>
       <c r="E44" s="70"/>
       <c r="F44" s="50" t="s">
         <v>94</v>
@@ -5123,13 +5314,13 @@
       <c r="L44" s="47" t="s">
         <v>304</v>
       </c>
-      <c r="M44" s="78"/>
+      <c r="M44" s="80"/>
     </row>
     <row r="45" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A45" s="83"/>
-      <c r="B45" s="83"/>
-      <c r="C45" s="83"/>
-      <c r="D45" s="73"/>
+      <c r="A45" s="85"/>
+      <c r="B45" s="85"/>
+      <c r="C45" s="85"/>
+      <c r="D45" s="75"/>
       <c r="E45" s="70"/>
       <c r="F45" s="50" t="s">
         <v>95</v>
@@ -5139,13 +5330,13 @@
       <c r="L45" s="47" t="s">
         <v>304</v>
       </c>
-      <c r="M45" s="78"/>
+      <c r="M45" s="80"/>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A46" s="83"/>
-      <c r="B46" s="83"/>
-      <c r="C46" s="83"/>
-      <c r="D46" s="73"/>
+      <c r="A46" s="85"/>
+      <c r="B46" s="85"/>
+      <c r="C46" s="85"/>
+      <c r="D46" s="75"/>
       <c r="E46" s="70"/>
       <c r="F46" s="50" t="s">
         <v>96</v>
@@ -5155,13 +5346,13 @@
       <c r="L46" s="47" t="s">
         <v>304</v>
       </c>
-      <c r="M46" s="78"/>
+      <c r="M46" s="80"/>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A47" s="83"/>
-      <c r="B47" s="83"/>
-      <c r="C47" s="83"/>
-      <c r="D47" s="73"/>
+      <c r="A47" s="85"/>
+      <c r="B47" s="85"/>
+      <c r="C47" s="85"/>
+      <c r="D47" s="75"/>
       <c r="E47" s="70"/>
       <c r="F47" s="50" t="s">
         <v>97</v>
@@ -5171,13 +5362,13 @@
       <c r="L47" s="47" t="s">
         <v>304</v>
       </c>
-      <c r="M47" s="78"/>
+      <c r="M47" s="80"/>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A48" s="83"/>
-      <c r="B48" s="83"/>
-      <c r="C48" s="83"/>
-      <c r="D48" s="73"/>
+      <c r="A48" s="85"/>
+      <c r="B48" s="85"/>
+      <c r="C48" s="85"/>
+      <c r="D48" s="75"/>
       <c r="E48" s="70"/>
       <c r="F48" s="50" t="s">
         <v>98</v>
@@ -5187,13 +5378,13 @@
       <c r="L48" s="47" t="s">
         <v>304</v>
       </c>
-      <c r="M48" s="78"/>
+      <c r="M48" s="80"/>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A49" s="83"/>
-      <c r="B49" s="83"/>
-      <c r="C49" s="83"/>
-      <c r="D49" s="73"/>
+      <c r="A49" s="85"/>
+      <c r="B49" s="85"/>
+      <c r="C49" s="85"/>
+      <c r="D49" s="75"/>
       <c r="E49" s="70"/>
       <c r="F49" s="50" t="s">
         <v>99</v>
@@ -5203,13 +5394,13 @@
       <c r="L49" s="47" t="s">
         <v>304</v>
       </c>
-      <c r="M49" s="78"/>
+      <c r="M49" s="80"/>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A50" s="83"/>
-      <c r="B50" s="83"/>
-      <c r="C50" s="83"/>
-      <c r="D50" s="73"/>
+      <c r="A50" s="85"/>
+      <c r="B50" s="85"/>
+      <c r="C50" s="85"/>
+      <c r="D50" s="75"/>
       <c r="E50" s="70"/>
       <c r="F50" s="50" t="s">
         <v>100</v>
@@ -5219,13 +5410,13 @@
       <c r="L50" s="47" t="s">
         <v>304</v>
       </c>
-      <c r="M50" s="78"/>
+      <c r="M50" s="80"/>
     </row>
     <row r="51" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A51" s="83"/>
-      <c r="B51" s="83"/>
-      <c r="C51" s="83"/>
-      <c r="D51" s="73"/>
+      <c r="A51" s="85"/>
+      <c r="B51" s="85"/>
+      <c r="C51" s="85"/>
+      <c r="D51" s="75"/>
       <c r="E51" s="70"/>
       <c r="F51" s="50" t="s">
         <v>101</v>
@@ -5235,13 +5426,13 @@
       <c r="L51" s="47" t="s">
         <v>304</v>
       </c>
-      <c r="M51" s="78"/>
+      <c r="M51" s="80"/>
     </row>
     <row r="52" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A52" s="83"/>
-      <c r="B52" s="83"/>
-      <c r="C52" s="83"/>
-      <c r="D52" s="73"/>
+      <c r="A52" s="85"/>
+      <c r="B52" s="85"/>
+      <c r="C52" s="85"/>
+      <c r="D52" s="75"/>
       <c r="E52" s="70"/>
       <c r="F52" s="50" t="s">
         <v>102</v>
@@ -5251,13 +5442,13 @@
       <c r="L52" s="47" t="s">
         <v>304</v>
       </c>
-      <c r="M52" s="78"/>
+      <c r="M52" s="80"/>
     </row>
     <row r="53" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A53" s="83"/>
-      <c r="B53" s="83"/>
-      <c r="C53" s="83"/>
-      <c r="D53" s="73"/>
+      <c r="A53" s="85"/>
+      <c r="B53" s="85"/>
+      <c r="C53" s="85"/>
+      <c r="D53" s="75"/>
       <c r="E53" s="70"/>
       <c r="F53" s="50" t="s">
         <v>103</v>
@@ -5267,16 +5458,16 @@
       <c r="L53" s="47" t="s">
         <v>304</v>
       </c>
-      <c r="M53" s="78"/>
+      <c r="M53" s="80"/>
     </row>
     <row r="54" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A54" s="83" t="s">
+      <c r="A54" s="85" t="s">
         <v>195</v>
       </c>
-      <c r="B54" s="83" t="s">
+      <c r="B54" s="85" t="s">
         <v>282</v>
       </c>
-      <c r="C54" s="83" t="s">
+      <c r="C54" s="85" t="s">
         <v>283</v>
       </c>
       <c r="D54" s="50" t="s">
@@ -5291,14 +5482,14 @@
       <c r="L54" s="67" t="s">
         <v>348</v>
       </c>
-      <c r="M54" s="85" t="s">
+      <c r="M54" s="87" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A55" s="83"/>
-      <c r="B55" s="83"/>
-      <c r="C55" s="83"/>
+      <c r="A55" s="85"/>
+      <c r="B55" s="85"/>
+      <c r="C55" s="85"/>
       <c r="D55" s="50" t="s">
         <v>106</v>
       </c>
@@ -5311,16 +5502,16 @@
       <c r="L55" s="47" t="s">
         <v>348</v>
       </c>
-      <c r="M55" s="78"/>
+      <c r="M55" s="80"/>
     </row>
     <row r="56" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A56" s="83"/>
-      <c r="B56" s="83"/>
-      <c r="C56" s="83"/>
+      <c r="A56" s="85"/>
+      <c r="B56" s="85"/>
+      <c r="C56" s="85"/>
       <c r="D56" s="50" t="s">
         <v>107</v>
       </c>
-      <c r="E56" s="73" t="s">
+      <c r="E56" s="75" t="s">
         <v>153</v>
       </c>
       <c r="F56" s="50" t="s">
@@ -5331,16 +5522,16 @@
       <c r="L56" s="67" t="s">
         <v>348</v>
       </c>
-      <c r="M56" s="78"/>
+      <c r="M56" s="80"/>
     </row>
     <row r="57" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A57" s="83"/>
-      <c r="B57" s="83"/>
-      <c r="C57" s="83"/>
-      <c r="D57" s="73" t="s">
+      <c r="A57" s="85"/>
+      <c r="B57" s="85"/>
+      <c r="C57" s="85"/>
+      <c r="D57" s="75" t="s">
         <v>108</v>
       </c>
-      <c r="E57" s="73"/>
+      <c r="E57" s="75"/>
       <c r="F57" s="50" t="s">
         <v>349</v>
       </c>
@@ -5349,14 +5540,14 @@
       <c r="L57" s="47" t="s">
         <v>348</v>
       </c>
-      <c r="M57" s="78"/>
+      <c r="M57" s="80"/>
     </row>
     <row r="58" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A58" s="83"/>
-      <c r="B58" s="83"/>
-      <c r="C58" s="83"/>
-      <c r="D58" s="73"/>
-      <c r="E58" s="73"/>
+      <c r="A58" s="85"/>
+      <c r="B58" s="85"/>
+      <c r="C58" s="85"/>
+      <c r="D58" s="75"/>
+      <c r="E58" s="75"/>
       <c r="F58" s="50" t="s">
         <v>71</v>
       </c>
@@ -5365,14 +5556,14 @@
       <c r="L58" s="47" t="s">
         <v>348</v>
       </c>
-      <c r="M58" s="78"/>
+      <c r="M58" s="80"/>
     </row>
     <row r="59" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A59" s="83"/>
-      <c r="B59" s="83"/>
-      <c r="C59" s="83"/>
-      <c r="D59" s="73"/>
-      <c r="E59" s="73"/>
+      <c r="A59" s="85"/>
+      <c r="B59" s="85"/>
+      <c r="C59" s="85"/>
+      <c r="D59" s="75"/>
+      <c r="E59" s="75"/>
       <c r="F59" s="50" t="s">
         <v>112</v>
       </c>
@@ -5381,14 +5572,14 @@
       <c r="L59" s="47" t="s">
         <v>348</v>
       </c>
-      <c r="M59" s="78"/>
+      <c r="M59" s="80"/>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A60" s="83"/>
-      <c r="B60" s="83"/>
-      <c r="C60" s="83"/>
-      <c r="D60" s="73"/>
-      <c r="E60" s="73"/>
+      <c r="A60" s="85"/>
+      <c r="B60" s="85"/>
+      <c r="C60" s="85"/>
+      <c r="D60" s="75"/>
+      <c r="E60" s="75"/>
       <c r="F60" s="50" t="s">
         <v>113</v>
       </c>
@@ -5397,13 +5588,13 @@
       <c r="L60" s="47" t="s">
         <v>348</v>
       </c>
-      <c r="M60" s="78"/>
+      <c r="M60" s="80"/>
     </row>
     <row r="61" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A61" s="83"/>
-      <c r="B61" s="83"/>
-      <c r="C61" s="83"/>
-      <c r="D61" s="73"/>
+      <c r="A61" s="85"/>
+      <c r="B61" s="85"/>
+      <c r="C61" s="85"/>
+      <c r="D61" s="75"/>
       <c r="E61" s="70"/>
       <c r="F61" s="50" t="s">
         <v>114</v>
@@ -5413,13 +5604,13 @@
       <c r="L61" s="47" t="s">
         <v>348</v>
       </c>
-      <c r="M61" s="78"/>
+      <c r="M61" s="80"/>
     </row>
     <row r="62" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A62" s="83"/>
-      <c r="B62" s="83"/>
-      <c r="C62" s="83"/>
-      <c r="D62" s="73"/>
+      <c r="A62" s="85"/>
+      <c r="B62" s="85"/>
+      <c r="C62" s="85"/>
+      <c r="D62" s="75"/>
       <c r="E62" s="70"/>
       <c r="F62" s="50" t="s">
         <v>115</v>
@@ -5429,14 +5620,14 @@
       <c r="L62" s="47" t="s">
         <v>348</v>
       </c>
-      <c r="M62" s="78"/>
+      <c r="M62" s="80"/>
     </row>
     <row r="63" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A63" s="83"/>
-      <c r="B63" s="83"/>
-      <c r="C63" s="83"/>
-      <c r="D63" s="73"/>
-      <c r="E63" s="73" t="s">
+      <c r="A63" s="85"/>
+      <c r="B63" s="85"/>
+      <c r="C63" s="85"/>
+      <c r="D63" s="75"/>
+      <c r="E63" s="75" t="s">
         <v>153</v>
       </c>
       <c r="F63" s="50" t="s">
@@ -5446,23 +5637,23 @@
       <c r="L63" s="47" t="s">
         <v>348</v>
       </c>
-      <c r="M63" s="78"/>
+      <c r="M63" s="80"/>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A64" s="83" t="s">
+      <c r="A64" s="85" t="s">
         <v>117</v>
       </c>
-      <c r="B64" s="83" t="s">
+      <c r="B64" s="85" t="s">
         <v>319</v>
       </c>
-      <c r="C64" s="83" t="s">
+      <c r="C64" s="85" t="s">
         <v>321</v>
       </c>
-      <c r="D64" s="73" t="s">
+      <c r="D64" s="75" t="s">
         <v>120</v>
       </c>
-      <c r="E64" s="73"/>
-      <c r="F64" s="73" t="s">
+      <c r="E64" s="75"/>
+      <c r="F64" s="75" t="s">
         <v>235</v>
       </c>
       <c r="I64" s="66"/>
@@ -5470,30 +5661,30 @@
       <c r="L64" s="47" t="s">
         <v>348</v>
       </c>
-      <c r="M64" s="85" t="s">
+      <c r="M64" s="87" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A65" s="83"/>
-      <c r="B65" s="83"/>
-      <c r="C65" s="83"/>
-      <c r="D65" s="73"/>
-      <c r="E65" s="73"/>
-      <c r="F65" s="73"/>
+      <c r="A65" s="85"/>
+      <c r="B65" s="85"/>
+      <c r="C65" s="85"/>
+      <c r="D65" s="75"/>
+      <c r="E65" s="75"/>
+      <c r="F65" s="75"/>
       <c r="I65" s="66"/>
       <c r="J65" s="47"/>
       <c r="L65" s="47" t="s">
         <v>348</v>
       </c>
-      <c r="M65" s="78"/>
+      <c r="M65" s="80"/>
     </row>
     <row r="66" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A66" s="83"/>
-      <c r="B66" s="83"/>
-      <c r="C66" s="83"/>
-      <c r="D66" s="73"/>
-      <c r="E66" s="73"/>
+      <c r="A66" s="85"/>
+      <c r="B66" s="85"/>
+      <c r="C66" s="85"/>
+      <c r="D66" s="75"/>
+      <c r="E66" s="75"/>
       <c r="F66" s="50" t="s">
         <v>112</v>
       </c>
@@ -5502,14 +5693,14 @@
       <c r="L66" s="47" t="s">
         <v>348</v>
       </c>
-      <c r="M66" s="78"/>
+      <c r="M66" s="80"/>
     </row>
     <row r="67" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A67" s="83"/>
-      <c r="B67" s="83"/>
-      <c r="C67" s="83"/>
-      <c r="D67" s="73"/>
-      <c r="E67" s="73"/>
+      <c r="A67" s="85"/>
+      <c r="B67" s="85"/>
+      <c r="C67" s="85"/>
+      <c r="D67" s="75"/>
+      <c r="E67" s="75"/>
       <c r="F67" s="50" t="s">
         <v>124</v>
       </c>
@@ -5518,16 +5709,16 @@
       <c r="L67" s="47" t="s">
         <v>348</v>
       </c>
-      <c r="M67" s="78"/>
+      <c r="M67" s="80"/>
     </row>
     <row r="68" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A68" s="83" t="s">
+      <c r="A68" s="85" t="s">
         <v>125</v>
       </c>
-      <c r="B68" s="83" t="s">
+      <c r="B68" s="85" t="s">
         <v>320</v>
       </c>
-      <c r="C68" s="83" t="s">
+      <c r="C68" s="85" t="s">
         <v>284</v>
       </c>
       <c r="D68" s="50" t="s">
@@ -5542,18 +5733,18 @@
       <c r="L68" s="47" t="s">
         <v>348</v>
       </c>
-      <c r="M68" s="77" t="s">
+      <c r="M68" s="79" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="69" spans="1:13" ht="90" x14ac:dyDescent="0.25">
-      <c r="A69" s="83"/>
-      <c r="B69" s="78"/>
-      <c r="C69" s="78"/>
+      <c r="A69" s="85"/>
+      <c r="B69" s="80"/>
+      <c r="C69" s="80"/>
       <c r="D69" s="50" t="s">
         <v>127</v>
       </c>
-      <c r="E69" s="73" t="s">
+      <c r="E69" s="75" t="s">
         <v>153</v>
       </c>
       <c r="F69" s="50" t="s">
@@ -5567,16 +5758,16 @@
       <c r="L69" s="47" t="s">
         <v>348</v>
       </c>
-      <c r="M69" s="78"/>
+      <c r="M69" s="80"/>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A70" s="83"/>
-      <c r="B70" s="78"/>
-      <c r="C70" s="78"/>
+      <c r="A70" s="85"/>
+      <c r="B70" s="80"/>
+      <c r="C70" s="80"/>
       <c r="D70" s="50" t="s">
         <v>128</v>
       </c>
-      <c r="E70" s="73"/>
+      <c r="E70" s="75"/>
       <c r="F70" s="50" t="s">
         <v>351</v>
       </c>
@@ -5587,14 +5778,14 @@
         <v>353</v>
       </c>
       <c r="L70" s="47"/>
-      <c r="M70" s="78"/>
+      <c r="M70" s="80"/>
     </row>
     <row r="71" spans="1:13" s="44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="83"/>
-      <c r="B71" s="78"/>
-      <c r="C71" s="78"/>
+      <c r="A71" s="85"/>
+      <c r="B71" s="80"/>
+      <c r="C71" s="80"/>
       <c r="D71" s="68"/>
-      <c r="E71" s="73"/>
+      <c r="E71" s="75"/>
       <c r="F71" s="57" t="s">
         <v>242</v>
       </c>
@@ -5603,14 +5794,14 @@
       <c r="L71" s="47" t="s">
         <v>348</v>
       </c>
-      <c r="M71" s="78"/>
+      <c r="M71" s="80"/>
     </row>
     <row r="72" spans="1:13" s="44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="83"/>
-      <c r="B72" s="78"/>
-      <c r="C72" s="78"/>
+      <c r="A72" s="85"/>
+      <c r="B72" s="80"/>
+      <c r="C72" s="80"/>
       <c r="D72" s="68"/>
-      <c r="E72" s="73"/>
+      <c r="E72" s="75"/>
       <c r="F72" s="57" t="s">
         <v>243</v>
       </c>
@@ -5619,14 +5810,14 @@
       <c r="L72" s="47" t="s">
         <v>354</v>
       </c>
-      <c r="M72" s="78"/>
+      <c r="M72" s="80"/>
     </row>
     <row r="73" spans="1:13" s="44" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A73" s="83"/>
-      <c r="B73" s="78"/>
-      <c r="C73" s="78"/>
+      <c r="A73" s="85"/>
+      <c r="B73" s="80"/>
+      <c r="C73" s="80"/>
       <c r="D73" s="68"/>
-      <c r="E73" s="73"/>
+      <c r="E73" s="75"/>
       <c r="F73" s="57" t="s">
         <v>168</v>
       </c>
@@ -5635,12 +5826,12 @@
       <c r="L73" s="47" t="s">
         <v>200</v>
       </c>
-      <c r="M73" s="78"/>
+      <c r="M73" s="80"/>
     </row>
     <row r="74" spans="1:13" s="44" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A74" s="83"/>
-      <c r="B74" s="78"/>
-      <c r="C74" s="78"/>
+      <c r="A74" s="85"/>
+      <c r="B74" s="80"/>
+      <c r="C74" s="80"/>
       <c r="D74" s="68"/>
       <c r="E74" s="70"/>
       <c r="F74" s="57" t="s">
@@ -5651,24 +5842,24 @@
       <c r="L74" s="47" t="s">
         <v>200</v>
       </c>
-      <c r="M74" s="78"/>
+      <c r="M74" s="80"/>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A75" s="83"/>
-      <c r="B75" s="78"/>
-      <c r="C75" s="78"/>
+      <c r="A75" s="85"/>
+      <c r="B75" s="80"/>
+      <c r="C75" s="80"/>
       <c r="D75" s="69"/>
       <c r="F75" s="57"/>
-      <c r="M75" s="78"/>
+      <c r="M75" s="80"/>
     </row>
     <row r="76" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A76" s="83" t="s">
+      <c r="A76" s="85" t="s">
         <v>132</v>
       </c>
-      <c r="B76" s="83" t="s">
+      <c r="B76" s="85" t="s">
         <v>285</v>
       </c>
-      <c r="C76" s="83" t="s">
+      <c r="C76" s="85" t="s">
         <v>286</v>
       </c>
       <c r="D76" s="50" t="s">
@@ -5685,14 +5876,14 @@
       <c r="L76" s="47" t="s">
         <v>348</v>
       </c>
-      <c r="M76" s="85" t="s">
+      <c r="M76" s="87" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="77" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A77" s="83"/>
-      <c r="B77" s="83"/>
-      <c r="C77" s="83"/>
+      <c r="A77" s="85"/>
+      <c r="B77" s="85"/>
+      <c r="C77" s="85"/>
       <c r="D77" s="50" t="s">
         <v>236</v>
       </c>
@@ -5707,23 +5898,23 @@
       <c r="L77" s="67" t="s">
         <v>348</v>
       </c>
-      <c r="M77" s="78"/>
+      <c r="M77" s="80"/>
     </row>
     <row r="78" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="83" t="s">
+      <c r="A78" s="85" t="s">
         <v>141</v>
       </c>
-      <c r="B78" s="83" t="s">
+      <c r="B78" s="85" t="s">
         <v>287</v>
       </c>
-      <c r="C78" s="83" t="s">
+      <c r="C78" s="85" t="s">
         <v>288</v>
       </c>
-      <c r="D78" s="73" t="s">
+      <c r="D78" s="75" t="s">
         <v>237</v>
       </c>
       <c r="E78" s="70"/>
-      <c r="F78" s="73" t="s">
+      <c r="F78" s="75" t="s">
         <v>238</v>
       </c>
       <c r="I78" s="66"/>
@@ -5731,51 +5922,51 @@
       <c r="L78" s="67" t="s">
         <v>348</v>
       </c>
-      <c r="M78" s="85" t="s">
+      <c r="M78" s="87" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="79" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A79" s="83"/>
-      <c r="B79" s="83"/>
-      <c r="C79" s="83"/>
-      <c r="D79" s="73"/>
+      <c r="A79" s="85"/>
+      <c r="B79" s="85"/>
+      <c r="C79" s="85"/>
+      <c r="D79" s="75"/>
       <c r="E79" s="70"/>
-      <c r="F79" s="73"/>
+      <c r="F79" s="75"/>
       <c r="I79" s="66"/>
       <c r="J79" s="67"/>
       <c r="L79" s="67" t="s">
         <v>348</v>
       </c>
-      <c r="M79" s="78"/>
+      <c r="M79" s="80"/>
     </row>
     <row r="80" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A80" s="83"/>
-      <c r="B80" s="83"/>
-      <c r="C80" s="83"/>
-      <c r="D80" s="73"/>
+      <c r="A80" s="85"/>
+      <c r="B80" s="85"/>
+      <c r="C80" s="85"/>
+      <c r="D80" s="75"/>
       <c r="E80" s="70"/>
-      <c r="F80" s="73"/>
+      <c r="F80" s="75"/>
       <c r="I80" s="66"/>
       <c r="J80" s="67"/>
       <c r="L80" s="67" t="s">
         <v>348</v>
       </c>
-      <c r="M80" s="78"/>
+      <c r="M80" s="80"/>
     </row>
     <row r="81" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A81" s="83"/>
-      <c r="B81" s="83"/>
-      <c r="C81" s="83"/>
-      <c r="D81" s="73"/>
+      <c r="A81" s="85"/>
+      <c r="B81" s="85"/>
+      <c r="C81" s="85"/>
+      <c r="D81" s="75"/>
       <c r="E81" s="70"/>
-      <c r="F81" s="73"/>
+      <c r="F81" s="75"/>
       <c r="I81" s="66"/>
       <c r="J81" s="67"/>
       <c r="L81" s="67" t="s">
         <v>348</v>
       </c>
-      <c r="M81" s="78"/>
+      <c r="M81" s="80"/>
     </row>
     <row r="82" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A82" s="49" t="s">
@@ -5804,13 +5995,13 @@
       </c>
     </row>
     <row r="83" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A83" s="83" t="s">
+      <c r="A83" s="85" t="s">
         <v>289</v>
       </c>
-      <c r="B83" s="83" t="s">
+      <c r="B83" s="85" t="s">
         <v>290</v>
       </c>
-      <c r="C83" s="83" t="s">
+      <c r="C83" s="85" t="s">
         <v>291</v>
       </c>
       <c r="D83" s="50" t="s">
@@ -5825,15 +6016,15 @@
       <c r="L83" s="67" t="s">
         <v>307</v>
       </c>
-      <c r="M83" s="77" t="s">
+      <c r="M83" s="79" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="84" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A84" s="83"/>
-      <c r="B84" s="73"/>
-      <c r="C84" s="73"/>
-      <c r="D84" s="73" t="s">
+      <c r="A84" s="85"/>
+      <c r="B84" s="75"/>
+      <c r="C84" s="75"/>
+      <c r="D84" s="75" t="s">
         <v>153</v>
       </c>
       <c r="E84" s="70"/>
@@ -5845,15 +6036,15 @@
       <c r="L84" s="67" t="s">
         <v>307</v>
       </c>
-      <c r="M84" s="78"/>
+      <c r="M84" s="80"/>
     </row>
     <row r="85" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A85" s="83"/>
-      <c r="B85" s="73"/>
-      <c r="C85" s="73"/>
-      <c r="D85" s="73"/>
+      <c r="A85" s="85"/>
+      <c r="B85" s="75"/>
+      <c r="C85" s="75"/>
+      <c r="D85" s="75"/>
       <c r="E85" s="70"/>
-      <c r="F85" s="73" t="s">
+      <c r="F85" s="75" t="s">
         <v>241</v>
       </c>
       <c r="I85" s="66"/>
@@ -5861,49 +6052,49 @@
       <c r="L85" s="67" t="s">
         <v>307</v>
       </c>
-      <c r="M85" s="78"/>
+      <c r="M85" s="80"/>
     </row>
     <row r="86" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A86" s="83"/>
-      <c r="B86" s="73"/>
-      <c r="C86" s="73"/>
-      <c r="D86" s="73"/>
+      <c r="A86" s="85"/>
+      <c r="B86" s="75"/>
+      <c r="C86" s="75"/>
+      <c r="D86" s="75"/>
       <c r="E86" s="70"/>
-      <c r="F86" s="73"/>
+      <c r="F86" s="75"/>
       <c r="I86" s="66"/>
       <c r="J86" s="67"/>
       <c r="L86" s="67" t="s">
         <v>307</v>
       </c>
-      <c r="M86" s="78"/>
+      <c r="M86" s="80"/>
     </row>
     <row r="87" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A87" s="83"/>
-      <c r="B87" s="73"/>
-      <c r="C87" s="73"/>
-      <c r="D87" s="73"/>
+      <c r="A87" s="85"/>
+      <c r="B87" s="75"/>
+      <c r="C87" s="75"/>
+      <c r="D87" s="75"/>
       <c r="E87" s="70"/>
-      <c r="F87" s="73"/>
+      <c r="F87" s="75"/>
       <c r="I87" s="66"/>
       <c r="J87" s="67"/>
       <c r="L87" s="67" t="s">
         <v>307</v>
       </c>
-      <c r="M87" s="78"/>
+      <c r="M87" s="80"/>
     </row>
     <row r="88" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A88" s="83"/>
-      <c r="B88" s="73"/>
-      <c r="C88" s="73"/>
-      <c r="D88" s="73"/>
+      <c r="A88" s="85"/>
+      <c r="B88" s="75"/>
+      <c r="C88" s="75"/>
+      <c r="D88" s="75"/>
       <c r="E88" s="70"/>
-      <c r="F88" s="73"/>
+      <c r="F88" s="75"/>
       <c r="I88" s="66"/>
       <c r="J88" s="67"/>
       <c r="L88" s="67" t="s">
         <v>307</v>
       </c>
-      <c r="M88" s="78"/>
+      <c r="M88" s="80"/>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" s="58"/>

--- a/Corpus/MLR_Corpus.xlsx
+++ b/Corpus/MLR_Corpus.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workouts\Projects\Acadia\Masori-Chatbot-Dev-main\Masori-Chatbot-Dev-main\Corpus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6A7D64D-78AA-40EB-AA02-954D260601AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ADE8145-1803-4831-A652-A82A0312F9AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuplazid Consumer" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,9 @@
     <author>tc={2B46EE82-DD41-45F9-B431-51F301EDCADE}</author>
     <author>tc={190DBEEA-93D9-4BFD-AD5C-1FA3C401F8CC}</author>
     <author>tc={6174D911-122C-4454-8324-AF7C643C4042}</author>
+    <author>tc={3CD3324B-6AA3-457C-8A88-32330C9035AE}</author>
     <author>tc={C6BC059E-DDFE-4471-8AF3-B08E62FA3401}</author>
+    <author>tc={97A1DE64-2A59-4152-9781-91195D1F313C}</author>
   </authors>
   <commentList>
     <comment ref="A2" authorId="0" shapeId="0" xr:uid="{B4468C53-9464-4F63-81D1-C992873261B1}">
@@ -103,7 +105,23 @@
     Where can I learn more? Something like that. We need to have something tied to email registrations.</t>
       </text>
     </comment>
-    <comment ref="D25" authorId="7" shapeId="0" xr:uid="{C6BC059E-DDFE-4471-8AF3-B08E62FA3401}">
+    <comment ref="E24" authorId="7" shapeId="0" xr:uid="{3CD3324B-6AA3-457C-8A88-32330C9035AE}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    I recommend to have "Acadia Connect and delete any mention of Nuplazid Connect.</t>
+      </text>
+    </comment>
+    <comment ref="D25" authorId="8" shapeId="0" xr:uid="{C6BC059E-DDFE-4471-8AF3-B08E62FA3401}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    I recommend to have "Acadia Connect and delete any mention of Nuplazid Connect.</t>
+      </text>
+    </comment>
+    <comment ref="E27" authorId="9" shapeId="0" xr:uid="{97A1DE64-2A59-4152-9781-91195D1F313C}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -223,7 +241,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="360">
   <si>
     <t>Keywords</t>
   </si>
@@ -1521,7 +1539,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1551,6 +1569,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -2130,7 +2154,13 @@
   <threadedComment ref="C15" dT="2021-02-02T19:13:01.58" personId="{1295C466-BD7C-441E-8FE1-FBB710452072}" id="{6174D911-122C-4454-8324-AF7C643C4042}">
     <text>Where can I learn more? Something like that. We need to have something tied to email registrations.</text>
   </threadedComment>
+  <threadedComment ref="E24" dT="2021-02-03T17:15:04.39" personId="{6851B53B-E571-4C8C-A62D-03D0D1B89898}" id="{3CD3324B-6AA3-457C-8A88-32330C9035AE}">
+    <text>I recommend to have "Acadia Connect and delete any mention of Nuplazid Connect.</text>
+  </threadedComment>
   <threadedComment ref="D25" dT="2021-02-03T17:15:04.39" personId="{6851B53B-E571-4C8C-A62D-03D0D1B89898}" id="{C6BC059E-DDFE-4471-8AF3-B08E62FA3401}">
+    <text>I recommend to have "Acadia Connect and delete any mention of Nuplazid Connect.</text>
+  </threadedComment>
+  <threadedComment ref="E27" dT="2021-02-03T17:15:04.39" personId="{6851B53B-E571-4C8C-A62D-03D0D1B89898}" id="{97A1DE64-2A59-4152-9781-91195D1F313C}">
     <text>I recommend to have "Acadia Connect and delete any mention of Nuplazid Connect.</text>
   </threadedComment>
 </ThreadedComments>
@@ -2184,9 +2214,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E2" sqref="E2"/>
+      <selection pane="topRight" activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2255,7 +2285,9 @@
       <c r="D2" s="58" t="s">
         <v>174</v>
       </c>
-      <c r="E2" s="74"/>
+      <c r="E2" s="74" t="s">
+        <v>10</v>
+      </c>
       <c r="F2" s="30" t="s">
         <v>205</v>
       </c>
@@ -2278,7 +2310,9 @@
       <c r="D3" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="74"/>
+      <c r="E3" s="74" t="s">
+        <v>328</v>
+      </c>
       <c r="F3" s="32" t="s">
         <v>248</v>
       </c>
@@ -2299,7 +2333,9 @@
       <c r="D4" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="74"/>
+      <c r="E4" s="74" t="s">
+        <v>174</v>
+      </c>
       <c r="F4" s="32" t="s">
         <v>206</v>
       </c>
@@ -2326,6 +2362,9 @@
       <c r="D5" s="58" t="s">
         <v>173</v>
       </c>
+      <c r="E5" s="74" t="s">
+        <v>20</v>
+      </c>
       <c r="F5" s="32" t="s">
         <v>207</v>
       </c>
@@ -2348,6 +2387,9 @@
       <c r="D6" s="58" t="s">
         <v>20</v>
       </c>
+      <c r="E6" s="74" t="s">
+        <v>258</v>
+      </c>
       <c r="F6" s="33" t="s">
         <v>208</v>
       </c>
@@ -2374,7 +2416,9 @@
       <c r="D7" s="62" t="s">
         <v>328</v>
       </c>
-      <c r="E7" s="74"/>
+      <c r="E7" s="74" t="s">
+        <v>330</v>
+      </c>
       <c r="F7" s="62" t="s">
         <v>329</v>
       </c>
@@ -2397,7 +2441,9 @@
       <c r="D8" s="62" t="s">
         <v>330</v>
       </c>
-      <c r="E8" s="74"/>
+      <c r="E8" s="74" t="s">
+        <v>198</v>
+      </c>
       <c r="F8" s="62" t="s">
         <v>331</v>
       </c>
@@ -2532,6 +2578,9 @@
       <c r="D15" s="58" t="s">
         <v>176</v>
       </c>
+      <c r="E15" s="74" t="s">
+        <v>177</v>
+      </c>
       <c r="F15" s="32" t="s">
         <v>209</v>
       </c>
@@ -2554,6 +2603,9 @@
       <c r="D16" s="58" t="s">
         <v>177</v>
       </c>
+      <c r="E16" s="74" t="s">
+        <v>178</v>
+      </c>
       <c r="F16" s="34" t="s">
         <v>179</v>
       </c>
@@ -2574,6 +2626,9 @@
       <c r="D17" s="58" t="s">
         <v>178</v>
       </c>
+      <c r="E17" s="74" t="s">
+        <v>254</v>
+      </c>
       <c r="F17" s="32" t="s">
         <v>210</v>
       </c>
@@ -2592,7 +2647,6 @@
       <c r="B18" s="76"/>
       <c r="C18" s="76"/>
       <c r="D18" s="43"/>
-      <c r="E18" s="43"/>
       <c r="F18" s="42"/>
       <c r="G18" s="42"/>
       <c r="H18" s="42"/>
@@ -2617,6 +2671,9 @@
       <c r="D19" s="58" t="s">
         <v>181</v>
       </c>
+      <c r="E19" s="74" t="s">
+        <v>184</v>
+      </c>
       <c r="F19" s="35" t="s">
         <v>211</v>
       </c>
@@ -2639,6 +2696,9 @@
       <c r="D20" s="58" t="s">
         <v>182</v>
       </c>
+      <c r="E20" s="74" t="s">
+        <v>184</v>
+      </c>
       <c r="F20" s="41" t="s">
         <v>212</v>
       </c>
@@ -2679,6 +2739,9 @@
       <c r="D22" s="58" t="s">
         <v>184</v>
       </c>
+      <c r="E22" s="74" t="s">
+        <v>172</v>
+      </c>
       <c r="F22" s="32" t="s">
         <v>214</v>
       </c>
@@ -2727,6 +2790,9 @@
       <c r="D24" s="58" t="s">
         <v>18</v>
       </c>
+      <c r="E24" s="74" t="s">
+        <v>325</v>
+      </c>
       <c r="F24" s="41" t="s">
         <v>215</v>
       </c>
@@ -2747,6 +2813,9 @@
       <c r="D25" s="58" t="s">
         <v>325</v>
       </c>
+      <c r="E25" s="74" t="s">
+        <v>254</v>
+      </c>
       <c r="F25" s="32" t="s">
         <v>216</v>
       </c>
@@ -2765,7 +2834,6 @@
       <c r="B26" s="75"/>
       <c r="C26" s="76"/>
       <c r="D26" s="43"/>
-      <c r="E26" s="43"/>
       <c r="F26" s="43"/>
       <c r="G26" s="43"/>
       <c r="H26" s="43"/>
@@ -2790,6 +2858,9 @@
       <c r="D27" s="58" t="s">
         <v>188</v>
       </c>
+      <c r="E27" s="74" t="s">
+        <v>325</v>
+      </c>
       <c r="F27" s="32" t="s">
         <v>217</v>
       </c>
@@ -2812,6 +2883,9 @@
       <c r="D28" s="58" t="s">
         <v>189</v>
       </c>
+      <c r="E28" s="74" t="s">
+        <v>132</v>
+      </c>
       <c r="F28" s="32" t="s">
         <v>190</v>
       </c>
@@ -2830,7 +2904,6 @@
       <c r="B29" s="75"/>
       <c r="C29" s="81"/>
       <c r="D29" s="43"/>
-      <c r="E29" s="43"/>
       <c r="F29" s="42"/>
       <c r="G29" s="42"/>
       <c r="H29" s="42"/>
@@ -2868,6 +2941,9 @@
       <c r="C31" s="75" t="s">
         <v>269</v>
       </c>
+      <c r="E31" s="74" t="s">
+        <v>198</v>
+      </c>
       <c r="F31" s="32" t="s">
         <v>192</v>
       </c>
@@ -2908,7 +2984,6 @@
       <c r="D33" s="43" t="s">
         <v>257</v>
       </c>
-      <c r="E33" s="43"/>
       <c r="F33" s="43" t="s">
         <v>249</v>
       </c>
@@ -2929,7 +3004,9 @@
       <c r="D34" s="43" t="s">
         <v>172</v>
       </c>
-      <c r="E34" s="43"/>
+      <c r="E34" s="74" t="s">
+        <v>258</v>
+      </c>
       <c r="F34" s="43" t="s">
         <v>250</v>
       </c>
@@ -2950,7 +3027,9 @@
       <c r="D35" s="43" t="s">
         <v>258</v>
       </c>
-      <c r="E35" s="43"/>
+      <c r="E35" s="74" t="s">
+        <v>132</v>
+      </c>
       <c r="F35" s="43" t="s">
         <v>251</v>
       </c>
@@ -2971,6 +3050,9 @@
       <c r="D36" s="58" t="s">
         <v>132</v>
       </c>
+      <c r="E36" s="74" t="s">
+        <v>195</v>
+      </c>
       <c r="F36" s="43" t="s">
         <v>252</v>
       </c>
@@ -2997,6 +3079,9 @@
       <c r="D37" s="58" t="s">
         <v>193</v>
       </c>
+      <c r="E37" s="74" t="s">
+        <v>197</v>
+      </c>
       <c r="F37" s="32" t="s">
         <v>221</v>
       </c>
@@ -3019,6 +3104,9 @@
       <c r="D38" s="58" t="s">
         <v>194</v>
       </c>
+      <c r="E38" s="74" t="s">
+        <v>197</v>
+      </c>
       <c r="F38" s="32" t="s">
         <v>255</v>
       </c>
@@ -3069,6 +3157,9 @@
       <c r="D41" s="58" t="s">
         <v>197</v>
       </c>
+      <c r="E41" s="74" t="s">
+        <v>195</v>
+      </c>
       <c r="F41" s="39" t="s">
         <v>202</v>
       </c>
@@ -3089,6 +3180,9 @@
       <c r="D42" s="58" t="s">
         <v>198</v>
       </c>
+      <c r="E42" s="74" t="s">
+        <v>195</v>
+      </c>
       <c r="F42" s="32" t="s">
         <v>222</v>
       </c>
@@ -3108,6 +3202,9 @@
       <c r="C43" s="76"/>
       <c r="D43" s="58" t="s">
         <v>199</v>
+      </c>
+      <c r="E43" s="74" t="s">
+        <v>195</v>
       </c>
       <c r="F43" s="41" t="s">
         <v>203</v>
@@ -3164,14 +3261,12 @@
       <c r="B46" s="42"/>
       <c r="C46" s="42"/>
       <c r="D46" s="43"/>
-      <c r="E46" s="43"/>
       <c r="F46" s="40"/>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B47" s="42"/>
       <c r="C47" s="42"/>
       <c r="D47" s="43"/>
-      <c r="E47" s="43"/>
       <c r="F47" s="40"/>
     </row>
   </sheetData>
@@ -4316,7 +4411,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
     </sheetView>

--- a/Corpus/MLR_Corpus.xlsx
+++ b/Corpus/MLR_Corpus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workouts\Projects\Acadia\Masori-Chatbot-Dev-main\Masori-Chatbot-Dev-main\Corpus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ADE8145-1803-4831-A652-A82A0312F9AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53475881-60A4-45A0-A01F-11E4D5FDE24D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,6 +17,10 @@
     <sheet name="Nuplazid HCP Old" sheetId="1" state="hidden" r:id="rId2"/>
     <sheet name="Nuplazid HCP" sheetId="4" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Nuplazid Consumer'!$A$1:$M$11</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Nuplazid HCP'!$A$1:$M$88</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -241,7 +245,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="365">
   <si>
     <t>Keywords</t>
   </si>
@@ -785,9 +789,6 @@
     <t>About Parkinson’s Disease</t>
   </si>
   <si>
-    <t>cause of Parkinson’s disease</t>
-  </si>
-  <si>
     <t>Parkinson’s condition</t>
   </si>
   <si>
@@ -798,12 +799,6 @@
   </si>
   <si>
     <t>Related hallucinations and delusions queries</t>
-  </si>
-  <si>
-    <t>Parkinson’s hallucination</t>
-  </si>
-  <si>
-    <t>Parkinson’s delusions</t>
   </si>
   <si>
     <t>related hallucinations &amp; delusion</t>
@@ -1074,9 +1069,6 @@
   </si>
   <si>
     <t>Dosage Information</t>
-  </si>
-  <si>
-    <t>Parkinson's disease (PD)-related hallucinations and delusions</t>
   </si>
   <si>
     <t>Taking NUPLAZID</t>
@@ -1534,12 +1526,39 @@
     <t>Download Distribution Factsheet
 Download Disease Edication Factsheet</t>
   </si>
+  <si>
+    <t>About Parkinson Disease Psychosis</t>
+  </si>
+  <si>
+    <t>symptoms of Parkinson disease</t>
+  </si>
+  <si>
+    <t>NUPLAZID Parkinson</t>
+  </si>
+  <si>
+    <t>cause of Parkinson disease</t>
+  </si>
+  <si>
+    <t>Parkinson condition</t>
+  </si>
+  <si>
+    <t>management of Parkinson</t>
+  </si>
+  <si>
+    <t>Parkinson hallucination</t>
+  </si>
+  <si>
+    <t>Parkinson delusions</t>
+  </si>
+  <si>
+    <t>Parkinson disease (PD)-related hallucinations and delusions</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1569,12 +1588,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1798,16 +1811,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1820,6 +1824,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1829,13 +1843,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2214,9 +2227,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E41" sqref="E41"/>
+      <selection pane="topRight" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2236,60 +2249,60 @@
         <v>1</v>
       </c>
       <c r="B1" s="45" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C1" s="45" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D1" s="51" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="E1" s="51" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G1" s="45" t="s">
+        <v>336</v>
+      </c>
+      <c r="H1" s="45" t="s">
+        <v>337</v>
+      </c>
+      <c r="I1" s="45" t="s">
+        <v>338</v>
+      </c>
+      <c r="J1" s="45" t="s">
+        <v>339</v>
+      </c>
+      <c r="K1" s="45" t="s">
         <v>340</v>
       </c>
-      <c r="H1" s="45" t="s">
-        <v>341</v>
-      </c>
-      <c r="I1" s="45" t="s">
-        <v>342</v>
-      </c>
-      <c r="J1" s="45" t="s">
-        <v>343</v>
-      </c>
-      <c r="K1" s="45" t="s">
-        <v>344</v>
-      </c>
       <c r="L1" s="45" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="31" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A2" s="77" t="s">
-        <v>253</v>
-      </c>
-      <c r="B2" s="77" t="s">
-        <v>260</v>
-      </c>
-      <c r="C2" s="77" t="s">
-        <v>312</v>
+      <c r="A2" s="81" t="s">
+        <v>250</v>
+      </c>
+      <c r="B2" s="81" t="s">
+        <v>256</v>
+      </c>
+      <c r="C2" s="81" t="s">
+        <v>308</v>
       </c>
       <c r="D2" s="58" t="s">
-        <v>174</v>
+        <v>357</v>
       </c>
       <c r="E2" s="74" t="s">
         <v>10</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="G2" s="66"/>
       <c r="H2" s="66"/>
@@ -2297,24 +2310,24 @@
       <c r="J2" s="66"/>
       <c r="K2" s="66"/>
       <c r="L2" s="67" t="s">
-        <v>294</v>
-      </c>
-      <c r="M2" s="82" t="s">
-        <v>294</v>
+        <v>290</v>
+      </c>
+      <c r="M2" s="79" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="3" spans="1:13" s="31" customFormat="1" ht="120" x14ac:dyDescent="0.25">
-      <c r="A3" s="78"/>
-      <c r="B3" s="75"/>
-      <c r="C3" s="78"/>
+      <c r="A3" s="82"/>
+      <c r="B3" s="80"/>
+      <c r="C3" s="82"/>
       <c r="D3" s="58" t="s">
         <v>10</v>
       </c>
       <c r="E3" s="74" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="F3" s="32" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G3" s="66"/>
       <c r="H3" s="66"/>
@@ -2322,22 +2335,22 @@
       <c r="J3" s="66"/>
       <c r="K3" s="66"/>
       <c r="L3" s="67" t="s">
-        <v>294</v>
-      </c>
-      <c r="M3" s="80"/>
+        <v>290</v>
+      </c>
+      <c r="M3" s="77"/>
     </row>
     <row r="4" spans="1:13" s="31" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" s="78"/>
-      <c r="B4" s="75"/>
-      <c r="C4" s="78"/>
+      <c r="A4" s="82"/>
+      <c r="B4" s="80"/>
+      <c r="C4" s="82"/>
       <c r="D4" s="58" t="s">
-        <v>11</v>
+        <v>356</v>
       </c>
       <c r="E4" s="74" t="s">
         <v>174</v>
       </c>
       <c r="F4" s="32" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G4" s="66"/>
       <c r="H4" s="66"/>
@@ -2345,19 +2358,19 @@
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
       <c r="L4" s="67" t="s">
-        <v>294</v>
-      </c>
-      <c r="M4" s="80"/>
+        <v>290</v>
+      </c>
+      <c r="M4" s="77"/>
     </row>
     <row r="5" spans="1:13" ht="105" x14ac:dyDescent="0.25">
-      <c r="A5" s="76" t="s">
+      <c r="A5" s="83" t="s">
         <v>172</v>
       </c>
-      <c r="B5" s="75" t="s">
-        <v>322</v>
-      </c>
-      <c r="C5" s="75" t="s">
-        <v>261</v>
+      <c r="B5" s="80" t="s">
+        <v>318</v>
+      </c>
+      <c r="C5" s="80" t="s">
+        <v>257</v>
       </c>
       <c r="D5" s="58" t="s">
         <v>173</v>
@@ -2366,7 +2379,7 @@
         <v>20</v>
       </c>
       <c r="F5" s="32" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="G5" s="66"/>
       <c r="H5" s="66"/>
@@ -2374,24 +2387,24 @@
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
       <c r="L5" s="67" t="s">
-        <v>293</v>
-      </c>
-      <c r="M5" s="79" t="s">
-        <v>293</v>
+        <v>289</v>
+      </c>
+      <c r="M5" s="76" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="120" x14ac:dyDescent="0.25">
-      <c r="A6" s="76"/>
-      <c r="B6" s="76"/>
-      <c r="C6" s="76"/>
+      <c r="A6" s="83"/>
+      <c r="B6" s="83"/>
+      <c r="C6" s="83"/>
       <c r="D6" s="58" t="s">
-        <v>20</v>
+        <v>358</v>
       </c>
       <c r="E6" s="74" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="F6" s="33" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G6" s="66"/>
       <c r="H6" s="66"/>
@@ -2399,28 +2412,28 @@
       <c r="J6" s="66"/>
       <c r="K6" s="66"/>
       <c r="L6" s="67" t="s">
-        <v>293</v>
-      </c>
-      <c r="M6" s="80"/>
+        <v>289</v>
+      </c>
+      <c r="M6" s="77"/>
     </row>
     <row r="7" spans="1:13" s="44" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A7" s="75" t="s">
+      <c r="A7" s="80" t="s">
+        <v>322</v>
+      </c>
+      <c r="B7" s="80" t="s">
+        <v>323</v>
+      </c>
+      <c r="C7" s="80" t="s">
+        <v>328</v>
+      </c>
+      <c r="D7" s="62" t="s">
+        <v>324</v>
+      </c>
+      <c r="E7" s="74" t="s">
         <v>326</v>
       </c>
-      <c r="B7" s="75" t="s">
-        <v>327</v>
-      </c>
-      <c r="C7" s="75" t="s">
-        <v>332</v>
-      </c>
-      <c r="D7" s="62" t="s">
-        <v>328</v>
-      </c>
-      <c r="E7" s="74" t="s">
-        <v>330</v>
-      </c>
       <c r="F7" s="62" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="G7" s="66"/>
       <c r="H7" s="66"/>
@@ -2428,24 +2441,24 @@
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
       <c r="L7" s="67" t="s">
-        <v>338</v>
-      </c>
-      <c r="M7" s="79" t="s">
-        <v>338</v>
+        <v>334</v>
+      </c>
+      <c r="M7" s="76" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="8" spans="1:13" s="44" customFormat="1" ht="150" x14ac:dyDescent="0.25">
-      <c r="A8" s="75"/>
-      <c r="B8" s="75"/>
-      <c r="C8" s="75"/>
+      <c r="A8" s="80"/>
+      <c r="B8" s="80"/>
+      <c r="C8" s="80"/>
       <c r="D8" s="62" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="E8" s="74" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="F8" s="62" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="G8" s="66"/>
       <c r="H8" s="66"/>
@@ -2453,20 +2466,20 @@
       <c r="J8" s="66"/>
       <c r="K8" s="66"/>
       <c r="L8" s="67" t="s">
-        <v>338</v>
-      </c>
-      <c r="M8" s="80"/>
+        <v>334</v>
+      </c>
+      <c r="M8" s="77"/>
     </row>
     <row r="9" spans="1:13" s="44" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A9" s="75"/>
-      <c r="B9" s="75"/>
-      <c r="C9" s="75"/>
+      <c r="A9" s="80"/>
+      <c r="B9" s="80"/>
+      <c r="C9" s="80"/>
       <c r="D9" s="62" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="E9" s="74"/>
       <c r="F9" s="62" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="G9" s="66"/>
       <c r="H9" s="66"/>
@@ -2474,14 +2487,14 @@
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
       <c r="L9" s="67" t="s">
-        <v>338</v>
-      </c>
-      <c r="M9" s="80"/>
+        <v>334</v>
+      </c>
+      <c r="M9" s="77"/>
     </row>
     <row r="10" spans="1:13" s="44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="75"/>
-      <c r="B10" s="75"/>
-      <c r="C10" s="75"/>
+      <c r="A10" s="80"/>
+      <c r="B10" s="80"/>
+      <c r="C10" s="80"/>
       <c r="D10" s="62"/>
       <c r="E10" s="74"/>
       <c r="F10" s="62"/>
@@ -2495,18 +2508,18 @@
     </row>
     <row r="11" spans="1:13" s="44" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="62" t="s">
+        <v>331</v>
+      </c>
+      <c r="B11" s="62" t="s">
+        <v>323</v>
+      </c>
+      <c r="C11" s="62" t="s">
         <v>335</v>
-      </c>
-      <c r="B11" s="62" t="s">
-        <v>327</v>
-      </c>
-      <c r="C11" s="62" t="s">
-        <v>339</v>
       </c>
       <c r="D11" s="62"/>
       <c r="E11" s="74"/>
       <c r="F11" s="62" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="G11" s="66"/>
       <c r="H11" s="66"/>
@@ -2514,10 +2527,10 @@
       <c r="J11" s="66"/>
       <c r="K11" s="66"/>
       <c r="L11" s="73" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="M11" s="64" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
     </row>
     <row r="12" spans="1:13" s="44" customFormat="1" x14ac:dyDescent="0.25">
@@ -2566,23 +2579,23 @@
       <c r="M14" s="65"/>
     </row>
     <row r="15" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="76" t="s">
+      <c r="A15" s="83" t="s">
         <v>175</v>
       </c>
-      <c r="B15" s="75" t="s">
-        <v>262</v>
-      </c>
-      <c r="C15" s="75" t="s">
-        <v>323</v>
+      <c r="B15" s="80" t="s">
+        <v>258</v>
+      </c>
+      <c r="C15" s="80" t="s">
+        <v>319</v>
       </c>
       <c r="D15" s="58" t="s">
+        <v>359</v>
+      </c>
+      <c r="E15" s="74" t="s">
         <v>176</v>
       </c>
-      <c r="E15" s="74" t="s">
-        <v>177</v>
-      </c>
       <c r="F15" s="32" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="G15" s="66"/>
       <c r="H15" s="66"/>
@@ -2590,24 +2603,24 @@
       <c r="J15" s="66"/>
       <c r="K15" s="66"/>
       <c r="L15" s="67" t="s">
-        <v>294</v>
-      </c>
-      <c r="M15" s="79" t="s">
-        <v>294</v>
+        <v>290</v>
+      </c>
+      <c r="M15" s="76" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="76"/>
-      <c r="B16" s="76"/>
-      <c r="C16" s="76"/>
+      <c r="A16" s="83"/>
+      <c r="B16" s="83"/>
+      <c r="C16" s="83"/>
       <c r="D16" s="58" t="s">
+        <v>360</v>
+      </c>
+      <c r="E16" s="74" t="s">
         <v>177</v>
       </c>
-      <c r="E16" s="74" t="s">
+      <c r="F16" s="34" t="s">
         <v>178</v>
-      </c>
-      <c r="F16" s="34" t="s">
-        <v>179</v>
       </c>
       <c r="G16" s="66"/>
       <c r="H16" s="66"/>
@@ -2615,22 +2628,22 @@
       <c r="J16" s="66"/>
       <c r="K16" s="66"/>
       <c r="L16" s="67" t="s">
-        <v>294</v>
-      </c>
-      <c r="M16" s="80"/>
+        <v>290</v>
+      </c>
+      <c r="M16" s="77"/>
     </row>
     <row r="17" spans="1:13" ht="90" x14ac:dyDescent="0.25">
-      <c r="A17" s="76"/>
-      <c r="B17" s="76"/>
-      <c r="C17" s="76"/>
+      <c r="A17" s="83"/>
+      <c r="B17" s="83"/>
+      <c r="C17" s="83"/>
       <c r="D17" s="58" t="s">
-        <v>178</v>
+        <v>361</v>
       </c>
       <c r="E17" s="74" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="F17" s="32" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G17" s="66"/>
       <c r="H17" s="66"/>
@@ -2638,14 +2651,14 @@
       <c r="J17" s="66"/>
       <c r="K17" s="66"/>
       <c r="L17" s="67" t="s">
-        <v>294</v>
-      </c>
-      <c r="M17" s="80"/>
+        <v>290</v>
+      </c>
+      <c r="M17" s="77"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="76"/>
-      <c r="B18" s="76"/>
-      <c r="C18" s="76"/>
+      <c r="A18" s="83"/>
+      <c r="B18" s="83"/>
+      <c r="C18" s="83"/>
       <c r="D18" s="43"/>
       <c r="F18" s="42"/>
       <c r="G18" s="42"/>
@@ -2653,29 +2666,29 @@
       <c r="I18" s="42"/>
       <c r="J18" s="42"/>
       <c r="K18" s="42"/>
-      <c r="L18" s="88" t="s">
-        <v>294</v>
-      </c>
-      <c r="M18" s="80"/>
+      <c r="L18" s="75" t="s">
+        <v>290</v>
+      </c>
+      <c r="M18" s="77"/>
     </row>
     <row r="19" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="76" t="s">
-        <v>180</v>
-      </c>
-      <c r="B19" s="75" t="s">
-        <v>263</v>
-      </c>
-      <c r="C19" s="75" t="s">
-        <v>264</v>
+      <c r="A19" s="83" t="s">
+        <v>179</v>
+      </c>
+      <c r="B19" s="80" t="s">
+        <v>259</v>
+      </c>
+      <c r="C19" s="80" t="s">
+        <v>260</v>
       </c>
       <c r="D19" s="58" t="s">
+        <v>362</v>
+      </c>
+      <c r="E19" s="74" t="s">
         <v>181</v>
       </c>
-      <c r="E19" s="74" t="s">
-        <v>184</v>
-      </c>
       <c r="F19" s="35" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G19" s="66"/>
       <c r="H19" s="66"/>
@@ -2683,24 +2696,24 @@
       <c r="J19" s="66"/>
       <c r="K19" s="66"/>
       <c r="L19" s="67" t="s">
-        <v>294</v>
-      </c>
-      <c r="M19" s="79" t="s">
-        <v>294</v>
+        <v>290</v>
+      </c>
+      <c r="M19" s="76" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="76"/>
-      <c r="B20" s="75"/>
-      <c r="C20" s="76"/>
+      <c r="A20" s="83"/>
+      <c r="B20" s="80"/>
+      <c r="C20" s="83"/>
       <c r="D20" s="58" t="s">
-        <v>182</v>
+        <v>363</v>
       </c>
       <c r="E20" s="74" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="F20" s="41" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="G20" s="66"/>
       <c r="H20" s="66"/>
@@ -2708,19 +2721,19 @@
       <c r="J20" s="66"/>
       <c r="K20" s="66"/>
       <c r="L20" s="67" t="s">
-        <v>294</v>
-      </c>
-      <c r="M20" s="80"/>
+        <v>290</v>
+      </c>
+      <c r="M20" s="77"/>
     </row>
     <row r="21" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A21" s="76"/>
-      <c r="B21" s="75"/>
-      <c r="C21" s="76"/>
+      <c r="A21" s="83"/>
+      <c r="B21" s="80"/>
+      <c r="C21" s="83"/>
       <c r="D21" s="58" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F21" s="41" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="G21" s="66"/>
       <c r="H21" s="66"/>
@@ -2728,22 +2741,22 @@
       <c r="J21" s="66"/>
       <c r="K21" s="66"/>
       <c r="L21" s="67" t="s">
-        <v>294</v>
-      </c>
-      <c r="M21" s="80"/>
+        <v>290</v>
+      </c>
+      <c r="M21" s="77"/>
     </row>
     <row r="22" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A22" s="76"/>
-      <c r="B22" s="75"/>
-      <c r="C22" s="76"/>
+      <c r="A22" s="83"/>
+      <c r="B22" s="80"/>
+      <c r="C22" s="83"/>
       <c r="D22" s="58" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="E22" s="74" t="s">
         <v>172</v>
       </c>
       <c r="F22" s="32" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G22" s="66"/>
       <c r="H22" s="66"/>
@@ -2751,25 +2764,25 @@
       <c r="J22" s="66"/>
       <c r="K22" s="66"/>
       <c r="L22" s="67" t="s">
-        <v>294</v>
-      </c>
-      <c r="M22" s="80"/>
+        <v>290</v>
+      </c>
+      <c r="M22" s="77"/>
     </row>
     <row r="23" spans="1:13" ht="90" x14ac:dyDescent="0.25">
-      <c r="A23" s="76" t="s">
-        <v>185</v>
-      </c>
-      <c r="B23" s="75" t="s">
-        <v>324</v>
-      </c>
-      <c r="C23" s="75" t="s">
-        <v>265</v>
+      <c r="A23" s="83" t="s">
+        <v>182</v>
+      </c>
+      <c r="B23" s="80" t="s">
+        <v>320</v>
+      </c>
+      <c r="C23" s="80" t="s">
+        <v>261</v>
       </c>
       <c r="D23" s="58" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="F23" s="36" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="G23" s="66"/>
       <c r="H23" s="66"/>
@@ -2777,24 +2790,24 @@
       <c r="J23" s="66"/>
       <c r="K23" s="66"/>
       <c r="L23" s="67" t="s">
-        <v>295</v>
-      </c>
-      <c r="M23" s="79" t="s">
-        <v>295</v>
+        <v>291</v>
+      </c>
+      <c r="M23" s="76" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="135" x14ac:dyDescent="0.25">
-      <c r="A24" s="76"/>
-      <c r="B24" s="75"/>
-      <c r="C24" s="76"/>
+      <c r="A24" s="83"/>
+      <c r="B24" s="80"/>
+      <c r="C24" s="83"/>
       <c r="D24" s="58" t="s">
         <v>18</v>
       </c>
       <c r="E24" s="74" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="F24" s="41" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="G24" s="66"/>
       <c r="H24" s="66"/>
@@ -2802,22 +2815,22 @@
       <c r="J24" s="66"/>
       <c r="K24" s="66"/>
       <c r="L24" s="67" t="s">
-        <v>295</v>
-      </c>
-      <c r="M24" s="80"/>
+        <v>291</v>
+      </c>
+      <c r="M24" s="77"/>
     </row>
     <row r="25" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A25" s="76"/>
-      <c r="B25" s="75"/>
-      <c r="C25" s="76"/>
+      <c r="A25" s="83"/>
+      <c r="B25" s="80"/>
+      <c r="C25" s="83"/>
       <c r="D25" s="58" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="E25" s="74" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="F25" s="32" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="G25" s="66"/>
       <c r="H25" s="66"/>
@@ -2825,14 +2838,14 @@
       <c r="J25" s="66"/>
       <c r="K25" s="66"/>
       <c r="L25" s="67" t="s">
-        <v>295</v>
-      </c>
-      <c r="M25" s="80"/>
+        <v>291</v>
+      </c>
+      <c r="M25" s="77"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="76"/>
-      <c r="B26" s="75"/>
-      <c r="C26" s="76"/>
+      <c r="A26" s="83"/>
+      <c r="B26" s="80"/>
+      <c r="C26" s="83"/>
       <c r="D26" s="43"/>
       <c r="F26" s="43"/>
       <c r="G26" s="43"/>
@@ -2841,28 +2854,28 @@
       <c r="J26" s="43"/>
       <c r="K26" s="43"/>
       <c r="L26" s="67" t="s">
-        <v>295</v>
-      </c>
-      <c r="M26" s="80"/>
+        <v>291</v>
+      </c>
+      <c r="M26" s="77"/>
     </row>
     <row r="27" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="76" t="s">
-        <v>187</v>
-      </c>
-      <c r="B27" s="75" t="s">
-        <v>266</v>
-      </c>
-      <c r="C27" s="81" t="s">
-        <v>267</v>
+      <c r="A27" s="83" t="s">
+        <v>184</v>
+      </c>
+      <c r="B27" s="80" t="s">
+        <v>262</v>
+      </c>
+      <c r="C27" s="78" t="s">
+        <v>263</v>
       </c>
       <c r="D27" s="58" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="E27" s="74" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="F27" s="32" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="G27" s="66"/>
       <c r="H27" s="66"/>
@@ -2870,24 +2883,24 @@
       <c r="J27" s="66"/>
       <c r="K27" s="66"/>
       <c r="L27" s="67" t="s">
-        <v>299</v>
-      </c>
-      <c r="M27" s="79" t="s">
-        <v>299</v>
+        <v>295</v>
+      </c>
+      <c r="M27" s="76" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="76"/>
-      <c r="B28" s="75"/>
-      <c r="C28" s="81"/>
+      <c r="A28" s="83"/>
+      <c r="B28" s="80"/>
+      <c r="C28" s="78"/>
       <c r="D28" s="58" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E28" s="74" t="s">
         <v>132</v>
       </c>
       <c r="F28" s="32" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G28" s="66"/>
       <c r="H28" s="66"/>
@@ -2895,14 +2908,14 @@
       <c r="J28" s="66"/>
       <c r="K28" s="66"/>
       <c r="L28" s="67" t="s">
-        <v>299</v>
-      </c>
-      <c r="M28" s="80"/>
+        <v>295</v>
+      </c>
+      <c r="M28" s="77"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="76"/>
-      <c r="B29" s="75"/>
-      <c r="C29" s="81"/>
+      <c r="A29" s="83"/>
+      <c r="B29" s="80"/>
+      <c r="C29" s="78"/>
       <c r="D29" s="43"/>
       <c r="F29" s="42"/>
       <c r="G29" s="42"/>
@@ -2910,14 +2923,14 @@
       <c r="I29" s="42"/>
       <c r="J29" s="42"/>
       <c r="K29" s="42"/>
-      <c r="L29" s="88" t="s">
-        <v>299</v>
-      </c>
-      <c r="M29" s="80"/>
+      <c r="L29" s="75" t="s">
+        <v>295</v>
+      </c>
+      <c r="M29" s="77"/>
     </row>
     <row r="30" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="76" t="s">
-        <v>191</v>
+      <c r="A30" s="83" t="s">
+        <v>188</v>
       </c>
       <c r="C30" s="60"/>
       <c r="F30" s="37"/>
@@ -2927,25 +2940,25 @@
       <c r="J30" s="66"/>
       <c r="K30" s="66"/>
       <c r="L30" s="67" t="s">
-        <v>296</v>
-      </c>
-      <c r="M30" s="79" t="s">
-        <v>296</v>
+        <v>292</v>
+      </c>
+      <c r="M30" s="76" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="165" x14ac:dyDescent="0.25">
-      <c r="A31" s="76"/>
-      <c r="B31" s="75" t="s">
-        <v>268</v>
-      </c>
-      <c r="C31" s="75" t="s">
-        <v>269</v>
+      <c r="A31" s="83"/>
+      <c r="B31" s="80" t="s">
+        <v>264</v>
+      </c>
+      <c r="C31" s="80" t="s">
+        <v>265</v>
       </c>
       <c r="E31" s="74" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="F31" s="32" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G31" s="66"/>
       <c r="H31" s="66"/>
@@ -2953,19 +2966,19 @@
       <c r="J31" s="66"/>
       <c r="K31" s="66"/>
       <c r="L31" s="67" t="s">
-        <v>296</v>
-      </c>
-      <c r="M31" s="80"/>
+        <v>292</v>
+      </c>
+      <c r="M31" s="77"/>
     </row>
     <row r="32" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A32" s="76"/>
-      <c r="B32" s="76"/>
-      <c r="C32" s="75"/>
+      <c r="A32" s="83"/>
+      <c r="B32" s="83"/>
+      <c r="C32" s="80"/>
       <c r="D32" s="58" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F32" s="41" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G32" s="66"/>
       <c r="H32" s="66"/>
@@ -2973,19 +2986,19 @@
       <c r="J32" s="66"/>
       <c r="K32" s="66"/>
       <c r="L32" s="67" t="s">
-        <v>296</v>
-      </c>
-      <c r="M32" s="80"/>
+        <v>292</v>
+      </c>
+      <c r="M32" s="77"/>
     </row>
     <row r="33" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="76"/>
-      <c r="B33" s="76"/>
-      <c r="C33" s="75"/>
+      <c r="A33" s="83"/>
+      <c r="B33" s="83"/>
+      <c r="C33" s="80"/>
       <c r="D33" s="43" t="s">
-        <v>257</v>
+        <v>364</v>
       </c>
       <c r="F33" s="43" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="G33" s="43"/>
       <c r="H33" s="43"/>
@@ -2993,22 +3006,22 @@
       <c r="J33" s="43"/>
       <c r="K33" s="43"/>
       <c r="L33" s="67" t="s">
-        <v>296</v>
-      </c>
-      <c r="M33" s="80"/>
+        <v>292</v>
+      </c>
+      <c r="M33" s="77"/>
     </row>
     <row r="34" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="76"/>
-      <c r="B34" s="76"/>
-      <c r="C34" s="75"/>
+      <c r="A34" s="83"/>
+      <c r="B34" s="83"/>
+      <c r="C34" s="80"/>
       <c r="D34" s="43" t="s">
         <v>172</v>
       </c>
       <c r="E34" s="74" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="F34" s="43" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="G34" s="43"/>
       <c r="H34" s="43"/>
@@ -3016,22 +3029,22 @@
       <c r="J34" s="43"/>
       <c r="K34" s="43"/>
       <c r="L34" s="67" t="s">
-        <v>296</v>
-      </c>
-      <c r="M34" s="80"/>
+        <v>292</v>
+      </c>
+      <c r="M34" s="77"/>
     </row>
     <row r="35" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A35" s="76"/>
-      <c r="B35" s="76"/>
-      <c r="C35" s="75"/>
+      <c r="A35" s="83"/>
+      <c r="B35" s="83"/>
+      <c r="C35" s="80"/>
       <c r="D35" s="43" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="E35" s="74" t="s">
         <v>132</v>
       </c>
       <c r="F35" s="43" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="G35" s="43"/>
       <c r="H35" s="43"/>
@@ -3039,22 +3052,22 @@
       <c r="J35" s="43"/>
       <c r="K35" s="43"/>
       <c r="L35" s="67" t="s">
-        <v>296</v>
-      </c>
-      <c r="M35" s="80"/>
+        <v>292</v>
+      </c>
+      <c r="M35" s="77"/>
     </row>
     <row r="36" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A36" s="76"/>
-      <c r="B36" s="76"/>
-      <c r="C36" s="75"/>
+      <c r="A36" s="83"/>
+      <c r="B36" s="83"/>
+      <c r="C36" s="80"/>
       <c r="D36" s="58" t="s">
         <v>132</v>
       </c>
       <c r="E36" s="74" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F36" s="43" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G36" s="43"/>
       <c r="H36" s="43"/>
@@ -3062,28 +3075,28 @@
       <c r="J36" s="43"/>
       <c r="K36" s="43"/>
       <c r="L36" s="67" t="s">
-        <v>296</v>
-      </c>
-      <c r="M36" s="80"/>
+        <v>292</v>
+      </c>
+      <c r="M36" s="77"/>
     </row>
     <row r="37" spans="1:13" ht="90" x14ac:dyDescent="0.25">
-      <c r="A37" s="75" t="s">
-        <v>270</v>
-      </c>
-      <c r="B37" s="75" t="s">
-        <v>271</v>
-      </c>
-      <c r="C37" s="75" t="s">
-        <v>272</v>
+      <c r="A37" s="80" t="s">
+        <v>266</v>
+      </c>
+      <c r="B37" s="80" t="s">
+        <v>267</v>
+      </c>
+      <c r="C37" s="80" t="s">
+        <v>268</v>
       </c>
       <c r="D37" s="58" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E37" s="74" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F37" s="32" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="G37" s="66"/>
       <c r="H37" s="66"/>
@@ -3091,24 +3104,24 @@
       <c r="J37" s="66"/>
       <c r="K37" s="66"/>
       <c r="L37" s="67" t="s">
-        <v>297</v>
-      </c>
-      <c r="M37" s="79" t="s">
-        <v>297</v>
+        <v>293</v>
+      </c>
+      <c r="M37" s="76" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="38" spans="1:13" ht="105" x14ac:dyDescent="0.25">
-      <c r="A38" s="75"/>
-      <c r="B38" s="75"/>
-      <c r="C38" s="76"/>
+      <c r="A38" s="80"/>
+      <c r="B38" s="80"/>
+      <c r="C38" s="83"/>
       <c r="D38" s="58" t="s">
+        <v>191</v>
+      </c>
+      <c r="E38" s="74" t="s">
         <v>194</v>
       </c>
-      <c r="E38" s="74" t="s">
-        <v>197</v>
-      </c>
       <c r="F38" s="32" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G38" s="66"/>
       <c r="H38" s="66"/>
@@ -3116,52 +3129,52 @@
       <c r="J38" s="66"/>
       <c r="K38" s="66"/>
       <c r="L38" s="67" t="s">
-        <v>297</v>
-      </c>
-      <c r="M38" s="80"/>
+        <v>293</v>
+      </c>
+      <c r="M38" s="77"/>
     </row>
     <row r="39" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A39" s="75"/>
-      <c r="B39" s="75"/>
-      <c r="C39" s="76"/>
+      <c r="A39" s="80"/>
+      <c r="B39" s="80"/>
+      <c r="C39" s="83"/>
       <c r="D39" s="58" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F39" s="38" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="L39" s="67" t="s">
-        <v>297</v>
-      </c>
-      <c r="M39" s="80"/>
+        <v>293</v>
+      </c>
+      <c r="M39" s="77"/>
     </row>
     <row r="40" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A40" s="75"/>
-      <c r="B40" s="75"/>
-      <c r="C40" s="76"/>
+      <c r="A40" s="80"/>
+      <c r="B40" s="80"/>
+      <c r="C40" s="83"/>
       <c r="D40" s="58" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F40" s="38" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="L40" s="67" t="s">
-        <v>297</v>
-      </c>
-      <c r="M40" s="80"/>
+        <v>293</v>
+      </c>
+      <c r="M40" s="77"/>
     </row>
     <row r="41" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A41" s="75"/>
-      <c r="B41" s="75"/>
-      <c r="C41" s="76"/>
+      <c r="A41" s="80"/>
+      <c r="B41" s="80"/>
+      <c r="C41" s="83"/>
       <c r="D41" s="58" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E41" s="74" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F41" s="39" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="G41" s="66"/>
       <c r="H41" s="66"/>
@@ -3169,22 +3182,22 @@
       <c r="J41" s="66"/>
       <c r="K41" s="66"/>
       <c r="L41" s="67" t="s">
-        <v>297</v>
-      </c>
-      <c r="M41" s="80"/>
+        <v>293</v>
+      </c>
+      <c r="M41" s="77"/>
     </row>
     <row r="42" spans="1:13" ht="150" x14ac:dyDescent="0.25">
-      <c r="A42" s="75"/>
-      <c r="B42" s="75"/>
-      <c r="C42" s="76"/>
+      <c r="A42" s="80"/>
+      <c r="B42" s="80"/>
+      <c r="C42" s="83"/>
       <c r="D42" s="58" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E42" s="74" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F42" s="32" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G42" s="66"/>
       <c r="H42" s="66"/>
@@ -3192,22 +3205,22 @@
       <c r="J42" s="66"/>
       <c r="K42" s="66"/>
       <c r="L42" s="67" t="s">
-        <v>297</v>
-      </c>
-      <c r="M42" s="80"/>
+        <v>293</v>
+      </c>
+      <c r="M42" s="77"/>
     </row>
     <row r="43" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A43" s="75"/>
-      <c r="B43" s="75"/>
-      <c r="C43" s="76"/>
+      <c r="A43" s="80"/>
+      <c r="B43" s="80"/>
+      <c r="C43" s="83"/>
       <c r="D43" s="58" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E43" s="74" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F43" s="41" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="G43" s="66"/>
       <c r="H43" s="66"/>
@@ -3215,9 +3228,9 @@
       <c r="J43" s="66"/>
       <c r="K43" s="66"/>
       <c r="L43" s="67" t="s">
-        <v>297</v>
-      </c>
-      <c r="M43" s="80"/>
+        <v>293</v>
+      </c>
+      <c r="M43" s="77"/>
     </row>
     <row r="44" spans="1:13" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="62"/>
@@ -3236,25 +3249,25 @@
     </row>
     <row r="45" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A45" s="59" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B45" s="57" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C45" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="D45" s="58" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F45" s="40" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="L45" s="47" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="M45" s="47" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
@@ -3271,25 +3284,12 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="M27:M29"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="M30:M36"/>
-    <mergeCell ref="M37:M43"/>
-    <mergeCell ref="M2:M4"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="M15:M18"/>
-    <mergeCell ref="M19:M22"/>
-    <mergeCell ref="M23:M26"/>
-    <mergeCell ref="M7:M9"/>
-    <mergeCell ref="A37:A43"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A30:A36"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="A23:A26"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="B31:B36"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="C23:C26"/>
+    <mergeCell ref="C31:C36"/>
+    <mergeCell ref="B37:B43"/>
+    <mergeCell ref="C37:C43"/>
     <mergeCell ref="B19:B22"/>
     <mergeCell ref="C19:C22"/>
     <mergeCell ref="B27:B29"/>
@@ -3301,12 +3301,25 @@
     <mergeCell ref="C15:C18"/>
     <mergeCell ref="B7:B10"/>
     <mergeCell ref="C7:C10"/>
-    <mergeCell ref="B31:B36"/>
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="C23:C26"/>
-    <mergeCell ref="C31:C36"/>
-    <mergeCell ref="B37:B43"/>
-    <mergeCell ref="C37:C43"/>
+    <mergeCell ref="A37:A43"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A30:A36"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="M27:M29"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="M30:M36"/>
+    <mergeCell ref="M37:M43"/>
+    <mergeCell ref="M2:M4"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="M15:M18"/>
+    <mergeCell ref="M19:M22"/>
+    <mergeCell ref="M23:M26"/>
+    <mergeCell ref="M7:M9"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="M2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -3398,7 +3411,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="83" t="s">
+      <c r="A2" s="84" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="29"/>
@@ -3413,7 +3426,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="84"/>
+      <c r="A3" s="85"/>
       <c r="B3" s="28"/>
       <c r="C3" t="s">
         <v>4</v>
@@ -3422,7 +3435,7 @@
       <c r="E3" s="6"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="84"/>
+      <c r="A4" s="85"/>
       <c r="B4" s="28"/>
       <c r="C4" t="s">
         <v>5</v>
@@ -3431,7 +3444,7 @@
       <c r="E4" s="6"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="84"/>
+      <c r="A5" s="85"/>
       <c r="B5" s="28"/>
       <c r="C5" t="s">
         <v>6</v>
@@ -3440,7 +3453,7 @@
       <c r="E5" s="6"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="84"/>
+      <c r="A6" s="85"/>
       <c r="B6" s="28"/>
       <c r="C6" t="s">
         <v>7</v>
@@ -3449,7 +3462,7 @@
       <c r="E6" s="6"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="84"/>
+      <c r="A7" s="85"/>
       <c r="B7" s="28"/>
       <c r="C7" t="s">
         <v>8</v>
@@ -3458,7 +3471,7 @@
       <c r="E7" s="6"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="84"/>
+      <c r="A8" s="85"/>
       <c r="B8" s="28"/>
       <c r="C8" t="s">
         <v>9</v>
@@ -3467,7 +3480,7 @@
       <c r="E8" s="6"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="84"/>
+      <c r="A9" s="85"/>
       <c r="B9" s="28"/>
       <c r="C9" t="s">
         <v>10</v>
@@ -3476,7 +3489,7 @@
       <c r="E9" s="6"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="84"/>
+      <c r="A10" s="85"/>
       <c r="B10" s="28"/>
       <c r="C10" t="s">
         <v>11</v>
@@ -3485,7 +3498,7 @@
       <c r="E10" s="6"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="84" t="s">
+      <c r="A11" s="85" t="s">
         <v>16</v>
       </c>
       <c r="B11" s="28"/>
@@ -3494,28 +3507,28 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="84"/>
+      <c r="A12" s="85"/>
       <c r="B12" s="28"/>
       <c r="C12" s="7" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="84"/>
+      <c r="A13" s="85"/>
       <c r="B13" s="28"/>
       <c r="C13" s="7" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="84"/>
+      <c r="A14" s="85"/>
       <c r="B14" s="28"/>
       <c r="C14" s="7" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="84"/>
+      <c r="A15" s="85"/>
       <c r="B15" s="28"/>
       <c r="C15" s="7" t="s">
         <v>21</v>
@@ -3525,7 +3538,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="84"/>
+      <c r="A16" s="85"/>
       <c r="B16" s="28"/>
       <c r="C16" s="7" t="s">
         <v>22</v>
@@ -3535,7 +3548,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="84" t="s">
+      <c r="A17" s="85" t="s">
         <v>23</v>
       </c>
       <c r="B17" s="28"/>
@@ -3550,7 +3563,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="84"/>
+      <c r="A18" s="85"/>
       <c r="B18" s="28"/>
       <c r="C18" s="8" t="s">
         <v>25</v>
@@ -3560,21 +3573,21 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="84"/>
+      <c r="A19" s="85"/>
       <c r="B19" s="28"/>
       <c r="C19" s="8" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="84"/>
+      <c r="A20" s="85"/>
       <c r="B20" s="28"/>
       <c r="C20" s="8" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A21" s="84"/>
+      <c r="A21" s="85"/>
       <c r="B21" s="28"/>
       <c r="C21" s="8" t="s">
         <v>28</v>
@@ -3584,7 +3597,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="84"/>
+      <c r="A22" s="85"/>
       <c r="B22" s="28"/>
       <c r="C22" s="8" t="s">
         <v>29</v>
@@ -3594,7 +3607,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="84"/>
+      <c r="A23" s="85"/>
       <c r="B23" s="28"/>
       <c r="C23" s="8" t="s">
         <v>30</v>
@@ -3604,14 +3617,14 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="84"/>
+      <c r="A24" s="85"/>
       <c r="B24" s="28"/>
       <c r="C24" s="8" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="84" t="s">
+      <c r="A25" s="85" t="s">
         <v>41</v>
       </c>
       <c r="B25" s="28"/>
@@ -3626,7 +3639,7 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="84"/>
+      <c r="A26" s="85"/>
       <c r="B26" s="28"/>
       <c r="C26" s="9" t="s">
         <v>43</v>
@@ -3636,7 +3649,7 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="84"/>
+      <c r="A27" s="85"/>
       <c r="B27" s="28"/>
       <c r="C27" s="9" t="s">
         <v>44</v>
@@ -3646,7 +3659,7 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="84"/>
+      <c r="A28" s="85"/>
       <c r="B28" s="28"/>
       <c r="C28" s="9" t="s">
         <v>41</v>
@@ -3656,7 +3669,7 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="84"/>
+      <c r="A29" s="85"/>
       <c r="B29" s="28"/>
       <c r="C29" s="9" t="s">
         <v>45</v>
@@ -3666,7 +3679,7 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="84"/>
+      <c r="A30" s="85"/>
       <c r="B30" s="28"/>
       <c r="C30" s="9" t="s">
         <v>46</v>
@@ -3676,49 +3689,49 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="84"/>
+      <c r="A31" s="85"/>
       <c r="B31" s="28"/>
       <c r="D31" s="9" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="84"/>
+      <c r="A32" s="85"/>
       <c r="B32" s="28"/>
       <c r="D32" s="9" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="84"/>
+      <c r="A33" s="85"/>
       <c r="B33" s="28"/>
       <c r="D33" s="9" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="84"/>
+      <c r="A34" s="85"/>
       <c r="B34" s="28"/>
       <c r="D34" s="9" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="84"/>
+      <c r="A35" s="85"/>
       <c r="B35" s="28"/>
       <c r="D35" s="9" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="84"/>
+      <c r="A36" s="85"/>
       <c r="B36" s="28"/>
       <c r="D36" s="9" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="85" t="s">
+      <c r="A37" s="86" t="s">
         <v>58</v>
       </c>
       <c r="D37" s="11" t="s">
@@ -3726,43 +3739,43 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="85"/>
+      <c r="A38" s="86"/>
       <c r="D38" s="11" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="85"/>
+      <c r="A39" s="86"/>
       <c r="D39" s="11" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="85"/>
+      <c r="A40" s="86"/>
       <c r="D40" s="11" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="85"/>
+      <c r="A41" s="86"/>
       <c r="D41" s="11" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="85"/>
+      <c r="A42" s="86"/>
       <c r="D42" s="11" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="85"/>
+      <c r="A43" s="86"/>
       <c r="D43" s="11" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="85" t="s">
+      <c r="A44" s="86" t="s">
         <v>66</v>
       </c>
       <c r="C44" s="12" t="s">
@@ -3773,7 +3786,7 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="85"/>
+      <c r="A45" s="86"/>
       <c r="C45" s="12" t="s">
         <v>67</v>
       </c>
@@ -3782,7 +3795,7 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="85"/>
+      <c r="A46" s="86"/>
       <c r="C46" s="12" t="s">
         <v>44</v>
       </c>
@@ -3791,43 +3804,43 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="85"/>
+      <c r="A47" s="86"/>
       <c r="D47" s="12" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="85"/>
+      <c r="A48" s="86"/>
       <c r="D48" s="12" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="85"/>
+      <c r="A49" s="86"/>
       <c r="D49" s="12" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="85"/>
+      <c r="A50" s="86"/>
       <c r="D50" s="12" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="85"/>
+      <c r="A51" s="86"/>
       <c r="D51" s="12" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="85"/>
+      <c r="A52" s="86"/>
       <c r="D52" s="12" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="158.44999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="85" t="s">
+      <c r="A53" s="86" t="s">
         <v>77</v>
       </c>
       <c r="C53" s="14" t="s">
@@ -3839,7 +3852,7 @@
       <c r="E53" s="13"/>
     </row>
     <row r="54" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A54" s="85"/>
+      <c r="A54" s="86"/>
       <c r="C54" s="14" t="s">
         <v>87</v>
       </c>
@@ -3849,7 +3862,7 @@
       <c r="E54" s="13"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="85" t="s">
+      <c r="A55" s="86" t="s">
         <v>80</v>
       </c>
       <c r="C55" s="14" t="s">
@@ -3860,7 +3873,7 @@
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="85"/>
+      <c r="A56" s="86"/>
       <c r="C56" s="14" t="s">
         <v>82</v>
       </c>
@@ -3869,7 +3882,7 @@
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="85"/>
+      <c r="A57" s="86"/>
       <c r="C57" s="14" t="s">
         <v>83</v>
       </c>
@@ -3878,7 +3891,7 @@
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="85"/>
+      <c r="A58" s="86"/>
       <c r="C58" s="14" t="s">
         <v>84</v>
       </c>
@@ -3887,7 +3900,7 @@
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="85"/>
+      <c r="A59" s="86"/>
       <c r="C59" s="14" t="s">
         <v>85</v>
       </c>
@@ -3896,73 +3909,73 @@
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="85"/>
+      <c r="A60" s="86"/>
       <c r="D60" s="14" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="85"/>
+      <c r="A61" s="86"/>
       <c r="D61" s="14" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="85"/>
+      <c r="A62" s="86"/>
       <c r="D62" s="14" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="85"/>
+      <c r="A63" s="86"/>
       <c r="D63" s="14" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="85"/>
+      <c r="A64" s="86"/>
       <c r="D64" s="14" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="85"/>
+      <c r="A65" s="86"/>
       <c r="D65" s="14" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="85"/>
+      <c r="A66" s="86"/>
       <c r="D66" s="14" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="85"/>
+      <c r="A67" s="86"/>
       <c r="D67" s="14" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="85"/>
+      <c r="A68" s="86"/>
       <c r="D68" s="14" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="85"/>
+      <c r="A69" s="86"/>
       <c r="D69" s="14" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="85"/>
+      <c r="A70" s="86"/>
       <c r="D70" s="14" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="85" t="s">
+      <c r="A71" s="86" t="s">
         <v>104</v>
       </c>
       <c r="C71" s="15" t="s">
@@ -3973,7 +3986,7 @@
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="85"/>
+      <c r="A72" s="86"/>
       <c r="C72" s="15" t="s">
         <v>106</v>
       </c>
@@ -3982,7 +3995,7 @@
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="85"/>
+      <c r="A73" s="86"/>
       <c r="C73" s="15" t="s">
         <v>107</v>
       </c>
@@ -3991,7 +4004,7 @@
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="85"/>
+      <c r="A74" s="86"/>
       <c r="C74" s="15" t="s">
         <v>108</v>
       </c>
@@ -4000,43 +4013,43 @@
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="85"/>
+      <c r="A75" s="86"/>
       <c r="D75" s="15" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="85"/>
+      <c r="A76" s="86"/>
       <c r="D76" s="15" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="85"/>
+      <c r="A77" s="86"/>
       <c r="D77" s="15" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="85"/>
+      <c r="A78" s="86"/>
       <c r="D78" s="15" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="85"/>
+      <c r="A79" s="86"/>
       <c r="D79" s="15" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="85"/>
+      <c r="A80" s="86"/>
       <c r="D80" s="15" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="85" t="s">
+      <c r="A81" s="86" t="s">
         <v>117</v>
       </c>
       <c r="C81" s="16" t="s">
@@ -4047,7 +4060,7 @@
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="85"/>
+      <c r="A82" s="86"/>
       <c r="C82" s="16" t="s">
         <v>119</v>
       </c>
@@ -4056,7 +4069,7 @@
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="85"/>
+      <c r="A83" s="86"/>
       <c r="C83" s="16" t="s">
         <v>120</v>
       </c>
@@ -4065,25 +4078,25 @@
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="85"/>
+      <c r="A84" s="86"/>
       <c r="D84" s="16" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" s="85"/>
+      <c r="A85" s="86"/>
       <c r="D85" s="16" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" s="85"/>
+      <c r="A86" s="86"/>
       <c r="D86" s="16" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A87" s="85" t="s">
+      <c r="A87" s="86" t="s">
         <v>125</v>
       </c>
       <c r="C87" s="17" t="s">
@@ -4094,7 +4107,7 @@
       </c>
     </row>
     <row r="88" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A88" s="85"/>
+      <c r="A88" s="86"/>
       <c r="C88" s="17" t="s">
         <v>127</v>
       </c>
@@ -4103,7 +4116,7 @@
       </c>
     </row>
     <row r="89" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A89" s="85"/>
+      <c r="A89" s="86"/>
       <c r="C89" s="17" t="s">
         <v>128</v>
       </c>
@@ -4112,13 +4125,13 @@
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" s="85"/>
+      <c r="A90" s="86"/>
       <c r="C90" s="17" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A91" s="85" t="s">
+      <c r="A91" s="86" t="s">
         <v>132</v>
       </c>
       <c r="C91" s="19" t="s">
@@ -4129,7 +4142,7 @@
       </c>
     </row>
     <row r="92" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A92" s="85"/>
+      <c r="A92" s="86"/>
       <c r="C92" s="19" t="s">
         <v>134</v>
       </c>
@@ -4138,40 +4151,40 @@
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" s="85"/>
+      <c r="A93" s="86"/>
       <c r="C93" s="19" t="s">
         <v>135</v>
       </c>
       <c r="D93" s="19"/>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" s="85"/>
+      <c r="A94" s="86"/>
       <c r="C94" s="19" t="s">
         <v>136</v>
       </c>
       <c r="D94" s="19"/>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" s="85"/>
+      <c r="A95" s="86"/>
       <c r="C95" s="19" t="s">
         <v>137</v>
       </c>
       <c r="D95" s="19"/>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96" s="85"/>
+      <c r="A96" s="86"/>
       <c r="C96" s="19" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" s="85"/>
+      <c r="A97" s="86"/>
       <c r="C97" s="19" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" s="85" t="s">
+      <c r="A98" s="86" t="s">
         <v>141</v>
       </c>
       <c r="D98" s="20" t="s">
@@ -4179,25 +4192,25 @@
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" s="85"/>
+      <c r="A99" s="86"/>
       <c r="D99" s="20" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" s="85"/>
+      <c r="A100" s="86"/>
       <c r="D100" s="20" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101" s="85"/>
+      <c r="A101" s="86"/>
       <c r="D101" s="20" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A102" s="85" t="s">
+      <c r="A102" s="86" t="s">
         <v>146</v>
       </c>
       <c r="C102" s="23" t="s">
@@ -4208,7 +4221,7 @@
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A103" s="85"/>
+      <c r="A103" s="86"/>
       <c r="C103" s="23" t="s">
         <v>138</v>
       </c>
@@ -4217,7 +4230,7 @@
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A104" s="85"/>
+      <c r="A104" s="86"/>
       <c r="C104" s="23" t="s">
         <v>135</v>
       </c>
@@ -4226,7 +4239,7 @@
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A105" s="85"/>
+      <c r="A105" s="86"/>
       <c r="C105" s="23" t="s">
         <v>147</v>
       </c>
@@ -4235,7 +4248,7 @@
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A106" s="85"/>
+      <c r="A106" s="86"/>
       <c r="C106" s="23" t="s">
         <v>148</v>
       </c>
@@ -4244,13 +4257,13 @@
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A107" s="85"/>
+      <c r="A107" s="86"/>
       <c r="C107" s="23" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A108" s="85" t="s">
+      <c r="A108" s="86" t="s">
         <v>151</v>
       </c>
       <c r="C108" s="24" t="s">
@@ -4261,7 +4274,7 @@
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A109" s="85"/>
+      <c r="A109" s="86"/>
       <c r="C109" s="24" t="s">
         <v>153</v>
       </c>
@@ -4270,31 +4283,31 @@
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A110" s="85"/>
+      <c r="A110" s="86"/>
       <c r="D110" s="24" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A111" s="85"/>
+      <c r="A111" s="86"/>
       <c r="D111" s="24" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A112" s="85"/>
+      <c r="A112" s="86"/>
       <c r="D112" s="24" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A113" s="85"/>
+      <c r="A113" s="86"/>
       <c r="D113" s="24" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A114" s="85" t="s">
+      <c r="A114" s="86" t="s">
         <v>163</v>
       </c>
       <c r="C114" s="25" t="s">
@@ -4305,7 +4318,7 @@
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A115" s="85"/>
+      <c r="A115" s="86"/>
       <c r="C115" s="25" t="s">
         <v>119</v>
       </c>
@@ -4314,7 +4327,7 @@
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A116" s="85"/>
+      <c r="A116" s="86"/>
       <c r="C116" s="25" t="s">
         <v>120</v>
       </c>
@@ -4323,57 +4336,57 @@
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A117" s="85"/>
+      <c r="A117" s="86"/>
       <c r="D117" s="25" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A118" s="85"/>
+      <c r="A118" s="86"/>
       <c r="D118" s="25"/>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A119" s="85"/>
+      <c r="A119" s="86"/>
       <c r="D119" s="25" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A120" s="85"/>
+      <c r="A120" s="86"/>
       <c r="D120" s="25" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A121" s="85"/>
+      <c r="A121" s="86"/>
       <c r="D121" s="25" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A122" s="85"/>
+      <c r="A122" s="86"/>
       <c r="D122" s="25" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A123" s="85"/>
+      <c r="A123" s="86"/>
       <c r="D123" s="25"/>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A124" s="85"/>
+      <c r="A124" s="86"/>
       <c r="D124" s="25" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="125" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A125" s="85"/>
+      <c r="A125" s="86"/>
       <c r="D125" s="26" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A126" s="85"/>
+      <c r="A126" s="86"/>
       <c r="D126" s="25" t="s">
         <v>170</v>
       </c>
@@ -4412,8 +4425,8 @@
   <dimension ref="A1:M97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E1" sqref="E1"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4433,40 +4446,40 @@
         <v>1</v>
       </c>
       <c r="B1" s="48" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C1" s="48" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D1" s="51" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="E1" s="51" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="F1" s="51" t="s">
         <v>12</v>
       </c>
       <c r="G1" s="45" t="s">
+        <v>336</v>
+      </c>
+      <c r="H1" s="45" t="s">
+        <v>337</v>
+      </c>
+      <c r="I1" s="45" t="s">
+        <v>338</v>
+      </c>
+      <c r="J1" s="45" t="s">
+        <v>339</v>
+      </c>
+      <c r="K1" s="45" t="s">
         <v>340</v>
       </c>
-      <c r="H1" s="45" t="s">
-        <v>341</v>
-      </c>
-      <c r="I1" s="45" t="s">
-        <v>342</v>
-      </c>
-      <c r="J1" s="45" t="s">
-        <v>343</v>
-      </c>
-      <c r="K1" s="45" t="s">
-        <v>344</v>
-      </c>
       <c r="L1" s="45" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="M1" s="45" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="60" x14ac:dyDescent="0.25">
@@ -4474,13 +4487,13 @@
         <v>2</v>
       </c>
       <c r="B2" s="52" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C2" s="52" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="D2" s="54" t="s">
-        <v>11</v>
+        <v>356</v>
       </c>
       <c r="E2" s="71" t="s">
         <v>21</v>
@@ -4501,23 +4514,23 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="85" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="85" t="s">
-        <v>314</v>
-      </c>
-      <c r="C3" s="85" t="s">
-        <v>311</v>
-      </c>
-      <c r="D3" s="75" t="s">
+      <c r="B3" s="86" t="s">
+        <v>310</v>
+      </c>
+      <c r="C3" s="86" t="s">
+        <v>307</v>
+      </c>
+      <c r="D3" s="80" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="75" t="s">
+      <c r="E3" s="80" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="75" t="s">
-        <v>301</v>
+      <c r="F3" s="80" t="s">
+        <v>297</v>
       </c>
       <c r="G3" s="66"/>
       <c r="H3" s="66"/>
@@ -4525,120 +4538,120 @@
       <c r="J3" s="67"/>
       <c r="K3" s="66"/>
       <c r="L3" s="67" t="s">
-        <v>300</v>
-      </c>
-      <c r="M3" s="79" t="s">
-        <v>300</v>
+        <v>296</v>
+      </c>
+      <c r="M3" s="76" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="84"/>
-      <c r="B4" s="85"/>
-      <c r="C4" s="85"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
+      <c r="A4" s="85"/>
+      <c r="B4" s="86"/>
+      <c r="C4" s="86"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
       <c r="G4" s="66"/>
       <c r="H4" s="66"/>
       <c r="I4" s="66"/>
       <c r="J4" s="67"/>
       <c r="K4" s="66"/>
       <c r="L4" s="67" t="s">
-        <v>300</v>
-      </c>
-      <c r="M4" s="80"/>
+        <v>296</v>
+      </c>
+      <c r="M4" s="77"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="84"/>
-      <c r="B5" s="85"/>
-      <c r="C5" s="85"/>
-      <c r="D5" s="75"/>
-      <c r="E5" s="75"/>
-      <c r="F5" s="75"/>
+      <c r="A5" s="85"/>
+      <c r="B5" s="86"/>
+      <c r="C5" s="86"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="80"/>
       <c r="G5" s="66"/>
       <c r="H5" s="66"/>
       <c r="I5" s="66"/>
       <c r="J5" s="67"/>
       <c r="K5" s="66"/>
       <c r="L5" s="67" t="s">
-        <v>300</v>
-      </c>
-      <c r="M5" s="80"/>
+        <v>296</v>
+      </c>
+      <c r="M5" s="77"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="84"/>
-      <c r="B6" s="85"/>
-      <c r="C6" s="85"/>
-      <c r="D6" s="75"/>
-      <c r="E6" s="75"/>
-      <c r="F6" s="75"/>
+      <c r="A6" s="85"/>
+      <c r="B6" s="86"/>
+      <c r="C6" s="86"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="80"/>
+      <c r="F6" s="80"/>
       <c r="G6" s="66"/>
       <c r="H6" s="66"/>
       <c r="I6" s="66"/>
       <c r="J6" s="67"/>
       <c r="K6" s="66"/>
       <c r="L6" s="67" t="s">
-        <v>300</v>
-      </c>
-      <c r="M6" s="80"/>
+        <v>296</v>
+      </c>
+      <c r="M6" s="77"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="84"/>
-      <c r="B7" s="85"/>
-      <c r="C7" s="85"/>
-      <c r="D7" s="75"/>
-      <c r="E7" s="75"/>
-      <c r="F7" s="75"/>
+      <c r="A7" s="85"/>
+      <c r="B7" s="86"/>
+      <c r="C7" s="86"/>
+      <c r="D7" s="80"/>
+      <c r="E7" s="80"/>
+      <c r="F7" s="80"/>
       <c r="G7" s="66"/>
       <c r="H7" s="66"/>
       <c r="I7" s="66"/>
       <c r="J7" s="67"/>
       <c r="K7" s="66"/>
       <c r="L7" s="67" t="s">
-        <v>300</v>
-      </c>
-      <c r="M7" s="80"/>
+        <v>296</v>
+      </c>
+      <c r="M7" s="77"/>
     </row>
     <row r="8" spans="1:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="A8" s="84"/>
-      <c r="B8" s="85"/>
-      <c r="C8" s="85"/>
+      <c r="A8" s="85"/>
+      <c r="B8" s="86"/>
+      <c r="C8" s="86"/>
       <c r="D8" s="50" t="s">
         <v>22</v>
       </c>
       <c r="E8" s="70"/>
       <c r="F8" s="50" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="G8" s="66"/>
       <c r="H8" s="66"/>
       <c r="I8" s="66" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="J8" s="66" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="K8" s="66"/>
       <c r="L8" s="72"/>
       <c r="M8" s="44"/>
     </row>
     <row r="9" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="84" t="s">
-        <v>224</v>
-      </c>
-      <c r="B9" s="86" t="s">
-        <v>316</v>
-      </c>
-      <c r="C9" s="85" t="s">
-        <v>315</v>
-      </c>
-      <c r="D9" s="75" t="s">
+      <c r="A9" s="85" t="s">
+        <v>221</v>
+      </c>
+      <c r="B9" s="88" t="s">
+        <v>312</v>
+      </c>
+      <c r="C9" s="86" t="s">
+        <v>311</v>
+      </c>
+      <c r="D9" s="80" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="75" t="s">
+      <c r="E9" s="80" t="s">
         <v>29</v>
       </c>
-      <c r="F9" s="75" t="s">
+      <c r="F9" s="80" t="s">
         <v>32</v>
       </c>
       <c r="G9" s="66"/>
@@ -4649,17 +4662,17 @@
       <c r="L9" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="M9" s="79" t="s">
+      <c r="M9" s="76" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="84"/>
-      <c r="B10" s="75"/>
-      <c r="C10" s="85"/>
-      <c r="D10" s="75"/>
-      <c r="E10" s="75"/>
-      <c r="F10" s="75"/>
+      <c r="A10" s="85"/>
+      <c r="B10" s="80"/>
+      <c r="C10" s="86"/>
+      <c r="D10" s="80"/>
+      <c r="E10" s="80"/>
+      <c r="F10" s="80"/>
       <c r="G10" s="66"/>
       <c r="H10" s="66"/>
       <c r="I10" s="66"/>
@@ -4668,15 +4681,15 @@
       <c r="L10" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="M10" s="80"/>
+      <c r="M10" s="77"/>
     </row>
     <row r="11" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="84"/>
-      <c r="B11" s="75"/>
-      <c r="C11" s="85"/>
-      <c r="D11" s="75"/>
-      <c r="E11" s="75"/>
-      <c r="F11" s="75"/>
+      <c r="A11" s="85"/>
+      <c r="B11" s="80"/>
+      <c r="C11" s="86"/>
+      <c r="D11" s="80"/>
+      <c r="E11" s="80"/>
+      <c r="F11" s="80"/>
       <c r="G11" s="66"/>
       <c r="H11" s="66"/>
       <c r="I11" s="66"/>
@@ -4685,12 +4698,12 @@
       <c r="L11" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="M11" s="80"/>
+      <c r="M11" s="77"/>
     </row>
     <row r="12" spans="1:13" ht="90" x14ac:dyDescent="0.25">
-      <c r="A12" s="84"/>
-      <c r="B12" s="75"/>
-      <c r="C12" s="85"/>
+      <c r="A12" s="85"/>
+      <c r="B12" s="80"/>
+      <c r="C12" s="86"/>
       <c r="D12" s="50" t="s">
         <v>28</v>
       </c>
@@ -4708,12 +4721,12 @@
       <c r="L12" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="M12" s="80"/>
+      <c r="M12" s="77"/>
     </row>
     <row r="13" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="84"/>
-      <c r="B13" s="75"/>
-      <c r="C13" s="85"/>
+      <c r="A13" s="85"/>
+      <c r="B13" s="80"/>
+      <c r="C13" s="86"/>
       <c r="D13" s="50" t="s">
         <v>29</v>
       </c>
@@ -4731,17 +4744,17 @@
       <c r="L13" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="M13" s="80"/>
+      <c r="M13" s="77"/>
     </row>
     <row r="14" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="84"/>
-      <c r="B14" s="75"/>
-      <c r="C14" s="85"/>
+      <c r="A14" s="85"/>
+      <c r="B14" s="80"/>
+      <c r="C14" s="86"/>
       <c r="D14" s="50" t="s">
         <v>30</v>
       </c>
       <c r="E14" s="70"/>
-      <c r="F14" s="75" t="s">
+      <c r="F14" s="80" t="s">
         <v>39</v>
       </c>
       <c r="G14" s="66"/>
@@ -4752,17 +4765,17 @@
       <c r="L14" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="M14" s="80"/>
+      <c r="M14" s="77"/>
     </row>
     <row r="15" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="84"/>
-      <c r="B15" s="75"/>
-      <c r="C15" s="85"/>
+      <c r="A15" s="85"/>
+      <c r="B15" s="80"/>
+      <c r="C15" s="86"/>
       <c r="D15" s="50" t="s">
         <v>31</v>
       </c>
       <c r="E15" s="70"/>
-      <c r="F15" s="75"/>
+      <c r="F15" s="80"/>
       <c r="G15" s="66"/>
       <c r="H15" s="66"/>
       <c r="I15" s="66"/>
@@ -4771,17 +4784,17 @@
       <c r="L15" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="M15" s="80"/>
+      <c r="M15" s="77"/>
     </row>
     <row r="16" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="84" t="s">
+      <c r="A16" s="85" t="s">
         <v>41</v>
       </c>
-      <c r="B16" s="85" t="s">
-        <v>275</v>
-      </c>
-      <c r="C16" s="85" t="s">
-        <v>276</v>
+      <c r="B16" s="86" t="s">
+        <v>271</v>
+      </c>
+      <c r="C16" s="86" t="s">
+        <v>272</v>
       </c>
       <c r="D16" s="50" t="s">
         <v>42</v>
@@ -4798,14 +4811,14 @@
       <c r="L16" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="M16" s="79" t="s">
+      <c r="M16" s="76" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="84"/>
-      <c r="B17" s="85"/>
-      <c r="C17" s="85"/>
+      <c r="A17" s="85"/>
+      <c r="B17" s="86"/>
+      <c r="C17" s="86"/>
       <c r="D17" s="50" t="s">
         <v>43</v>
       </c>
@@ -4821,12 +4834,12 @@
       <c r="L17" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="M17" s="79"/>
+      <c r="M17" s="76"/>
     </row>
     <row r="18" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="84"/>
-      <c r="B18" s="85"/>
-      <c r="C18" s="85"/>
+      <c r="A18" s="85"/>
+      <c r="B18" s="86"/>
+      <c r="C18" s="86"/>
       <c r="D18" s="50" t="s">
         <v>44</v>
       </c>
@@ -4842,12 +4855,12 @@
       <c r="L18" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="M18" s="79"/>
+      <c r="M18" s="76"/>
     </row>
     <row r="19" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="84"/>
-      <c r="B19" s="85"/>
-      <c r="C19" s="85"/>
+      <c r="A19" s="85"/>
+      <c r="B19" s="86"/>
+      <c r="C19" s="86"/>
       <c r="D19" s="50" t="s">
         <v>41</v>
       </c>
@@ -4863,12 +4876,12 @@
       <c r="L19" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="M19" s="79"/>
+      <c r="M19" s="76"/>
     </row>
     <row r="20" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="84"/>
-      <c r="B20" s="85"/>
-      <c r="C20" s="85"/>
+      <c r="A20" s="85"/>
+      <c r="B20" s="86"/>
+      <c r="C20" s="86"/>
       <c r="D20" s="50" t="s">
         <v>45</v>
       </c>
@@ -4884,17 +4897,17 @@
       <c r="L20" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="M20" s="79"/>
+      <c r="M20" s="76"/>
     </row>
     <row r="21" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A21" s="84"/>
-      <c r="B21" s="85"/>
-      <c r="C21" s="85"/>
+      <c r="A21" s="85"/>
+      <c r="B21" s="86"/>
+      <c r="C21" s="86"/>
       <c r="D21" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="E21" s="75" t="s">
-        <v>225</v>
+      <c r="E21" s="80" t="s">
+        <v>222</v>
       </c>
       <c r="F21" s="50" t="s">
         <v>51</v>
@@ -4907,16 +4920,16 @@
       <c r="L21" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="M21" s="79"/>
+      <c r="M21" s="76"/>
     </row>
     <row r="22" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A22" s="84"/>
-      <c r="B22" s="85"/>
-      <c r="C22" s="85"/>
-      <c r="D22" s="75" t="s">
-        <v>225</v>
-      </c>
-      <c r="E22" s="75"/>
+      <c r="A22" s="85"/>
+      <c r="B22" s="86"/>
+      <c r="C22" s="86"/>
+      <c r="D22" s="80" t="s">
+        <v>222</v>
+      </c>
+      <c r="E22" s="80"/>
       <c r="F22" s="50" t="s">
         <v>53</v>
       </c>
@@ -4928,15 +4941,15 @@
       <c r="L22" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="M22" s="79"/>
+      <c r="M22" s="76"/>
     </row>
     <row r="23" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A23" s="84"/>
-      <c r="B23" s="85"/>
-      <c r="C23" s="85"/>
-      <c r="D23" s="75"/>
+      <c r="A23" s="85"/>
+      <c r="B23" s="86"/>
+      <c r="C23" s="86"/>
+      <c r="D23" s="80"/>
       <c r="E23" s="70" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="F23" s="50" t="s">
         <v>55</v>
@@ -4949,14 +4962,14 @@
       <c r="L23" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="M23" s="79"/>
+      <c r="M23" s="76"/>
     </row>
     <row r="24" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A24" s="84"/>
-      <c r="B24" s="85"/>
-      <c r="C24" s="85"/>
+      <c r="A24" s="85"/>
+      <c r="B24" s="86"/>
+      <c r="C24" s="86"/>
       <c r="D24" s="50" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="E24" s="70" t="s">
         <v>107</v>
@@ -4972,17 +4985,17 @@
       <c r="L24" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="M24" s="79"/>
+      <c r="M24" s="76"/>
     </row>
     <row r="25" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="85" t="s">
+      <c r="A25" s="86" t="s">
         <v>58</v>
       </c>
-      <c r="B25" s="85" t="s">
-        <v>259</v>
-      </c>
-      <c r="C25" s="85" t="s">
-        <v>317</v>
+      <c r="B25" s="86" t="s">
+        <v>255</v>
+      </c>
+      <c r="C25" s="86" t="s">
+        <v>313</v>
       </c>
       <c r="D25" s="44"/>
       <c r="F25" s="50"/>
@@ -4994,15 +5007,15 @@
       <c r="L25" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="M25" s="79" t="s">
+      <c r="M25" s="76" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="85"/>
-      <c r="B26" s="85"/>
-      <c r="C26" s="85"/>
-      <c r="D26" s="75" t="s">
+      <c r="A26" s="86"/>
+      <c r="B26" s="86"/>
+      <c r="C26" s="86"/>
+      <c r="D26" s="80" t="s">
         <v>58</v>
       </c>
       <c r="E26" s="70"/>
@@ -5017,15 +5030,15 @@
       <c r="L26" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="M26" s="80"/>
+      <c r="M26" s="77"/>
     </row>
     <row r="27" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="85"/>
-      <c r="B27" s="85"/>
-      <c r="C27" s="85"/>
-      <c r="D27" s="75"/>
+      <c r="A27" s="86"/>
+      <c r="B27" s="86"/>
+      <c r="C27" s="86"/>
+      <c r="D27" s="80"/>
       <c r="E27" s="70" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F27" s="50" t="s">
         <v>61</v>
@@ -5038,14 +5051,14 @@
       <c r="L27" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="M27" s="80"/>
+      <c r="M27" s="77"/>
     </row>
     <row r="28" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A28" s="85"/>
-      <c r="B28" s="85"/>
-      <c r="C28" s="85"/>
+      <c r="A28" s="86"/>
+      <c r="B28" s="86"/>
+      <c r="C28" s="86"/>
       <c r="D28" s="50" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="E28" s="70"/>
       <c r="F28" s="50" t="s">
@@ -5059,20 +5072,20 @@
       <c r="L28" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="M28" s="80"/>
+      <c r="M28" s="77"/>
     </row>
     <row r="29" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="85" t="s">
+      <c r="A29" s="86" t="s">
         <v>66</v>
       </c>
-      <c r="B29" s="85" t="s">
-        <v>277</v>
-      </c>
-      <c r="C29" s="85" t="s">
-        <v>278</v>
+      <c r="B29" s="86" t="s">
+        <v>273</v>
+      </c>
+      <c r="C29" s="86" t="s">
+        <v>274</v>
       </c>
       <c r="D29" s="50" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="E29" s="70"/>
       <c r="F29" s="50" t="s">
@@ -5084,16 +5097,16 @@
       <c r="J29" s="67"/>
       <c r="K29" s="42"/>
       <c r="L29" s="67" t="s">
-        <v>302</v>
-      </c>
-      <c r="M29" s="79" t="s">
-        <v>302</v>
+        <v>298</v>
+      </c>
+      <c r="M29" s="76" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="85"/>
-      <c r="B30" s="85"/>
-      <c r="C30" s="85"/>
+      <c r="A30" s="86"/>
+      <c r="B30" s="86"/>
+      <c r="C30" s="86"/>
       <c r="D30" s="50" t="s">
         <v>67</v>
       </c>
@@ -5109,15 +5122,15 @@
       <c r="J30" s="67"/>
       <c r="K30" s="66"/>
       <c r="L30" s="67" t="s">
-        <v>302</v>
-      </c>
-      <c r="M30" s="80"/>
+        <v>298</v>
+      </c>
+      <c r="M30" s="77"/>
     </row>
     <row r="31" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="85"/>
-      <c r="B31" s="85"/>
-      <c r="C31" s="85"/>
-      <c r="D31" s="75" t="s">
+      <c r="A31" s="86"/>
+      <c r="B31" s="86"/>
+      <c r="C31" s="86"/>
+      <c r="D31" s="80" t="s">
         <v>44</v>
       </c>
       <c r="E31" s="70"/>
@@ -5130,15 +5143,15 @@
       <c r="J31" s="67"/>
       <c r="K31" s="66"/>
       <c r="L31" s="67" t="s">
-        <v>302</v>
-      </c>
-      <c r="M31" s="80"/>
+        <v>298</v>
+      </c>
+      <c r="M31" s="77"/>
     </row>
     <row r="32" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="85"/>
-      <c r="B32" s="85"/>
-      <c r="C32" s="85"/>
-      <c r="D32" s="75"/>
+      <c r="A32" s="86"/>
+      <c r="B32" s="86"/>
+      <c r="C32" s="86"/>
+      <c r="D32" s="80"/>
       <c r="E32" s="70"/>
       <c r="F32" s="50" t="s">
         <v>71</v>
@@ -5149,15 +5162,15 @@
       <c r="J32" s="67"/>
       <c r="K32" s="66"/>
       <c r="L32" s="67" t="s">
-        <v>302</v>
-      </c>
-      <c r="M32" s="80"/>
+        <v>298</v>
+      </c>
+      <c r="M32" s="77"/>
     </row>
     <row r="33" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A33" s="85"/>
-      <c r="B33" s="85"/>
-      <c r="C33" s="85"/>
-      <c r="D33" s="75"/>
+      <c r="A33" s="86"/>
+      <c r="B33" s="86"/>
+      <c r="C33" s="86"/>
+      <c r="D33" s="80"/>
       <c r="E33" s="70"/>
       <c r="F33" s="50" t="s">
         <v>72</v>
@@ -5168,15 +5181,15 @@
       <c r="J33" s="67"/>
       <c r="K33" s="43"/>
       <c r="L33" s="67" t="s">
-        <v>302</v>
-      </c>
-      <c r="M33" s="80"/>
+        <v>298</v>
+      </c>
+      <c r="M33" s="77"/>
     </row>
     <row r="34" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A34" s="85"/>
-      <c r="B34" s="85"/>
-      <c r="C34" s="85"/>
-      <c r="D34" s="75"/>
+      <c r="A34" s="86"/>
+      <c r="B34" s="86"/>
+      <c r="C34" s="86"/>
+      <c r="D34" s="80"/>
       <c r="E34" s="70"/>
       <c r="F34" s="50" t="s">
         <v>73</v>
@@ -5187,15 +5200,15 @@
       <c r="J34" s="67"/>
       <c r="K34" s="43"/>
       <c r="L34" s="67" t="s">
-        <v>302</v>
-      </c>
-      <c r="M34" s="80"/>
+        <v>298</v>
+      </c>
+      <c r="M34" s="77"/>
     </row>
     <row r="35" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="85"/>
-      <c r="B35" s="85"/>
-      <c r="C35" s="85"/>
-      <c r="D35" s="75"/>
+      <c r="A35" s="86"/>
+      <c r="B35" s="86"/>
+      <c r="C35" s="86"/>
+      <c r="D35" s="80"/>
       <c r="E35" s="70"/>
       <c r="F35" s="50" t="s">
         <v>74</v>
@@ -5206,20 +5219,20 @@
       <c r="J35" s="67"/>
       <c r="K35" s="43"/>
       <c r="L35" s="67" t="s">
-        <v>302</v>
-      </c>
-      <c r="M35" s="80"/>
+        <v>298</v>
+      </c>
+      <c r="M35" s="77"/>
     </row>
     <row r="36" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A36" s="85"/>
-      <c r="B36" s="85"/>
-      <c r="C36" s="85"/>
-      <c r="D36" s="75"/>
+      <c r="A36" s="86"/>
+      <c r="B36" s="86"/>
+      <c r="C36" s="86"/>
+      <c r="D36" s="80"/>
       <c r="E36" s="70" t="s">
         <v>107</v>
       </c>
       <c r="F36" s="50" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="G36" s="43"/>
       <c r="H36" s="43"/>
@@ -5227,28 +5240,28 @@
       <c r="J36" s="67"/>
       <c r="K36" s="43"/>
       <c r="L36" s="67" t="s">
-        <v>302</v>
-      </c>
-      <c r="M36" s="80"/>
+        <v>298</v>
+      </c>
+      <c r="M36" s="77"/>
     </row>
     <row r="37" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="85" t="s">
+      <c r="A37" s="86" t="s">
         <v>77</v>
       </c>
-      <c r="B37" s="85" t="s">
-        <v>318</v>
-      </c>
-      <c r="C37" s="85" t="s">
-        <v>279</v>
+      <c r="B37" s="86" t="s">
+        <v>314</v>
+      </c>
+      <c r="C37" s="86" t="s">
+        <v>275</v>
       </c>
       <c r="D37" s="50" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="E37" s="70" t="s">
         <v>107</v>
       </c>
       <c r="F37" s="50" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="G37" s="66"/>
       <c r="H37" s="67" t="s">
@@ -5258,20 +5271,20 @@
       <c r="J37" s="66"/>
       <c r="K37" s="66"/>
       <c r="L37" s="72"/>
-      <c r="M37" s="79" t="s">
-        <v>303</v>
+      <c r="M37" s="76" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="38" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A38" s="85"/>
-      <c r="B38" s="85"/>
-      <c r="C38" s="85"/>
+      <c r="A38" s="86"/>
+      <c r="B38" s="86"/>
+      <c r="C38" s="86"/>
       <c r="D38" s="50" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E38" s="70"/>
       <c r="F38" s="50" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G38" s="66"/>
       <c r="H38" s="66"/>
@@ -5279,19 +5292,19 @@
       <c r="J38" s="67"/>
       <c r="K38" s="66"/>
       <c r="L38" s="67" t="s">
-        <v>303</v>
-      </c>
-      <c r="M38" s="80"/>
+        <v>299</v>
+      </c>
+      <c r="M38" s="77"/>
     </row>
     <row r="39" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39" s="85" t="s">
+      <c r="A39" s="86" t="s">
         <v>80</v>
       </c>
-      <c r="B39" s="85" t="s">
-        <v>280</v>
-      </c>
-      <c r="C39" s="85" t="s">
-        <v>281</v>
+      <c r="B39" s="86" t="s">
+        <v>276</v>
+      </c>
+      <c r="C39" s="86" t="s">
+        <v>277</v>
       </c>
       <c r="D39" s="50" t="s">
         <v>81</v>
@@ -5300,21 +5313,21 @@
         <v>107</v>
       </c>
       <c r="F39" s="50" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="I39" s="66"/>
       <c r="J39" s="47"/>
       <c r="L39" s="47" t="s">
-        <v>304</v>
-      </c>
-      <c r="M39" s="79" t="s">
-        <v>304</v>
+        <v>300</v>
+      </c>
+      <c r="M39" s="76" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A40" s="85"/>
-      <c r="B40" s="85"/>
-      <c r="C40" s="85"/>
+      <c r="A40" s="86"/>
+      <c r="B40" s="86"/>
+      <c r="C40" s="86"/>
       <c r="D40" s="50" t="s">
         <v>82</v>
       </c>
@@ -5325,14 +5338,14 @@
       <c r="I40" s="66"/>
       <c r="J40" s="47"/>
       <c r="L40" s="47" t="s">
-        <v>304</v>
-      </c>
-      <c r="M40" s="80"/>
+        <v>300</v>
+      </c>
+      <c r="M40" s="77"/>
     </row>
     <row r="41" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="85"/>
-      <c r="B41" s="85"/>
-      <c r="C41" s="85"/>
+      <c r="A41" s="86"/>
+      <c r="B41" s="86"/>
+      <c r="C41" s="86"/>
       <c r="D41" s="50" t="s">
         <v>83</v>
       </c>
@@ -5348,20 +5361,20 @@
       <c r="J41" s="47"/>
       <c r="K41" s="66"/>
       <c r="L41" s="47" t="s">
-        <v>304</v>
-      </c>
-      <c r="M41" s="80"/>
+        <v>300</v>
+      </c>
+      <c r="M41" s="77"/>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A42" s="85"/>
-      <c r="B42" s="85"/>
-      <c r="C42" s="85"/>
-      <c r="D42" s="75" t="s">
+      <c r="A42" s="86"/>
+      <c r="B42" s="86"/>
+      <c r="C42" s="86"/>
+      <c r="D42" s="80" t="s">
         <v>85</v>
       </c>
       <c r="E42" s="70"/>
       <c r="F42" s="50" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="G42" s="66"/>
       <c r="H42" s="66"/>
@@ -5369,15 +5382,15 @@
       <c r="J42" s="47"/>
       <c r="K42" s="66"/>
       <c r="L42" s="47" t="s">
-        <v>304</v>
-      </c>
-      <c r="M42" s="80"/>
+        <v>300</v>
+      </c>
+      <c r="M42" s="77"/>
     </row>
     <row r="43" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A43" s="85"/>
-      <c r="B43" s="85"/>
-      <c r="C43" s="85"/>
-      <c r="D43" s="75"/>
+      <c r="A43" s="86"/>
+      <c r="B43" s="86"/>
+      <c r="C43" s="86"/>
+      <c r="D43" s="80"/>
       <c r="E43" s="70"/>
       <c r="F43" s="50" t="s">
         <v>93</v>
@@ -5388,15 +5401,15 @@
       <c r="J43" s="47"/>
       <c r="K43" s="66"/>
       <c r="L43" s="47" t="s">
-        <v>304</v>
-      </c>
-      <c r="M43" s="80"/>
+        <v>300</v>
+      </c>
+      <c r="M43" s="77"/>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A44" s="85"/>
-      <c r="B44" s="85"/>
-      <c r="C44" s="85"/>
-      <c r="D44" s="75"/>
+      <c r="A44" s="86"/>
+      <c r="B44" s="86"/>
+      <c r="C44" s="86"/>
+      <c r="D44" s="80"/>
       <c r="E44" s="70"/>
       <c r="F44" s="50" t="s">
         <v>94</v>
@@ -5407,15 +5420,15 @@
       <c r="J44" s="47"/>
       <c r="K44" s="66"/>
       <c r="L44" s="47" t="s">
-        <v>304</v>
-      </c>
-      <c r="M44" s="80"/>
+        <v>300</v>
+      </c>
+      <c r="M44" s="77"/>
     </row>
     <row r="45" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A45" s="85"/>
-      <c r="B45" s="85"/>
-      <c r="C45" s="85"/>
-      <c r="D45" s="75"/>
+      <c r="A45" s="86"/>
+      <c r="B45" s="86"/>
+      <c r="C45" s="86"/>
+      <c r="D45" s="80"/>
       <c r="E45" s="70"/>
       <c r="F45" s="50" t="s">
         <v>95</v>
@@ -5423,15 +5436,15 @@
       <c r="I45" s="66"/>
       <c r="J45" s="47"/>
       <c r="L45" s="47" t="s">
-        <v>304</v>
-      </c>
-      <c r="M45" s="80"/>
+        <v>300</v>
+      </c>
+      <c r="M45" s="77"/>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A46" s="85"/>
-      <c r="B46" s="85"/>
-      <c r="C46" s="85"/>
-      <c r="D46" s="75"/>
+      <c r="A46" s="86"/>
+      <c r="B46" s="86"/>
+      <c r="C46" s="86"/>
+      <c r="D46" s="80"/>
       <c r="E46" s="70"/>
       <c r="F46" s="50" t="s">
         <v>96</v>
@@ -5439,15 +5452,15 @@
       <c r="I46" s="66"/>
       <c r="J46" s="47"/>
       <c r="L46" s="47" t="s">
-        <v>304</v>
-      </c>
-      <c r="M46" s="80"/>
+        <v>300</v>
+      </c>
+      <c r="M46" s="77"/>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A47" s="85"/>
-      <c r="B47" s="85"/>
-      <c r="C47" s="85"/>
-      <c r="D47" s="75"/>
+      <c r="A47" s="86"/>
+      <c r="B47" s="86"/>
+      <c r="C47" s="86"/>
+      <c r="D47" s="80"/>
       <c r="E47" s="70"/>
       <c r="F47" s="50" t="s">
         <v>97</v>
@@ -5455,15 +5468,15 @@
       <c r="I47" s="66"/>
       <c r="J47" s="47"/>
       <c r="L47" s="47" t="s">
-        <v>304</v>
-      </c>
-      <c r="M47" s="80"/>
+        <v>300</v>
+      </c>
+      <c r="M47" s="77"/>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A48" s="85"/>
-      <c r="B48" s="85"/>
-      <c r="C48" s="85"/>
-      <c r="D48" s="75"/>
+      <c r="A48" s="86"/>
+      <c r="B48" s="86"/>
+      <c r="C48" s="86"/>
+      <c r="D48" s="80"/>
       <c r="E48" s="70"/>
       <c r="F48" s="50" t="s">
         <v>98</v>
@@ -5471,15 +5484,15 @@
       <c r="I48" s="66"/>
       <c r="J48" s="47"/>
       <c r="L48" s="47" t="s">
-        <v>304</v>
-      </c>
-      <c r="M48" s="80"/>
+        <v>300</v>
+      </c>
+      <c r="M48" s="77"/>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A49" s="85"/>
-      <c r="B49" s="85"/>
-      <c r="C49" s="85"/>
-      <c r="D49" s="75"/>
+      <c r="A49" s="86"/>
+      <c r="B49" s="86"/>
+      <c r="C49" s="86"/>
+      <c r="D49" s="80"/>
       <c r="E49" s="70"/>
       <c r="F49" s="50" t="s">
         <v>99</v>
@@ -5487,15 +5500,15 @@
       <c r="I49" s="66"/>
       <c r="J49" s="47"/>
       <c r="L49" s="47" t="s">
-        <v>304</v>
-      </c>
-      <c r="M49" s="80"/>
+        <v>300</v>
+      </c>
+      <c r="M49" s="77"/>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A50" s="85"/>
-      <c r="B50" s="85"/>
-      <c r="C50" s="85"/>
-      <c r="D50" s="75"/>
+      <c r="A50" s="86"/>
+      <c r="B50" s="86"/>
+      <c r="C50" s="86"/>
+      <c r="D50" s="80"/>
       <c r="E50" s="70"/>
       <c r="F50" s="50" t="s">
         <v>100</v>
@@ -5503,15 +5516,15 @@
       <c r="I50" s="66"/>
       <c r="J50" s="47"/>
       <c r="L50" s="47" t="s">
-        <v>304</v>
-      </c>
-      <c r="M50" s="80"/>
+        <v>300</v>
+      </c>
+      <c r="M50" s="77"/>
     </row>
     <row r="51" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A51" s="85"/>
-      <c r="B51" s="85"/>
-      <c r="C51" s="85"/>
-      <c r="D51" s="75"/>
+      <c r="A51" s="86"/>
+      <c r="B51" s="86"/>
+      <c r="C51" s="86"/>
+      <c r="D51" s="80"/>
       <c r="E51" s="70"/>
       <c r="F51" s="50" t="s">
         <v>101</v>
@@ -5519,15 +5532,15 @@
       <c r="I51" s="66"/>
       <c r="J51" s="47"/>
       <c r="L51" s="47" t="s">
-        <v>304</v>
-      </c>
-      <c r="M51" s="80"/>
+        <v>300</v>
+      </c>
+      <c r="M51" s="77"/>
     </row>
     <row r="52" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A52" s="85"/>
-      <c r="B52" s="85"/>
-      <c r="C52" s="85"/>
-      <c r="D52" s="75"/>
+      <c r="A52" s="86"/>
+      <c r="B52" s="86"/>
+      <c r="C52" s="86"/>
+      <c r="D52" s="80"/>
       <c r="E52" s="70"/>
       <c r="F52" s="50" t="s">
         <v>102</v>
@@ -5535,15 +5548,15 @@
       <c r="I52" s="66"/>
       <c r="J52" s="47"/>
       <c r="L52" s="47" t="s">
-        <v>304</v>
-      </c>
-      <c r="M52" s="80"/>
+        <v>300</v>
+      </c>
+      <c r="M52" s="77"/>
     </row>
     <row r="53" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A53" s="85"/>
-      <c r="B53" s="85"/>
-      <c r="C53" s="85"/>
-      <c r="D53" s="75"/>
+      <c r="A53" s="86"/>
+      <c r="B53" s="86"/>
+      <c r="C53" s="86"/>
+      <c r="D53" s="80"/>
       <c r="E53" s="70"/>
       <c r="F53" s="50" t="s">
         <v>103</v>
@@ -5551,19 +5564,19 @@
       <c r="I53" s="66"/>
       <c r="J53" s="47"/>
       <c r="L53" s="47" t="s">
-        <v>304</v>
-      </c>
-      <c r="M53" s="80"/>
+        <v>300</v>
+      </c>
+      <c r="M53" s="77"/>
     </row>
     <row r="54" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A54" s="85" t="s">
-        <v>195</v>
-      </c>
-      <c r="B54" s="85" t="s">
-        <v>282</v>
-      </c>
-      <c r="C54" s="85" t="s">
-        <v>283</v>
+      <c r="A54" s="86" t="s">
+        <v>192</v>
+      </c>
+      <c r="B54" s="86" t="s">
+        <v>278</v>
+      </c>
+      <c r="C54" s="86" t="s">
+        <v>279</v>
       </c>
       <c r="D54" s="50" t="s">
         <v>105</v>
@@ -5575,38 +5588,38 @@
       <c r="I54" s="66"/>
       <c r="J54" s="67"/>
       <c r="L54" s="67" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="M54" s="87" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A55" s="85"/>
-      <c r="B55" s="85"/>
-      <c r="C55" s="85"/>
+      <c r="A55" s="86"/>
+      <c r="B55" s="86"/>
+      <c r="C55" s="86"/>
       <c r="D55" s="50" t="s">
         <v>106</v>
       </c>
       <c r="E55" s="70"/>
       <c r="F55" s="50" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="I55" s="66"/>
       <c r="J55" s="47"/>
       <c r="L55" s="47" t="s">
-        <v>348</v>
-      </c>
-      <c r="M55" s="80"/>
+        <v>344</v>
+      </c>
+      <c r="M55" s="77"/>
     </row>
     <row r="56" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A56" s="85"/>
-      <c r="B56" s="85"/>
-      <c r="C56" s="85"/>
+      <c r="A56" s="86"/>
+      <c r="B56" s="86"/>
+      <c r="C56" s="86"/>
       <c r="D56" s="50" t="s">
         <v>107</v>
       </c>
-      <c r="E56" s="75" t="s">
+      <c r="E56" s="80" t="s">
         <v>153</v>
       </c>
       <c r="F56" s="50" t="s">
@@ -5615,81 +5628,81 @@
       <c r="I56" s="66"/>
       <c r="J56" s="67"/>
       <c r="L56" s="67" t="s">
-        <v>348</v>
-      </c>
-      <c r="M56" s="80"/>
+        <v>344</v>
+      </c>
+      <c r="M56" s="77"/>
     </row>
     <row r="57" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A57" s="85"/>
-      <c r="B57" s="85"/>
-      <c r="C57" s="85"/>
-      <c r="D57" s="75" t="s">
+      <c r="A57" s="86"/>
+      <c r="B57" s="86"/>
+      <c r="C57" s="86"/>
+      <c r="D57" s="80" t="s">
         <v>108</v>
       </c>
-      <c r="E57" s="75"/>
+      <c r="E57" s="80"/>
       <c r="F57" s="50" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="I57" s="66"/>
       <c r="J57" s="47"/>
       <c r="L57" s="47" t="s">
-        <v>348</v>
-      </c>
-      <c r="M57" s="80"/>
+        <v>344</v>
+      </c>
+      <c r="M57" s="77"/>
     </row>
     <row r="58" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A58" s="85"/>
-      <c r="B58" s="85"/>
-      <c r="C58" s="85"/>
-      <c r="D58" s="75"/>
-      <c r="E58" s="75"/>
+      <c r="A58" s="86"/>
+      <c r="B58" s="86"/>
+      <c r="C58" s="86"/>
+      <c r="D58" s="80"/>
+      <c r="E58" s="80"/>
       <c r="F58" s="50" t="s">
         <v>71</v>
       </c>
       <c r="I58" s="66"/>
       <c r="J58" s="47"/>
       <c r="L58" s="47" t="s">
-        <v>348</v>
-      </c>
-      <c r="M58" s="80"/>
+        <v>344</v>
+      </c>
+      <c r="M58" s="77"/>
     </row>
     <row r="59" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A59" s="85"/>
-      <c r="B59" s="85"/>
-      <c r="C59" s="85"/>
-      <c r="D59" s="75"/>
-      <c r="E59" s="75"/>
+      <c r="A59" s="86"/>
+      <c r="B59" s="86"/>
+      <c r="C59" s="86"/>
+      <c r="D59" s="80"/>
+      <c r="E59" s="80"/>
       <c r="F59" s="50" t="s">
         <v>112</v>
       </c>
       <c r="I59" s="66"/>
       <c r="J59" s="47"/>
       <c r="L59" s="47" t="s">
-        <v>348</v>
-      </c>
-      <c r="M59" s="80"/>
+        <v>344</v>
+      </c>
+      <c r="M59" s="77"/>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A60" s="85"/>
-      <c r="B60" s="85"/>
-      <c r="C60" s="85"/>
-      <c r="D60" s="75"/>
-      <c r="E60" s="75"/>
+      <c r="A60" s="86"/>
+      <c r="B60" s="86"/>
+      <c r="C60" s="86"/>
+      <c r="D60" s="80"/>
+      <c r="E60" s="80"/>
       <c r="F60" s="50" t="s">
         <v>113</v>
       </c>
       <c r="I60" s="66"/>
       <c r="J60" s="47"/>
       <c r="L60" s="47" t="s">
-        <v>348</v>
-      </c>
-      <c r="M60" s="80"/>
+        <v>344</v>
+      </c>
+      <c r="M60" s="77"/>
     </row>
     <row r="61" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A61" s="85"/>
-      <c r="B61" s="85"/>
-      <c r="C61" s="85"/>
-      <c r="D61" s="75"/>
+      <c r="A61" s="86"/>
+      <c r="B61" s="86"/>
+      <c r="C61" s="86"/>
+      <c r="D61" s="80"/>
       <c r="E61" s="70"/>
       <c r="F61" s="50" t="s">
         <v>114</v>
@@ -5697,15 +5710,15 @@
       <c r="I61" s="66"/>
       <c r="J61" s="47"/>
       <c r="L61" s="47" t="s">
-        <v>348</v>
-      </c>
-      <c r="M61" s="80"/>
+        <v>344</v>
+      </c>
+      <c r="M61" s="77"/>
     </row>
     <row r="62" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A62" s="85"/>
-      <c r="B62" s="85"/>
-      <c r="C62" s="85"/>
-      <c r="D62" s="75"/>
+      <c r="A62" s="86"/>
+      <c r="B62" s="86"/>
+      <c r="C62" s="86"/>
+      <c r="D62" s="80"/>
       <c r="E62" s="70"/>
       <c r="F62" s="50" t="s">
         <v>115</v>
@@ -5713,16 +5726,16 @@
       <c r="I62" s="66"/>
       <c r="J62" s="47"/>
       <c r="L62" s="47" t="s">
-        <v>348</v>
-      </c>
-      <c r="M62" s="80"/>
+        <v>344</v>
+      </c>
+      <c r="M62" s="77"/>
     </row>
     <row r="63" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A63" s="85"/>
-      <c r="B63" s="85"/>
-      <c r="C63" s="85"/>
-      <c r="D63" s="75"/>
-      <c r="E63" s="75" t="s">
+      <c r="A63" s="86"/>
+      <c r="B63" s="86"/>
+      <c r="C63" s="86"/>
+      <c r="D63" s="80"/>
+      <c r="E63" s="80" t="s">
         <v>153</v>
       </c>
       <c r="F63" s="50" t="s">
@@ -5730,91 +5743,91 @@
       </c>
       <c r="J63" s="47"/>
       <c r="L63" s="47" t="s">
-        <v>348</v>
-      </c>
-      <c r="M63" s="80"/>
+        <v>344</v>
+      </c>
+      <c r="M63" s="77"/>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A64" s="85" t="s">
+      <c r="A64" s="86" t="s">
         <v>117</v>
       </c>
-      <c r="B64" s="85" t="s">
-        <v>319</v>
-      </c>
-      <c r="C64" s="85" t="s">
-        <v>321</v>
-      </c>
-      <c r="D64" s="75" t="s">
+      <c r="B64" s="86" t="s">
+        <v>315</v>
+      </c>
+      <c r="C64" s="86" t="s">
+        <v>317</v>
+      </c>
+      <c r="D64" s="80" t="s">
         <v>120</v>
       </c>
-      <c r="E64" s="75"/>
-      <c r="F64" s="75" t="s">
-        <v>235</v>
+      <c r="E64" s="80"/>
+      <c r="F64" s="80" t="s">
+        <v>232</v>
       </c>
       <c r="I64" s="66"/>
       <c r="J64" s="47"/>
       <c r="L64" s="47" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="M64" s="87" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A65" s="85"/>
-      <c r="B65" s="85"/>
-      <c r="C65" s="85"/>
-      <c r="D65" s="75"/>
-      <c r="E65" s="75"/>
-      <c r="F65" s="75"/>
+      <c r="A65" s="86"/>
+      <c r="B65" s="86"/>
+      <c r="C65" s="86"/>
+      <c r="D65" s="80"/>
+      <c r="E65" s="80"/>
+      <c r="F65" s="80"/>
       <c r="I65" s="66"/>
       <c r="J65" s="47"/>
       <c r="L65" s="47" t="s">
-        <v>348</v>
-      </c>
-      <c r="M65" s="80"/>
+        <v>344</v>
+      </c>
+      <c r="M65" s="77"/>
     </row>
     <row r="66" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A66" s="85"/>
-      <c r="B66" s="85"/>
-      <c r="C66" s="85"/>
-      <c r="D66" s="75"/>
-      <c r="E66" s="75"/>
+      <c r="A66" s="86"/>
+      <c r="B66" s="86"/>
+      <c r="C66" s="86"/>
+      <c r="D66" s="80"/>
+      <c r="E66" s="80"/>
       <c r="F66" s="50" t="s">
         <v>112</v>
       </c>
       <c r="I66" s="66"/>
       <c r="J66" s="47"/>
       <c r="L66" s="47" t="s">
-        <v>348</v>
-      </c>
-      <c r="M66" s="80"/>
+        <v>344</v>
+      </c>
+      <c r="M66" s="77"/>
     </row>
     <row r="67" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A67" s="85"/>
-      <c r="B67" s="85"/>
-      <c r="C67" s="85"/>
-      <c r="D67" s="75"/>
-      <c r="E67" s="75"/>
+      <c r="A67" s="86"/>
+      <c r="B67" s="86"/>
+      <c r="C67" s="86"/>
+      <c r="D67" s="80"/>
+      <c r="E67" s="80"/>
       <c r="F67" s="50" t="s">
         <v>124</v>
       </c>
       <c r="I67" s="66"/>
       <c r="J67" s="47"/>
       <c r="L67" s="47" t="s">
-        <v>348</v>
-      </c>
-      <c r="M67" s="80"/>
+        <v>344</v>
+      </c>
+      <c r="M67" s="77"/>
     </row>
     <row r="68" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A68" s="85" t="s">
+      <c r="A68" s="86" t="s">
         <v>125</v>
       </c>
-      <c r="B68" s="85" t="s">
-        <v>320</v>
-      </c>
-      <c r="C68" s="85" t="s">
-        <v>284</v>
+      <c r="B68" s="86" t="s">
+        <v>316</v>
+      </c>
+      <c r="C68" s="86" t="s">
+        <v>280</v>
       </c>
       <c r="D68" s="50" t="s">
         <v>126</v>
@@ -5826,107 +5839,107 @@
       <c r="I68" s="66"/>
       <c r="J68" s="47"/>
       <c r="L68" s="47" t="s">
-        <v>348</v>
-      </c>
-      <c r="M68" s="79" t="s">
-        <v>306</v>
+        <v>344</v>
+      </c>
+      <c r="M68" s="76" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="69" spans="1:13" ht="90" x14ac:dyDescent="0.25">
-      <c r="A69" s="85"/>
-      <c r="B69" s="80"/>
-      <c r="C69" s="80"/>
+      <c r="A69" s="86"/>
+      <c r="B69" s="77"/>
+      <c r="C69" s="77"/>
       <c r="D69" s="50" t="s">
         <v>127</v>
       </c>
-      <c r="E69" s="75" t="s">
+      <c r="E69" s="80" t="s">
         <v>153</v>
       </c>
       <c r="F69" s="50" t="s">
         <v>111</v>
       </c>
       <c r="G69" s="66" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="I69" s="66"/>
       <c r="J69" s="47"/>
       <c r="L69" s="47" t="s">
-        <v>348</v>
-      </c>
-      <c r="M69" s="80"/>
+        <v>344</v>
+      </c>
+      <c r="M69" s="77"/>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A70" s="85"/>
-      <c r="B70" s="80"/>
-      <c r="C70" s="80"/>
+      <c r="A70" s="86"/>
+      <c r="B70" s="77"/>
+      <c r="C70" s="77"/>
       <c r="D70" s="50" t="s">
         <v>128</v>
       </c>
-      <c r="E70" s="75"/>
+      <c r="E70" s="80"/>
       <c r="F70" s="50" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="I70" s="66" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="J70" s="47" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="L70" s="47"/>
-      <c r="M70" s="80"/>
+      <c r="M70" s="77"/>
     </row>
     <row r="71" spans="1:13" s="44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="85"/>
-      <c r="B71" s="80"/>
-      <c r="C71" s="80"/>
+      <c r="A71" s="86"/>
+      <c r="B71" s="77"/>
+      <c r="C71" s="77"/>
       <c r="D71" s="68"/>
-      <c r="E71" s="75"/>
+      <c r="E71" s="80"/>
       <c r="F71" s="57" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="I71" s="66"/>
       <c r="J71" s="47"/>
       <c r="L71" s="47" t="s">
-        <v>348</v>
-      </c>
-      <c r="M71" s="80"/>
+        <v>344</v>
+      </c>
+      <c r="M71" s="77"/>
     </row>
     <row r="72" spans="1:13" s="44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="85"/>
-      <c r="B72" s="80"/>
-      <c r="C72" s="80"/>
+      <c r="A72" s="86"/>
+      <c r="B72" s="77"/>
+      <c r="C72" s="77"/>
       <c r="D72" s="68"/>
-      <c r="E72" s="75"/>
+      <c r="E72" s="80"/>
       <c r="F72" s="57" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="I72" s="66"/>
       <c r="J72" s="47"/>
       <c r="L72" s="47" t="s">
-        <v>354</v>
-      </c>
-      <c r="M72" s="80"/>
+        <v>350</v>
+      </c>
+      <c r="M72" s="77"/>
     </row>
     <row r="73" spans="1:13" s="44" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A73" s="85"/>
-      <c r="B73" s="80"/>
-      <c r="C73" s="80"/>
+      <c r="A73" s="86"/>
+      <c r="B73" s="77"/>
+      <c r="C73" s="77"/>
       <c r="D73" s="68"/>
-      <c r="E73" s="75"/>
+      <c r="E73" s="80"/>
       <c r="F73" s="57" t="s">
         <v>168</v>
       </c>
       <c r="I73" s="66"/>
       <c r="J73" s="47"/>
       <c r="L73" s="47" t="s">
-        <v>200</v>
-      </c>
-      <c r="M73" s="80"/>
+        <v>197</v>
+      </c>
+      <c r="M73" s="77"/>
     </row>
     <row r="74" spans="1:13" s="44" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A74" s="85"/>
-      <c r="B74" s="80"/>
-      <c r="C74" s="80"/>
+      <c r="A74" s="86"/>
+      <c r="B74" s="77"/>
+      <c r="C74" s="77"/>
       <c r="D74" s="68"/>
       <c r="E74" s="70"/>
       <c r="F74" s="57" t="s">
@@ -5935,27 +5948,27 @@
       <c r="I74" s="66"/>
       <c r="J74" s="47"/>
       <c r="L74" s="47" t="s">
-        <v>200</v>
-      </c>
-      <c r="M74" s="80"/>
+        <v>197</v>
+      </c>
+      <c r="M74" s="77"/>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A75" s="85"/>
-      <c r="B75" s="80"/>
-      <c r="C75" s="80"/>
+      <c r="A75" s="86"/>
+      <c r="B75" s="77"/>
+      <c r="C75" s="77"/>
       <c r="D75" s="69"/>
       <c r="F75" s="57"/>
-      <c r="M75" s="80"/>
+      <c r="M75" s="77"/>
     </row>
     <row r="76" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A76" s="85" t="s">
+      <c r="A76" s="86" t="s">
         <v>132</v>
       </c>
-      <c r="B76" s="85" t="s">
-        <v>285</v>
-      </c>
-      <c r="C76" s="85" t="s">
-        <v>286</v>
+      <c r="B76" s="86" t="s">
+        <v>281</v>
+      </c>
+      <c r="C76" s="86" t="s">
+        <v>282</v>
       </c>
       <c r="D76" s="50" t="s">
         <v>133</v>
@@ -5969,18 +5982,18 @@
       <c r="I76" s="66"/>
       <c r="J76" s="47"/>
       <c r="L76" s="47" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="M76" s="87" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
     </row>
     <row r="77" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A77" s="85"/>
-      <c r="B77" s="85"/>
-      <c r="C77" s="85"/>
+      <c r="A77" s="86"/>
+      <c r="B77" s="86"/>
+      <c r="C77" s="86"/>
       <c r="D77" s="50" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E77" s="70" t="s">
         <v>153</v>
@@ -5991,113 +6004,113 @@
       <c r="I77" s="66"/>
       <c r="J77" s="67"/>
       <c r="L77" s="67" t="s">
-        <v>348</v>
-      </c>
-      <c r="M77" s="80"/>
+        <v>344</v>
+      </c>
+      <c r="M77" s="77"/>
     </row>
     <row r="78" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="85" t="s">
+      <c r="A78" s="86" t="s">
         <v>141</v>
       </c>
-      <c r="B78" s="85" t="s">
-        <v>287</v>
-      </c>
-      <c r="C78" s="85" t="s">
-        <v>288</v>
-      </c>
-      <c r="D78" s="75" t="s">
-        <v>237</v>
+      <c r="B78" s="86" t="s">
+        <v>283</v>
+      </c>
+      <c r="C78" s="86" t="s">
+        <v>284</v>
+      </c>
+      <c r="D78" s="80" t="s">
+        <v>234</v>
       </c>
       <c r="E78" s="70"/>
-      <c r="F78" s="75" t="s">
-        <v>238</v>
+      <c r="F78" s="80" t="s">
+        <v>235</v>
       </c>
       <c r="I78" s="66"/>
       <c r="J78" s="67"/>
       <c r="L78" s="67" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="M78" s="87" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
     </row>
     <row r="79" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A79" s="85"/>
-      <c r="B79" s="85"/>
-      <c r="C79" s="85"/>
-      <c r="D79" s="75"/>
+      <c r="A79" s="86"/>
+      <c r="B79" s="86"/>
+      <c r="C79" s="86"/>
+      <c r="D79" s="80"/>
       <c r="E79" s="70"/>
-      <c r="F79" s="75"/>
+      <c r="F79" s="80"/>
       <c r="I79" s="66"/>
       <c r="J79" s="67"/>
       <c r="L79" s="67" t="s">
-        <v>348</v>
-      </c>
-      <c r="M79" s="80"/>
+        <v>344</v>
+      </c>
+      <c r="M79" s="77"/>
     </row>
     <row r="80" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A80" s="85"/>
-      <c r="B80" s="85"/>
-      <c r="C80" s="85"/>
-      <c r="D80" s="75"/>
+      <c r="A80" s="86"/>
+      <c r="B80" s="86"/>
+      <c r="C80" s="86"/>
+      <c r="D80" s="80"/>
       <c r="E80" s="70"/>
-      <c r="F80" s="75"/>
+      <c r="F80" s="80"/>
       <c r="I80" s="66"/>
       <c r="J80" s="67"/>
       <c r="L80" s="67" t="s">
-        <v>348</v>
-      </c>
-      <c r="M80" s="80"/>
+        <v>344</v>
+      </c>
+      <c r="M80" s="77"/>
     </row>
     <row r="81" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A81" s="85"/>
-      <c r="B81" s="85"/>
-      <c r="C81" s="85"/>
-      <c r="D81" s="75"/>
+      <c r="A81" s="86"/>
+      <c r="B81" s="86"/>
+      <c r="C81" s="86"/>
+      <c r="D81" s="80"/>
       <c r="E81" s="70"/>
-      <c r="F81" s="75"/>
+      <c r="F81" s="80"/>
       <c r="I81" s="66"/>
       <c r="J81" s="67"/>
       <c r="L81" s="67" t="s">
-        <v>348</v>
-      </c>
-      <c r="M81" s="80"/>
+        <v>344</v>
+      </c>
+      <c r="M81" s="77"/>
     </row>
     <row r="82" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A82" s="49" t="s">
         <v>146</v>
       </c>
       <c r="B82" s="56" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C82" s="49"/>
       <c r="D82" s="50" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="E82" s="70"/>
       <c r="F82" s="57" t="s">
         <v>123</v>
       </c>
       <c r="I82" s="66" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="J82" s="67" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="L82" s="67"/>
       <c r="M82" s="61" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
     </row>
     <row r="83" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A83" s="85" t="s">
-        <v>289</v>
-      </c>
-      <c r="B83" s="85" t="s">
-        <v>290</v>
-      </c>
-      <c r="C83" s="85" t="s">
-        <v>291</v>
+      <c r="A83" s="86" t="s">
+        <v>285</v>
+      </c>
+      <c r="B83" s="86" t="s">
+        <v>286</v>
+      </c>
+      <c r="C83" s="86" t="s">
+        <v>287</v>
       </c>
       <c r="D83" s="50" t="s">
         <v>152</v>
@@ -6109,87 +6122,87 @@
       <c r="I83" s="66"/>
       <c r="J83" s="67"/>
       <c r="L83" s="67" t="s">
-        <v>307</v>
-      </c>
-      <c r="M83" s="79" t="s">
-        <v>307</v>
+        <v>303</v>
+      </c>
+      <c r="M83" s="76" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="84" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A84" s="85"/>
-      <c r="B84" s="75"/>
-      <c r="C84" s="75"/>
-      <c r="D84" s="75" t="s">
+      <c r="A84" s="86"/>
+      <c r="B84" s="80"/>
+      <c r="C84" s="80"/>
+      <c r="D84" s="80" t="s">
         <v>153</v>
       </c>
       <c r="E84" s="70"/>
       <c r="F84" s="50" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="I84" s="66"/>
       <c r="J84" s="67"/>
       <c r="L84" s="67" t="s">
-        <v>307</v>
-      </c>
-      <c r="M84" s="80"/>
+        <v>303</v>
+      </c>
+      <c r="M84" s="77"/>
     </row>
     <row r="85" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A85" s="85"/>
-      <c r="B85" s="75"/>
-      <c r="C85" s="75"/>
-      <c r="D85" s="75"/>
+      <c r="A85" s="86"/>
+      <c r="B85" s="80"/>
+      <c r="C85" s="80"/>
+      <c r="D85" s="80"/>
       <c r="E85" s="70"/>
-      <c r="F85" s="75" t="s">
-        <v>241</v>
+      <c r="F85" s="80" t="s">
+        <v>238</v>
       </c>
       <c r="I85" s="66"/>
       <c r="J85" s="67"/>
       <c r="L85" s="67" t="s">
-        <v>307</v>
-      </c>
-      <c r="M85" s="80"/>
+        <v>303</v>
+      </c>
+      <c r="M85" s="77"/>
     </row>
     <row r="86" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A86" s="85"/>
-      <c r="B86" s="75"/>
-      <c r="C86" s="75"/>
-      <c r="D86" s="75"/>
+      <c r="A86" s="86"/>
+      <c r="B86" s="80"/>
+      <c r="C86" s="80"/>
+      <c r="D86" s="80"/>
       <c r="E86" s="70"/>
-      <c r="F86" s="75"/>
+      <c r="F86" s="80"/>
       <c r="I86" s="66"/>
       <c r="J86" s="67"/>
       <c r="L86" s="67" t="s">
-        <v>307</v>
-      </c>
-      <c r="M86" s="80"/>
+        <v>303</v>
+      </c>
+      <c r="M86" s="77"/>
     </row>
     <row r="87" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A87" s="85"/>
-      <c r="B87" s="75"/>
-      <c r="C87" s="75"/>
-      <c r="D87" s="75"/>
+      <c r="A87" s="86"/>
+      <c r="B87" s="80"/>
+      <c r="C87" s="80"/>
+      <c r="D87" s="80"/>
       <c r="E87" s="70"/>
-      <c r="F87" s="75"/>
+      <c r="F87" s="80"/>
       <c r="I87" s="66"/>
       <c r="J87" s="67"/>
       <c r="L87" s="67" t="s">
-        <v>307</v>
-      </c>
-      <c r="M87" s="80"/>
+        <v>303</v>
+      </c>
+      <c r="M87" s="77"/>
     </row>
     <row r="88" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A88" s="85"/>
-      <c r="B88" s="75"/>
-      <c r="C88" s="75"/>
-      <c r="D88" s="75"/>
+      <c r="A88" s="86"/>
+      <c r="B88" s="80"/>
+      <c r="C88" s="80"/>
+      <c r="D88" s="80"/>
       <c r="E88" s="70"/>
-      <c r="F88" s="75"/>
+      <c r="F88" s="80"/>
       <c r="I88" s="66"/>
       <c r="J88" s="67"/>
       <c r="L88" s="67" t="s">
-        <v>307</v>
-      </c>
-      <c r="M88" s="80"/>
+        <v>303</v>
+      </c>
+      <c r="M88" s="77"/>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" s="58"/>
@@ -6255,65 +6268,8 @@
       <c r="E97" s="70"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:M88" xr:uid="{18B464E1-161A-4AA4-A8AA-4DE9E957BFAF}"/>
   <mergeCells count="74">
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="E56:E60"/>
-    <mergeCell ref="E63:E67"/>
-    <mergeCell ref="E69:E73"/>
-    <mergeCell ref="M76:M77"/>
-    <mergeCell ref="F64:F65"/>
-    <mergeCell ref="M78:M81"/>
-    <mergeCell ref="M83:M88"/>
-    <mergeCell ref="M37:M38"/>
-    <mergeCell ref="M39:M53"/>
-    <mergeCell ref="M54:M63"/>
-    <mergeCell ref="M64:M67"/>
-    <mergeCell ref="M68:M75"/>
-    <mergeCell ref="M3:M7"/>
-    <mergeCell ref="M9:M15"/>
-    <mergeCell ref="M16:M24"/>
-    <mergeCell ref="M25:M28"/>
-    <mergeCell ref="M29:M36"/>
-    <mergeCell ref="A3:A8"/>
-    <mergeCell ref="A16:A24"/>
-    <mergeCell ref="A9:A15"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="B3:B8"/>
-    <mergeCell ref="C3:C8"/>
-    <mergeCell ref="B9:B15"/>
-    <mergeCell ref="C9:C15"/>
-    <mergeCell ref="B16:B24"/>
-    <mergeCell ref="C16:C24"/>
-    <mergeCell ref="F3:F7"/>
-    <mergeCell ref="F9:F11"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="D3:D7"/>
-    <mergeCell ref="D9:D11"/>
-    <mergeCell ref="E3:E7"/>
-    <mergeCell ref="E9:E11"/>
-    <mergeCell ref="D64:D67"/>
-    <mergeCell ref="A25:A28"/>
-    <mergeCell ref="A29:A36"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="A39:A53"/>
-    <mergeCell ref="A54:A63"/>
-    <mergeCell ref="A64:A67"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="D31:D36"/>
-    <mergeCell ref="D42:D53"/>
-    <mergeCell ref="D57:D63"/>
-    <mergeCell ref="B25:B28"/>
-    <mergeCell ref="C25:C28"/>
-    <mergeCell ref="B29:B36"/>
-    <mergeCell ref="C29:C36"/>
-    <mergeCell ref="A68:A75"/>
-    <mergeCell ref="A76:A77"/>
-    <mergeCell ref="A78:A81"/>
-    <mergeCell ref="A83:A88"/>
-    <mergeCell ref="D84:D88"/>
-    <mergeCell ref="B83:B88"/>
-    <mergeCell ref="C83:C88"/>
-    <mergeCell ref="C76:C77"/>
     <mergeCell ref="F78:F81"/>
     <mergeCell ref="D78:D81"/>
     <mergeCell ref="F85:F88"/>
@@ -6330,6 +6286,64 @@
     <mergeCell ref="B68:B75"/>
     <mergeCell ref="C68:C75"/>
     <mergeCell ref="B76:B77"/>
+    <mergeCell ref="A68:A75"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="A78:A81"/>
+    <mergeCell ref="A83:A88"/>
+    <mergeCell ref="D84:D88"/>
+    <mergeCell ref="B83:B88"/>
+    <mergeCell ref="C83:C88"/>
+    <mergeCell ref="C76:C77"/>
+    <mergeCell ref="D64:D67"/>
+    <mergeCell ref="A25:A28"/>
+    <mergeCell ref="A29:A36"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="A39:A53"/>
+    <mergeCell ref="A54:A63"/>
+    <mergeCell ref="A64:A67"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="D31:D36"/>
+    <mergeCell ref="D42:D53"/>
+    <mergeCell ref="D57:D63"/>
+    <mergeCell ref="B25:B28"/>
+    <mergeCell ref="C25:C28"/>
+    <mergeCell ref="B29:B36"/>
+    <mergeCell ref="C29:C36"/>
+    <mergeCell ref="F3:F7"/>
+    <mergeCell ref="F9:F11"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="D3:D7"/>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="E3:E7"/>
+    <mergeCell ref="E9:E11"/>
+    <mergeCell ref="A3:A8"/>
+    <mergeCell ref="A16:A24"/>
+    <mergeCell ref="A9:A15"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="B3:B8"/>
+    <mergeCell ref="C3:C8"/>
+    <mergeCell ref="B9:B15"/>
+    <mergeCell ref="C9:C15"/>
+    <mergeCell ref="B16:B24"/>
+    <mergeCell ref="C16:C24"/>
+    <mergeCell ref="M3:M7"/>
+    <mergeCell ref="M9:M15"/>
+    <mergeCell ref="M16:M24"/>
+    <mergeCell ref="M25:M28"/>
+    <mergeCell ref="M29:M36"/>
+    <mergeCell ref="M78:M81"/>
+    <mergeCell ref="M83:M88"/>
+    <mergeCell ref="M37:M38"/>
+    <mergeCell ref="M39:M53"/>
+    <mergeCell ref="M54:M63"/>
+    <mergeCell ref="M64:M67"/>
+    <mergeCell ref="M68:M75"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="E56:E60"/>
+    <mergeCell ref="E63:E67"/>
+    <mergeCell ref="E69:E73"/>
+    <mergeCell ref="M76:M77"/>
+    <mergeCell ref="F64:F65"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="M2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>

--- a/Corpus/MLR_Corpus.xlsx
+++ b/Corpus/MLR_Corpus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workouts\Projects\Acadia\Masori-Chatbot-Dev-main\Masori-Chatbot-Dev-main\Corpus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53475881-60A4-45A0-A01F-11E4D5FDE24D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD2F1805-C880-49E1-938F-F074EAE0D3E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -245,7 +245,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="362">
   <si>
     <t>Keywords</t>
   </si>
@@ -783,16 +783,7 @@
     <t>NUPLAZID medication</t>
   </si>
   <si>
-    <t>symptoms of Parkinson’s disease</t>
-  </si>
-  <si>
     <t>About Parkinson’s Disease</t>
-  </si>
-  <si>
-    <t>Parkinson’s condition</t>
-  </si>
-  <si>
-    <t>management of Parkinson’s</t>
   </si>
   <si>
     <t>Around 50% of people with Parkinson's disease may experience hallucinations and/or delusions over the course of their disease</t>
@@ -2227,9 +2218,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D2" sqref="D2"/>
+      <selection pane="topRight" activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2249,60 +2240,60 @@
         <v>1</v>
       </c>
       <c r="B1" s="45" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C1" s="45" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D1" s="51" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E1" s="51" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G1" s="45" t="s">
+        <v>333</v>
+      </c>
+      <c r="H1" s="45" t="s">
+        <v>334</v>
+      </c>
+      <c r="I1" s="45" t="s">
+        <v>335</v>
+      </c>
+      <c r="J1" s="45" t="s">
         <v>336</v>
       </c>
-      <c r="H1" s="45" t="s">
+      <c r="K1" s="45" t="s">
         <v>337</v>
       </c>
-      <c r="I1" s="45" t="s">
-        <v>338</v>
-      </c>
-      <c r="J1" s="45" t="s">
-        <v>339</v>
-      </c>
-      <c r="K1" s="45" t="s">
-        <v>340</v>
-      </c>
       <c r="L1" s="45" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="31" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" s="81" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B2" s="81" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C2" s="81" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="D2" s="58" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="E2" s="74" t="s">
         <v>10</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="G2" s="66"/>
       <c r="H2" s="66"/>
@@ -2310,10 +2301,10 @@
       <c r="J2" s="66"/>
       <c r="K2" s="66"/>
       <c r="L2" s="67" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="M2" s="79" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="3" spans="1:13" s="31" customFormat="1" ht="120" x14ac:dyDescent="0.25">
@@ -2324,10 +2315,10 @@
         <v>10</v>
       </c>
       <c r="E3" s="74" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="F3" s="32" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G3" s="66"/>
       <c r="H3" s="66"/>
@@ -2335,7 +2326,7 @@
       <c r="J3" s="66"/>
       <c r="K3" s="66"/>
       <c r="L3" s="67" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="M3" s="77"/>
     </row>
@@ -2344,13 +2335,13 @@
       <c r="B4" s="80"/>
       <c r="C4" s="82"/>
       <c r="D4" s="58" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="E4" s="74" t="s">
-        <v>174</v>
+        <v>354</v>
       </c>
       <c r="F4" s="32" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="G4" s="66"/>
       <c r="H4" s="66"/>
@@ -2358,7 +2349,7 @@
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
       <c r="L4" s="67" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="M4" s="77"/>
     </row>
@@ -2367,19 +2358,19 @@
         <v>172</v>
       </c>
       <c r="B5" s="80" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C5" s="80" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D5" s="58" t="s">
         <v>173</v>
       </c>
       <c r="E5" s="74" t="s">
-        <v>20</v>
+        <v>355</v>
       </c>
       <c r="F5" s="32" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G5" s="66"/>
       <c r="H5" s="66"/>
@@ -2387,10 +2378,10 @@
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
       <c r="L5" s="67" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="M5" s="76" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="120" x14ac:dyDescent="0.25">
@@ -2398,13 +2389,13 @@
       <c r="B6" s="83"/>
       <c r="C6" s="83"/>
       <c r="D6" s="58" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="E6" s="74" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="F6" s="33" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="G6" s="66"/>
       <c r="H6" s="66"/>
@@ -2412,28 +2403,28 @@
       <c r="J6" s="66"/>
       <c r="K6" s="66"/>
       <c r="L6" s="67" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="M6" s="77"/>
     </row>
     <row r="7" spans="1:13" s="44" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A7" s="80" t="s">
+        <v>319</v>
+      </c>
+      <c r="B7" s="80" t="s">
+        <v>320</v>
+      </c>
+      <c r="C7" s="80" t="s">
+        <v>325</v>
+      </c>
+      <c r="D7" s="62" t="s">
+        <v>321</v>
+      </c>
+      <c r="E7" s="74" t="s">
+        <v>323</v>
+      </c>
+      <c r="F7" s="62" t="s">
         <v>322</v>
-      </c>
-      <c r="B7" s="80" t="s">
-        <v>323</v>
-      </c>
-      <c r="C7" s="80" t="s">
-        <v>328</v>
-      </c>
-      <c r="D7" s="62" t="s">
-        <v>324</v>
-      </c>
-      <c r="E7" s="74" t="s">
-        <v>326</v>
-      </c>
-      <c r="F7" s="62" t="s">
-        <v>325</v>
       </c>
       <c r="G7" s="66"/>
       <c r="H7" s="66"/>
@@ -2441,10 +2432,10 @@
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
       <c r="L7" s="67" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="M7" s="76" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
     </row>
     <row r="8" spans="1:13" s="44" customFormat="1" ht="150" x14ac:dyDescent="0.25">
@@ -2452,13 +2443,13 @@
       <c r="B8" s="80"/>
       <c r="C8" s="80"/>
       <c r="D8" s="62" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="E8" s="74" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F8" s="62" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="G8" s="66"/>
       <c r="H8" s="66"/>
@@ -2466,7 +2457,7 @@
       <c r="J8" s="66"/>
       <c r="K8" s="66"/>
       <c r="L8" s="67" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="M8" s="77"/>
     </row>
@@ -2475,11 +2466,11 @@
       <c r="B9" s="80"/>
       <c r="C9" s="80"/>
       <c r="D9" s="62" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="E9" s="74"/>
       <c r="F9" s="62" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="G9" s="66"/>
       <c r="H9" s="66"/>
@@ -2487,7 +2478,7 @@
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
       <c r="L9" s="67" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="M9" s="77"/>
     </row>
@@ -2508,18 +2499,18 @@
     </row>
     <row r="11" spans="1:13" s="44" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="62" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B11" s="62" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C11" s="62" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="D11" s="62"/>
       <c r="E11" s="74"/>
       <c r="F11" s="62" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="G11" s="66"/>
       <c r="H11" s="66"/>
@@ -2527,10 +2518,10 @@
       <c r="J11" s="66"/>
       <c r="K11" s="66"/>
       <c r="L11" s="73" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="M11" s="64" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
     </row>
     <row r="12" spans="1:13" s="44" customFormat="1" x14ac:dyDescent="0.25">
@@ -2580,22 +2571,22 @@
     </row>
     <row r="15" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="83" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B15" s="80" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C15" s="80" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D15" s="58" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="E15" s="74" t="s">
-        <v>176</v>
+        <v>357</v>
       </c>
       <c r="F15" s="32" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G15" s="66"/>
       <c r="H15" s="66"/>
@@ -2603,10 +2594,10 @@
       <c r="J15" s="66"/>
       <c r="K15" s="66"/>
       <c r="L15" s="67" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="M15" s="76" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="30" x14ac:dyDescent="0.25">
@@ -2614,13 +2605,13 @@
       <c r="B16" s="83"/>
       <c r="C16" s="83"/>
       <c r="D16" s="58" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="E16" s="74" t="s">
-        <v>177</v>
+        <v>358</v>
       </c>
       <c r="F16" s="34" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="G16" s="66"/>
       <c r="H16" s="66"/>
@@ -2628,7 +2619,7 @@
       <c r="J16" s="66"/>
       <c r="K16" s="66"/>
       <c r="L16" s="67" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="M16" s="77"/>
     </row>
@@ -2637,13 +2628,13 @@
       <c r="B17" s="83"/>
       <c r="C17" s="83"/>
       <c r="D17" s="58" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="E17" s="74" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F17" s="32" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="G17" s="66"/>
       <c r="H17" s="66"/>
@@ -2651,7 +2642,7 @@
       <c r="J17" s="66"/>
       <c r="K17" s="66"/>
       <c r="L17" s="67" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="M17" s="77"/>
     </row>
@@ -2667,28 +2658,28 @@
       <c r="J18" s="42"/>
       <c r="K18" s="42"/>
       <c r="L18" s="75" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="M18" s="77"/>
     </row>
     <row r="19" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="83" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B19" s="80" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C19" s="80" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D19" s="58" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="E19" s="74" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F19" s="35" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G19" s="66"/>
       <c r="H19" s="66"/>
@@ -2696,10 +2687,10 @@
       <c r="J19" s="66"/>
       <c r="K19" s="66"/>
       <c r="L19" s="67" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="M19" s="76" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="30" x14ac:dyDescent="0.25">
@@ -2707,13 +2698,13 @@
       <c r="B20" s="80"/>
       <c r="C20" s="83"/>
       <c r="D20" s="58" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="E20" s="74" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F20" s="41" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="G20" s="66"/>
       <c r="H20" s="66"/>
@@ -2721,7 +2712,7 @@
       <c r="J20" s="66"/>
       <c r="K20" s="66"/>
       <c r="L20" s="67" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="M20" s="77"/>
     </row>
@@ -2730,10 +2721,10 @@
       <c r="B21" s="80"/>
       <c r="C21" s="83"/>
       <c r="D21" s="58" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="F21" s="41" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G21" s="66"/>
       <c r="H21" s="66"/>
@@ -2741,7 +2732,7 @@
       <c r="J21" s="66"/>
       <c r="K21" s="66"/>
       <c r="L21" s="67" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="M21" s="77"/>
     </row>
@@ -2750,13 +2741,13 @@
       <c r="B22" s="80"/>
       <c r="C22" s="83"/>
       <c r="D22" s="58" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E22" s="74" t="s">
         <v>172</v>
       </c>
       <c r="F22" s="32" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G22" s="66"/>
       <c r="H22" s="66"/>
@@ -2764,25 +2755,25 @@
       <c r="J22" s="66"/>
       <c r="K22" s="66"/>
       <c r="L22" s="67" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="M22" s="77"/>
     </row>
     <row r="23" spans="1:13" ht="90" x14ac:dyDescent="0.25">
       <c r="A23" s="83" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B23" s="80" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C23" s="80" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D23" s="58" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F23" s="36" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="G23" s="66"/>
       <c r="H23" s="66"/>
@@ -2790,10 +2781,10 @@
       <c r="J23" s="66"/>
       <c r="K23" s="66"/>
       <c r="L23" s="67" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="M23" s="76" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="135" x14ac:dyDescent="0.25">
@@ -2804,10 +2795,10 @@
         <v>18</v>
       </c>
       <c r="E24" s="74" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="F24" s="41" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="G24" s="66"/>
       <c r="H24" s="66"/>
@@ -2815,7 +2806,7 @@
       <c r="J24" s="66"/>
       <c r="K24" s="66"/>
       <c r="L24" s="67" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="M24" s="77"/>
     </row>
@@ -2824,13 +2815,13 @@
       <c r="B25" s="80"/>
       <c r="C25" s="83"/>
       <c r="D25" s="58" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="E25" s="74" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F25" s="32" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="G25" s="66"/>
       <c r="H25" s="66"/>
@@ -2838,7 +2829,7 @@
       <c r="J25" s="66"/>
       <c r="K25" s="66"/>
       <c r="L25" s="67" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="M25" s="77"/>
     </row>
@@ -2854,28 +2845,28 @@
       <c r="J26" s="43"/>
       <c r="K26" s="43"/>
       <c r="L26" s="67" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="M26" s="77"/>
     </row>
     <row r="27" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="83" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B27" s="80" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C27" s="78" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D27" s="58" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E27" s="74" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="F27" s="32" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G27" s="66"/>
       <c r="H27" s="66"/>
@@ -2883,10 +2874,10 @@
       <c r="J27" s="66"/>
       <c r="K27" s="66"/>
       <c r="L27" s="67" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="M27" s="76" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="30" x14ac:dyDescent="0.25">
@@ -2894,13 +2885,13 @@
       <c r="B28" s="80"/>
       <c r="C28" s="78"/>
       <c r="D28" s="58" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E28" s="74" t="s">
         <v>132</v>
       </c>
       <c r="F28" s="32" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="G28" s="66"/>
       <c r="H28" s="66"/>
@@ -2908,7 +2899,7 @@
       <c r="J28" s="66"/>
       <c r="K28" s="66"/>
       <c r="L28" s="67" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="M28" s="77"/>
     </row>
@@ -2924,13 +2915,13 @@
       <c r="J29" s="42"/>
       <c r="K29" s="42"/>
       <c r="L29" s="75" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="M29" s="77"/>
     </row>
     <row r="30" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="83" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C30" s="60"/>
       <c r="F30" s="37"/>
@@ -2940,25 +2931,25 @@
       <c r="J30" s="66"/>
       <c r="K30" s="66"/>
       <c r="L30" s="67" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="M30" s="76" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="165" x14ac:dyDescent="0.25">
       <c r="A31" s="83"/>
       <c r="B31" s="80" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C31" s="80" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E31" s="74" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F31" s="32" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="G31" s="66"/>
       <c r="H31" s="66"/>
@@ -2966,7 +2957,7 @@
       <c r="J31" s="66"/>
       <c r="K31" s="66"/>
       <c r="L31" s="67" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="M31" s="77"/>
     </row>
@@ -2975,10 +2966,10 @@
       <c r="B32" s="83"/>
       <c r="C32" s="80"/>
       <c r="D32" s="58" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="F32" s="41" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="G32" s="66"/>
       <c r="H32" s="66"/>
@@ -2986,7 +2977,7 @@
       <c r="J32" s="66"/>
       <c r="K32" s="66"/>
       <c r="L32" s="67" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="M32" s="77"/>
     </row>
@@ -2995,10 +2986,10 @@
       <c r="B33" s="83"/>
       <c r="C33" s="80"/>
       <c r="D33" s="43" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="F33" s="43" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G33" s="43"/>
       <c r="H33" s="43"/>
@@ -3006,7 +2997,7 @@
       <c r="J33" s="43"/>
       <c r="K33" s="43"/>
       <c r="L33" s="67" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="M33" s="77"/>
     </row>
@@ -3018,10 +3009,10 @@
         <v>172</v>
       </c>
       <c r="E34" s="74" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="F34" s="43" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="G34" s="43"/>
       <c r="H34" s="43"/>
@@ -3029,7 +3020,7 @@
       <c r="J34" s="43"/>
       <c r="K34" s="43"/>
       <c r="L34" s="67" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="M34" s="77"/>
     </row>
@@ -3038,13 +3029,13 @@
       <c r="B35" s="83"/>
       <c r="C35" s="80"/>
       <c r="D35" s="43" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="E35" s="74" t="s">
         <v>132</v>
       </c>
       <c r="F35" s="43" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G35" s="43"/>
       <c r="H35" s="43"/>
@@ -3052,7 +3043,7 @@
       <c r="J35" s="43"/>
       <c r="K35" s="43"/>
       <c r="L35" s="67" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="M35" s="77"/>
     </row>
@@ -3064,10 +3055,10 @@
         <v>132</v>
       </c>
       <c r="E36" s="74" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="F36" s="43" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="G36" s="43"/>
       <c r="H36" s="43"/>
@@ -3075,28 +3066,28 @@
       <c r="J36" s="43"/>
       <c r="K36" s="43"/>
       <c r="L36" s="67" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="M36" s="77"/>
     </row>
     <row r="37" spans="1:13" ht="90" x14ac:dyDescent="0.25">
       <c r="A37" s="80" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B37" s="80" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C37" s="80" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D37" s="58" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E37" s="74" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="F37" s="32" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G37" s="66"/>
       <c r="H37" s="66"/>
@@ -3104,10 +3095,10 @@
       <c r="J37" s="66"/>
       <c r="K37" s="66"/>
       <c r="L37" s="67" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="M37" s="76" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="38" spans="1:13" ht="105" x14ac:dyDescent="0.25">
@@ -3115,13 +3106,13 @@
       <c r="B38" s="80"/>
       <c r="C38" s="83"/>
       <c r="D38" s="58" t="s">
+        <v>188</v>
+      </c>
+      <c r="E38" s="74" t="s">
         <v>191</v>
       </c>
-      <c r="E38" s="74" t="s">
-        <v>194</v>
-      </c>
       <c r="F38" s="32" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G38" s="66"/>
       <c r="H38" s="66"/>
@@ -3129,7 +3120,7 @@
       <c r="J38" s="66"/>
       <c r="K38" s="66"/>
       <c r="L38" s="67" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="M38" s="77"/>
     </row>
@@ -3138,13 +3129,13 @@
       <c r="B39" s="80"/>
       <c r="C39" s="83"/>
       <c r="D39" s="58" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="F39" s="38" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="L39" s="67" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="M39" s="77"/>
     </row>
@@ -3153,13 +3144,13 @@
       <c r="B40" s="80"/>
       <c r="C40" s="83"/>
       <c r="D40" s="58" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F40" s="38" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="L40" s="67" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="M40" s="77"/>
     </row>
@@ -3168,13 +3159,13 @@
       <c r="B41" s="80"/>
       <c r="C41" s="83"/>
       <c r="D41" s="58" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E41" s="74" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="F41" s="39" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="G41" s="66"/>
       <c r="H41" s="66"/>
@@ -3182,7 +3173,7 @@
       <c r="J41" s="66"/>
       <c r="K41" s="66"/>
       <c r="L41" s="67" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="M41" s="77"/>
     </row>
@@ -3191,13 +3182,13 @@
       <c r="B42" s="80"/>
       <c r="C42" s="83"/>
       <c r="D42" s="58" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E42" s="74" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="F42" s="32" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="G42" s="66"/>
       <c r="H42" s="66"/>
@@ -3205,7 +3196,7 @@
       <c r="J42" s="66"/>
       <c r="K42" s="66"/>
       <c r="L42" s="67" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="M42" s="77"/>
     </row>
@@ -3214,13 +3205,13 @@
       <c r="B43" s="80"/>
       <c r="C43" s="83"/>
       <c r="D43" s="58" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="E43" s="74" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="F43" s="41" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="G43" s="66"/>
       <c r="H43" s="66"/>
@@ -3228,7 +3219,7 @@
       <c r="J43" s="66"/>
       <c r="K43" s="66"/>
       <c r="L43" s="67" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="M43" s="77"/>
     </row>
@@ -3249,25 +3240,25 @@
     </row>
     <row r="45" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A45" s="59" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B45" s="57" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C45" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="D45" s="58" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="F45" s="40" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="L45" s="47" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="M45" s="47" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
@@ -3283,6 +3274,7 @@
       <c r="F47" s="40"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:M11" xr:uid="{76ECA6C0-BC80-4DB9-9512-79EF84769A51}"/>
   <mergeCells count="36">
     <mergeCell ref="B31:B36"/>
     <mergeCell ref="B23:B26"/>
@@ -4446,40 +4438,40 @@
         <v>1</v>
       </c>
       <c r="B1" s="48" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C1" s="48" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D1" s="51" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E1" s="51" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="F1" s="51" t="s">
         <v>12</v>
       </c>
       <c r="G1" s="45" t="s">
+        <v>333</v>
+      </c>
+      <c r="H1" s="45" t="s">
+        <v>334</v>
+      </c>
+      <c r="I1" s="45" t="s">
+        <v>335</v>
+      </c>
+      <c r="J1" s="45" t="s">
         <v>336</v>
       </c>
-      <c r="H1" s="45" t="s">
+      <c r="K1" s="45" t="s">
         <v>337</v>
       </c>
-      <c r="I1" s="45" t="s">
-        <v>338</v>
-      </c>
-      <c r="J1" s="45" t="s">
-        <v>339</v>
-      </c>
-      <c r="K1" s="45" t="s">
-        <v>340</v>
-      </c>
       <c r="L1" s="45" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="M1" s="45" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="60" x14ac:dyDescent="0.25">
@@ -4487,13 +4479,13 @@
         <v>2</v>
       </c>
       <c r="B2" s="52" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C2" s="52" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D2" s="54" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="E2" s="71" t="s">
         <v>21</v>
@@ -4518,10 +4510,10 @@
         <v>16</v>
       </c>
       <c r="B3" s="86" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C3" s="86" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D3" s="80" t="s">
         <v>21</v>
@@ -4530,7 +4522,7 @@
         <v>22</v>
       </c>
       <c r="F3" s="80" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="G3" s="66"/>
       <c r="H3" s="66"/>
@@ -4538,10 +4530,10 @@
       <c r="J3" s="67"/>
       <c r="K3" s="66"/>
       <c r="L3" s="67" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="M3" s="76" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -4557,7 +4549,7 @@
       <c r="J4" s="67"/>
       <c r="K4" s="66"/>
       <c r="L4" s="67" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="M4" s="77"/>
     </row>
@@ -4574,7 +4566,7 @@
       <c r="J5" s="67"/>
       <c r="K5" s="66"/>
       <c r="L5" s="67" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="M5" s="77"/>
     </row>
@@ -4591,7 +4583,7 @@
       <c r="J6" s="67"/>
       <c r="K6" s="66"/>
       <c r="L6" s="67" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="M6" s="77"/>
     </row>
@@ -4608,7 +4600,7 @@
       <c r="J7" s="67"/>
       <c r="K7" s="66"/>
       <c r="L7" s="67" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="M7" s="77"/>
     </row>
@@ -4621,15 +4613,15 @@
       </c>
       <c r="E8" s="70"/>
       <c r="F8" s="50" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="G8" s="66"/>
       <c r="H8" s="66"/>
       <c r="I8" s="66" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="J8" s="66" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="K8" s="66"/>
       <c r="L8" s="72"/>
@@ -4637,13 +4629,13 @@
     </row>
     <row r="9" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="85" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B9" s="88" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C9" s="86" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="D9" s="80" t="s">
         <v>27</v>
@@ -4791,10 +4783,10 @@
         <v>41</v>
       </c>
       <c r="B16" s="86" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C16" s="86" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D16" s="50" t="s">
         <v>42</v>
@@ -4907,7 +4899,7 @@
         <v>46</v>
       </c>
       <c r="E21" s="80" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="F21" s="50" t="s">
         <v>51</v>
@@ -4927,7 +4919,7 @@
       <c r="B22" s="86"/>
       <c r="C22" s="86"/>
       <c r="D22" s="80" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="E22" s="80"/>
       <c r="F22" s="50" t="s">
@@ -4949,7 +4941,7 @@
       <c r="C23" s="86"/>
       <c r="D23" s="80"/>
       <c r="E23" s="70" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F23" s="50" t="s">
         <v>55</v>
@@ -4969,7 +4961,7 @@
       <c r="B24" s="86"/>
       <c r="C24" s="86"/>
       <c r="D24" s="50" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="E24" s="70" t="s">
         <v>107</v>
@@ -4992,10 +4984,10 @@
         <v>58</v>
       </c>
       <c r="B25" s="86" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C25" s="86" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D25" s="44"/>
       <c r="F25" s="50"/>
@@ -5038,7 +5030,7 @@
       <c r="C27" s="86"/>
       <c r="D27" s="80"/>
       <c r="E27" s="70" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F27" s="50" t="s">
         <v>61</v>
@@ -5058,7 +5050,7 @@
       <c r="B28" s="86"/>
       <c r="C28" s="86"/>
       <c r="D28" s="50" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E28" s="70"/>
       <c r="F28" s="50" t="s">
@@ -5079,13 +5071,13 @@
         <v>66</v>
       </c>
       <c r="B29" s="86" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C29" s="86" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D29" s="50" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="E29" s="70"/>
       <c r="F29" s="50" t="s">
@@ -5097,10 +5089,10 @@
       <c r="J29" s="67"/>
       <c r="K29" s="42"/>
       <c r="L29" s="67" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="M29" s="76" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="30" x14ac:dyDescent="0.25">
@@ -5122,7 +5114,7 @@
       <c r="J30" s="67"/>
       <c r="K30" s="66"/>
       <c r="L30" s="67" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="M30" s="77"/>
     </row>
@@ -5143,7 +5135,7 @@
       <c r="J31" s="67"/>
       <c r="K31" s="66"/>
       <c r="L31" s="67" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="M31" s="77"/>
     </row>
@@ -5162,7 +5154,7 @@
       <c r="J32" s="67"/>
       <c r="K32" s="66"/>
       <c r="L32" s="67" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="M32" s="77"/>
     </row>
@@ -5181,7 +5173,7 @@
       <c r="J33" s="67"/>
       <c r="K33" s="43"/>
       <c r="L33" s="67" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="M33" s="77"/>
     </row>
@@ -5200,7 +5192,7 @@
       <c r="J34" s="67"/>
       <c r="K34" s="43"/>
       <c r="L34" s="67" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="M34" s="77"/>
     </row>
@@ -5219,7 +5211,7 @@
       <c r="J35" s="67"/>
       <c r="K35" s="43"/>
       <c r="L35" s="67" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="M35" s="77"/>
     </row>
@@ -5232,7 +5224,7 @@
         <v>107</v>
       </c>
       <c r="F36" s="50" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G36" s="43"/>
       <c r="H36" s="43"/>
@@ -5240,7 +5232,7 @@
       <c r="J36" s="67"/>
       <c r="K36" s="43"/>
       <c r="L36" s="67" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="M36" s="77"/>
     </row>
@@ -5249,19 +5241,19 @@
         <v>77</v>
       </c>
       <c r="B37" s="86" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C37" s="86" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D37" s="50" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="E37" s="70" t="s">
         <v>107</v>
       </c>
       <c r="F37" s="50" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="G37" s="66"/>
       <c r="H37" s="67" t="s">
@@ -5272,7 +5264,7 @@
       <c r="K37" s="66"/>
       <c r="L37" s="72"/>
       <c r="M37" s="76" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="38" spans="1:13" ht="45" x14ac:dyDescent="0.25">
@@ -5280,11 +5272,11 @@
       <c r="B38" s="86"/>
       <c r="C38" s="86"/>
       <c r="D38" s="50" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="E38" s="70"/>
       <c r="F38" s="50" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="G38" s="66"/>
       <c r="H38" s="66"/>
@@ -5292,7 +5284,7 @@
       <c r="J38" s="67"/>
       <c r="K38" s="66"/>
       <c r="L38" s="67" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="M38" s="77"/>
     </row>
@@ -5301,10 +5293,10 @@
         <v>80</v>
       </c>
       <c r="B39" s="86" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C39" s="86" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="D39" s="50" t="s">
         <v>81</v>
@@ -5313,15 +5305,15 @@
         <v>107</v>
       </c>
       <c r="F39" s="50" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="I39" s="66"/>
       <c r="J39" s="47"/>
       <c r="L39" s="47" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="M39" s="76" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
@@ -5338,7 +5330,7 @@
       <c r="I40" s="66"/>
       <c r="J40" s="47"/>
       <c r="L40" s="47" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="M40" s="77"/>
     </row>
@@ -5361,7 +5353,7 @@
       <c r="J41" s="47"/>
       <c r="K41" s="66"/>
       <c r="L41" s="47" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="M41" s="77"/>
     </row>
@@ -5374,7 +5366,7 @@
       </c>
       <c r="E42" s="70"/>
       <c r="F42" s="50" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G42" s="66"/>
       <c r="H42" s="66"/>
@@ -5382,7 +5374,7 @@
       <c r="J42" s="47"/>
       <c r="K42" s="66"/>
       <c r="L42" s="47" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="M42" s="77"/>
     </row>
@@ -5401,7 +5393,7 @@
       <c r="J43" s="47"/>
       <c r="K43" s="66"/>
       <c r="L43" s="47" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="M43" s="77"/>
     </row>
@@ -5420,7 +5412,7 @@
       <c r="J44" s="47"/>
       <c r="K44" s="66"/>
       <c r="L44" s="47" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="M44" s="77"/>
     </row>
@@ -5436,7 +5428,7 @@
       <c r="I45" s="66"/>
       <c r="J45" s="47"/>
       <c r="L45" s="47" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="M45" s="77"/>
     </row>
@@ -5452,7 +5444,7 @@
       <c r="I46" s="66"/>
       <c r="J46" s="47"/>
       <c r="L46" s="47" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="M46" s="77"/>
     </row>
@@ -5468,7 +5460,7 @@
       <c r="I47" s="66"/>
       <c r="J47" s="47"/>
       <c r="L47" s="47" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="M47" s="77"/>
     </row>
@@ -5484,7 +5476,7 @@
       <c r="I48" s="66"/>
       <c r="J48" s="47"/>
       <c r="L48" s="47" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="M48" s="77"/>
     </row>
@@ -5500,7 +5492,7 @@
       <c r="I49" s="66"/>
       <c r="J49" s="47"/>
       <c r="L49" s="47" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="M49" s="77"/>
     </row>
@@ -5516,7 +5508,7 @@
       <c r="I50" s="66"/>
       <c r="J50" s="47"/>
       <c r="L50" s="47" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="M50" s="77"/>
     </row>
@@ -5532,7 +5524,7 @@
       <c r="I51" s="66"/>
       <c r="J51" s="47"/>
       <c r="L51" s="47" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="M51" s="77"/>
     </row>
@@ -5548,7 +5540,7 @@
       <c r="I52" s="66"/>
       <c r="J52" s="47"/>
       <c r="L52" s="47" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="M52" s="77"/>
     </row>
@@ -5564,19 +5556,19 @@
       <c r="I53" s="66"/>
       <c r="J53" s="47"/>
       <c r="L53" s="47" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="M53" s="77"/>
     </row>
     <row r="54" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="86" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B54" s="86" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C54" s="86" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D54" s="50" t="s">
         <v>105</v>
@@ -5588,10 +5580,10 @@
       <c r="I54" s="66"/>
       <c r="J54" s="67"/>
       <c r="L54" s="67" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="M54" s="87" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
@@ -5603,12 +5595,12 @@
       </c>
       <c r="E55" s="70"/>
       <c r="F55" s="50" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="I55" s="66"/>
       <c r="J55" s="47"/>
       <c r="L55" s="47" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="M55" s="77"/>
     </row>
@@ -5628,7 +5620,7 @@
       <c r="I56" s="66"/>
       <c r="J56" s="67"/>
       <c r="L56" s="67" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="M56" s="77"/>
     </row>
@@ -5641,12 +5633,12 @@
       </c>
       <c r="E57" s="80"/>
       <c r="F57" s="50" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="I57" s="66"/>
       <c r="J57" s="47"/>
       <c r="L57" s="47" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="M57" s="77"/>
     </row>
@@ -5662,7 +5654,7 @@
       <c r="I58" s="66"/>
       <c r="J58" s="47"/>
       <c r="L58" s="47" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="M58" s="77"/>
     </row>
@@ -5678,7 +5670,7 @@
       <c r="I59" s="66"/>
       <c r="J59" s="47"/>
       <c r="L59" s="47" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="M59" s="77"/>
     </row>
@@ -5694,7 +5686,7 @@
       <c r="I60" s="66"/>
       <c r="J60" s="47"/>
       <c r="L60" s="47" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="M60" s="77"/>
     </row>
@@ -5710,7 +5702,7 @@
       <c r="I61" s="66"/>
       <c r="J61" s="47"/>
       <c r="L61" s="47" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="M61" s="77"/>
     </row>
@@ -5726,7 +5718,7 @@
       <c r="I62" s="66"/>
       <c r="J62" s="47"/>
       <c r="L62" s="47" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="M62" s="77"/>
     </row>
@@ -5743,7 +5735,7 @@
       </c>
       <c r="J63" s="47"/>
       <c r="L63" s="47" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="M63" s="77"/>
     </row>
@@ -5752,25 +5744,25 @@
         <v>117</v>
       </c>
       <c r="B64" s="86" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C64" s="86" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="D64" s="80" t="s">
         <v>120</v>
       </c>
       <c r="E64" s="80"/>
       <c r="F64" s="80" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="I64" s="66"/>
       <c r="J64" s="47"/>
       <c r="L64" s="47" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="M64" s="87" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
@@ -5783,7 +5775,7 @@
       <c r="I65" s="66"/>
       <c r="J65" s="47"/>
       <c r="L65" s="47" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="M65" s="77"/>
     </row>
@@ -5799,7 +5791,7 @@
       <c r="I66" s="66"/>
       <c r="J66" s="47"/>
       <c r="L66" s="47" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="M66" s="77"/>
     </row>
@@ -5815,7 +5807,7 @@
       <c r="I67" s="66"/>
       <c r="J67" s="47"/>
       <c r="L67" s="47" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="M67" s="77"/>
     </row>
@@ -5824,10 +5816,10 @@
         <v>125</v>
       </c>
       <c r="B68" s="86" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C68" s="86" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="D68" s="50" t="s">
         <v>126</v>
@@ -5839,10 +5831,10 @@
       <c r="I68" s="66"/>
       <c r="J68" s="47"/>
       <c r="L68" s="47" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="M68" s="76" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="69" spans="1:13" ht="90" x14ac:dyDescent="0.25">
@@ -5859,12 +5851,12 @@
         <v>111</v>
       </c>
       <c r="G69" s="66" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="I69" s="66"/>
       <c r="J69" s="47"/>
       <c r="L69" s="47" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="M69" s="77"/>
     </row>
@@ -5877,13 +5869,13 @@
       </c>
       <c r="E70" s="80"/>
       <c r="F70" s="50" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="I70" s="66" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="J70" s="47" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="L70" s="47"/>
       <c r="M70" s="77"/>
@@ -5895,12 +5887,12 @@
       <c r="D71" s="68"/>
       <c r="E71" s="80"/>
       <c r="F71" s="57" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="I71" s="66"/>
       <c r="J71" s="47"/>
       <c r="L71" s="47" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="M71" s="77"/>
     </row>
@@ -5911,12 +5903,12 @@
       <c r="D72" s="68"/>
       <c r="E72" s="80"/>
       <c r="F72" s="57" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="I72" s="66"/>
       <c r="J72" s="47"/>
       <c r="L72" s="47" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="M72" s="77"/>
     </row>
@@ -5932,7 +5924,7 @@
       <c r="I73" s="66"/>
       <c r="J73" s="47"/>
       <c r="L73" s="47" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="M73" s="77"/>
     </row>
@@ -5948,7 +5940,7 @@
       <c r="I74" s="66"/>
       <c r="J74" s="47"/>
       <c r="L74" s="47" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="M74" s="77"/>
     </row>
@@ -5965,10 +5957,10 @@
         <v>132</v>
       </c>
       <c r="B76" s="86" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C76" s="86" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="D76" s="50" t="s">
         <v>133</v>
@@ -5982,10 +5974,10 @@
       <c r="I76" s="66"/>
       <c r="J76" s="47"/>
       <c r="L76" s="47" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="M76" s="87" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="77" spans="1:13" ht="60" x14ac:dyDescent="0.25">
@@ -5993,7 +5985,7 @@
       <c r="B77" s="86"/>
       <c r="C77" s="86"/>
       <c r="D77" s="50" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="E77" s="70" t="s">
         <v>153</v>
@@ -6004,7 +5996,7 @@
       <c r="I77" s="66"/>
       <c r="J77" s="67"/>
       <c r="L77" s="67" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="M77" s="77"/>
     </row>
@@ -6013,25 +6005,25 @@
         <v>141</v>
       </c>
       <c r="B78" s="86" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C78" s="86" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D78" s="80" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="E78" s="70"/>
       <c r="F78" s="80" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="I78" s="66"/>
       <c r="J78" s="67"/>
       <c r="L78" s="67" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="M78" s="87" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="79" spans="1:13" ht="30" x14ac:dyDescent="0.25">
@@ -6044,7 +6036,7 @@
       <c r="I79" s="66"/>
       <c r="J79" s="67"/>
       <c r="L79" s="67" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="M79" s="77"/>
     </row>
@@ -6058,7 +6050,7 @@
       <c r="I80" s="66"/>
       <c r="J80" s="67"/>
       <c r="L80" s="67" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="M80" s="77"/>
     </row>
@@ -6072,7 +6064,7 @@
       <c r="I81" s="66"/>
       <c r="J81" s="67"/>
       <c r="L81" s="67" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="M81" s="77"/>
     </row>
@@ -6081,36 +6073,36 @@
         <v>146</v>
       </c>
       <c r="B82" s="56" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C82" s="49"/>
       <c r="D82" s="50" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E82" s="70"/>
       <c r="F82" s="57" t="s">
         <v>123</v>
       </c>
       <c r="I82" s="66" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="J82" s="67" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="L82" s="67"/>
       <c r="M82" s="61" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="83" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A83" s="86" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B83" s="86" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C83" s="86" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D83" s="50" t="s">
         <v>152</v>
@@ -6122,10 +6114,10 @@
       <c r="I83" s="66"/>
       <c r="J83" s="67"/>
       <c r="L83" s="67" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="M83" s="76" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="84" spans="1:13" ht="45" x14ac:dyDescent="0.25">
@@ -6137,12 +6129,12 @@
       </c>
       <c r="E84" s="70"/>
       <c r="F84" s="50" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="I84" s="66"/>
       <c r="J84" s="67"/>
       <c r="L84" s="67" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="M84" s="77"/>
     </row>
@@ -6153,12 +6145,12 @@
       <c r="D85" s="80"/>
       <c r="E85" s="70"/>
       <c r="F85" s="80" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="I85" s="66"/>
       <c r="J85" s="67"/>
       <c r="L85" s="67" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="M85" s="77"/>
     </row>
@@ -6172,7 +6164,7 @@
       <c r="I86" s="66"/>
       <c r="J86" s="67"/>
       <c r="L86" s="67" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="M86" s="77"/>
     </row>
@@ -6186,7 +6178,7 @@
       <c r="I87" s="66"/>
       <c r="J87" s="67"/>
       <c r="L87" s="67" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="M87" s="77"/>
     </row>
@@ -6200,7 +6192,7 @@
       <c r="I88" s="66"/>
       <c r="J88" s="67"/>
       <c r="L88" s="67" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="M88" s="77"/>
     </row>

--- a/Corpus/MLR_Corpus.xlsx
+++ b/Corpus/MLR_Corpus.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workouts\Projects\Acadia\Masori-Chatbot-Dev-main\Masori-Chatbot-Dev-main\Corpus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD2F1805-C880-49E1-938F-F074EAE0D3E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28E66EF2-6476-4787-A26E-0BDA3150A122}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuplazid Consumer" sheetId="3" r:id="rId1"/>
@@ -245,7 +245,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="374">
   <si>
     <t>Keywords</t>
   </si>
@@ -864,10 +864,6 @@
     <t>You will be paired with a Care Coordinator, a dedicated contact who gets to know your unique situation and can offer you guidance on insurance coverage, financial resources, and prescription support.</t>
   </si>
   <si>
-    <t>Sign up to receive additional information that could help you or your loved one navigate Parkinson's disease (PD)–related hallucinations and delusions.
-https://www.nuplazid.com/support-and-resources#sign-up-stay-informed</t>
-  </si>
-  <si>
     <t>Sub Functional Area</t>
   </si>
   <si>
@@ -909,21 +905,6 @@
 Some patients did not experience any hallucinations or delusions after 6 weeks. Not everyone will respond to NUPLAZID.</t>
   </si>
   <si>
-    <t>The recommended dose of NUPLAZID is one 34 mg capsule, once daily by mouth, with or without food, taken around the same time every day, or as prescribed by your healthcare provider.
-NUPLAZID may begin to reduce hallucinations and delusions as soon as 4 weeks, but it may take up to 6 weeks to feel the full effect. You should speak with your healthcare provider before you stop taking NUPLAZID.
-Acadia Connect™ can coordinate with you and the pharmacy filling the prescription to help get the medicine delivered wherever is most convenient to you
-https://www.acadiaconnect.com/patient-caregivers/prescriptions</t>
-  </si>
-  <si>
-    <t>Learn about support for getting started on NUPLAZID.
-Visit Acadia Connect 
-https://www.acadiaconnect.com/patient-caregivers</t>
-  </si>
-  <si>
-    <t>Click below link to get Full Prescribing Information
-https://www.nuplazid.com/pdf/nuplazid-prescribing-information.pdf</t>
-  </si>
-  <si>
     <t>Enrollment Form</t>
   </si>
   <si>
@@ -938,15 +919,6 @@
 Connect with us: 1-844-737-2223</t>
   </si>
   <si>
-    <t>Downloadable resources
-PD–related Hallucinations and Delusions Fact Sheet
-https://www.nuplazid.com/pdf/pd-related-hallucinations-delusions-fact-sheet.pdf
-NUPLAZID Fact Sheet
-https://www.nuplazid.com/pdf/nuplazid-fact-sheet.pdf
-Doctor Discussion Guide
-https://www.nuplazid.com/pdf/nuplazid-doctor-discussion-guide.pdf</t>
-  </si>
-  <si>
     <t>https://www.acadiaconnect.com/pdf/patient-enrollment-form.pdf</t>
   </si>
   <si>
@@ -965,9 +937,6 @@
     <t>General Information</t>
   </si>
   <si>
-    <t>Coadministration with strong CYP3A4 inhibitors (e.g., ketoconazole) increases NUPLAZID exposure. Reduce NUPLAZID dose to 10 mg taken orally as one tablet once daily.Avoid concomitant use of strong or moderate CYP3A4 inducers with NUPLAZID</t>
-  </si>
-  <si>
     <t>About MOA</t>
   </si>
   <si>
@@ -981,9 +950,6 @@
   </si>
   <si>
     <t>Nuplazid Financial assistance/support is at the heart of Acadia Connect.</t>
-  </si>
-  <si>
-    <t>Your patient may need authorization to get insurance coverage for NUPLAZID. Please connect with Acadia Connect for further details</t>
   </si>
   <si>
     <t>NUPLAZID cost details</t>
@@ -997,18 +963,6 @@
   </si>
   <si>
     <t>General information about authorization</t>
-  </si>
-  <si>
-    <t>Acadia Connect is a comprehensive support program for patients prescribed treatments from Acadia Pharmaceuticals that offers guidance on enrollment, patient access, insurance coverage, financial assistance, and prescription support. For Further information please visit https://www.acadiaconnect.com</t>
-  </si>
-  <si>
-    <t>ACADIA CONNECT CAN HELP WITH: COST &amp; INSURANCE,FILLING PRESCRIPTIONS,SUPPORT &amp; EDUCATION</t>
-  </si>
-  <si>
-    <t>100% of Medicare Part D plans cover NUPLAZID and $0 co-pay for qualifying commercially covered patients</t>
-  </si>
-  <si>
-    <t>Insurance Options : Government Insurance,Commercial Insurance,No Insurance (or Prescription not covered)</t>
   </si>
   <si>
     <t>Keyword</t>
@@ -1042,21 +996,10 @@
     <t>NUPLAZID may begin to reduce hallucinations and delusions as soon as 4 weeks, but it may take up to 6 weeks to feel the full effect. You should speak with your healthcare provider before you stop taking NUPLAZID</t>
   </si>
   <si>
-    <t>There are options available that may help you cover the cost of NUPLAZID. Visit Acadia Connect to learn more.
-https://www.acadiaconnect.com/patient-caregivers/cost-insurance</t>
-  </si>
-  <si>
     <t xml:space="preserve">Symptoms </t>
   </si>
   <si>
     <t>Contact Acadia CA</t>
-  </si>
-  <si>
-    <t>When it comes to paying for your prescription, you may have questions about your insurance coverage. With this simple tool, you can check your coverage by answering just three questions.
-CALL YOUR CARE COORDINATOR WITH QUESTIONS
-Monday through Friday, 8:30 am to 8:30 pm ET
-1-844-737-2223
-https://www.acadiaconnect.com/patient-caregivers/insurance-coverage-lookup</t>
   </si>
   <si>
     <t>Dosage Information</t>
@@ -1419,9 +1362,6 @@
     <t>Doctor discussion guide</t>
   </si>
   <si>
-    <t>It is common for people living with Parkinson's disease (PD)–related hallucinations and delusions to remain silent about these symptoms and not report them to a healthcare provider. Proactively discussing the link between PD and the possibility of related hallucinations or delusions can help you and your healthcare provider identify and treat symptoms. https://www.nuplazid.com/talking-to-your-healthcare-provider#doctor-discussion-guide</t>
-  </si>
-  <si>
     <t>Necessity to Consult healthcare provider</t>
   </si>
   <si>
@@ -1435,13 +1375,7 @@
     <t>Additional info about PD-related hallucinations and delusion</t>
   </si>
   <si>
-    <t>Signup for more information about PD-related hallucination and delusions                                                             https://www.nuplazid.com/support-and-resources#sign-up-stay-informed.                                               PD related hallucinations and delusions:                                                                                 https://www.nuplazid.com/pdf/pd-related-hallucinations-delusions-fact-sheet.pdf</t>
-  </si>
-  <si>
     <t>Personal Stories</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Watch personal stories about people with Parkinson’s disease (PD)–related hallucinations and delusions and their caregivers. Even though their experiences may not be the same as yours, their stories may give you a better understanding of these symptoms.        https://www.nuplazid.com/personal-stories                          </t>
   </si>
   <si>
     <t>https://www.nuplazid.com/personal-stories</t>
@@ -1479,9 +1413,6 @@
   </si>
   <si>
     <t>https://www.nuplazidhcp.com/acadia-connect</t>
-  </si>
-  <si>
-    <t>NUPLAZID is contraindicated in patients with a history of a hypersensitivity reaction to pimavanser0in or any of its components. Rash, urticaria, and reactions consistent with angioedema (e.g., tongue swelling, circumoral edema, throat tightness, and dyspnea) have been reported.</t>
   </si>
   <si>
     <t>100% of Medicare Part D plans cover NUPLAZID
@@ -1489,9 +1420,6 @@
 $0 co-pay for qualifying commercially covered patients</t>
   </si>
   <si>
-    <t xml:space="preserve">Order Samples </t>
-  </si>
-  <si>
     <t>Click here to order samples</t>
   </si>
   <si>
@@ -1543,6 +1471,133 @@
   </si>
   <si>
     <t>Parkinson disease (PD)-related hallucinations and delusions</t>
+  </si>
+  <si>
+    <t>SAPS-PD was adapted using the hallucinations and delusions subdomains of SAPS, which are the most relevant for assessing PDP.
+The SAPS-PD retains the reliability, sensitivity to change, and effect size of the larger scale while improving specificity for PDP, reducing score variability, and reducing administration time.</t>
+  </si>
+  <si>
+    <t>NUPLAZID efficacy results were sustained, with reductions in the frequency and/or severity of hallucinations and delusions continued from Week 6 through Week 10 in an open-label extension (OLE) of the 6-week, controlled study of the 176 patients who completed the 6-week study, 171 entered the open-label extension (OLE) study, and 148 patients remained in the study at the Week 10 time point. All patients received NUPLAZID 34 mg at Week 6 (baseline OLE) of the 10-week treatment period.</t>
+  </si>
+  <si>
+    <t>Elderly patients with dementia-related psychosis treated with antipsychotic drugs are at an increased risk of death.
+NUPLAZID is not approved for the treatment of patients with dementia-related psychosis unrelated to the hallucinations and delusions associated with Parkinson’s disease psychosis.
+NUPLAZID prolongs the QT interval. The use of NUPLAZID should be avoided in patients with known QT prolongation or in combination with other drugs known to prolong QT interval including Class 1A antiarrhythmics or Class 3 antiarrhythmics, certain antipsychotic medications, and certain antibiotics.
+NUPLAZID should also be avoided in patients with a history of cardiac arrhythmias, as well as other circumstances that may increase the risk of the occurrence of torsade de pointes and/or sudden death, including symptomatic bradycardia, hypokalemia or hypomagnesemia, and presence of congenital prolongation of the QT interval
+8% (n=16) of patients treated with NUPLAZID discontinued due to adverse reactions vs 4% (n=10) with placebo.
+Coadministration with strong CYP3A4 inhibitors (e.g., ketoconazole) increases NUPLAZID exposure. Reduce NUPLAZID dose to 10 mg taken orally as one tablet once daily.Avoid concomitant use of strong or moderate CYP3A4 inducers with NUPLAZID</t>
+  </si>
+  <si>
+    <t>Your patient may need authorization to get insurance coverage for NUPLAZID. Please connect with Acadia Connect for further details
+Acadia Connect is a comprehensive support program for patients prescribed treatments from Acadia Pharmaceuticals that offers guidance on enrollment, patient access, insurance coverage, financial assistance, and prescription support.
+Appropriate patients must be enrolled in Acadia Connect to be eligible for the free 14-day supply. Acadia Connect patient eligibility and terms and conditions apply.</t>
+  </si>
+  <si>
+    <t>100% of Medicare Part D plans cover NUPLAZID and $0 co-pay for qualifying commercially covered patients
+Insurance Options : Government Insurance,Commercial Insurance,No Insurance (or Prescription not covered)
+For patients with government insurance (such as Medicare, Medicaid, and other government programs), Acadia Connect may be able to provide information about financial resources that may help your patient.
+"Patients with commercial insurance that covers their prescription with a co-pay or co-insurance may be eligible to get their medication for $0, regardless of income.
+*Acadia Connect patient eligibility and terms and conditions apply."</t>
+  </si>
+  <si>
+    <t>Recommended dose: ONCE daily, taken whole or sprinkled and Taken orally with or without food, without titration.
+The capsule can be opened and the entire contents sprinkled over a tablespoon (15 mL) of applesauce, yogurt, pudding, or a liquid nutritional supplement. The food/drug mixture should be consumed immediately without chewing; do not store for future use.
+No dosage adjustment of carbidopa/levodopa is required when administered concomitantly with NUPLAZID.
+No dosage adjustment in elderly patients, patients with mild to severe renal impairment or end-stage renal disease (ESRD), or in patients with hepatic impairment.
+For patients taking strong CYP3A4 inhibitors, the recommended dose of NUPLAZID is one 10 mg tablet daily.
+Avoid concomitant use of strong or moderate CYP3A4 inducers with NUPLAZID.
+Avoid the use of NUPLAZID in combination with other drugs known to prolong the QT interval.
+NUPLAZID is available as 34 mg capsules and 10 mg tablets.
+Coadministration with strong CYP3A4 inhibitors (e.g., ketoconazole) increases NUPLAZID exposure.
+Coadministration with strong or moderate CYP3A4 inducers reduces NUPLAZID exposure. Avoid concomitant use of strong or moderate CYP3A4 inducers with NUPLAZID.</t>
+  </si>
+  <si>
+    <t>NUPLAZID is contraindicated in patients with a history of a hypersensitivity reaction to pimavanser0in or any of its components. Rash, urticaria, and reactions consistent with angioedema (e.g., tongue swelling, circumoral edema, throat tightness, and dyspnea) have been reported.
+Acadia Connect is a comprehensive support program for patients prescribed treatments from Acadia Pharmaceuticals that offers guidance on enrollment, patient access, insurance coverage, financial assistance, and prescription support.
+We’re here to connect you and your patients to the right support every step of the way.
+Your enrolled patients will be assigned a dedicated Care Coordinator they can turn to for insurance questions and financial resources.
+If you need long-term care access services, fill out the Long-Term Care Service Request Form. You may also download the PDF version of the form and fax it to 1-844-737-2223.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It is common for people living with Parkinson's disease (PD)–related hallucinations and delusions to remain silent about these symptoms and not report them to a healthcare provider. Proactively discussing the link between PD and the possibility of related hallucinations or delusions can help you and your healthcare provider identify and treat symptoms. </t>
+  </si>
+  <si>
+    <t>https://www.nuplazid.com/talking-to-your-healthcare-provider#doctor-discussion-guide</t>
+  </si>
+  <si>
+    <t>https://www.nuplazid.com/support-and-resources#sign-up-stay-informed
+https://www.nuplazid.com/pdf/pd-related-hallucinations-delusions-fact-sheet.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Signup for more information about PD-related hallucination and delusions                                                             </t>
+  </si>
+  <si>
+    <t>PD related hallucinations and delusions</t>
+  </si>
+  <si>
+    <t>Watch personal stories about people with Parkinson’s disease (PD)–related hallucinations and delusions and their caregivers. Even though their experiences may not be the same as yours, their stories may give you a better understanding of these symptoms.</t>
+  </si>
+  <si>
+    <t>The recommended dose of NUPLAZID is one 34 mg capsule, once daily by mouth, with or without food, taken around the same time every day, or as prescribed by your healthcare provider.
+NUPLAZID may begin to reduce hallucinations and delusions as soon as 4 weeks, but it may take up to 6 weeks to feel the full effect. You should speak with your healthcare provider before you stop taking NUPLAZID.
+Acadia Connect™ can coordinate with you and the pharmacy filling the prescription to help get the medicine delivered wherever is most convenient to you.</t>
+  </si>
+  <si>
+    <t>https://www.acadiaconnect.com/patient-caregivers/prescriptions</t>
+  </si>
+  <si>
+    <t>Learn about support for getting started on NUPLAZID.</t>
+  </si>
+  <si>
+    <t>Visit Acadia Connect</t>
+  </si>
+  <si>
+    <t>Click below link to get Full Prescribing Information</t>
+  </si>
+  <si>
+    <t>https://www.nuplazid.com/pdf/nuplazid-prescribing-information.pdf</t>
+  </si>
+  <si>
+    <t>There are options available that may help you cover the cost of NUPLAZID. Visit Acadia Connect to learn more.</t>
+  </si>
+  <si>
+    <t>When it comes to paying for your prescription, you may have questions about your insurance coverage. With this simple tool, you can check your coverage by answering just three questions.
+CALL YOUR CARE COORDINATOR WITH QUESTIONS
+Monday through Friday, 8:30 am to 8:30 pm ET
+1-844-737-2223</t>
+  </si>
+  <si>
+    <t>More Information</t>
+  </si>
+  <si>
+    <t>https://www.nuplazid.com/pdf/pd-related-hallucinations-delusions-fact-sheet.pdf
+https://www.nuplazid.com/pdf/nuplazid-fact-sheet.pdf
+https://www.nuplazid.com/pdf/nuplazid-doctor-discussion-guide.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Downloadable resources
+</t>
+  </si>
+  <si>
+    <t>PD–related Hallucinations and Delusions Fact Sheet
+NUPLAZID Fact Sheet
+Doctor Discussion Guide</t>
+  </si>
+  <si>
+    <t>Sign up to receive additional information that could help you or your loved one navigate Parkinson's disease (PD)–related hallucinations and delusions.</t>
+  </si>
+  <si>
+    <t>https://www.nuplazid.com/support-and-resources#sign-up-stay-informed</t>
+  </si>
+  <si>
+    <t>Download Form</t>
+  </si>
+  <si>
+    <t>Acadia Connect is a comprehensive support program for patients prescribed treatments from Acadia Pharmaceuticals that offers guidance on enrollment, patient access, insurance coverage, financial assistance, and prescription support. 
+ACADIA CONNECT CAN HELP WITH: COST &amp; INSURANCE,FILLING PRESCRIPTIONS,SUPPORT &amp; EDUCATION</t>
+  </si>
+  <si>
+    <t>https://www.acadiaconnect.com</t>
   </si>
 </sst>
 </file>
@@ -1581,7 +1636,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1591,12 +1646,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF0070C0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1783,10 +1832,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1803,6 +1848,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2218,9 +2269,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E48" sqref="E48"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2229,7 +2280,7 @@
     <col min="2" max="2" width="27.140625" style="44" customWidth="1"/>
     <col min="3" max="3" width="47.140625" style="44" customWidth="1"/>
     <col min="4" max="4" width="41.85546875" style="58" customWidth="1"/>
-    <col min="5" max="5" width="41.85546875" style="74" customWidth="1"/>
+    <col min="5" max="5" width="41.85546875" style="72" customWidth="1"/>
     <col min="6" max="6" width="83.7109375" customWidth="1"/>
     <col min="7" max="12" width="37.28515625" style="44" customWidth="1"/>
     <col min="13" max="13" width="74" customWidth="1"/>
@@ -2240,60 +2291,60 @@
         <v>1</v>
       </c>
       <c r="B1" s="45" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="C1" s="45" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="D1" s="51" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E1" s="51" t="s">
-        <v>350</v>
+        <v>332</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G1" s="45" t="s">
+        <v>317</v>
+      </c>
+      <c r="H1" s="45" t="s">
+        <v>318</v>
+      </c>
+      <c r="I1" s="45" t="s">
+        <v>319</v>
+      </c>
+      <c r="J1" s="45" t="s">
+        <v>320</v>
+      </c>
+      <c r="K1" s="45" t="s">
+        <v>321</v>
+      </c>
+      <c r="L1" s="45" t="s">
         <v>333</v>
       </c>
-      <c r="H1" s="45" t="s">
-        <v>334</v>
-      </c>
-      <c r="I1" s="45" t="s">
-        <v>335</v>
-      </c>
-      <c r="J1" s="45" t="s">
-        <v>336</v>
-      </c>
-      <c r="K1" s="45" t="s">
-        <v>337</v>
-      </c>
-      <c r="L1" s="45" t="s">
-        <v>351</v>
-      </c>
       <c r="M1" s="2" t="s">
-        <v>306</v>
+        <v>293</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="31" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" s="81" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="B2" s="81" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
       <c r="C2" s="81" t="s">
-        <v>305</v>
+        <v>292</v>
       </c>
       <c r="D2" s="58" t="s">
-        <v>354</v>
-      </c>
-      <c r="E2" s="74" t="s">
+        <v>336</v>
+      </c>
+      <c r="E2" s="72" t="s">
         <v>10</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G2" s="66"/>
       <c r="H2" s="66"/>
@@ -2301,10 +2352,10 @@
       <c r="J2" s="66"/>
       <c r="K2" s="66"/>
       <c r="L2" s="67" t="s">
-        <v>287</v>
+        <v>274</v>
       </c>
       <c r="M2" s="79" t="s">
-        <v>287</v>
+        <v>274</v>
       </c>
     </row>
     <row r="3" spans="1:13" s="31" customFormat="1" ht="120" x14ac:dyDescent="0.25">
@@ -2314,11 +2365,11 @@
       <c r="D3" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="74" t="s">
-        <v>321</v>
+      <c r="E3" s="72" t="s">
+        <v>308</v>
       </c>
       <c r="F3" s="32" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="G3" s="66"/>
       <c r="H3" s="66"/>
@@ -2326,7 +2377,7 @@
       <c r="J3" s="66"/>
       <c r="K3" s="66"/>
       <c r="L3" s="67" t="s">
-        <v>287</v>
+        <v>274</v>
       </c>
       <c r="M3" s="77"/>
     </row>
@@ -2335,13 +2386,13 @@
       <c r="B4" s="80"/>
       <c r="C4" s="82"/>
       <c r="D4" s="58" t="s">
-        <v>353</v>
-      </c>
-      <c r="E4" s="74" t="s">
-        <v>354</v>
+        <v>335</v>
+      </c>
+      <c r="E4" s="72" t="s">
+        <v>336</v>
       </c>
       <c r="F4" s="32" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G4" s="66"/>
       <c r="H4" s="66"/>
@@ -2349,7 +2400,7 @@
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
       <c r="L4" s="67" t="s">
-        <v>287</v>
+        <v>274</v>
       </c>
       <c r="M4" s="77"/>
     </row>
@@ -2358,19 +2409,19 @@
         <v>172</v>
       </c>
       <c r="B5" s="80" t="s">
-        <v>315</v>
+        <v>302</v>
       </c>
       <c r="C5" s="80" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="D5" s="58" t="s">
         <v>173</v>
       </c>
-      <c r="E5" s="74" t="s">
-        <v>355</v>
+      <c r="E5" s="72" t="s">
+        <v>337</v>
       </c>
       <c r="F5" s="32" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G5" s="66"/>
       <c r="H5" s="66"/>
@@ -2378,10 +2429,10 @@
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
       <c r="L5" s="67" t="s">
-        <v>286</v>
+        <v>273</v>
       </c>
       <c r="M5" s="76" t="s">
-        <v>286</v>
+        <v>273</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="120" x14ac:dyDescent="0.25">
@@ -2389,13 +2440,13 @@
       <c r="B6" s="83"/>
       <c r="C6" s="83"/>
       <c r="D6" s="58" t="s">
-        <v>355</v>
-      </c>
-      <c r="E6" s="74" t="s">
-        <v>251</v>
+        <v>337</v>
+      </c>
+      <c r="E6" s="72" t="s">
+        <v>238</v>
       </c>
       <c r="F6" s="33" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G6" s="66"/>
       <c r="H6" s="66"/>
@@ -2403,28 +2454,28 @@
       <c r="J6" s="66"/>
       <c r="K6" s="66"/>
       <c r="L6" s="67" t="s">
-        <v>286</v>
+        <v>273</v>
       </c>
       <c r="M6" s="77"/>
     </row>
-    <row r="7" spans="1:13" s="44" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" s="44" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" s="80" t="s">
-        <v>319</v>
+        <v>306</v>
       </c>
       <c r="B7" s="80" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
       <c r="C7" s="80" t="s">
-        <v>325</v>
+        <v>311</v>
       </c>
       <c r="D7" s="62" t="s">
-        <v>321</v>
-      </c>
-      <c r="E7" s="74" t="s">
-        <v>323</v>
+        <v>308</v>
+      </c>
+      <c r="E7" s="72" t="s">
+        <v>309</v>
       </c>
       <c r="F7" s="62" t="s">
-        <v>322</v>
+        <v>351</v>
       </c>
       <c r="G7" s="66"/>
       <c r="H7" s="66"/>
@@ -2432,10 +2483,10 @@
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
       <c r="L7" s="67" t="s">
-        <v>331</v>
+        <v>352</v>
       </c>
       <c r="M7" s="76" t="s">
-        <v>331</v>
+        <v>315</v>
       </c>
     </row>
     <row r="8" spans="1:13" s="44" customFormat="1" ht="150" x14ac:dyDescent="0.25">
@@ -2443,13 +2494,13 @@
       <c r="B8" s="80"/>
       <c r="C8" s="80"/>
       <c r="D8" s="62" t="s">
-        <v>323</v>
-      </c>
-      <c r="E8" s="74" t="s">
+        <v>309</v>
+      </c>
+      <c r="E8" s="72" t="s">
         <v>192</v>
       </c>
       <c r="F8" s="62" t="s">
-        <v>324</v>
+        <v>310</v>
       </c>
       <c r="G8" s="66"/>
       <c r="H8" s="66"/>
@@ -2457,28 +2508,32 @@
       <c r="J8" s="66"/>
       <c r="K8" s="66"/>
       <c r="L8" s="67" t="s">
-        <v>331</v>
+        <v>315</v>
       </c>
       <c r="M8" s="77"/>
     </row>
-    <row r="9" spans="1:13" s="44" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" s="44" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A9" s="80"/>
       <c r="B9" s="80"/>
       <c r="C9" s="80"/>
       <c r="D9" s="62" t="s">
-        <v>326</v>
-      </c>
-      <c r="E9" s="74"/>
+        <v>312</v>
+      </c>
+      <c r="E9" s="72"/>
       <c r="F9" s="62" t="s">
-        <v>327</v>
+        <v>354</v>
       </c>
       <c r="G9" s="66"/>
       <c r="H9" s="66"/>
-      <c r="I9" s="66"/>
-      <c r="J9" s="66"/>
+      <c r="I9" s="66" t="s">
+        <v>355</v>
+      </c>
+      <c r="J9" s="67" t="s">
+        <v>353</v>
+      </c>
       <c r="K9" s="66"/>
       <c r="L9" s="67" t="s">
-        <v>331</v>
+        <v>315</v>
       </c>
       <c r="M9" s="77"/>
     </row>
@@ -2487,41 +2542,43 @@
       <c r="B10" s="80"/>
       <c r="C10" s="80"/>
       <c r="D10" s="62"/>
-      <c r="E10" s="74"/>
+      <c r="E10" s="72"/>
       <c r="F10" s="62"/>
       <c r="G10" s="66"/>
       <c r="H10" s="66"/>
       <c r="I10" s="66"/>
       <c r="J10" s="66"/>
       <c r="K10" s="66"/>
-      <c r="L10" s="74"/>
+      <c r="L10" s="72"/>
       <c r="M10" s="65"/>
     </row>
-    <row r="11" spans="1:13" s="44" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" s="44" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="62" t="s">
-        <v>328</v>
+        <v>313</v>
       </c>
       <c r="B11" s="62" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
       <c r="C11" s="62" t="s">
-        <v>332</v>
+        <v>316</v>
       </c>
       <c r="D11" s="62"/>
-      <c r="E11" s="74"/>
+      <c r="E11" s="72"/>
       <c r="F11" s="62" t="s">
-        <v>329</v>
+        <v>356</v>
       </c>
       <c r="G11" s="66"/>
-      <c r="H11" s="66"/>
+      <c r="H11" s="67" t="s">
+        <v>314</v>
+      </c>
       <c r="I11" s="66"/>
       <c r="J11" s="66"/>
       <c r="K11" s="66"/>
-      <c r="L11" s="73" t="s">
-        <v>330</v>
+      <c r="L11" s="71" t="s">
+        <v>314</v>
       </c>
       <c r="M11" s="64" t="s">
-        <v>330</v>
+        <v>314</v>
       </c>
     </row>
     <row r="12" spans="1:13" s="44" customFormat="1" x14ac:dyDescent="0.25">
@@ -2529,14 +2586,14 @@
       <c r="B12" s="62"/>
       <c r="C12" s="62"/>
       <c r="D12" s="62"/>
-      <c r="E12" s="74"/>
+      <c r="E12" s="72"/>
       <c r="F12" s="62"/>
       <c r="G12" s="66"/>
       <c r="H12" s="66"/>
       <c r="I12" s="66"/>
       <c r="J12" s="66"/>
       <c r="K12" s="66"/>
-      <c r="L12" s="74"/>
+      <c r="L12" s="72"/>
       <c r="M12" s="65"/>
     </row>
     <row r="13" spans="1:13" s="44" customFormat="1" x14ac:dyDescent="0.25">
@@ -2544,14 +2601,14 @@
       <c r="B13" s="62"/>
       <c r="C13" s="62"/>
       <c r="D13" s="62"/>
-      <c r="E13" s="74"/>
+      <c r="E13" s="72"/>
       <c r="F13" s="62"/>
       <c r="G13" s="66"/>
       <c r="H13" s="66"/>
       <c r="I13" s="66"/>
       <c r="J13" s="66"/>
       <c r="K13" s="66"/>
-      <c r="L13" s="74"/>
+      <c r="L13" s="72"/>
       <c r="M13" s="65"/>
     </row>
     <row r="14" spans="1:13" s="44" customFormat="1" x14ac:dyDescent="0.25">
@@ -2559,14 +2616,14 @@
       <c r="B14" s="62"/>
       <c r="C14" s="62"/>
       <c r="D14" s="62"/>
-      <c r="E14" s="74"/>
+      <c r="E14" s="72"/>
       <c r="F14" s="62"/>
       <c r="G14" s="66"/>
       <c r="H14" s="66"/>
       <c r="I14" s="66"/>
       <c r="J14" s="66"/>
       <c r="K14" s="66"/>
-      <c r="L14" s="74"/>
+      <c r="L14" s="72"/>
       <c r="M14" s="65"/>
     </row>
     <row r="15" spans="1:13" ht="45" x14ac:dyDescent="0.25">
@@ -2574,19 +2631,19 @@
         <v>174</v>
       </c>
       <c r="B15" s="80" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="C15" s="80" t="s">
-        <v>316</v>
+        <v>303</v>
       </c>
       <c r="D15" s="58" t="s">
-        <v>356</v>
-      </c>
-      <c r="E15" s="74" t="s">
-        <v>357</v>
+        <v>338</v>
+      </c>
+      <c r="E15" s="72" t="s">
+        <v>339</v>
       </c>
       <c r="F15" s="32" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G15" s="66"/>
       <c r="H15" s="66"/>
@@ -2594,10 +2651,10 @@
       <c r="J15" s="66"/>
       <c r="K15" s="66"/>
       <c r="L15" s="67" t="s">
-        <v>287</v>
+        <v>274</v>
       </c>
       <c r="M15" s="76" t="s">
-        <v>287</v>
+        <v>274</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="30" x14ac:dyDescent="0.25">
@@ -2605,10 +2662,10 @@
       <c r="B16" s="83"/>
       <c r="C16" s="83"/>
       <c r="D16" s="58" t="s">
-        <v>357</v>
-      </c>
-      <c r="E16" s="74" t="s">
-        <v>358</v>
+        <v>339</v>
+      </c>
+      <c r="E16" s="72" t="s">
+        <v>340</v>
       </c>
       <c r="F16" s="34" t="s">
         <v>175</v>
@@ -2619,7 +2676,7 @@
       <c r="J16" s="66"/>
       <c r="K16" s="66"/>
       <c r="L16" s="67" t="s">
-        <v>287</v>
+        <v>274</v>
       </c>
       <c r="M16" s="77"/>
     </row>
@@ -2628,13 +2685,13 @@
       <c r="B17" s="83"/>
       <c r="C17" s="83"/>
       <c r="D17" s="58" t="s">
-        <v>358</v>
-      </c>
-      <c r="E17" s="74" t="s">
-        <v>248</v>
+        <v>340</v>
+      </c>
+      <c r="E17" s="72" t="s">
+        <v>236</v>
       </c>
       <c r="F17" s="32" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G17" s="66"/>
       <c r="H17" s="66"/>
@@ -2642,7 +2699,7 @@
       <c r="J17" s="66"/>
       <c r="K17" s="66"/>
       <c r="L17" s="67" t="s">
-        <v>287</v>
+        <v>274</v>
       </c>
       <c r="M17" s="77"/>
     </row>
@@ -2657,8 +2714,8 @@
       <c r="I18" s="42"/>
       <c r="J18" s="42"/>
       <c r="K18" s="42"/>
-      <c r="L18" s="75" t="s">
-        <v>287</v>
+      <c r="L18" s="73" t="s">
+        <v>274</v>
       </c>
       <c r="M18" s="77"/>
     </row>
@@ -2667,19 +2724,19 @@
         <v>176</v>
       </c>
       <c r="B19" s="80" t="s">
-        <v>256</v>
+        <v>243</v>
       </c>
       <c r="C19" s="80" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="D19" s="58" t="s">
-        <v>359</v>
-      </c>
-      <c r="E19" s="74" t="s">
+        <v>341</v>
+      </c>
+      <c r="E19" s="72" t="s">
         <v>178</v>
       </c>
       <c r="F19" s="35" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G19" s="66"/>
       <c r="H19" s="66"/>
@@ -2687,10 +2744,10 @@
       <c r="J19" s="66"/>
       <c r="K19" s="66"/>
       <c r="L19" s="67" t="s">
-        <v>287</v>
+        <v>274</v>
       </c>
       <c r="M19" s="76" t="s">
-        <v>287</v>
+        <v>274</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="30" x14ac:dyDescent="0.25">
@@ -2698,13 +2755,13 @@
       <c r="B20" s="80"/>
       <c r="C20" s="83"/>
       <c r="D20" s="58" t="s">
-        <v>360</v>
-      </c>
-      <c r="E20" s="74" t="s">
+        <v>342</v>
+      </c>
+      <c r="E20" s="72" t="s">
         <v>178</v>
       </c>
       <c r="F20" s="41" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G20" s="66"/>
       <c r="H20" s="66"/>
@@ -2712,7 +2769,7 @@
       <c r="J20" s="66"/>
       <c r="K20" s="66"/>
       <c r="L20" s="67" t="s">
-        <v>287</v>
+        <v>274</v>
       </c>
       <c r="M20" s="77"/>
     </row>
@@ -2724,7 +2781,7 @@
         <v>177</v>
       </c>
       <c r="F21" s="41" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G21" s="66"/>
       <c r="H21" s="66"/>
@@ -2732,7 +2789,7 @@
       <c r="J21" s="66"/>
       <c r="K21" s="66"/>
       <c r="L21" s="67" t="s">
-        <v>287</v>
+        <v>274</v>
       </c>
       <c r="M21" s="77"/>
     </row>
@@ -2743,11 +2800,11 @@
       <c r="D22" s="58" t="s">
         <v>178</v>
       </c>
-      <c r="E22" s="74" t="s">
+      <c r="E22" s="72" t="s">
         <v>172</v>
       </c>
       <c r="F22" s="32" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G22" s="66"/>
       <c r="H22" s="66"/>
@@ -2755,7 +2812,7 @@
       <c r="J22" s="66"/>
       <c r="K22" s="66"/>
       <c r="L22" s="67" t="s">
-        <v>287</v>
+        <v>274</v>
       </c>
       <c r="M22" s="77"/>
     </row>
@@ -2764,13 +2821,13 @@
         <v>179</v>
       </c>
       <c r="B23" s="80" t="s">
-        <v>317</v>
+        <v>304</v>
       </c>
       <c r="C23" s="80" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="D23" s="58" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="F23" s="36" t="s">
         <v>180</v>
@@ -2781,55 +2838,59 @@
       <c r="J23" s="66"/>
       <c r="K23" s="66"/>
       <c r="L23" s="67" t="s">
-        <v>288</v>
+        <v>275</v>
       </c>
       <c r="M23" s="76" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" ht="135" x14ac:dyDescent="0.25">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="120" x14ac:dyDescent="0.25">
       <c r="A24" s="83"/>
       <c r="B24" s="80"/>
       <c r="C24" s="83"/>
       <c r="D24" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="E24" s="74" t="s">
-        <v>318</v>
+      <c r="E24" s="72" t="s">
+        <v>305</v>
       </c>
       <c r="F24" s="41" t="s">
-        <v>209</v>
+        <v>357</v>
       </c>
       <c r="G24" s="66"/>
       <c r="H24" s="66"/>
       <c r="I24" s="66"/>
       <c r="J24" s="66"/>
-      <c r="K24" s="66"/>
+      <c r="K24" s="74"/>
       <c r="L24" s="67" t="s">
-        <v>288</v>
+        <v>358</v>
       </c>
       <c r="M24" s="77"/>
     </row>
-    <row r="25" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="83"/>
       <c r="B25" s="80"/>
       <c r="C25" s="83"/>
       <c r="D25" s="58" t="s">
-        <v>318</v>
-      </c>
-      <c r="E25" s="74" t="s">
-        <v>248</v>
+        <v>305</v>
+      </c>
+      <c r="E25" s="72" t="s">
+        <v>236</v>
       </c>
       <c r="F25" s="32" t="s">
-        <v>210</v>
+        <v>359</v>
       </c>
       <c r="G25" s="66"/>
       <c r="H25" s="66"/>
-      <c r="I25" s="66"/>
-      <c r="J25" s="66"/>
+      <c r="I25" s="66" t="s">
+        <v>360</v>
+      </c>
+      <c r="J25" s="67" t="s">
+        <v>278</v>
+      </c>
       <c r="K25" s="66"/>
       <c r="L25" s="67" t="s">
-        <v>288</v>
+        <v>275</v>
       </c>
       <c r="M25" s="77"/>
     </row>
@@ -2845,7 +2906,7 @@
       <c r="J26" s="43"/>
       <c r="K26" s="43"/>
       <c r="L26" s="67" t="s">
-        <v>288</v>
+        <v>275</v>
       </c>
       <c r="M26" s="77"/>
     </row>
@@ -2854,30 +2915,34 @@
         <v>181</v>
       </c>
       <c r="B27" s="80" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="C27" s="78" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
       <c r="D27" s="58" t="s">
         <v>182</v>
       </c>
-      <c r="E27" s="74" t="s">
-        <v>318</v>
+      <c r="E27" s="72" t="s">
+        <v>305</v>
       </c>
       <c r="F27" s="32" t="s">
-        <v>211</v>
+        <v>361</v>
       </c>
       <c r="G27" s="66"/>
       <c r="H27" s="66"/>
-      <c r="I27" s="66"/>
-      <c r="J27" s="66"/>
+      <c r="I27" s="66" t="s">
+        <v>84</v>
+      </c>
+      <c r="J27" s="67" t="s">
+        <v>362</v>
+      </c>
       <c r="K27" s="66"/>
       <c r="L27" s="67" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="M27" s="76" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="30" x14ac:dyDescent="0.25">
@@ -2887,7 +2952,7 @@
       <c r="D28" s="58" t="s">
         <v>183</v>
       </c>
-      <c r="E28" s="74" t="s">
+      <c r="E28" s="72" t="s">
         <v>132</v>
       </c>
       <c r="F28" s="32" t="s">
@@ -2899,7 +2964,7 @@
       <c r="J28" s="66"/>
       <c r="K28" s="66"/>
       <c r="L28" s="67" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="M28" s="77"/>
     </row>
@@ -2914,8 +2979,8 @@
       <c r="I29" s="42"/>
       <c r="J29" s="42"/>
       <c r="K29" s="42"/>
-      <c r="L29" s="75" t="s">
-        <v>292</v>
+      <c r="L29" s="73" t="s">
+        <v>279</v>
       </c>
       <c r="M29" s="77"/>
     </row>
@@ -2931,21 +2996,24 @@
       <c r="J30" s="66"/>
       <c r="K30" s="66"/>
       <c r="L30" s="67" t="s">
-        <v>289</v>
+        <v>276</v>
       </c>
       <c r="M30" s="76" t="s">
-        <v>289</v>
+        <v>276</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="165" x14ac:dyDescent="0.25">
       <c r="A31" s="83"/>
       <c r="B31" s="80" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
       <c r="C31" s="80" t="s">
-        <v>262</v>
-      </c>
-      <c r="E31" s="74" t="s">
+        <v>249</v>
+      </c>
+      <c r="D31" s="43" t="s">
+        <v>185</v>
+      </c>
+      <c r="E31" s="72" t="s">
         <v>192</v>
       </c>
       <c r="F31" s="32" t="s">
@@ -2957,7 +3025,7 @@
       <c r="J31" s="66"/>
       <c r="K31" s="66"/>
       <c r="L31" s="67" t="s">
-        <v>289</v>
+        <v>276</v>
       </c>
       <c r="M31" s="77"/>
     </row>
@@ -2966,10 +3034,10 @@
       <c r="B32" s="83"/>
       <c r="C32" s="80"/>
       <c r="D32" s="58" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="F32" s="41" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="G32" s="66"/>
       <c r="H32" s="66"/>
@@ -2977,7 +3045,7 @@
       <c r="J32" s="66"/>
       <c r="K32" s="66"/>
       <c r="L32" s="67" t="s">
-        <v>289</v>
+        <v>276</v>
       </c>
       <c r="M32" s="77"/>
     </row>
@@ -2986,10 +3054,10 @@
       <c r="B33" s="83"/>
       <c r="C33" s="80"/>
       <c r="D33" s="43" t="s">
-        <v>361</v>
+        <v>343</v>
       </c>
       <c r="F33" s="43" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="G33" s="43"/>
       <c r="H33" s="43"/>
@@ -2997,7 +3065,7 @@
       <c r="J33" s="43"/>
       <c r="K33" s="43"/>
       <c r="L33" s="67" t="s">
-        <v>289</v>
+        <v>276</v>
       </c>
       <c r="M33" s="77"/>
     </row>
@@ -3008,11 +3076,11 @@
       <c r="D34" s="43" t="s">
         <v>172</v>
       </c>
-      <c r="E34" s="74" t="s">
-        <v>251</v>
+      <c r="E34" s="72" t="s">
+        <v>238</v>
       </c>
       <c r="F34" s="43" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="G34" s="43"/>
       <c r="H34" s="43"/>
@@ -3020,7 +3088,7 @@
       <c r="J34" s="43"/>
       <c r="K34" s="43"/>
       <c r="L34" s="67" t="s">
-        <v>289</v>
+        <v>276</v>
       </c>
       <c r="M34" s="77"/>
     </row>
@@ -3029,13 +3097,13 @@
       <c r="B35" s="83"/>
       <c r="C35" s="80"/>
       <c r="D35" s="43" t="s">
-        <v>251</v>
-      </c>
-      <c r="E35" s="74" t="s">
+        <v>238</v>
+      </c>
+      <c r="E35" s="72" t="s">
         <v>132</v>
       </c>
       <c r="F35" s="43" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="G35" s="43"/>
       <c r="H35" s="43"/>
@@ -3043,51 +3111,55 @@
       <c r="J35" s="43"/>
       <c r="K35" s="43"/>
       <c r="L35" s="67" t="s">
-        <v>289</v>
+        <v>276</v>
       </c>
       <c r="M35" s="77"/>
     </row>
-    <row r="36" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="83"/>
       <c r="B36" s="83"/>
       <c r="C36" s="80"/>
       <c r="D36" s="58" t="s">
         <v>132</v>
       </c>
-      <c r="E36" s="74" t="s">
+      <c r="E36" s="72" t="s">
         <v>189</v>
       </c>
       <c r="F36" s="43" t="s">
-        <v>246</v>
+        <v>363</v>
       </c>
       <c r="G36" s="43"/>
       <c r="H36" s="43"/>
-      <c r="I36" s="43"/>
-      <c r="J36" s="43"/>
+      <c r="I36" s="74" t="s">
+        <v>360</v>
+      </c>
+      <c r="J36" s="75" t="s">
+        <v>194</v>
+      </c>
       <c r="K36" s="43"/>
       <c r="L36" s="67" t="s">
-        <v>289</v>
+        <v>276</v>
       </c>
       <c r="M36" s="77"/>
     </row>
     <row r="37" spans="1:13" ht="90" x14ac:dyDescent="0.25">
       <c r="A37" s="80" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="B37" s="80" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
       <c r="C37" s="80" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="D37" s="58" t="s">
         <v>187</v>
       </c>
-      <c r="E37" s="74" t="s">
+      <c r="E37" s="72" t="s">
         <v>191</v>
       </c>
       <c r="F37" s="32" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="G37" s="66"/>
       <c r="H37" s="66"/>
@@ -3095,32 +3167,36 @@
       <c r="J37" s="66"/>
       <c r="K37" s="66"/>
       <c r="L37" s="67" t="s">
-        <v>290</v>
+        <v>277</v>
       </c>
       <c r="M37" s="76" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" ht="105" x14ac:dyDescent="0.25">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" ht="90" x14ac:dyDescent="0.25">
       <c r="A38" s="80"/>
       <c r="B38" s="80"/>
       <c r="C38" s="83"/>
       <c r="D38" s="58" t="s">
         <v>188</v>
       </c>
-      <c r="E38" s="74" t="s">
+      <c r="E38" s="72" t="s">
         <v>191</v>
       </c>
       <c r="F38" s="32" t="s">
-        <v>249</v>
+        <v>364</v>
       </c>
       <c r="G38" s="66"/>
       <c r="H38" s="66"/>
-      <c r="I38" s="66"/>
-      <c r="J38" s="66"/>
+      <c r="I38" s="66" t="s">
+        <v>365</v>
+      </c>
+      <c r="J38" s="67" t="s">
+        <v>277</v>
+      </c>
       <c r="K38" s="66"/>
       <c r="L38" s="67" t="s">
-        <v>290</v>
+        <v>277</v>
       </c>
       <c r="M38" s="77"/>
     </row>
@@ -3131,11 +3207,11 @@
       <c r="D39" s="58" t="s">
         <v>189</v>
       </c>
-      <c r="F39" s="38" t="s">
+      <c r="F39" s="67" t="s">
         <v>194</v>
       </c>
       <c r="L39" s="67" t="s">
-        <v>290</v>
+        <v>277</v>
       </c>
       <c r="M39" s="77"/>
     </row>
@@ -3150,7 +3226,7 @@
         <v>195</v>
       </c>
       <c r="L40" s="67" t="s">
-        <v>290</v>
+        <v>277</v>
       </c>
       <c r="M40" s="77"/>
     </row>
@@ -3161,7 +3237,7 @@
       <c r="D41" s="58" t="s">
         <v>191</v>
       </c>
-      <c r="E41" s="74" t="s">
+      <c r="E41" s="72" t="s">
         <v>189</v>
       </c>
       <c r="F41" s="39" t="s">
@@ -3173,45 +3249,49 @@
       <c r="J41" s="66"/>
       <c r="K41" s="66"/>
       <c r="L41" s="67" t="s">
-        <v>290</v>
+        <v>277</v>
       </c>
       <c r="M41" s="77"/>
     </row>
-    <row r="42" spans="1:13" ht="150" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" ht="105" x14ac:dyDescent="0.25">
       <c r="A42" s="80"/>
       <c r="B42" s="80"/>
       <c r="C42" s="83"/>
       <c r="D42" s="58" t="s">
         <v>192</v>
       </c>
-      <c r="E42" s="74" t="s">
+      <c r="E42" s="72" t="s">
         <v>189</v>
       </c>
       <c r="F42" s="32" t="s">
-        <v>216</v>
+        <v>367</v>
       </c>
       <c r="G42" s="66"/>
       <c r="H42" s="66"/>
-      <c r="I42" s="66"/>
-      <c r="J42" s="66"/>
+      <c r="I42" s="66" t="s">
+        <v>368</v>
+      </c>
+      <c r="J42" s="66" t="s">
+        <v>366</v>
+      </c>
       <c r="K42" s="66"/>
       <c r="L42" s="67" t="s">
-        <v>290</v>
+        <v>277</v>
       </c>
       <c r="M42" s="77"/>
     </row>
-    <row r="43" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="80"/>
       <c r="B43" s="80"/>
       <c r="C43" s="83"/>
       <c r="D43" s="58" t="s">
         <v>193</v>
       </c>
-      <c r="E43" s="74" t="s">
+      <c r="E43" s="72" t="s">
         <v>189</v>
       </c>
       <c r="F43" s="41" t="s">
-        <v>197</v>
+        <v>369</v>
       </c>
       <c r="G43" s="66"/>
       <c r="H43" s="66"/>
@@ -3219,7 +3299,7 @@
       <c r="J43" s="66"/>
       <c r="K43" s="66"/>
       <c r="L43" s="67" t="s">
-        <v>290</v>
+        <v>370</v>
       </c>
       <c r="M43" s="77"/>
     </row>
@@ -3228,37 +3308,43 @@
       <c r="B44" s="62"/>
       <c r="C44" s="63"/>
       <c r="D44" s="62"/>
-      <c r="E44" s="74"/>
+      <c r="E44" s="72"/>
       <c r="F44" s="62"/>
       <c r="G44" s="66"/>
       <c r="H44" s="66"/>
       <c r="I44" s="66"/>
       <c r="J44" s="66"/>
       <c r="K44" s="66"/>
-      <c r="L44" s="74"/>
+      <c r="L44" s="72"/>
       <c r="M44" s="65"/>
     </row>
     <row r="45" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A45" s="59" t="s">
+        <v>208</v>
+      </c>
+      <c r="B45" s="57" t="s">
+        <v>253</v>
+      </c>
+      <c r="C45" t="s">
+        <v>254</v>
+      </c>
+      <c r="D45" s="58" t="s">
+        <v>209</v>
+      </c>
+      <c r="F45" s="40" t="s">
+        <v>208</v>
+      </c>
+      <c r="I45" s="44" t="s">
+        <v>371</v>
+      </c>
+      <c r="J45" s="47" t="s">
         <v>212</v>
       </c>
-      <c r="B45" s="57" t="s">
-        <v>266</v>
-      </c>
-      <c r="C45" t="s">
-        <v>267</v>
-      </c>
-      <c r="D45" s="58" t="s">
-        <v>213</v>
-      </c>
-      <c r="F45" s="40" t="s">
-        <v>217</v>
-      </c>
       <c r="L45" s="47" t="s">
-        <v>291</v>
+        <v>278</v>
       </c>
       <c r="M45" s="47" t="s">
-        <v>291</v>
+        <v>278</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
@@ -3330,7 +3416,7 @@
     <hyperlink ref="L4" r:id="rId14" xr:uid="{24EA9806-C569-4951-9504-2FBC155A4446}"/>
     <hyperlink ref="L5" r:id="rId15" xr:uid="{B2640193-23B3-4108-9FF7-9A01FDC2AAC4}"/>
     <hyperlink ref="L6" r:id="rId16" xr:uid="{4F3333E6-215D-49C2-B203-B676F10F4601}"/>
-    <hyperlink ref="L7" r:id="rId17" xr:uid="{6990F5E4-6310-4A17-B71D-FAB7F93D11D5}"/>
+    <hyperlink ref="L7" r:id="rId17" location="doctor-discussion-guide" xr:uid="{6990F5E4-6310-4A17-B71D-FAB7F93D11D5}"/>
     <hyperlink ref="L8" r:id="rId18" xr:uid="{04233E34-718D-4FD2-B60C-142BE08A93EF}"/>
     <hyperlink ref="L9" r:id="rId19" xr:uid="{F743F447-69D3-44E6-A171-3A5CDB40140F}"/>
     <hyperlink ref="L11" r:id="rId20" xr:uid="{C74AC20C-A05F-45CF-9703-88D2A8AD3FA3}"/>
@@ -3360,10 +3446,19 @@
     <hyperlink ref="L38" r:id="rId44" xr:uid="{5C6EA840-F6F3-47B4-BF56-FECCA091D866}"/>
     <hyperlink ref="L39:L43" r:id="rId45" display="https://www.acadiaconnect.com/patient-caregivers/insurance-coverage-lookup" xr:uid="{6A2C5DF3-B491-4DBD-A8C6-597470EBE2D7}"/>
     <hyperlink ref="L45" r:id="rId46" xr:uid="{73DAF1B1-3B43-4FD4-9161-2EE6FA67CE88}"/>
+    <hyperlink ref="J9" r:id="rId47" display="https://www.nuplazid.com/pdf/pd-related-hallucinations-delusions-fact-sheet.pdf" xr:uid="{26691ED7-EFDE-4DB4-A370-0B417C2828BD}"/>
+    <hyperlink ref="H11" r:id="rId48" xr:uid="{99732C09-FF1A-4F23-A20A-36D79579CECB}"/>
+    <hyperlink ref="J25" r:id="rId49" xr:uid="{A99F0323-0C4D-44CA-9106-FDC6B4963B84}"/>
+    <hyperlink ref="J27" r:id="rId50" xr:uid="{A989EB85-40E9-492E-BB74-5DDDBB25F0A2}"/>
+    <hyperlink ref="J36" r:id="rId51" xr:uid="{C7839013-3B2D-48BB-BA73-B489A431AA76}"/>
+    <hyperlink ref="J38" r:id="rId52" xr:uid="{83C6FC6F-21F5-414F-B067-89E122F910EA}"/>
+    <hyperlink ref="F39" r:id="rId53" xr:uid="{20EC18BB-269E-40F3-A1A3-3208B6D8D202}"/>
+    <hyperlink ref="L43" r:id="rId54" location="sign-up-stay-informed" xr:uid="{52D7B43E-E1C5-452E-800C-55136E47BFD5}"/>
+    <hyperlink ref="J45" r:id="rId55" xr:uid="{48157E4F-981F-4BB1-B37C-E75C17E5971B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId47"/>
-  <legacyDrawing r:id="rId48"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId56"/>
+  <legacyDrawing r:id="rId57"/>
 </worksheet>
 </file>
 
@@ -4416,9 +4511,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M97"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D84" sqref="D84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4438,40 +4533,40 @@
         <v>1</v>
       </c>
       <c r="B1" s="48" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="C1" s="48" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="D1" s="51" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E1" s="51" t="s">
-        <v>350</v>
+        <v>332</v>
       </c>
       <c r="F1" s="51" t="s">
         <v>12</v>
       </c>
       <c r="G1" s="45" t="s">
+        <v>317</v>
+      </c>
+      <c r="H1" s="45" t="s">
+        <v>318</v>
+      </c>
+      <c r="I1" s="45" t="s">
+        <v>319</v>
+      </c>
+      <c r="J1" s="45" t="s">
+        <v>320</v>
+      </c>
+      <c r="K1" s="45" t="s">
+        <v>321</v>
+      </c>
+      <c r="L1" s="45" t="s">
         <v>333</v>
       </c>
-      <c r="H1" s="45" t="s">
-        <v>334</v>
-      </c>
-      <c r="I1" s="45" t="s">
-        <v>335</v>
-      </c>
-      <c r="J1" s="45" t="s">
-        <v>336</v>
-      </c>
-      <c r="K1" s="45" t="s">
-        <v>337</v>
-      </c>
-      <c r="L1" s="45" t="s">
-        <v>351</v>
-      </c>
       <c r="M1" s="45" t="s">
-        <v>306</v>
+        <v>293</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="60" x14ac:dyDescent="0.25">
@@ -4479,15 +4574,15 @@
         <v>2</v>
       </c>
       <c r="B2" s="52" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="C2" s="52" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="D2" s="54" t="s">
-        <v>353</v>
-      </c>
-      <c r="E2" s="71" t="s">
+        <v>335</v>
+      </c>
+      <c r="E2" s="69" t="s">
         <v>21</v>
       </c>
       <c r="F2" s="53" t="s">
@@ -4510,10 +4605,10 @@
         <v>16</v>
       </c>
       <c r="B3" s="86" t="s">
-        <v>307</v>
+        <v>294</v>
       </c>
       <c r="C3" s="86" t="s">
-        <v>304</v>
+        <v>291</v>
       </c>
       <c r="D3" s="80" t="s">
         <v>21</v>
@@ -4522,7 +4617,7 @@
         <v>22</v>
       </c>
       <c r="F3" s="80" t="s">
-        <v>294</v>
+        <v>281</v>
       </c>
       <c r="G3" s="66"/>
       <c r="H3" s="66"/>
@@ -4530,10 +4625,10 @@
       <c r="J3" s="67"/>
       <c r="K3" s="66"/>
       <c r="L3" s="67" t="s">
-        <v>293</v>
+        <v>280</v>
       </c>
       <c r="M3" s="76" t="s">
-        <v>293</v>
+        <v>280</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -4549,7 +4644,7 @@
       <c r="J4" s="67"/>
       <c r="K4" s="66"/>
       <c r="L4" s="67" t="s">
-        <v>293</v>
+        <v>280</v>
       </c>
       <c r="M4" s="77"/>
     </row>
@@ -4566,7 +4661,7 @@
       <c r="J5" s="67"/>
       <c r="K5" s="66"/>
       <c r="L5" s="67" t="s">
-        <v>293</v>
+        <v>280</v>
       </c>
       <c r="M5" s="77"/>
     </row>
@@ -4583,7 +4678,7 @@
       <c r="J6" s="67"/>
       <c r="K6" s="66"/>
       <c r="L6" s="67" t="s">
-        <v>293</v>
+        <v>280</v>
       </c>
       <c r="M6" s="77"/>
     </row>
@@ -4600,7 +4695,7 @@
       <c r="J7" s="67"/>
       <c r="K7" s="66"/>
       <c r="L7" s="67" t="s">
-        <v>293</v>
+        <v>280</v>
       </c>
       <c r="M7" s="77"/>
     </row>
@@ -4611,31 +4706,31 @@
       <c r="D8" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="70"/>
+      <c r="E8" s="68"/>
       <c r="F8" s="50" t="s">
-        <v>338</v>
+        <v>322</v>
       </c>
       <c r="G8" s="66"/>
       <c r="H8" s="66"/>
       <c r="I8" s="66" t="s">
-        <v>352</v>
+        <v>334</v>
       </c>
       <c r="J8" s="66" t="s">
-        <v>339</v>
+        <v>323</v>
       </c>
       <c r="K8" s="66"/>
-      <c r="L8" s="72"/>
+      <c r="L8" s="70"/>
       <c r="M8" s="44"/>
     </row>
     <row r="9" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="85" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="B9" s="88" t="s">
-        <v>309</v>
+        <v>296</v>
       </c>
       <c r="C9" s="86" t="s">
-        <v>308</v>
+        <v>295</v>
       </c>
       <c r="D9" s="80" t="s">
         <v>27</v>
@@ -4699,7 +4794,7 @@
       <c r="D12" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="70" t="s">
+      <c r="E12" s="68" t="s">
         <v>29</v>
       </c>
       <c r="F12" s="50" t="s">
@@ -4722,7 +4817,7 @@
       <c r="D13" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="E13" s="70" t="s">
+      <c r="E13" s="68" t="s">
         <v>43</v>
       </c>
       <c r="F13" s="50" t="s">
@@ -4745,8 +4840,8 @@
       <c r="D14" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="E14" s="70"/>
-      <c r="F14" s="80" t="s">
+      <c r="E14" s="68"/>
+      <c r="F14" s="74" t="s">
         <v>39</v>
       </c>
       <c r="G14" s="66"/>
@@ -4766,8 +4861,10 @@
       <c r="D15" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="E15" s="70"/>
-      <c r="F15" s="80"/>
+      <c r="E15" s="68"/>
+      <c r="F15" s="74" t="s">
+        <v>39</v>
+      </c>
       <c r="G15" s="66"/>
       <c r="H15" s="66"/>
       <c r="I15" s="66"/>
@@ -4783,15 +4880,15 @@
         <v>41</v>
       </c>
       <c r="B16" s="86" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="C16" s="86" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
       <c r="D16" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="E16" s="70"/>
+      <c r="E16" s="68"/>
       <c r="F16" s="50" t="s">
         <v>38</v>
       </c>
@@ -4814,7 +4911,7 @@
       <c r="D17" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="E17" s="70"/>
+      <c r="E17" s="68"/>
       <c r="F17" s="50" t="s">
         <v>47</v>
       </c>
@@ -4835,7 +4932,7 @@
       <c r="D18" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="E18" s="70"/>
+      <c r="E18" s="68"/>
       <c r="F18" s="50" t="s">
         <v>48</v>
       </c>
@@ -4856,7 +4953,7 @@
       <c r="D19" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="E19" s="70"/>
+      <c r="E19" s="68"/>
       <c r="F19" s="50" t="s">
         <v>49</v>
       </c>
@@ -4877,7 +4974,7 @@
       <c r="D20" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="E20" s="70"/>
+      <c r="E20" s="68"/>
       <c r="F20" s="50" t="s">
         <v>50</v>
       </c>
@@ -4891,18 +4988,18 @@
       </c>
       <c r="M20" s="76"/>
     </row>
-    <row r="21" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A21" s="85"/>
       <c r="B21" s="86"/>
       <c r="C21" s="86"/>
       <c r="D21" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="E21" s="80" t="s">
-        <v>219</v>
+      <c r="E21" s="74" t="s">
+        <v>214</v>
       </c>
       <c r="F21" s="50" t="s">
-        <v>51</v>
+        <v>345</v>
       </c>
       <c r="G21" s="66"/>
       <c r="H21" s="66"/>
@@ -4914,17 +5011,12 @@
       </c>
       <c r="M21" s="76"/>
     </row>
-    <row r="22" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="85"/>
       <c r="B22" s="86"/>
       <c r="C22" s="86"/>
-      <c r="D22" s="80" t="s">
-        <v>219</v>
-      </c>
-      <c r="E22" s="80"/>
-      <c r="F22" s="50" t="s">
-        <v>53</v>
-      </c>
+      <c r="E22" s="74"/>
+      <c r="F22" s="50"/>
       <c r="G22" s="66"/>
       <c r="H22" s="66"/>
       <c r="I22" s="66"/>
@@ -4939,9 +5031,11 @@
       <c r="A23" s="85"/>
       <c r="B23" s="86"/>
       <c r="C23" s="86"/>
-      <c r="D23" s="80"/>
-      <c r="E23" s="70" t="s">
-        <v>220</v>
+      <c r="D23" s="74" t="s">
+        <v>214</v>
+      </c>
+      <c r="E23" s="68" t="s">
+        <v>215</v>
       </c>
       <c r="F23" s="50" t="s">
         <v>55</v>
@@ -4961,9 +5055,9 @@
       <c r="B24" s="86"/>
       <c r="C24" s="86"/>
       <c r="D24" s="50" t="s">
-        <v>220</v>
-      </c>
-      <c r="E24" s="70" t="s">
+        <v>215</v>
+      </c>
+      <c r="E24" s="68" t="s">
         <v>107</v>
       </c>
       <c r="F24" s="50" t="s">
@@ -4984,10 +5078,10 @@
         <v>58</v>
       </c>
       <c r="B25" s="86" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="C25" s="86" t="s">
-        <v>310</v>
+        <v>297</v>
       </c>
       <c r="D25" s="44"/>
       <c r="F25" s="50"/>
@@ -5003,16 +5097,18 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A26" s="86"/>
       <c r="B26" s="86"/>
       <c r="C26" s="86"/>
-      <c r="D26" s="80" t="s">
+      <c r="D26" s="74" t="s">
         <v>58</v>
       </c>
-      <c r="E26" s="70"/>
-      <c r="F26" s="50" t="s">
-        <v>60</v>
+      <c r="E26" s="68" t="s">
+        <v>218</v>
+      </c>
+      <c r="F26" s="74" t="s">
+        <v>344</v>
       </c>
       <c r="G26" s="43"/>
       <c r="H26" s="43"/>
@@ -5028,13 +5124,8 @@
       <c r="A27" s="86"/>
       <c r="B27" s="86"/>
       <c r="C27" s="86"/>
-      <c r="D27" s="80"/>
-      <c r="E27" s="70" t="s">
-        <v>224</v>
-      </c>
-      <c r="F27" s="50" t="s">
-        <v>61</v>
-      </c>
+      <c r="D27" s="74"/>
+      <c r="F27" s="74"/>
       <c r="G27" s="66"/>
       <c r="H27" s="66"/>
       <c r="I27" s="66"/>
@@ -5050,9 +5141,9 @@
       <c r="B28" s="86"/>
       <c r="C28" s="86"/>
       <c r="D28" s="50" t="s">
-        <v>221</v>
-      </c>
-      <c r="E28" s="70"/>
+        <v>216</v>
+      </c>
+      <c r="E28" s="68"/>
       <c r="F28" s="50" t="s">
         <v>65</v>
       </c>
@@ -5071,15 +5162,15 @@
         <v>66</v>
       </c>
       <c r="B29" s="86" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c r="C29" s="86" t="s">
-        <v>271</v>
+        <v>258</v>
       </c>
       <c r="D29" s="50" t="s">
-        <v>222</v>
-      </c>
-      <c r="E29" s="70"/>
+        <v>217</v>
+      </c>
+      <c r="E29" s="68"/>
       <c r="F29" s="50" t="s">
         <v>68</v>
       </c>
@@ -5089,10 +5180,10 @@
       <c r="J29" s="67"/>
       <c r="K29" s="42"/>
       <c r="L29" s="67" t="s">
-        <v>295</v>
+        <v>282</v>
       </c>
       <c r="M29" s="76" t="s">
-        <v>295</v>
+        <v>282</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="30" x14ac:dyDescent="0.25">
@@ -5102,7 +5193,7 @@
       <c r="D30" s="50" t="s">
         <v>67</v>
       </c>
-      <c r="E30" s="70" t="s">
+      <c r="E30" s="68" t="s">
         <v>107</v>
       </c>
       <c r="F30" s="50" t="s">
@@ -5114,20 +5205,22 @@
       <c r="J30" s="67"/>
       <c r="K30" s="66"/>
       <c r="L30" s="67" t="s">
-        <v>295</v>
+        <v>282</v>
       </c>
       <c r="M30" s="77"/>
     </row>
-    <row r="31" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" ht="210" x14ac:dyDescent="0.25">
       <c r="A31" s="86"/>
       <c r="B31" s="86"/>
       <c r="C31" s="86"/>
-      <c r="D31" s="80" t="s">
+      <c r="D31" s="74" t="s">
         <v>44</v>
       </c>
-      <c r="E31" s="70"/>
+      <c r="E31" s="68" t="s">
+        <v>107</v>
+      </c>
       <c r="F31" s="50" t="s">
-        <v>70</v>
+        <v>346</v>
       </c>
       <c r="G31" s="66"/>
       <c r="H31" s="66"/>
@@ -5135,7 +5228,7 @@
       <c r="J31" s="67"/>
       <c r="K31" s="66"/>
       <c r="L31" s="67" t="s">
-        <v>295</v>
+        <v>282</v>
       </c>
       <c r="M31" s="77"/>
     </row>
@@ -5143,56 +5236,50 @@
       <c r="A32" s="86"/>
       <c r="B32" s="86"/>
       <c r="C32" s="86"/>
-      <c r="D32" s="80"/>
-      <c r="E32" s="70"/>
-      <c r="F32" s="50" t="s">
-        <v>71</v>
-      </c>
+      <c r="D32" s="74"/>
+      <c r="E32" s="68"/>
+      <c r="F32" s="50"/>
       <c r="G32" s="66"/>
       <c r="H32" s="66"/>
       <c r="I32" s="66"/>
       <c r="J32" s="67"/>
       <c r="K32" s="66"/>
       <c r="L32" s="67" t="s">
-        <v>295</v>
+        <v>282</v>
       </c>
       <c r="M32" s="77"/>
     </row>
-    <row r="33" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="86"/>
       <c r="B33" s="86"/>
       <c r="C33" s="86"/>
-      <c r="D33" s="80"/>
-      <c r="E33" s="70"/>
-      <c r="F33" s="50" t="s">
-        <v>72</v>
-      </c>
+      <c r="D33" s="74"/>
+      <c r="E33" s="68"/>
+      <c r="F33" s="50"/>
       <c r="G33" s="43"/>
       <c r="H33" s="43"/>
       <c r="I33" s="66"/>
       <c r="J33" s="67"/>
       <c r="K33" s="43"/>
       <c r="L33" s="67" t="s">
-        <v>295</v>
+        <v>282</v>
       </c>
       <c r="M33" s="77"/>
     </row>
-    <row r="34" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="86"/>
       <c r="B34" s="86"/>
       <c r="C34" s="86"/>
-      <c r="D34" s="80"/>
-      <c r="E34" s="70"/>
-      <c r="F34" s="50" t="s">
-        <v>73</v>
-      </c>
+      <c r="D34" s="74"/>
+      <c r="E34" s="68"/>
+      <c r="F34" s="50"/>
       <c r="G34" s="43"/>
       <c r="H34" s="43"/>
       <c r="I34" s="66"/>
       <c r="J34" s="67"/>
       <c r="K34" s="43"/>
       <c r="L34" s="67" t="s">
-        <v>295</v>
+        <v>282</v>
       </c>
       <c r="M34" s="77"/>
     </row>
@@ -5200,39 +5287,32 @@
       <c r="A35" s="86"/>
       <c r="B35" s="86"/>
       <c r="C35" s="86"/>
-      <c r="D35" s="80"/>
-      <c r="E35" s="70"/>
-      <c r="F35" s="50" t="s">
-        <v>74</v>
-      </c>
+      <c r="D35" s="74"/>
+      <c r="E35" s="68"/>
+      <c r="F35" s="50"/>
       <c r="G35" s="43"/>
       <c r="H35" s="43"/>
       <c r="I35" s="66"/>
       <c r="J35" s="67"/>
       <c r="K35" s="43"/>
       <c r="L35" s="67" t="s">
-        <v>295</v>
+        <v>282</v>
       </c>
       <c r="M35" s="77"/>
     </row>
-    <row r="36" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="86"/>
       <c r="B36" s="86"/>
       <c r="C36" s="86"/>
-      <c r="D36" s="80"/>
-      <c r="E36" s="70" t="s">
-        <v>107</v>
-      </c>
-      <c r="F36" s="50" t="s">
-        <v>223</v>
-      </c>
+      <c r="D36" s="74"/>
+      <c r="F36" s="50"/>
       <c r="G36" s="43"/>
       <c r="H36" s="43"/>
       <c r="I36" s="66"/>
       <c r="J36" s="67"/>
       <c r="K36" s="43"/>
       <c r="L36" s="67" t="s">
-        <v>295</v>
+        <v>282</v>
       </c>
       <c r="M36" s="77"/>
     </row>
@@ -5241,19 +5321,19 @@
         <v>77</v>
       </c>
       <c r="B37" s="86" t="s">
-        <v>311</v>
+        <v>298</v>
       </c>
       <c r="C37" s="86" t="s">
-        <v>272</v>
+        <v>259</v>
       </c>
       <c r="D37" s="50" t="s">
-        <v>224</v>
-      </c>
-      <c r="E37" s="70" t="s">
+        <v>218</v>
+      </c>
+      <c r="E37" s="68" t="s">
         <v>107</v>
       </c>
       <c r="F37" s="50" t="s">
-        <v>340</v>
+        <v>324</v>
       </c>
       <c r="G37" s="66"/>
       <c r="H37" s="67" t="s">
@@ -5262,9 +5342,9 @@
       <c r="I37" s="66"/>
       <c r="J37" s="66"/>
       <c r="K37" s="66"/>
-      <c r="L37" s="72"/>
+      <c r="L37" s="70"/>
       <c r="M37" s="76" t="s">
-        <v>296</v>
+        <v>283</v>
       </c>
     </row>
     <row r="38" spans="1:13" ht="45" x14ac:dyDescent="0.25">
@@ -5272,11 +5352,11 @@
       <c r="B38" s="86"/>
       <c r="C38" s="86"/>
       <c r="D38" s="50" t="s">
-        <v>225</v>
-      </c>
-      <c r="E38" s="70"/>
+        <v>219</v>
+      </c>
+      <c r="E38" s="68"/>
       <c r="F38" s="50" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="G38" s="66"/>
       <c r="H38" s="66"/>
@@ -5284,7 +5364,7 @@
       <c r="J38" s="67"/>
       <c r="K38" s="66"/>
       <c r="L38" s="67" t="s">
-        <v>296</v>
+        <v>283</v>
       </c>
       <c r="M38" s="77"/>
     </row>
@@ -5293,27 +5373,27 @@
         <v>80</v>
       </c>
       <c r="B39" s="86" t="s">
-        <v>273</v>
+        <v>260</v>
       </c>
       <c r="C39" s="86" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="D39" s="50" t="s">
         <v>81</v>
       </c>
-      <c r="E39" s="70" t="s">
+      <c r="E39" s="68" t="s">
         <v>107</v>
       </c>
       <c r="F39" s="50" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="I39" s="66"/>
       <c r="J39" s="47"/>
       <c r="L39" s="47" t="s">
-        <v>297</v>
+        <v>284</v>
       </c>
       <c r="M39" s="76" t="s">
-        <v>297</v>
+        <v>284</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
@@ -5323,14 +5403,14 @@
       <c r="D40" s="50" t="s">
         <v>82</v>
       </c>
-      <c r="E40" s="70"/>
+      <c r="E40" s="68"/>
       <c r="F40" s="50" t="s">
         <v>89</v>
       </c>
       <c r="I40" s="66"/>
       <c r="J40" s="47"/>
       <c r="L40" s="47" t="s">
-        <v>297</v>
+        <v>284</v>
       </c>
       <c r="M40" s="77"/>
     </row>
@@ -5341,7 +5421,7 @@
       <c r="D41" s="50" t="s">
         <v>83</v>
       </c>
-      <c r="E41" s="70" t="s">
+      <c r="E41" s="68" t="s">
         <v>107</v>
       </c>
       <c r="F41" s="50" t="s">
@@ -5353,20 +5433,20 @@
       <c r="J41" s="47"/>
       <c r="K41" s="66"/>
       <c r="L41" s="47" t="s">
-        <v>297</v>
+        <v>284</v>
       </c>
       <c r="M41" s="77"/>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" ht="225" x14ac:dyDescent="0.25">
       <c r="A42" s="86"/>
       <c r="B42" s="86"/>
       <c r="C42" s="86"/>
-      <c r="D42" s="80" t="s">
+      <c r="D42" s="74" t="s">
         <v>85</v>
       </c>
-      <c r="E42" s="70"/>
+      <c r="E42" s="68"/>
       <c r="F42" s="50" t="s">
-        <v>227</v>
+        <v>349</v>
       </c>
       <c r="G42" s="66"/>
       <c r="H42" s="66"/>
@@ -5374,26 +5454,24 @@
       <c r="J42" s="47"/>
       <c r="K42" s="66"/>
       <c r="L42" s="47" t="s">
-        <v>297</v>
+        <v>284</v>
       </c>
       <c r="M42" s="77"/>
     </row>
-    <row r="43" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="86"/>
       <c r="B43" s="86"/>
       <c r="C43" s="86"/>
-      <c r="D43" s="80"/>
-      <c r="E43" s="70"/>
-      <c r="F43" s="50" t="s">
-        <v>93</v>
-      </c>
+      <c r="D43" s="74"/>
+      <c r="E43" s="68"/>
+      <c r="F43" s="50"/>
       <c r="G43" s="66"/>
       <c r="H43" s="66"/>
       <c r="I43" s="66"/>
       <c r="J43" s="47"/>
       <c r="K43" s="66"/>
       <c r="L43" s="47" t="s">
-        <v>297</v>
+        <v>284</v>
       </c>
       <c r="M43" s="77"/>
     </row>
@@ -5401,34 +5479,30 @@
       <c r="A44" s="86"/>
       <c r="B44" s="86"/>
       <c r="C44" s="86"/>
-      <c r="D44" s="80"/>
-      <c r="E44" s="70"/>
-      <c r="F44" s="50" t="s">
-        <v>94</v>
-      </c>
+      <c r="D44" s="74"/>
+      <c r="E44" s="68"/>
+      <c r="F44" s="50"/>
       <c r="G44" s="66"/>
       <c r="H44" s="66"/>
       <c r="I44" s="66"/>
       <c r="J44" s="47"/>
       <c r="K44" s="66"/>
       <c r="L44" s="47" t="s">
-        <v>297</v>
+        <v>284</v>
       </c>
       <c r="M44" s="77"/>
     </row>
-    <row r="45" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="86"/>
       <c r="B45" s="86"/>
       <c r="C45" s="86"/>
-      <c r="D45" s="80"/>
-      <c r="E45" s="70"/>
-      <c r="F45" s="50" t="s">
-        <v>95</v>
-      </c>
+      <c r="D45" s="74"/>
+      <c r="E45" s="68"/>
+      <c r="F45" s="50"/>
       <c r="I45" s="66"/>
       <c r="J45" s="47"/>
       <c r="L45" s="47" t="s">
-        <v>297</v>
+        <v>284</v>
       </c>
       <c r="M45" s="77"/>
     </row>
@@ -5436,15 +5510,13 @@
       <c r="A46" s="86"/>
       <c r="B46" s="86"/>
       <c r="C46" s="86"/>
-      <c r="D46" s="80"/>
-      <c r="E46" s="70"/>
-      <c r="F46" s="50" t="s">
-        <v>96</v>
-      </c>
+      <c r="D46" s="74"/>
+      <c r="E46" s="68"/>
+      <c r="F46" s="50"/>
       <c r="I46" s="66"/>
       <c r="J46" s="47"/>
       <c r="L46" s="47" t="s">
-        <v>297</v>
+        <v>284</v>
       </c>
       <c r="M46" s="77"/>
     </row>
@@ -5452,15 +5524,13 @@
       <c r="A47" s="86"/>
       <c r="B47" s="86"/>
       <c r="C47" s="86"/>
-      <c r="D47" s="80"/>
-      <c r="E47" s="70"/>
-      <c r="F47" s="50" t="s">
-        <v>97</v>
-      </c>
+      <c r="D47" s="74"/>
+      <c r="E47" s="68"/>
+      <c r="F47" s="50"/>
       <c r="I47" s="66"/>
       <c r="J47" s="47"/>
       <c r="L47" s="47" t="s">
-        <v>297</v>
+        <v>284</v>
       </c>
       <c r="M47" s="77"/>
     </row>
@@ -5468,15 +5538,13 @@
       <c r="A48" s="86"/>
       <c r="B48" s="86"/>
       <c r="C48" s="86"/>
-      <c r="D48" s="80"/>
-      <c r="E48" s="70"/>
-      <c r="F48" s="50" t="s">
-        <v>98</v>
-      </c>
+      <c r="D48" s="74"/>
+      <c r="E48" s="68"/>
+      <c r="F48" s="50"/>
       <c r="I48" s="66"/>
       <c r="J48" s="47"/>
       <c r="L48" s="47" t="s">
-        <v>297</v>
+        <v>284</v>
       </c>
       <c r="M48" s="77"/>
     </row>
@@ -5484,15 +5552,13 @@
       <c r="A49" s="86"/>
       <c r="B49" s="86"/>
       <c r="C49" s="86"/>
-      <c r="D49" s="80"/>
-      <c r="E49" s="70"/>
-      <c r="F49" s="50" t="s">
-        <v>99</v>
-      </c>
+      <c r="D49" s="74"/>
+      <c r="E49" s="68"/>
+      <c r="F49" s="50"/>
       <c r="I49" s="66"/>
       <c r="J49" s="47"/>
       <c r="L49" s="47" t="s">
-        <v>297</v>
+        <v>284</v>
       </c>
       <c r="M49" s="77"/>
     </row>
@@ -5500,63 +5566,55 @@
       <c r="A50" s="86"/>
       <c r="B50" s="86"/>
       <c r="C50" s="86"/>
-      <c r="D50" s="80"/>
-      <c r="E50" s="70"/>
-      <c r="F50" s="50" t="s">
-        <v>100</v>
-      </c>
+      <c r="D50" s="74"/>
+      <c r="E50" s="68"/>
+      <c r="F50" s="50"/>
       <c r="I50" s="66"/>
       <c r="J50" s="47"/>
       <c r="L50" s="47" t="s">
-        <v>297</v>
+        <v>284</v>
       </c>
       <c r="M50" s="77"/>
     </row>
-    <row r="51" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="86"/>
       <c r="B51" s="86"/>
       <c r="C51" s="86"/>
-      <c r="D51" s="80"/>
-      <c r="E51" s="70"/>
-      <c r="F51" s="50" t="s">
-        <v>101</v>
-      </c>
+      <c r="D51" s="74"/>
+      <c r="E51" s="68"/>
+      <c r="F51" s="50"/>
       <c r="I51" s="66"/>
       <c r="J51" s="47"/>
       <c r="L51" s="47" t="s">
-        <v>297</v>
+        <v>284</v>
       </c>
       <c r="M51" s="77"/>
     </row>
-    <row r="52" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="86"/>
       <c r="B52" s="86"/>
       <c r="C52" s="86"/>
-      <c r="D52" s="80"/>
-      <c r="E52" s="70"/>
-      <c r="F52" s="50" t="s">
-        <v>102</v>
-      </c>
+      <c r="D52" s="74"/>
+      <c r="E52" s="68"/>
+      <c r="F52" s="50"/>
       <c r="I52" s="66"/>
       <c r="J52" s="47"/>
       <c r="L52" s="47" t="s">
-        <v>297</v>
+        <v>284</v>
       </c>
       <c r="M52" s="77"/>
     </row>
-    <row r="53" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="86"/>
       <c r="B53" s="86"/>
       <c r="C53" s="86"/>
-      <c r="D53" s="80"/>
-      <c r="E53" s="70"/>
-      <c r="F53" s="50" t="s">
-        <v>103</v>
-      </c>
+      <c r="D53" s="74"/>
+      <c r="E53" s="68"/>
+      <c r="F53" s="50"/>
       <c r="I53" s="66"/>
       <c r="J53" s="47"/>
       <c r="L53" s="47" t="s">
-        <v>297</v>
+        <v>284</v>
       </c>
       <c r="M53" s="77"/>
     </row>
@@ -5565,25 +5623,25 @@
         <v>189</v>
       </c>
       <c r="B54" s="86" t="s">
-        <v>275</v>
+        <v>262</v>
       </c>
       <c r="C54" s="86" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="D54" s="50" t="s">
         <v>105</v>
       </c>
-      <c r="E54" s="70"/>
+      <c r="E54" s="68"/>
       <c r="F54" s="50" t="s">
         <v>109</v>
       </c>
       <c r="I54" s="66"/>
       <c r="J54" s="67"/>
       <c r="L54" s="67" t="s">
-        <v>341</v>
+        <v>325</v>
       </c>
       <c r="M54" s="87" t="s">
-        <v>298</v>
+        <v>285</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
@@ -5593,14 +5651,14 @@
       <c r="D55" s="50" t="s">
         <v>106</v>
       </c>
-      <c r="E55" s="70"/>
+      <c r="E55" s="68"/>
       <c r="F55" s="50" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="I55" s="66"/>
       <c r="J55" s="47"/>
       <c r="L55" s="47" t="s">
-        <v>341</v>
+        <v>325</v>
       </c>
       <c r="M55" s="77"/>
     </row>
@@ -5611,7 +5669,7 @@
       <c r="D56" s="50" t="s">
         <v>107</v>
       </c>
-      <c r="E56" s="80" t="s">
+      <c r="E56" s="74" t="s">
         <v>153</v>
       </c>
       <c r="F56" s="50" t="s">
@@ -5620,57 +5678,55 @@
       <c r="I56" s="66"/>
       <c r="J56" s="67"/>
       <c r="L56" s="67" t="s">
-        <v>341</v>
+        <v>325</v>
       </c>
       <c r="M56" s="77"/>
     </row>
-    <row r="57" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" ht="180" x14ac:dyDescent="0.25">
       <c r="A57" s="86"/>
       <c r="B57" s="86"/>
       <c r="C57" s="86"/>
-      <c r="D57" s="80" t="s">
+      <c r="D57" s="74" t="s">
         <v>108</v>
       </c>
-      <c r="E57" s="80"/>
+      <c r="E57" s="74" t="s">
+        <v>153</v>
+      </c>
       <c r="F57" s="50" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="I57" s="66"/>
       <c r="J57" s="47"/>
       <c r="L57" s="47" t="s">
-        <v>341</v>
+        <v>325</v>
       </c>
       <c r="M57" s="77"/>
     </row>
-    <row r="58" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="86"/>
       <c r="B58" s="86"/>
       <c r="C58" s="86"/>
-      <c r="D58" s="80"/>
-      <c r="E58" s="80"/>
-      <c r="F58" s="50" t="s">
-        <v>71</v>
-      </c>
+      <c r="D58" s="74"/>
+      <c r="E58" s="74"/>
+      <c r="F58" s="50"/>
       <c r="I58" s="66"/>
       <c r="J58" s="47"/>
       <c r="L58" s="47" t="s">
-        <v>341</v>
+        <v>325</v>
       </c>
       <c r="M58" s="77"/>
     </row>
-    <row r="59" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="86"/>
       <c r="B59" s="86"/>
       <c r="C59" s="86"/>
-      <c r="D59" s="80"/>
-      <c r="E59" s="80"/>
-      <c r="F59" s="50" t="s">
-        <v>112</v>
-      </c>
+      <c r="D59" s="74"/>
+      <c r="E59" s="74"/>
+      <c r="F59" s="50"/>
       <c r="I59" s="66"/>
       <c r="J59" s="47"/>
       <c r="L59" s="47" t="s">
-        <v>341</v>
+        <v>325</v>
       </c>
       <c r="M59" s="77"/>
     </row>
@@ -5678,136 +5734,124 @@
       <c r="A60" s="86"/>
       <c r="B60" s="86"/>
       <c r="C60" s="86"/>
-      <c r="D60" s="80"/>
-      <c r="E60" s="80"/>
-      <c r="F60" s="50" t="s">
-        <v>113</v>
-      </c>
+      <c r="D60" s="74"/>
+      <c r="E60" s="74"/>
+      <c r="F60" s="50"/>
       <c r="I60" s="66"/>
       <c r="J60" s="47"/>
       <c r="L60" s="47" t="s">
-        <v>341</v>
+        <v>325</v>
       </c>
       <c r="M60" s="77"/>
     </row>
-    <row r="61" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="86"/>
       <c r="B61" s="86"/>
       <c r="C61" s="86"/>
-      <c r="D61" s="80"/>
-      <c r="E61" s="70"/>
-      <c r="F61" s="50" t="s">
-        <v>114</v>
-      </c>
+      <c r="D61" s="74"/>
+      <c r="E61" s="68"/>
+      <c r="F61" s="50"/>
       <c r="I61" s="66"/>
       <c r="J61" s="47"/>
       <c r="L61" s="47" t="s">
-        <v>341</v>
+        <v>325</v>
       </c>
       <c r="M61" s="77"/>
     </row>
-    <row r="62" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="86"/>
       <c r="B62" s="86"/>
       <c r="C62" s="86"/>
-      <c r="D62" s="80"/>
-      <c r="E62" s="70"/>
-      <c r="F62" s="50" t="s">
-        <v>115</v>
-      </c>
+      <c r="D62" s="74"/>
+      <c r="E62" s="68"/>
+      <c r="F62" s="50"/>
       <c r="I62" s="66"/>
       <c r="J62" s="47"/>
       <c r="L62" s="47" t="s">
-        <v>341</v>
+        <v>325</v>
       </c>
       <c r="M62" s="77"/>
     </row>
-    <row r="63" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="86"/>
       <c r="B63" s="86"/>
       <c r="C63" s="86"/>
-      <c r="D63" s="80"/>
-      <c r="E63" s="80" t="s">
-        <v>153</v>
-      </c>
-      <c r="F63" s="50" t="s">
-        <v>116</v>
-      </c>
+      <c r="D63" s="74"/>
+      <c r="E63" s="74"/>
+      <c r="F63" s="50"/>
       <c r="J63" s="47"/>
       <c r="L63" s="47" t="s">
-        <v>341</v>
+        <v>325</v>
       </c>
       <c r="M63" s="77"/>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" ht="120" x14ac:dyDescent="0.25">
       <c r="A64" s="86" t="s">
         <v>117</v>
       </c>
       <c r="B64" s="86" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
       <c r="C64" s="86" t="s">
-        <v>314</v>
-      </c>
-      <c r="D64" s="80" t="s">
+        <v>301</v>
+      </c>
+      <c r="D64" s="74" t="s">
         <v>120</v>
       </c>
-      <c r="E64" s="80"/>
-      <c r="F64" s="80" t="s">
-        <v>229</v>
+      <c r="E64" s="74" t="s">
+        <v>153</v>
+      </c>
+      <c r="F64" s="74" t="s">
+        <v>347</v>
       </c>
       <c r="I64" s="66"/>
       <c r="J64" s="47"/>
       <c r="L64" s="47" t="s">
-        <v>341</v>
+        <v>325</v>
       </c>
       <c r="M64" s="87" t="s">
-        <v>303</v>
+        <v>290</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="86"/>
       <c r="B65" s="86"/>
       <c r="C65" s="86"/>
-      <c r="D65" s="80"/>
-      <c r="E65" s="80"/>
-      <c r="F65" s="80"/>
+      <c r="D65" s="74"/>
+      <c r="E65" s="74"/>
+      <c r="F65" s="74"/>
       <c r="I65" s="66"/>
       <c r="J65" s="47"/>
       <c r="L65" s="47" t="s">
-        <v>341</v>
+        <v>325</v>
       </c>
       <c r="M65" s="77"/>
     </row>
-    <row r="66" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="86"/>
       <c r="B66" s="86"/>
       <c r="C66" s="86"/>
-      <c r="D66" s="80"/>
-      <c r="E66" s="80"/>
-      <c r="F66" s="50" t="s">
-        <v>112</v>
-      </c>
+      <c r="D66" s="74"/>
+      <c r="E66" s="74"/>
+      <c r="F66" s="50"/>
       <c r="I66" s="66"/>
       <c r="J66" s="47"/>
       <c r="L66" s="47" t="s">
-        <v>341</v>
+        <v>325</v>
       </c>
       <c r="M66" s="77"/>
     </row>
-    <row r="67" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="86"/>
       <c r="B67" s="86"/>
       <c r="C67" s="86"/>
-      <c r="D67" s="80"/>
-      <c r="E67" s="80"/>
-      <c r="F67" s="50" t="s">
-        <v>124</v>
-      </c>
+      <c r="D67" s="74"/>
+      <c r="E67" s="74"/>
+      <c r="F67" s="50"/>
       <c r="I67" s="66"/>
       <c r="J67" s="47"/>
       <c r="L67" s="47" t="s">
-        <v>341</v>
+        <v>325</v>
       </c>
       <c r="M67" s="77"/>
     </row>
@@ -5816,25 +5860,25 @@
         <v>125</v>
       </c>
       <c r="B68" s="86" t="s">
-        <v>313</v>
+        <v>300</v>
       </c>
       <c r="C68" s="86" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="D68" s="50" t="s">
         <v>126</v>
       </c>
-      <c r="E68" s="70"/>
+      <c r="E68" s="68"/>
       <c r="F68" s="50" t="s">
         <v>115</v>
       </c>
       <c r="I68" s="66"/>
       <c r="J68" s="47"/>
       <c r="L68" s="47" t="s">
-        <v>341</v>
+        <v>325</v>
       </c>
       <c r="M68" s="76" t="s">
-        <v>299</v>
+        <v>286</v>
       </c>
     </row>
     <row r="69" spans="1:13" ht="90" x14ac:dyDescent="0.25">
@@ -5844,38 +5888,40 @@
       <c r="D69" s="50" t="s">
         <v>127</v>
       </c>
-      <c r="E69" s="80" t="s">
+      <c r="E69" s="74" t="s">
         <v>153</v>
       </c>
       <c r="F69" s="50" t="s">
         <v>111</v>
       </c>
       <c r="G69" s="66" t="s">
-        <v>343</v>
+        <v>326</v>
       </c>
       <c r="I69" s="66"/>
       <c r="J69" s="47"/>
       <c r="L69" s="47" t="s">
-        <v>341</v>
+        <v>325</v>
       </c>
       <c r="M69" s="77"/>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" ht="105" x14ac:dyDescent="0.25">
       <c r="A70" s="86"/>
       <c r="B70" s="77"/>
       <c r="C70" s="77"/>
       <c r="D70" s="50" t="s">
         <v>128</v>
       </c>
-      <c r="E70" s="80"/>
+      <c r="E70" s="74" t="s">
+        <v>153</v>
+      </c>
       <c r="F70" s="50" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="I70" s="66" t="s">
-        <v>345</v>
+        <v>327</v>
       </c>
       <c r="J70" s="47" t="s">
-        <v>346</v>
+        <v>328</v>
       </c>
       <c r="L70" s="47"/>
       <c r="M70" s="77"/>
@@ -5884,15 +5930,13 @@
       <c r="A71" s="86"/>
       <c r="B71" s="77"/>
       <c r="C71" s="77"/>
-      <c r="D71" s="68"/>
-      <c r="E71" s="80"/>
-      <c r="F71" s="57" t="s">
-        <v>236</v>
-      </c>
+      <c r="D71" s="43"/>
+      <c r="E71" s="74"/>
+      <c r="F71" s="57"/>
       <c r="I71" s="66"/>
       <c r="J71" s="47"/>
       <c r="L71" s="47" t="s">
-        <v>341</v>
+        <v>325</v>
       </c>
       <c r="M71" s="77"/>
     </row>
@@ -5900,27 +5944,23 @@
       <c r="A72" s="86"/>
       <c r="B72" s="77"/>
       <c r="C72" s="77"/>
-      <c r="D72" s="68"/>
-      <c r="E72" s="80"/>
-      <c r="F72" s="57" t="s">
-        <v>237</v>
-      </c>
+      <c r="D72" s="43"/>
+      <c r="E72" s="74"/>
+      <c r="F72" s="57"/>
       <c r="I72" s="66"/>
       <c r="J72" s="47"/>
       <c r="L72" s="47" t="s">
-        <v>347</v>
+        <v>329</v>
       </c>
       <c r="M72" s="77"/>
     </row>
-    <row r="73" spans="1:13" s="44" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="86"/>
       <c r="B73" s="77"/>
       <c r="C73" s="77"/>
-      <c r="D73" s="68"/>
-      <c r="E73" s="80"/>
-      <c r="F73" s="57" t="s">
-        <v>168</v>
-      </c>
+      <c r="D73" s="43"/>
+      <c r="E73" s="74"/>
+      <c r="F73" s="57"/>
       <c r="I73" s="66"/>
       <c r="J73" s="47"/>
       <c r="L73" s="47" t="s">
@@ -5928,15 +5968,13 @@
       </c>
       <c r="M73" s="77"/>
     </row>
-    <row r="74" spans="1:13" s="44" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="86"/>
       <c r="B74" s="77"/>
       <c r="C74" s="77"/>
-      <c r="D74" s="68"/>
-      <c r="E74" s="70"/>
-      <c r="F74" s="57" t="s">
-        <v>169</v>
-      </c>
+      <c r="D74" s="43"/>
+      <c r="E74" s="68"/>
+      <c r="F74" s="57"/>
       <c r="I74" s="66"/>
       <c r="J74" s="47"/>
       <c r="L74" s="47" t="s">
@@ -5948,7 +5986,7 @@
       <c r="A75" s="86"/>
       <c r="B75" s="77"/>
       <c r="C75" s="77"/>
-      <c r="D75" s="69"/>
+      <c r="D75" s="42"/>
       <c r="F75" s="57"/>
       <c r="M75" s="77"/>
     </row>
@@ -5957,15 +5995,15 @@
         <v>132</v>
       </c>
       <c r="B76" s="86" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
       <c r="C76" s="86" t="s">
-        <v>279</v>
+        <v>266</v>
       </c>
       <c r="D76" s="50" t="s">
         <v>133</v>
       </c>
-      <c r="E76" s="70" t="s">
+      <c r="E76" s="68" t="s">
         <v>153</v>
       </c>
       <c r="F76" s="57" t="s">
@@ -5974,10 +6012,10 @@
       <c r="I76" s="66"/>
       <c r="J76" s="47"/>
       <c r="L76" s="47" t="s">
-        <v>341</v>
+        <v>325</v>
       </c>
       <c r="M76" s="87" t="s">
-        <v>298</v>
+        <v>285</v>
       </c>
     </row>
     <row r="77" spans="1:13" ht="60" x14ac:dyDescent="0.25">
@@ -5985,9 +6023,9 @@
       <c r="B77" s="86"/>
       <c r="C77" s="86"/>
       <c r="D77" s="50" t="s">
-        <v>230</v>
-      </c>
-      <c r="E77" s="70" t="s">
+        <v>223</v>
+      </c>
+      <c r="E77" s="68" t="s">
         <v>153</v>
       </c>
       <c r="F77" s="57" t="s">
@@ -5996,7 +6034,7 @@
       <c r="I77" s="66"/>
       <c r="J77" s="67"/>
       <c r="L77" s="67" t="s">
-        <v>341</v>
+        <v>325</v>
       </c>
       <c r="M77" s="77"/>
     </row>
@@ -6005,38 +6043,38 @@
         <v>141</v>
       </c>
       <c r="B78" s="86" t="s">
-        <v>280</v>
+        <v>267</v>
       </c>
       <c r="C78" s="86" t="s">
-        <v>281</v>
-      </c>
-      <c r="D78" s="80" t="s">
-        <v>231</v>
-      </c>
-      <c r="E78" s="70"/>
-      <c r="F78" s="80" t="s">
-        <v>232</v>
+        <v>268</v>
+      </c>
+      <c r="D78" s="74" t="s">
+        <v>224</v>
+      </c>
+      <c r="E78" s="68"/>
+      <c r="F78" s="74" t="s">
+        <v>225</v>
       </c>
       <c r="I78" s="66"/>
       <c r="J78" s="67"/>
       <c r="L78" s="67" t="s">
-        <v>341</v>
+        <v>325</v>
       </c>
       <c r="M78" s="87" t="s">
-        <v>302</v>
+        <v>289</v>
       </c>
     </row>
     <row r="79" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" s="86"/>
       <c r="B79" s="86"/>
       <c r="C79" s="86"/>
-      <c r="D79" s="80"/>
-      <c r="E79" s="70"/>
-      <c r="F79" s="80"/>
+      <c r="D79" s="74"/>
+      <c r="E79" s="68"/>
+      <c r="F79" s="74"/>
       <c r="I79" s="66"/>
       <c r="J79" s="67"/>
       <c r="L79" s="67" t="s">
-        <v>341</v>
+        <v>325</v>
       </c>
       <c r="M79" s="77"/>
     </row>
@@ -6044,13 +6082,13 @@
       <c r="A80" s="86"/>
       <c r="B80" s="86"/>
       <c r="C80" s="86"/>
-      <c r="D80" s="80"/>
-      <c r="E80" s="70"/>
-      <c r="F80" s="80"/>
+      <c r="D80" s="74"/>
+      <c r="E80" s="68"/>
+      <c r="F80" s="74"/>
       <c r="I80" s="66"/>
       <c r="J80" s="67"/>
       <c r="L80" s="67" t="s">
-        <v>341</v>
+        <v>325</v>
       </c>
       <c r="M80" s="77"/>
     </row>
@@ -6058,13 +6096,13 @@
       <c r="A81" s="86"/>
       <c r="B81" s="86"/>
       <c r="C81" s="86"/>
-      <c r="D81" s="80"/>
-      <c r="E81" s="70"/>
-      <c r="F81" s="80"/>
+      <c r="D81" s="74"/>
+      <c r="E81" s="68"/>
+      <c r="F81" s="74"/>
       <c r="I81" s="66"/>
       <c r="J81" s="67"/>
       <c r="L81" s="67" t="s">
-        <v>341</v>
+        <v>325</v>
       </c>
       <c r="M81" s="77"/>
     </row>
@@ -6073,68 +6111,72 @@
         <v>146</v>
       </c>
       <c r="B82" s="56" t="s">
-        <v>285</v>
+        <v>272</v>
       </c>
       <c r="C82" s="49"/>
       <c r="D82" s="50" t="s">
-        <v>233</v>
-      </c>
-      <c r="E82" s="70"/>
+        <v>226</v>
+      </c>
+      <c r="E82" s="68"/>
       <c r="F82" s="57" t="s">
         <v>123</v>
       </c>
       <c r="I82" s="66" t="s">
-        <v>348</v>
+        <v>330</v>
       </c>
       <c r="J82" s="67" t="s">
-        <v>349</v>
+        <v>331</v>
       </c>
       <c r="L82" s="67"/>
       <c r="M82" s="61" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
     </row>
     <row r="83" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A83" s="86" t="s">
-        <v>282</v>
+        <v>269</v>
       </c>
       <c r="B83" s="86" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
       <c r="C83" s="86" t="s">
-        <v>284</v>
+        <v>271</v>
       </c>
       <c r="D83" s="50" t="s">
         <v>152</v>
       </c>
-      <c r="E83" s="70"/>
+      <c r="E83" s="68"/>
       <c r="F83" s="57" t="s">
         <v>154</v>
       </c>
       <c r="I83" s="66"/>
       <c r="J83" s="67"/>
       <c r="L83" s="67" t="s">
-        <v>300</v>
+        <v>287</v>
       </c>
       <c r="M83" s="76" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="84" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A84" s="86"/>
       <c r="B84" s="80"/>
       <c r="C84" s="80"/>
-      <c r="D84" s="80" t="s">
+      <c r="D84" s="74" t="s">
         <v>153</v>
       </c>
-      <c r="E84" s="70"/>
+      <c r="E84" s="68"/>
       <c r="F84" s="50" t="s">
-        <v>234</v>
-      </c>
-      <c r="I84" s="66"/>
-      <c r="J84" s="67"/>
+        <v>372</v>
+      </c>
+      <c r="I84" s="66" t="s">
+        <v>189</v>
+      </c>
+      <c r="J84" s="67" t="s">
+        <v>373</v>
+      </c>
       <c r="L84" s="67" t="s">
-        <v>300</v>
+        <v>287</v>
       </c>
       <c r="M84" s="77"/>
     </row>
@@ -6142,15 +6184,13 @@
       <c r="A85" s="86"/>
       <c r="B85" s="80"/>
       <c r="C85" s="80"/>
-      <c r="D85" s="80"/>
-      <c r="E85" s="70"/>
-      <c r="F85" s="80" t="s">
-        <v>235</v>
-      </c>
+      <c r="D85" s="74"/>
+      <c r="E85" s="68"/>
+      <c r="F85" s="74"/>
       <c r="I85" s="66"/>
       <c r="J85" s="67"/>
       <c r="L85" s="67" t="s">
-        <v>300</v>
+        <v>287</v>
       </c>
       <c r="M85" s="77"/>
     </row>
@@ -6158,13 +6198,13 @@
       <c r="A86" s="86"/>
       <c r="B86" s="80"/>
       <c r="C86" s="80"/>
-      <c r="D86" s="80"/>
-      <c r="E86" s="70"/>
-      <c r="F86" s="80"/>
+      <c r="D86" s="74"/>
+      <c r="E86" s="68"/>
+      <c r="F86" s="74"/>
       <c r="I86" s="66"/>
       <c r="J86" s="67"/>
       <c r="L86" s="67" t="s">
-        <v>300</v>
+        <v>287</v>
       </c>
       <c r="M86" s="77"/>
     </row>
@@ -6172,13 +6212,13 @@
       <c r="A87" s="86"/>
       <c r="B87" s="80"/>
       <c r="C87" s="80"/>
-      <c r="D87" s="80"/>
-      <c r="E87" s="70"/>
-      <c r="F87" s="80"/>
+      <c r="D87" s="74"/>
+      <c r="E87" s="68"/>
+      <c r="F87" s="74"/>
       <c r="I87" s="66"/>
       <c r="J87" s="67"/>
       <c r="L87" s="67" t="s">
-        <v>300</v>
+        <v>287</v>
       </c>
       <c r="M87" s="77"/>
     </row>
@@ -6186,13 +6226,13 @@
       <c r="A88" s="86"/>
       <c r="B88" s="80"/>
       <c r="C88" s="80"/>
-      <c r="D88" s="80"/>
-      <c r="E88" s="70"/>
-      <c r="F88" s="80"/>
+      <c r="D88" s="74"/>
+      <c r="E88" s="68"/>
+      <c r="F88" s="74"/>
       <c r="I88" s="66"/>
       <c r="J88" s="67"/>
       <c r="L88" s="67" t="s">
-        <v>300</v>
+        <v>287</v>
       </c>
       <c r="M88" s="77"/>
     </row>
@@ -6201,70 +6241,69 @@
       <c r="B89" s="58"/>
       <c r="C89" s="58"/>
       <c r="D89" s="58"/>
-      <c r="E89" s="70"/>
+      <c r="E89" s="68"/>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" s="58"/>
       <c r="B90" s="58"/>
       <c r="C90" s="58"/>
       <c r="D90" s="58"/>
-      <c r="E90" s="70"/>
+      <c r="E90" s="68"/>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" s="58"/>
       <c r="B91" s="58"/>
       <c r="C91" s="58"/>
       <c r="D91" s="58"/>
-      <c r="E91" s="70"/>
+      <c r="E91" s="68"/>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" s="58"/>
       <c r="B92" s="58"/>
       <c r="C92" s="58"/>
       <c r="D92" s="58"/>
-      <c r="E92" s="70"/>
+      <c r="E92" s="68"/>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" s="58"/>
       <c r="B93" s="58"/>
       <c r="C93" s="58"/>
       <c r="D93" s="58"/>
-      <c r="E93" s="70"/>
+      <c r="E93" s="68"/>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" s="58"/>
       <c r="B94" s="58"/>
       <c r="C94" s="58"/>
       <c r="D94" s="58"/>
-      <c r="E94" s="70"/>
+      <c r="E94" s="68"/>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" s="58"/>
       <c r="B95" s="58"/>
       <c r="C95" s="58"/>
       <c r="D95" s="58"/>
-      <c r="E95" s="70"/>
+      <c r="E95" s="68"/>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" s="58"/>
       <c r="B96" s="58"/>
       <c r="C96" s="58"/>
       <c r="D96" s="58"/>
-      <c r="E96" s="70"/>
+      <c r="E96" s="68"/>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="58"/>
       <c r="B97" s="58"/>
       <c r="C97" s="58"/>
       <c r="D97" s="58"/>
-      <c r="E97" s="70"/>
+      <c r="E97" s="68"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:M88" xr:uid="{18B464E1-161A-4AA4-A8AA-4DE9E957BFAF}"/>
-  <mergeCells count="74">
-    <mergeCell ref="F78:F81"/>
-    <mergeCell ref="D78:D81"/>
-    <mergeCell ref="F85:F88"/>
+  <mergeCells count="58">
+    <mergeCell ref="C83:C88"/>
+    <mergeCell ref="C76:C77"/>
     <mergeCell ref="B37:B38"/>
     <mergeCell ref="C37:C38"/>
     <mergeCell ref="B39:B53"/>
@@ -6282,28 +6321,19 @@
     <mergeCell ref="A76:A77"/>
     <mergeCell ref="A78:A81"/>
     <mergeCell ref="A83:A88"/>
-    <mergeCell ref="D84:D88"/>
     <mergeCell ref="B83:B88"/>
-    <mergeCell ref="C83:C88"/>
-    <mergeCell ref="C76:C77"/>
-    <mergeCell ref="D64:D67"/>
+    <mergeCell ref="A64:A67"/>
+    <mergeCell ref="B25:B28"/>
+    <mergeCell ref="C25:C28"/>
+    <mergeCell ref="B29:B36"/>
+    <mergeCell ref="C29:C36"/>
     <mergeCell ref="A25:A28"/>
     <mergeCell ref="A29:A36"/>
     <mergeCell ref="A37:A38"/>
     <mergeCell ref="A39:A53"/>
     <mergeCell ref="A54:A63"/>
-    <mergeCell ref="A64:A67"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="D31:D36"/>
-    <mergeCell ref="D42:D53"/>
-    <mergeCell ref="D57:D63"/>
-    <mergeCell ref="B25:B28"/>
-    <mergeCell ref="C25:C28"/>
-    <mergeCell ref="B29:B36"/>
-    <mergeCell ref="C29:C36"/>
     <mergeCell ref="F3:F7"/>
     <mergeCell ref="F9:F11"/>
-    <mergeCell ref="F14:F15"/>
     <mergeCell ref="D3:D7"/>
     <mergeCell ref="D9:D11"/>
     <mergeCell ref="E3:E7"/>
@@ -6311,7 +6341,6 @@
     <mergeCell ref="A3:A8"/>
     <mergeCell ref="A16:A24"/>
     <mergeCell ref="A9:A15"/>
-    <mergeCell ref="D22:D23"/>
     <mergeCell ref="B3:B8"/>
     <mergeCell ref="C3:C8"/>
     <mergeCell ref="B9:B15"/>
@@ -6323,6 +6352,7 @@
     <mergeCell ref="M16:M24"/>
     <mergeCell ref="M25:M28"/>
     <mergeCell ref="M29:M36"/>
+    <mergeCell ref="M76:M77"/>
     <mergeCell ref="M78:M81"/>
     <mergeCell ref="M83:M88"/>
     <mergeCell ref="M37:M38"/>
@@ -6330,12 +6360,6 @@
     <mergeCell ref="M54:M63"/>
     <mergeCell ref="M64:M67"/>
     <mergeCell ref="M68:M75"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="E56:E60"/>
-    <mergeCell ref="E63:E67"/>
-    <mergeCell ref="E69:E73"/>
-    <mergeCell ref="M76:M77"/>
-    <mergeCell ref="F64:F65"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="M2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
@@ -6392,8 +6416,9 @@
     <hyperlink ref="L83" r:id="rId52" xr:uid="{AE628026-B0A3-4526-A641-3C3D8B380D81}"/>
     <hyperlink ref="L84" r:id="rId53" xr:uid="{35D4A6C8-86AB-43EC-A1CE-4328DEBD4548}"/>
     <hyperlink ref="L85:L88" r:id="rId54" display="https://www.acadiaconnect.com/healthcare-providers" xr:uid="{D5C86836-0DDC-4BDA-912F-C5D29BEE0331}"/>
+    <hyperlink ref="J84" r:id="rId55" xr:uid="{6E227707-23AE-47FE-9927-CABF7B00812D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId55"/>
+  <legacyDrawing r:id="rId56"/>
 </worksheet>
 </file>
--- a/Corpus/MLR_Corpus.xlsx
+++ b/Corpus/MLR_Corpus.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workouts\Projects\Acadia\Masori-Chatbot-Dev-main\Masori-Chatbot-Dev-main\Corpus\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Siva\Projects\Acadia\Chatbot_Git\Masori-Chatbot-Dev\Corpus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28E66EF2-6476-4787-A26E-0BDA3150A122}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69D858A4-A2CA-42CE-945E-80301D307E7F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuplazid Consumer" sheetId="3" r:id="rId1"/>
@@ -19,7 +19,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Nuplazid Consumer'!$A$1:$M$11</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Nuplazid HCP'!$A$1:$M$88</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Nuplazid HCP'!$A$1:$M$89</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -47,7 +47,15 @@
   <commentList>
     <comment ref="A2" authorId="0" shapeId="0" xr:uid="{B4468C53-9464-4F63-81D1-C992873261B1}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Are we missing Personal Stories and Talking to Healthcare Provider?
@@ -57,80 +65,162 @@
 - Speaking to a doctor 
 - or Speaking to a healthcare provider
 stuff like that. The site content will offer some better and more creative suggestions. I also understand that these aren't terms that people generally search for in SEM but if the goal is to help patients/caregivers better naviagate the site, those two pages usually have high engagement.</t>
+        </r>
       </text>
     </comment>
     <comment ref="C2" authorId="1" shapeId="0" xr:uid="{DD2E8F32-48A3-491E-956A-AC81F7E38ADB}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     What are delusions? What are hallucinations?
 Reply:
     I know more info is in the response and further down in the H&amp;D section but I think before people ask the second question, they may want to know what hallucinations and delusions are first as most people cannot define them</t>
+        </r>
       </text>
     </comment>
     <comment ref="F2" authorId="2" shapeId="0" xr:uid="{BB84B340-AF06-4E0C-AE4F-B69F85FAF690}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Provide link to information on site in response</t>
+        </r>
       </text>
     </comment>
     <comment ref="F3" authorId="3" shapeId="0" xr:uid="{C3DFF50C-EF22-47C6-868C-F20870D79A79}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Provide link to information on site in response</t>
+        </r>
       </text>
     </comment>
     <comment ref="F4" authorId="4" shapeId="0" xr:uid="{2B46EE82-DD41-45F9-B431-51F301EDCADE}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Provide link to information on site in response</t>
+        </r>
       </text>
     </comment>
     <comment ref="B5" authorId="5" shapeId="0" xr:uid="{190DBEEA-93D9-4BFD-AD5C-1FA3C401F8CC}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     MLR will make you remove this as we are only indicated in the US.</t>
+        </r>
       </text>
     </comment>
     <comment ref="C15" authorId="6" shapeId="0" xr:uid="{6174D911-122C-4454-8324-AF7C643C4042}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Where can I learn more? Something like that. We need to have something tied to email registrations.</t>
+        </r>
       </text>
     </comment>
     <comment ref="E24" authorId="7" shapeId="0" xr:uid="{3CD3324B-6AA3-457C-8A88-32330C9035AE}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     I recommend to have "Acadia Connect and delete any mention of Nuplazid Connect.</t>
+        </r>
       </text>
     </comment>
     <comment ref="D25" authorId="8" shapeId="0" xr:uid="{C6BC059E-DDFE-4471-8AF3-B08E62FA3401}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     I recommend to have "Acadia Connect and delete any mention of Nuplazid Connect.</t>
+        </r>
       </text>
     </comment>
     <comment ref="E27" authorId="9" shapeId="0" xr:uid="{97A1DE64-2A59-4152-9781-91195D1F313C}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     I recommend to have "Acadia Connect and delete any mention of Nuplazid Connect.</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -152,92 +242,182 @@
     <author>tc={5E44F182-AC11-45F7-AC37-DB904E84DBEC}</author>
   </authors>
   <commentList>
-    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{1F2FC693-4862-4100-B58E-7C41F18A8E99}">
+    <comment ref="B4" authorId="0" shapeId="0" xr:uid="{1F2FC693-4862-4100-B58E-7C41F18A8E99}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Nuplazid indication
 patient resources</t>
+        </r>
       </text>
     </comment>
-    <comment ref="C9" authorId="1" shapeId="0" xr:uid="{99EA3807-EB10-4FD7-896A-99B320C5B2E2}">
+    <comment ref="C10" authorId="1" shapeId="0" xr:uid="{99EA3807-EB10-4FD7-896A-99B320C5B2E2}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     MLR may be concerned with the KOL question. The question posed back will be, "what response do they give if they type that in, given that we don't have any KOL opinions on site." I think this may be changing in the next few months. I'm not sure. Please check with Jake.
 Reply:
     I would delete that KOL question as we don't have any information on the site</t>
+        </r>
       </text>
     </comment>
-    <comment ref="F9" authorId="2" shapeId="0" xr:uid="{E98F849F-AA15-47D7-8E3E-AF2E28183101}">
+    <comment ref="F10" authorId="2" shapeId="0" xr:uid="{E98F849F-AA15-47D7-8E3E-AF2E28183101}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Instead of just "only" please revise to "first and only" we say this on the HCP side of things but not on the consumer side.</t>
+        </r>
       </text>
     </comment>
-    <comment ref="B16" authorId="3" shapeId="0" xr:uid="{B3A64F05-BDA5-47FC-9B9A-CF3ECAC976B8}">
+    <comment ref="B17" authorId="3" shapeId="0" xr:uid="{B3A64F05-BDA5-47FC-9B9A-CF3ECAC976B8}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Nuplazid primary endpoint
 Nuplazid secondary endpoint</t>
+        </r>
       </text>
     </comment>
-    <comment ref="C25" authorId="4" shapeId="0" xr:uid="{DE93CD08-8D71-480E-AF2B-94A4EDC1EACB}">
+    <comment ref="C26" authorId="4" shapeId="0" xr:uid="{DE93CD08-8D71-480E-AF2B-94A4EDC1EACB}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     For consistency purposes, do we want to revise to "How are delusions measured?"</t>
+        </r>
       </text>
     </comment>
-    <comment ref="B29" authorId="5" shapeId="0" xr:uid="{A0649205-201E-40CA-A513-834EE1E2B9FE}">
+    <comment ref="B30" authorId="5" shapeId="0" xr:uid="{A0649205-201E-40CA-A513-834EE1E2B9FE}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     long-term safety
 drug interactions
 adverse reaction/event</t>
+        </r>
       </text>
     </comment>
-    <comment ref="B39" authorId="6" shapeId="0" xr:uid="{490A6B21-E3F0-4BE3-84FA-875C273D4644}">
+    <comment ref="B40" authorId="6" shapeId="0" xr:uid="{490A6B21-E3F0-4BE3-84FA-875C273D4644}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     sprinkle
 dosing guide</t>
+        </r>
       </text>
     </comment>
-    <comment ref="B64" authorId="7" shapeId="0" xr:uid="{A0B2C671-E543-4112-8919-FE70430826C8}">
+    <comment ref="B65" authorId="7" shapeId="0" xr:uid="{A0B2C671-E543-4112-8919-FE70430826C8}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     forms</t>
+        </r>
       </text>
     </comment>
-    <comment ref="C64" authorId="8" shapeId="0" xr:uid="{D9094AEA-42EA-4E64-8A3F-367796AF3240}">
+    <comment ref="C65" authorId="8" shapeId="0" xr:uid="{D9094AEA-42EA-4E64-8A3F-367796AF3240}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Remove Acadia?</t>
+        </r>
       </text>
     </comment>
-    <comment ref="B68" authorId="9" shapeId="0" xr:uid="{5E44F182-AC11-45F7-AC37-DB904E84DBEC}">
+    <comment ref="B69" authorId="9" shapeId="0" xr:uid="{5E44F182-AC11-45F7-AC37-DB904E84DBEC}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     coverage
 samples</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -245,7 +425,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="379">
   <si>
     <t>Keywords</t>
   </si>
@@ -969,16 +1149,6 @@
   </si>
   <si>
     <t>Question</t>
-  </si>
-  <si>
-    <t>Parkinson's Disease Psychosis,
-PDP</t>
-  </si>
-  <si>
-    <t>Tell me about Parkinson's Disease Psychosis
-Tell me about PDP
-What is Parkinson's Disease Psychosis
-What is PDP</t>
   </si>
   <si>
     <t>The cause of PD is unknown but certain factors, such as genetics and environment, are believed to play a role.
@@ -1598,6 +1768,38 @@
   </si>
   <si>
     <t>https://www.acadiaconnect.com</t>
+  </si>
+  <si>
+    <t>Side Effects</t>
+  </si>
+  <si>
+    <t>About Hallucinations &amp; Delusions</t>
+  </si>
+  <si>
+    <t>https://nuplazidhcp-masori.azurewebsites.net/about-pd-psychosis#section_4</t>
+  </si>
+  <si>
+    <t>The hallucinations and delusions associated with PD psychosis can be serious and can progress. 
+For more information click below link to check type of Hallucinations and Delusions</t>
+  </si>
+  <si>
+    <t>Click here</t>
+  </si>
+  <si>
+    <t>Tell me about Parkinson's Disease Psychosis
+Tell me about PDP
+What is Parkinson's Disease Psychosis
+What is PDP
+What is Hallucinations
+What is Delusions</t>
+  </si>
+  <si>
+    <t>Parkinson's Disease Psychosis,
+PDP,
+Hallucination,
+Hallucinations,
+Delusions,
+Delusion</t>
   </si>
 </sst>
 </file>
@@ -1681,7 +1883,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1789,9 +1991,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1854,6 +2053,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1866,16 +2081,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1885,11 +2090,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2270,23 +2490,23 @@
   <dimension ref="A1:M47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:A4"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.42578125" style="59" customWidth="1"/>
-    <col min="2" max="2" width="27.140625" style="44" customWidth="1"/>
-    <col min="3" max="3" width="47.140625" style="44" customWidth="1"/>
-    <col min="4" max="4" width="41.85546875" style="58" customWidth="1"/>
-    <col min="5" max="5" width="41.85546875" style="72" customWidth="1"/>
-    <col min="6" max="6" width="83.7109375" customWidth="1"/>
-    <col min="7" max="12" width="37.28515625" style="44" customWidth="1"/>
+    <col min="1" max="1" width="30.44140625" style="58" customWidth="1"/>
+    <col min="2" max="2" width="27.109375" style="44" customWidth="1"/>
+    <col min="3" max="3" width="47.109375" style="44" customWidth="1"/>
+    <col min="4" max="4" width="41.88671875" style="57" customWidth="1"/>
+    <col min="5" max="5" width="41.88671875" style="71" customWidth="1"/>
+    <col min="6" max="6" width="83.6640625" customWidth="1"/>
+    <col min="7" max="12" width="37.33203125" style="44" customWidth="1"/>
     <col min="13" max="13" width="74" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="51" t="s">
         <v>1</v>
       </c>
@@ -2300,413 +2520,413 @@
         <v>197</v>
       </c>
       <c r="E1" s="51" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G1" s="45" t="s">
+        <v>315</v>
+      </c>
+      <c r="H1" s="45" t="s">
+        <v>316</v>
+      </c>
+      <c r="I1" s="45" t="s">
         <v>317</v>
       </c>
-      <c r="H1" s="45" t="s">
+      <c r="J1" s="45" t="s">
         <v>318</v>
       </c>
-      <c r="I1" s="45" t="s">
+      <c r="K1" s="45" t="s">
         <v>319</v>
       </c>
-      <c r="J1" s="45" t="s">
-        <v>320</v>
-      </c>
-      <c r="K1" s="45" t="s">
-        <v>321</v>
-      </c>
       <c r="L1" s="45" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" s="31" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A2" s="81" t="s">
-        <v>235</v>
-      </c>
-      <c r="B2" s="81" t="s">
-        <v>240</v>
-      </c>
-      <c r="C2" s="81" t="s">
-        <v>292</v>
-      </c>
-      <c r="D2" s="58" t="s">
-        <v>336</v>
-      </c>
-      <c r="E2" s="72" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" s="31" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="A2" s="79" t="s">
+        <v>233</v>
+      </c>
+      <c r="B2" s="79" t="s">
+        <v>238</v>
+      </c>
+      <c r="C2" s="79" t="s">
+        <v>290</v>
+      </c>
+      <c r="D2" s="57" t="s">
+        <v>334</v>
+      </c>
+      <c r="E2" s="71" t="s">
         <v>10</v>
       </c>
       <c r="F2" s="30" t="s">
         <v>198</v>
       </c>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="66"/>
-      <c r="K2" s="66"/>
-      <c r="L2" s="67" t="s">
-        <v>274</v>
-      </c>
-      <c r="M2" s="79" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" s="31" customFormat="1" ht="120" x14ac:dyDescent="0.25">
-      <c r="A3" s="82"/>
-      <c r="B3" s="80"/>
-      <c r="C3" s="82"/>
-      <c r="D3" s="58" t="s">
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="65"/>
+      <c r="K2" s="65"/>
+      <c r="L2" s="66" t="s">
+        <v>272</v>
+      </c>
+      <c r="M2" s="84" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" s="31" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="80"/>
+      <c r="B3" s="77"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="72" t="s">
-        <v>308</v>
+      <c r="E3" s="71" t="s">
+        <v>306</v>
       </c>
       <c r="F3" s="32" t="s">
-        <v>231</v>
-      </c>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="66"/>
-      <c r="K3" s="66"/>
-      <c r="L3" s="67" t="s">
-        <v>274</v>
-      </c>
-      <c r="M3" s="77"/>
-    </row>
-    <row r="4" spans="1:13" s="31" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" s="82"/>
-      <c r="B4" s="80"/>
-      <c r="C4" s="82"/>
-      <c r="D4" s="58" t="s">
-        <v>335</v>
-      </c>
-      <c r="E4" s="72" t="s">
-        <v>336</v>
+        <v>229</v>
+      </c>
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="65"/>
+      <c r="K3" s="65"/>
+      <c r="L3" s="66" t="s">
+        <v>272</v>
+      </c>
+      <c r="M3" s="82"/>
+    </row>
+    <row r="4" spans="1:13" s="31" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="80"/>
+      <c r="B4" s="77"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="57" t="s">
+        <v>333</v>
+      </c>
+      <c r="E4" s="71" t="s">
+        <v>334</v>
       </c>
       <c r="F4" s="32" t="s">
         <v>199</v>
       </c>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66"/>
-      <c r="K4" s="66"/>
-      <c r="L4" s="67" t="s">
-        <v>274</v>
-      </c>
-      <c r="M4" s="77"/>
-    </row>
-    <row r="5" spans="1:13" ht="105" x14ac:dyDescent="0.25">
-      <c r="A5" s="83" t="s">
+      <c r="G4" s="65"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="65"/>
+      <c r="J4" s="65"/>
+      <c r="K4" s="65"/>
+      <c r="L4" s="66" t="s">
+        <v>272</v>
+      </c>
+      <c r="M4" s="82"/>
+    </row>
+    <row r="5" spans="1:13" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="78" t="s">
         <v>172</v>
       </c>
-      <c r="B5" s="80" t="s">
-        <v>302</v>
-      </c>
-      <c r="C5" s="80" t="s">
-        <v>241</v>
-      </c>
-      <c r="D5" s="58" t="s">
+      <c r="B5" s="77" t="s">
+        <v>300</v>
+      </c>
+      <c r="C5" s="77" t="s">
+        <v>239</v>
+      </c>
+      <c r="D5" s="57" t="s">
         <v>173</v>
       </c>
-      <c r="E5" s="72" t="s">
-        <v>337</v>
+      <c r="E5" s="71" t="s">
+        <v>335</v>
       </c>
       <c r="F5" s="32" t="s">
         <v>200</v>
       </c>
-      <c r="G5" s="66"/>
-      <c r="H5" s="66"/>
-      <c r="I5" s="66"/>
-      <c r="J5" s="66"/>
-      <c r="K5" s="66"/>
-      <c r="L5" s="67" t="s">
-        <v>273</v>
-      </c>
-      <c r="M5" s="76" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="120" x14ac:dyDescent="0.25">
-      <c r="A6" s="83"/>
-      <c r="B6" s="83"/>
-      <c r="C6" s="83"/>
-      <c r="D6" s="58" t="s">
-        <v>337</v>
-      </c>
-      <c r="E6" s="72" t="s">
-        <v>238</v>
+      <c r="G5" s="65"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="65"/>
+      <c r="J5" s="65"/>
+      <c r="K5" s="65"/>
+      <c r="L5" s="66" t="s">
+        <v>271</v>
+      </c>
+      <c r="M5" s="81" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="78"/>
+      <c r="B6" s="78"/>
+      <c r="C6" s="78"/>
+      <c r="D6" s="57" t="s">
+        <v>335</v>
+      </c>
+      <c r="E6" s="71" t="s">
+        <v>236</v>
       </c>
       <c r="F6" s="33" t="s">
         <v>201</v>
       </c>
-      <c r="G6" s="66"/>
-      <c r="H6" s="66"/>
-      <c r="I6" s="66"/>
-      <c r="J6" s="66"/>
-      <c r="K6" s="66"/>
-      <c r="L6" s="67" t="s">
-        <v>273</v>
-      </c>
-      <c r="M6" s="77"/>
-    </row>
-    <row r="7" spans="1:13" s="44" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A7" s="80" t="s">
+      <c r="G6" s="65"/>
+      <c r="H6" s="65"/>
+      <c r="I6" s="65"/>
+      <c r="J6" s="65"/>
+      <c r="K6" s="65"/>
+      <c r="L6" s="66" t="s">
+        <v>271</v>
+      </c>
+      <c r="M6" s="82"/>
+    </row>
+    <row r="7" spans="1:13" s="44" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="77" t="s">
+        <v>304</v>
+      </c>
+      <c r="B7" s="77" t="s">
+        <v>305</v>
+      </c>
+      <c r="C7" s="77" t="s">
+        <v>309</v>
+      </c>
+      <c r="D7" s="61" t="s">
         <v>306</v>
       </c>
-      <c r="B7" s="80" t="s">
+      <c r="E7" s="71" t="s">
         <v>307</v>
       </c>
-      <c r="C7" s="80" t="s">
+      <c r="F7" s="61" t="s">
+        <v>349</v>
+      </c>
+      <c r="G7" s="65"/>
+      <c r="H7" s="65"/>
+      <c r="I7" s="65"/>
+      <c r="J7" s="65"/>
+      <c r="K7" s="65"/>
+      <c r="L7" s="66" t="s">
+        <v>350</v>
+      </c>
+      <c r="M7" s="81" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" s="44" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="77"/>
+      <c r="B8" s="77"/>
+      <c r="C8" s="77"/>
+      <c r="D8" s="61" t="s">
+        <v>307</v>
+      </c>
+      <c r="E8" s="71" t="s">
+        <v>192</v>
+      </c>
+      <c r="F8" s="61" t="s">
+        <v>308</v>
+      </c>
+      <c r="G8" s="65"/>
+      <c r="H8" s="65"/>
+      <c r="I8" s="65"/>
+      <c r="J8" s="65"/>
+      <c r="K8" s="65"/>
+      <c r="L8" s="66" t="s">
+        <v>313</v>
+      </c>
+      <c r="M8" s="82"/>
+    </row>
+    <row r="9" spans="1:13" s="44" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="77"/>
+      <c r="B9" s="77"/>
+      <c r="C9" s="77"/>
+      <c r="D9" s="61" t="s">
+        <v>310</v>
+      </c>
+      <c r="E9" s="71"/>
+      <c r="F9" s="61" t="s">
+        <v>352</v>
+      </c>
+      <c r="G9" s="65"/>
+      <c r="H9" s="65"/>
+      <c r="I9" s="65" t="s">
+        <v>353</v>
+      </c>
+      <c r="J9" s="66" t="s">
+        <v>351</v>
+      </c>
+      <c r="K9" s="65"/>
+      <c r="L9" s="66" t="s">
+        <v>313</v>
+      </c>
+      <c r="M9" s="82"/>
+    </row>
+    <row r="10" spans="1:13" s="44" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="77"/>
+      <c r="B10" s="77"/>
+      <c r="C10" s="77"/>
+      <c r="D10" s="61"/>
+      <c r="E10" s="71"/>
+      <c r="F10" s="61"/>
+      <c r="G10" s="65"/>
+      <c r="H10" s="65"/>
+      <c r="I10" s="65"/>
+      <c r="J10" s="65"/>
+      <c r="K10" s="65"/>
+      <c r="L10" s="71"/>
+      <c r="M10" s="64"/>
+    </row>
+    <row r="11" spans="1:13" s="44" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A11" s="61" t="s">
         <v>311</v>
       </c>
-      <c r="D7" s="62" t="s">
-        <v>308</v>
-      </c>
-      <c r="E7" s="72" t="s">
-        <v>309</v>
-      </c>
-      <c r="F7" s="62" t="s">
-        <v>351</v>
-      </c>
-      <c r="G7" s="66"/>
-      <c r="H7" s="66"/>
-      <c r="I7" s="66"/>
-      <c r="J7" s="66"/>
-      <c r="K7" s="66"/>
-      <c r="L7" s="67" t="s">
-        <v>352</v>
-      </c>
-      <c r="M7" s="76" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" s="44" customFormat="1" ht="150" x14ac:dyDescent="0.25">
-      <c r="A8" s="80"/>
-      <c r="B8" s="80"/>
-      <c r="C8" s="80"/>
-      <c r="D8" s="62" t="s">
-        <v>309</v>
-      </c>
-      <c r="E8" s="72" t="s">
-        <v>192</v>
-      </c>
-      <c r="F8" s="62" t="s">
-        <v>310</v>
-      </c>
-      <c r="G8" s="66"/>
-      <c r="H8" s="66"/>
-      <c r="I8" s="66"/>
-      <c r="J8" s="66"/>
-      <c r="K8" s="66"/>
-      <c r="L8" s="67" t="s">
-        <v>315</v>
-      </c>
-      <c r="M8" s="77"/>
-    </row>
-    <row r="9" spans="1:13" s="44" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A9" s="80"/>
-      <c r="B9" s="80"/>
-      <c r="C9" s="80"/>
-      <c r="D9" s="62" t="s">
+      <c r="B11" s="61" t="s">
+        <v>305</v>
+      </c>
+      <c r="C11" s="61" t="s">
+        <v>314</v>
+      </c>
+      <c r="D11" s="61"/>
+      <c r="E11" s="71"/>
+      <c r="F11" s="61" t="s">
+        <v>354</v>
+      </c>
+      <c r="G11" s="65"/>
+      <c r="H11" s="66" t="s">
         <v>312</v>
       </c>
-      <c r="E9" s="72"/>
-      <c r="F9" s="62" t="s">
-        <v>354</v>
-      </c>
-      <c r="G9" s="66"/>
-      <c r="H9" s="66"/>
-      <c r="I9" s="66" t="s">
-        <v>355</v>
-      </c>
-      <c r="J9" s="67" t="s">
-        <v>353</v>
-      </c>
-      <c r="K9" s="66"/>
-      <c r="L9" s="67" t="s">
-        <v>315</v>
-      </c>
-      <c r="M9" s="77"/>
-    </row>
-    <row r="10" spans="1:13" s="44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="80"/>
-      <c r="B10" s="80"/>
-      <c r="C10" s="80"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="72"/>
-      <c r="F10" s="62"/>
-      <c r="G10" s="66"/>
-      <c r="H10" s="66"/>
-      <c r="I10" s="66"/>
-      <c r="J10" s="66"/>
-      <c r="K10" s="66"/>
-      <c r="L10" s="72"/>
-      <c r="M10" s="65"/>
-    </row>
-    <row r="11" spans="1:13" s="44" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="62" t="s">
-        <v>313</v>
-      </c>
-      <c r="B11" s="62" t="s">
-        <v>307</v>
-      </c>
-      <c r="C11" s="62" t="s">
-        <v>316</v>
-      </c>
-      <c r="D11" s="62"/>
-      <c r="E11" s="72"/>
-      <c r="F11" s="62" t="s">
-        <v>356</v>
-      </c>
-      <c r="G11" s="66"/>
-      <c r="H11" s="67" t="s">
-        <v>314</v>
-      </c>
-      <c r="I11" s="66"/>
-      <c r="J11" s="66"/>
-      <c r="K11" s="66"/>
-      <c r="L11" s="71" t="s">
-        <v>314</v>
-      </c>
-      <c r="M11" s="64" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" s="44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="62"/>
-      <c r="B12" s="62"/>
-      <c r="C12" s="62"/>
-      <c r="D12" s="62"/>
-      <c r="E12" s="72"/>
-      <c r="F12" s="62"/>
-      <c r="G12" s="66"/>
-      <c r="H12" s="66"/>
-      <c r="I12" s="66"/>
-      <c r="J12" s="66"/>
-      <c r="K12" s="66"/>
-      <c r="L12" s="72"/>
-      <c r="M12" s="65"/>
-    </row>
-    <row r="13" spans="1:13" s="44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="62"/>
-      <c r="B13" s="62"/>
-      <c r="C13" s="62"/>
-      <c r="D13" s="62"/>
-      <c r="E13" s="72"/>
-      <c r="F13" s="62"/>
-      <c r="G13" s="66"/>
-      <c r="H13" s="66"/>
-      <c r="I13" s="66"/>
-      <c r="J13" s="66"/>
-      <c r="K13" s="66"/>
-      <c r="L13" s="72"/>
-      <c r="M13" s="65"/>
-    </row>
-    <row r="14" spans="1:13" s="44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="62"/>
-      <c r="B14" s="62"/>
-      <c r="C14" s="62"/>
-      <c r="D14" s="62"/>
-      <c r="E14" s="72"/>
-      <c r="F14" s="62"/>
-      <c r="G14" s="66"/>
-      <c r="H14" s="66"/>
-      <c r="I14" s="66"/>
-      <c r="J14" s="66"/>
-      <c r="K14" s="66"/>
-      <c r="L14" s="72"/>
-      <c r="M14" s="65"/>
-    </row>
-    <row r="15" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="83" t="s">
+      <c r="I11" s="65"/>
+      <c r="J11" s="65"/>
+      <c r="K11" s="65"/>
+      <c r="L11" s="70" t="s">
+        <v>312</v>
+      </c>
+      <c r="M11" s="63" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" s="44" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="61"/>
+      <c r="B12" s="61"/>
+      <c r="C12" s="61"/>
+      <c r="D12" s="61"/>
+      <c r="E12" s="71"/>
+      <c r="F12" s="61"/>
+      <c r="G12" s="65"/>
+      <c r="H12" s="65"/>
+      <c r="I12" s="65"/>
+      <c r="J12" s="65"/>
+      <c r="K12" s="65"/>
+      <c r="L12" s="71"/>
+      <c r="M12" s="64"/>
+    </row>
+    <row r="13" spans="1:13" s="44" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="61"/>
+      <c r="B13" s="61"/>
+      <c r="C13" s="61"/>
+      <c r="D13" s="61"/>
+      <c r="E13" s="71"/>
+      <c r="F13" s="61"/>
+      <c r="G13" s="65"/>
+      <c r="H13" s="65"/>
+      <c r="I13" s="65"/>
+      <c r="J13" s="65"/>
+      <c r="K13" s="65"/>
+      <c r="L13" s="71"/>
+      <c r="M13" s="64"/>
+    </row>
+    <row r="14" spans="1:13" s="44" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="61"/>
+      <c r="B14" s="61"/>
+      <c r="C14" s="61"/>
+      <c r="D14" s="61"/>
+      <c r="E14" s="71"/>
+      <c r="F14" s="61"/>
+      <c r="G14" s="65"/>
+      <c r="H14" s="65"/>
+      <c r="I14" s="65"/>
+      <c r="J14" s="65"/>
+      <c r="K14" s="65"/>
+      <c r="L14" s="71"/>
+      <c r="M14" s="64"/>
+    </row>
+    <row r="15" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A15" s="78" t="s">
         <v>174</v>
       </c>
-      <c r="B15" s="80" t="s">
-        <v>242</v>
-      </c>
-      <c r="C15" s="80" t="s">
-        <v>303</v>
-      </c>
-      <c r="D15" s="58" t="s">
-        <v>338</v>
-      </c>
-      <c r="E15" s="72" t="s">
-        <v>339</v>
+      <c r="B15" s="77" t="s">
+        <v>240</v>
+      </c>
+      <c r="C15" s="77" t="s">
+        <v>301</v>
+      </c>
+      <c r="D15" s="57" t="s">
+        <v>336</v>
+      </c>
+      <c r="E15" s="71" t="s">
+        <v>337</v>
       </c>
       <c r="F15" s="32" t="s">
         <v>202</v>
       </c>
-      <c r="G15" s="66"/>
-      <c r="H15" s="66"/>
-      <c r="I15" s="66"/>
-      <c r="J15" s="66"/>
-      <c r="K15" s="66"/>
-      <c r="L15" s="67" t="s">
-        <v>274</v>
-      </c>
-      <c r="M15" s="76" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="83"/>
-      <c r="B16" s="83"/>
-      <c r="C16" s="83"/>
-      <c r="D16" s="58" t="s">
-        <v>339</v>
-      </c>
-      <c r="E16" s="72" t="s">
-        <v>340</v>
+      <c r="G15" s="65"/>
+      <c r="H15" s="65"/>
+      <c r="I15" s="65"/>
+      <c r="J15" s="65"/>
+      <c r="K15" s="65"/>
+      <c r="L15" s="66" t="s">
+        <v>272</v>
+      </c>
+      <c r="M15" s="81" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="78"/>
+      <c r="B16" s="78"/>
+      <c r="C16" s="78"/>
+      <c r="D16" s="57" t="s">
+        <v>337</v>
+      </c>
+      <c r="E16" s="71" t="s">
+        <v>338</v>
       </c>
       <c r="F16" s="34" t="s">
         <v>175</v>
       </c>
-      <c r="G16" s="66"/>
-      <c r="H16" s="66"/>
-      <c r="I16" s="66"/>
-      <c r="J16" s="66"/>
-      <c r="K16" s="66"/>
-      <c r="L16" s="67" t="s">
-        <v>274</v>
-      </c>
-      <c r="M16" s="77"/>
-    </row>
-    <row r="17" spans="1:13" ht="90" x14ac:dyDescent="0.25">
-      <c r="A17" s="83"/>
-      <c r="B17" s="83"/>
-      <c r="C17" s="83"/>
-      <c r="D17" s="58" t="s">
-        <v>340</v>
-      </c>
-      <c r="E17" s="72" t="s">
-        <v>236</v>
+      <c r="G16" s="65"/>
+      <c r="H16" s="65"/>
+      <c r="I16" s="65"/>
+      <c r="J16" s="65"/>
+      <c r="K16" s="65"/>
+      <c r="L16" s="66" t="s">
+        <v>272</v>
+      </c>
+      <c r="M16" s="82"/>
+    </row>
+    <row r="17" spans="1:13" ht="72" x14ac:dyDescent="0.3">
+      <c r="A17" s="78"/>
+      <c r="B17" s="78"/>
+      <c r="C17" s="78"/>
+      <c r="D17" s="57" t="s">
+        <v>338</v>
+      </c>
+      <c r="E17" s="71" t="s">
+        <v>234</v>
       </c>
       <c r="F17" s="32" t="s">
         <v>203</v>
       </c>
-      <c r="G17" s="66"/>
-      <c r="H17" s="66"/>
-      <c r="I17" s="66"/>
-      <c r="J17" s="66"/>
-      <c r="K17" s="66"/>
-      <c r="L17" s="67" t="s">
-        <v>274</v>
-      </c>
-      <c r="M17" s="77"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="83"/>
-      <c r="B18" s="83"/>
-      <c r="C18" s="83"/>
+      <c r="G17" s="65"/>
+      <c r="H17" s="65"/>
+      <c r="I17" s="65"/>
+      <c r="J17" s="65"/>
+      <c r="K17" s="65"/>
+      <c r="L17" s="66" t="s">
+        <v>272</v>
+      </c>
+      <c r="M17" s="82"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A18" s="78"/>
+      <c r="B18" s="78"/>
+      <c r="C18" s="78"/>
       <c r="D18" s="43"/>
       <c r="F18" s="42"/>
       <c r="G18" s="42"/>
@@ -2714,190 +2934,190 @@
       <c r="I18" s="42"/>
       <c r="J18" s="42"/>
       <c r="K18" s="42"/>
-      <c r="L18" s="73" t="s">
-        <v>274</v>
-      </c>
-      <c r="M18" s="77"/>
-    </row>
-    <row r="19" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="83" t="s">
+      <c r="L18" s="72" t="s">
+        <v>272</v>
+      </c>
+      <c r="M18" s="82"/>
+    </row>
+    <row r="19" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="78" t="s">
         <v>176</v>
       </c>
-      <c r="B19" s="80" t="s">
-        <v>243</v>
-      </c>
-      <c r="C19" s="80" t="s">
-        <v>244</v>
-      </c>
-      <c r="D19" s="58" t="s">
-        <v>341</v>
-      </c>
-      <c r="E19" s="72" t="s">
+      <c r="B19" s="77" t="s">
+        <v>241</v>
+      </c>
+      <c r="C19" s="77" t="s">
+        <v>242</v>
+      </c>
+      <c r="D19" s="57" t="s">
+        <v>339</v>
+      </c>
+      <c r="E19" s="71" t="s">
         <v>178</v>
       </c>
       <c r="F19" s="35" t="s">
         <v>204</v>
       </c>
-      <c r="G19" s="66"/>
-      <c r="H19" s="66"/>
-      <c r="I19" s="66"/>
-      <c r="J19" s="66"/>
-      <c r="K19" s="66"/>
-      <c r="L19" s="67" t="s">
-        <v>274</v>
-      </c>
-      <c r="M19" s="76" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="83"/>
-      <c r="B20" s="80"/>
-      <c r="C20" s="83"/>
-      <c r="D20" s="58" t="s">
-        <v>342</v>
-      </c>
-      <c r="E20" s="72" t="s">
+      <c r="G19" s="65"/>
+      <c r="H19" s="65"/>
+      <c r="I19" s="65"/>
+      <c r="J19" s="65"/>
+      <c r="K19" s="65"/>
+      <c r="L19" s="66" t="s">
+        <v>272</v>
+      </c>
+      <c r="M19" s="81" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="78"/>
+      <c r="B20" s="77"/>
+      <c r="C20" s="78"/>
+      <c r="D20" s="57" t="s">
+        <v>340</v>
+      </c>
+      <c r="E20" s="71" t="s">
         <v>178</v>
       </c>
       <c r="F20" s="41" t="s">
         <v>205</v>
       </c>
-      <c r="G20" s="66"/>
-      <c r="H20" s="66"/>
-      <c r="I20" s="66"/>
-      <c r="J20" s="66"/>
-      <c r="K20" s="66"/>
-      <c r="L20" s="67" t="s">
-        <v>274</v>
-      </c>
-      <c r="M20" s="77"/>
-    </row>
-    <row r="21" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A21" s="83"/>
-      <c r="B21" s="80"/>
-      <c r="C21" s="83"/>
-      <c r="D21" s="58" t="s">
+      <c r="G20" s="65"/>
+      <c r="H20" s="65"/>
+      <c r="I20" s="65"/>
+      <c r="J20" s="65"/>
+      <c r="K20" s="65"/>
+      <c r="L20" s="66" t="s">
+        <v>272</v>
+      </c>
+      <c r="M20" s="82"/>
+    </row>
+    <row r="21" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A21" s="78"/>
+      <c r="B21" s="77"/>
+      <c r="C21" s="78"/>
+      <c r="D21" s="57" t="s">
         <v>177</v>
       </c>
       <c r="F21" s="41" t="s">
         <v>206</v>
       </c>
-      <c r="G21" s="66"/>
-      <c r="H21" s="66"/>
-      <c r="I21" s="66"/>
-      <c r="J21" s="66"/>
-      <c r="K21" s="66"/>
-      <c r="L21" s="67" t="s">
-        <v>274</v>
-      </c>
-      <c r="M21" s="77"/>
-    </row>
-    <row r="22" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A22" s="83"/>
-      <c r="B22" s="80"/>
-      <c r="C22" s="83"/>
-      <c r="D22" s="58" t="s">
+      <c r="G21" s="65"/>
+      <c r="H21" s="65"/>
+      <c r="I21" s="65"/>
+      <c r="J21" s="65"/>
+      <c r="K21" s="65"/>
+      <c r="L21" s="66" t="s">
+        <v>272</v>
+      </c>
+      <c r="M21" s="82"/>
+    </row>
+    <row r="22" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="78"/>
+      <c r="B22" s="77"/>
+      <c r="C22" s="78"/>
+      <c r="D22" s="57" t="s">
         <v>178</v>
       </c>
-      <c r="E22" s="72" t="s">
+      <c r="E22" s="71" t="s">
         <v>172</v>
       </c>
       <c r="F22" s="32" t="s">
         <v>207</v>
       </c>
-      <c r="G22" s="66"/>
-      <c r="H22" s="66"/>
-      <c r="I22" s="66"/>
-      <c r="J22" s="66"/>
-      <c r="K22" s="66"/>
-      <c r="L22" s="67" t="s">
-        <v>274</v>
-      </c>
-      <c r="M22" s="77"/>
-    </row>
-    <row r="23" spans="1:13" ht="90" x14ac:dyDescent="0.25">
-      <c r="A23" s="83" t="s">
+      <c r="G22" s="65"/>
+      <c r="H22" s="65"/>
+      <c r="I22" s="65"/>
+      <c r="J22" s="65"/>
+      <c r="K22" s="65"/>
+      <c r="L22" s="66" t="s">
+        <v>272</v>
+      </c>
+      <c r="M22" s="82"/>
+    </row>
+    <row r="23" spans="1:13" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A23" s="78" t="s">
         <v>179</v>
       </c>
-      <c r="B23" s="80" t="s">
-        <v>304</v>
-      </c>
-      <c r="C23" s="80" t="s">
-        <v>245</v>
-      </c>
-      <c r="D23" s="58" t="s">
-        <v>236</v>
+      <c r="B23" s="77" t="s">
+        <v>302</v>
+      </c>
+      <c r="C23" s="77" t="s">
+        <v>243</v>
+      </c>
+      <c r="D23" s="57" t="s">
+        <v>234</v>
       </c>
       <c r="F23" s="36" t="s">
         <v>180</v>
       </c>
-      <c r="G23" s="66"/>
-      <c r="H23" s="66"/>
-      <c r="I23" s="66"/>
-      <c r="J23" s="66"/>
-      <c r="K23" s="66"/>
-      <c r="L23" s="67" t="s">
-        <v>275</v>
-      </c>
-      <c r="M23" s="76" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" ht="120" x14ac:dyDescent="0.25">
-      <c r="A24" s="83"/>
-      <c r="B24" s="80"/>
-      <c r="C24" s="83"/>
-      <c r="D24" s="58" t="s">
+      <c r="G23" s="65"/>
+      <c r="H23" s="65"/>
+      <c r="I23" s="65"/>
+      <c r="J23" s="65"/>
+      <c r="K23" s="65"/>
+      <c r="L23" s="66" t="s">
+        <v>273</v>
+      </c>
+      <c r="M23" s="81" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A24" s="78"/>
+      <c r="B24" s="77"/>
+      <c r="C24" s="78"/>
+      <c r="D24" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="E24" s="72" t="s">
-        <v>305</v>
+      <c r="E24" s="71" t="s">
+        <v>303</v>
       </c>
       <c r="F24" s="41" t="s">
+        <v>355</v>
+      </c>
+      <c r="G24" s="65"/>
+      <c r="H24" s="65"/>
+      <c r="I24" s="65"/>
+      <c r="J24" s="65"/>
+      <c r="K24" s="73"/>
+      <c r="L24" s="66" t="s">
+        <v>356</v>
+      </c>
+      <c r="M24" s="82"/>
+    </row>
+    <row r="25" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A25" s="78"/>
+      <c r="B25" s="77"/>
+      <c r="C25" s="78"/>
+      <c r="D25" s="57" t="s">
+        <v>303</v>
+      </c>
+      <c r="E25" s="71" t="s">
+        <v>234</v>
+      </c>
+      <c r="F25" s="32" t="s">
         <v>357</v>
       </c>
-      <c r="G24" s="66"/>
-      <c r="H24" s="66"/>
-      <c r="I24" s="66"/>
-      <c r="J24" s="66"/>
-      <c r="K24" s="74"/>
-      <c r="L24" s="67" t="s">
+      <c r="G25" s="65"/>
+      <c r="H25" s="65"/>
+      <c r="I25" s="65" t="s">
         <v>358</v>
       </c>
-      <c r="M24" s="77"/>
-    </row>
-    <row r="25" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="83"/>
-      <c r="B25" s="80"/>
-      <c r="C25" s="83"/>
-      <c r="D25" s="58" t="s">
-        <v>305</v>
-      </c>
-      <c r="E25" s="72" t="s">
-        <v>236</v>
-      </c>
-      <c r="F25" s="32" t="s">
-        <v>359</v>
-      </c>
-      <c r="G25" s="66"/>
-      <c r="H25" s="66"/>
-      <c r="I25" s="66" t="s">
-        <v>360</v>
-      </c>
-      <c r="J25" s="67" t="s">
-        <v>278</v>
-      </c>
-      <c r="K25" s="66"/>
-      <c r="L25" s="67" t="s">
-        <v>275</v>
-      </c>
-      <c r="M25" s="77"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="83"/>
-      <c r="B26" s="80"/>
-      <c r="C26" s="83"/>
+      <c r="J25" s="66" t="s">
+        <v>276</v>
+      </c>
+      <c r="K25" s="65"/>
+      <c r="L25" s="66" t="s">
+        <v>273</v>
+      </c>
+      <c r="M25" s="82"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A26" s="78"/>
+      <c r="B26" s="77"/>
+      <c r="C26" s="78"/>
       <c r="D26" s="43"/>
       <c r="F26" s="43"/>
       <c r="G26" s="43"/>
@@ -2905,73 +3125,73 @@
       <c r="I26" s="43"/>
       <c r="J26" s="43"/>
       <c r="K26" s="43"/>
-      <c r="L26" s="67" t="s">
-        <v>275</v>
-      </c>
-      <c r="M26" s="77"/>
-    </row>
-    <row r="27" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="83" t="s">
+      <c r="L26" s="66" t="s">
+        <v>273</v>
+      </c>
+      <c r="M26" s="82"/>
+    </row>
+    <row r="27" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A27" s="78" t="s">
         <v>181</v>
       </c>
-      <c r="B27" s="80" t="s">
-        <v>246</v>
-      </c>
-      <c r="C27" s="78" t="s">
-        <v>247</v>
-      </c>
-      <c r="D27" s="58" t="s">
+      <c r="B27" s="77" t="s">
+        <v>244</v>
+      </c>
+      <c r="C27" s="83" t="s">
+        <v>245</v>
+      </c>
+      <c r="D27" s="57" t="s">
         <v>182</v>
       </c>
-      <c r="E27" s="72" t="s">
-        <v>305</v>
+      <c r="E27" s="71" t="s">
+        <v>303</v>
       </c>
       <c r="F27" s="32" t="s">
-        <v>361</v>
-      </c>
-      <c r="G27" s="66"/>
-      <c r="H27" s="66"/>
-      <c r="I27" s="66" t="s">
+        <v>359</v>
+      </c>
+      <c r="G27" s="65"/>
+      <c r="H27" s="65"/>
+      <c r="I27" s="65" t="s">
         <v>84</v>
       </c>
-      <c r="J27" s="67" t="s">
-        <v>362</v>
-      </c>
-      <c r="K27" s="66"/>
-      <c r="L27" s="67" t="s">
-        <v>279</v>
-      </c>
-      <c r="M27" s="76" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="83"/>
-      <c r="B28" s="80"/>
-      <c r="C28" s="78"/>
-      <c r="D28" s="58" t="s">
+      <c r="J27" s="66" t="s">
+        <v>360</v>
+      </c>
+      <c r="K27" s="65"/>
+      <c r="L27" s="66" t="s">
+        <v>277</v>
+      </c>
+      <c r="M27" s="81" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A28" s="78"/>
+      <c r="B28" s="77"/>
+      <c r="C28" s="83"/>
+      <c r="D28" s="57" t="s">
         <v>183</v>
       </c>
-      <c r="E28" s="72" t="s">
+      <c r="E28" s="71" t="s">
         <v>132</v>
       </c>
       <c r="F28" s="32" t="s">
         <v>184</v>
       </c>
-      <c r="G28" s="66"/>
-      <c r="H28" s="66"/>
-      <c r="I28" s="66"/>
-      <c r="J28" s="66"/>
-      <c r="K28" s="66"/>
-      <c r="L28" s="67" t="s">
-        <v>279</v>
-      </c>
-      <c r="M28" s="77"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="83"/>
-      <c r="B29" s="80"/>
-      <c r="C29" s="78"/>
+      <c r="G28" s="65"/>
+      <c r="H28" s="65"/>
+      <c r="I28" s="65"/>
+      <c r="J28" s="65"/>
+      <c r="K28" s="65"/>
+      <c r="L28" s="66" t="s">
+        <v>277</v>
+      </c>
+      <c r="M28" s="82"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A29" s="78"/>
+      <c r="B29" s="77"/>
+      <c r="C29" s="83"/>
       <c r="D29" s="43"/>
       <c r="F29" s="42"/>
       <c r="G29" s="42"/>
@@ -2979,381 +3199,381 @@
       <c r="I29" s="42"/>
       <c r="J29" s="42"/>
       <c r="K29" s="42"/>
-      <c r="L29" s="73" t="s">
-        <v>279</v>
-      </c>
-      <c r="M29" s="77"/>
-    </row>
-    <row r="30" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="83" t="s">
+      <c r="L29" s="72" t="s">
+        <v>277</v>
+      </c>
+      <c r="M29" s="82"/>
+    </row>
+    <row r="30" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A30" s="78" t="s">
         <v>185</v>
       </c>
-      <c r="C30" s="60"/>
+      <c r="C30" s="59"/>
       <c r="F30" s="37"/>
-      <c r="G30" s="66"/>
-      <c r="H30" s="66"/>
-      <c r="I30" s="66"/>
-      <c r="J30" s="66"/>
-      <c r="K30" s="66"/>
-      <c r="L30" s="67" t="s">
-        <v>276</v>
-      </c>
-      <c r="M30" s="76" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" ht="165" x14ac:dyDescent="0.25">
-      <c r="A31" s="83"/>
-      <c r="B31" s="80" t="s">
-        <v>248</v>
-      </c>
-      <c r="C31" s="80" t="s">
-        <v>249</v>
+      <c r="G30" s="65"/>
+      <c r="H30" s="65"/>
+      <c r="I30" s="65"/>
+      <c r="J30" s="65"/>
+      <c r="K30" s="65"/>
+      <c r="L30" s="66" t="s">
+        <v>274</v>
+      </c>
+      <c r="M30" s="81" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A31" s="78"/>
+      <c r="B31" s="77" t="s">
+        <v>246</v>
+      </c>
+      <c r="C31" s="77" t="s">
+        <v>247</v>
       </c>
       <c r="D31" s="43" t="s">
-        <v>185</v>
-      </c>
-      <c r="E31" s="72" t="s">
+        <v>372</v>
+      </c>
+      <c r="E31" s="71" t="s">
         <v>192</v>
       </c>
       <c r="F31" s="32" t="s">
         <v>186</v>
       </c>
-      <c r="G31" s="66"/>
-      <c r="H31" s="66"/>
-      <c r="I31" s="66"/>
-      <c r="J31" s="66"/>
-      <c r="K31" s="66"/>
-      <c r="L31" s="67" t="s">
-        <v>276</v>
-      </c>
-      <c r="M31" s="77"/>
-    </row>
-    <row r="32" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A32" s="83"/>
-      <c r="B32" s="83"/>
-      <c r="C32" s="80"/>
-      <c r="D32" s="58" t="s">
-        <v>237</v>
+      <c r="G31" s="65"/>
+      <c r="H31" s="65"/>
+      <c r="I31" s="65"/>
+      <c r="J31" s="65"/>
+      <c r="K31" s="65"/>
+      <c r="L31" s="66" t="s">
+        <v>274</v>
+      </c>
+      <c r="M31" s="82"/>
+    </row>
+    <row r="32" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A32" s="78"/>
+      <c r="B32" s="78"/>
+      <c r="C32" s="77"/>
+      <c r="D32" s="57" t="s">
+        <v>235</v>
       </c>
       <c r="F32" s="41" t="s">
         <v>210</v>
       </c>
-      <c r="G32" s="66"/>
-      <c r="H32" s="66"/>
-      <c r="I32" s="66"/>
-      <c r="J32" s="66"/>
-      <c r="K32" s="66"/>
-      <c r="L32" s="67" t="s">
-        <v>276</v>
-      </c>
-      <c r="M32" s="77"/>
-    </row>
-    <row r="33" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="83"/>
-      <c r="B33" s="83"/>
-      <c r="C33" s="80"/>
+      <c r="G32" s="65"/>
+      <c r="H32" s="65"/>
+      <c r="I32" s="65"/>
+      <c r="J32" s="65"/>
+      <c r="K32" s="65"/>
+      <c r="L32" s="66" t="s">
+        <v>274</v>
+      </c>
+      <c r="M32" s="82"/>
+    </row>
+    <row r="33" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A33" s="78"/>
+      <c r="B33" s="78"/>
+      <c r="C33" s="77"/>
       <c r="D33" s="43" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="F33" s="43" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G33" s="43"/>
       <c r="H33" s="43"/>
       <c r="I33" s="43"/>
       <c r="J33" s="43"/>
       <c r="K33" s="43"/>
-      <c r="L33" s="67" t="s">
-        <v>276</v>
-      </c>
-      <c r="M33" s="77"/>
-    </row>
-    <row r="34" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="83"/>
-      <c r="B34" s="83"/>
-      <c r="C34" s="80"/>
+      <c r="L33" s="66" t="s">
+        <v>274</v>
+      </c>
+      <c r="M33" s="82"/>
+    </row>
+    <row r="34" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A34" s="78"/>
+      <c r="B34" s="78"/>
+      <c r="C34" s="77"/>
       <c r="D34" s="43" t="s">
         <v>172</v>
       </c>
-      <c r="E34" s="72" t="s">
-        <v>238</v>
+      <c r="E34" s="71" t="s">
+        <v>236</v>
       </c>
       <c r="F34" s="43" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="G34" s="43"/>
       <c r="H34" s="43"/>
       <c r="I34" s="43"/>
       <c r="J34" s="43"/>
       <c r="K34" s="43"/>
-      <c r="L34" s="67" t="s">
-        <v>276</v>
-      </c>
-      <c r="M34" s="77"/>
-    </row>
-    <row r="35" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A35" s="83"/>
-      <c r="B35" s="83"/>
-      <c r="C35" s="80"/>
+      <c r="L34" s="66" t="s">
+        <v>274</v>
+      </c>
+      <c r="M34" s="82"/>
+    </row>
+    <row r="35" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A35" s="78"/>
+      <c r="B35" s="78"/>
+      <c r="C35" s="77"/>
       <c r="D35" s="43" t="s">
-        <v>238</v>
-      </c>
-      <c r="E35" s="72" t="s">
+        <v>236</v>
+      </c>
+      <c r="E35" s="71" t="s">
         <v>132</v>
       </c>
       <c r="F35" s="43" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G35" s="43"/>
       <c r="H35" s="43"/>
       <c r="I35" s="43"/>
       <c r="J35" s="43"/>
       <c r="K35" s="43"/>
-      <c r="L35" s="67" t="s">
-        <v>276</v>
-      </c>
-      <c r="M35" s="77"/>
-    </row>
-    <row r="36" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="83"/>
-      <c r="B36" s="83"/>
-      <c r="C36" s="80"/>
-      <c r="D36" s="58" t="s">
+      <c r="L35" s="66" t="s">
+        <v>274</v>
+      </c>
+      <c r="M35" s="82"/>
+    </row>
+    <row r="36" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A36" s="78"/>
+      <c r="B36" s="78"/>
+      <c r="C36" s="77"/>
+      <c r="D36" s="57" t="s">
         <v>132</v>
       </c>
-      <c r="E36" s="72" t="s">
+      <c r="E36" s="71" t="s">
         <v>189</v>
       </c>
       <c r="F36" s="43" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="G36" s="43"/>
       <c r="H36" s="43"/>
-      <c r="I36" s="74" t="s">
-        <v>360</v>
-      </c>
-      <c r="J36" s="75" t="s">
+      <c r="I36" s="73" t="s">
+        <v>358</v>
+      </c>
+      <c r="J36" s="74" t="s">
         <v>194</v>
       </c>
       <c r="K36" s="43"/>
-      <c r="L36" s="67" t="s">
-        <v>276</v>
-      </c>
-      <c r="M36" s="77"/>
-    </row>
-    <row r="37" spans="1:13" ht="90" x14ac:dyDescent="0.25">
-      <c r="A37" s="80" t="s">
+      <c r="L36" s="66" t="s">
+        <v>274</v>
+      </c>
+      <c r="M36" s="82"/>
+    </row>
+    <row r="37" spans="1:13" ht="72" x14ac:dyDescent="0.3">
+      <c r="A37" s="77" t="s">
+        <v>248</v>
+      </c>
+      <c r="B37" s="77" t="s">
+        <v>249</v>
+      </c>
+      <c r="C37" s="77" t="s">
         <v>250</v>
       </c>
-      <c r="B37" s="80" t="s">
-        <v>251</v>
-      </c>
-      <c r="C37" s="80" t="s">
-        <v>252</v>
-      </c>
-      <c r="D37" s="58" t="s">
+      <c r="D37" s="57" t="s">
         <v>187</v>
       </c>
-      <c r="E37" s="72" t="s">
+      <c r="E37" s="71" t="s">
         <v>191</v>
       </c>
       <c r="F37" s="32" t="s">
         <v>211</v>
       </c>
-      <c r="G37" s="66"/>
-      <c r="H37" s="66"/>
-      <c r="I37" s="66"/>
-      <c r="J37" s="66"/>
-      <c r="K37" s="66"/>
-      <c r="L37" s="67" t="s">
-        <v>277</v>
-      </c>
-      <c r="M37" s="76" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" ht="90" x14ac:dyDescent="0.25">
-      <c r="A38" s="80"/>
-      <c r="B38" s="80"/>
-      <c r="C38" s="83"/>
-      <c r="D38" s="58" t="s">
+      <c r="G37" s="65"/>
+      <c r="H37" s="65"/>
+      <c r="I37" s="65"/>
+      <c r="J37" s="65"/>
+      <c r="K37" s="65"/>
+      <c r="L37" s="66" t="s">
+        <v>275</v>
+      </c>
+      <c r="M37" s="81" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" ht="72" x14ac:dyDescent="0.3">
+      <c r="A38" s="77"/>
+      <c r="B38" s="77"/>
+      <c r="C38" s="78"/>
+      <c r="D38" s="57" t="s">
         <v>188</v>
       </c>
-      <c r="E38" s="72" t="s">
+      <c r="E38" s="71" t="s">
         <v>191</v>
       </c>
       <c r="F38" s="32" t="s">
-        <v>364</v>
-      </c>
-      <c r="G38" s="66"/>
-      <c r="H38" s="66"/>
-      <c r="I38" s="66" t="s">
-        <v>365</v>
-      </c>
-      <c r="J38" s="67" t="s">
-        <v>277</v>
-      </c>
-      <c r="K38" s="66"/>
-      <c r="L38" s="67" t="s">
-        <v>277</v>
-      </c>
-      <c r="M38" s="77"/>
-    </row>
-    <row r="39" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A39" s="80"/>
-      <c r="B39" s="80"/>
-      <c r="C39" s="83"/>
-      <c r="D39" s="58" t="s">
+        <v>362</v>
+      </c>
+      <c r="G38" s="65"/>
+      <c r="H38" s="65"/>
+      <c r="I38" s="65" t="s">
+        <v>363</v>
+      </c>
+      <c r="J38" s="66" t="s">
+        <v>275</v>
+      </c>
+      <c r="K38" s="65"/>
+      <c r="L38" s="66" t="s">
+        <v>275</v>
+      </c>
+      <c r="M38" s="82"/>
+    </row>
+    <row r="39" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A39" s="77"/>
+      <c r="B39" s="77"/>
+      <c r="C39" s="78"/>
+      <c r="D39" s="57" t="s">
         <v>189</v>
       </c>
-      <c r="F39" s="67" t="s">
+      <c r="F39" s="66" t="s">
         <v>194</v>
       </c>
-      <c r="L39" s="67" t="s">
-        <v>277</v>
-      </c>
-      <c r="M39" s="77"/>
-    </row>
-    <row r="40" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A40" s="80"/>
-      <c r="B40" s="80"/>
-      <c r="C40" s="83"/>
-      <c r="D40" s="58" t="s">
+      <c r="L39" s="66" t="s">
+        <v>275</v>
+      </c>
+      <c r="M39" s="82"/>
+    </row>
+    <row r="40" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A40" s="77"/>
+      <c r="B40" s="77"/>
+      <c r="C40" s="78"/>
+      <c r="D40" s="57" t="s">
         <v>190</v>
       </c>
       <c r="F40" s="38" t="s">
         <v>195</v>
       </c>
-      <c r="L40" s="67" t="s">
-        <v>277</v>
-      </c>
-      <c r="M40" s="77"/>
-    </row>
-    <row r="41" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A41" s="80"/>
-      <c r="B41" s="80"/>
-      <c r="C41" s="83"/>
-      <c r="D41" s="58" t="s">
+      <c r="L40" s="66" t="s">
+        <v>275</v>
+      </c>
+      <c r="M40" s="82"/>
+    </row>
+    <row r="41" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A41" s="77"/>
+      <c r="B41" s="77"/>
+      <c r="C41" s="78"/>
+      <c r="D41" s="57" t="s">
         <v>191</v>
       </c>
-      <c r="E41" s="72" t="s">
+      <c r="E41" s="71" t="s">
         <v>189</v>
       </c>
       <c r="F41" s="39" t="s">
         <v>196</v>
       </c>
-      <c r="G41" s="66"/>
-      <c r="H41" s="66"/>
-      <c r="I41" s="66"/>
-      <c r="J41" s="66"/>
-      <c r="K41" s="66"/>
-      <c r="L41" s="67" t="s">
-        <v>277</v>
-      </c>
-      <c r="M41" s="77"/>
-    </row>
-    <row r="42" spans="1:13" ht="105" x14ac:dyDescent="0.25">
-      <c r="A42" s="80"/>
-      <c r="B42" s="80"/>
-      <c r="C42" s="83"/>
-      <c r="D42" s="58" t="s">
+      <c r="G41" s="65"/>
+      <c r="H41" s="65"/>
+      <c r="I41" s="65"/>
+      <c r="J41" s="65"/>
+      <c r="K41" s="65"/>
+      <c r="L41" s="66" t="s">
+        <v>275</v>
+      </c>
+      <c r="M41" s="82"/>
+    </row>
+    <row r="42" spans="1:13" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A42" s="77"/>
+      <c r="B42" s="77"/>
+      <c r="C42" s="78"/>
+      <c r="D42" s="57" t="s">
         <v>192</v>
       </c>
-      <c r="E42" s="72" t="s">
+      <c r="E42" s="71" t="s">
         <v>189</v>
       </c>
       <c r="F42" s="32" t="s">
+        <v>365</v>
+      </c>
+      <c r="G42" s="65"/>
+      <c r="H42" s="65"/>
+      <c r="I42" s="65" t="s">
+        <v>366</v>
+      </c>
+      <c r="J42" s="65" t="s">
+        <v>364</v>
+      </c>
+      <c r="K42" s="65"/>
+      <c r="L42" s="66" t="s">
+        <v>275</v>
+      </c>
+      <c r="M42" s="82"/>
+    </row>
+    <row r="43" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A43" s="77"/>
+      <c r="B43" s="77"/>
+      <c r="C43" s="78"/>
+      <c r="D43" s="57" t="s">
+        <v>193</v>
+      </c>
+      <c r="E43" s="71" t="s">
+        <v>189</v>
+      </c>
+      <c r="F43" s="41" t="s">
         <v>367</v>
       </c>
-      <c r="G42" s="66"/>
-      <c r="H42" s="66"/>
-      <c r="I42" s="66" t="s">
+      <c r="G43" s="65"/>
+      <c r="H43" s="65"/>
+      <c r="I43" s="65"/>
+      <c r="J43" s="65"/>
+      <c r="K43" s="65"/>
+      <c r="L43" s="66" t="s">
         <v>368</v>
       </c>
-      <c r="J42" s="66" t="s">
-        <v>366</v>
-      </c>
-      <c r="K42" s="66"/>
-      <c r="L42" s="67" t="s">
-        <v>277</v>
-      </c>
-      <c r="M42" s="77"/>
-    </row>
-    <row r="43" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A43" s="80"/>
-      <c r="B43" s="80"/>
-      <c r="C43" s="83"/>
-      <c r="D43" s="58" t="s">
-        <v>193</v>
-      </c>
-      <c r="E43" s="72" t="s">
-        <v>189</v>
-      </c>
-      <c r="F43" s="41" t="s">
-        <v>369</v>
-      </c>
-      <c r="G43" s="66"/>
-      <c r="H43" s="66"/>
-      <c r="I43" s="66"/>
-      <c r="J43" s="66"/>
-      <c r="K43" s="66"/>
-      <c r="L43" s="67" t="s">
-        <v>370</v>
-      </c>
-      <c r="M43" s="77"/>
-    </row>
-    <row r="44" spans="1:13" s="44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="62"/>
-      <c r="B44" s="62"/>
-      <c r="C44" s="63"/>
-      <c r="D44" s="62"/>
-      <c r="E44" s="72"/>
-      <c r="F44" s="62"/>
-      <c r="G44" s="66"/>
-      <c r="H44" s="66"/>
-      <c r="I44" s="66"/>
-      <c r="J44" s="66"/>
-      <c r="K44" s="66"/>
-      <c r="L44" s="72"/>
-      <c r="M44" s="65"/>
-    </row>
-    <row r="45" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A45" s="59" t="s">
+      <c r="M43" s="82"/>
+    </row>
+    <row r="44" spans="1:13" s="44" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="61"/>
+      <c r="B44" s="61"/>
+      <c r="C44" s="62"/>
+      <c r="D44" s="61"/>
+      <c r="E44" s="71"/>
+      <c r="F44" s="61"/>
+      <c r="G44" s="65"/>
+      <c r="H44" s="65"/>
+      <c r="I44" s="65"/>
+      <c r="J44" s="65"/>
+      <c r="K44" s="65"/>
+      <c r="L44" s="71"/>
+      <c r="M44" s="64"/>
+    </row>
+    <row r="45" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A45" s="58" t="s">
         <v>208</v>
       </c>
-      <c r="B45" s="57" t="s">
-        <v>253</v>
+      <c r="B45" s="56" t="s">
+        <v>251</v>
       </c>
       <c r="C45" t="s">
-        <v>254</v>
-      </c>
-      <c r="D45" s="58" t="s">
+        <v>252</v>
+      </c>
+      <c r="D45" s="57" t="s">
         <v>209</v>
       </c>
       <c r="F45" s="40" t="s">
         <v>208</v>
       </c>
       <c r="I45" s="44" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="J45" s="47" t="s">
         <v>212</v>
       </c>
       <c r="L45" s="47" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="M45" s="47" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B46" s="42"/>
       <c r="C46" s="42"/>
       <c r="D46" s="43"/>
       <c r="F46" s="40"/>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B47" s="42"/>
       <c r="C47" s="42"/>
       <c r="D47" s="43"/>
@@ -3362,12 +3582,25 @@
   </sheetData>
   <autoFilter ref="A1:M11" xr:uid="{76ECA6C0-BC80-4DB9-9512-79EF84769A51}"/>
   <mergeCells count="36">
-    <mergeCell ref="B31:B36"/>
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="C23:C26"/>
-    <mergeCell ref="C31:C36"/>
-    <mergeCell ref="B37:B43"/>
-    <mergeCell ref="C37:C43"/>
+    <mergeCell ref="M27:M29"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="M30:M36"/>
+    <mergeCell ref="M37:M43"/>
+    <mergeCell ref="M2:M4"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="M15:M18"/>
+    <mergeCell ref="M19:M22"/>
+    <mergeCell ref="M23:M26"/>
+    <mergeCell ref="M7:M9"/>
+    <mergeCell ref="A37:A43"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A30:A36"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="A7:A10"/>
     <mergeCell ref="B19:B22"/>
     <mergeCell ref="C19:C22"/>
     <mergeCell ref="B27:B29"/>
@@ -3379,25 +3612,12 @@
     <mergeCell ref="C15:C18"/>
     <mergeCell ref="B7:B10"/>
     <mergeCell ref="C7:C10"/>
-    <mergeCell ref="A37:A43"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A30:A36"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="A23:A26"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="M27:M29"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="M30:M36"/>
-    <mergeCell ref="M37:M43"/>
-    <mergeCell ref="M2:M4"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="M15:M18"/>
-    <mergeCell ref="M19:M22"/>
-    <mergeCell ref="M23:M26"/>
-    <mergeCell ref="M7:M9"/>
+    <mergeCell ref="B31:B36"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="C23:C26"/>
+    <mergeCell ref="C31:C36"/>
+    <mergeCell ref="B37:B43"/>
+    <mergeCell ref="C37:C43"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="M2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -3471,16 +3691,16 @@
       <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="22" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" style="27" customWidth="1"/>
-    <col min="3" max="3" width="26.7109375" customWidth="1"/>
-    <col min="4" max="4" width="95.28515625" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="22" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" style="27" customWidth="1"/>
+    <col min="3" max="3" width="26.6640625" customWidth="1"/>
+    <col min="4" max="4" width="95.33203125" customWidth="1"/>
     <col min="5" max="5" width="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="21" t="s">
         <v>1</v>
       </c>
@@ -3497,8 +3717,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="84" t="s">
+    <row r="2" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="85" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="29"/>
@@ -3512,8 +3732,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="85"/>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="86"/>
       <c r="B3" s="28"/>
       <c r="C3" t="s">
         <v>4</v>
@@ -3521,8 +3741,8 @@
       <c r="D3" s="4"/>
       <c r="E3" s="6"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="85"/>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="86"/>
       <c r="B4" s="28"/>
       <c r="C4" t="s">
         <v>5</v>
@@ -3530,8 +3750,8 @@
       <c r="D4" s="4"/>
       <c r="E4" s="6"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="85"/>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="86"/>
       <c r="B5" s="28"/>
       <c r="C5" t="s">
         <v>6</v>
@@ -3539,8 +3759,8 @@
       <c r="D5" s="4"/>
       <c r="E5" s="6"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="85"/>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="86"/>
       <c r="B6" s="28"/>
       <c r="C6" t="s">
         <v>7</v>
@@ -3548,8 +3768,8 @@
       <c r="D6" s="4"/>
       <c r="E6" s="6"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="85"/>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="86"/>
       <c r="B7" s="28"/>
       <c r="C7" t="s">
         <v>8</v>
@@ -3557,8 +3777,8 @@
       <c r="D7" s="4"/>
       <c r="E7" s="6"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="85"/>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="86"/>
       <c r="B8" s="28"/>
       <c r="C8" t="s">
         <v>9</v>
@@ -3566,8 +3786,8 @@
       <c r="D8" s="4"/>
       <c r="E8" s="6"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="85"/>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="86"/>
       <c r="B9" s="28"/>
       <c r="C9" t="s">
         <v>10</v>
@@ -3575,8 +3795,8 @@
       <c r="D9" s="4"/>
       <c r="E9" s="6"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="85"/>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="86"/>
       <c r="B10" s="28"/>
       <c r="C10" t="s">
         <v>11</v>
@@ -3584,8 +3804,8 @@
       <c r="D10" s="4"/>
       <c r="E10" s="6"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="85" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="86" t="s">
         <v>16</v>
       </c>
       <c r="B11" s="28"/>
@@ -3593,29 +3813,29 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="85"/>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="86"/>
       <c r="B12" s="28"/>
       <c r="C12" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="85"/>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="86"/>
       <c r="B13" s="28"/>
       <c r="C13" s="7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="85"/>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="86"/>
       <c r="B14" s="28"/>
       <c r="C14" s="7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="85"/>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="86"/>
       <c r="B15" s="28"/>
       <c r="C15" s="7" t="s">
         <v>21</v>
@@ -3624,8 +3844,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="85"/>
+    <row r="16" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A16" s="86"/>
       <c r="B16" s="28"/>
       <c r="C16" s="7" t="s">
         <v>22</v>
@@ -3634,8 +3854,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="85" t="s">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="86" t="s">
         <v>23</v>
       </c>
       <c r="B17" s="28"/>
@@ -3649,8 +3869,8 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="85"/>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="86"/>
       <c r="B18" s="28"/>
       <c r="C18" s="8" t="s">
         <v>25</v>
@@ -3659,22 +3879,22 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="85"/>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="86"/>
       <c r="B19" s="28"/>
       <c r="C19" s="8" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="85"/>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="86"/>
       <c r="B20" s="28"/>
       <c r="C20" s="8" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A21" s="85"/>
+    <row r="21" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A21" s="86"/>
       <c r="B21" s="28"/>
       <c r="C21" s="8" t="s">
         <v>28</v>
@@ -3683,8 +3903,8 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="85"/>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="86"/>
       <c r="B22" s="28"/>
       <c r="C22" s="8" t="s">
         <v>29</v>
@@ -3693,8 +3913,8 @@
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="85"/>
+    <row r="23" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A23" s="86"/>
       <c r="B23" s="28"/>
       <c r="C23" s="8" t="s">
         <v>30</v>
@@ -3703,15 +3923,15 @@
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="85"/>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="86"/>
       <c r="B24" s="28"/>
       <c r="C24" s="8" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="85" t="s">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="86" t="s">
         <v>41</v>
       </c>
       <c r="B25" s="28"/>
@@ -3725,8 +3945,8 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="85"/>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="86"/>
       <c r="B26" s="28"/>
       <c r="C26" s="9" t="s">
         <v>43</v>
@@ -3735,8 +3955,8 @@
         <v>47</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="85"/>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="86"/>
       <c r="B27" s="28"/>
       <c r="C27" s="9" t="s">
         <v>44</v>
@@ -3745,8 +3965,8 @@
         <v>48</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="85"/>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="86"/>
       <c r="B28" s="28"/>
       <c r="C28" s="9" t="s">
         <v>41</v>
@@ -3755,8 +3975,8 @@
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="85"/>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="86"/>
       <c r="B29" s="28"/>
       <c r="C29" s="9" t="s">
         <v>45</v>
@@ -3765,8 +3985,8 @@
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="85"/>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="86"/>
       <c r="B30" s="28"/>
       <c r="C30" s="9" t="s">
         <v>46</v>
@@ -3775,94 +3995,94 @@
         <v>51</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="85"/>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="86"/>
       <c r="B31" s="28"/>
       <c r="D31" s="9" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="85"/>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="86"/>
       <c r="B32" s="28"/>
       <c r="D32" s="9" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="85"/>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="86"/>
       <c r="B33" s="28"/>
       <c r="D33" s="9" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="85"/>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="86"/>
       <c r="B34" s="28"/>
       <c r="D34" s="9" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="85"/>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="86"/>
       <c r="B35" s="28"/>
       <c r="D35" s="9" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="85"/>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="86"/>
       <c r="B36" s="28"/>
       <c r="D36" s="9" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="86" t="s">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="87" t="s">
         <v>58</v>
       </c>
       <c r="D37" s="11" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="86"/>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="87"/>
       <c r="D38" s="11" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="86"/>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="87"/>
       <c r="D39" s="11" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="86"/>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="87"/>
       <c r="D40" s="11" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="86"/>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="87"/>
       <c r="D41" s="11" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="86"/>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="87"/>
       <c r="D42" s="11" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="86"/>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="87"/>
       <c r="D43" s="11" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="86" t="s">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="87" t="s">
         <v>66</v>
       </c>
       <c r="C44" s="12" t="s">
@@ -3872,8 +4092,8 @@
         <v>68</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="86"/>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="87"/>
       <c r="C45" s="12" t="s">
         <v>67</v>
       </c>
@@ -3881,8 +4101,8 @@
         <v>69</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="86"/>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="87"/>
       <c r="C46" s="12" t="s">
         <v>44</v>
       </c>
@@ -3890,44 +4110,44 @@
         <v>70</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="86"/>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" s="87"/>
       <c r="D47" s="12" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="86"/>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" s="87"/>
       <c r="D48" s="12" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="86"/>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="87"/>
       <c r="D49" s="12" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="86"/>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" s="87"/>
       <c r="D50" s="12" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="86"/>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" s="87"/>
       <c r="D51" s="12" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="86"/>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" s="87"/>
       <c r="D52" s="12" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="158.44999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="86" t="s">
+    <row r="53" spans="1:5" ht="158.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="87" t="s">
         <v>77</v>
       </c>
       <c r="C53" s="14" t="s">
@@ -3938,8 +4158,8 @@
       </c>
       <c r="E53" s="13"/>
     </row>
-    <row r="54" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A54" s="86"/>
+    <row r="54" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A54" s="87"/>
       <c r="C54" s="14" t="s">
         <v>87</v>
       </c>
@@ -3948,8 +4168,8 @@
       </c>
       <c r="E54" s="13"/>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="86" t="s">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" s="87" t="s">
         <v>80</v>
       </c>
       <c r="C55" s="14" t="s">
@@ -3959,8 +4179,8 @@
         <v>88</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="86"/>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" s="87"/>
       <c r="C56" s="14" t="s">
         <v>82</v>
       </c>
@@ -3968,8 +4188,8 @@
         <v>89</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="86"/>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" s="87"/>
       <c r="C57" s="14" t="s">
         <v>83</v>
       </c>
@@ -3977,8 +4197,8 @@
         <v>90</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="86"/>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" s="87"/>
       <c r="C58" s="14" t="s">
         <v>84</v>
       </c>
@@ -3986,8 +4206,8 @@
         <v>91</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="86"/>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" s="87"/>
       <c r="C59" s="14" t="s">
         <v>85</v>
       </c>
@@ -3995,74 +4215,74 @@
         <v>92</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="86"/>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" s="87"/>
       <c r="D60" s="14" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="86"/>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61" s="87"/>
       <c r="D61" s="14" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="86"/>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62" s="87"/>
       <c r="D62" s="14" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="86"/>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63" s="87"/>
       <c r="D63" s="14" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="86"/>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64" s="87"/>
       <c r="D64" s="14" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="86"/>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65" s="87"/>
       <c r="D65" s="14" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="86"/>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66" s="87"/>
       <c r="D66" s="14" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="86"/>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67" s="87"/>
       <c r="D67" s="14" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="86"/>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68" s="87"/>
       <c r="D68" s="14" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="86"/>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69" s="87"/>
       <c r="D69" s="14" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="86"/>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70" s="87"/>
       <c r="D70" s="14" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="86" t="s">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71" s="87" t="s">
         <v>104</v>
       </c>
       <c r="C71" s="15" t="s">
@@ -4072,8 +4292,8 @@
         <v>109</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="86"/>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72" s="87"/>
       <c r="C72" s="15" t="s">
         <v>106</v>
       </c>
@@ -4081,8 +4301,8 @@
         <v>110</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="86"/>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73" s="87"/>
       <c r="C73" s="15" t="s">
         <v>107</v>
       </c>
@@ -4090,8 +4310,8 @@
         <v>111</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="86"/>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74" s="87"/>
       <c r="C74" s="15" t="s">
         <v>108</v>
       </c>
@@ -4099,44 +4319,44 @@
         <v>37</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="86"/>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75" s="87"/>
       <c r="D75" s="15" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="86"/>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76" s="87"/>
       <c r="D76" s="15" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="86"/>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77" s="87"/>
       <c r="D77" s="15" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="86"/>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78" s="87"/>
       <c r="D78" s="15" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="86"/>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A79" s="87"/>
       <c r="D79" s="15" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="86"/>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80" s="87"/>
       <c r="D80" s="15" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="86" t="s">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A81" s="87" t="s">
         <v>117</v>
       </c>
       <c r="C81" s="16" t="s">
@@ -4146,8 +4366,8 @@
         <v>111</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="86"/>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A82" s="87"/>
       <c r="C82" s="16" t="s">
         <v>119</v>
       </c>
@@ -4155,8 +4375,8 @@
         <v>121</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="86"/>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A83" s="87"/>
       <c r="C83" s="16" t="s">
         <v>120</v>
       </c>
@@ -4164,26 +4384,26 @@
         <v>122</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="86"/>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A84" s="87"/>
       <c r="D84" s="16" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" s="86"/>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A85" s="87"/>
       <c r="D85" s="16" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" s="86"/>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A86" s="87"/>
       <c r="D86" s="16" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A87" s="86" t="s">
+    <row r="87" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A87" s="87" t="s">
         <v>125</v>
       </c>
       <c r="C87" s="17" t="s">
@@ -4193,8 +4413,8 @@
         <v>115</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A88" s="86"/>
+    <row r="88" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="A88" s="87"/>
       <c r="C88" s="17" t="s">
         <v>127</v>
       </c>
@@ -4202,8 +4422,8 @@
         <v>130</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A89" s="86"/>
+    <row r="89" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A89" s="87"/>
       <c r="C89" s="17" t="s">
         <v>128</v>
       </c>
@@ -4211,14 +4431,14 @@
         <v>131</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" s="86"/>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A90" s="87"/>
       <c r="C90" s="17" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A91" s="86" t="s">
+    <row r="91" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A91" s="87" t="s">
         <v>132</v>
       </c>
       <c r="C91" s="19" t="s">
@@ -4228,8 +4448,8 @@
         <v>115</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A92" s="86"/>
+    <row r="92" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A92" s="87"/>
       <c r="C92" s="19" t="s">
         <v>134</v>
       </c>
@@ -4237,67 +4457,67 @@
         <v>140</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" s="86"/>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A93" s="87"/>
       <c r="C93" s="19" t="s">
         <v>135</v>
       </c>
       <c r="D93" s="19"/>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" s="86"/>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A94" s="87"/>
       <c r="C94" s="19" t="s">
         <v>136</v>
       </c>
       <c r="D94" s="19"/>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" s="86"/>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A95" s="87"/>
       <c r="C95" s="19" t="s">
         <v>137</v>
       </c>
       <c r="D95" s="19"/>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96" s="86"/>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A96" s="87"/>
       <c r="C96" s="19" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" s="86"/>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A97" s="87"/>
       <c r="C97" s="19" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" s="86" t="s">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A98" s="87" t="s">
         <v>141</v>
       </c>
       <c r="D98" s="20" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" s="86"/>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A99" s="87"/>
       <c r="D99" s="20" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" s="86"/>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A100" s="87"/>
       <c r="D100" s="20" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101" s="86"/>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A101" s="87"/>
       <c r="D101" s="20" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A102" s="86" t="s">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A102" s="87" t="s">
         <v>146</v>
       </c>
       <c r="C102" s="23" t="s">
@@ -4307,8 +4527,8 @@
         <v>111</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A103" s="86"/>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A103" s="87"/>
       <c r="C103" s="23" t="s">
         <v>138</v>
       </c>
@@ -4316,8 +4536,8 @@
         <v>150</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A104" s="86"/>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A104" s="87"/>
       <c r="C104" s="23" t="s">
         <v>135</v>
       </c>
@@ -4325,8 +4545,8 @@
         <v>121</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A105" s="86"/>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A105" s="87"/>
       <c r="C105" s="23" t="s">
         <v>147</v>
       </c>
@@ -4334,8 +4554,8 @@
         <v>122</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A106" s="86"/>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A106" s="87"/>
       <c r="C106" s="23" t="s">
         <v>148</v>
       </c>
@@ -4343,14 +4563,14 @@
         <v>123</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A107" s="86"/>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A107" s="87"/>
       <c r="C107" s="23" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A108" s="86" t="s">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A108" s="87" t="s">
         <v>151</v>
       </c>
       <c r="C108" s="24" t="s">
@@ -4360,8 +4580,8 @@
         <v>154</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A109" s="86"/>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A109" s="87"/>
       <c r="C109" s="24" t="s">
         <v>153</v>
       </c>
@@ -4369,32 +4589,32 @@
         <v>112</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A110" s="86"/>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A110" s="87"/>
       <c r="D110" s="24" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A111" s="86"/>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A111" s="87"/>
       <c r="D111" s="24" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A112" s="86"/>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A112" s="87"/>
       <c r="D112" s="24" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A113" s="86"/>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A113" s="87"/>
       <c r="D113" s="24" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A114" s="86" t="s">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A114" s="87" t="s">
         <v>163</v>
       </c>
       <c r="C114" s="25" t="s">
@@ -4404,8 +4624,8 @@
         <v>162</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A115" s="86"/>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A115" s="87"/>
       <c r="C115" s="25" t="s">
         <v>119</v>
       </c>
@@ -4413,8 +4633,8 @@
         <v>159</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A116" s="86"/>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A116" s="87"/>
       <c r="C116" s="25" t="s">
         <v>120</v>
       </c>
@@ -4422,58 +4642,58 @@
         <v>160</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A117" s="86"/>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A117" s="87"/>
       <c r="D117" s="25" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A118" s="86"/>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A118" s="87"/>
       <c r="D118" s="25"/>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A119" s="86"/>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A119" s="87"/>
       <c r="D119" s="25" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A120" s="86"/>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A120" s="87"/>
       <c r="D120" s="25" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A121" s="86"/>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A121" s="87"/>
       <c r="D121" s="25" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A122" s="86"/>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A122" s="87"/>
       <c r="D122" s="25" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A123" s="86"/>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A123" s="87"/>
       <c r="D123" s="25"/>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A124" s="86"/>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A124" s="87"/>
       <c r="D124" s="25" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="125" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A125" s="86"/>
+    <row r="125" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A125" s="87"/>
       <c r="D125" s="26" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A126" s="86"/>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A126" s="87"/>
       <c r="D126" s="25" t="s">
         <v>170</v>
       </c>
@@ -4509,26 +4729,26 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:M97"/>
+  <dimension ref="A1:M98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D84" sqref="D84"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B2" sqref="B2:B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" customWidth="1"/>
-    <col min="2" max="2" width="72.85546875" style="55" customWidth="1"/>
-    <col min="3" max="3" width="44" style="55" customWidth="1"/>
-    <col min="4" max="4" width="38.28515625" customWidth="1"/>
-    <col min="5" max="5" width="21.7109375" style="44" customWidth="1"/>
-    <col min="6" max="6" width="103.42578125" customWidth="1"/>
-    <col min="7" max="12" width="37.28515625" style="44" customWidth="1"/>
-    <col min="13" max="13" width="52.42578125" customWidth="1"/>
+    <col min="1" max="1" width="20.44140625" customWidth="1"/>
+    <col min="2" max="2" width="72.88671875" style="54" customWidth="1"/>
+    <col min="3" max="3" width="44" style="54" customWidth="1"/>
+    <col min="4" max="4" width="38.33203125" customWidth="1"/>
+    <col min="5" max="5" width="21.6640625" style="44" customWidth="1"/>
+    <col min="6" max="6" width="103.44140625" customWidth="1"/>
+    <col min="7" max="12" width="37.33203125" style="44" customWidth="1"/>
+    <col min="13" max="13" width="52.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="48" t="s">
         <v>1</v>
       </c>
@@ -4542,57 +4762,57 @@
         <v>197</v>
       </c>
       <c r="E1" s="51" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="F1" s="51" t="s">
         <v>12</v>
       </c>
       <c r="G1" s="45" t="s">
+        <v>315</v>
+      </c>
+      <c r="H1" s="45" t="s">
+        <v>316</v>
+      </c>
+      <c r="I1" s="45" t="s">
         <v>317</v>
       </c>
-      <c r="H1" s="45" t="s">
+      <c r="J1" s="45" t="s">
         <v>318</v>
       </c>
-      <c r="I1" s="45" t="s">
+      <c r="K1" s="45" t="s">
         <v>319</v>
       </c>
-      <c r="J1" s="45" t="s">
-        <v>320</v>
-      </c>
-      <c r="K1" s="45" t="s">
-        <v>321</v>
-      </c>
       <c r="L1" s="45" t="s">
+        <v>331</v>
+      </c>
+      <c r="M1" s="45" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="92" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="85" t="s">
+        <v>378</v>
+      </c>
+      <c r="C2" s="85" t="s">
+        <v>377</v>
+      </c>
+      <c r="D2" s="53" t="s">
         <v>333</v>
       </c>
-      <c r="M1" s="45" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" s="53" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="52" t="s">
-        <v>229</v>
-      </c>
-      <c r="C2" s="52" t="s">
-        <v>230</v>
-      </c>
-      <c r="D2" s="54" t="s">
-        <v>335</v>
-      </c>
-      <c r="E2" s="69" t="s">
+      <c r="E2" s="68" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="53" t="s">
+      <c r="F2" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
       <c r="J2" s="46"/>
-      <c r="K2" s="66"/>
+      <c r="K2" s="65"/>
       <c r="L2" s="46" t="s">
         <v>15</v>
       </c>
@@ -4600,1825 +4820,1852 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="85" t="s">
+    <row r="3" spans="1:13" s="44" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="93"/>
+      <c r="B3" s="94"/>
+      <c r="C3" s="94"/>
+      <c r="D3" s="76" t="s">
+        <v>373</v>
+      </c>
+      <c r="E3" s="76"/>
+      <c r="F3" s="90" t="s">
+        <v>375</v>
+      </c>
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="75" t="s">
+        <v>376</v>
+      </c>
+      <c r="J3" s="91" t="s">
+        <v>374</v>
+      </c>
+      <c r="K3" s="75"/>
+      <c r="L3" s="91"/>
+      <c r="M3" s="91"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" s="86" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="86" t="s">
+      <c r="B4" s="87" t="s">
+        <v>292</v>
+      </c>
+      <c r="C4" s="87" t="s">
+        <v>289</v>
+      </c>
+      <c r="D4" s="77" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="77" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="77" t="s">
+        <v>279</v>
+      </c>
+      <c r="G4" s="65"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="65"/>
+      <c r="J4" s="66"/>
+      <c r="K4" s="65"/>
+      <c r="L4" s="66" t="s">
+        <v>278</v>
+      </c>
+      <c r="M4" s="81" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" s="86"/>
+      <c r="B5" s="87"/>
+      <c r="C5" s="87"/>
+      <c r="D5" s="77"/>
+      <c r="E5" s="77"/>
+      <c r="F5" s="77"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="65"/>
+      <c r="J5" s="66"/>
+      <c r="K5" s="65"/>
+      <c r="L5" s="66" t="s">
+        <v>278</v>
+      </c>
+      <c r="M5" s="82"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" s="86"/>
+      <c r="B6" s="87"/>
+      <c r="C6" s="87"/>
+      <c r="D6" s="77"/>
+      <c r="E6" s="77"/>
+      <c r="F6" s="77"/>
+      <c r="G6" s="65"/>
+      <c r="H6" s="65"/>
+      <c r="I6" s="65"/>
+      <c r="J6" s="66"/>
+      <c r="K6" s="65"/>
+      <c r="L6" s="66" t="s">
+        <v>278</v>
+      </c>
+      <c r="M6" s="82"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" s="86"/>
+      <c r="B7" s="87"/>
+      <c r="C7" s="87"/>
+      <c r="D7" s="77"/>
+      <c r="E7" s="77"/>
+      <c r="F7" s="77"/>
+      <c r="G7" s="65"/>
+      <c r="H7" s="65"/>
+      <c r="I7" s="65"/>
+      <c r="J7" s="66"/>
+      <c r="K7" s="65"/>
+      <c r="L7" s="66" t="s">
+        <v>278</v>
+      </c>
+      <c r="M7" s="82"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" s="86"/>
+      <c r="B8" s="87"/>
+      <c r="C8" s="87"/>
+      <c r="D8" s="77"/>
+      <c r="E8" s="77"/>
+      <c r="F8" s="77"/>
+      <c r="G8" s="65"/>
+      <c r="H8" s="65"/>
+      <c r="I8" s="65"/>
+      <c r="J8" s="66"/>
+      <c r="K8" s="65"/>
+      <c r="L8" s="66" t="s">
+        <v>278</v>
+      </c>
+      <c r="M8" s="82"/>
+    </row>
+    <row r="9" spans="1:13" ht="72" x14ac:dyDescent="0.3">
+      <c r="A9" s="86"/>
+      <c r="B9" s="87"/>
+      <c r="C9" s="87"/>
+      <c r="D9" s="50" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="67"/>
+      <c r="F9" s="50" t="s">
+        <v>320</v>
+      </c>
+      <c r="G9" s="65"/>
+      <c r="H9" s="65"/>
+      <c r="I9" s="65" t="s">
+        <v>332</v>
+      </c>
+      <c r="J9" s="65" t="s">
+        <v>321</v>
+      </c>
+      <c r="K9" s="65"/>
+      <c r="L9" s="69"/>
+      <c r="M9" s="44"/>
+    </row>
+    <row r="10" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="86" t="s">
+        <v>213</v>
+      </c>
+      <c r="B10" s="88" t="s">
         <v>294</v>
       </c>
-      <c r="C3" s="86" t="s">
-        <v>291</v>
-      </c>
-      <c r="D3" s="80" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="80" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" s="80" t="s">
-        <v>281</v>
-      </c>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="67"/>
-      <c r="K3" s="66"/>
-      <c r="L3" s="67" t="s">
+      <c r="C10" s="87" t="s">
+        <v>293</v>
+      </c>
+      <c r="D10" s="77" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="77" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="77" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" s="65"/>
+      <c r="H10" s="65"/>
+      <c r="I10" s="65"/>
+      <c r="J10" s="66"/>
+      <c r="K10" s="65"/>
+      <c r="L10" s="66" t="s">
+        <v>33</v>
+      </c>
+      <c r="M10" s="81" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="86"/>
+      <c r="B11" s="77"/>
+      <c r="C11" s="87"/>
+      <c r="D11" s="77"/>
+      <c r="E11" s="77"/>
+      <c r="F11" s="77"/>
+      <c r="G11" s="65"/>
+      <c r="H11" s="65"/>
+      <c r="I11" s="65"/>
+      <c r="J11" s="66"/>
+      <c r="K11" s="65"/>
+      <c r="L11" s="66" t="s">
+        <v>33</v>
+      </c>
+      <c r="M11" s="82"/>
+    </row>
+    <row r="12" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="86"/>
+      <c r="B12" s="77"/>
+      <c r="C12" s="87"/>
+      <c r="D12" s="77"/>
+      <c r="E12" s="77"/>
+      <c r="F12" s="77"/>
+      <c r="G12" s="65"/>
+      <c r="H12" s="65"/>
+      <c r="I12" s="65"/>
+      <c r="J12" s="66"/>
+      <c r="K12" s="65"/>
+      <c r="L12" s="66" t="s">
+        <v>33</v>
+      </c>
+      <c r="M12" s="82"/>
+    </row>
+    <row r="13" spans="1:13" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A13" s="86"/>
+      <c r="B13" s="77"/>
+      <c r="C13" s="87"/>
+      <c r="D13" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="67" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="G13" s="65"/>
+      <c r="H13" s="65"/>
+      <c r="I13" s="65"/>
+      <c r="J13" s="66"/>
+      <c r="K13" s="65"/>
+      <c r="L13" s="66" t="s">
+        <v>33</v>
+      </c>
+      <c r="M13" s="82"/>
+    </row>
+    <row r="14" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="86"/>
+      <c r="B14" s="77"/>
+      <c r="C14" s="87"/>
+      <c r="D14" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="67" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" s="50" t="s">
+        <v>38</v>
+      </c>
+      <c r="G14" s="65"/>
+      <c r="H14" s="65"/>
+      <c r="I14" s="65"/>
+      <c r="J14" s="66"/>
+      <c r="K14" s="65"/>
+      <c r="L14" s="66" t="s">
+        <v>33</v>
+      </c>
+      <c r="M14" s="82"/>
+    </row>
+    <row r="15" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="86"/>
+      <c r="B15" s="77"/>
+      <c r="C15" s="87"/>
+      <c r="D15" s="50" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" s="67"/>
+      <c r="F15" s="73" t="s">
+        <v>39</v>
+      </c>
+      <c r="G15" s="65"/>
+      <c r="H15" s="65"/>
+      <c r="I15" s="65"/>
+      <c r="J15" s="66"/>
+      <c r="K15" s="65"/>
+      <c r="L15" s="66" t="s">
+        <v>33</v>
+      </c>
+      <c r="M15" s="82"/>
+    </row>
+    <row r="16" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="86"/>
+      <c r="B16" s="77"/>
+      <c r="C16" s="87"/>
+      <c r="D16" s="50" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" s="67"/>
+      <c r="F16" s="73" t="s">
+        <v>39</v>
+      </c>
+      <c r="G16" s="65"/>
+      <c r="H16" s="65"/>
+      <c r="I16" s="65"/>
+      <c r="J16" s="66"/>
+      <c r="K16" s="65"/>
+      <c r="L16" s="66" t="s">
+        <v>33</v>
+      </c>
+      <c r="M16" s="82"/>
+    </row>
+    <row r="17" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="86" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="87" t="s">
+        <v>253</v>
+      </c>
+      <c r="C17" s="87" t="s">
+        <v>254</v>
+      </c>
+      <c r="D17" s="50" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" s="67"/>
+      <c r="F17" s="50" t="s">
+        <v>38</v>
+      </c>
+      <c r="G17" s="65"/>
+      <c r="H17" s="65"/>
+      <c r="I17" s="65"/>
+      <c r="J17" s="66"/>
+      <c r="K17" s="65"/>
+      <c r="L17" s="66" t="s">
+        <v>33</v>
+      </c>
+      <c r="M17" s="81" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A18" s="86"/>
+      <c r="B18" s="87"/>
+      <c r="C18" s="87"/>
+      <c r="D18" s="50" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18" s="67"/>
+      <c r="F18" s="50" t="s">
+        <v>47</v>
+      </c>
+      <c r="G18" s="65"/>
+      <c r="H18" s="65"/>
+      <c r="I18" s="65"/>
+      <c r="J18" s="66"/>
+      <c r="K18" s="65"/>
+      <c r="L18" s="66" t="s">
+        <v>33</v>
+      </c>
+      <c r="M18" s="81"/>
+    </row>
+    <row r="19" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="86"/>
+      <c r="B19" s="87"/>
+      <c r="C19" s="87"/>
+      <c r="D19" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" s="67"/>
+      <c r="F19" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="G19" s="42"/>
+      <c r="H19" s="42"/>
+      <c r="I19" s="65"/>
+      <c r="J19" s="66"/>
+      <c r="K19" s="42"/>
+      <c r="L19" s="66" t="s">
+        <v>33</v>
+      </c>
+      <c r="M19" s="81"/>
+    </row>
+    <row r="20" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="86"/>
+      <c r="B20" s="87"/>
+      <c r="C20" s="87"/>
+      <c r="D20" s="50" t="s">
+        <v>41</v>
+      </c>
+      <c r="E20" s="67"/>
+      <c r="F20" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="G20" s="65"/>
+      <c r="H20" s="65"/>
+      <c r="I20" s="65"/>
+      <c r="J20" s="66"/>
+      <c r="K20" s="65"/>
+      <c r="L20" s="66" t="s">
+        <v>33</v>
+      </c>
+      <c r="M20" s="81"/>
+    </row>
+    <row r="21" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A21" s="86"/>
+      <c r="B21" s="87"/>
+      <c r="C21" s="87"/>
+      <c r="D21" s="50" t="s">
+        <v>45</v>
+      </c>
+      <c r="E21" s="67"/>
+      <c r="F21" s="50" t="s">
+        <v>50</v>
+      </c>
+      <c r="G21" s="65"/>
+      <c r="H21" s="65"/>
+      <c r="I21" s="65"/>
+      <c r="J21" s="66"/>
+      <c r="K21" s="65"/>
+      <c r="L21" s="66" t="s">
+        <v>33</v>
+      </c>
+      <c r="M21" s="81"/>
+    </row>
+    <row r="22" spans="1:13" ht="72" x14ac:dyDescent="0.3">
+      <c r="A22" s="86"/>
+      <c r="B22" s="87"/>
+      <c r="C22" s="87"/>
+      <c r="D22" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="E22" s="73" t="s">
+        <v>214</v>
+      </c>
+      <c r="F22" s="50" t="s">
+        <v>343</v>
+      </c>
+      <c r="G22" s="65"/>
+      <c r="H22" s="65"/>
+      <c r="I22" s="65"/>
+      <c r="J22" s="66"/>
+      <c r="K22" s="65"/>
+      <c r="L22" s="66" t="s">
+        <v>33</v>
+      </c>
+      <c r="M22" s="81"/>
+    </row>
+    <row r="23" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A23" s="86"/>
+      <c r="B23" s="87"/>
+      <c r="C23" s="87"/>
+      <c r="E23" s="73"/>
+      <c r="F23" s="50"/>
+      <c r="G23" s="65"/>
+      <c r="H23" s="65"/>
+      <c r="I23" s="65"/>
+      <c r="J23" s="66"/>
+      <c r="K23" s="65"/>
+      <c r="L23" s="66" t="s">
+        <v>33</v>
+      </c>
+      <c r="M23" s="81"/>
+    </row>
+    <row r="24" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A24" s="86"/>
+      <c r="B24" s="87"/>
+      <c r="C24" s="87"/>
+      <c r="D24" s="73" t="s">
+        <v>214</v>
+      </c>
+      <c r="E24" s="67" t="s">
+        <v>215</v>
+      </c>
+      <c r="F24" s="50" t="s">
+        <v>55</v>
+      </c>
+      <c r="G24" s="65"/>
+      <c r="H24" s="65"/>
+      <c r="I24" s="65"/>
+      <c r="J24" s="66"/>
+      <c r="K24" s="65"/>
+      <c r="L24" s="66" t="s">
+        <v>33</v>
+      </c>
+      <c r="M24" s="81"/>
+    </row>
+    <row r="25" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A25" s="86"/>
+      <c r="B25" s="87"/>
+      <c r="C25" s="87"/>
+      <c r="D25" s="50" t="s">
+        <v>215</v>
+      </c>
+      <c r="E25" s="67" t="s">
+        <v>107</v>
+      </c>
+      <c r="F25" s="50" t="s">
+        <v>56</v>
+      </c>
+      <c r="G25" s="65"/>
+      <c r="H25" s="65"/>
+      <c r="I25" s="65"/>
+      <c r="J25" s="66"/>
+      <c r="K25" s="65"/>
+      <c r="L25" s="66" t="s">
+        <v>33</v>
+      </c>
+      <c r="M25" s="81"/>
+    </row>
+    <row r="26" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A26" s="87" t="s">
+        <v>58</v>
+      </c>
+      <c r="B26" s="87" t="s">
+        <v>237</v>
+      </c>
+      <c r="C26" s="87" t="s">
+        <v>295</v>
+      </c>
+      <c r="D26" s="44"/>
+      <c r="F26" s="50"/>
+      <c r="G26" s="65"/>
+      <c r="H26" s="65"/>
+      <c r="I26" s="65"/>
+      <c r="J26" s="66"/>
+      <c r="K26" s="65"/>
+      <c r="L26" s="66" t="s">
+        <v>33</v>
+      </c>
+      <c r="M26" s="81" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A27" s="87"/>
+      <c r="B27" s="87"/>
+      <c r="C27" s="87"/>
+      <c r="D27" s="73" t="s">
+        <v>58</v>
+      </c>
+      <c r="E27" s="67" t="s">
+        <v>218</v>
+      </c>
+      <c r="F27" s="73" t="s">
+        <v>342</v>
+      </c>
+      <c r="G27" s="43"/>
+      <c r="H27" s="43"/>
+      <c r="I27" s="65"/>
+      <c r="J27" s="66"/>
+      <c r="K27" s="43"/>
+      <c r="L27" s="66" t="s">
+        <v>33</v>
+      </c>
+      <c r="M27" s="82"/>
+    </row>
+    <row r="28" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A28" s="87"/>
+      <c r="B28" s="87"/>
+      <c r="C28" s="87"/>
+      <c r="D28" s="73"/>
+      <c r="F28" s="73"/>
+      <c r="G28" s="65"/>
+      <c r="H28" s="65"/>
+      <c r="I28" s="65"/>
+      <c r="J28" s="66"/>
+      <c r="K28" s="65"/>
+      <c r="L28" s="66" t="s">
+        <v>33</v>
+      </c>
+      <c r="M28" s="82"/>
+    </row>
+    <row r="29" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A29" s="87"/>
+      <c r="B29" s="87"/>
+      <c r="C29" s="87"/>
+      <c r="D29" s="50" t="s">
+        <v>216</v>
+      </c>
+      <c r="E29" s="67"/>
+      <c r="F29" s="50" t="s">
+        <v>65</v>
+      </c>
+      <c r="G29" s="65"/>
+      <c r="H29" s="65"/>
+      <c r="I29" s="65"/>
+      <c r="J29" s="66"/>
+      <c r="K29" s="65"/>
+      <c r="L29" s="66" t="s">
+        <v>33</v>
+      </c>
+      <c r="M29" s="82"/>
+    </row>
+    <row r="30" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A30" s="87" t="s">
+        <v>66</v>
+      </c>
+      <c r="B30" s="87" t="s">
+        <v>255</v>
+      </c>
+      <c r="C30" s="87" t="s">
+        <v>256</v>
+      </c>
+      <c r="D30" s="50" t="s">
+        <v>217</v>
+      </c>
+      <c r="E30" s="67"/>
+      <c r="F30" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="G30" s="42"/>
+      <c r="H30" s="42"/>
+      <c r="I30" s="65"/>
+      <c r="J30" s="66"/>
+      <c r="K30" s="42"/>
+      <c r="L30" s="66" t="s">
         <v>280</v>
       </c>
-      <c r="M3" s="76" t="s">
+      <c r="M30" s="81" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="85"/>
-      <c r="B4" s="86"/>
-      <c r="C4" s="86"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="80"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="67"/>
-      <c r="K4" s="66"/>
-      <c r="L4" s="67" t="s">
+    <row r="31" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A31" s="87"/>
+      <c r="B31" s="87"/>
+      <c r="C31" s="87"/>
+      <c r="D31" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="E31" s="67" t="s">
+        <v>107</v>
+      </c>
+      <c r="F31" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="G31" s="65"/>
+      <c r="H31" s="65"/>
+      <c r="I31" s="65"/>
+      <c r="J31" s="66"/>
+      <c r="K31" s="65"/>
+      <c r="L31" s="66" t="s">
         <v>280</v>
       </c>
-      <c r="M4" s="77"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="85"/>
-      <c r="B5" s="86"/>
-      <c r="C5" s="86"/>
-      <c r="D5" s="80"/>
-      <c r="E5" s="80"/>
-      <c r="F5" s="80"/>
-      <c r="G5" s="66"/>
-      <c r="H5" s="66"/>
-      <c r="I5" s="66"/>
-      <c r="J5" s="67"/>
-      <c r="K5" s="66"/>
-      <c r="L5" s="67" t="s">
+      <c r="M31" s="82"/>
+    </row>
+    <row r="32" spans="1:13" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="A32" s="87"/>
+      <c r="B32" s="87"/>
+      <c r="C32" s="87"/>
+      <c r="D32" s="73" t="s">
+        <v>44</v>
+      </c>
+      <c r="E32" s="67" t="s">
+        <v>107</v>
+      </c>
+      <c r="F32" s="50" t="s">
+        <v>344</v>
+      </c>
+      <c r="G32" s="65"/>
+      <c r="H32" s="65"/>
+      <c r="I32" s="65"/>
+      <c r="J32" s="66"/>
+      <c r="K32" s="65"/>
+      <c r="L32" s="66" t="s">
         <v>280</v>
       </c>
-      <c r="M5" s="77"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="85"/>
-      <c r="B6" s="86"/>
-      <c r="C6" s="86"/>
-      <c r="D6" s="80"/>
-      <c r="E6" s="80"/>
-      <c r="F6" s="80"/>
-      <c r="G6" s="66"/>
-      <c r="H6" s="66"/>
-      <c r="I6" s="66"/>
-      <c r="J6" s="67"/>
-      <c r="K6" s="66"/>
-      <c r="L6" s="67" t="s">
+      <c r="M32" s="82"/>
+    </row>
+    <row r="33" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A33" s="87"/>
+      <c r="B33" s="87"/>
+      <c r="C33" s="87"/>
+      <c r="D33" s="73"/>
+      <c r="E33" s="67"/>
+      <c r="F33" s="50"/>
+      <c r="G33" s="65"/>
+      <c r="H33" s="65"/>
+      <c r="I33" s="65"/>
+      <c r="J33" s="66"/>
+      <c r="K33" s="65"/>
+      <c r="L33" s="66" t="s">
         <v>280</v>
       </c>
-      <c r="M6" s="77"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="85"/>
-      <c r="B7" s="86"/>
-      <c r="C7" s="86"/>
-      <c r="D7" s="80"/>
-      <c r="E7" s="80"/>
-      <c r="F7" s="80"/>
-      <c r="G7" s="66"/>
-      <c r="H7" s="66"/>
-      <c r="I7" s="66"/>
-      <c r="J7" s="67"/>
-      <c r="K7" s="66"/>
-      <c r="L7" s="67" t="s">
-        <v>280</v>
-      </c>
-      <c r="M7" s="77"/>
-    </row>
-    <row r="8" spans="1:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="A8" s="85"/>
-      <c r="B8" s="86"/>
-      <c r="C8" s="86"/>
-      <c r="D8" s="50" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="68"/>
-      <c r="F8" s="50" t="s">
-        <v>322</v>
-      </c>
-      <c r="G8" s="66"/>
-      <c r="H8" s="66"/>
-      <c r="I8" s="66" t="s">
-        <v>334</v>
-      </c>
-      <c r="J8" s="66" t="s">
-        <v>323</v>
-      </c>
-      <c r="K8" s="66"/>
-      <c r="L8" s="70"/>
-      <c r="M8" s="44"/>
-    </row>
-    <row r="9" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="85" t="s">
-        <v>213</v>
-      </c>
-      <c r="B9" s="88" t="s">
-        <v>296</v>
-      </c>
-      <c r="C9" s="86" t="s">
-        <v>295</v>
-      </c>
-      <c r="D9" s="80" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" s="80" t="s">
-        <v>29</v>
-      </c>
-      <c r="F9" s="80" t="s">
-        <v>32</v>
-      </c>
-      <c r="G9" s="66"/>
-      <c r="H9" s="66"/>
-      <c r="I9" s="66"/>
-      <c r="J9" s="67"/>
-      <c r="K9" s="66"/>
-      <c r="L9" s="67" t="s">
-        <v>33</v>
-      </c>
-      <c r="M9" s="76" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="85"/>
-      <c r="B10" s="80"/>
-      <c r="C10" s="86"/>
-      <c r="D10" s="80"/>
-      <c r="E10" s="80"/>
-      <c r="F10" s="80"/>
-      <c r="G10" s="66"/>
-      <c r="H10" s="66"/>
-      <c r="I10" s="66"/>
-      <c r="J10" s="67"/>
-      <c r="K10" s="66"/>
-      <c r="L10" s="67" t="s">
-        <v>33</v>
-      </c>
-      <c r="M10" s="77"/>
-    </row>
-    <row r="11" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="85"/>
-      <c r="B11" s="80"/>
-      <c r="C11" s="86"/>
-      <c r="D11" s="80"/>
-      <c r="E11" s="80"/>
-      <c r="F11" s="80"/>
-      <c r="G11" s="66"/>
-      <c r="H11" s="66"/>
-      <c r="I11" s="66"/>
-      <c r="J11" s="67"/>
-      <c r="K11" s="66"/>
-      <c r="L11" s="67" t="s">
-        <v>33</v>
-      </c>
-      <c r="M11" s="77"/>
-    </row>
-    <row r="12" spans="1:13" ht="90" x14ac:dyDescent="0.25">
-      <c r="A12" s="85"/>
-      <c r="B12" s="80"/>
-      <c r="C12" s="86"/>
-      <c r="D12" s="50" t="s">
-        <v>28</v>
-      </c>
-      <c r="E12" s="68" t="s">
-        <v>29</v>
-      </c>
-      <c r="F12" s="50" t="s">
-        <v>40</v>
-      </c>
-      <c r="G12" s="66"/>
-      <c r="H12" s="66"/>
-      <c r="I12" s="66"/>
-      <c r="J12" s="67"/>
-      <c r="K12" s="66"/>
-      <c r="L12" s="67" t="s">
-        <v>33</v>
-      </c>
-      <c r="M12" s="77"/>
-    </row>
-    <row r="13" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="85"/>
-      <c r="B13" s="80"/>
-      <c r="C13" s="86"/>
-      <c r="D13" s="50" t="s">
-        <v>29</v>
-      </c>
-      <c r="E13" s="68" t="s">
-        <v>43</v>
-      </c>
-      <c r="F13" s="50" t="s">
-        <v>38</v>
-      </c>
-      <c r="G13" s="66"/>
-      <c r="H13" s="66"/>
-      <c r="I13" s="66"/>
-      <c r="J13" s="67"/>
-      <c r="K13" s="66"/>
-      <c r="L13" s="67" t="s">
-        <v>33</v>
-      </c>
-      <c r="M13" s="77"/>
-    </row>
-    <row r="14" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="85"/>
-      <c r="B14" s="80"/>
-      <c r="C14" s="86"/>
-      <c r="D14" s="50" t="s">
-        <v>30</v>
-      </c>
-      <c r="E14" s="68"/>
-      <c r="F14" s="74" t="s">
-        <v>39</v>
-      </c>
-      <c r="G14" s="66"/>
-      <c r="H14" s="66"/>
-      <c r="I14" s="66"/>
-      <c r="J14" s="67"/>
-      <c r="K14" s="66"/>
-      <c r="L14" s="67" t="s">
-        <v>33</v>
-      </c>
-      <c r="M14" s="77"/>
-    </row>
-    <row r="15" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="85"/>
-      <c r="B15" s="80"/>
-      <c r="C15" s="86"/>
-      <c r="D15" s="50" t="s">
-        <v>31</v>
-      </c>
-      <c r="E15" s="68"/>
-      <c r="F15" s="74" t="s">
-        <v>39</v>
-      </c>
-      <c r="G15" s="66"/>
-      <c r="H15" s="66"/>
-      <c r="I15" s="66"/>
-      <c r="J15" s="67"/>
-      <c r="K15" s="66"/>
-      <c r="L15" s="67" t="s">
-        <v>33</v>
-      </c>
-      <c r="M15" s="77"/>
-    </row>
-    <row r="16" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="85" t="s">
-        <v>41</v>
-      </c>
-      <c r="B16" s="86" t="s">
-        <v>255</v>
-      </c>
-      <c r="C16" s="86" t="s">
-        <v>256</v>
-      </c>
-      <c r="D16" s="50" t="s">
-        <v>42</v>
-      </c>
-      <c r="E16" s="68"/>
-      <c r="F16" s="50" t="s">
-        <v>38</v>
-      </c>
-      <c r="G16" s="66"/>
-      <c r="H16" s="66"/>
-      <c r="I16" s="66"/>
-      <c r="J16" s="67"/>
-      <c r="K16" s="66"/>
-      <c r="L16" s="67" t="s">
-        <v>33</v>
-      </c>
-      <c r="M16" s="76" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="85"/>
-      <c r="B17" s="86"/>
-      <c r="C17" s="86"/>
-      <c r="D17" s="50" t="s">
-        <v>43</v>
-      </c>
-      <c r="E17" s="68"/>
-      <c r="F17" s="50" t="s">
-        <v>47</v>
-      </c>
-      <c r="G17" s="66"/>
-      <c r="H17" s="66"/>
-      <c r="I17" s="66"/>
-      <c r="J17" s="67"/>
-      <c r="K17" s="66"/>
-      <c r="L17" s="67" t="s">
-        <v>33</v>
-      </c>
-      <c r="M17" s="76"/>
-    </row>
-    <row r="18" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="85"/>
-      <c r="B18" s="86"/>
-      <c r="C18" s="86"/>
-      <c r="D18" s="50" t="s">
-        <v>44</v>
-      </c>
-      <c r="E18" s="68"/>
-      <c r="F18" s="50" t="s">
-        <v>48</v>
-      </c>
-      <c r="G18" s="42"/>
-      <c r="H18" s="42"/>
-      <c r="I18" s="66"/>
-      <c r="J18" s="67"/>
-      <c r="K18" s="42"/>
-      <c r="L18" s="67" t="s">
-        <v>33</v>
-      </c>
-      <c r="M18" s="76"/>
-    </row>
-    <row r="19" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="85"/>
-      <c r="B19" s="86"/>
-      <c r="C19" s="86"/>
-      <c r="D19" s="50" t="s">
-        <v>41</v>
-      </c>
-      <c r="E19" s="68"/>
-      <c r="F19" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="G19" s="66"/>
-      <c r="H19" s="66"/>
-      <c r="I19" s="66"/>
-      <c r="J19" s="67"/>
-      <c r="K19" s="66"/>
-      <c r="L19" s="67" t="s">
-        <v>33</v>
-      </c>
-      <c r="M19" s="76"/>
-    </row>
-    <row r="20" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="85"/>
-      <c r="B20" s="86"/>
-      <c r="C20" s="86"/>
-      <c r="D20" s="50" t="s">
-        <v>45</v>
-      </c>
-      <c r="E20" s="68"/>
-      <c r="F20" s="50" t="s">
-        <v>50</v>
-      </c>
-      <c r="G20" s="66"/>
-      <c r="H20" s="66"/>
-      <c r="I20" s="66"/>
-      <c r="J20" s="67"/>
-      <c r="K20" s="66"/>
-      <c r="L20" s="67" t="s">
-        <v>33</v>
-      </c>
-      <c r="M20" s="76"/>
-    </row>
-    <row r="21" spans="1:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="A21" s="85"/>
-      <c r="B21" s="86"/>
-      <c r="C21" s="86"/>
-      <c r="D21" s="50" t="s">
-        <v>46</v>
-      </c>
-      <c r="E21" s="74" t="s">
-        <v>214</v>
-      </c>
-      <c r="F21" s="50" t="s">
-        <v>345</v>
-      </c>
-      <c r="G21" s="66"/>
-      <c r="H21" s="66"/>
-      <c r="I21" s="66"/>
-      <c r="J21" s="67"/>
-      <c r="K21" s="66"/>
-      <c r="L21" s="67" t="s">
-        <v>33</v>
-      </c>
-      <c r="M21" s="76"/>
-    </row>
-    <row r="22" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="85"/>
-      <c r="B22" s="86"/>
-      <c r="C22" s="86"/>
-      <c r="E22" s="74"/>
-      <c r="F22" s="50"/>
-      <c r="G22" s="66"/>
-      <c r="H22" s="66"/>
-      <c r="I22" s="66"/>
-      <c r="J22" s="67"/>
-      <c r="K22" s="66"/>
-      <c r="L22" s="67" t="s">
-        <v>33</v>
-      </c>
-      <c r="M22" s="76"/>
-    </row>
-    <row r="23" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A23" s="85"/>
-      <c r="B23" s="86"/>
-      <c r="C23" s="86"/>
-      <c r="D23" s="74" t="s">
-        <v>214</v>
-      </c>
-      <c r="E23" s="68" t="s">
-        <v>215</v>
-      </c>
-      <c r="F23" s="50" t="s">
-        <v>55</v>
-      </c>
-      <c r="G23" s="66"/>
-      <c r="H23" s="66"/>
-      <c r="I23" s="66"/>
-      <c r="J23" s="67"/>
-      <c r="K23" s="66"/>
-      <c r="L23" s="67" t="s">
-        <v>33</v>
-      </c>
-      <c r="M23" s="76"/>
-    </row>
-    <row r="24" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A24" s="85"/>
-      <c r="B24" s="86"/>
-      <c r="C24" s="86"/>
-      <c r="D24" s="50" t="s">
-        <v>215</v>
-      </c>
-      <c r="E24" s="68" t="s">
-        <v>107</v>
-      </c>
-      <c r="F24" s="50" t="s">
-        <v>56</v>
-      </c>
-      <c r="G24" s="66"/>
-      <c r="H24" s="66"/>
-      <c r="I24" s="66"/>
-      <c r="J24" s="67"/>
-      <c r="K24" s="66"/>
-      <c r="L24" s="67" t="s">
-        <v>33</v>
-      </c>
-      <c r="M24" s="76"/>
-    </row>
-    <row r="25" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="86" t="s">
-        <v>58</v>
-      </c>
-      <c r="B25" s="86" t="s">
-        <v>239</v>
-      </c>
-      <c r="C25" s="86" t="s">
-        <v>297</v>
-      </c>
-      <c r="D25" s="44"/>
-      <c r="F25" s="50"/>
-      <c r="G25" s="66"/>
-      <c r="H25" s="66"/>
-      <c r="I25" s="66"/>
-      <c r="J25" s="67"/>
-      <c r="K25" s="66"/>
-      <c r="L25" s="67" t="s">
-        <v>33</v>
-      </c>
-      <c r="M25" s="76" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A26" s="86"/>
-      <c r="B26" s="86"/>
-      <c r="C26" s="86"/>
-      <c r="D26" s="74" t="s">
-        <v>58</v>
-      </c>
-      <c r="E26" s="68" t="s">
-        <v>218</v>
-      </c>
-      <c r="F26" s="74" t="s">
-        <v>344</v>
-      </c>
-      <c r="G26" s="43"/>
-      <c r="H26" s="43"/>
-      <c r="I26" s="66"/>
-      <c r="J26" s="67"/>
-      <c r="K26" s="43"/>
-      <c r="L26" s="67" t="s">
-        <v>33</v>
-      </c>
-      <c r="M26" s="77"/>
-    </row>
-    <row r="27" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="86"/>
-      <c r="B27" s="86"/>
-      <c r="C27" s="86"/>
-      <c r="D27" s="74"/>
-      <c r="F27" s="74"/>
-      <c r="G27" s="66"/>
-      <c r="H27" s="66"/>
-      <c r="I27" s="66"/>
-      <c r="J27" s="67"/>
-      <c r="K27" s="66"/>
-      <c r="L27" s="67" t="s">
-        <v>33</v>
-      </c>
-      <c r="M27" s="77"/>
-    </row>
-    <row r="28" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A28" s="86"/>
-      <c r="B28" s="86"/>
-      <c r="C28" s="86"/>
-      <c r="D28" s="50" t="s">
-        <v>216</v>
-      </c>
-      <c r="E28" s="68"/>
-      <c r="F28" s="50" t="s">
-        <v>65</v>
-      </c>
-      <c r="G28" s="66"/>
-      <c r="H28" s="66"/>
-      <c r="I28" s="66"/>
-      <c r="J28" s="67"/>
-      <c r="K28" s="66"/>
-      <c r="L28" s="67" t="s">
-        <v>33</v>
-      </c>
-      <c r="M28" s="77"/>
-    </row>
-    <row r="29" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="86" t="s">
-        <v>66</v>
-      </c>
-      <c r="B29" s="86" t="s">
-        <v>257</v>
-      </c>
-      <c r="C29" s="86" t="s">
-        <v>258</v>
-      </c>
-      <c r="D29" s="50" t="s">
-        <v>217</v>
-      </c>
-      <c r="E29" s="68"/>
-      <c r="F29" s="50" t="s">
-        <v>68</v>
-      </c>
-      <c r="G29" s="42"/>
-      <c r="H29" s="42"/>
-      <c r="I29" s="66"/>
-      <c r="J29" s="67"/>
-      <c r="K29" s="42"/>
-      <c r="L29" s="67" t="s">
-        <v>282</v>
-      </c>
-      <c r="M29" s="76" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="86"/>
-      <c r="B30" s="86"/>
-      <c r="C30" s="86"/>
-      <c r="D30" s="50" t="s">
-        <v>67</v>
-      </c>
-      <c r="E30" s="68" t="s">
-        <v>107</v>
-      </c>
-      <c r="F30" s="50" t="s">
-        <v>69</v>
-      </c>
-      <c r="G30" s="66"/>
-      <c r="H30" s="66"/>
-      <c r="I30" s="66"/>
-      <c r="J30" s="67"/>
-      <c r="K30" s="66"/>
-      <c r="L30" s="67" t="s">
-        <v>282</v>
-      </c>
-      <c r="M30" s="77"/>
-    </row>
-    <row r="31" spans="1:13" ht="210" x14ac:dyDescent="0.25">
-      <c r="A31" s="86"/>
-      <c r="B31" s="86"/>
-      <c r="C31" s="86"/>
-      <c r="D31" s="74" t="s">
-        <v>44</v>
-      </c>
-      <c r="E31" s="68" t="s">
-        <v>107</v>
-      </c>
-      <c r="F31" s="50" t="s">
-        <v>346</v>
-      </c>
-      <c r="G31" s="66"/>
-      <c r="H31" s="66"/>
-      <c r="I31" s="66"/>
-      <c r="J31" s="67"/>
-      <c r="K31" s="66"/>
-      <c r="L31" s="67" t="s">
-        <v>282</v>
-      </c>
-      <c r="M31" s="77"/>
-    </row>
-    <row r="32" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="86"/>
-      <c r="B32" s="86"/>
-      <c r="C32" s="86"/>
-      <c r="D32" s="74"/>
-      <c r="E32" s="68"/>
-      <c r="F32" s="50"/>
-      <c r="G32" s="66"/>
-      <c r="H32" s="66"/>
-      <c r="I32" s="66"/>
-      <c r="J32" s="67"/>
-      <c r="K32" s="66"/>
-      <c r="L32" s="67" t="s">
-        <v>282</v>
-      </c>
-      <c r="M32" s="77"/>
-    </row>
-    <row r="33" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="86"/>
-      <c r="B33" s="86"/>
-      <c r="C33" s="86"/>
-      <c r="D33" s="74"/>
-      <c r="E33" s="68"/>
-      <c r="F33" s="50"/>
-      <c r="G33" s="43"/>
-      <c r="H33" s="43"/>
-      <c r="I33" s="66"/>
-      <c r="J33" s="67"/>
-      <c r="K33" s="43"/>
-      <c r="L33" s="67" t="s">
-        <v>282</v>
-      </c>
-      <c r="M33" s="77"/>
-    </row>
-    <row r="34" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="86"/>
-      <c r="B34" s="86"/>
-      <c r="C34" s="86"/>
-      <c r="D34" s="74"/>
-      <c r="E34" s="68"/>
+      <c r="M33" s="82"/>
+    </row>
+    <row r="34" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A34" s="87"/>
+      <c r="B34" s="87"/>
+      <c r="C34" s="87"/>
+      <c r="D34" s="73"/>
+      <c r="E34" s="67"/>
       <c r="F34" s="50"/>
       <c r="G34" s="43"/>
       <c r="H34" s="43"/>
-      <c r="I34" s="66"/>
-      <c r="J34" s="67"/>
+      <c r="I34" s="65"/>
+      <c r="J34" s="66"/>
       <c r="K34" s="43"/>
-      <c r="L34" s="67" t="s">
-        <v>282</v>
-      </c>
-      <c r="M34" s="77"/>
-    </row>
-    <row r="35" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="86"/>
-      <c r="B35" s="86"/>
-      <c r="C35" s="86"/>
-      <c r="D35" s="74"/>
-      <c r="E35" s="68"/>
+      <c r="L34" s="66" t="s">
+        <v>280</v>
+      </c>
+      <c r="M34" s="82"/>
+    </row>
+    <row r="35" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A35" s="87"/>
+      <c r="B35" s="87"/>
+      <c r="C35" s="87"/>
+      <c r="D35" s="73"/>
+      <c r="E35" s="67"/>
       <c r="F35" s="50"/>
       <c r="G35" s="43"/>
       <c r="H35" s="43"/>
-      <c r="I35" s="66"/>
-      <c r="J35" s="67"/>
+      <c r="I35" s="65"/>
+      <c r="J35" s="66"/>
       <c r="K35" s="43"/>
-      <c r="L35" s="67" t="s">
-        <v>282</v>
-      </c>
-      <c r="M35" s="77"/>
-    </row>
-    <row r="36" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="86"/>
-      <c r="B36" s="86"/>
-      <c r="C36" s="86"/>
-      <c r="D36" s="74"/>
+      <c r="L35" s="66" t="s">
+        <v>280</v>
+      </c>
+      <c r="M35" s="82"/>
+    </row>
+    <row r="36" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A36" s="87"/>
+      <c r="B36" s="87"/>
+      <c r="C36" s="87"/>
+      <c r="D36" s="73"/>
+      <c r="E36" s="67"/>
       <c r="F36" s="50"/>
       <c r="G36" s="43"/>
       <c r="H36" s="43"/>
-      <c r="I36" s="66"/>
-      <c r="J36" s="67"/>
+      <c r="I36" s="65"/>
+      <c r="J36" s="66"/>
       <c r="K36" s="43"/>
-      <c r="L36" s="67" t="s">
-        <v>282</v>
-      </c>
-      <c r="M36" s="77"/>
-    </row>
-    <row r="37" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="86" t="s">
+      <c r="L36" s="66" t="s">
+        <v>280</v>
+      </c>
+      <c r="M36" s="82"/>
+    </row>
+    <row r="37" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A37" s="87"/>
+      <c r="B37" s="87"/>
+      <c r="C37" s="87"/>
+      <c r="D37" s="73"/>
+      <c r="F37" s="50"/>
+      <c r="G37" s="43"/>
+      <c r="H37" s="43"/>
+      <c r="I37" s="65"/>
+      <c r="J37" s="66"/>
+      <c r="K37" s="43"/>
+      <c r="L37" s="66" t="s">
+        <v>280</v>
+      </c>
+      <c r="M37" s="82"/>
+    </row>
+    <row r="38" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A38" s="87" t="s">
         <v>77</v>
       </c>
-      <c r="B37" s="86" t="s">
-        <v>298</v>
-      </c>
-      <c r="C37" s="86" t="s">
+      <c r="B38" s="87" t="s">
+        <v>296</v>
+      </c>
+      <c r="C38" s="87" t="s">
+        <v>257</v>
+      </c>
+      <c r="D38" s="50" t="s">
+        <v>218</v>
+      </c>
+      <c r="E38" s="67" t="s">
+        <v>107</v>
+      </c>
+      <c r="F38" s="50" t="s">
+        <v>322</v>
+      </c>
+      <c r="G38" s="65"/>
+      <c r="H38" s="66" t="s">
+        <v>78</v>
+      </c>
+      <c r="I38" s="65"/>
+      <c r="J38" s="65"/>
+      <c r="K38" s="65"/>
+      <c r="L38" s="69"/>
+      <c r="M38" s="81" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A39" s="87"/>
+      <c r="B39" s="87"/>
+      <c r="C39" s="87"/>
+      <c r="D39" s="50" t="s">
+        <v>219</v>
+      </c>
+      <c r="E39" s="67"/>
+      <c r="F39" s="50" t="s">
+        <v>220</v>
+      </c>
+      <c r="G39" s="65"/>
+      <c r="H39" s="65"/>
+      <c r="I39" s="65"/>
+      <c r="J39" s="66"/>
+      <c r="K39" s="65"/>
+      <c r="L39" s="66" t="s">
+        <v>281</v>
+      </c>
+      <c r="M39" s="82"/>
+    </row>
+    <row r="40" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A40" s="87" t="s">
+        <v>80</v>
+      </c>
+      <c r="B40" s="87" t="s">
+        <v>258</v>
+      </c>
+      <c r="C40" s="87" t="s">
         <v>259</v>
       </c>
-      <c r="D37" s="50" t="s">
-        <v>218</v>
-      </c>
-      <c r="E37" s="68" t="s">
+      <c r="D40" s="50" t="s">
+        <v>81</v>
+      </c>
+      <c r="E40" s="67" t="s">
         <v>107</v>
       </c>
-      <c r="F37" s="50" t="s">
-        <v>324</v>
-      </c>
-      <c r="G37" s="66"/>
-      <c r="H37" s="67" t="s">
-        <v>78</v>
-      </c>
-      <c r="I37" s="66"/>
-      <c r="J37" s="66"/>
-      <c r="K37" s="66"/>
-      <c r="L37" s="70"/>
-      <c r="M37" s="76" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A38" s="86"/>
-      <c r="B38" s="86"/>
-      <c r="C38" s="86"/>
-      <c r="D38" s="50" t="s">
-        <v>219</v>
-      </c>
-      <c r="E38" s="68"/>
-      <c r="F38" s="50" t="s">
-        <v>220</v>
-      </c>
-      <c r="G38" s="66"/>
-      <c r="H38" s="66"/>
-      <c r="I38" s="66"/>
-      <c r="J38" s="67"/>
-      <c r="K38" s="66"/>
-      <c r="L38" s="67" t="s">
-        <v>283</v>
-      </c>
-      <c r="M38" s="77"/>
-    </row>
-    <row r="39" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39" s="86" t="s">
-        <v>80</v>
-      </c>
-      <c r="B39" s="86" t="s">
-        <v>260</v>
-      </c>
-      <c r="C39" s="86" t="s">
-        <v>261</v>
-      </c>
-      <c r="D39" s="50" t="s">
-        <v>81</v>
-      </c>
-      <c r="E39" s="68" t="s">
-        <v>107</v>
-      </c>
-      <c r="F39" s="50" t="s">
+      <c r="F40" s="50" t="s">
         <v>221</v>
       </c>
-      <c r="I39" s="66"/>
-      <c r="J39" s="47"/>
-      <c r="L39" s="47" t="s">
-        <v>284</v>
-      </c>
-      <c r="M39" s="76" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A40" s="86"/>
-      <c r="B40" s="86"/>
-      <c r="C40" s="86"/>
-      <c r="D40" s="50" t="s">
-        <v>82</v>
-      </c>
-      <c r="E40" s="68"/>
-      <c r="F40" s="50" t="s">
-        <v>89</v>
-      </c>
-      <c r="I40" s="66"/>
+      <c r="I40" s="65"/>
       <c r="J40" s="47"/>
       <c r="L40" s="47" t="s">
-        <v>284</v>
-      </c>
-      <c r="M40" s="77"/>
-    </row>
-    <row r="41" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="86"/>
-      <c r="B41" s="86"/>
-      <c r="C41" s="86"/>
+        <v>282</v>
+      </c>
+      <c r="M40" s="81" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A41" s="87"/>
+      <c r="B41" s="87"/>
+      <c r="C41" s="87"/>
       <c r="D41" s="50" t="s">
+        <v>82</v>
+      </c>
+      <c r="E41" s="67"/>
+      <c r="F41" s="50" t="s">
+        <v>89</v>
+      </c>
+      <c r="I41" s="65"/>
+      <c r="J41" s="47"/>
+      <c r="L41" s="47" t="s">
+        <v>282</v>
+      </c>
+      <c r="M41" s="82"/>
+    </row>
+    <row r="42" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A42" s="87"/>
+      <c r="B42" s="87"/>
+      <c r="C42" s="87"/>
+      <c r="D42" s="50" t="s">
         <v>83</v>
       </c>
-      <c r="E41" s="68" t="s">
+      <c r="E42" s="67" t="s">
         <v>107</v>
       </c>
-      <c r="F41" s="50" t="s">
+      <c r="F42" s="50" t="s">
         <v>90</v>
       </c>
-      <c r="G41" s="66"/>
-      <c r="H41" s="66"/>
-      <c r="I41" s="66"/>
-      <c r="J41" s="47"/>
-      <c r="K41" s="66"/>
-      <c r="L41" s="47" t="s">
-        <v>284</v>
-      </c>
-      <c r="M41" s="77"/>
-    </row>
-    <row r="42" spans="1:13" ht="225" x14ac:dyDescent="0.25">
-      <c r="A42" s="86"/>
-      <c r="B42" s="86"/>
-      <c r="C42" s="86"/>
-      <c r="D42" s="74" t="s">
+      <c r="G42" s="65"/>
+      <c r="H42" s="65"/>
+      <c r="I42" s="65"/>
+      <c r="J42" s="47"/>
+      <c r="K42" s="65"/>
+      <c r="L42" s="47" t="s">
+        <v>282</v>
+      </c>
+      <c r="M42" s="82"/>
+    </row>
+    <row r="43" spans="1:13" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="A43" s="87"/>
+      <c r="B43" s="87"/>
+      <c r="C43" s="87"/>
+      <c r="D43" s="73" t="s">
         <v>85</v>
       </c>
-      <c r="E42" s="68"/>
-      <c r="F42" s="50" t="s">
-        <v>349</v>
-      </c>
-      <c r="G42" s="66"/>
-      <c r="H42" s="66"/>
-      <c r="I42" s="66"/>
-      <c r="J42" s="47"/>
-      <c r="K42" s="66"/>
-      <c r="L42" s="47" t="s">
-        <v>284</v>
-      </c>
-      <c r="M42" s="77"/>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A43" s="86"/>
-      <c r="B43" s="86"/>
-      <c r="C43" s="86"/>
-      <c r="D43" s="74"/>
-      <c r="E43" s="68"/>
-      <c r="F43" s="50"/>
-      <c r="G43" s="66"/>
-      <c r="H43" s="66"/>
-      <c r="I43" s="66"/>
+      <c r="E43" s="67"/>
+      <c r="F43" s="50" t="s">
+        <v>347</v>
+      </c>
+      <c r="G43" s="65"/>
+      <c r="H43" s="65"/>
+      <c r="I43" s="65"/>
       <c r="J43" s="47"/>
-      <c r="K43" s="66"/>
+      <c r="K43" s="65"/>
       <c r="L43" s="47" t="s">
-        <v>284</v>
-      </c>
-      <c r="M43" s="77"/>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A44" s="86"/>
-      <c r="B44" s="86"/>
-      <c r="C44" s="86"/>
-      <c r="D44" s="74"/>
-      <c r="E44" s="68"/>
+        <v>282</v>
+      </c>
+      <c r="M43" s="82"/>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A44" s="87"/>
+      <c r="B44" s="87"/>
+      <c r="C44" s="87"/>
+      <c r="D44" s="73"/>
+      <c r="E44" s="67"/>
       <c r="F44" s="50"/>
-      <c r="G44" s="66"/>
-      <c r="H44" s="66"/>
-      <c r="I44" s="66"/>
+      <c r="G44" s="65"/>
+      <c r="H44" s="65"/>
+      <c r="I44" s="65"/>
       <c r="J44" s="47"/>
-      <c r="K44" s="66"/>
+      <c r="K44" s="65"/>
       <c r="L44" s="47" t="s">
-        <v>284</v>
-      </c>
-      <c r="M44" s="77"/>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A45" s="86"/>
-      <c r="B45" s="86"/>
-      <c r="C45" s="86"/>
-      <c r="D45" s="74"/>
-      <c r="E45" s="68"/>
+        <v>282</v>
+      </c>
+      <c r="M44" s="82"/>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A45" s="87"/>
+      <c r="B45" s="87"/>
+      <c r="C45" s="87"/>
+      <c r="D45" s="73"/>
+      <c r="E45" s="67"/>
       <c r="F45" s="50"/>
-      <c r="I45" s="66"/>
+      <c r="G45" s="65"/>
+      <c r="H45" s="65"/>
+      <c r="I45" s="65"/>
       <c r="J45" s="47"/>
+      <c r="K45" s="65"/>
       <c r="L45" s="47" t="s">
-        <v>284</v>
-      </c>
-      <c r="M45" s="77"/>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A46" s="86"/>
-      <c r="B46" s="86"/>
-      <c r="C46" s="86"/>
-      <c r="D46" s="74"/>
-      <c r="E46" s="68"/>
+        <v>282</v>
+      </c>
+      <c r="M45" s="82"/>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A46" s="87"/>
+      <c r="B46" s="87"/>
+      <c r="C46" s="87"/>
+      <c r="D46" s="73"/>
+      <c r="E46" s="67"/>
       <c r="F46" s="50"/>
-      <c r="I46" s="66"/>
+      <c r="I46" s="65"/>
       <c r="J46" s="47"/>
       <c r="L46" s="47" t="s">
-        <v>284</v>
-      </c>
-      <c r="M46" s="77"/>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A47" s="86"/>
-      <c r="B47" s="86"/>
-      <c r="C47" s="86"/>
-      <c r="D47" s="74"/>
-      <c r="E47" s="68"/>
+        <v>282</v>
+      </c>
+      <c r="M46" s="82"/>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A47" s="87"/>
+      <c r="B47" s="87"/>
+      <c r="C47" s="87"/>
+      <c r="D47" s="73"/>
+      <c r="E47" s="67"/>
       <c r="F47" s="50"/>
-      <c r="I47" s="66"/>
+      <c r="I47" s="65"/>
       <c r="J47" s="47"/>
       <c r="L47" s="47" t="s">
-        <v>284</v>
-      </c>
-      <c r="M47" s="77"/>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A48" s="86"/>
-      <c r="B48" s="86"/>
-      <c r="C48" s="86"/>
-      <c r="D48" s="74"/>
-      <c r="E48" s="68"/>
+        <v>282</v>
+      </c>
+      <c r="M47" s="82"/>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A48" s="87"/>
+      <c r="B48" s="87"/>
+      <c r="C48" s="87"/>
+      <c r="D48" s="73"/>
+      <c r="E48" s="67"/>
       <c r="F48" s="50"/>
-      <c r="I48" s="66"/>
+      <c r="I48" s="65"/>
       <c r="J48" s="47"/>
       <c r="L48" s="47" t="s">
-        <v>284</v>
-      </c>
-      <c r="M48" s="77"/>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A49" s="86"/>
-      <c r="B49" s="86"/>
-      <c r="C49" s="86"/>
-      <c r="D49" s="74"/>
-      <c r="E49" s="68"/>
+        <v>282</v>
+      </c>
+      <c r="M48" s="82"/>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A49" s="87"/>
+      <c r="B49" s="87"/>
+      <c r="C49" s="87"/>
+      <c r="D49" s="73"/>
+      <c r="E49" s="67"/>
       <c r="F49" s="50"/>
-      <c r="I49" s="66"/>
+      <c r="I49" s="65"/>
       <c r="J49" s="47"/>
       <c r="L49" s="47" t="s">
-        <v>284</v>
-      </c>
-      <c r="M49" s="77"/>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A50" s="86"/>
-      <c r="B50" s="86"/>
-      <c r="C50" s="86"/>
-      <c r="D50" s="74"/>
-      <c r="E50" s="68"/>
+        <v>282</v>
+      </c>
+      <c r="M49" s="82"/>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A50" s="87"/>
+      <c r="B50" s="87"/>
+      <c r="C50" s="87"/>
+      <c r="D50" s="73"/>
+      <c r="E50" s="67"/>
       <c r="F50" s="50"/>
-      <c r="I50" s="66"/>
+      <c r="I50" s="65"/>
       <c r="J50" s="47"/>
       <c r="L50" s="47" t="s">
-        <v>284</v>
-      </c>
-      <c r="M50" s="77"/>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A51" s="86"/>
-      <c r="B51" s="86"/>
-      <c r="C51" s="86"/>
-      <c r="D51" s="74"/>
-      <c r="E51" s="68"/>
+        <v>282</v>
+      </c>
+      <c r="M50" s="82"/>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A51" s="87"/>
+      <c r="B51" s="87"/>
+      <c r="C51" s="87"/>
+      <c r="D51" s="73"/>
+      <c r="E51" s="67"/>
       <c r="F51" s="50"/>
-      <c r="I51" s="66"/>
+      <c r="I51" s="65"/>
       <c r="J51" s="47"/>
       <c r="L51" s="47" t="s">
-        <v>284</v>
-      </c>
-      <c r="M51" s="77"/>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A52" s="86"/>
-      <c r="B52" s="86"/>
-      <c r="C52" s="86"/>
-      <c r="D52" s="74"/>
-      <c r="E52" s="68"/>
+        <v>282</v>
+      </c>
+      <c r="M51" s="82"/>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A52" s="87"/>
+      <c r="B52" s="87"/>
+      <c r="C52" s="87"/>
+      <c r="D52" s="73"/>
+      <c r="E52" s="67"/>
       <c r="F52" s="50"/>
-      <c r="I52" s="66"/>
+      <c r="I52" s="65"/>
       <c r="J52" s="47"/>
       <c r="L52" s="47" t="s">
-        <v>284</v>
-      </c>
-      <c r="M52" s="77"/>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A53" s="86"/>
-      <c r="B53" s="86"/>
-      <c r="C53" s="86"/>
-      <c r="D53" s="74"/>
-      <c r="E53" s="68"/>
+        <v>282</v>
+      </c>
+      <c r="M52" s="82"/>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A53" s="87"/>
+      <c r="B53" s="87"/>
+      <c r="C53" s="87"/>
+      <c r="D53" s="73"/>
+      <c r="E53" s="67"/>
       <c r="F53" s="50"/>
-      <c r="I53" s="66"/>
+      <c r="I53" s="65"/>
       <c r="J53" s="47"/>
       <c r="L53" s="47" t="s">
-        <v>284</v>
-      </c>
-      <c r="M53" s="77"/>
-    </row>
-    <row r="54" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A54" s="86" t="s">
+        <v>282</v>
+      </c>
+      <c r="M53" s="82"/>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A54" s="87"/>
+      <c r="B54" s="87"/>
+      <c r="C54" s="87"/>
+      <c r="D54" s="73"/>
+      <c r="E54" s="67"/>
+      <c r="F54" s="50"/>
+      <c r="I54" s="65"/>
+      <c r="J54" s="47"/>
+      <c r="L54" s="47" t="s">
+        <v>282</v>
+      </c>
+      <c r="M54" s="82"/>
+    </row>
+    <row r="55" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A55" s="87" t="s">
         <v>189</v>
       </c>
-      <c r="B54" s="86" t="s">
-        <v>262</v>
-      </c>
-      <c r="C54" s="86" t="s">
-        <v>263</v>
-      </c>
-      <c r="D54" s="50" t="s">
+      <c r="B55" s="87" t="s">
+        <v>260</v>
+      </c>
+      <c r="C55" s="87" t="s">
+        <v>261</v>
+      </c>
+      <c r="D55" s="50" t="s">
         <v>105</v>
       </c>
-      <c r="E54" s="68"/>
-      <c r="F54" s="50" t="s">
+      <c r="E55" s="67"/>
+      <c r="F55" s="50" t="s">
         <v>109</v>
       </c>
-      <c r="I54" s="66"/>
-      <c r="J54" s="67"/>
-      <c r="L54" s="67" t="s">
-        <v>325</v>
-      </c>
-      <c r="M54" s="87" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A55" s="86"/>
-      <c r="B55" s="86"/>
-      <c r="C55" s="86"/>
-      <c r="D55" s="50" t="s">
+      <c r="I55" s="65"/>
+      <c r="J55" s="66"/>
+      <c r="L55" s="66" t="s">
+        <v>323</v>
+      </c>
+      <c r="M55" s="89" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A56" s="87"/>
+      <c r="B56" s="87"/>
+      <c r="C56" s="87"/>
+      <c r="D56" s="50" t="s">
         <v>106</v>
       </c>
-      <c r="E55" s="68"/>
-      <c r="F55" s="50" t="s">
+      <c r="E56" s="67"/>
+      <c r="F56" s="50" t="s">
         <v>222</v>
       </c>
-      <c r="I55" s="66"/>
-      <c r="J55" s="47"/>
-      <c r="L55" s="47" t="s">
-        <v>325</v>
-      </c>
-      <c r="M55" s="77"/>
-    </row>
-    <row r="56" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A56" s="86"/>
-      <c r="B56" s="86"/>
-      <c r="C56" s="86"/>
-      <c r="D56" s="50" t="s">
+      <c r="I56" s="65"/>
+      <c r="J56" s="47"/>
+      <c r="L56" s="47" t="s">
+        <v>323</v>
+      </c>
+      <c r="M56" s="82"/>
+    </row>
+    <row r="57" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A57" s="87"/>
+      <c r="B57" s="87"/>
+      <c r="C57" s="87"/>
+      <c r="D57" s="50" t="s">
         <v>107</v>
       </c>
-      <c r="E56" s="74" t="s">
+      <c r="E57" s="73" t="s">
         <v>153</v>
       </c>
-      <c r="F56" s="50" t="s">
+      <c r="F57" s="50" t="s">
         <v>111</v>
       </c>
-      <c r="I56" s="66"/>
-      <c r="J56" s="67"/>
-      <c r="L56" s="67" t="s">
-        <v>325</v>
-      </c>
-      <c r="M56" s="77"/>
-    </row>
-    <row r="57" spans="1:13" ht="180" x14ac:dyDescent="0.25">
-      <c r="A57" s="86"/>
-      <c r="B57" s="86"/>
-      <c r="C57" s="86"/>
-      <c r="D57" s="74" t="s">
+      <c r="I57" s="65"/>
+      <c r="J57" s="66"/>
+      <c r="L57" s="66" t="s">
+        <v>323</v>
+      </c>
+      <c r="M57" s="82"/>
+    </row>
+    <row r="58" spans="1:13" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A58" s="87"/>
+      <c r="B58" s="87"/>
+      <c r="C58" s="87"/>
+      <c r="D58" s="73" t="s">
         <v>108</v>
       </c>
-      <c r="E57" s="74" t="s">
+      <c r="E58" s="73" t="s">
         <v>153</v>
       </c>
-      <c r="F57" s="50" t="s">
-        <v>350</v>
-      </c>
-      <c r="I57" s="66"/>
-      <c r="J57" s="47"/>
-      <c r="L57" s="47" t="s">
-        <v>325</v>
-      </c>
-      <c r="M57" s="77"/>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A58" s="86"/>
-      <c r="B58" s="86"/>
-      <c r="C58" s="86"/>
-      <c r="D58" s="74"/>
-      <c r="E58" s="74"/>
-      <c r="F58" s="50"/>
-      <c r="I58" s="66"/>
+      <c r="F58" s="50" t="s">
+        <v>348</v>
+      </c>
+      <c r="I58" s="65"/>
       <c r="J58" s="47"/>
       <c r="L58" s="47" t="s">
-        <v>325</v>
-      </c>
-      <c r="M58" s="77"/>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A59" s="86"/>
-      <c r="B59" s="86"/>
-      <c r="C59" s="86"/>
-      <c r="D59" s="74"/>
-      <c r="E59" s="74"/>
+        <v>323</v>
+      </c>
+      <c r="M58" s="82"/>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A59" s="87"/>
+      <c r="B59" s="87"/>
+      <c r="C59" s="87"/>
+      <c r="D59" s="73"/>
+      <c r="E59" s="73"/>
       <c r="F59" s="50"/>
-      <c r="I59" s="66"/>
+      <c r="I59" s="65"/>
       <c r="J59" s="47"/>
       <c r="L59" s="47" t="s">
-        <v>325</v>
-      </c>
-      <c r="M59" s="77"/>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A60" s="86"/>
-      <c r="B60" s="86"/>
-      <c r="C60" s="86"/>
-      <c r="D60" s="74"/>
-      <c r="E60" s="74"/>
+        <v>323</v>
+      </c>
+      <c r="M59" s="82"/>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A60" s="87"/>
+      <c r="B60" s="87"/>
+      <c r="C60" s="87"/>
+      <c r="D60" s="73"/>
+      <c r="E60" s="73"/>
       <c r="F60" s="50"/>
-      <c r="I60" s="66"/>
+      <c r="I60" s="65"/>
       <c r="J60" s="47"/>
       <c r="L60" s="47" t="s">
-        <v>325</v>
-      </c>
-      <c r="M60" s="77"/>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A61" s="86"/>
-      <c r="B61" s="86"/>
-      <c r="C61" s="86"/>
-      <c r="D61" s="74"/>
-      <c r="E61" s="68"/>
+        <v>323</v>
+      </c>
+      <c r="M60" s="82"/>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A61" s="87"/>
+      <c r="B61" s="87"/>
+      <c r="C61" s="87"/>
+      <c r="D61" s="73"/>
+      <c r="E61" s="73"/>
       <c r="F61" s="50"/>
-      <c r="I61" s="66"/>
+      <c r="I61" s="65"/>
       <c r="J61" s="47"/>
       <c r="L61" s="47" t="s">
-        <v>325</v>
-      </c>
-      <c r="M61" s="77"/>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A62" s="86"/>
-      <c r="B62" s="86"/>
-      <c r="C62" s="86"/>
-      <c r="D62" s="74"/>
-      <c r="E62" s="68"/>
+        <v>323</v>
+      </c>
+      <c r="M61" s="82"/>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A62" s="87"/>
+      <c r="B62" s="87"/>
+      <c r="C62" s="87"/>
+      <c r="D62" s="73"/>
+      <c r="E62" s="67"/>
       <c r="F62" s="50"/>
-      <c r="I62" s="66"/>
+      <c r="I62" s="65"/>
       <c r="J62" s="47"/>
       <c r="L62" s="47" t="s">
-        <v>325</v>
-      </c>
-      <c r="M62" s="77"/>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A63" s="86"/>
-      <c r="B63" s="86"/>
-      <c r="C63" s="86"/>
-      <c r="D63" s="74"/>
-      <c r="E63" s="74"/>
+        <v>323</v>
+      </c>
+      <c r="M62" s="82"/>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A63" s="87"/>
+      <c r="B63" s="87"/>
+      <c r="C63" s="87"/>
+      <c r="D63" s="73"/>
+      <c r="E63" s="67"/>
       <c r="F63" s="50"/>
+      <c r="I63" s="65"/>
       <c r="J63" s="47"/>
       <c r="L63" s="47" t="s">
-        <v>325</v>
-      </c>
-      <c r="M63" s="77"/>
-    </row>
-    <row r="64" spans="1:13" ht="120" x14ac:dyDescent="0.25">
-      <c r="A64" s="86" t="s">
-        <v>117</v>
-      </c>
-      <c r="B64" s="86" t="s">
-        <v>299</v>
-      </c>
-      <c r="C64" s="86" t="s">
-        <v>301</v>
-      </c>
-      <c r="D64" s="74" t="s">
-        <v>120</v>
-      </c>
-      <c r="E64" s="74" t="s">
-        <v>153</v>
-      </c>
-      <c r="F64" s="74" t="s">
-        <v>347</v>
-      </c>
-      <c r="I64" s="66"/>
+        <v>323</v>
+      </c>
+      <c r="M63" s="82"/>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A64" s="87"/>
+      <c r="B64" s="87"/>
+      <c r="C64" s="87"/>
+      <c r="D64" s="73"/>
+      <c r="E64" s="73"/>
+      <c r="F64" s="50"/>
       <c r="J64" s="47"/>
       <c r="L64" s="47" t="s">
-        <v>325</v>
-      </c>
-      <c r="M64" s="87" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A65" s="86"/>
-      <c r="B65" s="86"/>
-      <c r="C65" s="86"/>
-      <c r="D65" s="74"/>
-      <c r="E65" s="74"/>
-      <c r="F65" s="74"/>
-      <c r="I65" s="66"/>
+        <v>323</v>
+      </c>
+      <c r="M64" s="82"/>
+    </row>
+    <row r="65" spans="1:13" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A65" s="87" t="s">
+        <v>117</v>
+      </c>
+      <c r="B65" s="87" t="s">
+        <v>297</v>
+      </c>
+      <c r="C65" s="87" t="s">
+        <v>299</v>
+      </c>
+      <c r="D65" s="73" t="s">
+        <v>120</v>
+      </c>
+      <c r="E65" s="73" t="s">
+        <v>153</v>
+      </c>
+      <c r="F65" s="73" t="s">
+        <v>345</v>
+      </c>
+      <c r="I65" s="65"/>
       <c r="J65" s="47"/>
       <c r="L65" s="47" t="s">
-        <v>325</v>
-      </c>
-      <c r="M65" s="77"/>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A66" s="86"/>
-      <c r="B66" s="86"/>
-      <c r="C66" s="86"/>
-      <c r="D66" s="74"/>
-      <c r="E66" s="74"/>
-      <c r="F66" s="50"/>
-      <c r="I66" s="66"/>
+        <v>323</v>
+      </c>
+      <c r="M65" s="89" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A66" s="87"/>
+      <c r="B66" s="87"/>
+      <c r="C66" s="87"/>
+      <c r="D66" s="73"/>
+      <c r="E66" s="73"/>
+      <c r="F66" s="73"/>
+      <c r="I66" s="65"/>
       <c r="J66" s="47"/>
       <c r="L66" s="47" t="s">
-        <v>325</v>
-      </c>
-      <c r="M66" s="77"/>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A67" s="86"/>
-      <c r="B67" s="86"/>
-      <c r="C67" s="86"/>
-      <c r="D67" s="74"/>
-      <c r="E67" s="74"/>
+        <v>323</v>
+      </c>
+      <c r="M66" s="82"/>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A67" s="87"/>
+      <c r="B67" s="87"/>
+      <c r="C67" s="87"/>
+      <c r="D67" s="73"/>
+      <c r="E67" s="73"/>
       <c r="F67" s="50"/>
-      <c r="I67" s="66"/>
+      <c r="I67" s="65"/>
       <c r="J67" s="47"/>
       <c r="L67" s="47" t="s">
-        <v>325</v>
-      </c>
-      <c r="M67" s="77"/>
-    </row>
-    <row r="68" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A68" s="86" t="s">
-        <v>125</v>
-      </c>
-      <c r="B68" s="86" t="s">
-        <v>300</v>
-      </c>
-      <c r="C68" s="86" t="s">
-        <v>264</v>
-      </c>
-      <c r="D68" s="50" t="s">
-        <v>126</v>
-      </c>
-      <c r="E68" s="68"/>
-      <c r="F68" s="50" t="s">
-        <v>115</v>
-      </c>
-      <c r="I68" s="66"/>
+        <v>323</v>
+      </c>
+      <c r="M67" s="82"/>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A68" s="87"/>
+      <c r="B68" s="87"/>
+      <c r="C68" s="87"/>
+      <c r="D68" s="73"/>
+      <c r="E68" s="73"/>
+      <c r="F68" s="50"/>
+      <c r="I68" s="65"/>
       <c r="J68" s="47"/>
       <c r="L68" s="47" t="s">
-        <v>325</v>
-      </c>
-      <c r="M68" s="76" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13" ht="90" x14ac:dyDescent="0.25">
-      <c r="A69" s="86"/>
-      <c r="B69" s="77"/>
-      <c r="C69" s="77"/>
+        <v>323</v>
+      </c>
+      <c r="M68" s="82"/>
+    </row>
+    <row r="69" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A69" s="87" t="s">
+        <v>125</v>
+      </c>
+      <c r="B69" s="87" t="s">
+        <v>298</v>
+      </c>
+      <c r="C69" s="87" t="s">
+        <v>262</v>
+      </c>
       <c r="D69" s="50" t="s">
-        <v>127</v>
-      </c>
-      <c r="E69" s="74" t="s">
-        <v>153</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="E69" s="67"/>
       <c r="F69" s="50" t="s">
-        <v>111</v>
-      </c>
-      <c r="G69" s="66" t="s">
-        <v>326</v>
-      </c>
-      <c r="I69" s="66"/>
+        <v>115</v>
+      </c>
+      <c r="I69" s="65"/>
       <c r="J69" s="47"/>
       <c r="L69" s="47" t="s">
+        <v>323</v>
+      </c>
+      <c r="M69" s="81" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A70" s="87"/>
+      <c r="B70" s="82"/>
+      <c r="C70" s="82"/>
+      <c r="D70" s="50" t="s">
+        <v>127</v>
+      </c>
+      <c r="E70" s="73" t="s">
+        <v>153</v>
+      </c>
+      <c r="F70" s="50" t="s">
+        <v>111</v>
+      </c>
+      <c r="G70" s="65" t="s">
+        <v>324</v>
+      </c>
+      <c r="I70" s="65"/>
+      <c r="J70" s="47"/>
+      <c r="L70" s="47" t="s">
+        <v>323</v>
+      </c>
+      <c r="M70" s="82"/>
+    </row>
+    <row r="71" spans="1:13" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A71" s="87"/>
+      <c r="B71" s="82"/>
+      <c r="C71" s="82"/>
+      <c r="D71" s="50" t="s">
+        <v>128</v>
+      </c>
+      <c r="E71" s="73" t="s">
+        <v>153</v>
+      </c>
+      <c r="F71" s="50" t="s">
+        <v>346</v>
+      </c>
+      <c r="I71" s="65" t="s">
         <v>325</v>
       </c>
-      <c r="M69" s="77"/>
-    </row>
-    <row r="70" spans="1:13" ht="105" x14ac:dyDescent="0.25">
-      <c r="A70" s="86"/>
-      <c r="B70" s="77"/>
-      <c r="C70" s="77"/>
-      <c r="D70" s="50" t="s">
-        <v>128</v>
-      </c>
-      <c r="E70" s="74" t="s">
-        <v>153</v>
-      </c>
-      <c r="F70" s="50" t="s">
-        <v>348</v>
-      </c>
-      <c r="I70" s="66" t="s">
-        <v>327</v>
-      </c>
-      <c r="J70" s="47" t="s">
-        <v>328</v>
-      </c>
-      <c r="L70" s="47"/>
-      <c r="M70" s="77"/>
-    </row>
-    <row r="71" spans="1:13" s="44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="86"/>
-      <c r="B71" s="77"/>
-      <c r="C71" s="77"/>
-      <c r="D71" s="43"/>
-      <c r="E71" s="74"/>
-      <c r="F71" s="57"/>
-      <c r="I71" s="66"/>
-      <c r="J71" s="47"/>
-      <c r="L71" s="47" t="s">
-        <v>325</v>
-      </c>
-      <c r="M71" s="77"/>
-    </row>
-    <row r="72" spans="1:13" s="44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="86"/>
-      <c r="B72" s="77"/>
-      <c r="C72" s="77"/>
+      <c r="J71" s="47" t="s">
+        <v>326</v>
+      </c>
+      <c r="L71" s="47"/>
+      <c r="M71" s="82"/>
+    </row>
+    <row r="72" spans="1:13" s="44" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="87"/>
+      <c r="B72" s="82"/>
+      <c r="C72" s="82"/>
       <c r="D72" s="43"/>
-      <c r="E72" s="74"/>
-      <c r="F72" s="57"/>
-      <c r="I72" s="66"/>
+      <c r="E72" s="73"/>
+      <c r="F72" s="56"/>
+      <c r="I72" s="65"/>
       <c r="J72" s="47"/>
       <c r="L72" s="47" t="s">
-        <v>329</v>
-      </c>
-      <c r="M72" s="77"/>
-    </row>
-    <row r="73" spans="1:13" s="44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="86"/>
-      <c r="B73" s="77"/>
-      <c r="C73" s="77"/>
+        <v>323</v>
+      </c>
+      <c r="M72" s="82"/>
+    </row>
+    <row r="73" spans="1:13" s="44" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="87"/>
+      <c r="B73" s="82"/>
+      <c r="C73" s="82"/>
       <c r="D73" s="43"/>
-      <c r="E73" s="74"/>
-      <c r="F73" s="57"/>
-      <c r="I73" s="66"/>
+      <c r="E73" s="73"/>
+      <c r="F73" s="56"/>
+      <c r="I73" s="65"/>
       <c r="J73" s="47"/>
       <c r="L73" s="47" t="s">
-        <v>194</v>
-      </c>
-      <c r="M73" s="77"/>
-    </row>
-    <row r="74" spans="1:13" s="44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="86"/>
-      <c r="B74" s="77"/>
-      <c r="C74" s="77"/>
+        <v>327</v>
+      </c>
+      <c r="M73" s="82"/>
+    </row>
+    <row r="74" spans="1:13" s="44" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="87"/>
+      <c r="B74" s="82"/>
+      <c r="C74" s="82"/>
       <c r="D74" s="43"/>
-      <c r="E74" s="68"/>
-      <c r="F74" s="57"/>
-      <c r="I74" s="66"/>
+      <c r="E74" s="73"/>
+      <c r="F74" s="56"/>
+      <c r="I74" s="65"/>
       <c r="J74" s="47"/>
       <c r="L74" s="47" t="s">
         <v>194</v>
       </c>
-      <c r="M74" s="77"/>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A75" s="86"/>
-      <c r="B75" s="77"/>
-      <c r="C75" s="77"/>
-      <c r="D75" s="42"/>
-      <c r="F75" s="57"/>
-      <c r="M75" s="77"/>
-    </row>
-    <row r="76" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A76" s="86" t="s">
+      <c r="M74" s="82"/>
+    </row>
+    <row r="75" spans="1:13" s="44" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="87"/>
+      <c r="B75" s="82"/>
+      <c r="C75" s="82"/>
+      <c r="D75" s="43"/>
+      <c r="E75" s="67"/>
+      <c r="F75" s="56"/>
+      <c r="I75" s="65"/>
+      <c r="J75" s="47"/>
+      <c r="L75" s="47" t="s">
+        <v>194</v>
+      </c>
+      <c r="M75" s="82"/>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A76" s="87"/>
+      <c r="B76" s="82"/>
+      <c r="C76" s="82"/>
+      <c r="D76" s="42"/>
+      <c r="F76" s="56"/>
+      <c r="M76" s="82"/>
+    </row>
+    <row r="77" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A77" s="87" t="s">
         <v>132</v>
       </c>
-      <c r="B76" s="86" t="s">
+      <c r="B77" s="87" t="s">
+        <v>263</v>
+      </c>
+      <c r="C77" s="87" t="s">
+        <v>264</v>
+      </c>
+      <c r="D77" s="50" t="s">
+        <v>133</v>
+      </c>
+      <c r="E77" s="67" t="s">
+        <v>153</v>
+      </c>
+      <c r="F77" s="56" t="s">
+        <v>115</v>
+      </c>
+      <c r="I77" s="65"/>
+      <c r="J77" s="47"/>
+      <c r="L77" s="47" t="s">
+        <v>323</v>
+      </c>
+      <c r="M77" s="89" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A78" s="87"/>
+      <c r="B78" s="87"/>
+      <c r="C78" s="87"/>
+      <c r="D78" s="50" t="s">
+        <v>223</v>
+      </c>
+      <c r="E78" s="67" t="s">
+        <v>153</v>
+      </c>
+      <c r="F78" s="56" t="s">
+        <v>140</v>
+      </c>
+      <c r="I78" s="65"/>
+      <c r="J78" s="66"/>
+      <c r="L78" s="66" t="s">
+        <v>323</v>
+      </c>
+      <c r="M78" s="82"/>
+    </row>
+    <row r="79" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="87" t="s">
+        <v>141</v>
+      </c>
+      <c r="B79" s="87" t="s">
         <v>265</v>
       </c>
-      <c r="C76" s="86" t="s">
+      <c r="C79" s="87" t="s">
         <v>266</v>
       </c>
-      <c r="D76" s="50" t="s">
-        <v>133</v>
-      </c>
-      <c r="E76" s="68" t="s">
+      <c r="D79" s="73" t="s">
+        <v>224</v>
+      </c>
+      <c r="E79" s="67"/>
+      <c r="F79" s="73" t="s">
+        <v>225</v>
+      </c>
+      <c r="I79" s="65"/>
+      <c r="J79" s="66"/>
+      <c r="L79" s="66" t="s">
+        <v>323</v>
+      </c>
+      <c r="M79" s="89" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A80" s="87"/>
+      <c r="B80" s="87"/>
+      <c r="C80" s="87"/>
+      <c r="D80" s="73"/>
+      <c r="E80" s="67"/>
+      <c r="F80" s="73"/>
+      <c r="I80" s="65"/>
+      <c r="J80" s="66"/>
+      <c r="L80" s="66" t="s">
+        <v>323</v>
+      </c>
+      <c r="M80" s="82"/>
+    </row>
+    <row r="81" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A81" s="87"/>
+      <c r="B81" s="87"/>
+      <c r="C81" s="87"/>
+      <c r="D81" s="73"/>
+      <c r="E81" s="67"/>
+      <c r="F81" s="73"/>
+      <c r="I81" s="65"/>
+      <c r="J81" s="66"/>
+      <c r="L81" s="66" t="s">
+        <v>323</v>
+      </c>
+      <c r="M81" s="82"/>
+    </row>
+    <row r="82" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A82" s="87"/>
+      <c r="B82" s="87"/>
+      <c r="C82" s="87"/>
+      <c r="D82" s="73"/>
+      <c r="E82" s="67"/>
+      <c r="F82" s="73"/>
+      <c r="I82" s="65"/>
+      <c r="J82" s="66"/>
+      <c r="L82" s="66" t="s">
+        <v>323</v>
+      </c>
+      <c r="M82" s="82"/>
+    </row>
+    <row r="83" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A83" s="49" t="s">
+        <v>146</v>
+      </c>
+      <c r="B83" s="55" t="s">
+        <v>270</v>
+      </c>
+      <c r="C83" s="49"/>
+      <c r="D83" s="50" t="s">
+        <v>226</v>
+      </c>
+      <c r="E83" s="67"/>
+      <c r="F83" s="56" t="s">
+        <v>123</v>
+      </c>
+      <c r="I83" s="65" t="s">
+        <v>328</v>
+      </c>
+      <c r="J83" s="66" t="s">
+        <v>329</v>
+      </c>
+      <c r="L83" s="66"/>
+      <c r="M83" s="60" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A84" s="87" t="s">
+        <v>267</v>
+      </c>
+      <c r="B84" s="87" t="s">
+        <v>268</v>
+      </c>
+      <c r="C84" s="87" t="s">
+        <v>269</v>
+      </c>
+      <c r="D84" s="50" t="s">
+        <v>152</v>
+      </c>
+      <c r="E84" s="67"/>
+      <c r="F84" s="56" t="s">
+        <v>154</v>
+      </c>
+      <c r="I84" s="65"/>
+      <c r="J84" s="66"/>
+      <c r="L84" s="66" t="s">
+        <v>285</v>
+      </c>
+      <c r="M84" s="81" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A85" s="87"/>
+      <c r="B85" s="77"/>
+      <c r="C85" s="77"/>
+      <c r="D85" s="73" t="s">
         <v>153</v>
       </c>
-      <c r="F76" s="57" t="s">
-        <v>115</v>
-      </c>
-      <c r="I76" s="66"/>
-      <c r="J76" s="47"/>
-      <c r="L76" s="47" t="s">
-        <v>325</v>
-      </c>
-      <c r="M76" s="87" t="s">
+      <c r="E85" s="67"/>
+      <c r="F85" s="50" t="s">
+        <v>370</v>
+      </c>
+      <c r="I85" s="65" t="s">
+        <v>189</v>
+      </c>
+      <c r="J85" s="66" t="s">
+        <v>371</v>
+      </c>
+      <c r="L85" s="66" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="77" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A77" s="86"/>
-      <c r="B77" s="86"/>
-      <c r="C77" s="86"/>
-      <c r="D77" s="50" t="s">
-        <v>223</v>
-      </c>
-      <c r="E77" s="68" t="s">
-        <v>153</v>
-      </c>
-      <c r="F77" s="57" t="s">
-        <v>140</v>
-      </c>
-      <c r="I77" s="66"/>
-      <c r="J77" s="67"/>
-      <c r="L77" s="67" t="s">
-        <v>325</v>
-      </c>
-      <c r="M77" s="77"/>
-    </row>
-    <row r="78" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="86" t="s">
-        <v>141</v>
-      </c>
-      <c r="B78" s="86" t="s">
-        <v>267</v>
-      </c>
-      <c r="C78" s="86" t="s">
-        <v>268</v>
-      </c>
-      <c r="D78" s="74" t="s">
-        <v>224</v>
-      </c>
-      <c r="E78" s="68"/>
-      <c r="F78" s="74" t="s">
-        <v>225</v>
-      </c>
-      <c r="I78" s="66"/>
-      <c r="J78" s="67"/>
-      <c r="L78" s="67" t="s">
-        <v>325</v>
-      </c>
-      <c r="M78" s="87" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="79" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A79" s="86"/>
-      <c r="B79" s="86"/>
-      <c r="C79" s="86"/>
-      <c r="D79" s="74"/>
-      <c r="E79" s="68"/>
-      <c r="F79" s="74"/>
-      <c r="I79" s="66"/>
-      <c r="J79" s="67"/>
-      <c r="L79" s="67" t="s">
-        <v>325</v>
-      </c>
-      <c r="M79" s="77"/>
-    </row>
-    <row r="80" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A80" s="86"/>
-      <c r="B80" s="86"/>
-      <c r="C80" s="86"/>
-      <c r="D80" s="74"/>
-      <c r="E80" s="68"/>
-      <c r="F80" s="74"/>
-      <c r="I80" s="66"/>
-      <c r="J80" s="67"/>
-      <c r="L80" s="67" t="s">
-        <v>325</v>
-      </c>
-      <c r="M80" s="77"/>
-    </row>
-    <row r="81" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A81" s="86"/>
-      <c r="B81" s="86"/>
-      <c r="C81" s="86"/>
-      <c r="D81" s="74"/>
-      <c r="E81" s="68"/>
-      <c r="F81" s="74"/>
-      <c r="I81" s="66"/>
-      <c r="J81" s="67"/>
-      <c r="L81" s="67" t="s">
-        <v>325</v>
-      </c>
-      <c r="M81" s="77"/>
-    </row>
-    <row r="82" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A82" s="49" t="s">
-        <v>146</v>
-      </c>
-      <c r="B82" s="56" t="s">
-        <v>272</v>
-      </c>
-      <c r="C82" s="49"/>
-      <c r="D82" s="50" t="s">
-        <v>226</v>
-      </c>
-      <c r="E82" s="68"/>
-      <c r="F82" s="57" t="s">
-        <v>123</v>
-      </c>
-      <c r="I82" s="66" t="s">
-        <v>330</v>
-      </c>
-      <c r="J82" s="67" t="s">
-        <v>331</v>
-      </c>
-      <c r="L82" s="67"/>
-      <c r="M82" s="61" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="83" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A83" s="86" t="s">
-        <v>269</v>
-      </c>
-      <c r="B83" s="86" t="s">
-        <v>270</v>
-      </c>
-      <c r="C83" s="86" t="s">
-        <v>271</v>
-      </c>
-      <c r="D83" s="50" t="s">
-        <v>152</v>
-      </c>
-      <c r="E83" s="68"/>
-      <c r="F83" s="57" t="s">
-        <v>154</v>
-      </c>
-      <c r="I83" s="66"/>
-      <c r="J83" s="67"/>
-      <c r="L83" s="67" t="s">
-        <v>287</v>
-      </c>
-      <c r="M83" s="76" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="84" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A84" s="86"/>
-      <c r="B84" s="80"/>
-      <c r="C84" s="80"/>
-      <c r="D84" s="74" t="s">
-        <v>153</v>
-      </c>
-      <c r="E84" s="68"/>
-      <c r="F84" s="50" t="s">
-        <v>372</v>
-      </c>
-      <c r="I84" s="66" t="s">
-        <v>189</v>
-      </c>
-      <c r="J84" s="67" t="s">
-        <v>373</v>
-      </c>
-      <c r="L84" s="67" t="s">
-        <v>287</v>
-      </c>
-      <c r="M84" s="77"/>
-    </row>
-    <row r="85" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A85" s="86"/>
-      <c r="B85" s="80"/>
-      <c r="C85" s="80"/>
-      <c r="D85" s="74"/>
-      <c r="E85" s="68"/>
-      <c r="F85" s="74"/>
-      <c r="I85" s="66"/>
-      <c r="J85" s="67"/>
-      <c r="L85" s="67" t="s">
-        <v>287</v>
-      </c>
-      <c r="M85" s="77"/>
-    </row>
-    <row r="86" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A86" s="86"/>
-      <c r="B86" s="80"/>
-      <c r="C86" s="80"/>
-      <c r="D86" s="74"/>
-      <c r="E86" s="68"/>
-      <c r="F86" s="74"/>
-      <c r="I86" s="66"/>
-      <c r="J86" s="67"/>
-      <c r="L86" s="67" t="s">
-        <v>287</v>
-      </c>
-      <c r="M86" s="77"/>
-    </row>
-    <row r="87" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A87" s="86"/>
-      <c r="B87" s="80"/>
-      <c r="C87" s="80"/>
-      <c r="D87" s="74"/>
-      <c r="E87" s="68"/>
-      <c r="F87" s="74"/>
-      <c r="I87" s="66"/>
-      <c r="J87" s="67"/>
-      <c r="L87" s="67" t="s">
-        <v>287</v>
-      </c>
-      <c r="M87" s="77"/>
-    </row>
-    <row r="88" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A88" s="86"/>
-      <c r="B88" s="80"/>
-      <c r="C88" s="80"/>
-      <c r="D88" s="74"/>
-      <c r="E88" s="68"/>
-      <c r="F88" s="74"/>
-      <c r="I88" s="66"/>
-      <c r="J88" s="67"/>
-      <c r="L88" s="67" t="s">
-        <v>287</v>
-      </c>
-      <c r="M88" s="77"/>
-    </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A89" s="58"/>
-      <c r="B89" s="58"/>
-      <c r="C89" s="58"/>
-      <c r="D89" s="58"/>
-      <c r="E89" s="68"/>
-    </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A90" s="58"/>
-      <c r="B90" s="58"/>
-      <c r="C90" s="58"/>
-      <c r="D90" s="58"/>
-      <c r="E90" s="68"/>
-    </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A91" s="58"/>
-      <c r="B91" s="58"/>
-      <c r="C91" s="58"/>
-      <c r="D91" s="58"/>
-      <c r="E91" s="68"/>
-    </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A92" s="58"/>
-      <c r="B92" s="58"/>
-      <c r="C92" s="58"/>
-      <c r="D92" s="58"/>
-      <c r="E92" s="68"/>
-    </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A93" s="58"/>
-      <c r="B93" s="58"/>
-      <c r="C93" s="58"/>
-      <c r="D93" s="58"/>
-      <c r="E93" s="68"/>
-    </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A94" s="58"/>
-      <c r="B94" s="58"/>
-      <c r="C94" s="58"/>
-      <c r="D94" s="58"/>
-      <c r="E94" s="68"/>
-    </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A95" s="58"/>
-      <c r="B95" s="58"/>
-      <c r="C95" s="58"/>
-      <c r="D95" s="58"/>
-      <c r="E95" s="68"/>
-    </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A96" s="58"/>
-      <c r="B96" s="58"/>
-      <c r="C96" s="58"/>
-      <c r="D96" s="58"/>
-      <c r="E96" s="68"/>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A97" s="58"/>
-      <c r="B97" s="58"/>
-      <c r="C97" s="58"/>
-      <c r="D97" s="58"/>
-      <c r="E97" s="68"/>
+      <c r="M85" s="82"/>
+    </row>
+    <row r="86" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A86" s="87"/>
+      <c r="B86" s="77"/>
+      <c r="C86" s="77"/>
+      <c r="D86" s="73"/>
+      <c r="E86" s="67"/>
+      <c r="F86" s="73"/>
+      <c r="I86" s="65"/>
+      <c r="J86" s="66"/>
+      <c r="L86" s="66" t="s">
+        <v>285</v>
+      </c>
+      <c r="M86" s="82"/>
+    </row>
+    <row r="87" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A87" s="87"/>
+      <c r="B87" s="77"/>
+      <c r="C87" s="77"/>
+      <c r="D87" s="73"/>
+      <c r="E87" s="67"/>
+      <c r="F87" s="73"/>
+      <c r="I87" s="65"/>
+      <c r="J87" s="66"/>
+      <c r="L87" s="66" t="s">
+        <v>285</v>
+      </c>
+      <c r="M87" s="82"/>
+    </row>
+    <row r="88" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A88" s="87"/>
+      <c r="B88" s="77"/>
+      <c r="C88" s="77"/>
+      <c r="D88" s="73"/>
+      <c r="E88" s="67"/>
+      <c r="F88" s="73"/>
+      <c r="I88" s="65"/>
+      <c r="J88" s="66"/>
+      <c r="L88" s="66" t="s">
+        <v>285</v>
+      </c>
+      <c r="M88" s="82"/>
+    </row>
+    <row r="89" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A89" s="87"/>
+      <c r="B89" s="77"/>
+      <c r="C89" s="77"/>
+      <c r="D89" s="73"/>
+      <c r="E89" s="67"/>
+      <c r="F89" s="73"/>
+      <c r="I89" s="65"/>
+      <c r="J89" s="66"/>
+      <c r="L89" s="66" t="s">
+        <v>285</v>
+      </c>
+      <c r="M89" s="82"/>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A90" s="57"/>
+      <c r="B90" s="57"/>
+      <c r="C90" s="57"/>
+      <c r="D90" s="57"/>
+      <c r="E90" s="67"/>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A91" s="57"/>
+      <c r="B91" s="57"/>
+      <c r="C91" s="57"/>
+      <c r="D91" s="57"/>
+      <c r="E91" s="67"/>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A92" s="57"/>
+      <c r="B92" s="57"/>
+      <c r="C92" s="57"/>
+      <c r="D92" s="57"/>
+      <c r="E92" s="67"/>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A93" s="57"/>
+      <c r="B93" s="57"/>
+      <c r="C93" s="57"/>
+      <c r="D93" s="57"/>
+      <c r="E93" s="67"/>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A94" s="57"/>
+      <c r="B94" s="57"/>
+      <c r="C94" s="57"/>
+      <c r="D94" s="57"/>
+      <c r="E94" s="67"/>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A95" s="57"/>
+      <c r="B95" s="57"/>
+      <c r="C95" s="57"/>
+      <c r="D95" s="57"/>
+      <c r="E95" s="67"/>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A96" s="57"/>
+      <c r="B96" s="57"/>
+      <c r="C96" s="57"/>
+      <c r="D96" s="57"/>
+      <c r="E96" s="67"/>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A97" s="57"/>
+      <c r="B97" s="57"/>
+      <c r="C97" s="57"/>
+      <c r="D97" s="57"/>
+      <c r="E97" s="67"/>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A98" s="57"/>
+      <c r="B98" s="57"/>
+      <c r="C98" s="57"/>
+      <c r="D98" s="57"/>
+      <c r="E98" s="67"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M88" xr:uid="{18B464E1-161A-4AA4-A8AA-4DE9E957BFAF}"/>
-  <mergeCells count="58">
-    <mergeCell ref="C83:C88"/>
-    <mergeCell ref="C76:C77"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="B39:B53"/>
-    <mergeCell ref="C39:C53"/>
-    <mergeCell ref="B54:B63"/>
-    <mergeCell ref="C54:C63"/>
-    <mergeCell ref="B78:B81"/>
-    <mergeCell ref="C78:C81"/>
-    <mergeCell ref="B64:B67"/>
-    <mergeCell ref="C64:C67"/>
-    <mergeCell ref="B68:B75"/>
-    <mergeCell ref="C68:C75"/>
-    <mergeCell ref="B76:B77"/>
-    <mergeCell ref="A68:A75"/>
-    <mergeCell ref="A76:A77"/>
-    <mergeCell ref="A78:A81"/>
-    <mergeCell ref="A83:A88"/>
-    <mergeCell ref="B83:B88"/>
-    <mergeCell ref="A64:A67"/>
-    <mergeCell ref="B25:B28"/>
-    <mergeCell ref="C25:C28"/>
-    <mergeCell ref="B29:B36"/>
-    <mergeCell ref="C29:C36"/>
-    <mergeCell ref="A25:A28"/>
-    <mergeCell ref="A29:A36"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="A39:A53"/>
-    <mergeCell ref="A54:A63"/>
-    <mergeCell ref="F3:F7"/>
-    <mergeCell ref="F9:F11"/>
-    <mergeCell ref="D3:D7"/>
-    <mergeCell ref="D9:D11"/>
-    <mergeCell ref="E3:E7"/>
-    <mergeCell ref="E9:E11"/>
-    <mergeCell ref="A3:A8"/>
-    <mergeCell ref="A16:A24"/>
-    <mergeCell ref="A9:A15"/>
-    <mergeCell ref="B3:B8"/>
-    <mergeCell ref="C3:C8"/>
-    <mergeCell ref="B9:B15"/>
-    <mergeCell ref="C9:C15"/>
-    <mergeCell ref="B16:B24"/>
-    <mergeCell ref="C16:C24"/>
-    <mergeCell ref="M3:M7"/>
-    <mergeCell ref="M9:M15"/>
-    <mergeCell ref="M16:M24"/>
-    <mergeCell ref="M25:M28"/>
-    <mergeCell ref="M29:M36"/>
-    <mergeCell ref="M76:M77"/>
-    <mergeCell ref="M78:M81"/>
-    <mergeCell ref="M83:M88"/>
-    <mergeCell ref="M37:M38"/>
-    <mergeCell ref="M39:M53"/>
-    <mergeCell ref="M54:M63"/>
-    <mergeCell ref="M64:M67"/>
-    <mergeCell ref="M68:M75"/>
+  <autoFilter ref="A1:M89" xr:uid="{FE8A9026-FDB0-4A8E-BB8F-FE98E3487D08}"/>
+  <mergeCells count="61">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="M77:M78"/>
+    <mergeCell ref="M79:M82"/>
+    <mergeCell ref="M84:M89"/>
+    <mergeCell ref="M38:M39"/>
+    <mergeCell ref="M40:M54"/>
+    <mergeCell ref="M55:M64"/>
+    <mergeCell ref="M65:M68"/>
+    <mergeCell ref="M69:M76"/>
+    <mergeCell ref="M4:M8"/>
+    <mergeCell ref="M10:M16"/>
+    <mergeCell ref="M17:M25"/>
+    <mergeCell ref="M26:M29"/>
+    <mergeCell ref="M30:M37"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="A17:A25"/>
+    <mergeCell ref="A10:A16"/>
+    <mergeCell ref="B4:B9"/>
+    <mergeCell ref="C4:C9"/>
+    <mergeCell ref="B10:B16"/>
+    <mergeCell ref="C10:C16"/>
+    <mergeCell ref="B17:B25"/>
+    <mergeCell ref="C17:C25"/>
+    <mergeCell ref="F4:F8"/>
+    <mergeCell ref="F10:F12"/>
+    <mergeCell ref="D4:D8"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="E4:E8"/>
+    <mergeCell ref="E10:E12"/>
+    <mergeCell ref="A65:A68"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="B30:B37"/>
+    <mergeCell ref="C30:C37"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="A30:A37"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A40:A54"/>
+    <mergeCell ref="A55:A64"/>
+    <mergeCell ref="A69:A76"/>
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="A79:A82"/>
+    <mergeCell ref="A84:A89"/>
+    <mergeCell ref="B84:B89"/>
+    <mergeCell ref="C84:C89"/>
+    <mergeCell ref="C77:C78"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="B40:B54"/>
+    <mergeCell ref="C40:C54"/>
+    <mergeCell ref="B55:B64"/>
+    <mergeCell ref="C55:C64"/>
+    <mergeCell ref="B79:B82"/>
+    <mergeCell ref="C79:C82"/>
+    <mergeCell ref="B65:B68"/>
+    <mergeCell ref="C65:C68"/>
+    <mergeCell ref="B69:B76"/>
+    <mergeCell ref="C69:C76"/>
+    <mergeCell ref="B77:B78"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="M2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="M16" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
-    <hyperlink ref="M3" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
-    <hyperlink ref="M9" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
-    <hyperlink ref="M25" r:id="rId5" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
-    <hyperlink ref="M29" r:id="rId6" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
-    <hyperlink ref="M37" r:id="rId7" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
-    <hyperlink ref="M39" r:id="rId8" xr:uid="{00000000-0004-0000-0200-000007000000}"/>
-    <hyperlink ref="M54" r:id="rId9" display="https://www.nuplazidhcp.com/acadia-connect" xr:uid="{00000000-0004-0000-0200-000008000000}"/>
-    <hyperlink ref="M64" r:id="rId10" display="https://www.acadiaconnect.com/healthcare-providers/cost" xr:uid="{00000000-0004-0000-0200-000009000000}"/>
-    <hyperlink ref="M68" r:id="rId11" xr:uid="{00000000-0004-0000-0200-00000A000000}"/>
-    <hyperlink ref="M76" r:id="rId12" display="https://www.acadiaconnect.com/healthcare-providers" xr:uid="{00000000-0004-0000-0200-00000B000000}"/>
-    <hyperlink ref="M78" r:id="rId13" display="https://www.acadiaconnect.com/healthcare-providers/coverage-tools" xr:uid="{00000000-0004-0000-0200-00000C000000}"/>
-    <hyperlink ref="M82" r:id="rId14" display="https://www.acadiaconnect.com/healthcare-providers/enrollment" xr:uid="{00000000-0004-0000-0200-00000D000000}"/>
-    <hyperlink ref="M83" r:id="rId15" xr:uid="{00000000-0004-0000-0200-00000E000000}"/>
-    <hyperlink ref="H37" r:id="rId16" xr:uid="{620A52A3-8244-45FA-89BD-01FAA5923E57}"/>
-    <hyperlink ref="J70" r:id="rId17" xr:uid="{D2D2BF11-7231-4843-A1DD-7998B07BE096}"/>
-    <hyperlink ref="J82" r:id="rId18" display="https://www.nuplazidhcp.com/pdf/letter-of-appeal.pdf" xr:uid="{6A0E9ADB-1E28-40A0-A937-911A852DD595}"/>
+    <hyperlink ref="M17" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="M4" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink ref="M10" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
+    <hyperlink ref="M26" r:id="rId5" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
+    <hyperlink ref="M30" r:id="rId6" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
+    <hyperlink ref="M38" r:id="rId7" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
+    <hyperlink ref="M40" r:id="rId8" xr:uid="{00000000-0004-0000-0200-000007000000}"/>
+    <hyperlink ref="M55" r:id="rId9" display="https://www.nuplazidhcp.com/acadia-connect" xr:uid="{00000000-0004-0000-0200-000008000000}"/>
+    <hyperlink ref="M65" r:id="rId10" display="https://www.acadiaconnect.com/healthcare-providers/cost" xr:uid="{00000000-0004-0000-0200-000009000000}"/>
+    <hyperlink ref="M69" r:id="rId11" xr:uid="{00000000-0004-0000-0200-00000A000000}"/>
+    <hyperlink ref="M77" r:id="rId12" display="https://www.acadiaconnect.com/healthcare-providers" xr:uid="{00000000-0004-0000-0200-00000B000000}"/>
+    <hyperlink ref="M79" r:id="rId13" display="https://www.acadiaconnect.com/healthcare-providers/coverage-tools" xr:uid="{00000000-0004-0000-0200-00000C000000}"/>
+    <hyperlink ref="M83" r:id="rId14" display="https://www.acadiaconnect.com/healthcare-providers/enrollment" xr:uid="{00000000-0004-0000-0200-00000D000000}"/>
+    <hyperlink ref="M84" r:id="rId15" xr:uid="{00000000-0004-0000-0200-00000E000000}"/>
+    <hyperlink ref="H38" r:id="rId16" xr:uid="{620A52A3-8244-45FA-89BD-01FAA5923E57}"/>
+    <hyperlink ref="J71" r:id="rId17" xr:uid="{D2D2BF11-7231-4843-A1DD-7998B07BE096}"/>
+    <hyperlink ref="J83" r:id="rId18" display="https://www.nuplazidhcp.com/pdf/letter-of-appeal.pdf" xr:uid="{6A0E9ADB-1E28-40A0-A937-911A852DD595}"/>
     <hyperlink ref="L2" r:id="rId19" xr:uid="{7512338C-98F7-45BB-8832-70049CDB1959}"/>
-    <hyperlink ref="L3" r:id="rId20" xr:uid="{54680947-6D07-49EE-907C-7608033AF346}"/>
-    <hyperlink ref="L4:L7" r:id="rId21" display="https://www.nuplazidhcp.com/" xr:uid="{4B8352A1-9F66-4F57-96BF-0B9DE1C7CC0B}"/>
-    <hyperlink ref="L9" r:id="rId22" xr:uid="{DCE3F599-4A4B-4AA3-97E5-7463A2CC8B1A}"/>
-    <hyperlink ref="L10:L13" r:id="rId23" display="https://www.nuplazidhcp.com/efficacy-data" xr:uid="{699125D1-E058-4F61-8A8A-B53B3170E7E0}"/>
-    <hyperlink ref="L14:L15" r:id="rId24" display="https://www.nuplazidhcp.com/efficacy-data" xr:uid="{BECCFFFD-E956-48D1-B1FE-2696E6E13A3A}"/>
-    <hyperlink ref="L16" r:id="rId25" xr:uid="{F571F1FF-8B86-4A35-B6AC-458344C4F6CD}"/>
-    <hyperlink ref="L17:L24" r:id="rId26" display="https://www.nuplazidhcp.com/efficacy-data" xr:uid="{078A11EA-7431-4CB5-8ADE-E352F6011A4C}"/>
-    <hyperlink ref="L29" r:id="rId27" xr:uid="{AB34189E-88C0-4E0A-B5EE-DABBB10692CD}"/>
-    <hyperlink ref="L30:L36" r:id="rId28" display="https://www.nuplazidhcp.com/safety-tolerability-data" xr:uid="{FD12167A-B095-42D9-BA68-C86C27A27A62}"/>
-    <hyperlink ref="L38" r:id="rId29" xr:uid="{F73BF06C-6242-4D55-BEA6-D19C8AC354BD}"/>
-    <hyperlink ref="L39" r:id="rId30" xr:uid="{784562BD-368D-4765-AD44-F135C5EBA2F8}"/>
-    <hyperlink ref="L40:L53" r:id="rId31" display="https://www.nuplazidhcp.com/dosing" xr:uid="{A3D97E9E-D7EA-4409-A6A0-208CBE9949EE}"/>
-    <hyperlink ref="L54" r:id="rId32" xr:uid="{B5CEE080-912D-4421-9D68-637FC05CB79C}"/>
-    <hyperlink ref="L55" r:id="rId33" xr:uid="{1254F235-DAC2-40D4-8F5B-37A76E2FB96C}"/>
-    <hyperlink ref="L56" r:id="rId34" xr:uid="{8AB97281-61CB-42CE-B01B-1B7612EB7201}"/>
-    <hyperlink ref="L57" r:id="rId35" xr:uid="{E57D3C9F-85A0-4370-8D72-BB240A64460D}"/>
-    <hyperlink ref="L58" r:id="rId36" xr:uid="{62D3228E-0BF5-497D-AC98-7445F94BFDB4}"/>
-    <hyperlink ref="L59" r:id="rId37" xr:uid="{DC44F380-85F6-4824-BA92-1B36521DD88E}"/>
-    <hyperlink ref="L60:L63" r:id="rId38" display="https://www.nuplazidhcp.com/acadia-connect" xr:uid="{A7E794B2-A024-4FAD-80CE-EFB3BAFEA5BF}"/>
-    <hyperlink ref="L64" r:id="rId39" xr:uid="{729FB565-1D32-46F4-998D-416674379F80}"/>
-    <hyperlink ref="L65" r:id="rId40" xr:uid="{20E7609D-7582-4243-B0AE-3ADD9661D757}"/>
-    <hyperlink ref="L66" r:id="rId41" xr:uid="{6571AF72-1C75-4B05-BDC8-25A07AE8BB64}"/>
-    <hyperlink ref="L67" r:id="rId42" xr:uid="{030FECFE-A468-43A2-88A2-64961C354BD7}"/>
-    <hyperlink ref="L68" r:id="rId43" xr:uid="{DBC3BE2B-3A61-45AF-A75E-21BA98ABA7B9}"/>
-    <hyperlink ref="L69" r:id="rId44" xr:uid="{402F8AF4-756B-4FB1-B16F-7381D1BE6D6D}"/>
-    <hyperlink ref="L71" r:id="rId45" xr:uid="{243F43FA-3828-4D94-90A5-C5FA0A0A174D}"/>
-    <hyperlink ref="L72" r:id="rId46" xr:uid="{D4987F58-B2B5-4A6D-B190-F30D3CFB7B38}"/>
-    <hyperlink ref="L73" r:id="rId47" xr:uid="{11BE5001-2396-49EB-BFF4-09482EF993B5}"/>
-    <hyperlink ref="L74" r:id="rId48" xr:uid="{7DAF30A5-8805-4AFC-9DB3-CD90DA566FF4}"/>
-    <hyperlink ref="L76" r:id="rId49" xr:uid="{E7F817F0-D7BE-49AF-AC72-A50C39380354}"/>
-    <hyperlink ref="L77" r:id="rId50" xr:uid="{D76AA7D0-38FF-42DF-89E7-2FDB8A8258F6}"/>
-    <hyperlink ref="L78:L81" r:id="rId51" display="https://www.nuplazidhcp.com/acadia-connect" xr:uid="{0847A0B7-D8EF-4252-9A04-B25DD575C939}"/>
-    <hyperlink ref="L83" r:id="rId52" xr:uid="{AE628026-B0A3-4526-A641-3C3D8B380D81}"/>
-    <hyperlink ref="L84" r:id="rId53" xr:uid="{35D4A6C8-86AB-43EC-A1CE-4328DEBD4548}"/>
-    <hyperlink ref="L85:L88" r:id="rId54" display="https://www.acadiaconnect.com/healthcare-providers" xr:uid="{D5C86836-0DDC-4BDA-912F-C5D29BEE0331}"/>
-    <hyperlink ref="J84" r:id="rId55" xr:uid="{6E227707-23AE-47FE-9927-CABF7B00812D}"/>
+    <hyperlink ref="L4" r:id="rId20" xr:uid="{54680947-6D07-49EE-907C-7608033AF346}"/>
+    <hyperlink ref="L5:L8" r:id="rId21" display="https://www.nuplazidhcp.com/" xr:uid="{4B8352A1-9F66-4F57-96BF-0B9DE1C7CC0B}"/>
+    <hyperlink ref="L10" r:id="rId22" xr:uid="{DCE3F599-4A4B-4AA3-97E5-7463A2CC8B1A}"/>
+    <hyperlink ref="L11:L14" r:id="rId23" display="https://www.nuplazidhcp.com/efficacy-data" xr:uid="{699125D1-E058-4F61-8A8A-B53B3170E7E0}"/>
+    <hyperlink ref="L15:L16" r:id="rId24" display="https://www.nuplazidhcp.com/efficacy-data" xr:uid="{BECCFFFD-E956-48D1-B1FE-2696E6E13A3A}"/>
+    <hyperlink ref="L17" r:id="rId25" xr:uid="{F571F1FF-8B86-4A35-B6AC-458344C4F6CD}"/>
+    <hyperlink ref="L18:L25" r:id="rId26" display="https://www.nuplazidhcp.com/efficacy-data" xr:uid="{078A11EA-7431-4CB5-8ADE-E352F6011A4C}"/>
+    <hyperlink ref="L30" r:id="rId27" xr:uid="{AB34189E-88C0-4E0A-B5EE-DABBB10692CD}"/>
+    <hyperlink ref="L31:L37" r:id="rId28" display="https://www.nuplazidhcp.com/safety-tolerability-data" xr:uid="{FD12167A-B095-42D9-BA68-C86C27A27A62}"/>
+    <hyperlink ref="L39" r:id="rId29" xr:uid="{F73BF06C-6242-4D55-BEA6-D19C8AC354BD}"/>
+    <hyperlink ref="L40" r:id="rId30" xr:uid="{784562BD-368D-4765-AD44-F135C5EBA2F8}"/>
+    <hyperlink ref="L41:L54" r:id="rId31" display="https://www.nuplazidhcp.com/dosing" xr:uid="{A3D97E9E-D7EA-4409-A6A0-208CBE9949EE}"/>
+    <hyperlink ref="L55" r:id="rId32" xr:uid="{B5CEE080-912D-4421-9D68-637FC05CB79C}"/>
+    <hyperlink ref="L56" r:id="rId33" xr:uid="{1254F235-DAC2-40D4-8F5B-37A76E2FB96C}"/>
+    <hyperlink ref="L57" r:id="rId34" xr:uid="{8AB97281-61CB-42CE-B01B-1B7612EB7201}"/>
+    <hyperlink ref="L58" r:id="rId35" xr:uid="{E57D3C9F-85A0-4370-8D72-BB240A64460D}"/>
+    <hyperlink ref="L59" r:id="rId36" xr:uid="{62D3228E-0BF5-497D-AC98-7445F94BFDB4}"/>
+    <hyperlink ref="L60" r:id="rId37" xr:uid="{DC44F380-85F6-4824-BA92-1B36521DD88E}"/>
+    <hyperlink ref="L61:L64" r:id="rId38" display="https://www.nuplazidhcp.com/acadia-connect" xr:uid="{A7E794B2-A024-4FAD-80CE-EFB3BAFEA5BF}"/>
+    <hyperlink ref="L65" r:id="rId39" xr:uid="{729FB565-1D32-46F4-998D-416674379F80}"/>
+    <hyperlink ref="L66" r:id="rId40" xr:uid="{20E7609D-7582-4243-B0AE-3ADD9661D757}"/>
+    <hyperlink ref="L67" r:id="rId41" xr:uid="{6571AF72-1C75-4B05-BDC8-25A07AE8BB64}"/>
+    <hyperlink ref="L68" r:id="rId42" xr:uid="{030FECFE-A468-43A2-88A2-64961C354BD7}"/>
+    <hyperlink ref="L69" r:id="rId43" xr:uid="{DBC3BE2B-3A61-45AF-A75E-21BA98ABA7B9}"/>
+    <hyperlink ref="L70" r:id="rId44" xr:uid="{402F8AF4-756B-4FB1-B16F-7381D1BE6D6D}"/>
+    <hyperlink ref="L72" r:id="rId45" xr:uid="{243F43FA-3828-4D94-90A5-C5FA0A0A174D}"/>
+    <hyperlink ref="L73" r:id="rId46" xr:uid="{D4987F58-B2B5-4A6D-B190-F30D3CFB7B38}"/>
+    <hyperlink ref="L74" r:id="rId47" xr:uid="{11BE5001-2396-49EB-BFF4-09482EF993B5}"/>
+    <hyperlink ref="L75" r:id="rId48" xr:uid="{7DAF30A5-8805-4AFC-9DB3-CD90DA566FF4}"/>
+    <hyperlink ref="L77" r:id="rId49" xr:uid="{E7F817F0-D7BE-49AF-AC72-A50C39380354}"/>
+    <hyperlink ref="L78" r:id="rId50" xr:uid="{D76AA7D0-38FF-42DF-89E7-2FDB8A8258F6}"/>
+    <hyperlink ref="L79:L82" r:id="rId51" display="https://www.nuplazidhcp.com/acadia-connect" xr:uid="{0847A0B7-D8EF-4252-9A04-B25DD575C939}"/>
+    <hyperlink ref="L84" r:id="rId52" xr:uid="{AE628026-B0A3-4526-A641-3C3D8B380D81}"/>
+    <hyperlink ref="L85" r:id="rId53" xr:uid="{35D4A6C8-86AB-43EC-A1CE-4328DEBD4548}"/>
+    <hyperlink ref="L86:L89" r:id="rId54" display="https://www.acadiaconnect.com/healthcare-providers" xr:uid="{D5C86836-0DDC-4BDA-912F-C5D29BEE0331}"/>
+    <hyperlink ref="J85" r:id="rId55" xr:uid="{6E227707-23AE-47FE-9927-CABF7B00812D}"/>
+    <hyperlink ref="J3" r:id="rId56" location="section_4" xr:uid="{D7C274DA-B3DB-4C00-8FE2-F39E7E8A134D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId56"/>
+  <legacyDrawing r:id="rId57"/>
 </worksheet>
 </file>
--- a/Corpus/MLR_Corpus.xlsx
+++ b/Corpus/MLR_Corpus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Siva\Projects\Acadia\Chatbot_Git\Masori-Chatbot-Dev\Corpus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69D858A4-A2CA-42CE-945E-80301D307E7F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B2D9863-7E14-4E09-BB57-2D273B053F2B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1783,9 +1783,6 @@
 For more information click below link to check type of Hallucinations and Delusions</t>
   </si>
   <si>
-    <t>Click here</t>
-  </si>
-  <si>
     <t>Tell me about Parkinson's Disease Psychosis
 Tell me about PDP
 What is Parkinson's Disease Psychosis
@@ -1800,6 +1797,9 @@
 Hallucinations,
 Delusions,
 Delusion</t>
+  </si>
+  <si>
+    <t>Types of Hallucination and Delusions</t>
   </si>
 </sst>
 </file>
@@ -4732,8 +4732,8 @@
   <dimension ref="A1:M98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B2" sqref="B2:B3"/>
+      <pane xSplit="1" topLeftCell="G1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4794,10 +4794,10 @@
         <v>2</v>
       </c>
       <c r="B2" s="85" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C2" s="85" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D2" s="53" t="s">
         <v>333</v>
@@ -4834,7 +4834,7 @@
       <c r="G3" s="75"/>
       <c r="H3" s="75"/>
       <c r="I3" s="75" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="J3" s="91" t="s">
         <v>374</v>

--- a/Corpus/MLR_Corpus.xlsx
+++ b/Corpus/MLR_Corpus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Siva\Projects\Acadia\Chatbot_Git\Masori-Chatbot-Dev\Corpus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B2D9863-7E14-4E09-BB57-2D273B053F2B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B48C25F-BE4A-4B43-9DF6-FF0E8E196BD1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1779,10 +1779,6 @@
     <t>https://nuplazidhcp-masori.azurewebsites.net/about-pd-psychosis#section_4</t>
   </si>
   <si>
-    <t>The hallucinations and delusions associated with PD psychosis can be serious and can progress. 
-For more information click below link to check type of Hallucinations and Delusions</t>
-  </si>
-  <si>
     <t>Tell me about Parkinson's Disease Psychosis
 Tell me about PDP
 What is Parkinson's Disease Psychosis
@@ -1800,6 +1796,10 @@
   </si>
   <si>
     <t>Types of Hallucination and Delusions</t>
+  </si>
+  <si>
+    <t>The hallucinations and delusions associated with PD psychosis can be serious and can progress. 
+For more information click below link</t>
   </si>
 </sst>
 </file>
@@ -4732,8 +4732,8 @@
   <dimension ref="A1:M98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="G1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I3" sqref="I3"/>
+      <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4794,10 +4794,10 @@
         <v>2</v>
       </c>
       <c r="B2" s="85" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C2" s="85" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D2" s="53" t="s">
         <v>333</v>
@@ -4829,12 +4829,12 @@
       </c>
       <c r="E3" s="76"/>
       <c r="F3" s="90" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="G3" s="75"/>
       <c r="H3" s="75"/>
       <c r="I3" s="75" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="J3" s="91" t="s">
         <v>374</v>

--- a/Corpus/MLR_Corpus.xlsx
+++ b/Corpus/MLR_Corpus.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Siva\Projects\Acadia\Chatbot_Git\Masori-Chatbot-Dev\Corpus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B48C25F-BE4A-4B43-9DF6-FF0E8E196BD1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2EE4846-A08C-47E6-B1FA-895FC59D4CB1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuplazid Consumer" sheetId="3" r:id="rId1"/>
@@ -425,7 +425,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="380">
   <si>
     <t>Keywords</t>
   </si>
@@ -1622,9 +1622,6 @@
     <t>symptoms of Parkinson disease</t>
   </si>
   <si>
-    <t>NUPLAZID Parkinson</t>
-  </si>
-  <si>
     <t>cause of Parkinson disease</t>
   </si>
   <si>
@@ -1708,11 +1705,6 @@
     <t>Watch personal stories about people with Parkinson’s disease (PD)–related hallucinations and delusions and their caregivers. Even though their experiences may not be the same as yours, their stories may give you a better understanding of these symptoms.</t>
   </si>
   <si>
-    <t>The recommended dose of NUPLAZID is one 34 mg capsule, once daily by mouth, with or without food, taken around the same time every day, or as prescribed by your healthcare provider.
-NUPLAZID may begin to reduce hallucinations and delusions as soon as 4 weeks, but it may take up to 6 weeks to feel the full effect. You should speak with your healthcare provider before you stop taking NUPLAZID.
-Acadia Connect™ can coordinate with you and the pharmacy filling the prescription to help get the medicine delivered wherever is most convenient to you.</t>
-  </si>
-  <si>
     <t>https://www.acadiaconnect.com/patient-caregivers/prescriptions</t>
   </si>
   <si>
@@ -1726,18 +1718,12 @@
   </si>
   <si>
     <t>https://www.nuplazid.com/pdf/nuplazid-prescribing-information.pdf</t>
-  </si>
-  <si>
-    <t>There are options available that may help you cover the cost of NUPLAZID. Visit Acadia Connect to learn more.</t>
   </si>
   <si>
     <t>When it comes to paying for your prescription, you may have questions about your insurance coverage. With this simple tool, you can check your coverage by answering just three questions.
 CALL YOUR CARE COORDINATOR WITH QUESTIONS
 Monday through Friday, 8:30 am to 8:30 pm ET
 1-844-737-2223</t>
-  </si>
-  <si>
-    <t>More Information</t>
   </si>
   <si>
     <t>https://www.nuplazid.com/pdf/pd-related-hallucinations-delusions-fact-sheet.pdf
@@ -1800,6 +1786,24 @@
   <si>
     <t>The hallucinations and delusions associated with PD psychosis can be serious and can progress. 
 For more information click below link</t>
+  </si>
+  <si>
+    <t>NUPLAZID Clinical Trial Results</t>
+  </si>
+  <si>
+    <t>Coverage Tool</t>
+  </si>
+  <si>
+    <t>IMPORTANT SAFETY INFORMATION and INDICATION</t>
+  </si>
+  <si>
+    <t>The recommended dose of NUPLAZID is one 34 mg capsule, once daily by mouth, with or without food, taken around the same time every day, or as prescribed by your healthcare provider.
+NUPLAZID may begin to reduce hallucinations and delusions as soon as 4 weeks, but it may take up to 6 weeks to feel the full effect. You should speak with your healthcare provider before you stop taking NUPLAZID.
+Acadia Connect™ can coordinate with you and the pharmacy filling the prescription to help get the medicine delivered wherever is most convenient to you.
+Please check the safety information detail in below link,</t>
+  </si>
+  <si>
+    <t>http://nuplazid-masori.azurewebsites.net/safety-information#isi</t>
   </si>
 </sst>
 </file>
@@ -2489,9 +2493,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2637,8 +2641,8 @@
       <c r="D5" s="57" t="s">
         <v>173</v>
       </c>
-      <c r="E5" s="71" t="s">
-        <v>335</v>
+      <c r="E5" s="75" t="s">
+        <v>375</v>
       </c>
       <c r="F5" s="32" t="s">
         <v>200</v>
@@ -2660,7 +2664,7 @@
       <c r="B6" s="78"/>
       <c r="C6" s="78"/>
       <c r="D6" s="57" t="s">
-        <v>335</v>
+        <v>375</v>
       </c>
       <c r="E6" s="71" t="s">
         <v>236</v>
@@ -2695,7 +2699,7 @@
         <v>307</v>
       </c>
       <c r="F7" s="61" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G7" s="65"/>
       <c r="H7" s="65"/>
@@ -2703,7 +2707,7 @@
       <c r="J7" s="65"/>
       <c r="K7" s="65"/>
       <c r="L7" s="66" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="M7" s="81" t="s">
         <v>313</v>
@@ -2741,15 +2745,15 @@
       </c>
       <c r="E9" s="71"/>
       <c r="F9" s="61" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G9" s="65"/>
       <c r="H9" s="65"/>
       <c r="I9" s="65" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="J9" s="66" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="K9" s="65"/>
       <c r="L9" s="66" t="s">
@@ -2785,7 +2789,7 @@
       <c r="D11" s="61"/>
       <c r="E11" s="71"/>
       <c r="F11" s="61" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G11" s="65"/>
       <c r="H11" s="66" t="s">
@@ -2857,10 +2861,10 @@
         <v>301</v>
       </c>
       <c r="D15" s="57" t="s">
+        <v>335</v>
+      </c>
+      <c r="E15" s="71" t="s">
         <v>336</v>
-      </c>
-      <c r="E15" s="71" t="s">
-        <v>337</v>
       </c>
       <c r="F15" s="32" t="s">
         <v>202</v>
@@ -2882,10 +2886,10 @@
       <c r="B16" s="78"/>
       <c r="C16" s="78"/>
       <c r="D16" s="57" t="s">
+        <v>336</v>
+      </c>
+      <c r="E16" s="71" t="s">
         <v>337</v>
-      </c>
-      <c r="E16" s="71" t="s">
-        <v>338</v>
       </c>
       <c r="F16" s="34" t="s">
         <v>175</v>
@@ -2905,7 +2909,7 @@
       <c r="B17" s="78"/>
       <c r="C17" s="78"/>
       <c r="D17" s="57" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E17" s="71" t="s">
         <v>234</v>
@@ -2950,10 +2954,10 @@
         <v>242</v>
       </c>
       <c r="D19" s="57" t="s">
-        <v>339</v>
-      </c>
-      <c r="E19" s="71" t="s">
-        <v>178</v>
+        <v>338</v>
+      </c>
+      <c r="E19" s="75" t="s">
+        <v>177</v>
       </c>
       <c r="F19" s="35" t="s">
         <v>204</v>
@@ -2975,10 +2979,10 @@
       <c r="B20" s="77"/>
       <c r="C20" s="78"/>
       <c r="D20" s="57" t="s">
-        <v>340</v>
-      </c>
-      <c r="E20" s="71" t="s">
-        <v>178</v>
+        <v>339</v>
+      </c>
+      <c r="E20" s="75" t="s">
+        <v>177</v>
       </c>
       <c r="F20" s="41" t="s">
         <v>205</v>
@@ -3000,6 +3004,9 @@
       <c r="D21" s="57" t="s">
         <v>177</v>
       </c>
+      <c r="E21" s="71" t="s">
+        <v>172</v>
+      </c>
       <c r="F21" s="41" t="s">
         <v>206</v>
       </c>
@@ -3020,9 +3027,6 @@
       <c r="D22" s="57" t="s">
         <v>178</v>
       </c>
-      <c r="E22" s="71" t="s">
-        <v>172</v>
-      </c>
       <c r="F22" s="32" t="s">
         <v>207</v>
       </c>
@@ -3064,7 +3068,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A24" s="78"/>
       <c r="B24" s="77"/>
       <c r="C24" s="78"/>
@@ -3075,15 +3079,19 @@
         <v>303</v>
       </c>
       <c r="F24" s="41" t="s">
-        <v>355</v>
+        <v>378</v>
       </c>
       <c r="G24" s="65"/>
       <c r="H24" s="65"/>
-      <c r="I24" s="65"/>
-      <c r="J24" s="65"/>
+      <c r="I24" s="65" t="s">
+        <v>377</v>
+      </c>
+      <c r="J24" s="66" t="s">
+        <v>379</v>
+      </c>
       <c r="K24" s="73"/>
       <c r="L24" s="66" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="M24" s="82"/>
     </row>
@@ -3098,12 +3106,12 @@
         <v>234</v>
       </c>
       <c r="F25" s="32" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="G25" s="65"/>
       <c r="H25" s="65"/>
       <c r="I25" s="65" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="J25" s="66" t="s">
         <v>276</v>
@@ -3147,7 +3155,7 @@
         <v>303</v>
       </c>
       <c r="F27" s="32" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="G27" s="65"/>
       <c r="H27" s="65"/>
@@ -3155,7 +3163,7 @@
         <v>84</v>
       </c>
       <c r="J27" s="66" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="K27" s="65"/>
       <c r="L27" s="66" t="s">
@@ -3231,7 +3239,7 @@
         <v>247</v>
       </c>
       <c r="D31" s="43" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="E31" s="71" t="s">
         <v>192</v>
@@ -3274,7 +3282,7 @@
       <c r="B33" s="78"/>
       <c r="C33" s="77"/>
       <c r="D33" s="43" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F33" s="43" t="s">
         <v>230</v>
@@ -3339,23 +3347,11 @@
       <c r="A36" s="78"/>
       <c r="B36" s="78"/>
       <c r="C36" s="77"/>
-      <c r="D36" s="57" t="s">
-        <v>132</v>
-      </c>
-      <c r="E36" s="71" t="s">
-        <v>189</v>
-      </c>
-      <c r="F36" s="43" t="s">
-        <v>361</v>
-      </c>
+      <c r="F36" s="43"/>
       <c r="G36" s="43"/>
       <c r="H36" s="43"/>
-      <c r="I36" s="73" t="s">
-        <v>358</v>
-      </c>
-      <c r="J36" s="74" t="s">
-        <v>194</v>
-      </c>
+      <c r="I36" s="73"/>
+      <c r="J36" s="74"/>
       <c r="K36" s="43"/>
       <c r="L36" s="66" t="s">
         <v>274</v>
@@ -3383,8 +3379,12 @@
       </c>
       <c r="G37" s="65"/>
       <c r="H37" s="65"/>
-      <c r="I37" s="65"/>
-      <c r="J37" s="65"/>
+      <c r="I37" s="75" t="s">
+        <v>356</v>
+      </c>
+      <c r="J37" s="74" t="s">
+        <v>194</v>
+      </c>
       <c r="K37" s="65"/>
       <c r="L37" s="66" t="s">
         <v>275</v>
@@ -3404,12 +3404,12 @@
         <v>191</v>
       </c>
       <c r="F38" s="32" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="G38" s="65"/>
       <c r="H38" s="65"/>
       <c r="I38" s="65" t="s">
-        <v>363</v>
+        <v>376</v>
       </c>
       <c r="J38" s="66" t="s">
         <v>275</v>
@@ -3484,15 +3484,15 @@
         <v>189</v>
       </c>
       <c r="F42" s="32" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="G42" s="65"/>
       <c r="H42" s="65"/>
       <c r="I42" s="65" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="J42" s="65" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="K42" s="65"/>
       <c r="L42" s="66" t="s">
@@ -3511,7 +3511,7 @@
         <v>189</v>
       </c>
       <c r="F43" s="41" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="G43" s="65"/>
       <c r="H43" s="65"/>
@@ -3519,7 +3519,7 @@
       <c r="J43" s="65"/>
       <c r="K43" s="65"/>
       <c r="L43" s="66" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="M43" s="82"/>
     </row>
@@ -3555,7 +3555,7 @@
         <v>208</v>
       </c>
       <c r="I45" s="44" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="J45" s="47" t="s">
         <v>212</v>
@@ -3580,7 +3580,7 @@
       <c r="F47" s="40"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M11" xr:uid="{76ECA6C0-BC80-4DB9-9512-79EF84769A51}"/>
+  <autoFilter ref="A1:M11" xr:uid="{AF9DA58F-D16B-4AC0-BF50-5DB9D427BBB0}"/>
   <mergeCells count="36">
     <mergeCell ref="M27:M29"/>
     <mergeCell ref="C27:C29"/>
@@ -3670,15 +3670,16 @@
     <hyperlink ref="H11" r:id="rId48" xr:uid="{99732C09-FF1A-4F23-A20A-36D79579CECB}"/>
     <hyperlink ref="J25" r:id="rId49" xr:uid="{A99F0323-0C4D-44CA-9106-FDC6B4963B84}"/>
     <hyperlink ref="J27" r:id="rId50" xr:uid="{A989EB85-40E9-492E-BB74-5DDDBB25F0A2}"/>
-    <hyperlink ref="J36" r:id="rId51" xr:uid="{C7839013-3B2D-48BB-BA73-B489A431AA76}"/>
-    <hyperlink ref="J38" r:id="rId52" xr:uid="{83C6FC6F-21F5-414F-B067-89E122F910EA}"/>
-    <hyperlink ref="F39" r:id="rId53" xr:uid="{20EC18BB-269E-40F3-A1A3-3208B6D8D202}"/>
-    <hyperlink ref="L43" r:id="rId54" location="sign-up-stay-informed" xr:uid="{52D7B43E-E1C5-452E-800C-55136E47BFD5}"/>
-    <hyperlink ref="J45" r:id="rId55" xr:uid="{48157E4F-981F-4BB1-B37C-E75C17E5971B}"/>
+    <hyperlink ref="J38" r:id="rId51" xr:uid="{83C6FC6F-21F5-414F-B067-89E122F910EA}"/>
+    <hyperlink ref="L43" r:id="rId52" location="sign-up-stay-informed" xr:uid="{52D7B43E-E1C5-452E-800C-55136E47BFD5}"/>
+    <hyperlink ref="J45" r:id="rId53" xr:uid="{48157E4F-981F-4BB1-B37C-E75C17E5971B}"/>
+    <hyperlink ref="J37" r:id="rId54" xr:uid="{1921296C-A925-4D5C-BCA9-18283C908491}"/>
+    <hyperlink ref="J24" r:id="rId55" location="isi" xr:uid="{E9690C20-702A-4696-ABD4-A182611AE913}"/>
+    <hyperlink ref="F39" r:id="rId56" xr:uid="{20EC18BB-269E-40F3-A1A3-3208B6D8D202}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId56"/>
-  <legacyDrawing r:id="rId57"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId57"/>
+  <legacyDrawing r:id="rId58"/>
 </worksheet>
 </file>
 
@@ -4731,15 +4732,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F3" sqref="F3"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20.44140625" customWidth="1"/>
-    <col min="2" max="2" width="72.88671875" style="54" customWidth="1"/>
+    <col min="2" max="2" width="47.33203125" style="54" customWidth="1"/>
     <col min="3" max="3" width="44" style="54" customWidth="1"/>
     <col min="4" max="4" width="38.33203125" customWidth="1"/>
     <col min="5" max="5" width="21.6640625" style="44" customWidth="1"/>
@@ -4794,10 +4795,10 @@
         <v>2</v>
       </c>
       <c r="B2" s="85" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="C2" s="85" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="D2" s="53" t="s">
         <v>333</v>
@@ -4825,19 +4826,19 @@
       <c r="B3" s="94"/>
       <c r="C3" s="94"/>
       <c r="D3" s="76" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="E3" s="76"/>
       <c r="F3" s="90" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="G3" s="75"/>
       <c r="H3" s="75"/>
       <c r="I3" s="75" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="J3" s="91" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="K3" s="75"/>
       <c r="L3" s="91"/>
@@ -5242,7 +5243,7 @@
         <v>214</v>
       </c>
       <c r="F22" s="50" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G22" s="65"/>
       <c r="H22" s="65"/>
@@ -5351,7 +5352,7 @@
         <v>218</v>
       </c>
       <c r="F27" s="73" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G27" s="43"/>
       <c r="H27" s="43"/>
@@ -5463,7 +5464,7 @@
         <v>107</v>
       </c>
       <c r="F32" s="50" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G32" s="65"/>
       <c r="H32" s="65"/>
@@ -5689,7 +5690,7 @@
       </c>
       <c r="E43" s="67"/>
       <c r="F43" s="50" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="G43" s="65"/>
       <c r="H43" s="65"/>
@@ -5936,7 +5937,7 @@
         <v>153</v>
       </c>
       <c r="F58" s="50" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="I58" s="65"/>
       <c r="J58" s="47"/>
@@ -6045,7 +6046,7 @@
         <v>153</v>
       </c>
       <c r="F65" s="73" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I65" s="65"/>
       <c r="J65" s="47"/>
@@ -6158,7 +6159,7 @@
         <v>153</v>
       </c>
       <c r="F71" s="50" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="I71" s="65" t="s">
         <v>325</v>
@@ -6410,13 +6411,13 @@
       </c>
       <c r="E85" s="67"/>
       <c r="F85" s="50" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="I85" s="65" t="s">
         <v>189</v>
       </c>
       <c r="J85" s="66" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="L85" s="66" t="s">
         <v>285</v>

--- a/Corpus/MLR_Corpus.xlsx
+++ b/Corpus/MLR_Corpus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Siva\Projects\Acadia\Chatbot_Git\Masori-Chatbot-Dev\Corpus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2EE4846-A08C-47E6-B1FA-895FC59D4CB1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ABA4945-2426-4D7D-A144-D6A1EA544BA5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2493,9 +2493,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3327,8 +3327,8 @@
       <c r="D35" s="43" t="s">
         <v>236</v>
       </c>
-      <c r="E35" s="71" t="s">
-        <v>132</v>
+      <c r="E35" s="75" t="s">
+        <v>187</v>
       </c>
       <c r="F35" s="43" t="s">
         <v>232</v>

--- a/Corpus/MLR_Corpus.xlsx
+++ b/Corpus/MLR_Corpus.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Siva\Projects\Acadia\Chatbot_Git\Masori-Chatbot-Dev\Corpus\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workouts\Projects\Acadia\Masori-Chatbot-Dev-main\Masori-Chatbot-Dev-main\Corpus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ABA4945-2426-4D7D-A144-D6A1EA544BA5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5039B834-4172-47CC-BD80-199C6FF571EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuplazid Consumer" sheetId="3" r:id="rId1"/>
@@ -47,15 +47,7 @@
   <commentList>
     <comment ref="A2" authorId="0" shapeId="0" xr:uid="{B4468C53-9464-4F63-81D1-C992873261B1}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
+        <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Are we missing Personal Stories and Talking to Healthcare Provider?
@@ -65,162 +57,80 @@
 - Speaking to a doctor 
 - or Speaking to a healthcare provider
 stuff like that. The site content will offer some better and more creative suggestions. I also understand that these aren't terms that people generally search for in SEM but if the goal is to help patients/caregivers better naviagate the site, those two pages usually have high engagement.</t>
-        </r>
       </text>
     </comment>
     <comment ref="C2" authorId="1" shapeId="0" xr:uid="{DD2E8F32-48A3-491E-956A-AC81F7E38ADB}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
+        <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     What are delusions? What are hallucinations?
 Reply:
     I know more info is in the response and further down in the H&amp;D section but I think before people ask the second question, they may want to know what hallucinations and delusions are first as most people cannot define them</t>
-        </r>
       </text>
     </comment>
     <comment ref="F2" authorId="2" shapeId="0" xr:uid="{BB84B340-AF06-4E0C-AE4F-B69F85FAF690}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
+        <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Provide link to information on site in response</t>
-        </r>
       </text>
     </comment>
     <comment ref="F3" authorId="3" shapeId="0" xr:uid="{C3DFF50C-EF22-47C6-868C-F20870D79A79}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
+        <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Provide link to information on site in response</t>
-        </r>
       </text>
     </comment>
     <comment ref="F4" authorId="4" shapeId="0" xr:uid="{2B46EE82-DD41-45F9-B431-51F301EDCADE}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
+        <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Provide link to information on site in response</t>
-        </r>
       </text>
     </comment>
     <comment ref="B5" authorId="5" shapeId="0" xr:uid="{190DBEEA-93D9-4BFD-AD5C-1FA3C401F8CC}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
+        <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     MLR will make you remove this as we are only indicated in the US.</t>
-        </r>
       </text>
     </comment>
     <comment ref="C15" authorId="6" shapeId="0" xr:uid="{6174D911-122C-4454-8324-AF7C643C4042}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
+        <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Where can I learn more? Something like that. We need to have something tied to email registrations.</t>
-        </r>
       </text>
     </comment>
     <comment ref="E24" authorId="7" shapeId="0" xr:uid="{3CD3324B-6AA3-457C-8A88-32330C9035AE}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
+        <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     I recommend to have "Acadia Connect and delete any mention of Nuplazid Connect.</t>
-        </r>
       </text>
     </comment>
     <comment ref="D25" authorId="8" shapeId="0" xr:uid="{C6BC059E-DDFE-4471-8AF3-B08E62FA3401}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
+        <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     I recommend to have "Acadia Connect and delete any mention of Nuplazid Connect.</t>
-        </r>
       </text>
     </comment>
     <comment ref="E27" authorId="9" shapeId="0" xr:uid="{97A1DE64-2A59-4152-9781-91195D1F313C}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
+        <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     I recommend to have "Acadia Connect and delete any mention of Nuplazid Connect.</t>
-        </r>
       </text>
     </comment>
   </commentList>
@@ -244,180 +154,90 @@
   <commentList>
     <comment ref="B4" authorId="0" shapeId="0" xr:uid="{1F2FC693-4862-4100-B58E-7C41F18A8E99}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
+        <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Nuplazid indication
 patient resources</t>
-        </r>
       </text>
     </comment>
     <comment ref="C10" authorId="1" shapeId="0" xr:uid="{99EA3807-EB10-4FD7-896A-99B320C5B2E2}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
+        <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     MLR may be concerned with the KOL question. The question posed back will be, "what response do they give if they type that in, given that we don't have any KOL opinions on site." I think this may be changing in the next few months. I'm not sure. Please check with Jake.
 Reply:
     I would delete that KOL question as we don't have any information on the site</t>
-        </r>
       </text>
     </comment>
     <comment ref="F10" authorId="2" shapeId="0" xr:uid="{E98F849F-AA15-47D7-8E3E-AF2E28183101}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
+        <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Instead of just "only" please revise to "first and only" we say this on the HCP side of things but not on the consumer side.</t>
-        </r>
       </text>
     </comment>
     <comment ref="B17" authorId="3" shapeId="0" xr:uid="{B3A64F05-BDA5-47FC-9B9A-CF3ECAC976B8}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
+        <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Nuplazid primary endpoint
 Nuplazid secondary endpoint</t>
-        </r>
       </text>
     </comment>
     <comment ref="C26" authorId="4" shapeId="0" xr:uid="{DE93CD08-8D71-480E-AF2B-94A4EDC1EACB}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
+        <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     For consistency purposes, do we want to revise to "How are delusions measured?"</t>
-        </r>
       </text>
     </comment>
     <comment ref="B30" authorId="5" shapeId="0" xr:uid="{A0649205-201E-40CA-A513-834EE1E2B9FE}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
+        <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     long-term safety
 drug interactions
 adverse reaction/event</t>
-        </r>
       </text>
     </comment>
     <comment ref="B40" authorId="6" shapeId="0" xr:uid="{490A6B21-E3F0-4BE3-84FA-875C273D4644}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
+        <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     sprinkle
 dosing guide</t>
-        </r>
       </text>
     </comment>
     <comment ref="B65" authorId="7" shapeId="0" xr:uid="{A0B2C671-E543-4112-8919-FE70430826C8}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
+        <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     forms</t>
-        </r>
       </text>
     </comment>
     <comment ref="C65" authorId="8" shapeId="0" xr:uid="{D9094AEA-42EA-4E64-8A3F-367796AF3240}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
+        <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Remove Acadia?</t>
-        </r>
       </text>
     </comment>
     <comment ref="B69" authorId="9" shapeId="0" xr:uid="{5E44F182-AC11-45F7-AC37-DB904E84DBEC}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
+        <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     coverage
 samples</t>
-        </r>
       </text>
     </comment>
   </commentList>
@@ -425,7 +245,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="381">
   <si>
     <t>Keywords</t>
   </si>
@@ -1149,12 +969,6 @@
   </si>
   <si>
     <t>Question</t>
-  </si>
-  <si>
-    <t>The cause of PD is unknown but certain factors, such as genetics and environment, are believed to play a role.
-Currently, there is no clear understanding of the exact cause of hallucinations and delusions associated with PD. However, certain brain chemicals and receptors (such as dopamine and serotonin) are believed to play a role. In general, the condition is thought to be caused by the following:
-Side effect of dopamine therapy
-The natural progression of Parkinson's</t>
   </si>
   <si>
     <t>PD–related hallucinations and delusions typically occur in the later stages of PD, 10 or more years after initial diagnosis.</t>
@@ -1444,11 +1258,6 @@
 Facts about treatment
 Is there clinical data supporting NUPLAZID?
 </t>
-  </si>
-  <si>
-    <t>NUPLAZID patient information, NUPLAZID approval, FDA NUPLAZID, NUPLAZID pharmacology, NUPLAZID safety, NUPLAZID efficacy, Efficacy Data, Efficacy Data NUPLAZID,   Nuplazid primary endpoint
-Nuplazid secondary endpoint
-Efficacy Nuplazid</t>
   </si>
   <si>
     <t xml:space="preserve">Tell me more about SAPS-PD
@@ -1804,6 +1613,19 @@
   </si>
   <si>
     <t>http://nuplazid-masori.azurewebsites.net/safety-information#isi</t>
+  </si>
+  <si>
+    <t>The cause of PD is unknown but certain factors, such as genetics and environment, are believed to play a role.
+Currently, there is no clear understanding of the exact cause of hallucinations and delusions associated with PD. However, certain brain chemicals and receptors (such as dopamine and serotonin) are believed to play a role. In general, the condition is thought to be caused by the following:</t>
+  </si>
+  <si>
+    <t>Side effect of dopamine therapy
+The natural progression of Parkinson's</t>
+  </si>
+  <si>
+    <t>NUPLAZID patient information, NUPLAZID FDA approved, approved FDA, NUPLAZID approved, FDA approved, FDA approve, NUPLAZID approval, FDA NUPLAZID, NUPLAZID pharmacology, NUPLAZID safety, NUPLAZID efficacy, Efficacy Data, Efficacy Data NUPLAZID,   Nuplazid primary endpoint
+Nuplazid secondary endpoint
+Efficacy Nuplazid</t>
   </si>
 </sst>
 </file>
@@ -2063,29 +1885,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2094,26 +1922,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2447,42 +2269,42 @@
 
 <file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="B3" dT="2021-02-02T19:17:25.58" personId="{1295C466-BD7C-441E-8FE1-FBB710452072}" id="{1F2FC693-4862-4100-B58E-7C41F18A8E99}">
+  <threadedComment ref="B4" dT="2021-02-02T19:17:25.58" personId="{1295C466-BD7C-441E-8FE1-FBB710452072}" id="{1F2FC693-4862-4100-B58E-7C41F18A8E99}">
     <text>Nuplazid indication
 patient resources</text>
   </threadedComment>
-  <threadedComment ref="C9" dT="2021-02-02T19:22:43.64" personId="{1295C466-BD7C-441E-8FE1-FBB710452072}" id="{99EA3807-EB10-4FD7-896A-99B320C5B2E2}">
+  <threadedComment ref="C10" dT="2021-02-02T19:22:43.64" personId="{1295C466-BD7C-441E-8FE1-FBB710452072}" id="{99EA3807-EB10-4FD7-896A-99B320C5B2E2}">
     <text>MLR may be concerned with the KOL question. The question posed back will be, "what response do they give if they type that in, given that we don't have any KOL opinions on site." I think this may be changing in the next few months. I'm not sure. Please check with Jake.</text>
   </threadedComment>
-  <threadedComment ref="C9" dT="2021-02-03T17:19:29.63" personId="{6851B53B-E571-4C8C-A62D-03D0D1B89898}" id="{989E42BC-C941-4FE8-B6E1-2512DC4F9ACF}" parentId="{99EA3807-EB10-4FD7-896A-99B320C5B2E2}">
+  <threadedComment ref="C10" dT="2021-02-03T17:19:29.63" personId="{6851B53B-E571-4C8C-A62D-03D0D1B89898}" id="{989E42BC-C941-4FE8-B6E1-2512DC4F9ACF}" parentId="{99EA3807-EB10-4FD7-896A-99B320C5B2E2}">
     <text>I would delete that KOL question as we don't have any information on the site</text>
   </threadedComment>
-  <threadedComment ref="F9" dT="2021-02-02T19:19:52.98" personId="{1295C466-BD7C-441E-8FE1-FBB710452072}" id="{E98F849F-AA15-47D7-8E3E-AF2E28183101}">
+  <threadedComment ref="F10" dT="2021-02-02T19:19:52.98" personId="{1295C466-BD7C-441E-8FE1-FBB710452072}" id="{E98F849F-AA15-47D7-8E3E-AF2E28183101}">
     <text>Instead of just "only" please revise to "first and only" we say this on the HCP side of things but not on the consumer side.</text>
   </threadedComment>
-  <threadedComment ref="B16" dT="2021-02-02T19:26:21.52" personId="{1295C466-BD7C-441E-8FE1-FBB710452072}" id="{B3A64F05-BDA5-47FC-9B9A-CF3ECAC976B8}">
+  <threadedComment ref="B17" dT="2021-02-02T19:26:21.52" personId="{1295C466-BD7C-441E-8FE1-FBB710452072}" id="{B3A64F05-BDA5-47FC-9B9A-CF3ECAC976B8}">
     <text>Nuplazid primary endpoint
 Nuplazid secondary endpoint</text>
   </threadedComment>
-  <threadedComment ref="C25" dT="2021-02-02T19:31:26.98" personId="{1295C466-BD7C-441E-8FE1-FBB710452072}" id="{DE93CD08-8D71-480E-AF2B-94A4EDC1EACB}">
+  <threadedComment ref="C26" dT="2021-02-02T19:31:26.98" personId="{1295C466-BD7C-441E-8FE1-FBB710452072}" id="{DE93CD08-8D71-480E-AF2B-94A4EDC1EACB}">
     <text>For consistency purposes, do we want to revise to "How are delusions measured?"</text>
   </threadedComment>
-  <threadedComment ref="B29" dT="2021-02-02T19:35:59.57" personId="{1295C466-BD7C-441E-8FE1-FBB710452072}" id="{A0649205-201E-40CA-A513-834EE1E2B9FE}">
+  <threadedComment ref="B30" dT="2021-02-02T19:35:59.57" personId="{1295C466-BD7C-441E-8FE1-FBB710452072}" id="{A0649205-201E-40CA-A513-834EE1E2B9FE}">
     <text>long-term safety
 drug interactions
 adverse reaction/event</text>
   </threadedComment>
-  <threadedComment ref="B39" dT="2021-02-02T19:28:41.22" personId="{1295C466-BD7C-441E-8FE1-FBB710452072}" id="{490A6B21-E3F0-4BE3-84FA-875C273D4644}">
+  <threadedComment ref="B40" dT="2021-02-02T19:28:41.22" personId="{1295C466-BD7C-441E-8FE1-FBB710452072}" id="{490A6B21-E3F0-4BE3-84FA-875C273D4644}">
     <text>sprinkle
 dosing guide</text>
   </threadedComment>
-  <threadedComment ref="B64" dT="2021-02-02T19:39:11.47" personId="{1295C466-BD7C-441E-8FE1-FBB710452072}" id="{A0B2C671-E543-4112-8919-FE70430826C8}">
+  <threadedComment ref="B65" dT="2021-02-02T19:39:11.47" personId="{1295C466-BD7C-441E-8FE1-FBB710452072}" id="{A0B2C671-E543-4112-8919-FE70430826C8}">
     <text>forms</text>
   </threadedComment>
-  <threadedComment ref="C64" dT="2021-02-02T19:38:52.75" personId="{1295C466-BD7C-441E-8FE1-FBB710452072}" id="{D9094AEA-42EA-4E64-8A3F-367796AF3240}">
+  <threadedComment ref="C65" dT="2021-02-02T19:38:52.75" personId="{1295C466-BD7C-441E-8FE1-FBB710452072}" id="{D9094AEA-42EA-4E64-8A3F-367796AF3240}">
     <text>Remove Acadia?</text>
   </threadedComment>
-  <threadedComment ref="B68" dT="2021-02-02T19:41:45.50" personId="{1295C466-BD7C-441E-8FE1-FBB710452072}" id="{5E44F182-AC11-45F7-AC37-DB904E84DBEC}">
+  <threadedComment ref="B69" dT="2021-02-02T19:41:45.50" personId="{1295C466-BD7C-441E-8FE1-FBB710452072}" id="{5E44F182-AC11-45F7-AC37-DB904E84DBEC}">
     <text>coverage
 samples</text>
   </threadedComment>
@@ -2493,24 +2315,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E36" sqref="E36"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.44140625" style="58" customWidth="1"/>
-    <col min="2" max="2" width="27.109375" style="44" customWidth="1"/>
-    <col min="3" max="3" width="47.109375" style="44" customWidth="1"/>
-    <col min="4" max="4" width="41.88671875" style="57" customWidth="1"/>
-    <col min="5" max="5" width="41.88671875" style="71" customWidth="1"/>
-    <col min="6" max="6" width="83.6640625" customWidth="1"/>
-    <col min="7" max="12" width="37.33203125" style="44" customWidth="1"/>
+    <col min="1" max="1" width="30.42578125" style="58" customWidth="1"/>
+    <col min="2" max="2" width="27.140625" style="44" customWidth="1"/>
+    <col min="3" max="3" width="47.140625" style="44" customWidth="1"/>
+    <col min="4" max="4" width="41.85546875" style="57" customWidth="1"/>
+    <col min="5" max="5" width="41.85546875" style="71" customWidth="1"/>
+    <col min="6" max="6" width="83.7109375" customWidth="1"/>
+    <col min="7" max="12" width="37.28515625" style="44" customWidth="1"/>
     <col min="13" max="13" width="74" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="51" t="s">
         <v>1</v>
       </c>
@@ -2524,45 +2346,45 @@
         <v>197</v>
       </c>
       <c r="E1" s="51" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G1" s="45" t="s">
+        <v>313</v>
+      </c>
+      <c r="H1" s="45" t="s">
+        <v>314</v>
+      </c>
+      <c r="I1" s="45" t="s">
         <v>315</v>
       </c>
-      <c r="H1" s="45" t="s">
+      <c r="J1" s="45" t="s">
         <v>316</v>
       </c>
-      <c r="I1" s="45" t="s">
+      <c r="K1" s="45" t="s">
         <v>317</v>
       </c>
-      <c r="J1" s="45" t="s">
-        <v>318</v>
-      </c>
-      <c r="K1" s="45" t="s">
-        <v>319</v>
-      </c>
       <c r="L1" s="45" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" s="31" customFormat="1" ht="72" x14ac:dyDescent="0.3">
-      <c r="A2" s="79" t="s">
-        <v>233</v>
-      </c>
-      <c r="B2" s="79" t="s">
-        <v>238</v>
-      </c>
-      <c r="C2" s="79" t="s">
         <v>290</v>
       </c>
+    </row>
+    <row r="2" spans="1:13" s="31" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A2" s="84" t="s">
+        <v>232</v>
+      </c>
+      <c r="B2" s="84" t="s">
+        <v>237</v>
+      </c>
+      <c r="C2" s="84" t="s">
+        <v>289</v>
+      </c>
       <c r="D2" s="57" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E2" s="71" t="s">
         <v>10</v>
@@ -2576,44 +2398,46 @@
       <c r="J2" s="65"/>
       <c r="K2" s="65"/>
       <c r="L2" s="66" t="s">
-        <v>272</v>
-      </c>
-      <c r="M2" s="84" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" s="31" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A3" s="80"/>
-      <c r="B3" s="77"/>
-      <c r="C3" s="80"/>
+        <v>271</v>
+      </c>
+      <c r="M2" s="82" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" s="31" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A3" s="85"/>
+      <c r="B3" s="83"/>
+      <c r="C3" s="85"/>
       <c r="D3" s="57" t="s">
         <v>10</v>
       </c>
       <c r="E3" s="71" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="F3" s="32" t="s">
-        <v>229</v>
-      </c>
-      <c r="G3" s="65"/>
+        <v>378</v>
+      </c>
+      <c r="G3" s="65" t="s">
+        <v>379</v>
+      </c>
       <c r="H3" s="65"/>
       <c r="I3" s="65"/>
       <c r="J3" s="65"/>
       <c r="K3" s="65"/>
       <c r="L3" s="66" t="s">
-        <v>272</v>
-      </c>
-      <c r="M3" s="82"/>
-    </row>
-    <row r="4" spans="1:13" s="31" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="80"/>
-      <c r="B4" s="77"/>
-      <c r="C4" s="80"/>
+        <v>271</v>
+      </c>
+      <c r="M3" s="80"/>
+    </row>
+    <row r="4" spans="1:13" s="31" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="85"/>
+      <c r="B4" s="83"/>
+      <c r="C4" s="85"/>
       <c r="D4" s="57" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E4" s="71" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="F4" s="32" t="s">
         <v>199</v>
@@ -2624,25 +2448,25 @@
       <c r="J4" s="65"/>
       <c r="K4" s="65"/>
       <c r="L4" s="66" t="s">
-        <v>272</v>
-      </c>
-      <c r="M4" s="82"/>
-    </row>
-    <row r="5" spans="1:13" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="78" t="s">
+        <v>271</v>
+      </c>
+      <c r="M4" s="80"/>
+    </row>
+    <row r="5" spans="1:13" ht="105" x14ac:dyDescent="0.25">
+      <c r="A5" s="86" t="s">
         <v>172</v>
       </c>
-      <c r="B5" s="77" t="s">
-        <v>300</v>
-      </c>
-      <c r="C5" s="77" t="s">
-        <v>239</v>
+      <c r="B5" s="83" t="s">
+        <v>298</v>
+      </c>
+      <c r="C5" s="83" t="s">
+        <v>238</v>
       </c>
       <c r="D5" s="57" t="s">
         <v>173</v>
       </c>
       <c r="E5" s="75" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="F5" s="32" t="s">
         <v>200</v>
@@ -2653,21 +2477,21 @@
       <c r="J5" s="65"/>
       <c r="K5" s="65"/>
       <c r="L5" s="66" t="s">
-        <v>271</v>
-      </c>
-      <c r="M5" s="81" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A6" s="78"/>
-      <c r="B6" s="78"/>
-      <c r="C6" s="78"/>
+        <v>270</v>
+      </c>
+      <c r="M5" s="79" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="120" x14ac:dyDescent="0.25">
+      <c r="A6" s="86"/>
+      <c r="B6" s="86"/>
+      <c r="C6" s="86"/>
       <c r="D6" s="57" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="E6" s="71" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F6" s="33" t="s">
         <v>201</v>
@@ -2678,28 +2502,28 @@
       <c r="J6" s="65"/>
       <c r="K6" s="65"/>
       <c r="L6" s="66" t="s">
-        <v>271</v>
-      </c>
-      <c r="M6" s="82"/>
-    </row>
-    <row r="7" spans="1:13" s="44" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="77" t="s">
+        <v>270</v>
+      </c>
+      <c r="M6" s="80"/>
+    </row>
+    <row r="7" spans="1:13" s="44" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A7" s="83" t="s">
+        <v>302</v>
+      </c>
+      <c r="B7" s="83" t="s">
+        <v>303</v>
+      </c>
+      <c r="C7" s="83" t="s">
+        <v>307</v>
+      </c>
+      <c r="D7" s="61" t="s">
         <v>304</v>
       </c>
-      <c r="B7" s="77" t="s">
+      <c r="E7" s="71" t="s">
         <v>305</v>
       </c>
-      <c r="C7" s="77" t="s">
-        <v>309</v>
-      </c>
-      <c r="D7" s="61" t="s">
-        <v>306</v>
-      </c>
-      <c r="E7" s="71" t="s">
-        <v>307</v>
-      </c>
       <c r="F7" s="61" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="G7" s="65"/>
       <c r="H7" s="65"/>
@@ -2707,24 +2531,24 @@
       <c r="J7" s="65"/>
       <c r="K7" s="65"/>
       <c r="L7" s="66" t="s">
-        <v>349</v>
-      </c>
-      <c r="M7" s="81" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" s="44" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="77"/>
-      <c r="B8" s="77"/>
-      <c r="C8" s="77"/>
+        <v>347</v>
+      </c>
+      <c r="M7" s="79" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" s="44" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+      <c r="A8" s="83"/>
+      <c r="B8" s="83"/>
+      <c r="C8" s="83"/>
       <c r="D8" s="61" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="E8" s="71" t="s">
         <v>192</v>
       </c>
       <c r="F8" s="61" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="G8" s="65"/>
       <c r="H8" s="65"/>
@@ -2732,39 +2556,39 @@
       <c r="J8" s="65"/>
       <c r="K8" s="65"/>
       <c r="L8" s="66" t="s">
-        <v>313</v>
-      </c>
-      <c r="M8" s="82"/>
-    </row>
-    <row r="9" spans="1:13" s="44" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="77"/>
-      <c r="B9" s="77"/>
-      <c r="C9" s="77"/>
+        <v>311</v>
+      </c>
+      <c r="M8" s="80"/>
+    </row>
+    <row r="9" spans="1:13" s="44" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A9" s="83"/>
+      <c r="B9" s="83"/>
+      <c r="C9" s="83"/>
       <c r="D9" s="61" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E9" s="71"/>
       <c r="F9" s="61" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="G9" s="65"/>
       <c r="H9" s="65"/>
       <c r="I9" s="65" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="J9" s="66" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="K9" s="65"/>
       <c r="L9" s="66" t="s">
-        <v>313</v>
-      </c>
-      <c r="M9" s="82"/>
-    </row>
-    <row r="10" spans="1:13" s="44" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="77"/>
-      <c r="B10" s="77"/>
-      <c r="C10" s="77"/>
+        <v>311</v>
+      </c>
+      <c r="M9" s="80"/>
+    </row>
+    <row r="10" spans="1:13" s="44" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="83"/>
+      <c r="B10" s="83"/>
+      <c r="C10" s="83"/>
       <c r="D10" s="61"/>
       <c r="E10" s="71"/>
       <c r="F10" s="61"/>
@@ -2776,36 +2600,36 @@
       <c r="L10" s="71"/>
       <c r="M10" s="64"/>
     </row>
-    <row r="11" spans="1:13" s="44" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" s="44" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="61" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B11" s="61" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C11" s="61" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D11" s="61"/>
       <c r="E11" s="71"/>
       <c r="F11" s="61" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="G11" s="65"/>
       <c r="H11" s="66" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="I11" s="65"/>
       <c r="J11" s="65"/>
       <c r="K11" s="65"/>
       <c r="L11" s="70" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="M11" s="63" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" s="44" customFormat="1" x14ac:dyDescent="0.3">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="61"/>
       <c r="B12" s="61"/>
       <c r="C12" s="61"/>
@@ -2820,7 +2644,7 @@
       <c r="L12" s="71"/>
       <c r="M12" s="64"/>
     </row>
-    <row r="13" spans="1:13" s="44" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="61"/>
       <c r="B13" s="61"/>
       <c r="C13" s="61"/>
@@ -2835,7 +2659,7 @@
       <c r="L13" s="71"/>
       <c r="M13" s="64"/>
     </row>
-    <row r="14" spans="1:13" s="44" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="61"/>
       <c r="B14" s="61"/>
       <c r="C14" s="61"/>
@@ -2850,21 +2674,21 @@
       <c r="L14" s="71"/>
       <c r="M14" s="64"/>
     </row>
-    <row r="15" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A15" s="78" t="s">
+    <row r="15" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="86" t="s">
         <v>174</v>
       </c>
-      <c r="B15" s="77" t="s">
-        <v>240</v>
-      </c>
-      <c r="C15" s="77" t="s">
-        <v>301</v>
+      <c r="B15" s="83" t="s">
+        <v>239</v>
+      </c>
+      <c r="C15" s="83" t="s">
+        <v>299</v>
       </c>
       <c r="D15" s="57" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="E15" s="71" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="F15" s="32" t="s">
         <v>202</v>
@@ -2875,21 +2699,21 @@
       <c r="J15" s="65"/>
       <c r="K15" s="65"/>
       <c r="L15" s="66" t="s">
-        <v>272</v>
-      </c>
-      <c r="M15" s="81" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A16" s="78"/>
-      <c r="B16" s="78"/>
-      <c r="C16" s="78"/>
+        <v>271</v>
+      </c>
+      <c r="M15" s="79" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="86"/>
+      <c r="B16" s="86"/>
+      <c r="C16" s="86"/>
       <c r="D16" s="57" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E16" s="71" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="F16" s="34" t="s">
         <v>175</v>
@@ -2900,19 +2724,19 @@
       <c r="J16" s="65"/>
       <c r="K16" s="65"/>
       <c r="L16" s="66" t="s">
-        <v>272</v>
-      </c>
-      <c r="M16" s="82"/>
-    </row>
-    <row r="17" spans="1:13" ht="72" x14ac:dyDescent="0.3">
-      <c r="A17" s="78"/>
-      <c r="B17" s="78"/>
-      <c r="C17" s="78"/>
+        <v>271</v>
+      </c>
+      <c r="M16" s="80"/>
+    </row>
+    <row r="17" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+      <c r="A17" s="86"/>
+      <c r="B17" s="86"/>
+      <c r="C17" s="86"/>
       <c r="D17" s="57" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="E17" s="71" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F17" s="32" t="s">
         <v>203</v>
@@ -2923,14 +2747,14 @@
       <c r="J17" s="65"/>
       <c r="K17" s="65"/>
       <c r="L17" s="66" t="s">
-        <v>272</v>
-      </c>
-      <c r="M17" s="82"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A18" s="78"/>
-      <c r="B18" s="78"/>
-      <c r="C18" s="78"/>
+        <v>271</v>
+      </c>
+      <c r="M17" s="80"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="86"/>
+      <c r="B18" s="86"/>
+      <c r="C18" s="86"/>
       <c r="D18" s="43"/>
       <c r="F18" s="42"/>
       <c r="G18" s="42"/>
@@ -2939,22 +2763,22 @@
       <c r="J18" s="42"/>
       <c r="K18" s="42"/>
       <c r="L18" s="72" t="s">
-        <v>272</v>
-      </c>
-      <c r="M18" s="82"/>
-    </row>
-    <row r="19" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A19" s="78" t="s">
+        <v>271</v>
+      </c>
+      <c r="M18" s="80"/>
+    </row>
+    <row r="19" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="86" t="s">
         <v>176</v>
       </c>
-      <c r="B19" s="77" t="s">
+      <c r="B19" s="83" t="s">
+        <v>240</v>
+      </c>
+      <c r="C19" s="83" t="s">
         <v>241</v>
       </c>
-      <c r="C19" s="77" t="s">
-        <v>242</v>
-      </c>
       <c r="D19" s="57" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="E19" s="75" t="s">
         <v>177</v>
@@ -2968,18 +2792,18 @@
       <c r="J19" s="65"/>
       <c r="K19" s="65"/>
       <c r="L19" s="66" t="s">
-        <v>272</v>
-      </c>
-      <c r="M19" s="81" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A20" s="78"/>
-      <c r="B20" s="77"/>
-      <c r="C20" s="78"/>
+        <v>271</v>
+      </c>
+      <c r="M19" s="79" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="86"/>
+      <c r="B20" s="83"/>
+      <c r="C20" s="86"/>
       <c r="D20" s="57" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E20" s="75" t="s">
         <v>177</v>
@@ -2993,14 +2817,14 @@
       <c r="J20" s="65"/>
       <c r="K20" s="65"/>
       <c r="L20" s="66" t="s">
-        <v>272</v>
-      </c>
-      <c r="M20" s="82"/>
-    </row>
-    <row r="21" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A21" s="78"/>
-      <c r="B21" s="77"/>
-      <c r="C21" s="78"/>
+        <v>271</v>
+      </c>
+      <c r="M20" s="80"/>
+    </row>
+    <row r="21" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A21" s="86"/>
+      <c r="B21" s="83"/>
+      <c r="C21" s="86"/>
       <c r="D21" s="57" t="s">
         <v>177</v>
       </c>
@@ -3016,14 +2840,14 @@
       <c r="J21" s="65"/>
       <c r="K21" s="65"/>
       <c r="L21" s="66" t="s">
-        <v>272</v>
-      </c>
-      <c r="M21" s="82"/>
-    </row>
-    <row r="22" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="78"/>
-      <c r="B22" s="77"/>
-      <c r="C22" s="78"/>
+        <v>271</v>
+      </c>
+      <c r="M21" s="80"/>
+    </row>
+    <row r="22" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A22" s="86"/>
+      <c r="B22" s="83"/>
+      <c r="C22" s="86"/>
       <c r="D22" s="57" t="s">
         <v>178</v>
       </c>
@@ -3036,22 +2860,22 @@
       <c r="J22" s="65"/>
       <c r="K22" s="65"/>
       <c r="L22" s="66" t="s">
-        <v>272</v>
-      </c>
-      <c r="M22" s="82"/>
-    </row>
-    <row r="23" spans="1:13" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A23" s="78" t="s">
+        <v>271</v>
+      </c>
+      <c r="M22" s="80"/>
+    </row>
+    <row r="23" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+      <c r="A23" s="86" t="s">
         <v>179</v>
       </c>
-      <c r="B23" s="77" t="s">
-        <v>302</v>
-      </c>
-      <c r="C23" s="77" t="s">
-        <v>243</v>
+      <c r="B23" s="83" t="s">
+        <v>300</v>
+      </c>
+      <c r="C23" s="83" t="s">
+        <v>242</v>
       </c>
       <c r="D23" s="57" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F23" s="36" t="s">
         <v>180</v>
@@ -3062,70 +2886,70 @@
       <c r="J23" s="65"/>
       <c r="K23" s="65"/>
       <c r="L23" s="66" t="s">
-        <v>273</v>
-      </c>
-      <c r="M23" s="81" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="78"/>
-      <c r="B24" s="77"/>
-      <c r="C24" s="78"/>
+        <v>272</v>
+      </c>
+      <c r="M23" s="79" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="150" x14ac:dyDescent="0.25">
+      <c r="A24" s="86"/>
+      <c r="B24" s="83"/>
+      <c r="C24" s="86"/>
       <c r="D24" s="57" t="s">
         <v>18</v>
       </c>
       <c r="E24" s="71" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F24" s="41" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="G24" s="65"/>
       <c r="H24" s="65"/>
       <c r="I24" s="65" t="s">
+        <v>375</v>
+      </c>
+      <c r="J24" s="66" t="s">
         <v>377</v>
-      </c>
-      <c r="J24" s="66" t="s">
-        <v>379</v>
       </c>
       <c r="K24" s="73"/>
       <c r="L24" s="66" t="s">
-        <v>354</v>
-      </c>
-      <c r="M24" s="82"/>
-    </row>
-    <row r="25" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A25" s="78"/>
-      <c r="B25" s="77"/>
-      <c r="C25" s="78"/>
+        <v>352</v>
+      </c>
+      <c r="M24" s="80"/>
+    </row>
+    <row r="25" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="86"/>
+      <c r="B25" s="83"/>
+      <c r="C25" s="86"/>
       <c r="D25" s="57" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E25" s="71" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F25" s="32" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="G25" s="65"/>
       <c r="H25" s="65"/>
       <c r="I25" s="65" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="J25" s="66" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="K25" s="65"/>
       <c r="L25" s="66" t="s">
-        <v>273</v>
-      </c>
-      <c r="M25" s="82"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A26" s="78"/>
-      <c r="B26" s="77"/>
-      <c r="C26" s="78"/>
+        <v>272</v>
+      </c>
+      <c r="M25" s="80"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="86"/>
+      <c r="B26" s="83"/>
+      <c r="C26" s="86"/>
       <c r="D26" s="43"/>
       <c r="F26" s="43"/>
       <c r="G26" s="43"/>
@@ -3134,28 +2958,28 @@
       <c r="J26" s="43"/>
       <c r="K26" s="43"/>
       <c r="L26" s="66" t="s">
-        <v>273</v>
-      </c>
-      <c r="M26" s="82"/>
-    </row>
-    <row r="27" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A27" s="78" t="s">
+        <v>272</v>
+      </c>
+      <c r="M26" s="80"/>
+    </row>
+    <row r="27" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="86" t="s">
         <v>181</v>
       </c>
-      <c r="B27" s="77" t="s">
+      <c r="B27" s="83" t="s">
+        <v>243</v>
+      </c>
+      <c r="C27" s="81" t="s">
         <v>244</v>
-      </c>
-      <c r="C27" s="83" t="s">
-        <v>245</v>
       </c>
       <c r="D27" s="57" t="s">
         <v>182</v>
       </c>
       <c r="E27" s="71" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F27" s="32" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="G27" s="65"/>
       <c r="H27" s="65"/>
@@ -3163,20 +2987,20 @@
         <v>84</v>
       </c>
       <c r="J27" s="66" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="K27" s="65"/>
       <c r="L27" s="66" t="s">
-        <v>277</v>
-      </c>
-      <c r="M27" s="81" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A28" s="78"/>
-      <c r="B28" s="77"/>
-      <c r="C28" s="83"/>
+        <v>276</v>
+      </c>
+      <c r="M27" s="79" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="86"/>
+      <c r="B28" s="83"/>
+      <c r="C28" s="81"/>
       <c r="D28" s="57" t="s">
         <v>183</v>
       </c>
@@ -3192,14 +3016,14 @@
       <c r="J28" s="65"/>
       <c r="K28" s="65"/>
       <c r="L28" s="66" t="s">
-        <v>277</v>
-      </c>
-      <c r="M28" s="82"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A29" s="78"/>
-      <c r="B29" s="77"/>
-      <c r="C29" s="83"/>
+        <v>276</v>
+      </c>
+      <c r="M28" s="80"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="86"/>
+      <c r="B29" s="83"/>
+      <c r="C29" s="81"/>
       <c r="D29" s="43"/>
       <c r="F29" s="42"/>
       <c r="G29" s="42"/>
@@ -3208,12 +3032,12 @@
       <c r="J29" s="42"/>
       <c r="K29" s="42"/>
       <c r="L29" s="72" t="s">
-        <v>277</v>
-      </c>
-      <c r="M29" s="82"/>
-    </row>
-    <row r="30" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A30" s="78" t="s">
+        <v>276</v>
+      </c>
+      <c r="M29" s="80"/>
+    </row>
+    <row r="30" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="86" t="s">
         <v>185</v>
       </c>
       <c r="C30" s="59"/>
@@ -3224,22 +3048,22 @@
       <c r="J30" s="65"/>
       <c r="K30" s="65"/>
       <c r="L30" s="66" t="s">
-        <v>274</v>
-      </c>
-      <c r="M30" s="81" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A31" s="78"/>
-      <c r="B31" s="77" t="s">
+        <v>273</v>
+      </c>
+      <c r="M30" s="79" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="165" x14ac:dyDescent="0.25">
+      <c r="A31" s="86"/>
+      <c r="B31" s="83" t="s">
+        <v>245</v>
+      </c>
+      <c r="C31" s="83" t="s">
         <v>246</v>
       </c>
-      <c r="C31" s="77" t="s">
-        <v>247</v>
-      </c>
       <c r="D31" s="43" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="E31" s="71" t="s">
         <v>192</v>
@@ -3253,16 +3077,16 @@
       <c r="J31" s="65"/>
       <c r="K31" s="65"/>
       <c r="L31" s="66" t="s">
-        <v>274</v>
-      </c>
-      <c r="M31" s="82"/>
-    </row>
-    <row r="32" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A32" s="78"/>
-      <c r="B32" s="78"/>
-      <c r="C32" s="77"/>
+        <v>273</v>
+      </c>
+      <c r="M31" s="80"/>
+    </row>
+    <row r="32" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A32" s="86"/>
+      <c r="B32" s="86"/>
+      <c r="C32" s="83"/>
       <c r="D32" s="57" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F32" s="41" t="s">
         <v>210</v>
@@ -3273,19 +3097,19 @@
       <c r="J32" s="65"/>
       <c r="K32" s="65"/>
       <c r="L32" s="66" t="s">
-        <v>274</v>
-      </c>
-      <c r="M32" s="82"/>
-    </row>
-    <row r="33" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A33" s="78"/>
-      <c r="B33" s="78"/>
-      <c r="C33" s="77"/>
+        <v>273</v>
+      </c>
+      <c r="M32" s="80"/>
+    </row>
+    <row r="33" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="86"/>
+      <c r="B33" s="86"/>
+      <c r="C33" s="83"/>
       <c r="D33" s="43" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="F33" s="43" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G33" s="43"/>
       <c r="H33" s="43"/>
@@ -3293,22 +3117,22 @@
       <c r="J33" s="43"/>
       <c r="K33" s="43"/>
       <c r="L33" s="66" t="s">
-        <v>274</v>
-      </c>
-      <c r="M33" s="82"/>
-    </row>
-    <row r="34" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A34" s="78"/>
-      <c r="B34" s="78"/>
-      <c r="C34" s="77"/>
+        <v>273</v>
+      </c>
+      <c r="M33" s="80"/>
+    </row>
+    <row r="34" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="86"/>
+      <c r="B34" s="86"/>
+      <c r="C34" s="83"/>
       <c r="D34" s="43" t="s">
         <v>172</v>
       </c>
       <c r="E34" s="71" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F34" s="43" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G34" s="43"/>
       <c r="H34" s="43"/>
@@ -3316,22 +3140,22 @@
       <c r="J34" s="43"/>
       <c r="K34" s="43"/>
       <c r="L34" s="66" t="s">
-        <v>274</v>
-      </c>
-      <c r="M34" s="82"/>
-    </row>
-    <row r="35" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A35" s="78"/>
-      <c r="B35" s="78"/>
-      <c r="C35" s="77"/>
+        <v>273</v>
+      </c>
+      <c r="M34" s="80"/>
+    </row>
+    <row r="35" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A35" s="86"/>
+      <c r="B35" s="86"/>
+      <c r="C35" s="83"/>
       <c r="D35" s="43" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E35" s="75" t="s">
         <v>187</v>
       </c>
       <c r="F35" s="43" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G35" s="43"/>
       <c r="H35" s="43"/>
@@ -3339,14 +3163,14 @@
       <c r="J35" s="43"/>
       <c r="K35" s="43"/>
       <c r="L35" s="66" t="s">
-        <v>274</v>
-      </c>
-      <c r="M35" s="82"/>
-    </row>
-    <row r="36" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A36" s="78"/>
-      <c r="B36" s="78"/>
-      <c r="C36" s="77"/>
+        <v>273</v>
+      </c>
+      <c r="M35" s="80"/>
+    </row>
+    <row r="36" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="86"/>
+      <c r="B36" s="86"/>
+      <c r="C36" s="83"/>
       <c r="F36" s="43"/>
       <c r="G36" s="43"/>
       <c r="H36" s="43"/>
@@ -3354,19 +3178,19 @@
       <c r="J36" s="74"/>
       <c r="K36" s="43"/>
       <c r="L36" s="66" t="s">
-        <v>274</v>
-      </c>
-      <c r="M36" s="82"/>
-    </row>
-    <row r="37" spans="1:13" ht="72" x14ac:dyDescent="0.3">
-      <c r="A37" s="77" t="s">
+        <v>273</v>
+      </c>
+      <c r="M36" s="80"/>
+    </row>
+    <row r="37" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+      <c r="A37" s="83" t="s">
+        <v>247</v>
+      </c>
+      <c r="B37" s="83" t="s">
         <v>248</v>
       </c>
-      <c r="B37" s="77" t="s">
+      <c r="C37" s="83" t="s">
         <v>249</v>
-      </c>
-      <c r="C37" s="77" t="s">
-        <v>250</v>
       </c>
       <c r="D37" s="57" t="s">
         <v>187</v>
@@ -3380,23 +3204,23 @@
       <c r="G37" s="65"/>
       <c r="H37" s="65"/>
       <c r="I37" s="75" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="J37" s="74" t="s">
         <v>194</v>
       </c>
       <c r="K37" s="65"/>
       <c r="L37" s="66" t="s">
-        <v>275</v>
-      </c>
-      <c r="M37" s="81" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" ht="72" x14ac:dyDescent="0.3">
-      <c r="A38" s="77"/>
-      <c r="B38" s="77"/>
-      <c r="C38" s="78"/>
+        <v>274</v>
+      </c>
+      <c r="M37" s="79" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+      <c r="A38" s="83"/>
+      <c r="B38" s="83"/>
+      <c r="C38" s="86"/>
       <c r="D38" s="57" t="s">
         <v>188</v>
       </c>
@@ -3404,26 +3228,26 @@
         <v>191</v>
       </c>
       <c r="F38" s="32" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="G38" s="65"/>
       <c r="H38" s="65"/>
       <c r="I38" s="65" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="J38" s="66" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="K38" s="65"/>
       <c r="L38" s="66" t="s">
-        <v>275</v>
-      </c>
-      <c r="M38" s="82"/>
-    </row>
-    <row r="39" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A39" s="77"/>
-      <c r="B39" s="77"/>
-      <c r="C39" s="78"/>
+        <v>274</v>
+      </c>
+      <c r="M38" s="80"/>
+    </row>
+    <row r="39" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A39" s="83"/>
+      <c r="B39" s="83"/>
+      <c r="C39" s="86"/>
       <c r="D39" s="57" t="s">
         <v>189</v>
       </c>
@@ -3431,14 +3255,14 @@
         <v>194</v>
       </c>
       <c r="L39" s="66" t="s">
-        <v>275</v>
-      </c>
-      <c r="M39" s="82"/>
-    </row>
-    <row r="40" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A40" s="77"/>
-      <c r="B40" s="77"/>
-      <c r="C40" s="78"/>
+        <v>274</v>
+      </c>
+      <c r="M39" s="80"/>
+    </row>
+    <row r="40" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A40" s="83"/>
+      <c r="B40" s="83"/>
+      <c r="C40" s="86"/>
       <c r="D40" s="57" t="s">
         <v>190</v>
       </c>
@@ -3446,14 +3270,14 @@
         <v>195</v>
       </c>
       <c r="L40" s="66" t="s">
-        <v>275</v>
-      </c>
-      <c r="M40" s="82"/>
-    </row>
-    <row r="41" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A41" s="77"/>
-      <c r="B41" s="77"/>
-      <c r="C41" s="78"/>
+        <v>274</v>
+      </c>
+      <c r="M40" s="80"/>
+    </row>
+    <row r="41" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A41" s="83"/>
+      <c r="B41" s="83"/>
+      <c r="C41" s="86"/>
       <c r="D41" s="57" t="s">
         <v>191</v>
       </c>
@@ -3469,14 +3293,14 @@
       <c r="J41" s="65"/>
       <c r="K41" s="65"/>
       <c r="L41" s="66" t="s">
-        <v>275</v>
-      </c>
-      <c r="M41" s="82"/>
-    </row>
-    <row r="42" spans="1:13" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A42" s="77"/>
-      <c r="B42" s="77"/>
-      <c r="C42" s="78"/>
+        <v>274</v>
+      </c>
+      <c r="M41" s="80"/>
+    </row>
+    <row r="42" spans="1:13" ht="105" x14ac:dyDescent="0.25">
+      <c r="A42" s="83"/>
+      <c r="B42" s="83"/>
+      <c r="C42" s="86"/>
       <c r="D42" s="57" t="s">
         <v>192</v>
       </c>
@@ -3484,26 +3308,26 @@
         <v>189</v>
       </c>
       <c r="F42" s="32" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="G42" s="65"/>
       <c r="H42" s="65"/>
       <c r="I42" s="65" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="J42" s="65" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="K42" s="65"/>
       <c r="L42" s="66" t="s">
-        <v>275</v>
-      </c>
-      <c r="M42" s="82"/>
-    </row>
-    <row r="43" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A43" s="77"/>
-      <c r="B43" s="77"/>
-      <c r="C43" s="78"/>
+        <v>274</v>
+      </c>
+      <c r="M42" s="80"/>
+    </row>
+    <row r="43" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A43" s="83"/>
+      <c r="B43" s="83"/>
+      <c r="C43" s="86"/>
       <c r="D43" s="57" t="s">
         <v>193</v>
       </c>
@@ -3511,7 +3335,7 @@
         <v>189</v>
       </c>
       <c r="F43" s="41" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="G43" s="65"/>
       <c r="H43" s="65"/>
@@ -3519,11 +3343,11 @@
       <c r="J43" s="65"/>
       <c r="K43" s="65"/>
       <c r="L43" s="66" t="s">
-        <v>364</v>
-      </c>
-      <c r="M43" s="82"/>
-    </row>
-    <row r="44" spans="1:13" s="44" customFormat="1" x14ac:dyDescent="0.3">
+        <v>362</v>
+      </c>
+      <c r="M43" s="80"/>
+    </row>
+    <row r="44" spans="1:13" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="61"/>
       <c r="B44" s="61"/>
       <c r="C44" s="62"/>
@@ -3538,15 +3362,15 @@
       <c r="L44" s="71"/>
       <c r="M44" s="64"/>
     </row>
-    <row r="45" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A45" s="58" t="s">
         <v>208</v>
       </c>
       <c r="B45" s="56" t="s">
+        <v>250</v>
+      </c>
+      <c r="C45" t="s">
         <v>251</v>
-      </c>
-      <c r="C45" t="s">
-        <v>252</v>
       </c>
       <c r="D45" s="57" t="s">
         <v>209</v>
@@ -3555,25 +3379,25 @@
         <v>208</v>
       </c>
       <c r="I45" s="44" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="J45" s="47" t="s">
         <v>212</v>
       </c>
       <c r="L45" s="47" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="M45" s="47" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B46" s="42"/>
       <c r="C46" s="42"/>
       <c r="D46" s="43"/>
       <c r="F46" s="40"/>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B47" s="42"/>
       <c r="C47" s="42"/>
       <c r="D47" s="43"/>
@@ -3582,25 +3406,12 @@
   </sheetData>
   <autoFilter ref="A1:M11" xr:uid="{AF9DA58F-D16B-4AC0-BF50-5DB9D427BBB0}"/>
   <mergeCells count="36">
-    <mergeCell ref="M27:M29"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="M30:M36"/>
-    <mergeCell ref="M37:M43"/>
-    <mergeCell ref="M2:M4"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="M15:M18"/>
-    <mergeCell ref="M19:M22"/>
-    <mergeCell ref="M23:M26"/>
-    <mergeCell ref="M7:M9"/>
-    <mergeCell ref="A37:A43"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A30:A36"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="A23:A26"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="B31:B36"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="C23:C26"/>
+    <mergeCell ref="C31:C36"/>
+    <mergeCell ref="B37:B43"/>
+    <mergeCell ref="C37:C43"/>
     <mergeCell ref="B19:B22"/>
     <mergeCell ref="C19:C22"/>
     <mergeCell ref="B27:B29"/>
@@ -3612,12 +3423,25 @@
     <mergeCell ref="C15:C18"/>
     <mergeCell ref="B7:B10"/>
     <mergeCell ref="C7:C10"/>
-    <mergeCell ref="B31:B36"/>
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="C23:C26"/>
-    <mergeCell ref="C31:C36"/>
-    <mergeCell ref="B37:B43"/>
-    <mergeCell ref="C37:C43"/>
+    <mergeCell ref="A37:A43"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A30:A36"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="M27:M29"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="M30:M36"/>
+    <mergeCell ref="M37:M43"/>
+    <mergeCell ref="M2:M4"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="M15:M18"/>
+    <mergeCell ref="M19:M22"/>
+    <mergeCell ref="M23:M26"/>
+    <mergeCell ref="M7:M9"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="M2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -3692,16 +3516,16 @@
       <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" style="22" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" style="27" customWidth="1"/>
-    <col min="3" max="3" width="26.6640625" customWidth="1"/>
-    <col min="4" max="4" width="95.33203125" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" style="22" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" style="27" customWidth="1"/>
+    <col min="3" max="3" width="26.7109375" customWidth="1"/>
+    <col min="4" max="4" width="95.28515625" customWidth="1"/>
     <col min="5" max="5" width="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
         <v>1</v>
       </c>
@@ -3718,8 +3542,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="85" t="s">
+    <row r="2" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="87" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="29"/>
@@ -3733,8 +3557,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="86"/>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="88"/>
       <c r="B3" s="28"/>
       <c r="C3" t="s">
         <v>4</v>
@@ -3742,8 +3566,8 @@
       <c r="D3" s="4"/>
       <c r="E3" s="6"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="86"/>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="88"/>
       <c r="B4" s="28"/>
       <c r="C4" t="s">
         <v>5</v>
@@ -3751,8 +3575,8 @@
       <c r="D4" s="4"/>
       <c r="E4" s="6"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="86"/>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="88"/>
       <c r="B5" s="28"/>
       <c r="C5" t="s">
         <v>6</v>
@@ -3760,8 +3584,8 @@
       <c r="D5" s="4"/>
       <c r="E5" s="6"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="86"/>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="88"/>
       <c r="B6" s="28"/>
       <c r="C6" t="s">
         <v>7</v>
@@ -3769,8 +3593,8 @@
       <c r="D6" s="4"/>
       <c r="E6" s="6"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="86"/>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="88"/>
       <c r="B7" s="28"/>
       <c r="C7" t="s">
         <v>8</v>
@@ -3778,8 +3602,8 @@
       <c r="D7" s="4"/>
       <c r="E7" s="6"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="86"/>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="88"/>
       <c r="B8" s="28"/>
       <c r="C8" t="s">
         <v>9</v>
@@ -3787,8 +3611,8 @@
       <c r="D8" s="4"/>
       <c r="E8" s="6"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="86"/>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="88"/>
       <c r="B9" s="28"/>
       <c r="C9" t="s">
         <v>10</v>
@@ -3796,8 +3620,8 @@
       <c r="D9" s="4"/>
       <c r="E9" s="6"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="86"/>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="88"/>
       <c r="B10" s="28"/>
       <c r="C10" t="s">
         <v>11</v>
@@ -3805,8 +3629,8 @@
       <c r="D10" s="4"/>
       <c r="E10" s="6"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="86" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="88" t="s">
         <v>16</v>
       </c>
       <c r="B11" s="28"/>
@@ -3814,29 +3638,29 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="86"/>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="88"/>
       <c r="B12" s="28"/>
       <c r="C12" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="86"/>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="88"/>
       <c r="B13" s="28"/>
       <c r="C13" s="7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="86"/>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="88"/>
       <c r="B14" s="28"/>
       <c r="C14" s="7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="86"/>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="88"/>
       <c r="B15" s="28"/>
       <c r="C15" s="7" t="s">
         <v>21</v>
@@ -3845,8 +3669,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A16" s="86"/>
+    <row r="16" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="88"/>
       <c r="B16" s="28"/>
       <c r="C16" s="7" t="s">
         <v>22</v>
@@ -3855,8 +3679,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="86" t="s">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="88" t="s">
         <v>23</v>
       </c>
       <c r="B17" s="28"/>
@@ -3870,8 +3694,8 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="86"/>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="88"/>
       <c r="B18" s="28"/>
       <c r="C18" s="8" t="s">
         <v>25</v>
@@ -3880,22 +3704,22 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="86"/>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="88"/>
       <c r="B19" s="28"/>
       <c r="C19" s="8" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="86"/>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="88"/>
       <c r="B20" s="28"/>
       <c r="C20" s="8" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A21" s="86"/>
+    <row r="21" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A21" s="88"/>
       <c r="B21" s="28"/>
       <c r="C21" s="8" t="s">
         <v>28</v>
@@ -3904,8 +3728,8 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="86"/>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="88"/>
       <c r="B22" s="28"/>
       <c r="C22" s="8" t="s">
         <v>29</v>
@@ -3914,8 +3738,8 @@
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A23" s="86"/>
+    <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="88"/>
       <c r="B23" s="28"/>
       <c r="C23" s="8" t="s">
         <v>30</v>
@@ -3924,15 +3748,15 @@
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="86"/>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="88"/>
       <c r="B24" s="28"/>
       <c r="C24" s="8" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="86" t="s">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="88" t="s">
         <v>41</v>
       </c>
       <c r="B25" s="28"/>
@@ -3946,8 +3770,8 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="86"/>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="88"/>
       <c r="B26" s="28"/>
       <c r="C26" s="9" t="s">
         <v>43</v>
@@ -3956,8 +3780,8 @@
         <v>47</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="86"/>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="88"/>
       <c r="B27" s="28"/>
       <c r="C27" s="9" t="s">
         <v>44</v>
@@ -3966,8 +3790,8 @@
         <v>48</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="86"/>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="88"/>
       <c r="B28" s="28"/>
       <c r="C28" s="9" t="s">
         <v>41</v>
@@ -3976,8 +3800,8 @@
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="86"/>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="88"/>
       <c r="B29" s="28"/>
       <c r="C29" s="9" t="s">
         <v>45</v>
@@ -3986,8 +3810,8 @@
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="86"/>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="88"/>
       <c r="B30" s="28"/>
       <c r="C30" s="9" t="s">
         <v>46</v>
@@ -3996,94 +3820,94 @@
         <v>51</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="86"/>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="88"/>
       <c r="B31" s="28"/>
       <c r="D31" s="9" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="86"/>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="88"/>
       <c r="B32" s="28"/>
       <c r="D32" s="9" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="86"/>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="88"/>
       <c r="B33" s="28"/>
       <c r="D33" s="9" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="86"/>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="88"/>
       <c r="B34" s="28"/>
       <c r="D34" s="9" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="86"/>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="88"/>
       <c r="B35" s="28"/>
       <c r="D35" s="9" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="86"/>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="88"/>
       <c r="B36" s="28"/>
       <c r="D36" s="9" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="87" t="s">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="89" t="s">
         <v>58</v>
       </c>
       <c r="D37" s="11" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="87"/>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="89"/>
       <c r="D38" s="11" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="87"/>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="89"/>
       <c r="D39" s="11" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="87"/>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="89"/>
       <c r="D40" s="11" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="87"/>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="89"/>
       <c r="D41" s="11" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="87"/>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="89"/>
       <c r="D42" s="11" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="87"/>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="89"/>
       <c r="D43" s="11" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="87" t="s">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="89" t="s">
         <v>66</v>
       </c>
       <c r="C44" s="12" t="s">
@@ -4093,8 +3917,8 @@
         <v>68</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="87"/>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="89"/>
       <c r="C45" s="12" t="s">
         <v>67</v>
       </c>
@@ -4102,8 +3926,8 @@
         <v>69</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="87"/>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="89"/>
       <c r="C46" s="12" t="s">
         <v>44</v>
       </c>
@@ -4111,44 +3935,44 @@
         <v>70</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="87"/>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="89"/>
       <c r="D47" s="12" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="87"/>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="89"/>
       <c r="D48" s="12" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="87"/>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="89"/>
       <c r="D49" s="12" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" s="87"/>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="89"/>
       <c r="D50" s="12" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="87"/>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="89"/>
       <c r="D51" s="12" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="87"/>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="89"/>
       <c r="D52" s="12" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="158.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="87" t="s">
+    <row r="53" spans="1:5" ht="158.44999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="89" t="s">
         <v>77</v>
       </c>
       <c r="C53" s="14" t="s">
@@ -4159,8 +3983,8 @@
       </c>
       <c r="E53" s="13"/>
     </row>
-    <row r="54" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A54" s="87"/>
+    <row r="54" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A54" s="89"/>
       <c r="C54" s="14" t="s">
         <v>87</v>
       </c>
@@ -4169,8 +3993,8 @@
       </c>
       <c r="E54" s="13"/>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55" s="87" t="s">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="89" t="s">
         <v>80</v>
       </c>
       <c r="C55" s="14" t="s">
@@ -4180,8 +4004,8 @@
         <v>88</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" s="87"/>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="89"/>
       <c r="C56" s="14" t="s">
         <v>82</v>
       </c>
@@ -4189,8 +4013,8 @@
         <v>89</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57" s="87"/>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="89"/>
       <c r="C57" s="14" t="s">
         <v>83</v>
       </c>
@@ -4198,8 +4022,8 @@
         <v>90</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" s="87"/>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="89"/>
       <c r="C58" s="14" t="s">
         <v>84</v>
       </c>
@@ -4207,8 +4031,8 @@
         <v>91</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A59" s="87"/>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="89"/>
       <c r="C59" s="14" t="s">
         <v>85</v>
       </c>
@@ -4216,74 +4040,74 @@
         <v>92</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A60" s="87"/>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="89"/>
       <c r="D60" s="14" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A61" s="87"/>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="89"/>
       <c r="D61" s="14" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A62" s="87"/>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="89"/>
       <c r="D62" s="14" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A63" s="87"/>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="89"/>
       <c r="D63" s="14" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A64" s="87"/>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="89"/>
       <c r="D64" s="14" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A65" s="87"/>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="89"/>
       <c r="D65" s="14" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A66" s="87"/>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="89"/>
       <c r="D66" s="14" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A67" s="87"/>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="89"/>
       <c r="D67" s="14" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A68" s="87"/>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="89"/>
       <c r="D68" s="14" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A69" s="87"/>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="89"/>
       <c r="D69" s="14" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A70" s="87"/>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="89"/>
       <c r="D70" s="14" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A71" s="87" t="s">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="89" t="s">
         <v>104</v>
       </c>
       <c r="C71" s="15" t="s">
@@ -4293,8 +4117,8 @@
         <v>109</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A72" s="87"/>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="89"/>
       <c r="C72" s="15" t="s">
         <v>106</v>
       </c>
@@ -4302,8 +4126,8 @@
         <v>110</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A73" s="87"/>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="89"/>
       <c r="C73" s="15" t="s">
         <v>107</v>
       </c>
@@ -4311,8 +4135,8 @@
         <v>111</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A74" s="87"/>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="89"/>
       <c r="C74" s="15" t="s">
         <v>108</v>
       </c>
@@ -4320,44 +4144,44 @@
         <v>37</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A75" s="87"/>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="89"/>
       <c r="D75" s="15" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A76" s="87"/>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="89"/>
       <c r="D76" s="15" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A77" s="87"/>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="89"/>
       <c r="D77" s="15" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A78" s="87"/>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="89"/>
       <c r="D78" s="15" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A79" s="87"/>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="89"/>
       <c r="D79" s="15" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A80" s="87"/>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="89"/>
       <c r="D80" s="15" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A81" s="87" t="s">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="89" t="s">
         <v>117</v>
       </c>
       <c r="C81" s="16" t="s">
@@ -4367,8 +4191,8 @@
         <v>111</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A82" s="87"/>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="89"/>
       <c r="C82" s="16" t="s">
         <v>119</v>
       </c>
@@ -4376,8 +4200,8 @@
         <v>121</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A83" s="87"/>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="89"/>
       <c r="C83" s="16" t="s">
         <v>120</v>
       </c>
@@ -4385,26 +4209,26 @@
         <v>122</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A84" s="87"/>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="89"/>
       <c r="D84" s="16" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A85" s="87"/>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="89"/>
       <c r="D85" s="16" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A86" s="87"/>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="89"/>
       <c r="D86" s="16" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A87" s="87" t="s">
+    <row r="87" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A87" s="89" t="s">
         <v>125</v>
       </c>
       <c r="C87" s="17" t="s">
@@ -4414,8 +4238,8 @@
         <v>115</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="72" x14ac:dyDescent="0.3">
-      <c r="A88" s="87"/>
+    <row r="88" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A88" s="89"/>
       <c r="C88" s="17" t="s">
         <v>127</v>
       </c>
@@ -4423,8 +4247,8 @@
         <v>130</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A89" s="87"/>
+    <row r="89" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A89" s="89"/>
       <c r="C89" s="17" t="s">
         <v>128</v>
       </c>
@@ -4432,14 +4256,14 @@
         <v>131</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A90" s="87"/>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="89"/>
       <c r="C90" s="17" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A91" s="87" t="s">
+    <row r="91" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A91" s="89" t="s">
         <v>132</v>
       </c>
       <c r="C91" s="19" t="s">
@@ -4449,8 +4273,8 @@
         <v>115</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A92" s="87"/>
+    <row r="92" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A92" s="89"/>
       <c r="C92" s="19" t="s">
         <v>134</v>
       </c>
@@ -4458,67 +4282,67 @@
         <v>140</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A93" s="87"/>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="89"/>
       <c r="C93" s="19" t="s">
         <v>135</v>
       </c>
       <c r="D93" s="19"/>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A94" s="87"/>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="89"/>
       <c r="C94" s="19" t="s">
         <v>136</v>
       </c>
       <c r="D94" s="19"/>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A95" s="87"/>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="89"/>
       <c r="C95" s="19" t="s">
         <v>137</v>
       </c>
       <c r="D95" s="19"/>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A96" s="87"/>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="89"/>
       <c r="C96" s="19" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A97" s="87"/>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="89"/>
       <c r="C97" s="19" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A98" s="87" t="s">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="89" t="s">
         <v>141</v>
       </c>
       <c r="D98" s="20" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A99" s="87"/>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="89"/>
       <c r="D99" s="20" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A100" s="87"/>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="89"/>
       <c r="D100" s="20" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A101" s="87"/>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" s="89"/>
       <c r="D101" s="20" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A102" s="87" t="s">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" s="89" t="s">
         <v>146</v>
       </c>
       <c r="C102" s="23" t="s">
@@ -4528,8 +4352,8 @@
         <v>111</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A103" s="87"/>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" s="89"/>
       <c r="C103" s="23" t="s">
         <v>138</v>
       </c>
@@ -4537,8 +4361,8 @@
         <v>150</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A104" s="87"/>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" s="89"/>
       <c r="C104" s="23" t="s">
         <v>135</v>
       </c>
@@ -4546,8 +4370,8 @@
         <v>121</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A105" s="87"/>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" s="89"/>
       <c r="C105" s="23" t="s">
         <v>147</v>
       </c>
@@ -4555,8 +4379,8 @@
         <v>122</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A106" s="87"/>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" s="89"/>
       <c r="C106" s="23" t="s">
         <v>148</v>
       </c>
@@ -4564,14 +4388,14 @@
         <v>123</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A107" s="87"/>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" s="89"/>
       <c r="C107" s="23" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A108" s="87" t="s">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" s="89" t="s">
         <v>151</v>
       </c>
       <c r="C108" s="24" t="s">
@@ -4581,8 +4405,8 @@
         <v>154</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A109" s="87"/>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" s="89"/>
       <c r="C109" s="24" t="s">
         <v>153</v>
       </c>
@@ -4590,32 +4414,32 @@
         <v>112</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A110" s="87"/>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" s="89"/>
       <c r="D110" s="24" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A111" s="87"/>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" s="89"/>
       <c r="D111" s="24" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A112" s="87"/>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" s="89"/>
       <c r="D112" s="24" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A113" s="87"/>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" s="89"/>
       <c r="D113" s="24" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A114" s="87" t="s">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" s="89" t="s">
         <v>163</v>
       </c>
       <c r="C114" s="25" t="s">
@@ -4625,8 +4449,8 @@
         <v>162</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A115" s="87"/>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" s="89"/>
       <c r="C115" s="25" t="s">
         <v>119</v>
       </c>
@@ -4634,8 +4458,8 @@
         <v>159</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A116" s="87"/>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" s="89"/>
       <c r="C116" s="25" t="s">
         <v>120</v>
       </c>
@@ -4643,58 +4467,58 @@
         <v>160</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A117" s="87"/>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" s="89"/>
       <c r="D117" s="25" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A118" s="87"/>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" s="89"/>
       <c r="D118" s="25"/>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A119" s="87"/>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" s="89"/>
       <c r="D119" s="25" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A120" s="87"/>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" s="89"/>
       <c r="D120" s="25" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A121" s="87"/>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" s="89"/>
       <c r="D121" s="25" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A122" s="87"/>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122" s="89"/>
       <c r="D122" s="25" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A123" s="87"/>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123" s="89"/>
       <c r="D123" s="25"/>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A124" s="87"/>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124" s="89"/>
       <c r="D124" s="25" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="125" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A125" s="87"/>
+    <row r="125" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A125" s="89"/>
       <c r="D125" s="26" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A126" s="87"/>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126" s="89"/>
       <c r="D126" s="25" t="s">
         <v>170</v>
       </c>
@@ -4732,24 +4556,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M98"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F32" sqref="F32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B10" sqref="B10:B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.44140625" customWidth="1"/>
-    <col min="2" max="2" width="47.33203125" style="54" customWidth="1"/>
+    <col min="1" max="1" width="20.42578125" customWidth="1"/>
+    <col min="2" max="2" width="47.28515625" style="54" customWidth="1"/>
     <col min="3" max="3" width="44" style="54" customWidth="1"/>
-    <col min="4" max="4" width="38.33203125" customWidth="1"/>
-    <col min="5" max="5" width="21.6640625" style="44" customWidth="1"/>
-    <col min="6" max="6" width="103.44140625" customWidth="1"/>
-    <col min="7" max="12" width="37.33203125" style="44" customWidth="1"/>
-    <col min="13" max="13" width="52.44140625" customWidth="1"/>
+    <col min="4" max="4" width="38.28515625" customWidth="1"/>
+    <col min="5" max="5" width="21.7109375" style="44" customWidth="1"/>
+    <col min="6" max="6" width="103.42578125" customWidth="1"/>
+    <col min="7" max="12" width="37.28515625" style="44" customWidth="1"/>
+    <col min="13" max="13" width="52.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="48" t="s">
         <v>1</v>
       </c>
@@ -4763,45 +4587,45 @@
         <v>197</v>
       </c>
       <c r="E1" s="51" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="F1" s="51" t="s">
         <v>12</v>
       </c>
       <c r="G1" s="45" t="s">
+        <v>313</v>
+      </c>
+      <c r="H1" s="45" t="s">
+        <v>314</v>
+      </c>
+      <c r="I1" s="45" t="s">
         <v>315</v>
       </c>
-      <c r="H1" s="45" t="s">
+      <c r="J1" s="45" t="s">
         <v>316</v>
       </c>
-      <c r="I1" s="45" t="s">
+      <c r="K1" s="45" t="s">
         <v>317</v>
       </c>
-      <c r="J1" s="45" t="s">
-        <v>318</v>
-      </c>
-      <c r="K1" s="45" t="s">
-        <v>319</v>
-      </c>
       <c r="L1" s="45" t="s">
+        <v>329</v>
+      </c>
+      <c r="M1" s="45" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="90" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="87" t="s">
+        <v>370</v>
+      </c>
+      <c r="C2" s="87" t="s">
+        <v>369</v>
+      </c>
+      <c r="D2" s="53" t="s">
         <v>331</v>
-      </c>
-      <c r="M1" s="45" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="92" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="85" t="s">
-        <v>372</v>
-      </c>
-      <c r="C2" s="85" t="s">
-        <v>371</v>
-      </c>
-      <c r="D2" s="53" t="s">
-        <v>333</v>
       </c>
       <c r="E2" s="68" t="s">
         <v>21</v>
@@ -4821,47 +4645,47 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="44" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A3" s="93"/>
-      <c r="B3" s="94"/>
-      <c r="C3" s="94"/>
+    <row r="3" spans="1:13" s="44" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="91"/>
+      <c r="B3" s="92"/>
+      <c r="C3" s="92"/>
       <c r="D3" s="76" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="E3" s="76"/>
-      <c r="F3" s="90" t="s">
-        <v>374</v>
+      <c r="F3" s="77" t="s">
+        <v>372</v>
       </c>
       <c r="G3" s="75"/>
       <c r="H3" s="75"/>
       <c r="I3" s="75" t="s">
-        <v>373</v>
-      </c>
-      <c r="J3" s="91" t="s">
-        <v>370</v>
+        <v>371</v>
+      </c>
+      <c r="J3" s="78" t="s">
+        <v>368</v>
       </c>
       <c r="K3" s="75"/>
-      <c r="L3" s="91"/>
-      <c r="M3" s="91"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="86" t="s">
+      <c r="L3" s="78"/>
+      <c r="M3" s="78"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="88" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="87" t="s">
-        <v>292</v>
-      </c>
-      <c r="C4" s="87" t="s">
-        <v>289</v>
-      </c>
-      <c r="D4" s="77" t="s">
+      <c r="B4" s="89" t="s">
+        <v>291</v>
+      </c>
+      <c r="C4" s="89" t="s">
+        <v>288</v>
+      </c>
+      <c r="D4" s="83" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="77" t="s">
+      <c r="E4" s="83" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="77" t="s">
-        <v>279</v>
+      <c r="F4" s="83" t="s">
+        <v>278</v>
       </c>
       <c r="G4" s="65"/>
       <c r="H4" s="65"/>
@@ -4869,120 +4693,120 @@
       <c r="J4" s="66"/>
       <c r="K4" s="65"/>
       <c r="L4" s="66" t="s">
-        <v>278</v>
-      </c>
-      <c r="M4" s="81" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="86"/>
-      <c r="B5" s="87"/>
-      <c r="C5" s="87"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="77"/>
-      <c r="F5" s="77"/>
+        <v>277</v>
+      </c>
+      <c r="M4" s="79" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="88"/>
+      <c r="B5" s="89"/>
+      <c r="C5" s="89"/>
+      <c r="D5" s="83"/>
+      <c r="E5" s="83"/>
+      <c r="F5" s="83"/>
       <c r="G5" s="65"/>
       <c r="H5" s="65"/>
       <c r="I5" s="65"/>
       <c r="J5" s="66"/>
       <c r="K5" s="65"/>
       <c r="L5" s="66" t="s">
-        <v>278</v>
-      </c>
-      <c r="M5" s="82"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="86"/>
-      <c r="B6" s="87"/>
-      <c r="C6" s="87"/>
-      <c r="D6" s="77"/>
-      <c r="E6" s="77"/>
-      <c r="F6" s="77"/>
+        <v>277</v>
+      </c>
+      <c r="M5" s="80"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="88"/>
+      <c r="B6" s="89"/>
+      <c r="C6" s="89"/>
+      <c r="D6" s="83"/>
+      <c r="E6" s="83"/>
+      <c r="F6" s="83"/>
       <c r="G6" s="65"/>
       <c r="H6" s="65"/>
       <c r="I6" s="65"/>
       <c r="J6" s="66"/>
       <c r="K6" s="65"/>
       <c r="L6" s="66" t="s">
-        <v>278</v>
-      </c>
-      <c r="M6" s="82"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="86"/>
-      <c r="B7" s="87"/>
-      <c r="C7" s="87"/>
-      <c r="D7" s="77"/>
-      <c r="E7" s="77"/>
-      <c r="F7" s="77"/>
+        <v>277</v>
+      </c>
+      <c r="M6" s="80"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="88"/>
+      <c r="B7" s="89"/>
+      <c r="C7" s="89"/>
+      <c r="D7" s="83"/>
+      <c r="E7" s="83"/>
+      <c r="F7" s="83"/>
       <c r="G7" s="65"/>
       <c r="H7" s="65"/>
       <c r="I7" s="65"/>
       <c r="J7" s="66"/>
       <c r="K7" s="65"/>
       <c r="L7" s="66" t="s">
-        <v>278</v>
-      </c>
-      <c r="M7" s="82"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="86"/>
-      <c r="B8" s="87"/>
-      <c r="C8" s="87"/>
-      <c r="D8" s="77"/>
-      <c r="E8" s="77"/>
-      <c r="F8" s="77"/>
+        <v>277</v>
+      </c>
+      <c r="M7" s="80"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="88"/>
+      <c r="B8" s="89"/>
+      <c r="C8" s="89"/>
+      <c r="D8" s="83"/>
+      <c r="E8" s="83"/>
+      <c r="F8" s="83"/>
       <c r="G8" s="65"/>
       <c r="H8" s="65"/>
       <c r="I8" s="65"/>
       <c r="J8" s="66"/>
       <c r="K8" s="65"/>
       <c r="L8" s="66" t="s">
-        <v>278</v>
-      </c>
-      <c r="M8" s="82"/>
-    </row>
-    <row r="9" spans="1:13" ht="72" x14ac:dyDescent="0.3">
-      <c r="A9" s="86"/>
-      <c r="B9" s="87"/>
-      <c r="C9" s="87"/>
+        <v>277</v>
+      </c>
+      <c r="M8" s="80"/>
+    </row>
+    <row r="9" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="A9" s="88"/>
+      <c r="B9" s="89"/>
+      <c r="C9" s="89"/>
       <c r="D9" s="50" t="s">
         <v>22</v>
       </c>
       <c r="E9" s="67"/>
       <c r="F9" s="50" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="G9" s="65"/>
       <c r="H9" s="65"/>
       <c r="I9" s="65" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="J9" s="65" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="K9" s="65"/>
       <c r="L9" s="69"/>
       <c r="M9" s="44"/>
     </row>
-    <row r="10" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="86" t="s">
+    <row r="10" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="88" t="s">
         <v>213</v>
       </c>
-      <c r="B10" s="88" t="s">
-        <v>294</v>
-      </c>
-      <c r="C10" s="87" t="s">
-        <v>293</v>
-      </c>
-      <c r="D10" s="77" t="s">
+      <c r="B10" s="94" t="s">
+        <v>380</v>
+      </c>
+      <c r="C10" s="89" t="s">
+        <v>292</v>
+      </c>
+      <c r="D10" s="83" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="77" t="s">
+      <c r="E10" s="83" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="77" t="s">
+      <c r="F10" s="83" t="s">
         <v>32</v>
       </c>
       <c r="G10" s="65"/>
@@ -4993,17 +4817,17 @@
       <c r="L10" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="M10" s="81" t="s">
+      <c r="M10" s="79" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="86"/>
-      <c r="B11" s="77"/>
-      <c r="C11" s="87"/>
-      <c r="D11" s="77"/>
-      <c r="E11" s="77"/>
-      <c r="F11" s="77"/>
+    <row r="11" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="88"/>
+      <c r="B11" s="83"/>
+      <c r="C11" s="89"/>
+      <c r="D11" s="83"/>
+      <c r="E11" s="83"/>
+      <c r="F11" s="83"/>
       <c r="G11" s="65"/>
       <c r="H11" s="65"/>
       <c r="I11" s="65"/>
@@ -5012,15 +4836,15 @@
       <c r="L11" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="M11" s="82"/>
-    </row>
-    <row r="12" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="86"/>
-      <c r="B12" s="77"/>
-      <c r="C12" s="87"/>
-      <c r="D12" s="77"/>
-      <c r="E12" s="77"/>
-      <c r="F12" s="77"/>
+      <c r="M11" s="80"/>
+    </row>
+    <row r="12" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="88"/>
+      <c r="B12" s="83"/>
+      <c r="C12" s="89"/>
+      <c r="D12" s="83"/>
+      <c r="E12" s="83"/>
+      <c r="F12" s="83"/>
       <c r="G12" s="65"/>
       <c r="H12" s="65"/>
       <c r="I12" s="65"/>
@@ -5029,12 +4853,12 @@
       <c r="L12" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="M12" s="82"/>
-    </row>
-    <row r="13" spans="1:13" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A13" s="86"/>
-      <c r="B13" s="77"/>
-      <c r="C13" s="87"/>
+      <c r="M12" s="80"/>
+    </row>
+    <row r="13" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+      <c r="A13" s="88"/>
+      <c r="B13" s="83"/>
+      <c r="C13" s="89"/>
       <c r="D13" s="50" t="s">
         <v>28</v>
       </c>
@@ -5052,12 +4876,12 @@
       <c r="L13" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="M13" s="82"/>
-    </row>
-    <row r="14" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="86"/>
-      <c r="B14" s="77"/>
-      <c r="C14" s="87"/>
+      <c r="M13" s="80"/>
+    </row>
+    <row r="14" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="88"/>
+      <c r="B14" s="83"/>
+      <c r="C14" s="89"/>
       <c r="D14" s="50" t="s">
         <v>29</v>
       </c>
@@ -5075,12 +4899,12 @@
       <c r="L14" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="M14" s="82"/>
-    </row>
-    <row r="15" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="86"/>
-      <c r="B15" s="77"/>
-      <c r="C15" s="87"/>
+      <c r="M14" s="80"/>
+    </row>
+    <row r="15" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="88"/>
+      <c r="B15" s="83"/>
+      <c r="C15" s="89"/>
       <c r="D15" s="50" t="s">
         <v>30</v>
       </c>
@@ -5096,12 +4920,12 @@
       <c r="L15" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="M15" s="82"/>
-    </row>
-    <row r="16" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A16" s="86"/>
-      <c r="B16" s="77"/>
-      <c r="C16" s="87"/>
+      <c r="M15" s="80"/>
+    </row>
+    <row r="16" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="88"/>
+      <c r="B16" s="83"/>
+      <c r="C16" s="89"/>
       <c r="D16" s="50" t="s">
         <v>31</v>
       </c>
@@ -5117,17 +4941,17 @@
       <c r="L16" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="M16" s="82"/>
-    </row>
-    <row r="17" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A17" s="86" t="s">
+      <c r="M16" s="80"/>
+    </row>
+    <row r="17" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="88" t="s">
         <v>41</v>
       </c>
-      <c r="B17" s="87" t="s">
+      <c r="B17" s="89" t="s">
+        <v>252</v>
+      </c>
+      <c r="C17" s="89" t="s">
         <v>253</v>
-      </c>
-      <c r="C17" s="87" t="s">
-        <v>254</v>
       </c>
       <c r="D17" s="50" t="s">
         <v>42</v>
@@ -5144,14 +4968,14 @@
       <c r="L17" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="M17" s="81" t="s">
+      <c r="M17" s="79" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A18" s="86"/>
-      <c r="B18" s="87"/>
-      <c r="C18" s="87"/>
+    <row r="18" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18" s="88"/>
+      <c r="B18" s="89"/>
+      <c r="C18" s="89"/>
       <c r="D18" s="50" t="s">
         <v>43</v>
       </c>
@@ -5167,12 +4991,12 @@
       <c r="L18" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="M18" s="81"/>
-    </row>
-    <row r="19" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A19" s="86"/>
-      <c r="B19" s="87"/>
-      <c r="C19" s="87"/>
+      <c r="M18" s="79"/>
+    </row>
+    <row r="19" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="88"/>
+      <c r="B19" s="89"/>
+      <c r="C19" s="89"/>
       <c r="D19" s="50" t="s">
         <v>44</v>
       </c>
@@ -5188,12 +5012,12 @@
       <c r="L19" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="M19" s="81"/>
-    </row>
-    <row r="20" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A20" s="86"/>
-      <c r="B20" s="87"/>
-      <c r="C20" s="87"/>
+      <c r="M19" s="79"/>
+    </row>
+    <row r="20" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="88"/>
+      <c r="B20" s="89"/>
+      <c r="C20" s="89"/>
       <c r="D20" s="50" t="s">
         <v>41</v>
       </c>
@@ -5209,12 +5033,12 @@
       <c r="L20" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="M20" s="81"/>
-    </row>
-    <row r="21" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A21" s="86"/>
-      <c r="B21" s="87"/>
-      <c r="C21" s="87"/>
+      <c r="M20" s="79"/>
+    </row>
+    <row r="21" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="88"/>
+      <c r="B21" s="89"/>
+      <c r="C21" s="89"/>
       <c r="D21" s="50" t="s">
         <v>45</v>
       </c>
@@ -5230,12 +5054,12 @@
       <c r="L21" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="M21" s="81"/>
-    </row>
-    <row r="22" spans="1:13" ht="72" x14ac:dyDescent="0.3">
-      <c r="A22" s="86"/>
-      <c r="B22" s="87"/>
-      <c r="C22" s="87"/>
+      <c r="M21" s="79"/>
+    </row>
+    <row r="22" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="A22" s="88"/>
+      <c r="B22" s="89"/>
+      <c r="C22" s="89"/>
       <c r="D22" s="50" t="s">
         <v>46</v>
       </c>
@@ -5243,7 +5067,7 @@
         <v>214</v>
       </c>
       <c r="F22" s="50" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="G22" s="65"/>
       <c r="H22" s="65"/>
@@ -5253,12 +5077,12 @@
       <c r="L22" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="M22" s="81"/>
-    </row>
-    <row r="23" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A23" s="86"/>
-      <c r="B23" s="87"/>
-      <c r="C23" s="87"/>
+      <c r="M22" s="79"/>
+    </row>
+    <row r="23" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="88"/>
+      <c r="B23" s="89"/>
+      <c r="C23" s="89"/>
       <c r="E23" s="73"/>
       <c r="F23" s="50"/>
       <c r="G23" s="65"/>
@@ -5269,12 +5093,12 @@
       <c r="L23" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="M23" s="81"/>
-    </row>
-    <row r="24" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A24" s="86"/>
-      <c r="B24" s="87"/>
-      <c r="C24" s="87"/>
+      <c r="M23" s="79"/>
+    </row>
+    <row r="24" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A24" s="88"/>
+      <c r="B24" s="89"/>
+      <c r="C24" s="89"/>
       <c r="D24" s="73" t="s">
         <v>214</v>
       </c>
@@ -5292,12 +5116,12 @@
       <c r="L24" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="M24" s="81"/>
-    </row>
-    <row r="25" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A25" s="86"/>
-      <c r="B25" s="87"/>
-      <c r="C25" s="87"/>
+      <c r="M24" s="79"/>
+    </row>
+    <row r="25" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A25" s="88"/>
+      <c r="B25" s="89"/>
+      <c r="C25" s="89"/>
       <c r="D25" s="50" t="s">
         <v>215</v>
       </c>
@@ -5315,17 +5139,17 @@
       <c r="L25" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="M25" s="81"/>
-    </row>
-    <row r="26" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A26" s="87" t="s">
+      <c r="M25" s="79"/>
+    </row>
+    <row r="26" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="89" t="s">
         <v>58</v>
       </c>
-      <c r="B26" s="87" t="s">
-        <v>237</v>
-      </c>
-      <c r="C26" s="87" t="s">
-        <v>295</v>
+      <c r="B26" s="89" t="s">
+        <v>236</v>
+      </c>
+      <c r="C26" s="89" t="s">
+        <v>293</v>
       </c>
       <c r="D26" s="44"/>
       <c r="F26" s="50"/>
@@ -5337,14 +5161,14 @@
       <c r="L26" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="M26" s="81" t="s">
+      <c r="M26" s="79" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A27" s="87"/>
-      <c r="B27" s="87"/>
-      <c r="C27" s="87"/>
+    <row r="27" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A27" s="89"/>
+      <c r="B27" s="89"/>
+      <c r="C27" s="89"/>
       <c r="D27" s="73" t="s">
         <v>58</v>
       </c>
@@ -5352,7 +5176,7 @@
         <v>218</v>
       </c>
       <c r="F27" s="73" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="G27" s="43"/>
       <c r="H27" s="43"/>
@@ -5362,12 +5186,12 @@
       <c r="L27" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="M27" s="82"/>
-    </row>
-    <row r="28" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A28" s="87"/>
-      <c r="B28" s="87"/>
-      <c r="C28" s="87"/>
+      <c r="M27" s="80"/>
+    </row>
+    <row r="28" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="89"/>
+      <c r="B28" s="89"/>
+      <c r="C28" s="89"/>
       <c r="D28" s="73"/>
       <c r="F28" s="73"/>
       <c r="G28" s="65"/>
@@ -5378,12 +5202,12 @@
       <c r="L28" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="M28" s="82"/>
-    </row>
-    <row r="29" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A29" s="87"/>
-      <c r="B29" s="87"/>
-      <c r="C29" s="87"/>
+      <c r="M28" s="80"/>
+    </row>
+    <row r="29" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A29" s="89"/>
+      <c r="B29" s="89"/>
+      <c r="C29" s="89"/>
       <c r="D29" s="50" t="s">
         <v>216</v>
       </c>
@@ -5399,17 +5223,17 @@
       <c r="L29" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="M29" s="82"/>
-    </row>
-    <row r="30" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A30" s="87" t="s">
+      <c r="M29" s="80"/>
+    </row>
+    <row r="30" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="89" t="s">
         <v>66</v>
       </c>
-      <c r="B30" s="87" t="s">
+      <c r="B30" s="89" t="s">
+        <v>254</v>
+      </c>
+      <c r="C30" s="89" t="s">
         <v>255</v>
-      </c>
-      <c r="C30" s="87" t="s">
-        <v>256</v>
       </c>
       <c r="D30" s="50" t="s">
         <v>217</v>
@@ -5424,16 +5248,16 @@
       <c r="J30" s="66"/>
       <c r="K30" s="42"/>
       <c r="L30" s="66" t="s">
-        <v>280</v>
-      </c>
-      <c r="M30" s="81" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A31" s="87"/>
-      <c r="B31" s="87"/>
-      <c r="C31" s="87"/>
+        <v>279</v>
+      </c>
+      <c r="M30" s="79" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="89"/>
+      <c r="B31" s="89"/>
+      <c r="C31" s="89"/>
       <c r="D31" s="50" t="s">
         <v>67</v>
       </c>
@@ -5449,14 +5273,14 @@
       <c r="J31" s="66"/>
       <c r="K31" s="65"/>
       <c r="L31" s="66" t="s">
-        <v>280</v>
-      </c>
-      <c r="M31" s="82"/>
-    </row>
-    <row r="32" spans="1:13" ht="187.2" x14ac:dyDescent="0.3">
-      <c r="A32" s="87"/>
-      <c r="B32" s="87"/>
-      <c r="C32" s="87"/>
+        <v>279</v>
+      </c>
+      <c r="M31" s="80"/>
+    </row>
+    <row r="32" spans="1:13" ht="210" x14ac:dyDescent="0.25">
+      <c r="A32" s="89"/>
+      <c r="B32" s="89"/>
+      <c r="C32" s="89"/>
       <c r="D32" s="73" t="s">
         <v>44</v>
       </c>
@@ -5464,7 +5288,7 @@
         <v>107</v>
       </c>
       <c r="F32" s="50" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="G32" s="65"/>
       <c r="H32" s="65"/>
@@ -5472,14 +5296,14 @@
       <c r="J32" s="66"/>
       <c r="K32" s="65"/>
       <c r="L32" s="66" t="s">
-        <v>280</v>
-      </c>
-      <c r="M32" s="82"/>
-    </row>
-    <row r="33" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A33" s="87"/>
-      <c r="B33" s="87"/>
-      <c r="C33" s="87"/>
+        <v>279</v>
+      </c>
+      <c r="M32" s="80"/>
+    </row>
+    <row r="33" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="89"/>
+      <c r="B33" s="89"/>
+      <c r="C33" s="89"/>
       <c r="D33" s="73"/>
       <c r="E33" s="67"/>
       <c r="F33" s="50"/>
@@ -5489,14 +5313,14 @@
       <c r="J33" s="66"/>
       <c r="K33" s="65"/>
       <c r="L33" s="66" t="s">
-        <v>280</v>
-      </c>
-      <c r="M33" s="82"/>
-    </row>
-    <row r="34" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A34" s="87"/>
-      <c r="B34" s="87"/>
-      <c r="C34" s="87"/>
+        <v>279</v>
+      </c>
+      <c r="M33" s="80"/>
+    </row>
+    <row r="34" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="89"/>
+      <c r="B34" s="89"/>
+      <c r="C34" s="89"/>
       <c r="D34" s="73"/>
       <c r="E34" s="67"/>
       <c r="F34" s="50"/>
@@ -5506,14 +5330,14 @@
       <c r="J34" s="66"/>
       <c r="K34" s="43"/>
       <c r="L34" s="66" t="s">
-        <v>280</v>
-      </c>
-      <c r="M34" s="82"/>
-    </row>
-    <row r="35" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A35" s="87"/>
-      <c r="B35" s="87"/>
-      <c r="C35" s="87"/>
+        <v>279</v>
+      </c>
+      <c r="M34" s="80"/>
+    </row>
+    <row r="35" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="89"/>
+      <c r="B35" s="89"/>
+      <c r="C35" s="89"/>
       <c r="D35" s="73"/>
       <c r="E35" s="67"/>
       <c r="F35" s="50"/>
@@ -5523,14 +5347,14 @@
       <c r="J35" s="66"/>
       <c r="K35" s="43"/>
       <c r="L35" s="66" t="s">
-        <v>280</v>
-      </c>
-      <c r="M35" s="82"/>
-    </row>
-    <row r="36" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A36" s="87"/>
-      <c r="B36" s="87"/>
-      <c r="C36" s="87"/>
+        <v>279</v>
+      </c>
+      <c r="M35" s="80"/>
+    </row>
+    <row r="36" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="89"/>
+      <c r="B36" s="89"/>
+      <c r="C36" s="89"/>
       <c r="D36" s="73"/>
       <c r="E36" s="67"/>
       <c r="F36" s="50"/>
@@ -5540,14 +5364,14 @@
       <c r="J36" s="66"/>
       <c r="K36" s="43"/>
       <c r="L36" s="66" t="s">
-        <v>280</v>
-      </c>
-      <c r="M36" s="82"/>
-    </row>
-    <row r="37" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A37" s="87"/>
-      <c r="B37" s="87"/>
-      <c r="C37" s="87"/>
+        <v>279</v>
+      </c>
+      <c r="M36" s="80"/>
+    </row>
+    <row r="37" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" s="89"/>
+      <c r="B37" s="89"/>
+      <c r="C37" s="89"/>
       <c r="D37" s="73"/>
       <c r="F37" s="50"/>
       <c r="G37" s="43"/>
@@ -5556,19 +5380,19 @@
       <c r="J37" s="66"/>
       <c r="K37" s="43"/>
       <c r="L37" s="66" t="s">
-        <v>280</v>
-      </c>
-      <c r="M37" s="82"/>
-    </row>
-    <row r="38" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A38" s="87" t="s">
+        <v>279</v>
+      </c>
+      <c r="M37" s="80"/>
+    </row>
+    <row r="38" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38" s="89" t="s">
         <v>77</v>
       </c>
-      <c r="B38" s="87" t="s">
-        <v>296</v>
-      </c>
-      <c r="C38" s="87" t="s">
-        <v>257</v>
+      <c r="B38" s="89" t="s">
+        <v>294</v>
+      </c>
+      <c r="C38" s="89" t="s">
+        <v>256</v>
       </c>
       <c r="D38" s="50" t="s">
         <v>218</v>
@@ -5577,7 +5401,7 @@
         <v>107</v>
       </c>
       <c r="F38" s="50" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="G38" s="65"/>
       <c r="H38" s="66" t="s">
@@ -5587,14 +5411,14 @@
       <c r="J38" s="65"/>
       <c r="K38" s="65"/>
       <c r="L38" s="69"/>
-      <c r="M38" s="81" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A39" s="87"/>
-      <c r="B39" s="87"/>
-      <c r="C39" s="87"/>
+      <c r="M38" s="79" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A39" s="89"/>
+      <c r="B39" s="89"/>
+      <c r="C39" s="89"/>
       <c r="D39" s="50" t="s">
         <v>219</v>
       </c>
@@ -5608,19 +5432,19 @@
       <c r="J39" s="66"/>
       <c r="K39" s="65"/>
       <c r="L39" s="66" t="s">
-        <v>281</v>
-      </c>
-      <c r="M39" s="82"/>
-    </row>
-    <row r="40" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A40" s="87" t="s">
+        <v>280</v>
+      </c>
+      <c r="M39" s="80"/>
+    </row>
+    <row r="40" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" s="89" t="s">
         <v>80</v>
       </c>
-      <c r="B40" s="87" t="s">
+      <c r="B40" s="89" t="s">
+        <v>257</v>
+      </c>
+      <c r="C40" s="89" t="s">
         <v>258</v>
-      </c>
-      <c r="C40" s="87" t="s">
-        <v>259</v>
       </c>
       <c r="D40" s="50" t="s">
         <v>81</v>
@@ -5634,16 +5458,16 @@
       <c r="I40" s="65"/>
       <c r="J40" s="47"/>
       <c r="L40" s="47" t="s">
-        <v>282</v>
-      </c>
-      <c r="M40" s="81" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A41" s="87"/>
-      <c r="B41" s="87"/>
-      <c r="C41" s="87"/>
+        <v>281</v>
+      </c>
+      <c r="M40" s="79" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A41" s="89"/>
+      <c r="B41" s="89"/>
+      <c r="C41" s="89"/>
       <c r="D41" s="50" t="s">
         <v>82</v>
       </c>
@@ -5654,14 +5478,14 @@
       <c r="I41" s="65"/>
       <c r="J41" s="47"/>
       <c r="L41" s="47" t="s">
-        <v>282</v>
-      </c>
-      <c r="M41" s="82"/>
-    </row>
-    <row r="42" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A42" s="87"/>
-      <c r="B42" s="87"/>
-      <c r="C42" s="87"/>
+        <v>281</v>
+      </c>
+      <c r="M41" s="80"/>
+    </row>
+    <row r="42" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A42" s="89"/>
+      <c r="B42" s="89"/>
+      <c r="C42" s="89"/>
       <c r="D42" s="50" t="s">
         <v>83</v>
       </c>
@@ -5677,20 +5501,20 @@
       <c r="J42" s="47"/>
       <c r="K42" s="65"/>
       <c r="L42" s="47" t="s">
-        <v>282</v>
-      </c>
-      <c r="M42" s="82"/>
-    </row>
-    <row r="43" spans="1:13" ht="201.6" x14ac:dyDescent="0.3">
-      <c r="A43" s="87"/>
-      <c r="B43" s="87"/>
-      <c r="C43" s="87"/>
+        <v>281</v>
+      </c>
+      <c r="M42" s="80"/>
+    </row>
+    <row r="43" spans="1:13" ht="225" x14ac:dyDescent="0.25">
+      <c r="A43" s="89"/>
+      <c r="B43" s="89"/>
+      <c r="C43" s="89"/>
       <c r="D43" s="73" t="s">
         <v>85</v>
       </c>
       <c r="E43" s="67"/>
       <c r="F43" s="50" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="G43" s="65"/>
       <c r="H43" s="65"/>
@@ -5698,14 +5522,14 @@
       <c r="J43" s="47"/>
       <c r="K43" s="65"/>
       <c r="L43" s="47" t="s">
-        <v>282</v>
-      </c>
-      <c r="M43" s="82"/>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A44" s="87"/>
-      <c r="B44" s="87"/>
-      <c r="C44" s="87"/>
+        <v>281</v>
+      </c>
+      <c r="M43" s="80"/>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A44" s="89"/>
+      <c r="B44" s="89"/>
+      <c r="C44" s="89"/>
       <c r="D44" s="73"/>
       <c r="E44" s="67"/>
       <c r="F44" s="50"/>
@@ -5715,14 +5539,14 @@
       <c r="J44" s="47"/>
       <c r="K44" s="65"/>
       <c r="L44" s="47" t="s">
-        <v>282</v>
-      </c>
-      <c r="M44" s="82"/>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A45" s="87"/>
-      <c r="B45" s="87"/>
-      <c r="C45" s="87"/>
+        <v>281</v>
+      </c>
+      <c r="M44" s="80"/>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A45" s="89"/>
+      <c r="B45" s="89"/>
+      <c r="C45" s="89"/>
       <c r="D45" s="73"/>
       <c r="E45" s="67"/>
       <c r="F45" s="50"/>
@@ -5732,145 +5556,145 @@
       <c r="J45" s="47"/>
       <c r="K45" s="65"/>
       <c r="L45" s="47" t="s">
-        <v>282</v>
-      </c>
-      <c r="M45" s="82"/>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A46" s="87"/>
-      <c r="B46" s="87"/>
-      <c r="C46" s="87"/>
+        <v>281</v>
+      </c>
+      <c r="M45" s="80"/>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A46" s="89"/>
+      <c r="B46" s="89"/>
+      <c r="C46" s="89"/>
       <c r="D46" s="73"/>
       <c r="E46" s="67"/>
       <c r="F46" s="50"/>
       <c r="I46" s="65"/>
       <c r="J46" s="47"/>
       <c r="L46" s="47" t="s">
-        <v>282</v>
-      </c>
-      <c r="M46" s="82"/>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A47" s="87"/>
-      <c r="B47" s="87"/>
-      <c r="C47" s="87"/>
+        <v>281</v>
+      </c>
+      <c r="M46" s="80"/>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A47" s="89"/>
+      <c r="B47" s="89"/>
+      <c r="C47" s="89"/>
       <c r="D47" s="73"/>
       <c r="E47" s="67"/>
       <c r="F47" s="50"/>
       <c r="I47" s="65"/>
       <c r="J47" s="47"/>
       <c r="L47" s="47" t="s">
-        <v>282</v>
-      </c>
-      <c r="M47" s="82"/>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A48" s="87"/>
-      <c r="B48" s="87"/>
-      <c r="C48" s="87"/>
+        <v>281</v>
+      </c>
+      <c r="M47" s="80"/>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A48" s="89"/>
+      <c r="B48" s="89"/>
+      <c r="C48" s="89"/>
       <c r="D48" s="73"/>
       <c r="E48" s="67"/>
       <c r="F48" s="50"/>
       <c r="I48" s="65"/>
       <c r="J48" s="47"/>
       <c r="L48" s="47" t="s">
-        <v>282</v>
-      </c>
-      <c r="M48" s="82"/>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A49" s="87"/>
-      <c r="B49" s="87"/>
-      <c r="C49" s="87"/>
+        <v>281</v>
+      </c>
+      <c r="M48" s="80"/>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A49" s="89"/>
+      <c r="B49" s="89"/>
+      <c r="C49" s="89"/>
       <c r="D49" s="73"/>
       <c r="E49" s="67"/>
       <c r="F49" s="50"/>
       <c r="I49" s="65"/>
       <c r="J49" s="47"/>
       <c r="L49" s="47" t="s">
-        <v>282</v>
-      </c>
-      <c r="M49" s="82"/>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A50" s="87"/>
-      <c r="B50" s="87"/>
-      <c r="C50" s="87"/>
+        <v>281</v>
+      </c>
+      <c r="M49" s="80"/>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A50" s="89"/>
+      <c r="B50" s="89"/>
+      <c r="C50" s="89"/>
       <c r="D50" s="73"/>
       <c r="E50" s="67"/>
       <c r="F50" s="50"/>
       <c r="I50" s="65"/>
       <c r="J50" s="47"/>
       <c r="L50" s="47" t="s">
-        <v>282</v>
-      </c>
-      <c r="M50" s="82"/>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A51" s="87"/>
-      <c r="B51" s="87"/>
-      <c r="C51" s="87"/>
+        <v>281</v>
+      </c>
+      <c r="M50" s="80"/>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A51" s="89"/>
+      <c r="B51" s="89"/>
+      <c r="C51" s="89"/>
       <c r="D51" s="73"/>
       <c r="E51" s="67"/>
       <c r="F51" s="50"/>
       <c r="I51" s="65"/>
       <c r="J51" s="47"/>
       <c r="L51" s="47" t="s">
-        <v>282</v>
-      </c>
-      <c r="M51" s="82"/>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A52" s="87"/>
-      <c r="B52" s="87"/>
-      <c r="C52" s="87"/>
+        <v>281</v>
+      </c>
+      <c r="M51" s="80"/>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A52" s="89"/>
+      <c r="B52" s="89"/>
+      <c r="C52" s="89"/>
       <c r="D52" s="73"/>
       <c r="E52" s="67"/>
       <c r="F52" s="50"/>
       <c r="I52" s="65"/>
       <c r="J52" s="47"/>
       <c r="L52" s="47" t="s">
-        <v>282</v>
-      </c>
-      <c r="M52" s="82"/>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A53" s="87"/>
-      <c r="B53" s="87"/>
-      <c r="C53" s="87"/>
+        <v>281</v>
+      </c>
+      <c r="M52" s="80"/>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A53" s="89"/>
+      <c r="B53" s="89"/>
+      <c r="C53" s="89"/>
       <c r="D53" s="73"/>
       <c r="E53" s="67"/>
       <c r="F53" s="50"/>
       <c r="I53" s="65"/>
       <c r="J53" s="47"/>
       <c r="L53" s="47" t="s">
-        <v>282</v>
-      </c>
-      <c r="M53" s="82"/>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A54" s="87"/>
-      <c r="B54" s="87"/>
-      <c r="C54" s="87"/>
+        <v>281</v>
+      </c>
+      <c r="M53" s="80"/>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A54" s="89"/>
+      <c r="B54" s="89"/>
+      <c r="C54" s="89"/>
       <c r="D54" s="73"/>
       <c r="E54" s="67"/>
       <c r="F54" s="50"/>
       <c r="I54" s="65"/>
       <c r="J54" s="47"/>
       <c r="L54" s="47" t="s">
-        <v>282</v>
-      </c>
-      <c r="M54" s="82"/>
-    </row>
-    <row r="55" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A55" s="87" t="s">
+        <v>281</v>
+      </c>
+      <c r="M54" s="80"/>
+    </row>
+    <row r="55" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A55" s="89" t="s">
         <v>189</v>
       </c>
-      <c r="B55" s="87" t="s">
+      <c r="B55" s="89" t="s">
+        <v>259</v>
+      </c>
+      <c r="C55" s="89" t="s">
         <v>260</v>
-      </c>
-      <c r="C55" s="87" t="s">
-        <v>261</v>
       </c>
       <c r="D55" s="50" t="s">
         <v>105</v>
@@ -5882,16 +5706,16 @@
       <c r="I55" s="65"/>
       <c r="J55" s="66"/>
       <c r="L55" s="66" t="s">
-        <v>323</v>
-      </c>
-      <c r="M55" s="89" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A56" s="87"/>
-      <c r="B56" s="87"/>
-      <c r="C56" s="87"/>
+        <v>321</v>
+      </c>
+      <c r="M55" s="93" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A56" s="89"/>
+      <c r="B56" s="89"/>
+      <c r="C56" s="89"/>
       <c r="D56" s="50" t="s">
         <v>106</v>
       </c>
@@ -5902,14 +5726,14 @@
       <c r="I56" s="65"/>
       <c r="J56" s="47"/>
       <c r="L56" s="47" t="s">
-        <v>323</v>
-      </c>
-      <c r="M56" s="82"/>
-    </row>
-    <row r="57" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A57" s="87"/>
-      <c r="B57" s="87"/>
-      <c r="C57" s="87"/>
+        <v>321</v>
+      </c>
+      <c r="M56" s="80"/>
+    </row>
+    <row r="57" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A57" s="89"/>
+      <c r="B57" s="89"/>
+      <c r="C57" s="89"/>
       <c r="D57" s="50" t="s">
         <v>107</v>
       </c>
@@ -5922,14 +5746,14 @@
       <c r="I57" s="65"/>
       <c r="J57" s="66"/>
       <c r="L57" s="66" t="s">
-        <v>323</v>
-      </c>
-      <c r="M57" s="82"/>
-    </row>
-    <row r="58" spans="1:13" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A58" s="87"/>
-      <c r="B58" s="87"/>
-      <c r="C58" s="87"/>
+        <v>321</v>
+      </c>
+      <c r="M57" s="80"/>
+    </row>
+    <row r="58" spans="1:13" ht="180" x14ac:dyDescent="0.25">
+      <c r="A58" s="89"/>
+      <c r="B58" s="89"/>
+      <c r="C58" s="89"/>
       <c r="D58" s="73" t="s">
         <v>108</v>
       </c>
@@ -5937,107 +5761,107 @@
         <v>153</v>
       </c>
       <c r="F58" s="50" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="I58" s="65"/>
       <c r="J58" s="47"/>
       <c r="L58" s="47" t="s">
-        <v>323</v>
-      </c>
-      <c r="M58" s="82"/>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A59" s="87"/>
-      <c r="B59" s="87"/>
-      <c r="C59" s="87"/>
+        <v>321</v>
+      </c>
+      <c r="M58" s="80"/>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A59" s="89"/>
+      <c r="B59" s="89"/>
+      <c r="C59" s="89"/>
       <c r="D59" s="73"/>
       <c r="E59" s="73"/>
       <c r="F59" s="50"/>
       <c r="I59" s="65"/>
       <c r="J59" s="47"/>
       <c r="L59" s="47" t="s">
-        <v>323</v>
-      </c>
-      <c r="M59" s="82"/>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A60" s="87"/>
-      <c r="B60" s="87"/>
-      <c r="C60" s="87"/>
+        <v>321</v>
+      </c>
+      <c r="M59" s="80"/>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A60" s="89"/>
+      <c r="B60" s="89"/>
+      <c r="C60" s="89"/>
       <c r="D60" s="73"/>
       <c r="E60" s="73"/>
       <c r="F60" s="50"/>
       <c r="I60" s="65"/>
       <c r="J60" s="47"/>
       <c r="L60" s="47" t="s">
-        <v>323</v>
-      </c>
-      <c r="M60" s="82"/>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A61" s="87"/>
-      <c r="B61" s="87"/>
-      <c r="C61" s="87"/>
+        <v>321</v>
+      </c>
+      <c r="M60" s="80"/>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A61" s="89"/>
+      <c r="B61" s="89"/>
+      <c r="C61" s="89"/>
       <c r="D61" s="73"/>
       <c r="E61" s="73"/>
       <c r="F61" s="50"/>
       <c r="I61" s="65"/>
       <c r="J61" s="47"/>
       <c r="L61" s="47" t="s">
-        <v>323</v>
-      </c>
-      <c r="M61" s="82"/>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A62" s="87"/>
-      <c r="B62" s="87"/>
-      <c r="C62" s="87"/>
+        <v>321</v>
+      </c>
+      <c r="M61" s="80"/>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A62" s="89"/>
+      <c r="B62" s="89"/>
+      <c r="C62" s="89"/>
       <c r="D62" s="73"/>
       <c r="E62" s="67"/>
       <c r="F62" s="50"/>
       <c r="I62" s="65"/>
       <c r="J62" s="47"/>
       <c r="L62" s="47" t="s">
-        <v>323</v>
-      </c>
-      <c r="M62" s="82"/>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A63" s="87"/>
-      <c r="B63" s="87"/>
-      <c r="C63" s="87"/>
+        <v>321</v>
+      </c>
+      <c r="M62" s="80"/>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A63" s="89"/>
+      <c r="B63" s="89"/>
+      <c r="C63" s="89"/>
       <c r="D63" s="73"/>
       <c r="E63" s="67"/>
       <c r="F63" s="50"/>
       <c r="I63" s="65"/>
       <c r="J63" s="47"/>
       <c r="L63" s="47" t="s">
-        <v>323</v>
-      </c>
-      <c r="M63" s="82"/>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A64" s="87"/>
-      <c r="B64" s="87"/>
-      <c r="C64" s="87"/>
+        <v>321</v>
+      </c>
+      <c r="M63" s="80"/>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A64" s="89"/>
+      <c r="B64" s="89"/>
+      <c r="C64" s="89"/>
       <c r="D64" s="73"/>
       <c r="E64" s="73"/>
       <c r="F64" s="50"/>
       <c r="J64" s="47"/>
       <c r="L64" s="47" t="s">
-        <v>323</v>
-      </c>
-      <c r="M64" s="82"/>
-    </row>
-    <row r="65" spans="1:13" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A65" s="87" t="s">
+        <v>321</v>
+      </c>
+      <c r="M64" s="80"/>
+    </row>
+    <row r="65" spans="1:13" ht="120" x14ac:dyDescent="0.25">
+      <c r="A65" s="89" t="s">
         <v>117</v>
       </c>
-      <c r="B65" s="87" t="s">
+      <c r="B65" s="89" t="s">
+        <v>295</v>
+      </c>
+      <c r="C65" s="89" t="s">
         <v>297</v>
-      </c>
-      <c r="C65" s="87" t="s">
-        <v>299</v>
       </c>
       <c r="D65" s="73" t="s">
         <v>120</v>
@@ -6046,68 +5870,68 @@
         <v>153</v>
       </c>
       <c r="F65" s="73" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="I65" s="65"/>
       <c r="J65" s="47"/>
       <c r="L65" s="47" t="s">
-        <v>323</v>
-      </c>
-      <c r="M65" s="89" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A66" s="87"/>
-      <c r="B66" s="87"/>
-      <c r="C66" s="87"/>
+        <v>321</v>
+      </c>
+      <c r="M65" s="93" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A66" s="89"/>
+      <c r="B66" s="89"/>
+      <c r="C66" s="89"/>
       <c r="D66" s="73"/>
       <c r="E66" s="73"/>
       <c r="F66" s="73"/>
       <c r="I66" s="65"/>
       <c r="J66" s="47"/>
       <c r="L66" s="47" t="s">
-        <v>323</v>
-      </c>
-      <c r="M66" s="82"/>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A67" s="87"/>
-      <c r="B67" s="87"/>
-      <c r="C67" s="87"/>
+        <v>321</v>
+      </c>
+      <c r="M66" s="80"/>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A67" s="89"/>
+      <c r="B67" s="89"/>
+      <c r="C67" s="89"/>
       <c r="D67" s="73"/>
       <c r="E67" s="73"/>
       <c r="F67" s="50"/>
       <c r="I67" s="65"/>
       <c r="J67" s="47"/>
       <c r="L67" s="47" t="s">
-        <v>323</v>
-      </c>
-      <c r="M67" s="82"/>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A68" s="87"/>
-      <c r="B68" s="87"/>
-      <c r="C68" s="87"/>
+        <v>321</v>
+      </c>
+      <c r="M67" s="80"/>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A68" s="89"/>
+      <c r="B68" s="89"/>
+      <c r="C68" s="89"/>
       <c r="D68" s="73"/>
       <c r="E68" s="73"/>
       <c r="F68" s="50"/>
       <c r="I68" s="65"/>
       <c r="J68" s="47"/>
       <c r="L68" s="47" t="s">
-        <v>323</v>
-      </c>
-      <c r="M68" s="82"/>
-    </row>
-    <row r="69" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A69" s="87" t="s">
+        <v>321</v>
+      </c>
+      <c r="M68" s="80"/>
+    </row>
+    <row r="69" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A69" s="89" t="s">
         <v>125</v>
       </c>
-      <c r="B69" s="87" t="s">
-        <v>298</v>
-      </c>
-      <c r="C69" s="87" t="s">
-        <v>262</v>
+      <c r="B69" s="89" t="s">
+        <v>296</v>
+      </c>
+      <c r="C69" s="89" t="s">
+        <v>261</v>
       </c>
       <c r="D69" s="50" t="s">
         <v>126</v>
@@ -6119,16 +5943,16 @@
       <c r="I69" s="65"/>
       <c r="J69" s="47"/>
       <c r="L69" s="47" t="s">
-        <v>323</v>
-      </c>
-      <c r="M69" s="81" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A70" s="87"/>
-      <c r="B70" s="82"/>
-      <c r="C70" s="82"/>
+        <v>321</v>
+      </c>
+      <c r="M69" s="79" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+      <c r="A70" s="89"/>
+      <c r="B70" s="80"/>
+      <c r="C70" s="80"/>
       <c r="D70" s="50" t="s">
         <v>127</v>
       </c>
@@ -6139,19 +5963,19 @@
         <v>111</v>
       </c>
       <c r="G70" s="65" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="I70" s="65"/>
       <c r="J70" s="47"/>
       <c r="L70" s="47" t="s">
-        <v>323</v>
-      </c>
-      <c r="M70" s="82"/>
-    </row>
-    <row r="71" spans="1:13" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A71" s="87"/>
-      <c r="B71" s="82"/>
-      <c r="C71" s="82"/>
+        <v>321</v>
+      </c>
+      <c r="M70" s="80"/>
+    </row>
+    <row r="71" spans="1:13" ht="105" x14ac:dyDescent="0.25">
+      <c r="A71" s="89"/>
+      <c r="B71" s="80"/>
+      <c r="C71" s="80"/>
       <c r="D71" s="50" t="s">
         <v>128</v>
       </c>
@@ -6159,49 +5983,49 @@
         <v>153</v>
       </c>
       <c r="F71" s="50" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="I71" s="65" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="J71" s="47" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="L71" s="47"/>
-      <c r="M71" s="82"/>
-    </row>
-    <row r="72" spans="1:13" s="44" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="87"/>
-      <c r="B72" s="82"/>
-      <c r="C72" s="82"/>
+      <c r="M71" s="80"/>
+    </row>
+    <row r="72" spans="1:13" s="44" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="89"/>
+      <c r="B72" s="80"/>
+      <c r="C72" s="80"/>
       <c r="D72" s="43"/>
       <c r="E72" s="73"/>
       <c r="F72" s="56"/>
       <c r="I72" s="65"/>
       <c r="J72" s="47"/>
       <c r="L72" s="47" t="s">
-        <v>323</v>
-      </c>
-      <c r="M72" s="82"/>
-    </row>
-    <row r="73" spans="1:13" s="44" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="87"/>
-      <c r="B73" s="82"/>
-      <c r="C73" s="82"/>
+        <v>321</v>
+      </c>
+      <c r="M72" s="80"/>
+    </row>
+    <row r="73" spans="1:13" s="44" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="89"/>
+      <c r="B73" s="80"/>
+      <c r="C73" s="80"/>
       <c r="D73" s="43"/>
       <c r="E73" s="73"/>
       <c r="F73" s="56"/>
       <c r="I73" s="65"/>
       <c r="J73" s="47"/>
       <c r="L73" s="47" t="s">
-        <v>327</v>
-      </c>
-      <c r="M73" s="82"/>
-    </row>
-    <row r="74" spans="1:13" s="44" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="87"/>
-      <c r="B74" s="82"/>
-      <c r="C74" s="82"/>
+        <v>325</v>
+      </c>
+      <c r="M73" s="80"/>
+    </row>
+    <row r="74" spans="1:13" s="44" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="89"/>
+      <c r="B74" s="80"/>
+      <c r="C74" s="80"/>
       <c r="D74" s="43"/>
       <c r="E74" s="73"/>
       <c r="F74" s="56"/>
@@ -6210,12 +6034,12 @@
       <c r="L74" s="47" t="s">
         <v>194</v>
       </c>
-      <c r="M74" s="82"/>
-    </row>
-    <row r="75" spans="1:13" s="44" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="87"/>
-      <c r="B75" s="82"/>
-      <c r="C75" s="82"/>
+      <c r="M74" s="80"/>
+    </row>
+    <row r="75" spans="1:13" s="44" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="89"/>
+      <c r="B75" s="80"/>
+      <c r="C75" s="80"/>
       <c r="D75" s="43"/>
       <c r="E75" s="67"/>
       <c r="F75" s="56"/>
@@ -6224,25 +6048,25 @@
       <c r="L75" s="47" t="s">
         <v>194</v>
       </c>
-      <c r="M75" s="82"/>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A76" s="87"/>
-      <c r="B76" s="82"/>
-      <c r="C76" s="82"/>
+      <c r="M75" s="80"/>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A76" s="89"/>
+      <c r="B76" s="80"/>
+      <c r="C76" s="80"/>
       <c r="D76" s="42"/>
       <c r="F76" s="56"/>
-      <c r="M76" s="82"/>
-    </row>
-    <row r="77" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A77" s="87" t="s">
+      <c r="M76" s="80"/>
+    </row>
+    <row r="77" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A77" s="89" t="s">
         <v>132</v>
       </c>
-      <c r="B77" s="87" t="s">
+      <c r="B77" s="89" t="s">
+        <v>262</v>
+      </c>
+      <c r="C77" s="89" t="s">
         <v>263</v>
-      </c>
-      <c r="C77" s="87" t="s">
-        <v>264</v>
       </c>
       <c r="D77" s="50" t="s">
         <v>133</v>
@@ -6256,16 +6080,16 @@
       <c r="I77" s="65"/>
       <c r="J77" s="47"/>
       <c r="L77" s="47" t="s">
-        <v>323</v>
-      </c>
-      <c r="M77" s="89" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="78" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A78" s="87"/>
-      <c r="B78" s="87"/>
-      <c r="C78" s="87"/>
+        <v>321</v>
+      </c>
+      <c r="M77" s="93" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A78" s="89"/>
+      <c r="B78" s="89"/>
+      <c r="C78" s="89"/>
       <c r="D78" s="50" t="s">
         <v>223</v>
       </c>
@@ -6278,19 +6102,19 @@
       <c r="I78" s="65"/>
       <c r="J78" s="66"/>
       <c r="L78" s="66" t="s">
-        <v>323</v>
-      </c>
-      <c r="M78" s="82"/>
-    </row>
-    <row r="79" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="87" t="s">
+        <v>321</v>
+      </c>
+      <c r="M78" s="80"/>
+    </row>
+    <row r="79" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="89" t="s">
         <v>141</v>
       </c>
-      <c r="B79" s="87" t="s">
+      <c r="B79" s="89" t="s">
+        <v>264</v>
+      </c>
+      <c r="C79" s="89" t="s">
         <v>265</v>
-      </c>
-      <c r="C79" s="87" t="s">
-        <v>266</v>
       </c>
       <c r="D79" s="73" t="s">
         <v>224</v>
@@ -6302,60 +6126,60 @@
       <c r="I79" s="65"/>
       <c r="J79" s="66"/>
       <c r="L79" s="66" t="s">
-        <v>323</v>
-      </c>
-      <c r="M79" s="89" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="80" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A80" s="87"/>
-      <c r="B80" s="87"/>
-      <c r="C80" s="87"/>
+        <v>321</v>
+      </c>
+      <c r="M79" s="93" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A80" s="89"/>
+      <c r="B80" s="89"/>
+      <c r="C80" s="89"/>
       <c r="D80" s="73"/>
       <c r="E80" s="67"/>
       <c r="F80" s="73"/>
       <c r="I80" s="65"/>
       <c r="J80" s="66"/>
       <c r="L80" s="66" t="s">
-        <v>323</v>
-      </c>
-      <c r="M80" s="82"/>
-    </row>
-    <row r="81" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A81" s="87"/>
-      <c r="B81" s="87"/>
-      <c r="C81" s="87"/>
+        <v>321</v>
+      </c>
+      <c r="M80" s="80"/>
+    </row>
+    <row r="81" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A81" s="89"/>
+      <c r="B81" s="89"/>
+      <c r="C81" s="89"/>
       <c r="D81" s="73"/>
       <c r="E81" s="67"/>
       <c r="F81" s="73"/>
       <c r="I81" s="65"/>
       <c r="J81" s="66"/>
       <c r="L81" s="66" t="s">
-        <v>323</v>
-      </c>
-      <c r="M81" s="82"/>
-    </row>
-    <row r="82" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A82" s="87"/>
-      <c r="B82" s="87"/>
-      <c r="C82" s="87"/>
+        <v>321</v>
+      </c>
+      <c r="M81" s="80"/>
+    </row>
+    <row r="82" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A82" s="89"/>
+      <c r="B82" s="89"/>
+      <c r="C82" s="89"/>
       <c r="D82" s="73"/>
       <c r="E82" s="67"/>
       <c r="F82" s="73"/>
       <c r="I82" s="65"/>
       <c r="J82" s="66"/>
       <c r="L82" s="66" t="s">
-        <v>323</v>
-      </c>
-      <c r="M82" s="82"/>
-    </row>
-    <row r="83" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
+        <v>321</v>
+      </c>
+      <c r="M82" s="80"/>
+    </row>
+    <row r="83" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A83" s="49" t="s">
         <v>146</v>
       </c>
       <c r="B83" s="55" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C83" s="49"/>
       <c r="D83" s="50" t="s">
@@ -6366,25 +6190,25 @@
         <v>123</v>
       </c>
       <c r="I83" s="65" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="J83" s="66" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="L83" s="66"/>
       <c r="M83" s="60" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="84" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A84" s="87" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A84" s="89" t="s">
+        <v>266</v>
+      </c>
+      <c r="B84" s="89" t="s">
         <v>267</v>
       </c>
-      <c r="B84" s="87" t="s">
+      <c r="C84" s="89" t="s">
         <v>268</v>
-      </c>
-      <c r="C84" s="87" t="s">
-        <v>269</v>
       </c>
       <c r="D84" s="50" t="s">
         <v>152</v>
@@ -6396,147 +6220,147 @@
       <c r="I84" s="65"/>
       <c r="J84" s="66"/>
       <c r="L84" s="66" t="s">
-        <v>285</v>
-      </c>
-      <c r="M84" s="81" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="85" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A85" s="87"/>
-      <c r="B85" s="77"/>
-      <c r="C85" s="77"/>
+        <v>284</v>
+      </c>
+      <c r="M84" s="79" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A85" s="89"/>
+      <c r="B85" s="83"/>
+      <c r="C85" s="83"/>
       <c r="D85" s="73" t="s">
         <v>153</v>
       </c>
       <c r="E85" s="67"/>
       <c r="F85" s="50" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="I85" s="65" t="s">
         <v>189</v>
       </c>
       <c r="J85" s="66" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="L85" s="66" t="s">
-        <v>285</v>
-      </c>
-      <c r="M85" s="82"/>
-    </row>
-    <row r="86" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A86" s="87"/>
-      <c r="B86" s="77"/>
-      <c r="C86" s="77"/>
+        <v>284</v>
+      </c>
+      <c r="M85" s="80"/>
+    </row>
+    <row r="86" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A86" s="89"/>
+      <c r="B86" s="83"/>
+      <c r="C86" s="83"/>
       <c r="D86" s="73"/>
       <c r="E86" s="67"/>
       <c r="F86" s="73"/>
       <c r="I86" s="65"/>
       <c r="J86" s="66"/>
       <c r="L86" s="66" t="s">
-        <v>285</v>
-      </c>
-      <c r="M86" s="82"/>
-    </row>
-    <row r="87" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A87" s="87"/>
-      <c r="B87" s="77"/>
-      <c r="C87" s="77"/>
+        <v>284</v>
+      </c>
+      <c r="M86" s="80"/>
+    </row>
+    <row r="87" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A87" s="89"/>
+      <c r="B87" s="83"/>
+      <c r="C87" s="83"/>
       <c r="D87" s="73"/>
       <c r="E87" s="67"/>
       <c r="F87" s="73"/>
       <c r="I87" s="65"/>
       <c r="J87" s="66"/>
       <c r="L87" s="66" t="s">
-        <v>285</v>
-      </c>
-      <c r="M87" s="82"/>
-    </row>
-    <row r="88" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A88" s="87"/>
-      <c r="B88" s="77"/>
-      <c r="C88" s="77"/>
+        <v>284</v>
+      </c>
+      <c r="M87" s="80"/>
+    </row>
+    <row r="88" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A88" s="89"/>
+      <c r="B88" s="83"/>
+      <c r="C88" s="83"/>
       <c r="D88" s="73"/>
       <c r="E88" s="67"/>
       <c r="F88" s="73"/>
       <c r="I88" s="65"/>
       <c r="J88" s="66"/>
       <c r="L88" s="66" t="s">
-        <v>285</v>
-      </c>
-      <c r="M88" s="82"/>
-    </row>
-    <row r="89" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A89" s="87"/>
-      <c r="B89" s="77"/>
-      <c r="C89" s="77"/>
+        <v>284</v>
+      </c>
+      <c r="M88" s="80"/>
+    </row>
+    <row r="89" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A89" s="89"/>
+      <c r="B89" s="83"/>
+      <c r="C89" s="83"/>
       <c r="D89" s="73"/>
       <c r="E89" s="67"/>
       <c r="F89" s="73"/>
       <c r="I89" s="65"/>
       <c r="J89" s="66"/>
       <c r="L89" s="66" t="s">
-        <v>285</v>
-      </c>
-      <c r="M89" s="82"/>
-    </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
+        <v>284</v>
+      </c>
+      <c r="M89" s="80"/>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" s="57"/>
       <c r="B90" s="57"/>
       <c r="C90" s="57"/>
       <c r="D90" s="57"/>
       <c r="E90" s="67"/>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" s="57"/>
       <c r="B91" s="57"/>
       <c r="C91" s="57"/>
       <c r="D91" s="57"/>
       <c r="E91" s="67"/>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" s="57"/>
       <c r="B92" s="57"/>
       <c r="C92" s="57"/>
       <c r="D92" s="57"/>
       <c r="E92" s="67"/>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" s="57"/>
       <c r="B93" s="57"/>
       <c r="C93" s="57"/>
       <c r="D93" s="57"/>
       <c r="E93" s="67"/>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" s="57"/>
       <c r="B94" s="57"/>
       <c r="C94" s="57"/>
       <c r="D94" s="57"/>
       <c r="E94" s="67"/>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" s="57"/>
       <c r="B95" s="57"/>
       <c r="C95" s="57"/>
       <c r="D95" s="57"/>
       <c r="E95" s="67"/>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" s="57"/>
       <c r="B96" s="57"/>
       <c r="C96" s="57"/>
       <c r="D96" s="57"/>
       <c r="E96" s="67"/>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="57"/>
       <c r="B97" s="57"/>
       <c r="C97" s="57"/>
       <c r="D97" s="57"/>
       <c r="E97" s="67"/>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="57"/>
       <c r="B98" s="57"/>
       <c r="C98" s="57"/>
@@ -6546,52 +6370,6 @@
   </sheetData>
   <autoFilter ref="A1:M89" xr:uid="{FE8A9026-FDB0-4A8E-BB8F-FE98E3487D08}"/>
   <mergeCells count="61">
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="M77:M78"/>
-    <mergeCell ref="M79:M82"/>
-    <mergeCell ref="M84:M89"/>
-    <mergeCell ref="M38:M39"/>
-    <mergeCell ref="M40:M54"/>
-    <mergeCell ref="M55:M64"/>
-    <mergeCell ref="M65:M68"/>
-    <mergeCell ref="M69:M76"/>
-    <mergeCell ref="M4:M8"/>
-    <mergeCell ref="M10:M16"/>
-    <mergeCell ref="M17:M25"/>
-    <mergeCell ref="M26:M29"/>
-    <mergeCell ref="M30:M37"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="A17:A25"/>
-    <mergeCell ref="A10:A16"/>
-    <mergeCell ref="B4:B9"/>
-    <mergeCell ref="C4:C9"/>
-    <mergeCell ref="B10:B16"/>
-    <mergeCell ref="C10:C16"/>
-    <mergeCell ref="B17:B25"/>
-    <mergeCell ref="C17:C25"/>
-    <mergeCell ref="F4:F8"/>
-    <mergeCell ref="F10:F12"/>
-    <mergeCell ref="D4:D8"/>
-    <mergeCell ref="D10:D12"/>
-    <mergeCell ref="E4:E8"/>
-    <mergeCell ref="E10:E12"/>
-    <mergeCell ref="A65:A68"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="C26:C29"/>
-    <mergeCell ref="B30:B37"/>
-    <mergeCell ref="C30:C37"/>
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="A30:A37"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="A40:A54"/>
-    <mergeCell ref="A55:A64"/>
-    <mergeCell ref="A69:A76"/>
-    <mergeCell ref="A77:A78"/>
-    <mergeCell ref="A79:A82"/>
-    <mergeCell ref="A84:A89"/>
-    <mergeCell ref="B84:B89"/>
     <mergeCell ref="C84:C89"/>
     <mergeCell ref="C77:C78"/>
     <mergeCell ref="B38:B39"/>
@@ -6607,6 +6385,52 @@
     <mergeCell ref="B69:B76"/>
     <mergeCell ref="C69:C76"/>
     <mergeCell ref="B77:B78"/>
+    <mergeCell ref="A69:A76"/>
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="A79:A82"/>
+    <mergeCell ref="A84:A89"/>
+    <mergeCell ref="B84:B89"/>
+    <mergeCell ref="A65:A68"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="B30:B37"/>
+    <mergeCell ref="C30:C37"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="A30:A37"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A40:A54"/>
+    <mergeCell ref="A55:A64"/>
+    <mergeCell ref="C10:C16"/>
+    <mergeCell ref="B17:B25"/>
+    <mergeCell ref="C17:C25"/>
+    <mergeCell ref="F4:F8"/>
+    <mergeCell ref="F10:F12"/>
+    <mergeCell ref="D4:D8"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="E4:E8"/>
+    <mergeCell ref="E10:E12"/>
+    <mergeCell ref="M84:M89"/>
+    <mergeCell ref="M38:M39"/>
+    <mergeCell ref="M40:M54"/>
+    <mergeCell ref="M55:M64"/>
+    <mergeCell ref="M65:M68"/>
+    <mergeCell ref="M69:M76"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="M77:M78"/>
+    <mergeCell ref="M79:M82"/>
+    <mergeCell ref="M4:M8"/>
+    <mergeCell ref="M10:M16"/>
+    <mergeCell ref="M17:M25"/>
+    <mergeCell ref="M26:M29"/>
+    <mergeCell ref="M30:M37"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="A17:A25"/>
+    <mergeCell ref="A10:A16"/>
+    <mergeCell ref="B4:B9"/>
+    <mergeCell ref="C4:C9"/>
+    <mergeCell ref="B10:B16"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="M2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>

--- a/Corpus/MLR_Corpus.xlsx
+++ b/Corpus/MLR_Corpus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workouts\Projects\Acadia\Masori-Chatbot-Dev-main\Masori-Chatbot-Dev-main\Corpus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5039B834-4172-47CC-BD80-199C6FF571EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46A78CB8-4DB7-443F-9B6A-E1D045193FAB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -245,7 +245,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="382">
   <si>
     <t>Keywords</t>
   </si>
@@ -938,12 +938,6 @@
   </si>
   <si>
     <t>About MOA</t>
-  </si>
-  <si>
-    <t>How it differ</t>
-  </si>
-  <si>
-    <t>The Effect of NUPLAZID could be mediated through the combination of inverse agonist and antagonist activity at serotonin 5-HT2A receptors and to a lesser extent at serotonin 5-HT2C receptors.For more information, See the effect of NUPLAZID versus placebo</t>
   </si>
   <si>
     <t>ONCE daily, taken whole or sprinkled and Taken orally with or without food, without titration.</t>
@@ -1388,9 +1382,6 @@
 https://www.nuplazidhcp.com/pdf/pd-related-hallucinations-delusions-fact-sheet.pdf</t>
   </si>
   <si>
-    <t xml:space="preserve">The mechanism of action (MOA) in the treatment of hallucinations and delusions associated with Parkinson's disease psychosis is unclear. Please watch this video to know more about proposed MOA of Nuplazid. </t>
-  </si>
-  <si>
     <t>https://www.nuplazidhcp.com/acadia-connect</t>
   </si>
   <si>
@@ -1476,7 +1467,164 @@
 *Acadia Connect patient eligibility and terms and conditions apply."</t>
   </si>
   <si>
-    <t>Recommended dose: ONCE daily, taken whole or sprinkled and Taken orally with or without food, without titration.
+    <t>NUPLAZID is contraindicated in patients with a history of a hypersensitivity reaction to pimavanser0in or any of its components. Rash, urticaria, and reactions consistent with angioedema (e.g., tongue swelling, circumoral edema, throat tightness, and dyspnea) have been reported.
+Acadia Connect is a comprehensive support program for patients prescribed treatments from Acadia Pharmaceuticals that offers guidance on enrollment, patient access, insurance coverage, financial assistance, and prescription support.
+We’re here to connect you and your patients to the right support every step of the way.
+Your enrolled patients will be assigned a dedicated Care Coordinator they can turn to for insurance questions and financial resources.
+If you need long-term care access services, fill out the Long-Term Care Service Request Form. You may also download the PDF version of the form and fax it to 1-844-737-2223.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It is common for people living with Parkinson's disease (PD)–related hallucinations and delusions to remain silent about these symptoms and not report them to a healthcare provider. Proactively discussing the link between PD and the possibility of related hallucinations or delusions can help you and your healthcare provider identify and treat symptoms. </t>
+  </si>
+  <si>
+    <t>https://www.nuplazid.com/talking-to-your-healthcare-provider#doctor-discussion-guide</t>
+  </si>
+  <si>
+    <t>https://www.nuplazid.com/support-and-resources#sign-up-stay-informed
+https://www.nuplazid.com/pdf/pd-related-hallucinations-delusions-fact-sheet.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Signup for more information about PD-related hallucination and delusions                                                             </t>
+  </si>
+  <si>
+    <t>PD related hallucinations and delusions</t>
+  </si>
+  <si>
+    <t>Watch personal stories about people with Parkinson’s disease (PD)–related hallucinations and delusions and their caregivers. Even though their experiences may not be the same as yours, their stories may give you a better understanding of these symptoms.</t>
+  </si>
+  <si>
+    <t>https://www.acadiaconnect.com/patient-caregivers/prescriptions</t>
+  </si>
+  <si>
+    <t>Learn about support for getting started on NUPLAZID.</t>
+  </si>
+  <si>
+    <t>Visit Acadia Connect</t>
+  </si>
+  <si>
+    <t>Click below link to get Full Prescribing Information</t>
+  </si>
+  <si>
+    <t>https://www.nuplazid.com/pdf/nuplazid-prescribing-information.pdf</t>
+  </si>
+  <si>
+    <t>When it comes to paying for your prescription, you may have questions about your insurance coverage. With this simple tool, you can check your coverage by answering just three questions.
+CALL YOUR CARE COORDINATOR WITH QUESTIONS
+Monday through Friday, 8:30 am to 8:30 pm ET
+1-844-737-2223</t>
+  </si>
+  <si>
+    <t>https://www.nuplazid.com/pdf/pd-related-hallucinations-delusions-fact-sheet.pdf
+https://www.nuplazid.com/pdf/nuplazid-fact-sheet.pdf
+https://www.nuplazid.com/pdf/nuplazid-doctor-discussion-guide.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Downloadable resources
+</t>
+  </si>
+  <si>
+    <t>PD–related Hallucinations and Delusions Fact Sheet
+NUPLAZID Fact Sheet
+Doctor Discussion Guide</t>
+  </si>
+  <si>
+    <t>Sign up to receive additional information that could help you or your loved one navigate Parkinson's disease (PD)–related hallucinations and delusions.</t>
+  </si>
+  <si>
+    <t>https://www.nuplazid.com/support-and-resources#sign-up-stay-informed</t>
+  </si>
+  <si>
+    <t>Download Form</t>
+  </si>
+  <si>
+    <t>Acadia Connect is a comprehensive support program for patients prescribed treatments from Acadia Pharmaceuticals that offers guidance on enrollment, patient access, insurance coverage, financial assistance, and prescription support. 
+ACADIA CONNECT CAN HELP WITH: COST &amp; INSURANCE,FILLING PRESCRIPTIONS,SUPPORT &amp; EDUCATION</t>
+  </si>
+  <si>
+    <t>https://www.acadiaconnect.com</t>
+  </si>
+  <si>
+    <t>Side Effects</t>
+  </si>
+  <si>
+    <t>About Hallucinations &amp; Delusions</t>
+  </si>
+  <si>
+    <t>https://nuplazidhcp-masori.azurewebsites.net/about-pd-psychosis#section_4</t>
+  </si>
+  <si>
+    <t>Tell me about Parkinson's Disease Psychosis
+Tell me about PDP
+What is Parkinson's Disease Psychosis
+What is PDP
+What is Hallucinations
+What is Delusions</t>
+  </si>
+  <si>
+    <t>Parkinson's Disease Psychosis,
+PDP,
+Hallucination,
+Hallucinations,
+Delusions,
+Delusion</t>
+  </si>
+  <si>
+    <t>Types of Hallucination and Delusions</t>
+  </si>
+  <si>
+    <t>The hallucinations and delusions associated with PD psychosis can be serious and can progress. 
+For more information click below link</t>
+  </si>
+  <si>
+    <t>NUPLAZID Clinical Trial Results</t>
+  </si>
+  <si>
+    <t>Coverage Tool</t>
+  </si>
+  <si>
+    <t>IMPORTANT SAFETY INFORMATION and INDICATION</t>
+  </si>
+  <si>
+    <t>The recommended dose of NUPLAZID is one 34 mg capsule, once daily by mouth, with or without food, taken around the same time every day, or as prescribed by your healthcare provider.
+NUPLAZID may begin to reduce hallucinations and delusions as soon as 4 weeks, but it may take up to 6 weeks to feel the full effect. You should speak with your healthcare provider before you stop taking NUPLAZID.
+Acadia Connect™ can coordinate with you and the pharmacy filling the prescription to help get the medicine delivered wherever is most convenient to you.
+Please check the safety information detail in below link,</t>
+  </si>
+  <si>
+    <t>http://nuplazid-masori.azurewebsites.net/safety-information#isi</t>
+  </si>
+  <si>
+    <t>The cause of PD is unknown but certain factors, such as genetics and environment, are believed to play a role.
+Currently, there is no clear understanding of the exact cause of hallucinations and delusions associated with PD. However, certain brain chemicals and receptors (such as dopamine and serotonin) are believed to play a role. In general, the condition is thought to be caused by the following:</t>
+  </si>
+  <si>
+    <t>Side effect of dopamine therapy
+The natural progression of Parkinson's</t>
+  </si>
+  <si>
+    <t>NUPLAZID patient information, NUPLAZID FDA approved, approved FDA, NUPLAZID approved, FDA approved, FDA approve, NUPLAZID approval, FDA NUPLAZID, NUPLAZID pharmacology, NUPLAZID safety, NUPLAZID efficacy, Efficacy Data, Efficacy Data NUPLAZID,   Nuplazid primary endpoint
+Nuplazid secondary endpoint
+Efficacy Nuplazid</t>
+  </si>
+  <si>
+    <t>The mechanism of action (MOA) in the treatment of hallucinations and delusions associated with Parkinson's disease psychosis is unclear. Please watch this video to know more about proposed MOA of Nuplazid. 
+The Effect of NUPLAZID could be mediated through the combination of inverse agonist and antagonist activity at serotonin 5-HT2A receptors and to a lesser extent at serotonin 5-HT2C receptors.For more information, See the effect of NUPLAZID versus placebo</t>
+  </si>
+  <si>
+    <t>NUPLAZID significantly reduced the frequency and/or severity of hallucinations and delusions associated with PD psychosis at Week 6 vs placebo.
+NUPLAZID did not impact motor function or motoric activities of daily living vs placebo at Week 6.</t>
+  </si>
+  <si>
+    <t>NUPLAZID significantly reduced the frequency and/or severity of hallucinations and delusions associated with PD psychosis at Week 6 vs placebo (Primary Endpoint).
+NUPLAZID demonstrated greater improvement in Clinical Global Impression (CGI) vs placebo.
+CGI-S (Severity) and CGI-I (Improvement) measured over 6 weeks (Secondary Endpoint).</t>
+  </si>
+  <si>
+    <t>Coadministration with strong CYP3A4 inhibitors (e.g., ketoconazole) increases NUPLAZID exposure.
+Coadministration with strong or moderate CYP3A4 inducers reduces NUPLAZID exposure. Avoid concomitant use of strong or moderate CYP3A4 inducers with NUPLAZID.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recommended dose: ONCE daily, taken whole or sprinkled and Taken orally with or without food, without titration.
 The capsule can be opened and the entire contents sprinkled over a tablespoon (15 mL) of applesauce, yogurt, pudding, or a liquid nutritional supplement. The food/drug mixture should be consumed immediately without chewing; do not store for future use.
 No dosage adjustment of carbidopa/levodopa is required when administered concomitantly with NUPLAZID.
 No dosage adjustment in elderly patients, patients with mild to severe renal impairment or end-stage renal disease (ESRD), or in patients with hepatic impairment.
@@ -1484,148 +1632,7 @@
 Avoid concomitant use of strong or moderate CYP3A4 inducers with NUPLAZID.
 Avoid the use of NUPLAZID in combination with other drugs known to prolong the QT interval.
 NUPLAZID is available as 34 mg capsules and 10 mg tablets.
-Coadministration with strong CYP3A4 inhibitors (e.g., ketoconazole) increases NUPLAZID exposure.
-Coadministration with strong or moderate CYP3A4 inducers reduces NUPLAZID exposure. Avoid concomitant use of strong or moderate CYP3A4 inducers with NUPLAZID.</t>
-  </si>
-  <si>
-    <t>NUPLAZID is contraindicated in patients with a history of a hypersensitivity reaction to pimavanser0in or any of its components. Rash, urticaria, and reactions consistent with angioedema (e.g., tongue swelling, circumoral edema, throat tightness, and dyspnea) have been reported.
-Acadia Connect is a comprehensive support program for patients prescribed treatments from Acadia Pharmaceuticals that offers guidance on enrollment, patient access, insurance coverage, financial assistance, and prescription support.
-We’re here to connect you and your patients to the right support every step of the way.
-Your enrolled patients will be assigned a dedicated Care Coordinator they can turn to for insurance questions and financial resources.
-If you need long-term care access services, fill out the Long-Term Care Service Request Form. You may also download the PDF version of the form and fax it to 1-844-737-2223.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">It is common for people living with Parkinson's disease (PD)–related hallucinations and delusions to remain silent about these symptoms and not report them to a healthcare provider. Proactively discussing the link between PD and the possibility of related hallucinations or delusions can help you and your healthcare provider identify and treat symptoms. </t>
-  </si>
-  <si>
-    <t>https://www.nuplazid.com/talking-to-your-healthcare-provider#doctor-discussion-guide</t>
-  </si>
-  <si>
-    <t>https://www.nuplazid.com/support-and-resources#sign-up-stay-informed
-https://www.nuplazid.com/pdf/pd-related-hallucinations-delusions-fact-sheet.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Signup for more information about PD-related hallucination and delusions                                                             </t>
-  </si>
-  <si>
-    <t>PD related hallucinations and delusions</t>
-  </si>
-  <si>
-    <t>Watch personal stories about people with Parkinson’s disease (PD)–related hallucinations and delusions and their caregivers. Even though their experiences may not be the same as yours, their stories may give you a better understanding of these symptoms.</t>
-  </si>
-  <si>
-    <t>https://www.acadiaconnect.com/patient-caregivers/prescriptions</t>
-  </si>
-  <si>
-    <t>Learn about support for getting started on NUPLAZID.</t>
-  </si>
-  <si>
-    <t>Visit Acadia Connect</t>
-  </si>
-  <si>
-    <t>Click below link to get Full Prescribing Information</t>
-  </si>
-  <si>
-    <t>https://www.nuplazid.com/pdf/nuplazid-prescribing-information.pdf</t>
-  </si>
-  <si>
-    <t>When it comes to paying for your prescription, you may have questions about your insurance coverage. With this simple tool, you can check your coverage by answering just three questions.
-CALL YOUR CARE COORDINATOR WITH QUESTIONS
-Monday through Friday, 8:30 am to 8:30 pm ET
-1-844-737-2223</t>
-  </si>
-  <si>
-    <t>https://www.nuplazid.com/pdf/pd-related-hallucinations-delusions-fact-sheet.pdf
-https://www.nuplazid.com/pdf/nuplazid-fact-sheet.pdf
-https://www.nuplazid.com/pdf/nuplazid-doctor-discussion-guide.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Downloadable resources
-</t>
-  </si>
-  <si>
-    <t>PD–related Hallucinations and Delusions Fact Sheet
-NUPLAZID Fact Sheet
-Doctor Discussion Guide</t>
-  </si>
-  <si>
-    <t>Sign up to receive additional information that could help you or your loved one navigate Parkinson's disease (PD)–related hallucinations and delusions.</t>
-  </si>
-  <si>
-    <t>https://www.nuplazid.com/support-and-resources#sign-up-stay-informed</t>
-  </si>
-  <si>
-    <t>Download Form</t>
-  </si>
-  <si>
-    <t>Acadia Connect is a comprehensive support program for patients prescribed treatments from Acadia Pharmaceuticals that offers guidance on enrollment, patient access, insurance coverage, financial assistance, and prescription support. 
-ACADIA CONNECT CAN HELP WITH: COST &amp; INSURANCE,FILLING PRESCRIPTIONS,SUPPORT &amp; EDUCATION</t>
-  </si>
-  <si>
-    <t>https://www.acadiaconnect.com</t>
-  </si>
-  <si>
-    <t>Side Effects</t>
-  </si>
-  <si>
-    <t>About Hallucinations &amp; Delusions</t>
-  </si>
-  <si>
-    <t>https://nuplazidhcp-masori.azurewebsites.net/about-pd-psychosis#section_4</t>
-  </si>
-  <si>
-    <t>Tell me about Parkinson's Disease Psychosis
-Tell me about PDP
-What is Parkinson's Disease Psychosis
-What is PDP
-What is Hallucinations
-What is Delusions</t>
-  </si>
-  <si>
-    <t>Parkinson's Disease Psychosis,
-PDP,
-Hallucination,
-Hallucinations,
-Delusions,
-Delusion</t>
-  </si>
-  <si>
-    <t>Types of Hallucination and Delusions</t>
-  </si>
-  <si>
-    <t>The hallucinations and delusions associated with PD psychosis can be serious and can progress. 
-For more information click below link</t>
-  </si>
-  <si>
-    <t>NUPLAZID Clinical Trial Results</t>
-  </si>
-  <si>
-    <t>Coverage Tool</t>
-  </si>
-  <si>
-    <t>IMPORTANT SAFETY INFORMATION and INDICATION</t>
-  </si>
-  <si>
-    <t>The recommended dose of NUPLAZID is one 34 mg capsule, once daily by mouth, with or without food, taken around the same time every day, or as prescribed by your healthcare provider.
-NUPLAZID may begin to reduce hallucinations and delusions as soon as 4 weeks, but it may take up to 6 weeks to feel the full effect. You should speak with your healthcare provider before you stop taking NUPLAZID.
-Acadia Connect™ can coordinate with you and the pharmacy filling the prescription to help get the medicine delivered wherever is most convenient to you.
-Please check the safety information detail in below link,</t>
-  </si>
-  <si>
-    <t>http://nuplazid-masori.azurewebsites.net/safety-information#isi</t>
-  </si>
-  <si>
-    <t>The cause of PD is unknown but certain factors, such as genetics and environment, are believed to play a role.
-Currently, there is no clear understanding of the exact cause of hallucinations and delusions associated with PD. However, certain brain chemicals and receptors (such as dopamine and serotonin) are believed to play a role. In general, the condition is thought to be caused by the following:</t>
-  </si>
-  <si>
-    <t>Side effect of dopamine therapy
-The natural progression of Parkinson's</t>
-  </si>
-  <si>
-    <t>NUPLAZID patient information, NUPLAZID FDA approved, approved FDA, NUPLAZID approved, FDA approved, FDA approve, NUPLAZID approval, FDA NUPLAZID, NUPLAZID pharmacology, NUPLAZID safety, NUPLAZID efficacy, Efficacy Data, Efficacy Data NUPLAZID,   Nuplazid primary endpoint
-Nuplazid secondary endpoint
-Efficacy Nuplazid</t>
+Drug Interactions: </t>
   </si>
 </sst>
 </file>
@@ -1709,7 +1716,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1883,6 +1890,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2337,54 +2347,54 @@
         <v>1</v>
       </c>
       <c r="B1" s="45" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C1" s="45" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D1" s="51" t="s">
         <v>197</v>
       </c>
       <c r="E1" s="51" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G1" s="45" t="s">
+        <v>311</v>
+      </c>
+      <c r="H1" s="45" t="s">
+        <v>312</v>
+      </c>
+      <c r="I1" s="45" t="s">
         <v>313</v>
       </c>
-      <c r="H1" s="45" t="s">
+      <c r="J1" s="45" t="s">
         <v>314</v>
       </c>
-      <c r="I1" s="45" t="s">
+      <c r="K1" s="45" t="s">
         <v>315</v>
       </c>
-      <c r="J1" s="45" t="s">
-        <v>316</v>
-      </c>
-      <c r="K1" s="45" t="s">
-        <v>317</v>
-      </c>
       <c r="L1" s="45" t="s">
+        <v>326</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" s="31" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A2" s="85" t="s">
+        <v>230</v>
+      </c>
+      <c r="B2" s="85" t="s">
+        <v>235</v>
+      </c>
+      <c r="C2" s="85" t="s">
+        <v>287</v>
+      </c>
+      <c r="D2" s="57" t="s">
         <v>329</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" s="31" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A2" s="84" t="s">
-        <v>232</v>
-      </c>
-      <c r="B2" s="84" t="s">
-        <v>237</v>
-      </c>
-      <c r="C2" s="84" t="s">
-        <v>289</v>
-      </c>
-      <c r="D2" s="57" t="s">
-        <v>332</v>
       </c>
       <c r="E2" s="71" t="s">
         <v>10</v>
@@ -2398,46 +2408,46 @@
       <c r="J2" s="65"/>
       <c r="K2" s="65"/>
       <c r="L2" s="66" t="s">
-        <v>271</v>
-      </c>
-      <c r="M2" s="82" t="s">
-        <v>271</v>
+        <v>269</v>
+      </c>
+      <c r="M2" s="83" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="3" spans="1:13" s="31" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A3" s="85"/>
-      <c r="B3" s="83"/>
-      <c r="C3" s="85"/>
+      <c r="A3" s="86"/>
+      <c r="B3" s="84"/>
+      <c r="C3" s="86"/>
       <c r="D3" s="57" t="s">
         <v>10</v>
       </c>
       <c r="E3" s="71" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="F3" s="32" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="G3" s="65" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="H3" s="65"/>
       <c r="I3" s="65"/>
       <c r="J3" s="65"/>
       <c r="K3" s="65"/>
       <c r="L3" s="66" t="s">
-        <v>271</v>
-      </c>
-      <c r="M3" s="80"/>
+        <v>269</v>
+      </c>
+      <c r="M3" s="81"/>
     </row>
     <row r="4" spans="1:13" s="31" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" s="85"/>
-      <c r="B4" s="83"/>
-      <c r="C4" s="85"/>
+      <c r="A4" s="86"/>
+      <c r="B4" s="84"/>
+      <c r="C4" s="86"/>
       <c r="D4" s="57" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="E4" s="71" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="F4" s="32" t="s">
         <v>199</v>
@@ -2448,25 +2458,25 @@
       <c r="J4" s="65"/>
       <c r="K4" s="65"/>
       <c r="L4" s="66" t="s">
-        <v>271</v>
-      </c>
-      <c r="M4" s="80"/>
+        <v>269</v>
+      </c>
+      <c r="M4" s="81"/>
     </row>
     <row r="5" spans="1:13" ht="105" x14ac:dyDescent="0.25">
-      <c r="A5" s="86" t="s">
+      <c r="A5" s="87" t="s">
         <v>172</v>
       </c>
-      <c r="B5" s="83" t="s">
-        <v>298</v>
-      </c>
-      <c r="C5" s="83" t="s">
-        <v>238</v>
+      <c r="B5" s="84" t="s">
+        <v>296</v>
+      </c>
+      <c r="C5" s="84" t="s">
+        <v>236</v>
       </c>
       <c r="D5" s="57" t="s">
         <v>173</v>
       </c>
       <c r="E5" s="75" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="F5" s="32" t="s">
         <v>200</v>
@@ -2477,21 +2487,21 @@
       <c r="J5" s="65"/>
       <c r="K5" s="65"/>
       <c r="L5" s="66" t="s">
-        <v>270</v>
-      </c>
-      <c r="M5" s="79" t="s">
-        <v>270</v>
+        <v>268</v>
+      </c>
+      <c r="M5" s="80" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="120" x14ac:dyDescent="0.25">
-      <c r="A6" s="86"/>
-      <c r="B6" s="86"/>
-      <c r="C6" s="86"/>
+      <c r="A6" s="87"/>
+      <c r="B6" s="87"/>
+      <c r="C6" s="87"/>
       <c r="D6" s="57" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="E6" s="71" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F6" s="33" t="s">
         <v>201</v>
@@ -2502,28 +2512,28 @@
       <c r="J6" s="65"/>
       <c r="K6" s="65"/>
       <c r="L6" s="66" t="s">
-        <v>270</v>
-      </c>
-      <c r="M6" s="80"/>
+        <v>268</v>
+      </c>
+      <c r="M6" s="81"/>
     </row>
     <row r="7" spans="1:13" s="44" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A7" s="83" t="s">
+      <c r="A7" s="84" t="s">
+        <v>300</v>
+      </c>
+      <c r="B7" s="84" t="s">
+        <v>301</v>
+      </c>
+      <c r="C7" s="84" t="s">
+        <v>305</v>
+      </c>
+      <c r="D7" s="61" t="s">
         <v>302</v>
       </c>
-      <c r="B7" s="83" t="s">
+      <c r="E7" s="71" t="s">
         <v>303</v>
       </c>
-      <c r="C7" s="83" t="s">
-        <v>307</v>
-      </c>
-      <c r="D7" s="61" t="s">
-        <v>304</v>
-      </c>
-      <c r="E7" s="71" t="s">
-        <v>305</v>
-      </c>
       <c r="F7" s="61" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="G7" s="65"/>
       <c r="H7" s="65"/>
@@ -2531,24 +2541,24 @@
       <c r="J7" s="65"/>
       <c r="K7" s="65"/>
       <c r="L7" s="66" t="s">
-        <v>347</v>
-      </c>
-      <c r="M7" s="79" t="s">
-        <v>311</v>
+        <v>343</v>
+      </c>
+      <c r="M7" s="80" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="8" spans="1:13" s="44" customFormat="1" ht="150" x14ac:dyDescent="0.25">
-      <c r="A8" s="83"/>
-      <c r="B8" s="83"/>
-      <c r="C8" s="83"/>
+      <c r="A8" s="84"/>
+      <c r="B8" s="84"/>
+      <c r="C8" s="84"/>
       <c r="D8" s="61" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E8" s="71" t="s">
         <v>192</v>
       </c>
       <c r="F8" s="61" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G8" s="65"/>
       <c r="H8" s="65"/>
@@ -2556,39 +2566,39 @@
       <c r="J8" s="65"/>
       <c r="K8" s="65"/>
       <c r="L8" s="66" t="s">
-        <v>311</v>
-      </c>
-      <c r="M8" s="80"/>
+        <v>309</v>
+      </c>
+      <c r="M8" s="81"/>
     </row>
     <row r="9" spans="1:13" s="44" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A9" s="83"/>
-      <c r="B9" s="83"/>
-      <c r="C9" s="83"/>
+      <c r="A9" s="84"/>
+      <c r="B9" s="84"/>
+      <c r="C9" s="84"/>
       <c r="D9" s="61" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="E9" s="71"/>
       <c r="F9" s="61" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="G9" s="65"/>
       <c r="H9" s="65"/>
       <c r="I9" s="65" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="J9" s="66" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="K9" s="65"/>
       <c r="L9" s="66" t="s">
-        <v>311</v>
-      </c>
-      <c r="M9" s="80"/>
+        <v>309</v>
+      </c>
+      <c r="M9" s="81"/>
     </row>
     <row r="10" spans="1:13" s="44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="83"/>
-      <c r="B10" s="83"/>
-      <c r="C10" s="83"/>
+      <c r="A10" s="84"/>
+      <c r="B10" s="84"/>
+      <c r="C10" s="84"/>
       <c r="D10" s="61"/>
       <c r="E10" s="71"/>
       <c r="F10" s="61"/>
@@ -2602,31 +2612,31 @@
     </row>
     <row r="11" spans="1:13" s="44" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="61" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B11" s="61" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C11" s="61" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D11" s="61"/>
       <c r="E11" s="71"/>
       <c r="F11" s="61" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="G11" s="65"/>
       <c r="H11" s="66" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="I11" s="65"/>
       <c r="J11" s="65"/>
       <c r="K11" s="65"/>
       <c r="L11" s="70" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="M11" s="63" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="12" spans="1:13" s="44" customFormat="1" x14ac:dyDescent="0.25">
@@ -2675,20 +2685,20 @@
       <c r="M14" s="64"/>
     </row>
     <row r="15" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="86" t="s">
+      <c r="A15" s="87" t="s">
         <v>174</v>
       </c>
-      <c r="B15" s="83" t="s">
-        <v>239</v>
-      </c>
-      <c r="C15" s="83" t="s">
-        <v>299</v>
+      <c r="B15" s="84" t="s">
+        <v>237</v>
+      </c>
+      <c r="C15" s="84" t="s">
+        <v>297</v>
       </c>
       <c r="D15" s="57" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="E15" s="71" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="F15" s="32" t="s">
         <v>202</v>
@@ -2699,21 +2709,21 @@
       <c r="J15" s="65"/>
       <c r="K15" s="65"/>
       <c r="L15" s="66" t="s">
-        <v>271</v>
-      </c>
-      <c r="M15" s="79" t="s">
-        <v>271</v>
+        <v>269</v>
+      </c>
+      <c r="M15" s="80" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="86"/>
-      <c r="B16" s="86"/>
-      <c r="C16" s="86"/>
+      <c r="A16" s="87"/>
+      <c r="B16" s="87"/>
+      <c r="C16" s="87"/>
       <c r="D16" s="57" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="E16" s="71" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="F16" s="34" t="s">
         <v>175</v>
@@ -2724,19 +2734,19 @@
       <c r="J16" s="65"/>
       <c r="K16" s="65"/>
       <c r="L16" s="66" t="s">
-        <v>271</v>
-      </c>
-      <c r="M16" s="80"/>
+        <v>269</v>
+      </c>
+      <c r="M16" s="81"/>
     </row>
     <row r="17" spans="1:13" ht="90" x14ac:dyDescent="0.25">
-      <c r="A17" s="86"/>
-      <c r="B17" s="86"/>
-      <c r="C17" s="86"/>
+      <c r="A17" s="87"/>
+      <c r="B17" s="87"/>
+      <c r="C17" s="87"/>
       <c r="D17" s="57" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="E17" s="71" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F17" s="32" t="s">
         <v>203</v>
@@ -2747,14 +2757,14 @@
       <c r="J17" s="65"/>
       <c r="K17" s="65"/>
       <c r="L17" s="66" t="s">
-        <v>271</v>
-      </c>
-      <c r="M17" s="80"/>
+        <v>269</v>
+      </c>
+      <c r="M17" s="81"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="86"/>
-      <c r="B18" s="86"/>
-      <c r="C18" s="86"/>
+      <c r="A18" s="87"/>
+      <c r="B18" s="87"/>
+      <c r="C18" s="87"/>
       <c r="D18" s="43"/>
       <c r="F18" s="42"/>
       <c r="G18" s="42"/>
@@ -2763,22 +2773,22 @@
       <c r="J18" s="42"/>
       <c r="K18" s="42"/>
       <c r="L18" s="72" t="s">
-        <v>271</v>
-      </c>
-      <c r="M18" s="80"/>
+        <v>269</v>
+      </c>
+      <c r="M18" s="81"/>
     </row>
     <row r="19" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="86" t="s">
+      <c r="A19" s="87" t="s">
         <v>176</v>
       </c>
-      <c r="B19" s="83" t="s">
-        <v>240</v>
-      </c>
-      <c r="C19" s="83" t="s">
-        <v>241</v>
+      <c r="B19" s="84" t="s">
+        <v>238</v>
+      </c>
+      <c r="C19" s="84" t="s">
+        <v>239</v>
       </c>
       <c r="D19" s="57" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="E19" s="75" t="s">
         <v>177</v>
@@ -2792,18 +2802,18 @@
       <c r="J19" s="65"/>
       <c r="K19" s="65"/>
       <c r="L19" s="66" t="s">
-        <v>271</v>
-      </c>
-      <c r="M19" s="79" t="s">
-        <v>271</v>
+        <v>269</v>
+      </c>
+      <c r="M19" s="80" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="86"/>
-      <c r="B20" s="83"/>
-      <c r="C20" s="86"/>
+      <c r="A20" s="87"/>
+      <c r="B20" s="84"/>
+      <c r="C20" s="87"/>
       <c r="D20" s="57" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="E20" s="75" t="s">
         <v>177</v>
@@ -2817,14 +2827,14 @@
       <c r="J20" s="65"/>
       <c r="K20" s="65"/>
       <c r="L20" s="66" t="s">
-        <v>271</v>
-      </c>
-      <c r="M20" s="80"/>
+        <v>269</v>
+      </c>
+      <c r="M20" s="81"/>
     </row>
     <row r="21" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A21" s="86"/>
-      <c r="B21" s="83"/>
-      <c r="C21" s="86"/>
+      <c r="A21" s="87"/>
+      <c r="B21" s="84"/>
+      <c r="C21" s="87"/>
       <c r="D21" s="57" t="s">
         <v>177</v>
       </c>
@@ -2840,14 +2850,14 @@
       <c r="J21" s="65"/>
       <c r="K21" s="65"/>
       <c r="L21" s="66" t="s">
-        <v>271</v>
-      </c>
-      <c r="M21" s="80"/>
+        <v>269</v>
+      </c>
+      <c r="M21" s="81"/>
     </row>
     <row r="22" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A22" s="86"/>
-      <c r="B22" s="83"/>
-      <c r="C22" s="86"/>
+      <c r="A22" s="87"/>
+      <c r="B22" s="84"/>
+      <c r="C22" s="87"/>
       <c r="D22" s="57" t="s">
         <v>178</v>
       </c>
@@ -2860,22 +2870,22 @@
       <c r="J22" s="65"/>
       <c r="K22" s="65"/>
       <c r="L22" s="66" t="s">
-        <v>271</v>
-      </c>
-      <c r="M22" s="80"/>
+        <v>269</v>
+      </c>
+      <c r="M22" s="81"/>
     </row>
     <row r="23" spans="1:13" ht="90" x14ac:dyDescent="0.25">
-      <c r="A23" s="86" t="s">
+      <c r="A23" s="87" t="s">
         <v>179</v>
       </c>
-      <c r="B23" s="83" t="s">
-        <v>300</v>
-      </c>
-      <c r="C23" s="83" t="s">
-        <v>242</v>
+      <c r="B23" s="84" t="s">
+        <v>298</v>
+      </c>
+      <c r="C23" s="84" t="s">
+        <v>240</v>
       </c>
       <c r="D23" s="57" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F23" s="36" t="s">
         <v>180</v>
@@ -2886,70 +2896,70 @@
       <c r="J23" s="65"/>
       <c r="K23" s="65"/>
       <c r="L23" s="66" t="s">
-        <v>272</v>
-      </c>
-      <c r="M23" s="79" t="s">
-        <v>272</v>
+        <v>270</v>
+      </c>
+      <c r="M23" s="80" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="150" x14ac:dyDescent="0.25">
-      <c r="A24" s="86"/>
-      <c r="B24" s="83"/>
-      <c r="C24" s="86"/>
+      <c r="A24" s="87"/>
+      <c r="B24" s="84"/>
+      <c r="C24" s="87"/>
       <c r="D24" s="57" t="s">
         <v>18</v>
       </c>
       <c r="E24" s="71" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F24" s="41" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="G24" s="65"/>
       <c r="H24" s="65"/>
       <c r="I24" s="65" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="J24" s="66" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="K24" s="73"/>
       <c r="L24" s="66" t="s">
-        <v>352</v>
-      </c>
-      <c r="M24" s="80"/>
+        <v>348</v>
+      </c>
+      <c r="M24" s="81"/>
     </row>
     <row r="25" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="86"/>
-      <c r="B25" s="83"/>
-      <c r="C25" s="86"/>
+      <c r="A25" s="87"/>
+      <c r="B25" s="84"/>
+      <c r="C25" s="87"/>
       <c r="D25" s="57" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E25" s="71" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F25" s="32" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="G25" s="65"/>
       <c r="H25" s="65"/>
       <c r="I25" s="65" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="J25" s="66" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K25" s="65"/>
       <c r="L25" s="66" t="s">
-        <v>272</v>
-      </c>
-      <c r="M25" s="80"/>
+        <v>270</v>
+      </c>
+      <c r="M25" s="81"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="86"/>
-      <c r="B26" s="83"/>
-      <c r="C26" s="86"/>
+      <c r="A26" s="87"/>
+      <c r="B26" s="84"/>
+      <c r="C26" s="87"/>
       <c r="D26" s="43"/>
       <c r="F26" s="43"/>
       <c r="G26" s="43"/>
@@ -2958,28 +2968,28 @@
       <c r="J26" s="43"/>
       <c r="K26" s="43"/>
       <c r="L26" s="66" t="s">
-        <v>272</v>
-      </c>
-      <c r="M26" s="80"/>
+        <v>270</v>
+      </c>
+      <c r="M26" s="81"/>
     </row>
     <row r="27" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="86" t="s">
+      <c r="A27" s="87" t="s">
         <v>181</v>
       </c>
-      <c r="B27" s="83" t="s">
-        <v>243</v>
-      </c>
-      <c r="C27" s="81" t="s">
-        <v>244</v>
+      <c r="B27" s="84" t="s">
+        <v>241</v>
+      </c>
+      <c r="C27" s="82" t="s">
+        <v>242</v>
       </c>
       <c r="D27" s="57" t="s">
         <v>182</v>
       </c>
       <c r="E27" s="71" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F27" s="32" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="G27" s="65"/>
       <c r="H27" s="65"/>
@@ -2987,20 +2997,20 @@
         <v>84</v>
       </c>
       <c r="J27" s="66" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="K27" s="65"/>
       <c r="L27" s="66" t="s">
-        <v>276</v>
-      </c>
-      <c r="M27" s="79" t="s">
-        <v>276</v>
+        <v>274</v>
+      </c>
+      <c r="M27" s="80" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="86"/>
-      <c r="B28" s="83"/>
-      <c r="C28" s="81"/>
+      <c r="A28" s="87"/>
+      <c r="B28" s="84"/>
+      <c r="C28" s="82"/>
       <c r="D28" s="57" t="s">
         <v>183</v>
       </c>
@@ -3016,14 +3026,14 @@
       <c r="J28" s="65"/>
       <c r="K28" s="65"/>
       <c r="L28" s="66" t="s">
-        <v>276</v>
-      </c>
-      <c r="M28" s="80"/>
+        <v>274</v>
+      </c>
+      <c r="M28" s="81"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="86"/>
-      <c r="B29" s="83"/>
-      <c r="C29" s="81"/>
+      <c r="A29" s="87"/>
+      <c r="B29" s="84"/>
+      <c r="C29" s="82"/>
       <c r="D29" s="43"/>
       <c r="F29" s="42"/>
       <c r="G29" s="42"/>
@@ -3032,12 +3042,12 @@
       <c r="J29" s="42"/>
       <c r="K29" s="42"/>
       <c r="L29" s="72" t="s">
-        <v>276</v>
-      </c>
-      <c r="M29" s="80"/>
+        <v>274</v>
+      </c>
+      <c r="M29" s="81"/>
     </row>
     <row r="30" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="86" t="s">
+      <c r="A30" s="87" t="s">
         <v>185</v>
       </c>
       <c r="C30" s="59"/>
@@ -3048,22 +3058,22 @@
       <c r="J30" s="65"/>
       <c r="K30" s="65"/>
       <c r="L30" s="66" t="s">
-        <v>273</v>
-      </c>
-      <c r="M30" s="79" t="s">
-        <v>273</v>
+        <v>271</v>
+      </c>
+      <c r="M30" s="80" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="165" x14ac:dyDescent="0.25">
-      <c r="A31" s="86"/>
-      <c r="B31" s="83" t="s">
-        <v>245</v>
-      </c>
-      <c r="C31" s="83" t="s">
-        <v>246</v>
+      <c r="A31" s="87"/>
+      <c r="B31" s="84" t="s">
+        <v>243</v>
+      </c>
+      <c r="C31" s="84" t="s">
+        <v>244</v>
       </c>
       <c r="D31" s="43" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="E31" s="71" t="s">
         <v>192</v>
@@ -3077,16 +3087,16 @@
       <c r="J31" s="65"/>
       <c r="K31" s="65"/>
       <c r="L31" s="66" t="s">
-        <v>273</v>
-      </c>
-      <c r="M31" s="80"/>
+        <v>271</v>
+      </c>
+      <c r="M31" s="81"/>
     </row>
     <row r="32" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A32" s="86"/>
-      <c r="B32" s="86"/>
-      <c r="C32" s="83"/>
+      <c r="A32" s="87"/>
+      <c r="B32" s="87"/>
+      <c r="C32" s="84"/>
       <c r="D32" s="57" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F32" s="41" t="s">
         <v>210</v>
@@ -3097,19 +3107,19 @@
       <c r="J32" s="65"/>
       <c r="K32" s="65"/>
       <c r="L32" s="66" t="s">
-        <v>273</v>
-      </c>
-      <c r="M32" s="80"/>
+        <v>271</v>
+      </c>
+      <c r="M32" s="81"/>
     </row>
     <row r="33" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="86"/>
-      <c r="B33" s="86"/>
-      <c r="C33" s="83"/>
+      <c r="A33" s="87"/>
+      <c r="B33" s="87"/>
+      <c r="C33" s="84"/>
       <c r="D33" s="43" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="F33" s="43" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G33" s="43"/>
       <c r="H33" s="43"/>
@@ -3117,22 +3127,22 @@
       <c r="J33" s="43"/>
       <c r="K33" s="43"/>
       <c r="L33" s="66" t="s">
-        <v>273</v>
-      </c>
-      <c r="M33" s="80"/>
+        <v>271</v>
+      </c>
+      <c r="M33" s="81"/>
     </row>
     <row r="34" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="86"/>
-      <c r="B34" s="86"/>
-      <c r="C34" s="83"/>
+      <c r="A34" s="87"/>
+      <c r="B34" s="87"/>
+      <c r="C34" s="84"/>
       <c r="D34" s="43" t="s">
         <v>172</v>
       </c>
       <c r="E34" s="71" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F34" s="43" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G34" s="43"/>
       <c r="H34" s="43"/>
@@ -3140,22 +3150,22 @@
       <c r="J34" s="43"/>
       <c r="K34" s="43"/>
       <c r="L34" s="66" t="s">
-        <v>273</v>
-      </c>
-      <c r="M34" s="80"/>
+        <v>271</v>
+      </c>
+      <c r="M34" s="81"/>
     </row>
     <row r="35" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A35" s="86"/>
-      <c r="B35" s="86"/>
-      <c r="C35" s="83"/>
+      <c r="A35" s="87"/>
+      <c r="B35" s="87"/>
+      <c r="C35" s="84"/>
       <c r="D35" s="43" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E35" s="75" t="s">
         <v>187</v>
       </c>
       <c r="F35" s="43" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G35" s="43"/>
       <c r="H35" s="43"/>
@@ -3163,14 +3173,14 @@
       <c r="J35" s="43"/>
       <c r="K35" s="43"/>
       <c r="L35" s="66" t="s">
-        <v>273</v>
-      </c>
-      <c r="M35" s="80"/>
+        <v>271</v>
+      </c>
+      <c r="M35" s="81"/>
     </row>
     <row r="36" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="86"/>
-      <c r="B36" s="86"/>
-      <c r="C36" s="83"/>
+      <c r="A36" s="87"/>
+      <c r="B36" s="87"/>
+      <c r="C36" s="84"/>
       <c r="F36" s="43"/>
       <c r="G36" s="43"/>
       <c r="H36" s="43"/>
@@ -3178,19 +3188,19 @@
       <c r="J36" s="74"/>
       <c r="K36" s="43"/>
       <c r="L36" s="66" t="s">
-        <v>273</v>
-      </c>
-      <c r="M36" s="80"/>
+        <v>271</v>
+      </c>
+      <c r="M36" s="81"/>
     </row>
     <row r="37" spans="1:13" ht="90" x14ac:dyDescent="0.25">
-      <c r="A37" s="83" t="s">
+      <c r="A37" s="84" t="s">
+        <v>245</v>
+      </c>
+      <c r="B37" s="84" t="s">
+        <v>246</v>
+      </c>
+      <c r="C37" s="84" t="s">
         <v>247</v>
-      </c>
-      <c r="B37" s="83" t="s">
-        <v>248</v>
-      </c>
-      <c r="C37" s="83" t="s">
-        <v>249</v>
       </c>
       <c r="D37" s="57" t="s">
         <v>187</v>
@@ -3204,23 +3214,23 @@
       <c r="G37" s="65"/>
       <c r="H37" s="65"/>
       <c r="I37" s="75" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="J37" s="74" t="s">
         <v>194</v>
       </c>
       <c r="K37" s="65"/>
       <c r="L37" s="66" t="s">
-        <v>274</v>
-      </c>
-      <c r="M37" s="79" t="s">
-        <v>274</v>
+        <v>272</v>
+      </c>
+      <c r="M37" s="80" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="38" spans="1:13" ht="90" x14ac:dyDescent="0.25">
-      <c r="A38" s="83"/>
-      <c r="B38" s="83"/>
-      <c r="C38" s="86"/>
+      <c r="A38" s="84"/>
+      <c r="B38" s="84"/>
+      <c r="C38" s="87"/>
       <c r="D38" s="57" t="s">
         <v>188</v>
       </c>
@@ -3228,26 +3238,26 @@
         <v>191</v>
       </c>
       <c r="F38" s="32" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="G38" s="65"/>
       <c r="H38" s="65"/>
       <c r="I38" s="65" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="J38" s="66" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="K38" s="65"/>
       <c r="L38" s="66" t="s">
-        <v>274</v>
-      </c>
-      <c r="M38" s="80"/>
+        <v>272</v>
+      </c>
+      <c r="M38" s="81"/>
     </row>
     <row r="39" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A39" s="83"/>
-      <c r="B39" s="83"/>
-      <c r="C39" s="86"/>
+      <c r="A39" s="84"/>
+      <c r="B39" s="84"/>
+      <c r="C39" s="87"/>
       <c r="D39" s="57" t="s">
         <v>189</v>
       </c>
@@ -3255,14 +3265,14 @@
         <v>194</v>
       </c>
       <c r="L39" s="66" t="s">
-        <v>274</v>
-      </c>
-      <c r="M39" s="80"/>
+        <v>272</v>
+      </c>
+      <c r="M39" s="81"/>
     </row>
     <row r="40" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A40" s="83"/>
-      <c r="B40" s="83"/>
-      <c r="C40" s="86"/>
+      <c r="A40" s="84"/>
+      <c r="B40" s="84"/>
+      <c r="C40" s="87"/>
       <c r="D40" s="57" t="s">
         <v>190</v>
       </c>
@@ -3270,14 +3280,14 @@
         <v>195</v>
       </c>
       <c r="L40" s="66" t="s">
-        <v>274</v>
-      </c>
-      <c r="M40" s="80"/>
+        <v>272</v>
+      </c>
+      <c r="M40" s="81"/>
     </row>
     <row r="41" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A41" s="83"/>
-      <c r="B41" s="83"/>
-      <c r="C41" s="86"/>
+      <c r="A41" s="84"/>
+      <c r="B41" s="84"/>
+      <c r="C41" s="87"/>
       <c r="D41" s="57" t="s">
         <v>191</v>
       </c>
@@ -3293,14 +3303,14 @@
       <c r="J41" s="65"/>
       <c r="K41" s="65"/>
       <c r="L41" s="66" t="s">
-        <v>274</v>
-      </c>
-      <c r="M41" s="80"/>
+        <v>272</v>
+      </c>
+      <c r="M41" s="81"/>
     </row>
     <row r="42" spans="1:13" ht="105" x14ac:dyDescent="0.25">
-      <c r="A42" s="83"/>
-      <c r="B42" s="83"/>
-      <c r="C42" s="86"/>
+      <c r="A42" s="84"/>
+      <c r="B42" s="84"/>
+      <c r="C42" s="87"/>
       <c r="D42" s="57" t="s">
         <v>192</v>
       </c>
@@ -3308,26 +3318,26 @@
         <v>189</v>
       </c>
       <c r="F42" s="32" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="G42" s="65"/>
       <c r="H42" s="65"/>
       <c r="I42" s="65" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="J42" s="65" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="K42" s="65"/>
       <c r="L42" s="66" t="s">
-        <v>274</v>
-      </c>
-      <c r="M42" s="80"/>
+        <v>272</v>
+      </c>
+      <c r="M42" s="81"/>
     </row>
     <row r="43" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A43" s="83"/>
-      <c r="B43" s="83"/>
-      <c r="C43" s="86"/>
+      <c r="A43" s="84"/>
+      <c r="B43" s="84"/>
+      <c r="C43" s="87"/>
       <c r="D43" s="57" t="s">
         <v>193</v>
       </c>
@@ -3335,7 +3345,7 @@
         <v>189</v>
       </c>
       <c r="F43" s="41" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="G43" s="65"/>
       <c r="H43" s="65"/>
@@ -3343,9 +3353,9 @@
       <c r="J43" s="65"/>
       <c r="K43" s="65"/>
       <c r="L43" s="66" t="s">
-        <v>362</v>
-      </c>
-      <c r="M43" s="80"/>
+        <v>358</v>
+      </c>
+      <c r="M43" s="81"/>
     </row>
     <row r="44" spans="1:13" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="61"/>
@@ -3367,10 +3377,10 @@
         <v>208</v>
       </c>
       <c r="B45" s="56" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C45" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D45" s="57" t="s">
         <v>209</v>
@@ -3379,16 +3389,16 @@
         <v>208</v>
       </c>
       <c r="I45" s="44" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="J45" s="47" t="s">
         <v>212</v>
       </c>
       <c r="L45" s="47" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="M45" s="47" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
@@ -3543,7 +3553,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="87" t="s">
+      <c r="A2" s="88" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="29"/>
@@ -3558,7 +3568,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="88"/>
+      <c r="A3" s="89"/>
       <c r="B3" s="28"/>
       <c r="C3" t="s">
         <v>4</v>
@@ -3567,7 +3577,7 @@
       <c r="E3" s="6"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="88"/>
+      <c r="A4" s="89"/>
       <c r="B4" s="28"/>
       <c r="C4" t="s">
         <v>5</v>
@@ -3576,7 +3586,7 @@
       <c r="E4" s="6"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="88"/>
+      <c r="A5" s="89"/>
       <c r="B5" s="28"/>
       <c r="C5" t="s">
         <v>6</v>
@@ -3585,7 +3595,7 @@
       <c r="E5" s="6"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="88"/>
+      <c r="A6" s="89"/>
       <c r="B6" s="28"/>
       <c r="C6" t="s">
         <v>7</v>
@@ -3594,7 +3604,7 @@
       <c r="E6" s="6"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="88"/>
+      <c r="A7" s="89"/>
       <c r="B7" s="28"/>
       <c r="C7" t="s">
         <v>8</v>
@@ -3603,7 +3613,7 @@
       <c r="E7" s="6"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="88"/>
+      <c r="A8" s="89"/>
       <c r="B8" s="28"/>
       <c r="C8" t="s">
         <v>9</v>
@@ -3612,7 +3622,7 @@
       <c r="E8" s="6"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="88"/>
+      <c r="A9" s="89"/>
       <c r="B9" s="28"/>
       <c r="C9" t="s">
         <v>10</v>
@@ -3621,7 +3631,7 @@
       <c r="E9" s="6"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="88"/>
+      <c r="A10" s="89"/>
       <c r="B10" s="28"/>
       <c r="C10" t="s">
         <v>11</v>
@@ -3630,7 +3640,7 @@
       <c r="E10" s="6"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="88" t="s">
+      <c r="A11" s="89" t="s">
         <v>16</v>
       </c>
       <c r="B11" s="28"/>
@@ -3639,28 +3649,28 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="88"/>
+      <c r="A12" s="89"/>
       <c r="B12" s="28"/>
       <c r="C12" s="7" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="88"/>
+      <c r="A13" s="89"/>
       <c r="B13" s="28"/>
       <c r="C13" s="7" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="88"/>
+      <c r="A14" s="89"/>
       <c r="B14" s="28"/>
       <c r="C14" s="7" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="88"/>
+      <c r="A15" s="89"/>
       <c r="B15" s="28"/>
       <c r="C15" s="7" t="s">
         <v>21</v>
@@ -3670,7 +3680,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="88"/>
+      <c r="A16" s="89"/>
       <c r="B16" s="28"/>
       <c r="C16" s="7" t="s">
         <v>22</v>
@@ -3680,7 +3690,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="88" t="s">
+      <c r="A17" s="89" t="s">
         <v>23</v>
       </c>
       <c r="B17" s="28"/>
@@ -3695,7 +3705,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="88"/>
+      <c r="A18" s="89"/>
       <c r="B18" s="28"/>
       <c r="C18" s="8" t="s">
         <v>25</v>
@@ -3705,21 +3715,21 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="88"/>
+      <c r="A19" s="89"/>
       <c r="B19" s="28"/>
       <c r="C19" s="8" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="88"/>
+      <c r="A20" s="89"/>
       <c r="B20" s="28"/>
       <c r="C20" s="8" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A21" s="88"/>
+      <c r="A21" s="89"/>
       <c r="B21" s="28"/>
       <c r="C21" s="8" t="s">
         <v>28</v>
@@ -3729,7 +3739,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="88"/>
+      <c r="A22" s="89"/>
       <c r="B22" s="28"/>
       <c r="C22" s="8" t="s">
         <v>29</v>
@@ -3739,7 +3749,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="88"/>
+      <c r="A23" s="89"/>
       <c r="B23" s="28"/>
       <c r="C23" s="8" t="s">
         <v>30</v>
@@ -3749,14 +3759,14 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="88"/>
+      <c r="A24" s="89"/>
       <c r="B24" s="28"/>
       <c r="C24" s="8" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="88" t="s">
+      <c r="A25" s="89" t="s">
         <v>41</v>
       </c>
       <c r="B25" s="28"/>
@@ -3771,7 +3781,7 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="88"/>
+      <c r="A26" s="89"/>
       <c r="B26" s="28"/>
       <c r="C26" s="9" t="s">
         <v>43</v>
@@ -3781,7 +3791,7 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="88"/>
+      <c r="A27" s="89"/>
       <c r="B27" s="28"/>
       <c r="C27" s="9" t="s">
         <v>44</v>
@@ -3791,7 +3801,7 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="88"/>
+      <c r="A28" s="89"/>
       <c r="B28" s="28"/>
       <c r="C28" s="9" t="s">
         <v>41</v>
@@ -3801,7 +3811,7 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="88"/>
+      <c r="A29" s="89"/>
       <c r="B29" s="28"/>
       <c r="C29" s="9" t="s">
         <v>45</v>
@@ -3811,7 +3821,7 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="88"/>
+      <c r="A30" s="89"/>
       <c r="B30" s="28"/>
       <c r="C30" s="9" t="s">
         <v>46</v>
@@ -3821,49 +3831,49 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="88"/>
+      <c r="A31" s="89"/>
       <c r="B31" s="28"/>
       <c r="D31" s="9" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="88"/>
+      <c r="A32" s="89"/>
       <c r="B32" s="28"/>
       <c r="D32" s="9" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="88"/>
+      <c r="A33" s="89"/>
       <c r="B33" s="28"/>
       <c r="D33" s="9" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="88"/>
+      <c r="A34" s="89"/>
       <c r="B34" s="28"/>
       <c r="D34" s="9" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="88"/>
+      <c r="A35" s="89"/>
       <c r="B35" s="28"/>
       <c r="D35" s="9" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="88"/>
+      <c r="A36" s="89"/>
       <c r="B36" s="28"/>
       <c r="D36" s="9" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="89" t="s">
+      <c r="A37" s="90" t="s">
         <v>58</v>
       </c>
       <c r="D37" s="11" t="s">
@@ -3871,43 +3881,43 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="89"/>
+      <c r="A38" s="90"/>
       <c r="D38" s="11" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="89"/>
+      <c r="A39" s="90"/>
       <c r="D39" s="11" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="89"/>
+      <c r="A40" s="90"/>
       <c r="D40" s="11" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="89"/>
+      <c r="A41" s="90"/>
       <c r="D41" s="11" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="89"/>
+      <c r="A42" s="90"/>
       <c r="D42" s="11" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="89"/>
+      <c r="A43" s="90"/>
       <c r="D43" s="11" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="89" t="s">
+      <c r="A44" s="90" t="s">
         <v>66</v>
       </c>
       <c r="C44" s="12" t="s">
@@ -3918,7 +3928,7 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="89"/>
+      <c r="A45" s="90"/>
       <c r="C45" s="12" t="s">
         <v>67</v>
       </c>
@@ -3927,7 +3937,7 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="89"/>
+      <c r="A46" s="90"/>
       <c r="C46" s="12" t="s">
         <v>44</v>
       </c>
@@ -3936,43 +3946,43 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="89"/>
+      <c r="A47" s="90"/>
       <c r="D47" s="12" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="89"/>
+      <c r="A48" s="90"/>
       <c r="D48" s="12" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="89"/>
+      <c r="A49" s="90"/>
       <c r="D49" s="12" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="89"/>
+      <c r="A50" s="90"/>
       <c r="D50" s="12" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="89"/>
+      <c r="A51" s="90"/>
       <c r="D51" s="12" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="89"/>
+      <c r="A52" s="90"/>
       <c r="D52" s="12" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="158.44999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="89" t="s">
+      <c r="A53" s="90" t="s">
         <v>77</v>
       </c>
       <c r="C53" s="14" t="s">
@@ -3984,7 +3994,7 @@
       <c r="E53" s="13"/>
     </row>
     <row r="54" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A54" s="89"/>
+      <c r="A54" s="90"/>
       <c r="C54" s="14" t="s">
         <v>87</v>
       </c>
@@ -3994,7 +4004,7 @@
       <c r="E54" s="13"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="89" t="s">
+      <c r="A55" s="90" t="s">
         <v>80</v>
       </c>
       <c r="C55" s="14" t="s">
@@ -4005,7 +4015,7 @@
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="89"/>
+      <c r="A56" s="90"/>
       <c r="C56" s="14" t="s">
         <v>82</v>
       </c>
@@ -4014,7 +4024,7 @@
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="89"/>
+      <c r="A57" s="90"/>
       <c r="C57" s="14" t="s">
         <v>83</v>
       </c>
@@ -4023,7 +4033,7 @@
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="89"/>
+      <c r="A58" s="90"/>
       <c r="C58" s="14" t="s">
         <v>84</v>
       </c>
@@ -4032,7 +4042,7 @@
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="89"/>
+      <c r="A59" s="90"/>
       <c r="C59" s="14" t="s">
         <v>85</v>
       </c>
@@ -4041,73 +4051,73 @@
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="89"/>
+      <c r="A60" s="90"/>
       <c r="D60" s="14" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="89"/>
+      <c r="A61" s="90"/>
       <c r="D61" s="14" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="89"/>
+      <c r="A62" s="90"/>
       <c r="D62" s="14" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="89"/>
+      <c r="A63" s="90"/>
       <c r="D63" s="14" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="89"/>
+      <c r="A64" s="90"/>
       <c r="D64" s="14" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="89"/>
+      <c r="A65" s="90"/>
       <c r="D65" s="14" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="89"/>
+      <c r="A66" s="90"/>
       <c r="D66" s="14" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="89"/>
+      <c r="A67" s="90"/>
       <c r="D67" s="14" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="89"/>
+      <c r="A68" s="90"/>
       <c r="D68" s="14" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="89"/>
+      <c r="A69" s="90"/>
       <c r="D69" s="14" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="89"/>
+      <c r="A70" s="90"/>
       <c r="D70" s="14" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="89" t="s">
+      <c r="A71" s="90" t="s">
         <v>104</v>
       </c>
       <c r="C71" s="15" t="s">
@@ -4118,7 +4128,7 @@
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="89"/>
+      <c r="A72" s="90"/>
       <c r="C72" s="15" t="s">
         <v>106</v>
       </c>
@@ -4127,7 +4137,7 @@
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="89"/>
+      <c r="A73" s="90"/>
       <c r="C73" s="15" t="s">
         <v>107</v>
       </c>
@@ -4136,7 +4146,7 @@
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="89"/>
+      <c r="A74" s="90"/>
       <c r="C74" s="15" t="s">
         <v>108</v>
       </c>
@@ -4145,43 +4155,43 @@
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="89"/>
+      <c r="A75" s="90"/>
       <c r="D75" s="15" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="89"/>
+      <c r="A76" s="90"/>
       <c r="D76" s="15" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="89"/>
+      <c r="A77" s="90"/>
       <c r="D77" s="15" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="89"/>
+      <c r="A78" s="90"/>
       <c r="D78" s="15" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="89"/>
+      <c r="A79" s="90"/>
       <c r="D79" s="15" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="89"/>
+      <c r="A80" s="90"/>
       <c r="D80" s="15" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="89" t="s">
+      <c r="A81" s="90" t="s">
         <v>117</v>
       </c>
       <c r="C81" s="16" t="s">
@@ -4192,7 +4202,7 @@
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="89"/>
+      <c r="A82" s="90"/>
       <c r="C82" s="16" t="s">
         <v>119</v>
       </c>
@@ -4201,7 +4211,7 @@
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="89"/>
+      <c r="A83" s="90"/>
       <c r="C83" s="16" t="s">
         <v>120</v>
       </c>
@@ -4210,25 +4220,25 @@
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="89"/>
+      <c r="A84" s="90"/>
       <c r="D84" s="16" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" s="89"/>
+      <c r="A85" s="90"/>
       <c r="D85" s="16" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" s="89"/>
+      <c r="A86" s="90"/>
       <c r="D86" s="16" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A87" s="89" t="s">
+      <c r="A87" s="90" t="s">
         <v>125</v>
       </c>
       <c r="C87" s="17" t="s">
@@ -4239,7 +4249,7 @@
       </c>
     </row>
     <row r="88" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A88" s="89"/>
+      <c r="A88" s="90"/>
       <c r="C88" s="17" t="s">
         <v>127</v>
       </c>
@@ -4248,7 +4258,7 @@
       </c>
     </row>
     <row r="89" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A89" s="89"/>
+      <c r="A89" s="90"/>
       <c r="C89" s="17" t="s">
         <v>128</v>
       </c>
@@ -4257,13 +4267,13 @@
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" s="89"/>
+      <c r="A90" s="90"/>
       <c r="C90" s="17" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A91" s="89" t="s">
+      <c r="A91" s="90" t="s">
         <v>132</v>
       </c>
       <c r="C91" s="19" t="s">
@@ -4274,7 +4284,7 @@
       </c>
     </row>
     <row r="92" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A92" s="89"/>
+      <c r="A92" s="90"/>
       <c r="C92" s="19" t="s">
         <v>134</v>
       </c>
@@ -4283,40 +4293,40 @@
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" s="89"/>
+      <c r="A93" s="90"/>
       <c r="C93" s="19" t="s">
         <v>135</v>
       </c>
       <c r="D93" s="19"/>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" s="89"/>
+      <c r="A94" s="90"/>
       <c r="C94" s="19" t="s">
         <v>136</v>
       </c>
       <c r="D94" s="19"/>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" s="89"/>
+      <c r="A95" s="90"/>
       <c r="C95" s="19" t="s">
         <v>137</v>
       </c>
       <c r="D95" s="19"/>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96" s="89"/>
+      <c r="A96" s="90"/>
       <c r="C96" s="19" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" s="89"/>
+      <c r="A97" s="90"/>
       <c r="C97" s="19" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" s="89" t="s">
+      <c r="A98" s="90" t="s">
         <v>141</v>
       </c>
       <c r="D98" s="20" t="s">
@@ -4324,25 +4334,25 @@
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" s="89"/>
+      <c r="A99" s="90"/>
       <c r="D99" s="20" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" s="89"/>
+      <c r="A100" s="90"/>
       <c r="D100" s="20" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101" s="89"/>
+      <c r="A101" s="90"/>
       <c r="D101" s="20" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A102" s="89" t="s">
+      <c r="A102" s="90" t="s">
         <v>146</v>
       </c>
       <c r="C102" s="23" t="s">
@@ -4353,7 +4363,7 @@
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A103" s="89"/>
+      <c r="A103" s="90"/>
       <c r="C103" s="23" t="s">
         <v>138</v>
       </c>
@@ -4362,7 +4372,7 @@
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A104" s="89"/>
+      <c r="A104" s="90"/>
       <c r="C104" s="23" t="s">
         <v>135</v>
       </c>
@@ -4371,7 +4381,7 @@
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A105" s="89"/>
+      <c r="A105" s="90"/>
       <c r="C105" s="23" t="s">
         <v>147</v>
       </c>
@@ -4380,7 +4390,7 @@
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A106" s="89"/>
+      <c r="A106" s="90"/>
       <c r="C106" s="23" t="s">
         <v>148</v>
       </c>
@@ -4389,13 +4399,13 @@
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A107" s="89"/>
+      <c r="A107" s="90"/>
       <c r="C107" s="23" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A108" s="89" t="s">
+      <c r="A108" s="90" t="s">
         <v>151</v>
       </c>
       <c r="C108" s="24" t="s">
@@ -4406,7 +4416,7 @@
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A109" s="89"/>
+      <c r="A109" s="90"/>
       <c r="C109" s="24" t="s">
         <v>153</v>
       </c>
@@ -4415,31 +4425,31 @@
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A110" s="89"/>
+      <c r="A110" s="90"/>
       <c r="D110" s="24" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A111" s="89"/>
+      <c r="A111" s="90"/>
       <c r="D111" s="24" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A112" s="89"/>
+      <c r="A112" s="90"/>
       <c r="D112" s="24" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A113" s="89"/>
+      <c r="A113" s="90"/>
       <c r="D113" s="24" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A114" s="89" t="s">
+      <c r="A114" s="90" t="s">
         <v>163</v>
       </c>
       <c r="C114" s="25" t="s">
@@ -4450,7 +4460,7 @@
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A115" s="89"/>
+      <c r="A115" s="90"/>
       <c r="C115" s="25" t="s">
         <v>119</v>
       </c>
@@ -4459,7 +4469,7 @@
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A116" s="89"/>
+      <c r="A116" s="90"/>
       <c r="C116" s="25" t="s">
         <v>120</v>
       </c>
@@ -4468,57 +4478,57 @@
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A117" s="89"/>
+      <c r="A117" s="90"/>
       <c r="D117" s="25" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A118" s="89"/>
+      <c r="A118" s="90"/>
       <c r="D118" s="25"/>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A119" s="89"/>
+      <c r="A119" s="90"/>
       <c r="D119" s="25" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A120" s="89"/>
+      <c r="A120" s="90"/>
       <c r="D120" s="25" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A121" s="89"/>
+      <c r="A121" s="90"/>
       <c r="D121" s="25" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A122" s="89"/>
+      <c r="A122" s="90"/>
       <c r="D122" s="25" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A123" s="89"/>
+      <c r="A123" s="90"/>
       <c r="D123" s="25"/>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A124" s="89"/>
+      <c r="A124" s="90"/>
       <c r="D124" s="25" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="125" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A125" s="89"/>
+      <c r="A125" s="90"/>
       <c r="D125" s="26" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A126" s="89"/>
+      <c r="A126" s="90"/>
       <c r="D126" s="25" t="s">
         <v>170</v>
       </c>
@@ -4556,9 +4566,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B10" sqref="B10:B16"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4578,54 +4588,54 @@
         <v>1</v>
       </c>
       <c r="B1" s="48" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C1" s="48" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D1" s="51" t="s">
         <v>197</v>
       </c>
       <c r="E1" s="51" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="F1" s="51" t="s">
         <v>12</v>
       </c>
       <c r="G1" s="45" t="s">
+        <v>311</v>
+      </c>
+      <c r="H1" s="45" t="s">
+        <v>312</v>
+      </c>
+      <c r="I1" s="45" t="s">
         <v>313</v>
       </c>
-      <c r="H1" s="45" t="s">
+      <c r="J1" s="45" t="s">
         <v>314</v>
       </c>
-      <c r="I1" s="45" t="s">
+      <c r="K1" s="45" t="s">
         <v>315</v>
       </c>
-      <c r="J1" s="45" t="s">
-        <v>316</v>
-      </c>
-      <c r="K1" s="45" t="s">
-        <v>317</v>
-      </c>
       <c r="L1" s="45" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="M1" s="45" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="90" t="s">
+      <c r="A2" s="91" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="87" t="s">
-        <v>370</v>
-      </c>
-      <c r="C2" s="87" t="s">
-        <v>369</v>
+      <c r="B2" s="88" t="s">
+        <v>366</v>
+      </c>
+      <c r="C2" s="88" t="s">
+        <v>365</v>
       </c>
       <c r="D2" s="53" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="E2" s="68" t="s">
         <v>21</v>
@@ -4646,46 +4656,46 @@
       </c>
     </row>
     <row r="3" spans="1:13" s="44" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="91"/>
-      <c r="B3" s="92"/>
-      <c r="C3" s="92"/>
+      <c r="A3" s="92"/>
+      <c r="B3" s="93"/>
+      <c r="C3" s="93"/>
       <c r="D3" s="76" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="E3" s="76"/>
-      <c r="F3" s="77" t="s">
-        <v>372</v>
+      <c r="F3" s="78" t="s">
+        <v>368</v>
       </c>
       <c r="G3" s="75"/>
       <c r="H3" s="75"/>
       <c r="I3" s="75" t="s">
-        <v>371</v>
-      </c>
-      <c r="J3" s="78" t="s">
-        <v>368</v>
+        <v>367</v>
+      </c>
+      <c r="J3" s="79" t="s">
+        <v>364</v>
       </c>
       <c r="K3" s="75"/>
-      <c r="L3" s="78"/>
-      <c r="M3" s="78"/>
+      <c r="L3" s="79"/>
+      <c r="M3" s="79"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="88" t="s">
+      <c r="A4" s="89" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="89" t="s">
-        <v>291</v>
-      </c>
-      <c r="C4" s="89" t="s">
-        <v>288</v>
-      </c>
-      <c r="D4" s="83" t="s">
+      <c r="B4" s="90" t="s">
+        <v>289</v>
+      </c>
+      <c r="C4" s="90" t="s">
+        <v>286</v>
+      </c>
+      <c r="D4" s="84" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="83" t="s">
+      <c r="E4" s="84" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="83" t="s">
-        <v>278</v>
+      <c r="F4" s="84" t="s">
+        <v>276</v>
       </c>
       <c r="G4" s="65"/>
       <c r="H4" s="65"/>
@@ -4693,120 +4703,120 @@
       <c r="J4" s="66"/>
       <c r="K4" s="65"/>
       <c r="L4" s="66" t="s">
-        <v>277</v>
-      </c>
-      <c r="M4" s="79" t="s">
-        <v>277</v>
+        <v>275</v>
+      </c>
+      <c r="M4" s="80" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="88"/>
-      <c r="B5" s="89"/>
-      <c r="C5" s="89"/>
-      <c r="D5" s="83"/>
-      <c r="E5" s="83"/>
-      <c r="F5" s="83"/>
+      <c r="A5" s="89"/>
+      <c r="B5" s="90"/>
+      <c r="C5" s="90"/>
+      <c r="D5" s="84"/>
+      <c r="E5" s="84"/>
+      <c r="F5" s="84"/>
       <c r="G5" s="65"/>
       <c r="H5" s="65"/>
       <c r="I5" s="65"/>
       <c r="J5" s="66"/>
       <c r="K5" s="65"/>
       <c r="L5" s="66" t="s">
-        <v>277</v>
-      </c>
-      <c r="M5" s="80"/>
+        <v>275</v>
+      </c>
+      <c r="M5" s="81"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="88"/>
-      <c r="B6" s="89"/>
-      <c r="C6" s="89"/>
-      <c r="D6" s="83"/>
-      <c r="E6" s="83"/>
-      <c r="F6" s="83"/>
+      <c r="A6" s="89"/>
+      <c r="B6" s="90"/>
+      <c r="C6" s="90"/>
+      <c r="D6" s="84"/>
+      <c r="E6" s="84"/>
+      <c r="F6" s="84"/>
       <c r="G6" s="65"/>
       <c r="H6" s="65"/>
       <c r="I6" s="65"/>
       <c r="J6" s="66"/>
       <c r="K6" s="65"/>
       <c r="L6" s="66" t="s">
-        <v>277</v>
-      </c>
-      <c r="M6" s="80"/>
+        <v>275</v>
+      </c>
+      <c r="M6" s="81"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="88"/>
-      <c r="B7" s="89"/>
-      <c r="C7" s="89"/>
-      <c r="D7" s="83"/>
-      <c r="E7" s="83"/>
-      <c r="F7" s="83"/>
+      <c r="A7" s="89"/>
+      <c r="B7" s="90"/>
+      <c r="C7" s="90"/>
+      <c r="D7" s="84"/>
+      <c r="E7" s="84"/>
+      <c r="F7" s="84"/>
       <c r="G7" s="65"/>
       <c r="H7" s="65"/>
       <c r="I7" s="65"/>
       <c r="J7" s="66"/>
       <c r="K7" s="65"/>
       <c r="L7" s="66" t="s">
-        <v>277</v>
-      </c>
-      <c r="M7" s="80"/>
+        <v>275</v>
+      </c>
+      <c r="M7" s="81"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="88"/>
-      <c r="B8" s="89"/>
-      <c r="C8" s="89"/>
-      <c r="D8" s="83"/>
-      <c r="E8" s="83"/>
-      <c r="F8" s="83"/>
+      <c r="A8" s="89"/>
+      <c r="B8" s="90"/>
+      <c r="C8" s="90"/>
+      <c r="D8" s="84"/>
+      <c r="E8" s="84"/>
+      <c r="F8" s="84"/>
       <c r="G8" s="65"/>
       <c r="H8" s="65"/>
       <c r="I8" s="65"/>
       <c r="J8" s="66"/>
       <c r="K8" s="65"/>
       <c r="L8" s="66" t="s">
-        <v>277</v>
-      </c>
-      <c r="M8" s="80"/>
+        <v>275</v>
+      </c>
+      <c r="M8" s="81"/>
     </row>
     <row r="9" spans="1:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="A9" s="88"/>
-      <c r="B9" s="89"/>
-      <c r="C9" s="89"/>
+      <c r="A9" s="89"/>
+      <c r="B9" s="90"/>
+      <c r="C9" s="90"/>
       <c r="D9" s="50" t="s">
         <v>22</v>
       </c>
       <c r="E9" s="67"/>
       <c r="F9" s="50" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="G9" s="65"/>
       <c r="H9" s="65"/>
       <c r="I9" s="65" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="J9" s="65" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="K9" s="65"/>
       <c r="L9" s="69"/>
       <c r="M9" s="44"/>
     </row>
     <row r="10" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="88" t="s">
+      <c r="A10" s="89" t="s">
         <v>213</v>
       </c>
-      <c r="B10" s="94" t="s">
-        <v>380</v>
-      </c>
-      <c r="C10" s="89" t="s">
-        <v>292</v>
-      </c>
-      <c r="D10" s="83" t="s">
+      <c r="B10" s="95" t="s">
+        <v>376</v>
+      </c>
+      <c r="C10" s="90" t="s">
+        <v>290</v>
+      </c>
+      <c r="D10" s="84" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="83" t="s">
-        <v>29</v>
-      </c>
-      <c r="F10" s="83" t="s">
+      <c r="E10" s="84" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="84" t="s">
         <v>32</v>
       </c>
       <c r="G10" s="65"/>
@@ -4817,17 +4827,17 @@
       <c r="L10" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="M10" s="79" t="s">
+      <c r="M10" s="80" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="88"/>
-      <c r="B11" s="83"/>
-      <c r="C11" s="89"/>
-      <c r="D11" s="83"/>
-      <c r="E11" s="83"/>
-      <c r="F11" s="83"/>
+      <c r="A11" s="89"/>
+      <c r="B11" s="84"/>
+      <c r="C11" s="90"/>
+      <c r="D11" s="84"/>
+      <c r="E11" s="84"/>
+      <c r="F11" s="84"/>
       <c r="G11" s="65"/>
       <c r="H11" s="65"/>
       <c r="I11" s="65"/>
@@ -4836,15 +4846,15 @@
       <c r="L11" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="M11" s="80"/>
+      <c r="M11" s="81"/>
     </row>
     <row r="12" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="88"/>
-      <c r="B12" s="83"/>
-      <c r="C12" s="89"/>
-      <c r="D12" s="83"/>
-      <c r="E12" s="83"/>
-      <c r="F12" s="83"/>
+      <c r="A12" s="89"/>
+      <c r="B12" s="84"/>
+      <c r="C12" s="90"/>
+      <c r="D12" s="84"/>
+      <c r="E12" s="84"/>
+      <c r="F12" s="84"/>
       <c r="G12" s="65"/>
       <c r="H12" s="65"/>
       <c r="I12" s="65"/>
@@ -4853,12 +4863,12 @@
       <c r="L12" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="M12" s="80"/>
+      <c r="M12" s="81"/>
     </row>
     <row r="13" spans="1:13" ht="90" x14ac:dyDescent="0.25">
-      <c r="A13" s="88"/>
-      <c r="B13" s="83"/>
-      <c r="C13" s="89"/>
+      <c r="A13" s="89"/>
+      <c r="B13" s="84"/>
+      <c r="C13" s="90"/>
       <c r="D13" s="50" t="s">
         <v>28</v>
       </c>
@@ -4876,12 +4886,12 @@
       <c r="L13" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="M13" s="80"/>
-    </row>
-    <row r="14" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="88"/>
-      <c r="B14" s="83"/>
-      <c r="C14" s="89"/>
+      <c r="M13" s="81"/>
+    </row>
+    <row r="14" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A14" s="89"/>
+      <c r="B14" s="84"/>
+      <c r="C14" s="90"/>
       <c r="D14" s="50" t="s">
         <v>29</v>
       </c>
@@ -4889,7 +4899,7 @@
         <v>43</v>
       </c>
       <c r="F14" s="50" t="s">
-        <v>38</v>
+        <v>379</v>
       </c>
       <c r="G14" s="65"/>
       <c r="H14" s="65"/>
@@ -4899,19 +4909,15 @@
       <c r="L14" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="M14" s="80"/>
+      <c r="M14" s="81"/>
     </row>
     <row r="15" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="88"/>
-      <c r="B15" s="83"/>
-      <c r="C15" s="89"/>
-      <c r="D15" s="50" t="s">
-        <v>30</v>
-      </c>
+      <c r="A15" s="89"/>
+      <c r="B15" s="84"/>
+      <c r="C15" s="90"/>
+      <c r="D15" s="50"/>
       <c r="E15" s="67"/>
-      <c r="F15" s="73" t="s">
-        <v>39</v>
-      </c>
+      <c r="F15" s="73"/>
       <c r="G15" s="65"/>
       <c r="H15" s="65"/>
       <c r="I15" s="65"/>
@@ -4920,19 +4926,15 @@
       <c r="L15" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="M15" s="80"/>
+      <c r="M15" s="81"/>
     </row>
     <row r="16" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="88"/>
-      <c r="B16" s="83"/>
-      <c r="C16" s="89"/>
-      <c r="D16" s="50" t="s">
-        <v>31</v>
-      </c>
+      <c r="A16" s="89"/>
+      <c r="B16" s="84"/>
+      <c r="C16" s="90"/>
+      <c r="D16" s="50"/>
       <c r="E16" s="67"/>
-      <c r="F16" s="73" t="s">
-        <v>39</v>
-      </c>
+      <c r="F16" s="73"/>
       <c r="G16" s="65"/>
       <c r="H16" s="65"/>
       <c r="I16" s="65"/>
@@ -4941,21 +4943,19 @@
       <c r="L16" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="M16" s="80"/>
+      <c r="M16" s="81"/>
     </row>
     <row r="17" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="88" t="s">
+      <c r="A17" s="89" t="s">
         <v>41</v>
       </c>
-      <c r="B17" s="89" t="s">
-        <v>252</v>
-      </c>
-      <c r="C17" s="89" t="s">
-        <v>253</v>
-      </c>
-      <c r="D17" s="50" t="s">
-        <v>42</v>
-      </c>
+      <c r="B17" s="90" t="s">
+        <v>250</v>
+      </c>
+      <c r="C17" s="90" t="s">
+        <v>251</v>
+      </c>
+      <c r="D17" s="50"/>
       <c r="E17" s="67"/>
       <c r="F17" s="50" t="s">
         <v>38</v>
@@ -4968,17 +4968,15 @@
       <c r="L17" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="M17" s="79" t="s">
+      <c r="M17" s="80" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A18" s="88"/>
-      <c r="B18" s="89"/>
-      <c r="C18" s="89"/>
-      <c r="D18" s="50" t="s">
-        <v>43</v>
-      </c>
+      <c r="A18" s="89"/>
+      <c r="B18" s="90"/>
+      <c r="C18" s="90"/>
+      <c r="D18" s="50"/>
       <c r="E18" s="67"/>
       <c r="F18" s="50" t="s">
         <v>47</v>
@@ -4991,18 +4989,18 @@
       <c r="L18" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="M18" s="79"/>
-    </row>
-    <row r="19" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="88"/>
-      <c r="B19" s="89"/>
-      <c r="C19" s="89"/>
+      <c r="M18" s="80"/>
+    </row>
+    <row r="19" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" s="89"/>
+      <c r="B19" s="90"/>
+      <c r="C19" s="90"/>
       <c r="D19" s="50" t="s">
         <v>44</v>
       </c>
       <c r="E19" s="67"/>
       <c r="F19" s="50" t="s">
-        <v>48</v>
+        <v>378</v>
       </c>
       <c r="G19" s="42"/>
       <c r="H19" s="42"/>
@@ -5012,19 +5010,15 @@
       <c r="L19" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="M19" s="79"/>
+      <c r="M19" s="80"/>
     </row>
     <row r="20" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="88"/>
-      <c r="B20" s="89"/>
-      <c r="C20" s="89"/>
-      <c r="D20" s="50" t="s">
-        <v>41</v>
-      </c>
+      <c r="A20" s="89"/>
+      <c r="B20" s="90"/>
+      <c r="C20" s="90"/>
+      <c r="D20" s="50"/>
       <c r="E20" s="67"/>
-      <c r="F20" s="50" t="s">
-        <v>49</v>
-      </c>
+      <c r="F20" s="50"/>
       <c r="G20" s="65"/>
       <c r="H20" s="65"/>
       <c r="I20" s="65"/>
@@ -5033,12 +5027,12 @@
       <c r="L20" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="M20" s="79"/>
+      <c r="M20" s="80"/>
     </row>
     <row r="21" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="88"/>
-      <c r="B21" s="89"/>
-      <c r="C21" s="89"/>
+      <c r="A21" s="89"/>
+      <c r="B21" s="90"/>
+      <c r="C21" s="90"/>
       <c r="D21" s="50" t="s">
         <v>45</v>
       </c>
@@ -5054,12 +5048,12 @@
       <c r="L21" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="M21" s="79"/>
+      <c r="M21" s="80"/>
     </row>
     <row r="22" spans="1:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="A22" s="88"/>
-      <c r="B22" s="89"/>
-      <c r="C22" s="89"/>
+      <c r="A22" s="89"/>
+      <c r="B22" s="90"/>
+      <c r="C22" s="90"/>
       <c r="D22" s="50" t="s">
         <v>46</v>
       </c>
@@ -5067,7 +5061,7 @@
         <v>214</v>
       </c>
       <c r="F22" s="50" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="G22" s="65"/>
       <c r="H22" s="65"/>
@@ -5077,12 +5071,12 @@
       <c r="L22" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="M22" s="79"/>
+      <c r="M22" s="80"/>
     </row>
     <row r="23" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="88"/>
-      <c r="B23" s="89"/>
-      <c r="C23" s="89"/>
+      <c r="A23" s="89"/>
+      <c r="B23" s="90"/>
+      <c r="C23" s="90"/>
       <c r="E23" s="73"/>
       <c r="F23" s="50"/>
       <c r="G23" s="65"/>
@@ -5093,12 +5087,12 @@
       <c r="L23" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="M23" s="79"/>
+      <c r="M23" s="80"/>
     </row>
     <row r="24" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A24" s="88"/>
-      <c r="B24" s="89"/>
-      <c r="C24" s="89"/>
+      <c r="A24" s="89"/>
+      <c r="B24" s="90"/>
+      <c r="C24" s="90"/>
       <c r="D24" s="73" t="s">
         <v>214</v>
       </c>
@@ -5116,17 +5110,17 @@
       <c r="L24" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="M24" s="79"/>
+      <c r="M24" s="80"/>
     </row>
     <row r="25" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A25" s="88"/>
-      <c r="B25" s="89"/>
-      <c r="C25" s="89"/>
+      <c r="A25" s="89"/>
+      <c r="B25" s="90"/>
+      <c r="C25" s="90"/>
       <c r="D25" s="50" t="s">
         <v>215</v>
       </c>
-      <c r="E25" s="67" t="s">
-        <v>107</v>
+      <c r="E25" s="77" t="s">
+        <v>44</v>
       </c>
       <c r="F25" s="50" t="s">
         <v>56</v>
@@ -5139,17 +5133,17 @@
       <c r="L25" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="M25" s="79"/>
+      <c r="M25" s="80"/>
     </row>
     <row r="26" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="89" t="s">
+      <c r="A26" s="90" t="s">
         <v>58</v>
       </c>
-      <c r="B26" s="89" t="s">
-        <v>236</v>
-      </c>
-      <c r="C26" s="89" t="s">
-        <v>293</v>
+      <c r="B26" s="90" t="s">
+        <v>234</v>
+      </c>
+      <c r="C26" s="90" t="s">
+        <v>291</v>
       </c>
       <c r="D26" s="44"/>
       <c r="F26" s="50"/>
@@ -5161,14 +5155,14 @@
       <c r="L26" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="M26" s="79" t="s">
+      <c r="M26" s="80" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A27" s="89"/>
-      <c r="B27" s="89"/>
-      <c r="C27" s="89"/>
+      <c r="A27" s="90"/>
+      <c r="B27" s="90"/>
+      <c r="C27" s="90"/>
       <c r="D27" s="73" t="s">
         <v>58</v>
       </c>
@@ -5176,7 +5170,7 @@
         <v>218</v>
       </c>
       <c r="F27" s="73" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="G27" s="43"/>
       <c r="H27" s="43"/>
@@ -5186,12 +5180,12 @@
       <c r="L27" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="M27" s="80"/>
+      <c r="M27" s="81"/>
     </row>
     <row r="28" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="89"/>
-      <c r="B28" s="89"/>
-      <c r="C28" s="89"/>
+      <c r="A28" s="90"/>
+      <c r="B28" s="90"/>
+      <c r="C28" s="90"/>
       <c r="D28" s="73"/>
       <c r="F28" s="73"/>
       <c r="G28" s="65"/>
@@ -5202,12 +5196,12 @@
       <c r="L28" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="M28" s="80"/>
+      <c r="M28" s="81"/>
     </row>
     <row r="29" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A29" s="89"/>
-      <c r="B29" s="89"/>
-      <c r="C29" s="89"/>
+      <c r="A29" s="90"/>
+      <c r="B29" s="90"/>
+      <c r="C29" s="90"/>
       <c r="D29" s="50" t="s">
         <v>216</v>
       </c>
@@ -5223,17 +5217,17 @@
       <c r="L29" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="M29" s="80"/>
+      <c r="M29" s="81"/>
     </row>
     <row r="30" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="89" t="s">
+      <c r="A30" s="90" t="s">
         <v>66</v>
       </c>
-      <c r="B30" s="89" t="s">
-        <v>254</v>
-      </c>
-      <c r="C30" s="89" t="s">
-        <v>255</v>
+      <c r="B30" s="90" t="s">
+        <v>252</v>
+      </c>
+      <c r="C30" s="90" t="s">
+        <v>253</v>
       </c>
       <c r="D30" s="50" t="s">
         <v>217</v>
@@ -5248,16 +5242,16 @@
       <c r="J30" s="66"/>
       <c r="K30" s="42"/>
       <c r="L30" s="66" t="s">
-        <v>279</v>
-      </c>
-      <c r="M30" s="79" t="s">
-        <v>279</v>
+        <v>277</v>
+      </c>
+      <c r="M30" s="80" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="89"/>
-      <c r="B31" s="89"/>
-      <c r="C31" s="89"/>
+      <c r="A31" s="90"/>
+      <c r="B31" s="90"/>
+      <c r="C31" s="90"/>
       <c r="D31" s="50" t="s">
         <v>67</v>
       </c>
@@ -5273,14 +5267,14 @@
       <c r="J31" s="66"/>
       <c r="K31" s="65"/>
       <c r="L31" s="66" t="s">
-        <v>279</v>
-      </c>
-      <c r="M31" s="80"/>
+        <v>277</v>
+      </c>
+      <c r="M31" s="81"/>
     </row>
     <row r="32" spans="1:13" ht="210" x14ac:dyDescent="0.25">
-      <c r="A32" s="89"/>
-      <c r="B32" s="89"/>
-      <c r="C32" s="89"/>
+      <c r="A32" s="90"/>
+      <c r="B32" s="90"/>
+      <c r="C32" s="90"/>
       <c r="D32" s="73" t="s">
         <v>44</v>
       </c>
@@ -5288,7 +5282,7 @@
         <v>107</v>
       </c>
       <c r="F32" s="50" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="G32" s="65"/>
       <c r="H32" s="65"/>
@@ -5296,14 +5290,14 @@
       <c r="J32" s="66"/>
       <c r="K32" s="65"/>
       <c r="L32" s="66" t="s">
-        <v>279</v>
-      </c>
-      <c r="M32" s="80"/>
+        <v>277</v>
+      </c>
+      <c r="M32" s="81"/>
     </row>
     <row r="33" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="89"/>
-      <c r="B33" s="89"/>
-      <c r="C33" s="89"/>
+      <c r="A33" s="90"/>
+      <c r="B33" s="90"/>
+      <c r="C33" s="90"/>
       <c r="D33" s="73"/>
       <c r="E33" s="67"/>
       <c r="F33" s="50"/>
@@ -5313,14 +5307,14 @@
       <c r="J33" s="66"/>
       <c r="K33" s="65"/>
       <c r="L33" s="66" t="s">
-        <v>279</v>
-      </c>
-      <c r="M33" s="80"/>
+        <v>277</v>
+      </c>
+      <c r="M33" s="81"/>
     </row>
     <row r="34" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="89"/>
-      <c r="B34" s="89"/>
-      <c r="C34" s="89"/>
+      <c r="A34" s="90"/>
+      <c r="B34" s="90"/>
+      <c r="C34" s="90"/>
       <c r="D34" s="73"/>
       <c r="E34" s="67"/>
       <c r="F34" s="50"/>
@@ -5330,14 +5324,14 @@
       <c r="J34" s="66"/>
       <c r="K34" s="43"/>
       <c r="L34" s="66" t="s">
-        <v>279</v>
-      </c>
-      <c r="M34" s="80"/>
+        <v>277</v>
+      </c>
+      <c r="M34" s="81"/>
     </row>
     <row r="35" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="89"/>
-      <c r="B35" s="89"/>
-      <c r="C35" s="89"/>
+      <c r="A35" s="90"/>
+      <c r="B35" s="90"/>
+      <c r="C35" s="90"/>
       <c r="D35" s="73"/>
       <c r="E35" s="67"/>
       <c r="F35" s="50"/>
@@ -5347,14 +5341,14 @@
       <c r="J35" s="66"/>
       <c r="K35" s="43"/>
       <c r="L35" s="66" t="s">
-        <v>279</v>
-      </c>
-      <c r="M35" s="80"/>
+        <v>277</v>
+      </c>
+      <c r="M35" s="81"/>
     </row>
     <row r="36" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="89"/>
-      <c r="B36" s="89"/>
-      <c r="C36" s="89"/>
+      <c r="A36" s="90"/>
+      <c r="B36" s="90"/>
+      <c r="C36" s="90"/>
       <c r="D36" s="73"/>
       <c r="E36" s="67"/>
       <c r="F36" s="50"/>
@@ -5364,14 +5358,14 @@
       <c r="J36" s="66"/>
       <c r="K36" s="43"/>
       <c r="L36" s="66" t="s">
-        <v>279</v>
-      </c>
-      <c r="M36" s="80"/>
+        <v>277</v>
+      </c>
+      <c r="M36" s="81"/>
     </row>
     <row r="37" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="89"/>
-      <c r="B37" s="89"/>
-      <c r="C37" s="89"/>
+      <c r="A37" s="90"/>
+      <c r="B37" s="90"/>
+      <c r="C37" s="90"/>
       <c r="D37" s="73"/>
       <c r="F37" s="50"/>
       <c r="G37" s="43"/>
@@ -5380,19 +5374,19 @@
       <c r="J37" s="66"/>
       <c r="K37" s="43"/>
       <c r="L37" s="66" t="s">
-        <v>279</v>
-      </c>
-      <c r="M37" s="80"/>
-    </row>
-    <row r="38" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A38" s="89" t="s">
+        <v>277</v>
+      </c>
+      <c r="M37" s="81"/>
+    </row>
+    <row r="38" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="A38" s="90" t="s">
         <v>77</v>
       </c>
-      <c r="B38" s="89" t="s">
-        <v>294</v>
-      </c>
-      <c r="C38" s="89" t="s">
-        <v>256</v>
+      <c r="B38" s="90" t="s">
+        <v>292</v>
+      </c>
+      <c r="C38" s="90" t="s">
+        <v>254</v>
       </c>
       <c r="D38" s="50" t="s">
         <v>218</v>
@@ -5401,7 +5395,7 @@
         <v>107</v>
       </c>
       <c r="F38" s="50" t="s">
-        <v>320</v>
+        <v>377</v>
       </c>
       <c r="G38" s="65"/>
       <c r="H38" s="66" t="s">
@@ -5411,40 +5405,36 @@
       <c r="J38" s="65"/>
       <c r="K38" s="65"/>
       <c r="L38" s="69"/>
-      <c r="M38" s="79" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A39" s="89"/>
-      <c r="B39" s="89"/>
-      <c r="C39" s="89"/>
-      <c r="D39" s="50" t="s">
-        <v>219</v>
-      </c>
+      <c r="M38" s="80" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A39" s="90"/>
+      <c r="B39" s="90"/>
+      <c r="C39" s="90"/>
+      <c r="D39" s="50"/>
       <c r="E39" s="67"/>
-      <c r="F39" s="50" t="s">
-        <v>220</v>
-      </c>
+      <c r="F39" s="50"/>
       <c r="G39" s="65"/>
       <c r="H39" s="65"/>
       <c r="I39" s="65"/>
       <c r="J39" s="66"/>
       <c r="K39" s="65"/>
       <c r="L39" s="66" t="s">
-        <v>280</v>
-      </c>
-      <c r="M39" s="80"/>
+        <v>278</v>
+      </c>
+      <c r="M39" s="81"/>
     </row>
     <row r="40" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A40" s="89" t="s">
+      <c r="A40" s="90" t="s">
         <v>80</v>
       </c>
-      <c r="B40" s="89" t="s">
-        <v>257</v>
-      </c>
-      <c r="C40" s="89" t="s">
-        <v>258</v>
+      <c r="B40" s="90" t="s">
+        <v>255</v>
+      </c>
+      <c r="C40" s="90" t="s">
+        <v>256</v>
       </c>
       <c r="D40" s="50" t="s">
         <v>81</v>
@@ -5453,21 +5443,21 @@
         <v>107</v>
       </c>
       <c r="F40" s="50" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="I40" s="65"/>
       <c r="J40" s="47"/>
       <c r="L40" s="47" t="s">
-        <v>281</v>
-      </c>
-      <c r="M40" s="79" t="s">
-        <v>281</v>
+        <v>279</v>
+      </c>
+      <c r="M40" s="80" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A41" s="89"/>
-      <c r="B41" s="89"/>
-      <c r="C41" s="89"/>
+      <c r="A41" s="90"/>
+      <c r="B41" s="90"/>
+      <c r="C41" s="90"/>
       <c r="D41" s="50" t="s">
         <v>82</v>
       </c>
@@ -5478,14 +5468,14 @@
       <c r="I41" s="65"/>
       <c r="J41" s="47"/>
       <c r="L41" s="47" t="s">
-        <v>281</v>
-      </c>
-      <c r="M41" s="80"/>
+        <v>279</v>
+      </c>
+      <c r="M41" s="81"/>
     </row>
     <row r="42" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42" s="89"/>
-      <c r="B42" s="89"/>
-      <c r="C42" s="89"/>
+      <c r="A42" s="90"/>
+      <c r="B42" s="90"/>
+      <c r="C42" s="90"/>
       <c r="D42" s="50" t="s">
         <v>83</v>
       </c>
@@ -5501,35 +5491,37 @@
       <c r="J42" s="47"/>
       <c r="K42" s="65"/>
       <c r="L42" s="47" t="s">
-        <v>281</v>
-      </c>
-      <c r="M42" s="80"/>
-    </row>
-    <row r="43" spans="1:13" ht="225" x14ac:dyDescent="0.25">
-      <c r="A43" s="89"/>
-      <c r="B43" s="89"/>
-      <c r="C43" s="89"/>
+        <v>279</v>
+      </c>
+      <c r="M42" s="81"/>
+    </row>
+    <row r="43" spans="1:13" ht="210" x14ac:dyDescent="0.25">
+      <c r="A43" s="90"/>
+      <c r="B43" s="90"/>
+      <c r="C43" s="90"/>
       <c r="D43" s="73" t="s">
         <v>85</v>
       </c>
       <c r="E43" s="67"/>
       <c r="F43" s="50" t="s">
-        <v>344</v>
-      </c>
-      <c r="G43" s="65"/>
+        <v>381</v>
+      </c>
+      <c r="G43" s="65" t="s">
+        <v>380</v>
+      </c>
       <c r="H43" s="65"/>
       <c r="I43" s="65"/>
       <c r="J43" s="47"/>
       <c r="K43" s="65"/>
       <c r="L43" s="47" t="s">
-        <v>281</v>
-      </c>
-      <c r="M43" s="80"/>
+        <v>279</v>
+      </c>
+      <c r="M43" s="81"/>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A44" s="89"/>
-      <c r="B44" s="89"/>
-      <c r="C44" s="89"/>
+      <c r="A44" s="90"/>
+      <c r="B44" s="90"/>
+      <c r="C44" s="90"/>
       <c r="D44" s="73"/>
       <c r="E44" s="67"/>
       <c r="F44" s="50"/>
@@ -5539,14 +5531,14 @@
       <c r="J44" s="47"/>
       <c r="K44" s="65"/>
       <c r="L44" s="47" t="s">
-        <v>281</v>
-      </c>
-      <c r="M44" s="80"/>
+        <v>279</v>
+      </c>
+      <c r="M44" s="81"/>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A45" s="89"/>
-      <c r="B45" s="89"/>
-      <c r="C45" s="89"/>
+      <c r="A45" s="90"/>
+      <c r="B45" s="90"/>
+      <c r="C45" s="90"/>
       <c r="D45" s="73"/>
       <c r="E45" s="67"/>
       <c r="F45" s="50"/>
@@ -5556,145 +5548,145 @@
       <c r="J45" s="47"/>
       <c r="K45" s="65"/>
       <c r="L45" s="47" t="s">
-        <v>281</v>
-      </c>
-      <c r="M45" s="80"/>
+        <v>279</v>
+      </c>
+      <c r="M45" s="81"/>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A46" s="89"/>
-      <c r="B46" s="89"/>
-      <c r="C46" s="89"/>
+      <c r="A46" s="90"/>
+      <c r="B46" s="90"/>
+      <c r="C46" s="90"/>
       <c r="D46" s="73"/>
       <c r="E46" s="67"/>
       <c r="F46" s="50"/>
       <c r="I46" s="65"/>
       <c r="J46" s="47"/>
       <c r="L46" s="47" t="s">
-        <v>281</v>
-      </c>
-      <c r="M46" s="80"/>
+        <v>279</v>
+      </c>
+      <c r="M46" s="81"/>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A47" s="89"/>
-      <c r="B47" s="89"/>
-      <c r="C47" s="89"/>
+      <c r="A47" s="90"/>
+      <c r="B47" s="90"/>
+      <c r="C47" s="90"/>
       <c r="D47" s="73"/>
       <c r="E47" s="67"/>
       <c r="F47" s="50"/>
       <c r="I47" s="65"/>
       <c r="J47" s="47"/>
       <c r="L47" s="47" t="s">
-        <v>281</v>
-      </c>
-      <c r="M47" s="80"/>
+        <v>279</v>
+      </c>
+      <c r="M47" s="81"/>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A48" s="89"/>
-      <c r="B48" s="89"/>
-      <c r="C48" s="89"/>
+      <c r="A48" s="90"/>
+      <c r="B48" s="90"/>
+      <c r="C48" s="90"/>
       <c r="D48" s="73"/>
       <c r="E48" s="67"/>
       <c r="F48" s="50"/>
       <c r="I48" s="65"/>
       <c r="J48" s="47"/>
       <c r="L48" s="47" t="s">
-        <v>281</v>
-      </c>
-      <c r="M48" s="80"/>
+        <v>279</v>
+      </c>
+      <c r="M48" s="81"/>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A49" s="89"/>
-      <c r="B49" s="89"/>
-      <c r="C49" s="89"/>
+      <c r="A49" s="90"/>
+      <c r="B49" s="90"/>
+      <c r="C49" s="90"/>
       <c r="D49" s="73"/>
       <c r="E49" s="67"/>
       <c r="F49" s="50"/>
       <c r="I49" s="65"/>
       <c r="J49" s="47"/>
       <c r="L49" s="47" t="s">
-        <v>281</v>
-      </c>
-      <c r="M49" s="80"/>
+        <v>279</v>
+      </c>
+      <c r="M49" s="81"/>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A50" s="89"/>
-      <c r="B50" s="89"/>
-      <c r="C50" s="89"/>
+      <c r="A50" s="90"/>
+      <c r="B50" s="90"/>
+      <c r="C50" s="90"/>
       <c r="D50" s="73"/>
       <c r="E50" s="67"/>
       <c r="F50" s="50"/>
       <c r="I50" s="65"/>
       <c r="J50" s="47"/>
       <c r="L50" s="47" t="s">
-        <v>281</v>
-      </c>
-      <c r="M50" s="80"/>
+        <v>279</v>
+      </c>
+      <c r="M50" s="81"/>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A51" s="89"/>
-      <c r="B51" s="89"/>
-      <c r="C51" s="89"/>
+      <c r="A51" s="90"/>
+      <c r="B51" s="90"/>
+      <c r="C51" s="90"/>
       <c r="D51" s="73"/>
       <c r="E51" s="67"/>
       <c r="F51" s="50"/>
       <c r="I51" s="65"/>
       <c r="J51" s="47"/>
       <c r="L51" s="47" t="s">
-        <v>281</v>
-      </c>
-      <c r="M51" s="80"/>
+        <v>279</v>
+      </c>
+      <c r="M51" s="81"/>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A52" s="89"/>
-      <c r="B52" s="89"/>
-      <c r="C52" s="89"/>
+      <c r="A52" s="90"/>
+      <c r="B52" s="90"/>
+      <c r="C52" s="90"/>
       <c r="D52" s="73"/>
       <c r="E52" s="67"/>
       <c r="F52" s="50"/>
       <c r="I52" s="65"/>
       <c r="J52" s="47"/>
       <c r="L52" s="47" t="s">
-        <v>281</v>
-      </c>
-      <c r="M52" s="80"/>
+        <v>279</v>
+      </c>
+      <c r="M52" s="81"/>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A53" s="89"/>
-      <c r="B53" s="89"/>
-      <c r="C53" s="89"/>
+      <c r="A53" s="90"/>
+      <c r="B53" s="90"/>
+      <c r="C53" s="90"/>
       <c r="D53" s="73"/>
       <c r="E53" s="67"/>
       <c r="F53" s="50"/>
       <c r="I53" s="65"/>
       <c r="J53" s="47"/>
       <c r="L53" s="47" t="s">
-        <v>281</v>
-      </c>
-      <c r="M53" s="80"/>
+        <v>279</v>
+      </c>
+      <c r="M53" s="81"/>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A54" s="89"/>
-      <c r="B54" s="89"/>
-      <c r="C54" s="89"/>
+      <c r="A54" s="90"/>
+      <c r="B54" s="90"/>
+      <c r="C54" s="90"/>
       <c r="D54" s="73"/>
       <c r="E54" s="67"/>
       <c r="F54" s="50"/>
       <c r="I54" s="65"/>
       <c r="J54" s="47"/>
       <c r="L54" s="47" t="s">
-        <v>281</v>
-      </c>
-      <c r="M54" s="80"/>
+        <v>279</v>
+      </c>
+      <c r="M54" s="81"/>
     </row>
     <row r="55" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A55" s="89" t="s">
+      <c r="A55" s="90" t="s">
         <v>189</v>
       </c>
-      <c r="B55" s="89" t="s">
-        <v>259</v>
-      </c>
-      <c r="C55" s="89" t="s">
-        <v>260</v>
+      <c r="B55" s="90" t="s">
+        <v>257</v>
+      </c>
+      <c r="C55" s="90" t="s">
+        <v>258</v>
       </c>
       <c r="D55" s="50" t="s">
         <v>105</v>
@@ -5706,34 +5698,34 @@
       <c r="I55" s="65"/>
       <c r="J55" s="66"/>
       <c r="L55" s="66" t="s">
-        <v>321</v>
-      </c>
-      <c r="M55" s="93" t="s">
-        <v>282</v>
+        <v>318</v>
+      </c>
+      <c r="M55" s="94" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A56" s="89"/>
-      <c r="B56" s="89"/>
-      <c r="C56" s="89"/>
+      <c r="A56" s="90"/>
+      <c r="B56" s="90"/>
+      <c r="C56" s="90"/>
       <c r="D56" s="50" t="s">
         <v>106</v>
       </c>
       <c r="E56" s="67"/>
       <c r="F56" s="50" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="I56" s="65"/>
       <c r="J56" s="47"/>
       <c r="L56" s="47" t="s">
-        <v>321</v>
-      </c>
-      <c r="M56" s="80"/>
+        <v>318</v>
+      </c>
+      <c r="M56" s="81"/>
     </row>
     <row r="57" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A57" s="89"/>
-      <c r="B57" s="89"/>
-      <c r="C57" s="89"/>
+      <c r="A57" s="90"/>
+      <c r="B57" s="90"/>
+      <c r="C57" s="90"/>
       <c r="D57" s="50" t="s">
         <v>107</v>
       </c>
@@ -5746,14 +5738,14 @@
       <c r="I57" s="65"/>
       <c r="J57" s="66"/>
       <c r="L57" s="66" t="s">
-        <v>321</v>
-      </c>
-      <c r="M57" s="80"/>
+        <v>318</v>
+      </c>
+      <c r="M57" s="81"/>
     </row>
     <row r="58" spans="1:13" ht="180" x14ac:dyDescent="0.25">
-      <c r="A58" s="89"/>
-      <c r="B58" s="89"/>
-      <c r="C58" s="89"/>
+      <c r="A58" s="90"/>
+      <c r="B58" s="90"/>
+      <c r="C58" s="90"/>
       <c r="D58" s="73" t="s">
         <v>108</v>
       </c>
@@ -5761,107 +5753,107 @@
         <v>153</v>
       </c>
       <c r="F58" s="50" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="I58" s="65"/>
       <c r="J58" s="47"/>
       <c r="L58" s="47" t="s">
-        <v>321</v>
-      </c>
-      <c r="M58" s="80"/>
+        <v>318</v>
+      </c>
+      <c r="M58" s="81"/>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A59" s="89"/>
-      <c r="B59" s="89"/>
-      <c r="C59" s="89"/>
+      <c r="A59" s="90"/>
+      <c r="B59" s="90"/>
+      <c r="C59" s="90"/>
       <c r="D59" s="73"/>
       <c r="E59" s="73"/>
       <c r="F59" s="50"/>
       <c r="I59" s="65"/>
       <c r="J59" s="47"/>
       <c r="L59" s="47" t="s">
-        <v>321</v>
-      </c>
-      <c r="M59" s="80"/>
+        <v>318</v>
+      </c>
+      <c r="M59" s="81"/>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A60" s="89"/>
-      <c r="B60" s="89"/>
-      <c r="C60" s="89"/>
+      <c r="A60" s="90"/>
+      <c r="B60" s="90"/>
+      <c r="C60" s="90"/>
       <c r="D60" s="73"/>
       <c r="E60" s="73"/>
       <c r="F60" s="50"/>
       <c r="I60" s="65"/>
       <c r="J60" s="47"/>
       <c r="L60" s="47" t="s">
-        <v>321</v>
-      </c>
-      <c r="M60" s="80"/>
+        <v>318</v>
+      </c>
+      <c r="M60" s="81"/>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A61" s="89"/>
-      <c r="B61" s="89"/>
-      <c r="C61" s="89"/>
+      <c r="A61" s="90"/>
+      <c r="B61" s="90"/>
+      <c r="C61" s="90"/>
       <c r="D61" s="73"/>
       <c r="E61" s="73"/>
       <c r="F61" s="50"/>
       <c r="I61" s="65"/>
       <c r="J61" s="47"/>
       <c r="L61" s="47" t="s">
-        <v>321</v>
-      </c>
-      <c r="M61" s="80"/>
+        <v>318</v>
+      </c>
+      <c r="M61" s="81"/>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A62" s="89"/>
-      <c r="B62" s="89"/>
-      <c r="C62" s="89"/>
+      <c r="A62" s="90"/>
+      <c r="B62" s="90"/>
+      <c r="C62" s="90"/>
       <c r="D62" s="73"/>
       <c r="E62" s="67"/>
       <c r="F62" s="50"/>
       <c r="I62" s="65"/>
       <c r="J62" s="47"/>
       <c r="L62" s="47" t="s">
-        <v>321</v>
-      </c>
-      <c r="M62" s="80"/>
+        <v>318</v>
+      </c>
+      <c r="M62" s="81"/>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A63" s="89"/>
-      <c r="B63" s="89"/>
-      <c r="C63" s="89"/>
+      <c r="A63" s="90"/>
+      <c r="B63" s="90"/>
+      <c r="C63" s="90"/>
       <c r="D63" s="73"/>
       <c r="E63" s="67"/>
       <c r="F63" s="50"/>
       <c r="I63" s="65"/>
       <c r="J63" s="47"/>
       <c r="L63" s="47" t="s">
-        <v>321</v>
-      </c>
-      <c r="M63" s="80"/>
+        <v>318</v>
+      </c>
+      <c r="M63" s="81"/>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A64" s="89"/>
-      <c r="B64" s="89"/>
-      <c r="C64" s="89"/>
+      <c r="A64" s="90"/>
+      <c r="B64" s="90"/>
+      <c r="C64" s="90"/>
       <c r="D64" s="73"/>
       <c r="E64" s="73"/>
       <c r="F64" s="50"/>
       <c r="J64" s="47"/>
       <c r="L64" s="47" t="s">
-        <v>321</v>
-      </c>
-      <c r="M64" s="80"/>
+        <v>318</v>
+      </c>
+      <c r="M64" s="81"/>
     </row>
     <row r="65" spans="1:13" ht="120" x14ac:dyDescent="0.25">
-      <c r="A65" s="89" t="s">
+      <c r="A65" s="90" t="s">
         <v>117</v>
       </c>
-      <c r="B65" s="89" t="s">
+      <c r="B65" s="90" t="s">
+        <v>293</v>
+      </c>
+      <c r="C65" s="90" t="s">
         <v>295</v>
-      </c>
-      <c r="C65" s="89" t="s">
-        <v>297</v>
       </c>
       <c r="D65" s="73" t="s">
         <v>120</v>
@@ -5870,68 +5862,68 @@
         <v>153</v>
       </c>
       <c r="F65" s="73" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="I65" s="65"/>
       <c r="J65" s="47"/>
       <c r="L65" s="47" t="s">
-        <v>321</v>
-      </c>
-      <c r="M65" s="93" t="s">
-        <v>287</v>
+        <v>318</v>
+      </c>
+      <c r="M65" s="94" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A66" s="89"/>
-      <c r="B66" s="89"/>
-      <c r="C66" s="89"/>
+      <c r="A66" s="90"/>
+      <c r="B66" s="90"/>
+      <c r="C66" s="90"/>
       <c r="D66" s="73"/>
       <c r="E66" s="73"/>
       <c r="F66" s="73"/>
       <c r="I66" s="65"/>
       <c r="J66" s="47"/>
       <c r="L66" s="47" t="s">
-        <v>321</v>
-      </c>
-      <c r="M66" s="80"/>
+        <v>318</v>
+      </c>
+      <c r="M66" s="81"/>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A67" s="89"/>
-      <c r="B67" s="89"/>
-      <c r="C67" s="89"/>
+      <c r="A67" s="90"/>
+      <c r="B67" s="90"/>
+      <c r="C67" s="90"/>
       <c r="D67" s="73"/>
       <c r="E67" s="73"/>
       <c r="F67" s="50"/>
       <c r="I67" s="65"/>
       <c r="J67" s="47"/>
       <c r="L67" s="47" t="s">
-        <v>321</v>
-      </c>
-      <c r="M67" s="80"/>
+        <v>318</v>
+      </c>
+      <c r="M67" s="81"/>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A68" s="89"/>
-      <c r="B68" s="89"/>
-      <c r="C68" s="89"/>
+      <c r="A68" s="90"/>
+      <c r="B68" s="90"/>
+      <c r="C68" s="90"/>
       <c r="D68" s="73"/>
       <c r="E68" s="73"/>
       <c r="F68" s="50"/>
       <c r="I68" s="65"/>
       <c r="J68" s="47"/>
       <c r="L68" s="47" t="s">
-        <v>321</v>
-      </c>
-      <c r="M68" s="80"/>
+        <v>318</v>
+      </c>
+      <c r="M68" s="81"/>
     </row>
     <row r="69" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A69" s="89" t="s">
+      <c r="A69" s="90" t="s">
         <v>125</v>
       </c>
-      <c r="B69" s="89" t="s">
-        <v>296</v>
-      </c>
-      <c r="C69" s="89" t="s">
-        <v>261</v>
+      <c r="B69" s="90" t="s">
+        <v>294</v>
+      </c>
+      <c r="C69" s="90" t="s">
+        <v>259</v>
       </c>
       <c r="D69" s="50" t="s">
         <v>126</v>
@@ -5943,16 +5935,16 @@
       <c r="I69" s="65"/>
       <c r="J69" s="47"/>
       <c r="L69" s="47" t="s">
-        <v>321</v>
-      </c>
-      <c r="M69" s="79" t="s">
-        <v>283</v>
+        <v>318</v>
+      </c>
+      <c r="M69" s="80" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="70" spans="1:13" ht="90" x14ac:dyDescent="0.25">
-      <c r="A70" s="89"/>
-      <c r="B70" s="80"/>
-      <c r="C70" s="80"/>
+      <c r="A70" s="90"/>
+      <c r="B70" s="81"/>
+      <c r="C70" s="81"/>
       <c r="D70" s="50" t="s">
         <v>127</v>
       </c>
@@ -5963,19 +5955,19 @@
         <v>111</v>
       </c>
       <c r="G70" s="65" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="I70" s="65"/>
       <c r="J70" s="47"/>
       <c r="L70" s="47" t="s">
-        <v>321</v>
-      </c>
-      <c r="M70" s="80"/>
+        <v>318</v>
+      </c>
+      <c r="M70" s="81"/>
     </row>
     <row r="71" spans="1:13" ht="105" x14ac:dyDescent="0.25">
-      <c r="A71" s="89"/>
-      <c r="B71" s="80"/>
-      <c r="C71" s="80"/>
+      <c r="A71" s="90"/>
+      <c r="B71" s="81"/>
+      <c r="C71" s="81"/>
       <c r="D71" s="50" t="s">
         <v>128</v>
       </c>
@@ -5983,49 +5975,49 @@
         <v>153</v>
       </c>
       <c r="F71" s="50" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="I71" s="65" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="J71" s="47" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="L71" s="47"/>
-      <c r="M71" s="80"/>
+      <c r="M71" s="81"/>
     </row>
     <row r="72" spans="1:13" s="44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="89"/>
-      <c r="B72" s="80"/>
-      <c r="C72" s="80"/>
+      <c r="A72" s="90"/>
+      <c r="B72" s="81"/>
+      <c r="C72" s="81"/>
       <c r="D72" s="43"/>
       <c r="E72" s="73"/>
       <c r="F72" s="56"/>
       <c r="I72" s="65"/>
       <c r="J72" s="47"/>
       <c r="L72" s="47" t="s">
-        <v>321</v>
-      </c>
-      <c r="M72" s="80"/>
+        <v>318</v>
+      </c>
+      <c r="M72" s="81"/>
     </row>
     <row r="73" spans="1:13" s="44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="89"/>
-      <c r="B73" s="80"/>
-      <c r="C73" s="80"/>
+      <c r="A73" s="90"/>
+      <c r="B73" s="81"/>
+      <c r="C73" s="81"/>
       <c r="D73" s="43"/>
       <c r="E73" s="73"/>
       <c r="F73" s="56"/>
       <c r="I73" s="65"/>
       <c r="J73" s="47"/>
       <c r="L73" s="47" t="s">
-        <v>325</v>
-      </c>
-      <c r="M73" s="80"/>
+        <v>322</v>
+      </c>
+      <c r="M73" s="81"/>
     </row>
     <row r="74" spans="1:13" s="44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="89"/>
-      <c r="B74" s="80"/>
-      <c r="C74" s="80"/>
+      <c r="A74" s="90"/>
+      <c r="B74" s="81"/>
+      <c r="C74" s="81"/>
       <c r="D74" s="43"/>
       <c r="E74" s="73"/>
       <c r="F74" s="56"/>
@@ -6034,12 +6026,12 @@
       <c r="L74" s="47" t="s">
         <v>194</v>
       </c>
-      <c r="M74" s="80"/>
+      <c r="M74" s="81"/>
     </row>
     <row r="75" spans="1:13" s="44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="89"/>
-      <c r="B75" s="80"/>
-      <c r="C75" s="80"/>
+      <c r="A75" s="90"/>
+      <c r="B75" s="81"/>
+      <c r="C75" s="81"/>
       <c r="D75" s="43"/>
       <c r="E75" s="67"/>
       <c r="F75" s="56"/>
@@ -6048,25 +6040,25 @@
       <c r="L75" s="47" t="s">
         <v>194</v>
       </c>
-      <c r="M75" s="80"/>
+      <c r="M75" s="81"/>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A76" s="89"/>
-      <c r="B76" s="80"/>
-      <c r="C76" s="80"/>
+      <c r="A76" s="90"/>
+      <c r="B76" s="81"/>
+      <c r="C76" s="81"/>
       <c r="D76" s="42"/>
       <c r="F76" s="56"/>
-      <c r="M76" s="80"/>
+      <c r="M76" s="81"/>
     </row>
     <row r="77" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A77" s="89" t="s">
+      <c r="A77" s="90" t="s">
         <v>132</v>
       </c>
-      <c r="B77" s="89" t="s">
-        <v>262</v>
-      </c>
-      <c r="C77" s="89" t="s">
-        <v>263</v>
+      <c r="B77" s="90" t="s">
+        <v>260</v>
+      </c>
+      <c r="C77" s="90" t="s">
+        <v>261</v>
       </c>
       <c r="D77" s="50" t="s">
         <v>133</v>
@@ -6080,18 +6072,18 @@
       <c r="I77" s="65"/>
       <c r="J77" s="47"/>
       <c r="L77" s="47" t="s">
-        <v>321</v>
-      </c>
-      <c r="M77" s="93" t="s">
-        <v>282</v>
+        <v>318</v>
+      </c>
+      <c r="M77" s="94" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="78" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A78" s="89"/>
-      <c r="B78" s="89"/>
-      <c r="C78" s="89"/>
+      <c r="A78" s="90"/>
+      <c r="B78" s="90"/>
+      <c r="C78" s="90"/>
       <c r="D78" s="50" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E78" s="67" t="s">
         <v>153</v>
@@ -6102,113 +6094,113 @@
       <c r="I78" s="65"/>
       <c r="J78" s="66"/>
       <c r="L78" s="66" t="s">
-        <v>321</v>
-      </c>
-      <c r="M78" s="80"/>
+        <v>318</v>
+      </c>
+      <c r="M78" s="81"/>
     </row>
     <row r="79" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="89" t="s">
+      <c r="A79" s="90" t="s">
         <v>141</v>
       </c>
-      <c r="B79" s="89" t="s">
-        <v>264</v>
-      </c>
-      <c r="C79" s="89" t="s">
-        <v>265</v>
+      <c r="B79" s="90" t="s">
+        <v>262</v>
+      </c>
+      <c r="C79" s="90" t="s">
+        <v>263</v>
       </c>
       <c r="D79" s="73" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E79" s="67"/>
       <c r="F79" s="73" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="I79" s="65"/>
       <c r="J79" s="66"/>
       <c r="L79" s="66" t="s">
-        <v>321</v>
-      </c>
-      <c r="M79" s="93" t="s">
-        <v>286</v>
+        <v>318</v>
+      </c>
+      <c r="M79" s="94" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="80" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A80" s="89"/>
-      <c r="B80" s="89"/>
-      <c r="C80" s="89"/>
+      <c r="A80" s="90"/>
+      <c r="B80" s="90"/>
+      <c r="C80" s="90"/>
       <c r="D80" s="73"/>
       <c r="E80" s="67"/>
       <c r="F80" s="73"/>
       <c r="I80" s="65"/>
       <c r="J80" s="66"/>
       <c r="L80" s="66" t="s">
-        <v>321</v>
-      </c>
-      <c r="M80" s="80"/>
+        <v>318</v>
+      </c>
+      <c r="M80" s="81"/>
     </row>
     <row r="81" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A81" s="89"/>
-      <c r="B81" s="89"/>
-      <c r="C81" s="89"/>
+      <c r="A81" s="90"/>
+      <c r="B81" s="90"/>
+      <c r="C81" s="90"/>
       <c r="D81" s="73"/>
       <c r="E81" s="67"/>
       <c r="F81" s="73"/>
       <c r="I81" s="65"/>
       <c r="J81" s="66"/>
       <c r="L81" s="66" t="s">
-        <v>321</v>
-      </c>
-      <c r="M81" s="80"/>
+        <v>318</v>
+      </c>
+      <c r="M81" s="81"/>
     </row>
     <row r="82" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A82" s="89"/>
-      <c r="B82" s="89"/>
-      <c r="C82" s="89"/>
+      <c r="A82" s="90"/>
+      <c r="B82" s="90"/>
+      <c r="C82" s="90"/>
       <c r="D82" s="73"/>
       <c r="E82" s="67"/>
       <c r="F82" s="73"/>
       <c r="I82" s="65"/>
       <c r="J82" s="66"/>
       <c r="L82" s="66" t="s">
-        <v>321</v>
-      </c>
-      <c r="M82" s="80"/>
+        <v>318</v>
+      </c>
+      <c r="M82" s="81"/>
     </row>
     <row r="83" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A83" s="49" t="s">
         <v>146</v>
       </c>
       <c r="B83" s="55" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C83" s="49"/>
       <c r="D83" s="50" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E83" s="67"/>
       <c r="F83" s="56" t="s">
         <v>123</v>
       </c>
       <c r="I83" s="65" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="J83" s="66" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="L83" s="66"/>
       <c r="M83" s="60" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="84" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A84" s="89" t="s">
+      <c r="A84" s="90" t="s">
+        <v>264</v>
+      </c>
+      <c r="B84" s="90" t="s">
+        <v>265</v>
+      </c>
+      <c r="C84" s="90" t="s">
         <v>266</v>
-      </c>
-      <c r="B84" s="89" t="s">
-        <v>267</v>
-      </c>
-      <c r="C84" s="89" t="s">
-        <v>268</v>
       </c>
       <c r="D84" s="50" t="s">
         <v>152</v>
@@ -6220,89 +6212,89 @@
       <c r="I84" s="65"/>
       <c r="J84" s="66"/>
       <c r="L84" s="66" t="s">
-        <v>284</v>
-      </c>
-      <c r="M84" s="79" t="s">
-        <v>284</v>
+        <v>282</v>
+      </c>
+      <c r="M84" s="80" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="85" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A85" s="89"/>
-      <c r="B85" s="83"/>
-      <c r="C85" s="83"/>
+      <c r="A85" s="90"/>
+      <c r="B85" s="84"/>
+      <c r="C85" s="84"/>
       <c r="D85" s="73" t="s">
         <v>153</v>
       </c>
       <c r="E85" s="67"/>
       <c r="F85" s="50" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="I85" s="65" t="s">
         <v>189</v>
       </c>
       <c r="J85" s="66" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="L85" s="66" t="s">
-        <v>284</v>
-      </c>
-      <c r="M85" s="80"/>
+        <v>282</v>
+      </c>
+      <c r="M85" s="81"/>
     </row>
     <row r="86" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A86" s="89"/>
-      <c r="B86" s="83"/>
-      <c r="C86" s="83"/>
+      <c r="A86" s="90"/>
+      <c r="B86" s="84"/>
+      <c r="C86" s="84"/>
       <c r="D86" s="73"/>
       <c r="E86" s="67"/>
       <c r="F86" s="73"/>
       <c r="I86" s="65"/>
       <c r="J86" s="66"/>
       <c r="L86" s="66" t="s">
-        <v>284</v>
-      </c>
-      <c r="M86" s="80"/>
+        <v>282</v>
+      </c>
+      <c r="M86" s="81"/>
     </row>
     <row r="87" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A87" s="89"/>
-      <c r="B87" s="83"/>
-      <c r="C87" s="83"/>
+      <c r="A87" s="90"/>
+      <c r="B87" s="84"/>
+      <c r="C87" s="84"/>
       <c r="D87" s="73"/>
       <c r="E87" s="67"/>
       <c r="F87" s="73"/>
       <c r="I87" s="65"/>
       <c r="J87" s="66"/>
       <c r="L87" s="66" t="s">
-        <v>284</v>
-      </c>
-      <c r="M87" s="80"/>
+        <v>282</v>
+      </c>
+      <c r="M87" s="81"/>
     </row>
     <row r="88" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A88" s="89"/>
-      <c r="B88" s="83"/>
-      <c r="C88" s="83"/>
+      <c r="A88" s="90"/>
+      <c r="B88" s="84"/>
+      <c r="C88" s="84"/>
       <c r="D88" s="73"/>
       <c r="E88" s="67"/>
       <c r="F88" s="73"/>
       <c r="I88" s="65"/>
       <c r="J88" s="66"/>
       <c r="L88" s="66" t="s">
-        <v>284</v>
-      </c>
-      <c r="M88" s="80"/>
+        <v>282</v>
+      </c>
+      <c r="M88" s="81"/>
     </row>
     <row r="89" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A89" s="89"/>
-      <c r="B89" s="83"/>
-      <c r="C89" s="83"/>
+      <c r="A89" s="90"/>
+      <c r="B89" s="84"/>
+      <c r="C89" s="84"/>
       <c r="D89" s="73"/>
       <c r="E89" s="67"/>
       <c r="F89" s="73"/>
       <c r="I89" s="65"/>
       <c r="J89" s="66"/>
       <c r="L89" s="66" t="s">
-        <v>284</v>
-      </c>
-      <c r="M89" s="80"/>
+        <v>282</v>
+      </c>
+      <c r="M89" s="81"/>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" s="57"/>

--- a/Corpus/MLR_Corpus.xlsx
+++ b/Corpus/MLR_Corpus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workouts\Projects\Acadia\Masori-Chatbot-Dev-main\Masori-Chatbot-Dev-main\Corpus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46A78CB8-4DB7-443F-9B6A-E1D045193FAB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48D40847-6FB3-4C39-96E4-76C71C382A51}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -245,7 +245,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="390">
   <si>
     <t>Keywords</t>
   </si>
@@ -1396,9 +1396,6 @@
     <t>https://acadia.hcpordering.com/</t>
   </si>
   <si>
-    <t>https://www.acadiaconnect.com/healthcare-providers/cost</t>
-  </si>
-  <si>
     <t>Download PDFs</t>
   </si>
   <si>
@@ -1445,14 +1442,6 @@
   </si>
   <si>
     <t>NUPLAZID efficacy results were sustained, with reductions in the frequency and/or severity of hallucinations and delusions continued from Week 6 through Week 10 in an open-label extension (OLE) of the 6-week, controlled study of the 176 patients who completed the 6-week study, 171 entered the open-label extension (OLE) study, and 148 patients remained in the study at the Week 10 time point. All patients received NUPLAZID 34 mg at Week 6 (baseline OLE) of the 10-week treatment period.</t>
-  </si>
-  <si>
-    <t>Elderly patients with dementia-related psychosis treated with antipsychotic drugs are at an increased risk of death.
-NUPLAZID is not approved for the treatment of patients with dementia-related psychosis unrelated to the hallucinations and delusions associated with Parkinson’s disease psychosis.
-NUPLAZID prolongs the QT interval. The use of NUPLAZID should be avoided in patients with known QT prolongation or in combination with other drugs known to prolong QT interval including Class 1A antiarrhythmics or Class 3 antiarrhythmics, certain antipsychotic medications, and certain antibiotics.
-NUPLAZID should also be avoided in patients with a history of cardiac arrhythmias, as well as other circumstances that may increase the risk of the occurrence of torsade de pointes and/or sudden death, including symptomatic bradycardia, hypokalemia or hypomagnesemia, and presence of congenital prolongation of the QT interval
-8% (n=16) of patients treated with NUPLAZID discontinued due to adverse reactions vs 4% (n=10) with placebo.
-Coadministration with strong CYP3A4 inhibitors (e.g., ketoconazole) increases NUPLAZID exposure. Reduce NUPLAZID dose to 10 mg taken orally as one tablet once daily.Avoid concomitant use of strong or moderate CYP3A4 inducers with NUPLAZID</t>
   </si>
   <si>
     <t>Your patient may need authorization to get insurance coverage for NUPLAZID. Please connect with Acadia Connect for further details
@@ -1539,9 +1528,6 @@
   <si>
     <t>Acadia Connect is a comprehensive support program for patients prescribed treatments from Acadia Pharmaceuticals that offers guidance on enrollment, patient access, insurance coverage, financial assistance, and prescription support. 
 ACADIA CONNECT CAN HELP WITH: COST &amp; INSURANCE,FILLING PRESCRIPTIONS,SUPPORT &amp; EDUCATION</t>
-  </si>
-  <si>
-    <t>https://www.acadiaconnect.com</t>
   </si>
   <si>
     <t>Side Effects</t>
@@ -1633,6 +1619,45 @@
 Avoid the use of NUPLAZID in combination with other drugs known to prolong the QT interval.
 NUPLAZID is available as 34 mg capsules and 10 mg tablets.
 Drug Interactions: </t>
+  </si>
+  <si>
+    <t>https://www.nuplazidhcp.com/efficacy-data#heading-0</t>
+  </si>
+  <si>
+    <t>https://www.nuplazidhcp.com/efficacy-data#heading-1</t>
+  </si>
+  <si>
+    <t>https://www.nuplazidhcp.com/efficacy-data#heading-3</t>
+  </si>
+  <si>
+    <t>https://www.nuplazidhcp.com/safety-tolerability-data#safetyTabs</t>
+  </si>
+  <si>
+    <t>https://www.nuplazidhcp.com/acadia-connect#heading-1</t>
+  </si>
+  <si>
+    <t>https://www.nuplazidhcp.com/acadia-connect#heading-0</t>
+  </si>
+  <si>
+    <t>https://www.nuplazidhcp.com/acadia-connect#heading-2</t>
+  </si>
+  <si>
+    <t>https://www.nuplazidhcp.com/acadia-connect#heading-3</t>
+  </si>
+  <si>
+    <t>https://www.acadiaconnect.com/healthcare-providers#gtm-844-hcp-body</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elderly patients with dementia-related psychosis treated with antipsychotic drugs are at an increased risk of death.
+NUPLAZID is not approved for the treatment of patients with dementia-related psychosis unrelated to the hallucinations and delusions associated with Parkinson’s disease psychosis.
+NUPLAZID prolongs the QT interval. The use of NUPLAZID should be avoided in patients with known QT prolongation or in combination with other drugs known to prolong QT interval including Class 1A antiarrhythmics or Class 3 antiarrhythmics, certain antipsychotic medications, and certain antibiotics.
+NUPLAZID should also be avoided in patients with a history of cardiac arrhythmias, as well as other circumstances that may increase the risk of the occurrence of torsade de pointes and/or sudden death, including symptomatic bradycardia, hypokalemia or hypomagnesemia, and presence of congenital prolongation of the QT interval
+8% (n=16) of patients treated with NUPLAZID discontinued due to adverse reactions vs 4% (n=10) with placebo.
+Drug Interactions: </t>
+  </si>
+  <si>
+    <t>Coadministration with strong CYP3A4 inhibitors (e.g., ketoconazole) increases NUPLAZID exposure. Reduce NUPLAZID dose to 10 mg taken orally as one tablet once daily.
+Avoid concomitant use of strong or moderate CYP3A4 inducers with NUPLAZID</t>
   </si>
 </sst>
 </file>
@@ -1716,7 +1741,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1945,6 +1970,9 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2356,7 +2384,7 @@
         <v>197</v>
       </c>
       <c r="E1" s="51" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>12</v>
@@ -2377,7 +2405,7 @@
         <v>315</v>
       </c>
       <c r="L1" s="45" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="M1" s="2" t="s">
         <v>288</v>
@@ -2394,7 +2422,7 @@
         <v>287</v>
       </c>
       <c r="D2" s="57" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E2" s="71" t="s">
         <v>10</v>
@@ -2425,10 +2453,10 @@
         <v>302</v>
       </c>
       <c r="F3" s="32" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="G3" s="65" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="H3" s="65"/>
       <c r="I3" s="65"/>
@@ -2444,10 +2472,10 @@
       <c r="B4" s="84"/>
       <c r="C4" s="86"/>
       <c r="D4" s="57" t="s">
+        <v>327</v>
+      </c>
+      <c r="E4" s="71" t="s">
         <v>328</v>
-      </c>
-      <c r="E4" s="71" t="s">
-        <v>329</v>
       </c>
       <c r="F4" s="32" t="s">
         <v>199</v>
@@ -2476,7 +2504,7 @@
         <v>173</v>
       </c>
       <c r="E5" s="75" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="F5" s="32" t="s">
         <v>200</v>
@@ -2498,7 +2526,7 @@
       <c r="B6" s="87"/>
       <c r="C6" s="87"/>
       <c r="D6" s="57" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="E6" s="71" t="s">
         <v>233</v>
@@ -2533,7 +2561,7 @@
         <v>303</v>
       </c>
       <c r="F7" s="61" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="G7" s="65"/>
       <c r="H7" s="65"/>
@@ -2541,7 +2569,7 @@
       <c r="J7" s="65"/>
       <c r="K7" s="65"/>
       <c r="L7" s="66" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="M7" s="80" t="s">
         <v>309</v>
@@ -2579,15 +2607,15 @@
       </c>
       <c r="E9" s="71"/>
       <c r="F9" s="61" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G9" s="65"/>
       <c r="H9" s="65"/>
       <c r="I9" s="65" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="J9" s="66" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="K9" s="65"/>
       <c r="L9" s="66" t="s">
@@ -2623,7 +2651,7 @@
       <c r="D11" s="61"/>
       <c r="E11" s="71"/>
       <c r="F11" s="61" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="G11" s="65"/>
       <c r="H11" s="66" t="s">
@@ -2695,10 +2723,10 @@
         <v>297</v>
       </c>
       <c r="D15" s="57" t="s">
+        <v>329</v>
+      </c>
+      <c r="E15" s="71" t="s">
         <v>330</v>
-      </c>
-      <c r="E15" s="71" t="s">
-        <v>331</v>
       </c>
       <c r="F15" s="32" t="s">
         <v>202</v>
@@ -2720,10 +2748,10 @@
       <c r="B16" s="87"/>
       <c r="C16" s="87"/>
       <c r="D16" s="57" t="s">
+        <v>330</v>
+      </c>
+      <c r="E16" s="71" t="s">
         <v>331</v>
-      </c>
-      <c r="E16" s="71" t="s">
-        <v>332</v>
       </c>
       <c r="F16" s="34" t="s">
         <v>175</v>
@@ -2743,7 +2771,7 @@
       <c r="B17" s="87"/>
       <c r="C17" s="87"/>
       <c r="D17" s="57" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E17" s="71" t="s">
         <v>231</v>
@@ -2788,7 +2816,7 @@
         <v>239</v>
       </c>
       <c r="D19" s="57" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E19" s="75" t="s">
         <v>177</v>
@@ -2813,7 +2841,7 @@
       <c r="B20" s="84"/>
       <c r="C20" s="87"/>
       <c r="D20" s="57" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E20" s="75" t="s">
         <v>177</v>
@@ -2913,19 +2941,19 @@
         <v>299</v>
       </c>
       <c r="F24" s="41" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="G24" s="65"/>
       <c r="H24" s="65"/>
       <c r="I24" s="65" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="J24" s="66" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="K24" s="73"/>
       <c r="L24" s="66" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="M24" s="81"/>
     </row>
@@ -2940,12 +2968,12 @@
         <v>231</v>
       </c>
       <c r="F25" s="32" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G25" s="65"/>
       <c r="H25" s="65"/>
       <c r="I25" s="65" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="J25" s="66" t="s">
         <v>273</v>
@@ -2989,7 +3017,7 @@
         <v>299</v>
       </c>
       <c r="F27" s="32" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="G27" s="65"/>
       <c r="H27" s="65"/>
@@ -2997,7 +3025,7 @@
         <v>84</v>
       </c>
       <c r="J27" s="66" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="K27" s="65"/>
       <c r="L27" s="66" t="s">
@@ -3073,7 +3101,7 @@
         <v>244</v>
       </c>
       <c r="D31" s="43" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="E31" s="71" t="s">
         <v>192</v>
@@ -3116,7 +3144,7 @@
       <c r="B33" s="87"/>
       <c r="C33" s="84"/>
       <c r="D33" s="43" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F33" s="43" t="s">
         <v>227</v>
@@ -3214,7 +3242,7 @@
       <c r="G37" s="65"/>
       <c r="H37" s="65"/>
       <c r="I37" s="75" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="J37" s="74" t="s">
         <v>194</v>
@@ -3238,12 +3266,12 @@
         <v>191</v>
       </c>
       <c r="F38" s="32" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="G38" s="65"/>
       <c r="H38" s="65"/>
       <c r="I38" s="65" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="J38" s="66" t="s">
         <v>272</v>
@@ -3318,15 +3346,15 @@
         <v>189</v>
       </c>
       <c r="F42" s="32" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="G42" s="65"/>
       <c r="H42" s="65"/>
       <c r="I42" s="65" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="J42" s="65" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="K42" s="65"/>
       <c r="L42" s="66" t="s">
@@ -3345,7 +3373,7 @@
         <v>189</v>
       </c>
       <c r="F43" s="41" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="G43" s="65"/>
       <c r="H43" s="65"/>
@@ -3353,7 +3381,7 @@
       <c r="J43" s="65"/>
       <c r="K43" s="65"/>
       <c r="L43" s="66" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="M43" s="81"/>
     </row>
@@ -3389,7 +3417,7 @@
         <v>208</v>
       </c>
       <c r="I45" s="44" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="J45" s="47" t="s">
         <v>212</v>
@@ -4566,9 +4594,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F43" sqref="F43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4597,7 +4625,7 @@
         <v>197</v>
       </c>
       <c r="E1" s="51" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F1" s="51" t="s">
         <v>12</v>
@@ -4618,7 +4646,7 @@
         <v>315</v>
       </c>
       <c r="L1" s="45" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="M1" s="45" t="s">
         <v>288</v>
@@ -4629,13 +4657,13 @@
         <v>2</v>
       </c>
       <c r="B2" s="88" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C2" s="88" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="D2" s="53" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E2" s="68" t="s">
         <v>21</v>
@@ -4660,19 +4688,19 @@
       <c r="B3" s="93"/>
       <c r="C3" s="93"/>
       <c r="D3" s="76" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="E3" s="76"/>
       <c r="F3" s="78" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="G3" s="75"/>
       <c r="H3" s="75"/>
       <c r="I3" s="75" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="J3" s="79" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="K3" s="75"/>
       <c r="L3" s="79"/>
@@ -4791,7 +4819,7 @@
       <c r="G9" s="65"/>
       <c r="H9" s="65"/>
       <c r="I9" s="65" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="J9" s="65" t="s">
         <v>317</v>
@@ -4805,7 +4833,7 @@
         <v>213</v>
       </c>
       <c r="B10" s="95" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="C10" s="90" t="s">
         <v>290</v>
@@ -4819,50 +4847,46 @@
       <c r="F10" s="84" t="s">
         <v>32</v>
       </c>
-      <c r="G10" s="65"/>
-      <c r="H10" s="65"/>
-      <c r="I10" s="65"/>
-      <c r="J10" s="66"/>
-      <c r="K10" s="65"/>
-      <c r="L10" s="66" t="s">
+      <c r="G10" s="95"/>
+      <c r="H10" s="95"/>
+      <c r="I10" s="95"/>
+      <c r="J10" s="96"/>
+      <c r="K10" s="95"/>
+      <c r="L10" s="94" t="s">
         <v>33</v>
       </c>
       <c r="M10" s="80" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="89"/>
       <c r="B11" s="84"/>
       <c r="C11" s="90"/>
       <c r="D11" s="84"/>
       <c r="E11" s="84"/>
       <c r="F11" s="84"/>
-      <c r="G11" s="65"/>
-      <c r="H11" s="65"/>
-      <c r="I11" s="65"/>
-      <c r="J11" s="66"/>
-      <c r="K11" s="65"/>
-      <c r="L11" s="66" t="s">
-        <v>33</v>
-      </c>
+      <c r="G11" s="95"/>
+      <c r="H11" s="95"/>
+      <c r="I11" s="95"/>
+      <c r="J11" s="96"/>
+      <c r="K11" s="95"/>
+      <c r="L11" s="94"/>
       <c r="M11" s="81"/>
     </row>
-    <row r="12" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="89"/>
       <c r="B12" s="84"/>
       <c r="C12" s="90"/>
       <c r="D12" s="84"/>
       <c r="E12" s="84"/>
       <c r="F12" s="84"/>
-      <c r="G12" s="65"/>
-      <c r="H12" s="65"/>
-      <c r="I12" s="65"/>
-      <c r="J12" s="66"/>
-      <c r="K12" s="65"/>
-      <c r="L12" s="66" t="s">
-        <v>33</v>
-      </c>
+      <c r="G12" s="95"/>
+      <c r="H12" s="95"/>
+      <c r="I12" s="95"/>
+      <c r="J12" s="96"/>
+      <c r="K12" s="95"/>
+      <c r="L12" s="94"/>
       <c r="M12" s="81"/>
     </row>
     <row r="13" spans="1:13" ht="90" x14ac:dyDescent="0.25">
@@ -4884,7 +4908,7 @@
       <c r="J13" s="66"/>
       <c r="K13" s="65"/>
       <c r="L13" s="66" t="s">
-        <v>33</v>
+        <v>379</v>
       </c>
       <c r="M13" s="81"/>
     </row>
@@ -4899,7 +4923,7 @@
         <v>43</v>
       </c>
       <c r="F14" s="50" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="G14" s="65"/>
       <c r="H14" s="65"/>
@@ -4907,7 +4931,7 @@
       <c r="J14" s="66"/>
       <c r="K14" s="65"/>
       <c r="L14" s="66" t="s">
-        <v>33</v>
+        <v>379</v>
       </c>
       <c r="M14" s="81"/>
     </row>
@@ -5000,7 +5024,7 @@
       </c>
       <c r="E19" s="67"/>
       <c r="F19" s="50" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="G19" s="42"/>
       <c r="H19" s="42"/>
@@ -5008,7 +5032,7 @@
       <c r="J19" s="66"/>
       <c r="K19" s="42"/>
       <c r="L19" s="66" t="s">
-        <v>33</v>
+        <v>380</v>
       </c>
       <c r="M19" s="80"/>
     </row>
@@ -5061,7 +5085,7 @@
         <v>214</v>
       </c>
       <c r="F22" s="50" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G22" s="65"/>
       <c r="H22" s="65"/>
@@ -5069,7 +5093,7 @@
       <c r="J22" s="66"/>
       <c r="K22" s="65"/>
       <c r="L22" s="66" t="s">
-        <v>33</v>
+        <v>381</v>
       </c>
       <c r="M22" s="80"/>
     </row>
@@ -5108,7 +5132,7 @@
       <c r="J24" s="66"/>
       <c r="K24" s="65"/>
       <c r="L24" s="66" t="s">
-        <v>33</v>
+        <v>381</v>
       </c>
       <c r="M24" s="80"/>
     </row>
@@ -5131,11 +5155,11 @@
       <c r="J25" s="66"/>
       <c r="K25" s="65"/>
       <c r="L25" s="66" t="s">
-        <v>33</v>
+        <v>381</v>
       </c>
       <c r="M25" s="80"/>
     </row>
-    <row r="26" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="90" t="s">
         <v>58</v>
       </c>
@@ -5152,9 +5176,7 @@
       <c r="I26" s="65"/>
       <c r="J26" s="66"/>
       <c r="K26" s="65"/>
-      <c r="L26" s="66" t="s">
-        <v>33</v>
-      </c>
+      <c r="L26" s="66"/>
       <c r="M26" s="80" t="s">
         <v>33</v>
       </c>
@@ -5170,7 +5192,7 @@
         <v>218</v>
       </c>
       <c r="F27" s="73" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G27" s="43"/>
       <c r="H27" s="43"/>
@@ -5215,7 +5237,7 @@
       <c r="J29" s="66"/>
       <c r="K29" s="65"/>
       <c r="L29" s="66" t="s">
-        <v>33</v>
+        <v>379</v>
       </c>
       <c r="M29" s="81"/>
     </row>
@@ -5271,7 +5293,7 @@
       </c>
       <c r="M31" s="81"/>
     </row>
-    <row r="32" spans="1:13" ht="210" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" ht="195" x14ac:dyDescent="0.25">
       <c r="A32" s="90"/>
       <c r="B32" s="90"/>
       <c r="C32" s="90"/>
@@ -5282,19 +5304,21 @@
         <v>107</v>
       </c>
       <c r="F32" s="50" t="s">
-        <v>338</v>
-      </c>
-      <c r="G32" s="65"/>
+        <v>388</v>
+      </c>
+      <c r="G32" s="65" t="s">
+        <v>389</v>
+      </c>
       <c r="H32" s="65"/>
       <c r="I32" s="65"/>
       <c r="J32" s="66"/>
       <c r="K32" s="65"/>
       <c r="L32" s="66" t="s">
-        <v>277</v>
+        <v>382</v>
       </c>
       <c r="M32" s="81"/>
     </row>
-    <row r="33" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="90"/>
       <c r="B33" s="90"/>
       <c r="C33" s="90"/>
@@ -5306,12 +5330,10 @@
       <c r="I33" s="65"/>
       <c r="J33" s="66"/>
       <c r="K33" s="65"/>
-      <c r="L33" s="66" t="s">
-        <v>277</v>
-      </c>
+      <c r="L33" s="66"/>
       <c r="M33" s="81"/>
     </row>
-    <row r="34" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="90"/>
       <c r="B34" s="90"/>
       <c r="C34" s="90"/>
@@ -5323,12 +5345,10 @@
       <c r="I34" s="65"/>
       <c r="J34" s="66"/>
       <c r="K34" s="43"/>
-      <c r="L34" s="66" t="s">
-        <v>277</v>
-      </c>
+      <c r="L34" s="66"/>
       <c r="M34" s="81"/>
     </row>
-    <row r="35" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="90"/>
       <c r="B35" s="90"/>
       <c r="C35" s="90"/>
@@ -5340,12 +5360,10 @@
       <c r="I35" s="65"/>
       <c r="J35" s="66"/>
       <c r="K35" s="43"/>
-      <c r="L35" s="66" t="s">
-        <v>277</v>
-      </c>
+      <c r="L35" s="66"/>
       <c r="M35" s="81"/>
     </row>
-    <row r="36" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="90"/>
       <c r="B36" s="90"/>
       <c r="C36" s="90"/>
@@ -5357,12 +5375,10 @@
       <c r="I36" s="65"/>
       <c r="J36" s="66"/>
       <c r="K36" s="43"/>
-      <c r="L36" s="66" t="s">
-        <v>277</v>
-      </c>
+      <c r="L36" s="66"/>
       <c r="M36" s="81"/>
     </row>
-    <row r="37" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="90"/>
       <c r="B37" s="90"/>
       <c r="C37" s="90"/>
@@ -5373,9 +5389,7 @@
       <c r="I37" s="65"/>
       <c r="J37" s="66"/>
       <c r="K37" s="43"/>
-      <c r="L37" s="66" t="s">
-        <v>277</v>
-      </c>
+      <c r="L37" s="66"/>
       <c r="M37" s="81"/>
     </row>
     <row r="38" spans="1:13" ht="75" x14ac:dyDescent="0.25">
@@ -5395,7 +5409,7 @@
         <v>107</v>
       </c>
       <c r="F38" s="50" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="G38" s="65"/>
       <c r="H38" s="66" t="s">
@@ -5409,7 +5423,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="39" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="90"/>
       <c r="B39" s="90"/>
       <c r="C39" s="90"/>
@@ -5421,9 +5435,7 @@
       <c r="I39" s="65"/>
       <c r="J39" s="66"/>
       <c r="K39" s="65"/>
-      <c r="L39" s="66" t="s">
-        <v>278</v>
-      </c>
+      <c r="L39" s="66"/>
       <c r="M39" s="81"/>
     </row>
     <row r="40" spans="1:13" ht="30" x14ac:dyDescent="0.25">
@@ -5504,10 +5516,10 @@
       </c>
       <c r="E43" s="67"/>
       <c r="F43" s="50" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="G43" s="65" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="H43" s="65"/>
       <c r="I43" s="65"/>
@@ -5530,9 +5542,7 @@
       <c r="I44" s="65"/>
       <c r="J44" s="47"/>
       <c r="K44" s="65"/>
-      <c r="L44" s="47" t="s">
-        <v>279</v>
-      </c>
+      <c r="L44" s="47"/>
       <c r="M44" s="81"/>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
@@ -5547,9 +5557,7 @@
       <c r="I45" s="65"/>
       <c r="J45" s="47"/>
       <c r="K45" s="65"/>
-      <c r="L45" s="47" t="s">
-        <v>279</v>
-      </c>
+      <c r="L45" s="47"/>
       <c r="M45" s="81"/>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
@@ -5561,9 +5569,7 @@
       <c r="F46" s="50"/>
       <c r="I46" s="65"/>
       <c r="J46" s="47"/>
-      <c r="L46" s="47" t="s">
-        <v>279</v>
-      </c>
+      <c r="L46" s="47"/>
       <c r="M46" s="81"/>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
@@ -5575,9 +5581,7 @@
       <c r="F47" s="50"/>
       <c r="I47" s="65"/>
       <c r="J47" s="47"/>
-      <c r="L47" s="47" t="s">
-        <v>279</v>
-      </c>
+      <c r="L47" s="47"/>
       <c r="M47" s="81"/>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
@@ -5589,9 +5593,7 @@
       <c r="F48" s="50"/>
       <c r="I48" s="65"/>
       <c r="J48" s="47"/>
-      <c r="L48" s="47" t="s">
-        <v>279</v>
-      </c>
+      <c r="L48" s="47"/>
       <c r="M48" s="81"/>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
@@ -5603,9 +5605,7 @@
       <c r="F49" s="50"/>
       <c r="I49" s="65"/>
       <c r="J49" s="47"/>
-      <c r="L49" s="47" t="s">
-        <v>279</v>
-      </c>
+      <c r="L49" s="47"/>
       <c r="M49" s="81"/>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
@@ -5617,9 +5617,7 @@
       <c r="F50" s="50"/>
       <c r="I50" s="65"/>
       <c r="J50" s="47"/>
-      <c r="L50" s="47" t="s">
-        <v>279</v>
-      </c>
+      <c r="L50" s="47"/>
       <c r="M50" s="81"/>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
@@ -5631,9 +5629,7 @@
       <c r="F51" s="50"/>
       <c r="I51" s="65"/>
       <c r="J51" s="47"/>
-      <c r="L51" s="47" t="s">
-        <v>279</v>
-      </c>
+      <c r="L51" s="47"/>
       <c r="M51" s="81"/>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
@@ -5645,9 +5641,7 @@
       <c r="F52" s="50"/>
       <c r="I52" s="65"/>
       <c r="J52" s="47"/>
-      <c r="L52" s="47" t="s">
-        <v>279</v>
-      </c>
+      <c r="L52" s="47"/>
       <c r="M52" s="81"/>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
@@ -5659,9 +5653,7 @@
       <c r="F53" s="50"/>
       <c r="I53" s="65"/>
       <c r="J53" s="47"/>
-      <c r="L53" s="47" t="s">
-        <v>279</v>
-      </c>
+      <c r="L53" s="47"/>
       <c r="M53" s="81"/>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
@@ -5673,9 +5665,7 @@
       <c r="F54" s="50"/>
       <c r="I54" s="65"/>
       <c r="J54" s="47"/>
-      <c r="L54" s="47" t="s">
-        <v>279</v>
-      </c>
+      <c r="L54" s="47"/>
       <c r="M54" s="81"/>
     </row>
     <row r="55" spans="1:13" ht="30" x14ac:dyDescent="0.25">
@@ -5738,7 +5728,7 @@
       <c r="I57" s="65"/>
       <c r="J57" s="66"/>
       <c r="L57" s="66" t="s">
-        <v>318</v>
+        <v>383</v>
       </c>
       <c r="M57" s="81"/>
     </row>
@@ -5753,12 +5743,12 @@
         <v>153</v>
       </c>
       <c r="F58" s="50" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="I58" s="65"/>
       <c r="J58" s="47"/>
-      <c r="L58" s="47" t="s">
-        <v>318</v>
+      <c r="L58" s="66" t="s">
+        <v>384</v>
       </c>
       <c r="M58" s="81"/>
     </row>
@@ -5771,9 +5761,7 @@
       <c r="F59" s="50"/>
       <c r="I59" s="65"/>
       <c r="J59" s="47"/>
-      <c r="L59" s="47" t="s">
-        <v>318</v>
-      </c>
+      <c r="L59" s="66"/>
       <c r="M59" s="81"/>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
@@ -5785,9 +5773,7 @@
       <c r="F60" s="50"/>
       <c r="I60" s="65"/>
       <c r="J60" s="47"/>
-      <c r="L60" s="47" t="s">
-        <v>318</v>
-      </c>
+      <c r="L60" s="66"/>
       <c r="M60" s="81"/>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
@@ -5799,9 +5785,7 @@
       <c r="F61" s="50"/>
       <c r="I61" s="65"/>
       <c r="J61" s="47"/>
-      <c r="L61" s="47" t="s">
-        <v>318</v>
-      </c>
+      <c r="L61" s="66"/>
       <c r="M61" s="81"/>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
@@ -5813,9 +5797,7 @@
       <c r="F62" s="50"/>
       <c r="I62" s="65"/>
       <c r="J62" s="47"/>
-      <c r="L62" s="47" t="s">
-        <v>318</v>
-      </c>
+      <c r="L62" s="66"/>
       <c r="M62" s="81"/>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
@@ -5827,9 +5809,7 @@
       <c r="F63" s="50"/>
       <c r="I63" s="65"/>
       <c r="J63" s="47"/>
-      <c r="L63" s="47" t="s">
-        <v>318</v>
-      </c>
+      <c r="L63" s="66"/>
       <c r="M63" s="81"/>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
@@ -5840,9 +5820,7 @@
       <c r="E64" s="73"/>
       <c r="F64" s="50"/>
       <c r="J64" s="47"/>
-      <c r="L64" s="47" t="s">
-        <v>318</v>
-      </c>
+      <c r="L64" s="66"/>
       <c r="M64" s="81"/>
     </row>
     <row r="65" spans="1:13" ht="120" x14ac:dyDescent="0.25">
@@ -5862,12 +5840,12 @@
         <v>153</v>
       </c>
       <c r="F65" s="73" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="I65" s="65"/>
       <c r="J65" s="47"/>
-      <c r="L65" s="47" t="s">
-        <v>318</v>
+      <c r="L65" s="66" t="s">
+        <v>385</v>
       </c>
       <c r="M65" s="94" t="s">
         <v>285</v>
@@ -5882,9 +5860,7 @@
       <c r="F66" s="73"/>
       <c r="I66" s="65"/>
       <c r="J66" s="47"/>
-      <c r="L66" s="47" t="s">
-        <v>318</v>
-      </c>
+      <c r="L66" s="66"/>
       <c r="M66" s="81"/>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
@@ -5896,9 +5872,7 @@
       <c r="F67" s="50"/>
       <c r="I67" s="65"/>
       <c r="J67" s="47"/>
-      <c r="L67" s="47" t="s">
-        <v>318</v>
-      </c>
+      <c r="L67" s="66"/>
       <c r="M67" s="81"/>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
@@ -5910,9 +5884,7 @@
       <c r="F68" s="50"/>
       <c r="I68" s="65"/>
       <c r="J68" s="47"/>
-      <c r="L68" s="47" t="s">
-        <v>318</v>
-      </c>
+      <c r="L68" s="66"/>
       <c r="M68" s="81"/>
     </row>
     <row r="69" spans="1:13" ht="30" x14ac:dyDescent="0.25">
@@ -5934,8 +5906,8 @@
       </c>
       <c r="I69" s="65"/>
       <c r="J69" s="47"/>
-      <c r="L69" s="47" t="s">
-        <v>318</v>
+      <c r="L69" s="66" t="s">
+        <v>384</v>
       </c>
       <c r="M69" s="80" t="s">
         <v>281</v>
@@ -5959,8 +5931,8 @@
       </c>
       <c r="I70" s="65"/>
       <c r="J70" s="47"/>
-      <c r="L70" s="47" t="s">
-        <v>318</v>
+      <c r="L70" s="66" t="s">
+        <v>383</v>
       </c>
       <c r="M70" s="81"/>
     </row>
@@ -5975,7 +5947,7 @@
         <v>153</v>
       </c>
       <c r="F71" s="50" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="I71" s="65" t="s">
         <v>320</v>
@@ -5995,9 +5967,7 @@
       <c r="F72" s="56"/>
       <c r="I72" s="65"/>
       <c r="J72" s="47"/>
-      <c r="L72" s="47" t="s">
-        <v>318</v>
-      </c>
+      <c r="L72" s="47"/>
       <c r="M72" s="81"/>
     </row>
     <row r="73" spans="1:13" s="44" customFormat="1" x14ac:dyDescent="0.25">
@@ -6009,9 +5979,7 @@
       <c r="F73" s="56"/>
       <c r="I73" s="65"/>
       <c r="J73" s="47"/>
-      <c r="L73" s="47" t="s">
-        <v>322</v>
-      </c>
+      <c r="L73" s="47"/>
       <c r="M73" s="81"/>
     </row>
     <row r="74" spans="1:13" s="44" customFormat="1" x14ac:dyDescent="0.25">
@@ -6023,9 +5991,7 @@
       <c r="F74" s="56"/>
       <c r="I74" s="65"/>
       <c r="J74" s="47"/>
-      <c r="L74" s="47" t="s">
-        <v>194</v>
-      </c>
+      <c r="L74" s="47"/>
       <c r="M74" s="81"/>
     </row>
     <row r="75" spans="1:13" s="44" customFormat="1" x14ac:dyDescent="0.25">
@@ -6037,9 +6003,7 @@
       <c r="F75" s="56"/>
       <c r="I75" s="65"/>
       <c r="J75" s="47"/>
-      <c r="L75" s="47" t="s">
-        <v>194</v>
-      </c>
+      <c r="L75" s="47"/>
       <c r="M75" s="81"/>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.25">
@@ -6071,8 +6035,8 @@
       </c>
       <c r="I77" s="65"/>
       <c r="J77" s="47"/>
-      <c r="L77" s="47" t="s">
-        <v>318</v>
+      <c r="L77" s="66" t="s">
+        <v>384</v>
       </c>
       <c r="M77" s="94" t="s">
         <v>280</v>
@@ -6094,11 +6058,11 @@
       <c r="I78" s="65"/>
       <c r="J78" s="66"/>
       <c r="L78" s="66" t="s">
-        <v>318</v>
+        <v>386</v>
       </c>
       <c r="M78" s="81"/>
     </row>
-    <row r="79" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A79" s="90" t="s">
         <v>141</v>
       </c>
@@ -6112,19 +6076,19 @@
         <v>222</v>
       </c>
       <c r="E79" s="67"/>
-      <c r="F79" s="73" t="s">
+      <c r="F79" s="77" t="s">
         <v>223</v>
       </c>
       <c r="I79" s="65"/>
       <c r="J79" s="66"/>
       <c r="L79" s="66" t="s">
-        <v>318</v>
+        <v>386</v>
       </c>
       <c r="M79" s="94" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="80" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" s="90"/>
       <c r="B80" s="90"/>
       <c r="C80" s="90"/>
@@ -6133,12 +6097,10 @@
       <c r="F80" s="73"/>
       <c r="I80" s="65"/>
       <c r="J80" s="66"/>
-      <c r="L80" s="66" t="s">
-        <v>318</v>
-      </c>
+      <c r="L80" s="66"/>
       <c r="M80" s="81"/>
     </row>
-    <row r="81" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" s="90"/>
       <c r="B81" s="90"/>
       <c r="C81" s="90"/>
@@ -6147,12 +6109,10 @@
       <c r="F81" s="73"/>
       <c r="I81" s="65"/>
       <c r="J81" s="66"/>
-      <c r="L81" s="66" t="s">
-        <v>318</v>
-      </c>
+      <c r="L81" s="66"/>
       <c r="M81" s="81"/>
     </row>
-    <row r="82" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" s="90"/>
       <c r="B82" s="90"/>
       <c r="C82" s="90"/>
@@ -6161,9 +6121,7 @@
       <c r="F82" s="73"/>
       <c r="I82" s="65"/>
       <c r="J82" s="66"/>
-      <c r="L82" s="66" t="s">
-        <v>318</v>
-      </c>
+      <c r="L82" s="66"/>
       <c r="M82" s="81"/>
     </row>
     <row r="83" spans="1:13" ht="60" x14ac:dyDescent="0.25">
@@ -6182,10 +6140,10 @@
         <v>123</v>
       </c>
       <c r="I83" s="65" t="s">
+        <v>322</v>
+      </c>
+      <c r="J83" s="66" t="s">
         <v>323</v>
-      </c>
-      <c r="J83" s="66" t="s">
-        <v>324</v>
       </c>
       <c r="L83" s="66"/>
       <c r="M83" s="60" t="s">
@@ -6227,13 +6185,13 @@
       </c>
       <c r="E85" s="67"/>
       <c r="F85" s="50" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="I85" s="65" t="s">
         <v>189</v>
       </c>
       <c r="J85" s="66" t="s">
-        <v>361</v>
+        <v>387</v>
       </c>
       <c r="L85" s="66" t="s">
         <v>282</v>
@@ -6361,7 +6319,13 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:M89" xr:uid="{FE8A9026-FDB0-4A8E-BB8F-FE98E3487D08}"/>
-  <mergeCells count="61">
+  <mergeCells count="67">
+    <mergeCell ref="G10:G12"/>
+    <mergeCell ref="L10:L12"/>
+    <mergeCell ref="K10:K12"/>
+    <mergeCell ref="J10:J12"/>
+    <mergeCell ref="I10:I12"/>
+    <mergeCell ref="H10:H12"/>
     <mergeCell ref="C84:C89"/>
     <mergeCell ref="C77:C78"/>
     <mergeCell ref="B38:B39"/>
@@ -6447,42 +6411,35 @@
     <hyperlink ref="L4" r:id="rId20" xr:uid="{54680947-6D07-49EE-907C-7608033AF346}"/>
     <hyperlink ref="L5:L8" r:id="rId21" display="https://www.nuplazidhcp.com/" xr:uid="{4B8352A1-9F66-4F57-96BF-0B9DE1C7CC0B}"/>
     <hyperlink ref="L10" r:id="rId22" xr:uid="{DCE3F599-4A4B-4AA3-97E5-7463A2CC8B1A}"/>
-    <hyperlink ref="L11:L14" r:id="rId23" display="https://www.nuplazidhcp.com/efficacy-data" xr:uid="{699125D1-E058-4F61-8A8A-B53B3170E7E0}"/>
-    <hyperlink ref="L15:L16" r:id="rId24" display="https://www.nuplazidhcp.com/efficacy-data" xr:uid="{BECCFFFD-E956-48D1-B1FE-2696E6E13A3A}"/>
-    <hyperlink ref="L17" r:id="rId25" xr:uid="{F571F1FF-8B86-4A35-B6AC-458344C4F6CD}"/>
-    <hyperlink ref="L18:L25" r:id="rId26" display="https://www.nuplazidhcp.com/efficacy-data" xr:uid="{078A11EA-7431-4CB5-8ADE-E352F6011A4C}"/>
-    <hyperlink ref="L30" r:id="rId27" xr:uid="{AB34189E-88C0-4E0A-B5EE-DABBB10692CD}"/>
-    <hyperlink ref="L31:L37" r:id="rId28" display="https://www.nuplazidhcp.com/safety-tolerability-data" xr:uid="{FD12167A-B095-42D9-BA68-C86C27A27A62}"/>
-    <hyperlink ref="L39" r:id="rId29" xr:uid="{F73BF06C-6242-4D55-BEA6-D19C8AC354BD}"/>
-    <hyperlink ref="L40" r:id="rId30" xr:uid="{784562BD-368D-4765-AD44-F135C5EBA2F8}"/>
-    <hyperlink ref="L41:L54" r:id="rId31" display="https://www.nuplazidhcp.com/dosing" xr:uid="{A3D97E9E-D7EA-4409-A6A0-208CBE9949EE}"/>
-    <hyperlink ref="L55" r:id="rId32" xr:uid="{B5CEE080-912D-4421-9D68-637FC05CB79C}"/>
-    <hyperlink ref="L56" r:id="rId33" xr:uid="{1254F235-DAC2-40D4-8F5B-37A76E2FB96C}"/>
-    <hyperlink ref="L57" r:id="rId34" xr:uid="{8AB97281-61CB-42CE-B01B-1B7612EB7201}"/>
-    <hyperlink ref="L58" r:id="rId35" xr:uid="{E57D3C9F-85A0-4370-8D72-BB240A64460D}"/>
-    <hyperlink ref="L59" r:id="rId36" xr:uid="{62D3228E-0BF5-497D-AC98-7445F94BFDB4}"/>
-    <hyperlink ref="L60" r:id="rId37" xr:uid="{DC44F380-85F6-4824-BA92-1B36521DD88E}"/>
-    <hyperlink ref="L61:L64" r:id="rId38" display="https://www.nuplazidhcp.com/acadia-connect" xr:uid="{A7E794B2-A024-4FAD-80CE-EFB3BAFEA5BF}"/>
-    <hyperlink ref="L65" r:id="rId39" xr:uid="{729FB565-1D32-46F4-998D-416674379F80}"/>
-    <hyperlink ref="L66" r:id="rId40" xr:uid="{20E7609D-7582-4243-B0AE-3ADD9661D757}"/>
-    <hyperlink ref="L67" r:id="rId41" xr:uid="{6571AF72-1C75-4B05-BDC8-25A07AE8BB64}"/>
-    <hyperlink ref="L68" r:id="rId42" xr:uid="{030FECFE-A468-43A2-88A2-64961C354BD7}"/>
-    <hyperlink ref="L69" r:id="rId43" xr:uid="{DBC3BE2B-3A61-45AF-A75E-21BA98ABA7B9}"/>
-    <hyperlink ref="L70" r:id="rId44" xr:uid="{402F8AF4-756B-4FB1-B16F-7381D1BE6D6D}"/>
-    <hyperlink ref="L72" r:id="rId45" xr:uid="{243F43FA-3828-4D94-90A5-C5FA0A0A174D}"/>
-    <hyperlink ref="L73" r:id="rId46" xr:uid="{D4987F58-B2B5-4A6D-B190-F30D3CFB7B38}"/>
-    <hyperlink ref="L74" r:id="rId47" xr:uid="{11BE5001-2396-49EB-BFF4-09482EF993B5}"/>
-    <hyperlink ref="L75" r:id="rId48" xr:uid="{7DAF30A5-8805-4AFC-9DB3-CD90DA566FF4}"/>
-    <hyperlink ref="L77" r:id="rId49" xr:uid="{E7F817F0-D7BE-49AF-AC72-A50C39380354}"/>
-    <hyperlink ref="L78" r:id="rId50" xr:uid="{D76AA7D0-38FF-42DF-89E7-2FDB8A8258F6}"/>
-    <hyperlink ref="L79:L82" r:id="rId51" display="https://www.nuplazidhcp.com/acadia-connect" xr:uid="{0847A0B7-D8EF-4252-9A04-B25DD575C939}"/>
-    <hyperlink ref="L84" r:id="rId52" xr:uid="{AE628026-B0A3-4526-A641-3C3D8B380D81}"/>
-    <hyperlink ref="L85" r:id="rId53" xr:uid="{35D4A6C8-86AB-43EC-A1CE-4328DEBD4548}"/>
-    <hyperlink ref="L86:L89" r:id="rId54" display="https://www.acadiaconnect.com/healthcare-providers" xr:uid="{D5C86836-0DDC-4BDA-912F-C5D29BEE0331}"/>
-    <hyperlink ref="J85" r:id="rId55" xr:uid="{6E227707-23AE-47FE-9927-CABF7B00812D}"/>
-    <hyperlink ref="J3" r:id="rId56" location="section_4" xr:uid="{D7C274DA-B3DB-4C00-8FE2-F39E7E8A134D}"/>
+    <hyperlink ref="L15:L16" r:id="rId23" display="https://www.nuplazidhcp.com/efficacy-data" xr:uid="{BECCFFFD-E956-48D1-B1FE-2696E6E13A3A}"/>
+    <hyperlink ref="L17" r:id="rId24" xr:uid="{F571F1FF-8B86-4A35-B6AC-458344C4F6CD}"/>
+    <hyperlink ref="L30" r:id="rId25" xr:uid="{AB34189E-88C0-4E0A-B5EE-DABBB10692CD}"/>
+    <hyperlink ref="L40" r:id="rId26" xr:uid="{784562BD-368D-4765-AD44-F135C5EBA2F8}"/>
+    <hyperlink ref="L55" r:id="rId27" xr:uid="{B5CEE080-912D-4421-9D68-637FC05CB79C}"/>
+    <hyperlink ref="L56" r:id="rId28" xr:uid="{1254F235-DAC2-40D4-8F5B-37A76E2FB96C}"/>
+    <hyperlink ref="L57" r:id="rId29" location="heading-1" xr:uid="{8AB97281-61CB-42CE-B01B-1B7612EB7201}"/>
+    <hyperlink ref="L58" r:id="rId30" location="heading-0" xr:uid="{E57D3C9F-85A0-4370-8D72-BB240A64460D}"/>
+    <hyperlink ref="L65" r:id="rId31" location="heading-2" xr:uid="{729FB565-1D32-46F4-998D-416674379F80}"/>
+    <hyperlink ref="L69" r:id="rId32" location="heading-0" xr:uid="{DBC3BE2B-3A61-45AF-A75E-21BA98ABA7B9}"/>
+    <hyperlink ref="L70" r:id="rId33" location="heading-1" xr:uid="{402F8AF4-756B-4FB1-B16F-7381D1BE6D6D}"/>
+    <hyperlink ref="L77" r:id="rId34" location="heading-0" xr:uid="{E7F817F0-D7BE-49AF-AC72-A50C39380354}"/>
+    <hyperlink ref="L78" r:id="rId35" location="heading-3" xr:uid="{D76AA7D0-38FF-42DF-89E7-2FDB8A8258F6}"/>
+    <hyperlink ref="L84" r:id="rId36" xr:uid="{AE628026-B0A3-4526-A641-3C3D8B380D81}"/>
+    <hyperlink ref="L85" r:id="rId37" xr:uid="{35D4A6C8-86AB-43EC-A1CE-4328DEBD4548}"/>
+    <hyperlink ref="L86:L89" r:id="rId38" display="https://www.acadiaconnect.com/healthcare-providers" xr:uid="{D5C86836-0DDC-4BDA-912F-C5D29BEE0331}"/>
+    <hyperlink ref="J85" r:id="rId39" location="gtm-844-hcp-body" xr:uid="{6E227707-23AE-47FE-9927-CABF7B00812D}"/>
+    <hyperlink ref="J3" r:id="rId40" location="section_4" xr:uid="{D7C274DA-B3DB-4C00-8FE2-F39E7E8A134D}"/>
+    <hyperlink ref="L13" r:id="rId41" location="heading-0" xr:uid="{33AFF19B-EB53-4250-AE95-2318A02A433F}"/>
+    <hyperlink ref="L14" r:id="rId42" location="heading-0" xr:uid="{B527C9EA-A5BD-46F8-9C01-8A553A8D8181}"/>
+    <hyperlink ref="L19" r:id="rId43" location="heading-1" xr:uid="{2B4B2D4B-46C7-431F-857B-5AC39C449661}"/>
+    <hyperlink ref="L22" r:id="rId44" location="heading-3" xr:uid="{D4B75A11-5781-4661-B43C-87E4E8469025}"/>
+    <hyperlink ref="L24" r:id="rId45" location="heading-3" xr:uid="{12D900FE-AF00-4E86-95D6-61D57E260D54}"/>
+    <hyperlink ref="L25" r:id="rId46" location="heading-3" xr:uid="{DA9CEC8D-7B07-475D-933E-47D3832169FC}"/>
+    <hyperlink ref="L29" r:id="rId47" location="heading-0" xr:uid="{0D4ABB66-DDE2-4FA2-9783-4AAD4BB1C2CF}"/>
+    <hyperlink ref="L32" r:id="rId48" location="safetyTabs" xr:uid="{914DB178-2DBE-4A9F-86AE-74D418682D15}"/>
+    <hyperlink ref="L79" r:id="rId49" location="heading-3" xr:uid="{E697A06C-6D36-4612-95F0-24BE352FFFDF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId57"/>
+  <legacyDrawing r:id="rId50"/>
 </worksheet>
 </file>
--- a/Corpus/MLR_Corpus.xlsx
+++ b/Corpus/MLR_Corpus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workouts\Projects\Acadia\Masori-Chatbot-Dev-main\Masori-Chatbot-Dev-main\Corpus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48D40847-6FB3-4C39-96E4-76C71C382A51}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F35F0628-E1B3-44E7-BE6B-0379D9432206}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -245,7 +245,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="399">
   <si>
     <t>Keywords</t>
   </si>
@@ -1610,54 +1610,84 @@
 Coadministration with strong or moderate CYP3A4 inducers reduces NUPLAZID exposure. Avoid concomitant use of strong or moderate CYP3A4 inducers with NUPLAZID.</t>
   </si>
   <si>
-    <t xml:space="preserve">Recommended dose: ONCE daily, taken whole or sprinkled and Taken orally with or without food, without titration.
+    <t>https://www.nuplazidhcp.com/efficacy-data#heading-0</t>
+  </si>
+  <si>
+    <t>https://www.nuplazidhcp.com/efficacy-data#heading-1</t>
+  </si>
+  <si>
+    <t>https://www.nuplazidhcp.com/efficacy-data#heading-3</t>
+  </si>
+  <si>
+    <t>https://www.nuplazidhcp.com/safety-tolerability-data#safetyTabs</t>
+  </si>
+  <si>
+    <t>https://www.nuplazidhcp.com/acadia-connect#heading-1</t>
+  </si>
+  <si>
+    <t>https://www.nuplazidhcp.com/acadia-connect#heading-0</t>
+  </si>
+  <si>
+    <t>https://www.nuplazidhcp.com/acadia-connect#heading-2</t>
+  </si>
+  <si>
+    <t>https://www.nuplazidhcp.com/acadia-connect#heading-3</t>
+  </si>
+  <si>
+    <t>https://www.acadiaconnect.com/healthcare-providers#gtm-844-hcp-body</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elderly patients with dementia-related psychosis treated with antipsychotic drugs are at an increased risk of death.
+NUPLAZID is not approved for the treatment of patients with dementia-related psychosis unrelated to the hallucinations and delusions associated with Parkinson’s disease psychosis.
+NUPLAZID prolongs the QT interval. The use of NUPLAZID should be avoided in patients with known QT prolongation or in combination with other drugs known to prolong QT interval including Class 1A antiarrhythmics or Class 3 antiarrhythmics, certain antipsychotic medications, and certain antibiotics.
+NUPLAZID should also be avoided in patients with a history of cardiac arrhythmias, as well as other circumstances that may increase the risk of the occurrence of torsade de pointes and/or sudden death, including symptomatic bradycardia, hypokalemia or hypomagnesemia, and presence of congenital prolongation of the QT interval
+8% (n=16) of patients treated with NUPLAZID discontinued due to adverse reactions vs 4% (n=10) with placebo.
+Drug Interactions: </t>
+  </si>
+  <si>
+    <t>Coadministration with strong CYP3A4 inhibitors (e.g., ketoconazole) increases NUPLAZID exposure. Reduce NUPLAZID dose to 10 mg taken orally as one tablet once daily.
+Avoid concomitant use of strong or moderate CYP3A4 inducers with NUPLAZID</t>
+  </si>
+  <si>
+    <t>Nuplazid Warnings</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Recommended dose:&lt;/b&gt; ONCE daily, taken whole or sprinkled and Taken orally with or without food, without titration.
 The capsule can be opened and the entire contents sprinkled over a tablespoon (15 mL) of applesauce, yogurt, pudding, or a liquid nutritional supplement. The food/drug mixture should be consumed immediately without chewing; do not store for future use.
 No dosage adjustment of carbidopa/levodopa is required when administered concomitantly with NUPLAZID.
 No dosage adjustment in elderly patients, patients with mild to severe renal impairment or end-stage renal disease (ESRD), or in patients with hepatic impairment.
 For patients taking strong CYP3A4 inhibitors, the recommended dose of NUPLAZID is one 10 mg tablet daily.
 Avoid concomitant use of strong or moderate CYP3A4 inducers with NUPLAZID.
 Avoid the use of NUPLAZID in combination with other drugs known to prolong the QT interval.
-NUPLAZID is available as 34 mg capsules and 10 mg tablets.
-Drug Interactions: </t>
-  </si>
-  <si>
-    <t>https://www.nuplazidhcp.com/efficacy-data#heading-0</t>
-  </si>
-  <si>
-    <t>https://www.nuplazidhcp.com/efficacy-data#heading-1</t>
-  </si>
-  <si>
-    <t>https://www.nuplazidhcp.com/efficacy-data#heading-3</t>
-  </si>
-  <si>
-    <t>https://www.nuplazidhcp.com/safety-tolerability-data#safetyTabs</t>
-  </si>
-  <si>
-    <t>https://www.nuplazidhcp.com/acadia-connect#heading-1</t>
-  </si>
-  <si>
-    <t>https://www.nuplazidhcp.com/acadia-connect#heading-0</t>
-  </si>
-  <si>
-    <t>https://www.nuplazidhcp.com/acadia-connect#heading-2</t>
-  </si>
-  <si>
-    <t>https://www.nuplazidhcp.com/acadia-connect#heading-3</t>
-  </si>
-  <si>
-    <t>https://www.acadiaconnect.com/healthcare-providers#gtm-844-hcp-body</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Elderly patients with dementia-related psychosis treated with antipsychotic drugs are at an increased risk of death.
-NUPLAZID is not approved for the treatment of patients with dementia-related psychosis unrelated to the hallucinations and delusions associated with Parkinson’s disease psychosis.
-NUPLAZID prolongs the QT interval. The use of NUPLAZID should be avoided in patients with known QT prolongation or in combination with other drugs known to prolong QT interval including Class 1A antiarrhythmics or Class 3 antiarrhythmics, certain antipsychotic medications, and certain antibiotics.
-NUPLAZID should also be avoided in patients with a history of cardiac arrhythmias, as well as other circumstances that may increase the risk of the occurrence of torsade de pointes and/or sudden death, including symptomatic bradycardia, hypokalemia or hypomagnesemia, and presence of congenital prolongation of the QT interval
-8% (n=16) of patients treated with NUPLAZID discontinued due to adverse reactions vs 4% (n=10) with placebo.
-Drug Interactions: </t>
-  </si>
-  <si>
-    <t>Coadministration with strong CYP3A4 inhibitors (e.g., ketoconazole) increases NUPLAZID exposure. Reduce NUPLAZID dose to 10 mg taken orally as one tablet once daily.
-Avoid concomitant use of strong or moderate CYP3A4 inducers with NUPLAZID</t>
+NUPLAZID is available as 34 mg capsules and 10 mg tablets.</t>
+  </si>
+  <si>
+    <t>Drug Interaction</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Drug Interactions: &lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>If you need to get a prescription for your patient, fill out the Treatment Form, including the section for the free 14-day supply.* You may also download the PDF version of the form and fax it to 1-844-737-2223.
+Connect with an Acadia Connect representative.
+1-844-737-2223
+Monday through Friday
+8:30 AM-8:30 PM ET</t>
+  </si>
+  <si>
+    <t>https://nuplazidhcp-masori.azurewebsites.net/pdf/nuplazid-dosing-guide.pdf</t>
+  </si>
+  <si>
+    <t>Dosing Guide</t>
+  </si>
+  <si>
+    <t>https://nuplazidhcp-masori.azurewebsites.net/proposed-moa</t>
+  </si>
+  <si>
+    <t>Treatment Form</t>
+  </si>
+  <si>
+    <t>https://nuplazidhcp-masori.azurewebsites.net/pdf/acadia-connect-treatment-form.pdf</t>
   </si>
 </sst>
 </file>
@@ -4595,8 +4625,8 @@
   <dimension ref="A1:M98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:A3"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4894,7 +4924,7 @@
       <c r="B13" s="84"/>
       <c r="C13" s="90"/>
       <c r="D13" s="50" t="s">
-        <v>28</v>
+        <v>389</v>
       </c>
       <c r="E13" s="67" t="s">
         <v>29</v>
@@ -4908,7 +4938,7 @@
       <c r="J13" s="66"/>
       <c r="K13" s="65"/>
       <c r="L13" s="66" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="M13" s="81"/>
     </row>
@@ -4920,7 +4950,7 @@
         <v>29</v>
       </c>
       <c r="E14" s="67" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F14" s="50" t="s">
         <v>376</v>
@@ -4931,7 +4961,7 @@
       <c r="J14" s="66"/>
       <c r="K14" s="65"/>
       <c r="L14" s="66" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="M14" s="81"/>
     </row>
@@ -5019,9 +5049,7 @@
       <c r="A19" s="89"/>
       <c r="B19" s="90"/>
       <c r="C19" s="90"/>
-      <c r="D19" s="50" t="s">
-        <v>44</v>
-      </c>
+      <c r="D19" s="50"/>
       <c r="E19" s="67"/>
       <c r="F19" s="50" t="s">
         <v>375</v>
@@ -5032,7 +5060,7 @@
       <c r="J19" s="66"/>
       <c r="K19" s="42"/>
       <c r="L19" s="66" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="M19" s="80"/>
     </row>
@@ -5093,7 +5121,7 @@
       <c r="J22" s="66"/>
       <c r="K22" s="65"/>
       <c r="L22" s="66" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="M22" s="80"/>
     </row>
@@ -5132,7 +5160,7 @@
       <c r="J24" s="66"/>
       <c r="K24" s="65"/>
       <c r="L24" s="66" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="M24" s="80"/>
     </row>
@@ -5155,7 +5183,7 @@
       <c r="J25" s="66"/>
       <c r="K25" s="65"/>
       <c r="L25" s="66" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="M25" s="80"/>
     </row>
@@ -5237,7 +5265,7 @@
       <c r="J29" s="66"/>
       <c r="K29" s="65"/>
       <c r="L29" s="66" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="M29" s="81"/>
     </row>
@@ -5304,17 +5332,17 @@
         <v>107</v>
       </c>
       <c r="F32" s="50" t="s">
+        <v>387</v>
+      </c>
+      <c r="G32" s="65" t="s">
         <v>388</v>
-      </c>
-      <c r="G32" s="65" t="s">
-        <v>389</v>
       </c>
       <c r="H32" s="65"/>
       <c r="I32" s="65"/>
       <c r="J32" s="66"/>
       <c r="K32" s="65"/>
       <c r="L32" s="66" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="M32" s="81"/>
     </row>
@@ -5507,42 +5535,53 @@
       </c>
       <c r="M42" s="81"/>
     </row>
-    <row r="43" spans="1:13" ht="210" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" ht="180" x14ac:dyDescent="0.25">
       <c r="A43" s="90"/>
       <c r="B43" s="90"/>
       <c r="C43" s="90"/>
       <c r="D43" s="73" t="s">
         <v>85</v>
       </c>
-      <c r="E43" s="67"/>
+      <c r="E43" s="77" t="s">
+        <v>391</v>
+      </c>
       <c r="F43" s="50" t="s">
-        <v>378</v>
-      </c>
-      <c r="G43" s="65" t="s">
-        <v>377</v>
+        <v>390</v>
       </c>
       <c r="H43" s="65"/>
-      <c r="I43" s="65"/>
-      <c r="J43" s="47"/>
+      <c r="I43" s="65" t="s">
+        <v>395</v>
+      </c>
+      <c r="J43" s="47" t="s">
+        <v>394</v>
+      </c>
       <c r="K43" s="65"/>
       <c r="L43" s="47" t="s">
         <v>279</v>
       </c>
       <c r="M43" s="81"/>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" ht="120" x14ac:dyDescent="0.25">
       <c r="A44" s="90"/>
       <c r="B44" s="90"/>
       <c r="C44" s="90"/>
-      <c r="D44" s="73"/>
+      <c r="D44" s="73" t="s">
+        <v>391</v>
+      </c>
       <c r="E44" s="67"/>
-      <c r="F44" s="50"/>
-      <c r="G44" s="65"/>
+      <c r="F44" s="50" t="s">
+        <v>392</v>
+      </c>
+      <c r="G44" s="65" t="s">
+        <v>377</v>
+      </c>
       <c r="H44" s="65"/>
       <c r="I44" s="65"/>
       <c r="J44" s="47"/>
       <c r="K44" s="65"/>
-      <c r="L44" s="47"/>
+      <c r="L44" s="47" t="s">
+        <v>396</v>
+      </c>
       <c r="M44" s="81"/>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
@@ -5728,7 +5767,7 @@
       <c r="I57" s="65"/>
       <c r="J57" s="66"/>
       <c r="L57" s="66" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="M57" s="81"/>
     </row>
@@ -5748,7 +5787,7 @@
       <c r="I58" s="65"/>
       <c r="J58" s="47"/>
       <c r="L58" s="66" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="M58" s="81"/>
     </row>
@@ -5845,7 +5884,7 @@
       <c r="I65" s="65"/>
       <c r="J65" s="47"/>
       <c r="L65" s="66" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="M65" s="94" t="s">
         <v>285</v>
@@ -5907,7 +5946,7 @@
       <c r="I69" s="65"/>
       <c r="J69" s="47"/>
       <c r="L69" s="66" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="M69" s="80" t="s">
         <v>281</v>
@@ -5932,7 +5971,7 @@
       <c r="I70" s="65"/>
       <c r="J70" s="47"/>
       <c r="L70" s="66" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="M70" s="81"/>
     </row>
@@ -6014,7 +6053,7 @@
       <c r="F76" s="56"/>
       <c r="M76" s="81"/>
     </row>
-    <row r="77" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" ht="105" x14ac:dyDescent="0.25">
       <c r="A77" s="90" t="s">
         <v>132</v>
       </c>
@@ -6025,40 +6064,37 @@
         <v>261</v>
       </c>
       <c r="D77" s="50" t="s">
-        <v>133</v>
+        <v>221</v>
       </c>
       <c r="E77" s="67" t="s">
         <v>153</v>
       </c>
       <c r="F77" s="56" t="s">
-        <v>115</v>
-      </c>
-      <c r="I77" s="65"/>
-      <c r="J77" s="47"/>
+        <v>393</v>
+      </c>
+      <c r="I77" s="65" t="s">
+        <v>397</v>
+      </c>
+      <c r="J77" s="47" t="s">
+        <v>398</v>
+      </c>
       <c r="L77" s="66" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="M77" s="94" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="78" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="90"/>
       <c r="B78" s="90"/>
       <c r="C78" s="90"/>
-      <c r="D78" s="50" t="s">
-        <v>221</v>
-      </c>
-      <c r="E78" s="67" t="s">
-        <v>153</v>
-      </c>
-      <c r="F78" s="56" t="s">
-        <v>140</v>
-      </c>
+      <c r="E78" s="67"/>
+      <c r="F78" s="56"/>
       <c r="I78" s="65"/>
       <c r="J78" s="66"/>
       <c r="L78" s="66" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="M78" s="81"/>
     </row>
@@ -6082,7 +6118,7 @@
       <c r="I79" s="65"/>
       <c r="J79" s="66"/>
       <c r="L79" s="66" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="M79" s="94" t="s">
         <v>284</v>
@@ -6191,7 +6227,7 @@
         <v>189</v>
       </c>
       <c r="J85" s="66" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="L85" s="66" t="s">
         <v>282</v>
@@ -6438,8 +6474,10 @@
     <hyperlink ref="L29" r:id="rId47" location="heading-0" xr:uid="{0D4ABB66-DDE2-4FA2-9783-4AAD4BB1C2CF}"/>
     <hyperlink ref="L32" r:id="rId48" location="safetyTabs" xr:uid="{914DB178-2DBE-4A9F-86AE-74D418682D15}"/>
     <hyperlink ref="L79" r:id="rId49" location="heading-3" xr:uid="{E697A06C-6D36-4612-95F0-24BE352FFFDF}"/>
+    <hyperlink ref="J43" r:id="rId50" xr:uid="{D5956ADB-CCC2-4DC2-A8C4-803700F25823}"/>
+    <hyperlink ref="L44" r:id="rId51" xr:uid="{5F289884-B058-4E48-ACB0-973F2C70E8EB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId50"/>
+  <legacyDrawing r:id="rId52"/>
 </worksheet>
 </file>
--- a/Corpus/MLR_Corpus.xlsx
+++ b/Corpus/MLR_Corpus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workouts\Projects\Acadia\Masori-Chatbot-Dev-main\Masori-Chatbot-Dev-main\Corpus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F35F0628-E1B3-44E7-BE6B-0379D9432206}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0110595-899C-4822-87CA-57D6F1C69679}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -245,7 +245,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="400">
   <si>
     <t>Keywords</t>
   </si>
@@ -876,13 +876,6 @@
     <t>NUPLAZID reduced the frequency and/or severity of Parkinson's disease (PD)–related hallucinations and delusions.
 In the clinical trial, the majority of patients who took NUPLAZID experienced fewer and/or less severe hallucinations and delusions associated with PD psychosis.
 Some patients did not experience any hallucinations or delusions after 6 weeks. Not everyone will respond to NUPLAZID.</t>
-  </si>
-  <si>
-    <t>NUPLAZID: Real help for a real part of Parkinson’s disease psychosis.
-NUPLAZID reduced the frequency and/or severity of Parkinson's disease
-(PD)–related hallucinations and delusions.
-NUPLAZID had no effect on motor symptoms.
-The clinical trial included 199 adults (at least 40 years of age with an average age of 72 years) diagnosed with hallucinations and delusions associated with PD psychosis that was severe and frequent enough for treatment.</t>
   </si>
   <si>
     <t>Currently, there is no clear understanding of the exact cause of hallucinations and delusions associated with PD. However, certain brain chemicals and receptors (such as dopamine and serotonin) are believed to play a role.</t>
@@ -1170,25 +1163,10 @@
     <t xml:space="preserve">Acadia Connect form, Acadia Connect treatment form, NUPLAZID treatment form, Acadia Connect </t>
   </si>
   <si>
-    <t>https://www.nuplazid.com/about-nuplazid</t>
-  </si>
-  <si>
-    <t>https://www.nuplazid.com/about-pd-related-hallucinations-and-delusions</t>
-  </si>
-  <si>
-    <t>https://www.nuplazid.com/contact-us</t>
-  </si>
-  <si>
-    <t>https://www.nuplazid.com/frequently-asked-questions</t>
-  </si>
-  <si>
     <t>https://www.acadiaconnect.com/patient-caregivers/insurance-coverage-lookup</t>
   </si>
   <si>
     <t>https://www.acadiaconnect.com/patient-caregivers</t>
-  </si>
-  <si>
-    <t>https://www.nuplazid.com/</t>
   </si>
   <si>
     <t>https://www.nuplazidhcp.com/</t>
@@ -1351,12 +1329,6 @@
     <t>Personal Stories</t>
   </si>
   <si>
-    <t>https://www.nuplazid.com/personal-stories</t>
-  </si>
-  <si>
-    <t>https://www.nuplazid.com/talking-to-your-healthcare-provider</t>
-  </si>
-  <si>
     <t>Any videos will explain about symptoms,  Any personal stories</t>
   </si>
   <si>
@@ -1466,13 +1438,6 @@
     <t xml:space="preserve">It is common for people living with Parkinson's disease (PD)–related hallucinations and delusions to remain silent about these symptoms and not report them to a healthcare provider. Proactively discussing the link between PD and the possibility of related hallucinations or delusions can help you and your healthcare provider identify and treat symptoms. </t>
   </si>
   <si>
-    <t>https://www.nuplazid.com/talking-to-your-healthcare-provider#doctor-discussion-guide</t>
-  </si>
-  <si>
-    <t>https://www.nuplazid.com/support-and-resources#sign-up-stay-informed
-https://www.nuplazid.com/pdf/pd-related-hallucinations-delusions-fact-sheet.pdf</t>
-  </si>
-  <si>
     <t xml:space="preserve">Signup for more information about PD-related hallucination and delusions                                                             </t>
   </si>
   <si>
@@ -1492,9 +1457,6 @@
   </si>
   <si>
     <t>Click below link to get Full Prescribing Information</t>
-  </si>
-  <si>
-    <t>https://www.nuplazid.com/pdf/nuplazid-prescribing-information.pdf</t>
   </si>
   <si>
     <t>When it comes to paying for your prescription, you may have questions about your insurance coverage. With this simple tool, you can check your coverage by answering just three questions.
@@ -1503,11 +1465,6 @@
 1-844-737-2223</t>
   </si>
   <si>
-    <t>https://www.nuplazid.com/pdf/pd-related-hallucinations-delusions-fact-sheet.pdf
-https://www.nuplazid.com/pdf/nuplazid-fact-sheet.pdf
-https://www.nuplazid.com/pdf/nuplazid-doctor-discussion-guide.pdf</t>
-  </si>
-  <si>
     <t xml:space="preserve">Downloadable resources
 </t>
   </si>
@@ -1518,9 +1475,6 @@
   </si>
   <si>
     <t>Sign up to receive additional information that could help you or your loved one navigate Parkinson's disease (PD)–related hallucinations and delusions.</t>
-  </si>
-  <si>
-    <t>https://www.nuplazid.com/support-and-resources#sign-up-stay-informed</t>
   </si>
   <si>
     <t>Download Form</t>
@@ -1684,10 +1638,58 @@
     <t>https://nuplazidhcp-masori.azurewebsites.net/proposed-moa</t>
   </si>
   <si>
-    <t>Treatment Form</t>
-  </si>
-  <si>
     <t>https://nuplazidhcp-masori.azurewebsites.net/pdf/acadia-connect-treatment-form.pdf</t>
+  </si>
+  <si>
+    <t>Download Treatment Form</t>
+  </si>
+  <si>
+    <t>NUPLAZID: Real help for a real part of Parkinson’s disease psychosis.
+The clinical trial included 199 adults (at least 40 years of age with an average age of 72 years) diagnosed with hallucinations and delusions associated with PD psychosis that was severe and frequent enough for treatment.</t>
+  </si>
+  <si>
+    <t>NUPLAZID reduced the frequency and/or severity of Parkinson's disease
+(PD)–related hallucinations and delusions.
+NUPLAZID had no effect on motor symptoms.</t>
+  </si>
+  <si>
+    <t>http://nuplazid-masori.azurewebsites.net/about-pd-related-hallucinations-and-delusions</t>
+  </si>
+  <si>
+    <t>http://nuplazid-masori.azurewebsites.net/about-nuplazid</t>
+  </si>
+  <si>
+    <t>http://nuplazid-masori.azurewebsites.net/talking-to-your-healthcare-provider#doctor-discussion-guide</t>
+  </si>
+  <si>
+    <t>http://nuplazid-masori.azurewebsites.net/talking-to-your-healthcare-provider</t>
+  </si>
+  <si>
+    <t>http://nuplazid-masori.azurewebsites.net/support-and-resources#sign-up-stay-informed
+http://nuplazid-masori.azurewebsites.net/pdf/pd-related-hallucinations-delusions-fact-sheet.pdf</t>
+  </si>
+  <si>
+    <t>http://nuplazid-masori.azurewebsites.net/personal-stories</t>
+  </si>
+  <si>
+    <t>http://nuplazid-masori.azurewebsites.net/contact-us</t>
+  </si>
+  <si>
+    <t>http://nuplazid-masori.azurewebsites.net/pdf/nuplazid-prescribing-information.pdf</t>
+  </si>
+  <si>
+    <t>http://nuplazid-masori.azurewebsites.net/</t>
+  </si>
+  <si>
+    <t>http://nuplazid-masori.azurewebsites.net/frequently-asked-questions</t>
+  </si>
+  <si>
+    <t>http://nuplazid-masori.azurewebsites.net/pdf/pd-related-hallucinations-delusions-fact-sheet.pdf
+http://nuplazid-masori.azurewebsites.net/pdf/nuplazid-fact-sheet.pdf
+http://nuplazid-masori.azurewebsites.net/pdf/nuplazid-doctor-discussion-guide.pdf</t>
+  </si>
+  <si>
+    <t>http://nuplazid-masori.azurewebsites.net/support-and-resources#sign-up-stay-informed</t>
   </si>
 </sst>
 </file>
@@ -1956,6 +1958,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1968,16 +1980,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1987,6 +1989,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1995,15 +2006,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2383,9 +2385,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M47"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2405,54 +2407,54 @@
         <v>1</v>
       </c>
       <c r="B1" s="45" t="s">
+        <v>224</v>
+      </c>
+      <c r="C1" s="45" t="s">
         <v>225</v>
-      </c>
-      <c r="C1" s="45" t="s">
-        <v>226</v>
       </c>
       <c r="D1" s="51" t="s">
         <v>197</v>
       </c>
       <c r="E1" s="51" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G1" s="45" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="H1" s="45" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="I1" s="45" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="J1" s="45" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="K1" s="45" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="L1" s="45" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="31" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A2" s="85" t="s">
-        <v>230</v>
-      </c>
-      <c r="B2" s="85" t="s">
-        <v>235</v>
-      </c>
-      <c r="C2" s="85" t="s">
-        <v>287</v>
+      <c r="A2" s="82" t="s">
+        <v>229</v>
+      </c>
+      <c r="B2" s="82" t="s">
+        <v>234</v>
+      </c>
+      <c r="C2" s="82" t="s">
+        <v>281</v>
       </c>
       <c r="D2" s="57" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="E2" s="71" t="s">
         <v>10</v>
@@ -2466,46 +2468,46 @@
       <c r="J2" s="65"/>
       <c r="K2" s="65"/>
       <c r="L2" s="66" t="s">
-        <v>269</v>
-      </c>
-      <c r="M2" s="83" t="s">
-        <v>269</v>
+        <v>388</v>
+      </c>
+      <c r="M2" s="87" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="3" spans="1:13" s="31" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A3" s="86"/>
-      <c r="B3" s="84"/>
-      <c r="C3" s="86"/>
+      <c r="A3" s="83"/>
+      <c r="B3" s="80"/>
+      <c r="C3" s="83"/>
       <c r="D3" s="57" t="s">
         <v>10</v>
       </c>
       <c r="E3" s="71" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="F3" s="32" t="s">
-        <v>371</v>
+        <v>358</v>
       </c>
       <c r="G3" s="65" t="s">
-        <v>372</v>
+        <v>359</v>
       </c>
       <c r="H3" s="65"/>
       <c r="I3" s="65"/>
       <c r="J3" s="65"/>
       <c r="K3" s="65"/>
       <c r="L3" s="66" t="s">
-        <v>269</v>
-      </c>
-      <c r="M3" s="81"/>
+        <v>388</v>
+      </c>
+      <c r="M3" s="85"/>
     </row>
     <row r="4" spans="1:13" s="31" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" s="86"/>
-      <c r="B4" s="84"/>
-      <c r="C4" s="86"/>
+      <c r="A4" s="83"/>
+      <c r="B4" s="80"/>
+      <c r="C4" s="83"/>
       <c r="D4" s="57" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="E4" s="71" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="F4" s="32" t="s">
         <v>199</v>
@@ -2516,25 +2518,25 @@
       <c r="J4" s="65"/>
       <c r="K4" s="65"/>
       <c r="L4" s="66" t="s">
-        <v>269</v>
-      </c>
-      <c r="M4" s="81"/>
+        <v>388</v>
+      </c>
+      <c r="M4" s="85"/>
     </row>
     <row r="5" spans="1:13" ht="105" x14ac:dyDescent="0.25">
-      <c r="A5" s="87" t="s">
+      <c r="A5" s="81" t="s">
         <v>172</v>
       </c>
-      <c r="B5" s="84" t="s">
-        <v>296</v>
-      </c>
-      <c r="C5" s="84" t="s">
-        <v>236</v>
+      <c r="B5" s="80" t="s">
+        <v>290</v>
+      </c>
+      <c r="C5" s="80" t="s">
+        <v>235</v>
       </c>
       <c r="D5" s="57" t="s">
         <v>173</v>
       </c>
       <c r="E5" s="75" t="s">
-        <v>366</v>
+        <v>353</v>
       </c>
       <c r="F5" s="32" t="s">
         <v>200</v>
@@ -2545,53 +2547,55 @@
       <c r="J5" s="65"/>
       <c r="K5" s="65"/>
       <c r="L5" s="66" t="s">
-        <v>268</v>
-      </c>
-      <c r="M5" s="80" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="120" x14ac:dyDescent="0.25">
-      <c r="A6" s="87"/>
-      <c r="B6" s="87"/>
-      <c r="C6" s="87"/>
+        <v>389</v>
+      </c>
+      <c r="M5" s="84" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+      <c r="A6" s="81"/>
+      <c r="B6" s="81"/>
+      <c r="C6" s="81"/>
       <c r="D6" s="57" t="s">
-        <v>366</v>
+        <v>353</v>
       </c>
       <c r="E6" s="71" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F6" s="33" t="s">
-        <v>201</v>
-      </c>
-      <c r="G6" s="65"/>
+        <v>386</v>
+      </c>
+      <c r="G6" s="65" t="s">
+        <v>387</v>
+      </c>
       <c r="H6" s="65"/>
       <c r="I6" s="65"/>
       <c r="J6" s="65"/>
       <c r="K6" s="65"/>
       <c r="L6" s="66" t="s">
-        <v>268</v>
-      </c>
-      <c r="M6" s="81"/>
+        <v>389</v>
+      </c>
+      <c r="M6" s="85"/>
     </row>
     <row r="7" spans="1:13" s="44" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A7" s="84" t="s">
-        <v>300</v>
-      </c>
-      <c r="B7" s="84" t="s">
-        <v>301</v>
-      </c>
-      <c r="C7" s="84" t="s">
-        <v>305</v>
+      <c r="A7" s="80" t="s">
+        <v>294</v>
+      </c>
+      <c r="B7" s="80" t="s">
+        <v>295</v>
+      </c>
+      <c r="C7" s="80" t="s">
+        <v>299</v>
       </c>
       <c r="D7" s="61" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="E7" s="71" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="F7" s="61" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="G7" s="65"/>
       <c r="H7" s="65"/>
@@ -2599,24 +2603,24 @@
       <c r="J7" s="65"/>
       <c r="K7" s="65"/>
       <c r="L7" s="66" t="s">
-        <v>341</v>
-      </c>
-      <c r="M7" s="80" t="s">
-        <v>309</v>
+        <v>390</v>
+      </c>
+      <c r="M7" s="84" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="8" spans="1:13" s="44" customFormat="1" ht="150" x14ac:dyDescent="0.25">
-      <c r="A8" s="84"/>
-      <c r="B8" s="84"/>
-      <c r="C8" s="84"/>
+      <c r="A8" s="80"/>
+      <c r="B8" s="80"/>
+      <c r="C8" s="80"/>
       <c r="D8" s="61" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="E8" s="71" t="s">
         <v>192</v>
       </c>
       <c r="F8" s="61" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="G8" s="65"/>
       <c r="H8" s="65"/>
@@ -2624,39 +2628,39 @@
       <c r="J8" s="65"/>
       <c r="K8" s="65"/>
       <c r="L8" s="66" t="s">
-        <v>309</v>
-      </c>
-      <c r="M8" s="81"/>
+        <v>391</v>
+      </c>
+      <c r="M8" s="85"/>
     </row>
     <row r="9" spans="1:13" s="44" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A9" s="84"/>
-      <c r="B9" s="84"/>
-      <c r="C9" s="84"/>
+      <c r="A9" s="80"/>
+      <c r="B9" s="80"/>
+      <c r="C9" s="80"/>
       <c r="D9" s="61" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="E9" s="71"/>
       <c r="F9" s="61" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="G9" s="65"/>
       <c r="H9" s="65"/>
       <c r="I9" s="65" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="J9" s="66" t="s">
-        <v>342</v>
+        <v>392</v>
       </c>
       <c r="K9" s="65"/>
       <c r="L9" s="66" t="s">
-        <v>309</v>
-      </c>
-      <c r="M9" s="81"/>
+        <v>391</v>
+      </c>
+      <c r="M9" s="85"/>
     </row>
     <row r="10" spans="1:13" s="44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="84"/>
-      <c r="B10" s="84"/>
-      <c r="C10" s="84"/>
+      <c r="A10" s="80"/>
+      <c r="B10" s="80"/>
+      <c r="C10" s="80"/>
       <c r="D10" s="61"/>
       <c r="E10" s="71"/>
       <c r="F10" s="61"/>
@@ -2670,31 +2674,31 @@
     </row>
     <row r="11" spans="1:13" s="44" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="61" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B11" s="61" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="C11" s="61" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="D11" s="61"/>
       <c r="E11" s="71"/>
       <c r="F11" s="61" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="G11" s="65"/>
       <c r="H11" s="66" t="s">
-        <v>308</v>
+        <v>393</v>
       </c>
       <c r="I11" s="65"/>
       <c r="J11" s="65"/>
       <c r="K11" s="65"/>
       <c r="L11" s="70" t="s">
-        <v>308</v>
+        <v>393</v>
       </c>
       <c r="M11" s="63" t="s">
-        <v>308</v>
+        <v>393</v>
       </c>
     </row>
     <row r="12" spans="1:13" s="44" customFormat="1" x14ac:dyDescent="0.25">
@@ -2743,23 +2747,23 @@
       <c r="M14" s="64"/>
     </row>
     <row r="15" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="87" t="s">
+      <c r="A15" s="81" t="s">
         <v>174</v>
       </c>
-      <c r="B15" s="84" t="s">
-        <v>237</v>
-      </c>
-      <c r="C15" s="84" t="s">
-        <v>297</v>
+      <c r="B15" s="80" t="s">
+        <v>236</v>
+      </c>
+      <c r="C15" s="80" t="s">
+        <v>291</v>
       </c>
       <c r="D15" s="57" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="E15" s="71" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="F15" s="32" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G15" s="65"/>
       <c r="H15" s="65"/>
@@ -2767,21 +2771,21 @@
       <c r="J15" s="65"/>
       <c r="K15" s="65"/>
       <c r="L15" s="66" t="s">
-        <v>269</v>
-      </c>
-      <c r="M15" s="80" t="s">
-        <v>269</v>
+        <v>388</v>
+      </c>
+      <c r="M15" s="84" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="87"/>
-      <c r="B16" s="87"/>
-      <c r="C16" s="87"/>
+      <c r="A16" s="81"/>
+      <c r="B16" s="81"/>
+      <c r="C16" s="81"/>
       <c r="D16" s="57" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="E16" s="71" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="F16" s="34" t="s">
         <v>175</v>
@@ -2792,22 +2796,22 @@
       <c r="J16" s="65"/>
       <c r="K16" s="65"/>
       <c r="L16" s="66" t="s">
-        <v>269</v>
-      </c>
-      <c r="M16" s="81"/>
+        <v>388</v>
+      </c>
+      <c r="M16" s="85"/>
     </row>
     <row r="17" spans="1:13" ht="90" x14ac:dyDescent="0.25">
-      <c r="A17" s="87"/>
-      <c r="B17" s="87"/>
-      <c r="C17" s="87"/>
+      <c r="A17" s="81"/>
+      <c r="B17" s="81"/>
+      <c r="C17" s="81"/>
       <c r="D17" s="57" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="E17" s="71" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F17" s="32" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G17" s="65"/>
       <c r="H17" s="65"/>
@@ -2815,14 +2819,14 @@
       <c r="J17" s="65"/>
       <c r="K17" s="65"/>
       <c r="L17" s="66" t="s">
-        <v>269</v>
-      </c>
-      <c r="M17" s="81"/>
+        <v>388</v>
+      </c>
+      <c r="M17" s="85"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="87"/>
-      <c r="B18" s="87"/>
-      <c r="C18" s="87"/>
+      <c r="A18" s="81"/>
+      <c r="B18" s="81"/>
+      <c r="C18" s="81"/>
       <c r="D18" s="43"/>
       <c r="F18" s="42"/>
       <c r="G18" s="42"/>
@@ -2831,28 +2835,28 @@
       <c r="J18" s="42"/>
       <c r="K18" s="42"/>
       <c r="L18" s="72" t="s">
-        <v>269</v>
-      </c>
-      <c r="M18" s="81"/>
+        <v>388</v>
+      </c>
+      <c r="M18" s="85"/>
     </row>
     <row r="19" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="87" t="s">
+      <c r="A19" s="81" t="s">
         <v>176</v>
       </c>
-      <c r="B19" s="84" t="s">
+      <c r="B19" s="80" t="s">
+        <v>237</v>
+      </c>
+      <c r="C19" s="80" t="s">
         <v>238</v>
       </c>
-      <c r="C19" s="84" t="s">
-        <v>239</v>
-      </c>
       <c r="D19" s="57" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="E19" s="75" t="s">
         <v>177</v>
       </c>
       <c r="F19" s="35" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G19" s="65"/>
       <c r="H19" s="65"/>
@@ -2860,24 +2864,24 @@
       <c r="J19" s="65"/>
       <c r="K19" s="65"/>
       <c r="L19" s="66" t="s">
-        <v>269</v>
-      </c>
-      <c r="M19" s="80" t="s">
-        <v>269</v>
+        <v>388</v>
+      </c>
+      <c r="M19" s="84" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="87"/>
-      <c r="B20" s="84"/>
-      <c r="C20" s="87"/>
+      <c r="A20" s="81"/>
+      <c r="B20" s="80"/>
+      <c r="C20" s="81"/>
       <c r="D20" s="57" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="E20" s="75" t="s">
         <v>177</v>
       </c>
       <c r="F20" s="41" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G20" s="65"/>
       <c r="H20" s="65"/>
@@ -2885,14 +2889,14 @@
       <c r="J20" s="65"/>
       <c r="K20" s="65"/>
       <c r="L20" s="66" t="s">
-        <v>269</v>
-      </c>
-      <c r="M20" s="81"/>
+        <v>388</v>
+      </c>
+      <c r="M20" s="85"/>
     </row>
     <row r="21" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A21" s="87"/>
-      <c r="B21" s="84"/>
-      <c r="C21" s="87"/>
+      <c r="A21" s="81"/>
+      <c r="B21" s="80"/>
+      <c r="C21" s="81"/>
       <c r="D21" s="57" t="s">
         <v>177</v>
       </c>
@@ -2900,7 +2904,7 @@
         <v>172</v>
       </c>
       <c r="F21" s="41" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G21" s="65"/>
       <c r="H21" s="65"/>
@@ -2908,19 +2912,19 @@
       <c r="J21" s="65"/>
       <c r="K21" s="65"/>
       <c r="L21" s="66" t="s">
-        <v>269</v>
-      </c>
-      <c r="M21" s="81"/>
+        <v>388</v>
+      </c>
+      <c r="M21" s="85"/>
     </row>
     <row r="22" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A22" s="87"/>
-      <c r="B22" s="84"/>
-      <c r="C22" s="87"/>
+      <c r="A22" s="81"/>
+      <c r="B22" s="80"/>
+      <c r="C22" s="81"/>
       <c r="D22" s="57" t="s">
         <v>178</v>
       </c>
       <c r="F22" s="32" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G22" s="65"/>
       <c r="H22" s="65"/>
@@ -2928,22 +2932,22 @@
       <c r="J22" s="65"/>
       <c r="K22" s="65"/>
       <c r="L22" s="66" t="s">
-        <v>269</v>
-      </c>
-      <c r="M22" s="81"/>
+        <v>388</v>
+      </c>
+      <c r="M22" s="85"/>
     </row>
     <row r="23" spans="1:13" ht="90" x14ac:dyDescent="0.25">
-      <c r="A23" s="87" t="s">
+      <c r="A23" s="81" t="s">
         <v>179</v>
       </c>
-      <c r="B23" s="84" t="s">
-        <v>298</v>
-      </c>
-      <c r="C23" s="84" t="s">
-        <v>240</v>
+      <c r="B23" s="80" t="s">
+        <v>292</v>
+      </c>
+      <c r="C23" s="80" t="s">
+        <v>239</v>
       </c>
       <c r="D23" s="57" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F23" s="36" t="s">
         <v>180</v>
@@ -2954,70 +2958,70 @@
       <c r="J23" s="65"/>
       <c r="K23" s="65"/>
       <c r="L23" s="66" t="s">
-        <v>270</v>
-      </c>
-      <c r="M23" s="80" t="s">
-        <v>270</v>
+        <v>394</v>
+      </c>
+      <c r="M23" s="84" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="150" x14ac:dyDescent="0.25">
-      <c r="A24" s="87"/>
-      <c r="B24" s="84"/>
-      <c r="C24" s="87"/>
+      <c r="A24" s="81"/>
+      <c r="B24" s="80"/>
+      <c r="C24" s="81"/>
       <c r="D24" s="57" t="s">
         <v>18</v>
       </c>
       <c r="E24" s="71" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="F24" s="41" t="s">
-        <v>369</v>
+        <v>356</v>
       </c>
       <c r="G24" s="65"/>
       <c r="H24" s="65"/>
       <c r="I24" s="65" t="s">
-        <v>368</v>
+        <v>355</v>
       </c>
       <c r="J24" s="66" t="s">
-        <v>370</v>
+        <v>357</v>
       </c>
       <c r="K24" s="73"/>
       <c r="L24" s="66" t="s">
-        <v>346</v>
-      </c>
-      <c r="M24" s="81"/>
+        <v>336</v>
+      </c>
+      <c r="M24" s="85"/>
     </row>
     <row r="25" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="87"/>
-      <c r="B25" s="84"/>
-      <c r="C25" s="87"/>
+      <c r="A25" s="81"/>
+      <c r="B25" s="80"/>
+      <c r="C25" s="81"/>
       <c r="D25" s="57" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="E25" s="71" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F25" s="32" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="G25" s="65"/>
       <c r="H25" s="65"/>
       <c r="I25" s="65" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="J25" s="66" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="K25" s="65"/>
       <c r="L25" s="66" t="s">
-        <v>270</v>
-      </c>
-      <c r="M25" s="81"/>
+        <v>394</v>
+      </c>
+      <c r="M25" s="85"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="87"/>
-      <c r="B26" s="84"/>
-      <c r="C26" s="87"/>
+      <c r="A26" s="81"/>
+      <c r="B26" s="80"/>
+      <c r="C26" s="81"/>
       <c r="D26" s="43"/>
       <c r="F26" s="43"/>
       <c r="G26" s="43"/>
@@ -3026,28 +3030,28 @@
       <c r="J26" s="43"/>
       <c r="K26" s="43"/>
       <c r="L26" s="66" t="s">
-        <v>270</v>
-      </c>
-      <c r="M26" s="81"/>
+        <v>394</v>
+      </c>
+      <c r="M26" s="85"/>
     </row>
     <row r="27" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="87" t="s">
+      <c r="A27" s="81" t="s">
         <v>181</v>
       </c>
-      <c r="B27" s="84" t="s">
+      <c r="B27" s="80" t="s">
+        <v>240</v>
+      </c>
+      <c r="C27" s="86" t="s">
         <v>241</v>
-      </c>
-      <c r="C27" s="82" t="s">
-        <v>242</v>
       </c>
       <c r="D27" s="57" t="s">
         <v>182</v>
       </c>
       <c r="E27" s="71" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="F27" s="32" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="G27" s="65"/>
       <c r="H27" s="65"/>
@@ -3055,20 +3059,20 @@
         <v>84</v>
       </c>
       <c r="J27" s="66" t="s">
-        <v>350</v>
+        <v>395</v>
       </c>
       <c r="K27" s="65"/>
       <c r="L27" s="66" t="s">
-        <v>274</v>
-      </c>
-      <c r="M27" s="80" t="s">
-        <v>274</v>
+        <v>396</v>
+      </c>
+      <c r="M27" s="84" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="87"/>
-      <c r="B28" s="84"/>
-      <c r="C28" s="82"/>
+      <c r="A28" s="81"/>
+      <c r="B28" s="80"/>
+      <c r="C28" s="86"/>
       <c r="D28" s="57" t="s">
         <v>183</v>
       </c>
@@ -3084,14 +3088,14 @@
       <c r="J28" s="65"/>
       <c r="K28" s="65"/>
       <c r="L28" s="66" t="s">
-        <v>274</v>
-      </c>
-      <c r="M28" s="81"/>
+        <v>396</v>
+      </c>
+      <c r="M28" s="85"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="87"/>
-      <c r="B29" s="84"/>
-      <c r="C29" s="82"/>
+      <c r="A29" s="81"/>
+      <c r="B29" s="80"/>
+      <c r="C29" s="86"/>
       <c r="D29" s="43"/>
       <c r="F29" s="42"/>
       <c r="G29" s="42"/>
@@ -3100,12 +3104,12 @@
       <c r="J29" s="42"/>
       <c r="K29" s="42"/>
       <c r="L29" s="72" t="s">
-        <v>274</v>
-      </c>
-      <c r="M29" s="81"/>
+        <v>396</v>
+      </c>
+      <c r="M29" s="85"/>
     </row>
     <row r="30" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="87" t="s">
+      <c r="A30" s="81" t="s">
         <v>185</v>
       </c>
       <c r="C30" s="59"/>
@@ -3116,22 +3120,22 @@
       <c r="J30" s="65"/>
       <c r="K30" s="65"/>
       <c r="L30" s="66" t="s">
-        <v>271</v>
-      </c>
-      <c r="M30" s="80" t="s">
-        <v>271</v>
+        <v>397</v>
+      </c>
+      <c r="M30" s="84" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="165" x14ac:dyDescent="0.25">
-      <c r="A31" s="87"/>
-      <c r="B31" s="84" t="s">
+      <c r="A31" s="81"/>
+      <c r="B31" s="80" t="s">
+        <v>242</v>
+      </c>
+      <c r="C31" s="80" t="s">
         <v>243</v>
       </c>
-      <c r="C31" s="84" t="s">
-        <v>244</v>
-      </c>
       <c r="D31" s="43" t="s">
-        <v>359</v>
+        <v>346</v>
       </c>
       <c r="E31" s="71" t="s">
         <v>192</v>
@@ -3145,19 +3149,19 @@
       <c r="J31" s="65"/>
       <c r="K31" s="65"/>
       <c r="L31" s="66" t="s">
-        <v>271</v>
-      </c>
-      <c r="M31" s="81"/>
+        <v>397</v>
+      </c>
+      <c r="M31" s="85"/>
     </row>
     <row r="32" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A32" s="87"/>
-      <c r="B32" s="87"/>
-      <c r="C32" s="84"/>
+      <c r="A32" s="81"/>
+      <c r="B32" s="81"/>
+      <c r="C32" s="80"/>
       <c r="D32" s="57" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F32" s="41" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G32" s="65"/>
       <c r="H32" s="65"/>
@@ -3165,19 +3169,19 @@
       <c r="J32" s="65"/>
       <c r="K32" s="65"/>
       <c r="L32" s="66" t="s">
-        <v>271</v>
-      </c>
-      <c r="M32" s="81"/>
+        <v>397</v>
+      </c>
+      <c r="M32" s="85"/>
     </row>
     <row r="33" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="87"/>
-      <c r="B33" s="87"/>
-      <c r="C33" s="84"/>
+      <c r="A33" s="81"/>
+      <c r="B33" s="81"/>
+      <c r="C33" s="80"/>
       <c r="D33" s="43" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="F33" s="43" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G33" s="43"/>
       <c r="H33" s="43"/>
@@ -3185,22 +3189,22 @@
       <c r="J33" s="43"/>
       <c r="K33" s="43"/>
       <c r="L33" s="66" t="s">
-        <v>271</v>
-      </c>
-      <c r="M33" s="81"/>
+        <v>397</v>
+      </c>
+      <c r="M33" s="85"/>
     </row>
     <row r="34" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="87"/>
-      <c r="B34" s="87"/>
-      <c r="C34" s="84"/>
+      <c r="A34" s="81"/>
+      <c r="B34" s="81"/>
+      <c r="C34" s="80"/>
       <c r="D34" s="43" t="s">
         <v>172</v>
       </c>
       <c r="E34" s="71" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F34" s="43" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G34" s="43"/>
       <c r="H34" s="43"/>
@@ -3208,22 +3212,22 @@
       <c r="J34" s="43"/>
       <c r="K34" s="43"/>
       <c r="L34" s="66" t="s">
-        <v>271</v>
-      </c>
-      <c r="M34" s="81"/>
+        <v>397</v>
+      </c>
+      <c r="M34" s="85"/>
     </row>
     <row r="35" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A35" s="87"/>
-      <c r="B35" s="87"/>
-      <c r="C35" s="84"/>
+      <c r="A35" s="81"/>
+      <c r="B35" s="81"/>
+      <c r="C35" s="80"/>
       <c r="D35" s="43" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E35" s="75" t="s">
         <v>187</v>
       </c>
       <c r="F35" s="43" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G35" s="43"/>
       <c r="H35" s="43"/>
@@ -3231,14 +3235,14 @@
       <c r="J35" s="43"/>
       <c r="K35" s="43"/>
       <c r="L35" s="66" t="s">
-        <v>271</v>
-      </c>
-      <c r="M35" s="81"/>
+        <v>397</v>
+      </c>
+      <c r="M35" s="85"/>
     </row>
     <row r="36" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="87"/>
-      <c r="B36" s="87"/>
-      <c r="C36" s="84"/>
+      <c r="A36" s="81"/>
+      <c r="B36" s="81"/>
+      <c r="C36" s="80"/>
       <c r="F36" s="43"/>
       <c r="G36" s="43"/>
       <c r="H36" s="43"/>
@@ -3246,19 +3250,19 @@
       <c r="J36" s="74"/>
       <c r="K36" s="43"/>
       <c r="L36" s="66" t="s">
-        <v>271</v>
-      </c>
-      <c r="M36" s="81"/>
+        <v>397</v>
+      </c>
+      <c r="M36" s="85"/>
     </row>
     <row r="37" spans="1:13" ht="90" x14ac:dyDescent="0.25">
-      <c r="A37" s="84" t="s">
+      <c r="A37" s="80" t="s">
+        <v>244</v>
+      </c>
+      <c r="B37" s="80" t="s">
         <v>245</v>
       </c>
-      <c r="B37" s="84" t="s">
+      <c r="C37" s="80" t="s">
         <v>246</v>
-      </c>
-      <c r="C37" s="84" t="s">
-        <v>247</v>
       </c>
       <c r="D37" s="57" t="s">
         <v>187</v>
@@ -3267,28 +3271,28 @@
         <v>191</v>
       </c>
       <c r="F37" s="32" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G37" s="65"/>
       <c r="H37" s="65"/>
       <c r="I37" s="75" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="J37" s="74" t="s">
         <v>194</v>
       </c>
       <c r="K37" s="65"/>
       <c r="L37" s="66" t="s">
-        <v>272</v>
-      </c>
-      <c r="M37" s="80" t="s">
-        <v>272</v>
+        <v>267</v>
+      </c>
+      <c r="M37" s="84" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="38" spans="1:13" ht="90" x14ac:dyDescent="0.25">
-      <c r="A38" s="84"/>
-      <c r="B38" s="84"/>
-      <c r="C38" s="87"/>
+      <c r="A38" s="80"/>
+      <c r="B38" s="80"/>
+      <c r="C38" s="81"/>
       <c r="D38" s="57" t="s">
         <v>188</v>
       </c>
@@ -3296,26 +3300,26 @@
         <v>191</v>
       </c>
       <c r="F38" s="32" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="G38" s="65"/>
       <c r="H38" s="65"/>
       <c r="I38" s="65" t="s">
-        <v>367</v>
+        <v>354</v>
       </c>
       <c r="J38" s="66" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="K38" s="65"/>
       <c r="L38" s="66" t="s">
-        <v>272</v>
-      </c>
-      <c r="M38" s="81"/>
+        <v>267</v>
+      </c>
+      <c r="M38" s="85"/>
     </row>
     <row r="39" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A39" s="84"/>
-      <c r="B39" s="84"/>
-      <c r="C39" s="87"/>
+      <c r="A39" s="80"/>
+      <c r="B39" s="80"/>
+      <c r="C39" s="81"/>
       <c r="D39" s="57" t="s">
         <v>189</v>
       </c>
@@ -3323,14 +3327,14 @@
         <v>194</v>
       </c>
       <c r="L39" s="66" t="s">
-        <v>272</v>
-      </c>
-      <c r="M39" s="81"/>
+        <v>267</v>
+      </c>
+      <c r="M39" s="85"/>
     </row>
     <row r="40" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A40" s="84"/>
-      <c r="B40" s="84"/>
-      <c r="C40" s="87"/>
+      <c r="A40" s="80"/>
+      <c r="B40" s="80"/>
+      <c r="C40" s="81"/>
       <c r="D40" s="57" t="s">
         <v>190</v>
       </c>
@@ -3338,14 +3342,14 @@
         <v>195</v>
       </c>
       <c r="L40" s="66" t="s">
-        <v>272</v>
-      </c>
-      <c r="M40" s="81"/>
+        <v>267</v>
+      </c>
+      <c r="M40" s="85"/>
     </row>
     <row r="41" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A41" s="84"/>
-      <c r="B41" s="84"/>
-      <c r="C41" s="87"/>
+      <c r="A41" s="80"/>
+      <c r="B41" s="80"/>
+      <c r="C41" s="81"/>
       <c r="D41" s="57" t="s">
         <v>191</v>
       </c>
@@ -3361,14 +3365,14 @@
       <c r="J41" s="65"/>
       <c r="K41" s="65"/>
       <c r="L41" s="66" t="s">
-        <v>272</v>
-      </c>
-      <c r="M41" s="81"/>
+        <v>267</v>
+      </c>
+      <c r="M41" s="85"/>
     </row>
     <row r="42" spans="1:13" ht="105" x14ac:dyDescent="0.25">
-      <c r="A42" s="84"/>
-      <c r="B42" s="84"/>
-      <c r="C42" s="87"/>
+      <c r="A42" s="80"/>
+      <c r="B42" s="80"/>
+      <c r="C42" s="81"/>
       <c r="D42" s="57" t="s">
         <v>192</v>
       </c>
@@ -3376,26 +3380,26 @@
         <v>189</v>
       </c>
       <c r="F42" s="32" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="G42" s="65"/>
       <c r="H42" s="65"/>
       <c r="I42" s="65" t="s">
-        <v>354</v>
+        <v>342</v>
       </c>
       <c r="J42" s="65" t="s">
-        <v>352</v>
+        <v>398</v>
       </c>
       <c r="K42" s="65"/>
       <c r="L42" s="66" t="s">
-        <v>272</v>
-      </c>
-      <c r="M42" s="81"/>
+        <v>267</v>
+      </c>
+      <c r="M42" s="85"/>
     </row>
     <row r="43" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A43" s="84"/>
-      <c r="B43" s="84"/>
-      <c r="C43" s="87"/>
+      <c r="A43" s="80"/>
+      <c r="B43" s="80"/>
+      <c r="C43" s="81"/>
       <c r="D43" s="57" t="s">
         <v>193</v>
       </c>
@@ -3403,7 +3407,7 @@
         <v>189</v>
       </c>
       <c r="F43" s="41" t="s">
-        <v>355</v>
+        <v>343</v>
       </c>
       <c r="G43" s="65"/>
       <c r="H43" s="65"/>
@@ -3411,9 +3415,9 @@
       <c r="J43" s="65"/>
       <c r="K43" s="65"/>
       <c r="L43" s="66" t="s">
-        <v>356</v>
-      </c>
-      <c r="M43" s="81"/>
+        <v>399</v>
+      </c>
+      <c r="M43" s="85"/>
     </row>
     <row r="44" spans="1:13" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="61"/>
@@ -3432,31 +3436,31 @@
     </row>
     <row r="45" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A45" s="58" t="s">
+        <v>207</v>
+      </c>
+      <c r="B45" s="56" t="s">
+        <v>247</v>
+      </c>
+      <c r="C45" t="s">
+        <v>248</v>
+      </c>
+      <c r="D45" s="57" t="s">
         <v>208</v>
       </c>
-      <c r="B45" s="56" t="s">
-        <v>248</v>
-      </c>
-      <c r="C45" t="s">
-        <v>249</v>
-      </c>
-      <c r="D45" s="57" t="s">
-        <v>209</v>
-      </c>
       <c r="F45" s="40" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I45" s="44" t="s">
-        <v>357</v>
+        <v>344</v>
       </c>
       <c r="J45" s="47" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="L45" s="47" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="M45" s="47" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
@@ -3474,12 +3478,25 @@
   </sheetData>
   <autoFilter ref="A1:M11" xr:uid="{AF9DA58F-D16B-4AC0-BF50-5DB9D427BBB0}"/>
   <mergeCells count="36">
-    <mergeCell ref="B31:B36"/>
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="C23:C26"/>
-    <mergeCell ref="C31:C36"/>
-    <mergeCell ref="B37:B43"/>
-    <mergeCell ref="C37:C43"/>
+    <mergeCell ref="M27:M29"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="M30:M36"/>
+    <mergeCell ref="M37:M43"/>
+    <mergeCell ref="M2:M4"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="M15:M18"/>
+    <mergeCell ref="M19:M22"/>
+    <mergeCell ref="M23:M26"/>
+    <mergeCell ref="M7:M9"/>
+    <mergeCell ref="A37:A43"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A30:A36"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="A7:A10"/>
     <mergeCell ref="B19:B22"/>
     <mergeCell ref="C19:C22"/>
     <mergeCell ref="B27:B29"/>
@@ -3491,79 +3508,66 @@
     <mergeCell ref="C15:C18"/>
     <mergeCell ref="B7:B10"/>
     <mergeCell ref="C7:C10"/>
-    <mergeCell ref="A37:A43"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A30:A36"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="A23:A26"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="M27:M29"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="M30:M36"/>
-    <mergeCell ref="M37:M43"/>
-    <mergeCell ref="M2:M4"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="M15:M18"/>
-    <mergeCell ref="M19:M22"/>
-    <mergeCell ref="M23:M26"/>
-    <mergeCell ref="M7:M9"/>
+    <mergeCell ref="B31:B36"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="C23:C26"/>
+    <mergeCell ref="C31:C36"/>
+    <mergeCell ref="B37:B43"/>
+    <mergeCell ref="C37:C43"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="M2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="M5" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="M15" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="M19" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="M23" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="M27" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="M30" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="M2" r:id="rId1" display="https://www.nuplazid.com/about-pd-related-hallucinations-and-delusions" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="M5" r:id="rId2" display="https://www.nuplazid.com/about-nuplazid" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="M15" r:id="rId3" display="https://www.nuplazid.com/about-pd-related-hallucinations-and-delusions" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="M19" r:id="rId4" display="https://www.nuplazid.com/about-pd-related-hallucinations-and-delusions" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="M23" r:id="rId5" display="https://www.nuplazid.com/contact-us" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="M27" r:id="rId6" display="https://www.nuplazid.com/" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="M30" r:id="rId7" display="https://www.nuplazid.com/frequently-asked-questions" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
     <hyperlink ref="M37" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
     <hyperlink ref="M45" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="M7" r:id="rId10" xr:uid="{4E0AA375-15F4-4928-90C2-BD2E1EC884AB}"/>
-    <hyperlink ref="M11" r:id="rId11" xr:uid="{E29A4A0F-3BAA-48B7-B469-0201A35D0289}"/>
-    <hyperlink ref="L2" r:id="rId12" xr:uid="{4495FBCE-2467-41F6-83E7-F374F4E5ACAB}"/>
-    <hyperlink ref="L3" r:id="rId13" xr:uid="{75D08F74-8D31-42CD-9DEA-EB3C155B058E}"/>
-    <hyperlink ref="L4" r:id="rId14" xr:uid="{24EA9806-C569-4951-9504-2FBC155A4446}"/>
-    <hyperlink ref="L5" r:id="rId15" xr:uid="{B2640193-23B3-4108-9FF7-9A01FDC2AAC4}"/>
-    <hyperlink ref="L6" r:id="rId16" xr:uid="{4F3333E6-215D-49C2-B203-B676F10F4601}"/>
-    <hyperlink ref="L7" r:id="rId17" location="doctor-discussion-guide" xr:uid="{6990F5E4-6310-4A17-B71D-FAB7F93D11D5}"/>
-    <hyperlink ref="L8" r:id="rId18" xr:uid="{04233E34-718D-4FD2-B60C-142BE08A93EF}"/>
-    <hyperlink ref="L9" r:id="rId19" xr:uid="{F743F447-69D3-44E6-A171-3A5CDB40140F}"/>
-    <hyperlink ref="L11" r:id="rId20" xr:uid="{C74AC20C-A05F-45CF-9703-88D2A8AD3FA3}"/>
-    <hyperlink ref="L15" r:id="rId21" xr:uid="{703ADCC4-AC29-4435-B772-0DCE375018AF}"/>
-    <hyperlink ref="L16" r:id="rId22" xr:uid="{56E5B06F-C1CB-4447-8CED-900F308AED36}"/>
-    <hyperlink ref="L17" r:id="rId23" xr:uid="{166ECE66-73AB-4DBD-9A5D-F709522CA032}"/>
-    <hyperlink ref="L18" r:id="rId24" xr:uid="{A14AEF75-D71E-40B3-AB31-69EA08BA9BBE}"/>
-    <hyperlink ref="L19" r:id="rId25" xr:uid="{78C775ED-2F8D-4D3F-9F9B-5A6828934667}"/>
-    <hyperlink ref="L20" r:id="rId26" xr:uid="{CD1EEE7E-824A-4F08-B602-3ED6D1A8389D}"/>
-    <hyperlink ref="L21" r:id="rId27" xr:uid="{8640B23A-0564-4B4D-B884-8335E9443CE5}"/>
-    <hyperlink ref="L22" r:id="rId28" xr:uid="{D87217C7-4000-4C28-BE83-BC0F9F5A6DAB}"/>
-    <hyperlink ref="L23" r:id="rId29" xr:uid="{F2924CF2-7E96-423B-AB36-C38EAA415835}"/>
+    <hyperlink ref="M7" r:id="rId10" display="https://www.nuplazid.com/talking-to-your-healthcare-provider" xr:uid="{4E0AA375-15F4-4928-90C2-BD2E1EC884AB}"/>
+    <hyperlink ref="M11" r:id="rId11" display="https://www.nuplazid.com/personal-stories" xr:uid="{E29A4A0F-3BAA-48B7-B469-0201A35D0289}"/>
+    <hyperlink ref="L2" r:id="rId12" display="https://www.nuplazid.com/about-pd-related-hallucinations-and-delusions" xr:uid="{4495FBCE-2467-41F6-83E7-F374F4E5ACAB}"/>
+    <hyperlink ref="L3" r:id="rId13" display="https://www.nuplazid.com/about-pd-related-hallucinations-and-delusions" xr:uid="{75D08F74-8D31-42CD-9DEA-EB3C155B058E}"/>
+    <hyperlink ref="L4" r:id="rId14" display="https://www.nuplazid.com/about-pd-related-hallucinations-and-delusions" xr:uid="{24EA9806-C569-4951-9504-2FBC155A4446}"/>
+    <hyperlink ref="L5" r:id="rId15" display="https://www.nuplazid.com/about-nuplazid" xr:uid="{B2640193-23B3-4108-9FF7-9A01FDC2AAC4}"/>
+    <hyperlink ref="L6" r:id="rId16" display="https://www.nuplazid.com/about-nuplazid" xr:uid="{4F3333E6-215D-49C2-B203-B676F10F4601}"/>
+    <hyperlink ref="L7" r:id="rId17" location="doctor-discussion-guide" display="https://www.nuplazid.com/talking-to-your-healthcare-provider#doctor-discussion-guide" xr:uid="{6990F5E4-6310-4A17-B71D-FAB7F93D11D5}"/>
+    <hyperlink ref="L8" r:id="rId18" display="https://www.nuplazid.com/talking-to-your-healthcare-provider" xr:uid="{04233E34-718D-4FD2-B60C-142BE08A93EF}"/>
+    <hyperlink ref="L9" r:id="rId19" display="https://www.nuplazid.com/talking-to-your-healthcare-provider" xr:uid="{F743F447-69D3-44E6-A171-3A5CDB40140F}"/>
+    <hyperlink ref="L11" r:id="rId20" display="https://www.nuplazid.com/personal-stories" xr:uid="{C74AC20C-A05F-45CF-9703-88D2A8AD3FA3}"/>
+    <hyperlink ref="L15" r:id="rId21" display="https://www.nuplazid.com/about-pd-related-hallucinations-and-delusions" xr:uid="{703ADCC4-AC29-4435-B772-0DCE375018AF}"/>
+    <hyperlink ref="L16" r:id="rId22" display="https://www.nuplazid.com/about-pd-related-hallucinations-and-delusions" xr:uid="{56E5B06F-C1CB-4447-8CED-900F308AED36}"/>
+    <hyperlink ref="L17" r:id="rId23" display="https://www.nuplazid.com/about-pd-related-hallucinations-and-delusions" xr:uid="{166ECE66-73AB-4DBD-9A5D-F709522CA032}"/>
+    <hyperlink ref="L18" r:id="rId24" display="https://www.nuplazid.com/about-pd-related-hallucinations-and-delusions" xr:uid="{A14AEF75-D71E-40B3-AB31-69EA08BA9BBE}"/>
+    <hyperlink ref="L19" r:id="rId25" display="https://www.nuplazid.com/about-pd-related-hallucinations-and-delusions" xr:uid="{78C775ED-2F8D-4D3F-9F9B-5A6828934667}"/>
+    <hyperlink ref="L20" r:id="rId26" display="https://www.nuplazid.com/about-pd-related-hallucinations-and-delusions" xr:uid="{CD1EEE7E-824A-4F08-B602-3ED6D1A8389D}"/>
+    <hyperlink ref="L21" r:id="rId27" display="https://www.nuplazid.com/about-pd-related-hallucinations-and-delusions" xr:uid="{8640B23A-0564-4B4D-B884-8335E9443CE5}"/>
+    <hyperlink ref="L22" r:id="rId28" display="https://www.nuplazid.com/about-pd-related-hallucinations-and-delusions" xr:uid="{D87217C7-4000-4C28-BE83-BC0F9F5A6DAB}"/>
+    <hyperlink ref="L23" r:id="rId29" display="https://www.nuplazid.com/contact-us" xr:uid="{F2924CF2-7E96-423B-AB36-C38EAA415835}"/>
     <hyperlink ref="L24" r:id="rId30" xr:uid="{84E37BCE-66E8-43B6-BA52-14CEF07AAF3A}"/>
-    <hyperlink ref="L25" r:id="rId31" xr:uid="{944BB771-896B-4B5A-AAA4-5ACF531C32F2}"/>
-    <hyperlink ref="L26" r:id="rId32" xr:uid="{66B589F6-CBA2-4884-914B-A319C462A82F}"/>
-    <hyperlink ref="L27" r:id="rId33" xr:uid="{0D5116ED-D17A-493B-92F8-FC87B606E03E}"/>
-    <hyperlink ref="L28" r:id="rId34" xr:uid="{20DF50FF-9FE4-4468-9A0E-F46415473F00}"/>
-    <hyperlink ref="L29" r:id="rId35" xr:uid="{59F18694-A2C4-4EAC-B6DE-07FB3F72DBE8}"/>
-    <hyperlink ref="L30" r:id="rId36" xr:uid="{33CB72D2-6EF9-4BA7-AE07-0128731B388B}"/>
-    <hyperlink ref="L31" r:id="rId37" xr:uid="{A9665C27-9EE8-463C-9900-5BA01BC458F1}"/>
-    <hyperlink ref="L32" r:id="rId38" xr:uid="{D2A3C4A8-DC41-4197-A08E-0B333704F640}"/>
-    <hyperlink ref="L33" r:id="rId39" xr:uid="{6B467D41-7205-4A17-BD9B-3069472F3D20}"/>
-    <hyperlink ref="L34" r:id="rId40" xr:uid="{2DAD216E-8CE3-4828-AE30-B57254452928}"/>
-    <hyperlink ref="L35" r:id="rId41" xr:uid="{7ADE210C-D0C7-47F2-958D-6D2416CE6200}"/>
-    <hyperlink ref="L36" r:id="rId42" xr:uid="{B3CCBC56-1DC9-4339-86D0-D43726FFFF53}"/>
+    <hyperlink ref="L25" r:id="rId31" display="https://www.nuplazid.com/contact-us" xr:uid="{944BB771-896B-4B5A-AAA4-5ACF531C32F2}"/>
+    <hyperlink ref="L26" r:id="rId32" display="https://www.nuplazid.com/contact-us" xr:uid="{66B589F6-CBA2-4884-914B-A319C462A82F}"/>
+    <hyperlink ref="L27" r:id="rId33" display="https://www.nuplazid.com/" xr:uid="{0D5116ED-D17A-493B-92F8-FC87B606E03E}"/>
+    <hyperlink ref="L28" r:id="rId34" display="https://www.nuplazid.com/" xr:uid="{20DF50FF-9FE4-4468-9A0E-F46415473F00}"/>
+    <hyperlink ref="L29" r:id="rId35" display="https://www.nuplazid.com/" xr:uid="{59F18694-A2C4-4EAC-B6DE-07FB3F72DBE8}"/>
+    <hyperlink ref="L30" r:id="rId36" display="https://www.nuplazid.com/frequently-asked-questions" xr:uid="{33CB72D2-6EF9-4BA7-AE07-0128731B388B}"/>
+    <hyperlink ref="L31" r:id="rId37" display="https://www.nuplazid.com/frequently-asked-questions" xr:uid="{A9665C27-9EE8-463C-9900-5BA01BC458F1}"/>
+    <hyperlink ref="L32" r:id="rId38" display="https://www.nuplazid.com/frequently-asked-questions" xr:uid="{D2A3C4A8-DC41-4197-A08E-0B333704F640}"/>
+    <hyperlink ref="L33" r:id="rId39" display="https://www.nuplazid.com/frequently-asked-questions" xr:uid="{6B467D41-7205-4A17-BD9B-3069472F3D20}"/>
+    <hyperlink ref="L34" r:id="rId40" display="https://www.nuplazid.com/frequently-asked-questions" xr:uid="{2DAD216E-8CE3-4828-AE30-B57254452928}"/>
+    <hyperlink ref="L35" r:id="rId41" display="https://www.nuplazid.com/frequently-asked-questions" xr:uid="{7ADE210C-D0C7-47F2-958D-6D2416CE6200}"/>
+    <hyperlink ref="L36" r:id="rId42" display="https://www.nuplazid.com/frequently-asked-questions" xr:uid="{B3CCBC56-1DC9-4339-86D0-D43726FFFF53}"/>
     <hyperlink ref="L37" r:id="rId43" xr:uid="{F999A535-E24F-47BE-B8D6-0DD3FA62F0E6}"/>
     <hyperlink ref="L38" r:id="rId44" xr:uid="{5C6EA840-F6F3-47B4-BF56-FECCA091D866}"/>
     <hyperlink ref="L39:L43" r:id="rId45" display="https://www.acadiaconnect.com/patient-caregivers/insurance-coverage-lookup" xr:uid="{6A2C5DF3-B491-4DBD-A8C6-597470EBE2D7}"/>
     <hyperlink ref="L45" r:id="rId46" xr:uid="{73DAF1B1-3B43-4FD4-9161-2EE6FA67CE88}"/>
     <hyperlink ref="J9" r:id="rId47" display="https://www.nuplazid.com/pdf/pd-related-hallucinations-delusions-fact-sheet.pdf" xr:uid="{26691ED7-EFDE-4DB4-A370-0B417C2828BD}"/>
-    <hyperlink ref="H11" r:id="rId48" xr:uid="{99732C09-FF1A-4F23-A20A-36D79579CECB}"/>
+    <hyperlink ref="H11" r:id="rId48" display="https://www.nuplazid.com/personal-stories" xr:uid="{99732C09-FF1A-4F23-A20A-36D79579CECB}"/>
     <hyperlink ref="J25" r:id="rId49" xr:uid="{A99F0323-0C4D-44CA-9106-FDC6B4963B84}"/>
-    <hyperlink ref="J27" r:id="rId50" xr:uid="{A989EB85-40E9-492E-BB74-5DDDBB25F0A2}"/>
+    <hyperlink ref="J27" r:id="rId50" display="https://www.nuplazid.com/pdf/nuplazid-prescribing-information.pdf" xr:uid="{A989EB85-40E9-492E-BB74-5DDDBB25F0A2}"/>
     <hyperlink ref="J38" r:id="rId51" xr:uid="{83C6FC6F-21F5-414F-B067-89E122F910EA}"/>
-    <hyperlink ref="L43" r:id="rId52" location="sign-up-stay-informed" xr:uid="{52D7B43E-E1C5-452E-800C-55136E47BFD5}"/>
+    <hyperlink ref="L43" r:id="rId52" location="sign-up-stay-informed" display="https://www.nuplazid.com/support-and-resources#sign-up-stay-informed" xr:uid="{52D7B43E-E1C5-452E-800C-55136E47BFD5}"/>
     <hyperlink ref="J45" r:id="rId53" xr:uid="{48157E4F-981F-4BB1-B37C-E75C17E5971B}"/>
     <hyperlink ref="J37" r:id="rId54" xr:uid="{1921296C-A925-4D5C-BCA9-18283C908491}"/>
     <hyperlink ref="J24" r:id="rId55" location="isi" xr:uid="{E9690C20-702A-4696-ABD4-A182611AE913}"/>
@@ -4624,9 +4628,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I68" sqref="I68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4646,54 +4650,54 @@
         <v>1</v>
       </c>
       <c r="B1" s="48" t="s">
+        <v>224</v>
+      </c>
+      <c r="C1" s="48" t="s">
         <v>225</v>
-      </c>
-      <c r="C1" s="48" t="s">
-        <v>226</v>
       </c>
       <c r="D1" s="51" t="s">
         <v>197</v>
       </c>
       <c r="E1" s="51" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="F1" s="51" t="s">
         <v>12</v>
       </c>
       <c r="G1" s="45" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="H1" s="45" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="I1" s="45" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="J1" s="45" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="K1" s="45" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="L1" s="45" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="M1" s="45" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="91" t="s">
+      <c r="A2" s="94" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="88" t="s">
-        <v>363</v>
+        <v>350</v>
       </c>
       <c r="C2" s="88" t="s">
-        <v>362</v>
+        <v>349</v>
       </c>
       <c r="D2" s="53" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="E2" s="68" t="s">
         <v>21</v>
@@ -4714,23 +4718,23 @@
       </c>
     </row>
     <row r="3" spans="1:13" s="44" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="92"/>
-      <c r="B3" s="93"/>
-      <c r="C3" s="93"/>
+      <c r="A3" s="95"/>
+      <c r="B3" s="96"/>
+      <c r="C3" s="96"/>
       <c r="D3" s="76" t="s">
-        <v>360</v>
+        <v>347</v>
       </c>
       <c r="E3" s="76"/>
       <c r="F3" s="78" t="s">
-        <v>365</v>
+        <v>352</v>
       </c>
       <c r="G3" s="75"/>
       <c r="H3" s="75"/>
       <c r="I3" s="75" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="J3" s="79" t="s">
-        <v>361</v>
+        <v>348</v>
       </c>
       <c r="K3" s="75"/>
       <c r="L3" s="79"/>
@@ -4741,19 +4745,19 @@
         <v>16</v>
       </c>
       <c r="B4" s="90" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="C4" s="90" t="s">
-        <v>286</v>
-      </c>
-      <c r="D4" s="84" t="s">
+        <v>280</v>
+      </c>
+      <c r="D4" s="80" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="84" t="s">
+      <c r="E4" s="80" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="84" t="s">
-        <v>276</v>
+      <c r="F4" s="80" t="s">
+        <v>270</v>
       </c>
       <c r="G4" s="65"/>
       <c r="H4" s="65"/>
@@ -4761,79 +4765,79 @@
       <c r="J4" s="66"/>
       <c r="K4" s="65"/>
       <c r="L4" s="66" t="s">
-        <v>275</v>
-      </c>
-      <c r="M4" s="80" t="s">
-        <v>275</v>
+        <v>269</v>
+      </c>
+      <c r="M4" s="84" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="89"/>
       <c r="B5" s="90"/>
       <c r="C5" s="90"/>
-      <c r="D5" s="84"/>
-      <c r="E5" s="84"/>
-      <c r="F5" s="84"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="80"/>
       <c r="G5" s="65"/>
       <c r="H5" s="65"/>
       <c r="I5" s="65"/>
       <c r="J5" s="66"/>
       <c r="K5" s="65"/>
       <c r="L5" s="66" t="s">
-        <v>275</v>
-      </c>
-      <c r="M5" s="81"/>
+        <v>269</v>
+      </c>
+      <c r="M5" s="85"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="89"/>
       <c r="B6" s="90"/>
       <c r="C6" s="90"/>
-      <c r="D6" s="84"/>
-      <c r="E6" s="84"/>
-      <c r="F6" s="84"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="80"/>
+      <c r="F6" s="80"/>
       <c r="G6" s="65"/>
       <c r="H6" s="65"/>
       <c r="I6" s="65"/>
       <c r="J6" s="66"/>
       <c r="K6" s="65"/>
       <c r="L6" s="66" t="s">
-        <v>275</v>
-      </c>
-      <c r="M6" s="81"/>
+        <v>269</v>
+      </c>
+      <c r="M6" s="85"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="89"/>
       <c r="B7" s="90"/>
       <c r="C7" s="90"/>
-      <c r="D7" s="84"/>
-      <c r="E7" s="84"/>
-      <c r="F7" s="84"/>
+      <c r="D7" s="80"/>
+      <c r="E7" s="80"/>
+      <c r="F7" s="80"/>
       <c r="G7" s="65"/>
       <c r="H7" s="65"/>
       <c r="I7" s="65"/>
       <c r="J7" s="66"/>
       <c r="K7" s="65"/>
       <c r="L7" s="66" t="s">
-        <v>275</v>
-      </c>
-      <c r="M7" s="81"/>
+        <v>269</v>
+      </c>
+      <c r="M7" s="85"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="89"/>
       <c r="B8" s="90"/>
       <c r="C8" s="90"/>
-      <c r="D8" s="84"/>
-      <c r="E8" s="84"/>
-      <c r="F8" s="84"/>
+      <c r="D8" s="80"/>
+      <c r="E8" s="80"/>
+      <c r="F8" s="80"/>
       <c r="G8" s="65"/>
       <c r="H8" s="65"/>
       <c r="I8" s="65"/>
       <c r="J8" s="66"/>
       <c r="K8" s="65"/>
       <c r="L8" s="66" t="s">
-        <v>275</v>
-      </c>
-      <c r="M8" s="81"/>
+        <v>269</v>
+      </c>
+      <c r="M8" s="85"/>
     </row>
     <row r="9" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A9" s="89"/>
@@ -4844,15 +4848,15 @@
       </c>
       <c r="E9" s="67"/>
       <c r="F9" s="50" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="G9" s="65"/>
       <c r="H9" s="65"/>
       <c r="I9" s="65" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="J9" s="65" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="K9" s="65"/>
       <c r="L9" s="69"/>
@@ -4860,71 +4864,71 @@
     </row>
     <row r="10" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="89" t="s">
-        <v>213</v>
-      </c>
-      <c r="B10" s="95" t="s">
-        <v>373</v>
+        <v>212</v>
+      </c>
+      <c r="B10" s="91" t="s">
+        <v>360</v>
       </c>
       <c r="C10" s="90" t="s">
-        <v>290</v>
-      </c>
-      <c r="D10" s="84" t="s">
+        <v>284</v>
+      </c>
+      <c r="D10" s="80" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="84" t="s">
+      <c r="E10" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="84" t="s">
+      <c r="F10" s="80" t="s">
         <v>32</v>
       </c>
-      <c r="G10" s="95"/>
-      <c r="H10" s="95"/>
-      <c r="I10" s="95"/>
-      <c r="J10" s="96"/>
-      <c r="K10" s="95"/>
-      <c r="L10" s="94" t="s">
+      <c r="G10" s="91"/>
+      <c r="H10" s="91"/>
+      <c r="I10" s="91"/>
+      <c r="J10" s="93"/>
+      <c r="K10" s="91"/>
+      <c r="L10" s="92" t="s">
         <v>33</v>
       </c>
-      <c r="M10" s="80" t="s">
+      <c r="M10" s="84" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="89"/>
-      <c r="B11" s="84"/>
+      <c r="B11" s="80"/>
       <c r="C11" s="90"/>
-      <c r="D11" s="84"/>
-      <c r="E11" s="84"/>
-      <c r="F11" s="84"/>
-      <c r="G11" s="95"/>
-      <c r="H11" s="95"/>
-      <c r="I11" s="95"/>
-      <c r="J11" s="96"/>
-      <c r="K11" s="95"/>
-      <c r="L11" s="94"/>
-      <c r="M11" s="81"/>
+      <c r="D11" s="80"/>
+      <c r="E11" s="80"/>
+      <c r="F11" s="80"/>
+      <c r="G11" s="91"/>
+      <c r="H11" s="91"/>
+      <c r="I11" s="91"/>
+      <c r="J11" s="93"/>
+      <c r="K11" s="91"/>
+      <c r="L11" s="92"/>
+      <c r="M11" s="85"/>
     </row>
     <row r="12" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="89"/>
-      <c r="B12" s="84"/>
+      <c r="B12" s="80"/>
       <c r="C12" s="90"/>
-      <c r="D12" s="84"/>
-      <c r="E12" s="84"/>
-      <c r="F12" s="84"/>
-      <c r="G12" s="95"/>
-      <c r="H12" s="95"/>
-      <c r="I12" s="95"/>
-      <c r="J12" s="96"/>
-      <c r="K12" s="95"/>
-      <c r="L12" s="94"/>
-      <c r="M12" s="81"/>
+      <c r="D12" s="80"/>
+      <c r="E12" s="80"/>
+      <c r="F12" s="80"/>
+      <c r="G12" s="91"/>
+      <c r="H12" s="91"/>
+      <c r="I12" s="91"/>
+      <c r="J12" s="93"/>
+      <c r="K12" s="91"/>
+      <c r="L12" s="92"/>
+      <c r="M12" s="85"/>
     </row>
     <row r="13" spans="1:13" ht="90" x14ac:dyDescent="0.25">
       <c r="A13" s="89"/>
-      <c r="B13" s="84"/>
+      <c r="B13" s="80"/>
       <c r="C13" s="90"/>
       <c r="D13" s="50" t="s">
-        <v>389</v>
+        <v>376</v>
       </c>
       <c r="E13" s="67" t="s">
         <v>29</v>
@@ -4938,13 +4942,13 @@
       <c r="J13" s="66"/>
       <c r="K13" s="65"/>
       <c r="L13" s="66" t="s">
-        <v>378</v>
-      </c>
-      <c r="M13" s="81"/>
+        <v>365</v>
+      </c>
+      <c r="M13" s="85"/>
     </row>
     <row r="14" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="89"/>
-      <c r="B14" s="84"/>
+      <c r="B14" s="80"/>
       <c r="C14" s="90"/>
       <c r="D14" s="50" t="s">
         <v>29</v>
@@ -4953,7 +4957,7 @@
         <v>46</v>
       </c>
       <c r="F14" s="50" t="s">
-        <v>376</v>
+        <v>363</v>
       </c>
       <c r="G14" s="65"/>
       <c r="H14" s="65"/>
@@ -4961,13 +4965,13 @@
       <c r="J14" s="66"/>
       <c r="K14" s="65"/>
       <c r="L14" s="66" t="s">
-        <v>378</v>
-      </c>
-      <c r="M14" s="81"/>
+        <v>365</v>
+      </c>
+      <c r="M14" s="85"/>
     </row>
     <row r="15" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="89"/>
-      <c r="B15" s="84"/>
+      <c r="B15" s="80"/>
       <c r="C15" s="90"/>
       <c r="D15" s="50"/>
       <c r="E15" s="67"/>
@@ -4980,11 +4984,11 @@
       <c r="L15" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="M15" s="81"/>
+      <c r="M15" s="85"/>
     </row>
     <row r="16" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="89"/>
-      <c r="B16" s="84"/>
+      <c r="B16" s="80"/>
       <c r="C16" s="90"/>
       <c r="D16" s="50"/>
       <c r="E16" s="67"/>
@@ -4997,17 +5001,17 @@
       <c r="L16" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="M16" s="81"/>
+      <c r="M16" s="85"/>
     </row>
     <row r="17" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="89" t="s">
         <v>41</v>
       </c>
       <c r="B17" s="90" t="s">
+        <v>249</v>
+      </c>
+      <c r="C17" s="90" t="s">
         <v>250</v>
-      </c>
-      <c r="C17" s="90" t="s">
-        <v>251</v>
       </c>
       <c r="D17" s="50"/>
       <c r="E17" s="67"/>
@@ -5022,7 +5026,7 @@
       <c r="L17" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="M17" s="80" t="s">
+      <c r="M17" s="84" t="s">
         <v>33</v>
       </c>
     </row>
@@ -5043,7 +5047,7 @@
       <c r="L18" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="M18" s="80"/>
+      <c r="M18" s="84"/>
     </row>
     <row r="19" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="89"/>
@@ -5052,7 +5056,7 @@
       <c r="D19" s="50"/>
       <c r="E19" s="67"/>
       <c r="F19" s="50" t="s">
-        <v>375</v>
+        <v>362</v>
       </c>
       <c r="G19" s="42"/>
       <c r="H19" s="42"/>
@@ -5060,9 +5064,9 @@
       <c r="J19" s="66"/>
       <c r="K19" s="42"/>
       <c r="L19" s="66" t="s">
-        <v>379</v>
-      </c>
-      <c r="M19" s="80"/>
+        <v>366</v>
+      </c>
+      <c r="M19" s="84"/>
     </row>
     <row r="20" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="89"/>
@@ -5079,7 +5083,7 @@
       <c r="L20" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="M20" s="80"/>
+      <c r="M20" s="84"/>
     </row>
     <row r="21" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="89"/>
@@ -5100,7 +5104,7 @@
       <c r="L21" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="M21" s="80"/>
+      <c r="M21" s="84"/>
     </row>
     <row r="22" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A22" s="89"/>
@@ -5110,10 +5114,10 @@
         <v>46</v>
       </c>
       <c r="E22" s="73" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F22" s="50" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="G22" s="65"/>
       <c r="H22" s="65"/>
@@ -5121,9 +5125,9 @@
       <c r="J22" s="66"/>
       <c r="K22" s="65"/>
       <c r="L22" s="66" t="s">
-        <v>380</v>
-      </c>
-      <c r="M22" s="80"/>
+        <v>367</v>
+      </c>
+      <c r="M22" s="84"/>
     </row>
     <row r="23" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="89"/>
@@ -5139,17 +5143,17 @@
       <c r="L23" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="M23" s="80"/>
+      <c r="M23" s="84"/>
     </row>
     <row r="24" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="89"/>
       <c r="B24" s="90"/>
       <c r="C24" s="90"/>
       <c r="D24" s="73" t="s">
+        <v>213</v>
+      </c>
+      <c r="E24" s="67" t="s">
         <v>214</v>
-      </c>
-      <c r="E24" s="67" t="s">
-        <v>215</v>
       </c>
       <c r="F24" s="50" t="s">
         <v>55</v>
@@ -5160,16 +5164,16 @@
       <c r="J24" s="66"/>
       <c r="K24" s="65"/>
       <c r="L24" s="66" t="s">
-        <v>380</v>
-      </c>
-      <c r="M24" s="80"/>
+        <v>367</v>
+      </c>
+      <c r="M24" s="84"/>
     </row>
     <row r="25" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="89"/>
       <c r="B25" s="90"/>
       <c r="C25" s="90"/>
       <c r="D25" s="50" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E25" s="77" t="s">
         <v>44</v>
@@ -5183,19 +5187,19 @@
       <c r="J25" s="66"/>
       <c r="K25" s="65"/>
       <c r="L25" s="66" t="s">
-        <v>380</v>
-      </c>
-      <c r="M25" s="80"/>
+        <v>367</v>
+      </c>
+      <c r="M25" s="84"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="90" t="s">
         <v>58</v>
       </c>
       <c r="B26" s="90" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C26" s="90" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="D26" s="44"/>
       <c r="F26" s="50"/>
@@ -5205,7 +5209,7 @@
       <c r="J26" s="66"/>
       <c r="K26" s="65"/>
       <c r="L26" s="66"/>
-      <c r="M26" s="80" t="s">
+      <c r="M26" s="84" t="s">
         <v>33</v>
       </c>
     </row>
@@ -5217,10 +5221,10 @@
         <v>58</v>
       </c>
       <c r="E27" s="67" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F27" s="73" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="G27" s="43"/>
       <c r="H27" s="43"/>
@@ -5230,7 +5234,7 @@
       <c r="L27" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="M27" s="81"/>
+      <c r="M27" s="85"/>
     </row>
     <row r="28" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="90"/>
@@ -5246,14 +5250,14 @@
       <c r="L28" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="M28" s="81"/>
+      <c r="M28" s="85"/>
     </row>
     <row r="29" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" s="90"/>
       <c r="B29" s="90"/>
       <c r="C29" s="90"/>
       <c r="D29" s="50" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E29" s="67"/>
       <c r="F29" s="50" t="s">
@@ -5265,22 +5269,22 @@
       <c r="J29" s="66"/>
       <c r="K29" s="65"/>
       <c r="L29" s="66" t="s">
-        <v>378</v>
-      </c>
-      <c r="M29" s="81"/>
+        <v>365</v>
+      </c>
+      <c r="M29" s="85"/>
     </row>
     <row r="30" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="90" t="s">
         <v>66</v>
       </c>
       <c r="B30" s="90" t="s">
+        <v>251</v>
+      </c>
+      <c r="C30" s="90" t="s">
         <v>252</v>
       </c>
-      <c r="C30" s="90" t="s">
-        <v>253</v>
-      </c>
       <c r="D30" s="50" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E30" s="67"/>
       <c r="F30" s="50" t="s">
@@ -5292,10 +5296,10 @@
       <c r="J30" s="66"/>
       <c r="K30" s="42"/>
       <c r="L30" s="66" t="s">
-        <v>277</v>
-      </c>
-      <c r="M30" s="80" t="s">
-        <v>277</v>
+        <v>271</v>
+      </c>
+      <c r="M30" s="84" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="30" x14ac:dyDescent="0.25">
@@ -5317,9 +5321,9 @@
       <c r="J31" s="66"/>
       <c r="K31" s="65"/>
       <c r="L31" s="66" t="s">
-        <v>277</v>
-      </c>
-      <c r="M31" s="81"/>
+        <v>271</v>
+      </c>
+      <c r="M31" s="85"/>
     </row>
     <row r="32" spans="1:13" ht="195" x14ac:dyDescent="0.25">
       <c r="A32" s="90"/>
@@ -5332,19 +5336,19 @@
         <v>107</v>
       </c>
       <c r="F32" s="50" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="G32" s="65" t="s">
-        <v>388</v>
+        <v>375</v>
       </c>
       <c r="H32" s="65"/>
       <c r="I32" s="65"/>
       <c r="J32" s="66"/>
       <c r="K32" s="65"/>
       <c r="L32" s="66" t="s">
-        <v>381</v>
-      </c>
-      <c r="M32" s="81"/>
+        <v>368</v>
+      </c>
+      <c r="M32" s="85"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="90"/>
@@ -5359,7 +5363,7 @@
       <c r="J33" s="66"/>
       <c r="K33" s="65"/>
       <c r="L33" s="66"/>
-      <c r="M33" s="81"/>
+      <c r="M33" s="85"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="90"/>
@@ -5374,7 +5378,7 @@
       <c r="J34" s="66"/>
       <c r="K34" s="43"/>
       <c r="L34" s="66"/>
-      <c r="M34" s="81"/>
+      <c r="M34" s="85"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="90"/>
@@ -5389,7 +5393,7 @@
       <c r="J35" s="66"/>
       <c r="K35" s="43"/>
       <c r="L35" s="66"/>
-      <c r="M35" s="81"/>
+      <c r="M35" s="85"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="90"/>
@@ -5404,7 +5408,7 @@
       <c r="J36" s="66"/>
       <c r="K36" s="43"/>
       <c r="L36" s="66"/>
-      <c r="M36" s="81"/>
+      <c r="M36" s="85"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="90"/>
@@ -5418,26 +5422,26 @@
       <c r="J37" s="66"/>
       <c r="K37" s="43"/>
       <c r="L37" s="66"/>
-      <c r="M37" s="81"/>
+      <c r="M37" s="85"/>
     </row>
     <row r="38" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A38" s="90" t="s">
         <v>77</v>
       </c>
       <c r="B38" s="90" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="C38" s="90" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D38" s="50" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E38" s="67" t="s">
         <v>107</v>
       </c>
       <c r="F38" s="50" t="s">
-        <v>374</v>
+        <v>361</v>
       </c>
       <c r="G38" s="65"/>
       <c r="H38" s="66" t="s">
@@ -5446,9 +5450,11 @@
       <c r="I38" s="65"/>
       <c r="J38" s="65"/>
       <c r="K38" s="65"/>
-      <c r="L38" s="69"/>
-      <c r="M38" s="80" t="s">
-        <v>278</v>
+      <c r="L38" s="66" t="s">
+        <v>383</v>
+      </c>
+      <c r="M38" s="84" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
@@ -5464,17 +5470,17 @@
       <c r="J39" s="66"/>
       <c r="K39" s="65"/>
       <c r="L39" s="66"/>
-      <c r="M39" s="81"/>
+      <c r="M39" s="85"/>
     </row>
     <row r="40" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="90" t="s">
         <v>80</v>
       </c>
       <c r="B40" s="90" t="s">
+        <v>254</v>
+      </c>
+      <c r="C40" s="90" t="s">
         <v>255</v>
-      </c>
-      <c r="C40" s="90" t="s">
-        <v>256</v>
       </c>
       <c r="D40" s="50" t="s">
         <v>81</v>
@@ -5483,15 +5489,15 @@
         <v>107</v>
       </c>
       <c r="F40" s="50" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I40" s="65"/>
       <c r="J40" s="47"/>
       <c r="L40" s="47" t="s">
-        <v>279</v>
-      </c>
-      <c r="M40" s="80" t="s">
-        <v>279</v>
+        <v>273</v>
+      </c>
+      <c r="M40" s="84" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
@@ -5508,9 +5514,9 @@
       <c r="I41" s="65"/>
       <c r="J41" s="47"/>
       <c r="L41" s="47" t="s">
-        <v>279</v>
-      </c>
-      <c r="M41" s="81"/>
+        <v>273</v>
+      </c>
+      <c r="M41" s="85"/>
     </row>
     <row r="42" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="90"/>
@@ -5531,9 +5537,9 @@
       <c r="J42" s="47"/>
       <c r="K42" s="65"/>
       <c r="L42" s="47" t="s">
-        <v>279</v>
-      </c>
-      <c r="M42" s="81"/>
+        <v>273</v>
+      </c>
+      <c r="M42" s="85"/>
     </row>
     <row r="43" spans="1:13" ht="180" x14ac:dyDescent="0.25">
       <c r="A43" s="90"/>
@@ -5543,46 +5549,46 @@
         <v>85</v>
       </c>
       <c r="E43" s="77" t="s">
-        <v>391</v>
+        <v>378</v>
       </c>
       <c r="F43" s="50" t="s">
-        <v>390</v>
+        <v>377</v>
       </c>
       <c r="H43" s="65"/>
       <c r="I43" s="65" t="s">
-        <v>395</v>
+        <v>382</v>
       </c>
       <c r="J43" s="47" t="s">
-        <v>394</v>
+        <v>381</v>
       </c>
       <c r="K43" s="65"/>
       <c r="L43" s="47" t="s">
-        <v>279</v>
-      </c>
-      <c r="M43" s="81"/>
+        <v>273</v>
+      </c>
+      <c r="M43" s="85"/>
     </row>
     <row r="44" spans="1:13" ht="120" x14ac:dyDescent="0.25">
       <c r="A44" s="90"/>
       <c r="B44" s="90"/>
       <c r="C44" s="90"/>
       <c r="D44" s="73" t="s">
-        <v>391</v>
+        <v>378</v>
       </c>
       <c r="E44" s="67"/>
       <c r="F44" s="50" t="s">
-        <v>392</v>
+        <v>379</v>
       </c>
       <c r="G44" s="65" t="s">
-        <v>377</v>
+        <v>364</v>
       </c>
       <c r="H44" s="65"/>
       <c r="I44" s="65"/>
       <c r="J44" s="47"/>
       <c r="K44" s="65"/>
       <c r="L44" s="47" t="s">
-        <v>396</v>
-      </c>
-      <c r="M44" s="81"/>
+        <v>383</v>
+      </c>
+      <c r="M44" s="85"/>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="90"/>
@@ -5597,7 +5603,7 @@
       <c r="J45" s="47"/>
       <c r="K45" s="65"/>
       <c r="L45" s="47"/>
-      <c r="M45" s="81"/>
+      <c r="M45" s="85"/>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="90"/>
@@ -5609,7 +5615,7 @@
       <c r="I46" s="65"/>
       <c r="J46" s="47"/>
       <c r="L46" s="47"/>
-      <c r="M46" s="81"/>
+      <c r="M46" s="85"/>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="90"/>
@@ -5621,7 +5627,7 @@
       <c r="I47" s="65"/>
       <c r="J47" s="47"/>
       <c r="L47" s="47"/>
-      <c r="M47" s="81"/>
+      <c r="M47" s="85"/>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="90"/>
@@ -5633,7 +5639,7 @@
       <c r="I48" s="65"/>
       <c r="J48" s="47"/>
       <c r="L48" s="47"/>
-      <c r="M48" s="81"/>
+      <c r="M48" s="85"/>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="90"/>
@@ -5645,7 +5651,7 @@
       <c r="I49" s="65"/>
       <c r="J49" s="47"/>
       <c r="L49" s="47"/>
-      <c r="M49" s="81"/>
+      <c r="M49" s="85"/>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="90"/>
@@ -5657,7 +5663,7 @@
       <c r="I50" s="65"/>
       <c r="J50" s="47"/>
       <c r="L50" s="47"/>
-      <c r="M50" s="81"/>
+      <c r="M50" s="85"/>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="90"/>
@@ -5669,7 +5675,7 @@
       <c r="I51" s="65"/>
       <c r="J51" s="47"/>
       <c r="L51" s="47"/>
-      <c r="M51" s="81"/>
+      <c r="M51" s="85"/>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="90"/>
@@ -5681,7 +5687,7 @@
       <c r="I52" s="65"/>
       <c r="J52" s="47"/>
       <c r="L52" s="47"/>
-      <c r="M52" s="81"/>
+      <c r="M52" s="85"/>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="90"/>
@@ -5693,7 +5699,7 @@
       <c r="I53" s="65"/>
       <c r="J53" s="47"/>
       <c r="L53" s="47"/>
-      <c r="M53" s="81"/>
+      <c r="M53" s="85"/>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="90"/>
@@ -5705,17 +5711,17 @@
       <c r="I54" s="65"/>
       <c r="J54" s="47"/>
       <c r="L54" s="47"/>
-      <c r="M54" s="81"/>
+      <c r="M54" s="85"/>
     </row>
     <row r="55" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="90" t="s">
         <v>189</v>
       </c>
       <c r="B55" s="90" t="s">
+        <v>256</v>
+      </c>
+      <c r="C55" s="90" t="s">
         <v>257</v>
-      </c>
-      <c r="C55" s="90" t="s">
-        <v>258</v>
       </c>
       <c r="D55" s="50" t="s">
         <v>105</v>
@@ -5727,10 +5733,10 @@
       <c r="I55" s="65"/>
       <c r="J55" s="66"/>
       <c r="L55" s="66" t="s">
-        <v>318</v>
-      </c>
-      <c r="M55" s="94" t="s">
-        <v>280</v>
+        <v>310</v>
+      </c>
+      <c r="M55" s="92" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
@@ -5742,14 +5748,14 @@
       </c>
       <c r="E56" s="67"/>
       <c r="F56" s="50" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I56" s="65"/>
       <c r="J56" s="47"/>
       <c r="L56" s="47" t="s">
-        <v>318</v>
-      </c>
-      <c r="M56" s="81"/>
+        <v>310</v>
+      </c>
+      <c r="M56" s="85"/>
     </row>
     <row r="57" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="90"/>
@@ -5767,9 +5773,9 @@
       <c r="I57" s="65"/>
       <c r="J57" s="66"/>
       <c r="L57" s="66" t="s">
-        <v>382</v>
-      </c>
-      <c r="M57" s="81"/>
+        <v>369</v>
+      </c>
+      <c r="M57" s="85"/>
     </row>
     <row r="58" spans="1:13" ht="180" x14ac:dyDescent="0.25">
       <c r="A58" s="90"/>
@@ -5782,14 +5788,14 @@
         <v>153</v>
       </c>
       <c r="F58" s="50" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="I58" s="65"/>
       <c r="J58" s="47"/>
       <c r="L58" s="66" t="s">
-        <v>383</v>
-      </c>
-      <c r="M58" s="81"/>
+        <v>370</v>
+      </c>
+      <c r="M58" s="85"/>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="90"/>
@@ -5801,7 +5807,7 @@
       <c r="I59" s="65"/>
       <c r="J59" s="47"/>
       <c r="L59" s="66"/>
-      <c r="M59" s="81"/>
+      <c r="M59" s="85"/>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="90"/>
@@ -5813,7 +5819,7 @@
       <c r="I60" s="65"/>
       <c r="J60" s="47"/>
       <c r="L60" s="66"/>
-      <c r="M60" s="81"/>
+      <c r="M60" s="85"/>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="90"/>
@@ -5825,7 +5831,7 @@
       <c r="I61" s="65"/>
       <c r="J61" s="47"/>
       <c r="L61" s="66"/>
-      <c r="M61" s="81"/>
+      <c r="M61" s="85"/>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="90"/>
@@ -5837,7 +5843,7 @@
       <c r="I62" s="65"/>
       <c r="J62" s="47"/>
       <c r="L62" s="66"/>
-      <c r="M62" s="81"/>
+      <c r="M62" s="85"/>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="90"/>
@@ -5849,7 +5855,7 @@
       <c r="I63" s="65"/>
       <c r="J63" s="47"/>
       <c r="L63" s="66"/>
-      <c r="M63" s="81"/>
+      <c r="M63" s="85"/>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="90"/>
@@ -5860,17 +5866,17 @@
       <c r="F64" s="50"/>
       <c r="J64" s="47"/>
       <c r="L64" s="66"/>
-      <c r="M64" s="81"/>
+      <c r="M64" s="85"/>
     </row>
     <row r="65" spans="1:13" ht="120" x14ac:dyDescent="0.25">
       <c r="A65" s="90" t="s">
         <v>117</v>
       </c>
       <c r="B65" s="90" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="C65" s="90" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="D65" s="73" t="s">
         <v>120</v>
@@ -5879,15 +5885,15 @@
         <v>153</v>
       </c>
       <c r="F65" s="73" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="I65" s="65"/>
       <c r="J65" s="47"/>
       <c r="L65" s="66" t="s">
-        <v>384</v>
-      </c>
-      <c r="M65" s="94" t="s">
-        <v>285</v>
+        <v>371</v>
+      </c>
+      <c r="M65" s="92" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
@@ -5900,7 +5906,7 @@
       <c r="I66" s="65"/>
       <c r="J66" s="47"/>
       <c r="L66" s="66"/>
-      <c r="M66" s="81"/>
+      <c r="M66" s="85"/>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="90"/>
@@ -5912,7 +5918,7 @@
       <c r="I67" s="65"/>
       <c r="J67" s="47"/>
       <c r="L67" s="66"/>
-      <c r="M67" s="81"/>
+      <c r="M67" s="85"/>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" s="90"/>
@@ -5924,17 +5930,17 @@
       <c r="I68" s="65"/>
       <c r="J68" s="47"/>
       <c r="L68" s="66"/>
-      <c r="M68" s="81"/>
+      <c r="M68" s="85"/>
     </row>
     <row r="69" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" s="90" t="s">
         <v>125</v>
       </c>
       <c r="B69" s="90" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="C69" s="90" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D69" s="50" t="s">
         <v>126</v>
@@ -5943,19 +5949,23 @@
       <c r="F69" s="50" t="s">
         <v>115</v>
       </c>
-      <c r="I69" s="65"/>
-      <c r="J69" s="47"/>
+      <c r="I69" s="77" t="s">
+        <v>385</v>
+      </c>
+      <c r="J69" s="47" t="s">
+        <v>384</v>
+      </c>
       <c r="L69" s="66" t="s">
-        <v>383</v>
-      </c>
-      <c r="M69" s="80" t="s">
-        <v>281</v>
+        <v>370</v>
+      </c>
+      <c r="M69" s="84" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="70" spans="1:13" ht="90" x14ac:dyDescent="0.25">
       <c r="A70" s="90"/>
-      <c r="B70" s="81"/>
-      <c r="C70" s="81"/>
+      <c r="B70" s="85"/>
+      <c r="C70" s="85"/>
       <c r="D70" s="50" t="s">
         <v>127</v>
       </c>
@@ -5966,19 +5976,19 @@
         <v>111</v>
       </c>
       <c r="G70" s="65" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="I70" s="65"/>
       <c r="J70" s="47"/>
       <c r="L70" s="66" t="s">
-        <v>382</v>
-      </c>
-      <c r="M70" s="81"/>
+        <v>369</v>
+      </c>
+      <c r="M70" s="85"/>
     </row>
     <row r="71" spans="1:13" ht="105" x14ac:dyDescent="0.25">
       <c r="A71" s="90"/>
-      <c r="B71" s="81"/>
-      <c r="C71" s="81"/>
+      <c r="B71" s="85"/>
+      <c r="C71" s="85"/>
       <c r="D71" s="50" t="s">
         <v>128</v>
       </c>
@@ -5986,103 +5996,103 @@
         <v>153</v>
       </c>
       <c r="F71" s="50" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="I71" s="65" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="J71" s="47" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="L71" s="47"/>
-      <c r="M71" s="81"/>
+      <c r="M71" s="85"/>
     </row>
     <row r="72" spans="1:13" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="90"/>
-      <c r="B72" s="81"/>
-      <c r="C72" s="81"/>
+      <c r="B72" s="85"/>
+      <c r="C72" s="85"/>
       <c r="D72" s="43"/>
       <c r="E72" s="73"/>
       <c r="F72" s="56"/>
       <c r="I72" s="65"/>
       <c r="J72" s="47"/>
       <c r="L72" s="47"/>
-      <c r="M72" s="81"/>
+      <c r="M72" s="85"/>
     </row>
     <row r="73" spans="1:13" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="90"/>
-      <c r="B73" s="81"/>
-      <c r="C73" s="81"/>
+      <c r="B73" s="85"/>
+      <c r="C73" s="85"/>
       <c r="D73" s="43"/>
       <c r="E73" s="73"/>
       <c r="F73" s="56"/>
       <c r="I73" s="65"/>
       <c r="J73" s="47"/>
       <c r="L73" s="47"/>
-      <c r="M73" s="81"/>
+      <c r="M73" s="85"/>
     </row>
     <row r="74" spans="1:13" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="90"/>
-      <c r="B74" s="81"/>
-      <c r="C74" s="81"/>
+      <c r="B74" s="85"/>
+      <c r="C74" s="85"/>
       <c r="D74" s="43"/>
       <c r="E74" s="73"/>
       <c r="F74" s="56"/>
       <c r="I74" s="65"/>
       <c r="J74" s="47"/>
       <c r="L74" s="47"/>
-      <c r="M74" s="81"/>
+      <c r="M74" s="85"/>
     </row>
     <row r="75" spans="1:13" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="90"/>
-      <c r="B75" s="81"/>
-      <c r="C75" s="81"/>
+      <c r="B75" s="85"/>
+      <c r="C75" s="85"/>
       <c r="D75" s="43"/>
       <c r="E75" s="67"/>
       <c r="F75" s="56"/>
       <c r="I75" s="65"/>
       <c r="J75" s="47"/>
       <c r="L75" s="47"/>
-      <c r="M75" s="81"/>
+      <c r="M75" s="85"/>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" s="90"/>
-      <c r="B76" s="81"/>
-      <c r="C76" s="81"/>
+      <c r="B76" s="85"/>
+      <c r="C76" s="85"/>
       <c r="D76" s="42"/>
       <c r="F76" s="56"/>
-      <c r="M76" s="81"/>
+      <c r="M76" s="85"/>
     </row>
     <row r="77" spans="1:13" ht="105" x14ac:dyDescent="0.25">
       <c r="A77" s="90" t="s">
         <v>132</v>
       </c>
       <c r="B77" s="90" t="s">
+        <v>259</v>
+      </c>
+      <c r="C77" s="90" t="s">
         <v>260</v>
       </c>
-      <c r="C77" s="90" t="s">
-        <v>261</v>
-      </c>
       <c r="D77" s="50" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E77" s="67" t="s">
         <v>153</v>
       </c>
       <c r="F77" s="56" t="s">
-        <v>393</v>
+        <v>380</v>
       </c>
       <c r="I77" s="65" t="s">
-        <v>397</v>
+        <v>385</v>
       </c>
       <c r="J77" s="47" t="s">
-        <v>398</v>
+        <v>384</v>
       </c>
       <c r="L77" s="66" t="s">
-        <v>383</v>
-      </c>
-      <c r="M77" s="94" t="s">
-        <v>280</v>
+        <v>370</v>
+      </c>
+      <c r="M77" s="92" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="78" spans="1:13" ht="30" x14ac:dyDescent="0.25">
@@ -6094,34 +6104,34 @@
       <c r="I78" s="65"/>
       <c r="J78" s="66"/>
       <c r="L78" s="66" t="s">
-        <v>385</v>
-      </c>
-      <c r="M78" s="81"/>
+        <v>372</v>
+      </c>
+      <c r="M78" s="85"/>
     </row>
     <row r="79" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A79" s="90" t="s">
         <v>141</v>
       </c>
       <c r="B79" s="90" t="s">
+        <v>261</v>
+      </c>
+      <c r="C79" s="90" t="s">
         <v>262</v>
       </c>
-      <c r="C79" s="90" t="s">
-        <v>263</v>
-      </c>
       <c r="D79" s="73" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E79" s="67"/>
       <c r="F79" s="77" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I79" s="65"/>
       <c r="J79" s="66"/>
       <c r="L79" s="66" t="s">
-        <v>385</v>
-      </c>
-      <c r="M79" s="94" t="s">
-        <v>284</v>
+        <v>372</v>
+      </c>
+      <c r="M79" s="92" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.25">
@@ -6134,7 +6144,7 @@
       <c r="I80" s="65"/>
       <c r="J80" s="66"/>
       <c r="L80" s="66"/>
-      <c r="M80" s="81"/>
+      <c r="M80" s="85"/>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" s="90"/>
@@ -6146,7 +6156,7 @@
       <c r="I81" s="65"/>
       <c r="J81" s="66"/>
       <c r="L81" s="66"/>
-      <c r="M81" s="81"/>
+      <c r="M81" s="85"/>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" s="90"/>
@@ -6158,43 +6168,43 @@
       <c r="I82" s="65"/>
       <c r="J82" s="66"/>
       <c r="L82" s="66"/>
-      <c r="M82" s="81"/>
+      <c r="M82" s="85"/>
     </row>
     <row r="83" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A83" s="49" t="s">
         <v>146</v>
       </c>
       <c r="B83" s="55" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C83" s="49"/>
       <c r="D83" s="50" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E83" s="67"/>
       <c r="F83" s="56" t="s">
         <v>123</v>
       </c>
       <c r="I83" s="65" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="J83" s="66" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="L83" s="66"/>
       <c r="M83" s="60" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
     </row>
     <row r="84" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A84" s="90" t="s">
+        <v>263</v>
+      </c>
+      <c r="B84" s="90" t="s">
         <v>264</v>
       </c>
-      <c r="B84" s="90" t="s">
+      <c r="C84" s="90" t="s">
         <v>265</v>
-      </c>
-      <c r="C84" s="90" t="s">
-        <v>266</v>
       </c>
       <c r="D84" s="50" t="s">
         <v>152</v>
@@ -6206,89 +6216,89 @@
       <c r="I84" s="65"/>
       <c r="J84" s="66"/>
       <c r="L84" s="66" t="s">
-        <v>282</v>
-      </c>
-      <c r="M84" s="80" t="s">
-        <v>282</v>
+        <v>276</v>
+      </c>
+      <c r="M84" s="84" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="85" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A85" s="90"/>
-      <c r="B85" s="84"/>
-      <c r="C85" s="84"/>
+      <c r="B85" s="80"/>
+      <c r="C85" s="80"/>
       <c r="D85" s="73" t="s">
         <v>153</v>
       </c>
       <c r="E85" s="67"/>
       <c r="F85" s="50" t="s">
-        <v>358</v>
+        <v>345</v>
       </c>
       <c r="I85" s="65" t="s">
         <v>189</v>
       </c>
       <c r="J85" s="66" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="L85" s="66" t="s">
-        <v>282</v>
-      </c>
-      <c r="M85" s="81"/>
+        <v>276</v>
+      </c>
+      <c r="M85" s="85"/>
     </row>
     <row r="86" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A86" s="90"/>
-      <c r="B86" s="84"/>
-      <c r="C86" s="84"/>
+      <c r="B86" s="80"/>
+      <c r="C86" s="80"/>
       <c r="D86" s="73"/>
       <c r="E86" s="67"/>
       <c r="F86" s="73"/>
       <c r="I86" s="65"/>
       <c r="J86" s="66"/>
       <c r="L86" s="66" t="s">
-        <v>282</v>
-      </c>
-      <c r="M86" s="81"/>
+        <v>276</v>
+      </c>
+      <c r="M86" s="85"/>
     </row>
     <row r="87" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A87" s="90"/>
-      <c r="B87" s="84"/>
-      <c r="C87" s="84"/>
+      <c r="B87" s="80"/>
+      <c r="C87" s="80"/>
       <c r="D87" s="73"/>
       <c r="E87" s="67"/>
       <c r="F87" s="73"/>
       <c r="I87" s="65"/>
       <c r="J87" s="66"/>
       <c r="L87" s="66" t="s">
-        <v>282</v>
-      </c>
-      <c r="M87" s="81"/>
+        <v>276</v>
+      </c>
+      <c r="M87" s="85"/>
     </row>
     <row r="88" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A88" s="90"/>
-      <c r="B88" s="84"/>
-      <c r="C88" s="84"/>
+      <c r="B88" s="80"/>
+      <c r="C88" s="80"/>
       <c r="D88" s="73"/>
       <c r="E88" s="67"/>
       <c r="F88" s="73"/>
       <c r="I88" s="65"/>
       <c r="J88" s="66"/>
       <c r="L88" s="66" t="s">
-        <v>282</v>
-      </c>
-      <c r="M88" s="81"/>
+        <v>276</v>
+      </c>
+      <c r="M88" s="85"/>
     </row>
     <row r="89" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A89" s="90"/>
-      <c r="B89" s="84"/>
-      <c r="C89" s="84"/>
+      <c r="B89" s="80"/>
+      <c r="C89" s="80"/>
       <c r="D89" s="73"/>
       <c r="E89" s="67"/>
       <c r="F89" s="73"/>
       <c r="I89" s="65"/>
       <c r="J89" s="66"/>
       <c r="L89" s="66" t="s">
-        <v>282</v>
-      </c>
-      <c r="M89" s="81"/>
+        <v>276</v>
+      </c>
+      <c r="M89" s="85"/>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" s="57"/>
@@ -6356,57 +6366,6 @@
   </sheetData>
   <autoFilter ref="A1:M89" xr:uid="{FE8A9026-FDB0-4A8E-BB8F-FE98E3487D08}"/>
   <mergeCells count="67">
-    <mergeCell ref="G10:G12"/>
-    <mergeCell ref="L10:L12"/>
-    <mergeCell ref="K10:K12"/>
-    <mergeCell ref="J10:J12"/>
-    <mergeCell ref="I10:I12"/>
-    <mergeCell ref="H10:H12"/>
-    <mergeCell ref="C84:C89"/>
-    <mergeCell ref="C77:C78"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="B40:B54"/>
-    <mergeCell ref="C40:C54"/>
-    <mergeCell ref="B55:B64"/>
-    <mergeCell ref="C55:C64"/>
-    <mergeCell ref="B79:B82"/>
-    <mergeCell ref="C79:C82"/>
-    <mergeCell ref="B65:B68"/>
-    <mergeCell ref="C65:C68"/>
-    <mergeCell ref="B69:B76"/>
-    <mergeCell ref="C69:C76"/>
-    <mergeCell ref="B77:B78"/>
-    <mergeCell ref="A69:A76"/>
-    <mergeCell ref="A77:A78"/>
-    <mergeCell ref="A79:A82"/>
-    <mergeCell ref="A84:A89"/>
-    <mergeCell ref="B84:B89"/>
-    <mergeCell ref="A65:A68"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="C26:C29"/>
-    <mergeCell ref="B30:B37"/>
-    <mergeCell ref="C30:C37"/>
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="A30:A37"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="A40:A54"/>
-    <mergeCell ref="A55:A64"/>
-    <mergeCell ref="C10:C16"/>
-    <mergeCell ref="B17:B25"/>
-    <mergeCell ref="C17:C25"/>
-    <mergeCell ref="F4:F8"/>
-    <mergeCell ref="F10:F12"/>
-    <mergeCell ref="D4:D8"/>
-    <mergeCell ref="D10:D12"/>
-    <mergeCell ref="E4:E8"/>
-    <mergeCell ref="E10:E12"/>
-    <mergeCell ref="M84:M89"/>
-    <mergeCell ref="M38:M39"/>
-    <mergeCell ref="M40:M54"/>
-    <mergeCell ref="M55:M64"/>
-    <mergeCell ref="M65:M68"/>
-    <mergeCell ref="M69:M76"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
@@ -6423,6 +6382,57 @@
     <mergeCell ref="B4:B9"/>
     <mergeCell ref="C4:C9"/>
     <mergeCell ref="B10:B16"/>
+    <mergeCell ref="M84:M89"/>
+    <mergeCell ref="M38:M39"/>
+    <mergeCell ref="M40:M54"/>
+    <mergeCell ref="M55:M64"/>
+    <mergeCell ref="M65:M68"/>
+    <mergeCell ref="M69:M76"/>
+    <mergeCell ref="C10:C16"/>
+    <mergeCell ref="B17:B25"/>
+    <mergeCell ref="C17:C25"/>
+    <mergeCell ref="F4:F8"/>
+    <mergeCell ref="F10:F12"/>
+    <mergeCell ref="D4:D8"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="E4:E8"/>
+    <mergeCell ref="E10:E12"/>
+    <mergeCell ref="A65:A68"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="B30:B37"/>
+    <mergeCell ref="C30:C37"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="A30:A37"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A40:A54"/>
+    <mergeCell ref="A55:A64"/>
+    <mergeCell ref="A69:A76"/>
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="A79:A82"/>
+    <mergeCell ref="A84:A89"/>
+    <mergeCell ref="B84:B89"/>
+    <mergeCell ref="C84:C89"/>
+    <mergeCell ref="C77:C78"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="B40:B54"/>
+    <mergeCell ref="C40:C54"/>
+    <mergeCell ref="B55:B64"/>
+    <mergeCell ref="C55:C64"/>
+    <mergeCell ref="B79:B82"/>
+    <mergeCell ref="C79:C82"/>
+    <mergeCell ref="B65:B68"/>
+    <mergeCell ref="C65:C68"/>
+    <mergeCell ref="B69:B76"/>
+    <mergeCell ref="C69:C76"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="G10:G12"/>
+    <mergeCell ref="L10:L12"/>
+    <mergeCell ref="K10:K12"/>
+    <mergeCell ref="J10:J12"/>
+    <mergeCell ref="I10:I12"/>
+    <mergeCell ref="H10:H12"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="M2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
@@ -6476,8 +6486,9 @@
     <hyperlink ref="L79" r:id="rId49" location="heading-3" xr:uid="{E697A06C-6D36-4612-95F0-24BE352FFFDF}"/>
     <hyperlink ref="J43" r:id="rId50" xr:uid="{D5956ADB-CCC2-4DC2-A8C4-803700F25823}"/>
     <hyperlink ref="L44" r:id="rId51" xr:uid="{5F289884-B058-4E48-ACB0-973F2C70E8EB}"/>
+    <hyperlink ref="L38" r:id="rId52" xr:uid="{F3BB0367-E8E0-489E-A425-490538217692}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId52"/>
+  <legacyDrawing r:id="rId53"/>
 </worksheet>
 </file>
--- a/Corpus/MLR_Corpus.xlsx
+++ b/Corpus/MLR_Corpus.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workouts\Projects\Acadia\Masori-Chatbot-Dev-main\Masori-Chatbot-Dev-main\Corpus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0110595-899C-4822-87CA-57D6F1C69679}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEAA9E9A-7CD9-432D-8F7B-AECB878F50EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuplazid Consumer" sheetId="3" r:id="rId1"/>
@@ -245,7 +245,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="401">
   <si>
     <t>Keywords</t>
   </si>
@@ -1690,6 +1690,9 @@
   </si>
   <si>
     <t>http://nuplazid-masori.azurewebsites.net/support-and-resources#sign-up-stay-informed</t>
+  </si>
+  <si>
+    <t>Resources</t>
   </si>
 </sst>
 </file>
@@ -1958,29 +1961,29 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1989,23 +1992,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2385,9 +2388,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M47"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L2" sqref="L2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2444,13 +2447,13 @@
       </c>
     </row>
     <row r="2" spans="1:13" s="31" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A2" s="82" t="s">
+      <c r="A2" s="85" t="s">
         <v>229</v>
       </c>
-      <c r="B2" s="82" t="s">
+      <c r="B2" s="85" t="s">
         <v>234</v>
       </c>
-      <c r="C2" s="82" t="s">
+      <c r="C2" s="85" t="s">
         <v>281</v>
       </c>
       <c r="D2" s="57" t="s">
@@ -2470,14 +2473,14 @@
       <c r="L2" s="66" t="s">
         <v>388</v>
       </c>
-      <c r="M2" s="87" t="s">
+      <c r="M2" s="83" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="3" spans="1:13" s="31" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A3" s="83"/>
-      <c r="B3" s="80"/>
-      <c r="C3" s="83"/>
+      <c r="A3" s="86"/>
+      <c r="B3" s="84"/>
+      <c r="C3" s="86"/>
       <c r="D3" s="57" t="s">
         <v>10</v>
       </c>
@@ -2497,12 +2500,12 @@
       <c r="L3" s="66" t="s">
         <v>388</v>
       </c>
-      <c r="M3" s="85"/>
+      <c r="M3" s="81"/>
     </row>
     <row r="4" spans="1:13" s="31" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" s="83"/>
-      <c r="B4" s="80"/>
-      <c r="C4" s="83"/>
+      <c r="A4" s="86"/>
+      <c r="B4" s="84"/>
+      <c r="C4" s="86"/>
       <c r="D4" s="57" t="s">
         <v>319</v>
       </c>
@@ -2520,16 +2523,16 @@
       <c r="L4" s="66" t="s">
         <v>388</v>
       </c>
-      <c r="M4" s="85"/>
+      <c r="M4" s="81"/>
     </row>
     <row r="5" spans="1:13" ht="105" x14ac:dyDescent="0.25">
-      <c r="A5" s="81" t="s">
+      <c r="A5" s="87" t="s">
         <v>172</v>
       </c>
-      <c r="B5" s="80" t="s">
+      <c r="B5" s="84" t="s">
         <v>290</v>
       </c>
-      <c r="C5" s="80" t="s">
+      <c r="C5" s="84" t="s">
         <v>235</v>
       </c>
       <c r="D5" s="57" t="s">
@@ -2549,14 +2552,14 @@
       <c r="L5" s="66" t="s">
         <v>389</v>
       </c>
-      <c r="M5" s="84" t="s">
+      <c r="M5" s="80" t="s">
         <v>389</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="90" x14ac:dyDescent="0.25">
-      <c r="A6" s="81"/>
-      <c r="B6" s="81"/>
-      <c r="C6" s="81"/>
+      <c r="A6" s="87"/>
+      <c r="B6" s="87"/>
+      <c r="C6" s="87"/>
       <c r="D6" s="57" t="s">
         <v>353</v>
       </c>
@@ -2576,16 +2579,16 @@
       <c r="L6" s="66" t="s">
         <v>389</v>
       </c>
-      <c r="M6" s="85"/>
+      <c r="M6" s="81"/>
     </row>
     <row r="7" spans="1:13" s="44" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A7" s="80" t="s">
+      <c r="A7" s="84" t="s">
         <v>294</v>
       </c>
-      <c r="B7" s="80" t="s">
+      <c r="B7" s="84" t="s">
         <v>295</v>
       </c>
-      <c r="C7" s="80" t="s">
+      <c r="C7" s="84" t="s">
         <v>299</v>
       </c>
       <c r="D7" s="61" t="s">
@@ -2605,14 +2608,14 @@
       <c r="L7" s="66" t="s">
         <v>390</v>
       </c>
-      <c r="M7" s="84" t="s">
+      <c r="M7" s="80" t="s">
         <v>391</v>
       </c>
     </row>
     <row r="8" spans="1:13" s="44" customFormat="1" ht="150" x14ac:dyDescent="0.25">
-      <c r="A8" s="80"/>
-      <c r="B8" s="80"/>
-      <c r="C8" s="80"/>
+      <c r="A8" s="84"/>
+      <c r="B8" s="84"/>
+      <c r="C8" s="84"/>
       <c r="D8" s="61" t="s">
         <v>297</v>
       </c>
@@ -2630,12 +2633,12 @@
       <c r="L8" s="66" t="s">
         <v>391</v>
       </c>
-      <c r="M8" s="85"/>
-    </row>
-    <row r="9" spans="1:13" s="44" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A9" s="80"/>
-      <c r="B9" s="80"/>
-      <c r="C9" s="80"/>
+      <c r="M8" s="81"/>
+    </row>
+    <row r="9" spans="1:13" s="44" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A9" s="84"/>
+      <c r="B9" s="84"/>
+      <c r="C9" s="84"/>
       <c r="D9" s="61" t="s">
         <v>300</v>
       </c>
@@ -2655,12 +2658,12 @@
       <c r="L9" s="66" t="s">
         <v>391</v>
       </c>
-      <c r="M9" s="85"/>
+      <c r="M9" s="81"/>
     </row>
     <row r="10" spans="1:13" s="44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="80"/>
-      <c r="B10" s="80"/>
-      <c r="C10" s="80"/>
+      <c r="A10" s="84"/>
+      <c r="B10" s="84"/>
+      <c r="C10" s="84"/>
       <c r="D10" s="61"/>
       <c r="E10" s="71"/>
       <c r="F10" s="61"/>
@@ -2747,13 +2750,13 @@
       <c r="M14" s="64"/>
     </row>
     <row r="15" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="81" t="s">
+      <c r="A15" s="87" t="s">
         <v>174</v>
       </c>
-      <c r="B15" s="80" t="s">
+      <c r="B15" s="84" t="s">
         <v>236</v>
       </c>
-      <c r="C15" s="80" t="s">
+      <c r="C15" s="84" t="s">
         <v>291</v>
       </c>
       <c r="D15" s="57" t="s">
@@ -2773,14 +2776,14 @@
       <c r="L15" s="66" t="s">
         <v>388</v>
       </c>
-      <c r="M15" s="84" t="s">
+      <c r="M15" s="80" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="81"/>
-      <c r="B16" s="81"/>
-      <c r="C16" s="81"/>
+    <row r="16" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="87"/>
+      <c r="B16" s="87"/>
+      <c r="C16" s="87"/>
       <c r="D16" s="57" t="s">
         <v>322</v>
       </c>
@@ -2798,12 +2801,12 @@
       <c r="L16" s="66" t="s">
         <v>388</v>
       </c>
-      <c r="M16" s="85"/>
+      <c r="M16" s="81"/>
     </row>
     <row r="17" spans="1:13" ht="90" x14ac:dyDescent="0.25">
-      <c r="A17" s="81"/>
-      <c r="B17" s="81"/>
-      <c r="C17" s="81"/>
+      <c r="A17" s="87"/>
+      <c r="B17" s="87"/>
+      <c r="C17" s="87"/>
       <c r="D17" s="57" t="s">
         <v>323</v>
       </c>
@@ -2821,12 +2824,12 @@
       <c r="L17" s="66" t="s">
         <v>388</v>
       </c>
-      <c r="M17" s="85"/>
+      <c r="M17" s="81"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="81"/>
-      <c r="B18" s="81"/>
-      <c r="C18" s="81"/>
+      <c r="A18" s="87"/>
+      <c r="B18" s="87"/>
+      <c r="C18" s="87"/>
       <c r="D18" s="43"/>
       <c r="F18" s="42"/>
       <c r="G18" s="42"/>
@@ -2837,16 +2840,16 @@
       <c r="L18" s="72" t="s">
         <v>388</v>
       </c>
-      <c r="M18" s="85"/>
-    </row>
-    <row r="19" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="81" t="s">
+      <c r="M18" s="81"/>
+    </row>
+    <row r="19" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" s="87" t="s">
         <v>176</v>
       </c>
-      <c r="B19" s="80" t="s">
+      <c r="B19" s="84" t="s">
         <v>237</v>
       </c>
-      <c r="C19" s="80" t="s">
+      <c r="C19" s="84" t="s">
         <v>238</v>
       </c>
       <c r="D19" s="57" t="s">
@@ -2866,14 +2869,14 @@
       <c r="L19" s="66" t="s">
         <v>388</v>
       </c>
-      <c r="M19" s="84" t="s">
+      <c r="M19" s="80" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="81"/>
-      <c r="B20" s="80"/>
-      <c r="C20" s="81"/>
+    <row r="20" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="87"/>
+      <c r="B20" s="84"/>
+      <c r="C20" s="87"/>
       <c r="D20" s="57" t="s">
         <v>325</v>
       </c>
@@ -2891,12 +2894,12 @@
       <c r="L20" s="66" t="s">
         <v>388</v>
       </c>
-      <c r="M20" s="85"/>
+      <c r="M20" s="81"/>
     </row>
     <row r="21" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A21" s="81"/>
-      <c r="B21" s="80"/>
-      <c r="C21" s="81"/>
+      <c r="A21" s="87"/>
+      <c r="B21" s="84"/>
+      <c r="C21" s="87"/>
       <c r="D21" s="57" t="s">
         <v>177</v>
       </c>
@@ -2914,12 +2917,12 @@
       <c r="L21" s="66" t="s">
         <v>388</v>
       </c>
-      <c r="M21" s="85"/>
+      <c r="M21" s="81"/>
     </row>
     <row r="22" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A22" s="81"/>
-      <c r="B22" s="80"/>
-      <c r="C22" s="81"/>
+      <c r="A22" s="87"/>
+      <c r="B22" s="84"/>
+      <c r="C22" s="87"/>
       <c r="D22" s="57" t="s">
         <v>178</v>
       </c>
@@ -2934,16 +2937,16 @@
       <c r="L22" s="66" t="s">
         <v>388</v>
       </c>
-      <c r="M22" s="85"/>
+      <c r="M22" s="81"/>
     </row>
     <row r="23" spans="1:13" ht="90" x14ac:dyDescent="0.25">
-      <c r="A23" s="81" t="s">
+      <c r="A23" s="87" t="s">
         <v>179</v>
       </c>
-      <c r="B23" s="80" t="s">
+      <c r="B23" s="84" t="s">
         <v>292</v>
       </c>
-      <c r="C23" s="80" t="s">
+      <c r="C23" s="84" t="s">
         <v>239</v>
       </c>
       <c r="D23" s="57" t="s">
@@ -2960,14 +2963,14 @@
       <c r="L23" s="66" t="s">
         <v>394</v>
       </c>
-      <c r="M23" s="84" t="s">
+      <c r="M23" s="80" t="s">
         <v>394</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="150" x14ac:dyDescent="0.25">
-      <c r="A24" s="81"/>
-      <c r="B24" s="80"/>
-      <c r="C24" s="81"/>
+      <c r="A24" s="87"/>
+      <c r="B24" s="84"/>
+      <c r="C24" s="87"/>
       <c r="D24" s="57" t="s">
         <v>18</v>
       </c>
@@ -2989,12 +2992,12 @@
       <c r="L24" s="66" t="s">
         <v>336</v>
       </c>
-      <c r="M24" s="85"/>
+      <c r="M24" s="81"/>
     </row>
     <row r="25" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="81"/>
-      <c r="B25" s="80"/>
-      <c r="C25" s="81"/>
+      <c r="A25" s="87"/>
+      <c r="B25" s="84"/>
+      <c r="C25" s="87"/>
       <c r="D25" s="57" t="s">
         <v>293</v>
       </c>
@@ -3016,12 +3019,12 @@
       <c r="L25" s="66" t="s">
         <v>394</v>
       </c>
-      <c r="M25" s="85"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="81"/>
-      <c r="B26" s="80"/>
-      <c r="C26" s="81"/>
+      <c r="M25" s="81"/>
+    </row>
+    <row r="26" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="87"/>
+      <c r="B26" s="84"/>
+      <c r="C26" s="87"/>
       <c r="D26" s="43"/>
       <c r="F26" s="43"/>
       <c r="G26" s="43"/>
@@ -3032,16 +3035,16 @@
       <c r="L26" s="66" t="s">
         <v>394</v>
       </c>
-      <c r="M26" s="85"/>
-    </row>
-    <row r="27" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="81" t="s">
+      <c r="M26" s="81"/>
+    </row>
+    <row r="27" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A27" s="87" t="s">
         <v>181</v>
       </c>
-      <c r="B27" s="80" t="s">
+      <c r="B27" s="84" t="s">
         <v>240</v>
       </c>
-      <c r="C27" s="86" t="s">
+      <c r="C27" s="82" t="s">
         <v>241</v>
       </c>
       <c r="D27" s="57" t="s">
@@ -3065,14 +3068,14 @@
       <c r="L27" s="66" t="s">
         <v>396</v>
       </c>
-      <c r="M27" s="84" t="s">
+      <c r="M27" s="80" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="81"/>
-      <c r="B28" s="80"/>
-      <c r="C28" s="86"/>
+      <c r="A28" s="87"/>
+      <c r="B28" s="84"/>
+      <c r="C28" s="82"/>
       <c r="D28" s="57" t="s">
         <v>183</v>
       </c>
@@ -3090,12 +3093,12 @@
       <c r="L28" s="66" t="s">
         <v>396</v>
       </c>
-      <c r="M28" s="85"/>
+      <c r="M28" s="81"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="81"/>
-      <c r="B29" s="80"/>
-      <c r="C29" s="86"/>
+      <c r="A29" s="87"/>
+      <c r="B29" s="84"/>
+      <c r="C29" s="82"/>
       <c r="D29" s="43"/>
       <c r="F29" s="42"/>
       <c r="G29" s="42"/>
@@ -3106,10 +3109,10 @@
       <c r="L29" s="72" t="s">
         <v>396</v>
       </c>
-      <c r="M29" s="85"/>
-    </row>
-    <row r="30" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="81" t="s">
+      <c r="M29" s="81"/>
+    </row>
+    <row r="30" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A30" s="87" t="s">
         <v>185</v>
       </c>
       <c r="C30" s="59"/>
@@ -3122,16 +3125,16 @@
       <c r="L30" s="66" t="s">
         <v>397</v>
       </c>
-      <c r="M30" s="84" t="s">
+      <c r="M30" s="80" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="165" x14ac:dyDescent="0.25">
-      <c r="A31" s="81"/>
-      <c r="B31" s="80" t="s">
+      <c r="A31" s="87"/>
+      <c r="B31" s="84" t="s">
         <v>242</v>
       </c>
-      <c r="C31" s="80" t="s">
+      <c r="C31" s="84" t="s">
         <v>243</v>
       </c>
       <c r="D31" s="43" t="s">
@@ -3151,12 +3154,12 @@
       <c r="L31" s="66" t="s">
         <v>397</v>
       </c>
-      <c r="M31" s="85"/>
+      <c r="M31" s="81"/>
     </row>
     <row r="32" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A32" s="81"/>
-      <c r="B32" s="81"/>
-      <c r="C32" s="80"/>
+      <c r="A32" s="87"/>
+      <c r="B32" s="87"/>
+      <c r="C32" s="84"/>
       <c r="D32" s="57" t="s">
         <v>231</v>
       </c>
@@ -3171,12 +3174,12 @@
       <c r="L32" s="66" t="s">
         <v>397</v>
       </c>
-      <c r="M32" s="85"/>
-    </row>
-    <row r="33" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="81"/>
-      <c r="B33" s="81"/>
-      <c r="C33" s="80"/>
+      <c r="M32" s="81"/>
+    </row>
+    <row r="33" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A33" s="87"/>
+      <c r="B33" s="87"/>
+      <c r="C33" s="84"/>
       <c r="D33" s="43" t="s">
         <v>326</v>
       </c>
@@ -3191,12 +3194,12 @@
       <c r="L33" s="66" t="s">
         <v>397</v>
       </c>
-      <c r="M33" s="85"/>
-    </row>
-    <row r="34" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="81"/>
-      <c r="B34" s="81"/>
-      <c r="C34" s="80"/>
+      <c r="M33" s="81"/>
+    </row>
+    <row r="34" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A34" s="87"/>
+      <c r="B34" s="87"/>
+      <c r="C34" s="84"/>
       <c r="D34" s="43" t="s">
         <v>172</v>
       </c>
@@ -3214,12 +3217,12 @@
       <c r="L34" s="66" t="s">
         <v>397</v>
       </c>
-      <c r="M34" s="85"/>
+      <c r="M34" s="81"/>
     </row>
     <row r="35" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A35" s="81"/>
-      <c r="B35" s="81"/>
-      <c r="C35" s="80"/>
+      <c r="A35" s="87"/>
+      <c r="B35" s="87"/>
+      <c r="C35" s="84"/>
       <c r="D35" s="43" t="s">
         <v>232</v>
       </c>
@@ -3237,12 +3240,12 @@
       <c r="L35" s="66" t="s">
         <v>397</v>
       </c>
-      <c r="M35" s="85"/>
-    </row>
-    <row r="36" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="81"/>
-      <c r="B36" s="81"/>
-      <c r="C36" s="80"/>
+      <c r="M35" s="81"/>
+    </row>
+    <row r="36" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A36" s="87"/>
+      <c r="B36" s="87"/>
+      <c r="C36" s="84"/>
       <c r="F36" s="43"/>
       <c r="G36" s="43"/>
       <c r="H36" s="43"/>
@@ -3252,16 +3255,16 @@
       <c r="L36" s="66" t="s">
         <v>397</v>
       </c>
-      <c r="M36" s="85"/>
+      <c r="M36" s="81"/>
     </row>
     <row r="37" spans="1:13" ht="90" x14ac:dyDescent="0.25">
-      <c r="A37" s="80" t="s">
+      <c r="A37" s="84" t="s">
         <v>244</v>
       </c>
-      <c r="B37" s="80" t="s">
+      <c r="B37" s="84" t="s">
         <v>245</v>
       </c>
-      <c r="C37" s="80" t="s">
+      <c r="C37" s="84" t="s">
         <v>246</v>
       </c>
       <c r="D37" s="57" t="s">
@@ -3285,14 +3288,14 @@
       <c r="L37" s="66" t="s">
         <v>267</v>
       </c>
-      <c r="M37" s="84" t="s">
+      <c r="M37" s="80" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="38" spans="1:13" ht="90" x14ac:dyDescent="0.25">
-      <c r="A38" s="80"/>
-      <c r="B38" s="80"/>
-      <c r="C38" s="81"/>
+      <c r="A38" s="84"/>
+      <c r="B38" s="84"/>
+      <c r="C38" s="87"/>
       <c r="D38" s="57" t="s">
         <v>188</v>
       </c>
@@ -3314,12 +3317,12 @@
       <c r="L38" s="66" t="s">
         <v>267</v>
       </c>
-      <c r="M38" s="85"/>
+      <c r="M38" s="81"/>
     </row>
     <row r="39" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A39" s="80"/>
-      <c r="B39" s="80"/>
-      <c r="C39" s="81"/>
+      <c r="A39" s="84"/>
+      <c r="B39" s="84"/>
+      <c r="C39" s="87"/>
       <c r="D39" s="57" t="s">
         <v>189</v>
       </c>
@@ -3329,12 +3332,12 @@
       <c r="L39" s="66" t="s">
         <v>267</v>
       </c>
-      <c r="M39" s="85"/>
+      <c r="M39" s="81"/>
     </row>
     <row r="40" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A40" s="80"/>
-      <c r="B40" s="80"/>
-      <c r="C40" s="81"/>
+      <c r="A40" s="84"/>
+      <c r="B40" s="84"/>
+      <c r="C40" s="87"/>
       <c r="D40" s="57" t="s">
         <v>190</v>
       </c>
@@ -3344,12 +3347,12 @@
       <c r="L40" s="66" t="s">
         <v>267</v>
       </c>
-      <c r="M40" s="85"/>
+      <c r="M40" s="81"/>
     </row>
     <row r="41" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A41" s="80"/>
-      <c r="B41" s="80"/>
-      <c r="C41" s="81"/>
+      <c r="A41" s="84"/>
+      <c r="B41" s="84"/>
+      <c r="C41" s="87"/>
       <c r="D41" s="57" t="s">
         <v>191</v>
       </c>
@@ -3367,14 +3370,14 @@
       <c r="L41" s="66" t="s">
         <v>267</v>
       </c>
-      <c r="M41" s="85"/>
-    </row>
-    <row r="42" spans="1:13" ht="105" x14ac:dyDescent="0.25">
-      <c r="A42" s="80"/>
-      <c r="B42" s="80"/>
-      <c r="C42" s="81"/>
+      <c r="M41" s="81"/>
+    </row>
+    <row r="42" spans="1:13" ht="150" x14ac:dyDescent="0.25">
+      <c r="A42" s="84"/>
+      <c r="B42" s="84"/>
+      <c r="C42" s="87"/>
       <c r="D42" s="57" t="s">
-        <v>192</v>
+        <v>400</v>
       </c>
       <c r="E42" s="71" t="s">
         <v>189</v>
@@ -3394,12 +3397,12 @@
       <c r="L42" s="66" t="s">
         <v>267</v>
       </c>
-      <c r="M42" s="85"/>
-    </row>
-    <row r="43" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A43" s="80"/>
-      <c r="B43" s="80"/>
-      <c r="C43" s="81"/>
+      <c r="M42" s="81"/>
+    </row>
+    <row r="43" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A43" s="84"/>
+      <c r="B43" s="84"/>
+      <c r="C43" s="87"/>
       <c r="D43" s="57" t="s">
         <v>193</v>
       </c>
@@ -3417,7 +3420,7 @@
       <c r="L43" s="66" t="s">
         <v>399</v>
       </c>
-      <c r="M43" s="85"/>
+      <c r="M43" s="81"/>
     </row>
     <row r="44" spans="1:13" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="61"/>
@@ -3478,25 +3481,12 @@
   </sheetData>
   <autoFilter ref="A1:M11" xr:uid="{AF9DA58F-D16B-4AC0-BF50-5DB9D427BBB0}"/>
   <mergeCells count="36">
-    <mergeCell ref="M27:M29"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="M30:M36"/>
-    <mergeCell ref="M37:M43"/>
-    <mergeCell ref="M2:M4"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="M15:M18"/>
-    <mergeCell ref="M19:M22"/>
-    <mergeCell ref="M23:M26"/>
-    <mergeCell ref="M7:M9"/>
-    <mergeCell ref="A37:A43"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A30:A36"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="A23:A26"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="B31:B36"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="C23:C26"/>
+    <mergeCell ref="C31:C36"/>
+    <mergeCell ref="B37:B43"/>
+    <mergeCell ref="C37:C43"/>
     <mergeCell ref="B19:B22"/>
     <mergeCell ref="C19:C22"/>
     <mergeCell ref="B27:B29"/>
@@ -3508,12 +3498,25 @@
     <mergeCell ref="C15:C18"/>
     <mergeCell ref="B7:B10"/>
     <mergeCell ref="C7:C10"/>
-    <mergeCell ref="B31:B36"/>
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="C23:C26"/>
-    <mergeCell ref="C31:C36"/>
-    <mergeCell ref="B37:B43"/>
-    <mergeCell ref="C37:C43"/>
+    <mergeCell ref="A37:A43"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A30:A36"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="M27:M29"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="M30:M36"/>
+    <mergeCell ref="M37:M43"/>
+    <mergeCell ref="M2:M4"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="M15:M18"/>
+    <mergeCell ref="M19:M22"/>
+    <mergeCell ref="M23:M26"/>
+    <mergeCell ref="M7:M9"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="M2" r:id="rId1" display="https://www.nuplazid.com/about-pd-related-hallucinations-and-delusions" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -4628,7 +4631,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+    <sheetView topLeftCell="G1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="I68" sqref="I68"/>
     </sheetView>
@@ -4687,7 +4690,7 @@
       </c>
     </row>
     <row r="2" spans="1:13" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="94" t="s">
+      <c r="A2" s="91" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="88" t="s">
@@ -4718,9 +4721,9 @@
       </c>
     </row>
     <row r="3" spans="1:13" s="44" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="95"/>
-      <c r="B3" s="96"/>
-      <c r="C3" s="96"/>
+      <c r="A3" s="92"/>
+      <c r="B3" s="93"/>
+      <c r="C3" s="93"/>
       <c r="D3" s="76" t="s">
         <v>347</v>
       </c>
@@ -4750,13 +4753,13 @@
       <c r="C4" s="90" t="s">
         <v>280</v>
       </c>
-      <c r="D4" s="80" t="s">
+      <c r="D4" s="84" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="80" t="s">
+      <c r="E4" s="84" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="80" t="s">
+      <c r="F4" s="84" t="s">
         <v>270</v>
       </c>
       <c r="G4" s="65"/>
@@ -4767,7 +4770,7 @@
       <c r="L4" s="66" t="s">
         <v>269</v>
       </c>
-      <c r="M4" s="84" t="s">
+      <c r="M4" s="80" t="s">
         <v>269</v>
       </c>
     </row>
@@ -4775,9 +4778,9 @@
       <c r="A5" s="89"/>
       <c r="B5" s="90"/>
       <c r="C5" s="90"/>
-      <c r="D5" s="80"/>
-      <c r="E5" s="80"/>
-      <c r="F5" s="80"/>
+      <c r="D5" s="84"/>
+      <c r="E5" s="84"/>
+      <c r="F5" s="84"/>
       <c r="G5" s="65"/>
       <c r="H5" s="65"/>
       <c r="I5" s="65"/>
@@ -4786,15 +4789,15 @@
       <c r="L5" s="66" t="s">
         <v>269</v>
       </c>
-      <c r="M5" s="85"/>
+      <c r="M5" s="81"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="89"/>
       <c r="B6" s="90"/>
       <c r="C6" s="90"/>
-      <c r="D6" s="80"/>
-      <c r="E6" s="80"/>
-      <c r="F6" s="80"/>
+      <c r="D6" s="84"/>
+      <c r="E6" s="84"/>
+      <c r="F6" s="84"/>
       <c r="G6" s="65"/>
       <c r="H6" s="65"/>
       <c r="I6" s="65"/>
@@ -4803,15 +4806,15 @@
       <c r="L6" s="66" t="s">
         <v>269</v>
       </c>
-      <c r="M6" s="85"/>
+      <c r="M6" s="81"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="89"/>
       <c r="B7" s="90"/>
       <c r="C7" s="90"/>
-      <c r="D7" s="80"/>
-      <c r="E7" s="80"/>
-      <c r="F7" s="80"/>
+      <c r="D7" s="84"/>
+      <c r="E7" s="84"/>
+      <c r="F7" s="84"/>
       <c r="G7" s="65"/>
       <c r="H7" s="65"/>
       <c r="I7" s="65"/>
@@ -4820,15 +4823,15 @@
       <c r="L7" s="66" t="s">
         <v>269</v>
       </c>
-      <c r="M7" s="85"/>
+      <c r="M7" s="81"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="89"/>
       <c r="B8" s="90"/>
       <c r="C8" s="90"/>
-      <c r="D8" s="80"/>
-      <c r="E8" s="80"/>
-      <c r="F8" s="80"/>
+      <c r="D8" s="84"/>
+      <c r="E8" s="84"/>
+      <c r="F8" s="84"/>
       <c r="G8" s="65"/>
       <c r="H8" s="65"/>
       <c r="I8" s="65"/>
@@ -4837,7 +4840,7 @@
       <c r="L8" s="66" t="s">
         <v>269</v>
       </c>
-      <c r="M8" s="85"/>
+      <c r="M8" s="81"/>
     </row>
     <row r="9" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A9" s="89"/>
@@ -4866,66 +4869,66 @@
       <c r="A10" s="89" t="s">
         <v>212</v>
       </c>
-      <c r="B10" s="91" t="s">
+      <c r="B10" s="95" t="s">
         <v>360</v>
       </c>
       <c r="C10" s="90" t="s">
         <v>284</v>
       </c>
-      <c r="D10" s="80" t="s">
+      <c r="D10" s="84" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="80" t="s">
+      <c r="E10" s="84" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="80" t="s">
+      <c r="F10" s="84" t="s">
         <v>32</v>
       </c>
-      <c r="G10" s="91"/>
-      <c r="H10" s="91"/>
-      <c r="I10" s="91"/>
-      <c r="J10" s="93"/>
-      <c r="K10" s="91"/>
-      <c r="L10" s="92" t="s">
+      <c r="G10" s="95"/>
+      <c r="H10" s="95"/>
+      <c r="I10" s="95"/>
+      <c r="J10" s="96"/>
+      <c r="K10" s="95"/>
+      <c r="L10" s="94" t="s">
         <v>33</v>
       </c>
-      <c r="M10" s="84" t="s">
+      <c r="M10" s="80" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="89"/>
-      <c r="B11" s="80"/>
+      <c r="B11" s="84"/>
       <c r="C11" s="90"/>
-      <c r="D11" s="80"/>
-      <c r="E11" s="80"/>
-      <c r="F11" s="80"/>
-      <c r="G11" s="91"/>
-      <c r="H11" s="91"/>
-      <c r="I11" s="91"/>
-      <c r="J11" s="93"/>
-      <c r="K11" s="91"/>
-      <c r="L11" s="92"/>
-      <c r="M11" s="85"/>
+      <c r="D11" s="84"/>
+      <c r="E11" s="84"/>
+      <c r="F11" s="84"/>
+      <c r="G11" s="95"/>
+      <c r="H11" s="95"/>
+      <c r="I11" s="95"/>
+      <c r="J11" s="96"/>
+      <c r="K11" s="95"/>
+      <c r="L11" s="94"/>
+      <c r="M11" s="81"/>
     </row>
     <row r="12" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="89"/>
-      <c r="B12" s="80"/>
+      <c r="B12" s="84"/>
       <c r="C12" s="90"/>
-      <c r="D12" s="80"/>
-      <c r="E12" s="80"/>
-      <c r="F12" s="80"/>
-      <c r="G12" s="91"/>
-      <c r="H12" s="91"/>
-      <c r="I12" s="91"/>
-      <c r="J12" s="93"/>
-      <c r="K12" s="91"/>
-      <c r="L12" s="92"/>
-      <c r="M12" s="85"/>
+      <c r="D12" s="84"/>
+      <c r="E12" s="84"/>
+      <c r="F12" s="84"/>
+      <c r="G12" s="95"/>
+      <c r="H12" s="95"/>
+      <c r="I12" s="95"/>
+      <c r="J12" s="96"/>
+      <c r="K12" s="95"/>
+      <c r="L12" s="94"/>
+      <c r="M12" s="81"/>
     </row>
     <row r="13" spans="1:13" ht="90" x14ac:dyDescent="0.25">
       <c r="A13" s="89"/>
-      <c r="B13" s="80"/>
+      <c r="B13" s="84"/>
       <c r="C13" s="90"/>
       <c r="D13" s="50" t="s">
         <v>376</v>
@@ -4944,11 +4947,11 @@
       <c r="L13" s="66" t="s">
         <v>365</v>
       </c>
-      <c r="M13" s="85"/>
+      <c r="M13" s="81"/>
     </row>
     <row r="14" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="89"/>
-      <c r="B14" s="80"/>
+      <c r="B14" s="84"/>
       <c r="C14" s="90"/>
       <c r="D14" s="50" t="s">
         <v>29</v>
@@ -4967,11 +4970,11 @@
       <c r="L14" s="66" t="s">
         <v>365</v>
       </c>
-      <c r="M14" s="85"/>
+      <c r="M14" s="81"/>
     </row>
     <row r="15" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="89"/>
-      <c r="B15" s="80"/>
+      <c r="B15" s="84"/>
       <c r="C15" s="90"/>
       <c r="D15" s="50"/>
       <c r="E15" s="67"/>
@@ -4984,11 +4987,11 @@
       <c r="L15" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="M15" s="85"/>
+      <c r="M15" s="81"/>
     </row>
     <row r="16" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="89"/>
-      <c r="B16" s="80"/>
+      <c r="B16" s="84"/>
       <c r="C16" s="90"/>
       <c r="D16" s="50"/>
       <c r="E16" s="67"/>
@@ -5001,7 +5004,7 @@
       <c r="L16" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="M16" s="85"/>
+      <c r="M16" s="81"/>
     </row>
     <row r="17" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="89" t="s">
@@ -5026,7 +5029,7 @@
       <c r="L17" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="M17" s="84" t="s">
+      <c r="M17" s="80" t="s">
         <v>33</v>
       </c>
     </row>
@@ -5047,7 +5050,7 @@
       <c r="L18" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="M18" s="84"/>
+      <c r="M18" s="80"/>
     </row>
     <row r="19" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="89"/>
@@ -5066,7 +5069,7 @@
       <c r="L19" s="66" t="s">
         <v>366</v>
       </c>
-      <c r="M19" s="84"/>
+      <c r="M19" s="80"/>
     </row>
     <row r="20" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="89"/>
@@ -5083,7 +5086,7 @@
       <c r="L20" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="M20" s="84"/>
+      <c r="M20" s="80"/>
     </row>
     <row r="21" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="89"/>
@@ -5104,7 +5107,7 @@
       <c r="L21" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="M21" s="84"/>
+      <c r="M21" s="80"/>
     </row>
     <row r="22" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A22" s="89"/>
@@ -5127,7 +5130,7 @@
       <c r="L22" s="66" t="s">
         <v>367</v>
       </c>
-      <c r="M22" s="84"/>
+      <c r="M22" s="80"/>
     </row>
     <row r="23" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="89"/>
@@ -5143,7 +5146,7 @@
       <c r="L23" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="M23" s="84"/>
+      <c r="M23" s="80"/>
     </row>
     <row r="24" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="89"/>
@@ -5166,7 +5169,7 @@
       <c r="L24" s="66" t="s">
         <v>367</v>
       </c>
-      <c r="M24" s="84"/>
+      <c r="M24" s="80"/>
     </row>
     <row r="25" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="89"/>
@@ -5189,7 +5192,7 @@
       <c r="L25" s="66" t="s">
         <v>367</v>
       </c>
-      <c r="M25" s="84"/>
+      <c r="M25" s="80"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="90" t="s">
@@ -5209,7 +5212,7 @@
       <c r="J26" s="66"/>
       <c r="K26" s="65"/>
       <c r="L26" s="66"/>
-      <c r="M26" s="84" t="s">
+      <c r="M26" s="80" t="s">
         <v>33</v>
       </c>
     </row>
@@ -5234,7 +5237,7 @@
       <c r="L27" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="M27" s="85"/>
+      <c r="M27" s="81"/>
     </row>
     <row r="28" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="90"/>
@@ -5250,7 +5253,7 @@
       <c r="L28" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="M28" s="85"/>
+      <c r="M28" s="81"/>
     </row>
     <row r="29" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" s="90"/>
@@ -5271,7 +5274,7 @@
       <c r="L29" s="66" t="s">
         <v>365</v>
       </c>
-      <c r="M29" s="85"/>
+      <c r="M29" s="81"/>
     </row>
     <row r="30" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="90" t="s">
@@ -5298,7 +5301,7 @@
       <c r="L30" s="66" t="s">
         <v>271</v>
       </c>
-      <c r="M30" s="84" t="s">
+      <c r="M30" s="80" t="s">
         <v>271</v>
       </c>
     </row>
@@ -5323,7 +5326,7 @@
       <c r="L31" s="66" t="s">
         <v>271</v>
       </c>
-      <c r="M31" s="85"/>
+      <c r="M31" s="81"/>
     </row>
     <row r="32" spans="1:13" ht="195" x14ac:dyDescent="0.25">
       <c r="A32" s="90"/>
@@ -5348,7 +5351,7 @@
       <c r="L32" s="66" t="s">
         <v>368</v>
       </c>
-      <c r="M32" s="85"/>
+      <c r="M32" s="81"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="90"/>
@@ -5363,7 +5366,7 @@
       <c r="J33" s="66"/>
       <c r="K33" s="65"/>
       <c r="L33" s="66"/>
-      <c r="M33" s="85"/>
+      <c r="M33" s="81"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="90"/>
@@ -5378,7 +5381,7 @@
       <c r="J34" s="66"/>
       <c r="K34" s="43"/>
       <c r="L34" s="66"/>
-      <c r="M34" s="85"/>
+      <c r="M34" s="81"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="90"/>
@@ -5393,7 +5396,7 @@
       <c r="J35" s="66"/>
       <c r="K35" s="43"/>
       <c r="L35" s="66"/>
-      <c r="M35" s="85"/>
+      <c r="M35" s="81"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="90"/>
@@ -5408,7 +5411,7 @@
       <c r="J36" s="66"/>
       <c r="K36" s="43"/>
       <c r="L36" s="66"/>
-      <c r="M36" s="85"/>
+      <c r="M36" s="81"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="90"/>
@@ -5422,7 +5425,7 @@
       <c r="J37" s="66"/>
       <c r="K37" s="43"/>
       <c r="L37" s="66"/>
-      <c r="M37" s="85"/>
+      <c r="M37" s="81"/>
     </row>
     <row r="38" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A38" s="90" t="s">
@@ -5453,7 +5456,7 @@
       <c r="L38" s="66" t="s">
         <v>383</v>
       </c>
-      <c r="M38" s="84" t="s">
+      <c r="M38" s="80" t="s">
         <v>272</v>
       </c>
     </row>
@@ -5470,7 +5473,7 @@
       <c r="J39" s="66"/>
       <c r="K39" s="65"/>
       <c r="L39" s="66"/>
-      <c r="M39" s="85"/>
+      <c r="M39" s="81"/>
     </row>
     <row r="40" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="90" t="s">
@@ -5496,7 +5499,7 @@
       <c r="L40" s="47" t="s">
         <v>273</v>
       </c>
-      <c r="M40" s="84" t="s">
+      <c r="M40" s="80" t="s">
         <v>273</v>
       </c>
     </row>
@@ -5516,7 +5519,7 @@
       <c r="L41" s="47" t="s">
         <v>273</v>
       </c>
-      <c r="M41" s="85"/>
+      <c r="M41" s="81"/>
     </row>
     <row r="42" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="90"/>
@@ -5539,7 +5542,7 @@
       <c r="L42" s="47" t="s">
         <v>273</v>
       </c>
-      <c r="M42" s="85"/>
+      <c r="M42" s="81"/>
     </row>
     <row r="43" spans="1:13" ht="180" x14ac:dyDescent="0.25">
       <c r="A43" s="90"/>
@@ -5565,7 +5568,7 @@
       <c r="L43" s="47" t="s">
         <v>273</v>
       </c>
-      <c r="M43" s="85"/>
+      <c r="M43" s="81"/>
     </row>
     <row r="44" spans="1:13" ht="120" x14ac:dyDescent="0.25">
       <c r="A44" s="90"/>
@@ -5588,7 +5591,7 @@
       <c r="L44" s="47" t="s">
         <v>383</v>
       </c>
-      <c r="M44" s="85"/>
+      <c r="M44" s="81"/>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="90"/>
@@ -5603,7 +5606,7 @@
       <c r="J45" s="47"/>
       <c r="K45" s="65"/>
       <c r="L45" s="47"/>
-      <c r="M45" s="85"/>
+      <c r="M45" s="81"/>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="90"/>
@@ -5615,7 +5618,7 @@
       <c r="I46" s="65"/>
       <c r="J46" s="47"/>
       <c r="L46" s="47"/>
-      <c r="M46" s="85"/>
+      <c r="M46" s="81"/>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="90"/>
@@ -5627,7 +5630,7 @@
       <c r="I47" s="65"/>
       <c r="J47" s="47"/>
       <c r="L47" s="47"/>
-      <c r="M47" s="85"/>
+      <c r="M47" s="81"/>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="90"/>
@@ -5639,7 +5642,7 @@
       <c r="I48" s="65"/>
       <c r="J48" s="47"/>
       <c r="L48" s="47"/>
-      <c r="M48" s="85"/>
+      <c r="M48" s="81"/>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="90"/>
@@ -5651,7 +5654,7 @@
       <c r="I49" s="65"/>
       <c r="J49" s="47"/>
       <c r="L49" s="47"/>
-      <c r="M49" s="85"/>
+      <c r="M49" s="81"/>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="90"/>
@@ -5663,7 +5666,7 @@
       <c r="I50" s="65"/>
       <c r="J50" s="47"/>
       <c r="L50" s="47"/>
-      <c r="M50" s="85"/>
+      <c r="M50" s="81"/>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="90"/>
@@ -5675,7 +5678,7 @@
       <c r="I51" s="65"/>
       <c r="J51" s="47"/>
       <c r="L51" s="47"/>
-      <c r="M51" s="85"/>
+      <c r="M51" s="81"/>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="90"/>
@@ -5687,7 +5690,7 @@
       <c r="I52" s="65"/>
       <c r="J52" s="47"/>
       <c r="L52" s="47"/>
-      <c r="M52" s="85"/>
+      <c r="M52" s="81"/>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="90"/>
@@ -5699,7 +5702,7 @@
       <c r="I53" s="65"/>
       <c r="J53" s="47"/>
       <c r="L53" s="47"/>
-      <c r="M53" s="85"/>
+      <c r="M53" s="81"/>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="90"/>
@@ -5711,7 +5714,7 @@
       <c r="I54" s="65"/>
       <c r="J54" s="47"/>
       <c r="L54" s="47"/>
-      <c r="M54" s="85"/>
+      <c r="M54" s="81"/>
     </row>
     <row r="55" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="90" t="s">
@@ -5735,7 +5738,7 @@
       <c r="L55" s="66" t="s">
         <v>310</v>
       </c>
-      <c r="M55" s="92" t="s">
+      <c r="M55" s="94" t="s">
         <v>274</v>
       </c>
     </row>
@@ -5755,7 +5758,7 @@
       <c r="L56" s="47" t="s">
         <v>310</v>
       </c>
-      <c r="M56" s="85"/>
+      <c r="M56" s="81"/>
     </row>
     <row r="57" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="90"/>
@@ -5775,7 +5778,7 @@
       <c r="L57" s="66" t="s">
         <v>369</v>
       </c>
-      <c r="M57" s="85"/>
+      <c r="M57" s="81"/>
     </row>
     <row r="58" spans="1:13" ht="180" x14ac:dyDescent="0.25">
       <c r="A58" s="90"/>
@@ -5795,7 +5798,7 @@
       <c r="L58" s="66" t="s">
         <v>370</v>
       </c>
-      <c r="M58" s="85"/>
+      <c r="M58" s="81"/>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="90"/>
@@ -5807,7 +5810,7 @@
       <c r="I59" s="65"/>
       <c r="J59" s="47"/>
       <c r="L59" s="66"/>
-      <c r="M59" s="85"/>
+      <c r="M59" s="81"/>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="90"/>
@@ -5819,7 +5822,7 @@
       <c r="I60" s="65"/>
       <c r="J60" s="47"/>
       <c r="L60" s="66"/>
-      <c r="M60" s="85"/>
+      <c r="M60" s="81"/>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="90"/>
@@ -5831,7 +5834,7 @@
       <c r="I61" s="65"/>
       <c r="J61" s="47"/>
       <c r="L61" s="66"/>
-      <c r="M61" s="85"/>
+      <c r="M61" s="81"/>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="90"/>
@@ -5843,7 +5846,7 @@
       <c r="I62" s="65"/>
       <c r="J62" s="47"/>
       <c r="L62" s="66"/>
-      <c r="M62" s="85"/>
+      <c r="M62" s="81"/>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="90"/>
@@ -5855,7 +5858,7 @@
       <c r="I63" s="65"/>
       <c r="J63" s="47"/>
       <c r="L63" s="66"/>
-      <c r="M63" s="85"/>
+      <c r="M63" s="81"/>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="90"/>
@@ -5866,7 +5869,7 @@
       <c r="F64" s="50"/>
       <c r="J64" s="47"/>
       <c r="L64" s="66"/>
-      <c r="M64" s="85"/>
+      <c r="M64" s="81"/>
     </row>
     <row r="65" spans="1:13" ht="120" x14ac:dyDescent="0.25">
       <c r="A65" s="90" t="s">
@@ -5892,7 +5895,7 @@
       <c r="L65" s="66" t="s">
         <v>371</v>
       </c>
-      <c r="M65" s="92" t="s">
+      <c r="M65" s="94" t="s">
         <v>279</v>
       </c>
     </row>
@@ -5906,7 +5909,7 @@
       <c r="I66" s="65"/>
       <c r="J66" s="47"/>
       <c r="L66" s="66"/>
-      <c r="M66" s="85"/>
+      <c r="M66" s="81"/>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="90"/>
@@ -5918,7 +5921,7 @@
       <c r="I67" s="65"/>
       <c r="J67" s="47"/>
       <c r="L67" s="66"/>
-      <c r="M67" s="85"/>
+      <c r="M67" s="81"/>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" s="90"/>
@@ -5930,7 +5933,7 @@
       <c r="I68" s="65"/>
       <c r="J68" s="47"/>
       <c r="L68" s="66"/>
-      <c r="M68" s="85"/>
+      <c r="M68" s="81"/>
     </row>
     <row r="69" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" s="90" t="s">
@@ -5958,14 +5961,14 @@
       <c r="L69" s="66" t="s">
         <v>370</v>
       </c>
-      <c r="M69" s="84" t="s">
+      <c r="M69" s="80" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="70" spans="1:13" ht="90" x14ac:dyDescent="0.25">
       <c r="A70" s="90"/>
-      <c r="B70" s="85"/>
-      <c r="C70" s="85"/>
+      <c r="B70" s="81"/>
+      <c r="C70" s="81"/>
       <c r="D70" s="50" t="s">
         <v>127</v>
       </c>
@@ -5983,12 +5986,12 @@
       <c r="L70" s="66" t="s">
         <v>369</v>
       </c>
-      <c r="M70" s="85"/>
+      <c r="M70" s="81"/>
     </row>
     <row r="71" spans="1:13" ht="105" x14ac:dyDescent="0.25">
       <c r="A71" s="90"/>
-      <c r="B71" s="85"/>
-      <c r="C71" s="85"/>
+      <c r="B71" s="81"/>
+      <c r="C71" s="81"/>
       <c r="D71" s="50" t="s">
         <v>128</v>
       </c>
@@ -6005,63 +6008,63 @@
         <v>313</v>
       </c>
       <c r="L71" s="47"/>
-      <c r="M71" s="85"/>
+      <c r="M71" s="81"/>
     </row>
     <row r="72" spans="1:13" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="90"/>
-      <c r="B72" s="85"/>
-      <c r="C72" s="85"/>
+      <c r="B72" s="81"/>
+      <c r="C72" s="81"/>
       <c r="D72" s="43"/>
       <c r="E72" s="73"/>
       <c r="F72" s="56"/>
       <c r="I72" s="65"/>
       <c r="J72" s="47"/>
       <c r="L72" s="47"/>
-      <c r="M72" s="85"/>
+      <c r="M72" s="81"/>
     </row>
     <row r="73" spans="1:13" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="90"/>
-      <c r="B73" s="85"/>
-      <c r="C73" s="85"/>
+      <c r="B73" s="81"/>
+      <c r="C73" s="81"/>
       <c r="D73" s="43"/>
       <c r="E73" s="73"/>
       <c r="F73" s="56"/>
       <c r="I73" s="65"/>
       <c r="J73" s="47"/>
       <c r="L73" s="47"/>
-      <c r="M73" s="85"/>
+      <c r="M73" s="81"/>
     </row>
     <row r="74" spans="1:13" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="90"/>
-      <c r="B74" s="85"/>
-      <c r="C74" s="85"/>
+      <c r="B74" s="81"/>
+      <c r="C74" s="81"/>
       <c r="D74" s="43"/>
       <c r="E74" s="73"/>
       <c r="F74" s="56"/>
       <c r="I74" s="65"/>
       <c r="J74" s="47"/>
       <c r="L74" s="47"/>
-      <c r="M74" s="85"/>
+      <c r="M74" s="81"/>
     </row>
     <row r="75" spans="1:13" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="90"/>
-      <c r="B75" s="85"/>
-      <c r="C75" s="85"/>
+      <c r="B75" s="81"/>
+      <c r="C75" s="81"/>
       <c r="D75" s="43"/>
       <c r="E75" s="67"/>
       <c r="F75" s="56"/>
       <c r="I75" s="65"/>
       <c r="J75" s="47"/>
       <c r="L75" s="47"/>
-      <c r="M75" s="85"/>
+      <c r="M75" s="81"/>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" s="90"/>
-      <c r="B76" s="85"/>
-      <c r="C76" s="85"/>
+      <c r="B76" s="81"/>
+      <c r="C76" s="81"/>
       <c r="D76" s="42"/>
       <c r="F76" s="56"/>
-      <c r="M76" s="85"/>
+      <c r="M76" s="81"/>
     </row>
     <row r="77" spans="1:13" ht="105" x14ac:dyDescent="0.25">
       <c r="A77" s="90" t="s">
@@ -6091,7 +6094,7 @@
       <c r="L77" s="66" t="s">
         <v>370</v>
       </c>
-      <c r="M77" s="92" t="s">
+      <c r="M77" s="94" t="s">
         <v>274</v>
       </c>
     </row>
@@ -6106,7 +6109,7 @@
       <c r="L78" s="66" t="s">
         <v>372</v>
       </c>
-      <c r="M78" s="85"/>
+      <c r="M78" s="81"/>
     </row>
     <row r="79" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A79" s="90" t="s">
@@ -6130,7 +6133,7 @@
       <c r="L79" s="66" t="s">
         <v>372</v>
       </c>
-      <c r="M79" s="92" t="s">
+      <c r="M79" s="94" t="s">
         <v>278</v>
       </c>
     </row>
@@ -6144,7 +6147,7 @@
       <c r="I80" s="65"/>
       <c r="J80" s="66"/>
       <c r="L80" s="66"/>
-      <c r="M80" s="85"/>
+      <c r="M80" s="81"/>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" s="90"/>
@@ -6156,7 +6159,7 @@
       <c r="I81" s="65"/>
       <c r="J81" s="66"/>
       <c r="L81" s="66"/>
-      <c r="M81" s="85"/>
+      <c r="M81" s="81"/>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" s="90"/>
@@ -6168,7 +6171,7 @@
       <c r="I82" s="65"/>
       <c r="J82" s="66"/>
       <c r="L82" s="66"/>
-      <c r="M82" s="85"/>
+      <c r="M82" s="81"/>
     </row>
     <row r="83" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A83" s="49" t="s">
@@ -6218,14 +6221,14 @@
       <c r="L84" s="66" t="s">
         <v>276</v>
       </c>
-      <c r="M84" s="84" t="s">
+      <c r="M84" s="80" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="85" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A85" s="90"/>
-      <c r="B85" s="80"/>
-      <c r="C85" s="80"/>
+      <c r="B85" s="84"/>
+      <c r="C85" s="84"/>
       <c r="D85" s="73" t="s">
         <v>153</v>
       </c>
@@ -6242,12 +6245,12 @@
       <c r="L85" s="66" t="s">
         <v>276</v>
       </c>
-      <c r="M85" s="85"/>
+      <c r="M85" s="81"/>
     </row>
     <row r="86" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A86" s="90"/>
-      <c r="B86" s="80"/>
-      <c r="C86" s="80"/>
+      <c r="B86" s="84"/>
+      <c r="C86" s="84"/>
       <c r="D86" s="73"/>
       <c r="E86" s="67"/>
       <c r="F86" s="73"/>
@@ -6256,12 +6259,12 @@
       <c r="L86" s="66" t="s">
         <v>276</v>
       </c>
-      <c r="M86" s="85"/>
+      <c r="M86" s="81"/>
     </row>
     <row r="87" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A87" s="90"/>
-      <c r="B87" s="80"/>
-      <c r="C87" s="80"/>
+      <c r="B87" s="84"/>
+      <c r="C87" s="84"/>
       <c r="D87" s="73"/>
       <c r="E87" s="67"/>
       <c r="F87" s="73"/>
@@ -6270,12 +6273,12 @@
       <c r="L87" s="66" t="s">
         <v>276</v>
       </c>
-      <c r="M87" s="85"/>
+      <c r="M87" s="81"/>
     </row>
     <row r="88" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A88" s="90"/>
-      <c r="B88" s="80"/>
-      <c r="C88" s="80"/>
+      <c r="B88" s="84"/>
+      <c r="C88" s="84"/>
       <c r="D88" s="73"/>
       <c r="E88" s="67"/>
       <c r="F88" s="73"/>
@@ -6284,12 +6287,12 @@
       <c r="L88" s="66" t="s">
         <v>276</v>
       </c>
-      <c r="M88" s="85"/>
+      <c r="M88" s="81"/>
     </row>
     <row r="89" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A89" s="90"/>
-      <c r="B89" s="80"/>
-      <c r="C89" s="80"/>
+      <c r="B89" s="84"/>
+      <c r="C89" s="84"/>
       <c r="D89" s="73"/>
       <c r="E89" s="67"/>
       <c r="F89" s="73"/>
@@ -6298,7 +6301,7 @@
       <c r="L89" s="66" t="s">
         <v>276</v>
       </c>
-      <c r="M89" s="85"/>
+      <c r="M89" s="81"/>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" s="57"/>
@@ -6366,6 +6369,57 @@
   </sheetData>
   <autoFilter ref="A1:M89" xr:uid="{FE8A9026-FDB0-4A8E-BB8F-FE98E3487D08}"/>
   <mergeCells count="67">
+    <mergeCell ref="G10:G12"/>
+    <mergeCell ref="L10:L12"/>
+    <mergeCell ref="K10:K12"/>
+    <mergeCell ref="J10:J12"/>
+    <mergeCell ref="I10:I12"/>
+    <mergeCell ref="H10:H12"/>
+    <mergeCell ref="C84:C89"/>
+    <mergeCell ref="C77:C78"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="B40:B54"/>
+    <mergeCell ref="C40:C54"/>
+    <mergeCell ref="B55:B64"/>
+    <mergeCell ref="C55:C64"/>
+    <mergeCell ref="B79:B82"/>
+    <mergeCell ref="C79:C82"/>
+    <mergeCell ref="B65:B68"/>
+    <mergeCell ref="C65:C68"/>
+    <mergeCell ref="B69:B76"/>
+    <mergeCell ref="C69:C76"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="A69:A76"/>
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="A79:A82"/>
+    <mergeCell ref="A84:A89"/>
+    <mergeCell ref="B84:B89"/>
+    <mergeCell ref="A65:A68"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="B30:B37"/>
+    <mergeCell ref="C30:C37"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="A30:A37"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A40:A54"/>
+    <mergeCell ref="A55:A64"/>
+    <mergeCell ref="C10:C16"/>
+    <mergeCell ref="B17:B25"/>
+    <mergeCell ref="C17:C25"/>
+    <mergeCell ref="F4:F8"/>
+    <mergeCell ref="F10:F12"/>
+    <mergeCell ref="D4:D8"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="E4:E8"/>
+    <mergeCell ref="E10:E12"/>
+    <mergeCell ref="M84:M89"/>
+    <mergeCell ref="M38:M39"/>
+    <mergeCell ref="M40:M54"/>
+    <mergeCell ref="M55:M64"/>
+    <mergeCell ref="M65:M68"/>
+    <mergeCell ref="M69:M76"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
@@ -6382,57 +6436,6 @@
     <mergeCell ref="B4:B9"/>
     <mergeCell ref="C4:C9"/>
     <mergeCell ref="B10:B16"/>
-    <mergeCell ref="M84:M89"/>
-    <mergeCell ref="M38:M39"/>
-    <mergeCell ref="M40:M54"/>
-    <mergeCell ref="M55:M64"/>
-    <mergeCell ref="M65:M68"/>
-    <mergeCell ref="M69:M76"/>
-    <mergeCell ref="C10:C16"/>
-    <mergeCell ref="B17:B25"/>
-    <mergeCell ref="C17:C25"/>
-    <mergeCell ref="F4:F8"/>
-    <mergeCell ref="F10:F12"/>
-    <mergeCell ref="D4:D8"/>
-    <mergeCell ref="D10:D12"/>
-    <mergeCell ref="E4:E8"/>
-    <mergeCell ref="E10:E12"/>
-    <mergeCell ref="A65:A68"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="C26:C29"/>
-    <mergeCell ref="B30:B37"/>
-    <mergeCell ref="C30:C37"/>
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="A30:A37"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="A40:A54"/>
-    <mergeCell ref="A55:A64"/>
-    <mergeCell ref="A69:A76"/>
-    <mergeCell ref="A77:A78"/>
-    <mergeCell ref="A79:A82"/>
-    <mergeCell ref="A84:A89"/>
-    <mergeCell ref="B84:B89"/>
-    <mergeCell ref="C84:C89"/>
-    <mergeCell ref="C77:C78"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="B40:B54"/>
-    <mergeCell ref="C40:C54"/>
-    <mergeCell ref="B55:B64"/>
-    <mergeCell ref="C55:C64"/>
-    <mergeCell ref="B79:B82"/>
-    <mergeCell ref="C79:C82"/>
-    <mergeCell ref="B65:B68"/>
-    <mergeCell ref="C65:C68"/>
-    <mergeCell ref="B69:B76"/>
-    <mergeCell ref="C69:C76"/>
-    <mergeCell ref="B77:B78"/>
-    <mergeCell ref="G10:G12"/>
-    <mergeCell ref="L10:L12"/>
-    <mergeCell ref="K10:K12"/>
-    <mergeCell ref="J10:J12"/>
-    <mergeCell ref="I10:I12"/>
-    <mergeCell ref="H10:H12"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="M2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>

--- a/Corpus/MLR_Corpus.xlsx
+++ b/Corpus/MLR_Corpus.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workouts\Projects\Acadia\Masori-Chatbot-Dev-main\Masori-Chatbot-Dev-main\Corpus\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Siva\Projects\Acadia\Chatbot_Git\Masori-Chatbot-Dev\Corpus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEAA9E9A-7CD9-432D-8F7B-AECB878F50EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFBE0C03-BF8C-4BA4-A6A8-4341741672E5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuplazid Consumer" sheetId="3" r:id="rId1"/>
@@ -47,7 +47,15 @@
   <commentList>
     <comment ref="A2" authorId="0" shapeId="0" xr:uid="{B4468C53-9464-4F63-81D1-C992873261B1}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Are we missing Personal Stories and Talking to Healthcare Provider?
@@ -57,80 +65,162 @@
 - Speaking to a doctor 
 - or Speaking to a healthcare provider
 stuff like that. The site content will offer some better and more creative suggestions. I also understand that these aren't terms that people generally search for in SEM but if the goal is to help patients/caregivers better naviagate the site, those two pages usually have high engagement.</t>
+        </r>
       </text>
     </comment>
     <comment ref="C2" authorId="1" shapeId="0" xr:uid="{DD2E8F32-48A3-491E-956A-AC81F7E38ADB}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     What are delusions? What are hallucinations?
 Reply:
     I know more info is in the response and further down in the H&amp;D section but I think before people ask the second question, they may want to know what hallucinations and delusions are first as most people cannot define them</t>
+        </r>
       </text>
     </comment>
     <comment ref="F2" authorId="2" shapeId="0" xr:uid="{BB84B340-AF06-4E0C-AE4F-B69F85FAF690}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Provide link to information on site in response</t>
+        </r>
       </text>
     </comment>
     <comment ref="F3" authorId="3" shapeId="0" xr:uid="{C3DFF50C-EF22-47C6-868C-F20870D79A79}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Provide link to information on site in response</t>
+        </r>
       </text>
     </comment>
     <comment ref="F4" authorId="4" shapeId="0" xr:uid="{2B46EE82-DD41-45F9-B431-51F301EDCADE}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Provide link to information on site in response</t>
+        </r>
       </text>
     </comment>
     <comment ref="B5" authorId="5" shapeId="0" xr:uid="{190DBEEA-93D9-4BFD-AD5C-1FA3C401F8CC}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     MLR will make you remove this as we are only indicated in the US.</t>
+        </r>
       </text>
     </comment>
     <comment ref="C15" authorId="6" shapeId="0" xr:uid="{6174D911-122C-4454-8324-AF7C643C4042}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Where can I learn more? Something like that. We need to have something tied to email registrations.</t>
+        </r>
       </text>
     </comment>
     <comment ref="E24" authorId="7" shapeId="0" xr:uid="{3CD3324B-6AA3-457C-8A88-32330C9035AE}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     I recommend to have "Acadia Connect and delete any mention of Nuplazid Connect.</t>
+        </r>
       </text>
     </comment>
     <comment ref="D25" authorId="8" shapeId="0" xr:uid="{C6BC059E-DDFE-4471-8AF3-B08E62FA3401}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     I recommend to have "Acadia Connect and delete any mention of Nuplazid Connect.</t>
+        </r>
       </text>
     </comment>
     <comment ref="E27" authorId="9" shapeId="0" xr:uid="{97A1DE64-2A59-4152-9781-91195D1F313C}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     I recommend to have "Acadia Connect and delete any mention of Nuplazid Connect.</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -154,90 +244,180 @@
   <commentList>
     <comment ref="B4" authorId="0" shapeId="0" xr:uid="{1F2FC693-4862-4100-B58E-7C41F18A8E99}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Nuplazid indication
 patient resources</t>
+        </r>
       </text>
     </comment>
     <comment ref="C10" authorId="1" shapeId="0" xr:uid="{99EA3807-EB10-4FD7-896A-99B320C5B2E2}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     MLR may be concerned with the KOL question. The question posed back will be, "what response do they give if they type that in, given that we don't have any KOL opinions on site." I think this may be changing in the next few months. I'm not sure. Please check with Jake.
 Reply:
     I would delete that KOL question as we don't have any information on the site</t>
+        </r>
       </text>
     </comment>
     <comment ref="F10" authorId="2" shapeId="0" xr:uid="{E98F849F-AA15-47D7-8E3E-AF2E28183101}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Instead of just "only" please revise to "first and only" we say this on the HCP side of things but not on the consumer side.</t>
+        </r>
       </text>
     </comment>
     <comment ref="B17" authorId="3" shapeId="0" xr:uid="{B3A64F05-BDA5-47FC-9B9A-CF3ECAC976B8}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Nuplazid primary endpoint
 Nuplazid secondary endpoint</t>
+        </r>
       </text>
     </comment>
     <comment ref="C26" authorId="4" shapeId="0" xr:uid="{DE93CD08-8D71-480E-AF2B-94A4EDC1EACB}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     For consistency purposes, do we want to revise to "How are delusions measured?"</t>
+        </r>
       </text>
     </comment>
     <comment ref="B30" authorId="5" shapeId="0" xr:uid="{A0649205-201E-40CA-A513-834EE1E2B9FE}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     long-term safety
 drug interactions
 adverse reaction/event</t>
+        </r>
       </text>
     </comment>
     <comment ref="B40" authorId="6" shapeId="0" xr:uid="{490A6B21-E3F0-4BE3-84FA-875C273D4644}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     sprinkle
 dosing guide</t>
+        </r>
       </text>
     </comment>
     <comment ref="B65" authorId="7" shapeId="0" xr:uid="{A0B2C671-E543-4112-8919-FE70430826C8}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     forms</t>
+        </r>
       </text>
     </comment>
     <comment ref="C65" authorId="8" shapeId="0" xr:uid="{D9094AEA-42EA-4E64-8A3F-367796AF3240}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Remove Acadia?</t>
+        </r>
       </text>
     </comment>
     <comment ref="B69" authorId="9" shapeId="0" xr:uid="{5E44F182-AC11-45F7-AC37-DB904E84DBEC}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     coverage
 samples</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -245,7 +425,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="402">
   <si>
     <t>Keywords</t>
   </si>
@@ -1169,42 +1349,14 @@
     <t>https://www.acadiaconnect.com/patient-caregivers</t>
   </si>
   <si>
-    <t>https://www.nuplazidhcp.com/</t>
-  </si>
-  <si>
     <t>NUPLAZID has a demonstrated safety profile in elderly patients with PD psychosis.
 NUPLAZID is indicated for the treatment of hallucinations and delusions associated with Parkinson's disease psychosis.</t>
   </si>
   <si>
-    <t>https://www.nuplazidhcp.com/safety-tolerability-data</t>
-  </si>
-  <si>
-    <t>https://www.nuplazidhcp.com/proposed-moa</t>
-  </si>
-  <si>
-    <t>https://www.nuplazidhcp.com/dosing</t>
-  </si>
-  <si>
-    <t>https://www.nuplazidhcp.com/acadia-connect
-https://www.acadiaconnect.com/healthcare-providers</t>
-  </si>
-  <si>
     <t>https://www.acadiaconnect.com/healthcare-providers/formulary-lookup</t>
   </si>
   <si>
     <t>https://www.acadiaconnect.com/healthcare-providers</t>
-  </si>
-  <si>
-    <t>https://www.nuplazidhcp.com/acadia-connect
-https://www.acadiaconnect.com/healthcare-providers/enrollment</t>
-  </si>
-  <si>
-    <t>https://www.nuplazidhcp.com/acadia-connect
-https://www.acadiaconnect.com/healthcare-providers/coverage-tools</t>
-  </si>
-  <si>
-    <t>https://www.nuplazidhcp.com/acadia-connect
-https://www.acadiaconnect.com/healthcare-providers/cost</t>
   </si>
   <si>
     <t>Tell me more about NUPLAZID.
@@ -1350,13 +1502,6 @@
     <t>Distribution Fact Sheet and Disease Education Fact Sheet</t>
   </si>
   <si>
-    <t>https://www.nuplazidhcp.com/pdf/nuplazid-distribution-fact-sheet.pdf
-https://www.nuplazidhcp.com/pdf/pd-related-hallucinations-delusions-fact-sheet.pdf</t>
-  </si>
-  <si>
-    <t>https://www.nuplazidhcp.com/acadia-connect</t>
-  </si>
-  <si>
     <t>100% of Medicare Part D plans cover NUPLAZID
 80% of patients pay less than $10 for their NUPLAZID prescription
 $0 co-pay for qualifying commercially covered patients</t>
@@ -1369,10 +1514,6 @@
   </si>
   <si>
     <t>Download PDFs</t>
-  </si>
-  <si>
-    <t>https://www.nuplazidhcp.com/pdf/letter-of-appeal.pdf
-https://www.nuplazidhcp.com/pdf/letter-of-medical-necessity.pdf</t>
   </si>
   <si>
     <t>Recommend Intent</t>
@@ -1531,9 +1672,6 @@
 Please check the safety information detail in below link,</t>
   </si>
   <si>
-    <t>http://nuplazid-masori.azurewebsites.net/safety-information#isi</t>
-  </si>
-  <si>
     <t>The cause of PD is unknown but certain factors, such as genetics and environment, are believed to play a role.
 Currently, there is no clear understanding of the exact cause of hallucinations and delusions associated with PD. However, certain brain chemicals and receptors (such as dopamine and serotonin) are believed to play a role. In general, the condition is thought to be caused by the following:</t>
   </si>
@@ -1562,30 +1700,6 @@
   <si>
     <t>Coadministration with strong CYP3A4 inhibitors (e.g., ketoconazole) increases NUPLAZID exposure.
 Coadministration with strong or moderate CYP3A4 inducers reduces NUPLAZID exposure. Avoid concomitant use of strong or moderate CYP3A4 inducers with NUPLAZID.</t>
-  </si>
-  <si>
-    <t>https://www.nuplazidhcp.com/efficacy-data#heading-0</t>
-  </si>
-  <si>
-    <t>https://www.nuplazidhcp.com/efficacy-data#heading-1</t>
-  </si>
-  <si>
-    <t>https://www.nuplazidhcp.com/efficacy-data#heading-3</t>
-  </si>
-  <si>
-    <t>https://www.nuplazidhcp.com/safety-tolerability-data#safetyTabs</t>
-  </si>
-  <si>
-    <t>https://www.nuplazidhcp.com/acadia-connect#heading-1</t>
-  </si>
-  <si>
-    <t>https://www.nuplazidhcp.com/acadia-connect#heading-0</t>
-  </si>
-  <si>
-    <t>https://www.nuplazidhcp.com/acadia-connect#heading-2</t>
-  </si>
-  <si>
-    <t>https://www.nuplazidhcp.com/acadia-connect#heading-3</t>
   </si>
   <si>
     <t>https://www.acadiaconnect.com/healthcare-providers#gtm-844-hcp-body</t>
@@ -1653,46 +1767,115 @@
 NUPLAZID had no effect on motor symptoms.</t>
   </si>
   <si>
-    <t>http://nuplazid-masori.azurewebsites.net/about-pd-related-hallucinations-and-delusions</t>
-  </si>
-  <si>
-    <t>http://nuplazid-masori.azurewebsites.net/about-nuplazid</t>
-  </si>
-  <si>
-    <t>http://nuplazid-masori.azurewebsites.net/talking-to-your-healthcare-provider#doctor-discussion-guide</t>
-  </si>
-  <si>
-    <t>http://nuplazid-masori.azurewebsites.net/talking-to-your-healthcare-provider</t>
-  </si>
-  <si>
-    <t>http://nuplazid-masori.azurewebsites.net/support-and-resources#sign-up-stay-informed
-http://nuplazid-masori.azurewebsites.net/pdf/pd-related-hallucinations-delusions-fact-sheet.pdf</t>
-  </si>
-  <si>
-    <t>http://nuplazid-masori.azurewebsites.net/personal-stories</t>
-  </si>
-  <si>
-    <t>http://nuplazid-masori.azurewebsites.net/contact-us</t>
-  </si>
-  <si>
-    <t>http://nuplazid-masori.azurewebsites.net/pdf/nuplazid-prescribing-information.pdf</t>
-  </si>
-  <si>
-    <t>http://nuplazid-masori.azurewebsites.net/</t>
-  </si>
-  <si>
-    <t>http://nuplazid-masori.azurewebsites.net/frequently-asked-questions</t>
-  </si>
-  <si>
-    <t>http://nuplazid-masori.azurewebsites.net/pdf/pd-related-hallucinations-delusions-fact-sheet.pdf
-http://nuplazid-masori.azurewebsites.net/pdf/nuplazid-fact-sheet.pdf
-http://nuplazid-masori.azurewebsites.net/pdf/nuplazid-doctor-discussion-guide.pdf</t>
-  </si>
-  <si>
-    <t>http://nuplazid-masori.azurewebsites.net/support-and-resources#sign-up-stay-informed</t>
-  </si>
-  <si>
     <t>Resources</t>
+  </si>
+  <si>
+    <t>https://nuplazidhcp-masori.azurewebsites.net/about-pd-psychosis</t>
+  </si>
+  <si>
+    <t>https://nuplazidhcp-masori.azurewebsites.net/</t>
+  </si>
+  <si>
+    <t>https://nuplazidhcp-masori.azurewebsites.net/pdf/nuplazid-distribution-fact-sheet.pdf
+https://nuplazidhcp-masori.azurewebsites.net/pdf/pd-related-hallucinations-delusions-fact-sheet.pdf</t>
+  </si>
+  <si>
+    <t>https://nuplazidhcp-masori.azurewebsites.net/efficacy-data</t>
+  </si>
+  <si>
+    <t>https://nuplazidhcp-masori.azurewebsites.net/efficacy-data#heading-0</t>
+  </si>
+  <si>
+    <t>https://nuplazidhcp-masori.azurewebsites.net/efficacy-data#heading-1</t>
+  </si>
+  <si>
+    <t>https://nuplazidhcp-masori.azurewebsites.net/efficacy-data#heading-3</t>
+  </si>
+  <si>
+    <t>https://nuplazidhcp-masori.azurewebsites.net/safety-tolerability-data</t>
+  </si>
+  <si>
+    <t>https://nuplazidhcp-masori.azurewebsites.net/safety-tolerability-data#safetyTabs</t>
+  </si>
+  <si>
+    <t>https://nuplazidhcp-masori.azurewebsites.net/dosing</t>
+  </si>
+  <si>
+    <t>https://nuplazidhcp-masori.azurewebsites.net/acadia-connect</t>
+  </si>
+  <si>
+    <t>https://nuplazidhcp-masori.azurewebsites.net/acadia-connect
+https://www.acadiaconnect.com/healthcare-providers</t>
+  </si>
+  <si>
+    <t>https://nuplazidhcp-masori.azurewebsites.net/acadia-connect#heading-1</t>
+  </si>
+  <si>
+    <t>https://nuplazidhcp-masori.azurewebsites.net/acadia-connect#heading-0</t>
+  </si>
+  <si>
+    <t>https://nuplazidhcp-masori.azurewebsites.net/acadia-connect#heading-2</t>
+  </si>
+  <si>
+    <t>https://nuplazidhcp-masori.azurewebsites.net/acadia-connect
+https://www.acadiaconnect.com/healthcare-providers/cost</t>
+  </si>
+  <si>
+    <t>https://nuplazidhcp-masori.azurewebsites.net/acadia-connect#heading-3</t>
+  </si>
+  <si>
+    <t>https://nuplazidhcp-masori.azurewebsites.net/acadia-connect
+https://www.acadiaconnect.com/healthcare-providers/coverage-tools</t>
+  </si>
+  <si>
+    <t>https://nuplazidhcp-masori.azurewebsites.net/pdf/letter-of-appeal.pdf
+https://nuplazidhcp-masori.azurewebsites.net/pdf/letter-of-medical-necessity.pdf</t>
+  </si>
+  <si>
+    <t>https://nuplazidhcp-masori.azurewebsites.net/acadia-connect
+https://www.acadiaconnect.com/healthcare-providers/enrollment</t>
+  </si>
+  <si>
+    <t>https://nuplazid-masori.azurewebsites.net/about-pd-related-hallucinations-and-delusions</t>
+  </si>
+  <si>
+    <t>https://nuplazid-masori.azurewebsites.net/about-nuplazid</t>
+  </si>
+  <si>
+    <t>https://nuplazid-masori.azurewebsites.net/talking-to-your-healthcare-provider#doctor-discussion-guide</t>
+  </si>
+  <si>
+    <t>https://nuplazid-masori.azurewebsites.net/talking-to-your-healthcare-provider</t>
+  </si>
+  <si>
+    <t>https://nuplazid-masori.azurewebsites.net/support-and-resources#sign-up-stay-informed
+https://nuplazid-masori.azurewebsites.net/pdf/pd-related-hallucinations-delusions-fact-sheet.pdf</t>
+  </si>
+  <si>
+    <t>https://nuplazid-masori.azurewebsites.net/personal-stories</t>
+  </si>
+  <si>
+    <t>https://nuplazid-masori.azurewebsites.net/contact-us</t>
+  </si>
+  <si>
+    <t>https://nuplazid-masori.azurewebsites.net/safety-information#isi</t>
+  </si>
+  <si>
+    <t>https://nuplazid-masori.azurewebsites.net/pdf/nuplazid-prescribing-information.pdf</t>
+  </si>
+  <si>
+    <t>https://nuplazid-masori.azurewebsites.net/</t>
+  </si>
+  <si>
+    <t>https://nuplazid-masori.azurewebsites.net/frequently-asked-questions</t>
+  </si>
+  <si>
+    <t>https://nuplazid-masori.azurewebsites.net/pdf/pd-related-hallucinations-delusions-fact-sheet.pdf
+https://nuplazid-masori.azurewebsites.net/pdf/nuplazid-fact-sheet.pdf
+https://nuplazid-masori.azurewebsites.net/pdf/nuplazid-doctor-discussion-guide.pdf</t>
+  </si>
+  <si>
+    <t>https://nuplazid-masori.azurewebsites.net/support-and-resources#sign-up-stay-informed</t>
   </si>
 </sst>
 </file>
@@ -1961,6 +2144,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1973,16 +2166,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1992,6 +2175,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2000,15 +2192,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2388,24 +2571,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D43" sqref="D43"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.42578125" style="58" customWidth="1"/>
-    <col min="2" max="2" width="27.140625" style="44" customWidth="1"/>
-    <col min="3" max="3" width="47.140625" style="44" customWidth="1"/>
-    <col min="4" max="4" width="41.85546875" style="57" customWidth="1"/>
-    <col min="5" max="5" width="41.85546875" style="71" customWidth="1"/>
-    <col min="6" max="6" width="83.7109375" customWidth="1"/>
-    <col min="7" max="12" width="37.28515625" style="44" customWidth="1"/>
+    <col min="1" max="1" width="30.44140625" style="58" customWidth="1"/>
+    <col min="2" max="2" width="27.109375" style="44" customWidth="1"/>
+    <col min="3" max="3" width="47.109375" style="44" customWidth="1"/>
+    <col min="4" max="4" width="41.88671875" style="57" customWidth="1"/>
+    <col min="5" max="5" width="41.88671875" style="71" customWidth="1"/>
+    <col min="6" max="6" width="83.6640625" customWidth="1"/>
+    <col min="7" max="12" width="37.33203125" style="44" customWidth="1"/>
     <col min="13" max="13" width="74" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="51" t="s">
         <v>1</v>
       </c>
@@ -2419,45 +2602,45 @@
         <v>197</v>
       </c>
       <c r="E1" s="51" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G1" s="45" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="H1" s="45" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="I1" s="45" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="J1" s="45" t="s">
+        <v>298</v>
+      </c>
+      <c r="K1" s="45" t="s">
+        <v>299</v>
+      </c>
+      <c r="L1" s="45" t="s">
         <v>306</v>
       </c>
-      <c r="K1" s="45" t="s">
-        <v>307</v>
-      </c>
-      <c r="L1" s="45" t="s">
-        <v>317</v>
-      </c>
       <c r="M1" s="2" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" s="31" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A2" s="85" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" s="31" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="A2" s="82" t="s">
         <v>229</v>
       </c>
-      <c r="B2" s="85" t="s">
+      <c r="B2" s="82" t="s">
         <v>234</v>
       </c>
-      <c r="C2" s="85" t="s">
-        <v>281</v>
+      <c r="C2" s="82" t="s">
+        <v>273</v>
       </c>
       <c r="D2" s="57" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="E2" s="71" t="s">
         <v>10</v>
@@ -2471,46 +2654,46 @@
       <c r="J2" s="65"/>
       <c r="K2" s="65"/>
       <c r="L2" s="66" t="s">
-        <v>388</v>
-      </c>
-      <c r="M2" s="83" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" s="31" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A3" s="86"/>
-      <c r="B3" s="84"/>
-      <c r="C3" s="86"/>
+        <v>389</v>
+      </c>
+      <c r="M2" s="87" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" s="31" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A3" s="83"/>
+      <c r="B3" s="80"/>
+      <c r="C3" s="83"/>
       <c r="D3" s="57" t="s">
         <v>10</v>
       </c>
       <c r="E3" s="71" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="F3" s="32" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="G3" s="65" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="H3" s="65"/>
       <c r="I3" s="65"/>
       <c r="J3" s="65"/>
       <c r="K3" s="65"/>
       <c r="L3" s="66" t="s">
-        <v>388</v>
-      </c>
-      <c r="M3" s="81"/>
-    </row>
-    <row r="4" spans="1:13" s="31" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" s="86"/>
-      <c r="B4" s="84"/>
-      <c r="C4" s="86"/>
+        <v>389</v>
+      </c>
+      <c r="M3" s="85"/>
+    </row>
+    <row r="4" spans="1:13" s="31" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="83"/>
+      <c r="B4" s="80"/>
+      <c r="C4" s="83"/>
       <c r="D4" s="57" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="E4" s="71" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="F4" s="32" t="s">
         <v>199</v>
@@ -2521,25 +2704,25 @@
       <c r="J4" s="65"/>
       <c r="K4" s="65"/>
       <c r="L4" s="66" t="s">
-        <v>388</v>
-      </c>
-      <c r="M4" s="81"/>
-    </row>
-    <row r="5" spans="1:13" ht="105" x14ac:dyDescent="0.25">
-      <c r="A5" s="87" t="s">
+        <v>389</v>
+      </c>
+      <c r="M4" s="85"/>
+    </row>
+    <row r="5" spans="1:13" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="81" t="s">
         <v>172</v>
       </c>
-      <c r="B5" s="84" t="s">
-        <v>290</v>
-      </c>
-      <c r="C5" s="84" t="s">
+      <c r="B5" s="80" t="s">
+        <v>282</v>
+      </c>
+      <c r="C5" s="80" t="s">
         <v>235</v>
       </c>
       <c r="D5" s="57" t="s">
         <v>173</v>
       </c>
       <c r="E5" s="75" t="s">
-        <v>353</v>
+        <v>342</v>
       </c>
       <c r="F5" s="32" t="s">
         <v>200</v>
@@ -2550,55 +2733,55 @@
       <c r="J5" s="65"/>
       <c r="K5" s="65"/>
       <c r="L5" s="66" t="s">
-        <v>389</v>
-      </c>
-      <c r="M5" s="80" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="90" x14ac:dyDescent="0.25">
-      <c r="A6" s="87"/>
-      <c r="B6" s="87"/>
-      <c r="C6" s="87"/>
+        <v>390</v>
+      </c>
+      <c r="M5" s="84" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="72" x14ac:dyDescent="0.3">
+      <c r="A6" s="81"/>
+      <c r="B6" s="81"/>
+      <c r="C6" s="81"/>
       <c r="D6" s="57" t="s">
-        <v>353</v>
+        <v>342</v>
       </c>
       <c r="E6" s="71" t="s">
         <v>232</v>
       </c>
       <c r="F6" s="33" t="s">
-        <v>386</v>
+        <v>366</v>
       </c>
       <c r="G6" s="65" t="s">
-        <v>387</v>
+        <v>367</v>
       </c>
       <c r="H6" s="65"/>
       <c r="I6" s="65"/>
       <c r="J6" s="65"/>
       <c r="K6" s="65"/>
       <c r="L6" s="66" t="s">
-        <v>389</v>
-      </c>
-      <c r="M6" s="81"/>
-    </row>
-    <row r="7" spans="1:13" s="44" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A7" s="84" t="s">
-        <v>294</v>
-      </c>
-      <c r="B7" s="84" t="s">
-        <v>295</v>
-      </c>
-      <c r="C7" s="84" t="s">
-        <v>299</v>
+        <v>390</v>
+      </c>
+      <c r="M6" s="85"/>
+    </row>
+    <row r="7" spans="1:13" s="44" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="80" t="s">
+        <v>286</v>
+      </c>
+      <c r="B7" s="80" t="s">
+        <v>287</v>
+      </c>
+      <c r="C7" s="80" t="s">
+        <v>291</v>
       </c>
       <c r="D7" s="61" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="E7" s="71" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="F7" s="61" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="G7" s="65"/>
       <c r="H7" s="65"/>
@@ -2606,24 +2789,24 @@
       <c r="J7" s="65"/>
       <c r="K7" s="65"/>
       <c r="L7" s="66" t="s">
-        <v>390</v>
-      </c>
-      <c r="M7" s="80" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" s="44" customFormat="1" ht="150" x14ac:dyDescent="0.25">
-      <c r="A8" s="84"/>
-      <c r="B8" s="84"/>
-      <c r="C8" s="84"/>
+      <c r="M7" s="84" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" s="44" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="80"/>
+      <c r="B8" s="80"/>
+      <c r="C8" s="80"/>
       <c r="D8" s="61" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="E8" s="71" t="s">
         <v>192</v>
       </c>
       <c r="F8" s="61" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="G8" s="65"/>
       <c r="H8" s="65"/>
@@ -2631,39 +2814,39 @@
       <c r="J8" s="65"/>
       <c r="K8" s="65"/>
       <c r="L8" s="66" t="s">
-        <v>391</v>
-      </c>
-      <c r="M8" s="81"/>
-    </row>
-    <row r="9" spans="1:13" s="44" customFormat="1" ht="105" x14ac:dyDescent="0.25">
-      <c r="A9" s="84"/>
-      <c r="B9" s="84"/>
-      <c r="C9" s="84"/>
+        <v>392</v>
+      </c>
+      <c r="M8" s="85"/>
+    </row>
+    <row r="9" spans="1:13" s="44" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A9" s="80"/>
+      <c r="B9" s="80"/>
+      <c r="C9" s="80"/>
       <c r="D9" s="61" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="E9" s="71"/>
       <c r="F9" s="61" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="G9" s="65"/>
       <c r="H9" s="65"/>
       <c r="I9" s="65" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="J9" s="66" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="K9" s="65"/>
       <c r="L9" s="66" t="s">
-        <v>391</v>
-      </c>
-      <c r="M9" s="81"/>
-    </row>
-    <row r="10" spans="1:13" s="44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="84"/>
-      <c r="B10" s="84"/>
-      <c r="C10" s="84"/>
+        <v>392</v>
+      </c>
+      <c r="M9" s="85"/>
+    </row>
+    <row r="10" spans="1:13" s="44" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="80"/>
+      <c r="B10" s="80"/>
+      <c r="C10" s="80"/>
       <c r="D10" s="61"/>
       <c r="E10" s="71"/>
       <c r="F10" s="61"/>
@@ -2675,36 +2858,36 @@
       <c r="L10" s="71"/>
       <c r="M10" s="64"/>
     </row>
-    <row r="11" spans="1:13" s="44" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" s="44" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A11" s="61" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="B11" s="61" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="C11" s="61" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="D11" s="61"/>
       <c r="E11" s="71"/>
       <c r="F11" s="61" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="G11" s="65"/>
       <c r="H11" s="66" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="I11" s="65"/>
       <c r="J11" s="65"/>
       <c r="K11" s="65"/>
       <c r="L11" s="70" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="M11" s="63" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" s="44" customFormat="1" x14ac:dyDescent="0.25">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" s="44" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="61"/>
       <c r="B12" s="61"/>
       <c r="C12" s="61"/>
@@ -2719,7 +2902,7 @@
       <c r="L12" s="71"/>
       <c r="M12" s="64"/>
     </row>
-    <row r="13" spans="1:13" s="44" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" s="44" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="61"/>
       <c r="B13" s="61"/>
       <c r="C13" s="61"/>
@@ -2734,7 +2917,7 @@
       <c r="L13" s="71"/>
       <c r="M13" s="64"/>
     </row>
-    <row r="14" spans="1:13" s="44" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" s="44" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="61"/>
       <c r="B14" s="61"/>
       <c r="C14" s="61"/>
@@ -2749,21 +2932,21 @@
       <c r="L14" s="71"/>
       <c r="M14" s="64"/>
     </row>
-    <row r="15" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="87" t="s">
+    <row r="15" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A15" s="81" t="s">
         <v>174</v>
       </c>
-      <c r="B15" s="84" t="s">
+      <c r="B15" s="80" t="s">
         <v>236</v>
       </c>
-      <c r="C15" s="84" t="s">
-        <v>291</v>
+      <c r="C15" s="80" t="s">
+        <v>283</v>
       </c>
       <c r="D15" s="57" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
       <c r="E15" s="71" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="F15" s="32" t="s">
         <v>201</v>
@@ -2774,21 +2957,21 @@
       <c r="J15" s="65"/>
       <c r="K15" s="65"/>
       <c r="L15" s="66" t="s">
-        <v>388</v>
-      </c>
-      <c r="M15" s="80" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="87"/>
-      <c r="B16" s="87"/>
-      <c r="C16" s="87"/>
+        <v>389</v>
+      </c>
+      <c r="M15" s="84" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A16" s="81"/>
+      <c r="B16" s="81"/>
+      <c r="C16" s="81"/>
       <c r="D16" s="57" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="E16" s="71" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="F16" s="34" t="s">
         <v>175</v>
@@ -2799,16 +2982,16 @@
       <c r="J16" s="65"/>
       <c r="K16" s="65"/>
       <c r="L16" s="66" t="s">
-        <v>388</v>
-      </c>
-      <c r="M16" s="81"/>
-    </row>
-    <row r="17" spans="1:13" ht="90" x14ac:dyDescent="0.25">
-      <c r="A17" s="87"/>
-      <c r="B17" s="87"/>
-      <c r="C17" s="87"/>
+        <v>389</v>
+      </c>
+      <c r="M16" s="85"/>
+    </row>
+    <row r="17" spans="1:13" ht="72" x14ac:dyDescent="0.3">
+      <c r="A17" s="81"/>
+      <c r="B17" s="81"/>
+      <c r="C17" s="81"/>
       <c r="D17" s="57" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="E17" s="71" t="s">
         <v>230</v>
@@ -2822,14 +3005,14 @@
       <c r="J17" s="65"/>
       <c r="K17" s="65"/>
       <c r="L17" s="66" t="s">
-        <v>388</v>
-      </c>
-      <c r="M17" s="81"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="87"/>
-      <c r="B18" s="87"/>
-      <c r="C18" s="87"/>
+        <v>389</v>
+      </c>
+      <c r="M17" s="85"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A18" s="81"/>
+      <c r="B18" s="81"/>
+      <c r="C18" s="81"/>
       <c r="D18" s="43"/>
       <c r="F18" s="42"/>
       <c r="G18" s="42"/>
@@ -2838,22 +3021,22 @@
       <c r="J18" s="42"/>
       <c r="K18" s="42"/>
       <c r="L18" s="72" t="s">
-        <v>388</v>
-      </c>
-      <c r="M18" s="81"/>
-    </row>
-    <row r="19" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A19" s="87" t="s">
+        <v>389</v>
+      </c>
+      <c r="M18" s="85"/>
+    </row>
+    <row r="19" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A19" s="81" t="s">
         <v>176</v>
       </c>
-      <c r="B19" s="84" t="s">
+      <c r="B19" s="80" t="s">
         <v>237</v>
       </c>
-      <c r="C19" s="84" t="s">
+      <c r="C19" s="80" t="s">
         <v>238</v>
       </c>
       <c r="D19" s="57" t="s">
-        <v>324</v>
+        <v>313</v>
       </c>
       <c r="E19" s="75" t="s">
         <v>177</v>
@@ -2867,18 +3050,18 @@
       <c r="J19" s="65"/>
       <c r="K19" s="65"/>
       <c r="L19" s="66" t="s">
-        <v>388</v>
-      </c>
-      <c r="M19" s="80" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A20" s="87"/>
-      <c r="B20" s="84"/>
-      <c r="C20" s="87"/>
+        <v>389</v>
+      </c>
+      <c r="M19" s="84" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A20" s="81"/>
+      <c r="B20" s="80"/>
+      <c r="C20" s="81"/>
       <c r="D20" s="57" t="s">
-        <v>325</v>
+        <v>314</v>
       </c>
       <c r="E20" s="75" t="s">
         <v>177</v>
@@ -2892,14 +3075,14 @@
       <c r="J20" s="65"/>
       <c r="K20" s="65"/>
       <c r="L20" s="66" t="s">
-        <v>388</v>
-      </c>
-      <c r="M20" s="81"/>
-    </row>
-    <row r="21" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A21" s="87"/>
-      <c r="B21" s="84"/>
-      <c r="C21" s="87"/>
+        <v>389</v>
+      </c>
+      <c r="M20" s="85"/>
+    </row>
+    <row r="21" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A21" s="81"/>
+      <c r="B21" s="80"/>
+      <c r="C21" s="81"/>
       <c r="D21" s="57" t="s">
         <v>177</v>
       </c>
@@ -2915,14 +3098,14 @@
       <c r="J21" s="65"/>
       <c r="K21" s="65"/>
       <c r="L21" s="66" t="s">
-        <v>388</v>
-      </c>
-      <c r="M21" s="81"/>
-    </row>
-    <row r="22" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A22" s="87"/>
-      <c r="B22" s="84"/>
-      <c r="C22" s="87"/>
+        <v>389</v>
+      </c>
+      <c r="M21" s="85"/>
+    </row>
+    <row r="22" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="81"/>
+      <c r="B22" s="80"/>
+      <c r="C22" s="81"/>
       <c r="D22" s="57" t="s">
         <v>178</v>
       </c>
@@ -2935,18 +3118,18 @@
       <c r="J22" s="65"/>
       <c r="K22" s="65"/>
       <c r="L22" s="66" t="s">
-        <v>388</v>
-      </c>
-      <c r="M22" s="81"/>
-    </row>
-    <row r="23" spans="1:13" ht="90" x14ac:dyDescent="0.25">
-      <c r="A23" s="87" t="s">
+        <v>389</v>
+      </c>
+      <c r="M22" s="85"/>
+    </row>
+    <row r="23" spans="1:13" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A23" s="81" t="s">
         <v>179</v>
       </c>
-      <c r="B23" s="84" t="s">
-        <v>292</v>
-      </c>
-      <c r="C23" s="84" t="s">
+      <c r="B23" s="80" t="s">
+        <v>284</v>
+      </c>
+      <c r="C23" s="80" t="s">
         <v>239</v>
       </c>
       <c r="D23" s="57" t="s">
@@ -2961,70 +3144,70 @@
       <c r="J23" s="65"/>
       <c r="K23" s="65"/>
       <c r="L23" s="66" t="s">
-        <v>394</v>
-      </c>
-      <c r="M23" s="80" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" ht="150" x14ac:dyDescent="0.25">
-      <c r="A24" s="87"/>
-      <c r="B24" s="84"/>
-      <c r="C24" s="87"/>
+        <v>395</v>
+      </c>
+      <c r="M23" s="84" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="81"/>
+      <c r="B24" s="80"/>
+      <c r="C24" s="81"/>
       <c r="D24" s="57" t="s">
         <v>18</v>
       </c>
       <c r="E24" s="71" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="F24" s="41" t="s">
-        <v>356</v>
+        <v>345</v>
       </c>
       <c r="G24" s="65"/>
       <c r="H24" s="65"/>
       <c r="I24" s="65" t="s">
-        <v>355</v>
+        <v>344</v>
       </c>
       <c r="J24" s="66" t="s">
-        <v>357</v>
+        <v>396</v>
       </c>
       <c r="K24" s="73"/>
       <c r="L24" s="66" t="s">
-        <v>336</v>
-      </c>
-      <c r="M24" s="81"/>
-    </row>
-    <row r="25" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="87"/>
-      <c r="B25" s="84"/>
-      <c r="C25" s="87"/>
+        <v>325</v>
+      </c>
+      <c r="M24" s="85"/>
+    </row>
+    <row r="25" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A25" s="81"/>
+      <c r="B25" s="80"/>
+      <c r="C25" s="81"/>
       <c r="D25" s="57" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="E25" s="71" t="s">
         <v>230</v>
       </c>
       <c r="F25" s="32" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="G25" s="65"/>
       <c r="H25" s="65"/>
       <c r="I25" s="65" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
       <c r="J25" s="66" t="s">
         <v>268</v>
       </c>
       <c r="K25" s="65"/>
       <c r="L25" s="66" t="s">
-        <v>394</v>
-      </c>
-      <c r="M25" s="81"/>
-    </row>
-    <row r="26" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="87"/>
-      <c r="B26" s="84"/>
-      <c r="C26" s="87"/>
+        <v>395</v>
+      </c>
+      <c r="M25" s="85"/>
+    </row>
+    <row r="26" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A26" s="81"/>
+      <c r="B26" s="80"/>
+      <c r="C26" s="81"/>
       <c r="D26" s="43"/>
       <c r="F26" s="43"/>
       <c r="G26" s="43"/>
@@ -3033,28 +3216,28 @@
       <c r="J26" s="43"/>
       <c r="K26" s="43"/>
       <c r="L26" s="66" t="s">
-        <v>394</v>
-      </c>
-      <c r="M26" s="81"/>
-    </row>
-    <row r="27" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A27" s="87" t="s">
+        <v>395</v>
+      </c>
+      <c r="M26" s="85"/>
+    </row>
+    <row r="27" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A27" s="81" t="s">
         <v>181</v>
       </c>
-      <c r="B27" s="84" t="s">
+      <c r="B27" s="80" t="s">
         <v>240</v>
       </c>
-      <c r="C27" s="82" t="s">
+      <c r="C27" s="86" t="s">
         <v>241</v>
       </c>
       <c r="D27" s="57" t="s">
         <v>182</v>
       </c>
       <c r="E27" s="71" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="F27" s="32" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
       <c r="G27" s="65"/>
       <c r="H27" s="65"/>
@@ -3062,20 +3245,20 @@
         <v>84</v>
       </c>
       <c r="J27" s="66" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="K27" s="65"/>
       <c r="L27" s="66" t="s">
-        <v>396</v>
-      </c>
-      <c r="M27" s="80" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="87"/>
-      <c r="B28" s="84"/>
-      <c r="C28" s="82"/>
+        <v>398</v>
+      </c>
+      <c r="M27" s="84" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A28" s="81"/>
+      <c r="B28" s="80"/>
+      <c r="C28" s="86"/>
       <c r="D28" s="57" t="s">
         <v>183</v>
       </c>
@@ -3091,14 +3274,14 @@
       <c r="J28" s="65"/>
       <c r="K28" s="65"/>
       <c r="L28" s="66" t="s">
-        <v>396</v>
-      </c>
-      <c r="M28" s="81"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="87"/>
-      <c r="B29" s="84"/>
-      <c r="C29" s="82"/>
+        <v>398</v>
+      </c>
+      <c r="M28" s="85"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A29" s="81"/>
+      <c r="B29" s="80"/>
+      <c r="C29" s="86"/>
       <c r="D29" s="43"/>
       <c r="F29" s="42"/>
       <c r="G29" s="42"/>
@@ -3107,12 +3290,12 @@
       <c r="J29" s="42"/>
       <c r="K29" s="42"/>
       <c r="L29" s="72" t="s">
-        <v>396</v>
-      </c>
-      <c r="M29" s="81"/>
-    </row>
-    <row r="30" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A30" s="87" t="s">
+        <v>398</v>
+      </c>
+      <c r="M29" s="85"/>
+    </row>
+    <row r="30" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A30" s="81" t="s">
         <v>185</v>
       </c>
       <c r="C30" s="59"/>
@@ -3123,22 +3306,22 @@
       <c r="J30" s="65"/>
       <c r="K30" s="65"/>
       <c r="L30" s="66" t="s">
-        <v>397</v>
-      </c>
-      <c r="M30" s="80" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" ht="165" x14ac:dyDescent="0.25">
-      <c r="A31" s="87"/>
-      <c r="B31" s="84" t="s">
+        <v>399</v>
+      </c>
+      <c r="M30" s="84" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A31" s="81"/>
+      <c r="B31" s="80" t="s">
         <v>242</v>
       </c>
-      <c r="C31" s="84" t="s">
+      <c r="C31" s="80" t="s">
         <v>243</v>
       </c>
       <c r="D31" s="43" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="E31" s="71" t="s">
         <v>192</v>
@@ -3152,14 +3335,14 @@
       <c r="J31" s="65"/>
       <c r="K31" s="65"/>
       <c r="L31" s="66" t="s">
-        <v>397</v>
-      </c>
-      <c r="M31" s="81"/>
-    </row>
-    <row r="32" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A32" s="87"/>
-      <c r="B32" s="87"/>
-      <c r="C32" s="84"/>
+        <v>399</v>
+      </c>
+      <c r="M31" s="85"/>
+    </row>
+    <row r="32" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A32" s="81"/>
+      <c r="B32" s="81"/>
+      <c r="C32" s="80"/>
       <c r="D32" s="57" t="s">
         <v>231</v>
       </c>
@@ -3172,16 +3355,16 @@
       <c r="J32" s="65"/>
       <c r="K32" s="65"/>
       <c r="L32" s="66" t="s">
-        <v>397</v>
-      </c>
-      <c r="M32" s="81"/>
-    </row>
-    <row r="33" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A33" s="87"/>
-      <c r="B33" s="87"/>
-      <c r="C33" s="84"/>
+        <v>399</v>
+      </c>
+      <c r="M32" s="85"/>
+    </row>
+    <row r="33" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A33" s="81"/>
+      <c r="B33" s="81"/>
+      <c r="C33" s="80"/>
       <c r="D33" s="43" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="F33" s="43" t="s">
         <v>226</v>
@@ -3192,14 +3375,14 @@
       <c r="J33" s="43"/>
       <c r="K33" s="43"/>
       <c r="L33" s="66" t="s">
-        <v>397</v>
-      </c>
-      <c r="M33" s="81"/>
-    </row>
-    <row r="34" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A34" s="87"/>
-      <c r="B34" s="87"/>
-      <c r="C34" s="84"/>
+        <v>399</v>
+      </c>
+      <c r="M33" s="85"/>
+    </row>
+    <row r="34" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A34" s="81"/>
+      <c r="B34" s="81"/>
+      <c r="C34" s="80"/>
       <c r="D34" s="43" t="s">
         <v>172</v>
       </c>
@@ -3215,14 +3398,14 @@
       <c r="J34" s="43"/>
       <c r="K34" s="43"/>
       <c r="L34" s="66" t="s">
-        <v>397</v>
-      </c>
-      <c r="M34" s="81"/>
-    </row>
-    <row r="35" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A35" s="87"/>
-      <c r="B35" s="87"/>
-      <c r="C35" s="84"/>
+        <v>399</v>
+      </c>
+      <c r="M34" s="85"/>
+    </row>
+    <row r="35" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A35" s="81"/>
+      <c r="B35" s="81"/>
+      <c r="C35" s="80"/>
       <c r="D35" s="43" t="s">
         <v>232</v>
       </c>
@@ -3238,14 +3421,14 @@
       <c r="J35" s="43"/>
       <c r="K35" s="43"/>
       <c r="L35" s="66" t="s">
-        <v>397</v>
-      </c>
-      <c r="M35" s="81"/>
-    </row>
-    <row r="36" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A36" s="87"/>
-      <c r="B36" s="87"/>
-      <c r="C36" s="84"/>
+        <v>399</v>
+      </c>
+      <c r="M35" s="85"/>
+    </row>
+    <row r="36" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A36" s="81"/>
+      <c r="B36" s="81"/>
+      <c r="C36" s="80"/>
       <c r="F36" s="43"/>
       <c r="G36" s="43"/>
       <c r="H36" s="43"/>
@@ -3253,18 +3436,18 @@
       <c r="J36" s="74"/>
       <c r="K36" s="43"/>
       <c r="L36" s="66" t="s">
-        <v>397</v>
-      </c>
-      <c r="M36" s="81"/>
-    </row>
-    <row r="37" spans="1:13" ht="90" x14ac:dyDescent="0.25">
-      <c r="A37" s="84" t="s">
+        <v>399</v>
+      </c>
+      <c r="M36" s="85"/>
+    </row>
+    <row r="37" spans="1:13" ht="72" x14ac:dyDescent="0.3">
+      <c r="A37" s="80" t="s">
         <v>244</v>
       </c>
-      <c r="B37" s="84" t="s">
+      <c r="B37" s="80" t="s">
         <v>245</v>
       </c>
-      <c r="C37" s="84" t="s">
+      <c r="C37" s="80" t="s">
         <v>246</v>
       </c>
       <c r="D37" s="57" t="s">
@@ -3279,7 +3462,7 @@
       <c r="G37" s="65"/>
       <c r="H37" s="65"/>
       <c r="I37" s="75" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
       <c r="J37" s="74" t="s">
         <v>194</v>
@@ -3288,14 +3471,14 @@
       <c r="L37" s="66" t="s">
         <v>267</v>
       </c>
-      <c r="M37" s="80" t="s">
+      <c r="M37" s="84" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="38" spans="1:13" ht="90" x14ac:dyDescent="0.25">
-      <c r="A38" s="84"/>
-      <c r="B38" s="84"/>
-      <c r="C38" s="87"/>
+    <row r="38" spans="1:13" ht="72" x14ac:dyDescent="0.3">
+      <c r="A38" s="80"/>
+      <c r="B38" s="80"/>
+      <c r="C38" s="81"/>
       <c r="D38" s="57" t="s">
         <v>188</v>
       </c>
@@ -3303,12 +3486,12 @@
         <v>191</v>
       </c>
       <c r="F38" s="32" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="G38" s="65"/>
       <c r="H38" s="65"/>
       <c r="I38" s="65" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="J38" s="66" t="s">
         <v>267</v>
@@ -3317,12 +3500,12 @@
       <c r="L38" s="66" t="s">
         <v>267</v>
       </c>
-      <c r="M38" s="81"/>
-    </row>
-    <row r="39" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A39" s="84"/>
-      <c r="B39" s="84"/>
-      <c r="C39" s="87"/>
+      <c r="M38" s="85"/>
+    </row>
+    <row r="39" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A39" s="80"/>
+      <c r="B39" s="80"/>
+      <c r="C39" s="81"/>
       <c r="D39" s="57" t="s">
         <v>189</v>
       </c>
@@ -3332,12 +3515,12 @@
       <c r="L39" s="66" t="s">
         <v>267</v>
       </c>
-      <c r="M39" s="81"/>
-    </row>
-    <row r="40" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A40" s="84"/>
-      <c r="B40" s="84"/>
-      <c r="C40" s="87"/>
+      <c r="M39" s="85"/>
+    </row>
+    <row r="40" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A40" s="80"/>
+      <c r="B40" s="80"/>
+      <c r="C40" s="81"/>
       <c r="D40" s="57" t="s">
         <v>190</v>
       </c>
@@ -3347,12 +3530,12 @@
       <c r="L40" s="66" t="s">
         <v>267</v>
       </c>
-      <c r="M40" s="81"/>
-    </row>
-    <row r="41" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A41" s="84"/>
-      <c r="B41" s="84"/>
-      <c r="C41" s="87"/>
+      <c r="M40" s="85"/>
+    </row>
+    <row r="41" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A41" s="80"/>
+      <c r="B41" s="80"/>
+      <c r="C41" s="81"/>
       <c r="D41" s="57" t="s">
         <v>191</v>
       </c>
@@ -3370,39 +3553,39 @@
       <c r="L41" s="66" t="s">
         <v>267</v>
       </c>
-      <c r="M41" s="81"/>
-    </row>
-    <row r="42" spans="1:13" ht="150" x14ac:dyDescent="0.25">
-      <c r="A42" s="84"/>
-      <c r="B42" s="84"/>
-      <c r="C42" s="87"/>
+      <c r="M41" s="85"/>
+    </row>
+    <row r="42" spans="1:13" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A42" s="80"/>
+      <c r="B42" s="80"/>
+      <c r="C42" s="81"/>
       <c r="D42" s="57" t="s">
-        <v>400</v>
+        <v>368</v>
       </c>
       <c r="E42" s="71" t="s">
         <v>189</v>
       </c>
       <c r="F42" s="32" t="s">
-        <v>341</v>
+        <v>330</v>
       </c>
       <c r="G42" s="65"/>
       <c r="H42" s="65"/>
       <c r="I42" s="65" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="J42" s="65" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="K42" s="65"/>
       <c r="L42" s="66" t="s">
         <v>267</v>
       </c>
-      <c r="M42" s="81"/>
-    </row>
-    <row r="43" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A43" s="84"/>
-      <c r="B43" s="84"/>
-      <c r="C43" s="87"/>
+      <c r="M42" s="85"/>
+    </row>
+    <row r="43" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A43" s="80"/>
+      <c r="B43" s="80"/>
+      <c r="C43" s="81"/>
       <c r="D43" s="57" t="s">
         <v>193</v>
       </c>
@@ -3410,7 +3593,7 @@
         <v>189</v>
       </c>
       <c r="F43" s="41" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="G43" s="65"/>
       <c r="H43" s="65"/>
@@ -3418,11 +3601,11 @@
       <c r="J43" s="65"/>
       <c r="K43" s="65"/>
       <c r="L43" s="66" t="s">
-        <v>399</v>
-      </c>
-      <c r="M43" s="81"/>
-    </row>
-    <row r="44" spans="1:13" s="44" customFormat="1" x14ac:dyDescent="0.25">
+        <v>401</v>
+      </c>
+      <c r="M43" s="85"/>
+    </row>
+    <row r="44" spans="1:13" s="44" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="61"/>
       <c r="B44" s="61"/>
       <c r="C44" s="62"/>
@@ -3437,7 +3620,7 @@
       <c r="L44" s="71"/>
       <c r="M44" s="64"/>
     </row>
-    <row r="45" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A45" s="58" t="s">
         <v>207</v>
       </c>
@@ -3454,7 +3637,7 @@
         <v>207</v>
       </c>
       <c r="I45" s="44" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="J45" s="47" t="s">
         <v>211</v>
@@ -3466,13 +3649,13 @@
         <v>268</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B46" s="42"/>
       <c r="C46" s="42"/>
       <c r="D46" s="43"/>
       <c r="F46" s="40"/>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B47" s="42"/>
       <c r="C47" s="42"/>
       <c r="D47" s="43"/>
@@ -3481,12 +3664,25 @@
   </sheetData>
   <autoFilter ref="A1:M11" xr:uid="{AF9DA58F-D16B-4AC0-BF50-5DB9D427BBB0}"/>
   <mergeCells count="36">
-    <mergeCell ref="B31:B36"/>
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="C23:C26"/>
-    <mergeCell ref="C31:C36"/>
-    <mergeCell ref="B37:B43"/>
-    <mergeCell ref="C37:C43"/>
+    <mergeCell ref="M27:M29"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="M30:M36"/>
+    <mergeCell ref="M37:M43"/>
+    <mergeCell ref="M2:M4"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="M15:M18"/>
+    <mergeCell ref="M19:M22"/>
+    <mergeCell ref="M23:M26"/>
+    <mergeCell ref="M7:M9"/>
+    <mergeCell ref="A37:A43"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A30:A36"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="A7:A10"/>
     <mergeCell ref="B19:B22"/>
     <mergeCell ref="C19:C22"/>
     <mergeCell ref="B27:B29"/>
@@ -3498,25 +3694,12 @@
     <mergeCell ref="C15:C18"/>
     <mergeCell ref="B7:B10"/>
     <mergeCell ref="C7:C10"/>
-    <mergeCell ref="A37:A43"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A30:A36"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="A23:A26"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="M27:M29"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="M30:M36"/>
-    <mergeCell ref="M37:M43"/>
-    <mergeCell ref="M2:M4"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="M15:M18"/>
-    <mergeCell ref="M19:M22"/>
-    <mergeCell ref="M23:M26"/>
-    <mergeCell ref="M7:M9"/>
+    <mergeCell ref="B31:B36"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="C23:C26"/>
+    <mergeCell ref="C31:C36"/>
+    <mergeCell ref="B37:B43"/>
+    <mergeCell ref="C37:C43"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="M2" r:id="rId1" display="https://www.nuplazid.com/about-pd-related-hallucinations-and-delusions" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -3573,7 +3756,7 @@
     <hyperlink ref="L43" r:id="rId52" location="sign-up-stay-informed" display="https://www.nuplazid.com/support-and-resources#sign-up-stay-informed" xr:uid="{52D7B43E-E1C5-452E-800C-55136E47BFD5}"/>
     <hyperlink ref="J45" r:id="rId53" xr:uid="{48157E4F-981F-4BB1-B37C-E75C17E5971B}"/>
     <hyperlink ref="J37" r:id="rId54" xr:uid="{1921296C-A925-4D5C-BCA9-18283C908491}"/>
-    <hyperlink ref="J24" r:id="rId55" location="isi" xr:uid="{E9690C20-702A-4696-ABD4-A182611AE913}"/>
+    <hyperlink ref="J24" r:id="rId55" location="isi" display="http://nuplazid-masori.azurewebsites.net/safety-information#isi" xr:uid="{E9690C20-702A-4696-ABD4-A182611AE913}"/>
     <hyperlink ref="F39" r:id="rId56" xr:uid="{20EC18BB-269E-40F3-A1A3-3208B6D8D202}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3591,16 +3774,16 @@
       <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="22" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" style="27" customWidth="1"/>
-    <col min="3" max="3" width="26.7109375" customWidth="1"/>
-    <col min="4" max="4" width="95.28515625" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="22" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" style="27" customWidth="1"/>
+    <col min="3" max="3" width="26.6640625" customWidth="1"/>
+    <col min="4" max="4" width="95.33203125" customWidth="1"/>
     <col min="5" max="5" width="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="21" t="s">
         <v>1</v>
       </c>
@@ -3617,7 +3800,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="88" t="s">
         <v>2</v>
       </c>
@@ -3632,7 +3815,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="89"/>
       <c r="B3" s="28"/>
       <c r="C3" t="s">
@@ -3641,7 +3824,7 @@
       <c r="D3" s="4"/>
       <c r="E3" s="6"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="89"/>
       <c r="B4" s="28"/>
       <c r="C4" t="s">
@@ -3650,7 +3833,7 @@
       <c r="D4" s="4"/>
       <c r="E4" s="6"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="89"/>
       <c r="B5" s="28"/>
       <c r="C5" t="s">
@@ -3659,7 +3842,7 @@
       <c r="D5" s="4"/>
       <c r="E5" s="6"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="89"/>
       <c r="B6" s="28"/>
       <c r="C6" t="s">
@@ -3668,7 +3851,7 @@
       <c r="D6" s="4"/>
       <c r="E6" s="6"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="89"/>
       <c r="B7" s="28"/>
       <c r="C7" t="s">
@@ -3677,7 +3860,7 @@
       <c r="D7" s="4"/>
       <c r="E7" s="6"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="89"/>
       <c r="B8" s="28"/>
       <c r="C8" t="s">
@@ -3686,7 +3869,7 @@
       <c r="D8" s="4"/>
       <c r="E8" s="6"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="89"/>
       <c r="B9" s="28"/>
       <c r="C9" t="s">
@@ -3695,7 +3878,7 @@
       <c r="D9" s="4"/>
       <c r="E9" s="6"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="89"/>
       <c r="B10" s="28"/>
       <c r="C10" t="s">
@@ -3704,7 +3887,7 @@
       <c r="D10" s="4"/>
       <c r="E10" s="6"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="89" t="s">
         <v>16</v>
       </c>
@@ -3713,28 +3896,28 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="89"/>
       <c r="B12" s="28"/>
       <c r="C12" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="89"/>
       <c r="B13" s="28"/>
       <c r="C13" s="7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="89"/>
       <c r="B14" s="28"/>
       <c r="C14" s="7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="89"/>
       <c r="B15" s="28"/>
       <c r="C15" s="7" t="s">
@@ -3744,7 +3927,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A16" s="89"/>
       <c r="B16" s="28"/>
       <c r="C16" s="7" t="s">
@@ -3754,7 +3937,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="89" t="s">
         <v>23</v>
       </c>
@@ -3769,7 +3952,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="89"/>
       <c r="B18" s="28"/>
       <c r="C18" s="8" t="s">
@@ -3779,21 +3962,21 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="89"/>
       <c r="B19" s="28"/>
       <c r="C19" s="8" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="89"/>
       <c r="B20" s="28"/>
       <c r="C20" s="8" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A21" s="89"/>
       <c r="B21" s="28"/>
       <c r="C21" s="8" t="s">
@@ -3803,7 +3986,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="89"/>
       <c r="B22" s="28"/>
       <c r="C22" s="8" t="s">
@@ -3813,7 +3996,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="89"/>
       <c r="B23" s="28"/>
       <c r="C23" s="8" t="s">
@@ -3823,14 +4006,14 @@
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="89"/>
       <c r="B24" s="28"/>
       <c r="C24" s="8" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="89" t="s">
         <v>41</v>
       </c>
@@ -3845,7 +4028,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="89"/>
       <c r="B26" s="28"/>
       <c r="C26" s="9" t="s">
@@ -3855,7 +4038,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="89"/>
       <c r="B27" s="28"/>
       <c r="C27" s="9" t="s">
@@ -3865,7 +4048,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="89"/>
       <c r="B28" s="28"/>
       <c r="C28" s="9" t="s">
@@ -3875,7 +4058,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="89"/>
       <c r="B29" s="28"/>
       <c r="C29" s="9" t="s">
@@ -3885,7 +4068,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="89"/>
       <c r="B30" s="28"/>
       <c r="C30" s="9" t="s">
@@ -3895,49 +4078,49 @@
         <v>51</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="89"/>
       <c r="B31" s="28"/>
       <c r="D31" s="9" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="89"/>
       <c r="B32" s="28"/>
       <c r="D32" s="9" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="89"/>
       <c r="B33" s="28"/>
       <c r="D33" s="9" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="89"/>
       <c r="B34" s="28"/>
       <c r="D34" s="9" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="89"/>
       <c r="B35" s="28"/>
       <c r="D35" s="9" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="89"/>
       <c r="B36" s="28"/>
       <c r="D36" s="9" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="90" t="s">
         <v>58</v>
       </c>
@@ -3945,43 +4128,43 @@
         <v>59</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="90"/>
       <c r="D38" s="11" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="90"/>
       <c r="D39" s="11" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="90"/>
       <c r="D40" s="11" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="90"/>
       <c r="D41" s="11" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="90"/>
       <c r="D42" s="11" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="90"/>
       <c r="D43" s="11" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="90" t="s">
         <v>66</v>
       </c>
@@ -3992,7 +4175,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="90"/>
       <c r="C45" s="12" t="s">
         <v>67</v>
@@ -4001,7 +4184,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="90"/>
       <c r="C46" s="12" t="s">
         <v>44</v>
@@ -4010,43 +4193,43 @@
         <v>70</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="90"/>
       <c r="D47" s="12" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="90"/>
       <c r="D48" s="12" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="90"/>
       <c r="D49" s="12" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="90"/>
       <c r="D50" s="12" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="90"/>
       <c r="D51" s="12" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="90"/>
       <c r="D52" s="12" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="158.44999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" ht="158.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="90" t="s">
         <v>77</v>
       </c>
@@ -4058,7 +4241,7 @@
       </c>
       <c r="E53" s="13"/>
     </row>
-    <row r="54" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A54" s="90"/>
       <c r="C54" s="14" t="s">
         <v>87</v>
@@ -4068,7 +4251,7 @@
       </c>
       <c r="E54" s="13"/>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="90" t="s">
         <v>80</v>
       </c>
@@ -4079,7 +4262,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="90"/>
       <c r="C56" s="14" t="s">
         <v>82</v>
@@ -4088,7 +4271,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="90"/>
       <c r="C57" s="14" t="s">
         <v>83</v>
@@ -4097,7 +4280,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="90"/>
       <c r="C58" s="14" t="s">
         <v>84</v>
@@ -4106,7 +4289,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="90"/>
       <c r="C59" s="14" t="s">
         <v>85</v>
@@ -4115,73 +4298,73 @@
         <v>92</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="90"/>
       <c r="D60" s="14" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="90"/>
       <c r="D61" s="14" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="90"/>
       <c r="D62" s="14" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="90"/>
       <c r="D63" s="14" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="90"/>
       <c r="D64" s="14" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="90"/>
       <c r="D65" s="14" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="90"/>
       <c r="D66" s="14" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="90"/>
       <c r="D67" s="14" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="90"/>
       <c r="D68" s="14" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="90"/>
       <c r="D69" s="14" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="90"/>
       <c r="D70" s="14" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="90" t="s">
         <v>104</v>
       </c>
@@ -4192,7 +4375,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="90"/>
       <c r="C72" s="15" t="s">
         <v>106</v>
@@ -4201,7 +4384,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="90"/>
       <c r="C73" s="15" t="s">
         <v>107</v>
@@ -4210,7 +4393,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="90"/>
       <c r="C74" s="15" t="s">
         <v>108</v>
@@ -4219,43 +4402,43 @@
         <v>37</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="90"/>
       <c r="D75" s="15" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="90"/>
       <c r="D76" s="15" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="90"/>
       <c r="D77" s="15" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" s="90"/>
       <c r="D78" s="15" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" s="90"/>
       <c r="D79" s="15" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" s="90"/>
       <c r="D80" s="15" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" s="90" t="s">
         <v>117</v>
       </c>
@@ -4266,7 +4449,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" s="90"/>
       <c r="C82" s="16" t="s">
         <v>119</v>
@@ -4275,7 +4458,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" s="90"/>
       <c r="C83" s="16" t="s">
         <v>120</v>
@@ -4284,25 +4467,25 @@
         <v>122</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" s="90"/>
       <c r="D84" s="16" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" s="90"/>
       <c r="D85" s="16" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" s="90"/>
       <c r="D86" s="16" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A87" s="90" t="s">
         <v>125</v>
       </c>
@@ -4313,7 +4496,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A88" s="90"/>
       <c r="C88" s="17" t="s">
         <v>127</v>
@@ -4322,7 +4505,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A89" s="90"/>
       <c r="C89" s="17" t="s">
         <v>128</v>
@@ -4331,13 +4514,13 @@
         <v>131</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" s="90"/>
       <c r="C90" s="17" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A91" s="90" t="s">
         <v>132</v>
       </c>
@@ -4348,7 +4531,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A92" s="90"/>
       <c r="C92" s="19" t="s">
         <v>134</v>
@@ -4357,40 +4540,40 @@
         <v>140</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" s="90"/>
       <c r="C93" s="19" t="s">
         <v>135</v>
       </c>
       <c r="D93" s="19"/>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" s="90"/>
       <c r="C94" s="19" t="s">
         <v>136</v>
       </c>
       <c r="D94" s="19"/>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" s="90"/>
       <c r="C95" s="19" t="s">
         <v>137</v>
       </c>
       <c r="D95" s="19"/>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" s="90"/>
       <c r="C96" s="19" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" s="90"/>
       <c r="C97" s="19" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" s="90" t="s">
         <v>141</v>
       </c>
@@ -4398,25 +4581,25 @@
         <v>142</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" s="90"/>
       <c r="D99" s="20" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" s="90"/>
       <c r="D100" s="20" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" s="90"/>
       <c r="D101" s="20" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" s="90" t="s">
         <v>146</v>
       </c>
@@ -4427,7 +4610,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" s="90"/>
       <c r="C103" s="23" t="s">
         <v>138</v>
@@ -4436,7 +4619,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" s="90"/>
       <c r="C104" s="23" t="s">
         <v>135</v>
@@ -4445,7 +4628,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" s="90"/>
       <c r="C105" s="23" t="s">
         <v>147</v>
@@ -4454,7 +4637,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" s="90"/>
       <c r="C106" s="23" t="s">
         <v>148</v>
@@ -4463,13 +4646,13 @@
         <v>123</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" s="90"/>
       <c r="C107" s="23" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" s="90" t="s">
         <v>151</v>
       </c>
@@ -4480,7 +4663,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" s="90"/>
       <c r="C109" s="24" t="s">
         <v>153</v>
@@ -4489,31 +4672,31 @@
         <v>112</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" s="90"/>
       <c r="D110" s="24" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" s="90"/>
       <c r="D111" s="24" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" s="90"/>
       <c r="D112" s="24" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" s="90"/>
       <c r="D113" s="24" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" s="90" t="s">
         <v>163</v>
       </c>
@@ -4524,7 +4707,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" s="90"/>
       <c r="C115" s="25" t="s">
         <v>119</v>
@@ -4533,7 +4716,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" s="90"/>
       <c r="C116" s="25" t="s">
         <v>120</v>
@@ -4542,57 +4725,57 @@
         <v>160</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" s="90"/>
       <c r="D117" s="25" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" s="90"/>
       <c r="D118" s="25"/>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" s="90"/>
       <c r="D119" s="25" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" s="90"/>
       <c r="D120" s="25" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" s="90"/>
       <c r="D121" s="25" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" s="90"/>
       <c r="D122" s="25" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" s="90"/>
       <c r="D123" s="25"/>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" s="90"/>
       <c r="D124" s="25" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="125" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A125" s="90"/>
       <c r="D125" s="26" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" s="90"/>
       <c r="D126" s="25" t="s">
         <v>170</v>
@@ -4631,24 +4814,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M98"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I68" sqref="I68"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" customWidth="1"/>
-    <col min="2" max="2" width="47.28515625" style="54" customWidth="1"/>
+    <col min="1" max="1" width="20.44140625" customWidth="1"/>
+    <col min="2" max="2" width="47.33203125" style="54" customWidth="1"/>
     <col min="3" max="3" width="44" style="54" customWidth="1"/>
-    <col min="4" max="4" width="38.28515625" customWidth="1"/>
-    <col min="5" max="5" width="21.7109375" style="44" customWidth="1"/>
-    <col min="6" max="6" width="103.42578125" customWidth="1"/>
-    <col min="7" max="12" width="37.28515625" style="44" customWidth="1"/>
-    <col min="13" max="13" width="52.42578125" customWidth="1"/>
+    <col min="4" max="4" width="38.33203125" customWidth="1"/>
+    <col min="5" max="5" width="21.6640625" style="44" customWidth="1"/>
+    <col min="6" max="6" width="103.44140625" customWidth="1"/>
+    <col min="7" max="12" width="37.33203125" style="44" customWidth="1"/>
+    <col min="13" max="13" width="52.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="48" t="s">
         <v>1</v>
       </c>
@@ -4662,45 +4845,45 @@
         <v>197</v>
       </c>
       <c r="E1" s="51" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="F1" s="51" t="s">
         <v>12</v>
       </c>
       <c r="G1" s="45" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="H1" s="45" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="I1" s="45" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="J1" s="45" t="s">
+        <v>298</v>
+      </c>
+      <c r="K1" s="45" t="s">
+        <v>299</v>
+      </c>
+      <c r="L1" s="45" t="s">
         <v>306</v>
       </c>
-      <c r="K1" s="45" t="s">
-        <v>307</v>
-      </c>
-      <c r="L1" s="45" t="s">
-        <v>317</v>
-      </c>
       <c r="M1" s="45" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="91" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="94" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="88" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="C2" s="88" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="D2" s="53" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="E2" s="68" t="s">
         <v>21</v>
@@ -4714,53 +4897,53 @@
       <c r="J2" s="46"/>
       <c r="K2" s="65"/>
       <c r="L2" s="46" t="s">
-        <v>15</v>
+        <v>369</v>
       </c>
       <c r="M2" s="46" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" s="44" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="92"/>
-      <c r="B3" s="93"/>
-      <c r="C3" s="93"/>
+        <v>369</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" s="44" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="95"/>
+      <c r="B3" s="96"/>
+      <c r="C3" s="96"/>
       <c r="D3" s="76" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="E3" s="76"/>
       <c r="F3" s="78" t="s">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="G3" s="75"/>
       <c r="H3" s="75"/>
       <c r="I3" s="75" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="J3" s="79" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="K3" s="75"/>
       <c r="L3" s="79"/>
       <c r="M3" s="79"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="89" t="s">
         <v>16</v>
       </c>
       <c r="B4" s="90" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="C4" s="90" t="s">
-        <v>280</v>
-      </c>
-      <c r="D4" s="84" t="s">
+        <v>272</v>
+      </c>
+      <c r="D4" s="80" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="84" t="s">
+      <c r="E4" s="80" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="84" t="s">
-        <v>270</v>
+      <c r="F4" s="80" t="s">
+        <v>269</v>
       </c>
       <c r="G4" s="65"/>
       <c r="H4" s="65"/>
@@ -4768,81 +4951,81 @@
       <c r="J4" s="66"/>
       <c r="K4" s="65"/>
       <c r="L4" s="66" t="s">
-        <v>269</v>
-      </c>
-      <c r="M4" s="80" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+        <v>370</v>
+      </c>
+      <c r="M4" s="84" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="89"/>
       <c r="B5" s="90"/>
       <c r="C5" s="90"/>
-      <c r="D5" s="84"/>
-      <c r="E5" s="84"/>
-      <c r="F5" s="84"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="80"/>
       <c r="G5" s="65"/>
       <c r="H5" s="65"/>
       <c r="I5" s="65"/>
       <c r="J5" s="66"/>
       <c r="K5" s="65"/>
       <c r="L5" s="66" t="s">
-        <v>269</v>
-      </c>
-      <c r="M5" s="81"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+        <v>370</v>
+      </c>
+      <c r="M5" s="85"/>
+    </row>
+    <row r="6" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="89"/>
       <c r="B6" s="90"/>
       <c r="C6" s="90"/>
-      <c r="D6" s="84"/>
-      <c r="E6" s="84"/>
-      <c r="F6" s="84"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="80"/>
+      <c r="F6" s="80"/>
       <c r="G6" s="65"/>
       <c r="H6" s="65"/>
       <c r="I6" s="65"/>
       <c r="J6" s="66"/>
       <c r="K6" s="65"/>
       <c r="L6" s="66" t="s">
-        <v>269</v>
-      </c>
-      <c r="M6" s="81"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+        <v>370</v>
+      </c>
+      <c r="M6" s="85"/>
+    </row>
+    <row r="7" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="89"/>
       <c r="B7" s="90"/>
       <c r="C7" s="90"/>
-      <c r="D7" s="84"/>
-      <c r="E7" s="84"/>
-      <c r="F7" s="84"/>
+      <c r="D7" s="80"/>
+      <c r="E7" s="80"/>
+      <c r="F7" s="80"/>
       <c r="G7" s="65"/>
       <c r="H7" s="65"/>
       <c r="I7" s="65"/>
       <c r="J7" s="66"/>
       <c r="K7" s="65"/>
       <c r="L7" s="66" t="s">
-        <v>269</v>
-      </c>
-      <c r="M7" s="81"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+        <v>370</v>
+      </c>
+      <c r="M7" s="85"/>
+    </row>
+    <row r="8" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="89"/>
       <c r="B8" s="90"/>
       <c r="C8" s="90"/>
-      <c r="D8" s="84"/>
-      <c r="E8" s="84"/>
-      <c r="F8" s="84"/>
+      <c r="D8" s="80"/>
+      <c r="E8" s="80"/>
+      <c r="F8" s="80"/>
       <c r="G8" s="65"/>
       <c r="H8" s="65"/>
       <c r="I8" s="65"/>
       <c r="J8" s="66"/>
       <c r="K8" s="65"/>
       <c r="L8" s="66" t="s">
-        <v>269</v>
-      </c>
-      <c r="M8" s="81"/>
-    </row>
-    <row r="9" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+        <v>370</v>
+      </c>
+      <c r="M8" s="85"/>
+    </row>
+    <row r="9" spans="1:13" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A9" s="89"/>
       <c r="B9" s="90"/>
       <c r="C9" s="90"/>
@@ -4851,87 +5034,87 @@
       </c>
       <c r="E9" s="67"/>
       <c r="F9" s="50" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="G9" s="65"/>
       <c r="H9" s="65"/>
       <c r="I9" s="65" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="J9" s="65" t="s">
-        <v>309</v>
+        <v>371</v>
       </c>
       <c r="K9" s="65"/>
       <c r="L9" s="69"/>
       <c r="M9" s="44"/>
     </row>
-    <row r="10" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="89" t="s">
         <v>212</v>
       </c>
-      <c r="B10" s="95" t="s">
-        <v>360</v>
+      <c r="B10" s="91" t="s">
+        <v>348</v>
       </c>
       <c r="C10" s="90" t="s">
-        <v>284</v>
-      </c>
-      <c r="D10" s="84" t="s">
+        <v>276</v>
+      </c>
+      <c r="D10" s="80" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="84" t="s">
+      <c r="E10" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="84" t="s">
+      <c r="F10" s="80" t="s">
         <v>32</v>
       </c>
-      <c r="G10" s="95"/>
-      <c r="H10" s="95"/>
-      <c r="I10" s="95"/>
-      <c r="J10" s="96"/>
-      <c r="K10" s="95"/>
-      <c r="L10" s="94" t="s">
-        <v>33</v>
-      </c>
-      <c r="M10" s="80" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G10" s="91"/>
+      <c r="H10" s="91"/>
+      <c r="I10" s="91"/>
+      <c r="J10" s="93"/>
+      <c r="K10" s="91"/>
+      <c r="L10" s="92" t="s">
+        <v>372</v>
+      </c>
+      <c r="M10" s="84" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="89"/>
-      <c r="B11" s="84"/>
+      <c r="B11" s="80"/>
       <c r="C11" s="90"/>
-      <c r="D11" s="84"/>
-      <c r="E11" s="84"/>
-      <c r="F11" s="84"/>
-      <c r="G11" s="95"/>
-      <c r="H11" s="95"/>
-      <c r="I11" s="95"/>
-      <c r="J11" s="96"/>
-      <c r="K11" s="95"/>
-      <c r="L11" s="94"/>
-      <c r="M11" s="81"/>
-    </row>
-    <row r="12" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D11" s="80"/>
+      <c r="E11" s="80"/>
+      <c r="F11" s="80"/>
+      <c r="G11" s="91"/>
+      <c r="H11" s="91"/>
+      <c r="I11" s="91"/>
+      <c r="J11" s="93"/>
+      <c r="K11" s="91"/>
+      <c r="L11" s="92"/>
+      <c r="M11" s="85"/>
+    </row>
+    <row r="12" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="89"/>
-      <c r="B12" s="84"/>
+      <c r="B12" s="80"/>
       <c r="C12" s="90"/>
-      <c r="D12" s="84"/>
-      <c r="E12" s="84"/>
-      <c r="F12" s="84"/>
-      <c r="G12" s="95"/>
-      <c r="H12" s="95"/>
-      <c r="I12" s="95"/>
-      <c r="J12" s="96"/>
-      <c r="K12" s="95"/>
-      <c r="L12" s="94"/>
-      <c r="M12" s="81"/>
-    </row>
-    <row r="13" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+      <c r="D12" s="80"/>
+      <c r="E12" s="80"/>
+      <c r="F12" s="80"/>
+      <c r="G12" s="91"/>
+      <c r="H12" s="91"/>
+      <c r="I12" s="91"/>
+      <c r="J12" s="93"/>
+      <c r="K12" s="91"/>
+      <c r="L12" s="92"/>
+      <c r="M12" s="85"/>
+    </row>
+    <row r="13" spans="1:13" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A13" s="89"/>
-      <c r="B13" s="84"/>
+      <c r="B13" s="80"/>
       <c r="C13" s="90"/>
       <c r="D13" s="50" t="s">
-        <v>376</v>
+        <v>356</v>
       </c>
       <c r="E13" s="67" t="s">
         <v>29</v>
@@ -4945,13 +5128,13 @@
       <c r="J13" s="66"/>
       <c r="K13" s="65"/>
       <c r="L13" s="66" t="s">
-        <v>365</v>
-      </c>
-      <c r="M13" s="81"/>
-    </row>
-    <row r="14" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+        <v>373</v>
+      </c>
+      <c r="M13" s="85"/>
+    </row>
+    <row r="14" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A14" s="89"/>
-      <c r="B14" s="84"/>
+      <c r="B14" s="80"/>
       <c r="C14" s="90"/>
       <c r="D14" s="50" t="s">
         <v>29</v>
@@ -4960,7 +5143,7 @@
         <v>46</v>
       </c>
       <c r="F14" s="50" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="G14" s="65"/>
       <c r="H14" s="65"/>
@@ -4968,13 +5151,13 @@
       <c r="J14" s="66"/>
       <c r="K14" s="65"/>
       <c r="L14" s="66" t="s">
-        <v>365</v>
-      </c>
-      <c r="M14" s="81"/>
-    </row>
-    <row r="15" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+        <v>373</v>
+      </c>
+      <c r="M14" s="85"/>
+    </row>
+    <row r="15" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="89"/>
-      <c r="B15" s="84"/>
+      <c r="B15" s="80"/>
       <c r="C15" s="90"/>
       <c r="D15" s="50"/>
       <c r="E15" s="67"/>
@@ -4985,13 +5168,13 @@
       <c r="J15" s="66"/>
       <c r="K15" s="65"/>
       <c r="L15" s="66" t="s">
-        <v>33</v>
-      </c>
-      <c r="M15" s="81"/>
-    </row>
-    <row r="16" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+        <v>372</v>
+      </c>
+      <c r="M15" s="85"/>
+    </row>
+    <row r="16" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="89"/>
-      <c r="B16" s="84"/>
+      <c r="B16" s="80"/>
       <c r="C16" s="90"/>
       <c r="D16" s="50"/>
       <c r="E16" s="67"/>
@@ -5002,11 +5185,11 @@
       <c r="J16" s="66"/>
       <c r="K16" s="65"/>
       <c r="L16" s="66" t="s">
-        <v>33</v>
-      </c>
-      <c r="M16" s="81"/>
-    </row>
-    <row r="17" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+        <v>372</v>
+      </c>
+      <c r="M16" s="85"/>
+    </row>
+    <row r="17" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="89" t="s">
         <v>41</v>
       </c>
@@ -5027,13 +5210,13 @@
       <c r="J17" s="66"/>
       <c r="K17" s="65"/>
       <c r="L17" s="66" t="s">
-        <v>33</v>
-      </c>
-      <c r="M17" s="80" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+        <v>372</v>
+      </c>
+      <c r="M17" s="84" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A18" s="89"/>
       <c r="B18" s="90"/>
       <c r="C18" s="90"/>
@@ -5048,18 +5231,18 @@
       <c r="J18" s="66"/>
       <c r="K18" s="65"/>
       <c r="L18" s="66" t="s">
-        <v>33</v>
-      </c>
-      <c r="M18" s="80"/>
-    </row>
-    <row r="19" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+        <v>372</v>
+      </c>
+      <c r="M18" s="84"/>
+    </row>
+    <row r="19" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A19" s="89"/>
       <c r="B19" s="90"/>
       <c r="C19" s="90"/>
       <c r="D19" s="50"/>
       <c r="E19" s="67"/>
       <c r="F19" s="50" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="G19" s="42"/>
       <c r="H19" s="42"/>
@@ -5067,11 +5250,11 @@
       <c r="J19" s="66"/>
       <c r="K19" s="42"/>
       <c r="L19" s="66" t="s">
-        <v>366</v>
-      </c>
-      <c r="M19" s="80"/>
-    </row>
-    <row r="20" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+        <v>374</v>
+      </c>
+      <c r="M19" s="84"/>
+    </row>
+    <row r="20" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="89"/>
       <c r="B20" s="90"/>
       <c r="C20" s="90"/>
@@ -5084,11 +5267,11 @@
       <c r="J20" s="66"/>
       <c r="K20" s="65"/>
       <c r="L20" s="66" t="s">
-        <v>33</v>
-      </c>
-      <c r="M20" s="80"/>
-    </row>
-    <row r="21" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+        <v>372</v>
+      </c>
+      <c r="M20" s="84"/>
+    </row>
+    <row r="21" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="89"/>
       <c r="B21" s="90"/>
       <c r="C21" s="90"/>
@@ -5105,11 +5288,11 @@
       <c r="J21" s="66"/>
       <c r="K21" s="65"/>
       <c r="L21" s="66" t="s">
-        <v>33</v>
-      </c>
-      <c r="M21" s="80"/>
-    </row>
-    <row r="22" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+        <v>372</v>
+      </c>
+      <c r="M21" s="84"/>
+    </row>
+    <row r="22" spans="1:13" ht="72" x14ac:dyDescent="0.3">
       <c r="A22" s="89"/>
       <c r="B22" s="90"/>
       <c r="C22" s="90"/>
@@ -5120,7 +5303,7 @@
         <v>213</v>
       </c>
       <c r="F22" s="50" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="G22" s="65"/>
       <c r="H22" s="65"/>
@@ -5128,11 +5311,11 @@
       <c r="J22" s="66"/>
       <c r="K22" s="65"/>
       <c r="L22" s="66" t="s">
-        <v>367</v>
-      </c>
-      <c r="M22" s="80"/>
-    </row>
-    <row r="23" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+        <v>375</v>
+      </c>
+      <c r="M22" s="84"/>
+    </row>
+    <row r="23" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="89"/>
       <c r="B23" s="90"/>
       <c r="C23" s="90"/>
@@ -5144,11 +5327,11 @@
       <c r="J23" s="66"/>
       <c r="K23" s="65"/>
       <c r="L23" s="66" t="s">
-        <v>33</v>
-      </c>
-      <c r="M23" s="80"/>
-    </row>
-    <row r="24" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+        <v>372</v>
+      </c>
+      <c r="M23" s="84"/>
+    </row>
+    <row r="24" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A24" s="89"/>
       <c r="B24" s="90"/>
       <c r="C24" s="90"/>
@@ -5167,11 +5350,11 @@
       <c r="J24" s="66"/>
       <c r="K24" s="65"/>
       <c r="L24" s="66" t="s">
-        <v>367</v>
-      </c>
-      <c r="M24" s="80"/>
-    </row>
-    <row r="25" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+        <v>375</v>
+      </c>
+      <c r="M24" s="84"/>
+    </row>
+    <row r="25" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="89"/>
       <c r="B25" s="90"/>
       <c r="C25" s="90"/>
@@ -5190,11 +5373,11 @@
       <c r="J25" s="66"/>
       <c r="K25" s="65"/>
       <c r="L25" s="66" t="s">
-        <v>367</v>
-      </c>
-      <c r="M25" s="80"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+        <v>375</v>
+      </c>
+      <c r="M25" s="84"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="90" t="s">
         <v>58</v>
       </c>
@@ -5202,7 +5385,7 @@
         <v>233</v>
       </c>
       <c r="C26" s="90" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="D26" s="44"/>
       <c r="F26" s="50"/>
@@ -5212,11 +5395,11 @@
       <c r="J26" s="66"/>
       <c r="K26" s="65"/>
       <c r="L26" s="66"/>
-      <c r="M26" s="80" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="M26" s="84" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A27" s="90"/>
       <c r="B27" s="90"/>
       <c r="C27" s="90"/>
@@ -5227,7 +5410,7 @@
         <v>217</v>
       </c>
       <c r="F27" s="73" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="G27" s="43"/>
       <c r="H27" s="43"/>
@@ -5235,11 +5418,11 @@
       <c r="J27" s="66"/>
       <c r="K27" s="43"/>
       <c r="L27" s="66" t="s">
-        <v>33</v>
-      </c>
-      <c r="M27" s="81"/>
-    </row>
-    <row r="28" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+        <v>372</v>
+      </c>
+      <c r="M27" s="85"/>
+    </row>
+    <row r="28" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28" s="90"/>
       <c r="B28" s="90"/>
       <c r="C28" s="90"/>
@@ -5251,11 +5434,11 @@
       <c r="J28" s="66"/>
       <c r="K28" s="65"/>
       <c r="L28" s="66" t="s">
-        <v>33</v>
-      </c>
-      <c r="M28" s="81"/>
-    </row>
-    <row r="29" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+        <v>372</v>
+      </c>
+      <c r="M28" s="85"/>
+    </row>
+    <row r="29" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A29" s="90"/>
       <c r="B29" s="90"/>
       <c r="C29" s="90"/>
@@ -5272,11 +5455,11 @@
       <c r="J29" s="66"/>
       <c r="K29" s="65"/>
       <c r="L29" s="66" t="s">
-        <v>365</v>
-      </c>
-      <c r="M29" s="81"/>
-    </row>
-    <row r="30" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+        <v>373</v>
+      </c>
+      <c r="M29" s="85"/>
+    </row>
+    <row r="30" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A30" s="90" t="s">
         <v>66</v>
       </c>
@@ -5299,13 +5482,13 @@
       <c r="J30" s="66"/>
       <c r="K30" s="42"/>
       <c r="L30" s="66" t="s">
-        <v>271</v>
-      </c>
-      <c r="M30" s="80" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+        <v>376</v>
+      </c>
+      <c r="M30" s="84" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A31" s="90"/>
       <c r="B31" s="90"/>
       <c r="C31" s="90"/>
@@ -5324,11 +5507,11 @@
       <c r="J31" s="66"/>
       <c r="K31" s="65"/>
       <c r="L31" s="66" t="s">
-        <v>271</v>
-      </c>
-      <c r="M31" s="81"/>
-    </row>
-    <row r="32" spans="1:13" ht="195" x14ac:dyDescent="0.25">
+        <v>376</v>
+      </c>
+      <c r="M31" s="85"/>
+    </row>
+    <row r="32" spans="1:13" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A32" s="90"/>
       <c r="B32" s="90"/>
       <c r="C32" s="90"/>
@@ -5339,21 +5522,21 @@
         <v>107</v>
       </c>
       <c r="F32" s="50" t="s">
-        <v>374</v>
+        <v>354</v>
       </c>
       <c r="G32" s="65" t="s">
-        <v>375</v>
+        <v>355</v>
       </c>
       <c r="H32" s="65"/>
       <c r="I32" s="65"/>
       <c r="J32" s="66"/>
       <c r="K32" s="65"/>
       <c r="L32" s="66" t="s">
-        <v>368</v>
-      </c>
-      <c r="M32" s="81"/>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+        <v>377</v>
+      </c>
+      <c r="M32" s="85"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" s="90"/>
       <c r="B33" s="90"/>
       <c r="C33" s="90"/>
@@ -5366,9 +5549,9 @@
       <c r="J33" s="66"/>
       <c r="K33" s="65"/>
       <c r="L33" s="66"/>
-      <c r="M33" s="81"/>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M33" s="85"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" s="90"/>
       <c r="B34" s="90"/>
       <c r="C34" s="90"/>
@@ -5381,9 +5564,9 @@
       <c r="J34" s="66"/>
       <c r="K34" s="43"/>
       <c r="L34" s="66"/>
-      <c r="M34" s="81"/>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M34" s="85"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" s="90"/>
       <c r="B35" s="90"/>
       <c r="C35" s="90"/>
@@ -5396,9 +5579,9 @@
       <c r="J35" s="66"/>
       <c r="K35" s="43"/>
       <c r="L35" s="66"/>
-      <c r="M35" s="81"/>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M35" s="85"/>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" s="90"/>
       <c r="B36" s="90"/>
       <c r="C36" s="90"/>
@@ -5411,9 +5594,9 @@
       <c r="J36" s="66"/>
       <c r="K36" s="43"/>
       <c r="L36" s="66"/>
-      <c r="M36" s="81"/>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M36" s="85"/>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" s="90"/>
       <c r="B37" s="90"/>
       <c r="C37" s="90"/>
@@ -5425,14 +5608,14 @@
       <c r="J37" s="66"/>
       <c r="K37" s="43"/>
       <c r="L37" s="66"/>
-      <c r="M37" s="81"/>
-    </row>
-    <row r="38" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="M37" s="85"/>
+    </row>
+    <row r="38" spans="1:13" ht="72" x14ac:dyDescent="0.3">
       <c r="A38" s="90" t="s">
         <v>77</v>
       </c>
       <c r="B38" s="90" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="C38" s="90" t="s">
         <v>253</v>
@@ -5444,7 +5627,7 @@
         <v>107</v>
       </c>
       <c r="F38" s="50" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="G38" s="65"/>
       <c r="H38" s="66" t="s">
@@ -5454,13 +5637,13 @@
       <c r="J38" s="65"/>
       <c r="K38" s="65"/>
       <c r="L38" s="66" t="s">
-        <v>383</v>
-      </c>
-      <c r="M38" s="80" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+        <v>363</v>
+      </c>
+      <c r="M38" s="84" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" s="90"/>
       <c r="B39" s="90"/>
       <c r="C39" s="90"/>
@@ -5473,9 +5656,9 @@
       <c r="J39" s="66"/>
       <c r="K39" s="65"/>
       <c r="L39" s="66"/>
-      <c r="M39" s="81"/>
-    </row>
-    <row r="40" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="M39" s="85"/>
+    </row>
+    <row r="40" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A40" s="90" t="s">
         <v>80</v>
       </c>
@@ -5497,13 +5680,13 @@
       <c r="I40" s="65"/>
       <c r="J40" s="47"/>
       <c r="L40" s="47" t="s">
-        <v>273</v>
-      </c>
-      <c r="M40" s="80" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+        <v>378</v>
+      </c>
+      <c r="M40" s="84" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" s="90"/>
       <c r="B41" s="90"/>
       <c r="C41" s="90"/>
@@ -5517,11 +5700,11 @@
       <c r="I41" s="65"/>
       <c r="J41" s="47"/>
       <c r="L41" s="47" t="s">
-        <v>273</v>
-      </c>
-      <c r="M41" s="81"/>
-    </row>
-    <row r="42" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+        <v>378</v>
+      </c>
+      <c r="M41" s="85"/>
+    </row>
+    <row r="42" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A42" s="90"/>
       <c r="B42" s="90"/>
       <c r="C42" s="90"/>
@@ -5540,11 +5723,11 @@
       <c r="J42" s="47"/>
       <c r="K42" s="65"/>
       <c r="L42" s="47" t="s">
-        <v>273</v>
-      </c>
-      <c r="M42" s="81"/>
-    </row>
-    <row r="43" spans="1:13" ht="180" x14ac:dyDescent="0.25">
+        <v>378</v>
+      </c>
+      <c r="M42" s="85"/>
+    </row>
+    <row r="43" spans="1:13" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A43" s="90"/>
       <c r="B43" s="90"/>
       <c r="C43" s="90"/>
@@ -5552,48 +5735,48 @@
         <v>85</v>
       </c>
       <c r="E43" s="77" t="s">
-        <v>378</v>
+        <v>358</v>
       </c>
       <c r="F43" s="50" t="s">
-        <v>377</v>
+        <v>357</v>
       </c>
       <c r="H43" s="65"/>
       <c r="I43" s="65" t="s">
-        <v>382</v>
+        <v>362</v>
       </c>
       <c r="J43" s="47" t="s">
-        <v>381</v>
+        <v>361</v>
       </c>
       <c r="K43" s="65"/>
       <c r="L43" s="47" t="s">
-        <v>273</v>
-      </c>
-      <c r="M43" s="81"/>
-    </row>
-    <row r="44" spans="1:13" ht="120" x14ac:dyDescent="0.25">
+        <v>378</v>
+      </c>
+      <c r="M43" s="85"/>
+    </row>
+    <row r="44" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A44" s="90"/>
       <c r="B44" s="90"/>
       <c r="C44" s="90"/>
       <c r="D44" s="73" t="s">
-        <v>378</v>
+        <v>358</v>
       </c>
       <c r="E44" s="67"/>
       <c r="F44" s="50" t="s">
-        <v>379</v>
+        <v>359</v>
       </c>
       <c r="G44" s="65" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="H44" s="65"/>
       <c r="I44" s="65"/>
       <c r="J44" s="47"/>
       <c r="K44" s="65"/>
       <c r="L44" s="47" t="s">
-        <v>383</v>
-      </c>
-      <c r="M44" s="81"/>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+        <v>363</v>
+      </c>
+      <c r="M44" s="85"/>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45" s="90"/>
       <c r="B45" s="90"/>
       <c r="C45" s="90"/>
@@ -5606,9 +5789,9 @@
       <c r="J45" s="47"/>
       <c r="K45" s="65"/>
       <c r="L45" s="47"/>
-      <c r="M45" s="81"/>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M45" s="85"/>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46" s="90"/>
       <c r="B46" s="90"/>
       <c r="C46" s="90"/>
@@ -5618,9 +5801,9 @@
       <c r="I46" s="65"/>
       <c r="J46" s="47"/>
       <c r="L46" s="47"/>
-      <c r="M46" s="81"/>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M46" s="85"/>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47" s="90"/>
       <c r="B47" s="90"/>
       <c r="C47" s="90"/>
@@ -5630,9 +5813,9 @@
       <c r="I47" s="65"/>
       <c r="J47" s="47"/>
       <c r="L47" s="47"/>
-      <c r="M47" s="81"/>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M47" s="85"/>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48" s="90"/>
       <c r="B48" s="90"/>
       <c r="C48" s="90"/>
@@ -5642,9 +5825,9 @@
       <c r="I48" s="65"/>
       <c r="J48" s="47"/>
       <c r="L48" s="47"/>
-      <c r="M48" s="81"/>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M48" s="85"/>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49" s="90"/>
       <c r="B49" s="90"/>
       <c r="C49" s="90"/>
@@ -5654,9 +5837,9 @@
       <c r="I49" s="65"/>
       <c r="J49" s="47"/>
       <c r="L49" s="47"/>
-      <c r="M49" s="81"/>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M49" s="85"/>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50" s="90"/>
       <c r="B50" s="90"/>
       <c r="C50" s="90"/>
@@ -5666,9 +5849,9 @@
       <c r="I50" s="65"/>
       <c r="J50" s="47"/>
       <c r="L50" s="47"/>
-      <c r="M50" s="81"/>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M50" s="85"/>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51" s="90"/>
       <c r="B51" s="90"/>
       <c r="C51" s="90"/>
@@ -5678,9 +5861,9 @@
       <c r="I51" s="65"/>
       <c r="J51" s="47"/>
       <c r="L51" s="47"/>
-      <c r="M51" s="81"/>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M51" s="85"/>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52" s="90"/>
       <c r="B52" s="90"/>
       <c r="C52" s="90"/>
@@ -5690,9 +5873,9 @@
       <c r="I52" s="65"/>
       <c r="J52" s="47"/>
       <c r="L52" s="47"/>
-      <c r="M52" s="81"/>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M52" s="85"/>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53" s="90"/>
       <c r="B53" s="90"/>
       <c r="C53" s="90"/>
@@ -5702,9 +5885,9 @@
       <c r="I53" s="65"/>
       <c r="J53" s="47"/>
       <c r="L53" s="47"/>
-      <c r="M53" s="81"/>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M53" s="85"/>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54" s="90"/>
       <c r="B54" s="90"/>
       <c r="C54" s="90"/>
@@ -5714,9 +5897,9 @@
       <c r="I54" s="65"/>
       <c r="J54" s="47"/>
       <c r="L54" s="47"/>
-      <c r="M54" s="81"/>
-    </row>
-    <row r="55" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="M54" s="85"/>
+    </row>
+    <row r="55" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A55" s="90" t="s">
         <v>189</v>
       </c>
@@ -5736,13 +5919,13 @@
       <c r="I55" s="65"/>
       <c r="J55" s="66"/>
       <c r="L55" s="66" t="s">
-        <v>310</v>
-      </c>
-      <c r="M55" s="94" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+        <v>379</v>
+      </c>
+      <c r="M55" s="92" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56" s="90"/>
       <c r="B56" s="90"/>
       <c r="C56" s="90"/>
@@ -5756,11 +5939,11 @@
       <c r="I56" s="65"/>
       <c r="J56" s="47"/>
       <c r="L56" s="47" t="s">
-        <v>310</v>
-      </c>
-      <c r="M56" s="81"/>
-    </row>
-    <row r="57" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+        <v>379</v>
+      </c>
+      <c r="M56" s="85"/>
+    </row>
+    <row r="57" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A57" s="90"/>
       <c r="B57" s="90"/>
       <c r="C57" s="90"/>
@@ -5776,11 +5959,11 @@
       <c r="I57" s="65"/>
       <c r="J57" s="66"/>
       <c r="L57" s="66" t="s">
-        <v>369</v>
-      </c>
-      <c r="M57" s="81"/>
-    </row>
-    <row r="58" spans="1:13" ht="180" x14ac:dyDescent="0.25">
+        <v>381</v>
+      </c>
+      <c r="M57" s="85"/>
+    </row>
+    <row r="58" spans="1:13" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A58" s="90"/>
       <c r="B58" s="90"/>
       <c r="C58" s="90"/>
@@ -5791,16 +5974,16 @@
         <v>153</v>
       </c>
       <c r="F58" s="50" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="I58" s="65"/>
       <c r="J58" s="47"/>
       <c r="L58" s="66" t="s">
-        <v>370</v>
-      </c>
-      <c r="M58" s="81"/>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+        <v>382</v>
+      </c>
+      <c r="M58" s="85"/>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59" s="90"/>
       <c r="B59" s="90"/>
       <c r="C59" s="90"/>
@@ -5810,9 +5993,9 @@
       <c r="I59" s="65"/>
       <c r="J59" s="47"/>
       <c r="L59" s="66"/>
-      <c r="M59" s="81"/>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M59" s="85"/>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A60" s="90"/>
       <c r="B60" s="90"/>
       <c r="C60" s="90"/>
@@ -5822,9 +6005,9 @@
       <c r="I60" s="65"/>
       <c r="J60" s="47"/>
       <c r="L60" s="66"/>
-      <c r="M60" s="81"/>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M60" s="85"/>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A61" s="90"/>
       <c r="B61" s="90"/>
       <c r="C61" s="90"/>
@@ -5834,9 +6017,9 @@
       <c r="I61" s="65"/>
       <c r="J61" s="47"/>
       <c r="L61" s="66"/>
-      <c r="M61" s="81"/>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M61" s="85"/>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62" s="90"/>
       <c r="B62" s="90"/>
       <c r="C62" s="90"/>
@@ -5846,9 +6029,9 @@
       <c r="I62" s="65"/>
       <c r="J62" s="47"/>
       <c r="L62" s="66"/>
-      <c r="M62" s="81"/>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M62" s="85"/>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A63" s="90"/>
       <c r="B63" s="90"/>
       <c r="C63" s="90"/>
@@ -5858,9 +6041,9 @@
       <c r="I63" s="65"/>
       <c r="J63" s="47"/>
       <c r="L63" s="66"/>
-      <c r="M63" s="81"/>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M63" s="85"/>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A64" s="90"/>
       <c r="B64" s="90"/>
       <c r="C64" s="90"/>
@@ -5869,17 +6052,17 @@
       <c r="F64" s="50"/>
       <c r="J64" s="47"/>
       <c r="L64" s="66"/>
-      <c r="M64" s="81"/>
-    </row>
-    <row r="65" spans="1:13" ht="120" x14ac:dyDescent="0.25">
+      <c r="M64" s="85"/>
+    </row>
+    <row r="65" spans="1:13" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A65" s="90" t="s">
         <v>117</v>
       </c>
       <c r="B65" s="90" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="C65" s="90" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="D65" s="73" t="s">
         <v>120</v>
@@ -5888,18 +6071,18 @@
         <v>153</v>
       </c>
       <c r="F65" s="73" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="I65" s="65"/>
       <c r="J65" s="47"/>
       <c r="L65" s="66" t="s">
-        <v>371</v>
-      </c>
-      <c r="M65" s="94" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+        <v>383</v>
+      </c>
+      <c r="M65" s="92" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A66" s="90"/>
       <c r="B66" s="90"/>
       <c r="C66" s="90"/>
@@ -5909,9 +6092,9 @@
       <c r="I66" s="65"/>
       <c r="J66" s="47"/>
       <c r="L66" s="66"/>
-      <c r="M66" s="81"/>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M66" s="85"/>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A67" s="90"/>
       <c r="B67" s="90"/>
       <c r="C67" s="90"/>
@@ -5921,9 +6104,9 @@
       <c r="I67" s="65"/>
       <c r="J67" s="47"/>
       <c r="L67" s="66"/>
-      <c r="M67" s="81"/>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M67" s="85"/>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A68" s="90"/>
       <c r="B68" s="90"/>
       <c r="C68" s="90"/>
@@ -5933,14 +6116,14 @@
       <c r="I68" s="65"/>
       <c r="J68" s="47"/>
       <c r="L68" s="66"/>
-      <c r="M68" s="81"/>
-    </row>
-    <row r="69" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="M68" s="85"/>
+    </row>
+    <row r="69" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A69" s="90" t="s">
         <v>125</v>
       </c>
       <c r="B69" s="90" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="C69" s="90" t="s">
         <v>258</v>
@@ -5953,22 +6136,22 @@
         <v>115</v>
       </c>
       <c r="I69" s="77" t="s">
-        <v>385</v>
+        <v>365</v>
       </c>
       <c r="J69" s="47" t="s">
-        <v>384</v>
+        <v>364</v>
       </c>
       <c r="L69" s="66" t="s">
-        <v>370</v>
-      </c>
-      <c r="M69" s="80" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+        <v>382</v>
+      </c>
+      <c r="M69" s="84" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A70" s="90"/>
-      <c r="B70" s="81"/>
-      <c r="C70" s="81"/>
+      <c r="B70" s="85"/>
+      <c r="C70" s="85"/>
       <c r="D70" s="50" t="s">
         <v>127</v>
       </c>
@@ -5979,19 +6162,19 @@
         <v>111</v>
       </c>
       <c r="G70" s="65" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="I70" s="65"/>
       <c r="J70" s="47"/>
       <c r="L70" s="66" t="s">
-        <v>369</v>
-      </c>
-      <c r="M70" s="81"/>
-    </row>
-    <row r="71" spans="1:13" ht="105" x14ac:dyDescent="0.25">
+        <v>381</v>
+      </c>
+      <c r="M70" s="85"/>
+    </row>
+    <row r="71" spans="1:13" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A71" s="90"/>
-      <c r="B71" s="81"/>
-      <c r="C71" s="81"/>
+      <c r="B71" s="85"/>
+      <c r="C71" s="85"/>
       <c r="D71" s="50" t="s">
         <v>128</v>
       </c>
@@ -5999,74 +6182,74 @@
         <v>153</v>
       </c>
       <c r="F71" s="50" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="I71" s="65" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="J71" s="47" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="L71" s="47"/>
-      <c r="M71" s="81"/>
-    </row>
-    <row r="72" spans="1:13" s="44" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M71" s="85"/>
+    </row>
+    <row r="72" spans="1:13" s="44" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A72" s="90"/>
-      <c r="B72" s="81"/>
-      <c r="C72" s="81"/>
+      <c r="B72" s="85"/>
+      <c r="C72" s="85"/>
       <c r="D72" s="43"/>
       <c r="E72" s="73"/>
       <c r="F72" s="56"/>
       <c r="I72" s="65"/>
       <c r="J72" s="47"/>
       <c r="L72" s="47"/>
-      <c r="M72" s="81"/>
-    </row>
-    <row r="73" spans="1:13" s="44" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M72" s="85"/>
+    </row>
+    <row r="73" spans="1:13" s="44" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A73" s="90"/>
-      <c r="B73" s="81"/>
-      <c r="C73" s="81"/>
+      <c r="B73" s="85"/>
+      <c r="C73" s="85"/>
       <c r="D73" s="43"/>
       <c r="E73" s="73"/>
       <c r="F73" s="56"/>
       <c r="I73" s="65"/>
       <c r="J73" s="47"/>
       <c r="L73" s="47"/>
-      <c r="M73" s="81"/>
-    </row>
-    <row r="74" spans="1:13" s="44" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M73" s="85"/>
+    </row>
+    <row r="74" spans="1:13" s="44" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A74" s="90"/>
-      <c r="B74" s="81"/>
-      <c r="C74" s="81"/>
+      <c r="B74" s="85"/>
+      <c r="C74" s="85"/>
       <c r="D74" s="43"/>
       <c r="E74" s="73"/>
       <c r="F74" s="56"/>
       <c r="I74" s="65"/>
       <c r="J74" s="47"/>
       <c r="L74" s="47"/>
-      <c r="M74" s="81"/>
-    </row>
-    <row r="75" spans="1:13" s="44" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M74" s="85"/>
+    </row>
+    <row r="75" spans="1:13" s="44" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A75" s="90"/>
-      <c r="B75" s="81"/>
-      <c r="C75" s="81"/>
+      <c r="B75" s="85"/>
+      <c r="C75" s="85"/>
       <c r="D75" s="43"/>
       <c r="E75" s="67"/>
       <c r="F75" s="56"/>
       <c r="I75" s="65"/>
       <c r="J75" s="47"/>
       <c r="L75" s="47"/>
-      <c r="M75" s="81"/>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M75" s="85"/>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A76" s="90"/>
-      <c r="B76" s="81"/>
-      <c r="C76" s="81"/>
+      <c r="B76" s="85"/>
+      <c r="C76" s="85"/>
       <c r="D76" s="42"/>
       <c r="F76" s="56"/>
-      <c r="M76" s="81"/>
-    </row>
-    <row r="77" spans="1:13" ht="105" x14ac:dyDescent="0.25">
+      <c r="M76" s="85"/>
+    </row>
+    <row r="77" spans="1:13" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A77" s="90" t="s">
         <v>132</v>
       </c>
@@ -6083,22 +6266,22 @@
         <v>153</v>
       </c>
       <c r="F77" s="56" t="s">
+        <v>360</v>
+      </c>
+      <c r="I77" s="65" t="s">
+        <v>365</v>
+      </c>
+      <c r="J77" s="47" t="s">
+        <v>364</v>
+      </c>
+      <c r="L77" s="66" t="s">
+        <v>382</v>
+      </c>
+      <c r="M77" s="92" t="s">
         <v>380</v>
       </c>
-      <c r="I77" s="65" t="s">
-        <v>385</v>
-      </c>
-      <c r="J77" s="47" t="s">
-        <v>384</v>
-      </c>
-      <c r="L77" s="66" t="s">
-        <v>370</v>
-      </c>
-      <c r="M77" s="94" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="78" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A78" s="90"/>
       <c r="B78" s="90"/>
       <c r="C78" s="90"/>
@@ -6107,11 +6290,11 @@
       <c r="I78" s="65"/>
       <c r="J78" s="66"/>
       <c r="L78" s="66" t="s">
-        <v>372</v>
-      </c>
-      <c r="M78" s="81"/>
-    </row>
-    <row r="79" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+        <v>385</v>
+      </c>
+      <c r="M78" s="85"/>
+    </row>
+    <row r="79" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A79" s="90" t="s">
         <v>141</v>
       </c>
@@ -6131,13 +6314,13 @@
       <c r="I79" s="65"/>
       <c r="J79" s="66"/>
       <c r="L79" s="66" t="s">
-        <v>372</v>
-      </c>
-      <c r="M79" s="94" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+        <v>385</v>
+      </c>
+      <c r="M79" s="92" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A80" s="90"/>
       <c r="B80" s="90"/>
       <c r="C80" s="90"/>
@@ -6147,9 +6330,9 @@
       <c r="I80" s="65"/>
       <c r="J80" s="66"/>
       <c r="L80" s="66"/>
-      <c r="M80" s="81"/>
-    </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M80" s="85"/>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A81" s="90"/>
       <c r="B81" s="90"/>
       <c r="C81" s="90"/>
@@ -6159,9 +6342,9 @@
       <c r="I81" s="65"/>
       <c r="J81" s="66"/>
       <c r="L81" s="66"/>
-      <c r="M81" s="81"/>
-    </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M81" s="85"/>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A82" s="90"/>
       <c r="B82" s="90"/>
       <c r="C82" s="90"/>
@@ -6171,9 +6354,9 @@
       <c r="I82" s="65"/>
       <c r="J82" s="66"/>
       <c r="L82" s="66"/>
-      <c r="M82" s="81"/>
-    </row>
-    <row r="83" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="M82" s="85"/>
+    </row>
+    <row r="83" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A83" s="49" t="s">
         <v>146</v>
       </c>
@@ -6189,17 +6372,17 @@
         <v>123</v>
       </c>
       <c r="I83" s="65" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="J83" s="66" t="s">
-        <v>315</v>
+        <v>387</v>
       </c>
       <c r="L83" s="66"/>
       <c r="M83" s="60" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="84" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A84" s="90" t="s">
         <v>263</v>
       </c>
@@ -6219,147 +6402,147 @@
       <c r="I84" s="65"/>
       <c r="J84" s="66"/>
       <c r="L84" s="66" t="s">
-        <v>276</v>
-      </c>
-      <c r="M84" s="80" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="85" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+      <c r="M84" s="84" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A85" s="90"/>
-      <c r="B85" s="84"/>
-      <c r="C85" s="84"/>
+      <c r="B85" s="80"/>
+      <c r="C85" s="80"/>
       <c r="D85" s="73" t="s">
         <v>153</v>
       </c>
       <c r="E85" s="67"/>
       <c r="F85" s="50" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="I85" s="65" t="s">
         <v>189</v>
       </c>
       <c r="J85" s="66" t="s">
-        <v>373</v>
+        <v>353</v>
       </c>
       <c r="L85" s="66" t="s">
-        <v>276</v>
-      </c>
-      <c r="M85" s="81"/>
-    </row>
-    <row r="86" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+      <c r="M85" s="85"/>
+    </row>
+    <row r="86" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A86" s="90"/>
-      <c r="B86" s="84"/>
-      <c r="C86" s="84"/>
+      <c r="B86" s="80"/>
+      <c r="C86" s="80"/>
       <c r="D86" s="73"/>
       <c r="E86" s="67"/>
       <c r="F86" s="73"/>
       <c r="I86" s="65"/>
       <c r="J86" s="66"/>
       <c r="L86" s="66" t="s">
-        <v>276</v>
-      </c>
-      <c r="M86" s="81"/>
-    </row>
-    <row r="87" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+      <c r="M86" s="85"/>
+    </row>
+    <row r="87" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A87" s="90"/>
-      <c r="B87" s="84"/>
-      <c r="C87" s="84"/>
+      <c r="B87" s="80"/>
+      <c r="C87" s="80"/>
       <c r="D87" s="73"/>
       <c r="E87" s="67"/>
       <c r="F87" s="73"/>
       <c r="I87" s="65"/>
       <c r="J87" s="66"/>
       <c r="L87" s="66" t="s">
-        <v>276</v>
-      </c>
-      <c r="M87" s="81"/>
-    </row>
-    <row r="88" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+      <c r="M87" s="85"/>
+    </row>
+    <row r="88" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A88" s="90"/>
-      <c r="B88" s="84"/>
-      <c r="C88" s="84"/>
+      <c r="B88" s="80"/>
+      <c r="C88" s="80"/>
       <c r="D88" s="73"/>
       <c r="E88" s="67"/>
       <c r="F88" s="73"/>
       <c r="I88" s="65"/>
       <c r="J88" s="66"/>
       <c r="L88" s="66" t="s">
-        <v>276</v>
-      </c>
-      <c r="M88" s="81"/>
-    </row>
-    <row r="89" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+      <c r="M88" s="85"/>
+    </row>
+    <row r="89" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A89" s="90"/>
-      <c r="B89" s="84"/>
-      <c r="C89" s="84"/>
+      <c r="B89" s="80"/>
+      <c r="C89" s="80"/>
       <c r="D89" s="73"/>
       <c r="E89" s="67"/>
       <c r="F89" s="73"/>
       <c r="I89" s="65"/>
       <c r="J89" s="66"/>
       <c r="L89" s="66" t="s">
-        <v>276</v>
-      </c>
-      <c r="M89" s="81"/>
-    </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+      <c r="M89" s="85"/>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A90" s="57"/>
       <c r="B90" s="57"/>
       <c r="C90" s="57"/>
       <c r="D90" s="57"/>
       <c r="E90" s="67"/>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A91" s="57"/>
       <c r="B91" s="57"/>
       <c r="C91" s="57"/>
       <c r="D91" s="57"/>
       <c r="E91" s="67"/>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A92" s="57"/>
       <c r="B92" s="57"/>
       <c r="C92" s="57"/>
       <c r="D92" s="57"/>
       <c r="E92" s="67"/>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A93" s="57"/>
       <c r="B93" s="57"/>
       <c r="C93" s="57"/>
       <c r="D93" s="57"/>
       <c r="E93" s="67"/>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A94" s="57"/>
       <c r="B94" s="57"/>
       <c r="C94" s="57"/>
       <c r="D94" s="57"/>
       <c r="E94" s="67"/>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A95" s="57"/>
       <c r="B95" s="57"/>
       <c r="C95" s="57"/>
       <c r="D95" s="57"/>
       <c r="E95" s="67"/>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A96" s="57"/>
       <c r="B96" s="57"/>
       <c r="C96" s="57"/>
       <c r="D96" s="57"/>
       <c r="E96" s="67"/>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" s="57"/>
       <c r="B97" s="57"/>
       <c r="C97" s="57"/>
       <c r="D97" s="57"/>
       <c r="E97" s="67"/>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" s="57"/>
       <c r="B98" s="57"/>
       <c r="C98" s="57"/>
@@ -6369,57 +6552,6 @@
   </sheetData>
   <autoFilter ref="A1:M89" xr:uid="{FE8A9026-FDB0-4A8E-BB8F-FE98E3487D08}"/>
   <mergeCells count="67">
-    <mergeCell ref="G10:G12"/>
-    <mergeCell ref="L10:L12"/>
-    <mergeCell ref="K10:K12"/>
-    <mergeCell ref="J10:J12"/>
-    <mergeCell ref="I10:I12"/>
-    <mergeCell ref="H10:H12"/>
-    <mergeCell ref="C84:C89"/>
-    <mergeCell ref="C77:C78"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="B40:B54"/>
-    <mergeCell ref="C40:C54"/>
-    <mergeCell ref="B55:B64"/>
-    <mergeCell ref="C55:C64"/>
-    <mergeCell ref="B79:B82"/>
-    <mergeCell ref="C79:C82"/>
-    <mergeCell ref="B65:B68"/>
-    <mergeCell ref="C65:C68"/>
-    <mergeCell ref="B69:B76"/>
-    <mergeCell ref="C69:C76"/>
-    <mergeCell ref="B77:B78"/>
-    <mergeCell ref="A69:A76"/>
-    <mergeCell ref="A77:A78"/>
-    <mergeCell ref="A79:A82"/>
-    <mergeCell ref="A84:A89"/>
-    <mergeCell ref="B84:B89"/>
-    <mergeCell ref="A65:A68"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="C26:C29"/>
-    <mergeCell ref="B30:B37"/>
-    <mergeCell ref="C30:C37"/>
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="A30:A37"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="A40:A54"/>
-    <mergeCell ref="A55:A64"/>
-    <mergeCell ref="C10:C16"/>
-    <mergeCell ref="B17:B25"/>
-    <mergeCell ref="C17:C25"/>
-    <mergeCell ref="F4:F8"/>
-    <mergeCell ref="F10:F12"/>
-    <mergeCell ref="D4:D8"/>
-    <mergeCell ref="D10:D12"/>
-    <mergeCell ref="E4:E8"/>
-    <mergeCell ref="E10:E12"/>
-    <mergeCell ref="M84:M89"/>
-    <mergeCell ref="M38:M39"/>
-    <mergeCell ref="M40:M54"/>
-    <mergeCell ref="M55:M64"/>
-    <mergeCell ref="M65:M68"/>
-    <mergeCell ref="M69:M76"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
@@ -6436,16 +6568,67 @@
     <mergeCell ref="B4:B9"/>
     <mergeCell ref="C4:C9"/>
     <mergeCell ref="B10:B16"/>
+    <mergeCell ref="M84:M89"/>
+    <mergeCell ref="M38:M39"/>
+    <mergeCell ref="M40:M54"/>
+    <mergeCell ref="M55:M64"/>
+    <mergeCell ref="M65:M68"/>
+    <mergeCell ref="M69:M76"/>
+    <mergeCell ref="C10:C16"/>
+    <mergeCell ref="B17:B25"/>
+    <mergeCell ref="C17:C25"/>
+    <mergeCell ref="F4:F8"/>
+    <mergeCell ref="F10:F12"/>
+    <mergeCell ref="D4:D8"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="E4:E8"/>
+    <mergeCell ref="E10:E12"/>
+    <mergeCell ref="A65:A68"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="B30:B37"/>
+    <mergeCell ref="C30:C37"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="A30:A37"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A40:A54"/>
+    <mergeCell ref="A55:A64"/>
+    <mergeCell ref="A69:A76"/>
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="A79:A82"/>
+    <mergeCell ref="A84:A89"/>
+    <mergeCell ref="B84:B89"/>
+    <mergeCell ref="C84:C89"/>
+    <mergeCell ref="C77:C78"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="B40:B54"/>
+    <mergeCell ref="C40:C54"/>
+    <mergeCell ref="B55:B64"/>
+    <mergeCell ref="C55:C64"/>
+    <mergeCell ref="B79:B82"/>
+    <mergeCell ref="C79:C82"/>
+    <mergeCell ref="B65:B68"/>
+    <mergeCell ref="C65:C68"/>
+    <mergeCell ref="B69:B76"/>
+    <mergeCell ref="C69:C76"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="G10:G12"/>
+    <mergeCell ref="L10:L12"/>
+    <mergeCell ref="K10:K12"/>
+    <mergeCell ref="J10:J12"/>
+    <mergeCell ref="I10:I12"/>
+    <mergeCell ref="H10:H12"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="M2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="M17" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
-    <hyperlink ref="M4" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
-    <hyperlink ref="M10" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
-    <hyperlink ref="M26" r:id="rId5" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
-    <hyperlink ref="M30" r:id="rId6" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
-    <hyperlink ref="M38" r:id="rId7" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
-    <hyperlink ref="M40" r:id="rId8" xr:uid="{00000000-0004-0000-0200-000007000000}"/>
+    <hyperlink ref="M2" r:id="rId1" display="https://www.nuplazidhcp.com/about-pd-psychosis" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="M17" r:id="rId2" display="https://www.nuplazidhcp.com/efficacy-data" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="M4" r:id="rId3" display="https://www.nuplazidhcp.com/" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink ref="M10" r:id="rId4" display="https://www.nuplazidhcp.com/efficacy-data" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
+    <hyperlink ref="M26" r:id="rId5" display="https://www.nuplazidhcp.com/efficacy-data" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
+    <hyperlink ref="M30" r:id="rId6" display="https://www.nuplazidhcp.com/safety-tolerability-data" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
+    <hyperlink ref="M38" r:id="rId7" display="https://www.nuplazidhcp.com/proposed-moa" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
+    <hyperlink ref="M40" r:id="rId8" display="https://www.nuplazidhcp.com/dosing" xr:uid="{00000000-0004-0000-0200-000007000000}"/>
     <hyperlink ref="M55" r:id="rId9" display="https://www.nuplazidhcp.com/acadia-connect" xr:uid="{00000000-0004-0000-0200-000008000000}"/>
     <hyperlink ref="M65" r:id="rId10" display="https://www.acadiaconnect.com/healthcare-providers/cost" xr:uid="{00000000-0004-0000-0200-000009000000}"/>
     <hyperlink ref="M69" r:id="rId11" xr:uid="{00000000-0004-0000-0200-00000A000000}"/>
@@ -6456,37 +6639,37 @@
     <hyperlink ref="H38" r:id="rId16" xr:uid="{620A52A3-8244-45FA-89BD-01FAA5923E57}"/>
     <hyperlink ref="J71" r:id="rId17" xr:uid="{D2D2BF11-7231-4843-A1DD-7998B07BE096}"/>
     <hyperlink ref="J83" r:id="rId18" display="https://www.nuplazidhcp.com/pdf/letter-of-appeal.pdf" xr:uid="{6A0E9ADB-1E28-40A0-A937-911A852DD595}"/>
-    <hyperlink ref="L2" r:id="rId19" xr:uid="{7512338C-98F7-45BB-8832-70049CDB1959}"/>
-    <hyperlink ref="L4" r:id="rId20" xr:uid="{54680947-6D07-49EE-907C-7608033AF346}"/>
+    <hyperlink ref="L2" r:id="rId19" display="https://www.nuplazidhcp.com/about-pd-psychosis" xr:uid="{7512338C-98F7-45BB-8832-70049CDB1959}"/>
+    <hyperlink ref="L4" r:id="rId20" display="https://www.nuplazidhcp.com/" xr:uid="{54680947-6D07-49EE-907C-7608033AF346}"/>
     <hyperlink ref="L5:L8" r:id="rId21" display="https://www.nuplazidhcp.com/" xr:uid="{4B8352A1-9F66-4F57-96BF-0B9DE1C7CC0B}"/>
-    <hyperlink ref="L10" r:id="rId22" xr:uid="{DCE3F599-4A4B-4AA3-97E5-7463A2CC8B1A}"/>
+    <hyperlink ref="L10" r:id="rId22" display="https://www.nuplazidhcp.com/efficacy-data" xr:uid="{DCE3F599-4A4B-4AA3-97E5-7463A2CC8B1A}"/>
     <hyperlink ref="L15:L16" r:id="rId23" display="https://www.nuplazidhcp.com/efficacy-data" xr:uid="{BECCFFFD-E956-48D1-B1FE-2696E6E13A3A}"/>
-    <hyperlink ref="L17" r:id="rId24" xr:uid="{F571F1FF-8B86-4A35-B6AC-458344C4F6CD}"/>
-    <hyperlink ref="L30" r:id="rId25" xr:uid="{AB34189E-88C0-4E0A-B5EE-DABBB10692CD}"/>
-    <hyperlink ref="L40" r:id="rId26" xr:uid="{784562BD-368D-4765-AD44-F135C5EBA2F8}"/>
-    <hyperlink ref="L55" r:id="rId27" xr:uid="{B5CEE080-912D-4421-9D68-637FC05CB79C}"/>
-    <hyperlink ref="L56" r:id="rId28" xr:uid="{1254F235-DAC2-40D4-8F5B-37A76E2FB96C}"/>
-    <hyperlink ref="L57" r:id="rId29" location="heading-1" xr:uid="{8AB97281-61CB-42CE-B01B-1B7612EB7201}"/>
-    <hyperlink ref="L58" r:id="rId30" location="heading-0" xr:uid="{E57D3C9F-85A0-4370-8D72-BB240A64460D}"/>
-    <hyperlink ref="L65" r:id="rId31" location="heading-2" xr:uid="{729FB565-1D32-46F4-998D-416674379F80}"/>
-    <hyperlink ref="L69" r:id="rId32" location="heading-0" xr:uid="{DBC3BE2B-3A61-45AF-A75E-21BA98ABA7B9}"/>
-    <hyperlink ref="L70" r:id="rId33" location="heading-1" xr:uid="{402F8AF4-756B-4FB1-B16F-7381D1BE6D6D}"/>
-    <hyperlink ref="L77" r:id="rId34" location="heading-0" xr:uid="{E7F817F0-D7BE-49AF-AC72-A50C39380354}"/>
-    <hyperlink ref="L78" r:id="rId35" location="heading-3" xr:uid="{D76AA7D0-38FF-42DF-89E7-2FDB8A8258F6}"/>
+    <hyperlink ref="L17" r:id="rId24" display="https://www.nuplazidhcp.com/efficacy-data" xr:uid="{F571F1FF-8B86-4A35-B6AC-458344C4F6CD}"/>
+    <hyperlink ref="L30" r:id="rId25" display="https://www.nuplazidhcp.com/safety-tolerability-data" xr:uid="{AB34189E-88C0-4E0A-B5EE-DABBB10692CD}"/>
+    <hyperlink ref="L40" r:id="rId26" display="https://www.nuplazidhcp.com/dosing" xr:uid="{784562BD-368D-4765-AD44-F135C5EBA2F8}"/>
+    <hyperlink ref="L55" r:id="rId27" display="https://www.nuplazidhcp.com/acadia-connect" xr:uid="{B5CEE080-912D-4421-9D68-637FC05CB79C}"/>
+    <hyperlink ref="L56" r:id="rId28" display="https://www.nuplazidhcp.com/acadia-connect" xr:uid="{1254F235-DAC2-40D4-8F5B-37A76E2FB96C}"/>
+    <hyperlink ref="L57" r:id="rId29" location="heading-1" display="https://www.nuplazidhcp.com/acadia-connect#heading-1" xr:uid="{8AB97281-61CB-42CE-B01B-1B7612EB7201}"/>
+    <hyperlink ref="L58" r:id="rId30" location="heading-0" display="https://www.nuplazidhcp.com/acadia-connect#heading-0" xr:uid="{E57D3C9F-85A0-4370-8D72-BB240A64460D}"/>
+    <hyperlink ref="L65" r:id="rId31" location="heading-2" display="https://www.nuplazidhcp.com/acadia-connect#heading-2" xr:uid="{729FB565-1D32-46F4-998D-416674379F80}"/>
+    <hyperlink ref="L69" r:id="rId32" location="heading-0" display="https://www.nuplazidhcp.com/acadia-connect#heading-0" xr:uid="{DBC3BE2B-3A61-45AF-A75E-21BA98ABA7B9}"/>
+    <hyperlink ref="L70" r:id="rId33" location="heading-1" display="https://www.nuplazidhcp.com/acadia-connect#heading-1" xr:uid="{402F8AF4-756B-4FB1-B16F-7381D1BE6D6D}"/>
+    <hyperlink ref="L77" r:id="rId34" location="heading-0" display="https://www.nuplazidhcp.com/acadia-connect#heading-0" xr:uid="{E7F817F0-D7BE-49AF-AC72-A50C39380354}"/>
+    <hyperlink ref="L78" r:id="rId35" location="heading-3" display="https://www.nuplazidhcp.com/acadia-connect#heading-3" xr:uid="{D76AA7D0-38FF-42DF-89E7-2FDB8A8258F6}"/>
     <hyperlink ref="L84" r:id="rId36" xr:uid="{AE628026-B0A3-4526-A641-3C3D8B380D81}"/>
     <hyperlink ref="L85" r:id="rId37" xr:uid="{35D4A6C8-86AB-43EC-A1CE-4328DEBD4548}"/>
     <hyperlink ref="L86:L89" r:id="rId38" display="https://www.acadiaconnect.com/healthcare-providers" xr:uid="{D5C86836-0DDC-4BDA-912F-C5D29BEE0331}"/>
     <hyperlink ref="J85" r:id="rId39" location="gtm-844-hcp-body" xr:uid="{6E227707-23AE-47FE-9927-CABF7B00812D}"/>
     <hyperlink ref="J3" r:id="rId40" location="section_4" xr:uid="{D7C274DA-B3DB-4C00-8FE2-F39E7E8A134D}"/>
-    <hyperlink ref="L13" r:id="rId41" location="heading-0" xr:uid="{33AFF19B-EB53-4250-AE95-2318A02A433F}"/>
-    <hyperlink ref="L14" r:id="rId42" location="heading-0" xr:uid="{B527C9EA-A5BD-46F8-9C01-8A553A8D8181}"/>
-    <hyperlink ref="L19" r:id="rId43" location="heading-1" xr:uid="{2B4B2D4B-46C7-431F-857B-5AC39C449661}"/>
-    <hyperlink ref="L22" r:id="rId44" location="heading-3" xr:uid="{D4B75A11-5781-4661-B43C-87E4E8469025}"/>
-    <hyperlink ref="L24" r:id="rId45" location="heading-3" xr:uid="{12D900FE-AF00-4E86-95D6-61D57E260D54}"/>
-    <hyperlink ref="L25" r:id="rId46" location="heading-3" xr:uid="{DA9CEC8D-7B07-475D-933E-47D3832169FC}"/>
-    <hyperlink ref="L29" r:id="rId47" location="heading-0" xr:uid="{0D4ABB66-DDE2-4FA2-9783-4AAD4BB1C2CF}"/>
-    <hyperlink ref="L32" r:id="rId48" location="safetyTabs" xr:uid="{914DB178-2DBE-4A9F-86AE-74D418682D15}"/>
-    <hyperlink ref="L79" r:id="rId49" location="heading-3" xr:uid="{E697A06C-6D36-4612-95F0-24BE352FFFDF}"/>
+    <hyperlink ref="L13" r:id="rId41" location="heading-0" display="https://www.nuplazidhcp.com/efficacy-data#heading-0" xr:uid="{33AFF19B-EB53-4250-AE95-2318A02A433F}"/>
+    <hyperlink ref="L14" r:id="rId42" location="heading-0" display="https://www.nuplazidhcp.com/efficacy-data#heading-0" xr:uid="{B527C9EA-A5BD-46F8-9C01-8A553A8D8181}"/>
+    <hyperlink ref="L19" r:id="rId43" location="heading-1" display="https://www.nuplazidhcp.com/efficacy-data#heading-1" xr:uid="{2B4B2D4B-46C7-431F-857B-5AC39C449661}"/>
+    <hyperlink ref="L22" r:id="rId44" location="heading-3" display="https://www.nuplazidhcp.com/efficacy-data#heading-3" xr:uid="{D4B75A11-5781-4661-B43C-87E4E8469025}"/>
+    <hyperlink ref="L24" r:id="rId45" location="heading-3" display="https://www.nuplazidhcp.com/efficacy-data#heading-3" xr:uid="{12D900FE-AF00-4E86-95D6-61D57E260D54}"/>
+    <hyperlink ref="L25" r:id="rId46" location="heading-3" display="https://www.nuplazidhcp.com/efficacy-data#heading-3" xr:uid="{DA9CEC8D-7B07-475D-933E-47D3832169FC}"/>
+    <hyperlink ref="L29" r:id="rId47" location="heading-0" display="https://www.nuplazidhcp.com/efficacy-data#heading-0" xr:uid="{0D4ABB66-DDE2-4FA2-9783-4AAD4BB1C2CF}"/>
+    <hyperlink ref="L32" r:id="rId48" location="safetyTabs" display="https://www.nuplazidhcp.com/safety-tolerability-data#safetyTabs" xr:uid="{914DB178-2DBE-4A9F-86AE-74D418682D15}"/>
+    <hyperlink ref="L79" r:id="rId49" location="heading-3" display="https://www.nuplazidhcp.com/acadia-connect#heading-3" xr:uid="{E697A06C-6D36-4612-95F0-24BE352FFFDF}"/>
     <hyperlink ref="J43" r:id="rId50" xr:uid="{D5956ADB-CCC2-4DC2-A8C4-803700F25823}"/>
     <hyperlink ref="L44" r:id="rId51" xr:uid="{5F289884-B058-4E48-ACB0-973F2C70E8EB}"/>
     <hyperlink ref="L38" r:id="rId52" xr:uid="{F3BB0367-E8E0-489E-A425-490538217692}"/>

--- a/Corpus/MLR_Corpus.xlsx
+++ b/Corpus/MLR_Corpus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Siva\Projects\Acadia\Chatbot_Git\Masori-Chatbot-Dev\Corpus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFBE0C03-BF8C-4BA4-A6A8-4341741672E5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD3CA968-D292-44EA-BFD4-BDAB8B2C31AA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1959,7 +1959,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2147,26 +2147,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2175,23 +2178,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2571,9 +2574,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L22" sqref="L22"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2630,13 +2633,13 @@
       </c>
     </row>
     <row r="2" spans="1:13" s="31" customFormat="1" ht="72" x14ac:dyDescent="0.3">
-      <c r="A2" s="82" t="s">
+      <c r="A2" s="86" t="s">
         <v>229</v>
       </c>
-      <c r="B2" s="82" t="s">
+      <c r="B2" s="86" t="s">
         <v>234</v>
       </c>
-      <c r="C2" s="82" t="s">
+      <c r="C2" s="86" t="s">
         <v>273</v>
       </c>
       <c r="D2" s="57" t="s">
@@ -2656,14 +2659,14 @@
       <c r="L2" s="66" t="s">
         <v>389</v>
       </c>
-      <c r="M2" s="87" t="s">
+      <c r="M2" s="84" t="s">
         <v>389</v>
       </c>
     </row>
     <row r="3" spans="1:13" s="31" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A3" s="83"/>
-      <c r="B3" s="80"/>
-      <c r="C3" s="83"/>
+      <c r="A3" s="87"/>
+      <c r="B3" s="85"/>
+      <c r="C3" s="87"/>
       <c r="D3" s="57" t="s">
         <v>10</v>
       </c>
@@ -2683,12 +2686,12 @@
       <c r="L3" s="66" t="s">
         <v>389</v>
       </c>
-      <c r="M3" s="85"/>
+      <c r="M3" s="82"/>
     </row>
     <row r="4" spans="1:13" s="31" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="83"/>
-      <c r="B4" s="80"/>
-      <c r="C4" s="83"/>
+      <c r="A4" s="87"/>
+      <c r="B4" s="85"/>
+      <c r="C4" s="87"/>
       <c r="D4" s="57" t="s">
         <v>308</v>
       </c>
@@ -2706,16 +2709,16 @@
       <c r="L4" s="66" t="s">
         <v>389</v>
       </c>
-      <c r="M4" s="85"/>
+      <c r="M4" s="82"/>
     </row>
     <row r="5" spans="1:13" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="81" t="s">
+      <c r="A5" s="88" t="s">
         <v>172</v>
       </c>
-      <c r="B5" s="80" t="s">
+      <c r="B5" s="85" t="s">
         <v>282</v>
       </c>
-      <c r="C5" s="80" t="s">
+      <c r="C5" s="85" t="s">
         <v>235</v>
       </c>
       <c r="D5" s="57" t="s">
@@ -2735,14 +2738,14 @@
       <c r="L5" s="66" t="s">
         <v>390</v>
       </c>
-      <c r="M5" s="84" t="s">
+      <c r="M5" s="81" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="72" x14ac:dyDescent="0.3">
-      <c r="A6" s="81"/>
-      <c r="B6" s="81"/>
-      <c r="C6" s="81"/>
+      <c r="A6" s="88"/>
+      <c r="B6" s="88"/>
+      <c r="C6" s="88"/>
       <c r="D6" s="57" t="s">
         <v>342</v>
       </c>
@@ -2762,16 +2765,16 @@
       <c r="L6" s="66" t="s">
         <v>390</v>
       </c>
-      <c r="M6" s="85"/>
+      <c r="M6" s="82"/>
     </row>
     <row r="7" spans="1:13" s="44" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="80" t="s">
+      <c r="A7" s="85" t="s">
         <v>286</v>
       </c>
-      <c r="B7" s="80" t="s">
+      <c r="B7" s="85" t="s">
         <v>287</v>
       </c>
-      <c r="C7" s="80" t="s">
+      <c r="C7" s="85" t="s">
         <v>291</v>
       </c>
       <c r="D7" s="61" t="s">
@@ -2791,14 +2794,14 @@
       <c r="L7" s="66" t="s">
         <v>391</v>
       </c>
-      <c r="M7" s="84" t="s">
+      <c r="M7" s="81" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="8" spans="1:13" s="44" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="80"/>
-      <c r="B8" s="80"/>
-      <c r="C8" s="80"/>
+      <c r="A8" s="85"/>
+      <c r="B8" s="85"/>
+      <c r="C8" s="85"/>
       <c r="D8" s="61" t="s">
         <v>289</v>
       </c>
@@ -2816,12 +2819,12 @@
       <c r="L8" s="66" t="s">
         <v>392</v>
       </c>
-      <c r="M8" s="85"/>
+      <c r="M8" s="82"/>
     </row>
     <row r="9" spans="1:13" s="44" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A9" s="80"/>
-      <c r="B9" s="80"/>
-      <c r="C9" s="80"/>
+      <c r="A9" s="85"/>
+      <c r="B9" s="85"/>
+      <c r="C9" s="85"/>
       <c r="D9" s="61" t="s">
         <v>292</v>
       </c>
@@ -2841,12 +2844,12 @@
       <c r="L9" s="66" t="s">
         <v>392</v>
       </c>
-      <c r="M9" s="85"/>
+      <c r="M9" s="82"/>
     </row>
     <row r="10" spans="1:13" s="44" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="80"/>
-      <c r="B10" s="80"/>
-      <c r="C10" s="80"/>
+      <c r="A10" s="85"/>
+      <c r="B10" s="85"/>
+      <c r="C10" s="85"/>
       <c r="D10" s="61"/>
       <c r="E10" s="71"/>
       <c r="F10" s="61"/>
@@ -2933,13 +2936,13 @@
       <c r="M14" s="64"/>
     </row>
     <row r="15" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A15" s="81" t="s">
+      <c r="A15" s="88" t="s">
         <v>174</v>
       </c>
-      <c r="B15" s="80" t="s">
+      <c r="B15" s="85" t="s">
         <v>236</v>
       </c>
-      <c r="C15" s="80" t="s">
+      <c r="C15" s="85" t="s">
         <v>283</v>
       </c>
       <c r="D15" s="57" t="s">
@@ -2959,14 +2962,14 @@
       <c r="L15" s="66" t="s">
         <v>389</v>
       </c>
-      <c r="M15" s="84" t="s">
+      <c r="M15" s="81" t="s">
         <v>389</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A16" s="81"/>
-      <c r="B16" s="81"/>
-      <c r="C16" s="81"/>
+      <c r="A16" s="88"/>
+      <c r="B16" s="88"/>
+      <c r="C16" s="88"/>
       <c r="D16" s="57" t="s">
         <v>311</v>
       </c>
@@ -2984,12 +2987,12 @@
       <c r="L16" s="66" t="s">
         <v>389</v>
       </c>
-      <c r="M16" s="85"/>
+      <c r="M16" s="82"/>
     </row>
     <row r="17" spans="1:13" ht="72" x14ac:dyDescent="0.3">
-      <c r="A17" s="81"/>
-      <c r="B17" s="81"/>
-      <c r="C17" s="81"/>
+      <c r="A17" s="88"/>
+      <c r="B17" s="88"/>
+      <c r="C17" s="88"/>
       <c r="D17" s="57" t="s">
         <v>312</v>
       </c>
@@ -3007,12 +3010,12 @@
       <c r="L17" s="66" t="s">
         <v>389</v>
       </c>
-      <c r="M17" s="85"/>
+      <c r="M17" s="82"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A18" s="81"/>
-      <c r="B18" s="81"/>
-      <c r="C18" s="81"/>
+      <c r="A18" s="88"/>
+      <c r="B18" s="88"/>
+      <c r="C18" s="88"/>
       <c r="D18" s="43"/>
       <c r="F18" s="42"/>
       <c r="G18" s="42"/>
@@ -3023,16 +3026,16 @@
       <c r="L18" s="72" t="s">
         <v>389</v>
       </c>
-      <c r="M18" s="85"/>
+      <c r="M18" s="82"/>
     </row>
     <row r="19" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A19" s="81" t="s">
+      <c r="A19" s="88" t="s">
         <v>176</v>
       </c>
-      <c r="B19" s="80" t="s">
+      <c r="B19" s="85" t="s">
         <v>237</v>
       </c>
-      <c r="C19" s="80" t="s">
+      <c r="C19" s="85" t="s">
         <v>238</v>
       </c>
       <c r="D19" s="57" t="s">
@@ -3052,14 +3055,14 @@
       <c r="L19" s="66" t="s">
         <v>389</v>
       </c>
-      <c r="M19" s="84" t="s">
+      <c r="M19" s="81" t="s">
         <v>389</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A20" s="81"/>
-      <c r="B20" s="80"/>
-      <c r="C20" s="81"/>
+      <c r="A20" s="88"/>
+      <c r="B20" s="85"/>
+      <c r="C20" s="88"/>
       <c r="D20" s="57" t="s">
         <v>314</v>
       </c>
@@ -3077,12 +3080,12 @@
       <c r="L20" s="66" t="s">
         <v>389</v>
       </c>
-      <c r="M20" s="85"/>
+      <c r="M20" s="82"/>
     </row>
     <row r="21" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A21" s="81"/>
-      <c r="B21" s="80"/>
-      <c r="C21" s="81"/>
+      <c r="A21" s="88"/>
+      <c r="B21" s="85"/>
+      <c r="C21" s="88"/>
       <c r="D21" s="57" t="s">
         <v>177</v>
       </c>
@@ -3100,12 +3103,12 @@
       <c r="L21" s="66" t="s">
         <v>389</v>
       </c>
-      <c r="M21" s="85"/>
+      <c r="M21" s="82"/>
     </row>
     <row r="22" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="81"/>
-      <c r="B22" s="80"/>
-      <c r="C22" s="81"/>
+      <c r="A22" s="88"/>
+      <c r="B22" s="85"/>
+      <c r="C22" s="88"/>
       <c r="D22" s="57" t="s">
         <v>178</v>
       </c>
@@ -3120,16 +3123,16 @@
       <c r="L22" s="66" t="s">
         <v>389</v>
       </c>
-      <c r="M22" s="85"/>
+      <c r="M22" s="82"/>
     </row>
     <row r="23" spans="1:13" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A23" s="81" t="s">
+      <c r="A23" s="88" t="s">
         <v>179</v>
       </c>
-      <c r="B23" s="80" t="s">
+      <c r="B23" s="85" t="s">
         <v>284</v>
       </c>
-      <c r="C23" s="80" t="s">
+      <c r="C23" s="85" t="s">
         <v>239</v>
       </c>
       <c r="D23" s="57" t="s">
@@ -3146,14 +3149,14 @@
       <c r="L23" s="66" t="s">
         <v>395</v>
       </c>
-      <c r="M23" s="84" t="s">
+      <c r="M23" s="81" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="81"/>
-      <c r="B24" s="80"/>
-      <c r="C24" s="81"/>
+      <c r="A24" s="88"/>
+      <c r="B24" s="85"/>
+      <c r="C24" s="88"/>
       <c r="D24" s="57" t="s">
         <v>18</v>
       </c>
@@ -3175,12 +3178,12 @@
       <c r="L24" s="66" t="s">
         <v>325</v>
       </c>
-      <c r="M24" s="85"/>
+      <c r="M24" s="82"/>
     </row>
     <row r="25" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A25" s="81"/>
-      <c r="B25" s="80"/>
-      <c r="C25" s="81"/>
+      <c r="A25" s="88"/>
+      <c r="B25" s="85"/>
+      <c r="C25" s="88"/>
       <c r="D25" s="57" t="s">
         <v>285</v>
       </c>
@@ -3202,12 +3205,12 @@
       <c r="L25" s="66" t="s">
         <v>395</v>
       </c>
-      <c r="M25" s="85"/>
+      <c r="M25" s="82"/>
     </row>
     <row r="26" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A26" s="81"/>
-      <c r="B26" s="80"/>
-      <c r="C26" s="81"/>
+      <c r="A26" s="88"/>
+      <c r="B26" s="85"/>
+      <c r="C26" s="88"/>
       <c r="D26" s="43"/>
       <c r="F26" s="43"/>
       <c r="G26" s="43"/>
@@ -3218,16 +3221,16 @@
       <c r="L26" s="66" t="s">
         <v>395</v>
       </c>
-      <c r="M26" s="85"/>
+      <c r="M26" s="82"/>
     </row>
     <row r="27" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A27" s="81" t="s">
+      <c r="A27" s="88" t="s">
         <v>181</v>
       </c>
-      <c r="B27" s="80" t="s">
+      <c r="B27" s="85" t="s">
         <v>240</v>
       </c>
-      <c r="C27" s="86" t="s">
+      <c r="C27" s="83" t="s">
         <v>241</v>
       </c>
       <c r="D27" s="57" t="s">
@@ -3251,14 +3254,14 @@
       <c r="L27" s="66" t="s">
         <v>398</v>
       </c>
-      <c r="M27" s="84" t="s">
+      <c r="M27" s="81" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A28" s="81"/>
-      <c r="B28" s="80"/>
-      <c r="C28" s="86"/>
+      <c r="A28" s="88"/>
+      <c r="B28" s="85"/>
+      <c r="C28" s="83"/>
       <c r="D28" s="57" t="s">
         <v>183</v>
       </c>
@@ -3276,12 +3279,12 @@
       <c r="L28" s="66" t="s">
         <v>398</v>
       </c>
-      <c r="M28" s="85"/>
+      <c r="M28" s="82"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A29" s="81"/>
-      <c r="B29" s="80"/>
-      <c r="C29" s="86"/>
+      <c r="A29" s="88"/>
+      <c r="B29" s="85"/>
+      <c r="C29" s="83"/>
       <c r="D29" s="43"/>
       <c r="F29" s="42"/>
       <c r="G29" s="42"/>
@@ -3292,10 +3295,10 @@
       <c r="L29" s="72" t="s">
         <v>398</v>
       </c>
-      <c r="M29" s="85"/>
+      <c r="M29" s="82"/>
     </row>
     <row r="30" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A30" s="81" t="s">
+      <c r="A30" s="88" t="s">
         <v>185</v>
       </c>
       <c r="C30" s="59"/>
@@ -3308,16 +3311,16 @@
       <c r="L30" s="66" t="s">
         <v>399</v>
       </c>
-      <c r="M30" s="84" t="s">
+      <c r="M30" s="81" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A31" s="81"/>
-      <c r="B31" s="80" t="s">
+      <c r="A31" s="88"/>
+      <c r="B31" s="85" t="s">
         <v>242</v>
       </c>
-      <c r="C31" s="80" t="s">
+      <c r="C31" s="85" t="s">
         <v>243</v>
       </c>
       <c r="D31" s="43" t="s">
@@ -3337,12 +3340,12 @@
       <c r="L31" s="66" t="s">
         <v>399</v>
       </c>
-      <c r="M31" s="85"/>
+      <c r="M31" s="82"/>
     </row>
     <row r="32" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A32" s="81"/>
-      <c r="B32" s="81"/>
-      <c r="C32" s="80"/>
+      <c r="A32" s="88"/>
+      <c r="B32" s="88"/>
+      <c r="C32" s="85"/>
       <c r="D32" s="57" t="s">
         <v>231</v>
       </c>
@@ -3357,12 +3360,12 @@
       <c r="L32" s="66" t="s">
         <v>399</v>
       </c>
-      <c r="M32" s="85"/>
+      <c r="M32" s="82"/>
     </row>
     <row r="33" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A33" s="81"/>
-      <c r="B33" s="81"/>
-      <c r="C33" s="80"/>
+      <c r="A33" s="88"/>
+      <c r="B33" s="88"/>
+      <c r="C33" s="85"/>
       <c r="D33" s="43" t="s">
         <v>315</v>
       </c>
@@ -3377,12 +3380,12 @@
       <c r="L33" s="66" t="s">
         <v>399</v>
       </c>
-      <c r="M33" s="85"/>
+      <c r="M33" s="82"/>
     </row>
     <row r="34" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A34" s="81"/>
-      <c r="B34" s="81"/>
-      <c r="C34" s="80"/>
+      <c r="A34" s="88"/>
+      <c r="B34" s="88"/>
+      <c r="C34" s="85"/>
       <c r="D34" s="43" t="s">
         <v>172</v>
       </c>
@@ -3400,17 +3403,17 @@
       <c r="L34" s="66" t="s">
         <v>399</v>
       </c>
-      <c r="M34" s="85"/>
+      <c r="M34" s="82"/>
     </row>
     <row r="35" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A35" s="81"/>
-      <c r="B35" s="81"/>
-      <c r="C35" s="80"/>
+      <c r="A35" s="88"/>
+      <c r="B35" s="88"/>
+      <c r="C35" s="85"/>
       <c r="D35" s="43" t="s">
         <v>232</v>
       </c>
-      <c r="E35" s="75" t="s">
-        <v>187</v>
+      <c r="E35" s="80" t="s">
+        <v>289</v>
       </c>
       <c r="F35" s="43" t="s">
         <v>228</v>
@@ -3423,12 +3426,12 @@
       <c r="L35" s="66" t="s">
         <v>399</v>
       </c>
-      <c r="M35" s="85"/>
+      <c r="M35" s="82"/>
     </row>
     <row r="36" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A36" s="81"/>
-      <c r="B36" s="81"/>
-      <c r="C36" s="80"/>
+      <c r="A36" s="88"/>
+      <c r="B36" s="88"/>
+      <c r="C36" s="85"/>
       <c r="F36" s="43"/>
       <c r="G36" s="43"/>
       <c r="H36" s="43"/>
@@ -3438,16 +3441,16 @@
       <c r="L36" s="66" t="s">
         <v>399</v>
       </c>
-      <c r="M36" s="85"/>
+      <c r="M36" s="82"/>
     </row>
     <row r="37" spans="1:13" ht="72" x14ac:dyDescent="0.3">
-      <c r="A37" s="80" t="s">
+      <c r="A37" s="85" t="s">
         <v>244</v>
       </c>
-      <c r="B37" s="80" t="s">
+      <c r="B37" s="85" t="s">
         <v>245</v>
       </c>
-      <c r="C37" s="80" t="s">
+      <c r="C37" s="85" t="s">
         <v>246</v>
       </c>
       <c r="D37" s="57" t="s">
@@ -3471,14 +3474,14 @@
       <c r="L37" s="66" t="s">
         <v>267</v>
       </c>
-      <c r="M37" s="84" t="s">
+      <c r="M37" s="81" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="38" spans="1:13" ht="72" x14ac:dyDescent="0.3">
-      <c r="A38" s="80"/>
-      <c r="B38" s="80"/>
-      <c r="C38" s="81"/>
+      <c r="A38" s="85"/>
+      <c r="B38" s="85"/>
+      <c r="C38" s="88"/>
       <c r="D38" s="57" t="s">
         <v>188</v>
       </c>
@@ -3500,12 +3503,12 @@
       <c r="L38" s="66" t="s">
         <v>267</v>
       </c>
-      <c r="M38" s="85"/>
+      <c r="M38" s="82"/>
     </row>
     <row r="39" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A39" s="80"/>
-      <c r="B39" s="80"/>
-      <c r="C39" s="81"/>
+      <c r="A39" s="85"/>
+      <c r="B39" s="85"/>
+      <c r="C39" s="88"/>
       <c r="D39" s="57" t="s">
         <v>189</v>
       </c>
@@ -3515,12 +3518,12 @@
       <c r="L39" s="66" t="s">
         <v>267</v>
       </c>
-      <c r="M39" s="85"/>
+      <c r="M39" s="82"/>
     </row>
     <row r="40" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A40" s="80"/>
-      <c r="B40" s="80"/>
-      <c r="C40" s="81"/>
+      <c r="A40" s="85"/>
+      <c r="B40" s="85"/>
+      <c r="C40" s="88"/>
       <c r="D40" s="57" t="s">
         <v>190</v>
       </c>
@@ -3530,12 +3533,12 @@
       <c r="L40" s="66" t="s">
         <v>267</v>
       </c>
-      <c r="M40" s="85"/>
+      <c r="M40" s="82"/>
     </row>
     <row r="41" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A41" s="80"/>
-      <c r="B41" s="80"/>
-      <c r="C41" s="81"/>
+      <c r="A41" s="85"/>
+      <c r="B41" s="85"/>
+      <c r="C41" s="88"/>
       <c r="D41" s="57" t="s">
         <v>191</v>
       </c>
@@ -3553,12 +3556,12 @@
       <c r="L41" s="66" t="s">
         <v>267</v>
       </c>
-      <c r="M41" s="85"/>
+      <c r="M41" s="82"/>
     </row>
     <row r="42" spans="1:13" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A42" s="80"/>
-      <c r="B42" s="80"/>
-      <c r="C42" s="81"/>
+      <c r="A42" s="85"/>
+      <c r="B42" s="85"/>
+      <c r="C42" s="88"/>
       <c r="D42" s="57" t="s">
         <v>368</v>
       </c>
@@ -3580,12 +3583,12 @@
       <c r="L42" s="66" t="s">
         <v>267</v>
       </c>
-      <c r="M42" s="85"/>
+      <c r="M42" s="82"/>
     </row>
     <row r="43" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A43" s="80"/>
-      <c r="B43" s="80"/>
-      <c r="C43" s="81"/>
+      <c r="A43" s="85"/>
+      <c r="B43" s="85"/>
+      <c r="C43" s="88"/>
       <c r="D43" s="57" t="s">
         <v>193</v>
       </c>
@@ -3603,7 +3606,7 @@
       <c r="L43" s="66" t="s">
         <v>401</v>
       </c>
-      <c r="M43" s="85"/>
+      <c r="M43" s="82"/>
     </row>
     <row r="44" spans="1:13" s="44" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="61"/>
@@ -3664,25 +3667,12 @@
   </sheetData>
   <autoFilter ref="A1:M11" xr:uid="{AF9DA58F-D16B-4AC0-BF50-5DB9D427BBB0}"/>
   <mergeCells count="36">
-    <mergeCell ref="M27:M29"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="M30:M36"/>
-    <mergeCell ref="M37:M43"/>
-    <mergeCell ref="M2:M4"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="M15:M18"/>
-    <mergeCell ref="M19:M22"/>
-    <mergeCell ref="M23:M26"/>
-    <mergeCell ref="M7:M9"/>
-    <mergeCell ref="A37:A43"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A30:A36"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="A23:A26"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="B31:B36"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="C23:C26"/>
+    <mergeCell ref="C31:C36"/>
+    <mergeCell ref="B37:B43"/>
+    <mergeCell ref="C37:C43"/>
     <mergeCell ref="B19:B22"/>
     <mergeCell ref="C19:C22"/>
     <mergeCell ref="B27:B29"/>
@@ -3694,12 +3684,25 @@
     <mergeCell ref="C15:C18"/>
     <mergeCell ref="B7:B10"/>
     <mergeCell ref="C7:C10"/>
-    <mergeCell ref="B31:B36"/>
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="C23:C26"/>
-    <mergeCell ref="C31:C36"/>
-    <mergeCell ref="B37:B43"/>
-    <mergeCell ref="C37:C43"/>
+    <mergeCell ref="A37:A43"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A30:A36"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="M27:M29"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="M30:M36"/>
+    <mergeCell ref="M37:M43"/>
+    <mergeCell ref="M2:M4"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="M15:M18"/>
+    <mergeCell ref="M19:M22"/>
+    <mergeCell ref="M23:M26"/>
+    <mergeCell ref="M7:M9"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="M2" r:id="rId1" display="https://www.nuplazid.com/about-pd-related-hallucinations-and-delusions" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -3801,7 +3804,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="89" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="29"/>
@@ -3816,7 +3819,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="89"/>
+      <c r="A3" s="90"/>
       <c r="B3" s="28"/>
       <c r="C3" t="s">
         <v>4</v>
@@ -3825,7 +3828,7 @@
       <c r="E3" s="6"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="89"/>
+      <c r="A4" s="90"/>
       <c r="B4" s="28"/>
       <c r="C4" t="s">
         <v>5</v>
@@ -3834,7 +3837,7 @@
       <c r="E4" s="6"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="89"/>
+      <c r="A5" s="90"/>
       <c r="B5" s="28"/>
       <c r="C5" t="s">
         <v>6</v>
@@ -3843,7 +3846,7 @@
       <c r="E5" s="6"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="89"/>
+      <c r="A6" s="90"/>
       <c r="B6" s="28"/>
       <c r="C6" t="s">
         <v>7</v>
@@ -3852,7 +3855,7 @@
       <c r="E6" s="6"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="89"/>
+      <c r="A7" s="90"/>
       <c r="B7" s="28"/>
       <c r="C7" t="s">
         <v>8</v>
@@ -3861,7 +3864,7 @@
       <c r="E7" s="6"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="89"/>
+      <c r="A8" s="90"/>
       <c r="B8" s="28"/>
       <c r="C8" t="s">
         <v>9</v>
@@ -3870,7 +3873,7 @@
       <c r="E8" s="6"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="89"/>
+      <c r="A9" s="90"/>
       <c r="B9" s="28"/>
       <c r="C9" t="s">
         <v>10</v>
@@ -3879,7 +3882,7 @@
       <c r="E9" s="6"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="89"/>
+      <c r="A10" s="90"/>
       <c r="B10" s="28"/>
       <c r="C10" t="s">
         <v>11</v>
@@ -3888,7 +3891,7 @@
       <c r="E10" s="6"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="89" t="s">
+      <c r="A11" s="90" t="s">
         <v>16</v>
       </c>
       <c r="B11" s="28"/>
@@ -3897,28 +3900,28 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="89"/>
+      <c r="A12" s="90"/>
       <c r="B12" s="28"/>
       <c r="C12" s="7" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="89"/>
+      <c r="A13" s="90"/>
       <c r="B13" s="28"/>
       <c r="C13" s="7" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="89"/>
+      <c r="A14" s="90"/>
       <c r="B14" s="28"/>
       <c r="C14" s="7" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="89"/>
+      <c r="A15" s="90"/>
       <c r="B15" s="28"/>
       <c r="C15" s="7" t="s">
         <v>21</v>
@@ -3928,7 +3931,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A16" s="89"/>
+      <c r="A16" s="90"/>
       <c r="B16" s="28"/>
       <c r="C16" s="7" t="s">
         <v>22</v>
@@ -3938,7 +3941,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="89" t="s">
+      <c r="A17" s="90" t="s">
         <v>23</v>
       </c>
       <c r="B17" s="28"/>
@@ -3953,7 +3956,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="89"/>
+      <c r="A18" s="90"/>
       <c r="B18" s="28"/>
       <c r="C18" s="8" t="s">
         <v>25</v>
@@ -3963,21 +3966,21 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="89"/>
+      <c r="A19" s="90"/>
       <c r="B19" s="28"/>
       <c r="C19" s="8" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="89"/>
+      <c r="A20" s="90"/>
       <c r="B20" s="28"/>
       <c r="C20" s="8" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A21" s="89"/>
+      <c r="A21" s="90"/>
       <c r="B21" s="28"/>
       <c r="C21" s="8" t="s">
         <v>28</v>
@@ -3987,7 +3990,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="89"/>
+      <c r="A22" s="90"/>
       <c r="B22" s="28"/>
       <c r="C22" s="8" t="s">
         <v>29</v>
@@ -3997,7 +4000,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A23" s="89"/>
+      <c r="A23" s="90"/>
       <c r="B23" s="28"/>
       <c r="C23" s="8" t="s">
         <v>30</v>
@@ -4007,14 +4010,14 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="89"/>
+      <c r="A24" s="90"/>
       <c r="B24" s="28"/>
       <c r="C24" s="8" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="89" t="s">
+      <c r="A25" s="90" t="s">
         <v>41</v>
       </c>
       <c r="B25" s="28"/>
@@ -4029,7 +4032,7 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="89"/>
+      <c r="A26" s="90"/>
       <c r="B26" s="28"/>
       <c r="C26" s="9" t="s">
         <v>43</v>
@@ -4039,7 +4042,7 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="89"/>
+      <c r="A27" s="90"/>
       <c r="B27" s="28"/>
       <c r="C27" s="9" t="s">
         <v>44</v>
@@ -4049,7 +4052,7 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="89"/>
+      <c r="A28" s="90"/>
       <c r="B28" s="28"/>
       <c r="C28" s="9" t="s">
         <v>41</v>
@@ -4059,7 +4062,7 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="89"/>
+      <c r="A29" s="90"/>
       <c r="B29" s="28"/>
       <c r="C29" s="9" t="s">
         <v>45</v>
@@ -4069,7 +4072,7 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="89"/>
+      <c r="A30" s="90"/>
       <c r="B30" s="28"/>
       <c r="C30" s="9" t="s">
         <v>46</v>
@@ -4079,49 +4082,49 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="89"/>
+      <c r="A31" s="90"/>
       <c r="B31" s="28"/>
       <c r="D31" s="9" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="89"/>
+      <c r="A32" s="90"/>
       <c r="B32" s="28"/>
       <c r="D32" s="9" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="89"/>
+      <c r="A33" s="90"/>
       <c r="B33" s="28"/>
       <c r="D33" s="9" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="89"/>
+      <c r="A34" s="90"/>
       <c r="B34" s="28"/>
       <c r="D34" s="9" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="89"/>
+      <c r="A35" s="90"/>
       <c r="B35" s="28"/>
       <c r="D35" s="9" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="89"/>
+      <c r="A36" s="90"/>
       <c r="B36" s="28"/>
       <c r="D36" s="9" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="90" t="s">
+      <c r="A37" s="91" t="s">
         <v>58</v>
       </c>
       <c r="D37" s="11" t="s">
@@ -4129,43 +4132,43 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="90"/>
+      <c r="A38" s="91"/>
       <c r="D38" s="11" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="90"/>
+      <c r="A39" s="91"/>
       <c r="D39" s="11" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="90"/>
+      <c r="A40" s="91"/>
       <c r="D40" s="11" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="90"/>
+      <c r="A41" s="91"/>
       <c r="D41" s="11" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="90"/>
+      <c r="A42" s="91"/>
       <c r="D42" s="11" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="90"/>
+      <c r="A43" s="91"/>
       <c r="D43" s="11" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="90" t="s">
+      <c r="A44" s="91" t="s">
         <v>66</v>
       </c>
       <c r="C44" s="12" t="s">
@@ -4176,7 +4179,7 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="90"/>
+      <c r="A45" s="91"/>
       <c r="C45" s="12" t="s">
         <v>67</v>
       </c>
@@ -4185,7 +4188,7 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="90"/>
+      <c r="A46" s="91"/>
       <c r="C46" s="12" t="s">
         <v>44</v>
       </c>
@@ -4194,43 +4197,43 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="90"/>
+      <c r="A47" s="91"/>
       <c r="D47" s="12" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="90"/>
+      <c r="A48" s="91"/>
       <c r="D48" s="12" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="90"/>
+      <c r="A49" s="91"/>
       <c r="D49" s="12" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" s="90"/>
+      <c r="A50" s="91"/>
       <c r="D50" s="12" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="90"/>
+      <c r="A51" s="91"/>
       <c r="D51" s="12" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="90"/>
+      <c r="A52" s="91"/>
       <c r="D52" s="12" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="158.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="90" t="s">
+      <c r="A53" s="91" t="s">
         <v>77</v>
       </c>
       <c r="C53" s="14" t="s">
@@ -4242,7 +4245,7 @@
       <c r="E53" s="13"/>
     </row>
     <row r="54" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A54" s="90"/>
+      <c r="A54" s="91"/>
       <c r="C54" s="14" t="s">
         <v>87</v>
       </c>
@@ -4252,7 +4255,7 @@
       <c r="E54" s="13"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55" s="90" t="s">
+      <c r="A55" s="91" t="s">
         <v>80</v>
       </c>
       <c r="C55" s="14" t="s">
@@ -4263,7 +4266,7 @@
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" s="90"/>
+      <c r="A56" s="91"/>
       <c r="C56" s="14" t="s">
         <v>82</v>
       </c>
@@ -4272,7 +4275,7 @@
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57" s="90"/>
+      <c r="A57" s="91"/>
       <c r="C57" s="14" t="s">
         <v>83</v>
       </c>
@@ -4281,7 +4284,7 @@
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" s="90"/>
+      <c r="A58" s="91"/>
       <c r="C58" s="14" t="s">
         <v>84</v>
       </c>
@@ -4290,7 +4293,7 @@
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A59" s="90"/>
+      <c r="A59" s="91"/>
       <c r="C59" s="14" t="s">
         <v>85</v>
       </c>
@@ -4299,73 +4302,73 @@
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A60" s="90"/>
+      <c r="A60" s="91"/>
       <c r="D60" s="14" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A61" s="90"/>
+      <c r="A61" s="91"/>
       <c r="D61" s="14" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A62" s="90"/>
+      <c r="A62" s="91"/>
       <c r="D62" s="14" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A63" s="90"/>
+      <c r="A63" s="91"/>
       <c r="D63" s="14" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A64" s="90"/>
+      <c r="A64" s="91"/>
       <c r="D64" s="14" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A65" s="90"/>
+      <c r="A65" s="91"/>
       <c r="D65" s="14" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A66" s="90"/>
+      <c r="A66" s="91"/>
       <c r="D66" s="14" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A67" s="90"/>
+      <c r="A67" s="91"/>
       <c r="D67" s="14" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A68" s="90"/>
+      <c r="A68" s="91"/>
       <c r="D68" s="14" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A69" s="90"/>
+      <c r="A69" s="91"/>
       <c r="D69" s="14" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A70" s="90"/>
+      <c r="A70" s="91"/>
       <c r="D70" s="14" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A71" s="90" t="s">
+      <c r="A71" s="91" t="s">
         <v>104</v>
       </c>
       <c r="C71" s="15" t="s">
@@ -4376,7 +4379,7 @@
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A72" s="90"/>
+      <c r="A72" s="91"/>
       <c r="C72" s="15" t="s">
         <v>106</v>
       </c>
@@ -4385,7 +4388,7 @@
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A73" s="90"/>
+      <c r="A73" s="91"/>
       <c r="C73" s="15" t="s">
         <v>107</v>
       </c>
@@ -4394,7 +4397,7 @@
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A74" s="90"/>
+      <c r="A74" s="91"/>
       <c r="C74" s="15" t="s">
         <v>108</v>
       </c>
@@ -4403,43 +4406,43 @@
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A75" s="90"/>
+      <c r="A75" s="91"/>
       <c r="D75" s="15" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A76" s="90"/>
+      <c r="A76" s="91"/>
       <c r="D76" s="15" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A77" s="90"/>
+      <c r="A77" s="91"/>
       <c r="D77" s="15" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A78" s="90"/>
+      <c r="A78" s="91"/>
       <c r="D78" s="15" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A79" s="90"/>
+      <c r="A79" s="91"/>
       <c r="D79" s="15" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A80" s="90"/>
+      <c r="A80" s="91"/>
       <c r="D80" s="15" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A81" s="90" t="s">
+      <c r="A81" s="91" t="s">
         <v>117</v>
       </c>
       <c r="C81" s="16" t="s">
@@ -4450,7 +4453,7 @@
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A82" s="90"/>
+      <c r="A82" s="91"/>
       <c r="C82" s="16" t="s">
         <v>119</v>
       </c>
@@ -4459,7 +4462,7 @@
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A83" s="90"/>
+      <c r="A83" s="91"/>
       <c r="C83" s="16" t="s">
         <v>120</v>
       </c>
@@ -4468,25 +4471,25 @@
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A84" s="90"/>
+      <c r="A84" s="91"/>
       <c r="D84" s="16" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A85" s="90"/>
+      <c r="A85" s="91"/>
       <c r="D85" s="16" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A86" s="90"/>
+      <c r="A86" s="91"/>
       <c r="D86" s="16" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A87" s="90" t="s">
+      <c r="A87" s="91" t="s">
         <v>125</v>
       </c>
       <c r="C87" s="17" t="s">
@@ -4497,7 +4500,7 @@
       </c>
     </row>
     <row r="88" spans="1:4" ht="72" x14ac:dyDescent="0.3">
-      <c r="A88" s="90"/>
+      <c r="A88" s="91"/>
       <c r="C88" s="17" t="s">
         <v>127</v>
       </c>
@@ -4506,7 +4509,7 @@
       </c>
     </row>
     <row r="89" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A89" s="90"/>
+      <c r="A89" s="91"/>
       <c r="C89" s="17" t="s">
         <v>128</v>
       </c>
@@ -4515,13 +4518,13 @@
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A90" s="90"/>
+      <c r="A90" s="91"/>
       <c r="C90" s="17" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A91" s="90" t="s">
+      <c r="A91" s="91" t="s">
         <v>132</v>
       </c>
       <c r="C91" s="19" t="s">
@@ -4532,7 +4535,7 @@
       </c>
     </row>
     <row r="92" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A92" s="90"/>
+      <c r="A92" s="91"/>
       <c r="C92" s="19" t="s">
         <v>134</v>
       </c>
@@ -4541,40 +4544,40 @@
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A93" s="90"/>
+      <c r="A93" s="91"/>
       <c r="C93" s="19" t="s">
         <v>135</v>
       </c>
       <c r="D93" s="19"/>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A94" s="90"/>
+      <c r="A94" s="91"/>
       <c r="C94" s="19" t="s">
         <v>136</v>
       </c>
       <c r="D94" s="19"/>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A95" s="90"/>
+      <c r="A95" s="91"/>
       <c r="C95" s="19" t="s">
         <v>137</v>
       </c>
       <c r="D95" s="19"/>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A96" s="90"/>
+      <c r="A96" s="91"/>
       <c r="C96" s="19" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A97" s="90"/>
+      <c r="A97" s="91"/>
       <c r="C97" s="19" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A98" s="90" t="s">
+      <c r="A98" s="91" t="s">
         <v>141</v>
       </c>
       <c r="D98" s="20" t="s">
@@ -4582,25 +4585,25 @@
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A99" s="90"/>
+      <c r="A99" s="91"/>
       <c r="D99" s="20" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A100" s="90"/>
+      <c r="A100" s="91"/>
       <c r="D100" s="20" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A101" s="90"/>
+      <c r="A101" s="91"/>
       <c r="D101" s="20" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A102" s="90" t="s">
+      <c r="A102" s="91" t="s">
         <v>146</v>
       </c>
       <c r="C102" s="23" t="s">
@@ -4611,7 +4614,7 @@
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A103" s="90"/>
+      <c r="A103" s="91"/>
       <c r="C103" s="23" t="s">
         <v>138</v>
       </c>
@@ -4620,7 +4623,7 @@
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A104" s="90"/>
+      <c r="A104" s="91"/>
       <c r="C104" s="23" t="s">
         <v>135</v>
       </c>
@@ -4629,7 +4632,7 @@
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A105" s="90"/>
+      <c r="A105" s="91"/>
       <c r="C105" s="23" t="s">
         <v>147</v>
       </c>
@@ -4638,7 +4641,7 @@
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A106" s="90"/>
+      <c r="A106" s="91"/>
       <c r="C106" s="23" t="s">
         <v>148</v>
       </c>
@@ -4647,13 +4650,13 @@
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A107" s="90"/>
+      <c r="A107" s="91"/>
       <c r="C107" s="23" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A108" s="90" t="s">
+      <c r="A108" s="91" t="s">
         <v>151</v>
       </c>
       <c r="C108" s="24" t="s">
@@ -4664,7 +4667,7 @@
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A109" s="90"/>
+      <c r="A109" s="91"/>
       <c r="C109" s="24" t="s">
         <v>153</v>
       </c>
@@ -4673,31 +4676,31 @@
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A110" s="90"/>
+      <c r="A110" s="91"/>
       <c r="D110" s="24" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A111" s="90"/>
+      <c r="A111" s="91"/>
       <c r="D111" s="24" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A112" s="90"/>
+      <c r="A112" s="91"/>
       <c r="D112" s="24" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A113" s="90"/>
+      <c r="A113" s="91"/>
       <c r="D113" s="24" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A114" s="90" t="s">
+      <c r="A114" s="91" t="s">
         <v>163</v>
       </c>
       <c r="C114" s="25" t="s">
@@ -4708,7 +4711,7 @@
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A115" s="90"/>
+      <c r="A115" s="91"/>
       <c r="C115" s="25" t="s">
         <v>119</v>
       </c>
@@ -4717,7 +4720,7 @@
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A116" s="90"/>
+      <c r="A116" s="91"/>
       <c r="C116" s="25" t="s">
         <v>120</v>
       </c>
@@ -4726,57 +4729,57 @@
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A117" s="90"/>
+      <c r="A117" s="91"/>
       <c r="D117" s="25" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A118" s="90"/>
+      <c r="A118" s="91"/>
       <c r="D118" s="25"/>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A119" s="90"/>
+      <c r="A119" s="91"/>
       <c r="D119" s="25" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A120" s="90"/>
+      <c r="A120" s="91"/>
       <c r="D120" s="25" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A121" s="90"/>
+      <c r="A121" s="91"/>
       <c r="D121" s="25" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A122" s="90"/>
+      <c r="A122" s="91"/>
       <c r="D122" s="25" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A123" s="90"/>
+      <c r="A123" s="91"/>
       <c r="D123" s="25"/>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A124" s="90"/>
+      <c r="A124" s="91"/>
       <c r="D124" s="25" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="125" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A125" s="90"/>
+      <c r="A125" s="91"/>
       <c r="D125" s="26" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A126" s="90"/>
+      <c r="A126" s="91"/>
       <c r="D126" s="25" t="s">
         <v>170</v>
       </c>
@@ -4873,13 +4876,13 @@
       </c>
     </row>
     <row r="2" spans="1:13" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="94" t="s">
+      <c r="A2" s="92" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="88" t="s">
+      <c r="B2" s="89" t="s">
         <v>339</v>
       </c>
-      <c r="C2" s="88" t="s">
+      <c r="C2" s="89" t="s">
         <v>338</v>
       </c>
       <c r="D2" s="53" t="s">
@@ -4904,9 +4907,9 @@
       </c>
     </row>
     <row r="3" spans="1:13" s="44" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A3" s="95"/>
-      <c r="B3" s="96"/>
-      <c r="C3" s="96"/>
+      <c r="A3" s="93"/>
+      <c r="B3" s="94"/>
+      <c r="C3" s="94"/>
       <c r="D3" s="76" t="s">
         <v>336</v>
       </c>
@@ -4927,22 +4930,22 @@
       <c r="M3" s="79"/>
     </row>
     <row r="4" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="89" t="s">
+      <c r="A4" s="90" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="90" t="s">
+      <c r="B4" s="91" t="s">
         <v>275</v>
       </c>
-      <c r="C4" s="90" t="s">
+      <c r="C4" s="91" t="s">
         <v>272</v>
       </c>
-      <c r="D4" s="80" t="s">
+      <c r="D4" s="85" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="80" t="s">
+      <c r="E4" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="80" t="s">
+      <c r="F4" s="85" t="s">
         <v>269</v>
       </c>
       <c r="G4" s="65"/>
@@ -4953,17 +4956,17 @@
       <c r="L4" s="66" t="s">
         <v>370</v>
       </c>
-      <c r="M4" s="84" t="s">
+      <c r="M4" s="81" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="89"/>
-      <c r="B5" s="90"/>
-      <c r="C5" s="90"/>
-      <c r="D5" s="80"/>
-      <c r="E5" s="80"/>
-      <c r="F5" s="80"/>
+      <c r="A5" s="90"/>
+      <c r="B5" s="91"/>
+      <c r="C5" s="91"/>
+      <c r="D5" s="85"/>
+      <c r="E5" s="85"/>
+      <c r="F5" s="85"/>
       <c r="G5" s="65"/>
       <c r="H5" s="65"/>
       <c r="I5" s="65"/>
@@ -4972,15 +4975,15 @@
       <c r="L5" s="66" t="s">
         <v>370</v>
       </c>
-      <c r="M5" s="85"/>
+      <c r="M5" s="82"/>
     </row>
     <row r="6" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="89"/>
-      <c r="B6" s="90"/>
-      <c r="C6" s="90"/>
-      <c r="D6" s="80"/>
-      <c r="E6" s="80"/>
-      <c r="F6" s="80"/>
+      <c r="A6" s="90"/>
+      <c r="B6" s="91"/>
+      <c r="C6" s="91"/>
+      <c r="D6" s="85"/>
+      <c r="E6" s="85"/>
+      <c r="F6" s="85"/>
       <c r="G6" s="65"/>
       <c r="H6" s="65"/>
       <c r="I6" s="65"/>
@@ -4989,15 +4992,15 @@
       <c r="L6" s="66" t="s">
         <v>370</v>
       </c>
-      <c r="M6" s="85"/>
+      <c r="M6" s="82"/>
     </row>
     <row r="7" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="89"/>
-      <c r="B7" s="90"/>
-      <c r="C7" s="90"/>
-      <c r="D7" s="80"/>
-      <c r="E7" s="80"/>
-      <c r="F7" s="80"/>
+      <c r="A7" s="90"/>
+      <c r="B7" s="91"/>
+      <c r="C7" s="91"/>
+      <c r="D7" s="85"/>
+      <c r="E7" s="85"/>
+      <c r="F7" s="85"/>
       <c r="G7" s="65"/>
       <c r="H7" s="65"/>
       <c r="I7" s="65"/>
@@ -5006,15 +5009,15 @@
       <c r="L7" s="66" t="s">
         <v>370</v>
       </c>
-      <c r="M7" s="85"/>
+      <c r="M7" s="82"/>
     </row>
     <row r="8" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="89"/>
-      <c r="B8" s="90"/>
-      <c r="C8" s="90"/>
-      <c r="D8" s="80"/>
-      <c r="E8" s="80"/>
-      <c r="F8" s="80"/>
+      <c r="A8" s="90"/>
+      <c r="B8" s="91"/>
+      <c r="C8" s="91"/>
+      <c r="D8" s="85"/>
+      <c r="E8" s="85"/>
+      <c r="F8" s="85"/>
       <c r="G8" s="65"/>
       <c r="H8" s="65"/>
       <c r="I8" s="65"/>
@@ -5023,12 +5026,12 @@
       <c r="L8" s="66" t="s">
         <v>370</v>
       </c>
-      <c r="M8" s="85"/>
+      <c r="M8" s="82"/>
     </row>
     <row r="9" spans="1:13" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A9" s="89"/>
-      <c r="B9" s="90"/>
-      <c r="C9" s="90"/>
+      <c r="A9" s="90"/>
+      <c r="B9" s="91"/>
+      <c r="C9" s="91"/>
       <c r="D9" s="50" t="s">
         <v>22</v>
       </c>
@@ -5049,70 +5052,70 @@
       <c r="M9" s="44"/>
     </row>
     <row r="10" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="89" t="s">
+      <c r="A10" s="90" t="s">
         <v>212</v>
       </c>
-      <c r="B10" s="91" t="s">
+      <c r="B10" s="96" t="s">
         <v>348</v>
       </c>
-      <c r="C10" s="90" t="s">
+      <c r="C10" s="91" t="s">
         <v>276</v>
       </c>
-      <c r="D10" s="80" t="s">
+      <c r="D10" s="85" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="80" t="s">
+      <c r="E10" s="85" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="80" t="s">
+      <c r="F10" s="85" t="s">
         <v>32</v>
       </c>
-      <c r="G10" s="91"/>
-      <c r="H10" s="91"/>
-      <c r="I10" s="91"/>
-      <c r="J10" s="93"/>
-      <c r="K10" s="91"/>
-      <c r="L10" s="92" t="s">
+      <c r="G10" s="96"/>
+      <c r="H10" s="96"/>
+      <c r="I10" s="96"/>
+      <c r="J10" s="97"/>
+      <c r="K10" s="96"/>
+      <c r="L10" s="95" t="s">
         <v>372</v>
       </c>
-      <c r="M10" s="84" t="s">
+      <c r="M10" s="81" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="89"/>
-      <c r="B11" s="80"/>
-      <c r="C11" s="90"/>
-      <c r="D11" s="80"/>
-      <c r="E11" s="80"/>
-      <c r="F11" s="80"/>
-      <c r="G11" s="91"/>
-      <c r="H11" s="91"/>
-      <c r="I11" s="91"/>
-      <c r="J11" s="93"/>
-      <c r="K11" s="91"/>
-      <c r="L11" s="92"/>
-      <c r="M11" s="85"/>
+      <c r="A11" s="90"/>
+      <c r="B11" s="85"/>
+      <c r="C11" s="91"/>
+      <c r="D11" s="85"/>
+      <c r="E11" s="85"/>
+      <c r="F11" s="85"/>
+      <c r="G11" s="96"/>
+      <c r="H11" s="96"/>
+      <c r="I11" s="96"/>
+      <c r="J11" s="97"/>
+      <c r="K11" s="96"/>
+      <c r="L11" s="95"/>
+      <c r="M11" s="82"/>
     </row>
     <row r="12" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="89"/>
-      <c r="B12" s="80"/>
-      <c r="C12" s="90"/>
-      <c r="D12" s="80"/>
-      <c r="E12" s="80"/>
-      <c r="F12" s="80"/>
-      <c r="G12" s="91"/>
-      <c r="H12" s="91"/>
-      <c r="I12" s="91"/>
-      <c r="J12" s="93"/>
-      <c r="K12" s="91"/>
-      <c r="L12" s="92"/>
-      <c r="M12" s="85"/>
+      <c r="A12" s="90"/>
+      <c r="B12" s="85"/>
+      <c r="C12" s="91"/>
+      <c r="D12" s="85"/>
+      <c r="E12" s="85"/>
+      <c r="F12" s="85"/>
+      <c r="G12" s="96"/>
+      <c r="H12" s="96"/>
+      <c r="I12" s="96"/>
+      <c r="J12" s="97"/>
+      <c r="K12" s="96"/>
+      <c r="L12" s="95"/>
+      <c r="M12" s="82"/>
     </row>
     <row r="13" spans="1:13" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A13" s="89"/>
-      <c r="B13" s="80"/>
-      <c r="C13" s="90"/>
+      <c r="A13" s="90"/>
+      <c r="B13" s="85"/>
+      <c r="C13" s="91"/>
       <c r="D13" s="50" t="s">
         <v>356</v>
       </c>
@@ -5130,12 +5133,12 @@
       <c r="L13" s="66" t="s">
         <v>373</v>
       </c>
-      <c r="M13" s="85"/>
+      <c r="M13" s="82"/>
     </row>
     <row r="14" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="89"/>
-      <c r="B14" s="80"/>
-      <c r="C14" s="90"/>
+      <c r="A14" s="90"/>
+      <c r="B14" s="85"/>
+      <c r="C14" s="91"/>
       <c r="D14" s="50" t="s">
         <v>29</v>
       </c>
@@ -5153,12 +5156,12 @@
       <c r="L14" s="66" t="s">
         <v>373</v>
       </c>
-      <c r="M14" s="85"/>
+      <c r="M14" s="82"/>
     </row>
     <row r="15" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="89"/>
-      <c r="B15" s="80"/>
-      <c r="C15" s="90"/>
+      <c r="A15" s="90"/>
+      <c r="B15" s="85"/>
+      <c r="C15" s="91"/>
       <c r="D15" s="50"/>
       <c r="E15" s="67"/>
       <c r="F15" s="73"/>
@@ -5170,12 +5173,12 @@
       <c r="L15" s="66" t="s">
         <v>372</v>
       </c>
-      <c r="M15" s="85"/>
+      <c r="M15" s="82"/>
     </row>
     <row r="16" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A16" s="89"/>
-      <c r="B16" s="80"/>
-      <c r="C16" s="90"/>
+      <c r="A16" s="90"/>
+      <c r="B16" s="85"/>
+      <c r="C16" s="91"/>
       <c r="D16" s="50"/>
       <c r="E16" s="67"/>
       <c r="F16" s="73"/>
@@ -5187,16 +5190,16 @@
       <c r="L16" s="66" t="s">
         <v>372</v>
       </c>
-      <c r="M16" s="85"/>
+      <c r="M16" s="82"/>
     </row>
     <row r="17" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A17" s="89" t="s">
+      <c r="A17" s="90" t="s">
         <v>41</v>
       </c>
-      <c r="B17" s="90" t="s">
+      <c r="B17" s="91" t="s">
         <v>249</v>
       </c>
-      <c r="C17" s="90" t="s">
+      <c r="C17" s="91" t="s">
         <v>250</v>
       </c>
       <c r="D17" s="50"/>
@@ -5212,14 +5215,14 @@
       <c r="L17" s="66" t="s">
         <v>372</v>
       </c>
-      <c r="M17" s="84" t="s">
+      <c r="M17" s="81" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A18" s="89"/>
-      <c r="B18" s="90"/>
-      <c r="C18" s="90"/>
+      <c r="A18" s="90"/>
+      <c r="B18" s="91"/>
+      <c r="C18" s="91"/>
       <c r="D18" s="50"/>
       <c r="E18" s="67"/>
       <c r="F18" s="50" t="s">
@@ -5233,12 +5236,12 @@
       <c r="L18" s="66" t="s">
         <v>372</v>
       </c>
-      <c r="M18" s="84"/>
+      <c r="M18" s="81"/>
     </row>
     <row r="19" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A19" s="89"/>
-      <c r="B19" s="90"/>
-      <c r="C19" s="90"/>
+      <c r="A19" s="90"/>
+      <c r="B19" s="91"/>
+      <c r="C19" s="91"/>
       <c r="D19" s="50"/>
       <c r="E19" s="67"/>
       <c r="F19" s="50" t="s">
@@ -5252,12 +5255,12 @@
       <c r="L19" s="66" t="s">
         <v>374</v>
       </c>
-      <c r="M19" s="84"/>
+      <c r="M19" s="81"/>
     </row>
     <row r="20" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A20" s="89"/>
-      <c r="B20" s="90"/>
-      <c r="C20" s="90"/>
+      <c r="A20" s="90"/>
+      <c r="B20" s="91"/>
+      <c r="C20" s="91"/>
       <c r="D20" s="50"/>
       <c r="E20" s="67"/>
       <c r="F20" s="50"/>
@@ -5269,12 +5272,12 @@
       <c r="L20" s="66" t="s">
         <v>372</v>
       </c>
-      <c r="M20" s="84"/>
+      <c r="M20" s="81"/>
     </row>
     <row r="21" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A21" s="89"/>
-      <c r="B21" s="90"/>
-      <c r="C21" s="90"/>
+      <c r="A21" s="90"/>
+      <c r="B21" s="91"/>
+      <c r="C21" s="91"/>
       <c r="D21" s="50" t="s">
         <v>45</v>
       </c>
@@ -5290,12 +5293,12 @@
       <c r="L21" s="66" t="s">
         <v>372</v>
       </c>
-      <c r="M21" s="84"/>
+      <c r="M21" s="81"/>
     </row>
     <row r="22" spans="1:13" ht="72" x14ac:dyDescent="0.3">
-      <c r="A22" s="89"/>
-      <c r="B22" s="90"/>
-      <c r="C22" s="90"/>
+      <c r="A22" s="90"/>
+      <c r="B22" s="91"/>
+      <c r="C22" s="91"/>
       <c r="D22" s="50" t="s">
         <v>46</v>
       </c>
@@ -5313,12 +5316,12 @@
       <c r="L22" s="66" t="s">
         <v>375</v>
       </c>
-      <c r="M22" s="84"/>
+      <c r="M22" s="81"/>
     </row>
     <row r="23" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A23" s="89"/>
-      <c r="B23" s="90"/>
-      <c r="C23" s="90"/>
+      <c r="A23" s="90"/>
+      <c r="B23" s="91"/>
+      <c r="C23" s="91"/>
       <c r="E23" s="73"/>
       <c r="F23" s="50"/>
       <c r="G23" s="65"/>
@@ -5329,12 +5332,12 @@
       <c r="L23" s="66" t="s">
         <v>372</v>
       </c>
-      <c r="M23" s="84"/>
+      <c r="M23" s="81"/>
     </row>
     <row r="24" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A24" s="89"/>
-      <c r="B24" s="90"/>
-      <c r="C24" s="90"/>
+      <c r="A24" s="90"/>
+      <c r="B24" s="91"/>
+      <c r="C24" s="91"/>
       <c r="D24" s="73" t="s">
         <v>213</v>
       </c>
@@ -5352,12 +5355,12 @@
       <c r="L24" s="66" t="s">
         <v>375</v>
       </c>
-      <c r="M24" s="84"/>
-    </row>
-    <row r="25" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A25" s="89"/>
-      <c r="B25" s="90"/>
-      <c r="C25" s="90"/>
+      <c r="M24" s="81"/>
+    </row>
+    <row r="25" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A25" s="90"/>
+      <c r="B25" s="91"/>
+      <c r="C25" s="91"/>
       <c r="D25" s="50" t="s">
         <v>214</v>
       </c>
@@ -5375,16 +5378,16 @@
       <c r="L25" s="66" t="s">
         <v>375</v>
       </c>
-      <c r="M25" s="84"/>
+      <c r="M25" s="81"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A26" s="90" t="s">
+      <c r="A26" s="91" t="s">
         <v>58</v>
       </c>
-      <c r="B26" s="90" t="s">
+      <c r="B26" s="91" t="s">
         <v>233</v>
       </c>
-      <c r="C26" s="90" t="s">
+      <c r="C26" s="91" t="s">
         <v>277</v>
       </c>
       <c r="D26" s="44"/>
@@ -5395,14 +5398,14 @@
       <c r="J26" s="66"/>
       <c r="K26" s="65"/>
       <c r="L26" s="66"/>
-      <c r="M26" s="84" t="s">
+      <c r="M26" s="81" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A27" s="90"/>
-      <c r="B27" s="90"/>
-      <c r="C27" s="90"/>
+      <c r="A27" s="91"/>
+      <c r="B27" s="91"/>
+      <c r="C27" s="91"/>
       <c r="D27" s="73" t="s">
         <v>58</v>
       </c>
@@ -5420,12 +5423,12 @@
       <c r="L27" s="66" t="s">
         <v>372</v>
       </c>
-      <c r="M27" s="85"/>
+      <c r="M27" s="82"/>
     </row>
     <row r="28" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A28" s="90"/>
-      <c r="B28" s="90"/>
-      <c r="C28" s="90"/>
+      <c r="A28" s="91"/>
+      <c r="B28" s="91"/>
+      <c r="C28" s="91"/>
       <c r="D28" s="73"/>
       <c r="F28" s="73"/>
       <c r="G28" s="65"/>
@@ -5436,12 +5439,12 @@
       <c r="L28" s="66" t="s">
         <v>372</v>
       </c>
-      <c r="M28" s="85"/>
+      <c r="M28" s="82"/>
     </row>
     <row r="29" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A29" s="90"/>
-      <c r="B29" s="90"/>
-      <c r="C29" s="90"/>
+      <c r="A29" s="91"/>
+      <c r="B29" s="91"/>
+      <c r="C29" s="91"/>
       <c r="D29" s="50" t="s">
         <v>215</v>
       </c>
@@ -5457,16 +5460,16 @@
       <c r="L29" s="66" t="s">
         <v>373</v>
       </c>
-      <c r="M29" s="85"/>
-    </row>
-    <row r="30" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A30" s="90" t="s">
+      <c r="M29" s="82"/>
+    </row>
+    <row r="30" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A30" s="91" t="s">
         <v>66</v>
       </c>
-      <c r="B30" s="90" t="s">
+      <c r="B30" s="91" t="s">
         <v>251</v>
       </c>
-      <c r="C30" s="90" t="s">
+      <c r="C30" s="91" t="s">
         <v>252</v>
       </c>
       <c r="D30" s="50" t="s">
@@ -5484,14 +5487,14 @@
       <c r="L30" s="66" t="s">
         <v>376</v>
       </c>
-      <c r="M30" s="84" t="s">
+      <c r="M30" s="81" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A31" s="90"/>
-      <c r="B31" s="90"/>
-      <c r="C31" s="90"/>
+    <row r="31" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A31" s="91"/>
+      <c r="B31" s="91"/>
+      <c r="C31" s="91"/>
       <c r="D31" s="50" t="s">
         <v>67</v>
       </c>
@@ -5509,12 +5512,12 @@
       <c r="L31" s="66" t="s">
         <v>376</v>
       </c>
-      <c r="M31" s="85"/>
+      <c r="M31" s="82"/>
     </row>
     <row r="32" spans="1:13" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="A32" s="90"/>
-      <c r="B32" s="90"/>
-      <c r="C32" s="90"/>
+      <c r="A32" s="91"/>
+      <c r="B32" s="91"/>
+      <c r="C32" s="91"/>
       <c r="D32" s="73" t="s">
         <v>44</v>
       </c>
@@ -5534,12 +5537,12 @@
       <c r="L32" s="66" t="s">
         <v>377</v>
       </c>
-      <c r="M32" s="85"/>
+      <c r="M32" s="82"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A33" s="90"/>
-      <c r="B33" s="90"/>
-      <c r="C33" s="90"/>
+      <c r="A33" s="91"/>
+      <c r="B33" s="91"/>
+      <c r="C33" s="91"/>
       <c r="D33" s="73"/>
       <c r="E33" s="67"/>
       <c r="F33" s="50"/>
@@ -5549,12 +5552,12 @@
       <c r="J33" s="66"/>
       <c r="K33" s="65"/>
       <c r="L33" s="66"/>
-      <c r="M33" s="85"/>
+      <c r="M33" s="82"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A34" s="90"/>
-      <c r="B34" s="90"/>
-      <c r="C34" s="90"/>
+      <c r="A34" s="91"/>
+      <c r="B34" s="91"/>
+      <c r="C34" s="91"/>
       <c r="D34" s="73"/>
       <c r="E34" s="67"/>
       <c r="F34" s="50"/>
@@ -5564,12 +5567,12 @@
       <c r="J34" s="66"/>
       <c r="K34" s="43"/>
       <c r="L34" s="66"/>
-      <c r="M34" s="85"/>
+      <c r="M34" s="82"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A35" s="90"/>
-      <c r="B35" s="90"/>
-      <c r="C35" s="90"/>
+      <c r="A35" s="91"/>
+      <c r="B35" s="91"/>
+      <c r="C35" s="91"/>
       <c r="D35" s="73"/>
       <c r="E35" s="67"/>
       <c r="F35" s="50"/>
@@ -5579,12 +5582,12 @@
       <c r="J35" s="66"/>
       <c r="K35" s="43"/>
       <c r="L35" s="66"/>
-      <c r="M35" s="85"/>
+      <c r="M35" s="82"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A36" s="90"/>
-      <c r="B36" s="90"/>
-      <c r="C36" s="90"/>
+      <c r="A36" s="91"/>
+      <c r="B36" s="91"/>
+      <c r="C36" s="91"/>
       <c r="D36" s="73"/>
       <c r="E36" s="67"/>
       <c r="F36" s="50"/>
@@ -5594,12 +5597,12 @@
       <c r="J36" s="66"/>
       <c r="K36" s="43"/>
       <c r="L36" s="66"/>
-      <c r="M36" s="85"/>
+      <c r="M36" s="82"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A37" s="90"/>
-      <c r="B37" s="90"/>
-      <c r="C37" s="90"/>
+      <c r="A37" s="91"/>
+      <c r="B37" s="91"/>
+      <c r="C37" s="91"/>
       <c r="D37" s="73"/>
       <c r="F37" s="50"/>
       <c r="G37" s="43"/>
@@ -5608,16 +5611,16 @@
       <c r="J37" s="66"/>
       <c r="K37" s="43"/>
       <c r="L37" s="66"/>
-      <c r="M37" s="85"/>
+      <c r="M37" s="82"/>
     </row>
     <row r="38" spans="1:13" ht="72" x14ac:dyDescent="0.3">
-      <c r="A38" s="90" t="s">
+      <c r="A38" s="91" t="s">
         <v>77</v>
       </c>
-      <c r="B38" s="90" t="s">
+      <c r="B38" s="91" t="s">
         <v>278</v>
       </c>
-      <c r="C38" s="90" t="s">
+      <c r="C38" s="91" t="s">
         <v>253</v>
       </c>
       <c r="D38" s="50" t="s">
@@ -5639,14 +5642,14 @@
       <c r="L38" s="66" t="s">
         <v>363</v>
       </c>
-      <c r="M38" s="84" t="s">
+      <c r="M38" s="81" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A39" s="90"/>
-      <c r="B39" s="90"/>
-      <c r="C39" s="90"/>
+      <c r="A39" s="91"/>
+      <c r="B39" s="91"/>
+      <c r="C39" s="91"/>
       <c r="D39" s="50"/>
       <c r="E39" s="67"/>
       <c r="F39" s="50"/>
@@ -5656,16 +5659,16 @@
       <c r="J39" s="66"/>
       <c r="K39" s="65"/>
       <c r="L39" s="66"/>
-      <c r="M39" s="85"/>
+      <c r="M39" s="82"/>
     </row>
     <row r="40" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A40" s="90" t="s">
+      <c r="A40" s="91" t="s">
         <v>80</v>
       </c>
-      <c r="B40" s="90" t="s">
+      <c r="B40" s="91" t="s">
         <v>254</v>
       </c>
-      <c r="C40" s="90" t="s">
+      <c r="C40" s="91" t="s">
         <v>255</v>
       </c>
       <c r="D40" s="50" t="s">
@@ -5682,14 +5685,14 @@
       <c r="L40" s="47" t="s">
         <v>378</v>
       </c>
-      <c r="M40" s="84" t="s">
+      <c r="M40" s="81" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A41" s="90"/>
-      <c r="B41" s="90"/>
-      <c r="C41" s="90"/>
+      <c r="A41" s="91"/>
+      <c r="B41" s="91"/>
+      <c r="C41" s="91"/>
       <c r="D41" s="50" t="s">
         <v>82</v>
       </c>
@@ -5702,12 +5705,12 @@
       <c r="L41" s="47" t="s">
         <v>378</v>
       </c>
-      <c r="M41" s="85"/>
+      <c r="M41" s="82"/>
     </row>
     <row r="42" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A42" s="90"/>
-      <c r="B42" s="90"/>
-      <c r="C42" s="90"/>
+      <c r="A42" s="91"/>
+      <c r="B42" s="91"/>
+      <c r="C42" s="91"/>
       <c r="D42" s="50" t="s">
         <v>83</v>
       </c>
@@ -5725,12 +5728,12 @@
       <c r="L42" s="47" t="s">
         <v>378</v>
       </c>
-      <c r="M42" s="85"/>
+      <c r="M42" s="82"/>
     </row>
     <row r="43" spans="1:13" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="A43" s="90"/>
-      <c r="B43" s="90"/>
-      <c r="C43" s="90"/>
+      <c r="A43" s="91"/>
+      <c r="B43" s="91"/>
+      <c r="C43" s="91"/>
       <c r="D43" s="73" t="s">
         <v>85</v>
       </c>
@@ -5751,12 +5754,12 @@
       <c r="L43" s="47" t="s">
         <v>378</v>
       </c>
-      <c r="M43" s="85"/>
+      <c r="M43" s="82"/>
     </row>
     <row r="44" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A44" s="90"/>
-      <c r="B44" s="90"/>
-      <c r="C44" s="90"/>
+      <c r="A44" s="91"/>
+      <c r="B44" s="91"/>
+      <c r="C44" s="91"/>
       <c r="D44" s="73" t="s">
         <v>358</v>
       </c>
@@ -5774,12 +5777,12 @@
       <c r="L44" s="47" t="s">
         <v>363</v>
       </c>
-      <c r="M44" s="85"/>
+      <c r="M44" s="82"/>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A45" s="90"/>
-      <c r="B45" s="90"/>
-      <c r="C45" s="90"/>
+      <c r="A45" s="91"/>
+      <c r="B45" s="91"/>
+      <c r="C45" s="91"/>
       <c r="D45" s="73"/>
       <c r="E45" s="67"/>
       <c r="F45" s="50"/>
@@ -5789,124 +5792,124 @@
       <c r="J45" s="47"/>
       <c r="K45" s="65"/>
       <c r="L45" s="47"/>
-      <c r="M45" s="85"/>
+      <c r="M45" s="82"/>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A46" s="90"/>
-      <c r="B46" s="90"/>
-      <c r="C46" s="90"/>
+      <c r="A46" s="91"/>
+      <c r="B46" s="91"/>
+      <c r="C46" s="91"/>
       <c r="D46" s="73"/>
       <c r="E46" s="67"/>
       <c r="F46" s="50"/>
       <c r="I46" s="65"/>
       <c r="J46" s="47"/>
       <c r="L46" s="47"/>
-      <c r="M46" s="85"/>
+      <c r="M46" s="82"/>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A47" s="90"/>
-      <c r="B47" s="90"/>
-      <c r="C47" s="90"/>
+      <c r="A47" s="91"/>
+      <c r="B47" s="91"/>
+      <c r="C47" s="91"/>
       <c r="D47" s="73"/>
       <c r="E47" s="67"/>
       <c r="F47" s="50"/>
       <c r="I47" s="65"/>
       <c r="J47" s="47"/>
       <c r="L47" s="47"/>
-      <c r="M47" s="85"/>
+      <c r="M47" s="82"/>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A48" s="90"/>
-      <c r="B48" s="90"/>
-      <c r="C48" s="90"/>
+      <c r="A48" s="91"/>
+      <c r="B48" s="91"/>
+      <c r="C48" s="91"/>
       <c r="D48" s="73"/>
       <c r="E48" s="67"/>
       <c r="F48" s="50"/>
       <c r="I48" s="65"/>
       <c r="J48" s="47"/>
       <c r="L48" s="47"/>
-      <c r="M48" s="85"/>
+      <c r="M48" s="82"/>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A49" s="90"/>
-      <c r="B49" s="90"/>
-      <c r="C49" s="90"/>
+      <c r="A49" s="91"/>
+      <c r="B49" s="91"/>
+      <c r="C49" s="91"/>
       <c r="D49" s="73"/>
       <c r="E49" s="67"/>
       <c r="F49" s="50"/>
       <c r="I49" s="65"/>
       <c r="J49" s="47"/>
       <c r="L49" s="47"/>
-      <c r="M49" s="85"/>
+      <c r="M49" s="82"/>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A50" s="90"/>
-      <c r="B50" s="90"/>
-      <c r="C50" s="90"/>
+      <c r="A50" s="91"/>
+      <c r="B50" s="91"/>
+      <c r="C50" s="91"/>
       <c r="D50" s="73"/>
       <c r="E50" s="67"/>
       <c r="F50" s="50"/>
       <c r="I50" s="65"/>
       <c r="J50" s="47"/>
       <c r="L50" s="47"/>
-      <c r="M50" s="85"/>
+      <c r="M50" s="82"/>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A51" s="90"/>
-      <c r="B51" s="90"/>
-      <c r="C51" s="90"/>
+      <c r="A51" s="91"/>
+      <c r="B51" s="91"/>
+      <c r="C51" s="91"/>
       <c r="D51" s="73"/>
       <c r="E51" s="67"/>
       <c r="F51" s="50"/>
       <c r="I51" s="65"/>
       <c r="J51" s="47"/>
       <c r="L51" s="47"/>
-      <c r="M51" s="85"/>
+      <c r="M51" s="82"/>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A52" s="90"/>
-      <c r="B52" s="90"/>
-      <c r="C52" s="90"/>
+      <c r="A52" s="91"/>
+      <c r="B52" s="91"/>
+      <c r="C52" s="91"/>
       <c r="D52" s="73"/>
       <c r="E52" s="67"/>
       <c r="F52" s="50"/>
       <c r="I52" s="65"/>
       <c r="J52" s="47"/>
       <c r="L52" s="47"/>
-      <c r="M52" s="85"/>
+      <c r="M52" s="82"/>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A53" s="90"/>
-      <c r="B53" s="90"/>
-      <c r="C53" s="90"/>
+      <c r="A53" s="91"/>
+      <c r="B53" s="91"/>
+      <c r="C53" s="91"/>
       <c r="D53" s="73"/>
       <c r="E53" s="67"/>
       <c r="F53" s="50"/>
       <c r="I53" s="65"/>
       <c r="J53" s="47"/>
       <c r="L53" s="47"/>
-      <c r="M53" s="85"/>
+      <c r="M53" s="82"/>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A54" s="90"/>
-      <c r="B54" s="90"/>
-      <c r="C54" s="90"/>
+      <c r="A54" s="91"/>
+      <c r="B54" s="91"/>
+      <c r="C54" s="91"/>
       <c r="D54" s="73"/>
       <c r="E54" s="67"/>
       <c r="F54" s="50"/>
       <c r="I54" s="65"/>
       <c r="J54" s="47"/>
       <c r="L54" s="47"/>
-      <c r="M54" s="85"/>
+      <c r="M54" s="82"/>
     </row>
     <row r="55" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A55" s="90" t="s">
+      <c r="A55" s="91" t="s">
         <v>189</v>
       </c>
-      <c r="B55" s="90" t="s">
+      <c r="B55" s="91" t="s">
         <v>256</v>
       </c>
-      <c r="C55" s="90" t="s">
+      <c r="C55" s="91" t="s">
         <v>257</v>
       </c>
       <c r="D55" s="50" t="s">
@@ -5921,14 +5924,14 @@
       <c r="L55" s="66" t="s">
         <v>379</v>
       </c>
-      <c r="M55" s="92" t="s">
+      <c r="M55" s="95" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A56" s="90"/>
-      <c r="B56" s="90"/>
-      <c r="C56" s="90"/>
+      <c r="A56" s="91"/>
+      <c r="B56" s="91"/>
+      <c r="C56" s="91"/>
       <c r="D56" s="50" t="s">
         <v>106</v>
       </c>
@@ -5941,12 +5944,12 @@
       <c r="L56" s="47" t="s">
         <v>379</v>
       </c>
-      <c r="M56" s="85"/>
-    </row>
-    <row r="57" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A57" s="90"/>
-      <c r="B57" s="90"/>
-      <c r="C57" s="90"/>
+      <c r="M56" s="82"/>
+    </row>
+    <row r="57" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A57" s="91"/>
+      <c r="B57" s="91"/>
+      <c r="C57" s="91"/>
       <c r="D57" s="50" t="s">
         <v>107</v>
       </c>
@@ -5961,12 +5964,12 @@
       <c r="L57" s="66" t="s">
         <v>381</v>
       </c>
-      <c r="M57" s="85"/>
+      <c r="M57" s="82"/>
     </row>
     <row r="58" spans="1:13" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A58" s="90"/>
-      <c r="B58" s="90"/>
-      <c r="C58" s="90"/>
+      <c r="A58" s="91"/>
+      <c r="B58" s="91"/>
+      <c r="C58" s="91"/>
       <c r="D58" s="73" t="s">
         <v>108</v>
       </c>
@@ -5981,87 +5984,87 @@
       <c r="L58" s="66" t="s">
         <v>382</v>
       </c>
-      <c r="M58" s="85"/>
+      <c r="M58" s="82"/>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A59" s="90"/>
-      <c r="B59" s="90"/>
-      <c r="C59" s="90"/>
+      <c r="A59" s="91"/>
+      <c r="B59" s="91"/>
+      <c r="C59" s="91"/>
       <c r="D59" s="73"/>
       <c r="E59" s="73"/>
       <c r="F59" s="50"/>
       <c r="I59" s="65"/>
       <c r="J59" s="47"/>
       <c r="L59" s="66"/>
-      <c r="M59" s="85"/>
+      <c r="M59" s="82"/>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A60" s="90"/>
-      <c r="B60" s="90"/>
-      <c r="C60" s="90"/>
+      <c r="A60" s="91"/>
+      <c r="B60" s="91"/>
+      <c r="C60" s="91"/>
       <c r="D60" s="73"/>
       <c r="E60" s="73"/>
       <c r="F60" s="50"/>
       <c r="I60" s="65"/>
       <c r="J60" s="47"/>
       <c r="L60" s="66"/>
-      <c r="M60" s="85"/>
+      <c r="M60" s="82"/>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A61" s="90"/>
-      <c r="B61" s="90"/>
-      <c r="C61" s="90"/>
+      <c r="A61" s="91"/>
+      <c r="B61" s="91"/>
+      <c r="C61" s="91"/>
       <c r="D61" s="73"/>
       <c r="E61" s="73"/>
       <c r="F61" s="50"/>
       <c r="I61" s="65"/>
       <c r="J61" s="47"/>
       <c r="L61" s="66"/>
-      <c r="M61" s="85"/>
+      <c r="M61" s="82"/>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A62" s="90"/>
-      <c r="B62" s="90"/>
-      <c r="C62" s="90"/>
+      <c r="A62" s="91"/>
+      <c r="B62" s="91"/>
+      <c r="C62" s="91"/>
       <c r="D62" s="73"/>
       <c r="E62" s="67"/>
       <c r="F62" s="50"/>
       <c r="I62" s="65"/>
       <c r="J62" s="47"/>
       <c r="L62" s="66"/>
-      <c r="M62" s="85"/>
+      <c r="M62" s="82"/>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A63" s="90"/>
-      <c r="B63" s="90"/>
-      <c r="C63" s="90"/>
+      <c r="A63" s="91"/>
+      <c r="B63" s="91"/>
+      <c r="C63" s="91"/>
       <c r="D63" s="73"/>
       <c r="E63" s="67"/>
       <c r="F63" s="50"/>
       <c r="I63" s="65"/>
       <c r="J63" s="47"/>
       <c r="L63" s="66"/>
-      <c r="M63" s="85"/>
+      <c r="M63" s="82"/>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A64" s="90"/>
-      <c r="B64" s="90"/>
-      <c r="C64" s="90"/>
+      <c r="A64" s="91"/>
+      <c r="B64" s="91"/>
+      <c r="C64" s="91"/>
       <c r="D64" s="73"/>
       <c r="E64" s="73"/>
       <c r="F64" s="50"/>
       <c r="J64" s="47"/>
       <c r="L64" s="66"/>
-      <c r="M64" s="85"/>
+      <c r="M64" s="82"/>
     </row>
     <row r="65" spans="1:13" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A65" s="90" t="s">
+      <c r="A65" s="91" t="s">
         <v>117</v>
       </c>
-      <c r="B65" s="90" t="s">
+      <c r="B65" s="91" t="s">
         <v>279</v>
       </c>
-      <c r="C65" s="90" t="s">
+      <c r="C65" s="91" t="s">
         <v>281</v>
       </c>
       <c r="D65" s="73" t="s">
@@ -6078,54 +6081,54 @@
       <c r="L65" s="66" t="s">
         <v>383</v>
       </c>
-      <c r="M65" s="92" t="s">
+      <c r="M65" s="95" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A66" s="90"/>
-      <c r="B66" s="90"/>
-      <c r="C66" s="90"/>
+      <c r="A66" s="91"/>
+      <c r="B66" s="91"/>
+      <c r="C66" s="91"/>
       <c r="D66" s="73"/>
       <c r="E66" s="73"/>
       <c r="F66" s="73"/>
       <c r="I66" s="65"/>
       <c r="J66" s="47"/>
       <c r="L66" s="66"/>
-      <c r="M66" s="85"/>
+      <c r="M66" s="82"/>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A67" s="90"/>
-      <c r="B67" s="90"/>
-      <c r="C67" s="90"/>
+      <c r="A67" s="91"/>
+      <c r="B67" s="91"/>
+      <c r="C67" s="91"/>
       <c r="D67" s="73"/>
       <c r="E67" s="73"/>
       <c r="F67" s="50"/>
       <c r="I67" s="65"/>
       <c r="J67" s="47"/>
       <c r="L67" s="66"/>
-      <c r="M67" s="85"/>
+      <c r="M67" s="82"/>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A68" s="90"/>
-      <c r="B68" s="90"/>
-      <c r="C68" s="90"/>
+      <c r="A68" s="91"/>
+      <c r="B68" s="91"/>
+      <c r="C68" s="91"/>
       <c r="D68" s="73"/>
       <c r="E68" s="73"/>
       <c r="F68" s="50"/>
       <c r="I68" s="65"/>
       <c r="J68" s="47"/>
       <c r="L68" s="66"/>
-      <c r="M68" s="85"/>
-    </row>
-    <row r="69" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A69" s="90" t="s">
+      <c r="M68" s="82"/>
+    </row>
+    <row r="69" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A69" s="91" t="s">
         <v>125</v>
       </c>
-      <c r="B69" s="90" t="s">
+      <c r="B69" s="91" t="s">
         <v>280</v>
       </c>
-      <c r="C69" s="90" t="s">
+      <c r="C69" s="91" t="s">
         <v>258</v>
       </c>
       <c r="D69" s="50" t="s">
@@ -6144,14 +6147,14 @@
       <c r="L69" s="66" t="s">
         <v>382</v>
       </c>
-      <c r="M69" s="84" t="s">
+      <c r="M69" s="81" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="70" spans="1:13" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A70" s="90"/>
-      <c r="B70" s="85"/>
-      <c r="C70" s="85"/>
+      <c r="A70" s="91"/>
+      <c r="B70" s="82"/>
+      <c r="C70" s="82"/>
       <c r="D70" s="50" t="s">
         <v>127</v>
       </c>
@@ -6169,12 +6172,12 @@
       <c r="L70" s="66" t="s">
         <v>381</v>
       </c>
-      <c r="M70" s="85"/>
+      <c r="M70" s="82"/>
     </row>
     <row r="71" spans="1:13" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A71" s="90"/>
-      <c r="B71" s="85"/>
-      <c r="C71" s="85"/>
+      <c r="A71" s="91"/>
+      <c r="B71" s="82"/>
+      <c r="C71" s="82"/>
       <c r="D71" s="50" t="s">
         <v>128</v>
       </c>
@@ -6191,72 +6194,72 @@
         <v>303</v>
       </c>
       <c r="L71" s="47"/>
-      <c r="M71" s="85"/>
+      <c r="M71" s="82"/>
     </row>
     <row r="72" spans="1:13" s="44" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="90"/>
-      <c r="B72" s="85"/>
-      <c r="C72" s="85"/>
+      <c r="A72" s="91"/>
+      <c r="B72" s="82"/>
+      <c r="C72" s="82"/>
       <c r="D72" s="43"/>
       <c r="E72" s="73"/>
       <c r="F72" s="56"/>
       <c r="I72" s="65"/>
       <c r="J72" s="47"/>
       <c r="L72" s="47"/>
-      <c r="M72" s="85"/>
+      <c r="M72" s="82"/>
     </row>
     <row r="73" spans="1:13" s="44" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="90"/>
-      <c r="B73" s="85"/>
-      <c r="C73" s="85"/>
+      <c r="A73" s="91"/>
+      <c r="B73" s="82"/>
+      <c r="C73" s="82"/>
       <c r="D73" s="43"/>
       <c r="E73" s="73"/>
       <c r="F73" s="56"/>
       <c r="I73" s="65"/>
       <c r="J73" s="47"/>
       <c r="L73" s="47"/>
-      <c r="M73" s="85"/>
+      <c r="M73" s="82"/>
     </row>
     <row r="74" spans="1:13" s="44" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="90"/>
-      <c r="B74" s="85"/>
-      <c r="C74" s="85"/>
+      <c r="A74" s="91"/>
+      <c r="B74" s="82"/>
+      <c r="C74" s="82"/>
       <c r="D74" s="43"/>
       <c r="E74" s="73"/>
       <c r="F74" s="56"/>
       <c r="I74" s="65"/>
       <c r="J74" s="47"/>
       <c r="L74" s="47"/>
-      <c r="M74" s="85"/>
+      <c r="M74" s="82"/>
     </row>
     <row r="75" spans="1:13" s="44" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="90"/>
-      <c r="B75" s="85"/>
-      <c r="C75" s="85"/>
+      <c r="A75" s="91"/>
+      <c r="B75" s="82"/>
+      <c r="C75" s="82"/>
       <c r="D75" s="43"/>
       <c r="E75" s="67"/>
       <c r="F75" s="56"/>
       <c r="I75" s="65"/>
       <c r="J75" s="47"/>
       <c r="L75" s="47"/>
-      <c r="M75" s="85"/>
+      <c r="M75" s="82"/>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A76" s="90"/>
-      <c r="B76" s="85"/>
-      <c r="C76" s="85"/>
+      <c r="A76" s="91"/>
+      <c r="B76" s="82"/>
+      <c r="C76" s="82"/>
       <c r="D76" s="42"/>
       <c r="F76" s="56"/>
-      <c r="M76" s="85"/>
+      <c r="M76" s="82"/>
     </row>
     <row r="77" spans="1:13" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A77" s="90" t="s">
+      <c r="A77" s="91" t="s">
         <v>132</v>
       </c>
-      <c r="B77" s="90" t="s">
+      <c r="B77" s="91" t="s">
         <v>259</v>
       </c>
-      <c r="C77" s="90" t="s">
+      <c r="C77" s="91" t="s">
         <v>260</v>
       </c>
       <c r="D77" s="50" t="s">
@@ -6277,14 +6280,14 @@
       <c r="L77" s="66" t="s">
         <v>382</v>
       </c>
-      <c r="M77" s="92" t="s">
+      <c r="M77" s="95" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="78" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A78" s="90"/>
-      <c r="B78" s="90"/>
-      <c r="C78" s="90"/>
+    <row r="78" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A78" s="91"/>
+      <c r="B78" s="91"/>
+      <c r="C78" s="91"/>
       <c r="E78" s="67"/>
       <c r="F78" s="56"/>
       <c r="I78" s="65"/>
@@ -6292,16 +6295,16 @@
       <c r="L78" s="66" t="s">
         <v>385</v>
       </c>
-      <c r="M78" s="85"/>
+      <c r="M78" s="82"/>
     </row>
     <row r="79" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A79" s="90" t="s">
+      <c r="A79" s="91" t="s">
         <v>141</v>
       </c>
-      <c r="B79" s="90" t="s">
+      <c r="B79" s="91" t="s">
         <v>261</v>
       </c>
-      <c r="C79" s="90" t="s">
+      <c r="C79" s="91" t="s">
         <v>262</v>
       </c>
       <c r="D79" s="73" t="s">
@@ -6316,47 +6319,47 @@
       <c r="L79" s="66" t="s">
         <v>385</v>
       </c>
-      <c r="M79" s="92" t="s">
+      <c r="M79" s="95" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A80" s="90"/>
-      <c r="B80" s="90"/>
-      <c r="C80" s="90"/>
+      <c r="A80" s="91"/>
+      <c r="B80" s="91"/>
+      <c r="C80" s="91"/>
       <c r="D80" s="73"/>
       <c r="E80" s="67"/>
       <c r="F80" s="73"/>
       <c r="I80" s="65"/>
       <c r="J80" s="66"/>
       <c r="L80" s="66"/>
-      <c r="M80" s="85"/>
+      <c r="M80" s="82"/>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A81" s="90"/>
-      <c r="B81" s="90"/>
-      <c r="C81" s="90"/>
+      <c r="A81" s="91"/>
+      <c r="B81" s="91"/>
+      <c r="C81" s="91"/>
       <c r="D81" s="73"/>
       <c r="E81" s="67"/>
       <c r="F81" s="73"/>
       <c r="I81" s="65"/>
       <c r="J81" s="66"/>
       <c r="L81" s="66"/>
-      <c r="M81" s="85"/>
+      <c r="M81" s="82"/>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A82" s="90"/>
-      <c r="B82" s="90"/>
-      <c r="C82" s="90"/>
+      <c r="A82" s="91"/>
+      <c r="B82" s="91"/>
+      <c r="C82" s="91"/>
       <c r="D82" s="73"/>
       <c r="E82" s="67"/>
       <c r="F82" s="73"/>
       <c r="I82" s="65"/>
       <c r="J82" s="66"/>
       <c r="L82" s="66"/>
-      <c r="M82" s="85"/>
-    </row>
-    <row r="83" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="M82" s="82"/>
+    </row>
+    <row r="83" spans="1:13" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A83" s="49" t="s">
         <v>146</v>
       </c>
@@ -6383,13 +6386,13 @@
       </c>
     </row>
     <row r="84" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A84" s="90" t="s">
+      <c r="A84" s="91" t="s">
         <v>263</v>
       </c>
-      <c r="B84" s="90" t="s">
+      <c r="B84" s="91" t="s">
         <v>264</v>
       </c>
-      <c r="C84" s="90" t="s">
+      <c r="C84" s="91" t="s">
         <v>265</v>
       </c>
       <c r="D84" s="50" t="s">
@@ -6404,14 +6407,14 @@
       <c r="L84" s="66" t="s">
         <v>271</v>
       </c>
-      <c r="M84" s="84" t="s">
+      <c r="M84" s="81" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="85" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A85" s="90"/>
-      <c r="B85" s="80"/>
-      <c r="C85" s="80"/>
+      <c r="A85" s="91"/>
+      <c r="B85" s="85"/>
+      <c r="C85" s="85"/>
       <c r="D85" s="73" t="s">
         <v>153</v>
       </c>
@@ -6428,12 +6431,12 @@
       <c r="L85" s="66" t="s">
         <v>271</v>
       </c>
-      <c r="M85" s="85"/>
+      <c r="M85" s="82"/>
     </row>
     <row r="86" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A86" s="90"/>
-      <c r="B86" s="80"/>
-      <c r="C86" s="80"/>
+      <c r="A86" s="91"/>
+      <c r="B86" s="85"/>
+      <c r="C86" s="85"/>
       <c r="D86" s="73"/>
       <c r="E86" s="67"/>
       <c r="F86" s="73"/>
@@ -6442,12 +6445,12 @@
       <c r="L86" s="66" t="s">
         <v>271</v>
       </c>
-      <c r="M86" s="85"/>
+      <c r="M86" s="82"/>
     </row>
     <row r="87" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A87" s="90"/>
-      <c r="B87" s="80"/>
-      <c r="C87" s="80"/>
+      <c r="A87" s="91"/>
+      <c r="B87" s="85"/>
+      <c r="C87" s="85"/>
       <c r="D87" s="73"/>
       <c r="E87" s="67"/>
       <c r="F87" s="73"/>
@@ -6456,12 +6459,12 @@
       <c r="L87" s="66" t="s">
         <v>271</v>
       </c>
-      <c r="M87" s="85"/>
+      <c r="M87" s="82"/>
     </row>
     <row r="88" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A88" s="90"/>
-      <c r="B88" s="80"/>
-      <c r="C88" s="80"/>
+      <c r="A88" s="91"/>
+      <c r="B88" s="85"/>
+      <c r="C88" s="85"/>
       <c r="D88" s="73"/>
       <c r="E88" s="67"/>
       <c r="F88" s="73"/>
@@ -6470,12 +6473,12 @@
       <c r="L88" s="66" t="s">
         <v>271</v>
       </c>
-      <c r="M88" s="85"/>
+      <c r="M88" s="82"/>
     </row>
     <row r="89" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A89" s="90"/>
-      <c r="B89" s="80"/>
-      <c r="C89" s="80"/>
+      <c r="A89" s="91"/>
+      <c r="B89" s="85"/>
+      <c r="C89" s="85"/>
       <c r="D89" s="73"/>
       <c r="E89" s="67"/>
       <c r="F89" s="73"/>
@@ -6484,7 +6487,7 @@
       <c r="L89" s="66" t="s">
         <v>271</v>
       </c>
-      <c r="M89" s="85"/>
+      <c r="M89" s="82"/>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A90" s="57"/>
@@ -6552,6 +6555,57 @@
   </sheetData>
   <autoFilter ref="A1:M89" xr:uid="{FE8A9026-FDB0-4A8E-BB8F-FE98E3487D08}"/>
   <mergeCells count="67">
+    <mergeCell ref="G10:G12"/>
+    <mergeCell ref="L10:L12"/>
+    <mergeCell ref="K10:K12"/>
+    <mergeCell ref="J10:J12"/>
+    <mergeCell ref="I10:I12"/>
+    <mergeCell ref="H10:H12"/>
+    <mergeCell ref="C84:C89"/>
+    <mergeCell ref="C77:C78"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="B40:B54"/>
+    <mergeCell ref="C40:C54"/>
+    <mergeCell ref="B55:B64"/>
+    <mergeCell ref="C55:C64"/>
+    <mergeCell ref="B79:B82"/>
+    <mergeCell ref="C79:C82"/>
+    <mergeCell ref="B65:B68"/>
+    <mergeCell ref="C65:C68"/>
+    <mergeCell ref="B69:B76"/>
+    <mergeCell ref="C69:C76"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="A69:A76"/>
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="A79:A82"/>
+    <mergeCell ref="A84:A89"/>
+    <mergeCell ref="B84:B89"/>
+    <mergeCell ref="A65:A68"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="B30:B37"/>
+    <mergeCell ref="C30:C37"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="A30:A37"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A40:A54"/>
+    <mergeCell ref="A55:A64"/>
+    <mergeCell ref="C10:C16"/>
+    <mergeCell ref="B17:B25"/>
+    <mergeCell ref="C17:C25"/>
+    <mergeCell ref="F4:F8"/>
+    <mergeCell ref="F10:F12"/>
+    <mergeCell ref="D4:D8"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="E4:E8"/>
+    <mergeCell ref="E10:E12"/>
+    <mergeCell ref="M84:M89"/>
+    <mergeCell ref="M38:M39"/>
+    <mergeCell ref="M40:M54"/>
+    <mergeCell ref="M55:M64"/>
+    <mergeCell ref="M65:M68"/>
+    <mergeCell ref="M69:M76"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
@@ -6568,57 +6622,6 @@
     <mergeCell ref="B4:B9"/>
     <mergeCell ref="C4:C9"/>
     <mergeCell ref="B10:B16"/>
-    <mergeCell ref="M84:M89"/>
-    <mergeCell ref="M38:M39"/>
-    <mergeCell ref="M40:M54"/>
-    <mergeCell ref="M55:M64"/>
-    <mergeCell ref="M65:M68"/>
-    <mergeCell ref="M69:M76"/>
-    <mergeCell ref="C10:C16"/>
-    <mergeCell ref="B17:B25"/>
-    <mergeCell ref="C17:C25"/>
-    <mergeCell ref="F4:F8"/>
-    <mergeCell ref="F10:F12"/>
-    <mergeCell ref="D4:D8"/>
-    <mergeCell ref="D10:D12"/>
-    <mergeCell ref="E4:E8"/>
-    <mergeCell ref="E10:E12"/>
-    <mergeCell ref="A65:A68"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="C26:C29"/>
-    <mergeCell ref="B30:B37"/>
-    <mergeCell ref="C30:C37"/>
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="A30:A37"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="A40:A54"/>
-    <mergeCell ref="A55:A64"/>
-    <mergeCell ref="A69:A76"/>
-    <mergeCell ref="A77:A78"/>
-    <mergeCell ref="A79:A82"/>
-    <mergeCell ref="A84:A89"/>
-    <mergeCell ref="B84:B89"/>
-    <mergeCell ref="C84:C89"/>
-    <mergeCell ref="C77:C78"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="B40:B54"/>
-    <mergeCell ref="C40:C54"/>
-    <mergeCell ref="B55:B64"/>
-    <mergeCell ref="C55:C64"/>
-    <mergeCell ref="B79:B82"/>
-    <mergeCell ref="C79:C82"/>
-    <mergeCell ref="B65:B68"/>
-    <mergeCell ref="C65:C68"/>
-    <mergeCell ref="B69:B76"/>
-    <mergeCell ref="C69:C76"/>
-    <mergeCell ref="B77:B78"/>
-    <mergeCell ref="G10:G12"/>
-    <mergeCell ref="L10:L12"/>
-    <mergeCell ref="K10:K12"/>
-    <mergeCell ref="J10:J12"/>
-    <mergeCell ref="I10:I12"/>
-    <mergeCell ref="H10:H12"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="M2" r:id="rId1" display="https://www.nuplazidhcp.com/about-pd-psychosis" xr:uid="{00000000-0004-0000-0200-000000000000}"/>

--- a/Corpus/MLR_Corpus.xlsx
+++ b/Corpus/MLR_Corpus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Siva\Projects\Acadia\Chatbot_Git\Masori-Chatbot-Dev\Corpus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD3CA968-D292-44EA-BFD4-BDAB8B2C31AA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD11220E-73AA-4049-80F4-6BCA6C770972}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,6 @@
     <author>tc={2B46EE82-DD41-45F9-B431-51F301EDCADE}</author>
     <author>tc={190DBEEA-93D9-4BFD-AD5C-1FA3C401F8CC}</author>
     <author>tc={6174D911-122C-4454-8324-AF7C643C4042}</author>
-    <author>tc={3CD3324B-6AA3-457C-8A88-32330C9035AE}</author>
     <author>tc={C6BC059E-DDFE-4471-8AF3-B08E62FA3401}</author>
     <author>tc={97A1DE64-2A59-4152-9781-91195D1F313C}</author>
   </authors>
@@ -172,7 +171,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E24" authorId="7" shapeId="0" xr:uid="{3CD3324B-6AA3-457C-8A88-32330C9035AE}">
+    <comment ref="D25" authorId="7" shapeId="0" xr:uid="{C6BC059E-DDFE-4471-8AF3-B08E62FA3401}">
       <text>
         <r>
           <rPr>
@@ -189,24 +188,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D25" authorId="8" shapeId="0" xr:uid="{C6BC059E-DDFE-4471-8AF3-B08E62FA3401}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    I recommend to have "Acadia Connect and delete any mention of Nuplazid Connect.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E27" authorId="9" shapeId="0" xr:uid="{97A1DE64-2A59-4152-9781-91195D1F313C}">
+    <comment ref="E27" authorId="8" shapeId="0" xr:uid="{97A1DE64-2A59-4152-9781-91195D1F313C}">
       <text>
         <r>
           <rPr>
@@ -425,7 +407,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="407">
   <si>
     <t>Keywords</t>
   </si>
@@ -958,9 +940,6 @@
   </si>
   <si>
     <t>About Nuplazid</t>
-  </si>
-  <si>
-    <t>NUPLAZID medication</t>
   </si>
   <si>
     <t>About Parkinson’s Disease</t>
@@ -989,9 +968,6 @@
   </si>
   <si>
     <t>Prescribe Information</t>
-  </si>
-  <si>
-    <t>NUPLAZID prescribing</t>
   </si>
   <si>
     <t>NUPLAZID dosage options</t>
@@ -1139,9 +1115,6 @@
   </si>
   <si>
     <t>PD–related hallucinations and delusions typically occur in the later stages of PD, 10 or more years after initial diagnosis.</t>
-  </si>
-  <si>
-    <t>NUPLAZID may help to reduce the frequency and/or the severity of hallucinations and delusions associated with Parkinson's disease psychosis. Individual results may vary</t>
   </si>
   <si>
     <t>NUPLAZID may begin to reduce hallucinations and delusions as soon as 4 weeks, but it may take up to 6 weeks to feel the full effect. You should speak with your healthcare provider before you stop taking NUPLAZID</t>
@@ -1876,6 +1849,36 @@
   </si>
   <si>
     <t>https://nuplazid-masori.azurewebsites.net/support-and-resources#sign-up-stay-informed</t>
+  </si>
+  <si>
+    <t>NUPLAZID may help to reduce the frequency and/or the severity of hallucinations and delusions associated with Parkinson's disease psychosis. Individual results may vary.</t>
+  </si>
+  <si>
+    <t>About NUPLAZID medication</t>
+  </si>
+  <si>
+    <t>symptoms &amp; potential causes
+Parkinson hallucination
+Parkinson delusions</t>
+  </si>
+  <si>
+    <t>NUPLAZID cost
+NUPLAZID coverage</t>
+  </si>
+  <si>
+    <t>NUPLAZID prescribing information</t>
+  </si>
+  <si>
+    <t>Support
+Acadia Connect</t>
+  </si>
+  <si>
+    <t>Doctor discussion guide
+delusions associated with PD psychosis</t>
+  </si>
+  <si>
+    <t>Acadia Connect
+Patient Enrollment Form</t>
   </si>
 </sst>
 </file>
@@ -2147,6 +2150,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2159,16 +2172,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2178,6 +2181,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2186,15 +2198,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2574,9 +2577,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E35" sqref="E35"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2596,60 +2599,60 @@
         <v>1</v>
       </c>
       <c r="B1" s="45" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C1" s="45" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D1" s="51" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E1" s="51" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G1" s="45" t="s">
+        <v>292</v>
+      </c>
+      <c r="H1" s="45" t="s">
+        <v>293</v>
+      </c>
+      <c r="I1" s="45" t="s">
+        <v>294</v>
+      </c>
+      <c r="J1" s="45" t="s">
         <v>295</v>
       </c>
-      <c r="H1" s="45" t="s">
+      <c r="K1" s="45" t="s">
         <v>296</v>
       </c>
-      <c r="I1" s="45" t="s">
-        <v>297</v>
-      </c>
-      <c r="J1" s="45" t="s">
-        <v>298</v>
-      </c>
-      <c r="K1" s="45" t="s">
-        <v>299</v>
-      </c>
       <c r="L1" s="45" t="s">
+        <v>303</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" s="31" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="A2" s="83" t="s">
+        <v>226</v>
+      </c>
+      <c r="B2" s="83" t="s">
+        <v>231</v>
+      </c>
+      <c r="C2" s="83" t="s">
+        <v>270</v>
+      </c>
+      <c r="D2" s="57" t="s">
         <v>306</v>
       </c>
-      <c r="M1" s="2" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" s="31" customFormat="1" ht="72" x14ac:dyDescent="0.3">
-      <c r="A2" s="86" t="s">
-        <v>229</v>
-      </c>
-      <c r="B2" s="86" t="s">
-        <v>234</v>
-      </c>
-      <c r="C2" s="86" t="s">
-        <v>273</v>
-      </c>
-      <c r="D2" s="57" t="s">
-        <v>309</v>
-      </c>
       <c r="E2" s="71" t="s">
-        <v>10</v>
+        <v>401</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G2" s="65"/>
       <c r="H2" s="65"/>
@@ -2657,49 +2660,49 @@
       <c r="J2" s="65"/>
       <c r="K2" s="65"/>
       <c r="L2" s="66" t="s">
-        <v>389</v>
-      </c>
-      <c r="M2" s="84" t="s">
-        <v>389</v>
+        <v>386</v>
+      </c>
+      <c r="M2" s="88" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="3" spans="1:13" s="31" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A3" s="87"/>
-      <c r="B3" s="85"/>
-      <c r="C3" s="87"/>
+      <c r="A3" s="84"/>
+      <c r="B3" s="81"/>
+      <c r="C3" s="84"/>
       <c r="D3" s="57" t="s">
         <v>10</v>
       </c>
       <c r="E3" s="71" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="F3" s="32" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="G3" s="65" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="H3" s="65"/>
       <c r="I3" s="65"/>
       <c r="J3" s="65"/>
       <c r="K3" s="65"/>
       <c r="L3" s="66" t="s">
-        <v>389</v>
-      </c>
-      <c r="M3" s="82"/>
+        <v>386</v>
+      </c>
+      <c r="M3" s="86"/>
     </row>
     <row r="4" spans="1:13" s="31" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="